--- a/Data/National Accounts/PSA-17FIA_2018PSNA_Qrt.xlsx
+++ b/Data/National Accounts/PSA-17FIA_2018PSNA_Qrt.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DELL\Desktop\0. IAD activities\6. MAS_Series\2018-base\NAP\NAP detailed series as of August 2021\Qtr\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DELL\Desktop\0. IAD activities\6. MAS_Series\2018-base\NAP\NAP detailed series as of November 2021\Qtr\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -457,7 +457,7 @@
     <definedName name="x0713t6a">#REF!</definedName>
     <definedName name="x0713t8a">#REF!</definedName>
   </definedNames>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="152511" calcMode="manual"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -467,7 +467,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="728" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="735" uniqueCount="53">
   <si>
     <t>Source: Philippine Statistics Authority</t>
   </si>
@@ -620,13 +620,13 @@
     <t>2021 - 2021</t>
   </si>
   <si>
-    <t>As of August 2021</t>
+    <t>As of November 2021</t>
   </si>
   <si>
-    <t>Q1 2000 to Q2 2021</t>
+    <t>Q1 2000 to Q3 2021</t>
   </si>
   <si>
-    <t>Q1 2001 to Q2 2021</t>
+    <t>Q1 2001 to Q3 2021</t>
   </si>
 </sst>
 </file>
@@ -23607,11 +23607,11 @@
   <sheetPr transitionEvaluation="1">
     <pageSetUpPr autoPageBreaks="0"/>
   </sheetPr>
-  <dimension ref="A1:EX145"/>
+  <dimension ref="A1:EX144"/>
   <sheetViews>
-    <sheetView tabSelected="1" defaultGridColor="0" view="pageBreakPreview" colorId="22" zoomScale="90" zoomScaleNormal="100" zoomScaleSheetLayoutView="90" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="BT1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" defaultGridColor="0" view="pageBreakPreview" colorId="22" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="BY1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="BZ21" sqref="BZ21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="7.81640625" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -23620,8 +23620,8 @@
     <col min="2" max="77" width="8.90625" style="1" customWidth="1"/>
     <col min="78" max="78" width="9.81640625" style="1" bestFit="1" customWidth="1"/>
     <col min="79" max="81" width="8.90625" style="1" customWidth="1"/>
-    <col min="82" max="87" width="8.90625" style="15" customWidth="1"/>
-    <col min="88" max="16384" width="7.81640625" style="1"/>
+    <col min="82" max="88" width="10.54296875" style="15" customWidth="1"/>
+    <col min="89" max="16384" width="7.81640625" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:154" x14ac:dyDescent="0.25">
@@ -23786,6 +23786,7 @@
         <v>2021</v>
       </c>
       <c r="CI9" s="25"/>
+      <c r="CJ9" s="25"/>
     </row>
     <row r="10" spans="1:154" x14ac:dyDescent="0.25">
       <c r="A10" s="5" t="s">
@@ -24048,6 +24049,9 @@
       </c>
       <c r="CI10" s="16" t="s">
         <v>8</v>
+      </c>
+      <c r="CJ10" s="16" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="11" spans="1:154" ht="10.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -24313,9 +24317,11 @@
         <v>285811.80137279734</v>
       </c>
       <c r="CI12" s="17">
-        <v>241523.2867270569</v>
-      </c>
-      <c r="CJ12" s="9"/>
+        <v>241270.72470107194</v>
+      </c>
+      <c r="CJ12" s="17">
+        <v>257311.57169582046</v>
+      </c>
       <c r="CK12" s="9"/>
       <c r="CL12" s="9"/>
       <c r="CM12" s="9"/>
@@ -24643,9 +24649,11 @@
         <v>119209.24000858559</v>
       </c>
       <c r="CI13" s="17">
-        <v>186950.37360485498</v>
-      </c>
-      <c r="CJ13" s="9"/>
+        <v>185594.02999873378</v>
+      </c>
+      <c r="CJ13" s="17">
+        <v>124730.14399156618</v>
+      </c>
       <c r="CK13" s="9"/>
       <c r="CL13" s="9"/>
       <c r="CM13" s="9"/>
@@ -24973,9 +24981,11 @@
         <v>64958.664094635562</v>
       </c>
       <c r="CI14" s="17">
-        <v>55425.600464079893</v>
-      </c>
-      <c r="CJ14" s="9"/>
+        <v>61694.814736513654</v>
+      </c>
+      <c r="CJ14" s="17">
+        <v>73171.229689255837</v>
+      </c>
       <c r="CK14" s="9"/>
       <c r="CL14" s="9"/>
       <c r="CM14" s="9"/>
@@ -25303,9 +25313,11 @@
         <v>24004.941405557605</v>
       </c>
       <c r="CI15" s="17">
-        <v>27273.431833858704</v>
-      </c>
-      <c r="CJ15" s="9"/>
+        <v>27273.431823550629</v>
+      </c>
+      <c r="CJ15" s="17">
+        <v>22938.949970989983</v>
+      </c>
       <c r="CK15" s="9"/>
       <c r="CL15" s="9"/>
       <c r="CM15" s="9"/>
@@ -25460,7 +25472,7 @@
       <c r="CG16" s="18"/>
       <c r="CH16" s="18"/>
       <c r="CI16" s="18"/>
-      <c r="CJ16" s="9"/>
+      <c r="CJ16" s="18"/>
       <c r="CK16" s="9"/>
       <c r="CL16" s="9"/>
       <c r="CM16" s="9"/>
@@ -25788,9 +25800,11 @@
         <v>493984.64688157616</v>
       </c>
       <c r="CI17" s="19">
-        <v>511172.69262985047</v>
-      </c>
-      <c r="CJ17" s="9"/>
+        <v>515833.00125987001</v>
+      </c>
+      <c r="CJ17" s="19">
+        <v>478151.89534763247</v>
+      </c>
       <c r="CK17" s="9"/>
       <c r="CL17" s="9"/>
       <c r="CM17" s="9"/>
@@ -25946,6 +25960,7 @@
       <c r="CG18" s="20"/>
       <c r="CH18" s="20"/>
       <c r="CI18" s="20"/>
+      <c r="CJ18" s="20"/>
     </row>
     <row r="19" spans="1:154" x14ac:dyDescent="0.25">
       <c r="A19" s="13" t="s">
@@ -26039,7 +26054,7 @@
       <c r="CG20" s="18"/>
       <c r="CH20" s="18"/>
       <c r="CI20" s="18"/>
-      <c r="CJ20" s="9"/>
+      <c r="CJ20" s="18"/>
       <c r="CK20" s="9"/>
       <c r="CL20" s="9"/>
       <c r="CM20" s="9"/>
@@ -26194,7 +26209,7 @@
       <c r="CG21" s="18"/>
       <c r="CH21" s="18"/>
       <c r="CI21" s="18"/>
-      <c r="CJ21" s="9"/>
+      <c r="CJ21" s="18"/>
       <c r="CK21" s="9"/>
       <c r="CL21" s="9"/>
       <c r="CM21" s="9"/>
@@ -26426,6 +26441,7 @@
       <c r="CI30" s="25">
         <v>0</v>
       </c>
+      <c r="CJ30" s="25"/>
     </row>
     <row r="31" spans="1:154" x14ac:dyDescent="0.25">
       <c r="A31" s="5" t="s">
@@ -26688,6 +26704,9 @@
       </c>
       <c r="CI31" s="16" t="s">
         <v>8</v>
+      </c>
+      <c r="CJ31" s="16" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="32" spans="1:154" ht="10.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -26953,9 +26972,11 @@
         <v>270716.06409452826</v>
       </c>
       <c r="CI33" s="17">
-        <v>226489.26812140859</v>
-      </c>
-      <c r="CJ33" s="9"/>
+        <v>226252.42729272667</v>
+      </c>
+      <c r="CJ33" s="17">
+        <v>243620.23031118434</v>
+      </c>
       <c r="CK33" s="9"/>
       <c r="CL33" s="9"/>
       <c r="CM33" s="9"/>
@@ -27283,9 +27304,11 @@
         <v>111593.18536011013</v>
       </c>
       <c r="CI34" s="17">
-        <v>177766.63062916501</v>
-      </c>
-      <c r="CJ34" s="9"/>
+        <v>176476.91599620474</v>
+      </c>
+      <c r="CJ34" s="17">
+        <v>119236.12929198</v>
+      </c>
       <c r="CK34" s="9"/>
       <c r="CL34" s="9"/>
       <c r="CM34" s="9"/>
@@ -27613,9 +27636,11 @@
         <v>59873.736669268736</v>
       </c>
       <c r="CI35" s="17">
-        <v>53868.59064128418</v>
-      </c>
-      <c r="CJ35" s="9"/>
+        <v>59961.690809343389</v>
+      </c>
+      <c r="CJ35" s="17">
+        <v>71037.782844400295</v>
+      </c>
       <c r="CK35" s="9"/>
       <c r="CL35" s="9"/>
       <c r="CM35" s="9"/>
@@ -27945,7 +27970,9 @@
       <c r="CI36" s="17">
         <v>25613.466778659378</v>
       </c>
-      <c r="CJ36" s="9"/>
+      <c r="CJ36" s="17">
+        <v>21608.562074830843</v>
+      </c>
       <c r="CK36" s="9"/>
       <c r="CL36" s="9"/>
       <c r="CM36" s="9"/>
@@ -28100,7 +28127,7 @@
       <c r="CG37" s="18"/>
       <c r="CH37" s="18"/>
       <c r="CI37" s="18"/>
-      <c r="CJ37" s="9"/>
+      <c r="CJ37" s="18"/>
       <c r="CK37" s="9"/>
       <c r="CL37" s="9"/>
       <c r="CM37" s="9"/>
@@ -28428,9 +28455,11 @@
         <v>464504.39047525986</v>
       </c>
       <c r="CI38" s="19">
-        <v>483737.95617051719</v>
-      </c>
-      <c r="CJ38" s="9"/>
+        <v>488304.50087693415</v>
+      </c>
+      <c r="CJ38" s="19">
+        <v>455502.70452239551</v>
+      </c>
       <c r="CK38" s="9"/>
       <c r="CL38" s="9"/>
       <c r="CM38" s="9"/>
@@ -28586,6 +28615,7 @@
       <c r="CG39" s="20"/>
       <c r="CH39" s="20"/>
       <c r="CI39" s="20"/>
+      <c r="CJ39" s="20"/>
     </row>
     <row r="40" spans="1:154" x14ac:dyDescent="0.25">
       <c r="A40" s="13" t="s">
@@ -28679,7 +28709,7 @@
       <c r="CG41" s="18"/>
       <c r="CH41" s="18"/>
       <c r="CI41" s="18"/>
-      <c r="CJ41" s="9"/>
+      <c r="CJ41" s="18"/>
       <c r="CK41" s="9"/>
       <c r="CL41" s="9"/>
       <c r="CM41" s="9"/>
@@ -28834,7 +28864,7 @@
       <c r="CG42" s="18"/>
       <c r="CH42" s="18"/>
       <c r="CI42" s="18"/>
-      <c r="CJ42" s="9"/>
+      <c r="CJ42" s="18"/>
       <c r="CK42" s="9"/>
       <c r="CL42" s="9"/>
       <c r="CM42" s="9"/>
@@ -29064,6 +29094,7 @@
       <c r="CG51" s="21"/>
       <c r="CH51" s="21"/>
       <c r="CI51" s="21"/>
+      <c r="CJ51" s="21"/>
     </row>
     <row r="52" spans="1:150" x14ac:dyDescent="0.25">
       <c r="A52" s="5" t="s">
@@ -29315,10 +29346,13 @@
       <c r="CE52" s="24" t="s">
         <v>8</v>
       </c>
-      <c r="CF52" s="22"/>
+      <c r="CF52" s="24" t="s">
+        <v>10</v>
+      </c>
       <c r="CG52" s="22"/>
       <c r="CH52" s="22"/>
       <c r="CI52" s="22"/>
+      <c r="CJ52" s="22"/>
     </row>
     <row r="53" spans="1:150" ht="10.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="7"/>
@@ -29571,13 +29605,15 @@
         <v>8.9719890889975176</v>
       </c>
       <c r="CE54" s="23">
-        <v>5.8324372569886549</v>
-      </c>
-      <c r="CF54" s="18"/>
+        <v>5.7217677843644452</v>
+      </c>
+      <c r="CF54" s="23">
+        <v>5.3081210752325347</v>
+      </c>
       <c r="CG54" s="18"/>
       <c r="CH54" s="18"/>
       <c r="CI54" s="18"/>
-      <c r="CJ54" s="9"/>
+      <c r="CJ54" s="18"/>
       <c r="CK54" s="9"/>
       <c r="CL54" s="9"/>
       <c r="CM54" s="9"/>
@@ -29889,13 +29925,15 @@
         <v>7.6761047665870166</v>
       </c>
       <c r="CE55" s="23">
-        <v>9.595319012452876</v>
-      </c>
-      <c r="CF55" s="18"/>
+        <v>8.8001940424565817</v>
+      </c>
+      <c r="CF55" s="23">
+        <v>5.4559829206117598</v>
+      </c>
       <c r="CG55" s="18"/>
       <c r="CH55" s="18"/>
       <c r="CI55" s="18"/>
-      <c r="CJ55" s="9"/>
+      <c r="CJ55" s="18"/>
       <c r="CK55" s="9"/>
       <c r="CL55" s="9"/>
       <c r="CM55" s="9"/>
@@ -30207,13 +30245,15 @@
         <v>7.0579821087953292</v>
       </c>
       <c r="CE56" s="23">
-        <v>6.3464325174074503</v>
-      </c>
-      <c r="CF56" s="18"/>
+        <v>18.375324707625992</v>
+      </c>
+      <c r="CF56" s="23">
+        <v>27.683329190340771</v>
+      </c>
       <c r="CG56" s="18"/>
       <c r="CH56" s="18"/>
       <c r="CI56" s="18"/>
-      <c r="CJ56" s="9"/>
+      <c r="CJ56" s="18"/>
       <c r="CK56" s="9"/>
       <c r="CL56" s="9"/>
       <c r="CM56" s="9"/>
@@ -30525,13 +30565,15 @@
         <v>6.8752525727557696</v>
       </c>
       <c r="CE57" s="23">
-        <v>4.9727687857492384</v>
-      </c>
-      <c r="CF57" s="18"/>
+        <v>4.9727687460744647</v>
+      </c>
+      <c r="CF57" s="23">
+        <v>8.5064657823475471</v>
+      </c>
       <c r="CG57" s="18"/>
       <c r="CH57" s="18"/>
       <c r="CI57" s="18"/>
-      <c r="CJ57" s="9"/>
+      <c r="CJ57" s="18"/>
       <c r="CK57" s="9"/>
       <c r="CL57" s="9"/>
       <c r="CM57" s="9"/>
@@ -30682,7 +30724,7 @@
       <c r="CG58" s="18"/>
       <c r="CH58" s="18"/>
       <c r="CI58" s="18"/>
-      <c r="CJ58" s="9"/>
+      <c r="CJ58" s="18"/>
       <c r="CK58" s="9"/>
       <c r="CL58" s="9"/>
       <c r="CM58" s="9"/>
@@ -30994,13 +31036,15 @@
         <v>8.2995957254769621</v>
       </c>
       <c r="CE59" s="23">
-        <v>7.1877352997682209</v>
-      </c>
-      <c r="CF59" s="18"/>
+        <v>8.1649548090495472</v>
+      </c>
+      <c r="CF59" s="23">
+        <v>8.4082357200963429</v>
+      </c>
       <c r="CG59" s="18"/>
       <c r="CH59" s="18"/>
       <c r="CI59" s="18"/>
-      <c r="CJ59" s="9"/>
+      <c r="CJ59" s="18"/>
       <c r="CK59" s="9"/>
       <c r="CL59" s="9"/>
       <c r="CM59" s="9"/>
@@ -31152,6 +31196,7 @@
       <c r="CG60" s="20"/>
       <c r="CH60" s="20"/>
       <c r="CI60" s="20"/>
+      <c r="CJ60" s="20"/>
     </row>
     <row r="61" spans="1:150" x14ac:dyDescent="0.25">
       <c r="A61" s="13" t="s">
@@ -31245,7 +31290,7 @@
       <c r="CG62" s="18"/>
       <c r="CH62" s="18"/>
       <c r="CI62" s="18"/>
-      <c r="CJ62" s="9"/>
+      <c r="CJ62" s="18"/>
       <c r="CK62" s="9"/>
       <c r="CL62" s="9"/>
       <c r="CM62" s="9"/>
@@ -31396,7 +31441,7 @@
       <c r="CG63" s="18"/>
       <c r="CH63" s="18"/>
       <c r="CI63" s="18"/>
-      <c r="CJ63" s="9"/>
+      <c r="CJ63" s="18"/>
       <c r="CK63" s="9"/>
       <c r="CL63" s="9"/>
       <c r="CM63" s="9"/>
@@ -31618,10 +31663,11 @@
       <c r="CE72" s="25" t="s">
         <v>48</v>
       </c>
-      <c r="CF72" s="21"/>
+      <c r="CF72" s="25"/>
       <c r="CG72" s="21"/>
       <c r="CH72" s="21"/>
       <c r="CI72" s="21"/>
+      <c r="CJ72" s="21"/>
     </row>
     <row r="73" spans="1:150" x14ac:dyDescent="0.25">
       <c r="A73" s="5" t="s">
@@ -31873,10 +31919,13 @@
       <c r="CE73" s="24" t="s">
         <v>8</v>
       </c>
-      <c r="CF73" s="22"/>
+      <c r="CF73" s="24" t="s">
+        <v>10</v>
+      </c>
       <c r="CG73" s="22"/>
       <c r="CH73" s="22"/>
       <c r="CI73" s="22"/>
+      <c r="CJ73" s="22"/>
     </row>
     <row r="74" spans="1:150" ht="10.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A74" s="7"/>
@@ -32129,13 +32178,15 @@
         <v>5.0629776269243081</v>
       </c>
       <c r="CE75" s="23">
-        <v>3.0716035904825674</v>
-      </c>
-      <c r="CF75" s="18"/>
+        <v>2.9638211590657448</v>
+      </c>
+      <c r="CF75" s="23">
+        <v>3.4673108931104366</v>
+      </c>
       <c r="CG75" s="18"/>
       <c r="CH75" s="18"/>
       <c r="CI75" s="18"/>
-      <c r="CJ75" s="9"/>
+      <c r="CJ75" s="18"/>
       <c r="CK75" s="9"/>
       <c r="CL75" s="9"/>
       <c r="CM75" s="9"/>
@@ -32447,13 +32498,15 @@
         <v>3.5645699424525361</v>
       </c>
       <c r="CE76" s="23">
-        <v>6.2946262646334645</v>
-      </c>
-      <c r="CF76" s="18"/>
+        <v>5.52344815087082</v>
+      </c>
+      <c r="CF76" s="23">
+        <v>2.9077994269063936</v>
+      </c>
       <c r="CG76" s="18"/>
       <c r="CH76" s="18"/>
       <c r="CI76" s="18"/>
-      <c r="CJ76" s="9"/>
+      <c r="CJ76" s="18"/>
       <c r="CK76" s="9"/>
       <c r="CL76" s="9"/>
       <c r="CM76" s="9"/>
@@ -32765,13 +32818,15 @@
         <v>3.2507058138745464</v>
       </c>
       <c r="CE77" s="23">
-        <v>3.7538493257991803</v>
-      </c>
-      <c r="CF77" s="18"/>
+        <v>15.489493218426304</v>
+      </c>
+      <c r="CF77" s="23">
+        <v>25.806471130414991</v>
+      </c>
       <c r="CG77" s="18"/>
       <c r="CH77" s="18"/>
       <c r="CI77" s="18"/>
-      <c r="CJ77" s="9"/>
+      <c r="CJ77" s="18"/>
       <c r="CK77" s="9"/>
       <c r="CL77" s="9"/>
       <c r="CM77" s="9"/>
@@ -33085,11 +33140,13 @@
       <c r="CE78" s="23">
         <v>1.7458794367660033</v>
       </c>
-      <c r="CF78" s="18"/>
+      <c r="CF78" s="23">
+        <v>5.8395229555424208</v>
+      </c>
       <c r="CG78" s="18"/>
       <c r="CH78" s="18"/>
       <c r="CI78" s="18"/>
-      <c r="CJ78" s="9"/>
+      <c r="CJ78" s="18"/>
       <c r="CK78" s="9"/>
       <c r="CL78" s="9"/>
       <c r="CM78" s="9"/>
@@ -33240,7 +33297,7 @@
       <c r="CG79" s="18"/>
       <c r="CH79" s="18"/>
       <c r="CI79" s="18"/>
-      <c r="CJ79" s="9"/>
+      <c r="CJ79" s="18"/>
       <c r="CK79" s="9"/>
       <c r="CL79" s="9"/>
       <c r="CM79" s="9"/>
@@ -33552,13 +33609,15 @@
         <v>4.3248822564166289</v>
       </c>
       <c r="CE80" s="23">
-        <v>4.2375089383974682</v>
-      </c>
-      <c r="CF80" s="18"/>
+        <v>5.221523607043693</v>
+      </c>
+      <c r="CF80" s="23">
+        <v>6.3748037344577284</v>
+      </c>
       <c r="CG80" s="18"/>
       <c r="CH80" s="18"/>
       <c r="CI80" s="18"/>
-      <c r="CJ80" s="9"/>
+      <c r="CJ80" s="18"/>
       <c r="CK80" s="9"/>
       <c r="CL80" s="9"/>
       <c r="CM80" s="9"/>
@@ -33710,6 +33769,7 @@
       <c r="CG81" s="20"/>
       <c r="CH81" s="20"/>
       <c r="CI81" s="20"/>
+      <c r="CJ81" s="20"/>
     </row>
     <row r="82" spans="1:154" x14ac:dyDescent="0.25">
       <c r="A82" s="13" t="s">
@@ -33803,7 +33863,7 @@
       <c r="CG83" s="18"/>
       <c r="CH83" s="18"/>
       <c r="CI83" s="18"/>
-      <c r="CJ83" s="9"/>
+      <c r="CJ83" s="18"/>
       <c r="CK83" s="9"/>
       <c r="CL83" s="9"/>
       <c r="CM83" s="9"/>
@@ -33954,7 +34014,7 @@
       <c r="CG84" s="18"/>
       <c r="CH84" s="18"/>
       <c r="CI84" s="18"/>
-      <c r="CJ84" s="9"/>
+      <c r="CJ84" s="18"/>
       <c r="CK84" s="9"/>
       <c r="CL84" s="9"/>
       <c r="CM84" s="9"/>
@@ -34177,6 +34237,7 @@
       <c r="CI92" s="25">
         <v>0</v>
       </c>
+      <c r="CJ92" s="25"/>
     </row>
     <row r="93" spans="1:154" x14ac:dyDescent="0.25">
       <c r="A93" s="5" t="s">
@@ -34439,6 +34500,9 @@
       </c>
       <c r="CI93" s="16" t="s">
         <v>8</v>
+      </c>
+      <c r="CJ93" s="16" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="94" spans="1:154" ht="10.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -34704,9 +34768,11 @@
         <v>105.57622516002523</v>
       </c>
       <c r="CI95" s="23">
-        <v>106.63785031862498</v>
-      </c>
-      <c r="CJ95" s="9"/>
+        <v>106.63785029316593</v>
+      </c>
+      <c r="CJ95" s="23">
+        <v>105.61995256598671</v>
+      </c>
       <c r="CK95" s="9"/>
       <c r="CL95" s="9"/>
       <c r="CM95" s="9"/>
@@ -35034,9 +35100,11 @@
         <v>106.82483847369222</v>
       </c>
       <c r="CI96" s="23">
-        <v>105.16617935727655</v>
-      </c>
-      <c r="CJ96" s="9"/>
+        <v>105.16617935612899</v>
+      </c>
+      <c r="CJ96" s="23">
+        <v>104.60767615672317</v>
+      </c>
       <c r="CK96" s="9"/>
       <c r="CL96" s="9"/>
       <c r="CM96" s="9"/>
@@ -35364,9 +35432,11 @@
         <v>108.49275109294582</v>
       </c>
       <c r="CI97" s="23">
-        <v>102.89038529551289</v>
-      </c>
-      <c r="CJ97" s="9"/>
+        <v>102.89038535067493</v>
+      </c>
+      <c r="CJ97" s="23">
+        <v>103.00325651988406</v>
+      </c>
       <c r="CK97" s="9"/>
       <c r="CL97" s="9"/>
       <c r="CM97" s="9"/>
@@ -35694,9 +35764,11 @@
         <v>107.5422541866316</v>
       </c>
       <c r="CI98" s="23">
-        <v>106.48082928228355</v>
-      </c>
-      <c r="CJ98" s="9"/>
+        <v>106.48082924203881</v>
+      </c>
+      <c r="CJ98" s="23">
+        <v>106.15676272929213</v>
+      </c>
       <c r="CK98" s="9"/>
       <c r="CL98" s="9"/>
       <c r="CM98" s="9"/>
@@ -35851,7 +35923,7 @@
       <c r="CG99" s="18"/>
       <c r="CH99" s="18"/>
       <c r="CI99" s="18"/>
-      <c r="CJ99" s="9"/>
+      <c r="CJ99" s="18"/>
       <c r="CK99" s="9"/>
       <c r="CL99" s="9"/>
       <c r="CM99" s="9"/>
@@ -36179,9 +36251,11 @@
         <v>106.34660446936861</v>
       </c>
       <c r="CI100" s="23">
-        <v>105.67140455062049</v>
-      </c>
-      <c r="CJ100" s="9"/>
+        <v>105.63756842984206</v>
+      </c>
+      <c r="CJ100" s="23">
+        <v>104.9723504603524</v>
+      </c>
       <c r="CK100" s="9"/>
       <c r="CL100" s="9"/>
       <c r="CM100" s="9"/>
@@ -36337,6 +36411,7 @@
       <c r="CG101" s="20"/>
       <c r="CH101" s="20"/>
       <c r="CI101" s="20"/>
+      <c r="CJ101" s="20"/>
     </row>
     <row r="102" spans="1:154" x14ac:dyDescent="0.25">
       <c r="A102" s="13" t="s">
@@ -36507,6 +36582,7 @@
       <c r="CI113" s="25">
         <v>0</v>
       </c>
+      <c r="CJ113" s="25"/>
     </row>
     <row r="114" spans="1:154" x14ac:dyDescent="0.25">
       <c r="A114" s="5" t="s">
@@ -36769,6 +36845,9 @@
       </c>
       <c r="CI114" s="16" t="s">
         <v>8</v>
+      </c>
+      <c r="CJ114" s="16" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="115" spans="1:154" ht="10.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -37034,9 +37113,11 @@
         <v>57.858438147231638</v>
       </c>
       <c r="CI116" s="23">
-        <v>47.248863292067192</v>
-      </c>
-      <c r="CJ116" s="9"/>
+        <v>46.773030052709416</v>
+      </c>
+      <c r="CJ116" s="23">
+        <v>53.813772192358734</v>
+      </c>
       <c r="CK116" s="9"/>
       <c r="CL116" s="9"/>
       <c r="CM116" s="9"/>
@@ -37364,9 +37445,11 @@
         <v>24.132175111337791</v>
       </c>
       <c r="CI117" s="23">
-        <v>36.572840509739272</v>
-      </c>
-      <c r="CJ117" s="9"/>
+        <v>35.979479704756983</v>
+      </c>
+      <c r="CJ117" s="23">
+        <v>26.085883001861404</v>
+      </c>
       <c r="CK117" s="9"/>
       <c r="CL117" s="9"/>
       <c r="CM117" s="9"/>
@@ -37694,9 +37777,11 @@
         <v>13.149935833979113</v>
       </c>
       <c r="CI118" s="23">
-        <v>10.842832816230775</v>
-      </c>
-      <c r="CJ118" s="9"/>
+        <v>11.960230265576319</v>
+      </c>
+      <c r="CJ118" s="23">
+        <v>15.302925785969729</v>
+      </c>
       <c r="CK118" s="9"/>
       <c r="CL118" s="9"/>
       <c r="CM118" s="9"/>
@@ -38024,9 +38109,11 @@
         <v>4.8594509074514525</v>
       </c>
       <c r="CI119" s="23">
-        <v>5.3354633819627555</v>
-      </c>
-      <c r="CJ119" s="9"/>
+        <v>5.2872599769572757</v>
+      </c>
+      <c r="CJ119" s="23">
+        <v>4.7974190198101372</v>
+      </c>
       <c r="CK119" s="9"/>
       <c r="CL119" s="9"/>
       <c r="CM119" s="9"/>
@@ -38181,7 +38268,7 @@
       <c r="CG120" s="23"/>
       <c r="CH120" s="23"/>
       <c r="CI120" s="23"/>
-      <c r="CJ120" s="9"/>
+      <c r="CJ120" s="23"/>
       <c r="CK120" s="9"/>
       <c r="CL120" s="9"/>
       <c r="CM120" s="9"/>
@@ -38511,7 +38598,9 @@
       <c r="CI121" s="23">
         <v>100</v>
       </c>
-      <c r="CJ121" s="9"/>
+      <c r="CJ121" s="23">
+        <v>100</v>
+      </c>
       <c r="CK121" s="9"/>
       <c r="CL121" s="9"/>
       <c r="CM121" s="9"/>
@@ -38667,6 +38756,7 @@
       <c r="CG122" s="20"/>
       <c r="CH122" s="20"/>
       <c r="CI122" s="20"/>
+      <c r="CJ122" s="20"/>
     </row>
     <row r="123" spans="1:154" x14ac:dyDescent="0.25">
       <c r="A123" s="13" t="s">
@@ -38760,7 +38850,7 @@
       <c r="CG124" s="18"/>
       <c r="CH124" s="18"/>
       <c r="CI124" s="18"/>
-      <c r="CJ124" s="9"/>
+      <c r="CJ124" s="18"/>
       <c r="CK124" s="9"/>
       <c r="CL124" s="9"/>
       <c r="CM124" s="9"/>
@@ -38915,7 +39005,7 @@
       <c r="CG125" s="18"/>
       <c r="CH125" s="18"/>
       <c r="CI125" s="18"/>
-      <c r="CJ125" s="9"/>
+      <c r="CJ125" s="18"/>
       <c r="CK125" s="9"/>
       <c r="CL125" s="9"/>
       <c r="CM125" s="9"/>
@@ -39147,6 +39237,7 @@
       <c r="CI134" s="25">
         <v>0</v>
       </c>
+      <c r="CJ134" s="25"/>
     </row>
     <row r="135" spans="1:154" x14ac:dyDescent="0.25">
       <c r="A135" s="5" t="s">
@@ -39409,6 +39500,9 @@
       </c>
       <c r="CI135" s="16" t="s">
         <v>8</v>
+      </c>
+      <c r="CJ135" s="16" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="136" spans="1:154" ht="10.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -39674,9 +39768,11 @@
         <v>58.280625467833325</v>
       </c>
       <c r="CI137" s="23">
-        <v>46.820652634826807</v>
-      </c>
-      <c r="CJ137" s="9"/>
+        <v>46.3342907727464</v>
+      </c>
+      <c r="CJ137" s="23">
+        <v>53.483816427967298</v>
+      </c>
       <c r="CK137" s="9"/>
       <c r="CL137" s="9"/>
       <c r="CM137" s="9"/>
@@ -40004,9 +40100,11 @@
         <v>24.024140061611266</v>
       </c>
       <c r="CI138" s="23">
-        <v>36.74853882387977</v>
-      </c>
-      <c r="CJ138" s="9"/>
+        <v>36.140751453094154</v>
+      </c>
+      <c r="CJ138" s="23">
+        <v>26.176821368602337</v>
+      </c>
       <c r="CK138" s="9"/>
       <c r="CL138" s="9"/>
       <c r="CM138" s="9"/>
@@ -40334,9 +40432,11 @@
         <v>12.889810709433474</v>
       </c>
       <c r="CI139" s="23">
-        <v>11.135903220770947</v>
-      </c>
-      <c r="CJ139" s="9"/>
+        <v>12.279569551716122</v>
+      </c>
+      <c r="CJ139" s="23">
+        <v>15.595468948726651</v>
+      </c>
       <c r="CK139" s="9"/>
       <c r="CL139" s="9"/>
       <c r="CM139" s="9"/>
@@ -40664,9 +40764,11 @@
         <v>4.8054237611219328</v>
       </c>
       <c r="CI140" s="23">
-        <v>5.2949053205224725</v>
-      </c>
-      <c r="CJ140" s="9"/>
+        <v>5.245388222443327</v>
+      </c>
+      <c r="CJ140" s="23">
+        <v>4.7438932547036998</v>
+      </c>
       <c r="CK140" s="9"/>
       <c r="CL140" s="9"/>
       <c r="CM140" s="9"/>
@@ -40821,7 +40923,7 @@
       <c r="CG141" s="18"/>
       <c r="CH141" s="18"/>
       <c r="CI141" s="18"/>
-      <c r="CJ141" s="9"/>
+      <c r="CJ141" s="18"/>
       <c r="CK141" s="9"/>
       <c r="CL141" s="9"/>
       <c r="CM141" s="9"/>
@@ -41151,7 +41253,9 @@
       <c r="CI142" s="23">
         <v>100</v>
       </c>
-      <c r="CJ142" s="9"/>
+      <c r="CJ142" s="23">
+        <v>100</v>
+      </c>
       <c r="CK142" s="9"/>
       <c r="CL142" s="9"/>
       <c r="CM142" s="9"/>
@@ -41307,23 +41411,15 @@
       <c r="CG143" s="20"/>
       <c r="CH143" s="20"/>
       <c r="CI143" s="20"/>
+      <c r="CJ143" s="20"/>
     </row>
     <row r="144" spans="1:154" x14ac:dyDescent="0.25">
       <c r="A144" s="13" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="145" spans="82:87" x14ac:dyDescent="0.25">
-      <c r="CD145" s="18"/>
-      <c r="CE145" s="18"/>
-      <c r="CF145" s="18"/>
-      <c r="CG145" s="18"/>
-      <c r="CH145" s="18"/>
-      <c r="CI145" s="18"/>
-    </row>
   </sheetData>
   <mergeCells count="152">
-    <mergeCell ref="BF92:BI92"/>
     <mergeCell ref="B134:E134"/>
     <mergeCell ref="F134:I134"/>
     <mergeCell ref="J134:M134"/>
@@ -41333,13 +41429,10 @@
     <mergeCell ref="J92:M92"/>
     <mergeCell ref="N92:Q92"/>
     <mergeCell ref="R92:U92"/>
-    <mergeCell ref="Z113:AC113"/>
-    <mergeCell ref="AD113:AG113"/>
-    <mergeCell ref="AH113:AK113"/>
-    <mergeCell ref="AL113:AO113"/>
     <mergeCell ref="B113:E113"/>
     <mergeCell ref="F113:I113"/>
     <mergeCell ref="J113:M113"/>
+    <mergeCell ref="N113:Q113"/>
     <mergeCell ref="BV134:BY134"/>
     <mergeCell ref="BZ134:CC134"/>
     <mergeCell ref="BR113:BU113"/>
@@ -41364,14 +41457,6 @@
     <mergeCell ref="BN134:BQ134"/>
     <mergeCell ref="BF113:BI113"/>
     <mergeCell ref="BJ113:BM113"/>
-    <mergeCell ref="N113:Q113"/>
-    <mergeCell ref="V113:Y113"/>
-    <mergeCell ref="BF72:BI72"/>
-    <mergeCell ref="BJ72:BM72"/>
-    <mergeCell ref="BN72:BQ72"/>
-    <mergeCell ref="BB51:BE51"/>
-    <mergeCell ref="BF51:BI51"/>
-    <mergeCell ref="BJ51:BM51"/>
     <mergeCell ref="BN51:BQ51"/>
     <mergeCell ref="V92:Y92"/>
     <mergeCell ref="Z92:AC92"/>
@@ -41387,6 +41472,7 @@
     <mergeCell ref="BB92:BE92"/>
     <mergeCell ref="BJ92:BM92"/>
     <mergeCell ref="BN92:BQ92"/>
+    <mergeCell ref="BF92:BI92"/>
     <mergeCell ref="BN113:BQ113"/>
     <mergeCell ref="B72:E72"/>
     <mergeCell ref="F72:I72"/>
@@ -41397,6 +41483,14 @@
     <mergeCell ref="Z72:AC72"/>
     <mergeCell ref="AD72:AG72"/>
     <mergeCell ref="AH72:AK72"/>
+    <mergeCell ref="BF72:BI72"/>
+    <mergeCell ref="BJ72:BM72"/>
+    <mergeCell ref="BN72:BQ72"/>
+    <mergeCell ref="Z113:AC113"/>
+    <mergeCell ref="AD113:AG113"/>
+    <mergeCell ref="AH113:AK113"/>
+    <mergeCell ref="AL113:AO113"/>
+    <mergeCell ref="V113:Y113"/>
     <mergeCell ref="V9:Y9"/>
     <mergeCell ref="Z9:AC9"/>
     <mergeCell ref="AD9:AG9"/>
@@ -41418,6 +41512,9 @@
     <mergeCell ref="BF9:BI9"/>
     <mergeCell ref="AH9:AK9"/>
     <mergeCell ref="AL9:AO9"/>
+    <mergeCell ref="BB51:BE51"/>
+    <mergeCell ref="BF51:BI51"/>
+    <mergeCell ref="BJ51:BM51"/>
     <mergeCell ref="J51:M51"/>
     <mergeCell ref="N51:Q51"/>
     <mergeCell ref="R51:U51"/>
@@ -41451,13 +41548,13 @@
     <mergeCell ref="AL30:AO30"/>
     <mergeCell ref="B51:E51"/>
     <mergeCell ref="F51:I51"/>
-    <mergeCell ref="CH9:CI9"/>
-    <mergeCell ref="CH30:CI30"/>
+    <mergeCell ref="CH9:CJ9"/>
+    <mergeCell ref="CH30:CJ30"/>
+    <mergeCell ref="CD72:CF72"/>
+    <mergeCell ref="CH92:CJ92"/>
+    <mergeCell ref="CH113:CJ113"/>
+    <mergeCell ref="CH134:CJ134"/>
     <mergeCell ref="CD51:CE51"/>
-    <mergeCell ref="CD72:CE72"/>
-    <mergeCell ref="CH92:CI92"/>
-    <mergeCell ref="CH113:CI113"/>
-    <mergeCell ref="CH134:CI134"/>
     <mergeCell ref="BZ9:CC9"/>
     <mergeCell ref="BR30:BU30"/>
     <mergeCell ref="BV30:BY30"/>

--- a/Data/National Accounts/PSA-17FIA_2018PSNA_Qrt.xlsx
+++ b/Data/National Accounts/PSA-17FIA_2018PSNA_Qrt.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DELL\Desktop\0. IAD activities\6. MAS_Series\2018-base\NAP\NAP detailed series as of November 2021\Qtr\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DELL\Desktop\0. IAD activities\6. MAS_Series\2018-base\NAP\NAP detailed series as of January 2022\Qtr\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9528"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="11424" windowHeight="9180"/>
   </bookViews>
   <sheets>
     <sheet name="FIA" sheetId="11" r:id="rId1"/>
@@ -322,7 +322,7 @@
     <definedName name="pet">#REF!</definedName>
     <definedName name="plastic">#REF!</definedName>
     <definedName name="ply">#REF!</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">FIA!$A$1:$CI$146</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">FIA!$A$1:$CK$146</definedName>
     <definedName name="_xlnm.Print_Area">#REF!</definedName>
     <definedName name="PRINT_AREA_MI">#REF!</definedName>
     <definedName name="Print_Titles_MI">'[9]CAP93+'!$A$1:$IV$1,'[9]CAP93+'!$A$1:$A$65536</definedName>
@@ -467,7 +467,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="735" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="740" uniqueCount="52">
   <si>
     <t>Source: Philippine Statistics Authority</t>
   </si>
@@ -617,16 +617,13 @@
     <t>2020 - 2021</t>
   </si>
   <si>
-    <t>2021 - 2021</t>
+    <t>As of January 2022</t>
   </si>
   <si>
-    <t>As of November 2021</t>
+    <t>Q1 2000 to Q4 2021</t>
   </si>
   <si>
-    <t>Q1 2000 to Q3 2021</t>
-  </si>
-  <si>
-    <t>Q1 2001 to Q3 2021</t>
+    <t>Q1 2001 to Q4 2021</t>
   </si>
 </sst>
 </file>
@@ -23610,8 +23607,8 @@
   <dimension ref="A1:EX144"/>
   <sheetViews>
     <sheetView tabSelected="1" defaultGridColor="0" view="pageBreakPreview" colorId="22" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="BY1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="BZ21" sqref="BZ21"/>
+      <pane xSplit="1" topLeftCell="CI1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="7.81640625" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -23620,8 +23617,8 @@
     <col min="2" max="77" width="8.90625" style="1" customWidth="1"/>
     <col min="78" max="78" width="9.81640625" style="1" bestFit="1" customWidth="1"/>
     <col min="79" max="81" width="8.90625" style="1" customWidth="1"/>
-    <col min="82" max="88" width="10.54296875" style="15" customWidth="1"/>
-    <col min="89" max="16384" width="7.81640625" style="1"/>
+    <col min="82" max="89" width="9.54296875" style="15" customWidth="1"/>
+    <col min="90" max="16384" width="7.81640625" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:154" x14ac:dyDescent="0.25">
@@ -23636,7 +23633,7 @@
     </row>
     <row r="3" spans="1:154" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="5" spans="1:154" x14ac:dyDescent="0.25">
@@ -23646,7 +23643,7 @@
     </row>
     <row r="6" spans="1:154" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="7" spans="1:154" x14ac:dyDescent="0.25">
@@ -23787,6 +23784,7 @@
       </c>
       <c r="CI9" s="25"/>
       <c r="CJ9" s="25"/>
+      <c r="CK9" s="25"/>
     </row>
     <row r="10" spans="1:154" x14ac:dyDescent="0.25">
       <c r="A10" s="5" t="s">
@@ -24052,6 +24050,9 @@
       </c>
       <c r="CJ10" s="16" t="s">
         <v>10</v>
+      </c>
+      <c r="CK10" s="16" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="11" spans="1:154" ht="10.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -24320,9 +24321,11 @@
         <v>241270.72470107194</v>
       </c>
       <c r="CJ12" s="17">
-        <v>257311.57169582046</v>
-      </c>
-      <c r="CK12" s="9"/>
+        <v>255605.85108247871</v>
+      </c>
+      <c r="CK12" s="17">
+        <v>227604.40308602521</v>
+      </c>
       <c r="CL12" s="9"/>
       <c r="CM12" s="9"/>
       <c r="CN12" s="9"/>
@@ -24652,9 +24655,11 @@
         <v>185594.02999873378</v>
       </c>
       <c r="CJ13" s="17">
-        <v>124730.14399156618</v>
-      </c>
-      <c r="CK13" s="9"/>
+        <v>124234.61783115598</v>
+      </c>
+      <c r="CK13" s="17">
+        <v>152649.72215494071</v>
+      </c>
       <c r="CL13" s="9"/>
       <c r="CM13" s="9"/>
       <c r="CN13" s="9"/>
@@ -24984,9 +24989,11 @@
         <v>61694.814736513654</v>
       </c>
       <c r="CJ14" s="17">
-        <v>73171.229689255837</v>
-      </c>
-      <c r="CK14" s="9"/>
+        <v>64247.03506033076</v>
+      </c>
+      <c r="CK14" s="17">
+        <v>73433.317096158891</v>
+      </c>
       <c r="CL14" s="9"/>
       <c r="CM14" s="9"/>
       <c r="CN14" s="9"/>
@@ -25318,7 +25325,9 @@
       <c r="CJ15" s="17">
         <v>22938.949970989983</v>
       </c>
-      <c r="CK15" s="9"/>
+      <c r="CK15" s="17">
+        <v>26528.0211832399</v>
+      </c>
       <c r="CL15" s="9"/>
       <c r="CM15" s="9"/>
       <c r="CN15" s="9"/>
@@ -25473,7 +25482,7 @@
       <c r="CH16" s="18"/>
       <c r="CI16" s="18"/>
       <c r="CJ16" s="18"/>
-      <c r="CK16" s="9"/>
+      <c r="CK16" s="18"/>
       <c r="CL16" s="9"/>
       <c r="CM16" s="9"/>
       <c r="CN16" s="9"/>
@@ -25803,9 +25812,11 @@
         <v>515833.00125987001</v>
       </c>
       <c r="CJ17" s="19">
-        <v>478151.89534763247</v>
-      </c>
-      <c r="CK17" s="9"/>
+        <v>467026.45394495537</v>
+      </c>
+      <c r="CK17" s="19">
+        <v>480215.46352036472</v>
+      </c>
       <c r="CL17" s="9"/>
       <c r="CM17" s="9"/>
       <c r="CN17" s="9"/>
@@ -25961,6 +25972,7 @@
       <c r="CH18" s="20"/>
       <c r="CI18" s="20"/>
       <c r="CJ18" s="20"/>
+      <c r="CK18" s="20"/>
     </row>
     <row r="19" spans="1:154" x14ac:dyDescent="0.25">
       <c r="A19" s="13" t="s">
@@ -26055,7 +26067,7 @@
       <c r="CH20" s="18"/>
       <c r="CI20" s="18"/>
       <c r="CJ20" s="18"/>
-      <c r="CK20" s="9"/>
+      <c r="CK20" s="18"/>
       <c r="CL20" s="9"/>
       <c r="CM20" s="9"/>
       <c r="CN20" s="9"/>
@@ -26210,7 +26222,7 @@
       <c r="CH21" s="18"/>
       <c r="CI21" s="18"/>
       <c r="CJ21" s="18"/>
-      <c r="CK21" s="9"/>
+      <c r="CK21" s="18"/>
       <c r="CL21" s="9"/>
       <c r="CM21" s="9"/>
       <c r="CN21" s="9"/>
@@ -26289,7 +26301,7 @@
     </row>
     <row r="24" spans="1:154" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="26" spans="1:154" x14ac:dyDescent="0.25">
@@ -26299,7 +26311,7 @@
     </row>
     <row r="27" spans="1:154" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="28" spans="1:154" x14ac:dyDescent="0.25">
@@ -26438,10 +26450,9 @@
       <c r="CH30" s="25">
         <v>2021</v>
       </c>
-      <c r="CI30" s="25">
-        <v>0</v>
-      </c>
+      <c r="CI30" s="25"/>
       <c r="CJ30" s="25"/>
+      <c r="CK30" s="25"/>
     </row>
     <row r="31" spans="1:154" x14ac:dyDescent="0.25">
       <c r="A31" s="5" t="s">
@@ -26707,6 +26718,9 @@
       </c>
       <c r="CJ31" s="16" t="s">
         <v>10</v>
+      </c>
+      <c r="CK31" s="16" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="32" spans="1:154" ht="10.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -26975,9 +26989,11 @@
         <v>226252.42729272667</v>
       </c>
       <c r="CJ33" s="17">
-        <v>243620.23031118434</v>
-      </c>
-      <c r="CK33" s="9"/>
+        <v>242005.26971718471</v>
+      </c>
+      <c r="CK33" s="17">
+        <v>213014.61492435067</v>
+      </c>
       <c r="CL33" s="9"/>
       <c r="CM33" s="9"/>
       <c r="CN33" s="9"/>
@@ -27307,9 +27323,11 @@
         <v>176476.91599620474</v>
       </c>
       <c r="CJ34" s="17">
-        <v>119236.12929198</v>
-      </c>
-      <c r="CK34" s="9"/>
+        <v>118762.42967583728</v>
+      </c>
+      <c r="CK34" s="17">
+        <v>143086.1626095199</v>
+      </c>
       <c r="CL34" s="9"/>
       <c r="CM34" s="9"/>
       <c r="CN34" s="9"/>
@@ -27639,9 +27657,11 @@
         <v>59961.690809343389</v>
       </c>
       <c r="CJ35" s="17">
-        <v>71037.782844400295</v>
-      </c>
-      <c r="CK35" s="9"/>
+        <v>62373.790141215897</v>
+      </c>
+      <c r="CK35" s="17">
+        <v>70183.729177577392</v>
+      </c>
       <c r="CL35" s="9"/>
       <c r="CM35" s="9"/>
       <c r="CN35" s="9"/>
@@ -27973,7 +27993,9 @@
       <c r="CJ36" s="17">
         <v>21608.562074830843</v>
       </c>
-      <c r="CK36" s="9"/>
+      <c r="CK36" s="17">
+        <v>24760.097225445876</v>
+      </c>
       <c r="CL36" s="9"/>
       <c r="CM36" s="9"/>
       <c r="CN36" s="9"/>
@@ -28128,7 +28150,7 @@
       <c r="CH37" s="18"/>
       <c r="CI37" s="18"/>
       <c r="CJ37" s="18"/>
-      <c r="CK37" s="9"/>
+      <c r="CK37" s="18"/>
       <c r="CL37" s="9"/>
       <c r="CM37" s="9"/>
       <c r="CN37" s="9"/>
@@ -28458,9 +28480,11 @@
         <v>488304.50087693415</v>
       </c>
       <c r="CJ38" s="19">
-        <v>455502.70452239551</v>
-      </c>
-      <c r="CK38" s="9"/>
+        <v>444750.05160906876</v>
+      </c>
+      <c r="CK38" s="19">
+        <v>451044.60393689387</v>
+      </c>
       <c r="CL38" s="9"/>
       <c r="CM38" s="9"/>
       <c r="CN38" s="9"/>
@@ -28616,6 +28640,7 @@
       <c r="CH39" s="20"/>
       <c r="CI39" s="20"/>
       <c r="CJ39" s="20"/>
+      <c r="CK39" s="20"/>
     </row>
     <row r="40" spans="1:154" x14ac:dyDescent="0.25">
       <c r="A40" s="13" t="s">
@@ -28710,7 +28735,7 @@
       <c r="CH41" s="18"/>
       <c r="CI41" s="18"/>
       <c r="CJ41" s="18"/>
-      <c r="CK41" s="9"/>
+      <c r="CK41" s="18"/>
       <c r="CL41" s="9"/>
       <c r="CM41" s="9"/>
       <c r="CN41" s="9"/>
@@ -28865,7 +28890,7 @@
       <c r="CH42" s="18"/>
       <c r="CI42" s="18"/>
       <c r="CJ42" s="18"/>
-      <c r="CK42" s="9"/>
+      <c r="CK42" s="18"/>
       <c r="CL42" s="9"/>
       <c r="CM42" s="9"/>
       <c r="CN42" s="9"/>
@@ -28944,7 +28969,7 @@
     </row>
     <row r="45" spans="1:154" x14ac:dyDescent="0.25">
       <c r="A45" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="47" spans="1:154" x14ac:dyDescent="0.25">
@@ -28954,7 +28979,7 @@
     </row>
     <row r="48" spans="1:154" x14ac:dyDescent="0.25">
       <c r="A48" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="49" spans="1:150" x14ac:dyDescent="0.25">
@@ -29087,14 +29112,13 @@
       <c r="CD51" s="25" t="s">
         <v>48</v>
       </c>
-      <c r="CE51" s="25" t="s">
-        <v>49</v>
-      </c>
-      <c r="CF51" s="21"/>
-      <c r="CG51" s="21"/>
+      <c r="CE51" s="25"/>
+      <c r="CF51" s="25"/>
+      <c r="CG51" s="25"/>
       <c r="CH51" s="21"/>
       <c r="CI51" s="21"/>
       <c r="CJ51" s="21"/>
+      <c r="CK51" s="21"/>
     </row>
     <row r="52" spans="1:150" x14ac:dyDescent="0.25">
       <c r="A52" s="5" t="s">
@@ -29349,10 +29373,13 @@
       <c r="CF52" s="24" t="s">
         <v>10</v>
       </c>
-      <c r="CG52" s="22"/>
+      <c r="CG52" s="24" t="s">
+        <v>9</v>
+      </c>
       <c r="CH52" s="22"/>
       <c r="CI52" s="22"/>
       <c r="CJ52" s="22"/>
+      <c r="CK52" s="22"/>
     </row>
     <row r="53" spans="1:150" ht="10.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="7"/>
@@ -29608,13 +29635,15 @@
         <v>5.7217677843644452</v>
       </c>
       <c r="CF54" s="23">
-        <v>5.3081210752325347</v>
-      </c>
-      <c r="CG54" s="18"/>
+        <v>4.6100326383756993</v>
+      </c>
+      <c r="CG54" s="23">
+        <v>3.8059452739579172</v>
+      </c>
       <c r="CH54" s="18"/>
       <c r="CI54" s="18"/>
       <c r="CJ54" s="18"/>
-      <c r="CK54" s="9"/>
+      <c r="CK54" s="18"/>
       <c r="CL54" s="9"/>
       <c r="CM54" s="9"/>
       <c r="CN54" s="9"/>
@@ -29928,13 +29957,15 @@
         <v>8.8001940424565817</v>
       </c>
       <c r="CF55" s="23">
-        <v>5.4559829206117598</v>
-      </c>
-      <c r="CG55" s="18"/>
+        <v>5.0370288760107371</v>
+      </c>
+      <c r="CG55" s="23">
+        <v>10.242735844273312</v>
+      </c>
       <c r="CH55" s="18"/>
       <c r="CI55" s="18"/>
       <c r="CJ55" s="18"/>
-      <c r="CK55" s="9"/>
+      <c r="CK55" s="18"/>
       <c r="CL55" s="9"/>
       <c r="CM55" s="9"/>
       <c r="CN55" s="9"/>
@@ -30248,13 +30279,15 @@
         <v>18.375324707625992</v>
       </c>
       <c r="CF56" s="23">
-        <v>27.683329190340771</v>
-      </c>
-      <c r="CG56" s="18"/>
+        <v>12.110666473001942</v>
+      </c>
+      <c r="CG56" s="23">
+        <v>12.009111262018536</v>
+      </c>
       <c r="CH56" s="18"/>
       <c r="CI56" s="18"/>
       <c r="CJ56" s="18"/>
-      <c r="CK56" s="9"/>
+      <c r="CK56" s="18"/>
       <c r="CL56" s="9"/>
       <c r="CM56" s="9"/>
       <c r="CN56" s="9"/>
@@ -30570,11 +30603,13 @@
       <c r="CF57" s="23">
         <v>8.5064657823475471</v>
       </c>
-      <c r="CG57" s="18"/>
+      <c r="CG57" s="23">
+        <v>5.3005934654758846</v>
+      </c>
       <c r="CH57" s="18"/>
       <c r="CI57" s="18"/>
       <c r="CJ57" s="18"/>
-      <c r="CK57" s="9"/>
+      <c r="CK57" s="18"/>
       <c r="CL57" s="9"/>
       <c r="CM57" s="9"/>
       <c r="CN57" s="9"/>
@@ -30725,7 +30760,7 @@
       <c r="CH58" s="18"/>
       <c r="CI58" s="18"/>
       <c r="CJ58" s="18"/>
-      <c r="CK58" s="9"/>
+      <c r="CK58" s="18"/>
       <c r="CL58" s="9"/>
       <c r="CM58" s="9"/>
       <c r="CN58" s="9"/>
@@ -31039,13 +31074,15 @@
         <v>8.1649548090495472</v>
       </c>
       <c r="CF59" s="23">
-        <v>8.4082357200963429</v>
-      </c>
-      <c r="CG59" s="18"/>
+        <v>5.8858375328118058</v>
+      </c>
+      <c r="CG59" s="23">
+        <v>7.0764142242333747</v>
+      </c>
       <c r="CH59" s="18"/>
       <c r="CI59" s="18"/>
       <c r="CJ59" s="18"/>
-      <c r="CK59" s="9"/>
+      <c r="CK59" s="18"/>
       <c r="CL59" s="9"/>
       <c r="CM59" s="9"/>
       <c r="CN59" s="9"/>
@@ -31197,6 +31234,7 @@
       <c r="CH60" s="20"/>
       <c r="CI60" s="20"/>
       <c r="CJ60" s="20"/>
+      <c r="CK60" s="20"/>
     </row>
     <row r="61" spans="1:150" x14ac:dyDescent="0.25">
       <c r="A61" s="13" t="s">
@@ -31291,7 +31329,7 @@
       <c r="CH62" s="18"/>
       <c r="CI62" s="18"/>
       <c r="CJ62" s="18"/>
-      <c r="CK62" s="9"/>
+      <c r="CK62" s="18"/>
       <c r="CL62" s="9"/>
       <c r="CM62" s="9"/>
       <c r="CN62" s="9"/>
@@ -31442,7 +31480,7 @@
       <c r="CH63" s="18"/>
       <c r="CI63" s="18"/>
       <c r="CJ63" s="18"/>
-      <c r="CK63" s="9"/>
+      <c r="CK63" s="18"/>
       <c r="CL63" s="9"/>
       <c r="CM63" s="9"/>
       <c r="CN63" s="9"/>
@@ -31517,7 +31555,7 @@
     </row>
     <row r="66" spans="1:150" x14ac:dyDescent="0.25">
       <c r="A66" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="68" spans="1:150" x14ac:dyDescent="0.25">
@@ -31527,7 +31565,7 @@
     </row>
     <row r="69" spans="1:150" x14ac:dyDescent="0.25">
       <c r="A69" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="70" spans="1:150" x14ac:dyDescent="0.25">
@@ -31660,14 +31698,13 @@
       <c r="CD72" s="25" t="s">
         <v>48</v>
       </c>
-      <c r="CE72" s="25" t="s">
-        <v>48</v>
-      </c>
+      <c r="CE72" s="25"/>
       <c r="CF72" s="25"/>
-      <c r="CG72" s="21"/>
+      <c r="CG72" s="25"/>
       <c r="CH72" s="21"/>
       <c r="CI72" s="21"/>
       <c r="CJ72" s="21"/>
+      <c r="CK72" s="21"/>
     </row>
     <row r="73" spans="1:150" x14ac:dyDescent="0.25">
       <c r="A73" s="5" t="s">
@@ -31922,10 +31959,13 @@
       <c r="CF73" s="24" t="s">
         <v>10</v>
       </c>
-      <c r="CG73" s="22"/>
+      <c r="CG73" s="24" t="s">
+        <v>9</v>
+      </c>
       <c r="CH73" s="22"/>
       <c r="CI73" s="22"/>
       <c r="CJ73" s="22"/>
+      <c r="CK73" s="22"/>
     </row>
     <row r="74" spans="1:150" ht="10.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A74" s="7"/>
@@ -32181,13 +32221,15 @@
         <v>2.9638211590657448</v>
       </c>
       <c r="CF75" s="23">
-        <v>3.4673108931104366</v>
-      </c>
-      <c r="CG75" s="18"/>
+        <v>2.7814252027223745</v>
+      </c>
+      <c r="CG75" s="23">
+        <v>1.607618529612779</v>
+      </c>
       <c r="CH75" s="18"/>
       <c r="CI75" s="18"/>
       <c r="CJ75" s="18"/>
-      <c r="CK75" s="9"/>
+      <c r="CK75" s="18"/>
       <c r="CL75" s="9"/>
       <c r="CM75" s="9"/>
       <c r="CN75" s="9"/>
@@ -32501,13 +32543,15 @@
         <v>5.52344815087082</v>
       </c>
       <c r="CF76" s="23">
-        <v>2.9077994269063936</v>
-      </c>
-      <c r="CG76" s="18"/>
+        <v>2.4989687698222127</v>
+      </c>
+      <c r="CG76" s="23">
+        <v>7.347780902060876</v>
+      </c>
       <c r="CH76" s="18"/>
       <c r="CI76" s="18"/>
       <c r="CJ76" s="18"/>
-      <c r="CK76" s="9"/>
+      <c r="CK76" s="18"/>
       <c r="CL76" s="9"/>
       <c r="CM76" s="9"/>
       <c r="CN76" s="9"/>
@@ -32821,13 +32865,15 @@
         <v>15.489493218426304</v>
       </c>
       <c r="CF77" s="23">
-        <v>25.806471130414991</v>
-      </c>
-      <c r="CG77" s="18"/>
+        <v>10.462715958962406</v>
+      </c>
+      <c r="CG77" s="23">
+        <v>9.8030679815093151</v>
+      </c>
       <c r="CH77" s="18"/>
       <c r="CI77" s="18"/>
       <c r="CJ77" s="18"/>
-      <c r="CK77" s="9"/>
+      <c r="CK77" s="18"/>
       <c r="CL77" s="9"/>
       <c r="CM77" s="9"/>
       <c r="CN77" s="9"/>
@@ -33143,11 +33189,13 @@
       <c r="CF78" s="23">
         <v>5.8395229555424208</v>
       </c>
-      <c r="CG78" s="18"/>
+      <c r="CG78" s="23">
+        <v>2.2172930164467743</v>
+      </c>
       <c r="CH78" s="18"/>
       <c r="CI78" s="18"/>
       <c r="CJ78" s="18"/>
-      <c r="CK78" s="9"/>
+      <c r="CK78" s="18"/>
       <c r="CL78" s="9"/>
       <c r="CM78" s="9"/>
       <c r="CN78" s="9"/>
@@ -33298,7 +33346,7 @@
       <c r="CH79" s="18"/>
       <c r="CI79" s="18"/>
       <c r="CJ79" s="18"/>
-      <c r="CK79" s="9"/>
+      <c r="CK79" s="18"/>
       <c r="CL79" s="9"/>
       <c r="CM79" s="9"/>
       <c r="CN79" s="9"/>
@@ -33612,13 +33660,15 @@
         <v>5.221523607043693</v>
       </c>
       <c r="CF80" s="23">
-        <v>6.3748037344577284</v>
-      </c>
-      <c r="CG80" s="18"/>
+        <v>3.8637070232336157</v>
+      </c>
+      <c r="CG80" s="23">
+        <v>4.6319530915300362</v>
+      </c>
       <c r="CH80" s="18"/>
       <c r="CI80" s="18"/>
       <c r="CJ80" s="18"/>
-      <c r="CK80" s="9"/>
+      <c r="CK80" s="18"/>
       <c r="CL80" s="9"/>
       <c r="CM80" s="9"/>
       <c r="CN80" s="9"/>
@@ -33770,6 +33820,7 @@
       <c r="CH81" s="20"/>
       <c r="CI81" s="20"/>
       <c r="CJ81" s="20"/>
+      <c r="CK81" s="20"/>
     </row>
     <row r="82" spans="1:154" x14ac:dyDescent="0.25">
       <c r="A82" s="13" t="s">
@@ -33864,7 +33915,7 @@
       <c r="CH83" s="18"/>
       <c r="CI83" s="18"/>
       <c r="CJ83" s="18"/>
-      <c r="CK83" s="9"/>
+      <c r="CK83" s="18"/>
       <c r="CL83" s="9"/>
       <c r="CM83" s="9"/>
       <c r="CN83" s="9"/>
@@ -34015,7 +34066,7 @@
       <c r="CH84" s="18"/>
       <c r="CI84" s="18"/>
       <c r="CJ84" s="18"/>
-      <c r="CK84" s="9"/>
+      <c r="CK84" s="18"/>
       <c r="CL84" s="9"/>
       <c r="CM84" s="9"/>
       <c r="CN84" s="9"/>
@@ -34085,7 +34136,7 @@
     </row>
     <row r="86" spans="1:154" x14ac:dyDescent="0.25">
       <c r="A86" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="88" spans="1:154" x14ac:dyDescent="0.25">
@@ -34095,7 +34146,7 @@
     </row>
     <row r="89" spans="1:154" x14ac:dyDescent="0.25">
       <c r="A89" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="90" spans="1:154" x14ac:dyDescent="0.25">
@@ -34234,10 +34285,9 @@
       <c r="CH92" s="25">
         <v>2021</v>
       </c>
-      <c r="CI92" s="25">
-        <v>0</v>
-      </c>
+      <c r="CI92" s="25"/>
       <c r="CJ92" s="25"/>
+      <c r="CK92" s="25"/>
     </row>
     <row r="93" spans="1:154" x14ac:dyDescent="0.25">
       <c r="A93" s="5" t="s">
@@ -34503,6 +34553,9 @@
       </c>
       <c r="CJ93" s="16" t="s">
         <v>10</v>
+      </c>
+      <c r="CK93" s="16" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="94" spans="1:154" ht="10.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -34773,7 +34826,9 @@
       <c r="CJ95" s="23">
         <v>105.61995256598671</v>
       </c>
-      <c r="CK95" s="9"/>
+      <c r="CK95" s="23">
+        <v>106.84919584830172</v>
+      </c>
       <c r="CL95" s="9"/>
       <c r="CM95" s="9"/>
       <c r="CN95" s="9"/>
@@ -35103,9 +35158,11 @@
         <v>105.16617935612899</v>
       </c>
       <c r="CJ96" s="23">
-        <v>104.60767615672317</v>
-      </c>
-      <c r="CK96" s="9"/>
+        <v>104.6076761567232</v>
+      </c>
+      <c r="CK96" s="23">
+        <v>106.68377666365939</v>
+      </c>
       <c r="CL96" s="9"/>
       <c r="CM96" s="9"/>
       <c r="CN96" s="9"/>
@@ -35435,9 +35492,11 @@
         <v>102.89038535067493</v>
       </c>
       <c r="CJ97" s="23">
-        <v>103.00325651988406</v>
-      </c>
-      <c r="CK97" s="9"/>
+        <v>103.00325651988405</v>
+      </c>
+      <c r="CK97" s="23">
+        <v>104.63011577848687</v>
+      </c>
       <c r="CL97" s="9"/>
       <c r="CM97" s="9"/>
       <c r="CN97" s="9"/>
@@ -35769,7 +35828,9 @@
       <c r="CJ98" s="23">
         <v>106.15676272929213</v>
       </c>
-      <c r="CK98" s="9"/>
+      <c r="CK98" s="23">
+        <v>107.14021411829164</v>
+      </c>
       <c r="CL98" s="9"/>
       <c r="CM98" s="9"/>
       <c r="CN98" s="9"/>
@@ -35924,7 +35985,7 @@
       <c r="CH99" s="18"/>
       <c r="CI99" s="18"/>
       <c r="CJ99" s="18"/>
-      <c r="CK99" s="9"/>
+      <c r="CK99" s="18"/>
       <c r="CL99" s="9"/>
       <c r="CM99" s="9"/>
       <c r="CN99" s="9"/>
@@ -36254,9 +36315,11 @@
         <v>105.63756842984206</v>
       </c>
       <c r="CJ100" s="23">
-        <v>104.9723504603524</v>
-      </c>
-      <c r="CK100" s="9"/>
+        <v>105.00874643078566</v>
+      </c>
+      <c r="CK100" s="23">
+        <v>106.46740019254331</v>
+      </c>
       <c r="CL100" s="9"/>
       <c r="CM100" s="9"/>
       <c r="CN100" s="9"/>
@@ -36412,6 +36475,7 @@
       <c r="CH101" s="20"/>
       <c r="CI101" s="20"/>
       <c r="CJ101" s="20"/>
+      <c r="CK101" s="20"/>
     </row>
     <row r="102" spans="1:154" x14ac:dyDescent="0.25">
       <c r="A102" s="13" t="s">
@@ -36430,7 +36494,7 @@
     </row>
     <row r="107" spans="1:154" x14ac:dyDescent="0.25">
       <c r="A107" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="109" spans="1:154" x14ac:dyDescent="0.25">
@@ -36440,7 +36504,7 @@
     </row>
     <row r="110" spans="1:154" x14ac:dyDescent="0.25">
       <c r="A110" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="111" spans="1:154" x14ac:dyDescent="0.25">
@@ -36579,10 +36643,9 @@
       <c r="CH113" s="25">
         <v>2021</v>
       </c>
-      <c r="CI113" s="25">
-        <v>0</v>
-      </c>
+      <c r="CI113" s="25"/>
       <c r="CJ113" s="25"/>
+      <c r="CK113" s="25"/>
     </row>
     <row r="114" spans="1:154" x14ac:dyDescent="0.25">
       <c r="A114" s="5" t="s">
@@ -36848,6 +36911,9 @@
       </c>
       <c r="CJ114" s="16" t="s">
         <v>10</v>
+      </c>
+      <c r="CK114" s="16" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="115" spans="1:154" ht="10.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -37116,9 +37182,11 @@
         <v>46.773030052709416</v>
       </c>
       <c r="CJ116" s="23">
-        <v>53.813772192358734</v>
-      </c>
-      <c r="CK116" s="9"/>
+        <v>54.730486661598164</v>
+      </c>
+      <c r="CK116" s="23">
+        <v>47.396308610618718</v>
+      </c>
       <c r="CL116" s="9"/>
       <c r="CM116" s="9"/>
       <c r="CN116" s="9"/>
@@ -37448,9 +37516,11 @@
         <v>35.979479704756983</v>
       </c>
       <c r="CJ117" s="23">
-        <v>26.085883001861404</v>
-      </c>
-      <c r="CK117" s="9"/>
+        <v>26.601195024768021</v>
+      </c>
+      <c r="CK117" s="23">
+        <v>31.787756486618683</v>
+      </c>
       <c r="CL117" s="9"/>
       <c r="CM117" s="9"/>
       <c r="CN117" s="9"/>
@@ -37780,9 +37850,11 @@
         <v>11.960230265576319</v>
       </c>
       <c r="CJ118" s="23">
-        <v>15.302925785969729</v>
-      </c>
-      <c r="CK118" s="9"/>
+        <v>13.75661582285937</v>
+      </c>
+      <c r="CK118" s="23">
+        <v>15.291743534836163</v>
+      </c>
       <c r="CL118" s="9"/>
       <c r="CM118" s="9"/>
       <c r="CN118" s="9"/>
@@ -38112,9 +38184,11 @@
         <v>5.2872599769572757</v>
       </c>
       <c r="CJ119" s="23">
-        <v>4.7974190198101372</v>
-      </c>
-      <c r="CK119" s="9"/>
+        <v>4.911702490774454</v>
+      </c>
+      <c r="CK119" s="23">
+        <v>5.5241913679264334</v>
+      </c>
       <c r="CL119" s="9"/>
       <c r="CM119" s="9"/>
       <c r="CN119" s="9"/>
@@ -38269,7 +38343,7 @@
       <c r="CH120" s="23"/>
       <c r="CI120" s="23"/>
       <c r="CJ120" s="23"/>
-      <c r="CK120" s="9"/>
+      <c r="CK120" s="23"/>
       <c r="CL120" s="9"/>
       <c r="CM120" s="9"/>
       <c r="CN120" s="9"/>
@@ -38601,7 +38675,9 @@
       <c r="CJ121" s="23">
         <v>100</v>
       </c>
-      <c r="CK121" s="9"/>
+      <c r="CK121" s="23">
+        <v>100</v>
+      </c>
       <c r="CL121" s="9"/>
       <c r="CM121" s="9"/>
       <c r="CN121" s="9"/>
@@ -38757,6 +38833,7 @@
       <c r="CH122" s="20"/>
       <c r="CI122" s="20"/>
       <c r="CJ122" s="20"/>
+      <c r="CK122" s="20"/>
     </row>
     <row r="123" spans="1:154" x14ac:dyDescent="0.25">
       <c r="A123" s="13" t="s">
@@ -38851,7 +38928,7 @@
       <c r="CH124" s="18"/>
       <c r="CI124" s="18"/>
       <c r="CJ124" s="18"/>
-      <c r="CK124" s="9"/>
+      <c r="CK124" s="18"/>
       <c r="CL124" s="9"/>
       <c r="CM124" s="9"/>
       <c r="CN124" s="9"/>
@@ -39006,7 +39083,7 @@
       <c r="CH125" s="18"/>
       <c r="CI125" s="18"/>
       <c r="CJ125" s="18"/>
-      <c r="CK125" s="9"/>
+      <c r="CK125" s="18"/>
       <c r="CL125" s="9"/>
       <c r="CM125" s="9"/>
       <c r="CN125" s="9"/>
@@ -39085,7 +39162,7 @@
     </row>
     <row r="128" spans="1:154" x14ac:dyDescent="0.25">
       <c r="A128" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="130" spans="1:154" x14ac:dyDescent="0.25">
@@ -39095,7 +39172,7 @@
     </row>
     <row r="131" spans="1:154" x14ac:dyDescent="0.25">
       <c r="A131" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="132" spans="1:154" x14ac:dyDescent="0.25">
@@ -39234,10 +39311,9 @@
       <c r="CH134" s="25">
         <v>2021</v>
       </c>
-      <c r="CI134" s="25">
-        <v>0</v>
-      </c>
+      <c r="CI134" s="25"/>
       <c r="CJ134" s="25"/>
+      <c r="CK134" s="25"/>
     </row>
     <row r="135" spans="1:154" x14ac:dyDescent="0.25">
       <c r="A135" s="5" t="s">
@@ -39503,6 +39579,9 @@
       </c>
       <c r="CJ135" s="16" t="s">
         <v>10</v>
+      </c>
+      <c r="CK135" s="16" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="136" spans="1:154" ht="10.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -39771,9 +39850,11 @@
         <v>46.3342907727464</v>
       </c>
       <c r="CJ137" s="23">
-        <v>53.483816427967298</v>
-      </c>
-      <c r="CK137" s="9"/>
+        <v>54.413769901010632</v>
+      </c>
+      <c r="CK137" s="23">
+        <v>47.226951185110231</v>
+      </c>
       <c r="CL137" s="9"/>
       <c r="CM137" s="9"/>
       <c r="CN137" s="9"/>
@@ -40103,9 +40184,11 @@
         <v>36.140751453094154</v>
       </c>
       <c r="CJ138" s="23">
-        <v>26.176821368602337</v>
-      </c>
-      <c r="CK138" s="9"/>
+        <v>26.703185136497382</v>
+      </c>
+      <c r="CK138" s="23">
+        <v>31.7232844292134</v>
+      </c>
       <c r="CL138" s="9"/>
       <c r="CM138" s="9"/>
       <c r="CN138" s="9"/>
@@ -40435,9 +40518,11 @@
         <v>12.279569551716122</v>
       </c>
       <c r="CJ139" s="23">
-        <v>15.595468948726651</v>
-      </c>
-      <c r="CK139" s="9"/>
+        <v>14.024459337453186</v>
+      </c>
+      <c r="CK139" s="23">
+        <v>15.560263567058852</v>
+      </c>
       <c r="CL139" s="9"/>
       <c r="CM139" s="9"/>
       <c r="CN139" s="9"/>
@@ -40767,9 +40852,11 @@
         <v>5.245388222443327</v>
       </c>
       <c r="CJ140" s="23">
-        <v>4.7438932547036998</v>
-      </c>
-      <c r="CK140" s="9"/>
+        <v>4.8585856250387964</v>
+      </c>
+      <c r="CK140" s="23">
+        <v>5.4895008186175058</v>
+      </c>
       <c r="CL140" s="9"/>
       <c r="CM140" s="9"/>
       <c r="CN140" s="9"/>
@@ -40924,7 +41011,7 @@
       <c r="CH141" s="18"/>
       <c r="CI141" s="18"/>
       <c r="CJ141" s="18"/>
-      <c r="CK141" s="9"/>
+      <c r="CK141" s="18"/>
       <c r="CL141" s="9"/>
       <c r="CM141" s="9"/>
       <c r="CN141" s="9"/>
@@ -41256,7 +41343,9 @@
       <c r="CJ142" s="23">
         <v>100</v>
       </c>
-      <c r="CK142" s="9"/>
+      <c r="CK142" s="23">
+        <v>100</v>
+      </c>
       <c r="CL142" s="9"/>
       <c r="CM142" s="9"/>
       <c r="CN142" s="9"/>
@@ -41412,6 +41501,7 @@
       <c r="CH143" s="20"/>
       <c r="CI143" s="20"/>
       <c r="CJ143" s="20"/>
+      <c r="CK143" s="20"/>
     </row>
     <row r="144" spans="1:154" x14ac:dyDescent="0.25">
       <c r="A144" s="13" t="s">
@@ -41548,13 +41638,13 @@
     <mergeCell ref="AL30:AO30"/>
     <mergeCell ref="B51:E51"/>
     <mergeCell ref="F51:I51"/>
-    <mergeCell ref="CH9:CJ9"/>
-    <mergeCell ref="CH30:CJ30"/>
-    <mergeCell ref="CD72:CF72"/>
-    <mergeCell ref="CH92:CJ92"/>
-    <mergeCell ref="CH113:CJ113"/>
-    <mergeCell ref="CH134:CJ134"/>
-    <mergeCell ref="CD51:CE51"/>
+    <mergeCell ref="CH9:CK9"/>
+    <mergeCell ref="CH30:CK30"/>
+    <mergeCell ref="CD51:CG51"/>
+    <mergeCell ref="CD72:CG72"/>
+    <mergeCell ref="CH92:CK92"/>
+    <mergeCell ref="CH113:CK113"/>
+    <mergeCell ref="CH134:CK134"/>
     <mergeCell ref="BZ9:CC9"/>
     <mergeCell ref="BR30:BU30"/>
     <mergeCell ref="BV30:BY30"/>
@@ -41578,9 +41668,9 @@
   <pageSetup paperSize="9" scale="31" orientation="landscape" r:id="rId1"/>
   <headerFooter alignWithMargins="0"/>
   <rowBreaks count="3" manualBreakCount="3">
-    <brk id="42" max="86" man="1"/>
-    <brk id="84" max="86" man="1"/>
-    <brk id="104" max="86" man="1"/>
+    <brk id="42" max="88" man="1"/>
+    <brk id="84" max="88" man="1"/>
+    <brk id="104" max="88" man="1"/>
   </rowBreaks>
 </worksheet>
 </file>
--- a/Data/National Accounts/PSA-17FIA_2018PSNA_Qrt.xlsx
+++ b/Data/National Accounts/PSA-17FIA_2018PSNA_Qrt.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25128"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DELL\Desktop\0. IAD activities\6. MAS_Series\2018-base\NAP\NAP detailed series as of January 2022\Qtr\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USER\OneDrive\Desktop\PSA\NAP\NAP\Q1 2022\Qtr\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{753F7942-E0E5-4DDF-A882-30CE16717843}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="11424" windowHeight="9180"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="FIA" sheetId="11" r:id="rId1"/>
@@ -322,7 +323,7 @@
     <definedName name="pet">#REF!</definedName>
     <definedName name="plastic">#REF!</definedName>
     <definedName name="ply">#REF!</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">FIA!$A$1:$CK$146</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">FIA!$A$1:$CL$146</definedName>
     <definedName name="_xlnm.Print_Area">#REF!</definedName>
     <definedName name="PRINT_AREA_MI">#REF!</definedName>
     <definedName name="Print_Titles_MI">'[9]CAP93+'!$A$1:$IV$1,'[9]CAP93+'!$A$1:$A$65536</definedName>
@@ -467,7 +468,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="740" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="749" uniqueCount="53">
   <si>
     <t>Source: Philippine Statistics Authority</t>
   </si>
@@ -617,23 +618,27 @@
     <t>2020 - 2021</t>
   </si>
   <si>
-    <t>As of January 2022</t>
+    <t>2021 - 2022</t>
   </si>
   <si>
-    <t>Q1 2000 to Q4 2021</t>
+    <t>As of May 2022</t>
   </si>
   <si>
-    <t>Q1 2001 to Q4 2021</t>
+    <t>Q1 2000 to Q1 2022</t>
+  </si>
+  <si>
+    <t>Q1 2001 to Q1 2022</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="3">
-    <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="164" formatCode="0.0"/>
-    <numFmt numFmtId="165" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="4">
+    <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="164" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="165" formatCode="0.0"/>
+    <numFmt numFmtId="166" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
   <fonts count="6" x14ac:knownFonts="1">
     <font>
@@ -704,12 +709,13 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="3">
+  <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="46">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -724,31 +730,40 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="166" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="166" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="165" fontId="5" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="166" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="165" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="166" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="165" fontId="5" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="165" fontId="5" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="166" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="166" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -758,14 +773,31 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="3">
-    <cellStyle name="Comma 2" xfId="2"/>
+  <cellStyles count="4">
+    <cellStyle name="Comma 2" xfId="2" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
+    <cellStyle name="Comma 2 2" xfId="3" xr:uid="{132CD317-36D4-4E52-8BC5-98C2BA28A376}"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="1"/>
+    <cellStyle name="Normal 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -23347,7 +23379,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light"/>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -23399,7 +23431,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -23600,193 +23632,249 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr transitionEvaluation="1">
     <pageSetUpPr autoPageBreaks="0"/>
   </sheetPr>
-  <dimension ref="A1:EX144"/>
+  <dimension ref="A1:EX171"/>
   <sheetViews>
-    <sheetView tabSelected="1" defaultGridColor="0" view="pageBreakPreview" colorId="22" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="CI1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="A3" sqref="A3"/>
+    <sheetView tabSelected="1" defaultGridColor="0" topLeftCell="A130" colorId="22" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="BW1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="CI70" sqref="CI70:CM87"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="7.81640625" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="7.77734375" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="38.36328125" style="1" customWidth="1"/>
-    <col min="2" max="77" width="8.90625" style="1" customWidth="1"/>
-    <col min="78" max="78" width="9.81640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="79" max="81" width="8.90625" style="1" customWidth="1"/>
-    <col min="82" max="89" width="9.54296875" style="15" customWidth="1"/>
-    <col min="90" max="16384" width="7.81640625" style="1"/>
+    <col min="1" max="1" width="38.33203125" style="1" customWidth="1"/>
+    <col min="2" max="77" width="8.88671875" style="1" customWidth="1"/>
+    <col min="78" max="78" width="9.77734375" style="15" bestFit="1" customWidth="1"/>
+    <col min="79" max="89" width="8.88671875" style="15" customWidth="1"/>
+    <col min="90" max="16384" width="7.77734375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:154" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:154" ht="15" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>2</v>
       </c>
+      <c r="CD1" s="23"/>
+      <c r="CE1" s="23"/>
+      <c r="CF1" s="23"/>
+      <c r="CG1" s="23"/>
+      <c r="CH1" s="23"/>
+      <c r="CI1" s="23"/>
+      <c r="CJ1" s="23"/>
+      <c r="CK1" s="23"/>
+      <c r="CL1" s="23"/>
     </row>
-    <row r="2" spans="1:154" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:154" ht="15" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>30</v>
       </c>
+      <c r="CD2" s="23"/>
+      <c r="CE2" s="23"/>
+      <c r="CF2" s="23"/>
+      <c r="CG2" s="23"/>
+      <c r="CH2" s="23"/>
+      <c r="CI2" s="23"/>
+      <c r="CJ2" s="23"/>
+      <c r="CK2" s="23"/>
+      <c r="CL2" s="23"/>
     </row>
-    <row r="3" spans="1:154" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:154" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
-        <v>49</v>
-      </c>
+        <v>50</v>
+      </c>
+      <c r="CD3" s="24"/>
+      <c r="CE3" s="24"/>
+      <c r="CF3" s="24"/>
+      <c r="CG3" s="24"/>
+      <c r="CH3" s="24"/>
+      <c r="CI3" s="24"/>
+      <c r="CJ3" s="24"/>
+      <c r="CK3" s="24"/>
+      <c r="CL3" s="24"/>
     </row>
-    <row r="5" spans="1:154" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:154" ht="15" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>16</v>
       </c>
+      <c r="CD5" s="23"/>
+      <c r="CE5" s="23"/>
+      <c r="CF5" s="23"/>
+      <c r="CG5" s="23"/>
+      <c r="CH5" s="23"/>
+      <c r="CI5" s="23"/>
+      <c r="CJ5" s="23"/>
+      <c r="CK5" s="23"/>
+      <c r="CL5" s="23"/>
     </row>
-    <row r="6" spans="1:154" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:154" ht="15" x14ac:dyDescent="0.2">
       <c r="A6" s="3" t="s">
-        <v>50</v>
-      </c>
+        <v>51</v>
+      </c>
+      <c r="CD6" s="23"/>
+      <c r="CE6" s="23"/>
+      <c r="CF6" s="23"/>
+      <c r="CG6" s="23"/>
+      <c r="CH6" s="23"/>
+      <c r="CI6" s="23"/>
+      <c r="CJ6" s="23"/>
+      <c r="CK6" s="23"/>
+      <c r="CL6" s="23"/>
     </row>
-    <row r="7" spans="1:154" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:154" ht="15" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
         <v>3</v>
       </c>
+      <c r="CD7" s="23"/>
+      <c r="CE7" s="23"/>
+      <c r="CF7" s="23"/>
+      <c r="CG7" s="23"/>
+      <c r="CH7" s="23"/>
+      <c r="CI7" s="23"/>
+      <c r="CJ7" s="23"/>
+      <c r="CK7" s="23"/>
+      <c r="CL7" s="23"/>
     </row>
-    <row r="9" spans="1:154" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:154" x14ac:dyDescent="0.2">
       <c r="A9" s="4"/>
-      <c r="B9" s="26">
+      <c r="B9" s="33">
         <v>2000</v>
       </c>
-      <c r="C9" s="26"/>
-      <c r="D9" s="26"/>
-      <c r="E9" s="26"/>
-      <c r="F9" s="26">
+      <c r="C9" s="33"/>
+      <c r="D9" s="33"/>
+      <c r="E9" s="33"/>
+      <c r="F9" s="33">
         <v>2001</v>
       </c>
-      <c r="G9" s="26"/>
-      <c r="H9" s="26"/>
-      <c r="I9" s="26"/>
-      <c r="J9" s="26">
+      <c r="G9" s="33"/>
+      <c r="H9" s="33"/>
+      <c r="I9" s="33"/>
+      <c r="J9" s="33">
         <v>2002</v>
       </c>
-      <c r="K9" s="26"/>
-      <c r="L9" s="26"/>
-      <c r="M9" s="26"/>
-      <c r="N9" s="26">
+      <c r="K9" s="33"/>
+      <c r="L9" s="33"/>
+      <c r="M9" s="33"/>
+      <c r="N9" s="33">
         <v>2003</v>
       </c>
-      <c r="O9" s="26"/>
-      <c r="P9" s="26"/>
-      <c r="Q9" s="26"/>
-      <c r="R9" s="26">
+      <c r="O9" s="33"/>
+      <c r="P9" s="33"/>
+      <c r="Q9" s="33"/>
+      <c r="R9" s="33">
         <v>2004</v>
       </c>
-      <c r="S9" s="26"/>
-      <c r="T9" s="26"/>
-      <c r="U9" s="26"/>
-      <c r="V9" s="26">
+      <c r="S9" s="33"/>
+      <c r="T9" s="33"/>
+      <c r="U9" s="33"/>
+      <c r="V9" s="33">
         <v>2005</v>
       </c>
-      <c r="W9" s="26"/>
-      <c r="X9" s="26"/>
-      <c r="Y9" s="26"/>
-      <c r="Z9" s="26">
+      <c r="W9" s="33"/>
+      <c r="X9" s="33"/>
+      <c r="Y9" s="33"/>
+      <c r="Z9" s="33">
         <v>2006</v>
       </c>
-      <c r="AA9" s="26"/>
-      <c r="AB9" s="26"/>
-      <c r="AC9" s="26"/>
-      <c r="AD9" s="26">
+      <c r="AA9" s="33"/>
+      <c r="AB9" s="33"/>
+      <c r="AC9" s="33"/>
+      <c r="AD9" s="33">
         <v>2007</v>
       </c>
-      <c r="AE9" s="26"/>
-      <c r="AF9" s="26"/>
-      <c r="AG9" s="26"/>
-      <c r="AH9" s="26">
+      <c r="AE9" s="33"/>
+      <c r="AF9" s="33"/>
+      <c r="AG9" s="33"/>
+      <c r="AH9" s="33">
         <v>2008</v>
       </c>
-      <c r="AI9" s="26"/>
-      <c r="AJ9" s="26"/>
-      <c r="AK9" s="26"/>
-      <c r="AL9" s="26">
+      <c r="AI9" s="33"/>
+      <c r="AJ9" s="33"/>
+      <c r="AK9" s="33"/>
+      <c r="AL9" s="33">
         <v>2009</v>
       </c>
-      <c r="AM9" s="26"/>
-      <c r="AN9" s="26"/>
-      <c r="AO9" s="26"/>
-      <c r="AP9" s="26">
+      <c r="AM9" s="33"/>
+      <c r="AN9" s="33"/>
+      <c r="AO9" s="33"/>
+      <c r="AP9" s="33">
         <v>2010</v>
       </c>
-      <c r="AQ9" s="26"/>
-      <c r="AR9" s="26"/>
-      <c r="AS9" s="26"/>
-      <c r="AT9" s="26">
+      <c r="AQ9" s="33"/>
+      <c r="AR9" s="33"/>
+      <c r="AS9" s="33"/>
+      <c r="AT9" s="33">
         <v>2011</v>
       </c>
-      <c r="AU9" s="26"/>
-      <c r="AV9" s="26"/>
-      <c r="AW9" s="26"/>
-      <c r="AX9" s="26">
+      <c r="AU9" s="33"/>
+      <c r="AV9" s="33"/>
+      <c r="AW9" s="33"/>
+      <c r="AX9" s="33">
         <v>2012</v>
       </c>
-      <c r="AY9" s="26"/>
-      <c r="AZ9" s="26"/>
-      <c r="BA9" s="26"/>
-      <c r="BB9" s="26">
+      <c r="AY9" s="33"/>
+      <c r="AZ9" s="33"/>
+      <c r="BA9" s="33"/>
+      <c r="BB9" s="33">
         <v>2013</v>
       </c>
-      <c r="BC9" s="26"/>
-      <c r="BD9" s="26"/>
-      <c r="BE9" s="26"/>
-      <c r="BF9" s="26">
+      <c r="BC9" s="33"/>
+      <c r="BD9" s="33"/>
+      <c r="BE9" s="33"/>
+      <c r="BF9" s="33">
         <v>2014</v>
       </c>
-      <c r="BG9" s="26"/>
-      <c r="BH9" s="26"/>
-      <c r="BI9" s="26"/>
-      <c r="BJ9" s="26">
+      <c r="BG9" s="33"/>
+      <c r="BH9" s="33"/>
+      <c r="BI9" s="33"/>
+      <c r="BJ9" s="33">
         <v>2015</v>
       </c>
-      <c r="BK9" s="26"/>
-      <c r="BL9" s="26"/>
-      <c r="BM9" s="26"/>
-      <c r="BN9" s="26">
+      <c r="BK9" s="33"/>
+      <c r="BL9" s="33"/>
+      <c r="BM9" s="33"/>
+      <c r="BN9" s="33">
         <v>2016</v>
       </c>
-      <c r="BO9" s="26"/>
-      <c r="BP9" s="26"/>
-      <c r="BQ9" s="26"/>
-      <c r="BR9" s="26">
+      <c r="BO9" s="33"/>
+      <c r="BP9" s="33"/>
+      <c r="BQ9" s="33"/>
+      <c r="BR9" s="33">
         <v>2017</v>
       </c>
-      <c r="BS9" s="26"/>
-      <c r="BT9" s="26"/>
-      <c r="BU9" s="26"/>
-      <c r="BV9" s="26">
+      <c r="BS9" s="33"/>
+      <c r="BT9" s="33"/>
+      <c r="BU9" s="33"/>
+      <c r="BV9" s="33">
         <v>2018</v>
       </c>
-      <c r="BW9" s="26"/>
-      <c r="BX9" s="26"/>
-      <c r="BY9" s="26"/>
-      <c r="BZ9" s="26">
+      <c r="BW9" s="33"/>
+      <c r="BX9" s="33"/>
+      <c r="BY9" s="33"/>
+      <c r="BZ9" s="35">
         <v>2019</v>
       </c>
-      <c r="CA9" s="26"/>
-      <c r="CB9" s="26"/>
-      <c r="CC9" s="26"/>
-      <c r="CD9" s="25">
+      <c r="CA9" s="35"/>
+      <c r="CB9" s="35"/>
+      <c r="CC9" s="35"/>
+      <c r="CD9" s="35">
         <v>2020</v>
       </c>
-      <c r="CE9" s="25"/>
-      <c r="CF9" s="25"/>
-      <c r="CG9" s="25"/>
-      <c r="CH9" s="25">
+      <c r="CE9" s="35"/>
+      <c r="CF9" s="35"/>
+      <c r="CG9" s="35"/>
+      <c r="CH9" s="35">
         <v>2021</v>
       </c>
-      <c r="CI9" s="25"/>
-      <c r="CJ9" s="25"/>
-      <c r="CK9" s="25"/>
+      <c r="CI9" s="35"/>
+      <c r="CJ9" s="35"/>
+      <c r="CK9" s="35"/>
+      <c r="CL9" s="32">
+        <v>2022</v>
+      </c>
     </row>
-    <row r="10" spans="1:154" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:154" x14ac:dyDescent="0.2">
       <c r="A10" s="5" t="s">
         <v>4</v>
       </c>
@@ -24018,47 +24106,59 @@
       <c r="BY10" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="BZ10" s="6" t="s">
+      <c r="BZ10" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="CA10" s="6" t="s">
+      <c r="CA10" s="16" t="s">
         <v>8</v>
       </c>
-      <c r="CB10" s="6" t="s">
+      <c r="CB10" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="CC10" s="6" t="s">
+      <c r="CC10" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="CD10" s="16" t="s">
+      <c r="CD10" s="26" t="s">
         <v>7</v>
       </c>
-      <c r="CE10" s="16" t="s">
+      <c r="CE10" s="26" t="s">
         <v>8</v>
       </c>
-      <c r="CF10" s="16" t="s">
+      <c r="CF10" s="26" t="s">
         <v>10</v>
       </c>
-      <c r="CG10" s="16" t="s">
+      <c r="CG10" s="26" t="s">
         <v>9</v>
       </c>
-      <c r="CH10" s="16" t="s">
+      <c r="CH10" s="26" t="s">
         <v>7</v>
       </c>
-      <c r="CI10" s="16" t="s">
+      <c r="CI10" s="26" t="s">
         <v>8</v>
       </c>
-      <c r="CJ10" s="16" t="s">
+      <c r="CJ10" s="26" t="s">
         <v>10</v>
       </c>
-      <c r="CK10" s="16" t="s">
+      <c r="CK10" s="26" t="s">
         <v>9</v>
       </c>
+      <c r="CL10" s="26" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="11" spans="1:154" ht="10.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:154" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="7"/>
+      <c r="CD11" s="23"/>
+      <c r="CE11" s="23"/>
+      <c r="CF11" s="23"/>
+      <c r="CG11" s="23"/>
+      <c r="CH11" s="23"/>
+      <c r="CI11" s="23"/>
+      <c r="CJ11" s="23"/>
+      <c r="CK11" s="23"/>
+      <c r="CL11" s="23"/>
     </row>
-    <row r="12" spans="1:154" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:154" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
         <v>11</v>
       </c>
@@ -24290,43 +24390,45 @@
       <c r="BY12" s="8">
         <v>171758.15442420871</v>
       </c>
-      <c r="BZ12" s="8">
+      <c r="BZ12" s="17">
         <v>219669.70496068103</v>
       </c>
-      <c r="CA12" s="8">
+      <c r="CA12" s="17">
         <v>195113.60987043899</v>
       </c>
-      <c r="CB12" s="8">
+      <c r="CB12" s="17">
         <v>215101.41575939403</v>
       </c>
-      <c r="CC12" s="8">
+      <c r="CC12" s="17">
         <v>197840.3381374013</v>
       </c>
-      <c r="CD12" s="17">
+      <c r="CD12" s="30">
         <v>262280.06275940745</v>
       </c>
-      <c r="CE12" s="17">
+      <c r="CE12" s="30">
         <v>228212.91183210266</v>
       </c>
-      <c r="CF12" s="17">
+      <c r="CF12" s="30">
         <v>244341.62253450145</v>
       </c>
-      <c r="CG12" s="17">
-        <v>219259.50626945926</v>
-      </c>
-      <c r="CH12" s="17">
+      <c r="CG12" s="30">
+        <v>220670.35038180312</v>
+      </c>
+      <c r="CH12" s="30">
         <v>285811.80137279734</v>
       </c>
-      <c r="CI12" s="17">
+      <c r="CI12" s="30">
         <v>241270.72470107194</v>
       </c>
-      <c r="CJ12" s="17">
+      <c r="CJ12" s="30">
         <v>255605.85108247871</v>
       </c>
-      <c r="CK12" s="17">
-        <v>227604.40308602521</v>
-      </c>
-      <c r="CL12" s="9"/>
+      <c r="CK12" s="30">
+        <v>232068.28065931782</v>
+      </c>
+      <c r="CL12" s="30">
+        <v>315398.48813277623</v>
+      </c>
       <c r="CM12" s="9"/>
       <c r="CN12" s="9"/>
       <c r="CO12" s="9"/>
@@ -24392,7 +24494,7 @@
       <c r="EW12" s="9"/>
       <c r="EX12" s="9"/>
     </row>
-    <row r="13" spans="1:154" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:154" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="10" t="s">
         <v>12</v>
       </c>
@@ -24624,43 +24726,45 @@
       <c r="BY13" s="8">
         <v>116974.66252303458</v>
       </c>
-      <c r="BZ13" s="8">
+      <c r="BZ13" s="17">
         <v>105746.110845818</v>
       </c>
-      <c r="CA13" s="8">
+      <c r="CA13" s="17">
         <v>165952.06470763401</v>
       </c>
-      <c r="CB13" s="8">
+      <c r="CB13" s="17">
         <v>113090.56931427699</v>
       </c>
-      <c r="CC13" s="8">
+      <c r="CC13" s="17">
         <v>130890.65630534028</v>
       </c>
-      <c r="CD13" s="17">
+      <c r="CD13" s="30">
         <v>110710.95139167535</v>
       </c>
-      <c r="CE13" s="17">
+      <c r="CE13" s="30">
         <v>170582.44393048628</v>
       </c>
-      <c r="CF13" s="17">
+      <c r="CF13" s="30">
         <v>118276.97256917531</v>
       </c>
-      <c r="CG13" s="17">
-        <v>138466.92118614569</v>
-      </c>
-      <c r="CH13" s="17">
+      <c r="CG13" s="30">
+        <v>138466.92118614574</v>
+      </c>
+      <c r="CH13" s="30">
         <v>119209.24000858559</v>
       </c>
-      <c r="CI13" s="17">
+      <c r="CI13" s="30">
         <v>185594.02999873378</v>
       </c>
-      <c r="CJ13" s="17">
+      <c r="CJ13" s="30">
         <v>124234.61783115598</v>
       </c>
-      <c r="CK13" s="17">
-        <v>152649.72215494071</v>
-      </c>
-      <c r="CL13" s="9"/>
+      <c r="CK13" s="30">
+        <v>153047.80115056271</v>
+      </c>
+      <c r="CL13" s="30">
+        <v>135750.3555803147</v>
+      </c>
       <c r="CM13" s="9"/>
       <c r="CN13" s="9"/>
       <c r="CO13" s="9"/>
@@ -24726,7 +24830,7 @@
       <c r="EW13" s="9"/>
       <c r="EX13" s="9"/>
     </row>
-    <row r="14" spans="1:154" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:154" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
         <v>13</v>
       </c>
@@ -24958,43 +25062,45 @@
       <c r="BY14" s="8">
         <v>65553.07159954212</v>
       </c>
-      <c r="BZ14" s="8">
+      <c r="BZ14" s="17">
         <v>62012.103965532297</v>
       </c>
-      <c r="CA14" s="8">
+      <c r="CA14" s="17">
         <v>58306.47845110741</v>
       </c>
-      <c r="CB14" s="8">
+      <c r="CB14" s="17">
         <v>62930.999350437691</v>
       </c>
-      <c r="CC14" s="8">
+      <c r="CC14" s="17">
         <v>67624.250269275552</v>
       </c>
-      <c r="CD14" s="17">
+      <c r="CD14" s="30">
         <v>60676.152132797288</v>
       </c>
-      <c r="CE14" s="17">
+      <c r="CE14" s="30">
         <v>52117.968748041909</v>
       </c>
-      <c r="CF14" s="17">
+      <c r="CF14" s="30">
         <v>57306.799684223166</v>
       </c>
-      <c r="CG14" s="17">
+      <c r="CG14" s="30">
         <v>65560.128340255469</v>
       </c>
-      <c r="CH14" s="17">
+      <c r="CH14" s="30">
         <v>64958.664094635562</v>
       </c>
-      <c r="CI14" s="17">
+      <c r="CI14" s="30">
         <v>61694.814736513654</v>
       </c>
-      <c r="CJ14" s="17">
+      <c r="CJ14" s="30">
         <v>64247.03506033076</v>
       </c>
-      <c r="CK14" s="17">
+      <c r="CK14" s="30">
         <v>73433.317096158891</v>
       </c>
-      <c r="CL14" s="9"/>
+      <c r="CL14" s="30">
+        <v>70361.679415115359</v>
+      </c>
       <c r="CM14" s="9"/>
       <c r="CN14" s="9"/>
       <c r="CO14" s="9"/>
@@ -25060,7 +25166,7 @@
       <c r="EW14" s="9"/>
       <c r="EX14" s="9"/>
     </row>
-    <row r="15" spans="1:154" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:154" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
         <v>14</v>
       </c>
@@ -25292,43 +25398,45 @@
       <c r="BY15" s="8">
         <v>22322.030127738679</v>
       </c>
-      <c r="BZ15" s="8">
+      <c r="BZ15" s="17">
         <v>19362.515933386501</v>
       </c>
-      <c r="CA15" s="8">
+      <c r="CA15" s="17">
         <v>23908.988922600001</v>
       </c>
-      <c r="CB15" s="8">
+      <c r="CB15" s="17">
         <v>20133.5744016196</v>
       </c>
-      <c r="CC15" s="8">
+      <c r="CC15" s="17">
         <v>24186.71689093428</v>
       </c>
-      <c r="CD15" s="17">
+      <c r="CD15" s="30">
         <v>22460.71080787963</v>
       </c>
-      <c r="CE15" s="17">
+      <c r="CE15" s="30">
         <v>25981.435137263194</v>
       </c>
-      <c r="CF15" s="17">
+      <c r="CF15" s="30">
         <v>21140.629551978112</v>
       </c>
-      <c r="CG15" s="17">
+      <c r="CG15" s="30">
         <v>25192.660658591107</v>
       </c>
-      <c r="CH15" s="17">
+      <c r="CH15" s="30">
         <v>24004.941405557605</v>
       </c>
-      <c r="CI15" s="17">
+      <c r="CI15" s="30">
         <v>27273.431823550629</v>
       </c>
-      <c r="CJ15" s="17">
+      <c r="CJ15" s="30">
         <v>22938.949970989983</v>
       </c>
-      <c r="CK15" s="17">
+      <c r="CK15" s="30">
         <v>26528.0211832399</v>
       </c>
-      <c r="CL15" s="9"/>
+      <c r="CL15" s="30">
+        <v>27090.361909978958</v>
+      </c>
       <c r="CM15" s="9"/>
       <c r="CN15" s="9"/>
       <c r="CO15" s="9"/>
@@ -25394,7 +25502,7 @@
       <c r="EW15" s="9"/>
       <c r="EX15" s="9"/>
     </row>
-    <row r="16" spans="1:154" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:154" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B16" s="9"/>
       <c r="C16" s="9"/>
       <c r="D16" s="9"/>
@@ -25471,19 +25579,19 @@
       <c r="BW16" s="9"/>
       <c r="BX16" s="9"/>
       <c r="BY16" s="9"/>
-      <c r="BZ16" s="9"/>
-      <c r="CA16" s="9"/>
-      <c r="CB16" s="9"/>
-      <c r="CC16" s="9"/>
-      <c r="CD16" s="18"/>
-      <c r="CE16" s="18"/>
-      <c r="CF16" s="18"/>
-      <c r="CG16" s="18"/>
-      <c r="CH16" s="18"/>
-      <c r="CI16" s="18"/>
-      <c r="CJ16" s="18"/>
-      <c r="CK16" s="18"/>
-      <c r="CL16" s="9"/>
+      <c r="BZ16" s="18"/>
+      <c r="CA16" s="18"/>
+      <c r="CB16" s="18"/>
+      <c r="CC16" s="18"/>
+      <c r="CD16" s="28"/>
+      <c r="CE16" s="28"/>
+      <c r="CF16" s="28"/>
+      <c r="CG16" s="28"/>
+      <c r="CH16" s="28"/>
+      <c r="CI16" s="28"/>
+      <c r="CJ16" s="28"/>
+      <c r="CK16" s="28"/>
+      <c r="CL16" s="28"/>
       <c r="CM16" s="9"/>
       <c r="CN16" s="9"/>
       <c r="CO16" s="9"/>
@@ -25549,7 +25657,7 @@
       <c r="EW16" s="9"/>
       <c r="EX16" s="9"/>
     </row>
-    <row r="17" spans="1:154" ht="30.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:154" ht="30.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="10" t="s">
         <v>15</v>
       </c>
@@ -25781,43 +25889,45 @@
       <c r="BY17" s="11">
         <v>376607.91867452406</v>
       </c>
-      <c r="BZ17" s="11">
+      <c r="BZ17" s="19">
         <v>406790.43570541788</v>
       </c>
-      <c r="CA17" s="11">
+      <c r="CA17" s="19">
         <v>443281.14195178036</v>
       </c>
-      <c r="CB17" s="11">
+      <c r="CB17" s="19">
         <v>411256.55882572837</v>
       </c>
-      <c r="CC17" s="11">
+      <c r="CC17" s="19">
         <v>420541.9616029514</v>
       </c>
-      <c r="CD17" s="19">
+      <c r="CD17" s="31">
         <v>456127.8770917597</v>
       </c>
-      <c r="CE17" s="19">
+      <c r="CE17" s="31">
         <v>476894.75964789401</v>
       </c>
-      <c r="CF17" s="19">
+      <c r="CF17" s="31">
         <v>441066.024339878</v>
       </c>
-      <c r="CG17" s="19">
-        <v>448479.21645445155</v>
-      </c>
-      <c r="CH17" s="19">
+      <c r="CG17" s="31">
+        <v>449890.06056679541</v>
+      </c>
+      <c r="CH17" s="31">
         <v>493984.64688157616</v>
       </c>
-      <c r="CI17" s="19">
+      <c r="CI17" s="31">
         <v>515833.00125987001</v>
       </c>
-      <c r="CJ17" s="19">
+      <c r="CJ17" s="31">
         <v>467026.45394495537</v>
       </c>
-      <c r="CK17" s="19">
-        <v>480215.46352036472</v>
-      </c>
-      <c r="CL17" s="9"/>
+      <c r="CK17" s="31">
+        <v>485077.4200892793</v>
+      </c>
+      <c r="CL17" s="31">
+        <v>548600.88503818517</v>
+      </c>
       <c r="CM17" s="9"/>
       <c r="CN17" s="9"/>
       <c r="CO17" s="9"/>
@@ -25883,7 +25993,7 @@
       <c r="EW17" s="9"/>
       <c r="EX17" s="9"/>
     </row>
-    <row r="18" spans="1:154" ht="7.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:154" ht="7.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="12"/>
       <c r="B18" s="12"/>
       <c r="C18" s="12"/>
@@ -25961,25 +26071,35 @@
       <c r="BW18" s="12"/>
       <c r="BX18" s="12"/>
       <c r="BY18" s="12"/>
-      <c r="BZ18" s="12"/>
-      <c r="CA18" s="12"/>
-      <c r="CB18" s="12"/>
-      <c r="CC18" s="12"/>
-      <c r="CD18" s="20"/>
-      <c r="CE18" s="20"/>
-      <c r="CF18" s="20"/>
-      <c r="CG18" s="20"/>
-      <c r="CH18" s="20"/>
-      <c r="CI18" s="20"/>
-      <c r="CJ18" s="20"/>
-      <c r="CK18" s="20"/>
+      <c r="BZ18" s="20"/>
+      <c r="CA18" s="20"/>
+      <c r="CB18" s="20"/>
+      <c r="CC18" s="20"/>
+      <c r="CD18" s="27"/>
+      <c r="CE18" s="27"/>
+      <c r="CF18" s="27"/>
+      <c r="CG18" s="27"/>
+      <c r="CH18" s="27"/>
+      <c r="CI18" s="27"/>
+      <c r="CJ18" s="27"/>
+      <c r="CK18" s="27"/>
+      <c r="CL18" s="27"/>
     </row>
-    <row r="19" spans="1:154" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:154" ht="15" x14ac:dyDescent="0.2">
       <c r="A19" s="13" t="s">
         <v>0</v>
       </c>
+      <c r="CD19" s="23"/>
+      <c r="CE19" s="23"/>
+      <c r="CF19" s="23"/>
+      <c r="CG19" s="23"/>
+      <c r="CH19" s="23"/>
+      <c r="CI19" s="23"/>
+      <c r="CJ19" s="23"/>
+      <c r="CK19" s="23"/>
+      <c r="CL19" s="23"/>
     </row>
-    <row r="20" spans="1:154" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:154" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B20" s="9"/>
       <c r="C20" s="9"/>
       <c r="D20" s="9"/>
@@ -26056,19 +26176,19 @@
       <c r="BW20" s="9"/>
       <c r="BX20" s="9"/>
       <c r="BY20" s="9"/>
-      <c r="BZ20" s="9"/>
-      <c r="CA20" s="9"/>
-      <c r="CB20" s="9"/>
-      <c r="CC20" s="9"/>
-      <c r="CD20" s="18"/>
-      <c r="CE20" s="18"/>
-      <c r="CF20" s="18"/>
-      <c r="CG20" s="18"/>
-      <c r="CH20" s="18"/>
-      <c r="CI20" s="18"/>
-      <c r="CJ20" s="18"/>
-      <c r="CK20" s="18"/>
-      <c r="CL20" s="9"/>
+      <c r="BZ20" s="18"/>
+      <c r="CA20" s="18"/>
+      <c r="CB20" s="18"/>
+      <c r="CC20" s="18"/>
+      <c r="CD20" s="28"/>
+      <c r="CE20" s="28"/>
+      <c r="CF20" s="28"/>
+      <c r="CG20" s="28"/>
+      <c r="CH20" s="28"/>
+      <c r="CI20" s="28"/>
+      <c r="CJ20" s="28"/>
+      <c r="CK20" s="28"/>
+      <c r="CL20" s="28"/>
       <c r="CM20" s="9"/>
       <c r="CN20" s="9"/>
       <c r="CO20" s="9"/>
@@ -26134,7 +26254,7 @@
       <c r="EW20" s="9"/>
       <c r="EX20" s="9"/>
     </row>
-    <row r="21" spans="1:154" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:154" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B21" s="9"/>
       <c r="C21" s="9"/>
       <c r="D21" s="9"/>
@@ -26211,19 +26331,19 @@
       <c r="BW21" s="9"/>
       <c r="BX21" s="9"/>
       <c r="BY21" s="9"/>
-      <c r="BZ21" s="9"/>
-      <c r="CA21" s="9"/>
-      <c r="CB21" s="9"/>
-      <c r="CC21" s="9"/>
-      <c r="CD21" s="18"/>
-      <c r="CE21" s="18"/>
-      <c r="CF21" s="18"/>
-      <c r="CG21" s="18"/>
-      <c r="CH21" s="18"/>
-      <c r="CI21" s="18"/>
-      <c r="CJ21" s="18"/>
-      <c r="CK21" s="18"/>
-      <c r="CL21" s="9"/>
+      <c r="BZ21" s="18"/>
+      <c r="CA21" s="18"/>
+      <c r="CB21" s="18"/>
+      <c r="CC21" s="18"/>
+      <c r="CD21" s="28"/>
+      <c r="CE21" s="28"/>
+      <c r="CF21" s="28"/>
+      <c r="CG21" s="28"/>
+      <c r="CH21" s="28"/>
+      <c r="CI21" s="28"/>
+      <c r="CJ21" s="28"/>
+      <c r="CK21" s="28"/>
+      <c r="CL21" s="28"/>
       <c r="CM21" s="9"/>
       <c r="CN21" s="9"/>
       <c r="CO21" s="9"/>
@@ -26289,172 +26409,229 @@
       <c r="EW21" s="9"/>
       <c r="EX21" s="9"/>
     </row>
-    <row r="22" spans="1:154" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:154" ht="15" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
         <v>2</v>
       </c>
+      <c r="CD22" s="23"/>
+      <c r="CE22" s="23"/>
+      <c r="CF22" s="23"/>
+      <c r="CG22" s="23"/>
+      <c r="CH22" s="23"/>
+      <c r="CI22" s="23"/>
+      <c r="CJ22" s="23"/>
+      <c r="CK22" s="23"/>
+      <c r="CL22" s="23"/>
     </row>
-    <row r="23" spans="1:154" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:154" ht="15" x14ac:dyDescent="0.2">
       <c r="A23" s="1" t="s">
         <v>30</v>
       </c>
+      <c r="CD23" s="23"/>
+      <c r="CE23" s="23"/>
+      <c r="CF23" s="23"/>
+      <c r="CG23" s="23"/>
+      <c r="CH23" s="23"/>
+      <c r="CI23" s="23"/>
+      <c r="CJ23" s="23"/>
+      <c r="CK23" s="23"/>
+      <c r="CL23" s="23"/>
     </row>
-    <row r="24" spans="1:154" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:154" ht="15" x14ac:dyDescent="0.2">
       <c r="A24" s="1" t="s">
-        <v>49</v>
-      </c>
+        <v>50</v>
+      </c>
+      <c r="CD24" s="23"/>
+      <c r="CE24" s="23"/>
+      <c r="CF24" s="23"/>
+      <c r="CG24" s="23"/>
+      <c r="CH24" s="23"/>
+      <c r="CI24" s="23"/>
+      <c r="CJ24" s="23"/>
+      <c r="CK24" s="23"/>
+      <c r="CL24" s="23"/>
     </row>
-    <row r="26" spans="1:154" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:154" ht="15" x14ac:dyDescent="0.2">
       <c r="A26" s="1" t="s">
         <v>17</v>
       </c>
+      <c r="CD26" s="23"/>
+      <c r="CE26" s="23"/>
+      <c r="CF26" s="23"/>
+      <c r="CG26" s="23"/>
+      <c r="CH26" s="23"/>
+      <c r="CI26" s="23"/>
+      <c r="CJ26" s="23"/>
+      <c r="CK26" s="23"/>
+      <c r="CL26" s="23"/>
     </row>
-    <row r="27" spans="1:154" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:154" ht="15" x14ac:dyDescent="0.2">
       <c r="A27" s="1" t="s">
-        <v>50</v>
-      </c>
+        <v>51</v>
+      </c>
+      <c r="CD27" s="23"/>
+      <c r="CE27" s="23"/>
+      <c r="CF27" s="23"/>
+      <c r="CG27" s="23"/>
+      <c r="CH27" s="23"/>
+      <c r="CI27" s="23"/>
+      <c r="CJ27" s="23"/>
+      <c r="CK27" s="23"/>
+      <c r="CL27" s="23"/>
     </row>
-    <row r="28" spans="1:154" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:154" ht="15" x14ac:dyDescent="0.2">
       <c r="A28" s="1" t="s">
         <v>5</v>
       </c>
+      <c r="CD28" s="23"/>
+      <c r="CE28" s="23"/>
+      <c r="CF28" s="23"/>
+      <c r="CG28" s="23"/>
+      <c r="CH28" s="23"/>
+      <c r="CI28" s="23"/>
+      <c r="CJ28" s="23"/>
+      <c r="CK28" s="23"/>
+      <c r="CL28" s="23"/>
     </row>
-    <row r="30" spans="1:154" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:154" x14ac:dyDescent="0.2">
       <c r="A30" s="4"/>
-      <c r="B30" s="26">
+      <c r="B30" s="33">
         <v>2000</v>
       </c>
-      <c r="C30" s="27"/>
-      <c r="D30" s="27"/>
-      <c r="E30" s="27"/>
-      <c r="F30" s="26">
+      <c r="C30" s="34"/>
+      <c r="D30" s="34"/>
+      <c r="E30" s="34"/>
+      <c r="F30" s="33">
         <v>2001</v>
       </c>
-      <c r="G30" s="27"/>
-      <c r="H30" s="27"/>
-      <c r="I30" s="27"/>
-      <c r="J30" s="26">
+      <c r="G30" s="34"/>
+      <c r="H30" s="34"/>
+      <c r="I30" s="34"/>
+      <c r="J30" s="33">
         <v>2002</v>
       </c>
-      <c r="K30" s="27"/>
-      <c r="L30" s="27"/>
-      <c r="M30" s="27"/>
-      <c r="N30" s="26">
+      <c r="K30" s="34"/>
+      <c r="L30" s="34"/>
+      <c r="M30" s="34"/>
+      <c r="N30" s="33">
         <v>2003</v>
       </c>
-      <c r="O30" s="27"/>
-      <c r="P30" s="27"/>
-      <c r="Q30" s="27"/>
-      <c r="R30" s="26">
+      <c r="O30" s="34"/>
+      <c r="P30" s="34"/>
+      <c r="Q30" s="34"/>
+      <c r="R30" s="33">
         <v>2004</v>
       </c>
-      <c r="S30" s="27"/>
-      <c r="T30" s="27"/>
-      <c r="U30" s="27"/>
-      <c r="V30" s="26">
+      <c r="S30" s="34"/>
+      <c r="T30" s="34"/>
+      <c r="U30" s="34"/>
+      <c r="V30" s="33">
         <v>2005</v>
       </c>
-      <c r="W30" s="27"/>
-      <c r="X30" s="27"/>
-      <c r="Y30" s="27"/>
-      <c r="Z30" s="26">
+      <c r="W30" s="34"/>
+      <c r="X30" s="34"/>
+      <c r="Y30" s="34"/>
+      <c r="Z30" s="33">
         <v>2006</v>
       </c>
-      <c r="AA30" s="27"/>
-      <c r="AB30" s="27"/>
-      <c r="AC30" s="27"/>
-      <c r="AD30" s="26">
+      <c r="AA30" s="34"/>
+      <c r="AB30" s="34"/>
+      <c r="AC30" s="34"/>
+      <c r="AD30" s="33">
         <v>2007</v>
       </c>
-      <c r="AE30" s="27"/>
-      <c r="AF30" s="27"/>
-      <c r="AG30" s="27"/>
-      <c r="AH30" s="26">
+      <c r="AE30" s="34"/>
+      <c r="AF30" s="34"/>
+      <c r="AG30" s="34"/>
+      <c r="AH30" s="33">
         <v>2008</v>
       </c>
-      <c r="AI30" s="27"/>
-      <c r="AJ30" s="27"/>
-      <c r="AK30" s="27"/>
-      <c r="AL30" s="26">
+      <c r="AI30" s="34"/>
+      <c r="AJ30" s="34"/>
+      <c r="AK30" s="34"/>
+      <c r="AL30" s="33">
         <v>2009</v>
       </c>
-      <c r="AM30" s="27"/>
-      <c r="AN30" s="27"/>
-      <c r="AO30" s="27"/>
-      <c r="AP30" s="26">
+      <c r="AM30" s="34"/>
+      <c r="AN30" s="34"/>
+      <c r="AO30" s="34"/>
+      <c r="AP30" s="33">
         <v>2010</v>
       </c>
-      <c r="AQ30" s="27"/>
-      <c r="AR30" s="27"/>
-      <c r="AS30" s="27"/>
-      <c r="AT30" s="26">
+      <c r="AQ30" s="34"/>
+      <c r="AR30" s="34"/>
+      <c r="AS30" s="34"/>
+      <c r="AT30" s="33">
         <v>2011</v>
       </c>
-      <c r="AU30" s="27"/>
-      <c r="AV30" s="27"/>
-      <c r="AW30" s="27"/>
-      <c r="AX30" s="26">
+      <c r="AU30" s="34"/>
+      <c r="AV30" s="34"/>
+      <c r="AW30" s="34"/>
+      <c r="AX30" s="33">
         <v>2012</v>
       </c>
-      <c r="AY30" s="27"/>
-      <c r="AZ30" s="27"/>
-      <c r="BA30" s="27"/>
-      <c r="BB30" s="26">
+      <c r="AY30" s="34"/>
+      <c r="AZ30" s="34"/>
+      <c r="BA30" s="34"/>
+      <c r="BB30" s="33">
         <v>2013</v>
       </c>
-      <c r="BC30" s="27"/>
-      <c r="BD30" s="27"/>
-      <c r="BE30" s="27"/>
-      <c r="BF30" s="26">
+      <c r="BC30" s="34"/>
+      <c r="BD30" s="34"/>
+      <c r="BE30" s="34"/>
+      <c r="BF30" s="33">
         <v>2014</v>
       </c>
-      <c r="BG30" s="27"/>
-      <c r="BH30" s="27"/>
-      <c r="BI30" s="27"/>
-      <c r="BJ30" s="26">
+      <c r="BG30" s="34"/>
+      <c r="BH30" s="34"/>
+      <c r="BI30" s="34"/>
+      <c r="BJ30" s="33">
         <v>2015</v>
       </c>
-      <c r="BK30" s="27"/>
-      <c r="BL30" s="27"/>
-      <c r="BM30" s="27"/>
-      <c r="BN30" s="26">
+      <c r="BK30" s="34"/>
+      <c r="BL30" s="34"/>
+      <c r="BM30" s="34"/>
+      <c r="BN30" s="33">
         <v>2016</v>
       </c>
-      <c r="BO30" s="27"/>
-      <c r="BP30" s="27"/>
-      <c r="BQ30" s="27"/>
-      <c r="BR30" s="26">
+      <c r="BO30" s="34"/>
+      <c r="BP30" s="34"/>
+      <c r="BQ30" s="34"/>
+      <c r="BR30" s="33">
         <v>2017</v>
       </c>
-      <c r="BS30" s="27"/>
-      <c r="BT30" s="27"/>
-      <c r="BU30" s="27"/>
-      <c r="BV30" s="26">
+      <c r="BS30" s="34"/>
+      <c r="BT30" s="34"/>
+      <c r="BU30" s="34"/>
+      <c r="BV30" s="33">
         <v>2018</v>
       </c>
-      <c r="BW30" s="27"/>
-      <c r="BX30" s="27"/>
-      <c r="BY30" s="27"/>
-      <c r="BZ30" s="26">
+      <c r="BW30" s="34"/>
+      <c r="BX30" s="34"/>
+      <c r="BY30" s="34"/>
+      <c r="BZ30" s="35">
         <v>2019</v>
       </c>
-      <c r="CA30" s="27"/>
-      <c r="CB30" s="27"/>
-      <c r="CC30" s="27"/>
-      <c r="CD30" s="25">
+      <c r="CA30" s="36"/>
+      <c r="CB30" s="36"/>
+      <c r="CC30" s="36"/>
+      <c r="CD30" s="35">
         <v>2020</v>
       </c>
-      <c r="CE30" s="25"/>
-      <c r="CF30" s="25"/>
-      <c r="CG30" s="25"/>
-      <c r="CH30" s="25">
+      <c r="CE30" s="35"/>
+      <c r="CF30" s="35"/>
+      <c r="CG30" s="35"/>
+      <c r="CH30" s="35">
         <v>2021</v>
       </c>
-      <c r="CI30" s="25"/>
-      <c r="CJ30" s="25"/>
-      <c r="CK30" s="25"/>
+      <c r="CI30" s="35"/>
+      <c r="CJ30" s="35"/>
+      <c r="CK30" s="35"/>
+      <c r="CL30" s="32">
+        <v>2022</v>
+      </c>
     </row>
-    <row r="31" spans="1:154" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:154" x14ac:dyDescent="0.2">
       <c r="A31" s="5" t="s">
         <v>4</v>
       </c>
@@ -26686,47 +26863,59 @@
       <c r="BY31" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="BZ31" s="6" t="s">
+      <c r="BZ31" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="CA31" s="6" t="s">
+      <c r="CA31" s="16" t="s">
         <v>8</v>
       </c>
-      <c r="CB31" s="6" t="s">
+      <c r="CB31" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="CC31" s="6" t="s">
+      <c r="CC31" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="CD31" s="16" t="s">
+      <c r="CD31" s="26" t="s">
         <v>7</v>
       </c>
-      <c r="CE31" s="16" t="s">
+      <c r="CE31" s="26" t="s">
         <v>8</v>
       </c>
-      <c r="CF31" s="16" t="s">
+      <c r="CF31" s="26" t="s">
         <v>10</v>
       </c>
-      <c r="CG31" s="16" t="s">
+      <c r="CG31" s="26" t="s">
         <v>9</v>
       </c>
-      <c r="CH31" s="16" t="s">
+      <c r="CH31" s="26" t="s">
         <v>7</v>
       </c>
-      <c r="CI31" s="16" t="s">
+      <c r="CI31" s="26" t="s">
         <v>8</v>
       </c>
-      <c r="CJ31" s="16" t="s">
+      <c r="CJ31" s="26" t="s">
         <v>10</v>
       </c>
-      <c r="CK31" s="16" t="s">
+      <c r="CK31" s="26" t="s">
         <v>9</v>
       </c>
+      <c r="CL31" s="26" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="32" spans="1:154" ht="10.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:154" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="7"/>
+      <c r="CD32" s="23"/>
+      <c r="CE32" s="23"/>
+      <c r="CF32" s="23"/>
+      <c r="CG32" s="23"/>
+      <c r="CH32" s="23"/>
+      <c r="CI32" s="23"/>
+      <c r="CJ32" s="23"/>
+      <c r="CK32" s="23"/>
+      <c r="CL32" s="23"/>
     </row>
-    <row r="33" spans="1:154" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:154" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="1" t="s">
         <v>11</v>
       </c>
@@ -26958,43 +27147,45 @@
       <c r="BY33" s="8">
         <v>168776.17030749004</v>
       </c>
-      <c r="BZ33" s="8">
+      <c r="BZ33" s="17">
         <v>222370.3491365131</v>
       </c>
-      <c r="CA33" s="8">
+      <c r="CA33" s="17">
         <v>192658.28577071644</v>
       </c>
-      <c r="CB33" s="8">
+      <c r="CB33" s="17">
         <v>213103.87577888955</v>
       </c>
-      <c r="CC33" s="8">
+      <c r="CC33" s="17">
         <v>193280.43290893806</v>
       </c>
-      <c r="CD33" s="17">
+      <c r="CD33" s="30">
         <v>257670.27568534506</v>
       </c>
-      <c r="CE33" s="17">
+      <c r="CE33" s="30">
         <v>219739.73454539533</v>
       </c>
-      <c r="CF33" s="17">
+      <c r="CF33" s="30">
         <v>235456.23077308203</v>
       </c>
-      <c r="CG33" s="17">
-        <v>209644.3337684065</v>
-      </c>
-      <c r="CH33" s="17">
+      <c r="CG33" s="30">
+        <v>210993.3082280129</v>
+      </c>
+      <c r="CH33" s="30">
         <v>270716.06409452826</v>
       </c>
-      <c r="CI33" s="17">
+      <c r="CI33" s="30">
         <v>226252.42729272667</v>
       </c>
-      <c r="CJ33" s="17">
+      <c r="CJ33" s="30">
         <v>242005.26971718471</v>
       </c>
-      <c r="CK33" s="17">
-        <v>213014.61492435067</v>
-      </c>
-      <c r="CL33" s="9"/>
+      <c r="CK33" s="30">
+        <v>217192.35116078443</v>
+      </c>
+      <c r="CL33" s="30">
+        <v>288569.03351765923</v>
+      </c>
       <c r="CM33" s="9"/>
       <c r="CN33" s="9"/>
       <c r="CO33" s="9"/>
@@ -27060,7 +27251,7 @@
       <c r="EW33" s="9"/>
       <c r="EX33" s="9"/>
     </row>
-    <row r="34" spans="1:154" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:154" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="10" t="s">
         <v>12</v>
       </c>
@@ -27292,43 +27483,45 @@
       <c r="BY34" s="8">
         <v>114397.75147957633</v>
       </c>
-      <c r="BZ34" s="8">
+      <c r="BZ34" s="17">
         <v>106034.69342697253</v>
       </c>
-      <c r="CA34" s="8">
+      <c r="CA34" s="17">
         <v>166823.47523339803</v>
       </c>
-      <c r="CB34" s="8">
+      <c r="CB34" s="17">
         <v>113968.51310957724</v>
       </c>
-      <c r="CC34" s="8">
+      <c r="CC34" s="17">
         <v>129048.95950519826</v>
       </c>
-      <c r="CD34" s="17">
+      <c r="CD34" s="30">
         <v>107752.27997578596</v>
       </c>
-      <c r="CE34" s="17">
+      <c r="CE34" s="30">
         <v>167239.52741184982</v>
       </c>
-      <c r="CF34" s="17">
+      <c r="CF34" s="30">
         <v>115866.95076175574</v>
       </c>
-      <c r="CG34" s="17">
-        <v>133292.1476411935</v>
-      </c>
-      <c r="CH34" s="17">
+      <c r="CG34" s="30">
+        <v>133292.14764119356</v>
+      </c>
+      <c r="CH34" s="30">
         <v>111593.18536011013</v>
       </c>
-      <c r="CI34" s="17">
+      <c r="CI34" s="30">
         <v>176476.91599620474</v>
       </c>
-      <c r="CJ34" s="17">
+      <c r="CJ34" s="30">
         <v>118762.42967583728</v>
       </c>
-      <c r="CK34" s="17">
-        <v>143086.1626095199</v>
-      </c>
-      <c r="CL34" s="9"/>
+      <c r="CK34" s="30">
+        <v>143459.30181406549</v>
+      </c>
+      <c r="CL34" s="30">
+        <v>122759.93209626859</v>
+      </c>
       <c r="CM34" s="9"/>
       <c r="CN34" s="9"/>
       <c r="CO34" s="9"/>
@@ -27394,7 +27587,7 @@
       <c r="EW34" s="9"/>
       <c r="EX34" s="9"/>
     </row>
-    <row r="35" spans="1:154" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:154" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="1" t="s">
         <v>13</v>
       </c>
@@ -27626,43 +27819,45 @@
       <c r="BY35" s="8">
         <v>63463.071949035773</v>
       </c>
-      <c r="BZ35" s="8">
+      <c r="BZ35" s="17">
         <v>61125.739776872477</v>
       </c>
-      <c r="CA35" s="8">
+      <c r="CA35" s="17">
         <v>59590.646511784027</v>
       </c>
-      <c r="CB35" s="8">
+      <c r="CB35" s="17">
         <v>63828.227351182402</v>
       </c>
-      <c r="CC35" s="8">
+      <c r="CC35" s="17">
         <v>67272.100070769302</v>
       </c>
-      <c r="CD35" s="17">
+      <c r="CD35" s="30">
         <v>57988.694796140626</v>
       </c>
-      <c r="CE35" s="17">
+      <c r="CE35" s="30">
         <v>51919.606830326382</v>
       </c>
-      <c r="CF35" s="17">
+      <c r="CF35" s="30">
         <v>56465.921193163638</v>
       </c>
-      <c r="CG35" s="17">
+      <c r="CG35" s="30">
         <v>63917.821667238139</v>
       </c>
-      <c r="CH35" s="17">
+      <c r="CH35" s="30">
         <v>59873.736669268736</v>
       </c>
-      <c r="CI35" s="17">
+      <c r="CI35" s="30">
         <v>59961.690809343389</v>
       </c>
-      <c r="CJ35" s="17">
+      <c r="CJ35" s="30">
         <v>62373.790141215897</v>
       </c>
-      <c r="CK35" s="17">
+      <c r="CK35" s="30">
         <v>70183.729177577392</v>
       </c>
-      <c r="CL35" s="9"/>
+      <c r="CL35" s="30">
+        <v>62584.435866748536</v>
+      </c>
       <c r="CM35" s="9"/>
       <c r="CN35" s="9"/>
       <c r="CO35" s="9"/>
@@ -27728,7 +27923,7 @@
       <c r="EW35" s="9"/>
       <c r="EX35" s="9"/>
     </row>
-    <row r="36" spans="1:154" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:154" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="1" t="s">
         <v>14</v>
       </c>
@@ -27960,43 +28155,45 @@
       <c r="BY36" s="8">
         <v>22110.712051555962</v>
       </c>
-      <c r="BZ36" s="8">
+      <c r="BZ36" s="17">
         <v>19519.208024837888</v>
       </c>
-      <c r="CA36" s="8">
+      <c r="CA36" s="17">
         <v>23860.688078779953</v>
       </c>
-      <c r="CB36" s="8">
+      <c r="CB36" s="17">
         <v>20161.503710419995</v>
       </c>
-      <c r="CC36" s="8">
+      <c r="CC36" s="17">
         <v>23801.403110391206</v>
       </c>
-      <c r="CD36" s="17">
+      <c r="CD36" s="30">
         <v>21836.690809098611</v>
       </c>
-      <c r="CE36" s="17">
+      <c r="CE36" s="30">
         <v>25173.959791244299</v>
       </c>
-      <c r="CF36" s="17">
+      <c r="CF36" s="30">
         <v>20416.344926183629</v>
       </c>
-      <c r="CG36" s="17">
+      <c r="CG36" s="30">
         <v>24223.002287354619</v>
       </c>
-      <c r="CH36" s="17">
+      <c r="CH36" s="30">
         <v>22321.404351352739</v>
       </c>
-      <c r="CI36" s="17">
+      <c r="CI36" s="30">
         <v>25613.466778659378</v>
       </c>
-      <c r="CJ36" s="17">
+      <c r="CJ36" s="30">
         <v>21608.562074830843</v>
       </c>
-      <c r="CK36" s="17">
+      <c r="CK36" s="30">
         <v>24760.097225445876</v>
       </c>
-      <c r="CL36" s="9"/>
+      <c r="CL36" s="30">
+        <v>24202.0517885792</v>
+      </c>
       <c r="CM36" s="9"/>
       <c r="CN36" s="9"/>
       <c r="CO36" s="9"/>
@@ -28062,7 +28259,7 @@
       <c r="EW36" s="9"/>
       <c r="EX36" s="9"/>
     </row>
-    <row r="37" spans="1:154" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:154" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B37" s="9"/>
       <c r="C37" s="9"/>
       <c r="D37" s="9"/>
@@ -28139,19 +28336,19 @@
       <c r="BW37" s="9"/>
       <c r="BX37" s="9"/>
       <c r="BY37" s="9"/>
-      <c r="BZ37" s="9"/>
-      <c r="CA37" s="9"/>
-      <c r="CB37" s="9"/>
-      <c r="CC37" s="9"/>
-      <c r="CD37" s="18"/>
-      <c r="CE37" s="18"/>
-      <c r="CF37" s="18"/>
-      <c r="CG37" s="18"/>
-      <c r="CH37" s="18"/>
-      <c r="CI37" s="18"/>
-      <c r="CJ37" s="18"/>
-      <c r="CK37" s="18"/>
-      <c r="CL37" s="9"/>
+      <c r="BZ37" s="18"/>
+      <c r="CA37" s="18"/>
+      <c r="CB37" s="18"/>
+      <c r="CC37" s="18"/>
+      <c r="CD37" s="28"/>
+      <c r="CE37" s="28"/>
+      <c r="CF37" s="28"/>
+      <c r="CG37" s="28"/>
+      <c r="CH37" s="28"/>
+      <c r="CI37" s="28"/>
+      <c r="CJ37" s="28"/>
+      <c r="CK37" s="28"/>
+      <c r="CL37" s="28"/>
       <c r="CM37" s="9"/>
       <c r="CN37" s="9"/>
       <c r="CO37" s="9"/>
@@ -28217,7 +28414,7 @@
       <c r="EW37" s="9"/>
       <c r="EX37" s="9"/>
     </row>
-    <row r="38" spans="1:154" ht="30.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:154" ht="30.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="10" t="s">
         <v>15</v>
       </c>
@@ -28449,43 +28646,45 @@
       <c r="BY38" s="11">
         <v>368747.70578765811</v>
       </c>
-      <c r="BZ38" s="11">
+      <c r="BZ38" s="19">
         <v>409049.99036519602</v>
       </c>
-      <c r="CA38" s="11">
+      <c r="CA38" s="19">
         <v>442933.09559467842</v>
       </c>
-      <c r="CB38" s="11">
+      <c r="CB38" s="19">
         <v>411062.11995006911</v>
       </c>
-      <c r="CC38" s="11">
+      <c r="CC38" s="19">
         <v>413402.89559529687</v>
       </c>
-      <c r="CD38" s="19">
+      <c r="CD38" s="31">
         <v>445247.9412663703</v>
       </c>
-      <c r="CE38" s="19">
+      <c r="CE38" s="31">
         <v>464072.82857881585</v>
       </c>
-      <c r="CF38" s="19">
+      <c r="CF38" s="31">
         <v>428205.44765418506</v>
       </c>
-      <c r="CG38" s="19">
-        <v>431077.30536419275</v>
-      </c>
-      <c r="CH38" s="19">
+      <c r="CG38" s="31">
+        <v>432426.27982379921</v>
+      </c>
+      <c r="CH38" s="31">
         <v>464504.39047525986</v>
       </c>
-      <c r="CI38" s="19">
+      <c r="CI38" s="31">
         <v>488304.50087693415</v>
       </c>
-      <c r="CJ38" s="19">
+      <c r="CJ38" s="31">
         <v>444750.05160906876</v>
       </c>
-      <c r="CK38" s="19">
-        <v>451044.60393689387</v>
-      </c>
-      <c r="CL38" s="9"/>
+      <c r="CK38" s="31">
+        <v>455595.47937787324</v>
+      </c>
+      <c r="CL38" s="31">
+        <v>498115.45326925558</v>
+      </c>
       <c r="CM38" s="9"/>
       <c r="CN38" s="9"/>
       <c r="CO38" s="9"/>
@@ -28551,7 +28750,7 @@
       <c r="EW38" s="9"/>
       <c r="EX38" s="9"/>
     </row>
-    <row r="39" spans="1:154" ht="7.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:154" ht="7.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="12"/>
       <c r="B39" s="12"/>
       <c r="C39" s="12"/>
@@ -28629,25 +28828,35 @@
       <c r="BW39" s="12"/>
       <c r="BX39" s="12"/>
       <c r="BY39" s="12"/>
-      <c r="BZ39" s="12"/>
-      <c r="CA39" s="12"/>
-      <c r="CB39" s="12"/>
-      <c r="CC39" s="12"/>
-      <c r="CD39" s="20"/>
-      <c r="CE39" s="20"/>
-      <c r="CF39" s="20"/>
-      <c r="CG39" s="20"/>
-      <c r="CH39" s="20"/>
-      <c r="CI39" s="20"/>
-      <c r="CJ39" s="20"/>
-      <c r="CK39" s="20"/>
+      <c r="BZ39" s="20"/>
+      <c r="CA39" s="20"/>
+      <c r="CB39" s="20"/>
+      <c r="CC39" s="20"/>
+      <c r="CD39" s="27"/>
+      <c r="CE39" s="27"/>
+      <c r="CF39" s="27"/>
+      <c r="CG39" s="27"/>
+      <c r="CH39" s="27"/>
+      <c r="CI39" s="27"/>
+      <c r="CJ39" s="27"/>
+      <c r="CK39" s="27"/>
+      <c r="CL39" s="27"/>
     </row>
-    <row r="40" spans="1:154" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:154" ht="15" x14ac:dyDescent="0.2">
       <c r="A40" s="13" t="s">
         <v>0</v>
       </c>
+      <c r="CD40" s="23"/>
+      <c r="CE40" s="23"/>
+      <c r="CF40" s="23"/>
+      <c r="CG40" s="23"/>
+      <c r="CH40" s="23"/>
+      <c r="CI40" s="23"/>
+      <c r="CJ40" s="23"/>
+      <c r="CK40" s="23"/>
+      <c r="CL40" s="23"/>
     </row>
-    <row r="41" spans="1:154" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:154" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B41" s="9"/>
       <c r="C41" s="9"/>
       <c r="D41" s="9"/>
@@ -28724,19 +28933,19 @@
       <c r="BW41" s="9"/>
       <c r="BX41" s="9"/>
       <c r="BY41" s="9"/>
-      <c r="BZ41" s="9"/>
-      <c r="CA41" s="9"/>
-      <c r="CB41" s="9"/>
-      <c r="CC41" s="9"/>
-      <c r="CD41" s="18"/>
-      <c r="CE41" s="18"/>
-      <c r="CF41" s="18"/>
-      <c r="CG41" s="18"/>
-      <c r="CH41" s="18"/>
-      <c r="CI41" s="18"/>
-      <c r="CJ41" s="18"/>
-      <c r="CK41" s="18"/>
-      <c r="CL41" s="9"/>
+      <c r="BZ41" s="18"/>
+      <c r="CA41" s="18"/>
+      <c r="CB41" s="18"/>
+      <c r="CC41" s="18"/>
+      <c r="CD41" s="28"/>
+      <c r="CE41" s="28"/>
+      <c r="CF41" s="28"/>
+      <c r="CG41" s="28"/>
+      <c r="CH41" s="28"/>
+      <c r="CI41" s="28"/>
+      <c r="CJ41" s="28"/>
+      <c r="CK41" s="28"/>
+      <c r="CL41" s="28"/>
       <c r="CM41" s="9"/>
       <c r="CN41" s="9"/>
       <c r="CO41" s="9"/>
@@ -28802,7 +29011,7 @@
       <c r="EW41" s="9"/>
       <c r="EX41" s="9"/>
     </row>
-    <row r="42" spans="1:154" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:154" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B42" s="9"/>
       <c r="C42" s="9"/>
       <c r="D42" s="9"/>
@@ -28879,19 +29088,19 @@
       <c r="BW42" s="9"/>
       <c r="BX42" s="9"/>
       <c r="BY42" s="9"/>
-      <c r="BZ42" s="9"/>
-      <c r="CA42" s="9"/>
-      <c r="CB42" s="9"/>
-      <c r="CC42" s="9"/>
-      <c r="CD42" s="18"/>
-      <c r="CE42" s="18"/>
-      <c r="CF42" s="18"/>
-      <c r="CG42" s="18"/>
-      <c r="CH42" s="18"/>
-      <c r="CI42" s="18"/>
-      <c r="CJ42" s="18"/>
-      <c r="CK42" s="18"/>
-      <c r="CL42" s="9"/>
+      <c r="BZ42" s="18"/>
+      <c r="CA42" s="18"/>
+      <c r="CB42" s="18"/>
+      <c r="CC42" s="18"/>
+      <c r="CD42" s="28"/>
+      <c r="CE42" s="28"/>
+      <c r="CF42" s="28"/>
+      <c r="CG42" s="28"/>
+      <c r="CH42" s="28"/>
+      <c r="CI42" s="28"/>
+      <c r="CJ42" s="28"/>
+      <c r="CK42" s="28"/>
+      <c r="CL42" s="28"/>
       <c r="CM42" s="9"/>
       <c r="CN42" s="9"/>
       <c r="CO42" s="9"/>
@@ -28957,170 +29166,233 @@
       <c r="EW42" s="9"/>
       <c r="EX42" s="9"/>
     </row>
-    <row r="43" spans="1:154" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:154" ht="15" x14ac:dyDescent="0.2">
       <c r="A43" s="1" t="s">
         <v>2</v>
       </c>
+      <c r="CD43" s="23"/>
+      <c r="CE43" s="23"/>
+      <c r="CF43" s="23"/>
+      <c r="CG43" s="23"/>
+      <c r="CH43" s="23"/>
+      <c r="CI43" s="23"/>
+      <c r="CJ43" s="23"/>
+      <c r="CK43" s="23"/>
+      <c r="CL43" s="23"/>
     </row>
-    <row r="44" spans="1:154" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:154" ht="15" x14ac:dyDescent="0.2">
       <c r="A44" s="1" t="s">
         <v>1</v>
       </c>
+      <c r="CD44" s="23"/>
+      <c r="CE44" s="23"/>
+      <c r="CF44" s="23"/>
+      <c r="CG44" s="23"/>
+      <c r="CH44" s="23"/>
+      <c r="CI44" s="23"/>
+      <c r="CJ44" s="23"/>
+      <c r="CK44" s="23"/>
+      <c r="CL44" s="23"/>
     </row>
-    <row r="45" spans="1:154" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:154" ht="15" x14ac:dyDescent="0.2">
       <c r="A45" s="1" t="s">
-        <v>49</v>
-      </c>
+        <v>50</v>
+      </c>
+      <c r="CD45" s="23"/>
+      <c r="CE45" s="23"/>
+      <c r="CF45" s="23"/>
+      <c r="CG45" s="23"/>
+      <c r="CH45" s="23"/>
+      <c r="CI45" s="23"/>
+      <c r="CJ45" s="23"/>
+      <c r="CK45" s="23"/>
+      <c r="CL45" s="23"/>
     </row>
-    <row r="47" spans="1:154" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:154" ht="15" x14ac:dyDescent="0.2">
       <c r="A47" s="1" t="s">
         <v>18</v>
       </c>
+      <c r="CD47" s="23"/>
+      <c r="CE47" s="23"/>
+      <c r="CF47" s="23"/>
+      <c r="CG47" s="23"/>
+      <c r="CH47" s="23"/>
+      <c r="CI47" s="23"/>
+      <c r="CJ47" s="23"/>
+      <c r="CK47" s="23"/>
+      <c r="CL47" s="23"/>
     </row>
-    <row r="48" spans="1:154" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:154" ht="15" x14ac:dyDescent="0.2">
       <c r="A48" s="3" t="s">
-        <v>51</v>
-      </c>
+        <v>52</v>
+      </c>
+      <c r="CD48" s="23"/>
+      <c r="CE48" s="23"/>
+      <c r="CF48" s="23"/>
+      <c r="CG48" s="23"/>
+      <c r="CH48" s="23"/>
+      <c r="CI48" s="23"/>
+      <c r="CJ48" s="23"/>
+      <c r="CK48" s="23"/>
+      <c r="CL48" s="23"/>
     </row>
-    <row r="49" spans="1:150" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:150" ht="15" x14ac:dyDescent="0.2">
       <c r="A49" s="1" t="s">
         <v>23</v>
       </c>
+      <c r="CD49" s="23"/>
+      <c r="CE49" s="23"/>
+      <c r="CF49" s="23"/>
+      <c r="CG49" s="23"/>
+      <c r="CH49" s="23"/>
+      <c r="CI49" s="38"/>
+      <c r="CJ49" s="38"/>
+      <c r="CK49" s="38"/>
+      <c r="CL49" s="38"/>
     </row>
-    <row r="51" spans="1:150" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:150" x14ac:dyDescent="0.2">
+      <c r="CI50" s="39"/>
+      <c r="CJ50" s="39"/>
+      <c r="CK50" s="39"/>
+      <c r="CL50" s="40"/>
+    </row>
+    <row r="51" spans="1:150" x14ac:dyDescent="0.2">
       <c r="A51" s="4"/>
-      <c r="B51" s="26" t="s">
+      <c r="B51" s="33" t="s">
         <v>31</v>
       </c>
-      <c r="C51" s="26"/>
-      <c r="D51" s="26"/>
-      <c r="E51" s="26"/>
-      <c r="F51" s="26" t="s">
+      <c r="C51" s="33"/>
+      <c r="D51" s="33"/>
+      <c r="E51" s="33"/>
+      <c r="F51" s="33" t="s">
         <v>32</v>
       </c>
-      <c r="G51" s="26"/>
-      <c r="H51" s="26"/>
-      <c r="I51" s="26"/>
-      <c r="J51" s="26" t="s">
+      <c r="G51" s="33"/>
+      <c r="H51" s="33"/>
+      <c r="I51" s="33"/>
+      <c r="J51" s="33" t="s">
         <v>33</v>
       </c>
-      <c r="K51" s="26"/>
-      <c r="L51" s="26"/>
-      <c r="M51" s="26"/>
-      <c r="N51" s="26" t="s">
+      <c r="K51" s="33"/>
+      <c r="L51" s="33"/>
+      <c r="M51" s="33"/>
+      <c r="N51" s="33" t="s">
         <v>34</v>
       </c>
-      <c r="O51" s="26"/>
-      <c r="P51" s="26"/>
-      <c r="Q51" s="26"/>
-      <c r="R51" s="26" t="s">
+      <c r="O51" s="33"/>
+      <c r="P51" s="33"/>
+      <c r="Q51" s="33"/>
+      <c r="R51" s="33" t="s">
         <v>35</v>
       </c>
-      <c r="S51" s="26"/>
-      <c r="T51" s="26"/>
-      <c r="U51" s="26"/>
-      <c r="V51" s="26" t="s">
+      <c r="S51" s="33"/>
+      <c r="T51" s="33"/>
+      <c r="U51" s="33"/>
+      <c r="V51" s="33" t="s">
         <v>36</v>
       </c>
-      <c r="W51" s="26"/>
-      <c r="X51" s="26"/>
-      <c r="Y51" s="26"/>
-      <c r="Z51" s="26" t="s">
+      <c r="W51" s="33"/>
+      <c r="X51" s="33"/>
+      <c r="Y51" s="33"/>
+      <c r="Z51" s="33" t="s">
         <v>37</v>
       </c>
-      <c r="AA51" s="26"/>
-      <c r="AB51" s="26"/>
-      <c r="AC51" s="26"/>
-      <c r="AD51" s="26" t="s">
+      <c r="AA51" s="33"/>
+      <c r="AB51" s="33"/>
+      <c r="AC51" s="33"/>
+      <c r="AD51" s="33" t="s">
         <v>38</v>
       </c>
-      <c r="AE51" s="26"/>
-      <c r="AF51" s="26"/>
-      <c r="AG51" s="26"/>
-      <c r="AH51" s="26" t="s">
+      <c r="AE51" s="33"/>
+      <c r="AF51" s="33"/>
+      <c r="AG51" s="33"/>
+      <c r="AH51" s="33" t="s">
         <v>39</v>
       </c>
-      <c r="AI51" s="26"/>
-      <c r="AJ51" s="26"/>
-      <c r="AK51" s="26"/>
-      <c r="AL51" s="26" t="s">
+      <c r="AI51" s="33"/>
+      <c r="AJ51" s="33"/>
+      <c r="AK51" s="33"/>
+      <c r="AL51" s="33" t="s">
         <v>40</v>
       </c>
-      <c r="AM51" s="26"/>
-      <c r="AN51" s="26"/>
-      <c r="AO51" s="26"/>
-      <c r="AP51" s="26" t="s">
+      <c r="AM51" s="33"/>
+      <c r="AN51" s="33"/>
+      <c r="AO51" s="33"/>
+      <c r="AP51" s="33" t="s">
         <v>41</v>
       </c>
-      <c r="AQ51" s="26"/>
-      <c r="AR51" s="26"/>
-      <c r="AS51" s="26"/>
-      <c r="AT51" s="26" t="s">
+      <c r="AQ51" s="33"/>
+      <c r="AR51" s="33"/>
+      <c r="AS51" s="33"/>
+      <c r="AT51" s="33" t="s">
         <v>42</v>
       </c>
-      <c r="AU51" s="26"/>
-      <c r="AV51" s="26"/>
-      <c r="AW51" s="26"/>
-      <c r="AX51" s="26" t="s">
+      <c r="AU51" s="33"/>
+      <c r="AV51" s="33"/>
+      <c r="AW51" s="33"/>
+      <c r="AX51" s="33" t="s">
         <v>43</v>
       </c>
-      <c r="AY51" s="26"/>
-      <c r="AZ51" s="26"/>
-      <c r="BA51" s="26"/>
-      <c r="BB51" s="26" t="s">
+      <c r="AY51" s="33"/>
+      <c r="AZ51" s="33"/>
+      <c r="BA51" s="33"/>
+      <c r="BB51" s="33" t="s">
         <v>44</v>
       </c>
-      <c r="BC51" s="26"/>
-      <c r="BD51" s="26"/>
-      <c r="BE51" s="26"/>
-      <c r="BF51" s="26" t="s">
+      <c r="BC51" s="33"/>
+      <c r="BD51" s="33"/>
+      <c r="BE51" s="33"/>
+      <c r="BF51" s="33" t="s">
         <v>45</v>
       </c>
-      <c r="BG51" s="26"/>
-      <c r="BH51" s="26"/>
-      <c r="BI51" s="26"/>
-      <c r="BJ51" s="26" t="s">
+      <c r="BG51" s="33"/>
+      <c r="BH51" s="33"/>
+      <c r="BI51" s="33"/>
+      <c r="BJ51" s="33" t="s">
         <v>46</v>
       </c>
-      <c r="BK51" s="26"/>
-      <c r="BL51" s="26"/>
-      <c r="BM51" s="26"/>
-      <c r="BN51" s="26" t="s">
+      <c r="BK51" s="33"/>
+      <c r="BL51" s="33"/>
+      <c r="BM51" s="33"/>
+      <c r="BN51" s="33" t="s">
         <v>47</v>
       </c>
-      <c r="BO51" s="26"/>
-      <c r="BP51" s="26"/>
-      <c r="BQ51" s="26"/>
-      <c r="BR51" s="26" t="s">
+      <c r="BO51" s="33"/>
+      <c r="BP51" s="33"/>
+      <c r="BQ51" s="33"/>
+      <c r="BR51" s="33" t="s">
         <v>27</v>
       </c>
-      <c r="BS51" s="26"/>
-      <c r="BT51" s="26"/>
-      <c r="BU51" s="26"/>
-      <c r="BV51" s="26" t="s">
+      <c r="BS51" s="33"/>
+      <c r="BT51" s="33"/>
+      <c r="BU51" s="33"/>
+      <c r="BV51" s="33" t="s">
         <v>28</v>
       </c>
-      <c r="BW51" s="26"/>
-      <c r="BX51" s="26"/>
-      <c r="BY51" s="26"/>
-      <c r="BZ51" s="26" t="s">
+      <c r="BW51" s="33"/>
+      <c r="BX51" s="33"/>
+      <c r="BY51" s="33"/>
+      <c r="BZ51" s="35" t="s">
         <v>29</v>
       </c>
-      <c r="CA51" s="26"/>
-      <c r="CB51" s="26"/>
-      <c r="CC51" s="26"/>
-      <c r="CD51" s="25" t="s">
+      <c r="CA51" s="35"/>
+      <c r="CB51" s="35"/>
+      <c r="CC51" s="35"/>
+      <c r="CD51" s="35" t="s">
         <v>48</v>
       </c>
-      <c r="CE51" s="25"/>
-      <c r="CF51" s="25"/>
-      <c r="CG51" s="25"/>
-      <c r="CH51" s="21"/>
-      <c r="CI51" s="21"/>
-      <c r="CJ51" s="21"/>
-      <c r="CK51" s="21"/>
+      <c r="CE51" s="35"/>
+      <c r="CF51" s="35"/>
+      <c r="CG51" s="35"/>
+      <c r="CH51" s="32" t="s">
+        <v>49</v>
+      </c>
+      <c r="CI51" s="41"/>
+      <c r="CJ51" s="41"/>
+      <c r="CK51" s="41"/>
+      <c r="CL51" s="42"/>
     </row>
-    <row r="52" spans="1:150" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:150" x14ac:dyDescent="0.2">
       <c r="A52" s="5" t="s">
         <v>4</v>
       </c>
@@ -29352,39 +29624,51 @@
       <c r="BY52" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="BZ52" s="5" t="s">
+      <c r="BZ52" s="22" t="s">
         <v>7</v>
       </c>
-      <c r="CA52" s="5" t="s">
+      <c r="CA52" s="22" t="s">
         <v>8</v>
       </c>
-      <c r="CB52" s="5" t="s">
+      <c r="CB52" s="22" t="s">
         <v>10</v>
       </c>
-      <c r="CC52" s="5" t="s">
+      <c r="CC52" s="22" t="s">
         <v>9</v>
       </c>
-      <c r="CD52" s="24" t="s">
+      <c r="CD52" s="25" t="s">
         <v>7</v>
       </c>
-      <c r="CE52" s="24" t="s">
+      <c r="CE52" s="25" t="s">
         <v>8</v>
       </c>
-      <c r="CF52" s="24" t="s">
+      <c r="CF52" s="25" t="s">
         <v>10</v>
       </c>
-      <c r="CG52" s="24" t="s">
+      <c r="CG52" s="25" t="s">
         <v>9</v>
       </c>
-      <c r="CH52" s="22"/>
-      <c r="CI52" s="22"/>
-      <c r="CJ52" s="22"/>
-      <c r="CK52" s="22"/>
+      <c r="CH52" s="25" t="s">
+        <v>7</v>
+      </c>
+      <c r="CI52" s="41"/>
+      <c r="CJ52" s="41"/>
+      <c r="CK52" s="41"/>
+      <c r="CL52" s="41"/>
     </row>
-    <row r="53" spans="1:150" ht="10.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:150" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A53" s="7"/>
+      <c r="CD53" s="23"/>
+      <c r="CE53" s="23"/>
+      <c r="CF53" s="23"/>
+      <c r="CG53" s="23"/>
+      <c r="CH53" s="23"/>
+      <c r="CI53" s="38"/>
+      <c r="CJ53" s="38"/>
+      <c r="CK53" s="38"/>
+      <c r="CL53" s="38"/>
     </row>
-    <row r="54" spans="1:150" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:150" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A54" s="1" t="s">
         <v>11</v>
       </c>
@@ -29616,35 +29900,37 @@
       <c r="BY54" s="14">
         <v>15.185412186471652</v>
       </c>
-      <c r="BZ54" s="14">
+      <c r="BZ54" s="21">
         <v>19.397466667674237</v>
       </c>
-      <c r="CA54" s="14">
+      <c r="CA54" s="21">
         <v>16.964117461433133</v>
       </c>
-      <c r="CB54" s="14">
+      <c r="CB54" s="21">
         <v>13.593684017317045</v>
       </c>
-      <c r="CC54" s="14">
-        <v>10.826491874059684</v>
-      </c>
-      <c r="CD54" s="23">
+      <c r="CC54" s="21">
+        <v>11.539614448367061</v>
+      </c>
+      <c r="CD54" s="29">
         <v>8.9719890889975176</v>
       </c>
-      <c r="CE54" s="23">
+      <c r="CE54" s="29">
         <v>5.7217677843644452</v>
       </c>
-      <c r="CF54" s="23">
+      <c r="CF54" s="29">
         <v>4.6100326383756993</v>
       </c>
-      <c r="CG54" s="23">
-        <v>3.8059452739579172</v>
-      </c>
-      <c r="CH54" s="18"/>
-      <c r="CI54" s="18"/>
-      <c r="CJ54" s="18"/>
-      <c r="CK54" s="18"/>
-      <c r="CL54" s="9"/>
+      <c r="CG54" s="29">
+        <v>5.1651389766654461</v>
+      </c>
+      <c r="CH54" s="29">
+        <v>10.351807244441829</v>
+      </c>
+      <c r="CI54" s="43"/>
+      <c r="CJ54" s="43"/>
+      <c r="CK54" s="43"/>
+      <c r="CL54" s="43"/>
       <c r="CM54" s="9"/>
       <c r="CN54" s="9"/>
       <c r="CO54" s="9"/>
@@ -29706,7 +29992,7 @@
       <c r="ES54" s="9"/>
       <c r="ET54" s="9"/>
     </row>
-    <row r="55" spans="1:150" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:150" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A55" s="10" t="s">
         <v>12</v>
       </c>
@@ -29938,35 +30224,37 @@
       <c r="BY55" s="14">
         <v>11.896588100491741</v>
       </c>
-      <c r="BZ55" s="14">
+      <c r="BZ55" s="21">
         <v>4.6950573464553003</v>
       </c>
-      <c r="CA55" s="14">
+      <c r="CA55" s="21">
         <v>2.7901907885327262</v>
       </c>
-      <c r="CB55" s="14">
+      <c r="CB55" s="21">
         <v>4.5860616728220549</v>
       </c>
-      <c r="CC55" s="14">
-        <v>5.7882396609973341</v>
-      </c>
-      <c r="CD55" s="23">
+      <c r="CC55" s="21">
+        <v>5.7882396609973767</v>
+      </c>
+      <c r="CD55" s="29">
         <v>7.6761047665870166</v>
       </c>
-      <c r="CE55" s="23">
+      <c r="CE55" s="29">
         <v>8.8001940424565817</v>
       </c>
-      <c r="CF55" s="23">
+      <c r="CF55" s="29">
         <v>5.0370288760107371</v>
       </c>
-      <c r="CG55" s="23">
-        <v>10.242735844273312</v>
-      </c>
-      <c r="CH55" s="18"/>
-      <c r="CI55" s="18"/>
-      <c r="CJ55" s="18"/>
-      <c r="CK55" s="18"/>
-      <c r="CL55" s="9"/>
+      <c r="CG55" s="29">
+        <v>10.530226164858107</v>
+      </c>
+      <c r="CH55" s="29">
+        <v>13.87569920799578</v>
+      </c>
+      <c r="CI55" s="43"/>
+      <c r="CJ55" s="43"/>
+      <c r="CK55" s="43"/>
+      <c r="CL55" s="43"/>
       <c r="CM55" s="9"/>
       <c r="CN55" s="9"/>
       <c r="CO55" s="9"/>
@@ -30028,7 +30316,7 @@
       <c r="ES55" s="9"/>
       <c r="ET55" s="9"/>
     </row>
-    <row r="56" spans="1:150" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:150" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A56" s="1" t="s">
         <v>13</v>
       </c>
@@ -30260,35 +30548,37 @@
       <c r="BY56" s="14">
         <v>3.1595448072762764</v>
       </c>
-      <c r="BZ56" s="14">
+      <c r="BZ56" s="21">
         <v>-2.1543404388884539</v>
       </c>
-      <c r="CA56" s="14">
+      <c r="CA56" s="21">
         <v>-10.613760027120904</v>
       </c>
-      <c r="CB56" s="14">
+      <c r="CB56" s="21">
         <v>-8.9370893903902555</v>
       </c>
-      <c r="CC56" s="14">
+      <c r="CC56" s="21">
         <v>-3.0523398348977935</v>
       </c>
-      <c r="CD56" s="23">
+      <c r="CD56" s="29">
         <v>7.0579821087953292</v>
       </c>
-      <c r="CE56" s="23">
+      <c r="CE56" s="29">
         <v>18.375324707625992</v>
       </c>
-      <c r="CF56" s="23">
+      <c r="CF56" s="29">
         <v>12.110666473001942</v>
       </c>
-      <c r="CG56" s="23">
+      <c r="CG56" s="29">
         <v>12.009111262018536</v>
       </c>
-      <c r="CH56" s="18"/>
-      <c r="CI56" s="18"/>
-      <c r="CJ56" s="18"/>
-      <c r="CK56" s="18"/>
-      <c r="CL56" s="9"/>
+      <c r="CH56" s="29">
+        <v>8.3176207451070212</v>
+      </c>
+      <c r="CI56" s="43"/>
+      <c r="CJ56" s="43"/>
+      <c r="CK56" s="43"/>
+      <c r="CL56" s="43"/>
       <c r="CM56" s="9"/>
       <c r="CN56" s="9"/>
       <c r="CO56" s="9"/>
@@ -30350,7 +30640,7 @@
       <c r="ES56" s="9"/>
       <c r="ET56" s="9"/>
     </row>
-    <row r="57" spans="1:150" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:150" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A57" s="1" t="s">
         <v>14</v>
       </c>
@@ -30582,35 +30872,37 @@
       <c r="BY57" s="14">
         <v>8.3535715726789022</v>
       </c>
-      <c r="BZ57" s="14">
+      <c r="BZ57" s="21">
         <v>16.000993285954948</v>
       </c>
-      <c r="CA57" s="14">
+      <c r="CA57" s="21">
         <v>8.6680629673311387</v>
       </c>
-      <c r="CB57" s="14">
+      <c r="CB57" s="21">
         <v>5.0018696644223297</v>
       </c>
-      <c r="CC57" s="14">
+      <c r="CC57" s="21">
         <v>4.1590752982016994</v>
       </c>
-      <c r="CD57" s="23">
+      <c r="CD57" s="29">
         <v>6.8752525727557696</v>
       </c>
-      <c r="CE57" s="23">
+      <c r="CE57" s="29">
         <v>4.9727687460744647</v>
       </c>
-      <c r="CF57" s="23">
+      <c r="CF57" s="29">
         <v>8.5064657823475471</v>
       </c>
-      <c r="CG57" s="23">
+      <c r="CG57" s="29">
         <v>5.3005934654758846</v>
       </c>
-      <c r="CH57" s="18"/>
-      <c r="CI57" s="18"/>
-      <c r="CJ57" s="18"/>
-      <c r="CK57" s="18"/>
-      <c r="CL57" s="9"/>
+      <c r="CH57" s="29">
+        <v>12.853272383772691</v>
+      </c>
+      <c r="CI57" s="43"/>
+      <c r="CJ57" s="43"/>
+      <c r="CK57" s="43"/>
+      <c r="CL57" s="43"/>
       <c r="CM57" s="9"/>
       <c r="CN57" s="9"/>
       <c r="CO57" s="9"/>
@@ -30672,7 +30964,7 @@
       <c r="ES57" s="9"/>
       <c r="ET57" s="9"/>
     </row>
-    <row r="58" spans="1:150" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:150" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B58" s="9"/>
       <c r="C58" s="9"/>
       <c r="D58" s="9"/>
@@ -30749,19 +31041,19 @@
       <c r="BW58" s="9"/>
       <c r="BX58" s="9"/>
       <c r="BY58" s="9"/>
-      <c r="BZ58" s="9"/>
-      <c r="CA58" s="9"/>
-      <c r="CB58" s="9"/>
-      <c r="CC58" s="9"/>
-      <c r="CD58" s="18"/>
-      <c r="CE58" s="18"/>
-      <c r="CF58" s="18"/>
-      <c r="CG58" s="18"/>
-      <c r="CH58" s="18"/>
-      <c r="CI58" s="18"/>
-      <c r="CJ58" s="18"/>
-      <c r="CK58" s="18"/>
-      <c r="CL58" s="9"/>
+      <c r="BZ58" s="18"/>
+      <c r="CA58" s="18"/>
+      <c r="CB58" s="18"/>
+      <c r="CC58" s="18"/>
+      <c r="CD58" s="28"/>
+      <c r="CE58" s="28"/>
+      <c r="CF58" s="28"/>
+      <c r="CG58" s="28"/>
+      <c r="CH58" s="28"/>
+      <c r="CI58" s="43"/>
+      <c r="CJ58" s="43"/>
+      <c r="CK58" s="43"/>
+      <c r="CL58" s="43"/>
       <c r="CM58" s="9"/>
       <c r="CN58" s="9"/>
       <c r="CO58" s="9"/>
@@ -30823,7 +31115,7 @@
       <c r="ES58" s="9"/>
       <c r="ET58" s="9"/>
     </row>
-    <row r="59" spans="1:150" ht="30.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:150" ht="30.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A59" s="10" t="s">
         <v>15</v>
       </c>
@@ -31055,35 +31347,37 @@
       <c r="BY59" s="14">
         <v>11.665724683393194</v>
       </c>
-      <c r="BZ59" s="14">
+      <c r="BZ59" s="21">
         <v>12.128466418042862</v>
       </c>
-      <c r="CA59" s="14">
+      <c r="CA59" s="21">
         <v>7.582911726881008</v>
       </c>
-      <c r="CB59" s="14">
+      <c r="CB59" s="21">
         <v>7.2483866516962934</v>
       </c>
-      <c r="CC59" s="14">
-        <v>6.6431551194115315</v>
-      </c>
-      <c r="CD59" s="23">
+      <c r="CC59" s="21">
+        <v>6.9786374829231761</v>
+      </c>
+      <c r="CD59" s="29">
         <v>8.2995957254769621</v>
       </c>
-      <c r="CE59" s="23">
+      <c r="CE59" s="29">
         <v>8.1649548090495472</v>
       </c>
-      <c r="CF59" s="23">
+      <c r="CF59" s="29">
         <v>5.8858375328118058</v>
       </c>
-      <c r="CG59" s="23">
-        <v>7.0764142242333747</v>
-      </c>
-      <c r="CH59" s="18"/>
-      <c r="CI59" s="18"/>
-      <c r="CJ59" s="18"/>
-      <c r="CK59" s="18"/>
-      <c r="CL59" s="9"/>
+      <c r="CG59" s="29">
+        <v>7.821324053737257</v>
+      </c>
+      <c r="CH59" s="29">
+        <v>11.056262274827787</v>
+      </c>
+      <c r="CI59" s="43"/>
+      <c r="CJ59" s="43"/>
+      <c r="CK59" s="43"/>
+      <c r="CL59" s="43"/>
       <c r="CM59" s="9"/>
       <c r="CN59" s="9"/>
       <c r="CO59" s="9"/>
@@ -31145,7 +31439,7 @@
       <c r="ES59" s="9"/>
       <c r="ET59" s="9"/>
     </row>
-    <row r="60" spans="1:150" ht="7.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:150" ht="7.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A60" s="12"/>
       <c r="B60" s="12"/>
       <c r="C60" s="12"/>
@@ -31223,25 +31517,35 @@
       <c r="BW60" s="12"/>
       <c r="BX60" s="12"/>
       <c r="BY60" s="12"/>
-      <c r="BZ60" s="12"/>
-      <c r="CA60" s="12"/>
-      <c r="CB60" s="12"/>
-      <c r="CC60" s="12"/>
-      <c r="CD60" s="20"/>
-      <c r="CE60" s="20"/>
-      <c r="CF60" s="20"/>
-      <c r="CG60" s="20"/>
-      <c r="CH60" s="20"/>
-      <c r="CI60" s="20"/>
-      <c r="CJ60" s="20"/>
-      <c r="CK60" s="20"/>
+      <c r="BZ60" s="20"/>
+      <c r="CA60" s="20"/>
+      <c r="CB60" s="20"/>
+      <c r="CC60" s="20"/>
+      <c r="CD60" s="27"/>
+      <c r="CE60" s="27"/>
+      <c r="CF60" s="27"/>
+      <c r="CG60" s="27"/>
+      <c r="CH60" s="27"/>
+      <c r="CI60" s="44"/>
+      <c r="CJ60" s="44"/>
+      <c r="CK60" s="44"/>
+      <c r="CL60" s="44"/>
     </row>
-    <row r="61" spans="1:150" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:150" ht="15" x14ac:dyDescent="0.2">
       <c r="A61" s="13" t="s">
         <v>0</v>
       </c>
+      <c r="CD61" s="23"/>
+      <c r="CE61" s="23"/>
+      <c r="CF61" s="23"/>
+      <c r="CG61" s="23"/>
+      <c r="CH61" s="23"/>
+      <c r="CI61" s="38"/>
+      <c r="CJ61" s="38"/>
+      <c r="CK61" s="38"/>
+      <c r="CL61" s="38"/>
     </row>
-    <row r="62" spans="1:150" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:150" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B62" s="9"/>
       <c r="C62" s="9"/>
       <c r="D62" s="9"/>
@@ -31318,19 +31622,19 @@
       <c r="BW62" s="9"/>
       <c r="BX62" s="9"/>
       <c r="BY62" s="9"/>
-      <c r="BZ62" s="9"/>
-      <c r="CA62" s="9"/>
-      <c r="CB62" s="9"/>
-      <c r="CC62" s="9"/>
-      <c r="CD62" s="18"/>
-      <c r="CE62" s="18"/>
-      <c r="CF62" s="18"/>
-      <c r="CG62" s="18"/>
-      <c r="CH62" s="18"/>
-      <c r="CI62" s="18"/>
-      <c r="CJ62" s="18"/>
-      <c r="CK62" s="18"/>
-      <c r="CL62" s="9"/>
+      <c r="BZ62" s="18"/>
+      <c r="CA62" s="18"/>
+      <c r="CB62" s="18"/>
+      <c r="CC62" s="18"/>
+      <c r="CD62" s="28"/>
+      <c r="CE62" s="28"/>
+      <c r="CF62" s="28"/>
+      <c r="CG62" s="28"/>
+      <c r="CH62" s="28"/>
+      <c r="CI62" s="28"/>
+      <c r="CJ62" s="28"/>
+      <c r="CK62" s="28"/>
+      <c r="CL62" s="28"/>
       <c r="CM62" s="9"/>
       <c r="CN62" s="9"/>
       <c r="CO62" s="9"/>
@@ -31392,7 +31696,7 @@
       <c r="ES62" s="9"/>
       <c r="ET62" s="9"/>
     </row>
-    <row r="63" spans="1:150" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:150" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B63" s="9"/>
       <c r="C63" s="9"/>
       <c r="D63" s="9"/>
@@ -31469,19 +31773,19 @@
       <c r="BW63" s="9"/>
       <c r="BX63" s="9"/>
       <c r="BY63" s="9"/>
-      <c r="BZ63" s="9"/>
-      <c r="CA63" s="9"/>
-      <c r="CB63" s="9"/>
-      <c r="CC63" s="9"/>
-      <c r="CD63" s="18"/>
-      <c r="CE63" s="18"/>
-      <c r="CF63" s="18"/>
-      <c r="CG63" s="18"/>
-      <c r="CH63" s="18"/>
-      <c r="CI63" s="18"/>
-      <c r="CJ63" s="18"/>
-      <c r="CK63" s="18"/>
-      <c r="CL63" s="9"/>
+      <c r="BZ63" s="18"/>
+      <c r="CA63" s="18"/>
+      <c r="CB63" s="18"/>
+      <c r="CC63" s="18"/>
+      <c r="CD63" s="28"/>
+      <c r="CE63" s="28"/>
+      <c r="CF63" s="28"/>
+      <c r="CG63" s="28"/>
+      <c r="CH63" s="28"/>
+      <c r="CI63" s="28"/>
+      <c r="CJ63" s="28"/>
+      <c r="CK63" s="28"/>
+      <c r="CL63" s="28"/>
       <c r="CM63" s="9"/>
       <c r="CN63" s="9"/>
       <c r="CO63" s="9"/>
@@ -31543,170 +31847,236 @@
       <c r="ES63" s="9"/>
       <c r="ET63" s="9"/>
     </row>
-    <row r="64" spans="1:150" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:150" ht="15" x14ac:dyDescent="0.2">
       <c r="A64" s="1" t="s">
         <v>2</v>
       </c>
+      <c r="CD64" s="23"/>
+      <c r="CE64" s="23"/>
+      <c r="CF64" s="23"/>
+      <c r="CG64" s="23"/>
+      <c r="CH64" s="23"/>
+      <c r="CI64" s="23"/>
+      <c r="CJ64" s="23"/>
+      <c r="CK64" s="23"/>
+      <c r="CL64" s="23"/>
     </row>
-    <row r="65" spans="1:150" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:150" ht="15" x14ac:dyDescent="0.2">
       <c r="A65" s="1" t="s">
         <v>1</v>
       </c>
+      <c r="CD65" s="23"/>
+      <c r="CE65" s="23"/>
+      <c r="CF65" s="23"/>
+      <c r="CG65" s="23"/>
+      <c r="CH65" s="23"/>
+      <c r="CI65" s="23"/>
+      <c r="CJ65" s="23"/>
+      <c r="CK65" s="23"/>
+      <c r="CL65" s="23"/>
     </row>
-    <row r="66" spans="1:150" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:150" ht="15" x14ac:dyDescent="0.2">
       <c r="A66" s="1" t="s">
-        <v>49</v>
-      </c>
+        <v>50</v>
+      </c>
+      <c r="CD66" s="23"/>
+      <c r="CE66" s="23"/>
+      <c r="CF66" s="23"/>
+      <c r="CG66" s="23"/>
+      <c r="CH66" s="23"/>
+      <c r="CI66" s="23"/>
+      <c r="CJ66" s="23"/>
+      <c r="CK66" s="23"/>
+      <c r="CL66" s="23"/>
     </row>
-    <row r="68" spans="1:150" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:150" ht="15" x14ac:dyDescent="0.2">
       <c r="A68" s="1" t="s">
         <v>19</v>
       </c>
+      <c r="CD68" s="23"/>
+      <c r="CE68" s="23"/>
+      <c r="CF68" s="23"/>
+      <c r="CG68" s="23"/>
+      <c r="CH68" s="23"/>
+      <c r="CI68" s="23"/>
+      <c r="CJ68" s="23"/>
+      <c r="CK68" s="23"/>
+      <c r="CL68" s="23"/>
     </row>
-    <row r="69" spans="1:150" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:150" ht="15" x14ac:dyDescent="0.2">
       <c r="A69" s="1" t="s">
-        <v>51</v>
-      </c>
+        <v>52</v>
+      </c>
+      <c r="CD69" s="23"/>
+      <c r="CE69" s="23"/>
+      <c r="CF69" s="23"/>
+      <c r="CG69" s="23"/>
+      <c r="CH69" s="23"/>
+      <c r="CI69" s="23"/>
+      <c r="CJ69" s="23"/>
+      <c r="CK69" s="23"/>
+      <c r="CL69" s="23"/>
     </row>
-    <row r="70" spans="1:150" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:150" ht="15" x14ac:dyDescent="0.2">
       <c r="A70" s="1" t="s">
         <v>24</v>
       </c>
+      <c r="CD70" s="23"/>
+      <c r="CE70" s="23"/>
+      <c r="CF70" s="23"/>
+      <c r="CG70" s="23"/>
+      <c r="CH70" s="23"/>
+      <c r="CI70" s="38"/>
+      <c r="CJ70" s="38"/>
+      <c r="CK70" s="38"/>
+      <c r="CL70" s="38"/>
+      <c r="CM70" s="40"/>
     </row>
-    <row r="72" spans="1:150" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:150" x14ac:dyDescent="0.2">
+      <c r="CI71" s="39"/>
+      <c r="CJ71" s="39"/>
+      <c r="CK71" s="39"/>
+      <c r="CL71" s="40"/>
+      <c r="CM71" s="40"/>
+    </row>
+    <row r="72" spans="1:150" x14ac:dyDescent="0.2">
       <c r="A72" s="4"/>
-      <c r="B72" s="26" t="s">
+      <c r="B72" s="33" t="s">
         <v>31</v>
       </c>
-      <c r="C72" s="28"/>
-      <c r="D72" s="28"/>
-      <c r="E72" s="28"/>
-      <c r="F72" s="26" t="s">
+      <c r="C72" s="37"/>
+      <c r="D72" s="37"/>
+      <c r="E72" s="37"/>
+      <c r="F72" s="33" t="s">
         <v>32</v>
       </c>
-      <c r="G72" s="28"/>
-      <c r="H72" s="28"/>
-      <c r="I72" s="28"/>
-      <c r="J72" s="26" t="s">
+      <c r="G72" s="37"/>
+      <c r="H72" s="37"/>
+      <c r="I72" s="37"/>
+      <c r="J72" s="33" t="s">
         <v>33</v>
       </c>
-      <c r="K72" s="28"/>
-      <c r="L72" s="28"/>
-      <c r="M72" s="28"/>
-      <c r="N72" s="26" t="s">
+      <c r="K72" s="37"/>
+      <c r="L72" s="37"/>
+      <c r="M72" s="37"/>
+      <c r="N72" s="33" t="s">
         <v>34</v>
       </c>
-      <c r="O72" s="28"/>
-      <c r="P72" s="28"/>
-      <c r="Q72" s="28"/>
-      <c r="R72" s="26" t="s">
+      <c r="O72" s="37"/>
+      <c r="P72" s="37"/>
+      <c r="Q72" s="37"/>
+      <c r="R72" s="33" t="s">
         <v>35</v>
       </c>
-      <c r="S72" s="28"/>
-      <c r="T72" s="28"/>
-      <c r="U72" s="28"/>
-      <c r="V72" s="26" t="s">
+      <c r="S72" s="37"/>
+      <c r="T72" s="37"/>
+      <c r="U72" s="37"/>
+      <c r="V72" s="33" t="s">
         <v>36</v>
       </c>
-      <c r="W72" s="28"/>
-      <c r="X72" s="28"/>
-      <c r="Y72" s="28"/>
-      <c r="Z72" s="26" t="s">
+      <c r="W72" s="37"/>
+      <c r="X72" s="37"/>
+      <c r="Y72" s="37"/>
+      <c r="Z72" s="33" t="s">
         <v>37</v>
       </c>
-      <c r="AA72" s="28"/>
-      <c r="AB72" s="28"/>
-      <c r="AC72" s="28"/>
-      <c r="AD72" s="26" t="s">
+      <c r="AA72" s="37"/>
+      <c r="AB72" s="37"/>
+      <c r="AC72" s="37"/>
+      <c r="AD72" s="33" t="s">
         <v>38</v>
       </c>
-      <c r="AE72" s="28"/>
-      <c r="AF72" s="28"/>
-      <c r="AG72" s="28"/>
-      <c r="AH72" s="26" t="s">
+      <c r="AE72" s="37"/>
+      <c r="AF72" s="37"/>
+      <c r="AG72" s="37"/>
+      <c r="AH72" s="33" t="s">
         <v>39</v>
       </c>
-      <c r="AI72" s="28"/>
-      <c r="AJ72" s="28"/>
-      <c r="AK72" s="28"/>
-      <c r="AL72" s="26" t="s">
+      <c r="AI72" s="37"/>
+      <c r="AJ72" s="37"/>
+      <c r="AK72" s="37"/>
+      <c r="AL72" s="33" t="s">
         <v>40</v>
       </c>
-      <c r="AM72" s="28"/>
-      <c r="AN72" s="28"/>
-      <c r="AO72" s="28"/>
-      <c r="AP72" s="26" t="s">
+      <c r="AM72" s="37"/>
+      <c r="AN72" s="37"/>
+      <c r="AO72" s="37"/>
+      <c r="AP72" s="33" t="s">
         <v>41</v>
       </c>
-      <c r="AQ72" s="28"/>
-      <c r="AR72" s="28"/>
-      <c r="AS72" s="28"/>
-      <c r="AT72" s="26" t="s">
+      <c r="AQ72" s="37"/>
+      <c r="AR72" s="37"/>
+      <c r="AS72" s="37"/>
+      <c r="AT72" s="33" t="s">
         <v>42</v>
       </c>
-      <c r="AU72" s="28"/>
-      <c r="AV72" s="28"/>
-      <c r="AW72" s="28"/>
-      <c r="AX72" s="26" t="s">
+      <c r="AU72" s="37"/>
+      <c r="AV72" s="37"/>
+      <c r="AW72" s="37"/>
+      <c r="AX72" s="33" t="s">
         <v>43</v>
       </c>
-      <c r="AY72" s="28"/>
-      <c r="AZ72" s="28"/>
-      <c r="BA72" s="28"/>
-      <c r="BB72" s="26" t="s">
+      <c r="AY72" s="37"/>
+      <c r="AZ72" s="37"/>
+      <c r="BA72" s="37"/>
+      <c r="BB72" s="33" t="s">
         <v>44</v>
       </c>
-      <c r="BC72" s="28"/>
-      <c r="BD72" s="28"/>
-      <c r="BE72" s="28"/>
-      <c r="BF72" s="26" t="s">
+      <c r="BC72" s="37"/>
+      <c r="BD72" s="37"/>
+      <c r="BE72" s="37"/>
+      <c r="BF72" s="33" t="s">
         <v>45</v>
       </c>
-      <c r="BG72" s="28"/>
-      <c r="BH72" s="28"/>
-      <c r="BI72" s="28"/>
-      <c r="BJ72" s="26" t="s">
+      <c r="BG72" s="37"/>
+      <c r="BH72" s="37"/>
+      <c r="BI72" s="37"/>
+      <c r="BJ72" s="33" t="s">
         <v>46</v>
       </c>
-      <c r="BK72" s="28"/>
-      <c r="BL72" s="28"/>
-      <c r="BM72" s="28"/>
-      <c r="BN72" s="26" t="s">
+      <c r="BK72" s="37"/>
+      <c r="BL72" s="37"/>
+      <c r="BM72" s="37"/>
+      <c r="BN72" s="33" t="s">
         <v>47</v>
       </c>
-      <c r="BO72" s="28"/>
-      <c r="BP72" s="28"/>
-      <c r="BQ72" s="28"/>
-      <c r="BR72" s="26" t="s">
+      <c r="BO72" s="37"/>
+      <c r="BP72" s="37"/>
+      <c r="BQ72" s="37"/>
+      <c r="BR72" s="33" t="s">
         <v>27</v>
       </c>
-      <c r="BS72" s="28"/>
-      <c r="BT72" s="28"/>
-      <c r="BU72" s="28"/>
-      <c r="BV72" s="26" t="s">
+      <c r="BS72" s="37"/>
+      <c r="BT72" s="37"/>
+      <c r="BU72" s="37"/>
+      <c r="BV72" s="33" t="s">
         <v>28</v>
       </c>
-      <c r="BW72" s="28"/>
-      <c r="BX72" s="28"/>
-      <c r="BY72" s="28"/>
-      <c r="BZ72" s="26" t="s">
+      <c r="BW72" s="37"/>
+      <c r="BX72" s="37"/>
+      <c r="BY72" s="37"/>
+      <c r="BZ72" s="35" t="s">
         <v>29</v>
       </c>
-      <c r="CA72" s="26"/>
-      <c r="CB72" s="26"/>
-      <c r="CC72" s="26"/>
-      <c r="CD72" s="25" t="s">
+      <c r="CA72" s="35"/>
+      <c r="CB72" s="35"/>
+      <c r="CC72" s="35"/>
+      <c r="CD72" s="35" t="s">
         <v>48</v>
       </c>
-      <c r="CE72" s="25"/>
-      <c r="CF72" s="25"/>
-      <c r="CG72" s="25"/>
-      <c r="CH72" s="21"/>
-      <c r="CI72" s="21"/>
-      <c r="CJ72" s="21"/>
-      <c r="CK72" s="21"/>
+      <c r="CE72" s="35"/>
+      <c r="CF72" s="35"/>
+      <c r="CG72" s="35"/>
+      <c r="CH72" s="32" t="s">
+        <v>49</v>
+      </c>
+      <c r="CI72" s="41"/>
+      <c r="CJ72" s="41"/>
+      <c r="CK72" s="41"/>
+      <c r="CL72" s="42"/>
+      <c r="CM72" s="40"/>
     </row>
-    <row r="73" spans="1:150" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:150" x14ac:dyDescent="0.2">
       <c r="A73" s="5" t="s">
         <v>4</v>
       </c>
@@ -31938,39 +32308,53 @@
       <c r="BY73" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="BZ73" s="5" t="s">
+      <c r="BZ73" s="22" t="s">
         <v>7</v>
       </c>
-      <c r="CA73" s="5" t="s">
+      <c r="CA73" s="22" t="s">
         <v>8</v>
       </c>
-      <c r="CB73" s="5" t="s">
+      <c r="CB73" s="22" t="s">
         <v>10</v>
       </c>
-      <c r="CC73" s="5" t="s">
+      <c r="CC73" s="22" t="s">
         <v>9</v>
       </c>
-      <c r="CD73" s="24" t="s">
+      <c r="CD73" s="25" t="s">
         <v>7</v>
       </c>
-      <c r="CE73" s="24" t="s">
+      <c r="CE73" s="25" t="s">
         <v>8</v>
       </c>
-      <c r="CF73" s="24" t="s">
+      <c r="CF73" s="25" t="s">
         <v>10</v>
       </c>
-      <c r="CG73" s="24" t="s">
+      <c r="CG73" s="25" t="s">
         <v>9</v>
       </c>
-      <c r="CH73" s="22"/>
-      <c r="CI73" s="22"/>
-      <c r="CJ73" s="22"/>
-      <c r="CK73" s="22"/>
+      <c r="CH73" s="25" t="s">
+        <v>7</v>
+      </c>
+      <c r="CI73" s="41"/>
+      <c r="CJ73" s="41"/>
+      <c r="CK73" s="41"/>
+      <c r="CL73" s="41"/>
+      <c r="CM73" s="40"/>
     </row>
-    <row r="74" spans="1:150" ht="10.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:150" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A74" s="7"/>
+      <c r="CD74" s="23"/>
+      <c r="CE74" s="23"/>
+      <c r="CF74" s="23"/>
+      <c r="CG74" s="23"/>
+      <c r="CH74" s="23"/>
+      <c r="CI74" s="38"/>
+      <c r="CJ74" s="38"/>
+      <c r="CK74" s="38"/>
+      <c r="CL74" s="38"/>
+      <c r="CM74" s="40"/>
     </row>
-    <row r="75" spans="1:150" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:150" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A75" s="1" t="s">
         <v>11</v>
       </c>
@@ -32202,36 +32586,38 @@
       <c r="BY75" s="14">
         <v>14.518792882196692</v>
       </c>
-      <c r="BZ75" s="14">
+      <c r="BZ75" s="21">
         <v>15.874385540115938</v>
       </c>
-      <c r="CA75" s="14">
+      <c r="CA75" s="21">
         <v>14.056726740997092</v>
       </c>
-      <c r="CB75" s="14">
+      <c r="CB75" s="21">
         <v>10.488948130340276</v>
       </c>
-      <c r="CC75" s="14">
-        <v>8.4664032531312188</v>
-      </c>
-      <c r="CD75" s="23">
+      <c r="CC75" s="21">
+        <v>9.1643396346385799</v>
+      </c>
+      <c r="CD75" s="29">
         <v>5.0629776269243081</v>
       </c>
-      <c r="CE75" s="23">
+      <c r="CE75" s="29">
         <v>2.9638211590657448</v>
       </c>
-      <c r="CF75" s="23">
+      <c r="CF75" s="29">
         <v>2.7814252027223745</v>
       </c>
-      <c r="CG75" s="23">
-        <v>1.607618529612779</v>
-      </c>
-      <c r="CH75" s="18"/>
-      <c r="CI75" s="18"/>
-      <c r="CJ75" s="18"/>
-      <c r="CK75" s="18"/>
-      <c r="CL75" s="9"/>
-      <c r="CM75" s="9"/>
+      <c r="CG75" s="29">
+        <v>2.9380282174979726</v>
+      </c>
+      <c r="CH75" s="29">
+        <v>6.5947211085697148</v>
+      </c>
+      <c r="CI75" s="43"/>
+      <c r="CJ75" s="43"/>
+      <c r="CK75" s="43"/>
+      <c r="CL75" s="43"/>
+      <c r="CM75" s="45"/>
       <c r="CN75" s="9"/>
       <c r="CO75" s="9"/>
       <c r="CP75" s="9"/>
@@ -32292,7 +32678,7 @@
       <c r="ES75" s="9"/>
       <c r="ET75" s="9"/>
     </row>
-    <row r="76" spans="1:150" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:150" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A76" s="10" t="s">
         <v>12</v>
       </c>
@@ -32524,36 +32910,38 @@
       <c r="BY76" s="14">
         <v>12.807251747633913</v>
       </c>
-      <c r="BZ76" s="14">
+      <c r="BZ76" s="21">
         <v>1.6198345025596268</v>
       </c>
-      <c r="CA76" s="14">
+      <c r="CA76" s="21">
         <v>0.24939666187249543</v>
       </c>
-      <c r="CB76" s="14">
+      <c r="CB76" s="21">
         <v>1.6657562693243193</v>
       </c>
-      <c r="CC76" s="14">
-        <v>3.2880452134325964</v>
-      </c>
-      <c r="CD76" s="23">
+      <c r="CC76" s="21">
+        <v>3.288045213432639</v>
+      </c>
+      <c r="CD76" s="29">
         <v>3.5645699424525361</v>
       </c>
-      <c r="CE76" s="23">
+      <c r="CE76" s="29">
         <v>5.52344815087082</v>
       </c>
-      <c r="CF76" s="23">
+      <c r="CF76" s="29">
         <v>2.4989687698222127</v>
       </c>
-      <c r="CG76" s="23">
-        <v>7.347780902060876</v>
-      </c>
-      <c r="CH76" s="18"/>
-      <c r="CI76" s="18"/>
-      <c r="CJ76" s="18"/>
-      <c r="CK76" s="18"/>
-      <c r="CL76" s="9"/>
-      <c r="CM76" s="9"/>
+      <c r="CG76" s="29">
+        <v>7.627721777160275</v>
+      </c>
+      <c r="CH76" s="29">
+        <v>10.006656499788463</v>
+      </c>
+      <c r="CI76" s="43"/>
+      <c r="CJ76" s="43"/>
+      <c r="CK76" s="43"/>
+      <c r="CL76" s="43"/>
+      <c r="CM76" s="45"/>
       <c r="CN76" s="9"/>
       <c r="CO76" s="9"/>
       <c r="CP76" s="9"/>
@@ -32614,7 +33002,7 @@
       <c r="ES76" s="9"/>
       <c r="ET76" s="9"/>
     </row>
-    <row r="77" spans="1:150" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:150" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A77" s="1" t="s">
         <v>13</v>
       </c>
@@ -32846,36 +33234,38 @@
       <c r="BY77" s="14">
         <v>6.0019598874639684</v>
       </c>
-      <c r="BZ77" s="14">
+      <c r="BZ77" s="21">
         <v>-5.1321178151512328</v>
       </c>
-      <c r="CA77" s="14">
+      <c r="CA77" s="21">
         <v>-12.872892191127178</v>
       </c>
-      <c r="CB77" s="14">
+      <c r="CB77" s="21">
         <v>-11.534561531078424</v>
       </c>
-      <c r="CC77" s="14">
+      <c r="CC77" s="21">
         <v>-4.9861360058664985</v>
       </c>
-      <c r="CD77" s="23">
+      <c r="CD77" s="29">
         <v>3.2507058138745464</v>
       </c>
-      <c r="CE77" s="23">
+      <c r="CE77" s="29">
         <v>15.489493218426304</v>
       </c>
-      <c r="CF77" s="23">
+      <c r="CF77" s="29">
         <v>10.462715958962406</v>
       </c>
-      <c r="CG77" s="23">
+      <c r="CG77" s="29">
         <v>9.8030679815093151</v>
       </c>
-      <c r="CH77" s="18"/>
-      <c r="CI77" s="18"/>
-      <c r="CJ77" s="18"/>
-      <c r="CK77" s="18"/>
-      <c r="CL77" s="9"/>
-      <c r="CM77" s="9"/>
+      <c r="CH77" s="29">
+        <v>4.5273593202528843</v>
+      </c>
+      <c r="CI77" s="43"/>
+      <c r="CJ77" s="43"/>
+      <c r="CK77" s="43"/>
+      <c r="CL77" s="43"/>
+      <c r="CM77" s="45"/>
       <c r="CN77" s="9"/>
       <c r="CO77" s="9"/>
       <c r="CP77" s="9"/>
@@ -32936,7 +33326,7 @@
       <c r="ES77" s="9"/>
       <c r="ET77" s="9"/>
     </row>
-    <row r="78" spans="1:150" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:150" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A78" s="1" t="s">
         <v>14</v>
       </c>
@@ -33168,36 +33558,38 @@
       <c r="BY78" s="14">
         <v>7.6464794751658332</v>
       </c>
-      <c r="BZ78" s="14">
+      <c r="BZ78" s="21">
         <v>11.872832039659414</v>
       </c>
-      <c r="CA78" s="14">
+      <c r="CA78" s="21">
         <v>5.5039138357132202</v>
       </c>
-      <c r="CB78" s="14">
+      <c r="CB78" s="21">
         <v>1.263999051975091</v>
       </c>
-      <c r="CC78" s="14">
+      <c r="CC78" s="21">
         <v>1.7713206864655433</v>
       </c>
-      <c r="CD78" s="23">
+      <c r="CD78" s="29">
         <v>2.2197206824587425</v>
       </c>
-      <c r="CE78" s="23">
+      <c r="CE78" s="29">
         <v>1.7458794367660033</v>
       </c>
-      <c r="CF78" s="23">
+      <c r="CF78" s="29">
         <v>5.8395229555424208</v>
       </c>
-      <c r="CG78" s="23">
+      <c r="CG78" s="29">
         <v>2.2172930164467743</v>
       </c>
-      <c r="CH78" s="18"/>
-      <c r="CI78" s="18"/>
-      <c r="CJ78" s="18"/>
-      <c r="CK78" s="18"/>
-      <c r="CL78" s="9"/>
-      <c r="CM78" s="9"/>
+      <c r="CH78" s="29">
+        <v>8.4253096607359623</v>
+      </c>
+      <c r="CI78" s="43"/>
+      <c r="CJ78" s="43"/>
+      <c r="CK78" s="43"/>
+      <c r="CL78" s="43"/>
+      <c r="CM78" s="45"/>
       <c r="CN78" s="9"/>
       <c r="CO78" s="9"/>
       <c r="CP78" s="9"/>
@@ -33258,7 +33650,7 @@
       <c r="ES78" s="9"/>
       <c r="ET78" s="9"/>
     </row>
-    <row r="79" spans="1:150" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:150" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B79" s="9"/>
       <c r="C79" s="9"/>
       <c r="D79" s="9"/>
@@ -33335,20 +33727,20 @@
       <c r="BW79" s="9"/>
       <c r="BX79" s="9"/>
       <c r="BY79" s="9"/>
-      <c r="BZ79" s="9"/>
-      <c r="CA79" s="9"/>
-      <c r="CB79" s="9"/>
-      <c r="CC79" s="9"/>
-      <c r="CD79" s="18"/>
-      <c r="CE79" s="18"/>
-      <c r="CF79" s="18"/>
-      <c r="CG79" s="18"/>
-      <c r="CH79" s="18"/>
-      <c r="CI79" s="18"/>
-      <c r="CJ79" s="18"/>
-      <c r="CK79" s="18"/>
-      <c r="CL79" s="9"/>
-      <c r="CM79" s="9"/>
+      <c r="BZ79" s="18"/>
+      <c r="CA79" s="18"/>
+      <c r="CB79" s="18"/>
+      <c r="CC79" s="18"/>
+      <c r="CD79" s="28"/>
+      <c r="CE79" s="28"/>
+      <c r="CF79" s="28"/>
+      <c r="CG79" s="28"/>
+      <c r="CH79" s="28"/>
+      <c r="CI79" s="43"/>
+      <c r="CJ79" s="43"/>
+      <c r="CK79" s="43"/>
+      <c r="CL79" s="43"/>
+      <c r="CM79" s="45"/>
       <c r="CN79" s="9"/>
       <c r="CO79" s="9"/>
       <c r="CP79" s="9"/>
@@ -33409,7 +33801,7 @@
       <c r="ES79" s="9"/>
       <c r="ET79" s="9"/>
     </row>
-    <row r="80" spans="1:150" ht="30.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:150" ht="30.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A80" s="10" t="s">
         <v>15</v>
       </c>
@@ -33641,36 +34033,38 @@
       <c r="BY80" s="14">
         <v>12.109957324955744</v>
       </c>
-      <c r="BZ80" s="14">
+      <c r="BZ80" s="21">
         <v>8.849273133794</v>
       </c>
-      <c r="CA80" s="14">
+      <c r="CA80" s="21">
         <v>4.7726695508619343</v>
       </c>
-      <c r="CB80" s="14">
+      <c r="CB80" s="21">
         <v>4.1704956190558846</v>
       </c>
-      <c r="CC80" s="14">
-        <v>4.2753473565889806</v>
-      </c>
-      <c r="CD80" s="23">
+      <c r="CC80" s="21">
+        <v>4.6016572286241058</v>
+      </c>
+      <c r="CD80" s="29">
         <v>4.3248822564166289</v>
       </c>
-      <c r="CE80" s="23">
+      <c r="CE80" s="29">
         <v>5.221523607043693</v>
       </c>
-      <c r="CF80" s="23">
+      <c r="CF80" s="29">
         <v>3.8637070232336157</v>
       </c>
-      <c r="CG80" s="23">
-        <v>4.6319530915300362</v>
-      </c>
-      <c r="CH80" s="18"/>
-      <c r="CI80" s="18"/>
-      <c r="CJ80" s="18"/>
-      <c r="CK80" s="18"/>
-      <c r="CL80" s="9"/>
-      <c r="CM80" s="9"/>
+      <c r="CG80" s="29">
+        <v>5.3579536293480601</v>
+      </c>
+      <c r="CH80" s="29">
+        <v>7.235897761828781</v>
+      </c>
+      <c r="CI80" s="43"/>
+      <c r="CJ80" s="43"/>
+      <c r="CK80" s="43"/>
+      <c r="CL80" s="43"/>
+      <c r="CM80" s="45"/>
       <c r="CN80" s="9"/>
       <c r="CO80" s="9"/>
       <c r="CP80" s="9"/>
@@ -33731,7 +34125,7 @@
       <c r="ES80" s="9"/>
       <c r="ET80" s="9"/>
     </row>
-    <row r="81" spans="1:154" ht="7.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:154" ht="7.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A81" s="12"/>
       <c r="B81" s="12"/>
       <c r="C81" s="12"/>
@@ -33809,25 +34203,37 @@
       <c r="BW81" s="12"/>
       <c r="BX81" s="12"/>
       <c r="BY81" s="12"/>
-      <c r="BZ81" s="12"/>
-      <c r="CA81" s="12"/>
-      <c r="CB81" s="12"/>
-      <c r="CC81" s="12"/>
-      <c r="CD81" s="20"/>
-      <c r="CE81" s="20"/>
-      <c r="CF81" s="20"/>
-      <c r="CG81" s="20"/>
-      <c r="CH81" s="20"/>
-      <c r="CI81" s="20"/>
-      <c r="CJ81" s="20"/>
-      <c r="CK81" s="20"/>
+      <c r="BZ81" s="20"/>
+      <c r="CA81" s="20"/>
+      <c r="CB81" s="20"/>
+      <c r="CC81" s="20"/>
+      <c r="CD81" s="27"/>
+      <c r="CE81" s="27"/>
+      <c r="CF81" s="27"/>
+      <c r="CG81" s="27"/>
+      <c r="CH81" s="27"/>
+      <c r="CI81" s="44"/>
+      <c r="CJ81" s="44"/>
+      <c r="CK81" s="44"/>
+      <c r="CL81" s="44"/>
+      <c r="CM81" s="40"/>
     </row>
-    <row r="82" spans="1:154" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:154" ht="15" x14ac:dyDescent="0.2">
       <c r="A82" s="13" t="s">
         <v>0</v>
       </c>
+      <c r="CD82" s="23"/>
+      <c r="CE82" s="23"/>
+      <c r="CF82" s="23"/>
+      <c r="CG82" s="23"/>
+      <c r="CH82" s="23"/>
+      <c r="CI82" s="38"/>
+      <c r="CJ82" s="38"/>
+      <c r="CK82" s="38"/>
+      <c r="CL82" s="38"/>
+      <c r="CM82" s="40"/>
     </row>
-    <row r="83" spans="1:154" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:154" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B83" s="9"/>
       <c r="C83" s="9"/>
       <c r="D83" s="9"/>
@@ -33904,20 +34310,20 @@
       <c r="BW83" s="9"/>
       <c r="BX83" s="9"/>
       <c r="BY83" s="9"/>
-      <c r="BZ83" s="9"/>
-      <c r="CA83" s="9"/>
-      <c r="CB83" s="9"/>
-      <c r="CC83" s="9"/>
-      <c r="CD83" s="18"/>
-      <c r="CE83" s="18"/>
-      <c r="CF83" s="18"/>
-      <c r="CG83" s="18"/>
-      <c r="CH83" s="18"/>
-      <c r="CI83" s="18"/>
-      <c r="CJ83" s="18"/>
-      <c r="CK83" s="18"/>
-      <c r="CL83" s="9"/>
-      <c r="CM83" s="9"/>
+      <c r="BZ83" s="18"/>
+      <c r="CA83" s="18"/>
+      <c r="CB83" s="18"/>
+      <c r="CC83" s="18"/>
+      <c r="CD83" s="28"/>
+      <c r="CE83" s="28"/>
+      <c r="CF83" s="28"/>
+      <c r="CG83" s="28"/>
+      <c r="CH83" s="28"/>
+      <c r="CI83" s="43"/>
+      <c r="CJ83" s="43"/>
+      <c r="CK83" s="43"/>
+      <c r="CL83" s="43"/>
+      <c r="CM83" s="45"/>
       <c r="CN83" s="9"/>
       <c r="CO83" s="9"/>
       <c r="CP83" s="9"/>
@@ -33978,7 +34384,7 @@
       <c r="ES83" s="9"/>
       <c r="ET83" s="9"/>
     </row>
-    <row r="84" spans="1:154" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:154" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B84" s="9"/>
       <c r="C84" s="9"/>
       <c r="D84" s="9"/>
@@ -34055,20 +34461,20 @@
       <c r="BW84" s="9"/>
       <c r="BX84" s="9"/>
       <c r="BY84" s="9"/>
-      <c r="BZ84" s="9"/>
-      <c r="CA84" s="9"/>
-      <c r="CB84" s="9"/>
-      <c r="CC84" s="9"/>
-      <c r="CD84" s="18"/>
-      <c r="CE84" s="18"/>
-      <c r="CF84" s="18"/>
-      <c r="CG84" s="18"/>
-      <c r="CH84" s="18"/>
-      <c r="CI84" s="18"/>
-      <c r="CJ84" s="18"/>
-      <c r="CK84" s="18"/>
-      <c r="CL84" s="9"/>
-      <c r="CM84" s="9"/>
+      <c r="BZ84" s="18"/>
+      <c r="CA84" s="18"/>
+      <c r="CB84" s="18"/>
+      <c r="CC84" s="18"/>
+      <c r="CD84" s="28"/>
+      <c r="CE84" s="28"/>
+      <c r="CF84" s="28"/>
+      <c r="CG84" s="28"/>
+      <c r="CH84" s="28"/>
+      <c r="CI84" s="43"/>
+      <c r="CJ84" s="43"/>
+      <c r="CK84" s="43"/>
+      <c r="CL84" s="43"/>
+      <c r="CM84" s="45"/>
       <c r="CN84" s="9"/>
       <c r="CO84" s="9"/>
       <c r="CP84" s="9"/>
@@ -34129,167 +34535,224 @@
       <c r="ES84" s="9"/>
       <c r="ET84" s="9"/>
     </row>
-    <row r="85" spans="1:154" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:154" ht="15" x14ac:dyDescent="0.2">
       <c r="A85" s="1" t="s">
         <v>2</v>
       </c>
+      <c r="CD85" s="23"/>
+      <c r="CE85" s="23"/>
+      <c r="CF85" s="23"/>
+      <c r="CG85" s="23"/>
+      <c r="CH85" s="23"/>
+      <c r="CI85" s="38"/>
+      <c r="CJ85" s="38"/>
+      <c r="CK85" s="38"/>
+      <c r="CL85" s="38"/>
+      <c r="CM85" s="40"/>
     </row>
-    <row r="86" spans="1:154" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:154" ht="15" x14ac:dyDescent="0.2">
       <c r="A86" s="1" t="s">
-        <v>49</v>
-      </c>
+        <v>50</v>
+      </c>
+      <c r="CD86" s="23"/>
+      <c r="CE86" s="23"/>
+      <c r="CF86" s="23"/>
+      <c r="CG86" s="23"/>
+      <c r="CH86" s="23"/>
+      <c r="CI86" s="38"/>
+      <c r="CJ86" s="38"/>
+      <c r="CK86" s="38"/>
+      <c r="CL86" s="38"/>
+      <c r="CM86" s="40"/>
     </row>
-    <row r="88" spans="1:154" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:154" x14ac:dyDescent="0.2">
+      <c r="CI87" s="39"/>
+      <c r="CJ87" s="39"/>
+      <c r="CK87" s="39"/>
+      <c r="CL87" s="40"/>
+      <c r="CM87" s="40"/>
+    </row>
+    <row r="88" spans="1:154" ht="15" x14ac:dyDescent="0.2">
       <c r="A88" s="1" t="s">
         <v>20</v>
       </c>
+      <c r="CD88" s="23"/>
+      <c r="CE88" s="23"/>
+      <c r="CF88" s="23"/>
+      <c r="CG88" s="23"/>
+      <c r="CH88" s="23"/>
+      <c r="CI88" s="23"/>
+      <c r="CJ88" s="23"/>
+      <c r="CK88" s="23"/>
+      <c r="CL88" s="23"/>
     </row>
-    <row r="89" spans="1:154" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:154" ht="15" x14ac:dyDescent="0.2">
       <c r="A89" s="1" t="s">
-        <v>50</v>
-      </c>
+        <v>51</v>
+      </c>
+      <c r="CD89" s="23"/>
+      <c r="CE89" s="23"/>
+      <c r="CF89" s="23"/>
+      <c r="CG89" s="23"/>
+      <c r="CH89" s="23"/>
+      <c r="CI89" s="23"/>
+      <c r="CJ89" s="23"/>
+      <c r="CK89" s="23"/>
+      <c r="CL89" s="23"/>
     </row>
-    <row r="90" spans="1:154" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:154" ht="15" x14ac:dyDescent="0.2">
       <c r="A90" s="1" t="s">
         <v>6</v>
       </c>
+      <c r="CD90" s="23"/>
+      <c r="CE90" s="23"/>
+      <c r="CF90" s="23"/>
+      <c r="CG90" s="23"/>
+      <c r="CH90" s="23"/>
+      <c r="CI90" s="23"/>
+      <c r="CJ90" s="23"/>
+      <c r="CK90" s="23"/>
+      <c r="CL90" s="23"/>
     </row>
-    <row r="92" spans="1:154" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:154" x14ac:dyDescent="0.2">
       <c r="A92" s="4"/>
-      <c r="B92" s="26">
+      <c r="B92" s="33">
         <v>2000</v>
       </c>
-      <c r="C92" s="27"/>
-      <c r="D92" s="27"/>
-      <c r="E92" s="27"/>
-      <c r="F92" s="26">
+      <c r="C92" s="34"/>
+      <c r="D92" s="34"/>
+      <c r="E92" s="34"/>
+      <c r="F92" s="33">
         <v>2001</v>
       </c>
-      <c r="G92" s="27"/>
-      <c r="H92" s="27"/>
-      <c r="I92" s="27"/>
-      <c r="J92" s="26">
+      <c r="G92" s="34"/>
+      <c r="H92" s="34"/>
+      <c r="I92" s="34"/>
+      <c r="J92" s="33">
         <v>2002</v>
       </c>
-      <c r="K92" s="27"/>
-      <c r="L92" s="27"/>
-      <c r="M92" s="27"/>
-      <c r="N92" s="26">
+      <c r="K92" s="34"/>
+      <c r="L92" s="34"/>
+      <c r="M92" s="34"/>
+      <c r="N92" s="33">
         <v>2003</v>
       </c>
-      <c r="O92" s="27"/>
-      <c r="P92" s="27"/>
-      <c r="Q92" s="27"/>
-      <c r="R92" s="26">
+      <c r="O92" s="34"/>
+      <c r="P92" s="34"/>
+      <c r="Q92" s="34"/>
+      <c r="R92" s="33">
         <v>2004</v>
       </c>
-      <c r="S92" s="27"/>
-      <c r="T92" s="27"/>
-      <c r="U92" s="27"/>
-      <c r="V92" s="26">
+      <c r="S92" s="34"/>
+      <c r="T92" s="34"/>
+      <c r="U92" s="34"/>
+      <c r="V92" s="33">
         <v>2005</v>
       </c>
-      <c r="W92" s="27"/>
-      <c r="X92" s="27"/>
-      <c r="Y92" s="27"/>
-      <c r="Z92" s="26">
+      <c r="W92" s="34"/>
+      <c r="X92" s="34"/>
+      <c r="Y92" s="34"/>
+      <c r="Z92" s="33">
         <v>2006</v>
       </c>
-      <c r="AA92" s="27"/>
-      <c r="AB92" s="27"/>
-      <c r="AC92" s="27"/>
-      <c r="AD92" s="26">
+      <c r="AA92" s="34"/>
+      <c r="AB92" s="34"/>
+      <c r="AC92" s="34"/>
+      <c r="AD92" s="33">
         <v>2007</v>
       </c>
-      <c r="AE92" s="27"/>
-      <c r="AF92" s="27"/>
-      <c r="AG92" s="27"/>
-      <c r="AH92" s="26">
+      <c r="AE92" s="34"/>
+      <c r="AF92" s="34"/>
+      <c r="AG92" s="34"/>
+      <c r="AH92" s="33">
         <v>2008</v>
       </c>
-      <c r="AI92" s="27"/>
-      <c r="AJ92" s="27"/>
-      <c r="AK92" s="27"/>
-      <c r="AL92" s="26">
+      <c r="AI92" s="34"/>
+      <c r="AJ92" s="34"/>
+      <c r="AK92" s="34"/>
+      <c r="AL92" s="33">
         <v>2009</v>
       </c>
-      <c r="AM92" s="27"/>
-      <c r="AN92" s="27"/>
-      <c r="AO92" s="27"/>
-      <c r="AP92" s="26">
+      <c r="AM92" s="34"/>
+      <c r="AN92" s="34"/>
+      <c r="AO92" s="34"/>
+      <c r="AP92" s="33">
         <v>2010</v>
       </c>
-      <c r="AQ92" s="27"/>
-      <c r="AR92" s="27"/>
-      <c r="AS92" s="27"/>
-      <c r="AT92" s="26">
+      <c r="AQ92" s="34"/>
+      <c r="AR92" s="34"/>
+      <c r="AS92" s="34"/>
+      <c r="AT92" s="33">
         <v>2011</v>
       </c>
-      <c r="AU92" s="27"/>
-      <c r="AV92" s="27"/>
-      <c r="AW92" s="27"/>
-      <c r="AX92" s="26">
+      <c r="AU92" s="34"/>
+      <c r="AV92" s="34"/>
+      <c r="AW92" s="34"/>
+      <c r="AX92" s="33">
         <v>2012</v>
       </c>
-      <c r="AY92" s="27"/>
-      <c r="AZ92" s="27"/>
-      <c r="BA92" s="27"/>
-      <c r="BB92" s="26">
+      <c r="AY92" s="34"/>
+      <c r="AZ92" s="34"/>
+      <c r="BA92" s="34"/>
+      <c r="BB92" s="33">
         <v>2013</v>
       </c>
-      <c r="BC92" s="27"/>
-      <c r="BD92" s="27"/>
-      <c r="BE92" s="27"/>
-      <c r="BF92" s="26">
+      <c r="BC92" s="34"/>
+      <c r="BD92" s="34"/>
+      <c r="BE92" s="34"/>
+      <c r="BF92" s="33">
         <v>2014</v>
       </c>
-      <c r="BG92" s="27"/>
-      <c r="BH92" s="27"/>
-      <c r="BI92" s="27"/>
-      <c r="BJ92" s="26">
+      <c r="BG92" s="34"/>
+      <c r="BH92" s="34"/>
+      <c r="BI92" s="34"/>
+      <c r="BJ92" s="33">
         <v>2015</v>
       </c>
-      <c r="BK92" s="27"/>
-      <c r="BL92" s="27"/>
-      <c r="BM92" s="27"/>
-      <c r="BN92" s="26">
+      <c r="BK92" s="34"/>
+      <c r="BL92" s="34"/>
+      <c r="BM92" s="34"/>
+      <c r="BN92" s="33">
         <v>2016</v>
       </c>
-      <c r="BO92" s="27"/>
-      <c r="BP92" s="27"/>
-      <c r="BQ92" s="27"/>
-      <c r="BR92" s="26">
+      <c r="BO92" s="34"/>
+      <c r="BP92" s="34"/>
+      <c r="BQ92" s="34"/>
+      <c r="BR92" s="33">
         <v>2017</v>
       </c>
-      <c r="BS92" s="27"/>
-      <c r="BT92" s="27"/>
-      <c r="BU92" s="27"/>
-      <c r="BV92" s="26">
+      <c r="BS92" s="34"/>
+      <c r="BT92" s="34"/>
+      <c r="BU92" s="34"/>
+      <c r="BV92" s="33">
         <v>2018</v>
       </c>
-      <c r="BW92" s="27"/>
-      <c r="BX92" s="27"/>
-      <c r="BY92" s="27"/>
-      <c r="BZ92" s="26">
+      <c r="BW92" s="34"/>
+      <c r="BX92" s="34"/>
+      <c r="BY92" s="34"/>
+      <c r="BZ92" s="35">
         <v>2019</v>
       </c>
-      <c r="CA92" s="27"/>
-      <c r="CB92" s="27"/>
-      <c r="CC92" s="27"/>
-      <c r="CD92" s="25">
+      <c r="CA92" s="36"/>
+      <c r="CB92" s="36"/>
+      <c r="CC92" s="36"/>
+      <c r="CD92" s="35">
         <v>2020</v>
       </c>
-      <c r="CE92" s="25"/>
-      <c r="CF92" s="25"/>
-      <c r="CG92" s="25"/>
-      <c r="CH92" s="25">
+      <c r="CE92" s="35"/>
+      <c r="CF92" s="35"/>
+      <c r="CG92" s="35"/>
+      <c r="CH92" s="35">
         <v>2021</v>
       </c>
-      <c r="CI92" s="25"/>
-      <c r="CJ92" s="25"/>
-      <c r="CK92" s="25"/>
+      <c r="CI92" s="35"/>
+      <c r="CJ92" s="35"/>
+      <c r="CK92" s="35"/>
+      <c r="CL92" s="32">
+        <v>2022</v>
+      </c>
     </row>
-    <row r="93" spans="1:154" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:154" x14ac:dyDescent="0.2">
       <c r="A93" s="5" t="s">
         <v>4</v>
       </c>
@@ -34521,47 +34984,59 @@
       <c r="BY93" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="BZ93" s="6" t="s">
+      <c r="BZ93" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="CA93" s="6" t="s">
+      <c r="CA93" s="16" t="s">
         <v>8</v>
       </c>
-      <c r="CB93" s="6" t="s">
+      <c r="CB93" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="CC93" s="6" t="s">
+      <c r="CC93" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="CD93" s="16" t="s">
+      <c r="CD93" s="26" t="s">
         <v>7</v>
       </c>
-      <c r="CE93" s="16" t="s">
+      <c r="CE93" s="26" t="s">
         <v>8</v>
       </c>
-      <c r="CF93" s="16" t="s">
+      <c r="CF93" s="26" t="s">
         <v>10</v>
       </c>
-      <c r="CG93" s="16" t="s">
+      <c r="CG93" s="26" t="s">
         <v>9</v>
       </c>
-      <c r="CH93" s="16" t="s">
+      <c r="CH93" s="26" t="s">
         <v>7</v>
       </c>
-      <c r="CI93" s="16" t="s">
+      <c r="CI93" s="26" t="s">
         <v>8</v>
       </c>
-      <c r="CJ93" s="16" t="s">
+      <c r="CJ93" s="26" t="s">
         <v>10</v>
       </c>
-      <c r="CK93" s="16" t="s">
+      <c r="CK93" s="26" t="s">
         <v>9</v>
       </c>
+      <c r="CL93" s="26" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="94" spans="1:154" ht="10.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:154" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A94" s="7"/>
+      <c r="CD94" s="23"/>
+      <c r="CE94" s="23"/>
+      <c r="CF94" s="23"/>
+      <c r="CG94" s="23"/>
+      <c r="CH94" s="23"/>
+      <c r="CI94" s="23"/>
+      <c r="CJ94" s="23"/>
+      <c r="CK94" s="23"/>
+      <c r="CL94" s="23"/>
     </row>
-    <row r="95" spans="1:154" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:154" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A95" s="1" t="s">
         <v>11</v>
       </c>
@@ -34793,43 +35268,45 @@
       <c r="BY95" s="14">
         <v>101.76682769332059</v>
       </c>
-      <c r="BZ95" s="14">
+      <c r="BZ95" s="21">
         <v>98.785519658390172</v>
       </c>
-      <c r="CA95" s="14">
+      <c r="CA95" s="21">
         <v>101.27444510881026</v>
       </c>
-      <c r="CB95" s="14">
+      <c r="CB95" s="21">
         <v>100.93735506836914</v>
       </c>
-      <c r="CC95" s="14">
+      <c r="CC95" s="21">
         <v>102.35921720571248</v>
       </c>
-      <c r="CD95" s="23">
+      <c r="CD95" s="29">
         <v>101.78902555283157</v>
       </c>
-      <c r="CE95" s="23">
+      <c r="CE95" s="29">
         <v>103.85600597189986</v>
       </c>
-      <c r="CF95" s="23">
+      <c r="CF95" s="29">
         <v>103.77369149767057</v>
       </c>
-      <c r="CG95" s="23">
+      <c r="CG95" s="29">
         <v>104.58642135860185</v>
       </c>
-      <c r="CH95" s="23">
+      <c r="CH95" s="29">
         <v>105.57622516002523</v>
       </c>
-      <c r="CI95" s="23">
+      <c r="CI95" s="29">
         <v>106.63785029316593</v>
       </c>
-      <c r="CJ95" s="23">
+      <c r="CJ95" s="29">
         <v>105.61995256598671</v>
       </c>
-      <c r="CK95" s="23">
-        <v>106.84919584830172</v>
-      </c>
-      <c r="CL95" s="9"/>
+      <c r="CK95" s="29">
+        <v>106.84919584830175</v>
+      </c>
+      <c r="CL95" s="29">
+        <v>109.29741292337079</v>
+      </c>
       <c r="CM95" s="9"/>
       <c r="CN95" s="9"/>
       <c r="CO95" s="9"/>
@@ -34895,7 +35372,7 @@
       <c r="EW95" s="9"/>
       <c r="EX95" s="9"/>
     </row>
-    <row r="96" spans="1:154" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:154" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A96" s="10" t="s">
         <v>12</v>
       </c>
@@ -35127,43 +35604,45 @@
       <c r="BY96" s="14">
         <v>102.2525888928143</v>
       </c>
-      <c r="BZ96" s="14">
+      <c r="BZ96" s="21">
         <v>99.727841358495283</v>
       </c>
-      <c r="CA96" s="14">
+      <c r="CA96" s="21">
         <v>99.477645142840444</v>
       </c>
-      <c r="CB96" s="14">
+      <c r="CB96" s="21">
         <v>99.229661095555286</v>
       </c>
-      <c r="CC96" s="14">
+      <c r="CC96" s="21">
         <v>101.42713029783694</v>
       </c>
-      <c r="CD96" s="23">
+      <c r="CD96" s="29">
         <v>102.74580864233616</v>
       </c>
-      <c r="CE96" s="23">
+      <c r="CE96" s="29">
         <v>101.99887943380996</v>
       </c>
-      <c r="CF96" s="23">
+      <c r="CF96" s="29">
         <v>102.0799907062153</v>
       </c>
-      <c r="CG96" s="23">
+      <c r="CG96" s="29">
         <v>103.88227936643504</v>
       </c>
-      <c r="CH96" s="23">
+      <c r="CH96" s="29">
         <v>106.82483847369222</v>
       </c>
-      <c r="CI96" s="23">
+      <c r="CI96" s="29">
         <v>105.16617935612899</v>
       </c>
-      <c r="CJ96" s="23">
+      <c r="CJ96" s="29">
         <v>104.6076761567232</v>
       </c>
-      <c r="CK96" s="23">
-        <v>106.68377666365939</v>
-      </c>
-      <c r="CL96" s="9"/>
+      <c r="CK96" s="29">
+        <v>106.6837766636594</v>
+      </c>
+      <c r="CL96" s="29">
+        <v>110.58197350081539</v>
+      </c>
       <c r="CM96" s="9"/>
       <c r="CN96" s="9"/>
       <c r="CO96" s="9"/>
@@ -35229,7 +35708,7 @@
       <c r="EW96" s="9"/>
       <c r="EX96" s="9"/>
     </row>
-    <row r="97" spans="1:154" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:154" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A97" s="1" t="s">
         <v>13</v>
       </c>
@@ -35461,43 +35940,45 @@
       <c r="BY97" s="14">
         <v>103.29325320429608</v>
       </c>
-      <c r="BZ97" s="14">
+      <c r="BZ97" s="21">
         <v>101.4500670125144</v>
       </c>
-      <c r="CA97" s="14">
+      <c r="CA97" s="21">
         <v>97.845017404832703</v>
       </c>
-      <c r="CB97" s="14">
+      <c r="CB97" s="21">
         <v>98.59430844631143</v>
       </c>
-      <c r="CC97" s="14">
+      <c r="CC97" s="21">
         <v>100.52347139175943</v>
       </c>
-      <c r="CD97" s="23">
+      <c r="CD97" s="29">
         <v>104.63445046677533</v>
       </c>
-      <c r="CE97" s="23">
+      <c r="CE97" s="29">
         <v>100.38205589338105</v>
       </c>
-      <c r="CF97" s="23">
+      <c r="CF97" s="29">
         <v>101.48917873522861</v>
       </c>
-      <c r="CG97" s="23">
+      <c r="CG97" s="29">
         <v>102.56940338418809</v>
       </c>
-      <c r="CH97" s="23">
+      <c r="CH97" s="29">
         <v>108.49275109294582</v>
       </c>
-      <c r="CI97" s="23">
+      <c r="CI97" s="29">
         <v>102.89038535067493</v>
       </c>
-      <c r="CJ97" s="23">
+      <c r="CJ97" s="29">
         <v>103.00325651988405</v>
       </c>
-      <c r="CK97" s="23">
+      <c r="CK97" s="29">
         <v>104.63011577848687</v>
       </c>
-      <c r="CL97" s="9"/>
+      <c r="CL97" s="29">
+        <v>112.42680139344183</v>
+      </c>
       <c r="CM97" s="9"/>
       <c r="CN97" s="9"/>
       <c r="CO97" s="9"/>
@@ -35563,7 +36044,7 @@
       <c r="EW97" s="9"/>
       <c r="EX97" s="9"/>
     </row>
-    <row r="98" spans="1:154" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:154" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A98" s="1" t="s">
         <v>14</v>
       </c>
@@ -35795,43 +36276,45 @@
       <c r="BY98" s="14">
         <v>100.95572714117023</v>
       </c>
-      <c r="BZ98" s="14">
+      <c r="BZ98" s="21">
         <v>99.197241551747396</v>
       </c>
-      <c r="CA98" s="14">
+      <c r="CA98" s="21">
         <v>100.20242854548273</v>
       </c>
-      <c r="CB98" s="14">
+      <c r="CB98" s="21">
         <v>99.861472094534491</v>
       </c>
-      <c r="CC98" s="14">
+      <c r="CC98" s="21">
         <v>101.61887002525012</v>
       </c>
-      <c r="CD98" s="23">
+      <c r="CD98" s="29">
         <v>102.85766741964864</v>
       </c>
-      <c r="CE98" s="23">
+      <c r="CE98" s="29">
         <v>103.20758177384451</v>
       </c>
-      <c r="CF98" s="23">
+      <c r="CF98" s="29">
         <v>103.54757243969561</v>
       </c>
-      <c r="CG98" s="23">
+      <c r="CG98" s="29">
         <v>104.00304784573582</v>
       </c>
-      <c r="CH98" s="23">
+      <c r="CH98" s="29">
         <v>107.5422541866316</v>
       </c>
-      <c r="CI98" s="23">
+      <c r="CI98" s="29">
         <v>106.48082924203881</v>
       </c>
-      <c r="CJ98" s="23">
+      <c r="CJ98" s="29">
         <v>106.15676272929213</v>
       </c>
-      <c r="CK98" s="23">
+      <c r="CK98" s="29">
         <v>107.14021411829164</v>
       </c>
-      <c r="CL98" s="9"/>
+      <c r="CL98" s="29">
+        <v>111.93415395781747</v>
+      </c>
       <c r="CM98" s="9"/>
       <c r="CN98" s="9"/>
       <c r="CO98" s="9"/>
@@ -35897,7 +36380,7 @@
       <c r="EW98" s="9"/>
       <c r="EX98" s="9"/>
     </row>
-    <row r="99" spans="1:154" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:154" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B99" s="9"/>
       <c r="C99" s="9"/>
       <c r="D99" s="9"/>
@@ -35974,19 +36457,19 @@
       <c r="BW99" s="9"/>
       <c r="BX99" s="9"/>
       <c r="BY99" s="9"/>
-      <c r="BZ99" s="9"/>
-      <c r="CA99" s="9"/>
-      <c r="CB99" s="9"/>
-      <c r="CC99" s="9"/>
-      <c r="CD99" s="18"/>
-      <c r="CE99" s="18"/>
-      <c r="CF99" s="18"/>
-      <c r="CG99" s="18"/>
-      <c r="CH99" s="18"/>
-      <c r="CI99" s="18"/>
-      <c r="CJ99" s="18"/>
-      <c r="CK99" s="18"/>
-      <c r="CL99" s="9"/>
+      <c r="BZ99" s="18"/>
+      <c r="CA99" s="18"/>
+      <c r="CB99" s="18"/>
+      <c r="CC99" s="18"/>
+      <c r="CD99" s="28"/>
+      <c r="CE99" s="28"/>
+      <c r="CF99" s="28"/>
+      <c r="CG99" s="28"/>
+      <c r="CH99" s="28"/>
+      <c r="CI99" s="28"/>
+      <c r="CJ99" s="28"/>
+      <c r="CK99" s="28"/>
+      <c r="CL99" s="28"/>
       <c r="CM99" s="9"/>
       <c r="CN99" s="9"/>
       <c r="CO99" s="9"/>
@@ -36052,7 +36535,7 @@
       <c r="EW99" s="9"/>
       <c r="EX99" s="9"/>
     </row>
-    <row r="100" spans="1:154" ht="30.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:154" ht="30.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A100" s="10" t="s">
         <v>15</v>
       </c>
@@ -36284,43 +36767,45 @@
       <c r="BY100" s="14">
         <v>102.13159641768516</v>
       </c>
-      <c r="BZ100" s="14">
+      <c r="BZ100" s="21">
         <v>99.44760916440535</v>
       </c>
-      <c r="CA100" s="14">
+      <c r="CA100" s="21">
         <v>100.07857763634362</v>
       </c>
-      <c r="CB100" s="14">
+      <c r="CB100" s="21">
         <v>100.04730157954785</v>
       </c>
-      <c r="CC100" s="14">
+      <c r="CC100" s="21">
         <v>101.72690275847593</v>
       </c>
-      <c r="CD100" s="23">
+      <c r="CD100" s="29">
         <v>102.44356791284532</v>
       </c>
-      <c r="CE100" s="23">
+      <c r="CE100" s="29">
         <v>102.76291355138034</v>
       </c>
-      <c r="CF100" s="23">
+      <c r="CF100" s="29">
         <v>103.00336596746872</v>
       </c>
-      <c r="CG100" s="23">
-        <v>104.03684231893324</v>
-      </c>
-      <c r="CH100" s="23">
+      <c r="CG100" s="29">
+        <v>104.03855675702971</v>
+      </c>
+      <c r="CH100" s="29">
         <v>106.34660446936861</v>
       </c>
-      <c r="CI100" s="23">
+      <c r="CI100" s="29">
         <v>105.63756842984206</v>
       </c>
-      <c r="CJ100" s="23">
+      <c r="CJ100" s="29">
         <v>105.00874643078566</v>
       </c>
-      <c r="CK100" s="23">
-        <v>106.46740019254331</v>
-      </c>
-      <c r="CL100" s="9"/>
+      <c r="CK100" s="29">
+        <v>106.47107841185439</v>
+      </c>
+      <c r="CL100" s="29">
+        <v>110.13528719849607</v>
+      </c>
       <c r="CM100" s="9"/>
       <c r="CN100" s="9"/>
       <c r="CO100" s="9"/>
@@ -36386,7 +36871,7 @@
       <c r="EW100" s="9"/>
       <c r="EX100" s="9"/>
     </row>
-    <row r="101" spans="1:154" ht="7.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:154" ht="7.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A101" s="12"/>
       <c r="B101" s="12"/>
       <c r="C101" s="12"/>
@@ -36464,190 +36949,257 @@
       <c r="BW101" s="12"/>
       <c r="BX101" s="12"/>
       <c r="BY101" s="12"/>
-      <c r="BZ101" s="12"/>
-      <c r="CA101" s="12"/>
-      <c r="CB101" s="12"/>
-      <c r="CC101" s="12"/>
-      <c r="CD101" s="20"/>
-      <c r="CE101" s="20"/>
-      <c r="CF101" s="20"/>
-      <c r="CG101" s="20"/>
-      <c r="CH101" s="20"/>
-      <c r="CI101" s="20"/>
-      <c r="CJ101" s="20"/>
-      <c r="CK101" s="20"/>
+      <c r="BZ101" s="20"/>
+      <c r="CA101" s="20"/>
+      <c r="CB101" s="20"/>
+      <c r="CC101" s="20"/>
+      <c r="CD101" s="27"/>
+      <c r="CE101" s="27"/>
+      <c r="CF101" s="27"/>
+      <c r="CG101" s="27"/>
+      <c r="CH101" s="27"/>
+      <c r="CI101" s="27"/>
+      <c r="CJ101" s="27"/>
+      <c r="CK101" s="27"/>
+      <c r="CL101" s="27"/>
     </row>
-    <row r="102" spans="1:154" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:154" ht="15" x14ac:dyDescent="0.2">
       <c r="A102" s="13" t="s">
         <v>0</v>
       </c>
+      <c r="CD102" s="23"/>
+      <c r="CE102" s="23"/>
+      <c r="CF102" s="23"/>
+      <c r="CG102" s="23"/>
+      <c r="CH102" s="23"/>
+      <c r="CI102" s="23"/>
+      <c r="CJ102" s="23"/>
+      <c r="CK102" s="23"/>
+      <c r="CL102" s="23"/>
     </row>
-    <row r="105" spans="1:154" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:154" ht="15" x14ac:dyDescent="0.2">
       <c r="A105" s="1" t="s">
         <v>2</v>
       </c>
+      <c r="CD105" s="23"/>
+      <c r="CE105" s="23"/>
+      <c r="CF105" s="23"/>
+      <c r="CG105" s="23"/>
+      <c r="CH105" s="23"/>
+      <c r="CI105" s="23"/>
+      <c r="CJ105" s="23"/>
+      <c r="CK105" s="23"/>
+      <c r="CL105" s="23"/>
     </row>
-    <row r="106" spans="1:154" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:154" ht="15" x14ac:dyDescent="0.2">
       <c r="A106" s="1" t="s">
         <v>1</v>
       </c>
+      <c r="CD106" s="23"/>
+      <c r="CE106" s="23"/>
+      <c r="CF106" s="23"/>
+      <c r="CG106" s="23"/>
+      <c r="CH106" s="23"/>
+      <c r="CI106" s="23"/>
+      <c r="CJ106" s="23"/>
+      <c r="CK106" s="23"/>
+      <c r="CL106" s="23"/>
     </row>
-    <row r="107" spans="1:154" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:154" ht="15" x14ac:dyDescent="0.2">
       <c r="A107" s="1" t="s">
-        <v>49</v>
-      </c>
+        <v>50</v>
+      </c>
+      <c r="CD107" s="23"/>
+      <c r="CE107" s="23"/>
+      <c r="CF107" s="23"/>
+      <c r="CG107" s="23"/>
+      <c r="CH107" s="23"/>
+      <c r="CI107" s="23"/>
+      <c r="CJ107" s="23"/>
+      <c r="CK107" s="23"/>
+      <c r="CL107" s="23"/>
     </row>
-    <row r="109" spans="1:154" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:154" ht="15" x14ac:dyDescent="0.2">
       <c r="A109" s="1" t="s">
         <v>21</v>
       </c>
+      <c r="CD109" s="23"/>
+      <c r="CE109" s="23"/>
+      <c r="CF109" s="23"/>
+      <c r="CG109" s="23"/>
+      <c r="CH109" s="23"/>
+      <c r="CI109" s="23"/>
+      <c r="CJ109" s="23"/>
+      <c r="CK109" s="23"/>
+      <c r="CL109" s="23"/>
     </row>
-    <row r="110" spans="1:154" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:154" ht="15" x14ac:dyDescent="0.2">
       <c r="A110" s="1" t="s">
-        <v>50</v>
-      </c>
+        <v>51</v>
+      </c>
+      <c r="CD110" s="23"/>
+      <c r="CE110" s="23"/>
+      <c r="CF110" s="23"/>
+      <c r="CG110" s="23"/>
+      <c r="CH110" s="23"/>
+      <c r="CI110" s="23"/>
+      <c r="CJ110" s="23"/>
+      <c r="CK110" s="23"/>
+      <c r="CL110" s="23"/>
     </row>
-    <row r="111" spans="1:154" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:154" ht="15" x14ac:dyDescent="0.2">
       <c r="A111" s="1" t="s">
         <v>25</v>
       </c>
+      <c r="CD111" s="23"/>
+      <c r="CE111" s="23"/>
+      <c r="CF111" s="23"/>
+      <c r="CG111" s="23"/>
+      <c r="CH111" s="23"/>
+      <c r="CI111" s="23"/>
+      <c r="CJ111" s="23"/>
+      <c r="CK111" s="23"/>
+      <c r="CL111" s="23"/>
     </row>
-    <row r="113" spans="1:154" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:154" x14ac:dyDescent="0.2">
       <c r="A113" s="4"/>
-      <c r="B113" s="26">
+      <c r="B113" s="33">
         <v>2000</v>
       </c>
-      <c r="C113" s="27"/>
-      <c r="D113" s="27"/>
-      <c r="E113" s="27"/>
-      <c r="F113" s="26">
+      <c r="C113" s="34"/>
+      <c r="D113" s="34"/>
+      <c r="E113" s="34"/>
+      <c r="F113" s="33">
         <v>2001</v>
       </c>
-      <c r="G113" s="27"/>
-      <c r="H113" s="27"/>
-      <c r="I113" s="27"/>
-      <c r="J113" s="26">
+      <c r="G113" s="34"/>
+      <c r="H113" s="34"/>
+      <c r="I113" s="34"/>
+      <c r="J113" s="33">
         <v>2002</v>
       </c>
-      <c r="K113" s="27"/>
-      <c r="L113" s="27"/>
-      <c r="M113" s="27"/>
-      <c r="N113" s="26">
+      <c r="K113" s="34"/>
+      <c r="L113" s="34"/>
+      <c r="M113" s="34"/>
+      <c r="N113" s="33">
         <v>2003</v>
       </c>
-      <c r="O113" s="27"/>
-      <c r="P113" s="27"/>
-      <c r="Q113" s="27"/>
-      <c r="R113" s="26">
+      <c r="O113" s="34"/>
+      <c r="P113" s="34"/>
+      <c r="Q113" s="34"/>
+      <c r="R113" s="33">
         <v>2004</v>
       </c>
-      <c r="S113" s="27"/>
-      <c r="T113" s="27"/>
-      <c r="U113" s="27"/>
-      <c r="V113" s="26">
+      <c r="S113" s="34"/>
+      <c r="T113" s="34"/>
+      <c r="U113" s="34"/>
+      <c r="V113" s="33">
         <v>2005</v>
       </c>
-      <c r="W113" s="27"/>
-      <c r="X113" s="27"/>
-      <c r="Y113" s="27"/>
-      <c r="Z113" s="26">
+      <c r="W113" s="34"/>
+      <c r="X113" s="34"/>
+      <c r="Y113" s="34"/>
+      <c r="Z113" s="33">
         <v>2006</v>
       </c>
-      <c r="AA113" s="27"/>
-      <c r="AB113" s="27"/>
-      <c r="AC113" s="27"/>
-      <c r="AD113" s="26">
+      <c r="AA113" s="34"/>
+      <c r="AB113" s="34"/>
+      <c r="AC113" s="34"/>
+      <c r="AD113" s="33">
         <v>2007</v>
       </c>
-      <c r="AE113" s="27"/>
-      <c r="AF113" s="27"/>
-      <c r="AG113" s="27"/>
-      <c r="AH113" s="26">
+      <c r="AE113" s="34"/>
+      <c r="AF113" s="34"/>
+      <c r="AG113" s="34"/>
+      <c r="AH113" s="33">
         <v>2008</v>
       </c>
-      <c r="AI113" s="27"/>
-      <c r="AJ113" s="27"/>
-      <c r="AK113" s="27"/>
-      <c r="AL113" s="26">
+      <c r="AI113" s="34"/>
+      <c r="AJ113" s="34"/>
+      <c r="AK113" s="34"/>
+      <c r="AL113" s="33">
         <v>2009</v>
       </c>
-      <c r="AM113" s="27"/>
-      <c r="AN113" s="27"/>
-      <c r="AO113" s="27"/>
-      <c r="AP113" s="26">
+      <c r="AM113" s="34"/>
+      <c r="AN113" s="34"/>
+      <c r="AO113" s="34"/>
+      <c r="AP113" s="33">
         <v>2010</v>
       </c>
-      <c r="AQ113" s="27"/>
-      <c r="AR113" s="27"/>
-      <c r="AS113" s="27"/>
-      <c r="AT113" s="26">
+      <c r="AQ113" s="34"/>
+      <c r="AR113" s="34"/>
+      <c r="AS113" s="34"/>
+      <c r="AT113" s="33">
         <v>2011</v>
       </c>
-      <c r="AU113" s="27"/>
-      <c r="AV113" s="27"/>
-      <c r="AW113" s="27"/>
-      <c r="AX113" s="26">
+      <c r="AU113" s="34"/>
+      <c r="AV113" s="34"/>
+      <c r="AW113" s="34"/>
+      <c r="AX113" s="33">
         <v>2012</v>
       </c>
-      <c r="AY113" s="27"/>
-      <c r="AZ113" s="27"/>
-      <c r="BA113" s="27"/>
-      <c r="BB113" s="26">
+      <c r="AY113" s="34"/>
+      <c r="AZ113" s="34"/>
+      <c r="BA113" s="34"/>
+      <c r="BB113" s="33">
         <v>2013</v>
       </c>
-      <c r="BC113" s="27"/>
-      <c r="BD113" s="27"/>
-      <c r="BE113" s="27"/>
-      <c r="BF113" s="26">
+      <c r="BC113" s="34"/>
+      <c r="BD113" s="34"/>
+      <c r="BE113" s="34"/>
+      <c r="BF113" s="33">
         <v>2014</v>
       </c>
-      <c r="BG113" s="27"/>
-      <c r="BH113" s="27"/>
-      <c r="BI113" s="27"/>
-      <c r="BJ113" s="26">
+      <c r="BG113" s="34"/>
+      <c r="BH113" s="34"/>
+      <c r="BI113" s="34"/>
+      <c r="BJ113" s="33">
         <v>2015</v>
       </c>
-      <c r="BK113" s="27"/>
-      <c r="BL113" s="27"/>
-      <c r="BM113" s="27"/>
-      <c r="BN113" s="26">
+      <c r="BK113" s="34"/>
+      <c r="BL113" s="34"/>
+      <c r="BM113" s="34"/>
+      <c r="BN113" s="33">
         <v>2016</v>
       </c>
-      <c r="BO113" s="27"/>
-      <c r="BP113" s="27"/>
-      <c r="BQ113" s="27"/>
-      <c r="BR113" s="26">
+      <c r="BO113" s="34"/>
+      <c r="BP113" s="34"/>
+      <c r="BQ113" s="34"/>
+      <c r="BR113" s="33">
         <v>2017</v>
       </c>
-      <c r="BS113" s="27"/>
-      <c r="BT113" s="27"/>
-      <c r="BU113" s="27"/>
-      <c r="BV113" s="26">
+      <c r="BS113" s="34"/>
+      <c r="BT113" s="34"/>
+      <c r="BU113" s="34"/>
+      <c r="BV113" s="33">
         <v>2018</v>
       </c>
-      <c r="BW113" s="27"/>
-      <c r="BX113" s="27"/>
-      <c r="BY113" s="27"/>
-      <c r="BZ113" s="26">
+      <c r="BW113" s="34"/>
+      <c r="BX113" s="34"/>
+      <c r="BY113" s="34"/>
+      <c r="BZ113" s="35">
         <v>2019</v>
       </c>
-      <c r="CA113" s="27"/>
-      <c r="CB113" s="27"/>
-      <c r="CC113" s="27"/>
-      <c r="CD113" s="25">
+      <c r="CA113" s="36"/>
+      <c r="CB113" s="36"/>
+      <c r="CC113" s="36"/>
+      <c r="CD113" s="35">
         <v>2020</v>
       </c>
-      <c r="CE113" s="25"/>
-      <c r="CF113" s="25"/>
-      <c r="CG113" s="25"/>
-      <c r="CH113" s="25">
+      <c r="CE113" s="35"/>
+      <c r="CF113" s="35"/>
+      <c r="CG113" s="35"/>
+      <c r="CH113" s="35">
         <v>2021</v>
       </c>
-      <c r="CI113" s="25"/>
-      <c r="CJ113" s="25"/>
-      <c r="CK113" s="25"/>
+      <c r="CI113" s="35"/>
+      <c r="CJ113" s="35"/>
+      <c r="CK113" s="35"/>
+      <c r="CL113" s="32">
+        <v>2022</v>
+      </c>
     </row>
-    <row r="114" spans="1:154" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:154" x14ac:dyDescent="0.2">
       <c r="A114" s="5" t="s">
         <v>4</v>
       </c>
@@ -36879,47 +37431,59 @@
       <c r="BY114" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="BZ114" s="6" t="s">
+      <c r="BZ114" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="CA114" s="6" t="s">
+      <c r="CA114" s="16" t="s">
         <v>8</v>
       </c>
-      <c r="CB114" s="6" t="s">
+      <c r="CB114" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="CC114" s="6" t="s">
+      <c r="CC114" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="CD114" s="16" t="s">
+      <c r="CD114" s="26" t="s">
         <v>7</v>
       </c>
-      <c r="CE114" s="16" t="s">
+      <c r="CE114" s="26" t="s">
         <v>8</v>
       </c>
-      <c r="CF114" s="16" t="s">
+      <c r="CF114" s="26" t="s">
         <v>10</v>
       </c>
-      <c r="CG114" s="16" t="s">
+      <c r="CG114" s="26" t="s">
         <v>9</v>
       </c>
-      <c r="CH114" s="16" t="s">
+      <c r="CH114" s="26" t="s">
         <v>7</v>
       </c>
-      <c r="CI114" s="16" t="s">
+      <c r="CI114" s="26" t="s">
         <v>8</v>
       </c>
-      <c r="CJ114" s="16" t="s">
+      <c r="CJ114" s="26" t="s">
         <v>10</v>
       </c>
-      <c r="CK114" s="16" t="s">
+      <c r="CK114" s="26" t="s">
         <v>9</v>
       </c>
+      <c r="CL114" s="26" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="115" spans="1:154" ht="10.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:154" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A115" s="7"/>
+      <c r="CD115" s="23"/>
+      <c r="CE115" s="23"/>
+      <c r="CF115" s="23"/>
+      <c r="CG115" s="23"/>
+      <c r="CH115" s="23"/>
+      <c r="CI115" s="23"/>
+      <c r="CJ115" s="23"/>
+      <c r="CK115" s="23"/>
+      <c r="CL115" s="23"/>
     </row>
-    <row r="116" spans="1:154" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:154" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A116" s="1" t="s">
         <v>11</v>
       </c>
@@ -37151,43 +37715,45 @@
       <c r="BY116" s="14">
         <v>45.606623203440208</v>
       </c>
-      <c r="BZ116" s="14">
+      <c r="BZ116" s="21">
         <v>54.000705444254216</v>
       </c>
-      <c r="CA116" s="14">
+      <c r="CA116" s="21">
         <v>44.015770445669723</v>
       </c>
-      <c r="CB116" s="14">
+      <c r="CB116" s="21">
         <v>52.303461462980373</v>
       </c>
-      <c r="CC116" s="14">
+      <c r="CC116" s="21">
         <v>47.044137375330308</v>
       </c>
-      <c r="CD116" s="23">
+      <c r="CD116" s="29">
         <v>57.501432368415472</v>
       </c>
-      <c r="CE116" s="23">
+      <c r="CE116" s="29">
         <v>47.853935740581264</v>
       </c>
-      <c r="CF116" s="23">
+      <c r="CF116" s="29">
         <v>55.397969703106384</v>
       </c>
-      <c r="CG116" s="23">
-        <v>48.889557915941396</v>
-      </c>
-      <c r="CH116" s="23">
+      <c r="CG116" s="29">
+        <v>49.049838999285932</v>
+      </c>
+      <c r="CH116" s="29">
         <v>57.858438147231638</v>
       </c>
-      <c r="CI116" s="23">
+      <c r="CI116" s="29">
         <v>46.773030052709416</v>
       </c>
-      <c r="CJ116" s="23">
+      <c r="CJ116" s="29">
         <v>54.730486661598164</v>
       </c>
-      <c r="CK116" s="23">
-        <v>47.396308610618718</v>
-      </c>
-      <c r="CL116" s="9"/>
+      <c r="CK116" s="29">
+        <v>47.841493140745506</v>
+      </c>
+      <c r="CL116" s="29">
+        <v>57.49142896676571</v>
+      </c>
       <c r="CM116" s="9"/>
       <c r="CN116" s="9"/>
       <c r="CO116" s="9"/>
@@ -37253,7 +37819,7 @@
       <c r="EW116" s="9"/>
       <c r="EX116" s="9"/>
     </row>
-    <row r="117" spans="1:154" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:154" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A117" s="10" t="s">
         <v>12</v>
       </c>
@@ -37485,43 +38051,45 @@
       <c r="BY117" s="14">
         <v>31.060064518751563</v>
       </c>
-      <c r="BZ117" s="14">
+      <c r="BZ117" s="21">
         <v>25.995230360429439</v>
       </c>
-      <c r="CA117" s="14">
+      <c r="CA117" s="21">
         <v>37.437203842451325</v>
       </c>
-      <c r="CB117" s="14">
+      <c r="CB117" s="21">
         <v>27.498788016217286</v>
       </c>
-      <c r="CC117" s="14">
+      <c r="CC117" s="21">
         <v>31.124279681017608</v>
       </c>
-      <c r="CD117" s="23">
+      <c r="CD117" s="29">
         <v>24.271910784659962</v>
       </c>
-      <c r="CE117" s="23">
+      <c r="CE117" s="29">
         <v>35.769410436892308</v>
       </c>
-      <c r="CF117" s="23">
+      <c r="CF117" s="29">
         <v>26.816160402786565</v>
       </c>
-      <c r="CG117" s="23">
-        <v>30.874768797721678</v>
-      </c>
-      <c r="CH117" s="23">
+      <c r="CG117" s="29">
+        <v>30.77794628574318</v>
+      </c>
+      <c r="CH117" s="29">
         <v>24.132175111337791</v>
       </c>
-      <c r="CI117" s="23">
+      <c r="CI117" s="29">
         <v>35.979479704756983</v>
       </c>
-      <c r="CJ117" s="23">
+      <c r="CJ117" s="29">
         <v>26.601195024768021</v>
       </c>
-      <c r="CK117" s="23">
-        <v>31.787756486618683</v>
-      </c>
-      <c r="CL117" s="9"/>
+      <c r="CK117" s="29">
+        <v>31.55121117004251</v>
+      </c>
+      <c r="CL117" s="29">
+        <v>24.744829854014153</v>
+      </c>
       <c r="CM117" s="9"/>
       <c r="CN117" s="9"/>
       <c r="CO117" s="9"/>
@@ -37587,7 +38155,7 @@
       <c r="EW117" s="9"/>
       <c r="EX117" s="9"/>
     </row>
-    <row r="118" spans="1:154" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:154" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A118" s="1" t="s">
         <v>13</v>
       </c>
@@ -37819,43 +38387,45 @@
       <c r="BY118" s="14">
         <v>17.406185146147994</v>
       </c>
-      <c r="BZ118" s="14">
+      <c r="BZ118" s="21">
         <v>15.244238438889724</v>
       </c>
-      <c r="CA118" s="14">
+      <c r="CA118" s="21">
         <v>13.153385725903476</v>
       </c>
-      <c r="CB118" s="14">
+      <c r="CB118" s="21">
         <v>15.302126616564177</v>
       </c>
-      <c r="CC118" s="14">
+      <c r="CC118" s="21">
         <v>16.080262243395822</v>
       </c>
-      <c r="CD118" s="23">
+      <c r="CD118" s="29">
         <v>13.302443279648749</v>
       </c>
-      <c r="CE118" s="23">
+      <c r="CE118" s="29">
         <v>10.928610074583792</v>
       </c>
-      <c r="CF118" s="23">
+      <c r="CF118" s="29">
         <v>12.992793940542452</v>
       </c>
-      <c r="CG118" s="23">
-        <v>14.618320300002996</v>
-      </c>
-      <c r="CH118" s="23">
+      <c r="CG118" s="29">
+        <v>14.572477608787207</v>
+      </c>
+      <c r="CH118" s="29">
         <v>13.149935833979113</v>
       </c>
-      <c r="CI118" s="23">
+      <c r="CI118" s="29">
         <v>11.960230265576319</v>
       </c>
-      <c r="CJ118" s="23">
+      <c r="CJ118" s="29">
         <v>13.75661582285937</v>
       </c>
-      <c r="CK118" s="23">
-        <v>15.291743534836163</v>
-      </c>
-      <c r="CL118" s="9"/>
+      <c r="CK118" s="29">
+        <v>15.138473582761977</v>
+      </c>
+      <c r="CL118" s="29">
+        <v>12.825659114680038</v>
+      </c>
       <c r="CM118" s="9"/>
       <c r="CN118" s="9"/>
       <c r="CO118" s="9"/>
@@ -37921,7 +38491,7 @@
       <c r="EW118" s="9"/>
       <c r="EX118" s="9"/>
     </row>
-    <row r="119" spans="1:154" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:154" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A119" s="1" t="s">
         <v>14</v>
       </c>
@@ -38153,43 +38723,45 @@
       <c r="BY119" s="14">
         <v>5.9271271316602476</v>
       </c>
-      <c r="BZ119" s="14">
+      <c r="BZ119" s="21">
         <v>4.7598257564266087</v>
       </c>
-      <c r="CA119" s="14">
+      <c r="CA119" s="21">
         <v>5.3936399859754909</v>
       </c>
-      <c r="CB119" s="14">
+      <c r="CB119" s="21">
         <v>4.8956239042381533</v>
       </c>
-      <c r="CC119" s="14">
+      <c r="CC119" s="21">
         <v>5.7513207002562607</v>
       </c>
-      <c r="CD119" s="23">
+      <c r="CD119" s="29">
         <v>4.9242135672758254</v>
       </c>
-      <c r="CE119" s="23">
+      <c r="CE119" s="29">
         <v>5.4480437479426449</v>
       </c>
-      <c r="CF119" s="23">
+      <c r="CF119" s="29">
         <v>4.7930759535646077</v>
       </c>
-      <c r="CG119" s="23">
-        <v>5.6173529863339215</v>
-      </c>
-      <c r="CH119" s="23">
+      <c r="CG119" s="29">
+        <v>5.5997371061836869</v>
+      </c>
+      <c r="CH119" s="29">
         <v>4.8594509074514525</v>
       </c>
-      <c r="CI119" s="23">
+      <c r="CI119" s="29">
         <v>5.2872599769572757</v>
       </c>
-      <c r="CJ119" s="23">
+      <c r="CJ119" s="29">
         <v>4.911702490774454</v>
       </c>
-      <c r="CK119" s="23">
-        <v>5.5241913679264334</v>
-      </c>
-      <c r="CL119" s="9"/>
+      <c r="CK119" s="29">
+        <v>5.4688221064500127</v>
+      </c>
+      <c r="CL119" s="29">
+        <v>4.9380820645401151</v>
+      </c>
       <c r="CM119" s="9"/>
       <c r="CN119" s="9"/>
       <c r="CO119" s="9"/>
@@ -38255,7 +38827,7 @@
       <c r="EW119" s="9"/>
       <c r="EX119" s="9"/>
     </row>
-    <row r="120" spans="1:154" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:154" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B120" s="14"/>
       <c r="C120" s="14"/>
       <c r="D120" s="14"/>
@@ -38332,19 +38904,19 @@
       <c r="BW120" s="14"/>
       <c r="BX120" s="14"/>
       <c r="BY120" s="14"/>
-      <c r="BZ120" s="14"/>
-      <c r="CA120" s="14"/>
-      <c r="CB120" s="14"/>
-      <c r="CC120" s="14"/>
-      <c r="CD120" s="23"/>
-      <c r="CE120" s="23"/>
-      <c r="CF120" s="23"/>
-      <c r="CG120" s="23"/>
-      <c r="CH120" s="23"/>
-      <c r="CI120" s="23"/>
-      <c r="CJ120" s="23"/>
-      <c r="CK120" s="23"/>
-      <c r="CL120" s="9"/>
+      <c r="BZ120" s="21"/>
+      <c r="CA120" s="21"/>
+      <c r="CB120" s="21"/>
+      <c r="CC120" s="21"/>
+      <c r="CD120" s="29"/>
+      <c r="CE120" s="29"/>
+      <c r="CF120" s="29"/>
+      <c r="CG120" s="29"/>
+      <c r="CH120" s="29"/>
+      <c r="CI120" s="29"/>
+      <c r="CJ120" s="29"/>
+      <c r="CK120" s="29"/>
+      <c r="CL120" s="29"/>
       <c r="CM120" s="9"/>
       <c r="CN120" s="9"/>
       <c r="CO120" s="9"/>
@@ -38410,7 +38982,7 @@
       <c r="EW120" s="9"/>
       <c r="EX120" s="9"/>
     </row>
-    <row r="121" spans="1:154" ht="30.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:154" ht="30.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A121" s="10" t="s">
         <v>15</v>
       </c>
@@ -38642,43 +39214,45 @@
       <c r="BY121" s="14">
         <v>100</v>
       </c>
-      <c r="BZ121" s="14">
+      <c r="BZ121" s="21">
         <v>100</v>
       </c>
-      <c r="CA121" s="14">
+      <c r="CA121" s="21">
         <v>100</v>
       </c>
-      <c r="CB121" s="14">
+      <c r="CB121" s="21">
         <v>100</v>
       </c>
-      <c r="CC121" s="14">
+      <c r="CC121" s="21">
         <v>100</v>
       </c>
-      <c r="CD121" s="23">
+      <c r="CD121" s="29">
         <v>100</v>
       </c>
-      <c r="CE121" s="23">
+      <c r="CE121" s="29">
         <v>100</v>
       </c>
-      <c r="CF121" s="23">
+      <c r="CF121" s="29">
         <v>100</v>
       </c>
-      <c r="CG121" s="23">
+      <c r="CG121" s="29">
         <v>100</v>
       </c>
-      <c r="CH121" s="23">
+      <c r="CH121" s="29">
         <v>100</v>
       </c>
-      <c r="CI121" s="23">
+      <c r="CI121" s="29">
         <v>100</v>
       </c>
-      <c r="CJ121" s="23">
+      <c r="CJ121" s="29">
         <v>100</v>
       </c>
-      <c r="CK121" s="23">
+      <c r="CK121" s="29">
         <v>100</v>
       </c>
-      <c r="CL121" s="9"/>
+      <c r="CL121" s="29">
+        <v>100</v>
+      </c>
       <c r="CM121" s="9"/>
       <c r="CN121" s="9"/>
       <c r="CO121" s="9"/>
@@ -38744,7 +39318,7 @@
       <c r="EW121" s="9"/>
       <c r="EX121" s="9"/>
     </row>
-    <row r="122" spans="1:154" ht="7.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:154" ht="7.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A122" s="12"/>
       <c r="B122" s="12"/>
       <c r="C122" s="12"/>
@@ -38822,25 +39396,35 @@
       <c r="BW122" s="12"/>
       <c r="BX122" s="12"/>
       <c r="BY122" s="12"/>
-      <c r="BZ122" s="12"/>
-      <c r="CA122" s="12"/>
-      <c r="CB122" s="12"/>
-      <c r="CC122" s="12"/>
-      <c r="CD122" s="20"/>
-      <c r="CE122" s="20"/>
-      <c r="CF122" s="20"/>
-      <c r="CG122" s="20"/>
-      <c r="CH122" s="20"/>
-      <c r="CI122" s="20"/>
-      <c r="CJ122" s="20"/>
-      <c r="CK122" s="20"/>
+      <c r="BZ122" s="20"/>
+      <c r="CA122" s="20"/>
+      <c r="CB122" s="20"/>
+      <c r="CC122" s="20"/>
+      <c r="CD122" s="27"/>
+      <c r="CE122" s="27"/>
+      <c r="CF122" s="27"/>
+      <c r="CG122" s="27"/>
+      <c r="CH122" s="27"/>
+      <c r="CI122" s="27"/>
+      <c r="CJ122" s="27"/>
+      <c r="CK122" s="27"/>
+      <c r="CL122" s="27"/>
     </row>
-    <row r="123" spans="1:154" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:154" ht="15" x14ac:dyDescent="0.2">
       <c r="A123" s="13" t="s">
         <v>0</v>
       </c>
+      <c r="CD123" s="23"/>
+      <c r="CE123" s="23"/>
+      <c r="CF123" s="23"/>
+      <c r="CG123" s="23"/>
+      <c r="CH123" s="23"/>
+      <c r="CI123" s="23"/>
+      <c r="CJ123" s="23"/>
+      <c r="CK123" s="23"/>
+      <c r="CL123" s="23"/>
     </row>
-    <row r="124" spans="1:154" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:154" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B124" s="9"/>
       <c r="C124" s="9"/>
       <c r="D124" s="9"/>
@@ -38917,19 +39501,19 @@
       <c r="BW124" s="9"/>
       <c r="BX124" s="9"/>
       <c r="BY124" s="9"/>
-      <c r="BZ124" s="9"/>
-      <c r="CA124" s="9"/>
-      <c r="CB124" s="9"/>
-      <c r="CC124" s="9"/>
-      <c r="CD124" s="18"/>
-      <c r="CE124" s="18"/>
-      <c r="CF124" s="18"/>
-      <c r="CG124" s="18"/>
-      <c r="CH124" s="18"/>
-      <c r="CI124" s="18"/>
-      <c r="CJ124" s="18"/>
-      <c r="CK124" s="18"/>
-      <c r="CL124" s="9"/>
+      <c r="BZ124" s="18"/>
+      <c r="CA124" s="18"/>
+      <c r="CB124" s="18"/>
+      <c r="CC124" s="18"/>
+      <c r="CD124" s="28"/>
+      <c r="CE124" s="28"/>
+      <c r="CF124" s="28"/>
+      <c r="CG124" s="28"/>
+      <c r="CH124" s="28"/>
+      <c r="CI124" s="28"/>
+      <c r="CJ124" s="28"/>
+      <c r="CK124" s="28"/>
+      <c r="CL124" s="28"/>
       <c r="CM124" s="9"/>
       <c r="CN124" s="9"/>
       <c r="CO124" s="9"/>
@@ -38995,7 +39579,7 @@
       <c r="EW124" s="9"/>
       <c r="EX124" s="9"/>
     </row>
-    <row r="125" spans="1:154" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:154" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B125" s="9"/>
       <c r="C125" s="9"/>
       <c r="D125" s="9"/>
@@ -39072,19 +39656,19 @@
       <c r="BW125" s="9"/>
       <c r="BX125" s="9"/>
       <c r="BY125" s="9"/>
-      <c r="BZ125" s="9"/>
-      <c r="CA125" s="9"/>
-      <c r="CB125" s="9"/>
-      <c r="CC125" s="9"/>
-      <c r="CD125" s="18"/>
-      <c r="CE125" s="18"/>
-      <c r="CF125" s="18"/>
-      <c r="CG125" s="18"/>
-      <c r="CH125" s="18"/>
-      <c r="CI125" s="18"/>
-      <c r="CJ125" s="18"/>
-      <c r="CK125" s="18"/>
-      <c r="CL125" s="9"/>
+      <c r="BZ125" s="18"/>
+      <c r="CA125" s="18"/>
+      <c r="CB125" s="18"/>
+      <c r="CC125" s="18"/>
+      <c r="CD125" s="28"/>
+      <c r="CE125" s="28"/>
+      <c r="CF125" s="28"/>
+      <c r="CG125" s="28"/>
+      <c r="CH125" s="28"/>
+      <c r="CI125" s="28"/>
+      <c r="CJ125" s="28"/>
+      <c r="CK125" s="28"/>
+      <c r="CL125" s="28"/>
       <c r="CM125" s="9"/>
       <c r="CN125" s="9"/>
       <c r="CO125" s="9"/>
@@ -39150,172 +39734,229 @@
       <c r="EW125" s="9"/>
       <c r="EX125" s="9"/>
     </row>
-    <row r="126" spans="1:154" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:154" ht="15" x14ac:dyDescent="0.2">
       <c r="A126" s="1" t="s">
         <v>2</v>
       </c>
+      <c r="CD126" s="23"/>
+      <c r="CE126" s="23"/>
+      <c r="CF126" s="23"/>
+      <c r="CG126" s="23"/>
+      <c r="CH126" s="23"/>
+      <c r="CI126" s="23"/>
+      <c r="CJ126" s="23"/>
+      <c r="CK126" s="23"/>
+      <c r="CL126" s="23"/>
     </row>
-    <row r="127" spans="1:154" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:154" ht="15" x14ac:dyDescent="0.2">
       <c r="A127" s="1" t="s">
         <v>1</v>
       </c>
+      <c r="CD127" s="23"/>
+      <c r="CE127" s="23"/>
+      <c r="CF127" s="23"/>
+      <c r="CG127" s="23"/>
+      <c r="CH127" s="23"/>
+      <c r="CI127" s="23"/>
+      <c r="CJ127" s="23"/>
+      <c r="CK127" s="23"/>
+      <c r="CL127" s="23"/>
     </row>
-    <row r="128" spans="1:154" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:154" ht="15" x14ac:dyDescent="0.2">
       <c r="A128" s="1" t="s">
-        <v>49</v>
-      </c>
+        <v>50</v>
+      </c>
+      <c r="CD128" s="23"/>
+      <c r="CE128" s="23"/>
+      <c r="CF128" s="23"/>
+      <c r="CG128" s="23"/>
+      <c r="CH128" s="23"/>
+      <c r="CI128" s="23"/>
+      <c r="CJ128" s="23"/>
+      <c r="CK128" s="23"/>
+      <c r="CL128" s="23"/>
     </row>
-    <row r="130" spans="1:154" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:154" ht="15" x14ac:dyDescent="0.2">
       <c r="A130" s="1" t="s">
         <v>22</v>
       </c>
+      <c r="CD130" s="23"/>
+      <c r="CE130" s="23"/>
+      <c r="CF130" s="23"/>
+      <c r="CG130" s="23"/>
+      <c r="CH130" s="23"/>
+      <c r="CI130" s="23"/>
+      <c r="CJ130" s="23"/>
+      <c r="CK130" s="23"/>
+      <c r="CL130" s="23"/>
     </row>
-    <row r="131" spans="1:154" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:154" ht="15" x14ac:dyDescent="0.2">
       <c r="A131" s="1" t="s">
-        <v>50</v>
-      </c>
+        <v>51</v>
+      </c>
+      <c r="CD131" s="23"/>
+      <c r="CE131" s="23"/>
+      <c r="CF131" s="23"/>
+      <c r="CG131" s="23"/>
+      <c r="CH131" s="23"/>
+      <c r="CI131" s="23"/>
+      <c r="CJ131" s="23"/>
+      <c r="CK131" s="23"/>
+      <c r="CL131" s="23"/>
     </row>
-    <row r="132" spans="1:154" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:154" ht="15" x14ac:dyDescent="0.2">
       <c r="A132" s="1" t="s">
         <v>26</v>
       </c>
+      <c r="CD132" s="23"/>
+      <c r="CE132" s="23"/>
+      <c r="CF132" s="23"/>
+      <c r="CG132" s="23"/>
+      <c r="CH132" s="23"/>
+      <c r="CI132" s="23"/>
+      <c r="CJ132" s="23"/>
+      <c r="CK132" s="23"/>
+      <c r="CL132" s="23"/>
     </row>
-    <row r="134" spans="1:154" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:154" x14ac:dyDescent="0.2">
       <c r="A134" s="4"/>
-      <c r="B134" s="26">
+      <c r="B134" s="33">
         <v>2000</v>
       </c>
-      <c r="C134" s="27"/>
-      <c r="D134" s="27"/>
-      <c r="E134" s="27"/>
-      <c r="F134" s="26">
+      <c r="C134" s="34"/>
+      <c r="D134" s="34"/>
+      <c r="E134" s="34"/>
+      <c r="F134" s="33">
         <v>2001</v>
       </c>
-      <c r="G134" s="27"/>
-      <c r="H134" s="27"/>
-      <c r="I134" s="27"/>
-      <c r="J134" s="26">
+      <c r="G134" s="34"/>
+      <c r="H134" s="34"/>
+      <c r="I134" s="34"/>
+      <c r="J134" s="33">
         <v>2002</v>
       </c>
-      <c r="K134" s="27"/>
-      <c r="L134" s="27"/>
-      <c r="M134" s="27"/>
-      <c r="N134" s="26">
+      <c r="K134" s="34"/>
+      <c r="L134" s="34"/>
+      <c r="M134" s="34"/>
+      <c r="N134" s="33">
         <v>2003</v>
       </c>
-      <c r="O134" s="27"/>
-      <c r="P134" s="27"/>
-      <c r="Q134" s="27"/>
-      <c r="R134" s="26">
+      <c r="O134" s="34"/>
+      <c r="P134" s="34"/>
+      <c r="Q134" s="34"/>
+      <c r="R134" s="33">
         <v>2004</v>
       </c>
-      <c r="S134" s="27"/>
-      <c r="T134" s="27"/>
-      <c r="U134" s="27"/>
-      <c r="V134" s="26">
+      <c r="S134" s="34"/>
+      <c r="T134" s="34"/>
+      <c r="U134" s="34"/>
+      <c r="V134" s="33">
         <v>2005</v>
       </c>
-      <c r="W134" s="27"/>
-      <c r="X134" s="27"/>
-      <c r="Y134" s="27"/>
-      <c r="Z134" s="26">
+      <c r="W134" s="34"/>
+      <c r="X134" s="34"/>
+      <c r="Y134" s="34"/>
+      <c r="Z134" s="33">
         <v>2006</v>
       </c>
-      <c r="AA134" s="27"/>
-      <c r="AB134" s="27"/>
-      <c r="AC134" s="27"/>
-      <c r="AD134" s="26">
+      <c r="AA134" s="34"/>
+      <c r="AB134" s="34"/>
+      <c r="AC134" s="34"/>
+      <c r="AD134" s="33">
         <v>2007</v>
       </c>
-      <c r="AE134" s="27"/>
-      <c r="AF134" s="27"/>
-      <c r="AG134" s="27"/>
-      <c r="AH134" s="26">
+      <c r="AE134" s="34"/>
+      <c r="AF134" s="34"/>
+      <c r="AG134" s="34"/>
+      <c r="AH134" s="33">
         <v>2008</v>
       </c>
-      <c r="AI134" s="27"/>
-      <c r="AJ134" s="27"/>
-      <c r="AK134" s="27"/>
-      <c r="AL134" s="26">
+      <c r="AI134" s="34"/>
+      <c r="AJ134" s="34"/>
+      <c r="AK134" s="34"/>
+      <c r="AL134" s="33">
         <v>2009</v>
       </c>
-      <c r="AM134" s="27"/>
-      <c r="AN134" s="27"/>
-      <c r="AO134" s="27"/>
-      <c r="AP134" s="26">
+      <c r="AM134" s="34"/>
+      <c r="AN134" s="34"/>
+      <c r="AO134" s="34"/>
+      <c r="AP134" s="33">
         <v>2010</v>
       </c>
-      <c r="AQ134" s="27"/>
-      <c r="AR134" s="27"/>
-      <c r="AS134" s="27"/>
-      <c r="AT134" s="26">
+      <c r="AQ134" s="34"/>
+      <c r="AR134" s="34"/>
+      <c r="AS134" s="34"/>
+      <c r="AT134" s="33">
         <v>2011</v>
       </c>
-      <c r="AU134" s="27"/>
-      <c r="AV134" s="27"/>
-      <c r="AW134" s="27"/>
-      <c r="AX134" s="26">
+      <c r="AU134" s="34"/>
+      <c r="AV134" s="34"/>
+      <c r="AW134" s="34"/>
+      <c r="AX134" s="33">
         <v>2012</v>
       </c>
-      <c r="AY134" s="27"/>
-      <c r="AZ134" s="27"/>
-      <c r="BA134" s="27"/>
-      <c r="BB134" s="26">
+      <c r="AY134" s="34"/>
+      <c r="AZ134" s="34"/>
+      <c r="BA134" s="34"/>
+      <c r="BB134" s="33">
         <v>2013</v>
       </c>
-      <c r="BC134" s="27"/>
-      <c r="BD134" s="27"/>
-      <c r="BE134" s="27"/>
-      <c r="BF134" s="26">
+      <c r="BC134" s="34"/>
+      <c r="BD134" s="34"/>
+      <c r="BE134" s="34"/>
+      <c r="BF134" s="33">
         <v>2014</v>
       </c>
-      <c r="BG134" s="27"/>
-      <c r="BH134" s="27"/>
-      <c r="BI134" s="27"/>
-      <c r="BJ134" s="26">
+      <c r="BG134" s="34"/>
+      <c r="BH134" s="34"/>
+      <c r="BI134" s="34"/>
+      <c r="BJ134" s="33">
         <v>2015</v>
       </c>
-      <c r="BK134" s="27"/>
-      <c r="BL134" s="27"/>
-      <c r="BM134" s="27"/>
-      <c r="BN134" s="26">
+      <c r="BK134" s="34"/>
+      <c r="BL134" s="34"/>
+      <c r="BM134" s="34"/>
+      <c r="BN134" s="33">
         <v>2016</v>
       </c>
-      <c r="BO134" s="27"/>
-      <c r="BP134" s="27"/>
-      <c r="BQ134" s="27"/>
-      <c r="BR134" s="26">
+      <c r="BO134" s="34"/>
+      <c r="BP134" s="34"/>
+      <c r="BQ134" s="34"/>
+      <c r="BR134" s="33">
         <v>2017</v>
       </c>
-      <c r="BS134" s="27"/>
-      <c r="BT134" s="27"/>
-      <c r="BU134" s="27"/>
-      <c r="BV134" s="26">
+      <c r="BS134" s="34"/>
+      <c r="BT134" s="34"/>
+      <c r="BU134" s="34"/>
+      <c r="BV134" s="33">
         <v>2018</v>
       </c>
-      <c r="BW134" s="27"/>
-      <c r="BX134" s="27"/>
-      <c r="BY134" s="27"/>
-      <c r="BZ134" s="26">
+      <c r="BW134" s="34"/>
+      <c r="BX134" s="34"/>
+      <c r="BY134" s="34"/>
+      <c r="BZ134" s="35">
         <v>2019</v>
       </c>
-      <c r="CA134" s="27"/>
-      <c r="CB134" s="27"/>
-      <c r="CC134" s="27"/>
-      <c r="CD134" s="25">
+      <c r="CA134" s="36"/>
+      <c r="CB134" s="36"/>
+      <c r="CC134" s="36"/>
+      <c r="CD134" s="35">
         <v>2020</v>
       </c>
-      <c r="CE134" s="25"/>
-      <c r="CF134" s="25"/>
-      <c r="CG134" s="25"/>
-      <c r="CH134" s="25">
+      <c r="CE134" s="35"/>
+      <c r="CF134" s="35"/>
+      <c r="CG134" s="35"/>
+      <c r="CH134" s="35">
         <v>2021</v>
       </c>
-      <c r="CI134" s="25"/>
-      <c r="CJ134" s="25"/>
-      <c r="CK134" s="25"/>
+      <c r="CI134" s="35"/>
+      <c r="CJ134" s="35"/>
+      <c r="CK134" s="35"/>
+      <c r="CL134" s="32">
+        <v>2022</v>
+      </c>
     </row>
-    <row r="135" spans="1:154" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:154" x14ac:dyDescent="0.2">
       <c r="A135" s="5" t="s">
         <v>4</v>
       </c>
@@ -39547,47 +40188,59 @@
       <c r="BY135" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="BZ135" s="6" t="s">
+      <c r="BZ135" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="CA135" s="6" t="s">
+      <c r="CA135" s="16" t="s">
         <v>8</v>
       </c>
-      <c r="CB135" s="6" t="s">
+      <c r="CB135" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="CC135" s="6" t="s">
+      <c r="CC135" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="CD135" s="16" t="s">
+      <c r="CD135" s="26" t="s">
         <v>7</v>
       </c>
-      <c r="CE135" s="16" t="s">
+      <c r="CE135" s="26" t="s">
         <v>8</v>
       </c>
-      <c r="CF135" s="16" t="s">
+      <c r="CF135" s="26" t="s">
         <v>10</v>
       </c>
-      <c r="CG135" s="16" t="s">
+      <c r="CG135" s="26" t="s">
         <v>9</v>
       </c>
-      <c r="CH135" s="16" t="s">
+      <c r="CH135" s="26" t="s">
         <v>7</v>
       </c>
-      <c r="CI135" s="16" t="s">
+      <c r="CI135" s="26" t="s">
         <v>8</v>
       </c>
-      <c r="CJ135" s="16" t="s">
+      <c r="CJ135" s="26" t="s">
         <v>10</v>
       </c>
-      <c r="CK135" s="16" t="s">
+      <c r="CK135" s="26" t="s">
         <v>9</v>
       </c>
+      <c r="CL135" s="26" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="136" spans="1:154" ht="10.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:154" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A136" s="7"/>
+      <c r="CD136" s="23"/>
+      <c r="CE136" s="23"/>
+      <c r="CF136" s="23"/>
+      <c r="CG136" s="23"/>
+      <c r="CH136" s="23"/>
+      <c r="CI136" s="23"/>
+      <c r="CJ136" s="23"/>
+      <c r="CK136" s="23"/>
+      <c r="CL136" s="23"/>
     </row>
-    <row r="137" spans="1:154" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:154" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A137" s="1" t="s">
         <v>11</v>
       </c>
@@ -39819,43 +40472,45 @@
       <c r="BY137" s="14">
         <v>45.770093659831232</v>
       </c>
-      <c r="BZ137" s="14">
+      <c r="BZ137" s="21">
         <v>54.362633999326818</v>
       </c>
-      <c r="CA137" s="14">
+      <c r="CA137" s="21">
         <v>43.496024046714091</v>
       </c>
-      <c r="CB137" s="14">
+      <c r="CB137" s="21">
         <v>51.842255813981311</v>
       </c>
-      <c r="CC137" s="14">
+      <c r="CC137" s="21">
         <v>46.753526636676256</v>
       </c>
-      <c r="CD137" s="23">
+      <c r="CD137" s="29">
         <v>57.871188567987872</v>
       </c>
-      <c r="CE137" s="23">
+      <c r="CE137" s="29">
         <v>47.350269400242603</v>
       </c>
-      <c r="CF137" s="23">
+      <c r="CF137" s="29">
         <v>54.986743410895237</v>
       </c>
-      <c r="CG137" s="23">
-        <v>48.632653855737054</v>
-      </c>
-      <c r="CH137" s="23">
+      <c r="CG137" s="29">
+        <v>48.79289674854784</v>
+      </c>
+      <c r="CH137" s="29">
         <v>58.280625467833325</v>
       </c>
-      <c r="CI137" s="23">
+      <c r="CI137" s="29">
         <v>46.3342907727464</v>
       </c>
-      <c r="CJ137" s="23">
+      <c r="CJ137" s="29">
         <v>54.413769901010632</v>
       </c>
-      <c r="CK137" s="23">
-        <v>47.226951185110231</v>
-      </c>
-      <c r="CL137" s="9"/>
+      <c r="CK137" s="29">
+        <v>47.672191887717126</v>
+      </c>
+      <c r="CL137" s="29">
+        <v>57.932158423054112</v>
+      </c>
       <c r="CM137" s="9"/>
       <c r="CN137" s="9"/>
       <c r="CO137" s="9"/>
@@ -39921,7 +40576,7 @@
       <c r="EW137" s="9"/>
       <c r="EX137" s="9"/>
     </row>
-    <row r="138" spans="1:154" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:154" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A138" s="10" t="s">
         <v>12</v>
       </c>
@@ -40153,43 +40808,45 @@
       <c r="BY138" s="14">
         <v>31.023312059723519</v>
       </c>
-      <c r="BZ138" s="14">
+      <c r="BZ138" s="21">
         <v>25.922184555561472</v>
       </c>
-      <c r="CA138" s="14">
+      <c r="CA138" s="21">
         <v>37.663357489559942</v>
       </c>
-      <c r="CB138" s="14">
+      <c r="CB138" s="21">
         <v>27.725374725216902</v>
       </c>
-      <c r="CC138" s="14">
+      <c r="CC138" s="21">
         <v>31.216268894142306</v>
       </c>
-      <c r="CD138" s="23">
+      <c r="CD138" s="29">
         <v>24.20051166757063</v>
       </c>
-      <c r="CE138" s="23">
+      <c r="CE138" s="29">
         <v>36.037345242557478</v>
       </c>
-      <c r="CF138" s="23">
+      <c r="CF138" s="29">
         <v>27.058728793971081</v>
       </c>
-      <c r="CG138" s="23">
-        <v>30.920706328667091</v>
-      </c>
-      <c r="CH138" s="23">
+      <c r="CG138" s="29">
+        <v>30.824247706570034</v>
+      </c>
+      <c r="CH138" s="29">
         <v>24.024140061611266</v>
       </c>
-      <c r="CI138" s="23">
+      <c r="CI138" s="29">
         <v>36.140751453094154</v>
       </c>
-      <c r="CJ138" s="23">
+      <c r="CJ138" s="29">
         <v>26.703185136497382</v>
       </c>
-      <c r="CK138" s="23">
-        <v>31.7232844292134</v>
-      </c>
-      <c r="CL138" s="9"/>
+      <c r="CK138" s="29">
+        <v>31.488306690391809</v>
+      </c>
+      <c r="CL138" s="29">
+        <v>24.644875257445765</v>
+      </c>
       <c r="CM138" s="9"/>
       <c r="CN138" s="9"/>
       <c r="CO138" s="9"/>
@@ -40255,7 +40912,7 @@
       <c r="EW138" s="9"/>
       <c r="EX138" s="9"/>
     </row>
-    <row r="139" spans="1:154" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:154" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A139" s="1" t="s">
         <v>13</v>
       </c>
@@ -40487,43 +41144,45 @@
       <c r="BY139" s="14">
         <v>17.210431672646319</v>
       </c>
-      <c r="BZ139" s="14">
+      <c r="BZ139" s="21">
         <v>14.943342187173744</v>
       </c>
-      <c r="CA139" s="14">
+      <c r="CA139" s="21">
         <v>13.453645054853736</v>
       </c>
-      <c r="CB139" s="14">
+      <c r="CB139" s="21">
         <v>15.527635423798108</v>
       </c>
-      <c r="CC139" s="14">
+      <c r="CC139" s="21">
         <v>16.27276944296629</v>
       </c>
-      <c r="CD139" s="23">
+      <c r="CD139" s="29">
         <v>13.023910819488504</v>
       </c>
-      <c r="CE139" s="23">
+      <c r="CE139" s="29">
         <v>11.187814418983724</v>
       </c>
-      <c r="CF139" s="23">
+      <c r="CF139" s="29">
         <v>13.186642417208343</v>
       </c>
-      <c r="CG139" s="23">
-        <v>14.827461541552879</v>
-      </c>
-      <c r="CH139" s="23">
+      <c r="CG139" s="29">
+        <v>14.781206566188054</v>
+      </c>
+      <c r="CH139" s="29">
         <v>12.889810709433474</v>
       </c>
-      <c r="CI139" s="23">
+      <c r="CI139" s="29">
         <v>12.279569551716122</v>
       </c>
-      <c r="CJ139" s="23">
+      <c r="CJ139" s="29">
         <v>14.024459337453186</v>
       </c>
-      <c r="CK139" s="23">
-        <v>15.560263567058852</v>
-      </c>
-      <c r="CL139" s="9"/>
+      <c r="CK139" s="29">
+        <v>15.404834409993487</v>
+      </c>
+      <c r="CL139" s="29">
+        <v>12.564242979411965</v>
+      </c>
       <c r="CM139" s="9"/>
       <c r="CN139" s="9"/>
       <c r="CO139" s="9"/>
@@ -40589,7 +41248,7 @@
       <c r="EW139" s="9"/>
       <c r="EX139" s="9"/>
     </row>
-    <row r="140" spans="1:154" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:154" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A140" s="1" t="s">
         <v>14</v>
       </c>
@@ -40821,43 +41480,45 @@
       <c r="BY140" s="14">
         <v>5.9961626077989285</v>
       </c>
-      <c r="BZ140" s="14">
+      <c r="BZ140" s="21">
         <v>4.7718392579379652</v>
       </c>
-      <c r="CA140" s="14">
+      <c r="CA140" s="21">
         <v>5.3869734088722323</v>
       </c>
-      <c r="CB140" s="14">
+      <c r="CB140" s="21">
         <v>4.9047340370036947</v>
       </c>
-      <c r="CC140" s="14">
+      <c r="CC140" s="21">
         <v>5.7574350262151341</v>
       </c>
-      <c r="CD140" s="23">
+      <c r="CD140" s="29">
         <v>4.9043889449529816</v>
       </c>
-      <c r="CE140" s="23">
+      <c r="CE140" s="29">
         <v>5.4245709382161937</v>
       </c>
-      <c r="CF140" s="23">
+      <c r="CF140" s="29">
         <v>4.7678853779253387</v>
       </c>
-      <c r="CG140" s="23">
-        <v>5.6191782740429765</v>
-      </c>
-      <c r="CH140" s="23">
+      <c r="CG140" s="29">
+        <v>5.6016489786940724</v>
+      </c>
+      <c r="CH140" s="29">
         <v>4.8054237611219328</v>
       </c>
-      <c r="CI140" s="23">
+      <c r="CI140" s="29">
         <v>5.245388222443327</v>
       </c>
-      <c r="CJ140" s="23">
+      <c r="CJ140" s="29">
         <v>4.8585856250387964</v>
       </c>
-      <c r="CK140" s="23">
-        <v>5.4895008186175058</v>
-      </c>
-      <c r="CL140" s="9"/>
+      <c r="CK140" s="29">
+        <v>5.4346670118975702</v>
+      </c>
+      <c r="CL140" s="29">
+        <v>4.8587233400881491</v>
+      </c>
       <c r="CM140" s="9"/>
       <c r="CN140" s="9"/>
       <c r="CO140" s="9"/>
@@ -40923,7 +41584,7 @@
       <c r="EW140" s="9"/>
       <c r="EX140" s="9"/>
     </row>
-    <row r="141" spans="1:154" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:154" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B141" s="9"/>
       <c r="C141" s="9"/>
       <c r="D141" s="9"/>
@@ -41000,19 +41661,19 @@
       <c r="BW141" s="9"/>
       <c r="BX141" s="9"/>
       <c r="BY141" s="9"/>
-      <c r="BZ141" s="9"/>
-      <c r="CA141" s="9"/>
-      <c r="CB141" s="9"/>
-      <c r="CC141" s="9"/>
-      <c r="CD141" s="18"/>
-      <c r="CE141" s="18"/>
-      <c r="CF141" s="18"/>
-      <c r="CG141" s="18"/>
-      <c r="CH141" s="18"/>
-      <c r="CI141" s="18"/>
-      <c r="CJ141" s="18"/>
-      <c r="CK141" s="18"/>
-      <c r="CL141" s="9"/>
+      <c r="BZ141" s="18"/>
+      <c r="CA141" s="18"/>
+      <c r="CB141" s="18"/>
+      <c r="CC141" s="18"/>
+      <c r="CD141" s="28"/>
+      <c r="CE141" s="28"/>
+      <c r="CF141" s="28"/>
+      <c r="CG141" s="28"/>
+      <c r="CH141" s="28"/>
+      <c r="CI141" s="28"/>
+      <c r="CJ141" s="28"/>
+      <c r="CK141" s="28"/>
+      <c r="CL141" s="28"/>
       <c r="CM141" s="9"/>
       <c r="CN141" s="9"/>
       <c r="CO141" s="9"/>
@@ -41078,7 +41739,7 @@
       <c r="EW141" s="9"/>
       <c r="EX141" s="9"/>
     </row>
-    <row r="142" spans="1:154" ht="30.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:154" ht="30.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A142" s="10" t="s">
         <v>15</v>
       </c>
@@ -41310,43 +41971,45 @@
       <c r="BY142" s="14">
         <v>100</v>
       </c>
-      <c r="BZ142" s="14">
+      <c r="BZ142" s="21">
         <v>100</v>
       </c>
-      <c r="CA142" s="14">
+      <c r="CA142" s="21">
         <v>100</v>
       </c>
-      <c r="CB142" s="14">
+      <c r="CB142" s="21">
         <v>100</v>
       </c>
-      <c r="CC142" s="14">
+      <c r="CC142" s="21">
         <v>100</v>
       </c>
-      <c r="CD142" s="23">
+      <c r="CD142" s="29">
         <v>100</v>
       </c>
-      <c r="CE142" s="23">
+      <c r="CE142" s="29">
         <v>100</v>
       </c>
-      <c r="CF142" s="23">
+      <c r="CF142" s="29">
         <v>100</v>
       </c>
-      <c r="CG142" s="23">
+      <c r="CG142" s="29">
         <v>100</v>
       </c>
-      <c r="CH142" s="23">
+      <c r="CH142" s="29">
         <v>100</v>
       </c>
-      <c r="CI142" s="23">
+      <c r="CI142" s="29">
         <v>100</v>
       </c>
-      <c r="CJ142" s="23">
+      <c r="CJ142" s="29">
         <v>100</v>
       </c>
-      <c r="CK142" s="23">
+      <c r="CK142" s="29">
         <v>100</v>
       </c>
-      <c r="CL142" s="9"/>
+      <c r="CL142" s="29">
+        <v>100</v>
+      </c>
       <c r="CM142" s="9"/>
       <c r="CN142" s="9"/>
       <c r="CO142" s="9"/>
@@ -41412,7 +42075,7 @@
       <c r="EW142" s="9"/>
       <c r="EX142" s="9"/>
     </row>
-    <row r="143" spans="1:154" ht="7.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:154" ht="7.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A143" s="12"/>
       <c r="B143" s="12"/>
       <c r="C143" s="12"/>
@@ -41490,39 +42153,414 @@
       <c r="BW143" s="12"/>
       <c r="BX143" s="12"/>
       <c r="BY143" s="12"/>
-      <c r="BZ143" s="12"/>
-      <c r="CA143" s="12"/>
-      <c r="CB143" s="12"/>
-      <c r="CC143" s="12"/>
-      <c r="CD143" s="20"/>
-      <c r="CE143" s="20"/>
-      <c r="CF143" s="20"/>
-      <c r="CG143" s="20"/>
-      <c r="CH143" s="20"/>
-      <c r="CI143" s="20"/>
-      <c r="CJ143" s="20"/>
-      <c r="CK143" s="20"/>
+      <c r="BZ143" s="20"/>
+      <c r="CA143" s="20"/>
+      <c r="CB143" s="20"/>
+      <c r="CC143" s="20"/>
+      <c r="CD143" s="27"/>
+      <c r="CE143" s="27"/>
+      <c r="CF143" s="27"/>
+      <c r="CG143" s="27"/>
+      <c r="CH143" s="27"/>
+      <c r="CI143" s="27"/>
+      <c r="CJ143" s="27"/>
+      <c r="CK143" s="27"/>
+      <c r="CL143" s="27"/>
     </row>
-    <row r="144" spans="1:154" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:154" ht="15" x14ac:dyDescent="0.2">
       <c r="A144" s="13" t="s">
         <v>0</v>
       </c>
+      <c r="CD144" s="23"/>
+      <c r="CE144" s="23"/>
+      <c r="CF144" s="23"/>
+      <c r="CG144" s="23"/>
+      <c r="CH144" s="23"/>
+      <c r="CI144" s="23"/>
+      <c r="CJ144" s="23"/>
+      <c r="CK144" s="23"/>
+      <c r="CL144" s="23"/>
+    </row>
+    <row r="147" spans="81:90" ht="15" x14ac:dyDescent="0.2">
+      <c r="CD147" s="23"/>
+      <c r="CE147" s="23"/>
+      <c r="CF147" s="23"/>
+      <c r="CG147" s="23"/>
+      <c r="CH147" s="23"/>
+      <c r="CI147" s="23"/>
+      <c r="CJ147" s="23"/>
+      <c r="CK147" s="23"/>
+      <c r="CL147" s="23"/>
+    </row>
+    <row r="148" spans="81:90" ht="15" x14ac:dyDescent="0.2">
+      <c r="CD148" s="23"/>
+      <c r="CE148" s="23"/>
+      <c r="CF148" s="23"/>
+      <c r="CG148" s="23"/>
+      <c r="CH148" s="23"/>
+      <c r="CI148" s="23"/>
+      <c r="CJ148" s="23"/>
+      <c r="CK148" s="23"/>
+      <c r="CL148" s="23"/>
+    </row>
+    <row r="149" spans="81:90" ht="15" x14ac:dyDescent="0.2">
+      <c r="CD149" s="23"/>
+      <c r="CE149" s="23"/>
+      <c r="CF149" s="23"/>
+      <c r="CG149" s="23"/>
+      <c r="CH149" s="23"/>
+      <c r="CI149" s="23"/>
+      <c r="CJ149" s="23"/>
+      <c r="CK149" s="23"/>
+      <c r="CL149" s="23"/>
+    </row>
+    <row r="151" spans="81:90" ht="15" x14ac:dyDescent="0.2">
+      <c r="CD151" s="23"/>
+      <c r="CE151" s="23"/>
+      <c r="CF151" s="23"/>
+      <c r="CG151" s="23"/>
+      <c r="CH151" s="23"/>
+      <c r="CI151" s="23"/>
+      <c r="CJ151" s="23"/>
+      <c r="CK151" s="23"/>
+      <c r="CL151" s="23"/>
+    </row>
+    <row r="152" spans="81:90" ht="15" x14ac:dyDescent="0.2">
+      <c r="CD152" s="23"/>
+      <c r="CE152" s="23"/>
+      <c r="CF152" s="23"/>
+      <c r="CG152" s="23"/>
+      <c r="CH152" s="23"/>
+      <c r="CI152" s="23"/>
+      <c r="CJ152" s="23"/>
+      <c r="CK152" s="23"/>
+      <c r="CL152" s="23"/>
+    </row>
+    <row r="153" spans="81:90" x14ac:dyDescent="0.2">
+      <c r="CC153" s="1"/>
+      <c r="CD153" s="1"/>
+      <c r="CE153" s="1"/>
+      <c r="CF153" s="1"/>
+      <c r="CG153" s="1"/>
+      <c r="CH153" s="1"/>
+      <c r="CI153" s="1"/>
+      <c r="CJ153" s="1"/>
+      <c r="CK153" s="1"/>
+    </row>
+    <row r="154" spans="81:90" x14ac:dyDescent="0.2">
+      <c r="CC154" s="1"/>
+      <c r="CD154" s="1"/>
+      <c r="CE154" s="1"/>
+      <c r="CF154" s="1"/>
+      <c r="CG154" s="1"/>
+      <c r="CH154" s="1"/>
+      <c r="CI154" s="1"/>
+      <c r="CJ154" s="1"/>
+      <c r="CK154" s="1"/>
+    </row>
+    <row r="155" spans="81:90" x14ac:dyDescent="0.2">
+      <c r="CC155" s="1"/>
+      <c r="CD155" s="1"/>
+      <c r="CE155" s="1"/>
+      <c r="CF155" s="1"/>
+      <c r="CG155" s="1"/>
+      <c r="CH155" s="1"/>
+      <c r="CI155" s="1"/>
+      <c r="CJ155" s="1"/>
+      <c r="CK155" s="1"/>
+    </row>
+    <row r="156" spans="81:90" x14ac:dyDescent="0.2">
+      <c r="CC156" s="1"/>
+      <c r="CD156" s="1"/>
+      <c r="CE156" s="1"/>
+      <c r="CF156" s="1"/>
+      <c r="CG156" s="1"/>
+      <c r="CH156" s="1"/>
+      <c r="CI156" s="1"/>
+      <c r="CJ156" s="1"/>
+      <c r="CK156" s="1"/>
+    </row>
+    <row r="157" spans="81:90" x14ac:dyDescent="0.2">
+      <c r="CC157" s="1"/>
+      <c r="CD157" s="1"/>
+      <c r="CE157" s="1"/>
+      <c r="CF157" s="1"/>
+      <c r="CG157" s="1"/>
+      <c r="CH157" s="1"/>
+      <c r="CI157" s="1"/>
+      <c r="CJ157" s="1"/>
+      <c r="CK157" s="1"/>
+    </row>
+    <row r="158" spans="81:90" x14ac:dyDescent="0.2">
+      <c r="CC158" s="1"/>
+      <c r="CD158" s="1"/>
+      <c r="CE158" s="1"/>
+      <c r="CF158" s="1"/>
+      <c r="CG158" s="1"/>
+      <c r="CH158" s="1"/>
+      <c r="CI158" s="1"/>
+      <c r="CJ158" s="1"/>
+      <c r="CK158" s="1"/>
+    </row>
+    <row r="159" spans="81:90" x14ac:dyDescent="0.2">
+      <c r="CC159" s="1"/>
+      <c r="CD159" s="1"/>
+      <c r="CE159" s="1"/>
+      <c r="CF159" s="1"/>
+      <c r="CG159" s="1"/>
+      <c r="CH159" s="1"/>
+      <c r="CI159" s="1"/>
+      <c r="CJ159" s="1"/>
+      <c r="CK159" s="1"/>
+    </row>
+    <row r="160" spans="81:90" x14ac:dyDescent="0.2">
+      <c r="CC160" s="1"/>
+      <c r="CD160" s="1"/>
+      <c r="CE160" s="1"/>
+      <c r="CF160" s="1"/>
+      <c r="CG160" s="1"/>
+      <c r="CH160" s="1"/>
+      <c r="CI160" s="1"/>
+      <c r="CJ160" s="1"/>
+      <c r="CK160" s="1"/>
+    </row>
+    <row r="161" spans="81:89" x14ac:dyDescent="0.2">
+      <c r="CC161" s="1"/>
+      <c r="CD161" s="1"/>
+      <c r="CE161" s="1"/>
+      <c r="CF161" s="1"/>
+      <c r="CG161" s="1"/>
+      <c r="CH161" s="1"/>
+      <c r="CI161" s="1"/>
+      <c r="CJ161" s="1"/>
+      <c r="CK161" s="1"/>
+    </row>
+    <row r="162" spans="81:89" x14ac:dyDescent="0.2">
+      <c r="CC162" s="1"/>
+      <c r="CD162" s="1"/>
+      <c r="CE162" s="1"/>
+      <c r="CF162" s="1"/>
+      <c r="CG162" s="1"/>
+      <c r="CH162" s="1"/>
+      <c r="CI162" s="1"/>
+      <c r="CJ162" s="1"/>
+      <c r="CK162" s="1"/>
+    </row>
+    <row r="163" spans="81:89" x14ac:dyDescent="0.2">
+      <c r="CC163" s="1"/>
+      <c r="CD163" s="1"/>
+      <c r="CE163" s="1"/>
+      <c r="CF163" s="1"/>
+      <c r="CG163" s="1"/>
+      <c r="CH163" s="1"/>
+      <c r="CI163" s="1"/>
+      <c r="CJ163" s="1"/>
+      <c r="CK163" s="1"/>
+    </row>
+    <row r="164" spans="81:89" x14ac:dyDescent="0.2">
+      <c r="CC164" s="1"/>
+      <c r="CD164" s="1"/>
+      <c r="CE164" s="1"/>
+      <c r="CF164" s="1"/>
+      <c r="CG164" s="1"/>
+      <c r="CH164" s="1"/>
+      <c r="CI164" s="1"/>
+      <c r="CJ164" s="1"/>
+      <c r="CK164" s="1"/>
+    </row>
+    <row r="165" spans="81:89" x14ac:dyDescent="0.2">
+      <c r="CC165" s="1"/>
+      <c r="CD165" s="1"/>
+      <c r="CE165" s="1"/>
+      <c r="CF165" s="1"/>
+      <c r="CG165" s="1"/>
+      <c r="CH165" s="1"/>
+      <c r="CI165" s="1"/>
+      <c r="CJ165" s="1"/>
+      <c r="CK165" s="1"/>
+    </row>
+    <row r="166" spans="81:89" x14ac:dyDescent="0.2">
+      <c r="CC166" s="1"/>
+      <c r="CD166" s="1"/>
+      <c r="CE166" s="1"/>
+      <c r="CF166" s="1"/>
+      <c r="CG166" s="1"/>
+      <c r="CH166" s="1"/>
+      <c r="CI166" s="1"/>
+      <c r="CJ166" s="1"/>
+      <c r="CK166" s="1"/>
+    </row>
+    <row r="167" spans="81:89" x14ac:dyDescent="0.2">
+      <c r="CC167" s="1"/>
+      <c r="CD167" s="1"/>
+      <c r="CE167" s="1"/>
+      <c r="CF167" s="1"/>
+      <c r="CG167" s="1"/>
+      <c r="CH167" s="1"/>
+      <c r="CI167" s="1"/>
+      <c r="CJ167" s="1"/>
+      <c r="CK167" s="1"/>
+    </row>
+    <row r="168" spans="81:89" x14ac:dyDescent="0.2">
+      <c r="CC168" s="1"/>
+      <c r="CD168" s="1"/>
+      <c r="CE168" s="1"/>
+      <c r="CF168" s="1"/>
+      <c r="CG168" s="1"/>
+      <c r="CH168" s="1"/>
+      <c r="CI168" s="1"/>
+      <c r="CJ168" s="1"/>
+      <c r="CK168" s="1"/>
+    </row>
+    <row r="169" spans="81:89" x14ac:dyDescent="0.2">
+      <c r="CC169" s="1"/>
+      <c r="CD169" s="1"/>
+      <c r="CE169" s="1"/>
+      <c r="CF169" s="1"/>
+      <c r="CG169" s="1"/>
+      <c r="CH169" s="1"/>
+      <c r="CI169" s="1"/>
+      <c r="CJ169" s="1"/>
+      <c r="CK169" s="1"/>
+    </row>
+    <row r="170" spans="81:89" x14ac:dyDescent="0.2">
+      <c r="CC170" s="1"/>
+      <c r="CD170" s="1"/>
+      <c r="CE170" s="1"/>
+      <c r="CF170" s="1"/>
+      <c r="CG170" s="1"/>
+      <c r="CH170" s="1"/>
+      <c r="CI170" s="1"/>
+      <c r="CJ170" s="1"/>
+      <c r="CK170" s="1"/>
+    </row>
+    <row r="171" spans="81:89" x14ac:dyDescent="0.2">
+      <c r="CC171" s="1"/>
+      <c r="CD171" s="1"/>
+      <c r="CE171" s="1"/>
+      <c r="CF171" s="1"/>
+      <c r="CG171" s="1"/>
+      <c r="CH171" s="1"/>
+      <c r="CI171" s="1"/>
+      <c r="CJ171" s="1"/>
+      <c r="CK171" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="152">
-    <mergeCell ref="B134:E134"/>
-    <mergeCell ref="F134:I134"/>
-    <mergeCell ref="J134:M134"/>
-    <mergeCell ref="N134:Q134"/>
-    <mergeCell ref="B92:E92"/>
-    <mergeCell ref="F92:I92"/>
-    <mergeCell ref="J92:M92"/>
-    <mergeCell ref="N92:Q92"/>
-    <mergeCell ref="R92:U92"/>
-    <mergeCell ref="B113:E113"/>
-    <mergeCell ref="F113:I113"/>
-    <mergeCell ref="J113:M113"/>
-    <mergeCell ref="N113:Q113"/>
+    <mergeCell ref="CD51:CG51"/>
+    <mergeCell ref="CD72:CG72"/>
+    <mergeCell ref="CD9:CG9"/>
+    <mergeCell ref="CD30:CG30"/>
+    <mergeCell ref="CD92:CG92"/>
+    <mergeCell ref="CD113:CG113"/>
+    <mergeCell ref="CD134:CG134"/>
+    <mergeCell ref="CH9:CK9"/>
+    <mergeCell ref="CH30:CK30"/>
+    <mergeCell ref="CH92:CK92"/>
+    <mergeCell ref="CH113:CK113"/>
+    <mergeCell ref="CH134:CK134"/>
+    <mergeCell ref="BZ9:CC9"/>
+    <mergeCell ref="BR30:BU30"/>
+    <mergeCell ref="BV30:BY30"/>
+    <mergeCell ref="BZ30:CC30"/>
+    <mergeCell ref="BV51:BY51"/>
+    <mergeCell ref="BZ113:CC113"/>
+    <mergeCell ref="BZ92:CC92"/>
+    <mergeCell ref="BZ51:CC51"/>
+    <mergeCell ref="BZ72:CC72"/>
+    <mergeCell ref="BR72:BU72"/>
+    <mergeCell ref="BV72:BY72"/>
+    <mergeCell ref="BR134:BU134"/>
+    <mergeCell ref="B9:E9"/>
+    <mergeCell ref="F9:I9"/>
+    <mergeCell ref="J9:M9"/>
+    <mergeCell ref="N9:Q9"/>
+    <mergeCell ref="R9:U9"/>
+    <mergeCell ref="BR92:BU92"/>
+    <mergeCell ref="BV92:BY92"/>
+    <mergeCell ref="BR51:BU51"/>
+    <mergeCell ref="BR9:BU9"/>
+    <mergeCell ref="BV9:BY9"/>
+    <mergeCell ref="BJ9:BM9"/>
+    <mergeCell ref="BN9:BQ9"/>
+    <mergeCell ref="B30:E30"/>
+    <mergeCell ref="F30:I30"/>
+    <mergeCell ref="J30:M30"/>
+    <mergeCell ref="N30:Q30"/>
+    <mergeCell ref="R30:U30"/>
+    <mergeCell ref="V30:Y30"/>
+    <mergeCell ref="Z30:AC30"/>
+    <mergeCell ref="AD30:AG30"/>
+    <mergeCell ref="AH30:AK30"/>
+    <mergeCell ref="AL30:AO30"/>
+    <mergeCell ref="B51:E51"/>
+    <mergeCell ref="BF9:BI9"/>
+    <mergeCell ref="AH9:AK9"/>
+    <mergeCell ref="AL9:AO9"/>
+    <mergeCell ref="BB51:BE51"/>
+    <mergeCell ref="BF51:BI51"/>
+    <mergeCell ref="F51:I51"/>
+    <mergeCell ref="J51:M51"/>
+    <mergeCell ref="N51:Q51"/>
+    <mergeCell ref="R51:U51"/>
+    <mergeCell ref="V51:Y51"/>
+    <mergeCell ref="Z51:AC51"/>
+    <mergeCell ref="AD51:AG51"/>
+    <mergeCell ref="AH51:AK51"/>
+    <mergeCell ref="BN51:BQ51"/>
+    <mergeCell ref="V92:Y92"/>
+    <mergeCell ref="Z92:AC92"/>
+    <mergeCell ref="AD92:AG92"/>
+    <mergeCell ref="AH92:AK92"/>
+    <mergeCell ref="AP72:AS72"/>
+    <mergeCell ref="V9:Y9"/>
+    <mergeCell ref="Z9:AC9"/>
+    <mergeCell ref="AD9:AG9"/>
+    <mergeCell ref="BF30:BI30"/>
+    <mergeCell ref="BJ30:BM30"/>
+    <mergeCell ref="BN30:BQ30"/>
+    <mergeCell ref="AL51:AO51"/>
+    <mergeCell ref="AP51:AS51"/>
+    <mergeCell ref="AT51:AW51"/>
+    <mergeCell ref="AX51:BA51"/>
+    <mergeCell ref="AP30:AS30"/>
+    <mergeCell ref="AT30:AW30"/>
+    <mergeCell ref="AX30:BA30"/>
+    <mergeCell ref="BB30:BE30"/>
+    <mergeCell ref="AP9:AS9"/>
+    <mergeCell ref="AT9:AW9"/>
+    <mergeCell ref="AX9:BA9"/>
+    <mergeCell ref="BB9:BE9"/>
+    <mergeCell ref="BN113:BQ113"/>
+    <mergeCell ref="B72:E72"/>
+    <mergeCell ref="F72:I72"/>
+    <mergeCell ref="J72:M72"/>
+    <mergeCell ref="N72:Q72"/>
+    <mergeCell ref="R72:U72"/>
+    <mergeCell ref="V72:Y72"/>
+    <mergeCell ref="Z72:AC72"/>
+    <mergeCell ref="AD72:AG72"/>
+    <mergeCell ref="AH72:AK72"/>
+    <mergeCell ref="BF72:BI72"/>
+    <mergeCell ref="BJ72:BM72"/>
+    <mergeCell ref="BN72:BQ72"/>
+    <mergeCell ref="Z113:AC113"/>
+    <mergeCell ref="AD113:AG113"/>
+    <mergeCell ref="AH113:AK113"/>
+    <mergeCell ref="AL113:AO113"/>
+    <mergeCell ref="V113:Y113"/>
+    <mergeCell ref="AL72:AO72"/>
+    <mergeCell ref="AT72:AW72"/>
+    <mergeCell ref="AX72:BA72"/>
+    <mergeCell ref="BB72:BE72"/>
+    <mergeCell ref="AP92:AS92"/>
+    <mergeCell ref="AT92:AW92"/>
+    <mergeCell ref="AX92:BA92"/>
+    <mergeCell ref="BB92:BE92"/>
+    <mergeCell ref="BJ92:BM92"/>
+    <mergeCell ref="BJ51:BM51"/>
+    <mergeCell ref="BN92:BQ92"/>
+    <mergeCell ref="BF92:BI92"/>
     <mergeCell ref="BV134:BY134"/>
     <mergeCell ref="BZ134:CC134"/>
     <mergeCell ref="BR113:BU113"/>
@@ -41547,130 +42585,29 @@
     <mergeCell ref="BN134:BQ134"/>
     <mergeCell ref="BF113:BI113"/>
     <mergeCell ref="BJ113:BM113"/>
-    <mergeCell ref="BN51:BQ51"/>
-    <mergeCell ref="V92:Y92"/>
-    <mergeCell ref="Z92:AC92"/>
-    <mergeCell ref="AD92:AG92"/>
-    <mergeCell ref="AH92:AK92"/>
+    <mergeCell ref="B134:E134"/>
+    <mergeCell ref="F134:I134"/>
+    <mergeCell ref="J134:M134"/>
+    <mergeCell ref="N134:Q134"/>
+    <mergeCell ref="B92:E92"/>
+    <mergeCell ref="F92:I92"/>
+    <mergeCell ref="J92:M92"/>
+    <mergeCell ref="N92:Q92"/>
+    <mergeCell ref="R92:U92"/>
+    <mergeCell ref="B113:E113"/>
+    <mergeCell ref="F113:I113"/>
+    <mergeCell ref="J113:M113"/>
+    <mergeCell ref="N113:Q113"/>
     <mergeCell ref="AL92:AO92"/>
-    <mergeCell ref="AT72:AW72"/>
-    <mergeCell ref="AX72:BA72"/>
-    <mergeCell ref="BB72:BE72"/>
-    <mergeCell ref="AP92:AS92"/>
-    <mergeCell ref="AT92:AW92"/>
-    <mergeCell ref="AX92:BA92"/>
-    <mergeCell ref="BB92:BE92"/>
-    <mergeCell ref="BJ92:BM92"/>
-    <mergeCell ref="BN92:BQ92"/>
-    <mergeCell ref="BF92:BI92"/>
-    <mergeCell ref="BN113:BQ113"/>
-    <mergeCell ref="B72:E72"/>
-    <mergeCell ref="F72:I72"/>
-    <mergeCell ref="J72:M72"/>
-    <mergeCell ref="N72:Q72"/>
-    <mergeCell ref="R72:U72"/>
-    <mergeCell ref="V72:Y72"/>
-    <mergeCell ref="Z72:AC72"/>
-    <mergeCell ref="AD72:AG72"/>
-    <mergeCell ref="AH72:AK72"/>
-    <mergeCell ref="BF72:BI72"/>
-    <mergeCell ref="BJ72:BM72"/>
-    <mergeCell ref="BN72:BQ72"/>
-    <mergeCell ref="Z113:AC113"/>
-    <mergeCell ref="AD113:AG113"/>
-    <mergeCell ref="AH113:AK113"/>
-    <mergeCell ref="AL113:AO113"/>
-    <mergeCell ref="V113:Y113"/>
-    <mergeCell ref="V9:Y9"/>
-    <mergeCell ref="Z9:AC9"/>
-    <mergeCell ref="AD9:AG9"/>
-    <mergeCell ref="BF30:BI30"/>
-    <mergeCell ref="BJ30:BM30"/>
-    <mergeCell ref="BN30:BQ30"/>
-    <mergeCell ref="AL51:AO51"/>
-    <mergeCell ref="AP51:AS51"/>
-    <mergeCell ref="AT51:AW51"/>
-    <mergeCell ref="AX51:BA51"/>
-    <mergeCell ref="AP30:AS30"/>
-    <mergeCell ref="AT30:AW30"/>
-    <mergeCell ref="AX30:BA30"/>
-    <mergeCell ref="BB30:BE30"/>
-    <mergeCell ref="AP9:AS9"/>
-    <mergeCell ref="AT9:AW9"/>
-    <mergeCell ref="AX9:BA9"/>
-    <mergeCell ref="BB9:BE9"/>
-    <mergeCell ref="BF9:BI9"/>
-    <mergeCell ref="AH9:AK9"/>
-    <mergeCell ref="AL9:AO9"/>
-    <mergeCell ref="BB51:BE51"/>
-    <mergeCell ref="BF51:BI51"/>
-    <mergeCell ref="BJ51:BM51"/>
-    <mergeCell ref="J51:M51"/>
-    <mergeCell ref="N51:Q51"/>
-    <mergeCell ref="R51:U51"/>
-    <mergeCell ref="V51:Y51"/>
-    <mergeCell ref="Z51:AC51"/>
-    <mergeCell ref="AD51:AG51"/>
-    <mergeCell ref="AH51:AK51"/>
-    <mergeCell ref="AL72:AO72"/>
-    <mergeCell ref="AP72:AS72"/>
-    <mergeCell ref="B9:E9"/>
-    <mergeCell ref="F9:I9"/>
-    <mergeCell ref="J9:M9"/>
-    <mergeCell ref="N9:Q9"/>
-    <mergeCell ref="R9:U9"/>
-    <mergeCell ref="BR92:BU92"/>
-    <mergeCell ref="BV92:BY92"/>
-    <mergeCell ref="BR51:BU51"/>
-    <mergeCell ref="BR9:BU9"/>
-    <mergeCell ref="BV9:BY9"/>
-    <mergeCell ref="BJ9:BM9"/>
-    <mergeCell ref="BN9:BQ9"/>
-    <mergeCell ref="B30:E30"/>
-    <mergeCell ref="F30:I30"/>
-    <mergeCell ref="J30:M30"/>
-    <mergeCell ref="N30:Q30"/>
-    <mergeCell ref="R30:U30"/>
-    <mergeCell ref="V30:Y30"/>
-    <mergeCell ref="Z30:AC30"/>
-    <mergeCell ref="AD30:AG30"/>
-    <mergeCell ref="AH30:AK30"/>
-    <mergeCell ref="AL30:AO30"/>
-    <mergeCell ref="B51:E51"/>
-    <mergeCell ref="F51:I51"/>
-    <mergeCell ref="CH9:CK9"/>
-    <mergeCell ref="CH30:CK30"/>
-    <mergeCell ref="CD51:CG51"/>
-    <mergeCell ref="CD72:CG72"/>
-    <mergeCell ref="CH92:CK92"/>
-    <mergeCell ref="CH113:CK113"/>
-    <mergeCell ref="CH134:CK134"/>
-    <mergeCell ref="BZ9:CC9"/>
-    <mergeCell ref="BR30:BU30"/>
-    <mergeCell ref="BV30:BY30"/>
-    <mergeCell ref="BZ30:CC30"/>
-    <mergeCell ref="BV51:BY51"/>
-    <mergeCell ref="BZ113:CC113"/>
-    <mergeCell ref="BZ92:CC92"/>
-    <mergeCell ref="CD9:CG9"/>
-    <mergeCell ref="CD30:CG30"/>
-    <mergeCell ref="BZ51:CC51"/>
-    <mergeCell ref="BZ72:CC72"/>
-    <mergeCell ref="BR72:BU72"/>
-    <mergeCell ref="BV72:BY72"/>
-    <mergeCell ref="CD134:CG134"/>
-    <mergeCell ref="CD113:CG113"/>
-    <mergeCell ref="CD92:CG92"/>
-    <mergeCell ref="BR134:BU134"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.5" right="0.3" top="1" bottom="0.16700000000000001" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" scale="31" orientation="landscape" r:id="rId1"/>
   <headerFooter alignWithMargins="0"/>
   <rowBreaks count="3" manualBreakCount="3">
-    <brk id="42" max="88" man="1"/>
-    <brk id="84" max="88" man="1"/>
-    <brk id="104" max="88" man="1"/>
+    <brk id="42" max="89" man="1"/>
+    <brk id="84" max="89" man="1"/>
+    <brk id="104" max="89" man="1"/>
   </rowBreaks>
 </worksheet>
 </file>
--- a/Data/National Accounts/PSA-17FIA_2018PSNA_Qrt.xlsx
+++ b/Data/National Accounts/PSA-17FIA_2018PSNA_Qrt.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25128"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25330"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USER\OneDrive\Desktop\PSA\NAP\NAP\Q1 2022\Qtr\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DELL\Desktop\0. IAD activities\6. MAS_Series\2018-base\NAP\NAP detailed series as of August 2022\Qtr\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{753F7942-E0E5-4DDF-A882-30CE16717843}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{82C6E588-CBBA-41C7-B45E-436344676F24}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="FIA" sheetId="11" r:id="rId1"/>
@@ -323,7 +323,7 @@
     <definedName name="pet">#REF!</definedName>
     <definedName name="plastic">#REF!</definedName>
     <definedName name="ply">#REF!</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">FIA!$A$1:$CL$146</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">FIA!$A$1:$CM$146</definedName>
     <definedName name="_xlnm.Print_Area">#REF!</definedName>
     <definedName name="PRINT_AREA_MI">#REF!</definedName>
     <definedName name="Print_Titles_MI">'[9]CAP93+'!$A$1:$IV$1,'[9]CAP93+'!$A$1:$A$65536</definedName>
@@ -468,7 +468,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="749" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="756" uniqueCount="53">
   <si>
     <t>Source: Philippine Statistics Authority</t>
   </si>
@@ -621,24 +621,23 @@
     <t>2021 - 2022</t>
   </si>
   <si>
-    <t>As of May 2022</t>
+    <t>As of August 2022</t>
   </si>
   <si>
-    <t>Q1 2000 to Q1 2022</t>
+    <t>Q1 2000 to Q2 2022</t>
   </si>
   <si>
-    <t>Q1 2001 to Q1 2022</t>
+    <t>Q1 2001 to Q2 2022</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="4">
-    <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="164" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="165" formatCode="0.0"/>
-    <numFmt numFmtId="166" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
+  <numFmts count="3">
+    <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="164" formatCode="0.0"/>
+    <numFmt numFmtId="165" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
   <fonts count="6" x14ac:knownFonts="1">
     <font>
@@ -712,92 +711,55 @@
   <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="46">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="165" fontId="5" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="166" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="5" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="165" fontId="5" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="166" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="166" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Comma 2" xfId="2" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
-    <cellStyle name="Comma 2 2" xfId="3" xr:uid="{132CD317-36D4-4E52-8BC5-98C2BA28A376}"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
+    <cellStyle name="Normal 2 2" xfId="3" xr:uid="{443D19A8-35A5-4829-835C-71ED6D30D80C}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -23636,245 +23598,190 @@
   <sheetPr transitionEvaluation="1">
     <pageSetUpPr autoPageBreaks="0"/>
   </sheetPr>
-  <dimension ref="A1:EX171"/>
+  <dimension ref="A1:EX144"/>
   <sheetViews>
-    <sheetView tabSelected="1" defaultGridColor="0" topLeftCell="A130" colorId="22" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="BW1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="CI70" sqref="CI70:CM87"/>
+    <sheetView tabSelected="1" defaultGridColor="0" view="pageBreakPreview" colorId="22" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="CH1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="CH1" sqref="CH1:CM1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="7.77734375" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="7.81640625" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="38.33203125" style="1" customWidth="1"/>
-    <col min="2" max="77" width="8.88671875" style="1" customWidth="1"/>
-    <col min="78" max="78" width="9.77734375" style="15" bestFit="1" customWidth="1"/>
-    <col min="79" max="89" width="8.88671875" style="15" customWidth="1"/>
-    <col min="90" max="16384" width="7.77734375" style="1"/>
+    <col min="1" max="1" width="38.36328125" style="1" customWidth="1"/>
+    <col min="2" max="91" width="8.90625" style="1" customWidth="1"/>
+    <col min="92" max="16384" width="7.81640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:154" ht="15" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:154" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="CD1" s="23"/>
-      <c r="CE1" s="23"/>
-      <c r="CF1" s="23"/>
-      <c r="CG1" s="23"/>
-      <c r="CH1" s="23"/>
-      <c r="CI1" s="23"/>
-      <c r="CJ1" s="23"/>
-      <c r="CK1" s="23"/>
-      <c r="CL1" s="23"/>
     </row>
-    <row r="2" spans="1:154" ht="15" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:154" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="CD2" s="23"/>
-      <c r="CE2" s="23"/>
-      <c r="CF2" s="23"/>
-      <c r="CG2" s="23"/>
-      <c r="CH2" s="23"/>
-      <c r="CI2" s="23"/>
-      <c r="CJ2" s="23"/>
-      <c r="CK2" s="23"/>
-      <c r="CL2" s="23"/>
     </row>
-    <row r="3" spans="1:154" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:154" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="CD3" s="24"/>
-      <c r="CE3" s="24"/>
-      <c r="CF3" s="24"/>
-      <c r="CG3" s="24"/>
-      <c r="CH3" s="24"/>
-      <c r="CI3" s="24"/>
-      <c r="CJ3" s="24"/>
-      <c r="CK3" s="24"/>
-      <c r="CL3" s="24"/>
     </row>
-    <row r="5" spans="1:154" ht="15" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:154" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="CD5" s="23"/>
-      <c r="CE5" s="23"/>
-      <c r="CF5" s="23"/>
-      <c r="CG5" s="23"/>
-      <c r="CH5" s="23"/>
-      <c r="CI5" s="23"/>
-      <c r="CJ5" s="23"/>
-      <c r="CK5" s="23"/>
-      <c r="CL5" s="23"/>
     </row>
-    <row r="6" spans="1:154" ht="15" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:154" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="CD6" s="23"/>
-      <c r="CE6" s="23"/>
-      <c r="CF6" s="23"/>
-      <c r="CG6" s="23"/>
-      <c r="CH6" s="23"/>
-      <c r="CI6" s="23"/>
-      <c r="CJ6" s="23"/>
-      <c r="CK6" s="23"/>
-      <c r="CL6" s="23"/>
     </row>
-    <row r="7" spans="1:154" ht="15" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:154" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="CD7" s="23"/>
-      <c r="CE7" s="23"/>
-      <c r="CF7" s="23"/>
-      <c r="CG7" s="23"/>
-      <c r="CH7" s="23"/>
-      <c r="CI7" s="23"/>
-      <c r="CJ7" s="23"/>
-      <c r="CK7" s="23"/>
-      <c r="CL7" s="23"/>
     </row>
-    <row r="9" spans="1:154" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:154" x14ac:dyDescent="0.25">
       <c r="A9" s="4"/>
-      <c r="B9" s="33">
+      <c r="B9" s="18">
         <v>2000</v>
       </c>
-      <c r="C9" s="33"/>
-      <c r="D9" s="33"/>
-      <c r="E9" s="33"/>
-      <c r="F9" s="33">
+      <c r="C9" s="18"/>
+      <c r="D9" s="18"/>
+      <c r="E9" s="18"/>
+      <c r="F9" s="18">
         <v>2001</v>
       </c>
-      <c r="G9" s="33"/>
-      <c r="H9" s="33"/>
-      <c r="I9" s="33"/>
-      <c r="J9" s="33">
+      <c r="G9" s="18"/>
+      <c r="H9" s="18"/>
+      <c r="I9" s="18"/>
+      <c r="J9" s="18">
         <v>2002</v>
       </c>
-      <c r="K9" s="33"/>
-      <c r="L9" s="33"/>
-      <c r="M9" s="33"/>
-      <c r="N9" s="33">
+      <c r="K9" s="18"/>
+      <c r="L9" s="18"/>
+      <c r="M9" s="18"/>
+      <c r="N9" s="18">
         <v>2003</v>
       </c>
-      <c r="O9" s="33"/>
-      <c r="P9" s="33"/>
-      <c r="Q9" s="33"/>
-      <c r="R9" s="33">
+      <c r="O9" s="18"/>
+      <c r="P9" s="18"/>
+      <c r="Q9" s="18"/>
+      <c r="R9" s="18">
         <v>2004</v>
       </c>
-      <c r="S9" s="33"/>
-      <c r="T9" s="33"/>
-      <c r="U9" s="33"/>
-      <c r="V9" s="33">
+      <c r="S9" s="18"/>
+      <c r="T9" s="18"/>
+      <c r="U9" s="18"/>
+      <c r="V9" s="18">
         <v>2005</v>
       </c>
-      <c r="W9" s="33"/>
-      <c r="X9" s="33"/>
-      <c r="Y9" s="33"/>
-      <c r="Z9" s="33">
+      <c r="W9" s="18"/>
+      <c r="X9" s="18"/>
+      <c r="Y9" s="18"/>
+      <c r="Z9" s="18">
         <v>2006</v>
       </c>
-      <c r="AA9" s="33"/>
-      <c r="AB9" s="33"/>
-      <c r="AC9" s="33"/>
-      <c r="AD9" s="33">
+      <c r="AA9" s="18"/>
+      <c r="AB9" s="18"/>
+      <c r="AC9" s="18"/>
+      <c r="AD9" s="18">
         <v>2007</v>
       </c>
-      <c r="AE9" s="33"/>
-      <c r="AF9" s="33"/>
-      <c r="AG9" s="33"/>
-      <c r="AH9" s="33">
+      <c r="AE9" s="18"/>
+      <c r="AF9" s="18"/>
+      <c r="AG9" s="18"/>
+      <c r="AH9" s="18">
         <v>2008</v>
       </c>
-      <c r="AI9" s="33"/>
-      <c r="AJ9" s="33"/>
-      <c r="AK9" s="33"/>
-      <c r="AL9" s="33">
+      <c r="AI9" s="18"/>
+      <c r="AJ9" s="18"/>
+      <c r="AK9" s="18"/>
+      <c r="AL9" s="18">
         <v>2009</v>
       </c>
-      <c r="AM9" s="33"/>
-      <c r="AN9" s="33"/>
-      <c r="AO9" s="33"/>
-      <c r="AP9" s="33">
+      <c r="AM9" s="18"/>
+      <c r="AN9" s="18"/>
+      <c r="AO9" s="18"/>
+      <c r="AP9" s="18">
         <v>2010</v>
       </c>
-      <c r="AQ9" s="33"/>
-      <c r="AR9" s="33"/>
-      <c r="AS9" s="33"/>
-      <c r="AT9" s="33">
+      <c r="AQ9" s="18"/>
+      <c r="AR9" s="18"/>
+      <c r="AS9" s="18"/>
+      <c r="AT9" s="18">
         <v>2011</v>
       </c>
-      <c r="AU9" s="33"/>
-      <c r="AV9" s="33"/>
-      <c r="AW9" s="33"/>
-      <c r="AX9" s="33">
+      <c r="AU9" s="18"/>
+      <c r="AV9" s="18"/>
+      <c r="AW9" s="18"/>
+      <c r="AX9" s="18">
         <v>2012</v>
       </c>
-      <c r="AY9" s="33"/>
-      <c r="AZ9" s="33"/>
-      <c r="BA9" s="33"/>
-      <c r="BB9" s="33">
+      <c r="AY9" s="18"/>
+      <c r="AZ9" s="18"/>
+      <c r="BA9" s="18"/>
+      <c r="BB9" s="18">
         <v>2013</v>
       </c>
-      <c r="BC9" s="33"/>
-      <c r="BD9" s="33"/>
-      <c r="BE9" s="33"/>
-      <c r="BF9" s="33">
+      <c r="BC9" s="18"/>
+      <c r="BD9" s="18"/>
+      <c r="BE9" s="18"/>
+      <c r="BF9" s="18">
         <v>2014</v>
       </c>
-      <c r="BG9" s="33"/>
-      <c r="BH9" s="33"/>
-      <c r="BI9" s="33"/>
-      <c r="BJ9" s="33">
+      <c r="BG9" s="18"/>
+      <c r="BH9" s="18"/>
+      <c r="BI9" s="18"/>
+      <c r="BJ9" s="18">
         <v>2015</v>
       </c>
-      <c r="BK9" s="33"/>
-      <c r="BL9" s="33"/>
-      <c r="BM9" s="33"/>
-      <c r="BN9" s="33">
+      <c r="BK9" s="18"/>
+      <c r="BL9" s="18"/>
+      <c r="BM9" s="18"/>
+      <c r="BN9" s="18">
         <v>2016</v>
       </c>
-      <c r="BO9" s="33"/>
-      <c r="BP9" s="33"/>
-      <c r="BQ9" s="33"/>
-      <c r="BR9" s="33">
+      <c r="BO9" s="18"/>
+      <c r="BP9" s="18"/>
+      <c r="BQ9" s="18"/>
+      <c r="BR9" s="18">
         <v>2017</v>
       </c>
-      <c r="BS9" s="33"/>
-      <c r="BT9" s="33"/>
-      <c r="BU9" s="33"/>
-      <c r="BV9" s="33">
+      <c r="BS9" s="18"/>
+      <c r="BT9" s="18"/>
+      <c r="BU9" s="18"/>
+      <c r="BV9" s="18">
         <v>2018</v>
       </c>
-      <c r="BW9" s="33"/>
-      <c r="BX9" s="33"/>
-      <c r="BY9" s="33"/>
-      <c r="BZ9" s="35">
+      <c r="BW9" s="18"/>
+      <c r="BX9" s="18"/>
+      <c r="BY9" s="18"/>
+      <c r="BZ9" s="18">
         <v>2019</v>
       </c>
-      <c r="CA9" s="35"/>
-      <c r="CB9" s="35"/>
-      <c r="CC9" s="35"/>
-      <c r="CD9" s="35">
+      <c r="CA9" s="18"/>
+      <c r="CB9" s="18"/>
+      <c r="CC9" s="18"/>
+      <c r="CD9" s="18">
         <v>2020</v>
       </c>
-      <c r="CE9" s="35"/>
-      <c r="CF9" s="35"/>
-      <c r="CG9" s="35"/>
-      <c r="CH9" s="35">
+      <c r="CE9" s="18"/>
+      <c r="CF9" s="18"/>
+      <c r="CG9" s="18"/>
+      <c r="CH9" s="18">
         <v>2021</v>
       </c>
-      <c r="CI9" s="35"/>
-      <c r="CJ9" s="35"/>
-      <c r="CK9" s="35"/>
-      <c r="CL9" s="32">
+      <c r="CI9" s="18"/>
+      <c r="CJ9" s="18"/>
+      <c r="CK9" s="18"/>
+      <c r="CL9" s="18">
         <v>2022</v>
       </c>
+      <c r="CM9" s="18"/>
     </row>
-    <row r="10" spans="1:154" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:154" x14ac:dyDescent="0.25">
       <c r="A10" s="5" t="s">
         <v>4</v>
       </c>
@@ -24106,59 +24013,53 @@
       <c r="BY10" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="BZ10" s="16" t="s">
+      <c r="BZ10" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="CA10" s="16" t="s">
+      <c r="CA10" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="CB10" s="16" t="s">
+      <c r="CB10" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="CC10" s="16" t="s">
+      <c r="CC10" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="CD10" s="26" t="s">
+      <c r="CD10" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="CE10" s="26" t="s">
+      <c r="CE10" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="CF10" s="26" t="s">
+      <c r="CF10" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="CG10" s="26" t="s">
+      <c r="CG10" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="CH10" s="26" t="s">
+      <c r="CH10" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="CI10" s="26" t="s">
+      <c r="CI10" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="CJ10" s="26" t="s">
+      <c r="CJ10" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="CK10" s="26" t="s">
+      <c r="CK10" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="CL10" s="26" t="s">
+      <c r="CL10" s="6" t="s">
         <v>7</v>
       </c>
+      <c r="CM10" s="6" t="s">
+        <v>8</v>
+      </c>
     </row>
-    <row r="11" spans="1:154" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:154" ht="10.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="7"/>
-      <c r="CD11" s="23"/>
-      <c r="CE11" s="23"/>
-      <c r="CF11" s="23"/>
-      <c r="CG11" s="23"/>
-      <c r="CH11" s="23"/>
-      <c r="CI11" s="23"/>
-      <c r="CJ11" s="23"/>
-      <c r="CK11" s="23"/>
-      <c r="CL11" s="23"/>
     </row>
-    <row r="12" spans="1:154" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:154" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>11</v>
       </c>
@@ -24390,46 +24291,48 @@
       <c r="BY12" s="8">
         <v>171758.15442420871</v>
       </c>
-      <c r="BZ12" s="17">
+      <c r="BZ12" s="8">
         <v>219669.70496068103</v>
       </c>
-      <c r="CA12" s="17">
+      <c r="CA12" s="8">
         <v>195113.60987043899</v>
       </c>
-      <c r="CB12" s="17">
+      <c r="CB12" s="8">
         <v>215101.41575939403</v>
       </c>
-      <c r="CC12" s="17">
+      <c r="CC12" s="8">
         <v>197840.3381374013</v>
       </c>
-      <c r="CD12" s="30">
+      <c r="CD12" s="8">
         <v>262280.06275940745</v>
       </c>
-      <c r="CE12" s="30">
+      <c r="CE12" s="8">
         <v>228212.91183210266</v>
       </c>
-      <c r="CF12" s="30">
+      <c r="CF12" s="8">
         <v>244341.62253450145</v>
       </c>
-      <c r="CG12" s="30">
+      <c r="CG12" s="8">
         <v>220670.35038180312</v>
       </c>
-      <c r="CH12" s="30">
+      <c r="CH12" s="8">
         <v>285811.80137279734</v>
       </c>
-      <c r="CI12" s="30">
+      <c r="CI12" s="8">
         <v>241270.72470107194</v>
       </c>
-      <c r="CJ12" s="30">
+      <c r="CJ12" s="8">
         <v>255605.85108247871</v>
       </c>
-      <c r="CK12" s="30">
+      <c r="CK12" s="8">
         <v>232068.28065931782</v>
       </c>
-      <c r="CL12" s="30">
-        <v>315398.48813277623</v>
-      </c>
-      <c r="CM12" s="9"/>
+      <c r="CL12" s="8">
+        <v>317673.76364975941</v>
+      </c>
+      <c r="CM12" s="8">
+        <v>266950.24755611765</v>
+      </c>
       <c r="CN12" s="9"/>
       <c r="CO12" s="9"/>
       <c r="CP12" s="9"/>
@@ -24494,7 +24397,7 @@
       <c r="EW12" s="9"/>
       <c r="EX12" s="9"/>
     </row>
-    <row r="13" spans="1:154" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:154" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="10" t="s">
         <v>12</v>
       </c>
@@ -24726,46 +24629,48 @@
       <c r="BY13" s="8">
         <v>116974.66252303458</v>
       </c>
-      <c r="BZ13" s="17">
+      <c r="BZ13" s="8">
         <v>105746.110845818</v>
       </c>
-      <c r="CA13" s="17">
+      <c r="CA13" s="8">
         <v>165952.06470763401</v>
       </c>
-      <c r="CB13" s="17">
+      <c r="CB13" s="8">
         <v>113090.56931427699</v>
       </c>
-      <c r="CC13" s="17">
+      <c r="CC13" s="8">
         <v>130890.65630534028</v>
       </c>
-      <c r="CD13" s="30">
+      <c r="CD13" s="8">
         <v>110710.95139167535</v>
       </c>
-      <c r="CE13" s="30">
+      <c r="CE13" s="8">
         <v>170582.44393048628</v>
       </c>
-      <c r="CF13" s="30">
+      <c r="CF13" s="8">
         <v>118276.97256917531</v>
       </c>
-      <c r="CG13" s="30">
+      <c r="CG13" s="8">
         <v>138466.92118614574</v>
       </c>
-      <c r="CH13" s="30">
+      <c r="CH13" s="8">
         <v>119209.24000858559</v>
       </c>
-      <c r="CI13" s="30">
+      <c r="CI13" s="8">
         <v>185594.02999873378</v>
       </c>
-      <c r="CJ13" s="30">
+      <c r="CJ13" s="8">
         <v>124234.61783115598</v>
       </c>
-      <c r="CK13" s="30">
+      <c r="CK13" s="8">
         <v>153047.80115056271</v>
       </c>
-      <c r="CL13" s="30">
-        <v>135750.3555803147</v>
-      </c>
-      <c r="CM13" s="9"/>
+      <c r="CL13" s="8">
+        <v>136247.22376600408</v>
+      </c>
+      <c r="CM13" s="8">
+        <v>206282.11254443147</v>
+      </c>
       <c r="CN13" s="9"/>
       <c r="CO13" s="9"/>
       <c r="CP13" s="9"/>
@@ -24830,7 +24735,7 @@
       <c r="EW13" s="9"/>
       <c r="EX13" s="9"/>
     </row>
-    <row r="14" spans="1:154" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:154" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>13</v>
       </c>
@@ -25062,46 +24967,48 @@
       <c r="BY14" s="8">
         <v>65553.07159954212</v>
       </c>
-      <c r="BZ14" s="17">
+      <c r="BZ14" s="8">
         <v>62012.103965532297</v>
       </c>
-      <c r="CA14" s="17">
+      <c r="CA14" s="8">
         <v>58306.47845110741</v>
       </c>
-      <c r="CB14" s="17">
+      <c r="CB14" s="8">
         <v>62930.999350437691</v>
       </c>
-      <c r="CC14" s="17">
+      <c r="CC14" s="8">
         <v>67624.250269275552</v>
       </c>
-      <c r="CD14" s="30">
+      <c r="CD14" s="8">
         <v>60676.152132797288</v>
       </c>
-      <c r="CE14" s="30">
+      <c r="CE14" s="8">
         <v>52117.968748041909</v>
       </c>
-      <c r="CF14" s="30">
+      <c r="CF14" s="8">
         <v>57306.799684223166</v>
       </c>
-      <c r="CG14" s="30">
+      <c r="CG14" s="8">
         <v>65560.128340255469</v>
       </c>
-      <c r="CH14" s="30">
+      <c r="CH14" s="8">
         <v>64958.664094635562</v>
       </c>
-      <c r="CI14" s="30">
+      <c r="CI14" s="8">
         <v>61694.814736513654</v>
       </c>
-      <c r="CJ14" s="30">
+      <c r="CJ14" s="8">
         <v>64247.03506033076</v>
       </c>
-      <c r="CK14" s="30">
+      <c r="CK14" s="8">
         <v>73433.317096158891</v>
       </c>
-      <c r="CL14" s="30">
+      <c r="CL14" s="8">
         <v>70361.679415115359</v>
       </c>
-      <c r="CM14" s="9"/>
+      <c r="CM14" s="8">
+        <v>65012.691691412037</v>
+      </c>
       <c r="CN14" s="9"/>
       <c r="CO14" s="9"/>
       <c r="CP14" s="9"/>
@@ -25166,7 +25073,7 @@
       <c r="EW14" s="9"/>
       <c r="EX14" s="9"/>
     </row>
-    <row r="15" spans="1:154" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:154" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>14</v>
       </c>
@@ -25398,46 +25305,48 @@
       <c r="BY15" s="8">
         <v>22322.030127738679</v>
       </c>
-      <c r="BZ15" s="17">
+      <c r="BZ15" s="8">
         <v>19362.515933386501</v>
       </c>
-      <c r="CA15" s="17">
+      <c r="CA15" s="8">
         <v>23908.988922600001</v>
       </c>
-      <c r="CB15" s="17">
+      <c r="CB15" s="8">
         <v>20133.5744016196</v>
       </c>
-      <c r="CC15" s="17">
+      <c r="CC15" s="8">
         <v>24186.71689093428</v>
       </c>
-      <c r="CD15" s="30">
+      <c r="CD15" s="8">
         <v>22460.71080787963</v>
       </c>
-      <c r="CE15" s="30">
+      <c r="CE15" s="8">
         <v>25981.435137263194</v>
       </c>
-      <c r="CF15" s="30">
+      <c r="CF15" s="8">
         <v>21140.629551978112</v>
       </c>
-      <c r="CG15" s="30">
+      <c r="CG15" s="8">
         <v>25192.660658591107</v>
       </c>
-      <c r="CH15" s="30">
+      <c r="CH15" s="8">
         <v>24004.941405557605</v>
       </c>
-      <c r="CI15" s="30">
+      <c r="CI15" s="8">
         <v>27273.431823550629</v>
       </c>
-      <c r="CJ15" s="30">
+      <c r="CJ15" s="8">
         <v>22938.949970989983</v>
       </c>
-      <c r="CK15" s="30">
+      <c r="CK15" s="8">
         <v>26528.0211832399</v>
       </c>
-      <c r="CL15" s="30">
-        <v>27090.361909978958</v>
-      </c>
-      <c r="CM15" s="9"/>
+      <c r="CL15" s="8">
+        <v>26910.555705467174</v>
+      </c>
+      <c r="CM15" s="8">
+        <v>29706.485980474557</v>
+      </c>
       <c r="CN15" s="9"/>
       <c r="CO15" s="9"/>
       <c r="CP15" s="9"/>
@@ -25502,7 +25411,7 @@
       <c r="EW15" s="9"/>
       <c r="EX15" s="9"/>
     </row>
-    <row r="16" spans="1:154" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:154" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B16" s="9"/>
       <c r="C16" s="9"/>
       <c r="D16" s="9"/>
@@ -25579,19 +25488,19 @@
       <c r="BW16" s="9"/>
       <c r="BX16" s="9"/>
       <c r="BY16" s="9"/>
-      <c r="BZ16" s="18"/>
-      <c r="CA16" s="18"/>
-      <c r="CB16" s="18"/>
-      <c r="CC16" s="18"/>
-      <c r="CD16" s="28"/>
-      <c r="CE16" s="28"/>
-      <c r="CF16" s="28"/>
-      <c r="CG16" s="28"/>
-      <c r="CH16" s="28"/>
-      <c r="CI16" s="28"/>
-      <c r="CJ16" s="28"/>
-      <c r="CK16" s="28"/>
-      <c r="CL16" s="28"/>
+      <c r="BZ16" s="9"/>
+      <c r="CA16" s="9"/>
+      <c r="CB16" s="9"/>
+      <c r="CC16" s="9"/>
+      <c r="CD16" s="9"/>
+      <c r="CE16" s="9"/>
+      <c r="CF16" s="9"/>
+      <c r="CG16" s="9"/>
+      <c r="CH16" s="9"/>
+      <c r="CI16" s="9"/>
+      <c r="CJ16" s="9"/>
+      <c r="CK16" s="9"/>
+      <c r="CL16" s="9"/>
       <c r="CM16" s="9"/>
       <c r="CN16" s="9"/>
       <c r="CO16" s="9"/>
@@ -25657,7 +25566,7 @@
       <c r="EW16" s="9"/>
       <c r="EX16" s="9"/>
     </row>
-    <row r="17" spans="1:154" ht="30.6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:154" ht="30.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="10" t="s">
         <v>15</v>
       </c>
@@ -25889,46 +25798,48 @@
       <c r="BY17" s="11">
         <v>376607.91867452406</v>
       </c>
-      <c r="BZ17" s="19">
+      <c r="BZ17" s="11">
         <v>406790.43570541788</v>
       </c>
-      <c r="CA17" s="19">
+      <c r="CA17" s="11">
         <v>443281.14195178036</v>
       </c>
-      <c r="CB17" s="19">
+      <c r="CB17" s="11">
         <v>411256.55882572837</v>
       </c>
-      <c r="CC17" s="19">
+      <c r="CC17" s="11">
         <v>420541.9616029514</v>
       </c>
-      <c r="CD17" s="31">
+      <c r="CD17" s="11">
         <v>456127.8770917597</v>
       </c>
-      <c r="CE17" s="31">
+      <c r="CE17" s="11">
         <v>476894.75964789401</v>
       </c>
-      <c r="CF17" s="31">
+      <c r="CF17" s="11">
         <v>441066.024339878</v>
       </c>
-      <c r="CG17" s="31">
+      <c r="CG17" s="11">
         <v>449890.06056679541</v>
       </c>
-      <c r="CH17" s="31">
+      <c r="CH17" s="11">
         <v>493984.64688157616</v>
       </c>
-      <c r="CI17" s="31">
+      <c r="CI17" s="11">
         <v>515833.00125987001</v>
       </c>
-      <c r="CJ17" s="31">
+      <c r="CJ17" s="11">
         <v>467026.45394495537</v>
       </c>
-      <c r="CK17" s="31">
+      <c r="CK17" s="11">
         <v>485077.4200892793</v>
       </c>
-      <c r="CL17" s="31">
-        <v>548600.88503818517</v>
-      </c>
-      <c r="CM17" s="9"/>
+      <c r="CL17" s="11">
+        <v>551193.22253634594</v>
+      </c>
+      <c r="CM17" s="11">
+        <v>567951.53777243569</v>
+      </c>
       <c r="CN17" s="9"/>
       <c r="CO17" s="9"/>
       <c r="CP17" s="9"/>
@@ -25993,7 +25904,7 @@
       <c r="EW17" s="9"/>
       <c r="EX17" s="9"/>
     </row>
-    <row r="18" spans="1:154" ht="7.15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:154" ht="7.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="12"/>
       <c r="B18" s="12"/>
       <c r="C18" s="12"/>
@@ -26071,35 +25982,27 @@
       <c r="BW18" s="12"/>
       <c r="BX18" s="12"/>
       <c r="BY18" s="12"/>
-      <c r="BZ18" s="20"/>
-      <c r="CA18" s="20"/>
-      <c r="CB18" s="20"/>
-      <c r="CC18" s="20"/>
-      <c r="CD18" s="27"/>
-      <c r="CE18" s="27"/>
-      <c r="CF18" s="27"/>
-      <c r="CG18" s="27"/>
-      <c r="CH18" s="27"/>
-      <c r="CI18" s="27"/>
-      <c r="CJ18" s="27"/>
-      <c r="CK18" s="27"/>
-      <c r="CL18" s="27"/>
+      <c r="BZ18" s="12"/>
+      <c r="CA18" s="12"/>
+      <c r="CB18" s="12"/>
+      <c r="CC18" s="12"/>
+      <c r="CD18" s="12"/>
+      <c r="CE18" s="12"/>
+      <c r="CF18" s="12"/>
+      <c r="CG18" s="12"/>
+      <c r="CH18" s="12"/>
+      <c r="CI18" s="12"/>
+      <c r="CJ18" s="12"/>
+      <c r="CK18" s="12"/>
+      <c r="CL18" s="12"/>
+      <c r="CM18" s="12"/>
     </row>
-    <row r="19" spans="1:154" ht="15" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:154" x14ac:dyDescent="0.25">
       <c r="A19" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="CD19" s="23"/>
-      <c r="CE19" s="23"/>
-      <c r="CF19" s="23"/>
-      <c r="CG19" s="23"/>
-      <c r="CH19" s="23"/>
-      <c r="CI19" s="23"/>
-      <c r="CJ19" s="23"/>
-      <c r="CK19" s="23"/>
-      <c r="CL19" s="23"/>
     </row>
-    <row r="20" spans="1:154" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:154" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B20" s="9"/>
       <c r="C20" s="9"/>
       <c r="D20" s="9"/>
@@ -26176,19 +26079,19 @@
       <c r="BW20" s="9"/>
       <c r="BX20" s="9"/>
       <c r="BY20" s="9"/>
-      <c r="BZ20" s="18"/>
-      <c r="CA20" s="18"/>
-      <c r="CB20" s="18"/>
-      <c r="CC20" s="18"/>
-      <c r="CD20" s="28"/>
-      <c r="CE20" s="28"/>
-      <c r="CF20" s="28"/>
-      <c r="CG20" s="28"/>
-      <c r="CH20" s="28"/>
-      <c r="CI20" s="28"/>
-      <c r="CJ20" s="28"/>
-      <c r="CK20" s="28"/>
-      <c r="CL20" s="28"/>
+      <c r="BZ20" s="9"/>
+      <c r="CA20" s="9"/>
+      <c r="CB20" s="9"/>
+      <c r="CC20" s="9"/>
+      <c r="CD20" s="9"/>
+      <c r="CE20" s="9"/>
+      <c r="CF20" s="9"/>
+      <c r="CG20" s="9"/>
+      <c r="CH20" s="9"/>
+      <c r="CI20" s="9"/>
+      <c r="CJ20" s="9"/>
+      <c r="CK20" s="9"/>
+      <c r="CL20" s="9"/>
       <c r="CM20" s="9"/>
       <c r="CN20" s="9"/>
       <c r="CO20" s="9"/>
@@ -26254,7 +26157,7 @@
       <c r="EW20" s="9"/>
       <c r="EX20" s="9"/>
     </row>
-    <row r="21" spans="1:154" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:154" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B21" s="9"/>
       <c r="C21" s="9"/>
       <c r="D21" s="9"/>
@@ -26331,19 +26234,19 @@
       <c r="BW21" s="9"/>
       <c r="BX21" s="9"/>
       <c r="BY21" s="9"/>
-      <c r="BZ21" s="18"/>
-      <c r="CA21" s="18"/>
-      <c r="CB21" s="18"/>
-      <c r="CC21" s="18"/>
-      <c r="CD21" s="28"/>
-      <c r="CE21" s="28"/>
-      <c r="CF21" s="28"/>
-      <c r="CG21" s="28"/>
-      <c r="CH21" s="28"/>
-      <c r="CI21" s="28"/>
-      <c r="CJ21" s="28"/>
-      <c r="CK21" s="28"/>
-      <c r="CL21" s="28"/>
+      <c r="BZ21" s="9"/>
+      <c r="CA21" s="9"/>
+      <c r="CB21" s="9"/>
+      <c r="CC21" s="9"/>
+      <c r="CD21" s="9"/>
+      <c r="CE21" s="9"/>
+      <c r="CF21" s="9"/>
+      <c r="CG21" s="9"/>
+      <c r="CH21" s="9"/>
+      <c r="CI21" s="9"/>
+      <c r="CJ21" s="9"/>
+      <c r="CK21" s="9"/>
+      <c r="CL21" s="9"/>
       <c r="CM21" s="9"/>
       <c r="CN21" s="9"/>
       <c r="CO21" s="9"/>
@@ -26409,229 +26312,176 @@
       <c r="EW21" s="9"/>
       <c r="EX21" s="9"/>
     </row>
-    <row r="22" spans="1:154" ht="15" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:154" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="CD22" s="23"/>
-      <c r="CE22" s="23"/>
-      <c r="CF22" s="23"/>
-      <c r="CG22" s="23"/>
-      <c r="CH22" s="23"/>
-      <c r="CI22" s="23"/>
-      <c r="CJ22" s="23"/>
-      <c r="CK22" s="23"/>
-      <c r="CL22" s="23"/>
     </row>
-    <row r="23" spans="1:154" ht="15" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:154" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="CD23" s="23"/>
-      <c r="CE23" s="23"/>
-      <c r="CF23" s="23"/>
-      <c r="CG23" s="23"/>
-      <c r="CH23" s="23"/>
-      <c r="CI23" s="23"/>
-      <c r="CJ23" s="23"/>
-      <c r="CK23" s="23"/>
-      <c r="CL23" s="23"/>
     </row>
-    <row r="24" spans="1:154" ht="15" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:154" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="CD24" s="23"/>
-      <c r="CE24" s="23"/>
-      <c r="CF24" s="23"/>
-      <c r="CG24" s="23"/>
-      <c r="CH24" s="23"/>
-      <c r="CI24" s="23"/>
-      <c r="CJ24" s="23"/>
-      <c r="CK24" s="23"/>
-      <c r="CL24" s="23"/>
     </row>
-    <row r="26" spans="1:154" ht="15" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:154" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="CD26" s="23"/>
-      <c r="CE26" s="23"/>
-      <c r="CF26" s="23"/>
-      <c r="CG26" s="23"/>
-      <c r="CH26" s="23"/>
-      <c r="CI26" s="23"/>
-      <c r="CJ26" s="23"/>
-      <c r="CK26" s="23"/>
-      <c r="CL26" s="23"/>
     </row>
-    <row r="27" spans="1:154" ht="15" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:154" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="CD27" s="23"/>
-      <c r="CE27" s="23"/>
-      <c r="CF27" s="23"/>
-      <c r="CG27" s="23"/>
-      <c r="CH27" s="23"/>
-      <c r="CI27" s="23"/>
-      <c r="CJ27" s="23"/>
-      <c r="CK27" s="23"/>
-      <c r="CL27" s="23"/>
     </row>
-    <row r="28" spans="1:154" ht="15" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:154" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="CD28" s="23"/>
-      <c r="CE28" s="23"/>
-      <c r="CF28" s="23"/>
-      <c r="CG28" s="23"/>
-      <c r="CH28" s="23"/>
-      <c r="CI28" s="23"/>
-      <c r="CJ28" s="23"/>
-      <c r="CK28" s="23"/>
-      <c r="CL28" s="23"/>
     </row>
-    <row r="30" spans="1:154" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:154" x14ac:dyDescent="0.25">
       <c r="A30" s="4"/>
-      <c r="B30" s="33">
+      <c r="B30" s="18">
         <v>2000</v>
       </c>
-      <c r="C30" s="34"/>
-      <c r="D30" s="34"/>
-      <c r="E30" s="34"/>
-      <c r="F30" s="33">
+      <c r="C30" s="20"/>
+      <c r="D30" s="20"/>
+      <c r="E30" s="20"/>
+      <c r="F30" s="18">
         <v>2001</v>
       </c>
-      <c r="G30" s="34"/>
-      <c r="H30" s="34"/>
-      <c r="I30" s="34"/>
-      <c r="J30" s="33">
+      <c r="G30" s="20"/>
+      <c r="H30" s="20"/>
+      <c r="I30" s="20"/>
+      <c r="J30" s="18">
         <v>2002</v>
       </c>
-      <c r="K30" s="34"/>
-      <c r="L30" s="34"/>
-      <c r="M30" s="34"/>
-      <c r="N30" s="33">
+      <c r="K30" s="20"/>
+      <c r="L30" s="20"/>
+      <c r="M30" s="20"/>
+      <c r="N30" s="18">
         <v>2003</v>
       </c>
-      <c r="O30" s="34"/>
-      <c r="P30" s="34"/>
-      <c r="Q30" s="34"/>
-      <c r="R30" s="33">
+      <c r="O30" s="20"/>
+      <c r="P30" s="20"/>
+      <c r="Q30" s="20"/>
+      <c r="R30" s="18">
         <v>2004</v>
       </c>
-      <c r="S30" s="34"/>
-      <c r="T30" s="34"/>
-      <c r="U30" s="34"/>
-      <c r="V30" s="33">
+      <c r="S30" s="20"/>
+      <c r="T30" s="20"/>
+      <c r="U30" s="20"/>
+      <c r="V30" s="18">
         <v>2005</v>
       </c>
-      <c r="W30" s="34"/>
-      <c r="X30" s="34"/>
-      <c r="Y30" s="34"/>
-      <c r="Z30" s="33">
+      <c r="W30" s="20"/>
+      <c r="X30" s="20"/>
+      <c r="Y30" s="20"/>
+      <c r="Z30" s="18">
         <v>2006</v>
       </c>
-      <c r="AA30" s="34"/>
-      <c r="AB30" s="34"/>
-      <c r="AC30" s="34"/>
-      <c r="AD30" s="33">
+      <c r="AA30" s="20"/>
+      <c r="AB30" s="20"/>
+      <c r="AC30" s="20"/>
+      <c r="AD30" s="18">
         <v>2007</v>
       </c>
-      <c r="AE30" s="34"/>
-      <c r="AF30" s="34"/>
-      <c r="AG30" s="34"/>
-      <c r="AH30" s="33">
+      <c r="AE30" s="20"/>
+      <c r="AF30" s="20"/>
+      <c r="AG30" s="20"/>
+      <c r="AH30" s="18">
         <v>2008</v>
       </c>
-      <c r="AI30" s="34"/>
-      <c r="AJ30" s="34"/>
-      <c r="AK30" s="34"/>
-      <c r="AL30" s="33">
+      <c r="AI30" s="20"/>
+      <c r="AJ30" s="20"/>
+      <c r="AK30" s="20"/>
+      <c r="AL30" s="18">
         <v>2009</v>
       </c>
-      <c r="AM30" s="34"/>
-      <c r="AN30" s="34"/>
-      <c r="AO30" s="34"/>
-      <c r="AP30" s="33">
+      <c r="AM30" s="20"/>
+      <c r="AN30" s="20"/>
+      <c r="AO30" s="20"/>
+      <c r="AP30" s="18">
         <v>2010</v>
       </c>
-      <c r="AQ30" s="34"/>
-      <c r="AR30" s="34"/>
-      <c r="AS30" s="34"/>
-      <c r="AT30" s="33">
+      <c r="AQ30" s="20"/>
+      <c r="AR30" s="20"/>
+      <c r="AS30" s="20"/>
+      <c r="AT30" s="18">
         <v>2011</v>
       </c>
-      <c r="AU30" s="34"/>
-      <c r="AV30" s="34"/>
-      <c r="AW30" s="34"/>
-      <c r="AX30" s="33">
+      <c r="AU30" s="20"/>
+      <c r="AV30" s="20"/>
+      <c r="AW30" s="20"/>
+      <c r="AX30" s="18">
         <v>2012</v>
       </c>
-      <c r="AY30" s="34"/>
-      <c r="AZ30" s="34"/>
-      <c r="BA30" s="34"/>
-      <c r="BB30" s="33">
+      <c r="AY30" s="20"/>
+      <c r="AZ30" s="20"/>
+      <c r="BA30" s="20"/>
+      <c r="BB30" s="18">
         <v>2013</v>
       </c>
-      <c r="BC30" s="34"/>
-      <c r="BD30" s="34"/>
-      <c r="BE30" s="34"/>
-      <c r="BF30" s="33">
+      <c r="BC30" s="20"/>
+      <c r="BD30" s="20"/>
+      <c r="BE30" s="20"/>
+      <c r="BF30" s="18">
         <v>2014</v>
       </c>
-      <c r="BG30" s="34"/>
-      <c r="BH30" s="34"/>
-      <c r="BI30" s="34"/>
-      <c r="BJ30" s="33">
+      <c r="BG30" s="20"/>
+      <c r="BH30" s="20"/>
+      <c r="BI30" s="20"/>
+      <c r="BJ30" s="18">
         <v>2015</v>
       </c>
-      <c r="BK30" s="34"/>
-      <c r="BL30" s="34"/>
-      <c r="BM30" s="34"/>
-      <c r="BN30" s="33">
+      <c r="BK30" s="20"/>
+      <c r="BL30" s="20"/>
+      <c r="BM30" s="20"/>
+      <c r="BN30" s="18">
         <v>2016</v>
       </c>
-      <c r="BO30" s="34"/>
-      <c r="BP30" s="34"/>
-      <c r="BQ30" s="34"/>
-      <c r="BR30" s="33">
+      <c r="BO30" s="20"/>
+      <c r="BP30" s="20"/>
+      <c r="BQ30" s="20"/>
+      <c r="BR30" s="18">
         <v>2017</v>
       </c>
-      <c r="BS30" s="34"/>
-      <c r="BT30" s="34"/>
-      <c r="BU30" s="34"/>
-      <c r="BV30" s="33">
+      <c r="BS30" s="20"/>
+      <c r="BT30" s="20"/>
+      <c r="BU30" s="20"/>
+      <c r="BV30" s="18">
         <v>2018</v>
       </c>
-      <c r="BW30" s="34"/>
-      <c r="BX30" s="34"/>
-      <c r="BY30" s="34"/>
-      <c r="BZ30" s="35">
+      <c r="BW30" s="20"/>
+      <c r="BX30" s="20"/>
+      <c r="BY30" s="20"/>
+      <c r="BZ30" s="18">
         <v>2019</v>
       </c>
-      <c r="CA30" s="36"/>
-      <c r="CB30" s="36"/>
-      <c r="CC30" s="36"/>
-      <c r="CD30" s="35">
+      <c r="CA30" s="20"/>
+      <c r="CB30" s="20"/>
+      <c r="CC30" s="20"/>
+      <c r="CD30" s="18">
         <v>2020</v>
       </c>
-      <c r="CE30" s="35"/>
-      <c r="CF30" s="35"/>
-      <c r="CG30" s="35"/>
-      <c r="CH30" s="35">
+      <c r="CE30" s="20"/>
+      <c r="CF30" s="20"/>
+      <c r="CG30" s="20"/>
+      <c r="CH30" s="18">
         <v>2021</v>
       </c>
-      <c r="CI30" s="35"/>
-      <c r="CJ30" s="35"/>
-      <c r="CK30" s="35"/>
-      <c r="CL30" s="32">
+      <c r="CI30" s="18"/>
+      <c r="CJ30" s="18"/>
+      <c r="CK30" s="18"/>
+      <c r="CL30" s="18">
         <v>2022</v>
       </c>
+      <c r="CM30" s="18"/>
     </row>
-    <row r="31" spans="1:154" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:154" x14ac:dyDescent="0.25">
       <c r="A31" s="5" t="s">
         <v>4</v>
       </c>
@@ -26863,59 +26713,53 @@
       <c r="BY31" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="BZ31" s="16" t="s">
+      <c r="BZ31" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="CA31" s="16" t="s">
+      <c r="CA31" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="CB31" s="16" t="s">
+      <c r="CB31" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="CC31" s="16" t="s">
+      <c r="CC31" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="CD31" s="26" t="s">
+      <c r="CD31" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="CE31" s="26" t="s">
+      <c r="CE31" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="CF31" s="26" t="s">
+      <c r="CF31" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="CG31" s="26" t="s">
+      <c r="CG31" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="CH31" s="26" t="s">
+      <c r="CH31" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="CI31" s="26" t="s">
+      <c r="CI31" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="CJ31" s="26" t="s">
+      <c r="CJ31" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="CK31" s="26" t="s">
+      <c r="CK31" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="CL31" s="26" t="s">
+      <c r="CL31" s="6" t="s">
         <v>7</v>
       </c>
+      <c r="CM31" s="6" t="s">
+        <v>8</v>
+      </c>
     </row>
-    <row r="32" spans="1:154" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:154" ht="10.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="7"/>
-      <c r="CD32" s="23"/>
-      <c r="CE32" s="23"/>
-      <c r="CF32" s="23"/>
-      <c r="CG32" s="23"/>
-      <c r="CH32" s="23"/>
-      <c r="CI32" s="23"/>
-      <c r="CJ32" s="23"/>
-      <c r="CK32" s="23"/>
-      <c r="CL32" s="23"/>
     </row>
-    <row r="33" spans="1:154" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:154" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
         <v>11</v>
       </c>
@@ -27147,46 +26991,48 @@
       <c r="BY33" s="8">
         <v>168776.17030749004</v>
       </c>
-      <c r="BZ33" s="17">
+      <c r="BZ33" s="8">
         <v>222370.3491365131</v>
       </c>
-      <c r="CA33" s="17">
+      <c r="CA33" s="8">
         <v>192658.28577071644</v>
       </c>
-      <c r="CB33" s="17">
+      <c r="CB33" s="8">
         <v>213103.87577888955</v>
       </c>
-      <c r="CC33" s="17">
+      <c r="CC33" s="8">
         <v>193280.43290893806</v>
       </c>
-      <c r="CD33" s="30">
+      <c r="CD33" s="8">
         <v>257670.27568534506</v>
       </c>
-      <c r="CE33" s="30">
+      <c r="CE33" s="8">
         <v>219739.73454539533</v>
       </c>
-      <c r="CF33" s="30">
+      <c r="CF33" s="8">
         <v>235456.23077308203</v>
       </c>
-      <c r="CG33" s="30">
+      <c r="CG33" s="8">
         <v>210993.3082280129</v>
       </c>
-      <c r="CH33" s="30">
+      <c r="CH33" s="8">
         <v>270716.06409452826</v>
       </c>
-      <c r="CI33" s="30">
+      <c r="CI33" s="8">
         <v>226252.42729272667</v>
       </c>
-      <c r="CJ33" s="30">
+      <c r="CJ33" s="8">
         <v>242005.26971718471</v>
       </c>
-      <c r="CK33" s="30">
+      <c r="CK33" s="8">
         <v>217192.35116078443</v>
       </c>
-      <c r="CL33" s="30">
-        <v>288569.03351765923</v>
-      </c>
-      <c r="CM33" s="9"/>
+      <c r="CL33" s="8">
+        <v>290650.76212964242</v>
+      </c>
+      <c r="CM33" s="8">
+        <v>237042.86335437419</v>
+      </c>
       <c r="CN33" s="9"/>
       <c r="CO33" s="9"/>
       <c r="CP33" s="9"/>
@@ -27251,7 +27097,7 @@
       <c r="EW33" s="9"/>
       <c r="EX33" s="9"/>
     </row>
-    <row r="34" spans="1:154" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:154" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="10" t="s">
         <v>12</v>
       </c>
@@ -27483,46 +27329,48 @@
       <c r="BY34" s="8">
         <v>114397.75147957633</v>
       </c>
-      <c r="BZ34" s="17">
+      <c r="BZ34" s="8">
         <v>106034.69342697253</v>
       </c>
-      <c r="CA34" s="17">
+      <c r="CA34" s="8">
         <v>166823.47523339803</v>
       </c>
-      <c r="CB34" s="17">
+      <c r="CB34" s="8">
         <v>113968.51310957724</v>
       </c>
-      <c r="CC34" s="17">
+      <c r="CC34" s="8">
         <v>129048.95950519826</v>
       </c>
-      <c r="CD34" s="30">
+      <c r="CD34" s="8">
         <v>107752.27997578596</v>
       </c>
-      <c r="CE34" s="30">
+      <c r="CE34" s="8">
         <v>167239.52741184982</v>
       </c>
-      <c r="CF34" s="30">
+      <c r="CF34" s="8">
         <v>115866.95076175574</v>
       </c>
-      <c r="CG34" s="30">
+      <c r="CG34" s="8">
         <v>133292.14764119356</v>
       </c>
-      <c r="CH34" s="30">
+      <c r="CH34" s="8">
         <v>111593.18536011013</v>
       </c>
-      <c r="CI34" s="30">
+      <c r="CI34" s="8">
         <v>176476.91599620474</v>
       </c>
-      <c r="CJ34" s="30">
+      <c r="CJ34" s="8">
         <v>118762.42967583728</v>
       </c>
-      <c r="CK34" s="30">
+      <c r="CK34" s="8">
         <v>143459.30181406549</v>
       </c>
-      <c r="CL34" s="30">
-        <v>122759.93209626859</v>
-      </c>
-      <c r="CM34" s="9"/>
+      <c r="CL34" s="8">
+        <v>123209.25323782492</v>
+      </c>
+      <c r="CM34" s="8">
+        <v>185611.85096619371</v>
+      </c>
       <c r="CN34" s="9"/>
       <c r="CO34" s="9"/>
       <c r="CP34" s="9"/>
@@ -27587,7 +27435,7 @@
       <c r="EW34" s="9"/>
       <c r="EX34" s="9"/>
     </row>
-    <row r="35" spans="1:154" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:154" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
         <v>13</v>
       </c>
@@ -27819,46 +27667,48 @@
       <c r="BY35" s="8">
         <v>63463.071949035773</v>
       </c>
-      <c r="BZ35" s="17">
+      <c r="BZ35" s="8">
         <v>61125.739776872477</v>
       </c>
-      <c r="CA35" s="17">
+      <c r="CA35" s="8">
         <v>59590.646511784027</v>
       </c>
-      <c r="CB35" s="17">
+      <c r="CB35" s="8">
         <v>63828.227351182402</v>
       </c>
-      <c r="CC35" s="17">
+      <c r="CC35" s="8">
         <v>67272.100070769302</v>
       </c>
-      <c r="CD35" s="30">
+      <c r="CD35" s="8">
         <v>57988.694796140626</v>
       </c>
-      <c r="CE35" s="30">
+      <c r="CE35" s="8">
         <v>51919.606830326382</v>
       </c>
-      <c r="CF35" s="30">
+      <c r="CF35" s="8">
         <v>56465.921193163638</v>
       </c>
-      <c r="CG35" s="30">
+      <c r="CG35" s="8">
         <v>63917.821667238139</v>
       </c>
-      <c r="CH35" s="30">
+      <c r="CH35" s="8">
         <v>59873.736669268736</v>
       </c>
-      <c r="CI35" s="30">
+      <c r="CI35" s="8">
         <v>59961.690809343389</v>
       </c>
-      <c r="CJ35" s="30">
+      <c r="CJ35" s="8">
         <v>62373.790141215897</v>
       </c>
-      <c r="CK35" s="30">
+      <c r="CK35" s="8">
         <v>70183.729177577392</v>
       </c>
-      <c r="CL35" s="30">
+      <c r="CL35" s="8">
         <v>62584.435866748536</v>
       </c>
-      <c r="CM35" s="9"/>
+      <c r="CM35" s="8">
+        <v>60054.721270485374</v>
+      </c>
       <c r="CN35" s="9"/>
       <c r="CO35" s="9"/>
       <c r="CP35" s="9"/>
@@ -27923,7 +27773,7 @@
       <c r="EW35" s="9"/>
       <c r="EX35" s="9"/>
     </row>
-    <row r="36" spans="1:154" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:154" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
         <v>14</v>
       </c>
@@ -28155,46 +28005,48 @@
       <c r="BY36" s="8">
         <v>22110.712051555962</v>
       </c>
-      <c r="BZ36" s="17">
+      <c r="BZ36" s="8">
         <v>19519.208024837888</v>
       </c>
-      <c r="CA36" s="17">
+      <c r="CA36" s="8">
         <v>23860.688078779953</v>
       </c>
-      <c r="CB36" s="17">
+      <c r="CB36" s="8">
         <v>20161.503710419995</v>
       </c>
-      <c r="CC36" s="17">
+      <c r="CC36" s="8">
         <v>23801.403110391206</v>
       </c>
-      <c r="CD36" s="30">
+      <c r="CD36" s="8">
         <v>21836.690809098611</v>
       </c>
-      <c r="CE36" s="30">
+      <c r="CE36" s="8">
         <v>25173.959791244299</v>
       </c>
-      <c r="CF36" s="30">
+      <c r="CF36" s="8">
         <v>20416.344926183629</v>
       </c>
-      <c r="CG36" s="30">
+      <c r="CG36" s="8">
         <v>24223.002287354619</v>
       </c>
-      <c r="CH36" s="30">
+      <c r="CH36" s="8">
         <v>22321.404351352739</v>
       </c>
-      <c r="CI36" s="30">
+      <c r="CI36" s="8">
         <v>25613.466778659378</v>
       </c>
-      <c r="CJ36" s="30">
+      <c r="CJ36" s="8">
         <v>21608.562074830843</v>
       </c>
-      <c r="CK36" s="30">
+      <c r="CK36" s="8">
         <v>24760.097225445876</v>
       </c>
-      <c r="CL36" s="30">
-        <v>24202.0517885792</v>
-      </c>
-      <c r="CM36" s="9"/>
+      <c r="CL36" s="8">
+        <v>24051.642019574385</v>
+      </c>
+      <c r="CM36" s="8">
+        <v>26236.354104370163</v>
+      </c>
       <c r="CN36" s="9"/>
       <c r="CO36" s="9"/>
       <c r="CP36" s="9"/>
@@ -28259,7 +28111,7 @@
       <c r="EW36" s="9"/>
       <c r="EX36" s="9"/>
     </row>
-    <row r="37" spans="1:154" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:154" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B37" s="9"/>
       <c r="C37" s="9"/>
       <c r="D37" s="9"/>
@@ -28336,19 +28188,19 @@
       <c r="BW37" s="9"/>
       <c r="BX37" s="9"/>
       <c r="BY37" s="9"/>
-      <c r="BZ37" s="18"/>
-      <c r="CA37" s="18"/>
-      <c r="CB37" s="18"/>
-      <c r="CC37" s="18"/>
-      <c r="CD37" s="28"/>
-      <c r="CE37" s="28"/>
-      <c r="CF37" s="28"/>
-      <c r="CG37" s="28"/>
-      <c r="CH37" s="28"/>
-      <c r="CI37" s="28"/>
-      <c r="CJ37" s="28"/>
-      <c r="CK37" s="28"/>
-      <c r="CL37" s="28"/>
+      <c r="BZ37" s="9"/>
+      <c r="CA37" s="9"/>
+      <c r="CB37" s="9"/>
+      <c r="CC37" s="9"/>
+      <c r="CD37" s="9"/>
+      <c r="CE37" s="9"/>
+      <c r="CF37" s="9"/>
+      <c r="CG37" s="9"/>
+      <c r="CH37" s="9"/>
+      <c r="CI37" s="9"/>
+      <c r="CJ37" s="9"/>
+      <c r="CK37" s="9"/>
+      <c r="CL37" s="9"/>
       <c r="CM37" s="9"/>
       <c r="CN37" s="9"/>
       <c r="CO37" s="9"/>
@@ -28414,7 +28266,7 @@
       <c r="EW37" s="9"/>
       <c r="EX37" s="9"/>
     </row>
-    <row r="38" spans="1:154" ht="30.6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:154" ht="30.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="10" t="s">
         <v>15</v>
       </c>
@@ -28646,46 +28498,48 @@
       <c r="BY38" s="11">
         <v>368747.70578765811</v>
       </c>
-      <c r="BZ38" s="19">
+      <c r="BZ38" s="11">
         <v>409049.99036519602</v>
       </c>
-      <c r="CA38" s="19">
+      <c r="CA38" s="11">
         <v>442933.09559467842</v>
       </c>
-      <c r="CB38" s="19">
+      <c r="CB38" s="11">
         <v>411062.11995006911</v>
       </c>
-      <c r="CC38" s="19">
+      <c r="CC38" s="11">
         <v>413402.89559529687</v>
       </c>
-      <c r="CD38" s="31">
+      <c r="CD38" s="11">
         <v>445247.9412663703</v>
       </c>
-      <c r="CE38" s="31">
+      <c r="CE38" s="11">
         <v>464072.82857881585</v>
       </c>
-      <c r="CF38" s="31">
+      <c r="CF38" s="11">
         <v>428205.44765418506</v>
       </c>
-      <c r="CG38" s="31">
+      <c r="CG38" s="11">
         <v>432426.27982379921</v>
       </c>
-      <c r="CH38" s="31">
+      <c r="CH38" s="11">
         <v>464504.39047525986</v>
       </c>
-      <c r="CI38" s="31">
+      <c r="CI38" s="11">
         <v>488304.50087693415</v>
       </c>
-      <c r="CJ38" s="31">
+      <c r="CJ38" s="11">
         <v>444750.05160906876</v>
       </c>
-      <c r="CK38" s="31">
+      <c r="CK38" s="11">
         <v>455595.47937787324</v>
       </c>
-      <c r="CL38" s="31">
-        <v>498115.45326925558</v>
-      </c>
-      <c r="CM38" s="9"/>
+      <c r="CL38" s="11">
+        <v>500496.09325379028</v>
+      </c>
+      <c r="CM38" s="11">
+        <v>508945.78969542345</v>
+      </c>
       <c r="CN38" s="9"/>
       <c r="CO38" s="9"/>
       <c r="CP38" s="9"/>
@@ -28750,7 +28604,7 @@
       <c r="EW38" s="9"/>
       <c r="EX38" s="9"/>
     </row>
-    <row r="39" spans="1:154" ht="7.15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:154" ht="7.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="12"/>
       <c r="B39" s="12"/>
       <c r="C39" s="12"/>
@@ -28828,35 +28682,27 @@
       <c r="BW39" s="12"/>
       <c r="BX39" s="12"/>
       <c r="BY39" s="12"/>
-      <c r="BZ39" s="20"/>
-      <c r="CA39" s="20"/>
-      <c r="CB39" s="20"/>
-      <c r="CC39" s="20"/>
-      <c r="CD39" s="27"/>
-      <c r="CE39" s="27"/>
-      <c r="CF39" s="27"/>
-      <c r="CG39" s="27"/>
-      <c r="CH39" s="27"/>
-      <c r="CI39" s="27"/>
-      <c r="CJ39" s="27"/>
-      <c r="CK39" s="27"/>
-      <c r="CL39" s="27"/>
+      <c r="BZ39" s="12"/>
+      <c r="CA39" s="12"/>
+      <c r="CB39" s="12"/>
+      <c r="CC39" s="12"/>
+      <c r="CD39" s="12"/>
+      <c r="CE39" s="12"/>
+      <c r="CF39" s="12"/>
+      <c r="CG39" s="12"/>
+      <c r="CH39" s="12"/>
+      <c r="CI39" s="12"/>
+      <c r="CJ39" s="12"/>
+      <c r="CK39" s="12"/>
+      <c r="CL39" s="12"/>
+      <c r="CM39" s="12"/>
     </row>
-    <row r="40" spans="1:154" ht="15" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:154" x14ac:dyDescent="0.25">
       <c r="A40" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="CD40" s="23"/>
-      <c r="CE40" s="23"/>
-      <c r="CF40" s="23"/>
-      <c r="CG40" s="23"/>
-      <c r="CH40" s="23"/>
-      <c r="CI40" s="23"/>
-      <c r="CJ40" s="23"/>
-      <c r="CK40" s="23"/>
-      <c r="CL40" s="23"/>
     </row>
-    <row r="41" spans="1:154" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:154" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B41" s="9"/>
       <c r="C41" s="9"/>
       <c r="D41" s="9"/>
@@ -28933,19 +28779,19 @@
       <c r="BW41" s="9"/>
       <c r="BX41" s="9"/>
       <c r="BY41" s="9"/>
-      <c r="BZ41" s="18"/>
-      <c r="CA41" s="18"/>
-      <c r="CB41" s="18"/>
-      <c r="CC41" s="18"/>
-      <c r="CD41" s="28"/>
-      <c r="CE41" s="28"/>
-      <c r="CF41" s="28"/>
-      <c r="CG41" s="28"/>
-      <c r="CH41" s="28"/>
-      <c r="CI41" s="28"/>
-      <c r="CJ41" s="28"/>
-      <c r="CK41" s="28"/>
-      <c r="CL41" s="28"/>
+      <c r="BZ41" s="9"/>
+      <c r="CA41" s="9"/>
+      <c r="CB41" s="9"/>
+      <c r="CC41" s="9"/>
+      <c r="CD41" s="9"/>
+      <c r="CE41" s="9"/>
+      <c r="CF41" s="9"/>
+      <c r="CG41" s="9"/>
+      <c r="CH41" s="9"/>
+      <c r="CI41" s="9"/>
+      <c r="CJ41" s="9"/>
+      <c r="CK41" s="9"/>
+      <c r="CL41" s="9"/>
       <c r="CM41" s="9"/>
       <c r="CN41" s="9"/>
       <c r="CO41" s="9"/>
@@ -29011,7 +28857,7 @@
       <c r="EW41" s="9"/>
       <c r="EX41" s="9"/>
     </row>
-    <row r="42" spans="1:154" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:154" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B42" s="9"/>
       <c r="C42" s="9"/>
       <c r="D42" s="9"/>
@@ -29088,19 +28934,19 @@
       <c r="BW42" s="9"/>
       <c r="BX42" s="9"/>
       <c r="BY42" s="9"/>
-      <c r="BZ42" s="18"/>
-      <c r="CA42" s="18"/>
-      <c r="CB42" s="18"/>
-      <c r="CC42" s="18"/>
-      <c r="CD42" s="28"/>
-      <c r="CE42" s="28"/>
-      <c r="CF42" s="28"/>
-      <c r="CG42" s="28"/>
-      <c r="CH42" s="28"/>
-      <c r="CI42" s="28"/>
-      <c r="CJ42" s="28"/>
-      <c r="CK42" s="28"/>
-      <c r="CL42" s="28"/>
+      <c r="BZ42" s="9"/>
+      <c r="CA42" s="9"/>
+      <c r="CB42" s="9"/>
+      <c r="CC42" s="9"/>
+      <c r="CD42" s="9"/>
+      <c r="CE42" s="9"/>
+      <c r="CF42" s="9"/>
+      <c r="CG42" s="9"/>
+      <c r="CH42" s="9"/>
+      <c r="CI42" s="9"/>
+      <c r="CJ42" s="9"/>
+      <c r="CK42" s="9"/>
+      <c r="CL42" s="9"/>
       <c r="CM42" s="9"/>
       <c r="CN42" s="9"/>
       <c r="CO42" s="9"/>
@@ -29166,233 +29012,174 @@
       <c r="EW42" s="9"/>
       <c r="EX42" s="9"/>
     </row>
-    <row r="43" spans="1:154" ht="15" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:154" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="CD43" s="23"/>
-      <c r="CE43" s="23"/>
-      <c r="CF43" s="23"/>
-      <c r="CG43" s="23"/>
-      <c r="CH43" s="23"/>
-      <c r="CI43" s="23"/>
-      <c r="CJ43" s="23"/>
-      <c r="CK43" s="23"/>
-      <c r="CL43" s="23"/>
     </row>
-    <row r="44" spans="1:154" ht="15" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:154" x14ac:dyDescent="0.25">
       <c r="A44" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="CD44" s="23"/>
-      <c r="CE44" s="23"/>
-      <c r="CF44" s="23"/>
-      <c r="CG44" s="23"/>
-      <c r="CH44" s="23"/>
-      <c r="CI44" s="23"/>
-      <c r="CJ44" s="23"/>
-      <c r="CK44" s="23"/>
-      <c r="CL44" s="23"/>
     </row>
-    <row r="45" spans="1:154" ht="15" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:154" x14ac:dyDescent="0.25">
       <c r="A45" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="CD45" s="23"/>
-      <c r="CE45" s="23"/>
-      <c r="CF45" s="23"/>
-      <c r="CG45" s="23"/>
-      <c r="CH45" s="23"/>
-      <c r="CI45" s="23"/>
-      <c r="CJ45" s="23"/>
-      <c r="CK45" s="23"/>
-      <c r="CL45" s="23"/>
     </row>
-    <row r="47" spans="1:154" ht="15" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:154" x14ac:dyDescent="0.25">
       <c r="A47" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="CD47" s="23"/>
-      <c r="CE47" s="23"/>
-      <c r="CF47" s="23"/>
-      <c r="CG47" s="23"/>
-      <c r="CH47" s="23"/>
-      <c r="CI47" s="23"/>
-      <c r="CJ47" s="23"/>
-      <c r="CK47" s="23"/>
-      <c r="CL47" s="23"/>
     </row>
-    <row r="48" spans="1:154" ht="15" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:154" x14ac:dyDescent="0.25">
       <c r="A48" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="CD48" s="23"/>
-      <c r="CE48" s="23"/>
-      <c r="CF48" s="23"/>
-      <c r="CG48" s="23"/>
-      <c r="CH48" s="23"/>
-      <c r="CI48" s="23"/>
-      <c r="CJ48" s="23"/>
-      <c r="CK48" s="23"/>
-      <c r="CL48" s="23"/>
     </row>
-    <row r="49" spans="1:150" ht="15" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:150" x14ac:dyDescent="0.25">
       <c r="A49" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="CD49" s="23"/>
-      <c r="CE49" s="23"/>
-      <c r="CF49" s="23"/>
-      <c r="CG49" s="23"/>
-      <c r="CH49" s="23"/>
-      <c r="CI49" s="38"/>
-      <c r="CJ49" s="38"/>
-      <c r="CK49" s="38"/>
-      <c r="CL49" s="38"/>
     </row>
-    <row r="50" spans="1:150" x14ac:dyDescent="0.2">
-      <c r="CI50" s="39"/>
-      <c r="CJ50" s="39"/>
-      <c r="CK50" s="39"/>
-      <c r="CL50" s="40"/>
+    <row r="51" spans="1:150" x14ac:dyDescent="0.25">
+      <c r="A51" s="4"/>
+      <c r="B51" s="18" t="s">
+        <v>31</v>
+      </c>
+      <c r="C51" s="18"/>
+      <c r="D51" s="18"/>
+      <c r="E51" s="18"/>
+      <c r="F51" s="18" t="s">
+        <v>32</v>
+      </c>
+      <c r="G51" s="18"/>
+      <c r="H51" s="18"/>
+      <c r="I51" s="18"/>
+      <c r="J51" s="18" t="s">
+        <v>33</v>
+      </c>
+      <c r="K51" s="18"/>
+      <c r="L51" s="18"/>
+      <c r="M51" s="18"/>
+      <c r="N51" s="18" t="s">
+        <v>34</v>
+      </c>
+      <c r="O51" s="18"/>
+      <c r="P51" s="18"/>
+      <c r="Q51" s="18"/>
+      <c r="R51" s="18" t="s">
+        <v>35</v>
+      </c>
+      <c r="S51" s="18"/>
+      <c r="T51" s="18"/>
+      <c r="U51" s="18"/>
+      <c r="V51" s="18" t="s">
+        <v>36</v>
+      </c>
+      <c r="W51" s="18"/>
+      <c r="X51" s="18"/>
+      <c r="Y51" s="18"/>
+      <c r="Z51" s="18" t="s">
+        <v>37</v>
+      </c>
+      <c r="AA51" s="18"/>
+      <c r="AB51" s="18"/>
+      <c r="AC51" s="18"/>
+      <c r="AD51" s="18" t="s">
+        <v>38</v>
+      </c>
+      <c r="AE51" s="18"/>
+      <c r="AF51" s="18"/>
+      <c r="AG51" s="18"/>
+      <c r="AH51" s="18" t="s">
+        <v>39</v>
+      </c>
+      <c r="AI51" s="18"/>
+      <c r="AJ51" s="18"/>
+      <c r="AK51" s="18"/>
+      <c r="AL51" s="18" t="s">
+        <v>40</v>
+      </c>
+      <c r="AM51" s="18"/>
+      <c r="AN51" s="18"/>
+      <c r="AO51" s="18"/>
+      <c r="AP51" s="18" t="s">
+        <v>41</v>
+      </c>
+      <c r="AQ51" s="18"/>
+      <c r="AR51" s="18"/>
+      <c r="AS51" s="18"/>
+      <c r="AT51" s="18" t="s">
+        <v>42</v>
+      </c>
+      <c r="AU51" s="18"/>
+      <c r="AV51" s="18"/>
+      <c r="AW51" s="18"/>
+      <c r="AX51" s="18" t="s">
+        <v>43</v>
+      </c>
+      <c r="AY51" s="18"/>
+      <c r="AZ51" s="18"/>
+      <c r="BA51" s="18"/>
+      <c r="BB51" s="18" t="s">
+        <v>44</v>
+      </c>
+      <c r="BC51" s="18"/>
+      <c r="BD51" s="18"/>
+      <c r="BE51" s="18"/>
+      <c r="BF51" s="18" t="s">
+        <v>45</v>
+      </c>
+      <c r="BG51" s="18"/>
+      <c r="BH51" s="18"/>
+      <c r="BI51" s="18"/>
+      <c r="BJ51" s="18" t="s">
+        <v>46</v>
+      </c>
+      <c r="BK51" s="18"/>
+      <c r="BL51" s="18"/>
+      <c r="BM51" s="18"/>
+      <c r="BN51" s="18" t="s">
+        <v>47</v>
+      </c>
+      <c r="BO51" s="18"/>
+      <c r="BP51" s="18"/>
+      <c r="BQ51" s="18"/>
+      <c r="BR51" s="18" t="s">
+        <v>27</v>
+      </c>
+      <c r="BS51" s="18"/>
+      <c r="BT51" s="18"/>
+      <c r="BU51" s="18"/>
+      <c r="BV51" s="18" t="s">
+        <v>28</v>
+      </c>
+      <c r="BW51" s="18"/>
+      <c r="BX51" s="18"/>
+      <c r="BY51" s="18"/>
+      <c r="BZ51" s="18" t="s">
+        <v>29</v>
+      </c>
+      <c r="CA51" s="18"/>
+      <c r="CB51" s="18"/>
+      <c r="CC51" s="18"/>
+      <c r="CD51" s="18" t="s">
+        <v>48</v>
+      </c>
+      <c r="CE51" s="18"/>
+      <c r="CF51" s="18"/>
+      <c r="CG51" s="18"/>
+      <c r="CH51" s="18" t="s">
+        <v>49</v>
+      </c>
+      <c r="CI51" s="18"/>
+      <c r="CJ51" s="16"/>
+      <c r="CK51" s="16"/>
+      <c r="CL51" s="15"/>
+      <c r="CM51" s="15"/>
     </row>
-    <row r="51" spans="1:150" x14ac:dyDescent="0.2">
-      <c r="A51" s="4"/>
-      <c r="B51" s="33" t="s">
-        <v>31</v>
-      </c>
-      <c r="C51" s="33"/>
-      <c r="D51" s="33"/>
-      <c r="E51" s="33"/>
-      <c r="F51" s="33" t="s">
-        <v>32</v>
-      </c>
-      <c r="G51" s="33"/>
-      <c r="H51" s="33"/>
-      <c r="I51" s="33"/>
-      <c r="J51" s="33" t="s">
-        <v>33</v>
-      </c>
-      <c r="K51" s="33"/>
-      <c r="L51" s="33"/>
-      <c r="M51" s="33"/>
-      <c r="N51" s="33" t="s">
-        <v>34</v>
-      </c>
-      <c r="O51" s="33"/>
-      <c r="P51" s="33"/>
-      <c r="Q51" s="33"/>
-      <c r="R51" s="33" t="s">
-        <v>35</v>
-      </c>
-      <c r="S51" s="33"/>
-      <c r="T51" s="33"/>
-      <c r="U51" s="33"/>
-      <c r="V51" s="33" t="s">
-        <v>36</v>
-      </c>
-      <c r="W51" s="33"/>
-      <c r="X51" s="33"/>
-      <c r="Y51" s="33"/>
-      <c r="Z51" s="33" t="s">
-        <v>37</v>
-      </c>
-      <c r="AA51" s="33"/>
-      <c r="AB51" s="33"/>
-      <c r="AC51" s="33"/>
-      <c r="AD51" s="33" t="s">
-        <v>38</v>
-      </c>
-      <c r="AE51" s="33"/>
-      <c r="AF51" s="33"/>
-      <c r="AG51" s="33"/>
-      <c r="AH51" s="33" t="s">
-        <v>39</v>
-      </c>
-      <c r="AI51" s="33"/>
-      <c r="AJ51" s="33"/>
-      <c r="AK51" s="33"/>
-      <c r="AL51" s="33" t="s">
-        <v>40</v>
-      </c>
-      <c r="AM51" s="33"/>
-      <c r="AN51" s="33"/>
-      <c r="AO51" s="33"/>
-      <c r="AP51" s="33" t="s">
-        <v>41</v>
-      </c>
-      <c r="AQ51" s="33"/>
-      <c r="AR51" s="33"/>
-      <c r="AS51" s="33"/>
-      <c r="AT51" s="33" t="s">
-        <v>42</v>
-      </c>
-      <c r="AU51" s="33"/>
-      <c r="AV51" s="33"/>
-      <c r="AW51" s="33"/>
-      <c r="AX51" s="33" t="s">
-        <v>43</v>
-      </c>
-      <c r="AY51" s="33"/>
-      <c r="AZ51" s="33"/>
-      <c r="BA51" s="33"/>
-      <c r="BB51" s="33" t="s">
-        <v>44</v>
-      </c>
-      <c r="BC51" s="33"/>
-      <c r="BD51" s="33"/>
-      <c r="BE51" s="33"/>
-      <c r="BF51" s="33" t="s">
-        <v>45</v>
-      </c>
-      <c r="BG51" s="33"/>
-      <c r="BH51" s="33"/>
-      <c r="BI51" s="33"/>
-      <c r="BJ51" s="33" t="s">
-        <v>46</v>
-      </c>
-      <c r="BK51" s="33"/>
-      <c r="BL51" s="33"/>
-      <c r="BM51" s="33"/>
-      <c r="BN51" s="33" t="s">
-        <v>47</v>
-      </c>
-      <c r="BO51" s="33"/>
-      <c r="BP51" s="33"/>
-      <c r="BQ51" s="33"/>
-      <c r="BR51" s="33" t="s">
-        <v>27</v>
-      </c>
-      <c r="BS51" s="33"/>
-      <c r="BT51" s="33"/>
-      <c r="BU51" s="33"/>
-      <c r="BV51" s="33" t="s">
-        <v>28</v>
-      </c>
-      <c r="BW51" s="33"/>
-      <c r="BX51" s="33"/>
-      <c r="BY51" s="33"/>
-      <c r="BZ51" s="35" t="s">
-        <v>29</v>
-      </c>
-      <c r="CA51" s="35"/>
-      <c r="CB51" s="35"/>
-      <c r="CC51" s="35"/>
-      <c r="CD51" s="35" t="s">
-        <v>48</v>
-      </c>
-      <c r="CE51" s="35"/>
-      <c r="CF51" s="35"/>
-      <c r="CG51" s="35"/>
-      <c r="CH51" s="32" t="s">
-        <v>49</v>
-      </c>
-      <c r="CI51" s="41"/>
-      <c r="CJ51" s="41"/>
-      <c r="CK51" s="41"/>
-      <c r="CL51" s="42"/>
-    </row>
-    <row r="52" spans="1:150" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:150" x14ac:dyDescent="0.25">
       <c r="A52" s="5" t="s">
         <v>4</v>
       </c>
@@ -29624,51 +29411,45 @@
       <c r="BY52" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="BZ52" s="22" t="s">
+      <c r="BZ52" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="CA52" s="22" t="s">
+      <c r="CA52" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="CB52" s="22" t="s">
+      <c r="CB52" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="CC52" s="22" t="s">
+      <c r="CC52" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="CD52" s="25" t="s">
+      <c r="CD52" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="CE52" s="25" t="s">
+      <c r="CE52" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="CF52" s="25" t="s">
+      <c r="CF52" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="CG52" s="25" t="s">
+      <c r="CG52" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="CH52" s="25" t="s">
+      <c r="CH52" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="CI52" s="41"/>
-      <c r="CJ52" s="41"/>
-      <c r="CK52" s="41"/>
-      <c r="CL52" s="41"/>
+      <c r="CI52" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="CJ52" s="5"/>
+      <c r="CK52" s="5"/>
+      <c r="CL52" s="5"/>
+      <c r="CM52" s="17"/>
     </row>
-    <row r="53" spans="1:150" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:150" ht="10.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="7"/>
-      <c r="CD53" s="23"/>
-      <c r="CE53" s="23"/>
-      <c r="CF53" s="23"/>
-      <c r="CG53" s="23"/>
-      <c r="CH53" s="23"/>
-      <c r="CI53" s="38"/>
-      <c r="CJ53" s="38"/>
-      <c r="CK53" s="38"/>
-      <c r="CL53" s="38"/>
     </row>
-    <row r="54" spans="1:150" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:150" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="1" t="s">
         <v>11</v>
       </c>
@@ -29900,37 +29681,39 @@
       <c r="BY54" s="14">
         <v>15.185412186471652</v>
       </c>
-      <c r="BZ54" s="21">
+      <c r="BZ54" s="14">
         <v>19.397466667674237</v>
       </c>
-      <c r="CA54" s="21">
+      <c r="CA54" s="14">
         <v>16.964117461433133</v>
       </c>
-      <c r="CB54" s="21">
+      <c r="CB54" s="14">
         <v>13.593684017317045</v>
       </c>
-      <c r="CC54" s="21">
+      <c r="CC54" s="14">
         <v>11.539614448367061</v>
       </c>
-      <c r="CD54" s="29">
+      <c r="CD54" s="14">
         <v>8.9719890889975176</v>
       </c>
-      <c r="CE54" s="29">
+      <c r="CE54" s="14">
         <v>5.7217677843644452</v>
       </c>
-      <c r="CF54" s="29">
+      <c r="CF54" s="14">
         <v>4.6100326383756993</v>
       </c>
-      <c r="CG54" s="29">
+      <c r="CG54" s="14">
         <v>5.1651389766654461</v>
       </c>
-      <c r="CH54" s="29">
-        <v>10.351807244441829</v>
-      </c>
-      <c r="CI54" s="43"/>
-      <c r="CJ54" s="43"/>
-      <c r="CK54" s="43"/>
-      <c r="CL54" s="43"/>
+      <c r="CH54" s="14">
+        <v>11.147881971256695</v>
+      </c>
+      <c r="CI54" s="14">
+        <v>10.643447474558698</v>
+      </c>
+      <c r="CJ54" s="14"/>
+      <c r="CK54" s="14"/>
+      <c r="CL54" s="14"/>
       <c r="CM54" s="9"/>
       <c r="CN54" s="9"/>
       <c r="CO54" s="9"/>
@@ -29992,7 +29775,7 @@
       <c r="ES54" s="9"/>
       <c r="ET54" s="9"/>
     </row>
-    <row r="55" spans="1:150" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:150" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" s="10" t="s">
         <v>12</v>
       </c>
@@ -30224,37 +30007,39 @@
       <c r="BY55" s="14">
         <v>11.896588100491741</v>
       </c>
-      <c r="BZ55" s="21">
+      <c r="BZ55" s="14">
         <v>4.6950573464553003</v>
       </c>
-      <c r="CA55" s="21">
+      <c r="CA55" s="14">
         <v>2.7901907885327262</v>
       </c>
-      <c r="CB55" s="21">
+      <c r="CB55" s="14">
         <v>4.5860616728220549</v>
       </c>
-      <c r="CC55" s="21">
+      <c r="CC55" s="14">
         <v>5.7882396609973767</v>
       </c>
-      <c r="CD55" s="29">
+      <c r="CD55" s="14">
         <v>7.6761047665870166</v>
       </c>
-      <c r="CE55" s="29">
+      <c r="CE55" s="14">
         <v>8.8001940424565817</v>
       </c>
-      <c r="CF55" s="29">
+      <c r="CF55" s="14">
         <v>5.0370288760107371</v>
       </c>
-      <c r="CG55" s="29">
+      <c r="CG55" s="14">
         <v>10.530226164858107</v>
       </c>
-      <c r="CH55" s="29">
-        <v>13.87569920799578</v>
-      </c>
-      <c r="CI55" s="43"/>
-      <c r="CJ55" s="43"/>
-      <c r="CK55" s="43"/>
-      <c r="CL55" s="43"/>
+      <c r="CH55" s="14">
+        <v>14.292502624957095</v>
+      </c>
+      <c r="CI55" s="14">
+        <v>11.146954751636585</v>
+      </c>
+      <c r="CJ55" s="14"/>
+      <c r="CK55" s="14"/>
+      <c r="CL55" s="14"/>
       <c r="CM55" s="9"/>
       <c r="CN55" s="9"/>
       <c r="CO55" s="9"/>
@@ -30316,7 +30101,7 @@
       <c r="ES55" s="9"/>
       <c r="ET55" s="9"/>
     </row>
-    <row r="56" spans="1:150" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:150" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" s="1" t="s">
         <v>13</v>
       </c>
@@ -30548,37 +30333,39 @@
       <c r="BY56" s="14">
         <v>3.1595448072762764</v>
       </c>
-      <c r="BZ56" s="21">
+      <c r="BZ56" s="14">
         <v>-2.1543404388884539</v>
       </c>
-      <c r="CA56" s="21">
+      <c r="CA56" s="14">
         <v>-10.613760027120904</v>
       </c>
-      <c r="CB56" s="21">
+      <c r="CB56" s="14">
         <v>-8.9370893903902555</v>
       </c>
-      <c r="CC56" s="21">
+      <c r="CC56" s="14">
         <v>-3.0523398348977935</v>
       </c>
-      <c r="CD56" s="29">
+      <c r="CD56" s="14">
         <v>7.0579821087953292</v>
       </c>
-      <c r="CE56" s="29">
+      <c r="CE56" s="14">
         <v>18.375324707625992</v>
       </c>
-      <c r="CF56" s="29">
+      <c r="CF56" s="14">
         <v>12.110666473001942</v>
       </c>
-      <c r="CG56" s="29">
+      <c r="CG56" s="14">
         <v>12.009111262018536</v>
       </c>
-      <c r="CH56" s="29">
+      <c r="CH56" s="14">
         <v>8.3176207451070212</v>
       </c>
-      <c r="CI56" s="43"/>
-      <c r="CJ56" s="43"/>
-      <c r="CK56" s="43"/>
-      <c r="CL56" s="43"/>
+      <c r="CI56" s="14">
+        <v>5.3778862438737889</v>
+      </c>
+      <c r="CJ56" s="14"/>
+      <c r="CK56" s="14"/>
+      <c r="CL56" s="14"/>
       <c r="CM56" s="9"/>
       <c r="CN56" s="9"/>
       <c r="CO56" s="9"/>
@@ -30640,7 +30427,7 @@
       <c r="ES56" s="9"/>
       <c r="ET56" s="9"/>
     </row>
-    <row r="57" spans="1:150" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:150" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" s="1" t="s">
         <v>14</v>
       </c>
@@ -30872,37 +30659,39 @@
       <c r="BY57" s="14">
         <v>8.3535715726789022</v>
       </c>
-      <c r="BZ57" s="21">
+      <c r="BZ57" s="14">
         <v>16.000993285954948</v>
       </c>
-      <c r="CA57" s="21">
+      <c r="CA57" s="14">
         <v>8.6680629673311387</v>
       </c>
-      <c r="CB57" s="21">
+      <c r="CB57" s="14">
         <v>5.0018696644223297</v>
       </c>
-      <c r="CC57" s="21">
+      <c r="CC57" s="14">
         <v>4.1590752982016994</v>
       </c>
-      <c r="CD57" s="29">
+      <c r="CD57" s="14">
         <v>6.8752525727557696</v>
       </c>
-      <c r="CE57" s="29">
+      <c r="CE57" s="14">
         <v>4.9727687460744647</v>
       </c>
-      <c r="CF57" s="29">
+      <c r="CF57" s="14">
         <v>8.5064657823475471</v>
       </c>
-      <c r="CG57" s="29">
+      <c r="CG57" s="14">
         <v>5.3005934654758846</v>
       </c>
-      <c r="CH57" s="29">
-        <v>12.853272383772691</v>
-      </c>
-      <c r="CI57" s="43"/>
-      <c r="CJ57" s="43"/>
-      <c r="CK57" s="43"/>
-      <c r="CL57" s="43"/>
+      <c r="CH57" s="14">
+        <v>12.104234085890582</v>
+      </c>
+      <c r="CI57" s="14">
+        <v>8.9209681152886162</v>
+      </c>
+      <c r="CJ57" s="14"/>
+      <c r="CK57" s="14"/>
+      <c r="CL57" s="14"/>
       <c r="CM57" s="9"/>
       <c r="CN57" s="9"/>
       <c r="CO57" s="9"/>
@@ -30964,7 +30753,7 @@
       <c r="ES57" s="9"/>
       <c r="ET57" s="9"/>
     </row>
-    <row r="58" spans="1:150" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:150" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B58" s="9"/>
       <c r="C58" s="9"/>
       <c r="D58" s="9"/>
@@ -31041,19 +30830,19 @@
       <c r="BW58" s="9"/>
       <c r="BX58" s="9"/>
       <c r="BY58" s="9"/>
-      <c r="BZ58" s="18"/>
-      <c r="CA58" s="18"/>
-      <c r="CB58" s="18"/>
-      <c r="CC58" s="18"/>
-      <c r="CD58" s="28"/>
-      <c r="CE58" s="28"/>
-      <c r="CF58" s="28"/>
-      <c r="CG58" s="28"/>
-      <c r="CH58" s="28"/>
-      <c r="CI58" s="43"/>
-      <c r="CJ58" s="43"/>
-      <c r="CK58" s="43"/>
-      <c r="CL58" s="43"/>
+      <c r="BZ58" s="9"/>
+      <c r="CA58" s="9"/>
+      <c r="CB58" s="9"/>
+      <c r="CC58" s="9"/>
+      <c r="CD58" s="9"/>
+      <c r="CE58" s="9"/>
+      <c r="CF58" s="9"/>
+      <c r="CG58" s="9"/>
+      <c r="CH58" s="9"/>
+      <c r="CI58" s="9"/>
+      <c r="CJ58" s="9"/>
+      <c r="CK58" s="9"/>
+      <c r="CL58" s="9"/>
       <c r="CM58" s="9"/>
       <c r="CN58" s="9"/>
       <c r="CO58" s="9"/>
@@ -31115,7 +30904,7 @@
       <c r="ES58" s="9"/>
       <c r="ET58" s="9"/>
     </row>
-    <row r="59" spans="1:150" ht="30.6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:150" ht="30.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="10" t="s">
         <v>15</v>
       </c>
@@ -31347,37 +31136,39 @@
       <c r="BY59" s="14">
         <v>11.665724683393194</v>
       </c>
-      <c r="BZ59" s="21">
+      <c r="BZ59" s="14">
         <v>12.128466418042862</v>
       </c>
-      <c r="CA59" s="21">
+      <c r="CA59" s="14">
         <v>7.582911726881008</v>
       </c>
-      <c r="CB59" s="21">
+      <c r="CB59" s="14">
         <v>7.2483866516962934</v>
       </c>
-      <c r="CC59" s="21">
+      <c r="CC59" s="14">
         <v>6.9786374829231761</v>
       </c>
-      <c r="CD59" s="29">
+      <c r="CD59" s="14">
         <v>8.2995957254769621</v>
       </c>
-      <c r="CE59" s="29">
+      <c r="CE59" s="14">
         <v>8.1649548090495472</v>
       </c>
-      <c r="CF59" s="29">
+      <c r="CF59" s="14">
         <v>5.8858375328118058</v>
       </c>
-      <c r="CG59" s="29">
+      <c r="CG59" s="14">
         <v>7.821324053737257</v>
       </c>
-      <c r="CH59" s="29">
-        <v>11.056262274827787</v>
-      </c>
-      <c r="CI59" s="43"/>
-      <c r="CJ59" s="43"/>
-      <c r="CK59" s="43"/>
-      <c r="CL59" s="43"/>
+      <c r="CH59" s="14">
+        <v>11.581043260335264</v>
+      </c>
+      <c r="CI59" s="14">
+        <v>10.103761563388034</v>
+      </c>
+      <c r="CJ59" s="14"/>
+      <c r="CK59" s="14"/>
+      <c r="CL59" s="14"/>
       <c r="CM59" s="9"/>
       <c r="CN59" s="9"/>
       <c r="CO59" s="9"/>
@@ -31439,7 +31230,7 @@
       <c r="ES59" s="9"/>
       <c r="ET59" s="9"/>
     </row>
-    <row r="60" spans="1:150" ht="7.15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:150" ht="7.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A60" s="12"/>
       <c r="B60" s="12"/>
       <c r="C60" s="12"/>
@@ -31517,35 +31308,27 @@
       <c r="BW60" s="12"/>
       <c r="BX60" s="12"/>
       <c r="BY60" s="12"/>
-      <c r="BZ60" s="20"/>
-      <c r="CA60" s="20"/>
-      <c r="CB60" s="20"/>
-      <c r="CC60" s="20"/>
-      <c r="CD60" s="27"/>
-      <c r="CE60" s="27"/>
-      <c r="CF60" s="27"/>
-      <c r="CG60" s="27"/>
-      <c r="CH60" s="27"/>
-      <c r="CI60" s="44"/>
-      <c r="CJ60" s="44"/>
-      <c r="CK60" s="44"/>
-      <c r="CL60" s="44"/>
+      <c r="BZ60" s="12"/>
+      <c r="CA60" s="12"/>
+      <c r="CB60" s="12"/>
+      <c r="CC60" s="12"/>
+      <c r="CD60" s="12"/>
+      <c r="CE60" s="12"/>
+      <c r="CF60" s="12"/>
+      <c r="CG60" s="12"/>
+      <c r="CH60" s="12"/>
+      <c r="CI60" s="12"/>
+      <c r="CJ60" s="12"/>
+      <c r="CK60" s="12"/>
+      <c r="CL60" s="12"/>
+      <c r="CM60" s="12"/>
     </row>
-    <row r="61" spans="1:150" ht="15" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:150" x14ac:dyDescent="0.25">
       <c r="A61" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="CD61" s="23"/>
-      <c r="CE61" s="23"/>
-      <c r="CF61" s="23"/>
-      <c r="CG61" s="23"/>
-      <c r="CH61" s="23"/>
-      <c r="CI61" s="38"/>
-      <c r="CJ61" s="38"/>
-      <c r="CK61" s="38"/>
-      <c r="CL61" s="38"/>
     </row>
-    <row r="62" spans="1:150" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:150" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B62" s="9"/>
       <c r="C62" s="9"/>
       <c r="D62" s="9"/>
@@ -31622,19 +31405,19 @@
       <c r="BW62" s="9"/>
       <c r="BX62" s="9"/>
       <c r="BY62" s="9"/>
-      <c r="BZ62" s="18"/>
-      <c r="CA62" s="18"/>
-      <c r="CB62" s="18"/>
-      <c r="CC62" s="18"/>
-      <c r="CD62" s="28"/>
-      <c r="CE62" s="28"/>
-      <c r="CF62" s="28"/>
-      <c r="CG62" s="28"/>
-      <c r="CH62" s="28"/>
-      <c r="CI62" s="28"/>
-      <c r="CJ62" s="28"/>
-      <c r="CK62" s="28"/>
-      <c r="CL62" s="28"/>
+      <c r="BZ62" s="9"/>
+      <c r="CA62" s="9"/>
+      <c r="CB62" s="9"/>
+      <c r="CC62" s="9"/>
+      <c r="CD62" s="9"/>
+      <c r="CE62" s="9"/>
+      <c r="CF62" s="9"/>
+      <c r="CG62" s="9"/>
+      <c r="CH62" s="9"/>
+      <c r="CI62" s="9"/>
+      <c r="CJ62" s="9"/>
+      <c r="CK62" s="9"/>
+      <c r="CL62" s="9"/>
       <c r="CM62" s="9"/>
       <c r="CN62" s="9"/>
       <c r="CO62" s="9"/>
@@ -31696,7 +31479,7 @@
       <c r="ES62" s="9"/>
       <c r="ET62" s="9"/>
     </row>
-    <row r="63" spans="1:150" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:150" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B63" s="9"/>
       <c r="C63" s="9"/>
       <c r="D63" s="9"/>
@@ -31773,19 +31556,19 @@
       <c r="BW63" s="9"/>
       <c r="BX63" s="9"/>
       <c r="BY63" s="9"/>
-      <c r="BZ63" s="18"/>
-      <c r="CA63" s="18"/>
-      <c r="CB63" s="18"/>
-      <c r="CC63" s="18"/>
-      <c r="CD63" s="28"/>
-      <c r="CE63" s="28"/>
-      <c r="CF63" s="28"/>
-      <c r="CG63" s="28"/>
-      <c r="CH63" s="28"/>
-      <c r="CI63" s="28"/>
-      <c r="CJ63" s="28"/>
-      <c r="CK63" s="28"/>
-      <c r="CL63" s="28"/>
+      <c r="BZ63" s="9"/>
+      <c r="CA63" s="9"/>
+      <c r="CB63" s="9"/>
+      <c r="CC63" s="9"/>
+      <c r="CD63" s="9"/>
+      <c r="CE63" s="9"/>
+      <c r="CF63" s="9"/>
+      <c r="CG63" s="9"/>
+      <c r="CH63" s="9"/>
+      <c r="CI63" s="9"/>
+      <c r="CJ63" s="9"/>
+      <c r="CK63" s="9"/>
+      <c r="CL63" s="9"/>
       <c r="CM63" s="9"/>
       <c r="CN63" s="9"/>
       <c r="CO63" s="9"/>
@@ -31847,236 +31630,174 @@
       <c r="ES63" s="9"/>
       <c r="ET63" s="9"/>
     </row>
-    <row r="64" spans="1:150" ht="15" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:150" x14ac:dyDescent="0.25">
       <c r="A64" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="CD64" s="23"/>
-      <c r="CE64" s="23"/>
-      <c r="CF64" s="23"/>
-      <c r="CG64" s="23"/>
-      <c r="CH64" s="23"/>
-      <c r="CI64" s="23"/>
-      <c r="CJ64" s="23"/>
-      <c r="CK64" s="23"/>
-      <c r="CL64" s="23"/>
     </row>
-    <row r="65" spans="1:150" ht="15" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:150" x14ac:dyDescent="0.25">
       <c r="A65" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="CD65" s="23"/>
-      <c r="CE65" s="23"/>
-      <c r="CF65" s="23"/>
-      <c r="CG65" s="23"/>
-      <c r="CH65" s="23"/>
-      <c r="CI65" s="23"/>
-      <c r="CJ65" s="23"/>
-      <c r="CK65" s="23"/>
-      <c r="CL65" s="23"/>
     </row>
-    <row r="66" spans="1:150" ht="15" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:150" x14ac:dyDescent="0.25">
       <c r="A66" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="CD66" s="23"/>
-      <c r="CE66" s="23"/>
-      <c r="CF66" s="23"/>
-      <c r="CG66" s="23"/>
-      <c r="CH66" s="23"/>
-      <c r="CI66" s="23"/>
-      <c r="CJ66" s="23"/>
-      <c r="CK66" s="23"/>
-      <c r="CL66" s="23"/>
     </row>
-    <row r="68" spans="1:150" ht="15" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:150" x14ac:dyDescent="0.25">
       <c r="A68" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="CD68" s="23"/>
-      <c r="CE68" s="23"/>
-      <c r="CF68" s="23"/>
-      <c r="CG68" s="23"/>
-      <c r="CH68" s="23"/>
-      <c r="CI68" s="23"/>
-      <c r="CJ68" s="23"/>
-      <c r="CK68" s="23"/>
-      <c r="CL68" s="23"/>
     </row>
-    <row r="69" spans="1:150" ht="15" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:150" x14ac:dyDescent="0.25">
       <c r="A69" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="CD69" s="23"/>
-      <c r="CE69" s="23"/>
-      <c r="CF69" s="23"/>
-      <c r="CG69" s="23"/>
-      <c r="CH69" s="23"/>
-      <c r="CI69" s="23"/>
-      <c r="CJ69" s="23"/>
-      <c r="CK69" s="23"/>
-      <c r="CL69" s="23"/>
     </row>
-    <row r="70" spans="1:150" ht="15" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:150" x14ac:dyDescent="0.25">
       <c r="A70" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="CD70" s="23"/>
-      <c r="CE70" s="23"/>
-      <c r="CF70" s="23"/>
-      <c r="CG70" s="23"/>
-      <c r="CH70" s="23"/>
-      <c r="CI70" s="38"/>
-      <c r="CJ70" s="38"/>
-      <c r="CK70" s="38"/>
-      <c r="CL70" s="38"/>
-      <c r="CM70" s="40"/>
     </row>
-    <row r="71" spans="1:150" x14ac:dyDescent="0.2">
-      <c r="CI71" s="39"/>
-      <c r="CJ71" s="39"/>
-      <c r="CK71" s="39"/>
-      <c r="CL71" s="40"/>
-      <c r="CM71" s="40"/>
+    <row r="72" spans="1:150" x14ac:dyDescent="0.25">
+      <c r="A72" s="4"/>
+      <c r="B72" s="18" t="s">
+        <v>31</v>
+      </c>
+      <c r="C72" s="19"/>
+      <c r="D72" s="19"/>
+      <c r="E72" s="19"/>
+      <c r="F72" s="18" t="s">
+        <v>32</v>
+      </c>
+      <c r="G72" s="19"/>
+      <c r="H72" s="19"/>
+      <c r="I72" s="19"/>
+      <c r="J72" s="18" t="s">
+        <v>33</v>
+      </c>
+      <c r="K72" s="19"/>
+      <c r="L72" s="19"/>
+      <c r="M72" s="19"/>
+      <c r="N72" s="18" t="s">
+        <v>34</v>
+      </c>
+      <c r="O72" s="19"/>
+      <c r="P72" s="19"/>
+      <c r="Q72" s="19"/>
+      <c r="R72" s="18" t="s">
+        <v>35</v>
+      </c>
+      <c r="S72" s="19"/>
+      <c r="T72" s="19"/>
+      <c r="U72" s="19"/>
+      <c r="V72" s="18" t="s">
+        <v>36</v>
+      </c>
+      <c r="W72" s="19"/>
+      <c r="X72" s="19"/>
+      <c r="Y72" s="19"/>
+      <c r="Z72" s="18" t="s">
+        <v>37</v>
+      </c>
+      <c r="AA72" s="19"/>
+      <c r="AB72" s="19"/>
+      <c r="AC72" s="19"/>
+      <c r="AD72" s="18" t="s">
+        <v>38</v>
+      </c>
+      <c r="AE72" s="19"/>
+      <c r="AF72" s="19"/>
+      <c r="AG72" s="19"/>
+      <c r="AH72" s="18" t="s">
+        <v>39</v>
+      </c>
+      <c r="AI72" s="19"/>
+      <c r="AJ72" s="19"/>
+      <c r="AK72" s="19"/>
+      <c r="AL72" s="18" t="s">
+        <v>40</v>
+      </c>
+      <c r="AM72" s="19"/>
+      <c r="AN72" s="19"/>
+      <c r="AO72" s="19"/>
+      <c r="AP72" s="18" t="s">
+        <v>41</v>
+      </c>
+      <c r="AQ72" s="19"/>
+      <c r="AR72" s="19"/>
+      <c r="AS72" s="19"/>
+      <c r="AT72" s="18" t="s">
+        <v>42</v>
+      </c>
+      <c r="AU72" s="19"/>
+      <c r="AV72" s="19"/>
+      <c r="AW72" s="19"/>
+      <c r="AX72" s="18" t="s">
+        <v>43</v>
+      </c>
+      <c r="AY72" s="19"/>
+      <c r="AZ72" s="19"/>
+      <c r="BA72" s="19"/>
+      <c r="BB72" s="18" t="s">
+        <v>44</v>
+      </c>
+      <c r="BC72" s="19"/>
+      <c r="BD72" s="19"/>
+      <c r="BE72" s="19"/>
+      <c r="BF72" s="18" t="s">
+        <v>45</v>
+      </c>
+      <c r="BG72" s="19"/>
+      <c r="BH72" s="19"/>
+      <c r="BI72" s="19"/>
+      <c r="BJ72" s="18" t="s">
+        <v>46</v>
+      </c>
+      <c r="BK72" s="19"/>
+      <c r="BL72" s="19"/>
+      <c r="BM72" s="19"/>
+      <c r="BN72" s="18" t="s">
+        <v>47</v>
+      </c>
+      <c r="BO72" s="19"/>
+      <c r="BP72" s="19"/>
+      <c r="BQ72" s="19"/>
+      <c r="BR72" s="18" t="s">
+        <v>27</v>
+      </c>
+      <c r="BS72" s="19"/>
+      <c r="BT72" s="19"/>
+      <c r="BU72" s="19"/>
+      <c r="BV72" s="18" t="s">
+        <v>28</v>
+      </c>
+      <c r="BW72" s="19"/>
+      <c r="BX72" s="19"/>
+      <c r="BY72" s="19"/>
+      <c r="BZ72" s="18" t="s">
+        <v>29</v>
+      </c>
+      <c r="CA72" s="19"/>
+      <c r="CB72" s="19"/>
+      <c r="CC72" s="19"/>
+      <c r="CD72" s="18" t="s">
+        <v>48</v>
+      </c>
+      <c r="CE72" s="19"/>
+      <c r="CF72" s="19"/>
+      <c r="CG72" s="19"/>
+      <c r="CH72" s="18" t="s">
+        <v>49</v>
+      </c>
+      <c r="CI72" s="18"/>
+      <c r="CJ72" s="16"/>
+      <c r="CK72" s="16"/>
+      <c r="CL72" s="15"/>
+      <c r="CM72" s="15"/>
     </row>
-    <row r="72" spans="1:150" x14ac:dyDescent="0.2">
-      <c r="A72" s="4"/>
-      <c r="B72" s="33" t="s">
-        <v>31</v>
-      </c>
-      <c r="C72" s="37"/>
-      <c r="D72" s="37"/>
-      <c r="E72" s="37"/>
-      <c r="F72" s="33" t="s">
-        <v>32</v>
-      </c>
-      <c r="G72" s="37"/>
-      <c r="H72" s="37"/>
-      <c r="I72" s="37"/>
-      <c r="J72" s="33" t="s">
-        <v>33</v>
-      </c>
-      <c r="K72" s="37"/>
-      <c r="L72" s="37"/>
-      <c r="M72" s="37"/>
-      <c r="N72" s="33" t="s">
-        <v>34</v>
-      </c>
-      <c r="O72" s="37"/>
-      <c r="P72" s="37"/>
-      <c r="Q72" s="37"/>
-      <c r="R72" s="33" t="s">
-        <v>35</v>
-      </c>
-      <c r="S72" s="37"/>
-      <c r="T72" s="37"/>
-      <c r="U72" s="37"/>
-      <c r="V72" s="33" t="s">
-        <v>36</v>
-      </c>
-      <c r="W72" s="37"/>
-      <c r="X72" s="37"/>
-      <c r="Y72" s="37"/>
-      <c r="Z72" s="33" t="s">
-        <v>37</v>
-      </c>
-      <c r="AA72" s="37"/>
-      <c r="AB72" s="37"/>
-      <c r="AC72" s="37"/>
-      <c r="AD72" s="33" t="s">
-        <v>38</v>
-      </c>
-      <c r="AE72" s="37"/>
-      <c r="AF72" s="37"/>
-      <c r="AG72" s="37"/>
-      <c r="AH72" s="33" t="s">
-        <v>39</v>
-      </c>
-      <c r="AI72" s="37"/>
-      <c r="AJ72" s="37"/>
-      <c r="AK72" s="37"/>
-      <c r="AL72" s="33" t="s">
-        <v>40</v>
-      </c>
-      <c r="AM72" s="37"/>
-      <c r="AN72" s="37"/>
-      <c r="AO72" s="37"/>
-      <c r="AP72" s="33" t="s">
-        <v>41</v>
-      </c>
-      <c r="AQ72" s="37"/>
-      <c r="AR72" s="37"/>
-      <c r="AS72" s="37"/>
-      <c r="AT72" s="33" t="s">
-        <v>42</v>
-      </c>
-      <c r="AU72" s="37"/>
-      <c r="AV72" s="37"/>
-      <c r="AW72" s="37"/>
-      <c r="AX72" s="33" t="s">
-        <v>43</v>
-      </c>
-      <c r="AY72" s="37"/>
-      <c r="AZ72" s="37"/>
-      <c r="BA72" s="37"/>
-      <c r="BB72" s="33" t="s">
-        <v>44</v>
-      </c>
-      <c r="BC72" s="37"/>
-      <c r="BD72" s="37"/>
-      <c r="BE72" s="37"/>
-      <c r="BF72" s="33" t="s">
-        <v>45</v>
-      </c>
-      <c r="BG72" s="37"/>
-      <c r="BH72" s="37"/>
-      <c r="BI72" s="37"/>
-      <c r="BJ72" s="33" t="s">
-        <v>46</v>
-      </c>
-      <c r="BK72" s="37"/>
-      <c r="BL72" s="37"/>
-      <c r="BM72" s="37"/>
-      <c r="BN72" s="33" t="s">
-        <v>47</v>
-      </c>
-      <c r="BO72" s="37"/>
-      <c r="BP72" s="37"/>
-      <c r="BQ72" s="37"/>
-      <c r="BR72" s="33" t="s">
-        <v>27</v>
-      </c>
-      <c r="BS72" s="37"/>
-      <c r="BT72" s="37"/>
-      <c r="BU72" s="37"/>
-      <c r="BV72" s="33" t="s">
-        <v>28</v>
-      </c>
-      <c r="BW72" s="37"/>
-      <c r="BX72" s="37"/>
-      <c r="BY72" s="37"/>
-      <c r="BZ72" s="35" t="s">
-        <v>29</v>
-      </c>
-      <c r="CA72" s="35"/>
-      <c r="CB72" s="35"/>
-      <c r="CC72" s="35"/>
-      <c r="CD72" s="35" t="s">
-        <v>48</v>
-      </c>
-      <c r="CE72" s="35"/>
-      <c r="CF72" s="35"/>
-      <c r="CG72" s="35"/>
-      <c r="CH72" s="32" t="s">
-        <v>49</v>
-      </c>
-      <c r="CI72" s="41"/>
-      <c r="CJ72" s="41"/>
-      <c r="CK72" s="41"/>
-      <c r="CL72" s="42"/>
-      <c r="CM72" s="40"/>
-    </row>
-    <row r="73" spans="1:150" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:150" x14ac:dyDescent="0.25">
       <c r="A73" s="5" t="s">
         <v>4</v>
       </c>
@@ -32308,53 +32029,45 @@
       <c r="BY73" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="BZ73" s="22" t="s">
+      <c r="BZ73" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="CA73" s="22" t="s">
+      <c r="CA73" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="CB73" s="22" t="s">
+      <c r="CB73" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="CC73" s="22" t="s">
+      <c r="CC73" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="CD73" s="25" t="s">
+      <c r="CD73" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="CE73" s="25" t="s">
+      <c r="CE73" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="CF73" s="25" t="s">
+      <c r="CF73" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="CG73" s="25" t="s">
+      <c r="CG73" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="CH73" s="25" t="s">
+      <c r="CH73" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="CI73" s="41"/>
-      <c r="CJ73" s="41"/>
-      <c r="CK73" s="41"/>
-      <c r="CL73" s="41"/>
-      <c r="CM73" s="40"/>
+      <c r="CI73" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="CJ73" s="5"/>
+      <c r="CK73" s="5"/>
+      <c r="CL73" s="5"/>
+      <c r="CM73" s="17"/>
     </row>
-    <row r="74" spans="1:150" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:150" ht="10.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A74" s="7"/>
-      <c r="CD74" s="23"/>
-      <c r="CE74" s="23"/>
-      <c r="CF74" s="23"/>
-      <c r="CG74" s="23"/>
-      <c r="CH74" s="23"/>
-      <c r="CI74" s="38"/>
-      <c r="CJ74" s="38"/>
-      <c r="CK74" s="38"/>
-      <c r="CL74" s="38"/>
-      <c r="CM74" s="40"/>
     </row>
-    <row r="75" spans="1:150" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:150" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A75" s="1" t="s">
         <v>11</v>
       </c>
@@ -32586,38 +32299,40 @@
       <c r="BY75" s="14">
         <v>14.518792882196692</v>
       </c>
-      <c r="BZ75" s="21">
+      <c r="BZ75" s="14">
         <v>15.874385540115938</v>
       </c>
-      <c r="CA75" s="21">
+      <c r="CA75" s="14">
         <v>14.056726740997092</v>
       </c>
-      <c r="CB75" s="21">
+      <c r="CB75" s="14">
         <v>10.488948130340276</v>
       </c>
-      <c r="CC75" s="21">
+      <c r="CC75" s="14">
         <v>9.1643396346385799</v>
       </c>
-      <c r="CD75" s="29">
+      <c r="CD75" s="14">
         <v>5.0629776269243081</v>
       </c>
-      <c r="CE75" s="29">
+      <c r="CE75" s="14">
         <v>2.9638211590657448</v>
       </c>
-      <c r="CF75" s="29">
+      <c r="CF75" s="14">
         <v>2.7814252027223745</v>
       </c>
-      <c r="CG75" s="29">
+      <c r="CG75" s="14">
         <v>2.9380282174979726</v>
       </c>
-      <c r="CH75" s="29">
-        <v>6.5947211085697148</v>
-      </c>
-      <c r="CI75" s="43"/>
-      <c r="CJ75" s="43"/>
-      <c r="CK75" s="43"/>
-      <c r="CL75" s="43"/>
-      <c r="CM75" s="45"/>
+      <c r="CH75" s="14">
+        <v>7.3636923253115043</v>
+      </c>
+      <c r="CI75" s="14">
+        <v>4.7692023421639647</v>
+      </c>
+      <c r="CJ75" s="14"/>
+      <c r="CK75" s="14"/>
+      <c r="CL75" s="14"/>
+      <c r="CM75" s="9"/>
       <c r="CN75" s="9"/>
       <c r="CO75" s="9"/>
       <c r="CP75" s="9"/>
@@ -32678,7 +32393,7 @@
       <c r="ES75" s="9"/>
       <c r="ET75" s="9"/>
     </row>
-    <row r="76" spans="1:150" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:150" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A76" s="10" t="s">
         <v>12</v>
       </c>
@@ -32910,38 +32625,40 @@
       <c r="BY76" s="14">
         <v>12.807251747633913</v>
       </c>
-      <c r="BZ76" s="21">
+      <c r="BZ76" s="14">
         <v>1.6198345025596268</v>
       </c>
-      <c r="CA76" s="21">
+      <c r="CA76" s="14">
         <v>0.24939666187249543</v>
       </c>
-      <c r="CB76" s="21">
+      <c r="CB76" s="14">
         <v>1.6657562693243193</v>
       </c>
-      <c r="CC76" s="21">
+      <c r="CC76" s="14">
         <v>3.288045213432639</v>
       </c>
-      <c r="CD76" s="29">
+      <c r="CD76" s="14">
         <v>3.5645699424525361</v>
       </c>
-      <c r="CE76" s="29">
+      <c r="CE76" s="14">
         <v>5.52344815087082</v>
       </c>
-      <c r="CF76" s="29">
+      <c r="CF76" s="14">
         <v>2.4989687698222127</v>
       </c>
-      <c r="CG76" s="29">
+      <c r="CG76" s="14">
         <v>7.627721777160275</v>
       </c>
-      <c r="CH76" s="29">
-        <v>10.006656499788463</v>
-      </c>
-      <c r="CI76" s="43"/>
-      <c r="CJ76" s="43"/>
-      <c r="CK76" s="43"/>
-      <c r="CL76" s="43"/>
-      <c r="CM76" s="45"/>
+      <c r="CH76" s="14">
+        <v>10.409298596710755</v>
+      </c>
+      <c r="CI76" s="14">
+        <v>5.1762775422624827</v>
+      </c>
+      <c r="CJ76" s="14"/>
+      <c r="CK76" s="14"/>
+      <c r="CL76" s="14"/>
+      <c r="CM76" s="9"/>
       <c r="CN76" s="9"/>
       <c r="CO76" s="9"/>
       <c r="CP76" s="9"/>
@@ -33002,7 +32719,7 @@
       <c r="ES76" s="9"/>
       <c r="ET76" s="9"/>
     </row>
-    <row r="77" spans="1:150" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:150" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A77" s="1" t="s">
         <v>13</v>
       </c>
@@ -33234,38 +32951,40 @@
       <c r="BY77" s="14">
         <v>6.0019598874639684</v>
       </c>
-      <c r="BZ77" s="21">
+      <c r="BZ77" s="14">
         <v>-5.1321178151512328</v>
       </c>
-      <c r="CA77" s="21">
+      <c r="CA77" s="14">
         <v>-12.872892191127178</v>
       </c>
-      <c r="CB77" s="21">
+      <c r="CB77" s="14">
         <v>-11.534561531078424</v>
       </c>
-      <c r="CC77" s="21">
+      <c r="CC77" s="14">
         <v>-4.9861360058664985</v>
       </c>
-      <c r="CD77" s="29">
+      <c r="CD77" s="14">
         <v>3.2507058138745464</v>
       </c>
-      <c r="CE77" s="29">
+      <c r="CE77" s="14">
         <v>15.489493218426304</v>
       </c>
-      <c r="CF77" s="29">
+      <c r="CF77" s="14">
         <v>10.462715958962406</v>
       </c>
-      <c r="CG77" s="29">
+      <c r="CG77" s="14">
         <v>9.8030679815093151</v>
       </c>
-      <c r="CH77" s="29">
+      <c r="CH77" s="14">
         <v>4.5273593202528843</v>
       </c>
-      <c r="CI77" s="43"/>
-      <c r="CJ77" s="43"/>
-      <c r="CK77" s="43"/>
-      <c r="CL77" s="43"/>
-      <c r="CM77" s="45"/>
+      <c r="CI77" s="14">
+        <v>0.15514982964337776</v>
+      </c>
+      <c r="CJ77" s="14"/>
+      <c r="CK77" s="14"/>
+      <c r="CL77" s="14"/>
+      <c r="CM77" s="9"/>
       <c r="CN77" s="9"/>
       <c r="CO77" s="9"/>
       <c r="CP77" s="9"/>
@@ -33326,7 +33045,7 @@
       <c r="ES77" s="9"/>
       <c r="ET77" s="9"/>
     </row>
-    <row r="78" spans="1:150" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:150" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A78" s="1" t="s">
         <v>14</v>
       </c>
@@ -33558,38 +33277,40 @@
       <c r="BY78" s="14">
         <v>7.6464794751658332</v>
       </c>
-      <c r="BZ78" s="21">
+      <c r="BZ78" s="14">
         <v>11.872832039659414</v>
       </c>
-      <c r="CA78" s="21">
+      <c r="CA78" s="14">
         <v>5.5039138357132202</v>
       </c>
-      <c r="CB78" s="21">
+      <c r="CB78" s="14">
         <v>1.263999051975091</v>
       </c>
-      <c r="CC78" s="21">
+      <c r="CC78" s="14">
         <v>1.7713206864655433</v>
       </c>
-      <c r="CD78" s="29">
+      <c r="CD78" s="14">
         <v>2.2197206824587425</v>
       </c>
-      <c r="CE78" s="29">
+      <c r="CE78" s="14">
         <v>1.7458794367660033</v>
       </c>
-      <c r="CF78" s="29">
+      <c r="CF78" s="14">
         <v>5.8395229555424208</v>
       </c>
-      <c r="CG78" s="29">
+      <c r="CG78" s="14">
         <v>2.2172930164467743</v>
       </c>
-      <c r="CH78" s="29">
-        <v>8.4253096607359623</v>
-      </c>
-      <c r="CI78" s="43"/>
-      <c r="CJ78" s="43"/>
-      <c r="CK78" s="43"/>
-      <c r="CL78" s="43"/>
-      <c r="CM78" s="45"/>
+      <c r="CH78" s="14">
+        <v>7.7514731644417765</v>
+      </c>
+      <c r="CI78" s="14">
+        <v>2.4318743381890044</v>
+      </c>
+      <c r="CJ78" s="14"/>
+      <c r="CK78" s="14"/>
+      <c r="CL78" s="14"/>
+      <c r="CM78" s="9"/>
       <c r="CN78" s="9"/>
       <c r="CO78" s="9"/>
       <c r="CP78" s="9"/>
@@ -33650,7 +33371,7 @@
       <c r="ES78" s="9"/>
       <c r="ET78" s="9"/>
     </row>
-    <row r="79" spans="1:150" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:150" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B79" s="9"/>
       <c r="C79" s="9"/>
       <c r="D79" s="9"/>
@@ -33727,20 +33448,20 @@
       <c r="BW79" s="9"/>
       <c r="BX79" s="9"/>
       <c r="BY79" s="9"/>
-      <c r="BZ79" s="18"/>
-      <c r="CA79" s="18"/>
-      <c r="CB79" s="18"/>
-      <c r="CC79" s="18"/>
-      <c r="CD79" s="28"/>
-      <c r="CE79" s="28"/>
-      <c r="CF79" s="28"/>
-      <c r="CG79" s="28"/>
-      <c r="CH79" s="28"/>
-      <c r="CI79" s="43"/>
-      <c r="CJ79" s="43"/>
-      <c r="CK79" s="43"/>
-      <c r="CL79" s="43"/>
-      <c r="CM79" s="45"/>
+      <c r="BZ79" s="9"/>
+      <c r="CA79" s="9"/>
+      <c r="CB79" s="9"/>
+      <c r="CC79" s="9"/>
+      <c r="CD79" s="9"/>
+      <c r="CE79" s="9"/>
+      <c r="CF79" s="9"/>
+      <c r="CG79" s="9"/>
+      <c r="CH79" s="9"/>
+      <c r="CI79" s="9"/>
+      <c r="CJ79" s="9"/>
+      <c r="CK79" s="9"/>
+      <c r="CL79" s="9"/>
+      <c r="CM79" s="9"/>
       <c r="CN79" s="9"/>
       <c r="CO79" s="9"/>
       <c r="CP79" s="9"/>
@@ -33801,7 +33522,7 @@
       <c r="ES79" s="9"/>
       <c r="ET79" s="9"/>
     </row>
-    <row r="80" spans="1:150" ht="30.6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:150" ht="30.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A80" s="10" t="s">
         <v>15</v>
       </c>
@@ -34033,38 +33754,40 @@
       <c r="BY80" s="14">
         <v>12.109957324955744</v>
       </c>
-      <c r="BZ80" s="21">
+      <c r="BZ80" s="14">
         <v>8.849273133794</v>
       </c>
-      <c r="CA80" s="21">
+      <c r="CA80" s="14">
         <v>4.7726695508619343</v>
       </c>
-      <c r="CB80" s="21">
+      <c r="CB80" s="14">
         <v>4.1704956190558846</v>
       </c>
-      <c r="CC80" s="21">
+      <c r="CC80" s="14">
         <v>4.6016572286241058</v>
       </c>
-      <c r="CD80" s="29">
+      <c r="CD80" s="14">
         <v>4.3248822564166289</v>
       </c>
-      <c r="CE80" s="29">
+      <c r="CE80" s="14">
         <v>5.221523607043693</v>
       </c>
-      <c r="CF80" s="29">
+      <c r="CF80" s="14">
         <v>3.8637070232336157</v>
       </c>
-      <c r="CG80" s="29">
+      <c r="CG80" s="14">
         <v>5.3579536293480601</v>
       </c>
-      <c r="CH80" s="29">
-        <v>7.235897761828781</v>
-      </c>
-      <c r="CI80" s="43"/>
-      <c r="CJ80" s="43"/>
-      <c r="CK80" s="43"/>
-      <c r="CL80" s="43"/>
-      <c r="CM80" s="45"/>
+      <c r="CH80" s="14">
+        <v>7.7484095988210839</v>
+      </c>
+      <c r="CI80" s="14">
+        <v>4.2271346631907107</v>
+      </c>
+      <c r="CJ80" s="14"/>
+      <c r="CK80" s="14"/>
+      <c r="CL80" s="14"/>
+      <c r="CM80" s="9"/>
       <c r="CN80" s="9"/>
       <c r="CO80" s="9"/>
       <c r="CP80" s="9"/>
@@ -34125,7 +33848,7 @@
       <c r="ES80" s="9"/>
       <c r="ET80" s="9"/>
     </row>
-    <row r="81" spans="1:154" ht="7.15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:154" ht="7.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A81" s="12"/>
       <c r="B81" s="12"/>
       <c r="C81" s="12"/>
@@ -34203,37 +33926,27 @@
       <c r="BW81" s="12"/>
       <c r="BX81" s="12"/>
       <c r="BY81" s="12"/>
-      <c r="BZ81" s="20"/>
-      <c r="CA81" s="20"/>
-      <c r="CB81" s="20"/>
-      <c r="CC81" s="20"/>
-      <c r="CD81" s="27"/>
-      <c r="CE81" s="27"/>
-      <c r="CF81" s="27"/>
-      <c r="CG81" s="27"/>
-      <c r="CH81" s="27"/>
-      <c r="CI81" s="44"/>
-      <c r="CJ81" s="44"/>
-      <c r="CK81" s="44"/>
-      <c r="CL81" s="44"/>
-      <c r="CM81" s="40"/>
+      <c r="BZ81" s="12"/>
+      <c r="CA81" s="12"/>
+      <c r="CB81" s="12"/>
+      <c r="CC81" s="12"/>
+      <c r="CD81" s="12"/>
+      <c r="CE81" s="12"/>
+      <c r="CF81" s="12"/>
+      <c r="CG81" s="12"/>
+      <c r="CH81" s="12"/>
+      <c r="CI81" s="12"/>
+      <c r="CJ81" s="12"/>
+      <c r="CK81" s="12"/>
+      <c r="CL81" s="12"/>
+      <c r="CM81" s="12"/>
     </row>
-    <row r="82" spans="1:154" ht="15" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:154" x14ac:dyDescent="0.25">
       <c r="A82" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="CD82" s="23"/>
-      <c r="CE82" s="23"/>
-      <c r="CF82" s="23"/>
-      <c r="CG82" s="23"/>
-      <c r="CH82" s="23"/>
-      <c r="CI82" s="38"/>
-      <c r="CJ82" s="38"/>
-      <c r="CK82" s="38"/>
-      <c r="CL82" s="38"/>
-      <c r="CM82" s="40"/>
     </row>
-    <row r="83" spans="1:154" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:154" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B83" s="9"/>
       <c r="C83" s="9"/>
       <c r="D83" s="9"/>
@@ -34310,20 +34023,20 @@
       <c r="BW83" s="9"/>
       <c r="BX83" s="9"/>
       <c r="BY83" s="9"/>
-      <c r="BZ83" s="18"/>
-      <c r="CA83" s="18"/>
-      <c r="CB83" s="18"/>
-      <c r="CC83" s="18"/>
-      <c r="CD83" s="28"/>
-      <c r="CE83" s="28"/>
-      <c r="CF83" s="28"/>
-      <c r="CG83" s="28"/>
-      <c r="CH83" s="28"/>
-      <c r="CI83" s="43"/>
-      <c r="CJ83" s="43"/>
-      <c r="CK83" s="43"/>
-      <c r="CL83" s="43"/>
-      <c r="CM83" s="45"/>
+      <c r="BZ83" s="9"/>
+      <c r="CA83" s="9"/>
+      <c r="CB83" s="9"/>
+      <c r="CC83" s="9"/>
+      <c r="CD83" s="9"/>
+      <c r="CE83" s="9"/>
+      <c r="CF83" s="9"/>
+      <c r="CG83" s="9"/>
+      <c r="CH83" s="9"/>
+      <c r="CI83" s="9"/>
+      <c r="CJ83" s="9"/>
+      <c r="CK83" s="9"/>
+      <c r="CL83" s="9"/>
+      <c r="CM83" s="9"/>
       <c r="CN83" s="9"/>
       <c r="CO83" s="9"/>
       <c r="CP83" s="9"/>
@@ -34384,7 +34097,7 @@
       <c r="ES83" s="9"/>
       <c r="ET83" s="9"/>
     </row>
-    <row r="84" spans="1:154" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:154" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B84" s="9"/>
       <c r="C84" s="9"/>
       <c r="D84" s="9"/>
@@ -34461,20 +34174,20 @@
       <c r="BW84" s="9"/>
       <c r="BX84" s="9"/>
       <c r="BY84" s="9"/>
-      <c r="BZ84" s="18"/>
-      <c r="CA84" s="18"/>
-      <c r="CB84" s="18"/>
-      <c r="CC84" s="18"/>
-      <c r="CD84" s="28"/>
-      <c r="CE84" s="28"/>
-      <c r="CF84" s="28"/>
-      <c r="CG84" s="28"/>
-      <c r="CH84" s="28"/>
-      <c r="CI84" s="43"/>
-      <c r="CJ84" s="43"/>
-      <c r="CK84" s="43"/>
-      <c r="CL84" s="43"/>
-      <c r="CM84" s="45"/>
+      <c r="BZ84" s="9"/>
+      <c r="CA84" s="9"/>
+      <c r="CB84" s="9"/>
+      <c r="CC84" s="9"/>
+      <c r="CD84" s="9"/>
+      <c r="CE84" s="9"/>
+      <c r="CF84" s="9"/>
+      <c r="CG84" s="9"/>
+      <c r="CH84" s="9"/>
+      <c r="CI84" s="9"/>
+      <c r="CJ84" s="9"/>
+      <c r="CK84" s="9"/>
+      <c r="CL84" s="9"/>
+      <c r="CM84" s="9"/>
       <c r="CN84" s="9"/>
       <c r="CO84" s="9"/>
       <c r="CP84" s="9"/>
@@ -34535,224 +34248,171 @@
       <c r="ES84" s="9"/>
       <c r="ET84" s="9"/>
     </row>
-    <row r="85" spans="1:154" ht="15" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:154" x14ac:dyDescent="0.25">
       <c r="A85" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="CD85" s="23"/>
-      <c r="CE85" s="23"/>
-      <c r="CF85" s="23"/>
-      <c r="CG85" s="23"/>
-      <c r="CH85" s="23"/>
-      <c r="CI85" s="38"/>
-      <c r="CJ85" s="38"/>
-      <c r="CK85" s="38"/>
-      <c r="CL85" s="38"/>
-      <c r="CM85" s="40"/>
     </row>
-    <row r="86" spans="1:154" ht="15" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:154" x14ac:dyDescent="0.25">
       <c r="A86" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="CD86" s="23"/>
-      <c r="CE86" s="23"/>
-      <c r="CF86" s="23"/>
-      <c r="CG86" s="23"/>
-      <c r="CH86" s="23"/>
-      <c r="CI86" s="38"/>
-      <c r="CJ86" s="38"/>
-      <c r="CK86" s="38"/>
-      <c r="CL86" s="38"/>
-      <c r="CM86" s="40"/>
     </row>
-    <row r="87" spans="1:154" x14ac:dyDescent="0.2">
-      <c r="CI87" s="39"/>
-      <c r="CJ87" s="39"/>
-      <c r="CK87" s="39"/>
-      <c r="CL87" s="40"/>
-      <c r="CM87" s="40"/>
-    </row>
-    <row r="88" spans="1:154" ht="15" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:154" x14ac:dyDescent="0.25">
       <c r="A88" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="CD88" s="23"/>
-      <c r="CE88" s="23"/>
-      <c r="CF88" s="23"/>
-      <c r="CG88" s="23"/>
-      <c r="CH88" s="23"/>
-      <c r="CI88" s="23"/>
-      <c r="CJ88" s="23"/>
-      <c r="CK88" s="23"/>
-      <c r="CL88" s="23"/>
     </row>
-    <row r="89" spans="1:154" ht="15" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:154" x14ac:dyDescent="0.25">
       <c r="A89" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="CD89" s="23"/>
-      <c r="CE89" s="23"/>
-      <c r="CF89" s="23"/>
-      <c r="CG89" s="23"/>
-      <c r="CH89" s="23"/>
-      <c r="CI89" s="23"/>
-      <c r="CJ89" s="23"/>
-      <c r="CK89" s="23"/>
-      <c r="CL89" s="23"/>
     </row>
-    <row r="90" spans="1:154" ht="15" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:154" x14ac:dyDescent="0.25">
       <c r="A90" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="CD90" s="23"/>
-      <c r="CE90" s="23"/>
-      <c r="CF90" s="23"/>
-      <c r="CG90" s="23"/>
-      <c r="CH90" s="23"/>
-      <c r="CI90" s="23"/>
-      <c r="CJ90" s="23"/>
-      <c r="CK90" s="23"/>
-      <c r="CL90" s="23"/>
     </row>
-    <row r="92" spans="1:154" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:154" x14ac:dyDescent="0.25">
       <c r="A92" s="4"/>
-      <c r="B92" s="33">
+      <c r="B92" s="18">
         <v>2000</v>
       </c>
-      <c r="C92" s="34"/>
-      <c r="D92" s="34"/>
-      <c r="E92" s="34"/>
-      <c r="F92" s="33">
+      <c r="C92" s="20"/>
+      <c r="D92" s="20"/>
+      <c r="E92" s="20"/>
+      <c r="F92" s="18">
         <v>2001</v>
       </c>
-      <c r="G92" s="34"/>
-      <c r="H92" s="34"/>
-      <c r="I92" s="34"/>
-      <c r="J92" s="33">
+      <c r="G92" s="20"/>
+      <c r="H92" s="20"/>
+      <c r="I92" s="20"/>
+      <c r="J92" s="18">
         <v>2002</v>
       </c>
-      <c r="K92" s="34"/>
-      <c r="L92" s="34"/>
-      <c r="M92" s="34"/>
-      <c r="N92" s="33">
+      <c r="K92" s="20"/>
+      <c r="L92" s="20"/>
+      <c r="M92" s="20"/>
+      <c r="N92" s="18">
         <v>2003</v>
       </c>
-      <c r="O92" s="34"/>
-      <c r="P92" s="34"/>
-      <c r="Q92" s="34"/>
-      <c r="R92" s="33">
+      <c r="O92" s="20"/>
+      <c r="P92" s="20"/>
+      <c r="Q92" s="20"/>
+      <c r="R92" s="18">
         <v>2004</v>
       </c>
-      <c r="S92" s="34"/>
-      <c r="T92" s="34"/>
-      <c r="U92" s="34"/>
-      <c r="V92" s="33">
+      <c r="S92" s="20"/>
+      <c r="T92" s="20"/>
+      <c r="U92" s="20"/>
+      <c r="V92" s="18">
         <v>2005</v>
       </c>
-      <c r="W92" s="34"/>
-      <c r="X92" s="34"/>
-      <c r="Y92" s="34"/>
-      <c r="Z92" s="33">
+      <c r="W92" s="20"/>
+      <c r="X92" s="20"/>
+      <c r="Y92" s="20"/>
+      <c r="Z92" s="18">
         <v>2006</v>
       </c>
-      <c r="AA92" s="34"/>
-      <c r="AB92" s="34"/>
-      <c r="AC92" s="34"/>
-      <c r="AD92" s="33">
+      <c r="AA92" s="20"/>
+      <c r="AB92" s="20"/>
+      <c r="AC92" s="20"/>
+      <c r="AD92" s="18">
         <v>2007</v>
       </c>
-      <c r="AE92" s="34"/>
-      <c r="AF92" s="34"/>
-      <c r="AG92" s="34"/>
-      <c r="AH92" s="33">
+      <c r="AE92" s="20"/>
+      <c r="AF92" s="20"/>
+      <c r="AG92" s="20"/>
+      <c r="AH92" s="18">
         <v>2008</v>
       </c>
-      <c r="AI92" s="34"/>
-      <c r="AJ92" s="34"/>
-      <c r="AK92" s="34"/>
-      <c r="AL92" s="33">
+      <c r="AI92" s="20"/>
+      <c r="AJ92" s="20"/>
+      <c r="AK92" s="20"/>
+      <c r="AL92" s="18">
         <v>2009</v>
       </c>
-      <c r="AM92" s="34"/>
-      <c r="AN92" s="34"/>
-      <c r="AO92" s="34"/>
-      <c r="AP92" s="33">
+      <c r="AM92" s="20"/>
+      <c r="AN92" s="20"/>
+      <c r="AO92" s="20"/>
+      <c r="AP92" s="18">
         <v>2010</v>
       </c>
-      <c r="AQ92" s="34"/>
-      <c r="AR92" s="34"/>
-      <c r="AS92" s="34"/>
-      <c r="AT92" s="33">
+      <c r="AQ92" s="20"/>
+      <c r="AR92" s="20"/>
+      <c r="AS92" s="20"/>
+      <c r="AT92" s="18">
         <v>2011</v>
       </c>
-      <c r="AU92" s="34"/>
-      <c r="AV92" s="34"/>
-      <c r="AW92" s="34"/>
-      <c r="AX92" s="33">
+      <c r="AU92" s="20"/>
+      <c r="AV92" s="20"/>
+      <c r="AW92" s="20"/>
+      <c r="AX92" s="18">
         <v>2012</v>
       </c>
-      <c r="AY92" s="34"/>
-      <c r="AZ92" s="34"/>
-      <c r="BA92" s="34"/>
-      <c r="BB92" s="33">
+      <c r="AY92" s="20"/>
+      <c r="AZ92" s="20"/>
+      <c r="BA92" s="20"/>
+      <c r="BB92" s="18">
         <v>2013</v>
       </c>
-      <c r="BC92" s="34"/>
-      <c r="BD92" s="34"/>
-      <c r="BE92" s="34"/>
-      <c r="BF92" s="33">
+      <c r="BC92" s="20"/>
+      <c r="BD92" s="20"/>
+      <c r="BE92" s="20"/>
+      <c r="BF92" s="18">
         <v>2014</v>
       </c>
-      <c r="BG92" s="34"/>
-      <c r="BH92" s="34"/>
-      <c r="BI92" s="34"/>
-      <c r="BJ92" s="33">
+      <c r="BG92" s="20"/>
+      <c r="BH92" s="20"/>
+      <c r="BI92" s="20"/>
+      <c r="BJ92" s="18">
         <v>2015</v>
       </c>
-      <c r="BK92" s="34"/>
-      <c r="BL92" s="34"/>
-      <c r="BM92" s="34"/>
-      <c r="BN92" s="33">
+      <c r="BK92" s="20"/>
+      <c r="BL92" s="20"/>
+      <c r="BM92" s="20"/>
+      <c r="BN92" s="18">
         <v>2016</v>
       </c>
-      <c r="BO92" s="34"/>
-      <c r="BP92" s="34"/>
-      <c r="BQ92" s="34"/>
-      <c r="BR92" s="33">
+      <c r="BO92" s="20"/>
+      <c r="BP92" s="20"/>
+      <c r="BQ92" s="20"/>
+      <c r="BR92" s="18">
         <v>2017</v>
       </c>
-      <c r="BS92" s="34"/>
-      <c r="BT92" s="34"/>
-      <c r="BU92" s="34"/>
-      <c r="BV92" s="33">
+      <c r="BS92" s="20"/>
+      <c r="BT92" s="20"/>
+      <c r="BU92" s="20"/>
+      <c r="BV92" s="18">
         <v>2018</v>
       </c>
-      <c r="BW92" s="34"/>
-      <c r="BX92" s="34"/>
-      <c r="BY92" s="34"/>
-      <c r="BZ92" s="35">
+      <c r="BW92" s="20"/>
+      <c r="BX92" s="20"/>
+      <c r="BY92" s="20"/>
+      <c r="BZ92" s="18">
         <v>2019</v>
       </c>
-      <c r="CA92" s="36"/>
-      <c r="CB92" s="36"/>
-      <c r="CC92" s="36"/>
-      <c r="CD92" s="35">
+      <c r="CA92" s="20"/>
+      <c r="CB92" s="20"/>
+      <c r="CC92" s="20"/>
+      <c r="CD92" s="18">
         <v>2020</v>
       </c>
-      <c r="CE92" s="35"/>
-      <c r="CF92" s="35"/>
-      <c r="CG92" s="35"/>
-      <c r="CH92" s="35">
+      <c r="CE92" s="20"/>
+      <c r="CF92" s="20"/>
+      <c r="CG92" s="20"/>
+      <c r="CH92" s="18">
         <v>2021</v>
       </c>
-      <c r="CI92" s="35"/>
-      <c r="CJ92" s="35"/>
-      <c r="CK92" s="35"/>
-      <c r="CL92" s="32">
+      <c r="CI92" s="18"/>
+      <c r="CJ92" s="18"/>
+      <c r="CK92" s="18"/>
+      <c r="CL92" s="18">
         <v>2022</v>
       </c>
+      <c r="CM92" s="18"/>
     </row>
-    <row r="93" spans="1:154" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:154" x14ac:dyDescent="0.25">
       <c r="A93" s="5" t="s">
         <v>4</v>
       </c>
@@ -34984,59 +34644,53 @@
       <c r="BY93" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="BZ93" s="16" t="s">
+      <c r="BZ93" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="CA93" s="16" t="s">
+      <c r="CA93" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="CB93" s="16" t="s">
+      <c r="CB93" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="CC93" s="16" t="s">
+      <c r="CC93" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="CD93" s="26" t="s">
+      <c r="CD93" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="CE93" s="26" t="s">
+      <c r="CE93" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="CF93" s="26" t="s">
+      <c r="CF93" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="CG93" s="26" t="s">
+      <c r="CG93" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="CH93" s="26" t="s">
+      <c r="CH93" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="CI93" s="26" t="s">
+      <c r="CI93" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="CJ93" s="26" t="s">
+      <c r="CJ93" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="CK93" s="26" t="s">
+      <c r="CK93" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="CL93" s="26" t="s">
+      <c r="CL93" s="6" t="s">
         <v>7</v>
       </c>
+      <c r="CM93" s="6" t="s">
+        <v>8</v>
+      </c>
     </row>
-    <row r="94" spans="1:154" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:154" ht="10.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A94" s="7"/>
-      <c r="CD94" s="23"/>
-      <c r="CE94" s="23"/>
-      <c r="CF94" s="23"/>
-      <c r="CG94" s="23"/>
-      <c r="CH94" s="23"/>
-      <c r="CI94" s="23"/>
-      <c r="CJ94" s="23"/>
-      <c r="CK94" s="23"/>
-      <c r="CL94" s="23"/>
     </row>
-    <row r="95" spans="1:154" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:154" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A95" s="1" t="s">
         <v>11</v>
       </c>
@@ -35268,46 +34922,48 @@
       <c r="BY95" s="14">
         <v>101.76682769332059</v>
       </c>
-      <c r="BZ95" s="21">
+      <c r="BZ95" s="14">
         <v>98.785519658390172</v>
       </c>
-      <c r="CA95" s="21">
+      <c r="CA95" s="14">
         <v>101.27444510881026</v>
       </c>
-      <c r="CB95" s="21">
+      <c r="CB95" s="14">
         <v>100.93735506836914</v>
       </c>
-      <c r="CC95" s="21">
+      <c r="CC95" s="14">
         <v>102.35921720571248</v>
       </c>
-      <c r="CD95" s="29">
+      <c r="CD95" s="14">
         <v>101.78902555283157</v>
       </c>
-      <c r="CE95" s="29">
+      <c r="CE95" s="14">
         <v>103.85600597189986</v>
       </c>
-      <c r="CF95" s="29">
+      <c r="CF95" s="14">
         <v>103.77369149767057</v>
       </c>
-      <c r="CG95" s="29">
+      <c r="CG95" s="14">
         <v>104.58642135860185</v>
       </c>
-      <c r="CH95" s="29">
+      <c r="CH95" s="14">
         <v>105.57622516002523</v>
       </c>
-      <c r="CI95" s="29">
+      <c r="CI95" s="14">
         <v>106.63785029316593</v>
       </c>
-      <c r="CJ95" s="29">
+      <c r="CJ95" s="14">
         <v>105.61995256598671</v>
       </c>
-      <c r="CK95" s="29">
+      <c r="CK95" s="14">
         <v>106.84919584830175</v>
       </c>
-      <c r="CL95" s="29">
-        <v>109.29741292337079</v>
-      </c>
-      <c r="CM95" s="9"/>
+      <c r="CL95" s="14">
+        <v>109.29741292337076</v>
+      </c>
+      <c r="CM95" s="14">
+        <v>112.61686759032798</v>
+      </c>
       <c r="CN95" s="9"/>
       <c r="CO95" s="9"/>
       <c r="CP95" s="9"/>
@@ -35372,7 +35028,7 @@
       <c r="EW95" s="9"/>
       <c r="EX95" s="9"/>
     </row>
-    <row r="96" spans="1:154" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:154" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A96" s="10" t="s">
         <v>12</v>
       </c>
@@ -35604,46 +35260,48 @@
       <c r="BY96" s="14">
         <v>102.2525888928143</v>
       </c>
-      <c r="BZ96" s="21">
+      <c r="BZ96" s="14">
         <v>99.727841358495283</v>
       </c>
-      <c r="CA96" s="21">
+      <c r="CA96" s="14">
         <v>99.477645142840444</v>
       </c>
-      <c r="CB96" s="21">
+      <c r="CB96" s="14">
         <v>99.229661095555286</v>
       </c>
-      <c r="CC96" s="21">
+      <c r="CC96" s="14">
         <v>101.42713029783694</v>
       </c>
-      <c r="CD96" s="29">
+      <c r="CD96" s="14">
         <v>102.74580864233616</v>
       </c>
-      <c r="CE96" s="29">
+      <c r="CE96" s="14">
         <v>101.99887943380996</v>
       </c>
-      <c r="CF96" s="29">
+      <c r="CF96" s="14">
         <v>102.0799907062153</v>
       </c>
-      <c r="CG96" s="29">
+      <c r="CG96" s="14">
         <v>103.88227936643504</v>
       </c>
-      <c r="CH96" s="29">
+      <c r="CH96" s="14">
         <v>106.82483847369222</v>
       </c>
-      <c r="CI96" s="29">
+      <c r="CI96" s="14">
         <v>105.16617935612899</v>
       </c>
-      <c r="CJ96" s="29">
+      <c r="CJ96" s="14">
         <v>104.6076761567232</v>
       </c>
-      <c r="CK96" s="29">
+      <c r="CK96" s="14">
         <v>106.6837766636594</v>
       </c>
-      <c r="CL96" s="29">
+      <c r="CL96" s="14">
         <v>110.58197350081539</v>
       </c>
-      <c r="CM96" s="9"/>
+      <c r="CM96" s="14">
+        <v>111.13628330876486</v>
+      </c>
       <c r="CN96" s="9"/>
       <c r="CO96" s="9"/>
       <c r="CP96" s="9"/>
@@ -35708,7 +35366,7 @@
       <c r="EW96" s="9"/>
       <c r="EX96" s="9"/>
     </row>
-    <row r="97" spans="1:154" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:154" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A97" s="1" t="s">
         <v>13</v>
       </c>
@@ -35940,46 +35598,48 @@
       <c r="BY97" s="14">
         <v>103.29325320429608</v>
       </c>
-      <c r="BZ97" s="21">
+      <c r="BZ97" s="14">
         <v>101.4500670125144</v>
       </c>
-      <c r="CA97" s="21">
+      <c r="CA97" s="14">
         <v>97.845017404832703</v>
       </c>
-      <c r="CB97" s="21">
+      <c r="CB97" s="14">
         <v>98.59430844631143</v>
       </c>
-      <c r="CC97" s="21">
+      <c r="CC97" s="14">
         <v>100.52347139175943</v>
       </c>
-      <c r="CD97" s="29">
+      <c r="CD97" s="14">
         <v>104.63445046677533</v>
       </c>
-      <c r="CE97" s="29">
+      <c r="CE97" s="14">
         <v>100.38205589338105</v>
       </c>
-      <c r="CF97" s="29">
+      <c r="CF97" s="14">
         <v>101.48917873522861</v>
       </c>
-      <c r="CG97" s="29">
+      <c r="CG97" s="14">
         <v>102.56940338418809</v>
       </c>
-      <c r="CH97" s="29">
+      <c r="CH97" s="14">
         <v>108.49275109294582</v>
       </c>
-      <c r="CI97" s="29">
+      <c r="CI97" s="14">
         <v>102.89038535067493</v>
       </c>
-      <c r="CJ97" s="29">
+      <c r="CJ97" s="14">
         <v>103.00325651988405</v>
       </c>
-      <c r="CK97" s="29">
+      <c r="CK97" s="14">
         <v>104.63011577848687</v>
       </c>
-      <c r="CL97" s="29">
+      <c r="CL97" s="14">
         <v>112.42680139344183</v>
       </c>
-      <c r="CM97" s="9"/>
+      <c r="CM97" s="14">
+        <v>108.25575461185817</v>
+      </c>
       <c r="CN97" s="9"/>
       <c r="CO97" s="9"/>
       <c r="CP97" s="9"/>
@@ -36044,7 +35704,7 @@
       <c r="EW97" s="9"/>
       <c r="EX97" s="9"/>
     </row>
-    <row r="98" spans="1:154" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:154" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A98" s="1" t="s">
         <v>14</v>
       </c>
@@ -36276,46 +35936,48 @@
       <c r="BY98" s="14">
         <v>100.95572714117023</v>
       </c>
-      <c r="BZ98" s="21">
+      <c r="BZ98" s="14">
         <v>99.197241551747396</v>
       </c>
-      <c r="CA98" s="21">
+      <c r="CA98" s="14">
         <v>100.20242854548273</v>
       </c>
-      <c r="CB98" s="21">
+      <c r="CB98" s="14">
         <v>99.861472094534491</v>
       </c>
-      <c r="CC98" s="21">
+      <c r="CC98" s="14">
         <v>101.61887002525012</v>
       </c>
-      <c r="CD98" s="29">
+      <c r="CD98" s="14">
         <v>102.85766741964864</v>
       </c>
-      <c r="CE98" s="29">
+      <c r="CE98" s="14">
         <v>103.20758177384451</v>
       </c>
-      <c r="CF98" s="29">
+      <c r="CF98" s="14">
         <v>103.54757243969561</v>
       </c>
-      <c r="CG98" s="29">
+      <c r="CG98" s="14">
         <v>104.00304784573582</v>
       </c>
-      <c r="CH98" s="29">
+      <c r="CH98" s="14">
         <v>107.5422541866316</v>
       </c>
-      <c r="CI98" s="29">
+      <c r="CI98" s="14">
         <v>106.48082924203881</v>
       </c>
-      <c r="CJ98" s="29">
+      <c r="CJ98" s="14">
         <v>106.15676272929213</v>
       </c>
-      <c r="CK98" s="29">
+      <c r="CK98" s="14">
         <v>107.14021411829164</v>
       </c>
-      <c r="CL98" s="29">
-        <v>111.93415395781747</v>
-      </c>
-      <c r="CM98" s="9"/>
+      <c r="CL98" s="14">
+        <v>111.88656343532</v>
+      </c>
+      <c r="CM98" s="14">
+        <v>113.22642567751583</v>
+      </c>
       <c r="CN98" s="9"/>
       <c r="CO98" s="9"/>
       <c r="CP98" s="9"/>
@@ -36380,7 +36042,7 @@
       <c r="EW98" s="9"/>
       <c r="EX98" s="9"/>
     </row>
-    <row r="99" spans="1:154" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:154" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B99" s="9"/>
       <c r="C99" s="9"/>
       <c r="D99" s="9"/>
@@ -36457,19 +36119,19 @@
       <c r="BW99" s="9"/>
       <c r="BX99" s="9"/>
       <c r="BY99" s="9"/>
-      <c r="BZ99" s="18"/>
-      <c r="CA99" s="18"/>
-      <c r="CB99" s="18"/>
-      <c r="CC99" s="18"/>
-      <c r="CD99" s="28"/>
-      <c r="CE99" s="28"/>
-      <c r="CF99" s="28"/>
-      <c r="CG99" s="28"/>
-      <c r="CH99" s="28"/>
-      <c r="CI99" s="28"/>
-      <c r="CJ99" s="28"/>
-      <c r="CK99" s="28"/>
-      <c r="CL99" s="28"/>
+      <c r="BZ99" s="9"/>
+      <c r="CA99" s="9"/>
+      <c r="CB99" s="9"/>
+      <c r="CC99" s="9"/>
+      <c r="CD99" s="9"/>
+      <c r="CE99" s="9"/>
+      <c r="CF99" s="9"/>
+      <c r="CG99" s="9"/>
+      <c r="CH99" s="9"/>
+      <c r="CI99" s="9"/>
+      <c r="CJ99" s="9"/>
+      <c r="CK99" s="9"/>
+      <c r="CL99" s="9"/>
       <c r="CM99" s="9"/>
       <c r="CN99" s="9"/>
       <c r="CO99" s="9"/>
@@ -36535,7 +36197,7 @@
       <c r="EW99" s="9"/>
       <c r="EX99" s="9"/>
     </row>
-    <row r="100" spans="1:154" ht="30.6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:154" ht="30.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A100" s="10" t="s">
         <v>15</v>
       </c>
@@ -36767,46 +36429,48 @@
       <c r="BY100" s="14">
         <v>102.13159641768516</v>
       </c>
-      <c r="BZ100" s="21">
+      <c r="BZ100" s="14">
         <v>99.44760916440535</v>
       </c>
-      <c r="CA100" s="21">
+      <c r="CA100" s="14">
         <v>100.07857763634362</v>
       </c>
-      <c r="CB100" s="21">
+      <c r="CB100" s="14">
         <v>100.04730157954785</v>
       </c>
-      <c r="CC100" s="21">
+      <c r="CC100" s="14">
         <v>101.72690275847593</v>
       </c>
-      <c r="CD100" s="29">
+      <c r="CD100" s="14">
         <v>102.44356791284532</v>
       </c>
-      <c r="CE100" s="29">
+      <c r="CE100" s="14">
         <v>102.76291355138034</v>
       </c>
-      <c r="CF100" s="29">
+      <c r="CF100" s="14">
         <v>103.00336596746872</v>
       </c>
-      <c r="CG100" s="29">
+      <c r="CG100" s="14">
         <v>104.03855675702971</v>
       </c>
-      <c r="CH100" s="29">
+      <c r="CH100" s="14">
         <v>106.34660446936861</v>
       </c>
-      <c r="CI100" s="29">
+      <c r="CI100" s="14">
         <v>105.63756842984206</v>
       </c>
-      <c r="CJ100" s="29">
+      <c r="CJ100" s="14">
         <v>105.00874643078566</v>
       </c>
-      <c r="CK100" s="29">
+      <c r="CK100" s="14">
         <v>106.47107841185439</v>
       </c>
-      <c r="CL100" s="29">
-        <v>110.13528719849607</v>
-      </c>
-      <c r="CM100" s="9"/>
+      <c r="CL100" s="14">
+        <v>110.12937562668412</v>
+      </c>
+      <c r="CM100" s="14">
+        <v>111.59371965967613</v>
+      </c>
       <c r="CN100" s="9"/>
       <c r="CO100" s="9"/>
       <c r="CP100" s="9"/>
@@ -36871,7 +36535,7 @@
       <c r="EW100" s="9"/>
       <c r="EX100" s="9"/>
     </row>
-    <row r="101" spans="1:154" ht="7.15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:154" ht="7.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A101" s="12"/>
       <c r="B101" s="12"/>
       <c r="C101" s="12"/>
@@ -36949,257 +36613,196 @@
       <c r="BW101" s="12"/>
       <c r="BX101" s="12"/>
       <c r="BY101" s="12"/>
-      <c r="BZ101" s="20"/>
-      <c r="CA101" s="20"/>
-      <c r="CB101" s="20"/>
-      <c r="CC101" s="20"/>
-      <c r="CD101" s="27"/>
-      <c r="CE101" s="27"/>
-      <c r="CF101" s="27"/>
-      <c r="CG101" s="27"/>
-      <c r="CH101" s="27"/>
-      <c r="CI101" s="27"/>
-      <c r="CJ101" s="27"/>
-      <c r="CK101" s="27"/>
-      <c r="CL101" s="27"/>
+      <c r="BZ101" s="12"/>
+      <c r="CA101" s="12"/>
+      <c r="CB101" s="12"/>
+      <c r="CC101" s="12"/>
+      <c r="CD101" s="12"/>
+      <c r="CE101" s="12"/>
+      <c r="CF101" s="12"/>
+      <c r="CG101" s="12"/>
+      <c r="CH101" s="12"/>
+      <c r="CI101" s="12"/>
+      <c r="CJ101" s="12"/>
+      <c r="CK101" s="12"/>
+      <c r="CL101" s="12"/>
+      <c r="CM101" s="12"/>
     </row>
-    <row r="102" spans="1:154" ht="15" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:154" x14ac:dyDescent="0.25">
       <c r="A102" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="CD102" s="23"/>
-      <c r="CE102" s="23"/>
-      <c r="CF102" s="23"/>
-      <c r="CG102" s="23"/>
-      <c r="CH102" s="23"/>
-      <c r="CI102" s="23"/>
-      <c r="CJ102" s="23"/>
-      <c r="CK102" s="23"/>
-      <c r="CL102" s="23"/>
     </row>
-    <row r="105" spans="1:154" ht="15" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:154" x14ac:dyDescent="0.25">
       <c r="A105" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="CD105" s="23"/>
-      <c r="CE105" s="23"/>
-      <c r="CF105" s="23"/>
-      <c r="CG105" s="23"/>
-      <c r="CH105" s="23"/>
-      <c r="CI105" s="23"/>
-      <c r="CJ105" s="23"/>
-      <c r="CK105" s="23"/>
-      <c r="CL105" s="23"/>
     </row>
-    <row r="106" spans="1:154" ht="15" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:154" x14ac:dyDescent="0.25">
       <c r="A106" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="CD106" s="23"/>
-      <c r="CE106" s="23"/>
-      <c r="CF106" s="23"/>
-      <c r="CG106" s="23"/>
-      <c r="CH106" s="23"/>
-      <c r="CI106" s="23"/>
-      <c r="CJ106" s="23"/>
-      <c r="CK106" s="23"/>
-      <c r="CL106" s="23"/>
     </row>
-    <row r="107" spans="1:154" ht="15" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:154" x14ac:dyDescent="0.25">
       <c r="A107" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="CD107" s="23"/>
-      <c r="CE107" s="23"/>
-      <c r="CF107" s="23"/>
-      <c r="CG107" s="23"/>
-      <c r="CH107" s="23"/>
-      <c r="CI107" s="23"/>
-      <c r="CJ107" s="23"/>
-      <c r="CK107" s="23"/>
-      <c r="CL107" s="23"/>
     </row>
-    <row r="109" spans="1:154" ht="15" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:154" x14ac:dyDescent="0.25">
       <c r="A109" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="CD109" s="23"/>
-      <c r="CE109" s="23"/>
-      <c r="CF109" s="23"/>
-      <c r="CG109" s="23"/>
-      <c r="CH109" s="23"/>
-      <c r="CI109" s="23"/>
-      <c r="CJ109" s="23"/>
-      <c r="CK109" s="23"/>
-      <c r="CL109" s="23"/>
     </row>
-    <row r="110" spans="1:154" ht="15" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:154" x14ac:dyDescent="0.25">
       <c r="A110" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="CD110" s="23"/>
-      <c r="CE110" s="23"/>
-      <c r="CF110" s="23"/>
-      <c r="CG110" s="23"/>
-      <c r="CH110" s="23"/>
-      <c r="CI110" s="23"/>
-      <c r="CJ110" s="23"/>
-      <c r="CK110" s="23"/>
-      <c r="CL110" s="23"/>
     </row>
-    <row r="111" spans="1:154" ht="15" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:154" x14ac:dyDescent="0.25">
       <c r="A111" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="CD111" s="23"/>
-      <c r="CE111" s="23"/>
-      <c r="CF111" s="23"/>
-      <c r="CG111" s="23"/>
-      <c r="CH111" s="23"/>
-      <c r="CI111" s="23"/>
-      <c r="CJ111" s="23"/>
-      <c r="CK111" s="23"/>
-      <c r="CL111" s="23"/>
     </row>
-    <row r="113" spans="1:154" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:154" x14ac:dyDescent="0.25">
       <c r="A113" s="4"/>
-      <c r="B113" s="33">
+      <c r="B113" s="18">
         <v>2000</v>
       </c>
-      <c r="C113" s="34"/>
-      <c r="D113" s="34"/>
-      <c r="E113" s="34"/>
-      <c r="F113" s="33">
+      <c r="C113" s="20"/>
+      <c r="D113" s="20"/>
+      <c r="E113" s="20"/>
+      <c r="F113" s="18">
         <v>2001</v>
       </c>
-      <c r="G113" s="34"/>
-      <c r="H113" s="34"/>
-      <c r="I113" s="34"/>
-      <c r="J113" s="33">
+      <c r="G113" s="20"/>
+      <c r="H113" s="20"/>
+      <c r="I113" s="20"/>
+      <c r="J113" s="18">
         <v>2002</v>
       </c>
-      <c r="K113" s="34"/>
-      <c r="L113" s="34"/>
-      <c r="M113" s="34"/>
-      <c r="N113" s="33">
+      <c r="K113" s="20"/>
+      <c r="L113" s="20"/>
+      <c r="M113" s="20"/>
+      <c r="N113" s="18">
         <v>2003</v>
       </c>
-      <c r="O113" s="34"/>
-      <c r="P113" s="34"/>
-      <c r="Q113" s="34"/>
-      <c r="R113" s="33">
+      <c r="O113" s="20"/>
+      <c r="P113" s="20"/>
+      <c r="Q113" s="20"/>
+      <c r="R113" s="18">
         <v>2004</v>
       </c>
-      <c r="S113" s="34"/>
-      <c r="T113" s="34"/>
-      <c r="U113" s="34"/>
-      <c r="V113" s="33">
+      <c r="S113" s="20"/>
+      <c r="T113" s="20"/>
+      <c r="U113" s="20"/>
+      <c r="V113" s="18">
         <v>2005</v>
       </c>
-      <c r="W113" s="34"/>
-      <c r="X113" s="34"/>
-      <c r="Y113" s="34"/>
-      <c r="Z113" s="33">
+      <c r="W113" s="20"/>
+      <c r="X113" s="20"/>
+      <c r="Y113" s="20"/>
+      <c r="Z113" s="18">
         <v>2006</v>
       </c>
-      <c r="AA113" s="34"/>
-      <c r="AB113" s="34"/>
-      <c r="AC113" s="34"/>
-      <c r="AD113" s="33">
+      <c r="AA113" s="20"/>
+      <c r="AB113" s="20"/>
+      <c r="AC113" s="20"/>
+      <c r="AD113" s="18">
         <v>2007</v>
       </c>
-      <c r="AE113" s="34"/>
-      <c r="AF113" s="34"/>
-      <c r="AG113" s="34"/>
-      <c r="AH113" s="33">
+      <c r="AE113" s="20"/>
+      <c r="AF113" s="20"/>
+      <c r="AG113" s="20"/>
+      <c r="AH113" s="18">
         <v>2008</v>
       </c>
-      <c r="AI113" s="34"/>
-      <c r="AJ113" s="34"/>
-      <c r="AK113" s="34"/>
-      <c r="AL113" s="33">
+      <c r="AI113" s="20"/>
+      <c r="AJ113" s="20"/>
+      <c r="AK113" s="20"/>
+      <c r="AL113" s="18">
         <v>2009</v>
       </c>
-      <c r="AM113" s="34"/>
-      <c r="AN113" s="34"/>
-      <c r="AO113" s="34"/>
-      <c r="AP113" s="33">
+      <c r="AM113" s="20"/>
+      <c r="AN113" s="20"/>
+      <c r="AO113" s="20"/>
+      <c r="AP113" s="18">
         <v>2010</v>
       </c>
-      <c r="AQ113" s="34"/>
-      <c r="AR113" s="34"/>
-      <c r="AS113" s="34"/>
-      <c r="AT113" s="33">
+      <c r="AQ113" s="20"/>
+      <c r="AR113" s="20"/>
+      <c r="AS113" s="20"/>
+      <c r="AT113" s="18">
         <v>2011</v>
       </c>
-      <c r="AU113" s="34"/>
-      <c r="AV113" s="34"/>
-      <c r="AW113" s="34"/>
-      <c r="AX113" s="33">
+      <c r="AU113" s="20"/>
+      <c r="AV113" s="20"/>
+      <c r="AW113" s="20"/>
+      <c r="AX113" s="18">
         <v>2012</v>
       </c>
-      <c r="AY113" s="34"/>
-      <c r="AZ113" s="34"/>
-      <c r="BA113" s="34"/>
-      <c r="BB113" s="33">
+      <c r="AY113" s="20"/>
+      <c r="AZ113" s="20"/>
+      <c r="BA113" s="20"/>
+      <c r="BB113" s="18">
         <v>2013</v>
       </c>
-      <c r="BC113" s="34"/>
-      <c r="BD113" s="34"/>
-      <c r="BE113" s="34"/>
-      <c r="BF113" s="33">
+      <c r="BC113" s="20"/>
+      <c r="BD113" s="20"/>
+      <c r="BE113" s="20"/>
+      <c r="BF113" s="18">
         <v>2014</v>
       </c>
-      <c r="BG113" s="34"/>
-      <c r="BH113" s="34"/>
-      <c r="BI113" s="34"/>
-      <c r="BJ113" s="33">
+      <c r="BG113" s="20"/>
+      <c r="BH113" s="20"/>
+      <c r="BI113" s="20"/>
+      <c r="BJ113" s="18">
         <v>2015</v>
       </c>
-      <c r="BK113" s="34"/>
-      <c r="BL113" s="34"/>
-      <c r="BM113" s="34"/>
-      <c r="BN113" s="33">
+      <c r="BK113" s="20"/>
+      <c r="BL113" s="20"/>
+      <c r="BM113" s="20"/>
+      <c r="BN113" s="18">
         <v>2016</v>
       </c>
-      <c r="BO113" s="34"/>
-      <c r="BP113" s="34"/>
-      <c r="BQ113" s="34"/>
-      <c r="BR113" s="33">
+      <c r="BO113" s="20"/>
+      <c r="BP113" s="20"/>
+      <c r="BQ113" s="20"/>
+      <c r="BR113" s="18">
         <v>2017</v>
       </c>
-      <c r="BS113" s="34"/>
-      <c r="BT113" s="34"/>
-      <c r="BU113" s="34"/>
-      <c r="BV113" s="33">
+      <c r="BS113" s="20"/>
+      <c r="BT113" s="20"/>
+      <c r="BU113" s="20"/>
+      <c r="BV113" s="18">
         <v>2018</v>
       </c>
-      <c r="BW113" s="34"/>
-      <c r="BX113" s="34"/>
-      <c r="BY113" s="34"/>
-      <c r="BZ113" s="35">
+      <c r="BW113" s="20"/>
+      <c r="BX113" s="20"/>
+      <c r="BY113" s="20"/>
+      <c r="BZ113" s="18">
         <v>2019</v>
       </c>
-      <c r="CA113" s="36"/>
-      <c r="CB113" s="36"/>
-      <c r="CC113" s="36"/>
-      <c r="CD113" s="35">
+      <c r="CA113" s="20"/>
+      <c r="CB113" s="20"/>
+      <c r="CC113" s="20"/>
+      <c r="CD113" s="18">
         <v>2020</v>
       </c>
-      <c r="CE113" s="35"/>
-      <c r="CF113" s="35"/>
-      <c r="CG113" s="35"/>
-      <c r="CH113" s="35">
+      <c r="CE113" s="20"/>
+      <c r="CF113" s="20"/>
+      <c r="CG113" s="20"/>
+      <c r="CH113" s="18">
         <v>2021</v>
       </c>
-      <c r="CI113" s="35"/>
-      <c r="CJ113" s="35"/>
-      <c r="CK113" s="35"/>
-      <c r="CL113" s="32">
+      <c r="CI113" s="18"/>
+      <c r="CJ113" s="18"/>
+      <c r="CK113" s="18"/>
+      <c r="CL113" s="18">
         <v>2022</v>
       </c>
+      <c r="CM113" s="18"/>
     </row>
-    <row r="114" spans="1:154" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:154" x14ac:dyDescent="0.25">
       <c r="A114" s="5" t="s">
         <v>4</v>
       </c>
@@ -37431,59 +37034,53 @@
       <c r="BY114" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="BZ114" s="16" t="s">
+      <c r="BZ114" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="CA114" s="16" t="s">
+      <c r="CA114" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="CB114" s="16" t="s">
+      <c r="CB114" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="CC114" s="16" t="s">
+      <c r="CC114" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="CD114" s="26" t="s">
+      <c r="CD114" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="CE114" s="26" t="s">
+      <c r="CE114" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="CF114" s="26" t="s">
+      <c r="CF114" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="CG114" s="26" t="s">
+      <c r="CG114" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="CH114" s="26" t="s">
+      <c r="CH114" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="CI114" s="26" t="s">
+      <c r="CI114" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="CJ114" s="26" t="s">
+      <c r="CJ114" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="CK114" s="26" t="s">
+      <c r="CK114" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="CL114" s="26" t="s">
+      <c r="CL114" s="6" t="s">
         <v>7</v>
       </c>
+      <c r="CM114" s="6" t="s">
+        <v>8</v>
+      </c>
     </row>
-    <row r="115" spans="1:154" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:154" ht="10.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A115" s="7"/>
-      <c r="CD115" s="23"/>
-      <c r="CE115" s="23"/>
-      <c r="CF115" s="23"/>
-      <c r="CG115" s="23"/>
-      <c r="CH115" s="23"/>
-      <c r="CI115" s="23"/>
-      <c r="CJ115" s="23"/>
-      <c r="CK115" s="23"/>
-      <c r="CL115" s="23"/>
     </row>
-    <row r="116" spans="1:154" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:154" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A116" s="1" t="s">
         <v>11</v>
       </c>
@@ -37715,46 +37312,48 @@
       <c r="BY116" s="14">
         <v>45.606623203440208</v>
       </c>
-      <c r="BZ116" s="21">
+      <c r="BZ116" s="14">
         <v>54.000705444254216</v>
       </c>
-      <c r="CA116" s="21">
+      <c r="CA116" s="14">
         <v>44.015770445669723</v>
       </c>
-      <c r="CB116" s="21">
+      <c r="CB116" s="14">
         <v>52.303461462980373</v>
       </c>
-      <c r="CC116" s="21">
+      <c r="CC116" s="14">
         <v>47.044137375330308</v>
       </c>
-      <c r="CD116" s="29">
+      <c r="CD116" s="14">
         <v>57.501432368415472</v>
       </c>
-      <c r="CE116" s="29">
+      <c r="CE116" s="14">
         <v>47.853935740581264</v>
       </c>
-      <c r="CF116" s="29">
+      <c r="CF116" s="14">
         <v>55.397969703106384</v>
       </c>
-      <c r="CG116" s="29">
+      <c r="CG116" s="14">
         <v>49.049838999285932</v>
       </c>
-      <c r="CH116" s="29">
+      <c r="CH116" s="14">
         <v>57.858438147231638</v>
       </c>
-      <c r="CI116" s="29">
+      <c r="CI116" s="14">
         <v>46.773030052709416</v>
       </c>
-      <c r="CJ116" s="29">
+      <c r="CJ116" s="14">
         <v>54.730486661598164</v>
       </c>
-      <c r="CK116" s="29">
+      <c r="CK116" s="14">
         <v>47.841493140745506</v>
       </c>
-      <c r="CL116" s="29">
-        <v>57.49142896676571</v>
-      </c>
-      <c r="CM116" s="9"/>
+      <c r="CL116" s="14">
+        <v>57.633829782588052</v>
+      </c>
+      <c r="CM116" s="14">
+        <v>47.002293294798349</v>
+      </c>
       <c r="CN116" s="9"/>
       <c r="CO116" s="9"/>
       <c r="CP116" s="9"/>
@@ -37819,7 +37418,7 @@
       <c r="EW116" s="9"/>
       <c r="EX116" s="9"/>
     </row>
-    <row r="117" spans="1:154" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:154" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A117" s="10" t="s">
         <v>12</v>
       </c>
@@ -38051,46 +37650,48 @@
       <c r="BY117" s="14">
         <v>31.060064518751563</v>
       </c>
-      <c r="BZ117" s="21">
+      <c r="BZ117" s="14">
         <v>25.995230360429439</v>
       </c>
-      <c r="CA117" s="21">
+      <c r="CA117" s="14">
         <v>37.437203842451325</v>
       </c>
-      <c r="CB117" s="21">
+      <c r="CB117" s="14">
         <v>27.498788016217286</v>
       </c>
-      <c r="CC117" s="21">
+      <c r="CC117" s="14">
         <v>31.124279681017608</v>
       </c>
-      <c r="CD117" s="29">
+      <c r="CD117" s="14">
         <v>24.271910784659962</v>
       </c>
-      <c r="CE117" s="29">
+      <c r="CE117" s="14">
         <v>35.769410436892308</v>
       </c>
-      <c r="CF117" s="29">
+      <c r="CF117" s="14">
         <v>26.816160402786565</v>
       </c>
-      <c r="CG117" s="29">
+      <c r="CG117" s="14">
         <v>30.77794628574318</v>
       </c>
-      <c r="CH117" s="29">
+      <c r="CH117" s="14">
         <v>24.132175111337791</v>
       </c>
-      <c r="CI117" s="29">
+      <c r="CI117" s="14">
         <v>35.979479704756983</v>
       </c>
-      <c r="CJ117" s="29">
+      <c r="CJ117" s="14">
         <v>26.601195024768021</v>
       </c>
-      <c r="CK117" s="29">
+      <c r="CK117" s="14">
         <v>31.55121117004251</v>
       </c>
-      <c r="CL117" s="29">
-        <v>24.744829854014153</v>
-      </c>
-      <c r="CM117" s="9"/>
+      <c r="CL117" s="14">
+        <v>24.71859562043506</v>
+      </c>
+      <c r="CM117" s="14">
+        <v>36.320372219343064</v>
+      </c>
       <c r="CN117" s="9"/>
       <c r="CO117" s="9"/>
       <c r="CP117" s="9"/>
@@ -38155,7 +37756,7 @@
       <c r="EW117" s="9"/>
       <c r="EX117" s="9"/>
     </row>
-    <row r="118" spans="1:154" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:154" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A118" s="1" t="s">
         <v>13</v>
       </c>
@@ -38387,46 +37988,48 @@
       <c r="BY118" s="14">
         <v>17.406185146147994</v>
       </c>
-      <c r="BZ118" s="21">
+      <c r="BZ118" s="14">
         <v>15.244238438889724</v>
       </c>
-      <c r="CA118" s="21">
+      <c r="CA118" s="14">
         <v>13.153385725903476</v>
       </c>
-      <c r="CB118" s="21">
+      <c r="CB118" s="14">
         <v>15.302126616564177</v>
       </c>
-      <c r="CC118" s="21">
+      <c r="CC118" s="14">
         <v>16.080262243395822</v>
       </c>
-      <c r="CD118" s="29">
+      <c r="CD118" s="14">
         <v>13.302443279648749</v>
       </c>
-      <c r="CE118" s="29">
+      <c r="CE118" s="14">
         <v>10.928610074583792</v>
       </c>
-      <c r="CF118" s="29">
+      <c r="CF118" s="14">
         <v>12.992793940542452</v>
       </c>
-      <c r="CG118" s="29">
+      <c r="CG118" s="14">
         <v>14.572477608787207</v>
       </c>
-      <c r="CH118" s="29">
+      <c r="CH118" s="14">
         <v>13.149935833979113</v>
       </c>
-      <c r="CI118" s="29">
+      <c r="CI118" s="14">
         <v>11.960230265576319</v>
       </c>
-      <c r="CJ118" s="29">
+      <c r="CJ118" s="14">
         <v>13.75661582285937</v>
       </c>
-      <c r="CK118" s="29">
+      <c r="CK118" s="14">
         <v>15.138473582761977</v>
       </c>
-      <c r="CL118" s="29">
-        <v>12.825659114680038</v>
-      </c>
-      <c r="CM118" s="9"/>
+      <c r="CL118" s="14">
+        <v>12.76533827671941</v>
+      </c>
+      <c r="CM118" s="14">
+        <v>11.446873081178458</v>
+      </c>
       <c r="CN118" s="9"/>
       <c r="CO118" s="9"/>
       <c r="CP118" s="9"/>
@@ -38491,7 +38094,7 @@
       <c r="EW118" s="9"/>
       <c r="EX118" s="9"/>
     </row>
-    <row r="119" spans="1:154" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:154" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A119" s="1" t="s">
         <v>14</v>
       </c>
@@ -38723,46 +38326,48 @@
       <c r="BY119" s="14">
         <v>5.9271271316602476</v>
       </c>
-      <c r="BZ119" s="21">
+      <c r="BZ119" s="14">
         <v>4.7598257564266087</v>
       </c>
-      <c r="CA119" s="21">
+      <c r="CA119" s="14">
         <v>5.3936399859754909</v>
       </c>
-      <c r="CB119" s="21">
+      <c r="CB119" s="14">
         <v>4.8956239042381533</v>
       </c>
-      <c r="CC119" s="21">
+      <c r="CC119" s="14">
         <v>5.7513207002562607</v>
       </c>
-      <c r="CD119" s="29">
+      <c r="CD119" s="14">
         <v>4.9242135672758254</v>
       </c>
-      <c r="CE119" s="29">
+      <c r="CE119" s="14">
         <v>5.4480437479426449</v>
       </c>
-      <c r="CF119" s="29">
+      <c r="CF119" s="14">
         <v>4.7930759535646077</v>
       </c>
-      <c r="CG119" s="29">
+      <c r="CG119" s="14">
         <v>5.5997371061836869</v>
       </c>
-      <c r="CH119" s="29">
+      <c r="CH119" s="14">
         <v>4.8594509074514525</v>
       </c>
-      <c r="CI119" s="29">
+      <c r="CI119" s="14">
         <v>5.2872599769572757</v>
       </c>
-      <c r="CJ119" s="29">
+      <c r="CJ119" s="14">
         <v>4.911702490774454</v>
       </c>
-      <c r="CK119" s="29">
+      <c r="CK119" s="14">
         <v>5.4688221064500127</v>
       </c>
-      <c r="CL119" s="29">
-        <v>4.9380820645401151</v>
-      </c>
-      <c r="CM119" s="9"/>
+      <c r="CL119" s="14">
+        <v>4.8822363202574905</v>
+      </c>
+      <c r="CM119" s="14">
+        <v>5.230461404680133</v>
+      </c>
       <c r="CN119" s="9"/>
       <c r="CO119" s="9"/>
       <c r="CP119" s="9"/>
@@ -38827,7 +38432,7 @@
       <c r="EW119" s="9"/>
       <c r="EX119" s="9"/>
     </row>
-    <row r="120" spans="1:154" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:154" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B120" s="14"/>
       <c r="C120" s="14"/>
       <c r="D120" s="14"/>
@@ -38904,20 +38509,20 @@
       <c r="BW120" s="14"/>
       <c r="BX120" s="14"/>
       <c r="BY120" s="14"/>
-      <c r="BZ120" s="21"/>
-      <c r="CA120" s="21"/>
-      <c r="CB120" s="21"/>
-      <c r="CC120" s="21"/>
-      <c r="CD120" s="29"/>
-      <c r="CE120" s="29"/>
-      <c r="CF120" s="29"/>
-      <c r="CG120" s="29"/>
-      <c r="CH120" s="29"/>
-      <c r="CI120" s="29"/>
-      <c r="CJ120" s="29"/>
-      <c r="CK120" s="29"/>
-      <c r="CL120" s="29"/>
-      <c r="CM120" s="9"/>
+      <c r="BZ120" s="14"/>
+      <c r="CA120" s="14"/>
+      <c r="CB120" s="14"/>
+      <c r="CC120" s="14"/>
+      <c r="CD120" s="14"/>
+      <c r="CE120" s="14"/>
+      <c r="CF120" s="14"/>
+      <c r="CG120" s="14"/>
+      <c r="CH120" s="14"/>
+      <c r="CI120" s="14"/>
+      <c r="CJ120" s="14"/>
+      <c r="CK120" s="14"/>
+      <c r="CL120" s="14"/>
+      <c r="CM120" s="14"/>
       <c r="CN120" s="9"/>
       <c r="CO120" s="9"/>
       <c r="CP120" s="9"/>
@@ -38982,7 +38587,7 @@
       <c r="EW120" s="9"/>
       <c r="EX120" s="9"/>
     </row>
-    <row r="121" spans="1:154" ht="30.6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:154" ht="30.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A121" s="10" t="s">
         <v>15</v>
       </c>
@@ -39214,46 +38819,48 @@
       <c r="BY121" s="14">
         <v>100</v>
       </c>
-      <c r="BZ121" s="21">
+      <c r="BZ121" s="14">
         <v>100</v>
       </c>
-      <c r="CA121" s="21">
+      <c r="CA121" s="14">
         <v>100</v>
       </c>
-      <c r="CB121" s="21">
+      <c r="CB121" s="14">
         <v>100</v>
       </c>
-      <c r="CC121" s="21">
+      <c r="CC121" s="14">
         <v>100</v>
       </c>
-      <c r="CD121" s="29">
+      <c r="CD121" s="14">
         <v>100</v>
       </c>
-      <c r="CE121" s="29">
+      <c r="CE121" s="14">
         <v>100</v>
       </c>
-      <c r="CF121" s="29">
+      <c r="CF121" s="14">
         <v>100</v>
       </c>
-      <c r="CG121" s="29">
+      <c r="CG121" s="14">
         <v>100</v>
       </c>
-      <c r="CH121" s="29">
+      <c r="CH121" s="14">
         <v>100</v>
       </c>
-      <c r="CI121" s="29">
+      <c r="CI121" s="14">
         <v>100</v>
       </c>
-      <c r="CJ121" s="29">
+      <c r="CJ121" s="14">
         <v>100</v>
       </c>
-      <c r="CK121" s="29">
+      <c r="CK121" s="14">
         <v>100</v>
       </c>
-      <c r="CL121" s="29">
+      <c r="CL121" s="14">
         <v>100</v>
       </c>
-      <c r="CM121" s="9"/>
+      <c r="CM121" s="14">
+        <v>100</v>
+      </c>
       <c r="CN121" s="9"/>
       <c r="CO121" s="9"/>
       <c r="CP121" s="9"/>
@@ -39318,7 +38925,7 @@
       <c r="EW121" s="9"/>
       <c r="EX121" s="9"/>
     </row>
-    <row r="122" spans="1:154" ht="7.15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:154" ht="7.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A122" s="12"/>
       <c r="B122" s="12"/>
       <c r="C122" s="12"/>
@@ -39396,35 +39003,27 @@
       <c r="BW122" s="12"/>
       <c r="BX122" s="12"/>
       <c r="BY122" s="12"/>
-      <c r="BZ122" s="20"/>
-      <c r="CA122" s="20"/>
-      <c r="CB122" s="20"/>
-      <c r="CC122" s="20"/>
-      <c r="CD122" s="27"/>
-      <c r="CE122" s="27"/>
-      <c r="CF122" s="27"/>
-      <c r="CG122" s="27"/>
-      <c r="CH122" s="27"/>
-      <c r="CI122" s="27"/>
-      <c r="CJ122" s="27"/>
-      <c r="CK122" s="27"/>
-      <c r="CL122" s="27"/>
+      <c r="BZ122" s="12"/>
+      <c r="CA122" s="12"/>
+      <c r="CB122" s="12"/>
+      <c r="CC122" s="12"/>
+      <c r="CD122" s="12"/>
+      <c r="CE122" s="12"/>
+      <c r="CF122" s="12"/>
+      <c r="CG122" s="12"/>
+      <c r="CH122" s="12"/>
+      <c r="CI122" s="12"/>
+      <c r="CJ122" s="12"/>
+      <c r="CK122" s="12"/>
+      <c r="CL122" s="12"/>
+      <c r="CM122" s="12"/>
     </row>
-    <row r="123" spans="1:154" ht="15" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:154" x14ac:dyDescent="0.25">
       <c r="A123" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="CD123" s="23"/>
-      <c r="CE123" s="23"/>
-      <c r="CF123" s="23"/>
-      <c r="CG123" s="23"/>
-      <c r="CH123" s="23"/>
-      <c r="CI123" s="23"/>
-      <c r="CJ123" s="23"/>
-      <c r="CK123" s="23"/>
-      <c r="CL123" s="23"/>
     </row>
-    <row r="124" spans="1:154" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:154" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B124" s="9"/>
       <c r="C124" s="9"/>
       <c r="D124" s="9"/>
@@ -39501,19 +39100,19 @@
       <c r="BW124" s="9"/>
       <c r="BX124" s="9"/>
       <c r="BY124" s="9"/>
-      <c r="BZ124" s="18"/>
-      <c r="CA124" s="18"/>
-      <c r="CB124" s="18"/>
-      <c r="CC124" s="18"/>
-      <c r="CD124" s="28"/>
-      <c r="CE124" s="28"/>
-      <c r="CF124" s="28"/>
-      <c r="CG124" s="28"/>
-      <c r="CH124" s="28"/>
-      <c r="CI124" s="28"/>
-      <c r="CJ124" s="28"/>
-      <c r="CK124" s="28"/>
-      <c r="CL124" s="28"/>
+      <c r="BZ124" s="9"/>
+      <c r="CA124" s="9"/>
+      <c r="CB124" s="9"/>
+      <c r="CC124" s="9"/>
+      <c r="CD124" s="9"/>
+      <c r="CE124" s="9"/>
+      <c r="CF124" s="9"/>
+      <c r="CG124" s="9"/>
+      <c r="CH124" s="9"/>
+      <c r="CI124" s="9"/>
+      <c r="CJ124" s="9"/>
+      <c r="CK124" s="9"/>
+      <c r="CL124" s="9"/>
       <c r="CM124" s="9"/>
       <c r="CN124" s="9"/>
       <c r="CO124" s="9"/>
@@ -39579,7 +39178,7 @@
       <c r="EW124" s="9"/>
       <c r="EX124" s="9"/>
     </row>
-    <row r="125" spans="1:154" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:154" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B125" s="9"/>
       <c r="C125" s="9"/>
       <c r="D125" s="9"/>
@@ -39656,19 +39255,19 @@
       <c r="BW125" s="9"/>
       <c r="BX125" s="9"/>
       <c r="BY125" s="9"/>
-      <c r="BZ125" s="18"/>
-      <c r="CA125" s="18"/>
-      <c r="CB125" s="18"/>
-      <c r="CC125" s="18"/>
-      <c r="CD125" s="28"/>
-      <c r="CE125" s="28"/>
-      <c r="CF125" s="28"/>
-      <c r="CG125" s="28"/>
-      <c r="CH125" s="28"/>
-      <c r="CI125" s="28"/>
-      <c r="CJ125" s="28"/>
-      <c r="CK125" s="28"/>
-      <c r="CL125" s="28"/>
+      <c r="BZ125" s="9"/>
+      <c r="CA125" s="9"/>
+      <c r="CB125" s="9"/>
+      <c r="CC125" s="9"/>
+      <c r="CD125" s="9"/>
+      <c r="CE125" s="9"/>
+      <c r="CF125" s="9"/>
+      <c r="CG125" s="9"/>
+      <c r="CH125" s="9"/>
+      <c r="CI125" s="9"/>
+      <c r="CJ125" s="9"/>
+      <c r="CK125" s="9"/>
+      <c r="CL125" s="9"/>
       <c r="CM125" s="9"/>
       <c r="CN125" s="9"/>
       <c r="CO125" s="9"/>
@@ -39734,229 +39333,176 @@
       <c r="EW125" s="9"/>
       <c r="EX125" s="9"/>
     </row>
-    <row r="126" spans="1:154" ht="15" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:154" x14ac:dyDescent="0.25">
       <c r="A126" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="CD126" s="23"/>
-      <c r="CE126" s="23"/>
-      <c r="CF126" s="23"/>
-      <c r="CG126" s="23"/>
-      <c r="CH126" s="23"/>
-      <c r="CI126" s="23"/>
-      <c r="CJ126" s="23"/>
-      <c r="CK126" s="23"/>
-      <c r="CL126" s="23"/>
     </row>
-    <row r="127" spans="1:154" ht="15" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:154" x14ac:dyDescent="0.25">
       <c r="A127" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="CD127" s="23"/>
-      <c r="CE127" s="23"/>
-      <c r="CF127" s="23"/>
-      <c r="CG127" s="23"/>
-      <c r="CH127" s="23"/>
-      <c r="CI127" s="23"/>
-      <c r="CJ127" s="23"/>
-      <c r="CK127" s="23"/>
-      <c r="CL127" s="23"/>
     </row>
-    <row r="128" spans="1:154" ht="15" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:154" x14ac:dyDescent="0.25">
       <c r="A128" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="CD128" s="23"/>
-      <c r="CE128" s="23"/>
-      <c r="CF128" s="23"/>
-      <c r="CG128" s="23"/>
-      <c r="CH128" s="23"/>
-      <c r="CI128" s="23"/>
-      <c r="CJ128" s="23"/>
-      <c r="CK128" s="23"/>
-      <c r="CL128" s="23"/>
     </row>
-    <row r="130" spans="1:154" ht="15" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:154" x14ac:dyDescent="0.25">
       <c r="A130" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="CD130" s="23"/>
-      <c r="CE130" s="23"/>
-      <c r="CF130" s="23"/>
-      <c r="CG130" s="23"/>
-      <c r="CH130" s="23"/>
-      <c r="CI130" s="23"/>
-      <c r="CJ130" s="23"/>
-      <c r="CK130" s="23"/>
-      <c r="CL130" s="23"/>
     </row>
-    <row r="131" spans="1:154" ht="15" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:154" x14ac:dyDescent="0.25">
       <c r="A131" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="CD131" s="23"/>
-      <c r="CE131" s="23"/>
-      <c r="CF131" s="23"/>
-      <c r="CG131" s="23"/>
-      <c r="CH131" s="23"/>
-      <c r="CI131" s="23"/>
-      <c r="CJ131" s="23"/>
-      <c r="CK131" s="23"/>
-      <c r="CL131" s="23"/>
     </row>
-    <row r="132" spans="1:154" ht="15" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:154" x14ac:dyDescent="0.25">
       <c r="A132" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="CD132" s="23"/>
-      <c r="CE132" s="23"/>
-      <c r="CF132" s="23"/>
-      <c r="CG132" s="23"/>
-      <c r="CH132" s="23"/>
-      <c r="CI132" s="23"/>
-      <c r="CJ132" s="23"/>
-      <c r="CK132" s="23"/>
-      <c r="CL132" s="23"/>
     </row>
-    <row r="134" spans="1:154" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:154" x14ac:dyDescent="0.25">
       <c r="A134" s="4"/>
-      <c r="B134" s="33">
+      <c r="B134" s="18">
         <v>2000</v>
       </c>
-      <c r="C134" s="34"/>
-      <c r="D134" s="34"/>
-      <c r="E134" s="34"/>
-      <c r="F134" s="33">
+      <c r="C134" s="20"/>
+      <c r="D134" s="20"/>
+      <c r="E134" s="20"/>
+      <c r="F134" s="18">
         <v>2001</v>
       </c>
-      <c r="G134" s="34"/>
-      <c r="H134" s="34"/>
-      <c r="I134" s="34"/>
-      <c r="J134" s="33">
+      <c r="G134" s="20"/>
+      <c r="H134" s="20"/>
+      <c r="I134" s="20"/>
+      <c r="J134" s="18">
         <v>2002</v>
       </c>
-      <c r="K134" s="34"/>
-      <c r="L134" s="34"/>
-      <c r="M134" s="34"/>
-      <c r="N134" s="33">
+      <c r="K134" s="20"/>
+      <c r="L134" s="20"/>
+      <c r="M134" s="20"/>
+      <c r="N134" s="18">
         <v>2003</v>
       </c>
-      <c r="O134" s="34"/>
-      <c r="P134" s="34"/>
-      <c r="Q134" s="34"/>
-      <c r="R134" s="33">
+      <c r="O134" s="20"/>
+      <c r="P134" s="20"/>
+      <c r="Q134" s="20"/>
+      <c r="R134" s="18">
         <v>2004</v>
       </c>
-      <c r="S134" s="34"/>
-      <c r="T134" s="34"/>
-      <c r="U134" s="34"/>
-      <c r="V134" s="33">
+      <c r="S134" s="20"/>
+      <c r="T134" s="20"/>
+      <c r="U134" s="20"/>
+      <c r="V134" s="18">
         <v>2005</v>
       </c>
-      <c r="W134" s="34"/>
-      <c r="X134" s="34"/>
-      <c r="Y134" s="34"/>
-      <c r="Z134" s="33">
+      <c r="W134" s="20"/>
+      <c r="X134" s="20"/>
+      <c r="Y134" s="20"/>
+      <c r="Z134" s="18">
         <v>2006</v>
       </c>
-      <c r="AA134" s="34"/>
-      <c r="AB134" s="34"/>
-      <c r="AC134" s="34"/>
-      <c r="AD134" s="33">
+      <c r="AA134" s="20"/>
+      <c r="AB134" s="20"/>
+      <c r="AC134" s="20"/>
+      <c r="AD134" s="18">
         <v>2007</v>
       </c>
-      <c r="AE134" s="34"/>
-      <c r="AF134" s="34"/>
-      <c r="AG134" s="34"/>
-      <c r="AH134" s="33">
+      <c r="AE134" s="20"/>
+      <c r="AF134" s="20"/>
+      <c r="AG134" s="20"/>
+      <c r="AH134" s="18">
         <v>2008</v>
       </c>
-      <c r="AI134" s="34"/>
-      <c r="AJ134" s="34"/>
-      <c r="AK134" s="34"/>
-      <c r="AL134" s="33">
+      <c r="AI134" s="20"/>
+      <c r="AJ134" s="20"/>
+      <c r="AK134" s="20"/>
+      <c r="AL134" s="18">
         <v>2009</v>
       </c>
-      <c r="AM134" s="34"/>
-      <c r="AN134" s="34"/>
-      <c r="AO134" s="34"/>
-      <c r="AP134" s="33">
+      <c r="AM134" s="20"/>
+      <c r="AN134" s="20"/>
+      <c r="AO134" s="20"/>
+      <c r="AP134" s="18">
         <v>2010</v>
       </c>
-      <c r="AQ134" s="34"/>
-      <c r="AR134" s="34"/>
-      <c r="AS134" s="34"/>
-      <c r="AT134" s="33">
+      <c r="AQ134" s="20"/>
+      <c r="AR134" s="20"/>
+      <c r="AS134" s="20"/>
+      <c r="AT134" s="18">
         <v>2011</v>
       </c>
-      <c r="AU134" s="34"/>
-      <c r="AV134" s="34"/>
-      <c r="AW134" s="34"/>
-      <c r="AX134" s="33">
+      <c r="AU134" s="20"/>
+      <c r="AV134" s="20"/>
+      <c r="AW134" s="20"/>
+      <c r="AX134" s="18">
         <v>2012</v>
       </c>
-      <c r="AY134" s="34"/>
-      <c r="AZ134" s="34"/>
-      <c r="BA134" s="34"/>
-      <c r="BB134" s="33">
+      <c r="AY134" s="20"/>
+      <c r="AZ134" s="20"/>
+      <c r="BA134" s="20"/>
+      <c r="BB134" s="18">
         <v>2013</v>
       </c>
-      <c r="BC134" s="34"/>
-      <c r="BD134" s="34"/>
-      <c r="BE134" s="34"/>
-      <c r="BF134" s="33">
+      <c r="BC134" s="20"/>
+      <c r="BD134" s="20"/>
+      <c r="BE134" s="20"/>
+      <c r="BF134" s="18">
         <v>2014</v>
       </c>
-      <c r="BG134" s="34"/>
-      <c r="BH134" s="34"/>
-      <c r="BI134" s="34"/>
-      <c r="BJ134" s="33">
+      <c r="BG134" s="20"/>
+      <c r="BH134" s="20"/>
+      <c r="BI134" s="20"/>
+      <c r="BJ134" s="18">
         <v>2015</v>
       </c>
-      <c r="BK134" s="34"/>
-      <c r="BL134" s="34"/>
-      <c r="BM134" s="34"/>
-      <c r="BN134" s="33">
+      <c r="BK134" s="20"/>
+      <c r="BL134" s="20"/>
+      <c r="BM134" s="20"/>
+      <c r="BN134" s="18">
         <v>2016</v>
       </c>
-      <c r="BO134" s="34"/>
-      <c r="BP134" s="34"/>
-      <c r="BQ134" s="34"/>
-      <c r="BR134" s="33">
+      <c r="BO134" s="20"/>
+      <c r="BP134" s="20"/>
+      <c r="BQ134" s="20"/>
+      <c r="BR134" s="18">
         <v>2017</v>
       </c>
-      <c r="BS134" s="34"/>
-      <c r="BT134" s="34"/>
-      <c r="BU134" s="34"/>
-      <c r="BV134" s="33">
+      <c r="BS134" s="20"/>
+      <c r="BT134" s="20"/>
+      <c r="BU134" s="20"/>
+      <c r="BV134" s="18">
         <v>2018</v>
       </c>
-      <c r="BW134" s="34"/>
-      <c r="BX134" s="34"/>
-      <c r="BY134" s="34"/>
-      <c r="BZ134" s="35">
+      <c r="BW134" s="20"/>
+      <c r="BX134" s="20"/>
+      <c r="BY134" s="20"/>
+      <c r="BZ134" s="18">
         <v>2019</v>
       </c>
-      <c r="CA134" s="36"/>
-      <c r="CB134" s="36"/>
-      <c r="CC134" s="36"/>
-      <c r="CD134" s="35">
+      <c r="CA134" s="20"/>
+      <c r="CB134" s="20"/>
+      <c r="CC134" s="20"/>
+      <c r="CD134" s="18">
         <v>2020</v>
       </c>
-      <c r="CE134" s="35"/>
-      <c r="CF134" s="35"/>
-      <c r="CG134" s="35"/>
-      <c r="CH134" s="35">
+      <c r="CE134" s="20"/>
+      <c r="CF134" s="20"/>
+      <c r="CG134" s="20"/>
+      <c r="CH134" s="18">
         <v>2021</v>
       </c>
-      <c r="CI134" s="35"/>
-      <c r="CJ134" s="35"/>
-      <c r="CK134" s="35"/>
-      <c r="CL134" s="32">
+      <c r="CI134" s="18"/>
+      <c r="CJ134" s="18"/>
+      <c r="CK134" s="18"/>
+      <c r="CL134" s="18">
         <v>2022</v>
       </c>
+      <c r="CM134" s="18"/>
     </row>
-    <row r="135" spans="1:154" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:154" x14ac:dyDescent="0.25">
       <c r="A135" s="5" t="s">
         <v>4</v>
       </c>
@@ -40188,59 +39734,53 @@
       <c r="BY135" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="BZ135" s="16" t="s">
+      <c r="BZ135" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="CA135" s="16" t="s">
+      <c r="CA135" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="CB135" s="16" t="s">
+      <c r="CB135" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="CC135" s="16" t="s">
+      <c r="CC135" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="CD135" s="26" t="s">
+      <c r="CD135" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="CE135" s="26" t="s">
+      <c r="CE135" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="CF135" s="26" t="s">
+      <c r="CF135" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="CG135" s="26" t="s">
+      <c r="CG135" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="CH135" s="26" t="s">
+      <c r="CH135" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="CI135" s="26" t="s">
+      <c r="CI135" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="CJ135" s="26" t="s">
+      <c r="CJ135" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="CK135" s="26" t="s">
+      <c r="CK135" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="CL135" s="26" t="s">
+      <c r="CL135" s="6" t="s">
         <v>7</v>
       </c>
+      <c r="CM135" s="6" t="s">
+        <v>8</v>
+      </c>
     </row>
-    <row r="136" spans="1:154" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:154" ht="10.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A136" s="7"/>
-      <c r="CD136" s="23"/>
-      <c r="CE136" s="23"/>
-      <c r="CF136" s="23"/>
-      <c r="CG136" s="23"/>
-      <c r="CH136" s="23"/>
-      <c r="CI136" s="23"/>
-      <c r="CJ136" s="23"/>
-      <c r="CK136" s="23"/>
-      <c r="CL136" s="23"/>
     </row>
-    <row r="137" spans="1:154" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:154" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A137" s="1" t="s">
         <v>11</v>
       </c>
@@ -40472,46 +40012,48 @@
       <c r="BY137" s="14">
         <v>45.770093659831232</v>
       </c>
-      <c r="BZ137" s="21">
+      <c r="BZ137" s="14">
         <v>54.362633999326818</v>
       </c>
-      <c r="CA137" s="21">
+      <c r="CA137" s="14">
         <v>43.496024046714091</v>
       </c>
-      <c r="CB137" s="21">
+      <c r="CB137" s="14">
         <v>51.842255813981311</v>
       </c>
-      <c r="CC137" s="21">
+      <c r="CC137" s="14">
         <v>46.753526636676256</v>
       </c>
-      <c r="CD137" s="29">
+      <c r="CD137" s="14">
         <v>57.871188567987872</v>
       </c>
-      <c r="CE137" s="29">
+      <c r="CE137" s="14">
         <v>47.350269400242603</v>
       </c>
-      <c r="CF137" s="29">
+      <c r="CF137" s="14">
         <v>54.986743410895237</v>
       </c>
-      <c r="CG137" s="29">
+      <c r="CG137" s="14">
         <v>48.79289674854784</v>
       </c>
-      <c r="CH137" s="29">
+      <c r="CH137" s="14">
         <v>58.280625467833325</v>
       </c>
-      <c r="CI137" s="29">
+      <c r="CI137" s="14">
         <v>46.3342907727464</v>
       </c>
-      <c r="CJ137" s="29">
+      <c r="CJ137" s="14">
         <v>54.413769901010632</v>
       </c>
-      <c r="CK137" s="29">
+      <c r="CK137" s="14">
         <v>47.672191887717126</v>
       </c>
-      <c r="CL137" s="29">
-        <v>57.932158423054112</v>
-      </c>
-      <c r="CM137" s="9"/>
+      <c r="CL137" s="14">
+        <v>58.072533641588286</v>
+      </c>
+      <c r="CM137" s="14">
+        <v>46.575267573434793</v>
+      </c>
       <c r="CN137" s="9"/>
       <c r="CO137" s="9"/>
       <c r="CP137" s="9"/>
@@ -40576,7 +40118,7 @@
       <c r="EW137" s="9"/>
       <c r="EX137" s="9"/>
     </row>
-    <row r="138" spans="1:154" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:154" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A138" s="10" t="s">
         <v>12</v>
       </c>
@@ -40808,46 +40350,48 @@
       <c r="BY138" s="14">
         <v>31.023312059723519</v>
       </c>
-      <c r="BZ138" s="21">
+      <c r="BZ138" s="14">
         <v>25.922184555561472</v>
       </c>
-      <c r="CA138" s="21">
+      <c r="CA138" s="14">
         <v>37.663357489559942</v>
       </c>
-      <c r="CB138" s="21">
+      <c r="CB138" s="14">
         <v>27.725374725216902</v>
       </c>
-      <c r="CC138" s="21">
+      <c r="CC138" s="14">
         <v>31.216268894142306</v>
       </c>
-      <c r="CD138" s="29">
+      <c r="CD138" s="14">
         <v>24.20051166757063</v>
       </c>
-      <c r="CE138" s="29">
+      <c r="CE138" s="14">
         <v>36.037345242557478</v>
       </c>
-      <c r="CF138" s="29">
+      <c r="CF138" s="14">
         <v>27.058728793971081</v>
       </c>
-      <c r="CG138" s="29">
+      <c r="CG138" s="14">
         <v>30.824247706570034</v>
       </c>
-      <c r="CH138" s="29">
+      <c r="CH138" s="14">
         <v>24.024140061611266</v>
       </c>
-      <c r="CI138" s="29">
+      <c r="CI138" s="14">
         <v>36.140751453094154</v>
       </c>
-      <c r="CJ138" s="29">
+      <c r="CJ138" s="14">
         <v>26.703185136497382</v>
       </c>
-      <c r="CK138" s="29">
+      <c r="CK138" s="14">
         <v>31.488306690391809</v>
       </c>
-      <c r="CL138" s="29">
-        <v>24.644875257445765</v>
-      </c>
-      <c r="CM138" s="9"/>
+      <c r="CL138" s="14">
+        <v>24.617425570062998</v>
+      </c>
+      <c r="CM138" s="14">
+        <v>36.469866678192261</v>
+      </c>
       <c r="CN138" s="9"/>
       <c r="CO138" s="9"/>
       <c r="CP138" s="9"/>
@@ -40912,7 +40456,7 @@
       <c r="EW138" s="9"/>
       <c r="EX138" s="9"/>
     </row>
-    <row r="139" spans="1:154" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:154" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A139" s="1" t="s">
         <v>13</v>
       </c>
@@ -41144,46 +40688,48 @@
       <c r="BY139" s="14">
         <v>17.210431672646319</v>
       </c>
-      <c r="BZ139" s="21">
+      <c r="BZ139" s="14">
         <v>14.943342187173744</v>
       </c>
-      <c r="CA139" s="21">
+      <c r="CA139" s="14">
         <v>13.453645054853736</v>
       </c>
-      <c r="CB139" s="21">
+      <c r="CB139" s="14">
         <v>15.527635423798108</v>
       </c>
-      <c r="CC139" s="21">
+      <c r="CC139" s="14">
         <v>16.27276944296629</v>
       </c>
-      <c r="CD139" s="29">
+      <c r="CD139" s="14">
         <v>13.023910819488504</v>
       </c>
-      <c r="CE139" s="29">
+      <c r="CE139" s="14">
         <v>11.187814418983724</v>
       </c>
-      <c r="CF139" s="29">
+      <c r="CF139" s="14">
         <v>13.186642417208343</v>
       </c>
-      <c r="CG139" s="29">
+      <c r="CG139" s="14">
         <v>14.781206566188054</v>
       </c>
-      <c r="CH139" s="29">
+      <c r="CH139" s="14">
         <v>12.889810709433474</v>
       </c>
-      <c r="CI139" s="29">
+      <c r="CI139" s="14">
         <v>12.279569551716122</v>
       </c>
-      <c r="CJ139" s="29">
+      <c r="CJ139" s="14">
         <v>14.024459337453186</v>
       </c>
-      <c r="CK139" s="29">
+      <c r="CK139" s="14">
         <v>15.404834409993487</v>
       </c>
-      <c r="CL139" s="29">
-        <v>12.564242979411965</v>
-      </c>
-      <c r="CM139" s="9"/>
+      <c r="CL139" s="14">
+        <v>12.504480396615881</v>
+      </c>
+      <c r="CM139" s="14">
+        <v>11.799826717581235</v>
+      </c>
       <c r="CN139" s="9"/>
       <c r="CO139" s="9"/>
       <c r="CP139" s="9"/>
@@ -41248,7 +40794,7 @@
       <c r="EW139" s="9"/>
       <c r="EX139" s="9"/>
     </row>
-    <row r="140" spans="1:154" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:154" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A140" s="1" t="s">
         <v>14</v>
       </c>
@@ -41480,46 +41026,48 @@
       <c r="BY140" s="14">
         <v>5.9961626077989285</v>
       </c>
-      <c r="BZ140" s="21">
+      <c r="BZ140" s="14">
         <v>4.7718392579379652</v>
       </c>
-      <c r="CA140" s="21">
+      <c r="CA140" s="14">
         <v>5.3869734088722323</v>
       </c>
-      <c r="CB140" s="21">
+      <c r="CB140" s="14">
         <v>4.9047340370036947</v>
       </c>
-      <c r="CC140" s="21">
+      <c r="CC140" s="14">
         <v>5.7574350262151341</v>
       </c>
-      <c r="CD140" s="29">
+      <c r="CD140" s="14">
         <v>4.9043889449529816</v>
       </c>
-      <c r="CE140" s="29">
+      <c r="CE140" s="14">
         <v>5.4245709382161937</v>
       </c>
-      <c r="CF140" s="29">
+      <c r="CF140" s="14">
         <v>4.7678853779253387</v>
       </c>
-      <c r="CG140" s="29">
+      <c r="CG140" s="14">
         <v>5.6016489786940724</v>
       </c>
-      <c r="CH140" s="29">
+      <c r="CH140" s="14">
         <v>4.8054237611219328</v>
       </c>
-      <c r="CI140" s="29">
+      <c r="CI140" s="14">
         <v>5.245388222443327</v>
       </c>
-      <c r="CJ140" s="29">
+      <c r="CJ140" s="14">
         <v>4.8585856250387964</v>
       </c>
-      <c r="CK140" s="29">
+      <c r="CK140" s="14">
         <v>5.4346670118975702</v>
       </c>
-      <c r="CL140" s="29">
-        <v>4.8587233400881491</v>
-      </c>
-      <c r="CM140" s="9"/>
+      <c r="CL140" s="14">
+        <v>4.8055603917328362</v>
+      </c>
+      <c r="CM140" s="14">
+        <v>5.1550390307917082</v>
+      </c>
       <c r="CN140" s="9"/>
       <c r="CO140" s="9"/>
       <c r="CP140" s="9"/>
@@ -41584,7 +41132,7 @@
       <c r="EW140" s="9"/>
       <c r="EX140" s="9"/>
     </row>
-    <row r="141" spans="1:154" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:154" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B141" s="9"/>
       <c r="C141" s="9"/>
       <c r="D141" s="9"/>
@@ -41661,19 +41209,19 @@
       <c r="BW141" s="9"/>
       <c r="BX141" s="9"/>
       <c r="BY141" s="9"/>
-      <c r="BZ141" s="18"/>
-      <c r="CA141" s="18"/>
-      <c r="CB141" s="18"/>
-      <c r="CC141" s="18"/>
-      <c r="CD141" s="28"/>
-      <c r="CE141" s="28"/>
-      <c r="CF141" s="28"/>
-      <c r="CG141" s="28"/>
-      <c r="CH141" s="28"/>
-      <c r="CI141" s="28"/>
-      <c r="CJ141" s="28"/>
-      <c r="CK141" s="28"/>
-      <c r="CL141" s="28"/>
+      <c r="BZ141" s="9"/>
+      <c r="CA141" s="9"/>
+      <c r="CB141" s="9"/>
+      <c r="CC141" s="9"/>
+      <c r="CD141" s="9"/>
+      <c r="CE141" s="9"/>
+      <c r="CF141" s="9"/>
+      <c r="CG141" s="9"/>
+      <c r="CH141" s="9"/>
+      <c r="CI141" s="9"/>
+      <c r="CJ141" s="9"/>
+      <c r="CK141" s="9"/>
+      <c r="CL141" s="9"/>
       <c r="CM141" s="9"/>
       <c r="CN141" s="9"/>
       <c r="CO141" s="9"/>
@@ -41739,7 +41287,7 @@
       <c r="EW141" s="9"/>
       <c r="EX141" s="9"/>
     </row>
-    <row r="142" spans="1:154" ht="30.6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:154" ht="30.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A142" s="10" t="s">
         <v>15</v>
       </c>
@@ -41971,46 +41519,48 @@
       <c r="BY142" s="14">
         <v>100</v>
       </c>
-      <c r="BZ142" s="21">
+      <c r="BZ142" s="14">
         <v>100</v>
       </c>
-      <c r="CA142" s="21">
+      <c r="CA142" s="14">
         <v>100</v>
       </c>
-      <c r="CB142" s="21">
+      <c r="CB142" s="14">
         <v>100</v>
       </c>
-      <c r="CC142" s="21">
+      <c r="CC142" s="14">
         <v>100</v>
       </c>
-      <c r="CD142" s="29">
+      <c r="CD142" s="14">
         <v>100</v>
       </c>
-      <c r="CE142" s="29">
+      <c r="CE142" s="14">
         <v>100</v>
       </c>
-      <c r="CF142" s="29">
+      <c r="CF142" s="14">
         <v>100</v>
       </c>
-      <c r="CG142" s="29">
+      <c r="CG142" s="14">
         <v>100</v>
       </c>
-      <c r="CH142" s="29">
+      <c r="CH142" s="14">
         <v>100</v>
       </c>
-      <c r="CI142" s="29">
+      <c r="CI142" s="14">
         <v>100</v>
       </c>
-      <c r="CJ142" s="29">
+      <c r="CJ142" s="14">
         <v>100</v>
       </c>
-      <c r="CK142" s="29">
+      <c r="CK142" s="14">
         <v>100</v>
       </c>
-      <c r="CL142" s="29">
+      <c r="CL142" s="14">
         <v>100</v>
       </c>
-      <c r="CM142" s="9"/>
+      <c r="CM142" s="14">
+        <v>100</v>
+      </c>
       <c r="CN142" s="9"/>
       <c r="CO142" s="9"/>
       <c r="CP142" s="9"/>
@@ -42075,7 +41625,7 @@
       <c r="EW142" s="9"/>
       <c r="EX142" s="9"/>
     </row>
-    <row r="143" spans="1:154" ht="7.15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:154" ht="7.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A143" s="12"/>
       <c r="B143" s="12"/>
       <c r="C143" s="12"/>
@@ -42153,324 +41703,132 @@
       <c r="BW143" s="12"/>
       <c r="BX143" s="12"/>
       <c r="BY143" s="12"/>
-      <c r="BZ143" s="20"/>
-      <c r="CA143" s="20"/>
-      <c r="CB143" s="20"/>
-      <c r="CC143" s="20"/>
-      <c r="CD143" s="27"/>
-      <c r="CE143" s="27"/>
-      <c r="CF143" s="27"/>
-      <c r="CG143" s="27"/>
-      <c r="CH143" s="27"/>
-      <c r="CI143" s="27"/>
-      <c r="CJ143" s="27"/>
-      <c r="CK143" s="27"/>
-      <c r="CL143" s="27"/>
+      <c r="BZ143" s="12"/>
+      <c r="CA143" s="12"/>
+      <c r="CB143" s="12"/>
+      <c r="CC143" s="12"/>
+      <c r="CD143" s="12"/>
+      <c r="CE143" s="12"/>
+      <c r="CF143" s="12"/>
+      <c r="CG143" s="12"/>
+      <c r="CH143" s="12"/>
+      <c r="CI143" s="12"/>
+      <c r="CJ143" s="12"/>
+      <c r="CK143" s="12"/>
+      <c r="CL143" s="12"/>
+      <c r="CM143" s="12"/>
     </row>
-    <row r="144" spans="1:154" ht="15" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:154" x14ac:dyDescent="0.25">
       <c r="A144" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="CD144" s="23"/>
-      <c r="CE144" s="23"/>
-      <c r="CF144" s="23"/>
-      <c r="CG144" s="23"/>
-      <c r="CH144" s="23"/>
-      <c r="CI144" s="23"/>
-      <c r="CJ144" s="23"/>
-      <c r="CK144" s="23"/>
-      <c r="CL144" s="23"/>
-    </row>
-    <row r="147" spans="81:90" ht="15" x14ac:dyDescent="0.2">
-      <c r="CD147" s="23"/>
-      <c r="CE147" s="23"/>
-      <c r="CF147" s="23"/>
-      <c r="CG147" s="23"/>
-      <c r="CH147" s="23"/>
-      <c r="CI147" s="23"/>
-      <c r="CJ147" s="23"/>
-      <c r="CK147" s="23"/>
-      <c r="CL147" s="23"/>
-    </row>
-    <row r="148" spans="81:90" ht="15" x14ac:dyDescent="0.2">
-      <c r="CD148" s="23"/>
-      <c r="CE148" s="23"/>
-      <c r="CF148" s="23"/>
-      <c r="CG148" s="23"/>
-      <c r="CH148" s="23"/>
-      <c r="CI148" s="23"/>
-      <c r="CJ148" s="23"/>
-      <c r="CK148" s="23"/>
-      <c r="CL148" s="23"/>
-    </row>
-    <row r="149" spans="81:90" ht="15" x14ac:dyDescent="0.2">
-      <c r="CD149" s="23"/>
-      <c r="CE149" s="23"/>
-      <c r="CF149" s="23"/>
-      <c r="CG149" s="23"/>
-      <c r="CH149" s="23"/>
-      <c r="CI149" s="23"/>
-      <c r="CJ149" s="23"/>
-      <c r="CK149" s="23"/>
-      <c r="CL149" s="23"/>
-    </row>
-    <row r="151" spans="81:90" ht="15" x14ac:dyDescent="0.2">
-      <c r="CD151" s="23"/>
-      <c r="CE151" s="23"/>
-      <c r="CF151" s="23"/>
-      <c r="CG151" s="23"/>
-      <c r="CH151" s="23"/>
-      <c r="CI151" s="23"/>
-      <c r="CJ151" s="23"/>
-      <c r="CK151" s="23"/>
-      <c r="CL151" s="23"/>
-    </row>
-    <row r="152" spans="81:90" ht="15" x14ac:dyDescent="0.2">
-      <c r="CD152" s="23"/>
-      <c r="CE152" s="23"/>
-      <c r="CF152" s="23"/>
-      <c r="CG152" s="23"/>
-      <c r="CH152" s="23"/>
-      <c r="CI152" s="23"/>
-      <c r="CJ152" s="23"/>
-      <c r="CK152" s="23"/>
-      <c r="CL152" s="23"/>
-    </row>
-    <row r="153" spans="81:90" x14ac:dyDescent="0.2">
-      <c r="CC153" s="1"/>
-      <c r="CD153" s="1"/>
-      <c r="CE153" s="1"/>
-      <c r="CF153" s="1"/>
-      <c r="CG153" s="1"/>
-      <c r="CH153" s="1"/>
-      <c r="CI153" s="1"/>
-      <c r="CJ153" s="1"/>
-      <c r="CK153" s="1"/>
-    </row>
-    <row r="154" spans="81:90" x14ac:dyDescent="0.2">
-      <c r="CC154" s="1"/>
-      <c r="CD154" s="1"/>
-      <c r="CE154" s="1"/>
-      <c r="CF154" s="1"/>
-      <c r="CG154" s="1"/>
-      <c r="CH154" s="1"/>
-      <c r="CI154" s="1"/>
-      <c r="CJ154" s="1"/>
-      <c r="CK154" s="1"/>
-    </row>
-    <row r="155" spans="81:90" x14ac:dyDescent="0.2">
-      <c r="CC155" s="1"/>
-      <c r="CD155" s="1"/>
-      <c r="CE155" s="1"/>
-      <c r="CF155" s="1"/>
-      <c r="CG155" s="1"/>
-      <c r="CH155" s="1"/>
-      <c r="CI155" s="1"/>
-      <c r="CJ155" s="1"/>
-      <c r="CK155" s="1"/>
-    </row>
-    <row r="156" spans="81:90" x14ac:dyDescent="0.2">
-      <c r="CC156" s="1"/>
-      <c r="CD156" s="1"/>
-      <c r="CE156" s="1"/>
-      <c r="CF156" s="1"/>
-      <c r="CG156" s="1"/>
-      <c r="CH156" s="1"/>
-      <c r="CI156" s="1"/>
-      <c r="CJ156" s="1"/>
-      <c r="CK156" s="1"/>
-    </row>
-    <row r="157" spans="81:90" x14ac:dyDescent="0.2">
-      <c r="CC157" s="1"/>
-      <c r="CD157" s="1"/>
-      <c r="CE157" s="1"/>
-      <c r="CF157" s="1"/>
-      <c r="CG157" s="1"/>
-      <c r="CH157" s="1"/>
-      <c r="CI157" s="1"/>
-      <c r="CJ157" s="1"/>
-      <c r="CK157" s="1"/>
-    </row>
-    <row r="158" spans="81:90" x14ac:dyDescent="0.2">
-      <c r="CC158" s="1"/>
-      <c r="CD158" s="1"/>
-      <c r="CE158" s="1"/>
-      <c r="CF158" s="1"/>
-      <c r="CG158" s="1"/>
-      <c r="CH158" s="1"/>
-      <c r="CI158" s="1"/>
-      <c r="CJ158" s="1"/>
-      <c r="CK158" s="1"/>
-    </row>
-    <row r="159" spans="81:90" x14ac:dyDescent="0.2">
-      <c r="CC159" s="1"/>
-      <c r="CD159" s="1"/>
-      <c r="CE159" s="1"/>
-      <c r="CF159" s="1"/>
-      <c r="CG159" s="1"/>
-      <c r="CH159" s="1"/>
-      <c r="CI159" s="1"/>
-      <c r="CJ159" s="1"/>
-      <c r="CK159" s="1"/>
-    </row>
-    <row r="160" spans="81:90" x14ac:dyDescent="0.2">
-      <c r="CC160" s="1"/>
-      <c r="CD160" s="1"/>
-      <c r="CE160" s="1"/>
-      <c r="CF160" s="1"/>
-      <c r="CG160" s="1"/>
-      <c r="CH160" s="1"/>
-      <c r="CI160" s="1"/>
-      <c r="CJ160" s="1"/>
-      <c r="CK160" s="1"/>
-    </row>
-    <row r="161" spans="81:89" x14ac:dyDescent="0.2">
-      <c r="CC161" s="1"/>
-      <c r="CD161" s="1"/>
-      <c r="CE161" s="1"/>
-      <c r="CF161" s="1"/>
-      <c r="CG161" s="1"/>
-      <c r="CH161" s="1"/>
-      <c r="CI161" s="1"/>
-      <c r="CJ161" s="1"/>
-      <c r="CK161" s="1"/>
-    </row>
-    <row r="162" spans="81:89" x14ac:dyDescent="0.2">
-      <c r="CC162" s="1"/>
-      <c r="CD162" s="1"/>
-      <c r="CE162" s="1"/>
-      <c r="CF162" s="1"/>
-      <c r="CG162" s="1"/>
-      <c r="CH162" s="1"/>
-      <c r="CI162" s="1"/>
-      <c r="CJ162" s="1"/>
-      <c r="CK162" s="1"/>
-    </row>
-    <row r="163" spans="81:89" x14ac:dyDescent="0.2">
-      <c r="CC163" s="1"/>
-      <c r="CD163" s="1"/>
-      <c r="CE163" s="1"/>
-      <c r="CF163" s="1"/>
-      <c r="CG163" s="1"/>
-      <c r="CH163" s="1"/>
-      <c r="CI163" s="1"/>
-      <c r="CJ163" s="1"/>
-      <c r="CK163" s="1"/>
-    </row>
-    <row r="164" spans="81:89" x14ac:dyDescent="0.2">
-      <c r="CC164" s="1"/>
-      <c r="CD164" s="1"/>
-      <c r="CE164" s="1"/>
-      <c r="CF164" s="1"/>
-      <c r="CG164" s="1"/>
-      <c r="CH164" s="1"/>
-      <c r="CI164" s="1"/>
-      <c r="CJ164" s="1"/>
-      <c r="CK164" s="1"/>
-    </row>
-    <row r="165" spans="81:89" x14ac:dyDescent="0.2">
-      <c r="CC165" s="1"/>
-      <c r="CD165" s="1"/>
-      <c r="CE165" s="1"/>
-      <c r="CF165" s="1"/>
-      <c r="CG165" s="1"/>
-      <c r="CH165" s="1"/>
-      <c r="CI165" s="1"/>
-      <c r="CJ165" s="1"/>
-      <c r="CK165" s="1"/>
-    </row>
-    <row r="166" spans="81:89" x14ac:dyDescent="0.2">
-      <c r="CC166" s="1"/>
-      <c r="CD166" s="1"/>
-      <c r="CE166" s="1"/>
-      <c r="CF166" s="1"/>
-      <c r="CG166" s="1"/>
-      <c r="CH166" s="1"/>
-      <c r="CI166" s="1"/>
-      <c r="CJ166" s="1"/>
-      <c r="CK166" s="1"/>
-    </row>
-    <row r="167" spans="81:89" x14ac:dyDescent="0.2">
-      <c r="CC167" s="1"/>
-      <c r="CD167" s="1"/>
-      <c r="CE167" s="1"/>
-      <c r="CF167" s="1"/>
-      <c r="CG167" s="1"/>
-      <c r="CH167" s="1"/>
-      <c r="CI167" s="1"/>
-      <c r="CJ167" s="1"/>
-      <c r="CK167" s="1"/>
-    </row>
-    <row r="168" spans="81:89" x14ac:dyDescent="0.2">
-      <c r="CC168" s="1"/>
-      <c r="CD168" s="1"/>
-      <c r="CE168" s="1"/>
-      <c r="CF168" s="1"/>
-      <c r="CG168" s="1"/>
-      <c r="CH168" s="1"/>
-      <c r="CI168" s="1"/>
-      <c r="CJ168" s="1"/>
-      <c r="CK168" s="1"/>
-    </row>
-    <row r="169" spans="81:89" x14ac:dyDescent="0.2">
-      <c r="CC169" s="1"/>
-      <c r="CD169" s="1"/>
-      <c r="CE169" s="1"/>
-      <c r="CF169" s="1"/>
-      <c r="CG169" s="1"/>
-      <c r="CH169" s="1"/>
-      <c r="CI169" s="1"/>
-      <c r="CJ169" s="1"/>
-      <c r="CK169" s="1"/>
-    </row>
-    <row r="170" spans="81:89" x14ac:dyDescent="0.2">
-      <c r="CC170" s="1"/>
-      <c r="CD170" s="1"/>
-      <c r="CE170" s="1"/>
-      <c r="CF170" s="1"/>
-      <c r="CG170" s="1"/>
-      <c r="CH170" s="1"/>
-      <c r="CI170" s="1"/>
-      <c r="CJ170" s="1"/>
-      <c r="CK170" s="1"/>
-    </row>
-    <row r="171" spans="81:89" x14ac:dyDescent="0.2">
-      <c r="CC171" s="1"/>
-      <c r="CD171" s="1"/>
-      <c r="CE171" s="1"/>
-      <c r="CF171" s="1"/>
-      <c r="CG171" s="1"/>
-      <c r="CH171" s="1"/>
-      <c r="CI171" s="1"/>
-      <c r="CJ171" s="1"/>
-      <c r="CK171" s="1"/>
     </row>
   </sheetData>
-  <mergeCells count="152">
-    <mergeCell ref="CD51:CG51"/>
-    <mergeCell ref="CD72:CG72"/>
-    <mergeCell ref="CD9:CG9"/>
-    <mergeCell ref="CD30:CG30"/>
-    <mergeCell ref="CD92:CG92"/>
-    <mergeCell ref="CD113:CG113"/>
-    <mergeCell ref="CD134:CG134"/>
-    <mergeCell ref="CH9:CK9"/>
-    <mergeCell ref="CH30:CK30"/>
-    <mergeCell ref="CH92:CK92"/>
-    <mergeCell ref="CH113:CK113"/>
-    <mergeCell ref="CH134:CK134"/>
-    <mergeCell ref="BZ9:CC9"/>
-    <mergeCell ref="BR30:BU30"/>
-    <mergeCell ref="BV30:BY30"/>
-    <mergeCell ref="BZ30:CC30"/>
-    <mergeCell ref="BV51:BY51"/>
-    <mergeCell ref="BZ113:CC113"/>
-    <mergeCell ref="BZ92:CC92"/>
-    <mergeCell ref="BZ51:CC51"/>
-    <mergeCell ref="BZ72:CC72"/>
-    <mergeCell ref="BR72:BU72"/>
-    <mergeCell ref="BV72:BY72"/>
-    <mergeCell ref="BR134:BU134"/>
+  <mergeCells count="159">
+    <mergeCell ref="AL92:AO92"/>
+    <mergeCell ref="B134:E134"/>
+    <mergeCell ref="F134:I134"/>
+    <mergeCell ref="J134:M134"/>
+    <mergeCell ref="N134:Q134"/>
+    <mergeCell ref="B92:E92"/>
+    <mergeCell ref="F92:I92"/>
+    <mergeCell ref="J92:M92"/>
+    <mergeCell ref="N92:Q92"/>
+    <mergeCell ref="R92:U92"/>
+    <mergeCell ref="B113:E113"/>
+    <mergeCell ref="F113:I113"/>
+    <mergeCell ref="J113:M113"/>
+    <mergeCell ref="N113:Q113"/>
+    <mergeCell ref="R134:U134"/>
+    <mergeCell ref="V134:Y134"/>
+    <mergeCell ref="Z134:AC134"/>
+    <mergeCell ref="AD134:AG134"/>
+    <mergeCell ref="AH134:AK134"/>
+    <mergeCell ref="AP113:AS113"/>
+    <mergeCell ref="AT113:AW113"/>
+    <mergeCell ref="AX113:BA113"/>
+    <mergeCell ref="BB113:BE113"/>
+    <mergeCell ref="AL134:AO134"/>
+    <mergeCell ref="AP134:AS134"/>
+    <mergeCell ref="AT134:AW134"/>
+    <mergeCell ref="AX134:BA134"/>
+    <mergeCell ref="R113:U113"/>
+    <mergeCell ref="BB134:BE134"/>
+    <mergeCell ref="AX92:BA92"/>
+    <mergeCell ref="BB92:BE92"/>
+    <mergeCell ref="BJ92:BM92"/>
+    <mergeCell ref="BJ51:BM51"/>
+    <mergeCell ref="BN92:BQ92"/>
+    <mergeCell ref="BF92:BI92"/>
+    <mergeCell ref="BV134:BY134"/>
+    <mergeCell ref="BZ134:CC134"/>
+    <mergeCell ref="BR113:BU113"/>
+    <mergeCell ref="BV113:BY113"/>
+    <mergeCell ref="BF134:BI134"/>
+    <mergeCell ref="BJ134:BM134"/>
+    <mergeCell ref="BN134:BQ134"/>
+    <mergeCell ref="BF113:BI113"/>
+    <mergeCell ref="BJ113:BM113"/>
+    <mergeCell ref="BN113:BQ113"/>
+    <mergeCell ref="B72:E72"/>
+    <mergeCell ref="F72:I72"/>
+    <mergeCell ref="J72:M72"/>
+    <mergeCell ref="N72:Q72"/>
+    <mergeCell ref="R72:U72"/>
+    <mergeCell ref="V72:Y72"/>
+    <mergeCell ref="Z72:AC72"/>
+    <mergeCell ref="AD72:AG72"/>
+    <mergeCell ref="AH72:AK72"/>
+    <mergeCell ref="BF72:BI72"/>
+    <mergeCell ref="BJ72:BM72"/>
+    <mergeCell ref="BN72:BQ72"/>
+    <mergeCell ref="Z113:AC113"/>
+    <mergeCell ref="AD113:AG113"/>
+    <mergeCell ref="AH113:AK113"/>
+    <mergeCell ref="AL113:AO113"/>
+    <mergeCell ref="V113:Y113"/>
+    <mergeCell ref="AL72:AO72"/>
+    <mergeCell ref="AT72:AW72"/>
+    <mergeCell ref="AX72:BA72"/>
+    <mergeCell ref="BB72:BE72"/>
+    <mergeCell ref="AP92:AS92"/>
+    <mergeCell ref="AT92:AW92"/>
+    <mergeCell ref="BN51:BQ51"/>
+    <mergeCell ref="V92:Y92"/>
+    <mergeCell ref="Z92:AC92"/>
+    <mergeCell ref="AD92:AG92"/>
+    <mergeCell ref="AH92:AK92"/>
+    <mergeCell ref="AP72:AS72"/>
+    <mergeCell ref="V9:Y9"/>
+    <mergeCell ref="Z9:AC9"/>
+    <mergeCell ref="AD9:AG9"/>
+    <mergeCell ref="BF30:BI30"/>
+    <mergeCell ref="BJ30:BM30"/>
+    <mergeCell ref="BN30:BQ30"/>
+    <mergeCell ref="AL51:AO51"/>
+    <mergeCell ref="AP51:AS51"/>
+    <mergeCell ref="AT51:AW51"/>
+    <mergeCell ref="AX51:BA51"/>
+    <mergeCell ref="AP30:AS30"/>
+    <mergeCell ref="AT30:AW30"/>
+    <mergeCell ref="AX30:BA30"/>
+    <mergeCell ref="BB30:BE30"/>
+    <mergeCell ref="AP9:AS9"/>
+    <mergeCell ref="AT9:AW9"/>
+    <mergeCell ref="AX9:BA9"/>
+    <mergeCell ref="BB9:BE9"/>
+    <mergeCell ref="AH9:AK9"/>
+    <mergeCell ref="AL9:AO9"/>
+    <mergeCell ref="BB51:BE51"/>
+    <mergeCell ref="BF51:BI51"/>
+    <mergeCell ref="F51:I51"/>
+    <mergeCell ref="J51:M51"/>
+    <mergeCell ref="N51:Q51"/>
+    <mergeCell ref="R51:U51"/>
+    <mergeCell ref="V51:Y51"/>
+    <mergeCell ref="Z51:AC51"/>
+    <mergeCell ref="AD51:AG51"/>
+    <mergeCell ref="AH51:AK51"/>
     <mergeCell ref="B9:E9"/>
     <mergeCell ref="F9:I9"/>
     <mergeCell ref="J9:M9"/>
@@ -42495,119 +41853,46 @@
     <mergeCell ref="AL30:AO30"/>
     <mergeCell ref="B51:E51"/>
     <mergeCell ref="BF9:BI9"/>
-    <mergeCell ref="AH9:AK9"/>
-    <mergeCell ref="AL9:AO9"/>
-    <mergeCell ref="BB51:BE51"/>
-    <mergeCell ref="BF51:BI51"/>
-    <mergeCell ref="F51:I51"/>
-    <mergeCell ref="J51:M51"/>
-    <mergeCell ref="N51:Q51"/>
-    <mergeCell ref="R51:U51"/>
-    <mergeCell ref="V51:Y51"/>
-    <mergeCell ref="Z51:AC51"/>
-    <mergeCell ref="AD51:AG51"/>
-    <mergeCell ref="AH51:AK51"/>
-    <mergeCell ref="BN51:BQ51"/>
-    <mergeCell ref="V92:Y92"/>
-    <mergeCell ref="Z92:AC92"/>
-    <mergeCell ref="AD92:AG92"/>
-    <mergeCell ref="AH92:AK92"/>
-    <mergeCell ref="AP72:AS72"/>
-    <mergeCell ref="V9:Y9"/>
-    <mergeCell ref="Z9:AC9"/>
-    <mergeCell ref="AD9:AG9"/>
-    <mergeCell ref="BF30:BI30"/>
-    <mergeCell ref="BJ30:BM30"/>
-    <mergeCell ref="BN30:BQ30"/>
-    <mergeCell ref="AL51:AO51"/>
-    <mergeCell ref="AP51:AS51"/>
-    <mergeCell ref="AT51:AW51"/>
-    <mergeCell ref="AX51:BA51"/>
-    <mergeCell ref="AP30:AS30"/>
-    <mergeCell ref="AT30:AW30"/>
-    <mergeCell ref="AX30:BA30"/>
-    <mergeCell ref="BB30:BE30"/>
-    <mergeCell ref="AP9:AS9"/>
-    <mergeCell ref="AT9:AW9"/>
-    <mergeCell ref="AX9:BA9"/>
-    <mergeCell ref="BB9:BE9"/>
-    <mergeCell ref="BN113:BQ113"/>
-    <mergeCell ref="B72:E72"/>
-    <mergeCell ref="F72:I72"/>
-    <mergeCell ref="J72:M72"/>
-    <mergeCell ref="N72:Q72"/>
-    <mergeCell ref="R72:U72"/>
-    <mergeCell ref="V72:Y72"/>
-    <mergeCell ref="Z72:AC72"/>
-    <mergeCell ref="AD72:AG72"/>
-    <mergeCell ref="AH72:AK72"/>
-    <mergeCell ref="BF72:BI72"/>
-    <mergeCell ref="BJ72:BM72"/>
-    <mergeCell ref="BN72:BQ72"/>
-    <mergeCell ref="Z113:AC113"/>
-    <mergeCell ref="AD113:AG113"/>
-    <mergeCell ref="AH113:AK113"/>
-    <mergeCell ref="AL113:AO113"/>
-    <mergeCell ref="V113:Y113"/>
-    <mergeCell ref="AL72:AO72"/>
-    <mergeCell ref="AT72:AW72"/>
-    <mergeCell ref="AX72:BA72"/>
-    <mergeCell ref="BB72:BE72"/>
-    <mergeCell ref="AP92:AS92"/>
-    <mergeCell ref="AT92:AW92"/>
-    <mergeCell ref="AX92:BA92"/>
-    <mergeCell ref="BB92:BE92"/>
-    <mergeCell ref="BJ92:BM92"/>
-    <mergeCell ref="BJ51:BM51"/>
-    <mergeCell ref="BN92:BQ92"/>
-    <mergeCell ref="BF92:BI92"/>
-    <mergeCell ref="BV134:BY134"/>
-    <mergeCell ref="BZ134:CC134"/>
-    <mergeCell ref="BR113:BU113"/>
-    <mergeCell ref="BV113:BY113"/>
-    <mergeCell ref="R134:U134"/>
-    <mergeCell ref="V134:Y134"/>
-    <mergeCell ref="Z134:AC134"/>
-    <mergeCell ref="AD134:AG134"/>
-    <mergeCell ref="AH134:AK134"/>
-    <mergeCell ref="AP113:AS113"/>
-    <mergeCell ref="AT113:AW113"/>
-    <mergeCell ref="AX113:BA113"/>
-    <mergeCell ref="BB113:BE113"/>
-    <mergeCell ref="AL134:AO134"/>
-    <mergeCell ref="AP134:AS134"/>
-    <mergeCell ref="AT134:AW134"/>
-    <mergeCell ref="AX134:BA134"/>
-    <mergeCell ref="R113:U113"/>
-    <mergeCell ref="BB134:BE134"/>
-    <mergeCell ref="BF134:BI134"/>
-    <mergeCell ref="BJ134:BM134"/>
-    <mergeCell ref="BN134:BQ134"/>
-    <mergeCell ref="BF113:BI113"/>
-    <mergeCell ref="BJ113:BM113"/>
-    <mergeCell ref="B134:E134"/>
-    <mergeCell ref="F134:I134"/>
-    <mergeCell ref="J134:M134"/>
-    <mergeCell ref="N134:Q134"/>
-    <mergeCell ref="B92:E92"/>
-    <mergeCell ref="F92:I92"/>
-    <mergeCell ref="J92:M92"/>
-    <mergeCell ref="N92:Q92"/>
-    <mergeCell ref="R92:U92"/>
-    <mergeCell ref="B113:E113"/>
-    <mergeCell ref="F113:I113"/>
-    <mergeCell ref="J113:M113"/>
-    <mergeCell ref="N113:Q113"/>
-    <mergeCell ref="AL92:AO92"/>
+    <mergeCell ref="CD51:CG51"/>
+    <mergeCell ref="CD72:CG72"/>
+    <mergeCell ref="CH92:CK92"/>
+    <mergeCell ref="CH113:CK113"/>
+    <mergeCell ref="CH134:CK134"/>
+    <mergeCell ref="CD134:CG134"/>
+    <mergeCell ref="BZ9:CC9"/>
+    <mergeCell ref="BR30:BU30"/>
+    <mergeCell ref="BV30:BY30"/>
+    <mergeCell ref="BZ30:CC30"/>
+    <mergeCell ref="BV51:BY51"/>
+    <mergeCell ref="BZ113:CC113"/>
+    <mergeCell ref="BZ92:CC92"/>
+    <mergeCell ref="CD9:CG9"/>
+    <mergeCell ref="CD30:CG30"/>
+    <mergeCell ref="BZ51:CC51"/>
+    <mergeCell ref="BZ72:CC72"/>
+    <mergeCell ref="BR72:BU72"/>
+    <mergeCell ref="BV72:BY72"/>
+    <mergeCell ref="CD113:CG113"/>
+    <mergeCell ref="CD92:CG92"/>
+    <mergeCell ref="BR134:BU134"/>
+    <mergeCell ref="CL9:CM9"/>
+    <mergeCell ref="CL30:CM30"/>
+    <mergeCell ref="CH51:CI51"/>
+    <mergeCell ref="CH72:CI72"/>
+    <mergeCell ref="CL92:CM92"/>
+    <mergeCell ref="CL113:CM113"/>
+    <mergeCell ref="CL134:CM134"/>
+    <mergeCell ref="CH9:CK9"/>
+    <mergeCell ref="CH30:CK30"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.5" right="0.3" top="1" bottom="0.16700000000000001" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" scale="31" orientation="landscape" r:id="rId1"/>
   <headerFooter alignWithMargins="0"/>
   <rowBreaks count="3" manualBreakCount="3">
-    <brk id="42" max="89" man="1"/>
-    <brk id="84" max="89" man="1"/>
-    <brk id="104" max="89" man="1"/>
+    <brk id="42" max="90" man="1"/>
+    <brk id="84" max="90" man="1"/>
+    <brk id="104" max="90" man="1"/>
   </rowBreaks>
 </worksheet>
 </file>
--- a/Data/National Accounts/PSA-17FIA_2018PSNA_Qrt.xlsx
+++ b/Data/National Accounts/PSA-17FIA_2018PSNA_Qrt.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25330"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25726"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DELL\Desktop\0. IAD activities\6. MAS_Series\2018-base\NAP\NAP detailed series as of August 2022\Qtr\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="I:\Other computers\My Laptop (1)\6. MAS_Series\2018-base\NAP\NAP detailed series as of November 2022\Qtr\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{82C6E588-CBBA-41C7-B45E-436344676F24}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{18536AFC-117B-4E3A-BD5F-24256F930A46}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3375" yWindow="3375" windowWidth="21600" windowHeight="12105" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="FIA" sheetId="11" r:id="rId1"/>
@@ -323,7 +323,7 @@
     <definedName name="pet">#REF!</definedName>
     <definedName name="plastic">#REF!</definedName>
     <definedName name="ply">#REF!</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">FIA!$A$1:$CM$146</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">FIA!$A$1:$CN$146</definedName>
     <definedName name="_xlnm.Print_Area">#REF!</definedName>
     <definedName name="PRINT_AREA_MI">#REF!</definedName>
     <definedName name="Print_Titles_MI">'[9]CAP93+'!$A$1:$IV$1,'[9]CAP93+'!$A$1:$A$65536</definedName>
@@ -468,7 +468,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="756" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="763" uniqueCount="53">
   <si>
     <t>Source: Philippine Statistics Authority</t>
   </si>
@@ -621,13 +621,13 @@
     <t>2021 - 2022</t>
   </si>
   <si>
-    <t>As of August 2022</t>
+    <t>Q1 2000 to Q3 2022</t>
   </si>
   <si>
-    <t>Q1 2000 to Q2 2022</t>
+    <t>Q1 2001 to Q3 2022</t>
   </si>
   <si>
-    <t>Q1 2001 to Q2 2022</t>
+    <t>As of November 2022</t>
   </si>
 </sst>
 </file>
@@ -635,9 +635,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="3">
-    <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="164" formatCode="0.0"/>
-    <numFmt numFmtId="165" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="164" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="165" formatCode="0.0"/>
+    <numFmt numFmtId="166" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
   <fonts count="6" x14ac:knownFonts="1">
     <font>
@@ -711,10 +711,10 @@
   <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
-    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -729,29 +729,23 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="166" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="166" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="165" fontId="5" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -23602,186 +23596,187 @@
   <sheetViews>
     <sheetView tabSelected="1" defaultGridColor="0" view="pageBreakPreview" colorId="22" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
       <pane xSplit="1" topLeftCell="CH1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="CH1" sqref="CH1:CM1048576"/>
+      <selection pane="topRight" activeCell="CH1" sqref="CH1:CN1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="7.81640625" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="7.77734375" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="38.36328125" style="1" customWidth="1"/>
-    <col min="2" max="91" width="8.90625" style="1" customWidth="1"/>
-    <col min="92" max="16384" width="7.81640625" style="1"/>
+    <col min="1" max="1" width="38.33203125" style="1" customWidth="1"/>
+    <col min="2" max="92" width="8.88671875" style="1" customWidth="1"/>
+    <col min="93" max="16384" width="7.77734375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:154" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:154" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:154" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:154" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="3" spans="1:154" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:154" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
     </row>
-    <row r="5" spans="1:154" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:154" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="6" spans="1:154" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:154" x14ac:dyDescent="0.2">
       <c r="A6" s="3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
-    <row r="7" spans="1:154" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:154" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="9" spans="1:154" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:154" x14ac:dyDescent="0.2">
       <c r="A9" s="4"/>
-      <c r="B9" s="18">
+      <c r="B9" s="16">
         <v>2000</v>
       </c>
-      <c r="C9" s="18"/>
-      <c r="D9" s="18"/>
-      <c r="E9" s="18"/>
-      <c r="F9" s="18">
+      <c r="C9" s="16"/>
+      <c r="D9" s="16"/>
+      <c r="E9" s="16"/>
+      <c r="F9" s="16">
         <v>2001</v>
       </c>
-      <c r="G9" s="18"/>
-      <c r="H9" s="18"/>
-      <c r="I9" s="18"/>
-      <c r="J9" s="18">
+      <c r="G9" s="16"/>
+      <c r="H9" s="16"/>
+      <c r="I9" s="16"/>
+      <c r="J9" s="16">
         <v>2002</v>
       </c>
-      <c r="K9" s="18"/>
-      <c r="L9" s="18"/>
-      <c r="M9" s="18"/>
-      <c r="N9" s="18">
+      <c r="K9" s="16"/>
+      <c r="L9" s="16"/>
+      <c r="M9" s="16"/>
+      <c r="N9" s="16">
         <v>2003</v>
       </c>
-      <c r="O9" s="18"/>
-      <c r="P9" s="18"/>
-      <c r="Q9" s="18"/>
-      <c r="R9" s="18">
+      <c r="O9" s="16"/>
+      <c r="P9" s="16"/>
+      <c r="Q9" s="16"/>
+      <c r="R9" s="16">
         <v>2004</v>
       </c>
-      <c r="S9" s="18"/>
-      <c r="T9" s="18"/>
-      <c r="U9" s="18"/>
-      <c r="V9" s="18">
+      <c r="S9" s="16"/>
+      <c r="T9" s="16"/>
+      <c r="U9" s="16"/>
+      <c r="V9" s="16">
         <v>2005</v>
       </c>
-      <c r="W9" s="18"/>
-      <c r="X9" s="18"/>
-      <c r="Y9" s="18"/>
-      <c r="Z9" s="18">
+      <c r="W9" s="16"/>
+      <c r="X9" s="16"/>
+      <c r="Y9" s="16"/>
+      <c r="Z9" s="16">
         <v>2006</v>
       </c>
-      <c r="AA9" s="18"/>
-      <c r="AB9" s="18"/>
-      <c r="AC9" s="18"/>
-      <c r="AD9" s="18">
+      <c r="AA9" s="16"/>
+      <c r="AB9" s="16"/>
+      <c r="AC9" s="16"/>
+      <c r="AD9" s="16">
         <v>2007</v>
       </c>
-      <c r="AE9" s="18"/>
-      <c r="AF9" s="18"/>
-      <c r="AG9" s="18"/>
-      <c r="AH9" s="18">
+      <c r="AE9" s="16"/>
+      <c r="AF9" s="16"/>
+      <c r="AG9" s="16"/>
+      <c r="AH9" s="16">
         <v>2008</v>
       </c>
-      <c r="AI9" s="18"/>
-      <c r="AJ9" s="18"/>
-      <c r="AK9" s="18"/>
-      <c r="AL9" s="18">
+      <c r="AI9" s="16"/>
+      <c r="AJ9" s="16"/>
+      <c r="AK9" s="16"/>
+      <c r="AL9" s="16">
         <v>2009</v>
       </c>
-      <c r="AM9" s="18"/>
-      <c r="AN9" s="18"/>
-      <c r="AO9" s="18"/>
-      <c r="AP9" s="18">
+      <c r="AM9" s="16"/>
+      <c r="AN9" s="16"/>
+      <c r="AO9" s="16"/>
+      <c r="AP9" s="16">
         <v>2010</v>
       </c>
-      <c r="AQ9" s="18"/>
-      <c r="AR9" s="18"/>
-      <c r="AS9" s="18"/>
-      <c r="AT9" s="18">
+      <c r="AQ9" s="16"/>
+      <c r="AR9" s="16"/>
+      <c r="AS9" s="16"/>
+      <c r="AT9" s="16">
         <v>2011</v>
       </c>
-      <c r="AU9" s="18"/>
-      <c r="AV9" s="18"/>
-      <c r="AW9" s="18"/>
-      <c r="AX9" s="18">
+      <c r="AU9" s="16"/>
+      <c r="AV9" s="16"/>
+      <c r="AW9" s="16"/>
+      <c r="AX9" s="16">
         <v>2012</v>
       </c>
-      <c r="AY9" s="18"/>
-      <c r="AZ9" s="18"/>
-      <c r="BA9" s="18"/>
-      <c r="BB9" s="18">
+      <c r="AY9" s="16"/>
+      <c r="AZ9" s="16"/>
+      <c r="BA9" s="16"/>
+      <c r="BB9" s="16">
         <v>2013</v>
       </c>
-      <c r="BC9" s="18"/>
-      <c r="BD9" s="18"/>
-      <c r="BE9" s="18"/>
-      <c r="BF9" s="18">
+      <c r="BC9" s="16"/>
+      <c r="BD9" s="16"/>
+      <c r="BE9" s="16"/>
+      <c r="BF9" s="16">
         <v>2014</v>
       </c>
-      <c r="BG9" s="18"/>
-      <c r="BH9" s="18"/>
-      <c r="BI9" s="18"/>
-      <c r="BJ9" s="18">
+      <c r="BG9" s="16"/>
+      <c r="BH9" s="16"/>
+      <c r="BI9" s="16"/>
+      <c r="BJ9" s="16">
         <v>2015</v>
       </c>
-      <c r="BK9" s="18"/>
-      <c r="BL9" s="18"/>
-      <c r="BM9" s="18"/>
-      <c r="BN9" s="18">
+      <c r="BK9" s="16"/>
+      <c r="BL9" s="16"/>
+      <c r="BM9" s="16"/>
+      <c r="BN9" s="16">
         <v>2016</v>
       </c>
-      <c r="BO9" s="18"/>
-      <c r="BP9" s="18"/>
-      <c r="BQ9" s="18"/>
-      <c r="BR9" s="18">
+      <c r="BO9" s="16"/>
+      <c r="BP9" s="16"/>
+      <c r="BQ9" s="16"/>
+      <c r="BR9" s="16">
         <v>2017</v>
       </c>
-      <c r="BS9" s="18"/>
-      <c r="BT9" s="18"/>
-      <c r="BU9" s="18"/>
-      <c r="BV9" s="18">
+      <c r="BS9" s="16"/>
+      <c r="BT9" s="16"/>
+      <c r="BU9" s="16"/>
+      <c r="BV9" s="16">
         <v>2018</v>
       </c>
-      <c r="BW9" s="18"/>
-      <c r="BX9" s="18"/>
-      <c r="BY9" s="18"/>
-      <c r="BZ9" s="18">
+      <c r="BW9" s="16"/>
+      <c r="BX9" s="16"/>
+      <c r="BY9" s="16"/>
+      <c r="BZ9" s="16">
         <v>2019</v>
       </c>
-      <c r="CA9" s="18"/>
-      <c r="CB9" s="18"/>
-      <c r="CC9" s="18"/>
-      <c r="CD9" s="18">
+      <c r="CA9" s="16"/>
+      <c r="CB9" s="16"/>
+      <c r="CC9" s="16"/>
+      <c r="CD9" s="16">
         <v>2020</v>
       </c>
-      <c r="CE9" s="18"/>
-      <c r="CF9" s="18"/>
-      <c r="CG9" s="18"/>
-      <c r="CH9" s="18">
+      <c r="CE9" s="16"/>
+      <c r="CF9" s="16"/>
+      <c r="CG9" s="16"/>
+      <c r="CH9" s="16">
         <v>2021</v>
       </c>
-      <c r="CI9" s="18"/>
-      <c r="CJ9" s="18"/>
-      <c r="CK9" s="18"/>
-      <c r="CL9" s="18">
+      <c r="CI9" s="16"/>
+      <c r="CJ9" s="16"/>
+      <c r="CK9" s="16"/>
+      <c r="CL9" s="16">
         <v>2022</v>
       </c>
-      <c r="CM9" s="18"/>
+      <c r="CM9" s="16"/>
+      <c r="CN9" s="16"/>
     </row>
-    <row r="10" spans="1:154" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:154" x14ac:dyDescent="0.2">
       <c r="A10" s="5" t="s">
         <v>4</v>
       </c>
@@ -24055,11 +24050,14 @@
       <c r="CM10" s="6" t="s">
         <v>8</v>
       </c>
+      <c r="CN10" s="6" t="s">
+        <v>10</v>
+      </c>
     </row>
-    <row r="11" spans="1:154" ht="10.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:154" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="7"/>
     </row>
-    <row r="12" spans="1:154" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:154" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
         <v>11</v>
       </c>
@@ -24331,9 +24329,11 @@
         <v>317673.76364975941</v>
       </c>
       <c r="CM12" s="8">
-        <v>266950.24755611765</v>
-      </c>
-      <c r="CN12" s="9"/>
+        <v>264391.10608101345</v>
+      </c>
+      <c r="CN12" s="8">
+        <v>297091.81147986348</v>
+      </c>
       <c r="CO12" s="9"/>
       <c r="CP12" s="9"/>
       <c r="CQ12" s="9"/>
@@ -24397,7 +24397,7 @@
       <c r="EW12" s="9"/>
       <c r="EX12" s="9"/>
     </row>
-    <row r="13" spans="1:154" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:154" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="10" t="s">
         <v>12</v>
       </c>
@@ -24669,9 +24669,11 @@
         <v>136247.22376600408</v>
       </c>
       <c r="CM13" s="8">
-        <v>206282.11254443147</v>
-      </c>
-      <c r="CN13" s="9"/>
+        <v>207005.75929438748</v>
+      </c>
+      <c r="CN13" s="8">
+        <v>143355.37091981125</v>
+      </c>
       <c r="CO13" s="9"/>
       <c r="CP13" s="9"/>
       <c r="CQ13" s="9"/>
@@ -24735,7 +24737,7 @@
       <c r="EW13" s="9"/>
       <c r="EX13" s="9"/>
     </row>
-    <row r="14" spans="1:154" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:154" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
         <v>13</v>
       </c>
@@ -25007,9 +25009,11 @@
         <v>70361.679415115359</v>
       </c>
       <c r="CM14" s="8">
-        <v>65012.691691412037</v>
-      </c>
-      <c r="CN14" s="9"/>
+        <v>63716.570138835465</v>
+      </c>
+      <c r="CN14" s="8">
+        <v>69843.747923267219</v>
+      </c>
       <c r="CO14" s="9"/>
       <c r="CP14" s="9"/>
       <c r="CQ14" s="9"/>
@@ -25073,7 +25077,7 @@
       <c r="EW14" s="9"/>
       <c r="EX14" s="9"/>
     </row>
-    <row r="15" spans="1:154" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:154" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
         <v>14</v>
       </c>
@@ -25345,9 +25349,11 @@
         <v>26910.555705467174</v>
       </c>
       <c r="CM15" s="8">
-        <v>29706.485980474557</v>
-      </c>
-      <c r="CN15" s="9"/>
+        <v>30250.965099644636</v>
+      </c>
+      <c r="CN15" s="8">
+        <v>25442.754567370022</v>
+      </c>
       <c r="CO15" s="9"/>
       <c r="CP15" s="9"/>
       <c r="CQ15" s="9"/>
@@ -25411,7 +25417,7 @@
       <c r="EW15" s="9"/>
       <c r="EX15" s="9"/>
     </row>
-    <row r="16" spans="1:154" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:154" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B16" s="9"/>
       <c r="C16" s="9"/>
       <c r="D16" s="9"/>
@@ -25566,7 +25572,7 @@
       <c r="EW16" s="9"/>
       <c r="EX16" s="9"/>
     </row>
-    <row r="17" spans="1:154" ht="30.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:154" ht="30.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="10" t="s">
         <v>15</v>
       </c>
@@ -25838,9 +25844,11 @@
         <v>551193.22253634594</v>
       </c>
       <c r="CM17" s="11">
-        <v>567951.53777243569</v>
-      </c>
-      <c r="CN17" s="9"/>
+        <v>565364.40061388095</v>
+      </c>
+      <c r="CN17" s="11">
+        <v>535733.68489031203</v>
+      </c>
       <c r="CO17" s="9"/>
       <c r="CP17" s="9"/>
       <c r="CQ17" s="9"/>
@@ -25904,7 +25912,7 @@
       <c r="EW17" s="9"/>
       <c r="EX17" s="9"/>
     </row>
-    <row r="18" spans="1:154" ht="7.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:154" ht="7.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="12"/>
       <c r="B18" s="12"/>
       <c r="C18" s="12"/>
@@ -25996,13 +26004,14 @@
       <c r="CK18" s="12"/>
       <c r="CL18" s="12"/>
       <c r="CM18" s="12"/>
+      <c r="CN18" s="12"/>
     </row>
-    <row r="19" spans="1:154" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:154" x14ac:dyDescent="0.2">
       <c r="A19" s="13" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:154" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:154" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B20" s="9"/>
       <c r="C20" s="9"/>
       <c r="D20" s="9"/>
@@ -26157,7 +26166,7 @@
       <c r="EW20" s="9"/>
       <c r="EX20" s="9"/>
     </row>
-    <row r="21" spans="1:154" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:154" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B21" s="9"/>
       <c r="C21" s="9"/>
       <c r="D21" s="9"/>
@@ -26312,176 +26321,177 @@
       <c r="EW21" s="9"/>
       <c r="EX21" s="9"/>
     </row>
-    <row r="22" spans="1:154" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:154" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="23" spans="1:154" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:154" x14ac:dyDescent="0.2">
       <c r="A23" s="1" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="24" spans="1:154" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:154" x14ac:dyDescent="0.2">
       <c r="A24" s="1" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
     </row>
-    <row r="26" spans="1:154" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:154" x14ac:dyDescent="0.2">
       <c r="A26" s="1" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="27" spans="1:154" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:154" x14ac:dyDescent="0.2">
       <c r="A27" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
-    <row r="28" spans="1:154" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:154" x14ac:dyDescent="0.2">
       <c r="A28" s="1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="30" spans="1:154" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:154" x14ac:dyDescent="0.2">
       <c r="A30" s="4"/>
-      <c r="B30" s="18">
+      <c r="B30" s="16">
         <v>2000</v>
       </c>
-      <c r="C30" s="20"/>
-      <c r="D30" s="20"/>
-      <c r="E30" s="20"/>
-      <c r="F30" s="18">
+      <c r="C30" s="17"/>
+      <c r="D30" s="17"/>
+      <c r="E30" s="17"/>
+      <c r="F30" s="16">
         <v>2001</v>
       </c>
-      <c r="G30" s="20"/>
-      <c r="H30" s="20"/>
-      <c r="I30" s="20"/>
-      <c r="J30" s="18">
+      <c r="G30" s="17"/>
+      <c r="H30" s="17"/>
+      <c r="I30" s="17"/>
+      <c r="J30" s="16">
         <v>2002</v>
       </c>
-      <c r="K30" s="20"/>
-      <c r="L30" s="20"/>
-      <c r="M30" s="20"/>
-      <c r="N30" s="18">
+      <c r="K30" s="17"/>
+      <c r="L30" s="17"/>
+      <c r="M30" s="17"/>
+      <c r="N30" s="16">
         <v>2003</v>
       </c>
-      <c r="O30" s="20"/>
-      <c r="P30" s="20"/>
-      <c r="Q30" s="20"/>
-      <c r="R30" s="18">
+      <c r="O30" s="17"/>
+      <c r="P30" s="17"/>
+      <c r="Q30" s="17"/>
+      <c r="R30" s="16">
         <v>2004</v>
       </c>
-      <c r="S30" s="20"/>
-      <c r="T30" s="20"/>
-      <c r="U30" s="20"/>
-      <c r="V30" s="18">
+      <c r="S30" s="17"/>
+      <c r="T30" s="17"/>
+      <c r="U30" s="17"/>
+      <c r="V30" s="16">
         <v>2005</v>
       </c>
-      <c r="W30" s="20"/>
-      <c r="X30" s="20"/>
-      <c r="Y30" s="20"/>
-      <c r="Z30" s="18">
+      <c r="W30" s="17"/>
+      <c r="X30" s="17"/>
+      <c r="Y30" s="17"/>
+      <c r="Z30" s="16">
         <v>2006</v>
       </c>
-      <c r="AA30" s="20"/>
-      <c r="AB30" s="20"/>
-      <c r="AC30" s="20"/>
-      <c r="AD30" s="18">
+      <c r="AA30" s="17"/>
+      <c r="AB30" s="17"/>
+      <c r="AC30" s="17"/>
+      <c r="AD30" s="16">
         <v>2007</v>
       </c>
-      <c r="AE30" s="20"/>
-      <c r="AF30" s="20"/>
-      <c r="AG30" s="20"/>
-      <c r="AH30" s="18">
+      <c r="AE30" s="17"/>
+      <c r="AF30" s="17"/>
+      <c r="AG30" s="17"/>
+      <c r="AH30" s="16">
         <v>2008</v>
       </c>
-      <c r="AI30" s="20"/>
-      <c r="AJ30" s="20"/>
-      <c r="AK30" s="20"/>
-      <c r="AL30" s="18">
+      <c r="AI30" s="17"/>
+      <c r="AJ30" s="17"/>
+      <c r="AK30" s="17"/>
+      <c r="AL30" s="16">
         <v>2009</v>
       </c>
-      <c r="AM30" s="20"/>
-      <c r="AN30" s="20"/>
-      <c r="AO30" s="20"/>
-      <c r="AP30" s="18">
+      <c r="AM30" s="17"/>
+      <c r="AN30" s="17"/>
+      <c r="AO30" s="17"/>
+      <c r="AP30" s="16">
         <v>2010</v>
       </c>
-      <c r="AQ30" s="20"/>
-      <c r="AR30" s="20"/>
-      <c r="AS30" s="20"/>
-      <c r="AT30" s="18">
+      <c r="AQ30" s="17"/>
+      <c r="AR30" s="17"/>
+      <c r="AS30" s="17"/>
+      <c r="AT30" s="16">
         <v>2011</v>
       </c>
-      <c r="AU30" s="20"/>
-      <c r="AV30" s="20"/>
-      <c r="AW30" s="20"/>
-      <c r="AX30" s="18">
+      <c r="AU30" s="17"/>
+      <c r="AV30" s="17"/>
+      <c r="AW30" s="17"/>
+      <c r="AX30" s="16">
         <v>2012</v>
       </c>
-      <c r="AY30" s="20"/>
-      <c r="AZ30" s="20"/>
-      <c r="BA30" s="20"/>
-      <c r="BB30" s="18">
+      <c r="AY30" s="17"/>
+      <c r="AZ30" s="17"/>
+      <c r="BA30" s="17"/>
+      <c r="BB30" s="16">
         <v>2013</v>
       </c>
-      <c r="BC30" s="20"/>
-      <c r="BD30" s="20"/>
-      <c r="BE30" s="20"/>
-      <c r="BF30" s="18">
+      <c r="BC30" s="17"/>
+      <c r="BD30" s="17"/>
+      <c r="BE30" s="17"/>
+      <c r="BF30" s="16">
         <v>2014</v>
       </c>
-      <c r="BG30" s="20"/>
-      <c r="BH30" s="20"/>
-      <c r="BI30" s="20"/>
-      <c r="BJ30" s="18">
+      <c r="BG30" s="17"/>
+      <c r="BH30" s="17"/>
+      <c r="BI30" s="17"/>
+      <c r="BJ30" s="16">
         <v>2015</v>
       </c>
-      <c r="BK30" s="20"/>
-      <c r="BL30" s="20"/>
-      <c r="BM30" s="20"/>
-      <c r="BN30" s="18">
+      <c r="BK30" s="17"/>
+      <c r="BL30" s="17"/>
+      <c r="BM30" s="17"/>
+      <c r="BN30" s="16">
         <v>2016</v>
       </c>
-      <c r="BO30" s="20"/>
-      <c r="BP30" s="20"/>
-      <c r="BQ30" s="20"/>
-      <c r="BR30" s="18">
+      <c r="BO30" s="17"/>
+      <c r="BP30" s="17"/>
+      <c r="BQ30" s="17"/>
+      <c r="BR30" s="16">
         <v>2017</v>
       </c>
-      <c r="BS30" s="20"/>
-      <c r="BT30" s="20"/>
-      <c r="BU30" s="20"/>
-      <c r="BV30" s="18">
+      <c r="BS30" s="17"/>
+      <c r="BT30" s="17"/>
+      <c r="BU30" s="17"/>
+      <c r="BV30" s="16">
         <v>2018</v>
       </c>
-      <c r="BW30" s="20"/>
-      <c r="BX30" s="20"/>
-      <c r="BY30" s="20"/>
-      <c r="BZ30" s="18">
+      <c r="BW30" s="17"/>
+      <c r="BX30" s="17"/>
+      <c r="BY30" s="17"/>
+      <c r="BZ30" s="16">
         <v>2019</v>
       </c>
-      <c r="CA30" s="20"/>
-      <c r="CB30" s="20"/>
-      <c r="CC30" s="20"/>
-      <c r="CD30" s="18">
+      <c r="CA30" s="17"/>
+      <c r="CB30" s="17"/>
+      <c r="CC30" s="17"/>
+      <c r="CD30" s="16">
         <v>2020</v>
       </c>
-      <c r="CE30" s="20"/>
-      <c r="CF30" s="20"/>
-      <c r="CG30" s="20"/>
-      <c r="CH30" s="18">
+      <c r="CE30" s="17"/>
+      <c r="CF30" s="17"/>
+      <c r="CG30" s="17"/>
+      <c r="CH30" s="16">
         <v>2021</v>
       </c>
-      <c r="CI30" s="18"/>
-      <c r="CJ30" s="18"/>
-      <c r="CK30" s="18"/>
-      <c r="CL30" s="18">
+      <c r="CI30" s="16"/>
+      <c r="CJ30" s="16"/>
+      <c r="CK30" s="16"/>
+      <c r="CL30" s="16">
         <v>2022</v>
       </c>
-      <c r="CM30" s="18"/>
+      <c r="CM30" s="16"/>
+      <c r="CN30" s="16"/>
     </row>
-    <row r="31" spans="1:154" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:154" x14ac:dyDescent="0.2">
       <c r="A31" s="5" t="s">
         <v>4</v>
       </c>
@@ -26755,11 +26765,14 @@
       <c r="CM31" s="6" t="s">
         <v>8</v>
       </c>
+      <c r="CN31" s="6" t="s">
+        <v>10</v>
+      </c>
     </row>
-    <row r="32" spans="1:154" ht="10.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:154" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="7"/>
     </row>
-    <row r="33" spans="1:154" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:154" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="1" t="s">
         <v>11</v>
       </c>
@@ -27031,9 +27044,11 @@
         <v>290650.76212964242</v>
       </c>
       <c r="CM33" s="8">
-        <v>237042.86335437419</v>
-      </c>
-      <c r="CN33" s="9"/>
+        <v>234633.20373768959</v>
+      </c>
+      <c r="CN33" s="8">
+        <v>264031.07783408905</v>
+      </c>
       <c r="CO33" s="9"/>
       <c r="CP33" s="9"/>
       <c r="CQ33" s="9"/>
@@ -27097,7 +27112,7 @@
       <c r="EW33" s="9"/>
       <c r="EX33" s="9"/>
     </row>
-    <row r="34" spans="1:154" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:154" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="10" t="s">
         <v>12</v>
       </c>
@@ -27369,9 +27384,11 @@
         <v>123209.25323782492</v>
       </c>
       <c r="CM34" s="8">
-        <v>185611.85096619371</v>
-      </c>
-      <c r="CN34" s="9"/>
+        <v>186244.19874780902</v>
+      </c>
+      <c r="CN34" s="8">
+        <v>128635.47342928931</v>
+      </c>
       <c r="CO34" s="9"/>
       <c r="CP34" s="9"/>
       <c r="CQ34" s="9"/>
@@ -27435,7 +27452,7 @@
       <c r="EW34" s="9"/>
       <c r="EX34" s="9"/>
     </row>
-    <row r="35" spans="1:154" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:154" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="1" t="s">
         <v>13</v>
       </c>
@@ -27707,9 +27724,11 @@
         <v>62584.435866748536</v>
       </c>
       <c r="CM35" s="8">
-        <v>60054.721270485374</v>
-      </c>
-      <c r="CN35" s="9"/>
+        <v>58836.959106982948</v>
+      </c>
+      <c r="CN35" s="8">
+        <v>63648.315713023461</v>
+      </c>
       <c r="CO35" s="9"/>
       <c r="CP35" s="9"/>
       <c r="CQ35" s="9"/>
@@ -27773,7 +27792,7 @@
       <c r="EW35" s="9"/>
       <c r="EX35" s="9"/>
     </row>
-    <row r="36" spans="1:154" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:154" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="1" t="s">
         <v>14</v>
       </c>
@@ -28045,9 +28064,11 @@
         <v>24051.642019574385</v>
       </c>
       <c r="CM36" s="8">
-        <v>26236.354104370163</v>
-      </c>
-      <c r="CN36" s="9"/>
+        <v>26711.696805640539</v>
+      </c>
+      <c r="CN36" s="8">
+        <v>22497.113389993356</v>
+      </c>
       <c r="CO36" s="9"/>
       <c r="CP36" s="9"/>
       <c r="CQ36" s="9"/>
@@ -28111,7 +28132,7 @@
       <c r="EW36" s="9"/>
       <c r="EX36" s="9"/>
     </row>
-    <row r="37" spans="1:154" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:154" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B37" s="9"/>
       <c r="C37" s="9"/>
       <c r="D37" s="9"/>
@@ -28266,7 +28287,7 @@
       <c r="EW37" s="9"/>
       <c r="EX37" s="9"/>
     </row>
-    <row r="38" spans="1:154" ht="30.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:154" ht="30.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="10" t="s">
         <v>15</v>
       </c>
@@ -28538,9 +28559,11 @@
         <v>500496.09325379028</v>
       </c>
       <c r="CM38" s="11">
-        <v>508945.78969542345</v>
-      </c>
-      <c r="CN38" s="9"/>
+        <v>506426.05839812203</v>
+      </c>
+      <c r="CN38" s="11">
+        <v>478811.9803663952</v>
+      </c>
       <c r="CO38" s="9"/>
       <c r="CP38" s="9"/>
       <c r="CQ38" s="9"/>
@@ -28604,7 +28627,7 @@
       <c r="EW38" s="9"/>
       <c r="EX38" s="9"/>
     </row>
-    <row r="39" spans="1:154" ht="7.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:154" ht="7.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="12"/>
       <c r="B39" s="12"/>
       <c r="C39" s="12"/>
@@ -28696,13 +28719,14 @@
       <c r="CK39" s="12"/>
       <c r="CL39" s="12"/>
       <c r="CM39" s="12"/>
+      <c r="CN39" s="12"/>
     </row>
-    <row r="40" spans="1:154" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:154" x14ac:dyDescent="0.2">
       <c r="A40" s="13" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:154" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:154" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B41" s="9"/>
       <c r="C41" s="9"/>
       <c r="D41" s="9"/>
@@ -28857,7 +28881,7 @@
       <c r="EW41" s="9"/>
       <c r="EX41" s="9"/>
     </row>
-    <row r="42" spans="1:154" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:154" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B42" s="9"/>
       <c r="C42" s="9"/>
       <c r="D42" s="9"/>
@@ -29012,174 +29036,175 @@
       <c r="EW42" s="9"/>
       <c r="EX42" s="9"/>
     </row>
-    <row r="43" spans="1:154" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:154" x14ac:dyDescent="0.2">
       <c r="A43" s="1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="44" spans="1:154" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:154" x14ac:dyDescent="0.2">
       <c r="A44" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="45" spans="1:154" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:154" x14ac:dyDescent="0.2">
       <c r="A45" s="1" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
     </row>
-    <row r="47" spans="1:154" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:154" x14ac:dyDescent="0.2">
       <c r="A47" s="1" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="48" spans="1:154" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:154" x14ac:dyDescent="0.2">
       <c r="A48" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
-    <row r="49" spans="1:150" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:150" x14ac:dyDescent="0.2">
       <c r="A49" s="1" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="51" spans="1:150" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:150" x14ac:dyDescent="0.2">
       <c r="A51" s="4"/>
-      <c r="B51" s="18" t="s">
+      <c r="B51" s="16" t="s">
         <v>31</v>
       </c>
-      <c r="C51" s="18"/>
-      <c r="D51" s="18"/>
-      <c r="E51" s="18"/>
-      <c r="F51" s="18" t="s">
+      <c r="C51" s="16"/>
+      <c r="D51" s="16"/>
+      <c r="E51" s="16"/>
+      <c r="F51" s="16" t="s">
         <v>32</v>
       </c>
-      <c r="G51" s="18"/>
-      <c r="H51" s="18"/>
-      <c r="I51" s="18"/>
-      <c r="J51" s="18" t="s">
+      <c r="G51" s="16"/>
+      <c r="H51" s="16"/>
+      <c r="I51" s="16"/>
+      <c r="J51" s="16" t="s">
         <v>33</v>
       </c>
-      <c r="K51" s="18"/>
-      <c r="L51" s="18"/>
-      <c r="M51" s="18"/>
-      <c r="N51" s="18" t="s">
+      <c r="K51" s="16"/>
+      <c r="L51" s="16"/>
+      <c r="M51" s="16"/>
+      <c r="N51" s="16" t="s">
         <v>34</v>
       </c>
-      <c r="O51" s="18"/>
-      <c r="P51" s="18"/>
-      <c r="Q51" s="18"/>
-      <c r="R51" s="18" t="s">
+      <c r="O51" s="16"/>
+      <c r="P51" s="16"/>
+      <c r="Q51" s="16"/>
+      <c r="R51" s="16" t="s">
         <v>35</v>
       </c>
-      <c r="S51" s="18"/>
-      <c r="T51" s="18"/>
-      <c r="U51" s="18"/>
-      <c r="V51" s="18" t="s">
+      <c r="S51" s="16"/>
+      <c r="T51" s="16"/>
+      <c r="U51" s="16"/>
+      <c r="V51" s="16" t="s">
         <v>36</v>
       </c>
-      <c r="W51" s="18"/>
-      <c r="X51" s="18"/>
-      <c r="Y51" s="18"/>
-      <c r="Z51" s="18" t="s">
+      <c r="W51" s="16"/>
+      <c r="X51" s="16"/>
+      <c r="Y51" s="16"/>
+      <c r="Z51" s="16" t="s">
         <v>37</v>
       </c>
-      <c r="AA51" s="18"/>
-      <c r="AB51" s="18"/>
-      <c r="AC51" s="18"/>
-      <c r="AD51" s="18" t="s">
+      <c r="AA51" s="16"/>
+      <c r="AB51" s="16"/>
+      <c r="AC51" s="16"/>
+      <c r="AD51" s="16" t="s">
         <v>38</v>
       </c>
-      <c r="AE51" s="18"/>
-      <c r="AF51" s="18"/>
-      <c r="AG51" s="18"/>
-      <c r="AH51" s="18" t="s">
+      <c r="AE51" s="16"/>
+      <c r="AF51" s="16"/>
+      <c r="AG51" s="16"/>
+      <c r="AH51" s="16" t="s">
         <v>39</v>
       </c>
-      <c r="AI51" s="18"/>
-      <c r="AJ51" s="18"/>
-      <c r="AK51" s="18"/>
-      <c r="AL51" s="18" t="s">
+      <c r="AI51" s="16"/>
+      <c r="AJ51" s="16"/>
+      <c r="AK51" s="16"/>
+      <c r="AL51" s="16" t="s">
         <v>40</v>
       </c>
-      <c r="AM51" s="18"/>
-      <c r="AN51" s="18"/>
-      <c r="AO51" s="18"/>
-      <c r="AP51" s="18" t="s">
+      <c r="AM51" s="16"/>
+      <c r="AN51" s="16"/>
+      <c r="AO51" s="16"/>
+      <c r="AP51" s="16" t="s">
         <v>41</v>
       </c>
-      <c r="AQ51" s="18"/>
-      <c r="AR51" s="18"/>
-      <c r="AS51" s="18"/>
-      <c r="AT51" s="18" t="s">
+      <c r="AQ51" s="16"/>
+      <c r="AR51" s="16"/>
+      <c r="AS51" s="16"/>
+      <c r="AT51" s="16" t="s">
         <v>42</v>
       </c>
-      <c r="AU51" s="18"/>
-      <c r="AV51" s="18"/>
-      <c r="AW51" s="18"/>
-      <c r="AX51" s="18" t="s">
+      <c r="AU51" s="16"/>
+      <c r="AV51" s="16"/>
+      <c r="AW51" s="16"/>
+      <c r="AX51" s="16" t="s">
         <v>43</v>
       </c>
-      <c r="AY51" s="18"/>
-      <c r="AZ51" s="18"/>
-      <c r="BA51" s="18"/>
-      <c r="BB51" s="18" t="s">
+      <c r="AY51" s="16"/>
+      <c r="AZ51" s="16"/>
+      <c r="BA51" s="16"/>
+      <c r="BB51" s="16" t="s">
         <v>44</v>
       </c>
-      <c r="BC51" s="18"/>
-      <c r="BD51" s="18"/>
-      <c r="BE51" s="18"/>
-      <c r="BF51" s="18" t="s">
+      <c r="BC51" s="16"/>
+      <c r="BD51" s="16"/>
+      <c r="BE51" s="16"/>
+      <c r="BF51" s="16" t="s">
         <v>45</v>
       </c>
-      <c r="BG51" s="18"/>
-      <c r="BH51" s="18"/>
-      <c r="BI51" s="18"/>
-      <c r="BJ51" s="18" t="s">
+      <c r="BG51" s="16"/>
+      <c r="BH51" s="16"/>
+      <c r="BI51" s="16"/>
+      <c r="BJ51" s="16" t="s">
         <v>46</v>
       </c>
-      <c r="BK51" s="18"/>
-      <c r="BL51" s="18"/>
-      <c r="BM51" s="18"/>
-      <c r="BN51" s="18" t="s">
+      <c r="BK51" s="16"/>
+      <c r="BL51" s="16"/>
+      <c r="BM51" s="16"/>
+      <c r="BN51" s="16" t="s">
         <v>47</v>
       </c>
-      <c r="BO51" s="18"/>
-      <c r="BP51" s="18"/>
-      <c r="BQ51" s="18"/>
-      <c r="BR51" s="18" t="s">
+      <c r="BO51" s="16"/>
+      <c r="BP51" s="16"/>
+      <c r="BQ51" s="16"/>
+      <c r="BR51" s="16" t="s">
         <v>27</v>
       </c>
-      <c r="BS51" s="18"/>
-      <c r="BT51" s="18"/>
-      <c r="BU51" s="18"/>
-      <c r="BV51" s="18" t="s">
+      <c r="BS51" s="16"/>
+      <c r="BT51" s="16"/>
+      <c r="BU51" s="16"/>
+      <c r="BV51" s="16" t="s">
         <v>28</v>
       </c>
-      <c r="BW51" s="18"/>
-      <c r="BX51" s="18"/>
-      <c r="BY51" s="18"/>
-      <c r="BZ51" s="18" t="s">
+      <c r="BW51" s="16"/>
+      <c r="BX51" s="16"/>
+      <c r="BY51" s="16"/>
+      <c r="BZ51" s="16" t="s">
         <v>29</v>
       </c>
-      <c r="CA51" s="18"/>
-      <c r="CB51" s="18"/>
-      <c r="CC51" s="18"/>
-      <c r="CD51" s="18" t="s">
+      <c r="CA51" s="16"/>
+      <c r="CB51" s="16"/>
+      <c r="CC51" s="16"/>
+      <c r="CD51" s="16" t="s">
         <v>48</v>
       </c>
-      <c r="CE51" s="18"/>
-      <c r="CF51" s="18"/>
-      <c r="CG51" s="18"/>
-      <c r="CH51" s="18" t="s">
+      <c r="CE51" s="16"/>
+      <c r="CF51" s="16"/>
+      <c r="CG51" s="16"/>
+      <c r="CH51" s="16" t="s">
         <v>49</v>
       </c>
-      <c r="CI51" s="18"/>
+      <c r="CI51" s="16"/>
       <c r="CJ51" s="16"/>
-      <c r="CK51" s="16"/>
-      <c r="CL51" s="15"/>
-      <c r="CM51" s="15"/>
+      <c r="CK51" s="15"/>
+      <c r="CL51" s="16"/>
+      <c r="CM51" s="16"/>
+      <c r="CN51" s="15"/>
     </row>
-    <row r="52" spans="1:150" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:150" x14ac:dyDescent="0.2">
       <c r="A52" s="5" t="s">
         <v>4</v>
       </c>
@@ -29441,15 +29466,18 @@
       <c r="CI52" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="CJ52" s="5"/>
+      <c r="CJ52" s="5" t="s">
+        <v>10</v>
+      </c>
       <c r="CK52" s="5"/>
       <c r="CL52" s="5"/>
-      <c r="CM52" s="17"/>
+      <c r="CM52" s="5"/>
+      <c r="CN52" s="5"/>
     </row>
-    <row r="53" spans="1:150" ht="10.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:150" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A53" s="7"/>
     </row>
-    <row r="54" spans="1:150" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:150" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A54" s="1" t="s">
         <v>11</v>
       </c>
@@ -29709,13 +29737,15 @@
         <v>11.147881971256695</v>
       </c>
       <c r="CI54" s="14">
-        <v>10.643447474558698</v>
-      </c>
-      <c r="CJ54" s="14"/>
+        <v>9.5827545627788169</v>
+      </c>
+      <c r="CJ54" s="14">
+        <v>16.230442386859949</v>
+      </c>
       <c r="CK54" s="14"/>
       <c r="CL54" s="14"/>
-      <c r="CM54" s="9"/>
-      <c r="CN54" s="9"/>
+      <c r="CM54" s="14"/>
+      <c r="CN54" s="14"/>
       <c r="CO54" s="9"/>
       <c r="CP54" s="9"/>
       <c r="CQ54" s="9"/>
@@ -29775,7 +29805,7 @@
       <c r="ES54" s="9"/>
       <c r="ET54" s="9"/>
     </row>
-    <row r="55" spans="1:150" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:150" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A55" s="10" t="s">
         <v>12</v>
       </c>
@@ -30035,13 +30065,15 @@
         <v>14.292502624957095</v>
       </c>
       <c r="CI55" s="14">
-        <v>11.146954751636585</v>
-      </c>
-      <c r="CJ55" s="14"/>
+        <v>11.536863171622372</v>
+      </c>
+      <c r="CJ55" s="14">
+        <v>15.390841475957842</v>
+      </c>
       <c r="CK55" s="14"/>
       <c r="CL55" s="14"/>
-      <c r="CM55" s="9"/>
-      <c r="CN55" s="9"/>
+      <c r="CM55" s="14"/>
+      <c r="CN55" s="14"/>
       <c r="CO55" s="9"/>
       <c r="CP55" s="9"/>
       <c r="CQ55" s="9"/>
@@ -30101,7 +30133,7 @@
       <c r="ES55" s="9"/>
       <c r="ET55" s="9"/>
     </row>
-    <row r="56" spans="1:150" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:150" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A56" s="1" t="s">
         <v>13</v>
       </c>
@@ -30361,13 +30393,15 @@
         <v>8.3176207451070212</v>
       </c>
       <c r="CI56" s="14">
-        <v>5.3778862438737889</v>
-      </c>
-      <c r="CJ56" s="14"/>
+        <v>3.2770264583114965</v>
+      </c>
+      <c r="CJ56" s="14">
+        <v>8.7112391376207512</v>
+      </c>
       <c r="CK56" s="14"/>
       <c r="CL56" s="14"/>
-      <c r="CM56" s="9"/>
-      <c r="CN56" s="9"/>
+      <c r="CM56" s="14"/>
+      <c r="CN56" s="14"/>
       <c r="CO56" s="9"/>
       <c r="CP56" s="9"/>
       <c r="CQ56" s="9"/>
@@ -30427,7 +30461,7 @@
       <c r="ES56" s="9"/>
       <c r="ET56" s="9"/>
     </row>
-    <row r="57" spans="1:150" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:150" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A57" s="1" t="s">
         <v>14</v>
       </c>
@@ -30687,13 +30721,15 @@
         <v>12.104234085890582</v>
       </c>
       <c r="CI57" s="14">
-        <v>8.9209681152886162</v>
-      </c>
-      <c r="CJ57" s="14"/>
+        <v>10.91733997891275</v>
+      </c>
+      <c r="CJ57" s="14">
+        <v>10.915079371752</v>
+      </c>
       <c r="CK57" s="14"/>
       <c r="CL57" s="14"/>
-      <c r="CM57" s="9"/>
-      <c r="CN57" s="9"/>
+      <c r="CM57" s="14"/>
+      <c r="CN57" s="14"/>
       <c r="CO57" s="9"/>
       <c r="CP57" s="9"/>
       <c r="CQ57" s="9"/>
@@ -30753,7 +30789,7 @@
       <c r="ES57" s="9"/>
       <c r="ET57" s="9"/>
     </row>
-    <row r="58" spans="1:150" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:150" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B58" s="9"/>
       <c r="C58" s="9"/>
       <c r="D58" s="9"/>
@@ -30904,7 +30940,7 @@
       <c r="ES58" s="9"/>
       <c r="ET58" s="9"/>
     </row>
-    <row r="59" spans="1:150" ht="30.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:150" ht="30.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A59" s="10" t="s">
         <v>15</v>
       </c>
@@ -31164,13 +31200,15 @@
         <v>11.581043260335264</v>
       </c>
       <c r="CI59" s="14">
-        <v>10.103761563388034</v>
-      </c>
-      <c r="CJ59" s="14"/>
+        <v>9.6022160724566845</v>
+      </c>
+      <c r="CJ59" s="14">
+        <v>14.711635789576619</v>
+      </c>
       <c r="CK59" s="14"/>
       <c r="CL59" s="14"/>
-      <c r="CM59" s="9"/>
-      <c r="CN59" s="9"/>
+      <c r="CM59" s="14"/>
+      <c r="CN59" s="14"/>
       <c r="CO59" s="9"/>
       <c r="CP59" s="9"/>
       <c r="CQ59" s="9"/>
@@ -31230,7 +31268,7 @@
       <c r="ES59" s="9"/>
       <c r="ET59" s="9"/>
     </row>
-    <row r="60" spans="1:150" ht="7.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:150" ht="7.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A60" s="12"/>
       <c r="B60" s="12"/>
       <c r="C60" s="12"/>
@@ -31322,13 +31360,14 @@
       <c r="CK60" s="12"/>
       <c r="CL60" s="12"/>
       <c r="CM60" s="12"/>
+      <c r="CN60" s="12"/>
     </row>
-    <row r="61" spans="1:150" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:150" x14ac:dyDescent="0.2">
       <c r="A61" s="13" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:150" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:150" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B62" s="9"/>
       <c r="C62" s="9"/>
       <c r="D62" s="9"/>
@@ -31479,7 +31518,7 @@
       <c r="ES62" s="9"/>
       <c r="ET62" s="9"/>
     </row>
-    <row r="63" spans="1:150" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:150" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B63" s="9"/>
       <c r="C63" s="9"/>
       <c r="D63" s="9"/>
@@ -31630,174 +31669,175 @@
       <c r="ES63" s="9"/>
       <c r="ET63" s="9"/>
     </row>
-    <row r="64" spans="1:150" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:150" x14ac:dyDescent="0.2">
       <c r="A64" s="1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="65" spans="1:150" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:150" x14ac:dyDescent="0.2">
       <c r="A65" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="66" spans="1:150" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:150" x14ac:dyDescent="0.2">
       <c r="A66" s="1" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
     </row>
-    <row r="68" spans="1:150" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:150" x14ac:dyDescent="0.2">
       <c r="A68" s="1" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="69" spans="1:150" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:150" x14ac:dyDescent="0.2">
       <c r="A69" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
-    <row r="70" spans="1:150" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:150" x14ac:dyDescent="0.2">
       <c r="A70" s="1" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="72" spans="1:150" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:150" x14ac:dyDescent="0.2">
       <c r="A72" s="4"/>
-      <c r="B72" s="18" t="s">
+      <c r="B72" s="16" t="s">
         <v>31</v>
       </c>
-      <c r="C72" s="19"/>
-      <c r="D72" s="19"/>
-      <c r="E72" s="19"/>
-      <c r="F72" s="18" t="s">
+      <c r="C72" s="18"/>
+      <c r="D72" s="18"/>
+      <c r="E72" s="18"/>
+      <c r="F72" s="16" t="s">
         <v>32</v>
       </c>
-      <c r="G72" s="19"/>
-      <c r="H72" s="19"/>
-      <c r="I72" s="19"/>
-      <c r="J72" s="18" t="s">
+      <c r="G72" s="18"/>
+      <c r="H72" s="18"/>
+      <c r="I72" s="18"/>
+      <c r="J72" s="16" t="s">
         <v>33</v>
       </c>
-      <c r="K72" s="19"/>
-      <c r="L72" s="19"/>
-      <c r="M72" s="19"/>
-      <c r="N72" s="18" t="s">
+      <c r="K72" s="18"/>
+      <c r="L72" s="18"/>
+      <c r="M72" s="18"/>
+      <c r="N72" s="16" t="s">
         <v>34</v>
       </c>
-      <c r="O72" s="19"/>
-      <c r="P72" s="19"/>
-      <c r="Q72" s="19"/>
-      <c r="R72" s="18" t="s">
+      <c r="O72" s="18"/>
+      <c r="P72" s="18"/>
+      <c r="Q72" s="18"/>
+      <c r="R72" s="16" t="s">
         <v>35</v>
       </c>
-      <c r="S72" s="19"/>
-      <c r="T72" s="19"/>
-      <c r="U72" s="19"/>
-      <c r="V72" s="18" t="s">
+      <c r="S72" s="18"/>
+      <c r="T72" s="18"/>
+      <c r="U72" s="18"/>
+      <c r="V72" s="16" t="s">
         <v>36</v>
       </c>
-      <c r="W72" s="19"/>
-      <c r="X72" s="19"/>
-      <c r="Y72" s="19"/>
-      <c r="Z72" s="18" t="s">
+      <c r="W72" s="18"/>
+      <c r="X72" s="18"/>
+      <c r="Y72" s="18"/>
+      <c r="Z72" s="16" t="s">
         <v>37</v>
       </c>
-      <c r="AA72" s="19"/>
-      <c r="AB72" s="19"/>
-      <c r="AC72" s="19"/>
-      <c r="AD72" s="18" t="s">
+      <c r="AA72" s="18"/>
+      <c r="AB72" s="18"/>
+      <c r="AC72" s="18"/>
+      <c r="AD72" s="16" t="s">
         <v>38</v>
       </c>
-      <c r="AE72" s="19"/>
-      <c r="AF72" s="19"/>
-      <c r="AG72" s="19"/>
-      <c r="AH72" s="18" t="s">
+      <c r="AE72" s="18"/>
+      <c r="AF72" s="18"/>
+      <c r="AG72" s="18"/>
+      <c r="AH72" s="16" t="s">
         <v>39</v>
       </c>
-      <c r="AI72" s="19"/>
-      <c r="AJ72" s="19"/>
-      <c r="AK72" s="19"/>
-      <c r="AL72" s="18" t="s">
+      <c r="AI72" s="18"/>
+      <c r="AJ72" s="18"/>
+      <c r="AK72" s="18"/>
+      <c r="AL72" s="16" t="s">
         <v>40</v>
       </c>
-      <c r="AM72" s="19"/>
-      <c r="AN72" s="19"/>
-      <c r="AO72" s="19"/>
-      <c r="AP72" s="18" t="s">
+      <c r="AM72" s="18"/>
+      <c r="AN72" s="18"/>
+      <c r="AO72" s="18"/>
+      <c r="AP72" s="16" t="s">
         <v>41</v>
       </c>
-      <c r="AQ72" s="19"/>
-      <c r="AR72" s="19"/>
-      <c r="AS72" s="19"/>
-      <c r="AT72" s="18" t="s">
+      <c r="AQ72" s="18"/>
+      <c r="AR72" s="18"/>
+      <c r="AS72" s="18"/>
+      <c r="AT72" s="16" t="s">
         <v>42</v>
       </c>
-      <c r="AU72" s="19"/>
-      <c r="AV72" s="19"/>
-      <c r="AW72" s="19"/>
-      <c r="AX72" s="18" t="s">
+      <c r="AU72" s="18"/>
+      <c r="AV72" s="18"/>
+      <c r="AW72" s="18"/>
+      <c r="AX72" s="16" t="s">
         <v>43</v>
       </c>
-      <c r="AY72" s="19"/>
-      <c r="AZ72" s="19"/>
-      <c r="BA72" s="19"/>
-      <c r="BB72" s="18" t="s">
+      <c r="AY72" s="18"/>
+      <c r="AZ72" s="18"/>
+      <c r="BA72" s="18"/>
+      <c r="BB72" s="16" t="s">
         <v>44</v>
       </c>
-      <c r="BC72" s="19"/>
-      <c r="BD72" s="19"/>
-      <c r="BE72" s="19"/>
-      <c r="BF72" s="18" t="s">
+      <c r="BC72" s="18"/>
+      <c r="BD72" s="18"/>
+      <c r="BE72" s="18"/>
+      <c r="BF72" s="16" t="s">
         <v>45</v>
       </c>
-      <c r="BG72" s="19"/>
-      <c r="BH72" s="19"/>
-      <c r="BI72" s="19"/>
-      <c r="BJ72" s="18" t="s">
+      <c r="BG72" s="18"/>
+      <c r="BH72" s="18"/>
+      <c r="BI72" s="18"/>
+      <c r="BJ72" s="16" t="s">
         <v>46</v>
       </c>
-      <c r="BK72" s="19"/>
-      <c r="BL72" s="19"/>
-      <c r="BM72" s="19"/>
-      <c r="BN72" s="18" t="s">
+      <c r="BK72" s="18"/>
+      <c r="BL72" s="18"/>
+      <c r="BM72" s="18"/>
+      <c r="BN72" s="16" t="s">
         <v>47</v>
       </c>
-      <c r="BO72" s="19"/>
-      <c r="BP72" s="19"/>
-      <c r="BQ72" s="19"/>
-      <c r="BR72" s="18" t="s">
+      <c r="BO72" s="18"/>
+      <c r="BP72" s="18"/>
+      <c r="BQ72" s="18"/>
+      <c r="BR72" s="16" t="s">
         <v>27</v>
       </c>
-      <c r="BS72" s="19"/>
-      <c r="BT72" s="19"/>
-      <c r="BU72" s="19"/>
-      <c r="BV72" s="18" t="s">
+      <c r="BS72" s="18"/>
+      <c r="BT72" s="18"/>
+      <c r="BU72" s="18"/>
+      <c r="BV72" s="16" t="s">
         <v>28</v>
       </c>
-      <c r="BW72" s="19"/>
-      <c r="BX72" s="19"/>
-      <c r="BY72" s="19"/>
-      <c r="BZ72" s="18" t="s">
+      <c r="BW72" s="18"/>
+      <c r="BX72" s="18"/>
+      <c r="BY72" s="18"/>
+      <c r="BZ72" s="16" t="s">
         <v>29</v>
       </c>
-      <c r="CA72" s="19"/>
-      <c r="CB72" s="19"/>
-      <c r="CC72" s="19"/>
-      <c r="CD72" s="18" t="s">
+      <c r="CA72" s="18"/>
+      <c r="CB72" s="18"/>
+      <c r="CC72" s="18"/>
+      <c r="CD72" s="16" t="s">
         <v>48</v>
       </c>
-      <c r="CE72" s="19"/>
-      <c r="CF72" s="19"/>
-      <c r="CG72" s="19"/>
-      <c r="CH72" s="18" t="s">
+      <c r="CE72" s="18"/>
+      <c r="CF72" s="18"/>
+      <c r="CG72" s="18"/>
+      <c r="CH72" s="16" t="s">
         <v>49</v>
       </c>
-      <c r="CI72" s="18"/>
+      <c r="CI72" s="16"/>
       <c r="CJ72" s="16"/>
-      <c r="CK72" s="16"/>
-      <c r="CL72" s="15"/>
-      <c r="CM72" s="15"/>
+      <c r="CK72" s="15"/>
+      <c r="CL72" s="16"/>
+      <c r="CM72" s="16"/>
+      <c r="CN72" s="15"/>
     </row>
-    <row r="73" spans="1:150" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:150" x14ac:dyDescent="0.2">
       <c r="A73" s="5" t="s">
         <v>4</v>
       </c>
@@ -32059,15 +32099,18 @@
       <c r="CI73" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="CJ73" s="5"/>
+      <c r="CJ73" s="5" t="s">
+        <v>10</v>
+      </c>
       <c r="CK73" s="5"/>
       <c r="CL73" s="5"/>
-      <c r="CM73" s="17"/>
+      <c r="CM73" s="5"/>
+      <c r="CN73" s="5"/>
     </row>
-    <row r="74" spans="1:150" ht="10.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:150" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A74" s="7"/>
     </row>
-    <row r="75" spans="1:150" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:150" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A75" s="1" t="s">
         <v>11</v>
       </c>
@@ -32327,13 +32370,15 @@
         <v>7.3636923253115043</v>
       </c>
       <c r="CI75" s="14">
-        <v>4.7692023421639647</v>
-      </c>
-      <c r="CJ75" s="14"/>
+        <v>3.704170843709818</v>
+      </c>
+      <c r="CJ75" s="14">
+        <v>9.1013754132893325</v>
+      </c>
       <c r="CK75" s="14"/>
       <c r="CL75" s="14"/>
-      <c r="CM75" s="9"/>
-      <c r="CN75" s="9"/>
+      <c r="CM75" s="14"/>
+      <c r="CN75" s="14"/>
       <c r="CO75" s="9"/>
       <c r="CP75" s="9"/>
       <c r="CQ75" s="9"/>
@@ -32393,7 +32438,7 @@
       <c r="ES75" s="9"/>
       <c r="ET75" s="9"/>
     </row>
-    <row r="76" spans="1:150" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:150" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A76" s="10" t="s">
         <v>12</v>
       </c>
@@ -32653,13 +32698,15 @@
         <v>10.409298596710755</v>
       </c>
       <c r="CI76" s="14">
-        <v>5.1762775422624827</v>
-      </c>
-      <c r="CJ76" s="14"/>
+        <v>5.5345951035399565</v>
+      </c>
+      <c r="CJ76" s="14">
+        <v>8.3132719500607806</v>
+      </c>
       <c r="CK76" s="14"/>
       <c r="CL76" s="14"/>
-      <c r="CM76" s="9"/>
-      <c r="CN76" s="9"/>
+      <c r="CM76" s="14"/>
+      <c r="CN76" s="14"/>
       <c r="CO76" s="9"/>
       <c r="CP76" s="9"/>
       <c r="CQ76" s="9"/>
@@ -32719,7 +32766,7 @@
       <c r="ES76" s="9"/>
       <c r="ET76" s="9"/>
     </row>
-    <row r="77" spans="1:150" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:150" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A77" s="1" t="s">
         <v>13</v>
       </c>
@@ -32979,13 +33026,15 @@
         <v>4.5273593202528843</v>
       </c>
       <c r="CI77" s="14">
-        <v>0.15514982964337776</v>
-      </c>
-      <c r="CJ77" s="14"/>
+        <v>-1.8757504786459123</v>
+      </c>
+      <c r="CJ77" s="14">
+        <v>2.0433672042728261</v>
+      </c>
       <c r="CK77" s="14"/>
       <c r="CL77" s="14"/>
-      <c r="CM77" s="9"/>
-      <c r="CN77" s="9"/>
+      <c r="CM77" s="14"/>
+      <c r="CN77" s="14"/>
       <c r="CO77" s="9"/>
       <c r="CP77" s="9"/>
       <c r="CQ77" s="9"/>
@@ -33045,7 +33094,7 @@
       <c r="ES77" s="9"/>
       <c r="ET77" s="9"/>
     </row>
-    <row r="78" spans="1:150" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:150" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A78" s="1" t="s">
         <v>14</v>
       </c>
@@ -33305,13 +33354,15 @@
         <v>7.7514731644417765</v>
       </c>
       <c r="CI78" s="14">
-        <v>2.4318743381890044</v>
-      </c>
-      <c r="CJ78" s="14"/>
+        <v>4.2877055123837522</v>
+      </c>
+      <c r="CJ78" s="14">
+        <v>4.1120335174800005</v>
+      </c>
       <c r="CK78" s="14"/>
       <c r="CL78" s="14"/>
-      <c r="CM78" s="9"/>
-      <c r="CN78" s="9"/>
+      <c r="CM78" s="14"/>
+      <c r="CN78" s="14"/>
       <c r="CO78" s="9"/>
       <c r="CP78" s="9"/>
       <c r="CQ78" s="9"/>
@@ -33371,7 +33422,7 @@
       <c r="ES78" s="9"/>
       <c r="ET78" s="9"/>
     </row>
-    <row r="79" spans="1:150" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:150" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B79" s="9"/>
       <c r="C79" s="9"/>
       <c r="D79" s="9"/>
@@ -33522,7 +33573,7 @@
       <c r="ES79" s="9"/>
       <c r="ET79" s="9"/>
     </row>
-    <row r="80" spans="1:150" ht="30.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:150" ht="30.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A80" s="10" t="s">
         <v>15</v>
       </c>
@@ -33782,13 +33833,15 @@
         <v>7.7484095988210839</v>
       </c>
       <c r="CI80" s="14">
-        <v>4.2271346631907107</v>
-      </c>
-      <c r="CJ80" s="14"/>
+        <v>3.7111182650669434</v>
+      </c>
+      <c r="CJ80" s="14">
+        <v>7.6586677469947944</v>
+      </c>
       <c r="CK80" s="14"/>
       <c r="CL80" s="14"/>
-      <c r="CM80" s="9"/>
-      <c r="CN80" s="9"/>
+      <c r="CM80" s="14"/>
+      <c r="CN80" s="14"/>
       <c r="CO80" s="9"/>
       <c r="CP80" s="9"/>
       <c r="CQ80" s="9"/>
@@ -33848,7 +33901,7 @@
       <c r="ES80" s="9"/>
       <c r="ET80" s="9"/>
     </row>
-    <row r="81" spans="1:154" ht="7.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:154" ht="7.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A81" s="12"/>
       <c r="B81" s="12"/>
       <c r="C81" s="12"/>
@@ -33940,13 +33993,14 @@
       <c r="CK81" s="12"/>
       <c r="CL81" s="12"/>
       <c r="CM81" s="12"/>
+      <c r="CN81" s="12"/>
     </row>
-    <row r="82" spans="1:154" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:154" x14ac:dyDescent="0.2">
       <c r="A82" s="13" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="83" spans="1:154" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:154" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B83" s="9"/>
       <c r="C83" s="9"/>
       <c r="D83" s="9"/>
@@ -34097,7 +34151,7 @@
       <c r="ES83" s="9"/>
       <c r="ET83" s="9"/>
     </row>
-    <row r="84" spans="1:154" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:154" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B84" s="9"/>
       <c r="C84" s="9"/>
       <c r="D84" s="9"/>
@@ -34248,171 +34302,172 @@
       <c r="ES84" s="9"/>
       <c r="ET84" s="9"/>
     </row>
-    <row r="85" spans="1:154" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:154" x14ac:dyDescent="0.2">
       <c r="A85" s="1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="86" spans="1:154" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:154" x14ac:dyDescent="0.2">
       <c r="A86" s="1" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
     </row>
-    <row r="88" spans="1:154" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:154" x14ac:dyDescent="0.2">
       <c r="A88" s="1" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="89" spans="1:154" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:154" x14ac:dyDescent="0.2">
       <c r="A89" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
-    <row r="90" spans="1:154" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:154" x14ac:dyDescent="0.2">
       <c r="A90" s="1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="92" spans="1:154" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:154" x14ac:dyDescent="0.2">
       <c r="A92" s="4"/>
-      <c r="B92" s="18">
+      <c r="B92" s="16">
         <v>2000</v>
       </c>
-      <c r="C92" s="20"/>
-      <c r="D92" s="20"/>
-      <c r="E92" s="20"/>
-      <c r="F92" s="18">
+      <c r="C92" s="17"/>
+      <c r="D92" s="17"/>
+      <c r="E92" s="17"/>
+      <c r="F92" s="16">
         <v>2001</v>
       </c>
-      <c r="G92" s="20"/>
-      <c r="H92" s="20"/>
-      <c r="I92" s="20"/>
-      <c r="J92" s="18">
+      <c r="G92" s="17"/>
+      <c r="H92" s="17"/>
+      <c r="I92" s="17"/>
+      <c r="J92" s="16">
         <v>2002</v>
       </c>
-      <c r="K92" s="20"/>
-      <c r="L92" s="20"/>
-      <c r="M92" s="20"/>
-      <c r="N92" s="18">
+      <c r="K92" s="17"/>
+      <c r="L92" s="17"/>
+      <c r="M92" s="17"/>
+      <c r="N92" s="16">
         <v>2003</v>
       </c>
-      <c r="O92" s="20"/>
-      <c r="P92" s="20"/>
-      <c r="Q92" s="20"/>
-      <c r="R92" s="18">
+      <c r="O92" s="17"/>
+      <c r="P92" s="17"/>
+      <c r="Q92" s="17"/>
+      <c r="R92" s="16">
         <v>2004</v>
       </c>
-      <c r="S92" s="20"/>
-      <c r="T92" s="20"/>
-      <c r="U92" s="20"/>
-      <c r="V92" s="18">
+      <c r="S92" s="17"/>
+      <c r="T92" s="17"/>
+      <c r="U92" s="17"/>
+      <c r="V92" s="16">
         <v>2005</v>
       </c>
-      <c r="W92" s="20"/>
-      <c r="X92" s="20"/>
-      <c r="Y92" s="20"/>
-      <c r="Z92" s="18">
+      <c r="W92" s="17"/>
+      <c r="X92" s="17"/>
+      <c r="Y92" s="17"/>
+      <c r="Z92" s="16">
         <v>2006</v>
       </c>
-      <c r="AA92" s="20"/>
-      <c r="AB92" s="20"/>
-      <c r="AC92" s="20"/>
-      <c r="AD92" s="18">
+      <c r="AA92" s="17"/>
+      <c r="AB92" s="17"/>
+      <c r="AC92" s="17"/>
+      <c r="AD92" s="16">
         <v>2007</v>
       </c>
-      <c r="AE92" s="20"/>
-      <c r="AF92" s="20"/>
-      <c r="AG92" s="20"/>
-      <c r="AH92" s="18">
+      <c r="AE92" s="17"/>
+      <c r="AF92" s="17"/>
+      <c r="AG92" s="17"/>
+      <c r="AH92" s="16">
         <v>2008</v>
       </c>
-      <c r="AI92" s="20"/>
-      <c r="AJ92" s="20"/>
-      <c r="AK92" s="20"/>
-      <c r="AL92" s="18">
+      <c r="AI92" s="17"/>
+      <c r="AJ92" s="17"/>
+      <c r="AK92" s="17"/>
+      <c r="AL92" s="16">
         <v>2009</v>
       </c>
-      <c r="AM92" s="20"/>
-      <c r="AN92" s="20"/>
-      <c r="AO92" s="20"/>
-      <c r="AP92" s="18">
+      <c r="AM92" s="17"/>
+      <c r="AN92" s="17"/>
+      <c r="AO92" s="17"/>
+      <c r="AP92" s="16">
         <v>2010</v>
       </c>
-      <c r="AQ92" s="20"/>
-      <c r="AR92" s="20"/>
-      <c r="AS92" s="20"/>
-      <c r="AT92" s="18">
+      <c r="AQ92" s="17"/>
+      <c r="AR92" s="17"/>
+      <c r="AS92" s="17"/>
+      <c r="AT92" s="16">
         <v>2011</v>
       </c>
-      <c r="AU92" s="20"/>
-      <c r="AV92" s="20"/>
-      <c r="AW92" s="20"/>
-      <c r="AX92" s="18">
+      <c r="AU92" s="17"/>
+      <c r="AV92" s="17"/>
+      <c r="AW92" s="17"/>
+      <c r="AX92" s="16">
         <v>2012</v>
       </c>
-      <c r="AY92" s="20"/>
-      <c r="AZ92" s="20"/>
-      <c r="BA92" s="20"/>
-      <c r="BB92" s="18">
+      <c r="AY92" s="17"/>
+      <c r="AZ92" s="17"/>
+      <c r="BA92" s="17"/>
+      <c r="BB92" s="16">
         <v>2013</v>
       </c>
-      <c r="BC92" s="20"/>
-      <c r="BD92" s="20"/>
-      <c r="BE92" s="20"/>
-      <c r="BF92" s="18">
+      <c r="BC92" s="17"/>
+      <c r="BD92" s="17"/>
+      <c r="BE92" s="17"/>
+      <c r="BF92" s="16">
         <v>2014</v>
       </c>
-      <c r="BG92" s="20"/>
-      <c r="BH92" s="20"/>
-      <c r="BI92" s="20"/>
-      <c r="BJ92" s="18">
+      <c r="BG92" s="17"/>
+      <c r="BH92" s="17"/>
+      <c r="BI92" s="17"/>
+      <c r="BJ92" s="16">
         <v>2015</v>
       </c>
-      <c r="BK92" s="20"/>
-      <c r="BL92" s="20"/>
-      <c r="BM92" s="20"/>
-      <c r="BN92" s="18">
+      <c r="BK92" s="17"/>
+      <c r="BL92" s="17"/>
+      <c r="BM92" s="17"/>
+      <c r="BN92" s="16">
         <v>2016</v>
       </c>
-      <c r="BO92" s="20"/>
-      <c r="BP92" s="20"/>
-      <c r="BQ92" s="20"/>
-      <c r="BR92" s="18">
+      <c r="BO92" s="17"/>
+      <c r="BP92" s="17"/>
+      <c r="BQ92" s="17"/>
+      <c r="BR92" s="16">
         <v>2017</v>
       </c>
-      <c r="BS92" s="20"/>
-      <c r="BT92" s="20"/>
-      <c r="BU92" s="20"/>
-      <c r="BV92" s="18">
+      <c r="BS92" s="17"/>
+      <c r="BT92" s="17"/>
+      <c r="BU92" s="17"/>
+      <c r="BV92" s="16">
         <v>2018</v>
       </c>
-      <c r="BW92" s="20"/>
-      <c r="BX92" s="20"/>
-      <c r="BY92" s="20"/>
-      <c r="BZ92" s="18">
+      <c r="BW92" s="17"/>
+      <c r="BX92" s="17"/>
+      <c r="BY92" s="17"/>
+      <c r="BZ92" s="16">
         <v>2019</v>
       </c>
-      <c r="CA92" s="20"/>
-      <c r="CB92" s="20"/>
-      <c r="CC92" s="20"/>
-      <c r="CD92" s="18">
+      <c r="CA92" s="17"/>
+      <c r="CB92" s="17"/>
+      <c r="CC92" s="17"/>
+      <c r="CD92" s="16">
         <v>2020</v>
       </c>
-      <c r="CE92" s="20"/>
-      <c r="CF92" s="20"/>
-      <c r="CG92" s="20"/>
-      <c r="CH92" s="18">
+      <c r="CE92" s="17"/>
+      <c r="CF92" s="17"/>
+      <c r="CG92" s="17"/>
+      <c r="CH92" s="16">
         <v>2021</v>
       </c>
-      <c r="CI92" s="18"/>
-      <c r="CJ92" s="18"/>
-      <c r="CK92" s="18"/>
-      <c r="CL92" s="18">
+      <c r="CI92" s="16"/>
+      <c r="CJ92" s="16"/>
+      <c r="CK92" s="16"/>
+      <c r="CL92" s="16">
         <v>2022</v>
       </c>
-      <c r="CM92" s="18"/>
+      <c r="CM92" s="16"/>
+      <c r="CN92" s="16"/>
     </row>
-    <row r="93" spans="1:154" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:154" x14ac:dyDescent="0.2">
       <c r="A93" s="5" t="s">
         <v>4</v>
       </c>
@@ -34686,11 +34741,14 @@
       <c r="CM93" s="6" t="s">
         <v>8</v>
       </c>
+      <c r="CN93" s="6" t="s">
+        <v>10</v>
+      </c>
     </row>
-    <row r="94" spans="1:154" ht="10.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:154" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A94" s="7"/>
     </row>
-    <row r="95" spans="1:154" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:154" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A95" s="1" t="s">
         <v>11</v>
       </c>
@@ -34962,9 +35020,11 @@
         <v>109.29741292337076</v>
       </c>
       <c r="CM95" s="14">
-        <v>112.61686759032798</v>
-      </c>
-      <c r="CN95" s="9"/>
+        <v>112.68273282267074</v>
+      </c>
+      <c r="CN95" s="14">
+        <v>112.52153114587102</v>
+      </c>
       <c r="CO95" s="9"/>
       <c r="CP95" s="9"/>
       <c r="CQ95" s="9"/>
@@ -35028,7 +35088,7 @@
       <c r="EW95" s="9"/>
       <c r="EX95" s="9"/>
     </row>
-    <row r="96" spans="1:154" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:154" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A96" s="10" t="s">
         <v>12</v>
       </c>
@@ -35300,9 +35360,11 @@
         <v>110.58197350081539</v>
       </c>
       <c r="CM96" s="14">
-        <v>111.13628330876486</v>
-      </c>
-      <c r="CN96" s="9"/>
+        <v>111.14749382056803</v>
+      </c>
+      <c r="CN96" s="14">
+        <v>111.44310904146781</v>
+      </c>
       <c r="CO96" s="9"/>
       <c r="CP96" s="9"/>
       <c r="CQ96" s="9"/>
@@ -35366,7 +35428,7 @@
       <c r="EW96" s="9"/>
       <c r="EX96" s="9"/>
     </row>
-    <row r="97" spans="1:154" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:154" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A97" s="1" t="s">
         <v>13</v>
       </c>
@@ -35638,9 +35700,11 @@
         <v>112.42680139344183</v>
       </c>
       <c r="CM97" s="14">
-        <v>108.25575461185817</v>
-      </c>
-      <c r="CN97" s="9"/>
+        <v>108.29344532061886</v>
+      </c>
+      <c r="CN97" s="14">
+        <v>109.7338509917177</v>
+      </c>
       <c r="CO97" s="9"/>
       <c r="CP97" s="9"/>
       <c r="CQ97" s="9"/>
@@ -35704,7 +35768,7 @@
       <c r="EW97" s="9"/>
       <c r="EX97" s="9"/>
     </row>
-    <row r="98" spans="1:154" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:154" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A98" s="1" t="s">
         <v>14</v>
       </c>
@@ -35976,9 +36040,11 @@
         <v>111.88656343532</v>
       </c>
       <c r="CM98" s="14">
-        <v>113.22642567751583</v>
-      </c>
-      <c r="CN98" s="9"/>
+        <v>113.24988195155289</v>
+      </c>
+      <c r="CN98" s="14">
+        <v>113.09341837022913</v>
+      </c>
       <c r="CO98" s="9"/>
       <c r="CP98" s="9"/>
       <c r="CQ98" s="9"/>
@@ -36042,7 +36108,7 @@
       <c r="EW98" s="9"/>
       <c r="EX98" s="9"/>
     </row>
-    <row r="99" spans="1:154" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:154" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B99" s="9"/>
       <c r="C99" s="9"/>
       <c r="D99" s="9"/>
@@ -36197,7 +36263,7 @@
       <c r="EW99" s="9"/>
       <c r="EX99" s="9"/>
     </row>
-    <row r="100" spans="1:154" ht="30.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:154" ht="30.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A100" s="10" t="s">
         <v>15</v>
       </c>
@@ -36469,9 +36535,11 @@
         <v>110.12937562668412</v>
       </c>
       <c r="CM100" s="14">
-        <v>111.59371965967613</v>
-      </c>
-      <c r="CN100" s="9"/>
+        <v>111.63809429597423</v>
+      </c>
+      <c r="CN100" s="14">
+        <v>111.88811200596096</v>
+      </c>
       <c r="CO100" s="9"/>
       <c r="CP100" s="9"/>
       <c r="CQ100" s="9"/>
@@ -36535,7 +36603,7 @@
       <c r="EW100" s="9"/>
       <c r="EX100" s="9"/>
     </row>
-    <row r="101" spans="1:154" ht="7.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:154" ht="7.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A101" s="12"/>
       <c r="B101" s="12"/>
       <c r="C101" s="12"/>
@@ -36627,182 +36695,184 @@
       <c r="CK101" s="12"/>
       <c r="CL101" s="12"/>
       <c r="CM101" s="12"/>
+      <c r="CN101" s="12"/>
     </row>
-    <row r="102" spans="1:154" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:154" x14ac:dyDescent="0.2">
       <c r="A102" s="13" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="105" spans="1:154" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:154" x14ac:dyDescent="0.2">
       <c r="A105" s="1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="106" spans="1:154" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:154" x14ac:dyDescent="0.2">
       <c r="A106" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="107" spans="1:154" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:154" x14ac:dyDescent="0.2">
       <c r="A107" s="1" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
     </row>
-    <row r="109" spans="1:154" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:154" x14ac:dyDescent="0.2">
       <c r="A109" s="1" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="110" spans="1:154" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:154" x14ac:dyDescent="0.2">
       <c r="A110" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
-    <row r="111" spans="1:154" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:154" x14ac:dyDescent="0.2">
       <c r="A111" s="1" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="113" spans="1:154" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:154" x14ac:dyDescent="0.2">
       <c r="A113" s="4"/>
-      <c r="B113" s="18">
+      <c r="B113" s="16">
         <v>2000</v>
       </c>
-      <c r="C113" s="20"/>
-      <c r="D113" s="20"/>
-      <c r="E113" s="20"/>
-      <c r="F113" s="18">
+      <c r="C113" s="17"/>
+      <c r="D113" s="17"/>
+      <c r="E113" s="17"/>
+      <c r="F113" s="16">
         <v>2001</v>
       </c>
-      <c r="G113" s="20"/>
-      <c r="H113" s="20"/>
-      <c r="I113" s="20"/>
-      <c r="J113" s="18">
+      <c r="G113" s="17"/>
+      <c r="H113" s="17"/>
+      <c r="I113" s="17"/>
+      <c r="J113" s="16">
         <v>2002</v>
       </c>
-      <c r="K113" s="20"/>
-      <c r="L113" s="20"/>
-      <c r="M113" s="20"/>
-      <c r="N113" s="18">
+      <c r="K113" s="17"/>
+      <c r="L113" s="17"/>
+      <c r="M113" s="17"/>
+      <c r="N113" s="16">
         <v>2003</v>
       </c>
-      <c r="O113" s="20"/>
-      <c r="P113" s="20"/>
-      <c r="Q113" s="20"/>
-      <c r="R113" s="18">
+      <c r="O113" s="17"/>
+      <c r="P113" s="17"/>
+      <c r="Q113" s="17"/>
+      <c r="R113" s="16">
         <v>2004</v>
       </c>
-      <c r="S113" s="20"/>
-      <c r="T113" s="20"/>
-      <c r="U113" s="20"/>
-      <c r="V113" s="18">
+      <c r="S113" s="17"/>
+      <c r="T113" s="17"/>
+      <c r="U113" s="17"/>
+      <c r="V113" s="16">
         <v>2005</v>
       </c>
-      <c r="W113" s="20"/>
-      <c r="X113" s="20"/>
-      <c r="Y113" s="20"/>
-      <c r="Z113" s="18">
+      <c r="W113" s="17"/>
+      <c r="X113" s="17"/>
+      <c r="Y113" s="17"/>
+      <c r="Z113" s="16">
         <v>2006</v>
       </c>
-      <c r="AA113" s="20"/>
-      <c r="AB113" s="20"/>
-      <c r="AC113" s="20"/>
-      <c r="AD113" s="18">
+      <c r="AA113" s="17"/>
+      <c r="AB113" s="17"/>
+      <c r="AC113" s="17"/>
+      <c r="AD113" s="16">
         <v>2007</v>
       </c>
-      <c r="AE113" s="20"/>
-      <c r="AF113" s="20"/>
-      <c r="AG113" s="20"/>
-      <c r="AH113" s="18">
+      <c r="AE113" s="17"/>
+      <c r="AF113" s="17"/>
+      <c r="AG113" s="17"/>
+      <c r="AH113" s="16">
         <v>2008</v>
       </c>
-      <c r="AI113" s="20"/>
-      <c r="AJ113" s="20"/>
-      <c r="AK113" s="20"/>
-      <c r="AL113" s="18">
+      <c r="AI113" s="17"/>
+      <c r="AJ113" s="17"/>
+      <c r="AK113" s="17"/>
+      <c r="AL113" s="16">
         <v>2009</v>
       </c>
-      <c r="AM113" s="20"/>
-      <c r="AN113" s="20"/>
-      <c r="AO113" s="20"/>
-      <c r="AP113" s="18">
+      <c r="AM113" s="17"/>
+      <c r="AN113" s="17"/>
+      <c r="AO113" s="17"/>
+      <c r="AP113" s="16">
         <v>2010</v>
       </c>
-      <c r="AQ113" s="20"/>
-      <c r="AR113" s="20"/>
-      <c r="AS113" s="20"/>
-      <c r="AT113" s="18">
+      <c r="AQ113" s="17"/>
+      <c r="AR113" s="17"/>
+      <c r="AS113" s="17"/>
+      <c r="AT113" s="16">
         <v>2011</v>
       </c>
-      <c r="AU113" s="20"/>
-      <c r="AV113" s="20"/>
-      <c r="AW113" s="20"/>
-      <c r="AX113" s="18">
+      <c r="AU113" s="17"/>
+      <c r="AV113" s="17"/>
+      <c r="AW113" s="17"/>
+      <c r="AX113" s="16">
         <v>2012</v>
       </c>
-      <c r="AY113" s="20"/>
-      <c r="AZ113" s="20"/>
-      <c r="BA113" s="20"/>
-      <c r="BB113" s="18">
+      <c r="AY113" s="17"/>
+      <c r="AZ113" s="17"/>
+      <c r="BA113" s="17"/>
+      <c r="BB113" s="16">
         <v>2013</v>
       </c>
-      <c r="BC113" s="20"/>
-      <c r="BD113" s="20"/>
-      <c r="BE113" s="20"/>
-      <c r="BF113" s="18">
+      <c r="BC113" s="17"/>
+      <c r="BD113" s="17"/>
+      <c r="BE113" s="17"/>
+      <c r="BF113" s="16">
         <v>2014</v>
       </c>
-      <c r="BG113" s="20"/>
-      <c r="BH113" s="20"/>
-      <c r="BI113" s="20"/>
-      <c r="BJ113" s="18">
+      <c r="BG113" s="17"/>
+      <c r="BH113" s="17"/>
+      <c r="BI113" s="17"/>
+      <c r="BJ113" s="16">
         <v>2015</v>
       </c>
-      <c r="BK113" s="20"/>
-      <c r="BL113" s="20"/>
-      <c r="BM113" s="20"/>
-      <c r="BN113" s="18">
+      <c r="BK113" s="17"/>
+      <c r="BL113" s="17"/>
+      <c r="BM113" s="17"/>
+      <c r="BN113" s="16">
         <v>2016</v>
       </c>
-      <c r="BO113" s="20"/>
-      <c r="BP113" s="20"/>
-      <c r="BQ113" s="20"/>
-      <c r="BR113" s="18">
+      <c r="BO113" s="17"/>
+      <c r="BP113" s="17"/>
+      <c r="BQ113" s="17"/>
+      <c r="BR113" s="16">
         <v>2017</v>
       </c>
-      <c r="BS113" s="20"/>
-      <c r="BT113" s="20"/>
-      <c r="BU113" s="20"/>
-      <c r="BV113" s="18">
+      <c r="BS113" s="17"/>
+      <c r="BT113" s="17"/>
+      <c r="BU113" s="17"/>
+      <c r="BV113" s="16">
         <v>2018</v>
       </c>
-      <c r="BW113" s="20"/>
-      <c r="BX113" s="20"/>
-      <c r="BY113" s="20"/>
-      <c r="BZ113" s="18">
+      <c r="BW113" s="17"/>
+      <c r="BX113" s="17"/>
+      <c r="BY113" s="17"/>
+      <c r="BZ113" s="16">
         <v>2019</v>
       </c>
-      <c r="CA113" s="20"/>
-      <c r="CB113" s="20"/>
-      <c r="CC113" s="20"/>
-      <c r="CD113" s="18">
+      <c r="CA113" s="17"/>
+      <c r="CB113" s="17"/>
+      <c r="CC113" s="17"/>
+      <c r="CD113" s="16">
         <v>2020</v>
       </c>
-      <c r="CE113" s="20"/>
-      <c r="CF113" s="20"/>
-      <c r="CG113" s="20"/>
-      <c r="CH113" s="18">
+      <c r="CE113" s="17"/>
+      <c r="CF113" s="17"/>
+      <c r="CG113" s="17"/>
+      <c r="CH113" s="16">
         <v>2021</v>
       </c>
-      <c r="CI113" s="18"/>
-      <c r="CJ113" s="18"/>
-      <c r="CK113" s="18"/>
-      <c r="CL113" s="18">
+      <c r="CI113" s="16"/>
+      <c r="CJ113" s="16"/>
+      <c r="CK113" s="16"/>
+      <c r="CL113" s="16">
         <v>2022</v>
       </c>
-      <c r="CM113" s="18"/>
+      <c r="CM113" s="16"/>
+      <c r="CN113" s="16"/>
     </row>
-    <row r="114" spans="1:154" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:154" x14ac:dyDescent="0.2">
       <c r="A114" s="5" t="s">
         <v>4</v>
       </c>
@@ -37076,11 +37146,14 @@
       <c r="CM114" s="6" t="s">
         <v>8</v>
       </c>
+      <c r="CN114" s="6" t="s">
+        <v>10</v>
+      </c>
     </row>
-    <row r="115" spans="1:154" ht="10.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:154" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A115" s="7"/>
     </row>
-    <row r="116" spans="1:154" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:154" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A116" s="1" t="s">
         <v>11</v>
       </c>
@@ -37352,9 +37425,11 @@
         <v>57.633829782588052</v>
       </c>
       <c r="CM116" s="14">
-        <v>47.002293294798349</v>
-      </c>
-      <c r="CN116" s="9"/>
+        <v>46.764724802964899</v>
+      </c>
+      <c r="CN116" s="14">
+        <v>55.455130013094298</v>
+      </c>
       <c r="CO116" s="9"/>
       <c r="CP116" s="9"/>
       <c r="CQ116" s="9"/>
@@ -37418,7 +37493,7 @@
       <c r="EW116" s="9"/>
       <c r="EX116" s="9"/>
     </row>
-    <row r="117" spans="1:154" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:154" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A117" s="10" t="s">
         <v>12</v>
       </c>
@@ -37690,9 +37765,11 @@
         <v>24.71859562043506</v>
       </c>
       <c r="CM117" s="14">
-        <v>36.320372219343064</v>
-      </c>
-      <c r="CN117" s="9"/>
+        <v>36.614572666693832</v>
+      </c>
+      <c r="CN117" s="14">
+        <v>26.758700257789897</v>
+      </c>
       <c r="CO117" s="9"/>
       <c r="CP117" s="9"/>
       <c r="CQ117" s="9"/>
@@ -37756,7 +37833,7 @@
       <c r="EW117" s="9"/>
       <c r="EX117" s="9"/>
     </row>
-    <row r="118" spans="1:154" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:154" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A118" s="1" t="s">
         <v>13</v>
       </c>
@@ -38028,9 +38105,11 @@
         <v>12.76533827671941</v>
       </c>
       <c r="CM118" s="14">
-        <v>11.446873081178458</v>
-      </c>
-      <c r="CN118" s="9"/>
+        <v>11.270000387299072</v>
+      </c>
+      <c r="CN118" s="14">
+        <v>13.037027518172071</v>
+      </c>
       <c r="CO118" s="9"/>
       <c r="CP118" s="9"/>
       <c r="CQ118" s="9"/>
@@ -38094,7 +38173,7 @@
       <c r="EW118" s="9"/>
       <c r="EX118" s="9"/>
     </row>
-    <row r="119" spans="1:154" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:154" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A119" s="1" t="s">
         <v>14</v>
       </c>
@@ -38366,9 +38445,11 @@
         <v>4.8822363202574905</v>
       </c>
       <c r="CM119" s="14">
-        <v>5.230461404680133</v>
-      </c>
-      <c r="CN119" s="9"/>
+        <v>5.350702143042203</v>
+      </c>
+      <c r="CN119" s="14">
+        <v>4.7491422109437194</v>
+      </c>
       <c r="CO119" s="9"/>
       <c r="CP119" s="9"/>
       <c r="CQ119" s="9"/>
@@ -38432,7 +38513,7 @@
       <c r="EW119" s="9"/>
       <c r="EX119" s="9"/>
     </row>
-    <row r="120" spans="1:154" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:154" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B120" s="14"/>
       <c r="C120" s="14"/>
       <c r="D120" s="14"/>
@@ -38523,7 +38604,7 @@
       <c r="CK120" s="14"/>
       <c r="CL120" s="14"/>
       <c r="CM120" s="14"/>
-      <c r="CN120" s="9"/>
+      <c r="CN120" s="14"/>
       <c r="CO120" s="9"/>
       <c r="CP120" s="9"/>
       <c r="CQ120" s="9"/>
@@ -38587,7 +38668,7 @@
       <c r="EW120" s="9"/>
       <c r="EX120" s="9"/>
     </row>
-    <row r="121" spans="1:154" ht="30.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:154" ht="30.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A121" s="10" t="s">
         <v>15</v>
       </c>
@@ -38861,7 +38942,9 @@
       <c r="CM121" s="14">
         <v>100</v>
       </c>
-      <c r="CN121" s="9"/>
+      <c r="CN121" s="14">
+        <v>100</v>
+      </c>
       <c r="CO121" s="9"/>
       <c r="CP121" s="9"/>
       <c r="CQ121" s="9"/>
@@ -38925,7 +39008,7 @@
       <c r="EW121" s="9"/>
       <c r="EX121" s="9"/>
     </row>
-    <row r="122" spans="1:154" ht="7.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:154" ht="7.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A122" s="12"/>
       <c r="B122" s="12"/>
       <c r="C122" s="12"/>
@@ -39017,13 +39100,14 @@
       <c r="CK122" s="12"/>
       <c r="CL122" s="12"/>
       <c r="CM122" s="12"/>
+      <c r="CN122" s="12"/>
     </row>
-    <row r="123" spans="1:154" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:154" x14ac:dyDescent="0.2">
       <c r="A123" s="13" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="124" spans="1:154" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:154" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B124" s="9"/>
       <c r="C124" s="9"/>
       <c r="D124" s="9"/>
@@ -39178,7 +39262,7 @@
       <c r="EW124" s="9"/>
       <c r="EX124" s="9"/>
     </row>
-    <row r="125" spans="1:154" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:154" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B125" s="9"/>
       <c r="C125" s="9"/>
       <c r="D125" s="9"/>
@@ -39333,176 +39417,177 @@
       <c r="EW125" s="9"/>
       <c r="EX125" s="9"/>
     </row>
-    <row r="126" spans="1:154" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:154" x14ac:dyDescent="0.2">
       <c r="A126" s="1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="127" spans="1:154" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:154" x14ac:dyDescent="0.2">
       <c r="A127" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="128" spans="1:154" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:154" x14ac:dyDescent="0.2">
       <c r="A128" s="1" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
     </row>
-    <row r="130" spans="1:154" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:154" x14ac:dyDescent="0.2">
       <c r="A130" s="1" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="131" spans="1:154" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:154" x14ac:dyDescent="0.2">
       <c r="A131" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
-    <row r="132" spans="1:154" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:154" x14ac:dyDescent="0.2">
       <c r="A132" s="1" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="134" spans="1:154" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:154" x14ac:dyDescent="0.2">
       <c r="A134" s="4"/>
-      <c r="B134" s="18">
+      <c r="B134" s="16">
         <v>2000</v>
       </c>
-      <c r="C134" s="20"/>
-      <c r="D134" s="20"/>
-      <c r="E134" s="20"/>
-      <c r="F134" s="18">
+      <c r="C134" s="17"/>
+      <c r="D134" s="17"/>
+      <c r="E134" s="17"/>
+      <c r="F134" s="16">
         <v>2001</v>
       </c>
-      <c r="G134" s="20"/>
-      <c r="H134" s="20"/>
-      <c r="I134" s="20"/>
-      <c r="J134" s="18">
+      <c r="G134" s="17"/>
+      <c r="H134" s="17"/>
+      <c r="I134" s="17"/>
+      <c r="J134" s="16">
         <v>2002</v>
       </c>
-      <c r="K134" s="20"/>
-      <c r="L134" s="20"/>
-      <c r="M134" s="20"/>
-      <c r="N134" s="18">
+      <c r="K134" s="17"/>
+      <c r="L134" s="17"/>
+      <c r="M134" s="17"/>
+      <c r="N134" s="16">
         <v>2003</v>
       </c>
-      <c r="O134" s="20"/>
-      <c r="P134" s="20"/>
-      <c r="Q134" s="20"/>
-      <c r="R134" s="18">
+      <c r="O134" s="17"/>
+      <c r="P134" s="17"/>
+      <c r="Q134" s="17"/>
+      <c r="R134" s="16">
         <v>2004</v>
       </c>
-      <c r="S134" s="20"/>
-      <c r="T134" s="20"/>
-      <c r="U134" s="20"/>
-      <c r="V134" s="18">
+      <c r="S134" s="17"/>
+      <c r="T134" s="17"/>
+      <c r="U134" s="17"/>
+      <c r="V134" s="16">
         <v>2005</v>
       </c>
-      <c r="W134" s="20"/>
-      <c r="X134" s="20"/>
-      <c r="Y134" s="20"/>
-      <c r="Z134" s="18">
+      <c r="W134" s="17"/>
+      <c r="X134" s="17"/>
+      <c r="Y134" s="17"/>
+      <c r="Z134" s="16">
         <v>2006</v>
       </c>
-      <c r="AA134" s="20"/>
-      <c r="AB134" s="20"/>
-      <c r="AC134" s="20"/>
-      <c r="AD134" s="18">
+      <c r="AA134" s="17"/>
+      <c r="AB134" s="17"/>
+      <c r="AC134" s="17"/>
+      <c r="AD134" s="16">
         <v>2007</v>
       </c>
-      <c r="AE134" s="20"/>
-      <c r="AF134" s="20"/>
-      <c r="AG134" s="20"/>
-      <c r="AH134" s="18">
+      <c r="AE134" s="17"/>
+      <c r="AF134" s="17"/>
+      <c r="AG134" s="17"/>
+      <c r="AH134" s="16">
         <v>2008</v>
       </c>
-      <c r="AI134" s="20"/>
-      <c r="AJ134" s="20"/>
-      <c r="AK134" s="20"/>
-      <c r="AL134" s="18">
+      <c r="AI134" s="17"/>
+      <c r="AJ134" s="17"/>
+      <c r="AK134" s="17"/>
+      <c r="AL134" s="16">
         <v>2009</v>
       </c>
-      <c r="AM134" s="20"/>
-      <c r="AN134" s="20"/>
-      <c r="AO134" s="20"/>
-      <c r="AP134" s="18">
+      <c r="AM134" s="17"/>
+      <c r="AN134" s="17"/>
+      <c r="AO134" s="17"/>
+      <c r="AP134" s="16">
         <v>2010</v>
       </c>
-      <c r="AQ134" s="20"/>
-      <c r="AR134" s="20"/>
-      <c r="AS134" s="20"/>
-      <c r="AT134" s="18">
+      <c r="AQ134" s="17"/>
+      <c r="AR134" s="17"/>
+      <c r="AS134" s="17"/>
+      <c r="AT134" s="16">
         <v>2011</v>
       </c>
-      <c r="AU134" s="20"/>
-      <c r="AV134" s="20"/>
-      <c r="AW134" s="20"/>
-      <c r="AX134" s="18">
+      <c r="AU134" s="17"/>
+      <c r="AV134" s="17"/>
+      <c r="AW134" s="17"/>
+      <c r="AX134" s="16">
         <v>2012</v>
       </c>
-      <c r="AY134" s="20"/>
-      <c r="AZ134" s="20"/>
-      <c r="BA134" s="20"/>
-      <c r="BB134" s="18">
+      <c r="AY134" s="17"/>
+      <c r="AZ134" s="17"/>
+      <c r="BA134" s="17"/>
+      <c r="BB134" s="16">
         <v>2013</v>
       </c>
-      <c r="BC134" s="20"/>
-      <c r="BD134" s="20"/>
-      <c r="BE134" s="20"/>
-      <c r="BF134" s="18">
+      <c r="BC134" s="17"/>
+      <c r="BD134" s="17"/>
+      <c r="BE134" s="17"/>
+      <c r="BF134" s="16">
         <v>2014</v>
       </c>
-      <c r="BG134" s="20"/>
-      <c r="BH134" s="20"/>
-      <c r="BI134" s="20"/>
-      <c r="BJ134" s="18">
+      <c r="BG134" s="17"/>
+      <c r="BH134" s="17"/>
+      <c r="BI134" s="17"/>
+      <c r="BJ134" s="16">
         <v>2015</v>
       </c>
-      <c r="BK134" s="20"/>
-      <c r="BL134" s="20"/>
-      <c r="BM134" s="20"/>
-      <c r="BN134" s="18">
+      <c r="BK134" s="17"/>
+      <c r="BL134" s="17"/>
+      <c r="BM134" s="17"/>
+      <c r="BN134" s="16">
         <v>2016</v>
       </c>
-      <c r="BO134" s="20"/>
-      <c r="BP134" s="20"/>
-      <c r="BQ134" s="20"/>
-      <c r="BR134" s="18">
+      <c r="BO134" s="17"/>
+      <c r="BP134" s="17"/>
+      <c r="BQ134" s="17"/>
+      <c r="BR134" s="16">
         <v>2017</v>
       </c>
-      <c r="BS134" s="20"/>
-      <c r="BT134" s="20"/>
-      <c r="BU134" s="20"/>
-      <c r="BV134" s="18">
+      <c r="BS134" s="17"/>
+      <c r="BT134" s="17"/>
+      <c r="BU134" s="17"/>
+      <c r="BV134" s="16">
         <v>2018</v>
       </c>
-      <c r="BW134" s="20"/>
-      <c r="BX134" s="20"/>
-      <c r="BY134" s="20"/>
-      <c r="BZ134" s="18">
+      <c r="BW134" s="17"/>
+      <c r="BX134" s="17"/>
+      <c r="BY134" s="17"/>
+      <c r="BZ134" s="16">
         <v>2019</v>
       </c>
-      <c r="CA134" s="20"/>
-      <c r="CB134" s="20"/>
-      <c r="CC134" s="20"/>
-      <c r="CD134" s="18">
+      <c r="CA134" s="17"/>
+      <c r="CB134" s="17"/>
+      <c r="CC134" s="17"/>
+      <c r="CD134" s="16">
         <v>2020</v>
       </c>
-      <c r="CE134" s="20"/>
-      <c r="CF134" s="20"/>
-      <c r="CG134" s="20"/>
-      <c r="CH134" s="18">
+      <c r="CE134" s="17"/>
+      <c r="CF134" s="17"/>
+      <c r="CG134" s="17"/>
+      <c r="CH134" s="16">
         <v>2021</v>
       </c>
-      <c r="CI134" s="18"/>
-      <c r="CJ134" s="18"/>
-      <c r="CK134" s="18"/>
-      <c r="CL134" s="18">
+      <c r="CI134" s="16"/>
+      <c r="CJ134" s="16"/>
+      <c r="CK134" s="16"/>
+      <c r="CL134" s="16">
         <v>2022</v>
       </c>
-      <c r="CM134" s="18"/>
+      <c r="CM134" s="16"/>
+      <c r="CN134" s="16"/>
     </row>
-    <row r="135" spans="1:154" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:154" x14ac:dyDescent="0.2">
       <c r="A135" s="5" t="s">
         <v>4</v>
       </c>
@@ -39776,11 +39861,14 @@
       <c r="CM135" s="6" t="s">
         <v>8</v>
       </c>
+      <c r="CN135" s="6" t="s">
+        <v>10</v>
+      </c>
     </row>
-    <row r="136" spans="1:154" ht="10.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:154" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A136" s="7"/>
     </row>
-    <row r="137" spans="1:154" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:154" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A137" s="1" t="s">
         <v>11</v>
       </c>
@@ -40052,9 +40140,11 @@
         <v>58.072533641588286</v>
       </c>
       <c r="CM137" s="14">
-        <v>46.575267573434793</v>
-      </c>
-      <c r="CN137" s="9"/>
+        <v>46.33118692190893</v>
+      </c>
+      <c r="CN137" s="14">
+        <v>55.142955619457958</v>
+      </c>
       <c r="CO137" s="9"/>
       <c r="CP137" s="9"/>
       <c r="CQ137" s="9"/>
@@ -40118,7 +40208,7 @@
       <c r="EW137" s="9"/>
       <c r="EX137" s="9"/>
     </row>
-    <row r="138" spans="1:154" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:154" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A138" s="10" t="s">
         <v>12</v>
       </c>
@@ -40390,9 +40480,11 @@
         <v>24.617425570062998</v>
       </c>
       <c r="CM138" s="14">
-        <v>36.469866678192261</v>
-      </c>
-      <c r="CN138" s="9"/>
+        <v>36.776187887510901</v>
+      </c>
+      <c r="CN138" s="14">
+        <v>26.865550300319391</v>
+      </c>
       <c r="CO138" s="9"/>
       <c r="CP138" s="9"/>
       <c r="CQ138" s="9"/>
@@ -40456,7 +40548,7 @@
       <c r="EW138" s="9"/>
       <c r="EX138" s="9"/>
     </row>
-    <row r="139" spans="1:154" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:154" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A139" s="1" t="s">
         <v>13</v>
       </c>
@@ -40728,9 +40820,11 @@
         <v>12.504480396615881</v>
       </c>
       <c r="CM139" s="14">
-        <v>11.799826717581235</v>
-      </c>
-      <c r="CN139" s="9"/>
+        <v>11.618074964998906</v>
+      </c>
+      <c r="CN139" s="14">
+        <v>13.292966409135934</v>
+      </c>
       <c r="CO139" s="9"/>
       <c r="CP139" s="9"/>
       <c r="CQ139" s="9"/>
@@ -40794,7 +40888,7 @@
       <c r="EW139" s="9"/>
       <c r="EX139" s="9"/>
     </row>
-    <row r="140" spans="1:154" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:154" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A140" s="1" t="s">
         <v>14</v>
       </c>
@@ -41066,9 +41160,11 @@
         <v>4.8055603917328362</v>
       </c>
       <c r="CM140" s="14">
-        <v>5.1550390307917082</v>
-      </c>
-      <c r="CN140" s="9"/>
+        <v>5.2745502255812813</v>
+      </c>
+      <c r="CN140" s="14">
+        <v>4.6985276710867119</v>
+      </c>
       <c r="CO140" s="9"/>
       <c r="CP140" s="9"/>
       <c r="CQ140" s="9"/>
@@ -41132,7 +41228,7 @@
       <c r="EW140" s="9"/>
       <c r="EX140" s="9"/>
     </row>
-    <row r="141" spans="1:154" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:154" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B141" s="9"/>
       <c r="C141" s="9"/>
       <c r="D141" s="9"/>
@@ -41287,7 +41383,7 @@
       <c r="EW141" s="9"/>
       <c r="EX141" s="9"/>
     </row>
-    <row r="142" spans="1:154" ht="30.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:154" ht="30.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A142" s="10" t="s">
         <v>15</v>
       </c>
@@ -41561,7 +41657,9 @@
       <c r="CM142" s="14">
         <v>100</v>
       </c>
-      <c r="CN142" s="9"/>
+      <c r="CN142" s="14">
+        <v>100</v>
+      </c>
       <c r="CO142" s="9"/>
       <c r="CP142" s="9"/>
       <c r="CQ142" s="9"/>
@@ -41625,7 +41723,7 @@
       <c r="EW142" s="9"/>
       <c r="EX142" s="9"/>
     </row>
-    <row r="143" spans="1:154" ht="7.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:154" ht="7.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A143" s="12"/>
       <c r="B143" s="12"/>
       <c r="C143" s="12"/>
@@ -41717,14 +41815,152 @@
       <c r="CK143" s="12"/>
       <c r="CL143" s="12"/>
       <c r="CM143" s="12"/>
+      <c r="CN143" s="12"/>
     </row>
-    <row r="144" spans="1:154" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:154" x14ac:dyDescent="0.2">
       <c r="A144" s="13" t="s">
         <v>0</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="159">
+  <mergeCells count="161">
+    <mergeCell ref="CL113:CN113"/>
+    <mergeCell ref="CL134:CN134"/>
+    <mergeCell ref="CD51:CG51"/>
+    <mergeCell ref="CD72:CG72"/>
+    <mergeCell ref="CH92:CK92"/>
+    <mergeCell ref="CH113:CK113"/>
+    <mergeCell ref="CH134:CK134"/>
+    <mergeCell ref="CD134:CG134"/>
+    <mergeCell ref="BZ9:CC9"/>
+    <mergeCell ref="CH9:CK9"/>
+    <mergeCell ref="CH30:CK30"/>
+    <mergeCell ref="CL9:CN9"/>
+    <mergeCell ref="CL30:CN30"/>
+    <mergeCell ref="CH51:CJ51"/>
+    <mergeCell ref="CL51:CM51"/>
+    <mergeCell ref="CH72:CJ72"/>
+    <mergeCell ref="CL72:CM72"/>
+    <mergeCell ref="CL92:CN92"/>
+    <mergeCell ref="BZ30:CC30"/>
+    <mergeCell ref="BV51:BY51"/>
+    <mergeCell ref="BZ113:CC113"/>
+    <mergeCell ref="BZ92:CC92"/>
+    <mergeCell ref="CD9:CG9"/>
+    <mergeCell ref="CD30:CG30"/>
+    <mergeCell ref="BZ51:CC51"/>
+    <mergeCell ref="BZ72:CC72"/>
+    <mergeCell ref="BR72:BU72"/>
+    <mergeCell ref="BV72:BY72"/>
+    <mergeCell ref="CD113:CG113"/>
+    <mergeCell ref="CD92:CG92"/>
+    <mergeCell ref="BR9:BU9"/>
+    <mergeCell ref="BV9:BY9"/>
+    <mergeCell ref="BJ9:BM9"/>
+    <mergeCell ref="BN9:BQ9"/>
+    <mergeCell ref="B30:E30"/>
+    <mergeCell ref="F30:I30"/>
+    <mergeCell ref="J30:M30"/>
+    <mergeCell ref="N30:Q30"/>
+    <mergeCell ref="R30:U30"/>
+    <mergeCell ref="V30:Y30"/>
+    <mergeCell ref="Z30:AC30"/>
+    <mergeCell ref="AD30:AG30"/>
+    <mergeCell ref="AH30:AK30"/>
+    <mergeCell ref="AL30:AO30"/>
+    <mergeCell ref="BF9:BI9"/>
+    <mergeCell ref="BR30:BU30"/>
+    <mergeCell ref="BV30:BY30"/>
+    <mergeCell ref="B9:E9"/>
+    <mergeCell ref="F9:I9"/>
+    <mergeCell ref="J9:M9"/>
+    <mergeCell ref="N9:Q9"/>
+    <mergeCell ref="R9:U9"/>
+    <mergeCell ref="B51:E51"/>
+    <mergeCell ref="V9:Y9"/>
+    <mergeCell ref="Z9:AC9"/>
+    <mergeCell ref="AD9:AG9"/>
+    <mergeCell ref="F51:I51"/>
+    <mergeCell ref="J51:M51"/>
+    <mergeCell ref="N51:Q51"/>
+    <mergeCell ref="R51:U51"/>
+    <mergeCell ref="V51:Y51"/>
+    <mergeCell ref="Z51:AC51"/>
+    <mergeCell ref="AD51:AG51"/>
+    <mergeCell ref="BJ30:BM30"/>
+    <mergeCell ref="BN30:BQ30"/>
+    <mergeCell ref="AL51:AO51"/>
+    <mergeCell ref="AP51:AS51"/>
+    <mergeCell ref="AT51:AW51"/>
+    <mergeCell ref="AX51:BA51"/>
+    <mergeCell ref="AP30:AS30"/>
+    <mergeCell ref="AT30:AW30"/>
+    <mergeCell ref="AX30:BA30"/>
+    <mergeCell ref="BB30:BE30"/>
+    <mergeCell ref="AP9:AS9"/>
+    <mergeCell ref="AT9:AW9"/>
+    <mergeCell ref="AX9:BA9"/>
+    <mergeCell ref="BB9:BE9"/>
+    <mergeCell ref="AH9:AK9"/>
+    <mergeCell ref="AL9:AO9"/>
+    <mergeCell ref="BB51:BE51"/>
+    <mergeCell ref="BF51:BI51"/>
+    <mergeCell ref="AL72:AO72"/>
+    <mergeCell ref="AT72:AW72"/>
+    <mergeCell ref="AX72:BA72"/>
+    <mergeCell ref="BB72:BE72"/>
+    <mergeCell ref="BF30:BI30"/>
+    <mergeCell ref="AH51:AK51"/>
+    <mergeCell ref="B72:E72"/>
+    <mergeCell ref="F72:I72"/>
+    <mergeCell ref="J72:M72"/>
+    <mergeCell ref="N72:Q72"/>
+    <mergeCell ref="R72:U72"/>
+    <mergeCell ref="V72:Y72"/>
+    <mergeCell ref="Z72:AC72"/>
+    <mergeCell ref="AD72:AG72"/>
+    <mergeCell ref="AH72:AK72"/>
+    <mergeCell ref="BV134:BY134"/>
+    <mergeCell ref="BZ134:CC134"/>
+    <mergeCell ref="BR113:BU113"/>
+    <mergeCell ref="BV113:BY113"/>
+    <mergeCell ref="BF134:BI134"/>
+    <mergeCell ref="BJ134:BM134"/>
+    <mergeCell ref="BN134:BQ134"/>
+    <mergeCell ref="BF113:BI113"/>
+    <mergeCell ref="BJ113:BM113"/>
+    <mergeCell ref="BN113:BQ113"/>
+    <mergeCell ref="BR134:BU134"/>
+    <mergeCell ref="BJ72:BM72"/>
+    <mergeCell ref="BN72:BQ72"/>
+    <mergeCell ref="BR92:BU92"/>
+    <mergeCell ref="BV92:BY92"/>
+    <mergeCell ref="BR51:BU51"/>
+    <mergeCell ref="AP113:AS113"/>
+    <mergeCell ref="AT113:AW113"/>
+    <mergeCell ref="AX113:BA113"/>
+    <mergeCell ref="BB113:BE113"/>
+    <mergeCell ref="AP92:AS92"/>
+    <mergeCell ref="AT92:AW92"/>
+    <mergeCell ref="BN51:BQ51"/>
+    <mergeCell ref="AP72:AS72"/>
+    <mergeCell ref="AX92:BA92"/>
+    <mergeCell ref="BB92:BE92"/>
+    <mergeCell ref="BJ92:BM92"/>
+    <mergeCell ref="BJ51:BM51"/>
+    <mergeCell ref="BN92:BQ92"/>
+    <mergeCell ref="BF92:BI92"/>
+    <mergeCell ref="BF72:BI72"/>
+    <mergeCell ref="AP134:AS134"/>
+    <mergeCell ref="AT134:AW134"/>
+    <mergeCell ref="AX134:BA134"/>
+    <mergeCell ref="R113:U113"/>
+    <mergeCell ref="BB134:BE134"/>
+    <mergeCell ref="Z113:AC113"/>
+    <mergeCell ref="AD113:AG113"/>
+    <mergeCell ref="AH113:AK113"/>
+    <mergeCell ref="AL113:AO113"/>
+    <mergeCell ref="V113:Y113"/>
     <mergeCell ref="AL92:AO92"/>
     <mergeCell ref="B134:E134"/>
     <mergeCell ref="F134:I134"/>
@@ -41744,155 +41980,20 @@
     <mergeCell ref="Z134:AC134"/>
     <mergeCell ref="AD134:AG134"/>
     <mergeCell ref="AH134:AK134"/>
-    <mergeCell ref="AP113:AS113"/>
-    <mergeCell ref="AT113:AW113"/>
-    <mergeCell ref="AX113:BA113"/>
-    <mergeCell ref="BB113:BE113"/>
     <mergeCell ref="AL134:AO134"/>
-    <mergeCell ref="AP134:AS134"/>
-    <mergeCell ref="AT134:AW134"/>
-    <mergeCell ref="AX134:BA134"/>
-    <mergeCell ref="R113:U113"/>
-    <mergeCell ref="BB134:BE134"/>
-    <mergeCell ref="AX92:BA92"/>
-    <mergeCell ref="BB92:BE92"/>
-    <mergeCell ref="BJ92:BM92"/>
-    <mergeCell ref="BJ51:BM51"/>
-    <mergeCell ref="BN92:BQ92"/>
-    <mergeCell ref="BF92:BI92"/>
-    <mergeCell ref="BV134:BY134"/>
-    <mergeCell ref="BZ134:CC134"/>
-    <mergeCell ref="BR113:BU113"/>
-    <mergeCell ref="BV113:BY113"/>
-    <mergeCell ref="BF134:BI134"/>
-    <mergeCell ref="BJ134:BM134"/>
-    <mergeCell ref="BN134:BQ134"/>
-    <mergeCell ref="BF113:BI113"/>
-    <mergeCell ref="BJ113:BM113"/>
-    <mergeCell ref="BN113:BQ113"/>
-    <mergeCell ref="B72:E72"/>
-    <mergeCell ref="F72:I72"/>
-    <mergeCell ref="J72:M72"/>
-    <mergeCell ref="N72:Q72"/>
-    <mergeCell ref="R72:U72"/>
-    <mergeCell ref="V72:Y72"/>
-    <mergeCell ref="Z72:AC72"/>
-    <mergeCell ref="AD72:AG72"/>
-    <mergeCell ref="AH72:AK72"/>
-    <mergeCell ref="BF72:BI72"/>
-    <mergeCell ref="BJ72:BM72"/>
-    <mergeCell ref="BN72:BQ72"/>
-    <mergeCell ref="Z113:AC113"/>
-    <mergeCell ref="AD113:AG113"/>
-    <mergeCell ref="AH113:AK113"/>
-    <mergeCell ref="AL113:AO113"/>
-    <mergeCell ref="V113:Y113"/>
-    <mergeCell ref="AL72:AO72"/>
-    <mergeCell ref="AT72:AW72"/>
-    <mergeCell ref="AX72:BA72"/>
-    <mergeCell ref="BB72:BE72"/>
-    <mergeCell ref="AP92:AS92"/>
-    <mergeCell ref="AT92:AW92"/>
-    <mergeCell ref="BN51:BQ51"/>
     <mergeCell ref="V92:Y92"/>
     <mergeCell ref="Z92:AC92"/>
     <mergeCell ref="AD92:AG92"/>
     <mergeCell ref="AH92:AK92"/>
-    <mergeCell ref="AP72:AS72"/>
-    <mergeCell ref="V9:Y9"/>
-    <mergeCell ref="Z9:AC9"/>
-    <mergeCell ref="AD9:AG9"/>
-    <mergeCell ref="BF30:BI30"/>
-    <mergeCell ref="BJ30:BM30"/>
-    <mergeCell ref="BN30:BQ30"/>
-    <mergeCell ref="AL51:AO51"/>
-    <mergeCell ref="AP51:AS51"/>
-    <mergeCell ref="AT51:AW51"/>
-    <mergeCell ref="AX51:BA51"/>
-    <mergeCell ref="AP30:AS30"/>
-    <mergeCell ref="AT30:AW30"/>
-    <mergeCell ref="AX30:BA30"/>
-    <mergeCell ref="BB30:BE30"/>
-    <mergeCell ref="AP9:AS9"/>
-    <mergeCell ref="AT9:AW9"/>
-    <mergeCell ref="AX9:BA9"/>
-    <mergeCell ref="BB9:BE9"/>
-    <mergeCell ref="AH9:AK9"/>
-    <mergeCell ref="AL9:AO9"/>
-    <mergeCell ref="BB51:BE51"/>
-    <mergeCell ref="BF51:BI51"/>
-    <mergeCell ref="F51:I51"/>
-    <mergeCell ref="J51:M51"/>
-    <mergeCell ref="N51:Q51"/>
-    <mergeCell ref="R51:U51"/>
-    <mergeCell ref="V51:Y51"/>
-    <mergeCell ref="Z51:AC51"/>
-    <mergeCell ref="AD51:AG51"/>
-    <mergeCell ref="AH51:AK51"/>
-    <mergeCell ref="B9:E9"/>
-    <mergeCell ref="F9:I9"/>
-    <mergeCell ref="J9:M9"/>
-    <mergeCell ref="N9:Q9"/>
-    <mergeCell ref="R9:U9"/>
-    <mergeCell ref="BR92:BU92"/>
-    <mergeCell ref="BV92:BY92"/>
-    <mergeCell ref="BR51:BU51"/>
-    <mergeCell ref="BR9:BU9"/>
-    <mergeCell ref="BV9:BY9"/>
-    <mergeCell ref="BJ9:BM9"/>
-    <mergeCell ref="BN9:BQ9"/>
-    <mergeCell ref="B30:E30"/>
-    <mergeCell ref="F30:I30"/>
-    <mergeCell ref="J30:M30"/>
-    <mergeCell ref="N30:Q30"/>
-    <mergeCell ref="R30:U30"/>
-    <mergeCell ref="V30:Y30"/>
-    <mergeCell ref="Z30:AC30"/>
-    <mergeCell ref="AD30:AG30"/>
-    <mergeCell ref="AH30:AK30"/>
-    <mergeCell ref="AL30:AO30"/>
-    <mergeCell ref="B51:E51"/>
-    <mergeCell ref="BF9:BI9"/>
-    <mergeCell ref="CD51:CG51"/>
-    <mergeCell ref="CD72:CG72"/>
-    <mergeCell ref="CH92:CK92"/>
-    <mergeCell ref="CH113:CK113"/>
-    <mergeCell ref="CH134:CK134"/>
-    <mergeCell ref="CD134:CG134"/>
-    <mergeCell ref="BZ9:CC9"/>
-    <mergeCell ref="BR30:BU30"/>
-    <mergeCell ref="BV30:BY30"/>
-    <mergeCell ref="BZ30:CC30"/>
-    <mergeCell ref="BV51:BY51"/>
-    <mergeCell ref="BZ113:CC113"/>
-    <mergeCell ref="BZ92:CC92"/>
-    <mergeCell ref="CD9:CG9"/>
-    <mergeCell ref="CD30:CG30"/>
-    <mergeCell ref="BZ51:CC51"/>
-    <mergeCell ref="BZ72:CC72"/>
-    <mergeCell ref="BR72:BU72"/>
-    <mergeCell ref="BV72:BY72"/>
-    <mergeCell ref="CD113:CG113"/>
-    <mergeCell ref="CD92:CG92"/>
-    <mergeCell ref="BR134:BU134"/>
-    <mergeCell ref="CL9:CM9"/>
-    <mergeCell ref="CL30:CM30"/>
-    <mergeCell ref="CH51:CI51"/>
-    <mergeCell ref="CH72:CI72"/>
-    <mergeCell ref="CL92:CM92"/>
-    <mergeCell ref="CL113:CM113"/>
-    <mergeCell ref="CL134:CM134"/>
-    <mergeCell ref="CH9:CK9"/>
-    <mergeCell ref="CH30:CK30"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.5" right="0.3" top="1" bottom="0.16700000000000001" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" scale="31" orientation="landscape" r:id="rId1"/>
   <headerFooter alignWithMargins="0"/>
   <rowBreaks count="3" manualBreakCount="3">
-    <brk id="42" max="90" man="1"/>
-    <brk id="84" max="90" man="1"/>
-    <brk id="104" max="90" man="1"/>
+    <brk id="42" max="91" man="1"/>
+    <brk id="84" max="91" man="1"/>
+    <brk id="104" max="91" man="1"/>
   </rowBreaks>
 </worksheet>
 </file>
--- a/Data/National Accounts/PSA-17FIA_2018PSNA_Qrt.xlsx
+++ b/Data/National Accounts/PSA-17FIA_2018PSNA_Qrt.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25928"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="I:\Other computers\My Laptop (1)\6. MAS_Series\2018-base\NAP\NAP detailed series as of November 2022\Qtr\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="I:\Other computers\My Laptop (1)\6. MAS_Series\2018-base\NAP\NAP detailed series as of January 2023\Qtr\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{18536AFC-117B-4E3A-BD5F-24256F930A46}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F8A65D9F-8307-4865-B1CA-2D42A3DD157C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3375" yWindow="3375" windowWidth="21600" windowHeight="12105" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1770" yWindow="1770" windowWidth="13830" windowHeight="9735" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="FIA" sheetId="11" r:id="rId1"/>
@@ -323,7 +323,7 @@
     <definedName name="pet">#REF!</definedName>
     <definedName name="plastic">#REF!</definedName>
     <definedName name="ply">#REF!</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">FIA!$A$1:$CN$146</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">FIA!$A$1:$CO$146</definedName>
     <definedName name="_xlnm.Print_Area">#REF!</definedName>
     <definedName name="PRINT_AREA_MI">#REF!</definedName>
     <definedName name="Print_Titles_MI">'[9]CAP93+'!$A$1:$IV$1,'[9]CAP93+'!$A$1:$A$65536</definedName>
@@ -468,7 +468,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="763" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="770" uniqueCount="53">
   <si>
     <t>Source: Philippine Statistics Authority</t>
   </si>
@@ -621,13 +621,13 @@
     <t>2021 - 2022</t>
   </si>
   <si>
-    <t>Q1 2000 to Q3 2022</t>
+    <t>As of January 2023</t>
   </si>
   <si>
-    <t>Q1 2001 to Q3 2022</t>
+    <t>Q1 2000 to Q4 2022</t>
   </si>
   <si>
-    <t>As of November 2022</t>
+    <t>Q1 2001 to Q4 2022</t>
   </si>
 </sst>
 </file>
@@ -774,7 +774,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="G_Gross Revenue"/>
@@ -15141,7 +15141,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink10.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="Prod_Lev_Comp"/>
@@ -15164,7 +15164,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink11.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="outline"/>
@@ -15193,7 +15193,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink12.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="outline"/>
@@ -15256,7 +15256,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink13.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="Sheet1"/>
@@ -15285,7 +15285,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink14.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="Sheet1"/>
@@ -15316,7 +15316,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink15.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="RETAILQ203-90days"/>
@@ -17710,7 +17710,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink16.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="outline"/>
@@ -17798,7 +17798,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink17.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="notes-rev"/>
@@ -17819,7 +17819,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink18.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="t6a (2)"/>
@@ -17876,7 +17876,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink2.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="Sheet2"/>
@@ -17893,7 +17893,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink3.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="outline"/>
@@ -17934,7 +17934,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink4.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="Sheet3"/>
@@ -17981,7 +17981,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink5.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="TABL1"/>
@@ -18010,7 +18010,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink6.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="TAB35"/>
@@ -22427,7 +22427,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink7.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="Summary"/>
@@ -22470,7 +22470,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink8.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="Steps"/>
@@ -22584,7 +22584,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink9.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="CAP93+"/>
@@ -23581,7 +23581,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme 2013 - 2022" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -23594,16 +23594,16 @@
   </sheetPr>
   <dimension ref="A1:EX144"/>
   <sheetViews>
-    <sheetView tabSelected="1" defaultGridColor="0" view="pageBreakPreview" colorId="22" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="CH1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="CH1" sqref="CH1:CN1048576"/>
+    <sheetView tabSelected="1" defaultGridColor="0" view="pageBreakPreview" colorId="22" zoomScale="70" zoomScaleNormal="100" zoomScaleSheetLayoutView="70" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="CF1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="CH1" sqref="CH1:CO1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="7.77734375" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="38.33203125" style="1" customWidth="1"/>
-    <col min="2" max="92" width="8.88671875" style="1" customWidth="1"/>
-    <col min="93" max="16384" width="7.77734375" style="1"/>
+    <col min="2" max="93" width="8.88671875" style="1" customWidth="1"/>
+    <col min="94" max="16384" width="7.77734375" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:154" x14ac:dyDescent="0.2">
@@ -23618,7 +23618,7 @@
     </row>
     <row r="3" spans="1:154" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
     </row>
     <row r="5" spans="1:154" x14ac:dyDescent="0.2">
@@ -23628,7 +23628,7 @@
     </row>
     <row r="6" spans="1:154" x14ac:dyDescent="0.2">
       <c r="A6" s="3" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row r="7" spans="1:154" x14ac:dyDescent="0.2">
@@ -23775,6 +23775,7 @@
       </c>
       <c r="CM9" s="16"/>
       <c r="CN9" s="16"/>
+      <c r="CO9" s="16"/>
     </row>
     <row r="10" spans="1:154" x14ac:dyDescent="0.2">
       <c r="A10" s="5" t="s">
@@ -24052,6 +24053,9 @@
       </c>
       <c r="CN10" s="6" t="s">
         <v>10</v>
+      </c>
+      <c r="CO10" s="6" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="11" spans="1:154" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
@@ -24332,9 +24336,11 @@
         <v>264391.10608101345</v>
       </c>
       <c r="CN12" s="8">
-        <v>297091.81147986348</v>
-      </c>
-      <c r="CO12" s="9"/>
+        <v>298075.5043037642</v>
+      </c>
+      <c r="CO12" s="8">
+        <v>276855.83269100799</v>
+      </c>
       <c r="CP12" s="9"/>
       <c r="CQ12" s="9"/>
       <c r="CR12" s="9"/>
@@ -24672,9 +24678,11 @@
         <v>207005.75929438748</v>
       </c>
       <c r="CN13" s="8">
-        <v>143355.37091981125</v>
-      </c>
-      <c r="CO13" s="9"/>
+        <v>143572.39870686986</v>
+      </c>
+      <c r="CO13" s="8">
+        <v>181811.0246816423</v>
+      </c>
       <c r="CP13" s="9"/>
       <c r="CQ13" s="9"/>
       <c r="CR13" s="9"/>
@@ -25012,9 +25020,11 @@
         <v>63716.570138835465</v>
       </c>
       <c r="CN14" s="8">
-        <v>69843.747923267219</v>
-      </c>
-      <c r="CO14" s="9"/>
+        <v>69753.960082430189</v>
+      </c>
+      <c r="CO14" s="8">
+        <v>83472.572614951685</v>
+      </c>
       <c r="CP14" s="9"/>
       <c r="CQ14" s="9"/>
       <c r="CR14" s="9"/>
@@ -25352,9 +25362,11 @@
         <v>30250.965099644636</v>
       </c>
       <c r="CN15" s="8">
-        <v>25442.754567370022</v>
-      </c>
-      <c r="CO15" s="9"/>
+        <v>25485.088544264552</v>
+      </c>
+      <c r="CO15" s="8">
+        <v>29001.983312520439</v>
+      </c>
       <c r="CP15" s="9"/>
       <c r="CQ15" s="9"/>
       <c r="CR15" s="9"/>
@@ -25847,9 +25859,11 @@
         <v>565364.40061388095</v>
       </c>
       <c r="CN17" s="11">
-        <v>535733.68489031203</v>
-      </c>
-      <c r="CO17" s="9"/>
+        <v>536886.95163732884</v>
+      </c>
+      <c r="CO17" s="11">
+        <v>571141.41330012237</v>
+      </c>
       <c r="CP17" s="9"/>
       <c r="CQ17" s="9"/>
       <c r="CR17" s="9"/>
@@ -26005,6 +26019,7 @@
       <c r="CL18" s="12"/>
       <c r="CM18" s="12"/>
       <c r="CN18" s="12"/>
+      <c r="CO18" s="12"/>
     </row>
     <row r="19" spans="1:154" x14ac:dyDescent="0.2">
       <c r="A19" s="13" t="s">
@@ -26333,7 +26348,7 @@
     </row>
     <row r="24" spans="1:154" x14ac:dyDescent="0.2">
       <c r="A24" s="1" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
     </row>
     <row r="26" spans="1:154" x14ac:dyDescent="0.2">
@@ -26343,7 +26358,7 @@
     </row>
     <row r="27" spans="1:154" x14ac:dyDescent="0.2">
       <c r="A27" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row r="28" spans="1:154" x14ac:dyDescent="0.2">
@@ -26490,6 +26505,7 @@
       </c>
       <c r="CM30" s="16"/>
       <c r="CN30" s="16"/>
+      <c r="CO30" s="16"/>
     </row>
     <row r="31" spans="1:154" x14ac:dyDescent="0.2">
       <c r="A31" s="5" t="s">
@@ -26767,6 +26783,9 @@
       </c>
       <c r="CN31" s="6" t="s">
         <v>10</v>
+      </c>
+      <c r="CO31" s="6" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="32" spans="1:154" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
@@ -27047,9 +27066,11 @@
         <v>234633.20373768959</v>
       </c>
       <c r="CN33" s="8">
-        <v>264031.07783408905</v>
-      </c>
-      <c r="CO33" s="9"/>
+        <v>264905.30413894221</v>
+      </c>
+      <c r="CO33" s="8">
+        <v>241113.71809458127</v>
+      </c>
       <c r="CP33" s="9"/>
       <c r="CQ33" s="9"/>
       <c r="CR33" s="9"/>
@@ -27387,9 +27408,11 @@
         <v>186244.19874780902</v>
       </c>
       <c r="CN34" s="8">
-        <v>128635.47342928931</v>
-      </c>
-      <c r="CO34" s="9"/>
+        <v>128830.21654882834</v>
+      </c>
+      <c r="CO34" s="8">
+        <v>159408.94316259969</v>
+      </c>
       <c r="CP34" s="9"/>
       <c r="CQ34" s="9"/>
       <c r="CR34" s="9"/>
@@ -27727,9 +27750,11 @@
         <v>58836.959106982948</v>
       </c>
       <c r="CN35" s="8">
-        <v>63648.315713023461</v>
-      </c>
-      <c r="CO35" s="9"/>
+        <v>63566.492428753787</v>
+      </c>
+      <c r="CO35" s="8">
+        <v>74295.194858328628</v>
+      </c>
       <c r="CP35" s="9"/>
       <c r="CQ35" s="9"/>
       <c r="CR35" s="9"/>
@@ -28067,9 +28092,11 @@
         <v>26711.696805640539</v>
       </c>
       <c r="CN36" s="8">
-        <v>22497.113389993356</v>
-      </c>
-      <c r="CO36" s="9"/>
+        <v>22534.54614028475</v>
+      </c>
+      <c r="CO36" s="8">
+        <v>25355.894866795737</v>
+      </c>
       <c r="CP36" s="9"/>
       <c r="CQ36" s="9"/>
       <c r="CR36" s="9"/>
@@ -28562,9 +28589,11 @@
         <v>506426.05839812203</v>
       </c>
       <c r="CN38" s="11">
-        <v>478811.9803663952</v>
-      </c>
-      <c r="CO38" s="9"/>
+        <v>479836.55925680907</v>
+      </c>
+      <c r="CO38" s="11">
+        <v>500173.75098230533</v>
+      </c>
       <c r="CP38" s="9"/>
       <c r="CQ38" s="9"/>
       <c r="CR38" s="9"/>
@@ -28720,6 +28749,7 @@
       <c r="CL39" s="12"/>
       <c r="CM39" s="12"/>
       <c r="CN39" s="12"/>
+      <c r="CO39" s="12"/>
     </row>
     <row r="40" spans="1:154" x14ac:dyDescent="0.2">
       <c r="A40" s="13" t="s">
@@ -29048,7 +29078,7 @@
     </row>
     <row r="45" spans="1:154" x14ac:dyDescent="0.2">
       <c r="A45" s="1" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
     </row>
     <row r="47" spans="1:154" x14ac:dyDescent="0.2">
@@ -29058,7 +29088,7 @@
     </row>
     <row r="48" spans="1:154" x14ac:dyDescent="0.2">
       <c r="A48" s="3" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
     </row>
     <row r="49" spans="1:150" x14ac:dyDescent="0.2">
@@ -29199,10 +29229,11 @@
       </c>
       <c r="CI51" s="16"/>
       <c r="CJ51" s="16"/>
-      <c r="CK51" s="15"/>
+      <c r="CK51" s="16"/>
       <c r="CL51" s="16"/>
       <c r="CM51" s="16"/>
       <c r="CN51" s="15"/>
+      <c r="CO51" s="15"/>
     </row>
     <row r="52" spans="1:150" x14ac:dyDescent="0.2">
       <c r="A52" s="5" t="s">
@@ -29469,10 +29500,13 @@
       <c r="CJ52" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="CK52" s="5"/>
+      <c r="CK52" s="5" t="s">
+        <v>9</v>
+      </c>
       <c r="CL52" s="5"/>
       <c r="CM52" s="5"/>
       <c r="CN52" s="5"/>
+      <c r="CO52" s="5"/>
     </row>
     <row r="53" spans="1:150" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A53" s="7"/>
@@ -29740,13 +29774,15 @@
         <v>9.5827545627788169</v>
       </c>
       <c r="CJ54" s="14">
-        <v>16.230442386859949</v>
-      </c>
-      <c r="CK54" s="14"/>
+        <v>16.615289924478844</v>
+      </c>
+      <c r="CK54" s="14">
+        <v>19.299299285730243</v>
+      </c>
       <c r="CL54" s="14"/>
       <c r="CM54" s="14"/>
       <c r="CN54" s="14"/>
-      <c r="CO54" s="9"/>
+      <c r="CO54" s="14"/>
       <c r="CP54" s="9"/>
       <c r="CQ54" s="9"/>
       <c r="CR54" s="9"/>
@@ -30068,13 +30104,15 @@
         <v>11.536863171622372</v>
       </c>
       <c r="CJ55" s="14">
-        <v>15.390841475957842</v>
-      </c>
-      <c r="CK55" s="14"/>
+        <v>15.565533353992649</v>
+      </c>
+      <c r="CK55" s="14">
+        <v>18.793620891543171</v>
+      </c>
       <c r="CL55" s="14"/>
       <c r="CM55" s="14"/>
       <c r="CN55" s="14"/>
-      <c r="CO55" s="9"/>
+      <c r="CO55" s="14"/>
       <c r="CP55" s="9"/>
       <c r="CQ55" s="9"/>
       <c r="CR55" s="9"/>
@@ -30396,13 +30434,15 @@
         <v>3.2770264583114965</v>
       </c>
       <c r="CJ56" s="14">
-        <v>8.7112391376207512</v>
-      </c>
-      <c r="CK56" s="14"/>
+        <v>8.571485076203416</v>
+      </c>
+      <c r="CK56" s="14">
+        <v>13.671254296801919</v>
+      </c>
       <c r="CL56" s="14"/>
       <c r="CM56" s="14"/>
       <c r="CN56" s="14"/>
-      <c r="CO56" s="9"/>
+      <c r="CO56" s="14"/>
       <c r="CP56" s="9"/>
       <c r="CQ56" s="9"/>
       <c r="CR56" s="9"/>
@@ -30724,13 +30764,15 @@
         <v>10.91733997891275</v>
       </c>
       <c r="CJ57" s="14">
-        <v>10.915079371752</v>
-      </c>
-      <c r="CK57" s="14"/>
+        <v>11.099630002657364</v>
+      </c>
+      <c r="CK57" s="14">
+        <v>9.3258449704630095</v>
+      </c>
       <c r="CL57" s="14"/>
       <c r="CM57" s="14"/>
       <c r="CN57" s="14"/>
-      <c r="CO57" s="9"/>
+      <c r="CO57" s="14"/>
       <c r="CP57" s="9"/>
       <c r="CQ57" s="9"/>
       <c r="CR57" s="9"/>
@@ -31203,13 +31245,15 @@
         <v>9.6022160724566845</v>
       </c>
       <c r="CJ59" s="14">
-        <v>14.711635789576619</v>
-      </c>
-      <c r="CK59" s="14"/>
+        <v>14.958573995597973</v>
+      </c>
+      <c r="CK59" s="14">
+        <v>17.742321049494095</v>
+      </c>
       <c r="CL59" s="14"/>
       <c r="CM59" s="14"/>
       <c r="CN59" s="14"/>
-      <c r="CO59" s="9"/>
+      <c r="CO59" s="14"/>
       <c r="CP59" s="9"/>
       <c r="CQ59" s="9"/>
       <c r="CR59" s="9"/>
@@ -31361,6 +31405,7 @@
       <c r="CL60" s="12"/>
       <c r="CM60" s="12"/>
       <c r="CN60" s="12"/>
+      <c r="CO60" s="12"/>
     </row>
     <row r="61" spans="1:150" x14ac:dyDescent="0.2">
       <c r="A61" s="13" t="s">
@@ -31681,7 +31726,7 @@
     </row>
     <row r="66" spans="1:150" x14ac:dyDescent="0.2">
       <c r="A66" s="1" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
     </row>
     <row r="68" spans="1:150" x14ac:dyDescent="0.2">
@@ -31691,7 +31736,7 @@
     </row>
     <row r="69" spans="1:150" x14ac:dyDescent="0.2">
       <c r="A69" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
     </row>
     <row r="70" spans="1:150" x14ac:dyDescent="0.2">
@@ -31832,10 +31877,11 @@
       </c>
       <c r="CI72" s="16"/>
       <c r="CJ72" s="16"/>
-      <c r="CK72" s="15"/>
+      <c r="CK72" s="16"/>
       <c r="CL72" s="16"/>
       <c r="CM72" s="16"/>
       <c r="CN72" s="15"/>
+      <c r="CO72" s="15"/>
     </row>
     <row r="73" spans="1:150" x14ac:dyDescent="0.2">
       <c r="A73" s="5" t="s">
@@ -32102,10 +32148,13 @@
       <c r="CJ73" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="CK73" s="5"/>
+      <c r="CK73" s="5" t="s">
+        <v>9</v>
+      </c>
       <c r="CL73" s="5"/>
       <c r="CM73" s="5"/>
       <c r="CN73" s="5"/>
+      <c r="CO73" s="5"/>
     </row>
     <row r="74" spans="1:150" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A74" s="7"/>
@@ -32373,13 +32422,15 @@
         <v>3.704170843709818</v>
       </c>
       <c r="CJ75" s="14">
-        <v>9.1013754132893325</v>
-      </c>
-      <c r="CK75" s="14"/>
+        <v>9.4626180861760787</v>
+      </c>
+      <c r="CK75" s="14">
+        <v>11.013908549702194</v>
+      </c>
       <c r="CL75" s="14"/>
       <c r="CM75" s="14"/>
       <c r="CN75" s="14"/>
-      <c r="CO75" s="9"/>
+      <c r="CO75" s="14"/>
       <c r="CP75" s="9"/>
       <c r="CQ75" s="9"/>
       <c r="CR75" s="9"/>
@@ -32701,13 +32752,15 @@
         <v>5.5345951035399565</v>
       </c>
       <c r="CJ76" s="14">
-        <v>8.3132719500607806</v>
-      </c>
-      <c r="CK76" s="14"/>
+        <v>8.4772489923548449</v>
+      </c>
+      <c r="CK76" s="14">
+        <v>11.117885802348454</v>
+      </c>
       <c r="CL76" s="14"/>
       <c r="CM76" s="14"/>
       <c r="CN76" s="14"/>
-      <c r="CO76" s="9"/>
+      <c r="CO76" s="14"/>
       <c r="CP76" s="9"/>
       <c r="CQ76" s="9"/>
       <c r="CR76" s="9"/>
@@ -33029,13 +33082,15 @@
         <v>-1.8757504786459123</v>
       </c>
       <c r="CJ77" s="14">
-        <v>2.0433672042728261</v>
-      </c>
-      <c r="CK77" s="14"/>
+        <v>1.912185045734077</v>
+      </c>
+      <c r="CK77" s="14">
+        <v>5.8581465090697691</v>
+      </c>
       <c r="CL77" s="14"/>
       <c r="CM77" s="14"/>
       <c r="CN77" s="14"/>
-      <c r="CO77" s="9"/>
+      <c r="CO77" s="14"/>
       <c r="CP77" s="9"/>
       <c r="CQ77" s="9"/>
       <c r="CR77" s="9"/>
@@ -33357,13 +33412,15 @@
         <v>4.2877055123837522</v>
       </c>
       <c r="CJ78" s="14">
-        <v>4.1120335174800005</v>
-      </c>
-      <c r="CK78" s="14"/>
+        <v>4.2852646198632272</v>
+      </c>
+      <c r="CK78" s="14">
+        <v>2.4062815098220227</v>
+      </c>
       <c r="CL78" s="14"/>
       <c r="CM78" s="14"/>
       <c r="CN78" s="14"/>
-      <c r="CO78" s="9"/>
+      <c r="CO78" s="14"/>
       <c r="CP78" s="9"/>
       <c r="CQ78" s="9"/>
       <c r="CR78" s="9"/>
@@ -33836,13 +33893,15 @@
         <v>3.7111182650669434</v>
       </c>
       <c r="CJ80" s="14">
-        <v>7.6586677469947944</v>
-      </c>
-      <c r="CK80" s="14"/>
+        <v>7.8890395899449999</v>
+      </c>
+      <c r="CK80" s="14">
+        <v>9.7846167537274198</v>
+      </c>
       <c r="CL80" s="14"/>
       <c r="CM80" s="14"/>
       <c r="CN80" s="14"/>
-      <c r="CO80" s="9"/>
+      <c r="CO80" s="14"/>
       <c r="CP80" s="9"/>
       <c r="CQ80" s="9"/>
       <c r="CR80" s="9"/>
@@ -33994,6 +34053,7 @@
       <c r="CL81" s="12"/>
       <c r="CM81" s="12"/>
       <c r="CN81" s="12"/>
+      <c r="CO81" s="12"/>
     </row>
     <row r="82" spans="1:154" x14ac:dyDescent="0.2">
       <c r="A82" s="13" t="s">
@@ -34309,7 +34369,7 @@
     </row>
     <row r="86" spans="1:154" x14ac:dyDescent="0.2">
       <c r="A86" s="1" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
     </row>
     <row r="88" spans="1:154" x14ac:dyDescent="0.2">
@@ -34319,7 +34379,7 @@
     </row>
     <row r="89" spans="1:154" x14ac:dyDescent="0.2">
       <c r="A89" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row r="90" spans="1:154" x14ac:dyDescent="0.2">
@@ -34466,6 +34526,7 @@
       </c>
       <c r="CM92" s="16"/>
       <c r="CN92" s="16"/>
+      <c r="CO92" s="16"/>
     </row>
     <row r="93" spans="1:154" x14ac:dyDescent="0.2">
       <c r="A93" s="5" t="s">
@@ -34743,6 +34804,9 @@
       </c>
       <c r="CN93" s="6" t="s">
         <v>10</v>
+      </c>
+      <c r="CO93" s="6" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="94" spans="1:154" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
@@ -35025,7 +35089,9 @@
       <c r="CN95" s="14">
         <v>112.52153114587102</v>
       </c>
-      <c r="CO95" s="9"/>
+      <c r="CO95" s="14">
+        <v>114.8237582161983</v>
+      </c>
       <c r="CP95" s="9"/>
       <c r="CQ95" s="9"/>
       <c r="CR95" s="9"/>
@@ -35365,7 +35431,9 @@
       <c r="CN96" s="14">
         <v>111.44310904146781</v>
       </c>
-      <c r="CO96" s="9"/>
+      <c r="CO96" s="14">
+        <v>114.05321500450081</v>
+      </c>
       <c r="CP96" s="9"/>
       <c r="CQ96" s="9"/>
       <c r="CR96" s="9"/>
@@ -35703,9 +35771,11 @@
         <v>108.29344532061886</v>
       </c>
       <c r="CN97" s="14">
-        <v>109.7338509917177</v>
-      </c>
-      <c r="CO97" s="9"/>
+        <v>109.73385099171769</v>
+      </c>
+      <c r="CO97" s="14">
+        <v>112.35258588946854</v>
+      </c>
       <c r="CP97" s="9"/>
       <c r="CQ97" s="9"/>
       <c r="CR97" s="9"/>
@@ -36045,7 +36115,9 @@
       <c r="CN98" s="14">
         <v>113.09341837022913</v>
       </c>
-      <c r="CO98" s="9"/>
+      <c r="CO98" s="14">
+        <v>114.37964806558398</v>
+      </c>
       <c r="CP98" s="9"/>
       <c r="CQ98" s="9"/>
       <c r="CR98" s="9"/>
@@ -36538,9 +36610,11 @@
         <v>111.63809429597423</v>
       </c>
       <c r="CN100" s="14">
-        <v>111.88811200596096</v>
-      </c>
-      <c r="CO100" s="9"/>
+        <v>111.88954682170984</v>
+      </c>
+      <c r="CO100" s="14">
+        <v>114.18860189652929</v>
+      </c>
       <c r="CP100" s="9"/>
       <c r="CQ100" s="9"/>
       <c r="CR100" s="9"/>
@@ -36696,6 +36770,7 @@
       <c r="CL101" s="12"/>
       <c r="CM101" s="12"/>
       <c r="CN101" s="12"/>
+      <c r="CO101" s="12"/>
     </row>
     <row r="102" spans="1:154" x14ac:dyDescent="0.2">
       <c r="A102" s="13" t="s">
@@ -36714,7 +36789,7 @@
     </row>
     <row r="107" spans="1:154" x14ac:dyDescent="0.2">
       <c r="A107" s="1" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
     </row>
     <row r="109" spans="1:154" x14ac:dyDescent="0.2">
@@ -36724,7 +36799,7 @@
     </row>
     <row r="110" spans="1:154" x14ac:dyDescent="0.2">
       <c r="A110" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row r="111" spans="1:154" x14ac:dyDescent="0.2">
@@ -36871,6 +36946,7 @@
       </c>
       <c r="CM113" s="16"/>
       <c r="CN113" s="16"/>
+      <c r="CO113" s="16"/>
     </row>
     <row r="114" spans="1:154" x14ac:dyDescent="0.2">
       <c r="A114" s="5" t="s">
@@ -37148,6 +37224,9 @@
       </c>
       <c r="CN114" s="6" t="s">
         <v>10</v>
+      </c>
+      <c r="CO114" s="6" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="115" spans="1:154" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
@@ -37428,9 +37507,11 @@
         <v>46.764724802964899</v>
       </c>
       <c r="CN116" s="14">
-        <v>55.455130013094298</v>
-      </c>
-      <c r="CO116" s="9"/>
+        <v>55.519230518590888</v>
+      </c>
+      <c r="CO116" s="14">
+        <v>48.474130266846238</v>
+      </c>
       <c r="CP116" s="9"/>
       <c r="CQ116" s="9"/>
       <c r="CR116" s="9"/>
@@ -37768,9 +37849,11 @@
         <v>36.614572666693832</v>
       </c>
       <c r="CN117" s="14">
-        <v>26.758700257789897</v>
-      </c>
-      <c r="CO117" s="9"/>
+        <v>26.741644264033837</v>
+      </c>
+      <c r="CO117" s="14">
+        <v>31.832926215438796</v>
+      </c>
       <c r="CP117" s="9"/>
       <c r="CQ117" s="9"/>
       <c r="CR117" s="9"/>
@@ -38108,9 +38191,11 @@
         <v>11.270000387299072</v>
       </c>
       <c r="CN118" s="14">
-        <v>13.037027518172071</v>
-      </c>
-      <c r="CO118" s="9"/>
+        <v>12.992299378799116</v>
+      </c>
+      <c r="CO118" s="14">
+        <v>14.615044658141199</v>
+      </c>
       <c r="CP118" s="9"/>
       <c r="CQ118" s="9"/>
       <c r="CR118" s="9"/>
@@ -38448,9 +38533,11 @@
         <v>5.350702143042203</v>
       </c>
       <c r="CN119" s="14">
-        <v>4.7491422109437194</v>
-      </c>
-      <c r="CO119" s="9"/>
+        <v>4.7468258385761475</v>
+      </c>
+      <c r="CO119" s="14">
+        <v>5.0778988595737724</v>
+      </c>
       <c r="CP119" s="9"/>
       <c r="CQ119" s="9"/>
       <c r="CR119" s="9"/>
@@ -38605,7 +38692,7 @@
       <c r="CL120" s="14"/>
       <c r="CM120" s="14"/>
       <c r="CN120" s="14"/>
-      <c r="CO120" s="9"/>
+      <c r="CO120" s="14"/>
       <c r="CP120" s="9"/>
       <c r="CQ120" s="9"/>
       <c r="CR120" s="9"/>
@@ -38945,7 +39032,9 @@
       <c r="CN121" s="14">
         <v>100</v>
       </c>
-      <c r="CO121" s="9"/>
+      <c r="CO121" s="14">
+        <v>100</v>
+      </c>
       <c r="CP121" s="9"/>
       <c r="CQ121" s="9"/>
       <c r="CR121" s="9"/>
@@ -39101,6 +39190,7 @@
       <c r="CL122" s="12"/>
       <c r="CM122" s="12"/>
       <c r="CN122" s="12"/>
+      <c r="CO122" s="12"/>
     </row>
     <row r="123" spans="1:154" x14ac:dyDescent="0.2">
       <c r="A123" s="13" t="s">
@@ -39429,7 +39519,7 @@
     </row>
     <row r="128" spans="1:154" x14ac:dyDescent="0.2">
       <c r="A128" s="1" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
     </row>
     <row r="130" spans="1:154" x14ac:dyDescent="0.2">
@@ -39439,7 +39529,7 @@
     </row>
     <row r="131" spans="1:154" x14ac:dyDescent="0.2">
       <c r="A131" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row r="132" spans="1:154" x14ac:dyDescent="0.2">
@@ -39586,6 +39676,7 @@
       </c>
       <c r="CM134" s="16"/>
       <c r="CN134" s="16"/>
+      <c r="CO134" s="16"/>
     </row>
     <row r="135" spans="1:154" x14ac:dyDescent="0.2">
       <c r="A135" s="5" t="s">
@@ -39863,6 +39954,9 @@
       </c>
       <c r="CN135" s="6" t="s">
         <v>10</v>
+      </c>
+      <c r="CO135" s="6" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="136" spans="1:154" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
@@ -40143,9 +40237,11 @@
         <v>46.33118692190893</v>
       </c>
       <c r="CN137" s="14">
-        <v>55.142955619457958</v>
-      </c>
-      <c r="CO137" s="9"/>
+        <v>55.207403235226302</v>
+      </c>
+      <c r="CO137" s="14">
+        <v>48.205991942010399</v>
+      </c>
       <c r="CP137" s="9"/>
       <c r="CQ137" s="9"/>
       <c r="CR137" s="9"/>
@@ -40483,9 +40579,11 @@
         <v>36.776187887510901</v>
       </c>
       <c r="CN138" s="14">
-        <v>26.865550300319391</v>
-      </c>
-      <c r="CO138" s="9"/>
+        <v>26.848770495596657</v>
+      </c>
+      <c r="CO138" s="14">
+        <v>31.870713496966204</v>
+      </c>
       <c r="CP138" s="9"/>
       <c r="CQ138" s="9"/>
       <c r="CR138" s="9"/>
@@ -40823,9 +40921,11 @@
         <v>11.618074964998906</v>
       </c>
       <c r="CN139" s="14">
-        <v>13.292966409135934</v>
-      </c>
-      <c r="CO139" s="9"/>
+        <v>13.247530060487311</v>
+      </c>
+      <c r="CO139" s="14">
+        <v>14.85387722014964</v>
+      </c>
       <c r="CP139" s="9"/>
       <c r="CQ139" s="9"/>
       <c r="CR139" s="9"/>
@@ -41163,9 +41263,11 @@
         <v>5.2745502255812813</v>
       </c>
       <c r="CN140" s="14">
-        <v>4.6985276710867119</v>
-      </c>
-      <c r="CO140" s="9"/>
+        <v>4.6962962086897253</v>
+      </c>
+      <c r="CO140" s="14">
+        <v>5.0694173408737626</v>
+      </c>
       <c r="CP140" s="9"/>
       <c r="CQ140" s="9"/>
       <c r="CR140" s="9"/>
@@ -41660,7 +41762,9 @@
       <c r="CN142" s="14">
         <v>100</v>
       </c>
-      <c r="CO142" s="9"/>
+      <c r="CO142" s="14">
+        <v>100</v>
+      </c>
       <c r="CP142" s="9"/>
       <c r="CQ142" s="9"/>
       <c r="CR142" s="9"/>
@@ -41816,6 +41920,7 @@
       <c r="CL143" s="12"/>
       <c r="CM143" s="12"/>
       <c r="CN143" s="12"/>
+      <c r="CO143" s="12"/>
     </row>
     <row r="144" spans="1:154" x14ac:dyDescent="0.2">
       <c r="A144" s="13" t="s">
@@ -41824,113 +41929,40 @@
     </row>
   </sheetData>
   <mergeCells count="161">
-    <mergeCell ref="CL113:CN113"/>
-    <mergeCell ref="CL134:CN134"/>
-    <mergeCell ref="CD51:CG51"/>
-    <mergeCell ref="CD72:CG72"/>
-    <mergeCell ref="CH92:CK92"/>
-    <mergeCell ref="CH113:CK113"/>
-    <mergeCell ref="CH134:CK134"/>
-    <mergeCell ref="CD134:CG134"/>
-    <mergeCell ref="BZ9:CC9"/>
-    <mergeCell ref="CH9:CK9"/>
-    <mergeCell ref="CH30:CK30"/>
-    <mergeCell ref="CL9:CN9"/>
-    <mergeCell ref="CL30:CN30"/>
-    <mergeCell ref="CH51:CJ51"/>
-    <mergeCell ref="CL51:CM51"/>
-    <mergeCell ref="CH72:CJ72"/>
-    <mergeCell ref="CL72:CM72"/>
-    <mergeCell ref="CL92:CN92"/>
-    <mergeCell ref="BZ30:CC30"/>
-    <mergeCell ref="BV51:BY51"/>
-    <mergeCell ref="BZ113:CC113"/>
-    <mergeCell ref="BZ92:CC92"/>
-    <mergeCell ref="CD9:CG9"/>
-    <mergeCell ref="CD30:CG30"/>
-    <mergeCell ref="BZ51:CC51"/>
-    <mergeCell ref="BZ72:CC72"/>
-    <mergeCell ref="BR72:BU72"/>
-    <mergeCell ref="BV72:BY72"/>
-    <mergeCell ref="CD113:CG113"/>
-    <mergeCell ref="CD92:CG92"/>
-    <mergeCell ref="BR9:BU9"/>
-    <mergeCell ref="BV9:BY9"/>
-    <mergeCell ref="BJ9:BM9"/>
-    <mergeCell ref="BN9:BQ9"/>
-    <mergeCell ref="B30:E30"/>
-    <mergeCell ref="F30:I30"/>
-    <mergeCell ref="J30:M30"/>
-    <mergeCell ref="N30:Q30"/>
-    <mergeCell ref="R30:U30"/>
-    <mergeCell ref="V30:Y30"/>
-    <mergeCell ref="Z30:AC30"/>
-    <mergeCell ref="AD30:AG30"/>
-    <mergeCell ref="AH30:AK30"/>
-    <mergeCell ref="AL30:AO30"/>
-    <mergeCell ref="BF9:BI9"/>
-    <mergeCell ref="BR30:BU30"/>
-    <mergeCell ref="BV30:BY30"/>
-    <mergeCell ref="B9:E9"/>
-    <mergeCell ref="F9:I9"/>
-    <mergeCell ref="J9:M9"/>
-    <mergeCell ref="N9:Q9"/>
-    <mergeCell ref="R9:U9"/>
-    <mergeCell ref="B51:E51"/>
-    <mergeCell ref="V9:Y9"/>
-    <mergeCell ref="Z9:AC9"/>
-    <mergeCell ref="AD9:AG9"/>
-    <mergeCell ref="F51:I51"/>
-    <mergeCell ref="J51:M51"/>
-    <mergeCell ref="N51:Q51"/>
-    <mergeCell ref="R51:U51"/>
-    <mergeCell ref="V51:Y51"/>
-    <mergeCell ref="Z51:AC51"/>
-    <mergeCell ref="AD51:AG51"/>
-    <mergeCell ref="BJ30:BM30"/>
-    <mergeCell ref="BN30:BQ30"/>
-    <mergeCell ref="AL51:AO51"/>
-    <mergeCell ref="AP51:AS51"/>
-    <mergeCell ref="AT51:AW51"/>
-    <mergeCell ref="AX51:BA51"/>
-    <mergeCell ref="AP30:AS30"/>
-    <mergeCell ref="AT30:AW30"/>
-    <mergeCell ref="AX30:BA30"/>
-    <mergeCell ref="BB30:BE30"/>
-    <mergeCell ref="AP9:AS9"/>
-    <mergeCell ref="AT9:AW9"/>
-    <mergeCell ref="AX9:BA9"/>
-    <mergeCell ref="BB9:BE9"/>
-    <mergeCell ref="AH9:AK9"/>
-    <mergeCell ref="AL9:AO9"/>
-    <mergeCell ref="BB51:BE51"/>
-    <mergeCell ref="BF51:BI51"/>
-    <mergeCell ref="AL72:AO72"/>
-    <mergeCell ref="AT72:AW72"/>
-    <mergeCell ref="AX72:BA72"/>
-    <mergeCell ref="BB72:BE72"/>
-    <mergeCell ref="BF30:BI30"/>
-    <mergeCell ref="AH51:AK51"/>
-    <mergeCell ref="B72:E72"/>
-    <mergeCell ref="F72:I72"/>
-    <mergeCell ref="J72:M72"/>
-    <mergeCell ref="N72:Q72"/>
-    <mergeCell ref="R72:U72"/>
-    <mergeCell ref="V72:Y72"/>
-    <mergeCell ref="Z72:AC72"/>
-    <mergeCell ref="AD72:AG72"/>
-    <mergeCell ref="AH72:AK72"/>
-    <mergeCell ref="BV134:BY134"/>
-    <mergeCell ref="BZ134:CC134"/>
-    <mergeCell ref="BR113:BU113"/>
-    <mergeCell ref="BV113:BY113"/>
-    <mergeCell ref="BF134:BI134"/>
-    <mergeCell ref="BJ134:BM134"/>
-    <mergeCell ref="BN134:BQ134"/>
-    <mergeCell ref="BF113:BI113"/>
-    <mergeCell ref="BJ113:BM113"/>
-    <mergeCell ref="BN113:BQ113"/>
-    <mergeCell ref="BR134:BU134"/>
+    <mergeCell ref="B134:E134"/>
+    <mergeCell ref="F134:I134"/>
+    <mergeCell ref="J134:M134"/>
+    <mergeCell ref="N134:Q134"/>
+    <mergeCell ref="B92:E92"/>
+    <mergeCell ref="F92:I92"/>
+    <mergeCell ref="J92:M92"/>
+    <mergeCell ref="N92:Q92"/>
+    <mergeCell ref="R92:U92"/>
+    <mergeCell ref="B113:E113"/>
+    <mergeCell ref="F113:I113"/>
+    <mergeCell ref="J113:M113"/>
+    <mergeCell ref="N113:Q113"/>
+    <mergeCell ref="R134:U134"/>
+    <mergeCell ref="AD92:AG92"/>
+    <mergeCell ref="AH92:AK92"/>
+    <mergeCell ref="AP134:AS134"/>
+    <mergeCell ref="AT134:AW134"/>
+    <mergeCell ref="AX134:BA134"/>
+    <mergeCell ref="R113:U113"/>
+    <mergeCell ref="BB134:BE134"/>
+    <mergeCell ref="Z113:AC113"/>
+    <mergeCell ref="AD113:AG113"/>
+    <mergeCell ref="AH113:AK113"/>
+    <mergeCell ref="AL113:AO113"/>
+    <mergeCell ref="V113:Y113"/>
+    <mergeCell ref="AL92:AO92"/>
+    <mergeCell ref="V134:Y134"/>
+    <mergeCell ref="Z134:AC134"/>
+    <mergeCell ref="AD134:AG134"/>
+    <mergeCell ref="AH134:AK134"/>
+    <mergeCell ref="AL134:AO134"/>
+    <mergeCell ref="V92:Y92"/>
+    <mergeCell ref="Z92:AC92"/>
     <mergeCell ref="BJ72:BM72"/>
     <mergeCell ref="BN72:BQ72"/>
     <mergeCell ref="BR92:BU92"/>
@@ -41951,49 +41983,122 @@
     <mergeCell ref="BN92:BQ92"/>
     <mergeCell ref="BF92:BI92"/>
     <mergeCell ref="BF72:BI72"/>
-    <mergeCell ref="AP134:AS134"/>
-    <mergeCell ref="AT134:AW134"/>
-    <mergeCell ref="AX134:BA134"/>
-    <mergeCell ref="R113:U113"/>
-    <mergeCell ref="BB134:BE134"/>
-    <mergeCell ref="Z113:AC113"/>
-    <mergeCell ref="AD113:AG113"/>
-    <mergeCell ref="AH113:AK113"/>
-    <mergeCell ref="AL113:AO113"/>
-    <mergeCell ref="V113:Y113"/>
-    <mergeCell ref="AL92:AO92"/>
-    <mergeCell ref="B134:E134"/>
-    <mergeCell ref="F134:I134"/>
-    <mergeCell ref="J134:M134"/>
-    <mergeCell ref="N134:Q134"/>
-    <mergeCell ref="B92:E92"/>
-    <mergeCell ref="F92:I92"/>
-    <mergeCell ref="J92:M92"/>
-    <mergeCell ref="N92:Q92"/>
-    <mergeCell ref="R92:U92"/>
-    <mergeCell ref="B113:E113"/>
-    <mergeCell ref="F113:I113"/>
-    <mergeCell ref="J113:M113"/>
-    <mergeCell ref="N113:Q113"/>
-    <mergeCell ref="R134:U134"/>
-    <mergeCell ref="V134:Y134"/>
-    <mergeCell ref="Z134:AC134"/>
-    <mergeCell ref="AD134:AG134"/>
-    <mergeCell ref="AH134:AK134"/>
-    <mergeCell ref="AL134:AO134"/>
-    <mergeCell ref="V92:Y92"/>
-    <mergeCell ref="Z92:AC92"/>
-    <mergeCell ref="AD92:AG92"/>
-    <mergeCell ref="AH92:AK92"/>
+    <mergeCell ref="BF51:BI51"/>
+    <mergeCell ref="BV51:BY51"/>
+    <mergeCell ref="BV134:BY134"/>
+    <mergeCell ref="BZ134:CC134"/>
+    <mergeCell ref="BR113:BU113"/>
+    <mergeCell ref="BV113:BY113"/>
+    <mergeCell ref="BF134:BI134"/>
+    <mergeCell ref="BJ134:BM134"/>
+    <mergeCell ref="BN134:BQ134"/>
+    <mergeCell ref="BF113:BI113"/>
+    <mergeCell ref="BJ113:BM113"/>
+    <mergeCell ref="BN113:BQ113"/>
+    <mergeCell ref="BR134:BU134"/>
+    <mergeCell ref="BZ113:CC113"/>
+    <mergeCell ref="AL72:AO72"/>
+    <mergeCell ref="AT72:AW72"/>
+    <mergeCell ref="AX72:BA72"/>
+    <mergeCell ref="BB72:BE72"/>
+    <mergeCell ref="BF30:BI30"/>
+    <mergeCell ref="AH51:AK51"/>
+    <mergeCell ref="B72:E72"/>
+    <mergeCell ref="F72:I72"/>
+    <mergeCell ref="J72:M72"/>
+    <mergeCell ref="N72:Q72"/>
+    <mergeCell ref="R72:U72"/>
+    <mergeCell ref="V72:Y72"/>
+    <mergeCell ref="Z72:AC72"/>
+    <mergeCell ref="AD72:AG72"/>
+    <mergeCell ref="AH72:AK72"/>
+    <mergeCell ref="AL51:AO51"/>
+    <mergeCell ref="AP51:AS51"/>
+    <mergeCell ref="AT51:AW51"/>
+    <mergeCell ref="AX51:BA51"/>
+    <mergeCell ref="AP30:AS30"/>
+    <mergeCell ref="AT30:AW30"/>
+    <mergeCell ref="AX30:BA30"/>
+    <mergeCell ref="BB30:BE30"/>
+    <mergeCell ref="BB9:BE9"/>
+    <mergeCell ref="AL9:AO9"/>
+    <mergeCell ref="BB51:BE51"/>
+    <mergeCell ref="B51:E51"/>
+    <mergeCell ref="V9:Y9"/>
+    <mergeCell ref="Z9:AC9"/>
+    <mergeCell ref="AD9:AG9"/>
+    <mergeCell ref="F51:I51"/>
+    <mergeCell ref="J51:M51"/>
+    <mergeCell ref="N51:Q51"/>
+    <mergeCell ref="R51:U51"/>
+    <mergeCell ref="V51:Y51"/>
+    <mergeCell ref="Z51:AC51"/>
+    <mergeCell ref="AD51:AG51"/>
+    <mergeCell ref="BJ9:BM9"/>
+    <mergeCell ref="BN9:BQ9"/>
+    <mergeCell ref="B30:E30"/>
+    <mergeCell ref="F30:I30"/>
+    <mergeCell ref="J30:M30"/>
+    <mergeCell ref="N30:Q30"/>
+    <mergeCell ref="R30:U30"/>
+    <mergeCell ref="V30:Y30"/>
+    <mergeCell ref="Z30:AC30"/>
+    <mergeCell ref="AD30:AG30"/>
+    <mergeCell ref="AH30:AK30"/>
+    <mergeCell ref="AL30:AO30"/>
+    <mergeCell ref="BF9:BI9"/>
+    <mergeCell ref="B9:E9"/>
+    <mergeCell ref="F9:I9"/>
+    <mergeCell ref="J9:M9"/>
+    <mergeCell ref="N9:Q9"/>
+    <mergeCell ref="R9:U9"/>
+    <mergeCell ref="BJ30:BM30"/>
+    <mergeCell ref="BN30:BQ30"/>
+    <mergeCell ref="AH9:AK9"/>
+    <mergeCell ref="AP9:AS9"/>
+    <mergeCell ref="AT9:AW9"/>
+    <mergeCell ref="AX9:BA9"/>
+    <mergeCell ref="BR72:BU72"/>
+    <mergeCell ref="BV72:BY72"/>
+    <mergeCell ref="CD113:CG113"/>
+    <mergeCell ref="CD92:CG92"/>
+    <mergeCell ref="BR9:BU9"/>
+    <mergeCell ref="BV9:BY9"/>
+    <mergeCell ref="BR30:BU30"/>
+    <mergeCell ref="BV30:BY30"/>
+    <mergeCell ref="CD51:CG51"/>
+    <mergeCell ref="CD72:CG72"/>
+    <mergeCell ref="CH92:CK92"/>
+    <mergeCell ref="CH113:CK113"/>
+    <mergeCell ref="CH134:CK134"/>
+    <mergeCell ref="CD134:CG134"/>
+    <mergeCell ref="BZ9:CC9"/>
+    <mergeCell ref="CH9:CK9"/>
+    <mergeCell ref="CH30:CK30"/>
+    <mergeCell ref="CL51:CM51"/>
+    <mergeCell ref="CL72:CM72"/>
+    <mergeCell ref="BZ30:CC30"/>
+    <mergeCell ref="CL9:CO9"/>
+    <mergeCell ref="CL30:CO30"/>
+    <mergeCell ref="CH51:CK51"/>
+    <mergeCell ref="CH72:CK72"/>
+    <mergeCell ref="CL92:CO92"/>
+    <mergeCell ref="BZ92:CC92"/>
+    <mergeCell ref="CD9:CG9"/>
+    <mergeCell ref="CD30:CG30"/>
+    <mergeCell ref="BZ51:CC51"/>
+    <mergeCell ref="BZ72:CC72"/>
+    <mergeCell ref="CL113:CO113"/>
+    <mergeCell ref="CL134:CO134"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.5" right="0.3" top="1" bottom="0.16700000000000001" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" scale="31" orientation="landscape" r:id="rId1"/>
   <headerFooter alignWithMargins="0"/>
   <rowBreaks count="3" manualBreakCount="3">
-    <brk id="42" max="91" man="1"/>
-    <brk id="84" max="91" man="1"/>
-    <brk id="104" max="91" man="1"/>
+    <brk id="42" max="92" man="1"/>
+    <brk id="84" max="92" man="1"/>
+    <brk id="104" max="92" man="1"/>
   </rowBreaks>
 </worksheet>
 </file>
--- a/Data/National Accounts/PSA-17FIA_2018PSNA_Qrt.xlsx
+++ b/Data/National Accounts/PSA-17FIA_2018PSNA_Qrt.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26130"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="I:\Other computers\My Laptop (1)\6. MAS_Series\2018-base\NAP\NAP detailed series as of January 2023\Qtr\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="I:\Other computers\My Laptop (1)\6. MAS_Series\2018-base\NAP\NAP detailed series as of April 2023\Qtr\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F8A65D9F-8307-4865-B1CA-2D42A3DD157C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F2FB3548-20CB-4082-8B6F-89241C121E01}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1770" yWindow="1770" windowWidth="13830" windowHeight="9735" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="FIA" sheetId="11" r:id="rId1"/>
@@ -621,13 +621,13 @@
     <t>2021 - 2022</t>
   </si>
   <si>
-    <t>As of January 2023</t>
-  </si>
-  <si>
     <t>Q1 2000 to Q4 2022</t>
   </si>
   <si>
     <t>Q1 2001 to Q4 2022</t>
+  </si>
+  <si>
+    <t>As of April 2023</t>
   </si>
 </sst>
 </file>
@@ -714,7 +714,7 @@
     <xf numFmtId="164" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -738,7 +738,6 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="165" fontId="5" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -23581,7 +23580,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme 2013 - 2022" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -23595,8 +23594,8 @@
   <dimension ref="A1:EX144"/>
   <sheetViews>
     <sheetView tabSelected="1" defaultGridColor="0" view="pageBreakPreview" colorId="22" zoomScale="70" zoomScaleNormal="100" zoomScaleSheetLayoutView="70" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="CF1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="CH1" sqref="CH1:CO1048576"/>
+      <pane xSplit="1" topLeftCell="BR1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="CD1" sqref="CD1:CO1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="7.77734375" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -23618,7 +23617,7 @@
     </row>
     <row r="3" spans="1:154" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
     </row>
     <row r="5" spans="1:154" x14ac:dyDescent="0.2">
@@ -23628,7 +23627,7 @@
     </row>
     <row r="6" spans="1:154" x14ac:dyDescent="0.2">
       <c r="A6" s="3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="7" spans="1:154" x14ac:dyDescent="0.2">
@@ -23638,144 +23637,144 @@
     </row>
     <row r="9" spans="1:154" x14ac:dyDescent="0.2">
       <c r="A9" s="4"/>
-      <c r="B9" s="16">
+      <c r="B9" s="15">
         <v>2000</v>
       </c>
-      <c r="C9" s="16"/>
-      <c r="D9" s="16"/>
-      <c r="E9" s="16"/>
-      <c r="F9" s="16">
+      <c r="C9" s="15"/>
+      <c r="D9" s="15"/>
+      <c r="E9" s="15"/>
+      <c r="F9" s="15">
         <v>2001</v>
       </c>
-      <c r="G9" s="16"/>
-      <c r="H9" s="16"/>
-      <c r="I9" s="16"/>
-      <c r="J9" s="16">
+      <c r="G9" s="15"/>
+      <c r="H9" s="15"/>
+      <c r="I9" s="15"/>
+      <c r="J9" s="15">
         <v>2002</v>
       </c>
-      <c r="K9" s="16"/>
-      <c r="L9" s="16"/>
-      <c r="M9" s="16"/>
-      <c r="N9" s="16">
+      <c r="K9" s="15"/>
+      <c r="L9" s="15"/>
+      <c r="M9" s="15"/>
+      <c r="N9" s="15">
         <v>2003</v>
       </c>
-      <c r="O9" s="16"/>
-      <c r="P9" s="16"/>
-      <c r="Q9" s="16"/>
-      <c r="R9" s="16">
+      <c r="O9" s="15"/>
+      <c r="P9" s="15"/>
+      <c r="Q9" s="15"/>
+      <c r="R9" s="15">
         <v>2004</v>
       </c>
-      <c r="S9" s="16"/>
-      <c r="T9" s="16"/>
-      <c r="U9" s="16"/>
-      <c r="V9" s="16">
+      <c r="S9" s="15"/>
+      <c r="T9" s="15"/>
+      <c r="U9" s="15"/>
+      <c r="V9" s="15">
         <v>2005</v>
       </c>
-      <c r="W9" s="16"/>
-      <c r="X9" s="16"/>
-      <c r="Y9" s="16"/>
-      <c r="Z9" s="16">
+      <c r="W9" s="15"/>
+      <c r="X9" s="15"/>
+      <c r="Y9" s="15"/>
+      <c r="Z9" s="15">
         <v>2006</v>
       </c>
-      <c r="AA9" s="16"/>
-      <c r="AB9" s="16"/>
-      <c r="AC9" s="16"/>
-      <c r="AD9" s="16">
+      <c r="AA9" s="15"/>
+      <c r="AB9" s="15"/>
+      <c r="AC9" s="15"/>
+      <c r="AD9" s="15">
         <v>2007</v>
       </c>
-      <c r="AE9" s="16"/>
-      <c r="AF9" s="16"/>
-      <c r="AG9" s="16"/>
-      <c r="AH9" s="16">
+      <c r="AE9" s="15"/>
+      <c r="AF9" s="15"/>
+      <c r="AG9" s="15"/>
+      <c r="AH9" s="15">
         <v>2008</v>
       </c>
-      <c r="AI9" s="16"/>
-      <c r="AJ9" s="16"/>
-      <c r="AK9" s="16"/>
-      <c r="AL9" s="16">
+      <c r="AI9" s="15"/>
+      <c r="AJ9" s="15"/>
+      <c r="AK9" s="15"/>
+      <c r="AL9" s="15">
         <v>2009</v>
       </c>
-      <c r="AM9" s="16"/>
-      <c r="AN9" s="16"/>
-      <c r="AO9" s="16"/>
-      <c r="AP9" s="16">
+      <c r="AM9" s="15"/>
+      <c r="AN9" s="15"/>
+      <c r="AO9" s="15"/>
+      <c r="AP9" s="15">
         <v>2010</v>
       </c>
-      <c r="AQ9" s="16"/>
-      <c r="AR9" s="16"/>
-      <c r="AS9" s="16"/>
-      <c r="AT9" s="16">
+      <c r="AQ9" s="15"/>
+      <c r="AR9" s="15"/>
+      <c r="AS9" s="15"/>
+      <c r="AT9" s="15">
         <v>2011</v>
       </c>
-      <c r="AU9" s="16"/>
-      <c r="AV9" s="16"/>
-      <c r="AW9" s="16"/>
-      <c r="AX9" s="16">
+      <c r="AU9" s="15"/>
+      <c r="AV9" s="15"/>
+      <c r="AW9" s="15"/>
+      <c r="AX9" s="15">
         <v>2012</v>
       </c>
-      <c r="AY9" s="16"/>
-      <c r="AZ9" s="16"/>
-      <c r="BA9" s="16"/>
-      <c r="BB9" s="16">
+      <c r="AY9" s="15"/>
+      <c r="AZ9" s="15"/>
+      <c r="BA9" s="15"/>
+      <c r="BB9" s="15">
         <v>2013</v>
       </c>
-      <c r="BC9" s="16"/>
-      <c r="BD9" s="16"/>
-      <c r="BE9" s="16"/>
-      <c r="BF9" s="16">
+      <c r="BC9" s="15"/>
+      <c r="BD9" s="15"/>
+      <c r="BE9" s="15"/>
+      <c r="BF9" s="15">
         <v>2014</v>
       </c>
-      <c r="BG9" s="16"/>
-      <c r="BH9" s="16"/>
-      <c r="BI9" s="16"/>
-      <c r="BJ9" s="16">
+      <c r="BG9" s="15"/>
+      <c r="BH9" s="15"/>
+      <c r="BI9" s="15"/>
+      <c r="BJ9" s="15">
         <v>2015</v>
       </c>
-      <c r="BK9" s="16"/>
-      <c r="BL9" s="16"/>
-      <c r="BM9" s="16"/>
-      <c r="BN9" s="16">
+      <c r="BK9" s="15"/>
+      <c r="BL9" s="15"/>
+      <c r="BM9" s="15"/>
+      <c r="BN9" s="15">
         <v>2016</v>
       </c>
-      <c r="BO9" s="16"/>
-      <c r="BP9" s="16"/>
-      <c r="BQ9" s="16"/>
-      <c r="BR9" s="16">
+      <c r="BO9" s="15"/>
+      <c r="BP9" s="15"/>
+      <c r="BQ9" s="15"/>
+      <c r="BR9" s="15">
         <v>2017</v>
       </c>
-      <c r="BS9" s="16"/>
-      <c r="BT9" s="16"/>
-      <c r="BU9" s="16"/>
-      <c r="BV9" s="16">
+      <c r="BS9" s="15"/>
+      <c r="BT9" s="15"/>
+      <c r="BU9" s="15"/>
+      <c r="BV9" s="15">
         <v>2018</v>
       </c>
-      <c r="BW9" s="16"/>
-      <c r="BX9" s="16"/>
-      <c r="BY9" s="16"/>
-      <c r="BZ9" s="16">
+      <c r="BW9" s="15"/>
+      <c r="BX9" s="15"/>
+      <c r="BY9" s="15"/>
+      <c r="BZ9" s="15">
         <v>2019</v>
       </c>
-      <c r="CA9" s="16"/>
-      <c r="CB9" s="16"/>
-      <c r="CC9" s="16"/>
-      <c r="CD9" s="16">
+      <c r="CA9" s="15"/>
+      <c r="CB9" s="15"/>
+      <c r="CC9" s="15"/>
+      <c r="CD9" s="15">
         <v>2020</v>
       </c>
-      <c r="CE9" s="16"/>
-      <c r="CF9" s="16"/>
-      <c r="CG9" s="16"/>
-      <c r="CH9" s="16">
+      <c r="CE9" s="15"/>
+      <c r="CF9" s="15"/>
+      <c r="CG9" s="15"/>
+      <c r="CH9" s="15">
         <v>2021</v>
       </c>
-      <c r="CI9" s="16"/>
-      <c r="CJ9" s="16"/>
-      <c r="CK9" s="16"/>
-      <c r="CL9" s="16">
+      <c r="CI9" s="15"/>
+      <c r="CJ9" s="15"/>
+      <c r="CK9" s="15"/>
+      <c r="CL9" s="15">
         <v>2022</v>
       </c>
-      <c r="CM9" s="16"/>
-      <c r="CN9" s="16"/>
-      <c r="CO9" s="16"/>
+      <c r="CM9" s="15"/>
+      <c r="CN9" s="15"/>
+      <c r="CO9" s="15"/>
     </row>
     <row r="10" spans="1:154" x14ac:dyDescent="0.2">
       <c r="A10" s="5" t="s">
@@ -24327,19 +24326,19 @@
         <v>255605.85108247871</v>
       </c>
       <c r="CK12" s="8">
-        <v>232068.28065931782</v>
+        <v>233481.04600295049</v>
       </c>
       <c r="CL12" s="8">
-        <v>317673.76364975941</v>
+        <v>318574.38103409222</v>
       </c>
       <c r="CM12" s="8">
         <v>264391.10608101345</v>
       </c>
       <c r="CN12" s="8">
-        <v>298075.5043037642</v>
+        <v>298113.04574478342</v>
       </c>
       <c r="CO12" s="8">
-        <v>276855.83269100799</v>
+        <v>275563.92828726908</v>
       </c>
       <c r="CP12" s="9"/>
       <c r="CQ12" s="9"/>
@@ -24669,7 +24668,7 @@
         <v>124234.61783115598</v>
       </c>
       <c r="CK13" s="8">
-        <v>153047.80115056271</v>
+        <v>155811.39245117077</v>
       </c>
       <c r="CL13" s="8">
         <v>136247.22376600408</v>
@@ -24678,10 +24677,10 @@
         <v>207005.75929438748</v>
       </c>
       <c r="CN13" s="8">
-        <v>143572.39870686986</v>
+        <v>143647.08803502942</v>
       </c>
       <c r="CO13" s="8">
-        <v>181811.0246816423</v>
+        <v>183867.53375969623</v>
       </c>
       <c r="CP13" s="9"/>
       <c r="CQ13" s="9"/>
@@ -25011,7 +25010,7 @@
         <v>64247.03506033076</v>
       </c>
       <c r="CK14" s="8">
-        <v>73433.317096158891</v>
+        <v>70483.837565827969</v>
       </c>
       <c r="CL14" s="8">
         <v>70361.679415115359</v>
@@ -25023,7 +25022,7 @@
         <v>69753.960082430189</v>
       </c>
       <c r="CO14" s="8">
-        <v>83472.572614951685</v>
+        <v>80551.445428125138</v>
       </c>
       <c r="CP14" s="9"/>
       <c r="CQ14" s="9"/>
@@ -25356,16 +25355,16 @@
         <v>26528.0211832399</v>
       </c>
       <c r="CL15" s="8">
-        <v>26910.555705467174</v>
+        <v>26589.057610939351</v>
       </c>
       <c r="CM15" s="8">
-        <v>30250.965099644636</v>
+        <v>30193.635166786604</v>
       </c>
       <c r="CN15" s="8">
-        <v>25485.088544264552</v>
+        <v>25543.489150454676</v>
       </c>
       <c r="CO15" s="8">
-        <v>29001.983312520439</v>
+        <v>30226.36476476954</v>
       </c>
       <c r="CP15" s="9"/>
       <c r="CQ15" s="9"/>
@@ -25850,19 +25849,19 @@
         <v>467026.45394495537</v>
       </c>
       <c r="CK17" s="11">
-        <v>485077.4200892793</v>
+        <v>486304.29720318911</v>
       </c>
       <c r="CL17" s="11">
-        <v>551193.22253634594</v>
+        <v>551772.34182615101</v>
       </c>
       <c r="CM17" s="11">
-        <v>565364.40061388095</v>
+        <v>565307.07068102295</v>
       </c>
       <c r="CN17" s="11">
-        <v>536886.95163732884</v>
+        <v>537057.58301269764</v>
       </c>
       <c r="CO17" s="11">
-        <v>571141.41330012237</v>
+        <v>570209.27223986003</v>
       </c>
       <c r="CP17" s="9"/>
       <c r="CQ17" s="9"/>
@@ -26348,7 +26347,7 @@
     </row>
     <row r="24" spans="1:154" x14ac:dyDescent="0.2">
       <c r="A24" s="1" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
     </row>
     <row r="26" spans="1:154" x14ac:dyDescent="0.2">
@@ -26358,7 +26357,7 @@
     </row>
     <row r="27" spans="1:154" x14ac:dyDescent="0.2">
       <c r="A27" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="28" spans="1:154" x14ac:dyDescent="0.2">
@@ -26368,139 +26367,139 @@
     </row>
     <row r="30" spans="1:154" x14ac:dyDescent="0.2">
       <c r="A30" s="4"/>
-      <c r="B30" s="16">
+      <c r="B30" s="15">
         <v>2000</v>
       </c>
-      <c r="C30" s="17"/>
-      <c r="D30" s="17"/>
-      <c r="E30" s="17"/>
-      <c r="F30" s="16">
+      <c r="C30" s="16"/>
+      <c r="D30" s="16"/>
+      <c r="E30" s="16"/>
+      <c r="F30" s="15">
         <v>2001</v>
       </c>
-      <c r="G30" s="17"/>
-      <c r="H30" s="17"/>
-      <c r="I30" s="17"/>
-      <c r="J30" s="16">
+      <c r="G30" s="16"/>
+      <c r="H30" s="16"/>
+      <c r="I30" s="16"/>
+      <c r="J30" s="15">
         <v>2002</v>
       </c>
-      <c r="K30" s="17"/>
-      <c r="L30" s="17"/>
-      <c r="M30" s="17"/>
-      <c r="N30" s="16">
+      <c r="K30" s="16"/>
+      <c r="L30" s="16"/>
+      <c r="M30" s="16"/>
+      <c r="N30" s="15">
         <v>2003</v>
       </c>
-      <c r="O30" s="17"/>
-      <c r="P30" s="17"/>
-      <c r="Q30" s="17"/>
-      <c r="R30" s="16">
+      <c r="O30" s="16"/>
+      <c r="P30" s="16"/>
+      <c r="Q30" s="16"/>
+      <c r="R30" s="15">
         <v>2004</v>
       </c>
-      <c r="S30" s="17"/>
-      <c r="T30" s="17"/>
-      <c r="U30" s="17"/>
-      <c r="V30" s="16">
+      <c r="S30" s="16"/>
+      <c r="T30" s="16"/>
+      <c r="U30" s="16"/>
+      <c r="V30" s="15">
         <v>2005</v>
       </c>
-      <c r="W30" s="17"/>
-      <c r="X30" s="17"/>
-      <c r="Y30" s="17"/>
-      <c r="Z30" s="16">
+      <c r="W30" s="16"/>
+      <c r="X30" s="16"/>
+      <c r="Y30" s="16"/>
+      <c r="Z30" s="15">
         <v>2006</v>
       </c>
-      <c r="AA30" s="17"/>
-      <c r="AB30" s="17"/>
-      <c r="AC30" s="17"/>
-      <c r="AD30" s="16">
+      <c r="AA30" s="16"/>
+      <c r="AB30" s="16"/>
+      <c r="AC30" s="16"/>
+      <c r="AD30" s="15">
         <v>2007</v>
       </c>
-      <c r="AE30" s="17"/>
-      <c r="AF30" s="17"/>
-      <c r="AG30" s="17"/>
-      <c r="AH30" s="16">
+      <c r="AE30" s="16"/>
+      <c r="AF30" s="16"/>
+      <c r="AG30" s="16"/>
+      <c r="AH30" s="15">
         <v>2008</v>
       </c>
-      <c r="AI30" s="17"/>
-      <c r="AJ30" s="17"/>
-      <c r="AK30" s="17"/>
-      <c r="AL30" s="16">
+      <c r="AI30" s="16"/>
+      <c r="AJ30" s="16"/>
+      <c r="AK30" s="16"/>
+      <c r="AL30" s="15">
         <v>2009</v>
       </c>
-      <c r="AM30" s="17"/>
-      <c r="AN30" s="17"/>
-      <c r="AO30" s="17"/>
-      <c r="AP30" s="16">
+      <c r="AM30" s="16"/>
+      <c r="AN30" s="16"/>
+      <c r="AO30" s="16"/>
+      <c r="AP30" s="15">
         <v>2010</v>
       </c>
-      <c r="AQ30" s="17"/>
-      <c r="AR30" s="17"/>
-      <c r="AS30" s="17"/>
-      <c r="AT30" s="16">
+      <c r="AQ30" s="16"/>
+      <c r="AR30" s="16"/>
+      <c r="AS30" s="16"/>
+      <c r="AT30" s="15">
         <v>2011</v>
       </c>
-      <c r="AU30" s="17"/>
-      <c r="AV30" s="17"/>
-      <c r="AW30" s="17"/>
-      <c r="AX30" s="16">
+      <c r="AU30" s="16"/>
+      <c r="AV30" s="16"/>
+      <c r="AW30" s="16"/>
+      <c r="AX30" s="15">
         <v>2012</v>
       </c>
-      <c r="AY30" s="17"/>
-      <c r="AZ30" s="17"/>
-      <c r="BA30" s="17"/>
-      <c r="BB30" s="16">
+      <c r="AY30" s="16"/>
+      <c r="AZ30" s="16"/>
+      <c r="BA30" s="16"/>
+      <c r="BB30" s="15">
         <v>2013</v>
       </c>
-      <c r="BC30" s="17"/>
-      <c r="BD30" s="17"/>
-      <c r="BE30" s="17"/>
-      <c r="BF30" s="16">
+      <c r="BC30" s="16"/>
+      <c r="BD30" s="16"/>
+      <c r="BE30" s="16"/>
+      <c r="BF30" s="15">
         <v>2014</v>
       </c>
-      <c r="BG30" s="17"/>
-      <c r="BH30" s="17"/>
-      <c r="BI30" s="17"/>
-      <c r="BJ30" s="16">
+      <c r="BG30" s="16"/>
+      <c r="BH30" s="16"/>
+      <c r="BI30" s="16"/>
+      <c r="BJ30" s="15">
         <v>2015</v>
       </c>
-      <c r="BK30" s="17"/>
-      <c r="BL30" s="17"/>
-      <c r="BM30" s="17"/>
-      <c r="BN30" s="16">
+      <c r="BK30" s="16"/>
+      <c r="BL30" s="16"/>
+      <c r="BM30" s="16"/>
+      <c r="BN30" s="15">
         <v>2016</v>
       </c>
-      <c r="BO30" s="17"/>
-      <c r="BP30" s="17"/>
-      <c r="BQ30" s="17"/>
-      <c r="BR30" s="16">
+      <c r="BO30" s="16"/>
+      <c r="BP30" s="16"/>
+      <c r="BQ30" s="16"/>
+      <c r="BR30" s="15">
         <v>2017</v>
       </c>
-      <c r="BS30" s="17"/>
-      <c r="BT30" s="17"/>
-      <c r="BU30" s="17"/>
-      <c r="BV30" s="16">
+      <c r="BS30" s="16"/>
+      <c r="BT30" s="16"/>
+      <c r="BU30" s="16"/>
+      <c r="BV30" s="15">
         <v>2018</v>
       </c>
-      <c r="BW30" s="17"/>
-      <c r="BX30" s="17"/>
-      <c r="BY30" s="17"/>
-      <c r="BZ30" s="16">
+      <c r="BW30" s="16"/>
+      <c r="BX30" s="16"/>
+      <c r="BY30" s="16"/>
+      <c r="BZ30" s="15">
         <v>2019</v>
       </c>
-      <c r="CA30" s="17"/>
-      <c r="CB30" s="17"/>
-      <c r="CC30" s="17"/>
-      <c r="CD30" s="16">
+      <c r="CA30" s="16"/>
+      <c r="CB30" s="16"/>
+      <c r="CC30" s="16"/>
+      <c r="CD30" s="15">
         <v>2020</v>
       </c>
-      <c r="CE30" s="17"/>
-      <c r="CF30" s="17"/>
-      <c r="CG30" s="17"/>
-      <c r="CH30" s="16">
+      <c r="CE30" s="16"/>
+      <c r="CF30" s="16"/>
+      <c r="CG30" s="16"/>
+      <c r="CH30" s="15">
         <v>2021</v>
       </c>
       <c r="CI30" s="16"/>
       <c r="CJ30" s="16"/>
       <c r="CK30" s="16"/>
-      <c r="CL30" s="16">
+      <c r="CL30" s="15">
         <v>2022</v>
       </c>
       <c r="CM30" s="16"/>
@@ -27057,19 +27056,19 @@
         <v>242005.26971718471</v>
       </c>
       <c r="CK33" s="8">
-        <v>217192.35116078443</v>
+        <v>218514.55609870315</v>
       </c>
       <c r="CL33" s="8">
-        <v>290650.76212964242</v>
+        <v>291474.76826139248</v>
       </c>
       <c r="CM33" s="8">
         <v>234633.20373768959</v>
       </c>
       <c r="CN33" s="8">
-        <v>264905.30413894221</v>
+        <v>264938.66792331031</v>
       </c>
       <c r="CO33" s="8">
-        <v>241113.71809458127</v>
+        <v>239988.59867347119</v>
       </c>
       <c r="CP33" s="9"/>
       <c r="CQ33" s="9"/>
@@ -27399,7 +27398,7 @@
         <v>118762.42967583728</v>
       </c>
       <c r="CK34" s="8">
-        <v>143459.30181406549</v>
+        <v>146049.75313387654</v>
       </c>
       <c r="CL34" s="8">
         <v>123209.25323782492</v>
@@ -27408,10 +27407,10 @@
         <v>186244.19874780902</v>
       </c>
       <c r="CN34" s="8">
-        <v>128830.21654882834</v>
+        <v>128897.23668924074</v>
       </c>
       <c r="CO34" s="8">
-        <v>159408.94316259969</v>
+        <v>161212.05680387036</v>
       </c>
       <c r="CP34" s="9"/>
       <c r="CQ34" s="9"/>
@@ -27741,7 +27740,7 @@
         <v>62373.790141215897</v>
       </c>
       <c r="CK35" s="8">
-        <v>70183.729177577392</v>
+        <v>67364.770689014418</v>
       </c>
       <c r="CL35" s="8">
         <v>62584.435866748536</v>
@@ -27753,7 +27752,7 @@
         <v>63566.492428753787</v>
       </c>
       <c r="CO35" s="8">
-        <v>74295.194858328628</v>
+        <v>71695.230501744707</v>
       </c>
       <c r="CP35" s="9"/>
       <c r="CQ35" s="9"/>
@@ -28086,16 +28085,16 @@
         <v>24760.097225445876</v>
       </c>
       <c r="CL36" s="8">
-        <v>24051.642019574385</v>
+        <v>23764.571646225009</v>
       </c>
       <c r="CM36" s="8">
-        <v>26711.696805640539</v>
+        <v>26661.075735828541</v>
       </c>
       <c r="CN36" s="8">
-        <v>22534.54614028475</v>
+        <v>22586.18540190734</v>
       </c>
       <c r="CO36" s="8">
-        <v>25355.894866795737</v>
+        <v>26426.348809394898</v>
       </c>
       <c r="CP36" s="9"/>
       <c r="CQ36" s="9"/>
@@ -28580,19 +28579,19 @@
         <v>444750.05160906876</v>
       </c>
       <c r="CK38" s="11">
-        <v>455595.47937787324</v>
+        <v>456689.17714703991</v>
       </c>
       <c r="CL38" s="11">
-        <v>500496.09325379028</v>
+        <v>501033.02901219093</v>
       </c>
       <c r="CM38" s="11">
-        <v>506426.05839812203</v>
+        <v>506375.43732831004</v>
       </c>
       <c r="CN38" s="11">
-        <v>479836.55925680907</v>
+        <v>479988.58244321222</v>
       </c>
       <c r="CO38" s="11">
-        <v>500173.75098230533</v>
+        <v>499322.23478848115</v>
       </c>
       <c r="CP38" s="9"/>
       <c r="CQ38" s="9"/>
@@ -29078,7 +29077,7 @@
     </row>
     <row r="45" spans="1:154" x14ac:dyDescent="0.2">
       <c r="A45" s="1" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
     </row>
     <row r="47" spans="1:154" x14ac:dyDescent="0.2">
@@ -29088,7 +29087,7 @@
     </row>
     <row r="48" spans="1:154" x14ac:dyDescent="0.2">
       <c r="A48" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="49" spans="1:150" x14ac:dyDescent="0.2">
@@ -29098,140 +29097,140 @@
     </row>
     <row r="51" spans="1:150" x14ac:dyDescent="0.2">
       <c r="A51" s="4"/>
-      <c r="B51" s="16" t="s">
+      <c r="B51" s="15" t="s">
         <v>31</v>
       </c>
-      <c r="C51" s="16"/>
-      <c r="D51" s="16"/>
-      <c r="E51" s="16"/>
-      <c r="F51" s="16" t="s">
+      <c r="C51" s="15"/>
+      <c r="D51" s="15"/>
+      <c r="E51" s="15"/>
+      <c r="F51" s="15" t="s">
         <v>32</v>
       </c>
-      <c r="G51" s="16"/>
-      <c r="H51" s="16"/>
-      <c r="I51" s="16"/>
-      <c r="J51" s="16" t="s">
+      <c r="G51" s="15"/>
+      <c r="H51" s="15"/>
+      <c r="I51" s="15"/>
+      <c r="J51" s="15" t="s">
         <v>33</v>
       </c>
-      <c r="K51" s="16"/>
-      <c r="L51" s="16"/>
-      <c r="M51" s="16"/>
-      <c r="N51" s="16" t="s">
+      <c r="K51" s="15"/>
+      <c r="L51" s="15"/>
+      <c r="M51" s="15"/>
+      <c r="N51" s="15" t="s">
         <v>34</v>
       </c>
-      <c r="O51" s="16"/>
-      <c r="P51" s="16"/>
-      <c r="Q51" s="16"/>
-      <c r="R51" s="16" t="s">
+      <c r="O51" s="15"/>
+      <c r="P51" s="15"/>
+      <c r="Q51" s="15"/>
+      <c r="R51" s="15" t="s">
         <v>35</v>
       </c>
-      <c r="S51" s="16"/>
-      <c r="T51" s="16"/>
-      <c r="U51" s="16"/>
-      <c r="V51" s="16" t="s">
+      <c r="S51" s="15"/>
+      <c r="T51" s="15"/>
+      <c r="U51" s="15"/>
+      <c r="V51" s="15" t="s">
         <v>36</v>
       </c>
-      <c r="W51" s="16"/>
-      <c r="X51" s="16"/>
-      <c r="Y51" s="16"/>
-      <c r="Z51" s="16" t="s">
+      <c r="W51" s="15"/>
+      <c r="X51" s="15"/>
+      <c r="Y51" s="15"/>
+      <c r="Z51" s="15" t="s">
         <v>37</v>
       </c>
-      <c r="AA51" s="16"/>
-      <c r="AB51" s="16"/>
-      <c r="AC51" s="16"/>
-      <c r="AD51" s="16" t="s">
+      <c r="AA51" s="15"/>
+      <c r="AB51" s="15"/>
+      <c r="AC51" s="15"/>
+      <c r="AD51" s="15" t="s">
         <v>38</v>
       </c>
-      <c r="AE51" s="16"/>
-      <c r="AF51" s="16"/>
-      <c r="AG51" s="16"/>
-      <c r="AH51" s="16" t="s">
+      <c r="AE51" s="15"/>
+      <c r="AF51" s="15"/>
+      <c r="AG51" s="15"/>
+      <c r="AH51" s="15" t="s">
         <v>39</v>
       </c>
-      <c r="AI51" s="16"/>
-      <c r="AJ51" s="16"/>
-      <c r="AK51" s="16"/>
-      <c r="AL51" s="16" t="s">
+      <c r="AI51" s="15"/>
+      <c r="AJ51" s="15"/>
+      <c r="AK51" s="15"/>
+      <c r="AL51" s="15" t="s">
         <v>40</v>
       </c>
-      <c r="AM51" s="16"/>
-      <c r="AN51" s="16"/>
-      <c r="AO51" s="16"/>
-      <c r="AP51" s="16" t="s">
+      <c r="AM51" s="15"/>
+      <c r="AN51" s="15"/>
+      <c r="AO51" s="15"/>
+      <c r="AP51" s="15" t="s">
         <v>41</v>
       </c>
-      <c r="AQ51" s="16"/>
-      <c r="AR51" s="16"/>
-      <c r="AS51" s="16"/>
-      <c r="AT51" s="16" t="s">
+      <c r="AQ51" s="15"/>
+      <c r="AR51" s="15"/>
+      <c r="AS51" s="15"/>
+      <c r="AT51" s="15" t="s">
         <v>42</v>
       </c>
-      <c r="AU51" s="16"/>
-      <c r="AV51" s="16"/>
-      <c r="AW51" s="16"/>
-      <c r="AX51" s="16" t="s">
+      <c r="AU51" s="15"/>
+      <c r="AV51" s="15"/>
+      <c r="AW51" s="15"/>
+      <c r="AX51" s="15" t="s">
         <v>43</v>
       </c>
-      <c r="AY51" s="16"/>
-      <c r="AZ51" s="16"/>
-      <c r="BA51" s="16"/>
-      <c r="BB51" s="16" t="s">
+      <c r="AY51" s="15"/>
+      <c r="AZ51" s="15"/>
+      <c r="BA51" s="15"/>
+      <c r="BB51" s="15" t="s">
         <v>44</v>
       </c>
-      <c r="BC51" s="16"/>
-      <c r="BD51" s="16"/>
-      <c r="BE51" s="16"/>
-      <c r="BF51" s="16" t="s">
+      <c r="BC51" s="15"/>
+      <c r="BD51" s="15"/>
+      <c r="BE51" s="15"/>
+      <c r="BF51" s="15" t="s">
         <v>45</v>
       </c>
-      <c r="BG51" s="16"/>
-      <c r="BH51" s="16"/>
-      <c r="BI51" s="16"/>
-      <c r="BJ51" s="16" t="s">
+      <c r="BG51" s="15"/>
+      <c r="BH51" s="15"/>
+      <c r="BI51" s="15"/>
+      <c r="BJ51" s="15" t="s">
         <v>46</v>
       </c>
-      <c r="BK51" s="16"/>
-      <c r="BL51" s="16"/>
-      <c r="BM51" s="16"/>
-      <c r="BN51" s="16" t="s">
+      <c r="BK51" s="15"/>
+      <c r="BL51" s="15"/>
+      <c r="BM51" s="15"/>
+      <c r="BN51" s="15" t="s">
         <v>47</v>
       </c>
-      <c r="BO51" s="16"/>
-      <c r="BP51" s="16"/>
-      <c r="BQ51" s="16"/>
-      <c r="BR51" s="16" t="s">
+      <c r="BO51" s="15"/>
+      <c r="BP51" s="15"/>
+      <c r="BQ51" s="15"/>
+      <c r="BR51" s="15" t="s">
         <v>27</v>
       </c>
-      <c r="BS51" s="16"/>
-      <c r="BT51" s="16"/>
-      <c r="BU51" s="16"/>
-      <c r="BV51" s="16" t="s">
+      <c r="BS51" s="15"/>
+      <c r="BT51" s="15"/>
+      <c r="BU51" s="15"/>
+      <c r="BV51" s="15" t="s">
         <v>28</v>
       </c>
-      <c r="BW51" s="16"/>
-      <c r="BX51" s="16"/>
-      <c r="BY51" s="16"/>
-      <c r="BZ51" s="16" t="s">
+      <c r="BW51" s="15"/>
+      <c r="BX51" s="15"/>
+      <c r="BY51" s="15"/>
+      <c r="BZ51" s="15" t="s">
         <v>29</v>
       </c>
-      <c r="CA51" s="16"/>
-      <c r="CB51" s="16"/>
-      <c r="CC51" s="16"/>
-      <c r="CD51" s="16" t="s">
+      <c r="CA51" s="15"/>
+      <c r="CB51" s="15"/>
+      <c r="CC51" s="15"/>
+      <c r="CD51" s="15" t="s">
         <v>48</v>
       </c>
-      <c r="CE51" s="16"/>
-      <c r="CF51" s="16"/>
-      <c r="CG51" s="16"/>
-      <c r="CH51" s="16" t="s">
+      <c r="CE51" s="15"/>
+      <c r="CF51" s="15"/>
+      <c r="CG51" s="15"/>
+      <c r="CH51" s="15" t="s">
         <v>49</v>
       </c>
-      <c r="CI51" s="16"/>
-      <c r="CJ51" s="16"/>
-      <c r="CK51" s="16"/>
-      <c r="CL51" s="16"/>
-      <c r="CM51" s="16"/>
+      <c r="CI51" s="15"/>
+      <c r="CJ51" s="15"/>
+      <c r="CK51" s="15"/>
+      <c r="CL51" s="15"/>
+      <c r="CM51" s="15"/>
       <c r="CN51" s="15"/>
       <c r="CO51" s="15"/>
     </row>
@@ -29765,19 +29764,19 @@
         <v>4.6100326383756993</v>
       </c>
       <c r="CG54" s="14">
-        <v>5.1651389766654461</v>
+        <v>5.8053542757250227</v>
       </c>
       <c r="CH54" s="14">
-        <v>11.147881971256695</v>
+        <v>11.462990507715645</v>
       </c>
       <c r="CI54" s="14">
         <v>9.5827545627788169</v>
       </c>
       <c r="CJ54" s="14">
-        <v>16.615289924478844</v>
+        <v>16.629977162998728</v>
       </c>
       <c r="CK54" s="14">
-        <v>19.299299285730243</v>
+        <v>18.024110738216748</v>
       </c>
       <c r="CL54" s="14"/>
       <c r="CM54" s="14"/>
@@ -30095,7 +30094,7 @@
         <v>5.0370288760107371</v>
       </c>
       <c r="CG55" s="14">
-        <v>10.530226164858107</v>
+        <v>12.526075626183868</v>
       </c>
       <c r="CH55" s="14">
         <v>14.292502624957095</v>
@@ -30104,10 +30103,10 @@
         <v>11.536863171622372</v>
       </c>
       <c r="CJ55" s="14">
-        <v>15.565533353992649</v>
+        <v>15.625652932145215</v>
       </c>
       <c r="CK55" s="14">
-        <v>18.793620891543171</v>
+        <v>18.006476206364624</v>
       </c>
       <c r="CL55" s="14"/>
       <c r="CM55" s="14"/>
@@ -30425,7 +30424,7 @@
         <v>12.110666473001942</v>
       </c>
       <c r="CG56" s="14">
-        <v>12.009111262018536</v>
+        <v>7.5102190160741884</v>
       </c>
       <c r="CH56" s="14">
         <v>8.3176207451070212</v>
@@ -30437,7 +30436,7 @@
         <v>8.571485076203416</v>
       </c>
       <c r="CK56" s="14">
-        <v>13.671254296801919</v>
+        <v>14.283569411064747</v>
       </c>
       <c r="CL56" s="14"/>
       <c r="CM56" s="14"/>
@@ -30758,16 +30757,16 @@
         <v>5.3005934654758846</v>
       </c>
       <c r="CH57" s="14">
-        <v>12.104234085890582</v>
+        <v>10.764934442970443</v>
       </c>
       <c r="CI57" s="14">
-        <v>10.91733997891275</v>
+        <v>10.707135655419691</v>
       </c>
       <c r="CJ57" s="14">
-        <v>11.099630002657364</v>
+        <v>11.354221456337598</v>
       </c>
       <c r="CK57" s="14">
-        <v>9.3258449704630095</v>
+        <v>13.941271970433334</v>
       </c>
       <c r="CL57" s="14"/>
       <c r="CM57" s="14"/>
@@ -31236,19 +31235,19 @@
         <v>5.8858375328118058</v>
       </c>
       <c r="CG59" s="14">
-        <v>7.821324053737257</v>
+        <v>8.0940300371422182</v>
       </c>
       <c r="CH59" s="14">
-        <v>11.581043260335264</v>
+        <v>11.698277529347664</v>
       </c>
       <c r="CI59" s="14">
-        <v>9.6022160724566845</v>
+        <v>9.5911020233908175</v>
       </c>
       <c r="CJ59" s="14">
-        <v>14.958573995597973</v>
+        <v>14.995109693721176</v>
       </c>
       <c r="CK59" s="14">
-        <v>17.742321049494095</v>
+        <v>17.253595232290024</v>
       </c>
       <c r="CL59" s="14"/>
       <c r="CM59" s="14"/>
@@ -31726,7 +31725,7 @@
     </row>
     <row r="66" spans="1:150" x14ac:dyDescent="0.2">
       <c r="A66" s="1" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
     </row>
     <row r="68" spans="1:150" x14ac:dyDescent="0.2">
@@ -31736,7 +31735,7 @@
     </row>
     <row r="69" spans="1:150" x14ac:dyDescent="0.2">
       <c r="A69" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="70" spans="1:150" x14ac:dyDescent="0.2">
@@ -31746,142 +31745,142 @@
     </row>
     <row r="72" spans="1:150" x14ac:dyDescent="0.2">
       <c r="A72" s="4"/>
-      <c r="B72" s="16" t="s">
+      <c r="B72" s="15" t="s">
         <v>31</v>
       </c>
-      <c r="C72" s="18"/>
-      <c r="D72" s="18"/>
-      <c r="E72" s="18"/>
-      <c r="F72" s="16" t="s">
+      <c r="C72" s="17"/>
+      <c r="D72" s="17"/>
+      <c r="E72" s="17"/>
+      <c r="F72" s="15" t="s">
         <v>32</v>
       </c>
-      <c r="G72" s="18"/>
-      <c r="H72" s="18"/>
-      <c r="I72" s="18"/>
-      <c r="J72" s="16" t="s">
+      <c r="G72" s="17"/>
+      <c r="H72" s="17"/>
+      <c r="I72" s="17"/>
+      <c r="J72" s="15" t="s">
         <v>33</v>
       </c>
-      <c r="K72" s="18"/>
-      <c r="L72" s="18"/>
-      <c r="M72" s="18"/>
-      <c r="N72" s="16" t="s">
+      <c r="K72" s="17"/>
+      <c r="L72" s="17"/>
+      <c r="M72" s="17"/>
+      <c r="N72" s="15" t="s">
         <v>34</v>
       </c>
-      <c r="O72" s="18"/>
-      <c r="P72" s="18"/>
-      <c r="Q72" s="18"/>
-      <c r="R72" s="16" t="s">
+      <c r="O72" s="17"/>
+      <c r="P72" s="17"/>
+      <c r="Q72" s="17"/>
+      <c r="R72" s="15" t="s">
         <v>35</v>
       </c>
-      <c r="S72" s="18"/>
-      <c r="T72" s="18"/>
-      <c r="U72" s="18"/>
-      <c r="V72" s="16" t="s">
+      <c r="S72" s="17"/>
+      <c r="T72" s="17"/>
+      <c r="U72" s="17"/>
+      <c r="V72" s="15" t="s">
         <v>36</v>
       </c>
-      <c r="W72" s="18"/>
-      <c r="X72" s="18"/>
-      <c r="Y72" s="18"/>
-      <c r="Z72" s="16" t="s">
+      <c r="W72" s="17"/>
+      <c r="X72" s="17"/>
+      <c r="Y72" s="17"/>
+      <c r="Z72" s="15" t="s">
         <v>37</v>
       </c>
-      <c r="AA72" s="18"/>
-      <c r="AB72" s="18"/>
-      <c r="AC72" s="18"/>
-      <c r="AD72" s="16" t="s">
+      <c r="AA72" s="17"/>
+      <c r="AB72" s="17"/>
+      <c r="AC72" s="17"/>
+      <c r="AD72" s="15" t="s">
         <v>38</v>
       </c>
-      <c r="AE72" s="18"/>
-      <c r="AF72" s="18"/>
-      <c r="AG72" s="18"/>
-      <c r="AH72" s="16" t="s">
+      <c r="AE72" s="17"/>
+      <c r="AF72" s="17"/>
+      <c r="AG72" s="17"/>
+      <c r="AH72" s="15" t="s">
         <v>39</v>
       </c>
-      <c r="AI72" s="18"/>
-      <c r="AJ72" s="18"/>
-      <c r="AK72" s="18"/>
-      <c r="AL72" s="16" t="s">
+      <c r="AI72" s="17"/>
+      <c r="AJ72" s="17"/>
+      <c r="AK72" s="17"/>
+      <c r="AL72" s="15" t="s">
         <v>40</v>
       </c>
-      <c r="AM72" s="18"/>
-      <c r="AN72" s="18"/>
-      <c r="AO72" s="18"/>
-      <c r="AP72" s="16" t="s">
+      <c r="AM72" s="17"/>
+      <c r="AN72" s="17"/>
+      <c r="AO72" s="17"/>
+      <c r="AP72" s="15" t="s">
         <v>41</v>
       </c>
-      <c r="AQ72" s="18"/>
-      <c r="AR72" s="18"/>
-      <c r="AS72" s="18"/>
-      <c r="AT72" s="16" t="s">
+      <c r="AQ72" s="17"/>
+      <c r="AR72" s="17"/>
+      <c r="AS72" s="17"/>
+      <c r="AT72" s="15" t="s">
         <v>42</v>
       </c>
-      <c r="AU72" s="18"/>
-      <c r="AV72" s="18"/>
-      <c r="AW72" s="18"/>
-      <c r="AX72" s="16" t="s">
+      <c r="AU72" s="17"/>
+      <c r="AV72" s="17"/>
+      <c r="AW72" s="17"/>
+      <c r="AX72" s="15" t="s">
         <v>43</v>
       </c>
-      <c r="AY72" s="18"/>
-      <c r="AZ72" s="18"/>
-      <c r="BA72" s="18"/>
-      <c r="BB72" s="16" t="s">
+      <c r="AY72" s="17"/>
+      <c r="AZ72" s="17"/>
+      <c r="BA72" s="17"/>
+      <c r="BB72" s="15" t="s">
         <v>44</v>
       </c>
-      <c r="BC72" s="18"/>
-      <c r="BD72" s="18"/>
-      <c r="BE72" s="18"/>
-      <c r="BF72" s="16" t="s">
+      <c r="BC72" s="17"/>
+      <c r="BD72" s="17"/>
+      <c r="BE72" s="17"/>
+      <c r="BF72" s="15" t="s">
         <v>45</v>
       </c>
-      <c r="BG72" s="18"/>
-      <c r="BH72" s="18"/>
-      <c r="BI72" s="18"/>
-      <c r="BJ72" s="16" t="s">
+      <c r="BG72" s="17"/>
+      <c r="BH72" s="17"/>
+      <c r="BI72" s="17"/>
+      <c r="BJ72" s="15" t="s">
         <v>46</v>
       </c>
-      <c r="BK72" s="18"/>
-      <c r="BL72" s="18"/>
-      <c r="BM72" s="18"/>
-      <c r="BN72" s="16" t="s">
+      <c r="BK72" s="17"/>
+      <c r="BL72" s="17"/>
+      <c r="BM72" s="17"/>
+      <c r="BN72" s="15" t="s">
         <v>47</v>
       </c>
-      <c r="BO72" s="18"/>
-      <c r="BP72" s="18"/>
-      <c r="BQ72" s="18"/>
-      <c r="BR72" s="16" t="s">
+      <c r="BO72" s="17"/>
+      <c r="BP72" s="17"/>
+      <c r="BQ72" s="17"/>
+      <c r="BR72" s="15" t="s">
         <v>27</v>
       </c>
-      <c r="BS72" s="18"/>
-      <c r="BT72" s="18"/>
-      <c r="BU72" s="18"/>
-      <c r="BV72" s="16" t="s">
+      <c r="BS72" s="17"/>
+      <c r="BT72" s="17"/>
+      <c r="BU72" s="17"/>
+      <c r="BV72" s="15" t="s">
         <v>28</v>
       </c>
-      <c r="BW72" s="18"/>
-      <c r="BX72" s="18"/>
-      <c r="BY72" s="18"/>
-      <c r="BZ72" s="16" t="s">
+      <c r="BW72" s="17"/>
+      <c r="BX72" s="17"/>
+      <c r="BY72" s="17"/>
+      <c r="BZ72" s="15" t="s">
         <v>29</v>
       </c>
-      <c r="CA72" s="18"/>
-      <c r="CB72" s="18"/>
-      <c r="CC72" s="18"/>
-      <c r="CD72" s="16" t="s">
+      <c r="CA72" s="17"/>
+      <c r="CB72" s="17"/>
+      <c r="CC72" s="17"/>
+      <c r="CD72" s="15" t="s">
         <v>48</v>
       </c>
-      <c r="CE72" s="18"/>
-      <c r="CF72" s="18"/>
-      <c r="CG72" s="18"/>
-      <c r="CH72" s="16" t="s">
+      <c r="CE72" s="17"/>
+      <c r="CF72" s="17"/>
+      <c r="CG72" s="17"/>
+      <c r="CH72" s="15" t="s">
         <v>49</v>
       </c>
-      <c r="CI72" s="16"/>
-      <c r="CJ72" s="16"/>
-      <c r="CK72" s="16"/>
-      <c r="CL72" s="16"/>
-      <c r="CM72" s="16"/>
-      <c r="CN72" s="15"/>
-      <c r="CO72" s="15"/>
+      <c r="CI72" s="17"/>
+      <c r="CJ72" s="17"/>
+      <c r="CK72" s="17"/>
+      <c r="CL72" s="15"/>
+      <c r="CM72" s="17"/>
+      <c r="CN72" s="17"/>
+      <c r="CO72" s="17"/>
     </row>
     <row r="73" spans="1:150" x14ac:dyDescent="0.2">
       <c r="A73" s="5" t="s">
@@ -32413,19 +32412,19 @@
         <v>2.7814252027223745</v>
       </c>
       <c r="CG75" s="14">
-        <v>2.9380282174979726</v>
+        <v>3.5646855029934414</v>
       </c>
       <c r="CH75" s="14">
-        <v>7.3636923253115043</v>
+        <v>7.6680725380285253</v>
       </c>
       <c r="CI75" s="14">
         <v>3.704170843709818</v>
       </c>
       <c r="CJ75" s="14">
-        <v>9.4626180861760787</v>
+        <v>9.4764044737233775</v>
       </c>
       <c r="CK75" s="14">
-        <v>11.013908549702194</v>
+        <v>9.8272824283011033</v>
       </c>
       <c r="CL75" s="14"/>
       <c r="CM75" s="14"/>
@@ -32743,7 +32742,7 @@
         <v>2.4989687698222127</v>
       </c>
       <c r="CG76" s="14">
-        <v>7.627721777160275</v>
+        <v>9.5711605810605818</v>
       </c>
       <c r="CH76" s="14">
         <v>10.409298596710755</v>
@@ -32752,10 +32751,10 @@
         <v>5.5345951035399565</v>
       </c>
       <c r="CJ76" s="14">
-        <v>8.4772489923548449</v>
+        <v>8.5336810985313036</v>
       </c>
       <c r="CK76" s="14">
-        <v>11.117885802348454</v>
+        <v>10.381601710819254</v>
       </c>
       <c r="CL76" s="14"/>
       <c r="CM76" s="14"/>
@@ -33073,7 +33072,7 @@
         <v>10.462715958962406</v>
       </c>
       <c r="CG77" s="14">
-        <v>9.8030679815093151</v>
+        <v>5.392782375659479</v>
       </c>
       <c r="CH77" s="14">
         <v>4.5273593202528843</v>
@@ -33085,7 +33084,7 @@
         <v>1.912185045734077</v>
       </c>
       <c r="CK77" s="14">
-        <v>5.8581465090697691</v>
+        <v>6.4283746065456171</v>
       </c>
       <c r="CL77" s="14"/>
       <c r="CM77" s="14"/>
@@ -33406,16 +33405,16 @@
         <v>2.2172930164467743</v>
       </c>
       <c r="CH78" s="14">
-        <v>7.7514731644417765</v>
+        <v>6.4653964963669921</v>
       </c>
       <c r="CI78" s="14">
-        <v>4.2877055123837522</v>
+        <v>4.0900709233238501</v>
       </c>
       <c r="CJ78" s="14">
-        <v>4.2852646198632272</v>
+        <v>4.524240547293104</v>
       </c>
       <c r="CK78" s="14">
-        <v>2.4062815098220227</v>
+        <v>6.7295841723780541</v>
       </c>
       <c r="CL78" s="14"/>
       <c r="CM78" s="14"/>
@@ -33884,19 +33883,19 @@
         <v>3.8637070232336157</v>
       </c>
       <c r="CG80" s="14">
-        <v>5.3579536293480601</v>
+        <v>5.6108748370074011</v>
       </c>
       <c r="CH80" s="14">
-        <v>7.7484095988210839</v>
+        <v>7.8640028567989759</v>
       </c>
       <c r="CI80" s="14">
-        <v>3.7111182650669434</v>
+        <v>3.7007515636089181</v>
       </c>
       <c r="CJ80" s="14">
-        <v>7.8890395899449999</v>
+        <v>7.9232213029888214</v>
       </c>
       <c r="CK80" s="14">
-        <v>9.7846167537274198</v>
+        <v>9.335245890382609</v>
       </c>
       <c r="CL80" s="14"/>
       <c r="CM80" s="14"/>
@@ -34369,7 +34368,7 @@
     </row>
     <row r="86" spans="1:154" x14ac:dyDescent="0.2">
       <c r="A86" s="1" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
     </row>
     <row r="88" spans="1:154" x14ac:dyDescent="0.2">
@@ -34379,7 +34378,7 @@
     </row>
     <row r="89" spans="1:154" x14ac:dyDescent="0.2">
       <c r="A89" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="90" spans="1:154" x14ac:dyDescent="0.2">
@@ -34389,139 +34388,139 @@
     </row>
     <row r="92" spans="1:154" x14ac:dyDescent="0.2">
       <c r="A92" s="4"/>
-      <c r="B92" s="16">
+      <c r="B92" s="15">
         <v>2000</v>
       </c>
-      <c r="C92" s="17"/>
-      <c r="D92" s="17"/>
-      <c r="E92" s="17"/>
-      <c r="F92" s="16">
+      <c r="C92" s="16"/>
+      <c r="D92" s="16"/>
+      <c r="E92" s="16"/>
+      <c r="F92" s="15">
         <v>2001</v>
       </c>
-      <c r="G92" s="17"/>
-      <c r="H92" s="17"/>
-      <c r="I92" s="17"/>
-      <c r="J92" s="16">
+      <c r="G92" s="16"/>
+      <c r="H92" s="16"/>
+      <c r="I92" s="16"/>
+      <c r="J92" s="15">
         <v>2002</v>
       </c>
-      <c r="K92" s="17"/>
-      <c r="L92" s="17"/>
-      <c r="M92" s="17"/>
-      <c r="N92" s="16">
+      <c r="K92" s="16"/>
+      <c r="L92" s="16"/>
+      <c r="M92" s="16"/>
+      <c r="N92" s="15">
         <v>2003</v>
       </c>
-      <c r="O92" s="17"/>
-      <c r="P92" s="17"/>
-      <c r="Q92" s="17"/>
-      <c r="R92" s="16">
+      <c r="O92" s="16"/>
+      <c r="P92" s="16"/>
+      <c r="Q92" s="16"/>
+      <c r="R92" s="15">
         <v>2004</v>
       </c>
-      <c r="S92" s="17"/>
-      <c r="T92" s="17"/>
-      <c r="U92" s="17"/>
-      <c r="V92" s="16">
+      <c r="S92" s="16"/>
+      <c r="T92" s="16"/>
+      <c r="U92" s="16"/>
+      <c r="V92" s="15">
         <v>2005</v>
       </c>
-      <c r="W92" s="17"/>
-      <c r="X92" s="17"/>
-      <c r="Y92" s="17"/>
-      <c r="Z92" s="16">
+      <c r="W92" s="16"/>
+      <c r="X92" s="16"/>
+      <c r="Y92" s="16"/>
+      <c r="Z92" s="15">
         <v>2006</v>
       </c>
-      <c r="AA92" s="17"/>
-      <c r="AB92" s="17"/>
-      <c r="AC92" s="17"/>
-      <c r="AD92" s="16">
+      <c r="AA92" s="16"/>
+      <c r="AB92" s="16"/>
+      <c r="AC92" s="16"/>
+      <c r="AD92" s="15">
         <v>2007</v>
       </c>
-      <c r="AE92" s="17"/>
-      <c r="AF92" s="17"/>
-      <c r="AG92" s="17"/>
-      <c r="AH92" s="16">
+      <c r="AE92" s="16"/>
+      <c r="AF92" s="16"/>
+      <c r="AG92" s="16"/>
+      <c r="AH92" s="15">
         <v>2008</v>
       </c>
-      <c r="AI92" s="17"/>
-      <c r="AJ92" s="17"/>
-      <c r="AK92" s="17"/>
-      <c r="AL92" s="16">
+      <c r="AI92" s="16"/>
+      <c r="AJ92" s="16"/>
+      <c r="AK92" s="16"/>
+      <c r="AL92" s="15">
         <v>2009</v>
       </c>
-      <c r="AM92" s="17"/>
-      <c r="AN92" s="17"/>
-      <c r="AO92" s="17"/>
-      <c r="AP92" s="16">
+      <c r="AM92" s="16"/>
+      <c r="AN92" s="16"/>
+      <c r="AO92" s="16"/>
+      <c r="AP92" s="15">
         <v>2010</v>
       </c>
-      <c r="AQ92" s="17"/>
-      <c r="AR92" s="17"/>
-      <c r="AS92" s="17"/>
-      <c r="AT92" s="16">
+      <c r="AQ92" s="16"/>
+      <c r="AR92" s="16"/>
+      <c r="AS92" s="16"/>
+      <c r="AT92" s="15">
         <v>2011</v>
       </c>
-      <c r="AU92" s="17"/>
-      <c r="AV92" s="17"/>
-      <c r="AW92" s="17"/>
-      <c r="AX92" s="16">
+      <c r="AU92" s="16"/>
+      <c r="AV92" s="16"/>
+      <c r="AW92" s="16"/>
+      <c r="AX92" s="15">
         <v>2012</v>
       </c>
-      <c r="AY92" s="17"/>
-      <c r="AZ92" s="17"/>
-      <c r="BA92" s="17"/>
-      <c r="BB92" s="16">
+      <c r="AY92" s="16"/>
+      <c r="AZ92" s="16"/>
+      <c r="BA92" s="16"/>
+      <c r="BB92" s="15">
         <v>2013</v>
       </c>
-      <c r="BC92" s="17"/>
-      <c r="BD92" s="17"/>
-      <c r="BE92" s="17"/>
-      <c r="BF92" s="16">
+      <c r="BC92" s="16"/>
+      <c r="BD92" s="16"/>
+      <c r="BE92" s="16"/>
+      <c r="BF92" s="15">
         <v>2014</v>
       </c>
-      <c r="BG92" s="17"/>
-      <c r="BH92" s="17"/>
-      <c r="BI92" s="17"/>
-      <c r="BJ92" s="16">
+      <c r="BG92" s="16"/>
+      <c r="BH92" s="16"/>
+      <c r="BI92" s="16"/>
+      <c r="BJ92" s="15">
         <v>2015</v>
       </c>
-      <c r="BK92" s="17"/>
-      <c r="BL92" s="17"/>
-      <c r="BM92" s="17"/>
-      <c r="BN92" s="16">
+      <c r="BK92" s="16"/>
+      <c r="BL92" s="16"/>
+      <c r="BM92" s="16"/>
+      <c r="BN92" s="15">
         <v>2016</v>
       </c>
-      <c r="BO92" s="17"/>
-      <c r="BP92" s="17"/>
-      <c r="BQ92" s="17"/>
-      <c r="BR92" s="16">
+      <c r="BO92" s="16"/>
+      <c r="BP92" s="16"/>
+      <c r="BQ92" s="16"/>
+      <c r="BR92" s="15">
         <v>2017</v>
       </c>
-      <c r="BS92" s="17"/>
-      <c r="BT92" s="17"/>
-      <c r="BU92" s="17"/>
-      <c r="BV92" s="16">
+      <c r="BS92" s="16"/>
+      <c r="BT92" s="16"/>
+      <c r="BU92" s="16"/>
+      <c r="BV92" s="15">
         <v>2018</v>
       </c>
-      <c r="BW92" s="17"/>
-      <c r="BX92" s="17"/>
-      <c r="BY92" s="17"/>
-      <c r="BZ92" s="16">
+      <c r="BW92" s="16"/>
+      <c r="BX92" s="16"/>
+      <c r="BY92" s="16"/>
+      <c r="BZ92" s="15">
         <v>2019</v>
       </c>
-      <c r="CA92" s="17"/>
-      <c r="CB92" s="17"/>
-      <c r="CC92" s="17"/>
-      <c r="CD92" s="16">
+      <c r="CA92" s="16"/>
+      <c r="CB92" s="16"/>
+      <c r="CC92" s="16"/>
+      <c r="CD92" s="15">
         <v>2020</v>
       </c>
-      <c r="CE92" s="17"/>
-      <c r="CF92" s="17"/>
-      <c r="CG92" s="17"/>
-      <c r="CH92" s="16">
+      <c r="CE92" s="16"/>
+      <c r="CF92" s="16"/>
+      <c r="CG92" s="16"/>
+      <c r="CH92" s="15">
         <v>2021</v>
       </c>
       <c r="CI92" s="16"/>
       <c r="CJ92" s="16"/>
       <c r="CK92" s="16"/>
-      <c r="CL92" s="16">
+      <c r="CL92" s="15">
         <v>2022</v>
       </c>
       <c r="CM92" s="16"/>
@@ -35078,10 +35077,10 @@
         <v>105.61995256598671</v>
       </c>
       <c r="CK95" s="14">
-        <v>106.84919584830175</v>
+        <v>106.84919584830172</v>
       </c>
       <c r="CL95" s="14">
-        <v>109.29741292337076</v>
+        <v>109.29741292337079</v>
       </c>
       <c r="CM95" s="14">
         <v>112.68273282267074</v>
@@ -35090,7 +35089,7 @@
         <v>112.52153114587102</v>
       </c>
       <c r="CO95" s="14">
-        <v>114.8237582161983</v>
+        <v>114.82375821619833</v>
       </c>
       <c r="CP95" s="9"/>
       <c r="CQ95" s="9"/>
@@ -35420,7 +35419,7 @@
         <v>104.6076761567232</v>
       </c>
       <c r="CK96" s="14">
-        <v>106.6837766636594</v>
+        <v>106.68377666365943</v>
       </c>
       <c r="CL96" s="14">
         <v>110.58197350081539</v>
@@ -35774,7 +35773,7 @@
         <v>109.73385099171769</v>
       </c>
       <c r="CO97" s="14">
-        <v>112.35258588946854</v>
+        <v>112.3525858894685</v>
       </c>
       <c r="CP97" s="9"/>
       <c r="CQ97" s="9"/>
@@ -36107,16 +36106,16 @@
         <v>107.14021411829164</v>
       </c>
       <c r="CL98" s="14">
-        <v>111.88656343532</v>
+        <v>111.88528035245697</v>
       </c>
       <c r="CM98" s="14">
-        <v>113.24988195155289</v>
+        <v>113.24987583382027</v>
       </c>
       <c r="CN98" s="14">
-        <v>113.09341837022913</v>
+        <v>113.09341837022909</v>
       </c>
       <c r="CO98" s="14">
-        <v>114.37964806558398</v>
+        <v>114.37964806558402</v>
       </c>
       <c r="CP98" s="9"/>
       <c r="CQ98" s="9"/>
@@ -36601,19 +36600,19 @@
         <v>105.00874643078566</v>
       </c>
       <c r="CK100" s="14">
-        <v>106.47107841185439</v>
+        <v>106.4847431334275</v>
       </c>
       <c r="CL100" s="14">
-        <v>110.12937562668412</v>
+        <v>110.12693971772578</v>
       </c>
       <c r="CM100" s="14">
-        <v>111.63809429597423</v>
+        <v>111.63793284754142</v>
       </c>
       <c r="CN100" s="14">
-        <v>111.88954682170984</v>
+        <v>111.88965793290247</v>
       </c>
       <c r="CO100" s="14">
-        <v>114.18860189652929</v>
+        <v>114.19665148326661</v>
       </c>
       <c r="CP100" s="9"/>
       <c r="CQ100" s="9"/>
@@ -36789,7 +36788,7 @@
     </row>
     <row r="107" spans="1:154" x14ac:dyDescent="0.2">
       <c r="A107" s="1" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
     </row>
     <row r="109" spans="1:154" x14ac:dyDescent="0.2">
@@ -36799,7 +36798,7 @@
     </row>
     <row r="110" spans="1:154" x14ac:dyDescent="0.2">
       <c r="A110" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="111" spans="1:154" x14ac:dyDescent="0.2">
@@ -36809,139 +36808,139 @@
     </row>
     <row r="113" spans="1:154" x14ac:dyDescent="0.2">
       <c r="A113" s="4"/>
-      <c r="B113" s="16">
+      <c r="B113" s="15">
         <v>2000</v>
       </c>
-      <c r="C113" s="17"/>
-      <c r="D113" s="17"/>
-      <c r="E113" s="17"/>
-      <c r="F113" s="16">
+      <c r="C113" s="16"/>
+      <c r="D113" s="16"/>
+      <c r="E113" s="16"/>
+      <c r="F113" s="15">
         <v>2001</v>
       </c>
-      <c r="G113" s="17"/>
-      <c r="H113" s="17"/>
-      <c r="I113" s="17"/>
-      <c r="J113" s="16">
+      <c r="G113" s="16"/>
+      <c r="H113" s="16"/>
+      <c r="I113" s="16"/>
+      <c r="J113" s="15">
         <v>2002</v>
       </c>
-      <c r="K113" s="17"/>
-      <c r="L113" s="17"/>
-      <c r="M113" s="17"/>
-      <c r="N113" s="16">
+      <c r="K113" s="16"/>
+      <c r="L113" s="16"/>
+      <c r="M113" s="16"/>
+      <c r="N113" s="15">
         <v>2003</v>
       </c>
-      <c r="O113" s="17"/>
-      <c r="P113" s="17"/>
-      <c r="Q113" s="17"/>
-      <c r="R113" s="16">
+      <c r="O113" s="16"/>
+      <c r="P113" s="16"/>
+      <c r="Q113" s="16"/>
+      <c r="R113" s="15">
         <v>2004</v>
       </c>
-      <c r="S113" s="17"/>
-      <c r="T113" s="17"/>
-      <c r="U113" s="17"/>
-      <c r="V113" s="16">
+      <c r="S113" s="16"/>
+      <c r="T113" s="16"/>
+      <c r="U113" s="16"/>
+      <c r="V113" s="15">
         <v>2005</v>
       </c>
-      <c r="W113" s="17"/>
-      <c r="X113" s="17"/>
-      <c r="Y113" s="17"/>
-      <c r="Z113" s="16">
+      <c r="W113" s="16"/>
+      <c r="X113" s="16"/>
+      <c r="Y113" s="16"/>
+      <c r="Z113" s="15">
         <v>2006</v>
       </c>
-      <c r="AA113" s="17"/>
-      <c r="AB113" s="17"/>
-      <c r="AC113" s="17"/>
-      <c r="AD113" s="16">
+      <c r="AA113" s="16"/>
+      <c r="AB113" s="16"/>
+      <c r="AC113" s="16"/>
+      <c r="AD113" s="15">
         <v>2007</v>
       </c>
-      <c r="AE113" s="17"/>
-      <c r="AF113" s="17"/>
-      <c r="AG113" s="17"/>
-      <c r="AH113" s="16">
+      <c r="AE113" s="16"/>
+      <c r="AF113" s="16"/>
+      <c r="AG113" s="16"/>
+      <c r="AH113" s="15">
         <v>2008</v>
       </c>
-      <c r="AI113" s="17"/>
-      <c r="AJ113" s="17"/>
-      <c r="AK113" s="17"/>
-      <c r="AL113" s="16">
+      <c r="AI113" s="16"/>
+      <c r="AJ113" s="16"/>
+      <c r="AK113" s="16"/>
+      <c r="AL113" s="15">
         <v>2009</v>
       </c>
-      <c r="AM113" s="17"/>
-      <c r="AN113" s="17"/>
-      <c r="AO113" s="17"/>
-      <c r="AP113" s="16">
+      <c r="AM113" s="16"/>
+      <c r="AN113" s="16"/>
+      <c r="AO113" s="16"/>
+      <c r="AP113" s="15">
         <v>2010</v>
       </c>
-      <c r="AQ113" s="17"/>
-      <c r="AR113" s="17"/>
-      <c r="AS113" s="17"/>
-      <c r="AT113" s="16">
+      <c r="AQ113" s="16"/>
+      <c r="AR113" s="16"/>
+      <c r="AS113" s="16"/>
+      <c r="AT113" s="15">
         <v>2011</v>
       </c>
-      <c r="AU113" s="17"/>
-      <c r="AV113" s="17"/>
-      <c r="AW113" s="17"/>
-      <c r="AX113" s="16">
+      <c r="AU113" s="16"/>
+      <c r="AV113" s="16"/>
+      <c r="AW113" s="16"/>
+      <c r="AX113" s="15">
         <v>2012</v>
       </c>
-      <c r="AY113" s="17"/>
-      <c r="AZ113" s="17"/>
-      <c r="BA113" s="17"/>
-      <c r="BB113" s="16">
+      <c r="AY113" s="16"/>
+      <c r="AZ113" s="16"/>
+      <c r="BA113" s="16"/>
+      <c r="BB113" s="15">
         <v>2013</v>
       </c>
-      <c r="BC113" s="17"/>
-      <c r="BD113" s="17"/>
-      <c r="BE113" s="17"/>
-      <c r="BF113" s="16">
+      <c r="BC113" s="16"/>
+      <c r="BD113" s="16"/>
+      <c r="BE113" s="16"/>
+      <c r="BF113" s="15">
         <v>2014</v>
       </c>
-      <c r="BG113" s="17"/>
-      <c r="BH113" s="17"/>
-      <c r="BI113" s="17"/>
-      <c r="BJ113" s="16">
+      <c r="BG113" s="16"/>
+      <c r="BH113" s="16"/>
+      <c r="BI113" s="16"/>
+      <c r="BJ113" s="15">
         <v>2015</v>
       </c>
-      <c r="BK113" s="17"/>
-      <c r="BL113" s="17"/>
-      <c r="BM113" s="17"/>
-      <c r="BN113" s="16">
+      <c r="BK113" s="16"/>
+      <c r="BL113" s="16"/>
+      <c r="BM113" s="16"/>
+      <c r="BN113" s="15">
         <v>2016</v>
       </c>
-      <c r="BO113" s="17"/>
-      <c r="BP113" s="17"/>
-      <c r="BQ113" s="17"/>
-      <c r="BR113" s="16">
+      <c r="BO113" s="16"/>
+      <c r="BP113" s="16"/>
+      <c r="BQ113" s="16"/>
+      <c r="BR113" s="15">
         <v>2017</v>
       </c>
-      <c r="BS113" s="17"/>
-      <c r="BT113" s="17"/>
-      <c r="BU113" s="17"/>
-      <c r="BV113" s="16">
+      <c r="BS113" s="16"/>
+      <c r="BT113" s="16"/>
+      <c r="BU113" s="16"/>
+      <c r="BV113" s="15">
         <v>2018</v>
       </c>
-      <c r="BW113" s="17"/>
-      <c r="BX113" s="17"/>
-      <c r="BY113" s="17"/>
-      <c r="BZ113" s="16">
+      <c r="BW113" s="16"/>
+      <c r="BX113" s="16"/>
+      <c r="BY113" s="16"/>
+      <c r="BZ113" s="15">
         <v>2019</v>
       </c>
-      <c r="CA113" s="17"/>
-      <c r="CB113" s="17"/>
-      <c r="CC113" s="17"/>
-      <c r="CD113" s="16">
+      <c r="CA113" s="16"/>
+      <c r="CB113" s="16"/>
+      <c r="CC113" s="16"/>
+      <c r="CD113" s="15">
         <v>2020</v>
       </c>
-      <c r="CE113" s="17"/>
-      <c r="CF113" s="17"/>
-      <c r="CG113" s="17"/>
-      <c r="CH113" s="16">
+      <c r="CE113" s="16"/>
+      <c r="CF113" s="16"/>
+      <c r="CG113" s="16"/>
+      <c r="CH113" s="15">
         <v>2021</v>
       </c>
       <c r="CI113" s="16"/>
       <c r="CJ113" s="16"/>
       <c r="CK113" s="16"/>
-      <c r="CL113" s="16">
+      <c r="CL113" s="15">
         <v>2022</v>
       </c>
       <c r="CM113" s="16"/>
@@ -37498,19 +37497,19 @@
         <v>54.730486661598164</v>
       </c>
       <c r="CK116" s="14">
-        <v>47.841493140745506</v>
+        <v>48.011306366350439</v>
       </c>
       <c r="CL116" s="14">
-        <v>57.633829782588052</v>
+        <v>57.736562144404587</v>
       </c>
       <c r="CM116" s="14">
-        <v>46.764724802964899</v>
+        <v>46.769467390970831</v>
       </c>
       <c r="CN116" s="14">
-        <v>55.519230518590888</v>
+        <v>55.508581421097844</v>
       </c>
       <c r="CO116" s="14">
-        <v>48.474130266846238</v>
+        <v>48.326805911944618</v>
       </c>
       <c r="CP116" s="9"/>
       <c r="CQ116" s="9"/>
@@ -37840,19 +37839,19 @@
         <v>26.601195024768021</v>
       </c>
       <c r="CK117" s="14">
-        <v>31.55121117004251</v>
+        <v>32.039896284541605</v>
       </c>
       <c r="CL117" s="14">
-        <v>24.71859562043506</v>
+        <v>24.692651921457131</v>
       </c>
       <c r="CM117" s="14">
-        <v>36.614572666693832</v>
+        <v>36.618285889297042</v>
       </c>
       <c r="CN117" s="14">
-        <v>26.741644264033837</v>
+        <v>26.747055172225949</v>
       </c>
       <c r="CO117" s="14">
-        <v>31.832926215438796</v>
+        <v>32.245623266952393</v>
       </c>
       <c r="CP117" s="9"/>
       <c r="CQ117" s="9"/>
@@ -38182,19 +38181,19 @@
         <v>13.75661582285937</v>
       </c>
       <c r="CK118" s="14">
-        <v>15.138473582761977</v>
+        <v>14.493772309064793</v>
       </c>
       <c r="CL118" s="14">
-        <v>12.76533827671941</v>
+        <v>12.751940262581062</v>
       </c>
       <c r="CM118" s="14">
-        <v>11.270000387299072</v>
+        <v>11.271143320757758</v>
       </c>
       <c r="CN118" s="14">
-        <v>12.992299378799116</v>
+        <v>12.988171527368788</v>
       </c>
       <c r="CO118" s="14">
-        <v>14.615044658141199</v>
+        <v>14.126646013963967</v>
       </c>
       <c r="CP118" s="9"/>
       <c r="CQ118" s="9"/>
@@ -38524,19 +38523,19 @@
         <v>4.911702490774454</v>
       </c>
       <c r="CK119" s="14">
-        <v>5.4688221064500127</v>
+        <v>5.4550250400431652</v>
       </c>
       <c r="CL119" s="14">
-        <v>4.8822363202574905</v>
+        <v>4.818845671557213</v>
       </c>
       <c r="CM119" s="14">
-        <v>5.350702143042203</v>
+        <v>5.3411033989743775</v>
       </c>
       <c r="CN119" s="14">
-        <v>4.7468258385761475</v>
+        <v>4.756191879307428</v>
       </c>
       <c r="CO119" s="14">
-        <v>5.0778988595737724</v>
+        <v>5.3009248071390074</v>
       </c>
       <c r="CP119" s="9"/>
       <c r="CQ119" s="9"/>
@@ -39519,7 +39518,7 @@
     </row>
     <row r="128" spans="1:154" x14ac:dyDescent="0.2">
       <c r="A128" s="1" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
     </row>
     <row r="130" spans="1:154" x14ac:dyDescent="0.2">
@@ -39529,7 +39528,7 @@
     </row>
     <row r="131" spans="1:154" x14ac:dyDescent="0.2">
       <c r="A131" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="132" spans="1:154" x14ac:dyDescent="0.2">
@@ -39539,139 +39538,139 @@
     </row>
     <row r="134" spans="1:154" x14ac:dyDescent="0.2">
       <c r="A134" s="4"/>
-      <c r="B134" s="16">
+      <c r="B134" s="15">
         <v>2000</v>
       </c>
-      <c r="C134" s="17"/>
-      <c r="D134" s="17"/>
-      <c r="E134" s="17"/>
-      <c r="F134" s="16">
+      <c r="C134" s="16"/>
+      <c r="D134" s="16"/>
+      <c r="E134" s="16"/>
+      <c r="F134" s="15">
         <v>2001</v>
       </c>
-      <c r="G134" s="17"/>
-      <c r="H134" s="17"/>
-      <c r="I134" s="17"/>
-      <c r="J134" s="16">
+      <c r="G134" s="16"/>
+      <c r="H134" s="16"/>
+      <c r="I134" s="16"/>
+      <c r="J134" s="15">
         <v>2002</v>
       </c>
-      <c r="K134" s="17"/>
-      <c r="L134" s="17"/>
-      <c r="M134" s="17"/>
-      <c r="N134" s="16">
+      <c r="K134" s="16"/>
+      <c r="L134" s="16"/>
+      <c r="M134" s="16"/>
+      <c r="N134" s="15">
         <v>2003</v>
       </c>
-      <c r="O134" s="17"/>
-      <c r="P134" s="17"/>
-      <c r="Q134" s="17"/>
-      <c r="R134" s="16">
+      <c r="O134" s="16"/>
+      <c r="P134" s="16"/>
+      <c r="Q134" s="16"/>
+      <c r="R134" s="15">
         <v>2004</v>
       </c>
-      <c r="S134" s="17"/>
-      <c r="T134" s="17"/>
-      <c r="U134" s="17"/>
-      <c r="V134" s="16">
+      <c r="S134" s="16"/>
+      <c r="T134" s="16"/>
+      <c r="U134" s="16"/>
+      <c r="V134" s="15">
         <v>2005</v>
       </c>
-      <c r="W134" s="17"/>
-      <c r="X134" s="17"/>
-      <c r="Y134" s="17"/>
-      <c r="Z134" s="16">
+      <c r="W134" s="16"/>
+      <c r="X134" s="16"/>
+      <c r="Y134" s="16"/>
+      <c r="Z134" s="15">
         <v>2006</v>
       </c>
-      <c r="AA134" s="17"/>
-      <c r="AB134" s="17"/>
-      <c r="AC134" s="17"/>
-      <c r="AD134" s="16">
+      <c r="AA134" s="16"/>
+      <c r="AB134" s="16"/>
+      <c r="AC134" s="16"/>
+      <c r="AD134" s="15">
         <v>2007</v>
       </c>
-      <c r="AE134" s="17"/>
-      <c r="AF134" s="17"/>
-      <c r="AG134" s="17"/>
-      <c r="AH134" s="16">
+      <c r="AE134" s="16"/>
+      <c r="AF134" s="16"/>
+      <c r="AG134" s="16"/>
+      <c r="AH134" s="15">
         <v>2008</v>
       </c>
-      <c r="AI134" s="17"/>
-      <c r="AJ134" s="17"/>
-      <c r="AK134" s="17"/>
-      <c r="AL134" s="16">
+      <c r="AI134" s="16"/>
+      <c r="AJ134" s="16"/>
+      <c r="AK134" s="16"/>
+      <c r="AL134" s="15">
         <v>2009</v>
       </c>
-      <c r="AM134" s="17"/>
-      <c r="AN134" s="17"/>
-      <c r="AO134" s="17"/>
-      <c r="AP134" s="16">
+      <c r="AM134" s="16"/>
+      <c r="AN134" s="16"/>
+      <c r="AO134" s="16"/>
+      <c r="AP134" s="15">
         <v>2010</v>
       </c>
-      <c r="AQ134" s="17"/>
-      <c r="AR134" s="17"/>
-      <c r="AS134" s="17"/>
-      <c r="AT134" s="16">
+      <c r="AQ134" s="16"/>
+      <c r="AR134" s="16"/>
+      <c r="AS134" s="16"/>
+      <c r="AT134" s="15">
         <v>2011</v>
       </c>
-      <c r="AU134" s="17"/>
-      <c r="AV134" s="17"/>
-      <c r="AW134" s="17"/>
-      <c r="AX134" s="16">
+      <c r="AU134" s="16"/>
+      <c r="AV134" s="16"/>
+      <c r="AW134" s="16"/>
+      <c r="AX134" s="15">
         <v>2012</v>
       </c>
-      <c r="AY134" s="17"/>
-      <c r="AZ134" s="17"/>
-      <c r="BA134" s="17"/>
-      <c r="BB134" s="16">
+      <c r="AY134" s="16"/>
+      <c r="AZ134" s="16"/>
+      <c r="BA134" s="16"/>
+      <c r="BB134" s="15">
         <v>2013</v>
       </c>
-      <c r="BC134" s="17"/>
-      <c r="BD134" s="17"/>
-      <c r="BE134" s="17"/>
-      <c r="BF134" s="16">
+      <c r="BC134" s="16"/>
+      <c r="BD134" s="16"/>
+      <c r="BE134" s="16"/>
+      <c r="BF134" s="15">
         <v>2014</v>
       </c>
-      <c r="BG134" s="17"/>
-      <c r="BH134" s="17"/>
-      <c r="BI134" s="17"/>
-      <c r="BJ134" s="16">
+      <c r="BG134" s="16"/>
+      <c r="BH134" s="16"/>
+      <c r="BI134" s="16"/>
+      <c r="BJ134" s="15">
         <v>2015</v>
       </c>
-      <c r="BK134" s="17"/>
-      <c r="BL134" s="17"/>
-      <c r="BM134" s="17"/>
-      <c r="BN134" s="16">
+      <c r="BK134" s="16"/>
+      <c r="BL134" s="16"/>
+      <c r="BM134" s="16"/>
+      <c r="BN134" s="15">
         <v>2016</v>
       </c>
-      <c r="BO134" s="17"/>
-      <c r="BP134" s="17"/>
-      <c r="BQ134" s="17"/>
-      <c r="BR134" s="16">
+      <c r="BO134" s="16"/>
+      <c r="BP134" s="16"/>
+      <c r="BQ134" s="16"/>
+      <c r="BR134" s="15">
         <v>2017</v>
       </c>
-      <c r="BS134" s="17"/>
-      <c r="BT134" s="17"/>
-      <c r="BU134" s="17"/>
-      <c r="BV134" s="16">
+      <c r="BS134" s="16"/>
+      <c r="BT134" s="16"/>
+      <c r="BU134" s="16"/>
+      <c r="BV134" s="15">
         <v>2018</v>
       </c>
-      <c r="BW134" s="17"/>
-      <c r="BX134" s="17"/>
-      <c r="BY134" s="17"/>
-      <c r="BZ134" s="16">
+      <c r="BW134" s="16"/>
+      <c r="BX134" s="16"/>
+      <c r="BY134" s="16"/>
+      <c r="BZ134" s="15">
         <v>2019</v>
       </c>
-      <c r="CA134" s="17"/>
-      <c r="CB134" s="17"/>
-      <c r="CC134" s="17"/>
-      <c r="CD134" s="16">
+      <c r="CA134" s="16"/>
+      <c r="CB134" s="16"/>
+      <c r="CC134" s="16"/>
+      <c r="CD134" s="15">
         <v>2020</v>
       </c>
-      <c r="CE134" s="17"/>
-      <c r="CF134" s="17"/>
-      <c r="CG134" s="17"/>
-      <c r="CH134" s="16">
+      <c r="CE134" s="16"/>
+      <c r="CF134" s="16"/>
+      <c r="CG134" s="16"/>
+      <c r="CH134" s="15">
         <v>2021</v>
       </c>
       <c r="CI134" s="16"/>
       <c r="CJ134" s="16"/>
       <c r="CK134" s="16"/>
-      <c r="CL134" s="16">
+      <c r="CL134" s="15">
         <v>2022</v>
       </c>
       <c r="CM134" s="16"/>
@@ -40228,19 +40227,19 @@
         <v>54.413769901010632</v>
       </c>
       <c r="CK137" s="14">
-        <v>47.672191887717126</v>
+        <v>47.847544245251115</v>
       </c>
       <c r="CL137" s="14">
-        <v>58.072533641588286</v>
+        <v>58.174761220043322</v>
       </c>
       <c r="CM137" s="14">
-        <v>46.33118692190893</v>
+        <v>46.335818533307815</v>
       </c>
       <c r="CN137" s="14">
-        <v>55.207403235226302</v>
+        <v>55.196868761905471</v>
       </c>
       <c r="CO137" s="14">
-        <v>48.205991942010399</v>
+        <v>48.062870417764039</v>
       </c>
       <c r="CP137" s="9"/>
       <c r="CQ137" s="9"/>
@@ -40570,19 +40569,19 @@
         <v>26.703185136497382</v>
       </c>
       <c r="CK138" s="14">
-        <v>31.488306690391809</v>
+        <v>31.980121369693197</v>
       </c>
       <c r="CL138" s="14">
-        <v>24.617425570062998</v>
+        <v>24.591044123525645</v>
       </c>
       <c r="CM138" s="14">
-        <v>36.776187887510901</v>
+        <v>36.779864309859292</v>
       </c>
       <c r="CN138" s="14">
-        <v>26.848770495596657</v>
+        <v>26.854229747119174</v>
       </c>
       <c r="CO138" s="14">
-        <v>31.870713496966204</v>
+        <v>32.286176254931185</v>
       </c>
       <c r="CP138" s="9"/>
       <c r="CQ138" s="9"/>
@@ -40912,19 +40911,19 @@
         <v>14.024459337453186</v>
       </c>
       <c r="CK139" s="14">
-        <v>15.404834409993487</v>
+        <v>14.750682534200942</v>
       </c>
       <c r="CL139" s="14">
-        <v>12.504480396615881</v>
+        <v>12.49107987753553</v>
       </c>
       <c r="CM139" s="14">
-        <v>11.618074964998906</v>
+        <v>11.619236394524371</v>
       </c>
       <c r="CN139" s="14">
-        <v>13.247530060487311</v>
+        <v>13.243334269575961</v>
       </c>
       <c r="CO139" s="14">
-        <v>14.85387722014964</v>
+        <v>14.35850949680133</v>
       </c>
       <c r="CP139" s="9"/>
       <c r="CQ139" s="9"/>
@@ -41254,19 +41253,19 @@
         <v>4.8585856250387964</v>
       </c>
       <c r="CK140" s="14">
-        <v>5.4346670118975702</v>
+        <v>5.4216518508547624</v>
       </c>
       <c r="CL140" s="14">
-        <v>4.8055603917328362</v>
+        <v>4.7431147788955004</v>
       </c>
       <c r="CM140" s="14">
-        <v>5.2745502255812813</v>
+        <v>5.2650807623085303</v>
       </c>
       <c r="CN140" s="14">
-        <v>4.6962962086897253</v>
+        <v>4.7055672213993818</v>
       </c>
       <c r="CO140" s="14">
-        <v>5.0694173408737626</v>
+        <v>5.2924438305034451</v>
       </c>
       <c r="CP140" s="9"/>
       <c r="CQ140" s="9"/>
@@ -41963,11 +41962,6 @@
     <mergeCell ref="AL134:AO134"/>
     <mergeCell ref="V92:Y92"/>
     <mergeCell ref="Z92:AC92"/>
-    <mergeCell ref="BJ72:BM72"/>
-    <mergeCell ref="BN72:BQ72"/>
-    <mergeCell ref="BR92:BU92"/>
-    <mergeCell ref="BV92:BY92"/>
-    <mergeCell ref="BR51:BU51"/>
     <mergeCell ref="AP113:AS113"/>
     <mergeCell ref="AT113:AW113"/>
     <mergeCell ref="AX113:BA113"/>
@@ -41984,7 +41978,6 @@
     <mergeCell ref="BF92:BI92"/>
     <mergeCell ref="BF72:BI72"/>
     <mergeCell ref="BF51:BI51"/>
-    <mergeCell ref="BV51:BY51"/>
     <mergeCell ref="BV134:BY134"/>
     <mergeCell ref="BZ134:CC134"/>
     <mergeCell ref="BR113:BU113"/>
@@ -42020,8 +42013,6 @@
     <mergeCell ref="AT30:AW30"/>
     <mergeCell ref="AX30:BA30"/>
     <mergeCell ref="BB30:BE30"/>
-    <mergeCell ref="BB9:BE9"/>
-    <mergeCell ref="AL9:AO9"/>
     <mergeCell ref="BB51:BE51"/>
     <mergeCell ref="B51:E51"/>
     <mergeCell ref="V9:Y9"/>
@@ -42034,17 +42025,6 @@
     <mergeCell ref="V51:Y51"/>
     <mergeCell ref="Z51:AC51"/>
     <mergeCell ref="AD51:AG51"/>
-    <mergeCell ref="BJ9:BM9"/>
-    <mergeCell ref="BN9:BQ9"/>
-    <mergeCell ref="B30:E30"/>
-    <mergeCell ref="F30:I30"/>
-    <mergeCell ref="J30:M30"/>
-    <mergeCell ref="N30:Q30"/>
-    <mergeCell ref="R30:U30"/>
-    <mergeCell ref="V30:Y30"/>
-    <mergeCell ref="Z30:AC30"/>
-    <mergeCell ref="AD30:AG30"/>
-    <mergeCell ref="AH30:AK30"/>
     <mergeCell ref="AL30:AO30"/>
     <mergeCell ref="BF9:BI9"/>
     <mergeCell ref="B9:E9"/>
@@ -42058,10 +42038,17 @@
     <mergeCell ref="AP9:AS9"/>
     <mergeCell ref="AT9:AW9"/>
     <mergeCell ref="AX9:BA9"/>
-    <mergeCell ref="BR72:BU72"/>
-    <mergeCell ref="BV72:BY72"/>
-    <mergeCell ref="CD113:CG113"/>
-    <mergeCell ref="CD92:CG92"/>
+    <mergeCell ref="BB9:BE9"/>
+    <mergeCell ref="AL9:AO9"/>
+    <mergeCell ref="B30:E30"/>
+    <mergeCell ref="F30:I30"/>
+    <mergeCell ref="J30:M30"/>
+    <mergeCell ref="N30:Q30"/>
+    <mergeCell ref="R30:U30"/>
+    <mergeCell ref="V30:Y30"/>
+    <mergeCell ref="Z30:AC30"/>
+    <mergeCell ref="AD30:AG30"/>
+    <mergeCell ref="AH30:AK30"/>
     <mergeCell ref="BR9:BU9"/>
     <mergeCell ref="BV9:BY9"/>
     <mergeCell ref="BR30:BU30"/>
@@ -42070,13 +42057,21 @@
     <mergeCell ref="CD72:CG72"/>
     <mergeCell ref="CH92:CK92"/>
     <mergeCell ref="CH113:CK113"/>
+    <mergeCell ref="BJ9:BM9"/>
+    <mergeCell ref="BN9:BQ9"/>
+    <mergeCell ref="BJ72:BM72"/>
+    <mergeCell ref="BN72:BQ72"/>
+    <mergeCell ref="BR92:BU92"/>
+    <mergeCell ref="BV92:BY92"/>
+    <mergeCell ref="BR51:BU51"/>
+    <mergeCell ref="BV51:BY51"/>
+    <mergeCell ref="BR72:BU72"/>
+    <mergeCell ref="BV72:BY72"/>
     <mergeCell ref="CH134:CK134"/>
     <mergeCell ref="CD134:CG134"/>
     <mergeCell ref="BZ9:CC9"/>
     <mergeCell ref="CH9:CK9"/>
     <mergeCell ref="CH30:CK30"/>
-    <mergeCell ref="CL51:CM51"/>
-    <mergeCell ref="CL72:CM72"/>
     <mergeCell ref="BZ30:CC30"/>
     <mergeCell ref="CL9:CO9"/>
     <mergeCell ref="CL30:CO30"/>
@@ -42090,6 +42085,10 @@
     <mergeCell ref="BZ72:CC72"/>
     <mergeCell ref="CL113:CO113"/>
     <mergeCell ref="CL134:CO134"/>
+    <mergeCell ref="CD113:CG113"/>
+    <mergeCell ref="CD92:CG92"/>
+    <mergeCell ref="CL51:CO51"/>
+    <mergeCell ref="CL72:CO72"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.5" right="0.3" top="1" bottom="0.16700000000000001" header="0.5" footer="0.5"/>

--- a/Data/National Accounts/PSA-17FIA_2018PSNA_Qrt.xlsx
+++ b/Data/National Accounts/PSA-17FIA_2018PSNA_Qrt.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26327"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="I:\Other computers\My Laptop (1)\6. MAS_Series\2018-base\NAP\NAP detailed series as of April 2023\Qtr\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="K:\Other computers\My Laptop (1)\6. MAS_Series\2018-base\NAP\NAP detailed series as of May 2023\Qtr\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F2FB3548-20CB-4082-8B6F-89241C121E01}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E2C0920-FA41-4B39-BE5B-97CE6EE0A607}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -323,7 +323,7 @@
     <definedName name="pet">#REF!</definedName>
     <definedName name="plastic">#REF!</definedName>
     <definedName name="ply">#REF!</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">FIA!$A$1:$CO$146</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">FIA!$A$1:$CP$146</definedName>
     <definedName name="_xlnm.Print_Area">#REF!</definedName>
     <definedName name="PRINT_AREA_MI">#REF!</definedName>
     <definedName name="Print_Titles_MI">'[9]CAP93+'!$A$1:$IV$1,'[9]CAP93+'!$A$1:$A$65536</definedName>
@@ -468,7 +468,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="770" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="779" uniqueCount="54">
   <si>
     <t>Source: Philippine Statistics Authority</t>
   </si>
@@ -621,13 +621,16 @@
     <t>2021 - 2022</t>
   </si>
   <si>
-    <t>Q1 2000 to Q4 2022</t>
+    <t>2022 - 2023</t>
   </si>
   <si>
-    <t>Q1 2001 to Q4 2022</t>
+    <t>As of May 2023</t>
   </si>
   <si>
-    <t>As of April 2023</t>
+    <t>Q1 2000 to Q1 2023</t>
+  </si>
+  <si>
+    <t>Q1 2001 to Q1 2023</t>
   </si>
 </sst>
 </file>
@@ -714,7 +717,7 @@
     <xf numFmtId="164" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -738,6 +741,9 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="165" fontId="5" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -23595,14 +23601,14 @@
   <sheetViews>
     <sheetView tabSelected="1" defaultGridColor="0" view="pageBreakPreview" colorId="22" zoomScale="70" zoomScaleNormal="100" zoomScaleSheetLayoutView="70" workbookViewId="0">
       <pane xSplit="1" topLeftCell="BR1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="CD1" sqref="CD1:CO1048576"/>
+      <selection pane="topRight" activeCell="CD1" sqref="CD1:CP1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="7.77734375" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="38.33203125" style="1" customWidth="1"/>
-    <col min="2" max="93" width="8.88671875" style="1" customWidth="1"/>
-    <col min="94" max="16384" width="7.77734375" style="1"/>
+    <col min="2" max="94" width="8.88671875" style="1" customWidth="1"/>
+    <col min="95" max="16384" width="7.77734375" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:154" x14ac:dyDescent="0.2">
@@ -23617,7 +23623,7 @@
     </row>
     <row r="3" spans="1:154" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="5" spans="1:154" x14ac:dyDescent="0.2">
@@ -23627,7 +23633,7 @@
     </row>
     <row r="6" spans="1:154" x14ac:dyDescent="0.2">
       <c r="A6" s="3" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
     </row>
     <row r="7" spans="1:154" x14ac:dyDescent="0.2">
@@ -23637,144 +23643,147 @@
     </row>
     <row r="9" spans="1:154" x14ac:dyDescent="0.2">
       <c r="A9" s="4"/>
-      <c r="B9" s="15">
+      <c r="B9" s="16">
         <v>2000</v>
       </c>
-      <c r="C9" s="15"/>
-      <c r="D9" s="15"/>
-      <c r="E9" s="15"/>
-      <c r="F9" s="15">
+      <c r="C9" s="16"/>
+      <c r="D9" s="16"/>
+      <c r="E9" s="16"/>
+      <c r="F9" s="16">
         <v>2001</v>
       </c>
-      <c r="G9" s="15"/>
-      <c r="H9" s="15"/>
-      <c r="I9" s="15"/>
-      <c r="J9" s="15">
+      <c r="G9" s="16"/>
+      <c r="H9" s="16"/>
+      <c r="I9" s="16"/>
+      <c r="J9" s="16">
         <v>2002</v>
       </c>
-      <c r="K9" s="15"/>
-      <c r="L9" s="15"/>
-      <c r="M9" s="15"/>
-      <c r="N9" s="15">
+      <c r="K9" s="16"/>
+      <c r="L9" s="16"/>
+      <c r="M9" s="16"/>
+      <c r="N9" s="16">
         <v>2003</v>
       </c>
-      <c r="O9" s="15"/>
-      <c r="P9" s="15"/>
-      <c r="Q9" s="15"/>
-      <c r="R9" s="15">
+      <c r="O9" s="16"/>
+      <c r="P9" s="16"/>
+      <c r="Q9" s="16"/>
+      <c r="R9" s="16">
         <v>2004</v>
       </c>
-      <c r="S9" s="15"/>
-      <c r="T9" s="15"/>
-      <c r="U9" s="15"/>
-      <c r="V9" s="15">
+      <c r="S9" s="16"/>
+      <c r="T9" s="16"/>
+      <c r="U9" s="16"/>
+      <c r="V9" s="16">
         <v>2005</v>
       </c>
-      <c r="W9" s="15"/>
-      <c r="X9" s="15"/>
-      <c r="Y9" s="15"/>
-      <c r="Z9" s="15">
+      <c r="W9" s="16"/>
+      <c r="X9" s="16"/>
+      <c r="Y9" s="16"/>
+      <c r="Z9" s="16">
         <v>2006</v>
       </c>
-      <c r="AA9" s="15"/>
-      <c r="AB9" s="15"/>
-      <c r="AC9" s="15"/>
-      <c r="AD9" s="15">
+      <c r="AA9" s="16"/>
+      <c r="AB9" s="16"/>
+      <c r="AC9" s="16"/>
+      <c r="AD9" s="16">
         <v>2007</v>
       </c>
-      <c r="AE9" s="15"/>
-      <c r="AF9" s="15"/>
-      <c r="AG9" s="15"/>
-      <c r="AH9" s="15">
+      <c r="AE9" s="16"/>
+      <c r="AF9" s="16"/>
+      <c r="AG9" s="16"/>
+      <c r="AH9" s="16">
         <v>2008</v>
       </c>
-      <c r="AI9" s="15"/>
-      <c r="AJ9" s="15"/>
-      <c r="AK9" s="15"/>
-      <c r="AL9" s="15">
+      <c r="AI9" s="16"/>
+      <c r="AJ9" s="16"/>
+      <c r="AK9" s="16"/>
+      <c r="AL9" s="16">
         <v>2009</v>
       </c>
-      <c r="AM9" s="15"/>
-      <c r="AN9" s="15"/>
-      <c r="AO9" s="15"/>
-      <c r="AP9" s="15">
+      <c r="AM9" s="16"/>
+      <c r="AN9" s="16"/>
+      <c r="AO9" s="16"/>
+      <c r="AP9" s="16">
         <v>2010</v>
       </c>
-      <c r="AQ9" s="15"/>
-      <c r="AR9" s="15"/>
-      <c r="AS9" s="15"/>
-      <c r="AT9" s="15">
+      <c r="AQ9" s="16"/>
+      <c r="AR9" s="16"/>
+      <c r="AS9" s="16"/>
+      <c r="AT9" s="16">
         <v>2011</v>
       </c>
-      <c r="AU9" s="15"/>
-      <c r="AV9" s="15"/>
-      <c r="AW9" s="15"/>
-      <c r="AX9" s="15">
+      <c r="AU9" s="16"/>
+      <c r="AV9" s="16"/>
+      <c r="AW9" s="16"/>
+      <c r="AX9" s="16">
         <v>2012</v>
       </c>
-      <c r="AY9" s="15"/>
-      <c r="AZ9" s="15"/>
-      <c r="BA9" s="15"/>
-      <c r="BB9" s="15">
+      <c r="AY9" s="16"/>
+      <c r="AZ9" s="16"/>
+      <c r="BA9" s="16"/>
+      <c r="BB9" s="16">
         <v>2013</v>
       </c>
-      <c r="BC9" s="15"/>
-      <c r="BD9" s="15"/>
-      <c r="BE9" s="15"/>
-      <c r="BF9" s="15">
+      <c r="BC9" s="16"/>
+      <c r="BD9" s="16"/>
+      <c r="BE9" s="16"/>
+      <c r="BF9" s="16">
         <v>2014</v>
       </c>
-      <c r="BG9" s="15"/>
-      <c r="BH9" s="15"/>
-      <c r="BI9" s="15"/>
-      <c r="BJ9" s="15">
+      <c r="BG9" s="16"/>
+      <c r="BH9" s="16"/>
+      <c r="BI9" s="16"/>
+      <c r="BJ9" s="16">
         <v>2015</v>
       </c>
-      <c r="BK9" s="15"/>
-      <c r="BL9" s="15"/>
-      <c r="BM9" s="15"/>
-      <c r="BN9" s="15">
+      <c r="BK9" s="16"/>
+      <c r="BL9" s="16"/>
+      <c r="BM9" s="16"/>
+      <c r="BN9" s="16">
         <v>2016</v>
       </c>
-      <c r="BO9" s="15"/>
-      <c r="BP9" s="15"/>
-      <c r="BQ9" s="15"/>
-      <c r="BR9" s="15">
+      <c r="BO9" s="16"/>
+      <c r="BP9" s="16"/>
+      <c r="BQ9" s="16"/>
+      <c r="BR9" s="16">
         <v>2017</v>
       </c>
-      <c r="BS9" s="15"/>
-      <c r="BT9" s="15"/>
-      <c r="BU9" s="15"/>
-      <c r="BV9" s="15">
+      <c r="BS9" s="16"/>
+      <c r="BT9" s="16"/>
+      <c r="BU9" s="16"/>
+      <c r="BV9" s="16">
         <v>2018</v>
       </c>
-      <c r="BW9" s="15"/>
-      <c r="BX9" s="15"/>
-      <c r="BY9" s="15"/>
-      <c r="BZ9" s="15">
+      <c r="BW9" s="16"/>
+      <c r="BX9" s="16"/>
+      <c r="BY9" s="16"/>
+      <c r="BZ9" s="16">
         <v>2019</v>
       </c>
-      <c r="CA9" s="15"/>
-      <c r="CB9" s="15"/>
-      <c r="CC9" s="15"/>
-      <c r="CD9" s="15">
+      <c r="CA9" s="16"/>
+      <c r="CB9" s="16"/>
+      <c r="CC9" s="16"/>
+      <c r="CD9" s="16">
         <v>2020</v>
       </c>
-      <c r="CE9" s="15"/>
-      <c r="CF9" s="15"/>
-      <c r="CG9" s="15"/>
-      <c r="CH9" s="15">
+      <c r="CE9" s="16"/>
+      <c r="CF9" s="16"/>
+      <c r="CG9" s="16"/>
+      <c r="CH9" s="16">
         <v>2021</v>
       </c>
-      <c r="CI9" s="15"/>
-      <c r="CJ9" s="15"/>
-      <c r="CK9" s="15"/>
-      <c r="CL9" s="15">
+      <c r="CI9" s="16"/>
+      <c r="CJ9" s="16"/>
+      <c r="CK9" s="16"/>
+      <c r="CL9" s="16">
         <v>2022</v>
       </c>
-      <c r="CM9" s="15"/>
-      <c r="CN9" s="15"/>
-      <c r="CO9" s="15"/>
+      <c r="CM9" s="16"/>
+      <c r="CN9" s="16"/>
+      <c r="CO9" s="16"/>
+      <c r="CP9" s="15">
+        <v>2023</v>
+      </c>
     </row>
     <row r="10" spans="1:154" x14ac:dyDescent="0.2">
       <c r="A10" s="5" t="s">
@@ -24055,6 +24064,9 @@
       </c>
       <c r="CO10" s="6" t="s">
         <v>9</v>
+      </c>
+      <c r="CP10" s="6" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="11" spans="1:154" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
@@ -24340,7 +24352,9 @@
       <c r="CO12" s="8">
         <v>275563.92828726908</v>
       </c>
-      <c r="CP12" s="9"/>
+      <c r="CP12" s="8">
+        <v>388898.81636724994</v>
+      </c>
       <c r="CQ12" s="9"/>
       <c r="CR12" s="9"/>
       <c r="CS12" s="9"/>
@@ -24682,7 +24696,9 @@
       <c r="CO13" s="8">
         <v>183867.53375969623</v>
       </c>
-      <c r="CP13" s="9"/>
+      <c r="CP13" s="8">
+        <v>156934.29926669598</v>
+      </c>
       <c r="CQ13" s="9"/>
       <c r="CR13" s="9"/>
       <c r="CS13" s="9"/>
@@ -25024,7 +25040,9 @@
       <c r="CO14" s="8">
         <v>80551.445428125138</v>
       </c>
-      <c r="CP14" s="9"/>
+      <c r="CP14" s="8">
+        <v>73804.922139632661</v>
+      </c>
       <c r="CQ14" s="9"/>
       <c r="CR14" s="9"/>
       <c r="CS14" s="9"/>
@@ -25366,7 +25384,9 @@
       <c r="CO15" s="8">
         <v>30226.36476476954</v>
       </c>
-      <c r="CP15" s="9"/>
+      <c r="CP15" s="8">
+        <v>29276.456714841726</v>
+      </c>
       <c r="CQ15" s="9"/>
       <c r="CR15" s="9"/>
       <c r="CS15" s="9"/>
@@ -25863,7 +25883,9 @@
       <c r="CO17" s="11">
         <v>570209.27223986003</v>
       </c>
-      <c r="CP17" s="9"/>
+      <c r="CP17" s="11">
+        <v>648914.49448842031</v>
+      </c>
       <c r="CQ17" s="9"/>
       <c r="CR17" s="9"/>
       <c r="CS17" s="9"/>
@@ -26019,6 +26041,7 @@
       <c r="CM18" s="12"/>
       <c r="CN18" s="12"/>
       <c r="CO18" s="12"/>
+      <c r="CP18" s="12"/>
     </row>
     <row r="19" spans="1:154" x14ac:dyDescent="0.2">
       <c r="A19" s="13" t="s">
@@ -26347,7 +26370,7 @@
     </row>
     <row r="24" spans="1:154" x14ac:dyDescent="0.2">
       <c r="A24" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="26" spans="1:154" x14ac:dyDescent="0.2">
@@ -26357,7 +26380,7 @@
     </row>
     <row r="27" spans="1:154" x14ac:dyDescent="0.2">
       <c r="A27" s="1" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
     </row>
     <row r="28" spans="1:154" x14ac:dyDescent="0.2">
@@ -26367,144 +26390,147 @@
     </row>
     <row r="30" spans="1:154" x14ac:dyDescent="0.2">
       <c r="A30" s="4"/>
-      <c r="B30" s="15">
+      <c r="B30" s="16">
         <v>2000</v>
       </c>
-      <c r="C30" s="16"/>
-      <c r="D30" s="16"/>
-      <c r="E30" s="16"/>
-      <c r="F30" s="15">
+      <c r="C30" s="17"/>
+      <c r="D30" s="17"/>
+      <c r="E30" s="17"/>
+      <c r="F30" s="16">
         <v>2001</v>
       </c>
-      <c r="G30" s="16"/>
-      <c r="H30" s="16"/>
-      <c r="I30" s="16"/>
-      <c r="J30" s="15">
+      <c r="G30" s="17"/>
+      <c r="H30" s="17"/>
+      <c r="I30" s="17"/>
+      <c r="J30" s="16">
         <v>2002</v>
       </c>
-      <c r="K30" s="16"/>
-      <c r="L30" s="16"/>
-      <c r="M30" s="16"/>
-      <c r="N30" s="15">
+      <c r="K30" s="17"/>
+      <c r="L30" s="17"/>
+      <c r="M30" s="17"/>
+      <c r="N30" s="16">
         <v>2003</v>
       </c>
-      <c r="O30" s="16"/>
-      <c r="P30" s="16"/>
-      <c r="Q30" s="16"/>
-      <c r="R30" s="15">
+      <c r="O30" s="17"/>
+      <c r="P30" s="17"/>
+      <c r="Q30" s="17"/>
+      <c r="R30" s="16">
         <v>2004</v>
       </c>
-      <c r="S30" s="16"/>
-      <c r="T30" s="16"/>
-      <c r="U30" s="16"/>
-      <c r="V30" s="15">
+      <c r="S30" s="17"/>
+      <c r="T30" s="17"/>
+      <c r="U30" s="17"/>
+      <c r="V30" s="16">
         <v>2005</v>
       </c>
-      <c r="W30" s="16"/>
-      <c r="X30" s="16"/>
-      <c r="Y30" s="16"/>
-      <c r="Z30" s="15">
+      <c r="W30" s="17"/>
+      <c r="X30" s="17"/>
+      <c r="Y30" s="17"/>
+      <c r="Z30" s="16">
         <v>2006</v>
       </c>
-      <c r="AA30" s="16"/>
-      <c r="AB30" s="16"/>
-      <c r="AC30" s="16"/>
-      <c r="AD30" s="15">
+      <c r="AA30" s="17"/>
+      <c r="AB30" s="17"/>
+      <c r="AC30" s="17"/>
+      <c r="AD30" s="16">
         <v>2007</v>
       </c>
-      <c r="AE30" s="16"/>
-      <c r="AF30" s="16"/>
-      <c r="AG30" s="16"/>
-      <c r="AH30" s="15">
+      <c r="AE30" s="17"/>
+      <c r="AF30" s="17"/>
+      <c r="AG30" s="17"/>
+      <c r="AH30" s="16">
         <v>2008</v>
       </c>
-      <c r="AI30" s="16"/>
-      <c r="AJ30" s="16"/>
-      <c r="AK30" s="16"/>
-      <c r="AL30" s="15">
+      <c r="AI30" s="17"/>
+      <c r="AJ30" s="17"/>
+      <c r="AK30" s="17"/>
+      <c r="AL30" s="16">
         <v>2009</v>
       </c>
-      <c r="AM30" s="16"/>
-      <c r="AN30" s="16"/>
-      <c r="AO30" s="16"/>
-      <c r="AP30" s="15">
+      <c r="AM30" s="17"/>
+      <c r="AN30" s="17"/>
+      <c r="AO30" s="17"/>
+      <c r="AP30" s="16">
         <v>2010</v>
       </c>
-      <c r="AQ30" s="16"/>
-      <c r="AR30" s="16"/>
-      <c r="AS30" s="16"/>
-      <c r="AT30" s="15">
+      <c r="AQ30" s="17"/>
+      <c r="AR30" s="17"/>
+      <c r="AS30" s="17"/>
+      <c r="AT30" s="16">
         <v>2011</v>
       </c>
-      <c r="AU30" s="16"/>
-      <c r="AV30" s="16"/>
-      <c r="AW30" s="16"/>
-      <c r="AX30" s="15">
+      <c r="AU30" s="17"/>
+      <c r="AV30" s="17"/>
+      <c r="AW30" s="17"/>
+      <c r="AX30" s="16">
         <v>2012</v>
       </c>
-      <c r="AY30" s="16"/>
-      <c r="AZ30" s="16"/>
-      <c r="BA30" s="16"/>
-      <c r="BB30" s="15">
+      <c r="AY30" s="17"/>
+      <c r="AZ30" s="17"/>
+      <c r="BA30" s="17"/>
+      <c r="BB30" s="16">
         <v>2013</v>
       </c>
-      <c r="BC30" s="16"/>
-      <c r="BD30" s="16"/>
-      <c r="BE30" s="16"/>
-      <c r="BF30" s="15">
+      <c r="BC30" s="17"/>
+      <c r="BD30" s="17"/>
+      <c r="BE30" s="17"/>
+      <c r="BF30" s="16">
         <v>2014</v>
       </c>
-      <c r="BG30" s="16"/>
-      <c r="BH30" s="16"/>
-      <c r="BI30" s="16"/>
-      <c r="BJ30" s="15">
+      <c r="BG30" s="17"/>
+      <c r="BH30" s="17"/>
+      <c r="BI30" s="17"/>
+      <c r="BJ30" s="16">
         <v>2015</v>
       </c>
-      <c r="BK30" s="16"/>
-      <c r="BL30" s="16"/>
-      <c r="BM30" s="16"/>
-      <c r="BN30" s="15">
+      <c r="BK30" s="17"/>
+      <c r="BL30" s="17"/>
+      <c r="BM30" s="17"/>
+      <c r="BN30" s="16">
         <v>2016</v>
       </c>
-      <c r="BO30" s="16"/>
-      <c r="BP30" s="16"/>
-      <c r="BQ30" s="16"/>
-      <c r="BR30" s="15">
+      <c r="BO30" s="17"/>
+      <c r="BP30" s="17"/>
+      <c r="BQ30" s="17"/>
+      <c r="BR30" s="16">
         <v>2017</v>
       </c>
-      <c r="BS30" s="16"/>
-      <c r="BT30" s="16"/>
-      <c r="BU30" s="16"/>
-      <c r="BV30" s="15">
+      <c r="BS30" s="17"/>
+      <c r="BT30" s="17"/>
+      <c r="BU30" s="17"/>
+      <c r="BV30" s="16">
         <v>2018</v>
       </c>
-      <c r="BW30" s="16"/>
-      <c r="BX30" s="16"/>
-      <c r="BY30" s="16"/>
-      <c r="BZ30" s="15">
+      <c r="BW30" s="17"/>
+      <c r="BX30" s="17"/>
+      <c r="BY30" s="17"/>
+      <c r="BZ30" s="16">
         <v>2019</v>
       </c>
-      <c r="CA30" s="16"/>
-      <c r="CB30" s="16"/>
-      <c r="CC30" s="16"/>
-      <c r="CD30" s="15">
+      <c r="CA30" s="17"/>
+      <c r="CB30" s="17"/>
+      <c r="CC30" s="17"/>
+      <c r="CD30" s="16">
         <v>2020</v>
       </c>
       <c r="CE30" s="16"/>
       <c r="CF30" s="16"/>
       <c r="CG30" s="16"/>
-      <c r="CH30" s="15">
+      <c r="CH30" s="16">
         <v>2021</v>
       </c>
       <c r="CI30" s="16"/>
       <c r="CJ30" s="16"/>
       <c r="CK30" s="16"/>
-      <c r="CL30" s="15">
+      <c r="CL30" s="16">
         <v>2022</v>
       </c>
       <c r="CM30" s="16"/>
       <c r="CN30" s="16"/>
       <c r="CO30" s="16"/>
+      <c r="CP30" s="15">
+        <v>2023</v>
+      </c>
     </row>
     <row r="31" spans="1:154" x14ac:dyDescent="0.2">
       <c r="A31" s="5" t="s">
@@ -26785,6 +26811,9 @@
       </c>
       <c r="CO31" s="6" t="s">
         <v>9</v>
+      </c>
+      <c r="CP31" s="6" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="32" spans="1:154" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
@@ -27070,7 +27099,9 @@
       <c r="CO33" s="8">
         <v>239988.59867347119</v>
       </c>
-      <c r="CP33" s="9"/>
+      <c r="CP33" s="8">
+        <v>326625.69214489253</v>
+      </c>
       <c r="CQ33" s="9"/>
       <c r="CR33" s="9"/>
       <c r="CS33" s="9"/>
@@ -27412,7 +27443,9 @@
       <c r="CO34" s="8">
         <v>161212.05680387036</v>
       </c>
-      <c r="CP34" s="9"/>
+      <c r="CP34" s="8">
+        <v>132868.37427377189</v>
+      </c>
       <c r="CQ34" s="9"/>
       <c r="CR34" s="9"/>
       <c r="CS34" s="9"/>
@@ -27754,7 +27787,9 @@
       <c r="CO35" s="8">
         <v>71695.230501744707</v>
       </c>
-      <c r="CP35" s="9"/>
+      <c r="CP35" s="8">
+        <v>61078.422771265992</v>
+      </c>
       <c r="CQ35" s="9"/>
       <c r="CR35" s="9"/>
       <c r="CS35" s="9"/>
@@ -28096,7 +28131,9 @@
       <c r="CO36" s="8">
         <v>26426.348809394898</v>
       </c>
-      <c r="CP36" s="9"/>
+      <c r="CP36" s="8">
+        <v>24561.637956390652</v>
+      </c>
       <c r="CQ36" s="9"/>
       <c r="CR36" s="9"/>
       <c r="CS36" s="9"/>
@@ -28593,7 +28630,9 @@
       <c r="CO38" s="11">
         <v>499322.23478848115</v>
       </c>
-      <c r="CP38" s="9"/>
+      <c r="CP38" s="11">
+        <v>545134.127146321</v>
+      </c>
       <c r="CQ38" s="9"/>
       <c r="CR38" s="9"/>
       <c r="CS38" s="9"/>
@@ -28749,6 +28788,7 @@
       <c r="CM39" s="12"/>
       <c r="CN39" s="12"/>
       <c r="CO39" s="12"/>
+      <c r="CP39" s="12"/>
     </row>
     <row r="40" spans="1:154" x14ac:dyDescent="0.2">
       <c r="A40" s="13" t="s">
@@ -29077,7 +29117,7 @@
     </row>
     <row r="45" spans="1:154" x14ac:dyDescent="0.2">
       <c r="A45" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="47" spans="1:154" x14ac:dyDescent="0.2">
@@ -29087,7 +29127,7 @@
     </row>
     <row r="48" spans="1:154" x14ac:dyDescent="0.2">
       <c r="A48" s="3" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
     </row>
     <row r="49" spans="1:150" x14ac:dyDescent="0.2">
@@ -29097,142 +29137,145 @@
     </row>
     <row r="51" spans="1:150" x14ac:dyDescent="0.2">
       <c r="A51" s="4"/>
-      <c r="B51" s="15" t="s">
+      <c r="B51" s="16" t="s">
         <v>31</v>
       </c>
-      <c r="C51" s="15"/>
-      <c r="D51" s="15"/>
-      <c r="E51" s="15"/>
-      <c r="F51" s="15" t="s">
+      <c r="C51" s="16"/>
+      <c r="D51" s="16"/>
+      <c r="E51" s="16"/>
+      <c r="F51" s="16" t="s">
         <v>32</v>
       </c>
-      <c r="G51" s="15"/>
-      <c r="H51" s="15"/>
-      <c r="I51" s="15"/>
-      <c r="J51" s="15" t="s">
+      <c r="G51" s="16"/>
+      <c r="H51" s="16"/>
+      <c r="I51" s="16"/>
+      <c r="J51" s="16" t="s">
         <v>33</v>
       </c>
-      <c r="K51" s="15"/>
-      <c r="L51" s="15"/>
-      <c r="M51" s="15"/>
-      <c r="N51" s="15" t="s">
+      <c r="K51" s="16"/>
+      <c r="L51" s="16"/>
+      <c r="M51" s="16"/>
+      <c r="N51" s="16" t="s">
         <v>34</v>
       </c>
-      <c r="O51" s="15"/>
-      <c r="P51" s="15"/>
-      <c r="Q51" s="15"/>
-      <c r="R51" s="15" t="s">
+      <c r="O51" s="16"/>
+      <c r="P51" s="16"/>
+      <c r="Q51" s="16"/>
+      <c r="R51" s="16" t="s">
         <v>35</v>
       </c>
-      <c r="S51" s="15"/>
-      <c r="T51" s="15"/>
-      <c r="U51" s="15"/>
-      <c r="V51" s="15" t="s">
+      <c r="S51" s="16"/>
+      <c r="T51" s="16"/>
+      <c r="U51" s="16"/>
+      <c r="V51" s="16" t="s">
         <v>36</v>
       </c>
-      <c r="W51" s="15"/>
-      <c r="X51" s="15"/>
-      <c r="Y51" s="15"/>
-      <c r="Z51" s="15" t="s">
+      <c r="W51" s="16"/>
+      <c r="X51" s="16"/>
+      <c r="Y51" s="16"/>
+      <c r="Z51" s="16" t="s">
         <v>37</v>
       </c>
-      <c r="AA51" s="15"/>
-      <c r="AB51" s="15"/>
-      <c r="AC51" s="15"/>
-      <c r="AD51" s="15" t="s">
+      <c r="AA51" s="16"/>
+      <c r="AB51" s="16"/>
+      <c r="AC51" s="16"/>
+      <c r="AD51" s="16" t="s">
         <v>38</v>
       </c>
-      <c r="AE51" s="15"/>
-      <c r="AF51" s="15"/>
-      <c r="AG51" s="15"/>
-      <c r="AH51" s="15" t="s">
+      <c r="AE51" s="16"/>
+      <c r="AF51" s="16"/>
+      <c r="AG51" s="16"/>
+      <c r="AH51" s="16" t="s">
         <v>39</v>
       </c>
-      <c r="AI51" s="15"/>
-      <c r="AJ51" s="15"/>
-      <c r="AK51" s="15"/>
-      <c r="AL51" s="15" t="s">
+      <c r="AI51" s="16"/>
+      <c r="AJ51" s="16"/>
+      <c r="AK51" s="16"/>
+      <c r="AL51" s="16" t="s">
         <v>40</v>
       </c>
-      <c r="AM51" s="15"/>
-      <c r="AN51" s="15"/>
-      <c r="AO51" s="15"/>
-      <c r="AP51" s="15" t="s">
+      <c r="AM51" s="16"/>
+      <c r="AN51" s="16"/>
+      <c r="AO51" s="16"/>
+      <c r="AP51" s="16" t="s">
         <v>41</v>
       </c>
-      <c r="AQ51" s="15"/>
-      <c r="AR51" s="15"/>
-      <c r="AS51" s="15"/>
-      <c r="AT51" s="15" t="s">
+      <c r="AQ51" s="16"/>
+      <c r="AR51" s="16"/>
+      <c r="AS51" s="16"/>
+      <c r="AT51" s="16" t="s">
         <v>42</v>
       </c>
-      <c r="AU51" s="15"/>
-      <c r="AV51" s="15"/>
-      <c r="AW51" s="15"/>
-      <c r="AX51" s="15" t="s">
+      <c r="AU51" s="16"/>
+      <c r="AV51" s="16"/>
+      <c r="AW51" s="16"/>
+      <c r="AX51" s="16" t="s">
         <v>43</v>
       </c>
-      <c r="AY51" s="15"/>
-      <c r="AZ51" s="15"/>
-      <c r="BA51" s="15"/>
-      <c r="BB51" s="15" t="s">
+      <c r="AY51" s="16"/>
+      <c r="AZ51" s="16"/>
+      <c r="BA51" s="16"/>
+      <c r="BB51" s="16" t="s">
         <v>44</v>
       </c>
-      <c r="BC51" s="15"/>
-      <c r="BD51" s="15"/>
-      <c r="BE51" s="15"/>
-      <c r="BF51" s="15" t="s">
+      <c r="BC51" s="16"/>
+      <c r="BD51" s="16"/>
+      <c r="BE51" s="16"/>
+      <c r="BF51" s="16" t="s">
         <v>45</v>
       </c>
-      <c r="BG51" s="15"/>
-      <c r="BH51" s="15"/>
-      <c r="BI51" s="15"/>
-      <c r="BJ51" s="15" t="s">
+      <c r="BG51" s="16"/>
+      <c r="BH51" s="16"/>
+      <c r="BI51" s="16"/>
+      <c r="BJ51" s="16" t="s">
         <v>46</v>
       </c>
-      <c r="BK51" s="15"/>
-      <c r="BL51" s="15"/>
-      <c r="BM51" s="15"/>
-      <c r="BN51" s="15" t="s">
+      <c r="BK51" s="16"/>
+      <c r="BL51" s="16"/>
+      <c r="BM51" s="16"/>
+      <c r="BN51" s="16" t="s">
         <v>47</v>
       </c>
-      <c r="BO51" s="15"/>
-      <c r="BP51" s="15"/>
-      <c r="BQ51" s="15"/>
-      <c r="BR51" s="15" t="s">
+      <c r="BO51" s="16"/>
+      <c r="BP51" s="16"/>
+      <c r="BQ51" s="16"/>
+      <c r="BR51" s="16" t="s">
         <v>27</v>
       </c>
-      <c r="BS51" s="15"/>
-      <c r="BT51" s="15"/>
-      <c r="BU51" s="15"/>
-      <c r="BV51" s="15" t="s">
+      <c r="BS51" s="16"/>
+      <c r="BT51" s="16"/>
+      <c r="BU51" s="16"/>
+      <c r="BV51" s="16" t="s">
         <v>28</v>
       </c>
-      <c r="BW51" s="15"/>
-      <c r="BX51" s="15"/>
-      <c r="BY51" s="15"/>
-      <c r="BZ51" s="15" t="s">
+      <c r="BW51" s="16"/>
+      <c r="BX51" s="16"/>
+      <c r="BY51" s="16"/>
+      <c r="BZ51" s="16" t="s">
         <v>29</v>
       </c>
-      <c r="CA51" s="15"/>
-      <c r="CB51" s="15"/>
-      <c r="CC51" s="15"/>
-      <c r="CD51" s="15" t="s">
+      <c r="CA51" s="16"/>
+      <c r="CB51" s="16"/>
+      <c r="CC51" s="16"/>
+      <c r="CD51" s="16" t="s">
         <v>48</v>
       </c>
-      <c r="CE51" s="15"/>
-      <c r="CF51" s="15"/>
-      <c r="CG51" s="15"/>
-      <c r="CH51" s="15" t="s">
+      <c r="CE51" s="16"/>
+      <c r="CF51" s="16"/>
+      <c r="CG51" s="16"/>
+      <c r="CH51" s="16" t="s">
         <v>49</v>
       </c>
-      <c r="CI51" s="15"/>
-      <c r="CJ51" s="15"/>
-      <c r="CK51" s="15"/>
-      <c r="CL51" s="15"/>
+      <c r="CI51" s="16"/>
+      <c r="CJ51" s="16"/>
+      <c r="CK51" s="16"/>
+      <c r="CL51" s="15" t="s">
+        <v>50</v>
+      </c>
       <c r="CM51" s="15"/>
       <c r="CN51" s="15"/>
       <c r="CO51" s="15"/>
+      <c r="CP51" s="15"/>
     </row>
     <row r="52" spans="1:150" x14ac:dyDescent="0.2">
       <c r="A52" s="5" t="s">
@@ -29502,10 +29545,13 @@
       <c r="CK52" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="CL52" s="5"/>
+      <c r="CL52" s="5" t="s">
+        <v>7</v>
+      </c>
       <c r="CM52" s="5"/>
       <c r="CN52" s="5"/>
       <c r="CO52" s="5"/>
+      <c r="CP52" s="5"/>
     </row>
     <row r="53" spans="1:150" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A53" s="7"/>
@@ -29778,11 +29824,13 @@
       <c r="CK54" s="14">
         <v>18.024110738216748</v>
       </c>
-      <c r="CL54" s="14"/>
+      <c r="CL54" s="14">
+        <v>22.0747302733147</v>
+      </c>
       <c r="CM54" s="14"/>
       <c r="CN54" s="14"/>
       <c r="CO54" s="14"/>
-      <c r="CP54" s="9"/>
+      <c r="CP54" s="14"/>
       <c r="CQ54" s="9"/>
       <c r="CR54" s="9"/>
       <c r="CS54" s="9"/>
@@ -30108,11 +30156,13 @@
       <c r="CK55" s="14">
         <v>18.006476206364624</v>
       </c>
-      <c r="CL55" s="14"/>
+      <c r="CL55" s="14">
+        <v>15.183484058523362</v>
+      </c>
       <c r="CM55" s="14"/>
       <c r="CN55" s="14"/>
       <c r="CO55" s="14"/>
-      <c r="CP55" s="9"/>
+      <c r="CP55" s="14"/>
       <c r="CQ55" s="9"/>
       <c r="CR55" s="9"/>
       <c r="CS55" s="9"/>
@@ -30438,11 +30488,13 @@
       <c r="CK56" s="14">
         <v>14.283569411064747</v>
       </c>
-      <c r="CL56" s="14"/>
+      <c r="CL56" s="14">
+        <v>4.8936335134968516</v>
+      </c>
       <c r="CM56" s="14"/>
       <c r="CN56" s="14"/>
       <c r="CO56" s="14"/>
-      <c r="CP56" s="9"/>
+      <c r="CP56" s="14"/>
       <c r="CQ56" s="9"/>
       <c r="CR56" s="9"/>
       <c r="CS56" s="9"/>
@@ -30768,11 +30820,13 @@
       <c r="CK57" s="14">
         <v>13.941271970433334</v>
       </c>
-      <c r="CL57" s="14"/>
+      <c r="CL57" s="14">
+        <v>10.107161913089826</v>
+      </c>
       <c r="CM57" s="14"/>
       <c r="CN57" s="14"/>
       <c r="CO57" s="14"/>
-      <c r="CP57" s="9"/>
+      <c r="CP57" s="14"/>
       <c r="CQ57" s="9"/>
       <c r="CR57" s="9"/>
       <c r="CS57" s="9"/>
@@ -31249,11 +31303,13 @@
       <c r="CK59" s="14">
         <v>17.253595232290024</v>
       </c>
-      <c r="CL59" s="14"/>
+      <c r="CL59" s="14">
+        <v>17.605476987260133</v>
+      </c>
       <c r="CM59" s="14"/>
       <c r="CN59" s="14"/>
       <c r="CO59" s="14"/>
-      <c r="CP59" s="9"/>
+      <c r="CP59" s="14"/>
       <c r="CQ59" s="9"/>
       <c r="CR59" s="9"/>
       <c r="CS59" s="9"/>
@@ -31405,6 +31461,7 @@
       <c r="CM60" s="12"/>
       <c r="CN60" s="12"/>
       <c r="CO60" s="12"/>
+      <c r="CP60" s="12"/>
     </row>
     <row r="61" spans="1:150" x14ac:dyDescent="0.2">
       <c r="A61" s="13" t="s">
@@ -31725,7 +31782,7 @@
     </row>
     <row r="66" spans="1:150" x14ac:dyDescent="0.2">
       <c r="A66" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="68" spans="1:150" x14ac:dyDescent="0.2">
@@ -31735,7 +31792,7 @@
     </row>
     <row r="69" spans="1:150" x14ac:dyDescent="0.2">
       <c r="A69" s="1" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
     </row>
     <row r="70" spans="1:150" x14ac:dyDescent="0.2">
@@ -31745,142 +31802,145 @@
     </row>
     <row r="72" spans="1:150" x14ac:dyDescent="0.2">
       <c r="A72" s="4"/>
-      <c r="B72" s="15" t="s">
+      <c r="B72" s="16" t="s">
         <v>31</v>
       </c>
-      <c r="C72" s="17"/>
-      <c r="D72" s="17"/>
-      <c r="E72" s="17"/>
-      <c r="F72" s="15" t="s">
+      <c r="C72" s="18"/>
+      <c r="D72" s="18"/>
+      <c r="E72" s="18"/>
+      <c r="F72" s="16" t="s">
         <v>32</v>
       </c>
-      <c r="G72" s="17"/>
-      <c r="H72" s="17"/>
-      <c r="I72" s="17"/>
-      <c r="J72" s="15" t="s">
+      <c r="G72" s="18"/>
+      <c r="H72" s="18"/>
+      <c r="I72" s="18"/>
+      <c r="J72" s="16" t="s">
         <v>33</v>
       </c>
-      <c r="K72" s="17"/>
-      <c r="L72" s="17"/>
-      <c r="M72" s="17"/>
-      <c r="N72" s="15" t="s">
+      <c r="K72" s="18"/>
+      <c r="L72" s="18"/>
+      <c r="M72" s="18"/>
+      <c r="N72" s="16" t="s">
         <v>34</v>
       </c>
-      <c r="O72" s="17"/>
-      <c r="P72" s="17"/>
-      <c r="Q72" s="17"/>
-      <c r="R72" s="15" t="s">
+      <c r="O72" s="18"/>
+      <c r="P72" s="18"/>
+      <c r="Q72" s="18"/>
+      <c r="R72" s="16" t="s">
         <v>35</v>
       </c>
-      <c r="S72" s="17"/>
-      <c r="T72" s="17"/>
-      <c r="U72" s="17"/>
-      <c r="V72" s="15" t="s">
+      <c r="S72" s="18"/>
+      <c r="T72" s="18"/>
+      <c r="U72" s="18"/>
+      <c r="V72" s="16" t="s">
         <v>36</v>
       </c>
-      <c r="W72" s="17"/>
-      <c r="X72" s="17"/>
-      <c r="Y72" s="17"/>
-      <c r="Z72" s="15" t="s">
+      <c r="W72" s="18"/>
+      <c r="X72" s="18"/>
+      <c r="Y72" s="18"/>
+      <c r="Z72" s="16" t="s">
         <v>37</v>
       </c>
-      <c r="AA72" s="17"/>
-      <c r="AB72" s="17"/>
-      <c r="AC72" s="17"/>
-      <c r="AD72" s="15" t="s">
+      <c r="AA72" s="18"/>
+      <c r="AB72" s="18"/>
+      <c r="AC72" s="18"/>
+      <c r="AD72" s="16" t="s">
         <v>38</v>
       </c>
-      <c r="AE72" s="17"/>
-      <c r="AF72" s="17"/>
-      <c r="AG72" s="17"/>
-      <c r="AH72" s="15" t="s">
+      <c r="AE72" s="18"/>
+      <c r="AF72" s="18"/>
+      <c r="AG72" s="18"/>
+      <c r="AH72" s="16" t="s">
         <v>39</v>
       </c>
-      <c r="AI72" s="17"/>
-      <c r="AJ72" s="17"/>
-      <c r="AK72" s="17"/>
-      <c r="AL72" s="15" t="s">
+      <c r="AI72" s="18"/>
+      <c r="AJ72" s="18"/>
+      <c r="AK72" s="18"/>
+      <c r="AL72" s="16" t="s">
         <v>40</v>
       </c>
-      <c r="AM72" s="17"/>
-      <c r="AN72" s="17"/>
-      <c r="AO72" s="17"/>
-      <c r="AP72" s="15" t="s">
+      <c r="AM72" s="18"/>
+      <c r="AN72" s="18"/>
+      <c r="AO72" s="18"/>
+      <c r="AP72" s="16" t="s">
         <v>41</v>
       </c>
-      <c r="AQ72" s="17"/>
-      <c r="AR72" s="17"/>
-      <c r="AS72" s="17"/>
-      <c r="AT72" s="15" t="s">
+      <c r="AQ72" s="18"/>
+      <c r="AR72" s="18"/>
+      <c r="AS72" s="18"/>
+      <c r="AT72" s="16" t="s">
         <v>42</v>
       </c>
-      <c r="AU72" s="17"/>
-      <c r="AV72" s="17"/>
-      <c r="AW72" s="17"/>
-      <c r="AX72" s="15" t="s">
+      <c r="AU72" s="18"/>
+      <c r="AV72" s="18"/>
+      <c r="AW72" s="18"/>
+      <c r="AX72" s="16" t="s">
         <v>43</v>
       </c>
-      <c r="AY72" s="17"/>
-      <c r="AZ72" s="17"/>
-      <c r="BA72" s="17"/>
-      <c r="BB72" s="15" t="s">
+      <c r="AY72" s="18"/>
+      <c r="AZ72" s="18"/>
+      <c r="BA72" s="18"/>
+      <c r="BB72" s="16" t="s">
         <v>44</v>
       </c>
-      <c r="BC72" s="17"/>
-      <c r="BD72" s="17"/>
-      <c r="BE72" s="17"/>
-      <c r="BF72" s="15" t="s">
+      <c r="BC72" s="18"/>
+      <c r="BD72" s="18"/>
+      <c r="BE72" s="18"/>
+      <c r="BF72" s="16" t="s">
         <v>45</v>
       </c>
-      <c r="BG72" s="17"/>
-      <c r="BH72" s="17"/>
-      <c r="BI72" s="17"/>
-      <c r="BJ72" s="15" t="s">
+      <c r="BG72" s="18"/>
+      <c r="BH72" s="18"/>
+      <c r="BI72" s="18"/>
+      <c r="BJ72" s="16" t="s">
         <v>46</v>
       </c>
-      <c r="BK72" s="17"/>
-      <c r="BL72" s="17"/>
-      <c r="BM72" s="17"/>
-      <c r="BN72" s="15" t="s">
+      <c r="BK72" s="18"/>
+      <c r="BL72" s="18"/>
+      <c r="BM72" s="18"/>
+      <c r="BN72" s="16" t="s">
         <v>47</v>
       </c>
-      <c r="BO72" s="17"/>
-      <c r="BP72" s="17"/>
-      <c r="BQ72" s="17"/>
-      <c r="BR72" s="15" t="s">
+      <c r="BO72" s="18"/>
+      <c r="BP72" s="18"/>
+      <c r="BQ72" s="18"/>
+      <c r="BR72" s="16" t="s">
         <v>27</v>
       </c>
-      <c r="BS72" s="17"/>
-      <c r="BT72" s="17"/>
-      <c r="BU72" s="17"/>
-      <c r="BV72" s="15" t="s">
+      <c r="BS72" s="18"/>
+      <c r="BT72" s="18"/>
+      <c r="BU72" s="18"/>
+      <c r="BV72" s="16" t="s">
         <v>28</v>
       </c>
-      <c r="BW72" s="17"/>
-      <c r="BX72" s="17"/>
-      <c r="BY72" s="17"/>
-      <c r="BZ72" s="15" t="s">
+      <c r="BW72" s="18"/>
+      <c r="BX72" s="18"/>
+      <c r="BY72" s="18"/>
+      <c r="BZ72" s="16" t="s">
         <v>29</v>
       </c>
-      <c r="CA72" s="17"/>
-      <c r="CB72" s="17"/>
-      <c r="CC72" s="17"/>
-      <c r="CD72" s="15" t="s">
+      <c r="CA72" s="18"/>
+      <c r="CB72" s="18"/>
+      <c r="CC72" s="18"/>
+      <c r="CD72" s="16" t="s">
         <v>48</v>
       </c>
-      <c r="CE72" s="17"/>
-      <c r="CF72" s="17"/>
-      <c r="CG72" s="17"/>
-      <c r="CH72" s="15" t="s">
+      <c r="CE72" s="16"/>
+      <c r="CF72" s="16"/>
+      <c r="CG72" s="16"/>
+      <c r="CH72" s="16" t="s">
         <v>49</v>
       </c>
-      <c r="CI72" s="17"/>
-      <c r="CJ72" s="17"/>
-      <c r="CK72" s="17"/>
-      <c r="CL72" s="15"/>
-      <c r="CM72" s="17"/>
-      <c r="CN72" s="17"/>
-      <c r="CO72" s="17"/>
+      <c r="CI72" s="16"/>
+      <c r="CJ72" s="16"/>
+      <c r="CK72" s="16"/>
+      <c r="CL72" s="15" t="s">
+        <v>50</v>
+      </c>
+      <c r="CM72" s="15"/>
+      <c r="CN72" s="15"/>
+      <c r="CO72" s="15"/>
+      <c r="CP72" s="15"/>
     </row>
     <row r="73" spans="1:150" x14ac:dyDescent="0.2">
       <c r="A73" s="5" t="s">
@@ -32150,10 +32210,13 @@
       <c r="CK73" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="CL73" s="5"/>
+      <c r="CL73" s="5" t="s">
+        <v>7</v>
+      </c>
       <c r="CM73" s="5"/>
       <c r="CN73" s="5"/>
       <c r="CO73" s="5"/>
+      <c r="CP73" s="5"/>
     </row>
     <row r="74" spans="1:150" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A74" s="7"/>
@@ -32426,11 +32489,13 @@
       <c r="CK75" s="14">
         <v>9.8272824283011033</v>
       </c>
-      <c r="CL75" s="14"/>
+      <c r="CL75" s="14">
+        <v>12.059679845761792</v>
+      </c>
       <c r="CM75" s="14"/>
       <c r="CN75" s="14"/>
       <c r="CO75" s="14"/>
-      <c r="CP75" s="9"/>
+      <c r="CP75" s="14"/>
       <c r="CQ75" s="9"/>
       <c r="CR75" s="9"/>
       <c r="CS75" s="9"/>
@@ -32756,11 +32821,13 @@
       <c r="CK76" s="14">
         <v>10.381601710819254</v>
       </c>
-      <c r="CL76" s="14"/>
+      <c r="CL76" s="14">
+        <v>7.8396068331835664</v>
+      </c>
       <c r="CM76" s="14"/>
       <c r="CN76" s="14"/>
       <c r="CO76" s="14"/>
-      <c r="CP76" s="9"/>
+      <c r="CP76" s="14"/>
       <c r="CQ76" s="9"/>
       <c r="CR76" s="9"/>
       <c r="CS76" s="9"/>
@@ -33086,11 +33153,13 @@
       <c r="CK77" s="14">
         <v>6.4283746065456171</v>
       </c>
-      <c r="CL77" s="14"/>
+      <c r="CL77" s="14">
+        <v>-2.4063700097721892</v>
+      </c>
       <c r="CM77" s="14"/>
       <c r="CN77" s="14"/>
       <c r="CO77" s="14"/>
-      <c r="CP77" s="9"/>
+      <c r="CP77" s="14"/>
       <c r="CQ77" s="9"/>
       <c r="CR77" s="9"/>
       <c r="CS77" s="9"/>
@@ -33416,11 +33485,13 @@
       <c r="CK78" s="14">
         <v>6.7295841723780541</v>
       </c>
-      <c r="CL78" s="14"/>
+      <c r="CL78" s="14">
+        <v>3.3540108445096166</v>
+      </c>
       <c r="CM78" s="14"/>
       <c r="CN78" s="14"/>
       <c r="CO78" s="14"/>
-      <c r="CP78" s="9"/>
+      <c r="CP78" s="14"/>
       <c r="CQ78" s="9"/>
       <c r="CR78" s="9"/>
       <c r="CS78" s="9"/>
@@ -33897,11 +33968,13 @@
       <c r="CK80" s="14">
         <v>9.335245890382609</v>
       </c>
-      <c r="CL80" s="14"/>
+      <c r="CL80" s="14">
+        <v>8.8020341136146811</v>
+      </c>
       <c r="CM80" s="14"/>
       <c r="CN80" s="14"/>
       <c r="CO80" s="14"/>
-      <c r="CP80" s="9"/>
+      <c r="CP80" s="14"/>
       <c r="CQ80" s="9"/>
       <c r="CR80" s="9"/>
       <c r="CS80" s="9"/>
@@ -34053,6 +34126,7 @@
       <c r="CM81" s="12"/>
       <c r="CN81" s="12"/>
       <c r="CO81" s="12"/>
+      <c r="CP81" s="12"/>
     </row>
     <row r="82" spans="1:154" x14ac:dyDescent="0.2">
       <c r="A82" s="13" t="s">
@@ -34368,7 +34442,7 @@
     </row>
     <row r="86" spans="1:154" x14ac:dyDescent="0.2">
       <c r="A86" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="88" spans="1:154" x14ac:dyDescent="0.2">
@@ -34378,7 +34452,7 @@
     </row>
     <row r="89" spans="1:154" x14ac:dyDescent="0.2">
       <c r="A89" s="1" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
     </row>
     <row r="90" spans="1:154" x14ac:dyDescent="0.2">
@@ -34388,144 +34462,147 @@
     </row>
     <row r="92" spans="1:154" x14ac:dyDescent="0.2">
       <c r="A92" s="4"/>
-      <c r="B92" s="15">
+      <c r="B92" s="16">
         <v>2000</v>
       </c>
-      <c r="C92" s="16"/>
-      <c r="D92" s="16"/>
-      <c r="E92" s="16"/>
-      <c r="F92" s="15">
+      <c r="C92" s="17"/>
+      <c r="D92" s="17"/>
+      <c r="E92" s="17"/>
+      <c r="F92" s="16">
         <v>2001</v>
       </c>
-      <c r="G92" s="16"/>
-      <c r="H92" s="16"/>
-      <c r="I92" s="16"/>
-      <c r="J92" s="15">
+      <c r="G92" s="17"/>
+      <c r="H92" s="17"/>
+      <c r="I92" s="17"/>
+      <c r="J92" s="16">
         <v>2002</v>
       </c>
-      <c r="K92" s="16"/>
-      <c r="L92" s="16"/>
-      <c r="M92" s="16"/>
-      <c r="N92" s="15">
+      <c r="K92" s="17"/>
+      <c r="L92" s="17"/>
+      <c r="M92" s="17"/>
+      <c r="N92" s="16">
         <v>2003</v>
       </c>
-      <c r="O92" s="16"/>
-      <c r="P92" s="16"/>
-      <c r="Q92" s="16"/>
-      <c r="R92" s="15">
+      <c r="O92" s="17"/>
+      <c r="P92" s="17"/>
+      <c r="Q92" s="17"/>
+      <c r="R92" s="16">
         <v>2004</v>
       </c>
-      <c r="S92" s="16"/>
-      <c r="T92" s="16"/>
-      <c r="U92" s="16"/>
-      <c r="V92" s="15">
+      <c r="S92" s="17"/>
+      <c r="T92" s="17"/>
+      <c r="U92" s="17"/>
+      <c r="V92" s="16">
         <v>2005</v>
       </c>
-      <c r="W92" s="16"/>
-      <c r="X92" s="16"/>
-      <c r="Y92" s="16"/>
-      <c r="Z92" s="15">
+      <c r="W92" s="17"/>
+      <c r="X92" s="17"/>
+      <c r="Y92" s="17"/>
+      <c r="Z92" s="16">
         <v>2006</v>
       </c>
-      <c r="AA92" s="16"/>
-      <c r="AB92" s="16"/>
-      <c r="AC92" s="16"/>
-      <c r="AD92" s="15">
+      <c r="AA92" s="17"/>
+      <c r="AB92" s="17"/>
+      <c r="AC92" s="17"/>
+      <c r="AD92" s="16">
         <v>2007</v>
       </c>
-      <c r="AE92" s="16"/>
-      <c r="AF92" s="16"/>
-      <c r="AG92" s="16"/>
-      <c r="AH92" s="15">
+      <c r="AE92" s="17"/>
+      <c r="AF92" s="17"/>
+      <c r="AG92" s="17"/>
+      <c r="AH92" s="16">
         <v>2008</v>
       </c>
-      <c r="AI92" s="16"/>
-      <c r="AJ92" s="16"/>
-      <c r="AK92" s="16"/>
-      <c r="AL92" s="15">
+      <c r="AI92" s="17"/>
+      <c r="AJ92" s="17"/>
+      <c r="AK92" s="17"/>
+      <c r="AL92" s="16">
         <v>2009</v>
       </c>
-      <c r="AM92" s="16"/>
-      <c r="AN92" s="16"/>
-      <c r="AO92" s="16"/>
-      <c r="AP92" s="15">
+      <c r="AM92" s="17"/>
+      <c r="AN92" s="17"/>
+      <c r="AO92" s="17"/>
+      <c r="AP92" s="16">
         <v>2010</v>
       </c>
-      <c r="AQ92" s="16"/>
-      <c r="AR92" s="16"/>
-      <c r="AS92" s="16"/>
-      <c r="AT92" s="15">
+      <c r="AQ92" s="17"/>
+      <c r="AR92" s="17"/>
+      <c r="AS92" s="17"/>
+      <c r="AT92" s="16">
         <v>2011</v>
       </c>
-      <c r="AU92" s="16"/>
-      <c r="AV92" s="16"/>
-      <c r="AW92" s="16"/>
-      <c r="AX92" s="15">
+      <c r="AU92" s="17"/>
+      <c r="AV92" s="17"/>
+      <c r="AW92" s="17"/>
+      <c r="AX92" s="16">
         <v>2012</v>
       </c>
-      <c r="AY92" s="16"/>
-      <c r="AZ92" s="16"/>
-      <c r="BA92" s="16"/>
-      <c r="BB92" s="15">
+      <c r="AY92" s="17"/>
+      <c r="AZ92" s="17"/>
+      <c r="BA92" s="17"/>
+      <c r="BB92" s="16">
         <v>2013</v>
       </c>
-      <c r="BC92" s="16"/>
-      <c r="BD92" s="16"/>
-      <c r="BE92" s="16"/>
-      <c r="BF92" s="15">
+      <c r="BC92" s="17"/>
+      <c r="BD92" s="17"/>
+      <c r="BE92" s="17"/>
+      <c r="BF92" s="16">
         <v>2014</v>
       </c>
-      <c r="BG92" s="16"/>
-      <c r="BH92" s="16"/>
-      <c r="BI92" s="16"/>
-      <c r="BJ92" s="15">
+      <c r="BG92" s="17"/>
+      <c r="BH92" s="17"/>
+      <c r="BI92" s="17"/>
+      <c r="BJ92" s="16">
         <v>2015</v>
       </c>
-      <c r="BK92" s="16"/>
-      <c r="BL92" s="16"/>
-      <c r="BM92" s="16"/>
-      <c r="BN92" s="15">
+      <c r="BK92" s="17"/>
+      <c r="BL92" s="17"/>
+      <c r="BM92" s="17"/>
+      <c r="BN92" s="16">
         <v>2016</v>
       </c>
-      <c r="BO92" s="16"/>
-      <c r="BP92" s="16"/>
-      <c r="BQ92" s="16"/>
-      <c r="BR92" s="15">
+      <c r="BO92" s="17"/>
+      <c r="BP92" s="17"/>
+      <c r="BQ92" s="17"/>
+      <c r="BR92" s="16">
         <v>2017</v>
       </c>
-      <c r="BS92" s="16"/>
-      <c r="BT92" s="16"/>
-      <c r="BU92" s="16"/>
-      <c r="BV92" s="15">
+      <c r="BS92" s="17"/>
+      <c r="BT92" s="17"/>
+      <c r="BU92" s="17"/>
+      <c r="BV92" s="16">
         <v>2018</v>
       </c>
-      <c r="BW92" s="16"/>
-      <c r="BX92" s="16"/>
-      <c r="BY92" s="16"/>
-      <c r="BZ92" s="15">
+      <c r="BW92" s="17"/>
+      <c r="BX92" s="17"/>
+      <c r="BY92" s="17"/>
+      <c r="BZ92" s="16">
         <v>2019</v>
       </c>
-      <c r="CA92" s="16"/>
-      <c r="CB92" s="16"/>
-      <c r="CC92" s="16"/>
-      <c r="CD92" s="15">
+      <c r="CA92" s="17"/>
+      <c r="CB92" s="17"/>
+      <c r="CC92" s="17"/>
+      <c r="CD92" s="16">
         <v>2020</v>
       </c>
       <c r="CE92" s="16"/>
       <c r="CF92" s="16"/>
       <c r="CG92" s="16"/>
-      <c r="CH92" s="15">
+      <c r="CH92" s="16">
         <v>2021</v>
       </c>
       <c r="CI92" s="16"/>
       <c r="CJ92" s="16"/>
       <c r="CK92" s="16"/>
-      <c r="CL92" s="15">
+      <c r="CL92" s="16">
         <v>2022</v>
       </c>
       <c r="CM92" s="16"/>
       <c r="CN92" s="16"/>
       <c r="CO92" s="16"/>
+      <c r="CP92" s="15">
+        <v>2023</v>
+      </c>
     </row>
     <row r="93" spans="1:154" x14ac:dyDescent="0.2">
       <c r="A93" s="5" t="s">
@@ -34806,6 +34883,9 @@
       </c>
       <c r="CO93" s="6" t="s">
         <v>9</v>
+      </c>
+      <c r="CP93" s="6" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="94" spans="1:154" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
@@ -35091,7 +35171,9 @@
       <c r="CO95" s="14">
         <v>114.82375821619833</v>
       </c>
-      <c r="CP95" s="9"/>
+      <c r="CP95" s="14">
+        <v>119.06559273198043</v>
+      </c>
       <c r="CQ95" s="9"/>
       <c r="CR95" s="9"/>
       <c r="CS95" s="9"/>
@@ -35433,7 +35515,9 @@
       <c r="CO96" s="14">
         <v>114.05321500450081</v>
       </c>
-      <c r="CP96" s="9"/>
+      <c r="CP96" s="14">
+        <v>118.11260589622093</v>
+      </c>
       <c r="CQ96" s="9"/>
       <c r="CR96" s="9"/>
       <c r="CS96" s="9"/>
@@ -35775,7 +35859,9 @@
       <c r="CO97" s="14">
         <v>112.3525858894685</v>
       </c>
-      <c r="CP97" s="9"/>
+      <c r="CP97" s="14">
+        <v>120.83632613767128</v>
+      </c>
       <c r="CQ97" s="9"/>
       <c r="CR97" s="9"/>
       <c r="CS97" s="9"/>
@@ -36117,7 +36203,9 @@
       <c r="CO98" s="14">
         <v>114.37964806558402</v>
       </c>
-      <c r="CP98" s="9"/>
+      <c r="CP98" s="14">
+        <v>119.19586457068647</v>
+      </c>
       <c r="CQ98" s="9"/>
       <c r="CR98" s="9"/>
       <c r="CS98" s="9"/>
@@ -36614,7 +36702,9 @@
       <c r="CO100" s="14">
         <v>114.19665148326661</v>
       </c>
-      <c r="CP100" s="9"/>
+      <c r="CP100" s="14">
+        <v>119.03758399522167</v>
+      </c>
       <c r="CQ100" s="9"/>
       <c r="CR100" s="9"/>
       <c r="CS100" s="9"/>
@@ -36770,6 +36860,7 @@
       <c r="CM101" s="12"/>
       <c r="CN101" s="12"/>
       <c r="CO101" s="12"/>
+      <c r="CP101" s="12"/>
     </row>
     <row r="102" spans="1:154" x14ac:dyDescent="0.2">
       <c r="A102" s="13" t="s">
@@ -36788,7 +36879,7 @@
     </row>
     <row r="107" spans="1:154" x14ac:dyDescent="0.2">
       <c r="A107" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="109" spans="1:154" x14ac:dyDescent="0.2">
@@ -36798,7 +36889,7 @@
     </row>
     <row r="110" spans="1:154" x14ac:dyDescent="0.2">
       <c r="A110" s="1" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
     </row>
     <row r="111" spans="1:154" x14ac:dyDescent="0.2">
@@ -36808,144 +36899,147 @@
     </row>
     <row r="113" spans="1:154" x14ac:dyDescent="0.2">
       <c r="A113" s="4"/>
-      <c r="B113" s="15">
+      <c r="B113" s="16">
         <v>2000</v>
       </c>
-      <c r="C113" s="16"/>
-      <c r="D113" s="16"/>
-      <c r="E113" s="16"/>
-      <c r="F113" s="15">
+      <c r="C113" s="17"/>
+      <c r="D113" s="17"/>
+      <c r="E113" s="17"/>
+      <c r="F113" s="16">
         <v>2001</v>
       </c>
-      <c r="G113" s="16"/>
-      <c r="H113" s="16"/>
-      <c r="I113" s="16"/>
-      <c r="J113" s="15">
+      <c r="G113" s="17"/>
+      <c r="H113" s="17"/>
+      <c r="I113" s="17"/>
+      <c r="J113" s="16">
         <v>2002</v>
       </c>
-      <c r="K113" s="16"/>
-      <c r="L113" s="16"/>
-      <c r="M113" s="16"/>
-      <c r="N113" s="15">
+      <c r="K113" s="17"/>
+      <c r="L113" s="17"/>
+      <c r="M113" s="17"/>
+      <c r="N113" s="16">
         <v>2003</v>
       </c>
-      <c r="O113" s="16"/>
-      <c r="P113" s="16"/>
-      <c r="Q113" s="16"/>
-      <c r="R113" s="15">
+      <c r="O113" s="17"/>
+      <c r="P113" s="17"/>
+      <c r="Q113" s="17"/>
+      <c r="R113" s="16">
         <v>2004</v>
       </c>
-      <c r="S113" s="16"/>
-      <c r="T113" s="16"/>
-      <c r="U113" s="16"/>
-      <c r="V113" s="15">
+      <c r="S113" s="17"/>
+      <c r="T113" s="17"/>
+      <c r="U113" s="17"/>
+      <c r="V113" s="16">
         <v>2005</v>
       </c>
-      <c r="W113" s="16"/>
-      <c r="X113" s="16"/>
-      <c r="Y113" s="16"/>
-      <c r="Z113" s="15">
+      <c r="W113" s="17"/>
+      <c r="X113" s="17"/>
+      <c r="Y113" s="17"/>
+      <c r="Z113" s="16">
         <v>2006</v>
       </c>
-      <c r="AA113" s="16"/>
-      <c r="AB113" s="16"/>
-      <c r="AC113" s="16"/>
-      <c r="AD113" s="15">
+      <c r="AA113" s="17"/>
+      <c r="AB113" s="17"/>
+      <c r="AC113" s="17"/>
+      <c r="AD113" s="16">
         <v>2007</v>
       </c>
-      <c r="AE113" s="16"/>
-      <c r="AF113" s="16"/>
-      <c r="AG113" s="16"/>
-      <c r="AH113" s="15">
+      <c r="AE113" s="17"/>
+      <c r="AF113" s="17"/>
+      <c r="AG113" s="17"/>
+      <c r="AH113" s="16">
         <v>2008</v>
       </c>
-      <c r="AI113" s="16"/>
-      <c r="AJ113" s="16"/>
-      <c r="AK113" s="16"/>
-      <c r="AL113" s="15">
+      <c r="AI113" s="17"/>
+      <c r="AJ113" s="17"/>
+      <c r="AK113" s="17"/>
+      <c r="AL113" s="16">
         <v>2009</v>
       </c>
-      <c r="AM113" s="16"/>
-      <c r="AN113" s="16"/>
-      <c r="AO113" s="16"/>
-      <c r="AP113" s="15">
+      <c r="AM113" s="17"/>
+      <c r="AN113" s="17"/>
+      <c r="AO113" s="17"/>
+      <c r="AP113" s="16">
         <v>2010</v>
       </c>
-      <c r="AQ113" s="16"/>
-      <c r="AR113" s="16"/>
-      <c r="AS113" s="16"/>
-      <c r="AT113" s="15">
+      <c r="AQ113" s="17"/>
+      <c r="AR113" s="17"/>
+      <c r="AS113" s="17"/>
+      <c r="AT113" s="16">
         <v>2011</v>
       </c>
-      <c r="AU113" s="16"/>
-      <c r="AV113" s="16"/>
-      <c r="AW113" s="16"/>
-      <c r="AX113" s="15">
+      <c r="AU113" s="17"/>
+      <c r="AV113" s="17"/>
+      <c r="AW113" s="17"/>
+      <c r="AX113" s="16">
         <v>2012</v>
       </c>
-      <c r="AY113" s="16"/>
-      <c r="AZ113" s="16"/>
-      <c r="BA113" s="16"/>
-      <c r="BB113" s="15">
+      <c r="AY113" s="17"/>
+      <c r="AZ113" s="17"/>
+      <c r="BA113" s="17"/>
+      <c r="BB113" s="16">
         <v>2013</v>
       </c>
-      <c r="BC113" s="16"/>
-      <c r="BD113" s="16"/>
-      <c r="BE113" s="16"/>
-      <c r="BF113" s="15">
+      <c r="BC113" s="17"/>
+      <c r="BD113" s="17"/>
+      <c r="BE113" s="17"/>
+      <c r="BF113" s="16">
         <v>2014</v>
       </c>
-      <c r="BG113" s="16"/>
-      <c r="BH113" s="16"/>
-      <c r="BI113" s="16"/>
-      <c r="BJ113" s="15">
+      <c r="BG113" s="17"/>
+      <c r="BH113" s="17"/>
+      <c r="BI113" s="17"/>
+      <c r="BJ113" s="16">
         <v>2015</v>
       </c>
-      <c r="BK113" s="16"/>
-      <c r="BL113" s="16"/>
-      <c r="BM113" s="16"/>
-      <c r="BN113" s="15">
+      <c r="BK113" s="17"/>
+      <c r="BL113" s="17"/>
+      <c r="BM113" s="17"/>
+      <c r="BN113" s="16">
         <v>2016</v>
       </c>
-      <c r="BO113" s="16"/>
-      <c r="BP113" s="16"/>
-      <c r="BQ113" s="16"/>
-      <c r="BR113" s="15">
+      <c r="BO113" s="17"/>
+      <c r="BP113" s="17"/>
+      <c r="BQ113" s="17"/>
+      <c r="BR113" s="16">
         <v>2017</v>
       </c>
-      <c r="BS113" s="16"/>
-      <c r="BT113" s="16"/>
-      <c r="BU113" s="16"/>
-      <c r="BV113" s="15">
+      <c r="BS113" s="17"/>
+      <c r="BT113" s="17"/>
+      <c r="BU113" s="17"/>
+      <c r="BV113" s="16">
         <v>2018</v>
       </c>
-      <c r="BW113" s="16"/>
-      <c r="BX113" s="16"/>
-      <c r="BY113" s="16"/>
-      <c r="BZ113" s="15">
+      <c r="BW113" s="17"/>
+      <c r="BX113" s="17"/>
+      <c r="BY113" s="17"/>
+      <c r="BZ113" s="16">
         <v>2019</v>
       </c>
-      <c r="CA113" s="16"/>
-      <c r="CB113" s="16"/>
-      <c r="CC113" s="16"/>
-      <c r="CD113" s="15">
+      <c r="CA113" s="17"/>
+      <c r="CB113" s="17"/>
+      <c r="CC113" s="17"/>
+      <c r="CD113" s="16">
         <v>2020</v>
       </c>
       <c r="CE113" s="16"/>
       <c r="CF113" s="16"/>
       <c r="CG113" s="16"/>
-      <c r="CH113" s="15">
+      <c r="CH113" s="16">
         <v>2021</v>
       </c>
       <c r="CI113" s="16"/>
       <c r="CJ113" s="16"/>
       <c r="CK113" s="16"/>
-      <c r="CL113" s="15">
+      <c r="CL113" s="16">
         <v>2022</v>
       </c>
       <c r="CM113" s="16"/>
       <c r="CN113" s="16"/>
       <c r="CO113" s="16"/>
+      <c r="CP113" s="15">
+        <v>2023</v>
+      </c>
     </row>
     <row r="114" spans="1:154" x14ac:dyDescent="0.2">
       <c r="A114" s="5" t="s">
@@ -37226,6 +37320,9 @@
       </c>
       <c r="CO114" s="6" t="s">
         <v>9</v>
+      </c>
+      <c r="CP114" s="6" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="115" spans="1:154" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
@@ -37511,7 +37608,9 @@
       <c r="CO116" s="14">
         <v>48.326805911944618</v>
       </c>
-      <c r="CP116" s="9"/>
+      <c r="CP116" s="14">
+        <v>59.930671863608644</v>
+      </c>
       <c r="CQ116" s="9"/>
       <c r="CR116" s="9"/>
       <c r="CS116" s="9"/>
@@ -37853,7 +37952,9 @@
       <c r="CO117" s="14">
         <v>32.245623266952393</v>
       </c>
-      <c r="CP117" s="9"/>
+      <c r="CP117" s="14">
+        <v>24.184126044282159</v>
+      </c>
       <c r="CQ117" s="9"/>
       <c r="CR117" s="9"/>
       <c r="CS117" s="9"/>
@@ -38195,7 +38296,9 @@
       <c r="CO118" s="14">
         <v>14.126646013963967</v>
       </c>
-      <c r="CP118" s="9"/>
+      <c r="CP118" s="14">
+        <v>11.37359741021314</v>
+      </c>
       <c r="CQ118" s="9"/>
       <c r="CR118" s="9"/>
       <c r="CS118" s="9"/>
@@ -38537,7 +38640,9 @@
       <c r="CO119" s="14">
         <v>5.3009248071390074</v>
       </c>
-      <c r="CP119" s="9"/>
+      <c r="CP119" s="14">
+        <v>4.5116046818960607</v>
+      </c>
       <c r="CQ119" s="9"/>
       <c r="CR119" s="9"/>
       <c r="CS119" s="9"/>
@@ -38692,7 +38797,7 @@
       <c r="CM120" s="14"/>
       <c r="CN120" s="14"/>
       <c r="CO120" s="14"/>
-      <c r="CP120" s="9"/>
+      <c r="CP120" s="14"/>
       <c r="CQ120" s="9"/>
       <c r="CR120" s="9"/>
       <c r="CS120" s="9"/>
@@ -39034,7 +39139,9 @@
       <c r="CO121" s="14">
         <v>100</v>
       </c>
-      <c r="CP121" s="9"/>
+      <c r="CP121" s="14">
+        <v>100</v>
+      </c>
       <c r="CQ121" s="9"/>
       <c r="CR121" s="9"/>
       <c r="CS121" s="9"/>
@@ -39190,6 +39297,7 @@
       <c r="CM122" s="12"/>
       <c r="CN122" s="12"/>
       <c r="CO122" s="12"/>
+      <c r="CP122" s="12"/>
     </row>
     <row r="123" spans="1:154" x14ac:dyDescent="0.2">
       <c r="A123" s="13" t="s">
@@ -39518,7 +39626,7 @@
     </row>
     <row r="128" spans="1:154" x14ac:dyDescent="0.2">
       <c r="A128" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="130" spans="1:154" x14ac:dyDescent="0.2">
@@ -39528,7 +39636,7 @@
     </row>
     <row r="131" spans="1:154" x14ac:dyDescent="0.2">
       <c r="A131" s="1" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
     </row>
     <row r="132" spans="1:154" x14ac:dyDescent="0.2">
@@ -39538,144 +39646,147 @@
     </row>
     <row r="134" spans="1:154" x14ac:dyDescent="0.2">
       <c r="A134" s="4"/>
-      <c r="B134" s="15">
+      <c r="B134" s="16">
         <v>2000</v>
       </c>
-      <c r="C134" s="16"/>
-      <c r="D134" s="16"/>
-      <c r="E134" s="16"/>
-      <c r="F134" s="15">
+      <c r="C134" s="17"/>
+      <c r="D134" s="17"/>
+      <c r="E134" s="17"/>
+      <c r="F134" s="16">
         <v>2001</v>
       </c>
-      <c r="G134" s="16"/>
-      <c r="H134" s="16"/>
-      <c r="I134" s="16"/>
-      <c r="J134" s="15">
+      <c r="G134" s="17"/>
+      <c r="H134" s="17"/>
+      <c r="I134" s="17"/>
+      <c r="J134" s="16">
         <v>2002</v>
       </c>
-      <c r="K134" s="16"/>
-      <c r="L134" s="16"/>
-      <c r="M134" s="16"/>
-      <c r="N134" s="15">
+      <c r="K134" s="17"/>
+      <c r="L134" s="17"/>
+      <c r="M134" s="17"/>
+      <c r="N134" s="16">
         <v>2003</v>
       </c>
-      <c r="O134" s="16"/>
-      <c r="P134" s="16"/>
-      <c r="Q134" s="16"/>
-      <c r="R134" s="15">
+      <c r="O134" s="17"/>
+      <c r="P134" s="17"/>
+      <c r="Q134" s="17"/>
+      <c r="R134" s="16">
         <v>2004</v>
       </c>
-      <c r="S134" s="16"/>
-      <c r="T134" s="16"/>
-      <c r="U134" s="16"/>
-      <c r="V134" s="15">
+      <c r="S134" s="17"/>
+      <c r="T134" s="17"/>
+      <c r="U134" s="17"/>
+      <c r="V134" s="16">
         <v>2005</v>
       </c>
-      <c r="W134" s="16"/>
-      <c r="X134" s="16"/>
-      <c r="Y134" s="16"/>
-      <c r="Z134" s="15">
+      <c r="W134" s="17"/>
+      <c r="X134" s="17"/>
+      <c r="Y134" s="17"/>
+      <c r="Z134" s="16">
         <v>2006</v>
       </c>
-      <c r="AA134" s="16"/>
-      <c r="AB134" s="16"/>
-      <c r="AC134" s="16"/>
-      <c r="AD134" s="15">
+      <c r="AA134" s="17"/>
+      <c r="AB134" s="17"/>
+      <c r="AC134" s="17"/>
+      <c r="AD134" s="16">
         <v>2007</v>
       </c>
-      <c r="AE134" s="16"/>
-      <c r="AF134" s="16"/>
-      <c r="AG134" s="16"/>
-      <c r="AH134" s="15">
+      <c r="AE134" s="17"/>
+      <c r="AF134" s="17"/>
+      <c r="AG134" s="17"/>
+      <c r="AH134" s="16">
         <v>2008</v>
       </c>
-      <c r="AI134" s="16"/>
-      <c r="AJ134" s="16"/>
-      <c r="AK134" s="16"/>
-      <c r="AL134" s="15">
+      <c r="AI134" s="17"/>
+      <c r="AJ134" s="17"/>
+      <c r="AK134" s="17"/>
+      <c r="AL134" s="16">
         <v>2009</v>
       </c>
-      <c r="AM134" s="16"/>
-      <c r="AN134" s="16"/>
-      <c r="AO134" s="16"/>
-      <c r="AP134" s="15">
+      <c r="AM134" s="17"/>
+      <c r="AN134" s="17"/>
+      <c r="AO134" s="17"/>
+      <c r="AP134" s="16">
         <v>2010</v>
       </c>
-      <c r="AQ134" s="16"/>
-      <c r="AR134" s="16"/>
-      <c r="AS134" s="16"/>
-      <c r="AT134" s="15">
+      <c r="AQ134" s="17"/>
+      <c r="AR134" s="17"/>
+      <c r="AS134" s="17"/>
+      <c r="AT134" s="16">
         <v>2011</v>
       </c>
-      <c r="AU134" s="16"/>
-      <c r="AV134" s="16"/>
-      <c r="AW134" s="16"/>
-      <c r="AX134" s="15">
+      <c r="AU134" s="17"/>
+      <c r="AV134" s="17"/>
+      <c r="AW134" s="17"/>
+      <c r="AX134" s="16">
         <v>2012</v>
       </c>
-      <c r="AY134" s="16"/>
-      <c r="AZ134" s="16"/>
-      <c r="BA134" s="16"/>
-      <c r="BB134" s="15">
+      <c r="AY134" s="17"/>
+      <c r="AZ134" s="17"/>
+      <c r="BA134" s="17"/>
+      <c r="BB134" s="16">
         <v>2013</v>
       </c>
-      <c r="BC134" s="16"/>
-      <c r="BD134" s="16"/>
-      <c r="BE134" s="16"/>
-      <c r="BF134" s="15">
+      <c r="BC134" s="17"/>
+      <c r="BD134" s="17"/>
+      <c r="BE134" s="17"/>
+      <c r="BF134" s="16">
         <v>2014</v>
       </c>
-      <c r="BG134" s="16"/>
-      <c r="BH134" s="16"/>
-      <c r="BI134" s="16"/>
-      <c r="BJ134" s="15">
+      <c r="BG134" s="17"/>
+      <c r="BH134" s="17"/>
+      <c r="BI134" s="17"/>
+      <c r="BJ134" s="16">
         <v>2015</v>
       </c>
-      <c r="BK134" s="16"/>
-      <c r="BL134" s="16"/>
-      <c r="BM134" s="16"/>
-      <c r="BN134" s="15">
+      <c r="BK134" s="17"/>
+      <c r="BL134" s="17"/>
+      <c r="BM134" s="17"/>
+      <c r="BN134" s="16">
         <v>2016</v>
       </c>
-      <c r="BO134" s="16"/>
-      <c r="BP134" s="16"/>
-      <c r="BQ134" s="16"/>
-      <c r="BR134" s="15">
+      <c r="BO134" s="17"/>
+      <c r="BP134" s="17"/>
+      <c r="BQ134" s="17"/>
+      <c r="BR134" s="16">
         <v>2017</v>
       </c>
-      <c r="BS134" s="16"/>
-      <c r="BT134" s="16"/>
-      <c r="BU134" s="16"/>
-      <c r="BV134" s="15">
+      <c r="BS134" s="17"/>
+      <c r="BT134" s="17"/>
+      <c r="BU134" s="17"/>
+      <c r="BV134" s="16">
         <v>2018</v>
       </c>
-      <c r="BW134" s="16"/>
-      <c r="BX134" s="16"/>
-      <c r="BY134" s="16"/>
-      <c r="BZ134" s="15">
+      <c r="BW134" s="17"/>
+      <c r="BX134" s="17"/>
+      <c r="BY134" s="17"/>
+      <c r="BZ134" s="16">
         <v>2019</v>
       </c>
-      <c r="CA134" s="16"/>
-      <c r="CB134" s="16"/>
-      <c r="CC134" s="16"/>
-      <c r="CD134" s="15">
+      <c r="CA134" s="17"/>
+      <c r="CB134" s="17"/>
+      <c r="CC134" s="17"/>
+      <c r="CD134" s="16">
         <v>2020</v>
       </c>
       <c r="CE134" s="16"/>
       <c r="CF134" s="16"/>
       <c r="CG134" s="16"/>
-      <c r="CH134" s="15">
+      <c r="CH134" s="16">
         <v>2021</v>
       </c>
       <c r="CI134" s="16"/>
       <c r="CJ134" s="16"/>
       <c r="CK134" s="16"/>
-      <c r="CL134" s="15">
+      <c r="CL134" s="16">
         <v>2022</v>
       </c>
       <c r="CM134" s="16"/>
       <c r="CN134" s="16"/>
       <c r="CO134" s="16"/>
+      <c r="CP134" s="15">
+        <v>2023</v>
+      </c>
     </row>
     <row r="135" spans="1:154" x14ac:dyDescent="0.2">
       <c r="A135" s="5" t="s">
@@ -39956,6 +40067,9 @@
       </c>
       <c r="CO135" s="6" t="s">
         <v>9</v>
+      </c>
+      <c r="CP135" s="6" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="136" spans="1:154" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
@@ -40241,7 +40355,9 @@
       <c r="CO137" s="14">
         <v>48.062870417764039</v>
       </c>
-      <c r="CP137" s="9"/>
+      <c r="CP137" s="14">
+        <v>59.916573899843549</v>
+      </c>
       <c r="CQ137" s="9"/>
       <c r="CR137" s="9"/>
       <c r="CS137" s="9"/>
@@ -40583,7 +40699,9 @@
       <c r="CO138" s="14">
         <v>32.286176254931185</v>
       </c>
-      <c r="CP138" s="9"/>
+      <c r="CP138" s="14">
+        <v>24.373519773805743</v>
+      </c>
       <c r="CQ138" s="9"/>
       <c r="CR138" s="9"/>
       <c r="CS138" s="9"/>
@@ -40925,7 +41043,9 @@
       <c r="CO139" s="14">
         <v>14.35850949680133</v>
       </c>
-      <c r="CP139" s="9"/>
+      <c r="CP139" s="14">
+        <v>11.204292618956098</v>
+      </c>
       <c r="CQ139" s="9"/>
       <c r="CR139" s="9"/>
       <c r="CS139" s="9"/>
@@ -41267,7 +41387,9 @@
       <c r="CO140" s="14">
         <v>5.2924438305034451</v>
       </c>
-      <c r="CP140" s="9"/>
+      <c r="CP140" s="14">
+        <v>4.5056137073946196</v>
+      </c>
       <c r="CQ140" s="9"/>
       <c r="CR140" s="9"/>
       <c r="CS140" s="9"/>
@@ -41764,7 +41886,9 @@
       <c r="CO142" s="14">
         <v>100</v>
       </c>
-      <c r="CP142" s="9"/>
+      <c r="CP142" s="14">
+        <v>100</v>
+      </c>
       <c r="CQ142" s="9"/>
       <c r="CR142" s="9"/>
       <c r="CS142" s="9"/>
@@ -41920,6 +42044,7 @@
       <c r="CM143" s="12"/>
       <c r="CN143" s="12"/>
       <c r="CO143" s="12"/>
+      <c r="CP143" s="12"/>
     </row>
     <row r="144" spans="1:154" x14ac:dyDescent="0.2">
       <c r="A144" s="13" t="s">
@@ -41927,7 +42052,7 @@
       </c>
     </row>
   </sheetData>
-  <mergeCells count="161">
+  <mergeCells count="159">
     <mergeCell ref="B134:E134"/>
     <mergeCell ref="F134:I134"/>
     <mergeCell ref="J134:M134"/>
@@ -42087,17 +42212,15 @@
     <mergeCell ref="CL134:CO134"/>
     <mergeCell ref="CD113:CG113"/>
     <mergeCell ref="CD92:CG92"/>
-    <mergeCell ref="CL51:CO51"/>
-    <mergeCell ref="CL72:CO72"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.5" right="0.3" top="1" bottom="0.16700000000000001" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" scale="31" orientation="landscape" r:id="rId1"/>
   <headerFooter alignWithMargins="0"/>
   <rowBreaks count="3" manualBreakCount="3">
-    <brk id="42" max="92" man="1"/>
-    <brk id="84" max="92" man="1"/>
-    <brk id="104" max="92" man="1"/>
+    <brk id="42" max="93" man="1"/>
+    <brk id="84" max="93" man="1"/>
+    <brk id="104" max="93" man="1"/>
   </rowBreaks>
 </worksheet>
 </file>
--- a/Data/National Accounts/PSA-17FIA_2018PSNA_Qrt.xlsx
+++ b/Data/National Accounts/PSA-17FIA_2018PSNA_Qrt.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26327"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26626"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="K:\Other computers\My Laptop (1)\6. MAS_Series\2018-base\NAP\NAP detailed series as of May 2023\Qtr\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="K:\Other computers\My Laptop (1)\6. MAS_Series\2018-base\NAP\NAP detailed series as of August 2023\Qtr\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E2C0920-FA41-4B39-BE5B-97CE6EE0A607}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F3F16D2B-905D-4E5E-AC62-19DC0D65F213}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="30" yWindow="3045" windowWidth="28770" windowHeight="13155" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="FIA" sheetId="11" r:id="rId1"/>
@@ -323,7 +323,7 @@
     <definedName name="pet">#REF!</definedName>
     <definedName name="plastic">#REF!</definedName>
     <definedName name="ply">#REF!</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">FIA!$A$1:$CP$146</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">FIA!$A$1:$CQ$146</definedName>
     <definedName name="_xlnm.Print_Area">#REF!</definedName>
     <definedName name="PRINT_AREA_MI">#REF!</definedName>
     <definedName name="Print_Titles_MI">'[9]CAP93+'!$A$1:$IV$1,'[9]CAP93+'!$A$1:$A$65536</definedName>
@@ -468,7 +468,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="779" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="786" uniqueCount="54">
   <si>
     <t>Source: Philippine Statistics Authority</t>
   </si>
@@ -624,13 +624,13 @@
     <t>2022 - 2023</t>
   </si>
   <si>
-    <t>As of May 2023</t>
+    <t>As of August 2023</t>
   </si>
   <si>
-    <t>Q1 2000 to Q1 2023</t>
+    <t>Q1 2000 to Q2 2023</t>
   </si>
   <si>
-    <t>Q1 2001 to Q1 2023</t>
+    <t>Q1 2001 to Q2 2023</t>
   </si>
 </sst>
 </file>
@@ -717,7 +717,7 @@
     <xf numFmtId="164" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -741,9 +741,6 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="165" fontId="5" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -23601,14 +23598,14 @@
   <sheetViews>
     <sheetView tabSelected="1" defaultGridColor="0" view="pageBreakPreview" colorId="22" zoomScale="70" zoomScaleNormal="100" zoomScaleSheetLayoutView="70" workbookViewId="0">
       <pane xSplit="1" topLeftCell="BR1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="CD1" sqref="CD1:CP1048576"/>
+      <selection pane="topRight" activeCell="CR5" sqref="CR5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="7.77734375" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="38.33203125" style="1" customWidth="1"/>
-    <col min="2" max="94" width="8.88671875" style="1" customWidth="1"/>
-    <col min="95" max="16384" width="7.77734375" style="1"/>
+    <col min="2" max="95" width="8.88671875" style="1" customWidth="1"/>
+    <col min="96" max="16384" width="7.77734375" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:154" x14ac:dyDescent="0.2">
@@ -23643,147 +23640,148 @@
     </row>
     <row r="9" spans="1:154" x14ac:dyDescent="0.2">
       <c r="A9" s="4"/>
-      <c r="B9" s="16">
+      <c r="B9" s="15">
         <v>2000</v>
       </c>
-      <c r="C9" s="16"/>
-      <c r="D9" s="16"/>
-      <c r="E9" s="16"/>
-      <c r="F9" s="16">
+      <c r="C9" s="15"/>
+      <c r="D9" s="15"/>
+      <c r="E9" s="15"/>
+      <c r="F9" s="15">
         <v>2001</v>
       </c>
-      <c r="G9" s="16"/>
-      <c r="H9" s="16"/>
-      <c r="I9" s="16"/>
-      <c r="J9" s="16">
+      <c r="G9" s="15"/>
+      <c r="H9" s="15"/>
+      <c r="I9" s="15"/>
+      <c r="J9" s="15">
         <v>2002</v>
       </c>
-      <c r="K9" s="16"/>
-      <c r="L9" s="16"/>
-      <c r="M9" s="16"/>
-      <c r="N9" s="16">
+      <c r="K9" s="15"/>
+      <c r="L9" s="15"/>
+      <c r="M9" s="15"/>
+      <c r="N9" s="15">
         <v>2003</v>
       </c>
-      <c r="O9" s="16"/>
-      <c r="P9" s="16"/>
-      <c r="Q9" s="16"/>
-      <c r="R9" s="16">
+      <c r="O9" s="15"/>
+      <c r="P9" s="15"/>
+      <c r="Q9" s="15"/>
+      <c r="R9" s="15">
         <v>2004</v>
       </c>
-      <c r="S9" s="16"/>
-      <c r="T9" s="16"/>
-      <c r="U9" s="16"/>
-      <c r="V9" s="16">
+      <c r="S9" s="15"/>
+      <c r="T9" s="15"/>
+      <c r="U9" s="15"/>
+      <c r="V9" s="15">
         <v>2005</v>
       </c>
-      <c r="W9" s="16"/>
-      <c r="X9" s="16"/>
-      <c r="Y9" s="16"/>
-      <c r="Z9" s="16">
+      <c r="W9" s="15"/>
+      <c r="X9" s="15"/>
+      <c r="Y9" s="15"/>
+      <c r="Z9" s="15">
         <v>2006</v>
       </c>
-      <c r="AA9" s="16"/>
-      <c r="AB9" s="16"/>
-      <c r="AC9" s="16"/>
-      <c r="AD9" s="16">
+      <c r="AA9" s="15"/>
+      <c r="AB9" s="15"/>
+      <c r="AC9" s="15"/>
+      <c r="AD9" s="15">
         <v>2007</v>
       </c>
-      <c r="AE9" s="16"/>
-      <c r="AF9" s="16"/>
-      <c r="AG9" s="16"/>
-      <c r="AH9" s="16">
+      <c r="AE9" s="15"/>
+      <c r="AF9" s="15"/>
+      <c r="AG9" s="15"/>
+      <c r="AH9" s="15">
         <v>2008</v>
       </c>
-      <c r="AI9" s="16"/>
-      <c r="AJ9" s="16"/>
-      <c r="AK9" s="16"/>
-      <c r="AL9" s="16">
+      <c r="AI9" s="15"/>
+      <c r="AJ9" s="15"/>
+      <c r="AK9" s="15"/>
+      <c r="AL9" s="15">
         <v>2009</v>
       </c>
-      <c r="AM9" s="16"/>
-      <c r="AN9" s="16"/>
-      <c r="AO9" s="16"/>
-      <c r="AP9" s="16">
+      <c r="AM9" s="15"/>
+      <c r="AN9" s="15"/>
+      <c r="AO9" s="15"/>
+      <c r="AP9" s="15">
         <v>2010</v>
       </c>
-      <c r="AQ9" s="16"/>
-      <c r="AR9" s="16"/>
-      <c r="AS9" s="16"/>
-      <c r="AT9" s="16">
+      <c r="AQ9" s="15"/>
+      <c r="AR9" s="15"/>
+      <c r="AS9" s="15"/>
+      <c r="AT9" s="15">
         <v>2011</v>
       </c>
-      <c r="AU9" s="16"/>
-      <c r="AV9" s="16"/>
-      <c r="AW9" s="16"/>
-      <c r="AX9" s="16">
+      <c r="AU9" s="15"/>
+      <c r="AV9" s="15"/>
+      <c r="AW9" s="15"/>
+      <c r="AX9" s="15">
         <v>2012</v>
       </c>
-      <c r="AY9" s="16"/>
-      <c r="AZ9" s="16"/>
-      <c r="BA9" s="16"/>
-      <c r="BB9" s="16">
+      <c r="AY9" s="15"/>
+      <c r="AZ9" s="15"/>
+      <c r="BA9" s="15"/>
+      <c r="BB9" s="15">
         <v>2013</v>
       </c>
-      <c r="BC9" s="16"/>
-      <c r="BD9" s="16"/>
-      <c r="BE9" s="16"/>
-      <c r="BF9" s="16">
+      <c r="BC9" s="15"/>
+      <c r="BD9" s="15"/>
+      <c r="BE9" s="15"/>
+      <c r="BF9" s="15">
         <v>2014</v>
       </c>
-      <c r="BG9" s="16"/>
-      <c r="BH9" s="16"/>
-      <c r="BI9" s="16"/>
-      <c r="BJ9" s="16">
+      <c r="BG9" s="15"/>
+      <c r="BH9" s="15"/>
+      <c r="BI9" s="15"/>
+      <c r="BJ9" s="15">
         <v>2015</v>
       </c>
-      <c r="BK9" s="16"/>
-      <c r="BL9" s="16"/>
-      <c r="BM9" s="16"/>
-      <c r="BN9" s="16">
+      <c r="BK9" s="15"/>
+      <c r="BL9" s="15"/>
+      <c r="BM9" s="15"/>
+      <c r="BN9" s="15">
         <v>2016</v>
       </c>
-      <c r="BO9" s="16"/>
-      <c r="BP9" s="16"/>
-      <c r="BQ9" s="16"/>
-      <c r="BR9" s="16">
+      <c r="BO9" s="15"/>
+      <c r="BP9" s="15"/>
+      <c r="BQ9" s="15"/>
+      <c r="BR9" s="15">
         <v>2017</v>
       </c>
-      <c r="BS9" s="16"/>
-      <c r="BT9" s="16"/>
-      <c r="BU9" s="16"/>
-      <c r="BV9" s="16">
+      <c r="BS9" s="15"/>
+      <c r="BT9" s="15"/>
+      <c r="BU9" s="15"/>
+      <c r="BV9" s="15">
         <v>2018</v>
       </c>
-      <c r="BW9" s="16"/>
-      <c r="BX9" s="16"/>
-      <c r="BY9" s="16"/>
-      <c r="BZ9" s="16">
+      <c r="BW9" s="15"/>
+      <c r="BX9" s="15"/>
+      <c r="BY9" s="15"/>
+      <c r="BZ9" s="15">
         <v>2019</v>
       </c>
-      <c r="CA9" s="16"/>
-      <c r="CB9" s="16"/>
-      <c r="CC9" s="16"/>
-      <c r="CD9" s="16">
+      <c r="CA9" s="15"/>
+      <c r="CB9" s="15"/>
+      <c r="CC9" s="15"/>
+      <c r="CD9" s="15">
         <v>2020</v>
       </c>
-      <c r="CE9" s="16"/>
-      <c r="CF9" s="16"/>
-      <c r="CG9" s="16"/>
-      <c r="CH9" s="16">
+      <c r="CE9" s="15"/>
+      <c r="CF9" s="15"/>
+      <c r="CG9" s="15"/>
+      <c r="CH9" s="15">
         <v>2021</v>
       </c>
-      <c r="CI9" s="16"/>
-      <c r="CJ9" s="16"/>
-      <c r="CK9" s="16"/>
-      <c r="CL9" s="16">
+      <c r="CI9" s="15"/>
+      <c r="CJ9" s="15"/>
+      <c r="CK9" s="15"/>
+      <c r="CL9" s="15">
         <v>2022</v>
       </c>
-      <c r="CM9" s="16"/>
-      <c r="CN9" s="16"/>
-      <c r="CO9" s="16"/>
+      <c r="CM9" s="15"/>
+      <c r="CN9" s="15"/>
+      <c r="CO9" s="15"/>
       <c r="CP9" s="15">
         <v>2023</v>
       </c>
+      <c r="CQ9" s="17"/>
     </row>
     <row r="10" spans="1:154" x14ac:dyDescent="0.2">
       <c r="A10" s="5" t="s">
@@ -24067,6 +24065,9 @@
       </c>
       <c r="CP10" s="6" t="s">
         <v>7</v>
+      </c>
+      <c r="CQ10" s="6" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="11" spans="1:154" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
@@ -24353,9 +24354,11 @@
         <v>275563.92828726908</v>
       </c>
       <c r="CP12" s="8">
-        <v>388898.81636724994</v>
-      </c>
-      <c r="CQ12" s="9"/>
+        <v>385958.92522606708</v>
+      </c>
+      <c r="CQ12" s="8">
+        <v>303967.44871946855</v>
+      </c>
       <c r="CR12" s="9"/>
       <c r="CS12" s="9"/>
       <c r="CT12" s="9"/>
@@ -24697,9 +24700,11 @@
         <v>183867.53375969623</v>
       </c>
       <c r="CP13" s="8">
-        <v>156934.29926669598</v>
-      </c>
-      <c r="CQ13" s="9"/>
+        <v>159877.59282817371</v>
+      </c>
+      <c r="CQ13" s="8">
+        <v>227376.38361444187</v>
+      </c>
       <c r="CR13" s="9"/>
       <c r="CS13" s="9"/>
       <c r="CT13" s="9"/>
@@ -25043,7 +25048,9 @@
       <c r="CP14" s="8">
         <v>73804.922139632661</v>
       </c>
-      <c r="CQ14" s="9"/>
+      <c r="CQ14" s="8">
+        <v>67192.185999498965</v>
+      </c>
       <c r="CR14" s="9"/>
       <c r="CS14" s="9"/>
       <c r="CT14" s="9"/>
@@ -25385,9 +25392,11 @@
         <v>30226.36476476954</v>
       </c>
       <c r="CP15" s="8">
-        <v>29276.456714841726</v>
-      </c>
-      <c r="CQ15" s="9"/>
+        <v>29135.104012678043</v>
+      </c>
+      <c r="CQ15" s="8">
+        <v>34144.246491988531</v>
+      </c>
       <c r="CR15" s="9"/>
       <c r="CS15" s="9"/>
       <c r="CT15" s="9"/>
@@ -25884,9 +25893,11 @@
         <v>570209.27223986003</v>
       </c>
       <c r="CP17" s="11">
-        <v>648914.49448842031</v>
-      </c>
-      <c r="CQ17" s="9"/>
+        <v>648776.54420655151</v>
+      </c>
+      <c r="CQ17" s="11">
+        <v>632680.26482539787</v>
+      </c>
       <c r="CR17" s="9"/>
       <c r="CS17" s="9"/>
       <c r="CT17" s="9"/>
@@ -26042,6 +26053,7 @@
       <c r="CN18" s="12"/>
       <c r="CO18" s="12"/>
       <c r="CP18" s="12"/>
+      <c r="CQ18" s="12"/>
     </row>
     <row r="19" spans="1:154" x14ac:dyDescent="0.2">
       <c r="A19" s="13" t="s">
@@ -26390,147 +26402,148 @@
     </row>
     <row r="30" spans="1:154" x14ac:dyDescent="0.2">
       <c r="A30" s="4"/>
-      <c r="B30" s="16">
+      <c r="B30" s="15">
         <v>2000</v>
       </c>
-      <c r="C30" s="17"/>
-      <c r="D30" s="17"/>
-      <c r="E30" s="17"/>
-      <c r="F30" s="16">
+      <c r="C30" s="16"/>
+      <c r="D30" s="16"/>
+      <c r="E30" s="16"/>
+      <c r="F30" s="15">
         <v>2001</v>
       </c>
-      <c r="G30" s="17"/>
-      <c r="H30" s="17"/>
-      <c r="I30" s="17"/>
-      <c r="J30" s="16">
+      <c r="G30" s="16"/>
+      <c r="H30" s="16"/>
+      <c r="I30" s="16"/>
+      <c r="J30" s="15">
         <v>2002</v>
       </c>
-      <c r="K30" s="17"/>
-      <c r="L30" s="17"/>
-      <c r="M30" s="17"/>
-      <c r="N30" s="16">
+      <c r="K30" s="16"/>
+      <c r="L30" s="16"/>
+      <c r="M30" s="16"/>
+      <c r="N30" s="15">
         <v>2003</v>
       </c>
-      <c r="O30" s="17"/>
-      <c r="P30" s="17"/>
-      <c r="Q30" s="17"/>
-      <c r="R30" s="16">
+      <c r="O30" s="16"/>
+      <c r="P30" s="16"/>
+      <c r="Q30" s="16"/>
+      <c r="R30" s="15">
         <v>2004</v>
       </c>
-      <c r="S30" s="17"/>
-      <c r="T30" s="17"/>
-      <c r="U30" s="17"/>
-      <c r="V30" s="16">
+      <c r="S30" s="16"/>
+      <c r="T30" s="16"/>
+      <c r="U30" s="16"/>
+      <c r="V30" s="15">
         <v>2005</v>
       </c>
-      <c r="W30" s="17"/>
-      <c r="X30" s="17"/>
-      <c r="Y30" s="17"/>
-      <c r="Z30" s="16">
+      <c r="W30" s="16"/>
+      <c r="X30" s="16"/>
+      <c r="Y30" s="16"/>
+      <c r="Z30" s="15">
         <v>2006</v>
       </c>
-      <c r="AA30" s="17"/>
-      <c r="AB30" s="17"/>
-      <c r="AC30" s="17"/>
-      <c r="AD30" s="16">
+      <c r="AA30" s="16"/>
+      <c r="AB30" s="16"/>
+      <c r="AC30" s="16"/>
+      <c r="AD30" s="15">
         <v>2007</v>
       </c>
-      <c r="AE30" s="17"/>
-      <c r="AF30" s="17"/>
-      <c r="AG30" s="17"/>
-      <c r="AH30" s="16">
+      <c r="AE30" s="16"/>
+      <c r="AF30" s="16"/>
+      <c r="AG30" s="16"/>
+      <c r="AH30" s="15">
         <v>2008</v>
       </c>
-      <c r="AI30" s="17"/>
-      <c r="AJ30" s="17"/>
-      <c r="AK30" s="17"/>
-      <c r="AL30" s="16">
+      <c r="AI30" s="16"/>
+      <c r="AJ30" s="16"/>
+      <c r="AK30" s="16"/>
+      <c r="AL30" s="15">
         <v>2009</v>
       </c>
-      <c r="AM30" s="17"/>
-      <c r="AN30" s="17"/>
-      <c r="AO30" s="17"/>
-      <c r="AP30" s="16">
+      <c r="AM30" s="16"/>
+      <c r="AN30" s="16"/>
+      <c r="AO30" s="16"/>
+      <c r="AP30" s="15">
         <v>2010</v>
       </c>
-      <c r="AQ30" s="17"/>
-      <c r="AR30" s="17"/>
-      <c r="AS30" s="17"/>
-      <c r="AT30" s="16">
+      <c r="AQ30" s="16"/>
+      <c r="AR30" s="16"/>
+      <c r="AS30" s="16"/>
+      <c r="AT30" s="15">
         <v>2011</v>
       </c>
-      <c r="AU30" s="17"/>
-      <c r="AV30" s="17"/>
-      <c r="AW30" s="17"/>
-      <c r="AX30" s="16">
+      <c r="AU30" s="16"/>
+      <c r="AV30" s="16"/>
+      <c r="AW30" s="16"/>
+      <c r="AX30" s="15">
         <v>2012</v>
       </c>
-      <c r="AY30" s="17"/>
-      <c r="AZ30" s="17"/>
-      <c r="BA30" s="17"/>
-      <c r="BB30" s="16">
+      <c r="AY30" s="16"/>
+      <c r="AZ30" s="16"/>
+      <c r="BA30" s="16"/>
+      <c r="BB30" s="15">
         <v>2013</v>
       </c>
-      <c r="BC30" s="17"/>
-      <c r="BD30" s="17"/>
-      <c r="BE30" s="17"/>
-      <c r="BF30" s="16">
+      <c r="BC30" s="16"/>
+      <c r="BD30" s="16"/>
+      <c r="BE30" s="16"/>
+      <c r="BF30" s="15">
         <v>2014</v>
       </c>
-      <c r="BG30" s="17"/>
-      <c r="BH30" s="17"/>
-      <c r="BI30" s="17"/>
-      <c r="BJ30" s="16">
+      <c r="BG30" s="16"/>
+      <c r="BH30" s="16"/>
+      <c r="BI30" s="16"/>
+      <c r="BJ30" s="15">
         <v>2015</v>
       </c>
-      <c r="BK30" s="17"/>
-      <c r="BL30" s="17"/>
-      <c r="BM30" s="17"/>
-      <c r="BN30" s="16">
+      <c r="BK30" s="16"/>
+      <c r="BL30" s="16"/>
+      <c r="BM30" s="16"/>
+      <c r="BN30" s="15">
         <v>2016</v>
       </c>
-      <c r="BO30" s="17"/>
-      <c r="BP30" s="17"/>
-      <c r="BQ30" s="17"/>
-      <c r="BR30" s="16">
+      <c r="BO30" s="16"/>
+      <c r="BP30" s="16"/>
+      <c r="BQ30" s="16"/>
+      <c r="BR30" s="15">
         <v>2017</v>
       </c>
-      <c r="BS30" s="17"/>
-      <c r="BT30" s="17"/>
-      <c r="BU30" s="17"/>
-      <c r="BV30" s="16">
+      <c r="BS30" s="16"/>
+      <c r="BT30" s="16"/>
+      <c r="BU30" s="16"/>
+      <c r="BV30" s="15">
         <v>2018</v>
       </c>
-      <c r="BW30" s="17"/>
-      <c r="BX30" s="17"/>
-      <c r="BY30" s="17"/>
-      <c r="BZ30" s="16">
+      <c r="BW30" s="16"/>
+      <c r="BX30" s="16"/>
+      <c r="BY30" s="16"/>
+      <c r="BZ30" s="15">
         <v>2019</v>
       </c>
-      <c r="CA30" s="17"/>
-      <c r="CB30" s="17"/>
-      <c r="CC30" s="17"/>
-      <c r="CD30" s="16">
+      <c r="CA30" s="16"/>
+      <c r="CB30" s="16"/>
+      <c r="CC30" s="16"/>
+      <c r="CD30" s="15">
         <v>2020</v>
       </c>
-      <c r="CE30" s="16"/>
-      <c r="CF30" s="16"/>
-      <c r="CG30" s="16"/>
-      <c r="CH30" s="16">
+      <c r="CE30" s="15"/>
+      <c r="CF30" s="15"/>
+      <c r="CG30" s="15"/>
+      <c r="CH30" s="15">
         <v>2021</v>
       </c>
-      <c r="CI30" s="16"/>
-      <c r="CJ30" s="16"/>
-      <c r="CK30" s="16"/>
-      <c r="CL30" s="16">
+      <c r="CI30" s="15"/>
+      <c r="CJ30" s="15"/>
+      <c r="CK30" s="15"/>
+      <c r="CL30" s="15">
         <v>2022</v>
       </c>
-      <c r="CM30" s="16"/>
-      <c r="CN30" s="16"/>
-      <c r="CO30" s="16"/>
+      <c r="CM30" s="15"/>
+      <c r="CN30" s="15"/>
+      <c r="CO30" s="15"/>
       <c r="CP30" s="15">
         <v>2023</v>
       </c>
+      <c r="CQ30" s="17"/>
     </row>
     <row r="31" spans="1:154" x14ac:dyDescent="0.2">
       <c r="A31" s="5" t="s">
@@ -26814,6 +26827,9 @@
       </c>
       <c r="CP31" s="6" t="s">
         <v>7</v>
+      </c>
+      <c r="CQ31" s="6" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="32" spans="1:154" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
@@ -27100,9 +27116,11 @@
         <v>239988.59867347119</v>
       </c>
       <c r="CP33" s="8">
-        <v>326625.69214489253</v>
-      </c>
-      <c r="CQ33" s="9"/>
+        <v>324156.55637382169</v>
+      </c>
+      <c r="CQ33" s="8">
+        <v>253441.36694781581</v>
+      </c>
       <c r="CR33" s="9"/>
       <c r="CS33" s="9"/>
       <c r="CT33" s="9"/>
@@ -27444,9 +27462,11 @@
         <v>161212.05680387036</v>
       </c>
       <c r="CP34" s="8">
-        <v>132868.37427377189</v>
-      </c>
-      <c r="CQ34" s="9"/>
+        <v>135360.31282609189</v>
+      </c>
+      <c r="CQ34" s="8">
+        <v>192122.29919065878</v>
+      </c>
       <c r="CR34" s="9"/>
       <c r="CS34" s="9"/>
       <c r="CT34" s="9"/>
@@ -27790,7 +27810,9 @@
       <c r="CP35" s="8">
         <v>61078.422771265992</v>
       </c>
-      <c r="CQ35" s="9"/>
+      <c r="CQ35" s="8">
+        <v>58213.607516663178</v>
+      </c>
       <c r="CR35" s="9"/>
       <c r="CS35" s="9"/>
       <c r="CT35" s="9"/>
@@ -28132,9 +28154,11 @@
         <v>26426.348809394898</v>
       </c>
       <c r="CP36" s="8">
-        <v>24561.637956390652</v>
-      </c>
-      <c r="CQ36" s="9"/>
+        <v>24443.163192385327</v>
+      </c>
+      <c r="CQ36" s="8">
+        <v>28098.590355631968</v>
+      </c>
       <c r="CR36" s="9"/>
       <c r="CS36" s="9"/>
       <c r="CT36" s="9"/>
@@ -28631,9 +28655,11 @@
         <v>499322.23478848115</v>
       </c>
       <c r="CP38" s="11">
-        <v>545134.127146321</v>
-      </c>
-      <c r="CQ38" s="9"/>
+        <v>545038.45516356488</v>
+      </c>
+      <c r="CQ38" s="11">
+        <v>531875.86401076976</v>
+      </c>
       <c r="CR38" s="9"/>
       <c r="CS38" s="9"/>
       <c r="CT38" s="9"/>
@@ -28789,6 +28815,7 @@
       <c r="CN39" s="12"/>
       <c r="CO39" s="12"/>
       <c r="CP39" s="12"/>
+      <c r="CQ39" s="12"/>
     </row>
     <row r="40" spans="1:154" x14ac:dyDescent="0.2">
       <c r="A40" s="13" t="s">
@@ -29137,138 +29164,138 @@
     </row>
     <row r="51" spans="1:150" x14ac:dyDescent="0.2">
       <c r="A51" s="4"/>
-      <c r="B51" s="16" t="s">
+      <c r="B51" s="15" t="s">
         <v>31</v>
       </c>
-      <c r="C51" s="16"/>
-      <c r="D51" s="16"/>
-      <c r="E51" s="16"/>
-      <c r="F51" s="16" t="s">
+      <c r="C51" s="15"/>
+      <c r="D51" s="15"/>
+      <c r="E51" s="15"/>
+      <c r="F51" s="15" t="s">
         <v>32</v>
       </c>
-      <c r="G51" s="16"/>
-      <c r="H51" s="16"/>
-      <c r="I51" s="16"/>
-      <c r="J51" s="16" t="s">
+      <c r="G51" s="15"/>
+      <c r="H51" s="15"/>
+      <c r="I51" s="15"/>
+      <c r="J51" s="15" t="s">
         <v>33</v>
       </c>
-      <c r="K51" s="16"/>
-      <c r="L51" s="16"/>
-      <c r="M51" s="16"/>
-      <c r="N51" s="16" t="s">
+      <c r="K51" s="15"/>
+      <c r="L51" s="15"/>
+      <c r="M51" s="15"/>
+      <c r="N51" s="15" t="s">
         <v>34</v>
       </c>
-      <c r="O51" s="16"/>
-      <c r="P51" s="16"/>
-      <c r="Q51" s="16"/>
-      <c r="R51" s="16" t="s">
+      <c r="O51" s="15"/>
+      <c r="P51" s="15"/>
+      <c r="Q51" s="15"/>
+      <c r="R51" s="15" t="s">
         <v>35</v>
       </c>
-      <c r="S51" s="16"/>
-      <c r="T51" s="16"/>
-      <c r="U51" s="16"/>
-      <c r="V51" s="16" t="s">
+      <c r="S51" s="15"/>
+      <c r="T51" s="15"/>
+      <c r="U51" s="15"/>
+      <c r="V51" s="15" t="s">
         <v>36</v>
       </c>
-      <c r="W51" s="16"/>
-      <c r="X51" s="16"/>
-      <c r="Y51" s="16"/>
-      <c r="Z51" s="16" t="s">
+      <c r="W51" s="15"/>
+      <c r="X51" s="15"/>
+      <c r="Y51" s="15"/>
+      <c r="Z51" s="15" t="s">
         <v>37</v>
       </c>
-      <c r="AA51" s="16"/>
-      <c r="AB51" s="16"/>
-      <c r="AC51" s="16"/>
-      <c r="AD51" s="16" t="s">
+      <c r="AA51" s="15"/>
+      <c r="AB51" s="15"/>
+      <c r="AC51" s="15"/>
+      <c r="AD51" s="15" t="s">
         <v>38</v>
       </c>
-      <c r="AE51" s="16"/>
-      <c r="AF51" s="16"/>
-      <c r="AG51" s="16"/>
-      <c r="AH51" s="16" t="s">
+      <c r="AE51" s="15"/>
+      <c r="AF51" s="15"/>
+      <c r="AG51" s="15"/>
+      <c r="AH51" s="15" t="s">
         <v>39</v>
       </c>
-      <c r="AI51" s="16"/>
-      <c r="AJ51" s="16"/>
-      <c r="AK51" s="16"/>
-      <c r="AL51" s="16" t="s">
+      <c r="AI51" s="15"/>
+      <c r="AJ51" s="15"/>
+      <c r="AK51" s="15"/>
+      <c r="AL51" s="15" t="s">
         <v>40</v>
       </c>
-      <c r="AM51" s="16"/>
-      <c r="AN51" s="16"/>
-      <c r="AO51" s="16"/>
-      <c r="AP51" s="16" t="s">
+      <c r="AM51" s="15"/>
+      <c r="AN51" s="15"/>
+      <c r="AO51" s="15"/>
+      <c r="AP51" s="15" t="s">
         <v>41</v>
       </c>
-      <c r="AQ51" s="16"/>
-      <c r="AR51" s="16"/>
-      <c r="AS51" s="16"/>
-      <c r="AT51" s="16" t="s">
+      <c r="AQ51" s="15"/>
+      <c r="AR51" s="15"/>
+      <c r="AS51" s="15"/>
+      <c r="AT51" s="15" t="s">
         <v>42</v>
       </c>
-      <c r="AU51" s="16"/>
-      <c r="AV51" s="16"/>
-      <c r="AW51" s="16"/>
-      <c r="AX51" s="16" t="s">
+      <c r="AU51" s="15"/>
+      <c r="AV51" s="15"/>
+      <c r="AW51" s="15"/>
+      <c r="AX51" s="15" t="s">
         <v>43</v>
       </c>
-      <c r="AY51" s="16"/>
-      <c r="AZ51" s="16"/>
-      <c r="BA51" s="16"/>
-      <c r="BB51" s="16" t="s">
+      <c r="AY51" s="15"/>
+      <c r="AZ51" s="15"/>
+      <c r="BA51" s="15"/>
+      <c r="BB51" s="15" t="s">
         <v>44</v>
       </c>
-      <c r="BC51" s="16"/>
-      <c r="BD51" s="16"/>
-      <c r="BE51" s="16"/>
-      <c r="BF51" s="16" t="s">
+      <c r="BC51" s="15"/>
+      <c r="BD51" s="15"/>
+      <c r="BE51" s="15"/>
+      <c r="BF51" s="15" t="s">
         <v>45</v>
       </c>
-      <c r="BG51" s="16"/>
-      <c r="BH51" s="16"/>
-      <c r="BI51" s="16"/>
-      <c r="BJ51" s="16" t="s">
+      <c r="BG51" s="15"/>
+      <c r="BH51" s="15"/>
+      <c r="BI51" s="15"/>
+      <c r="BJ51" s="15" t="s">
         <v>46</v>
       </c>
-      <c r="BK51" s="16"/>
-      <c r="BL51" s="16"/>
-      <c r="BM51" s="16"/>
-      <c r="BN51" s="16" t="s">
+      <c r="BK51" s="15"/>
+      <c r="BL51" s="15"/>
+      <c r="BM51" s="15"/>
+      <c r="BN51" s="15" t="s">
         <v>47</v>
       </c>
-      <c r="BO51" s="16"/>
-      <c r="BP51" s="16"/>
-      <c r="BQ51" s="16"/>
-      <c r="BR51" s="16" t="s">
+      <c r="BO51" s="15"/>
+      <c r="BP51" s="15"/>
+      <c r="BQ51" s="15"/>
+      <c r="BR51" s="15" t="s">
         <v>27</v>
       </c>
-      <c r="BS51" s="16"/>
-      <c r="BT51" s="16"/>
-      <c r="BU51" s="16"/>
-      <c r="BV51" s="16" t="s">
+      <c r="BS51" s="15"/>
+      <c r="BT51" s="15"/>
+      <c r="BU51" s="15"/>
+      <c r="BV51" s="15" t="s">
         <v>28</v>
       </c>
-      <c r="BW51" s="16"/>
-      <c r="BX51" s="16"/>
-      <c r="BY51" s="16"/>
-      <c r="BZ51" s="16" t="s">
+      <c r="BW51" s="15"/>
+      <c r="BX51" s="15"/>
+      <c r="BY51" s="15"/>
+      <c r="BZ51" s="15" t="s">
         <v>29</v>
       </c>
-      <c r="CA51" s="16"/>
-      <c r="CB51" s="16"/>
-      <c r="CC51" s="16"/>
-      <c r="CD51" s="16" t="s">
+      <c r="CA51" s="15"/>
+      <c r="CB51" s="15"/>
+      <c r="CC51" s="15"/>
+      <c r="CD51" s="15" t="s">
         <v>48</v>
       </c>
-      <c r="CE51" s="16"/>
-      <c r="CF51" s="16"/>
-      <c r="CG51" s="16"/>
-      <c r="CH51" s="16" t="s">
+      <c r="CE51" s="15"/>
+      <c r="CF51" s="15"/>
+      <c r="CG51" s="15"/>
+      <c r="CH51" s="15" t="s">
         <v>49</v>
       </c>
-      <c r="CI51" s="16"/>
-      <c r="CJ51" s="16"/>
-      <c r="CK51" s="16"/>
+      <c r="CI51" s="15"/>
+      <c r="CJ51" s="15"/>
+      <c r="CK51" s="15"/>
       <c r="CL51" s="15" t="s">
         <v>50</v>
       </c>
@@ -29276,6 +29303,7 @@
       <c r="CN51" s="15"/>
       <c r="CO51" s="15"/>
       <c r="CP51" s="15"/>
+      <c r="CQ51" s="17"/>
     </row>
     <row r="52" spans="1:150" x14ac:dyDescent="0.2">
       <c r="A52" s="5" t="s">
@@ -29548,10 +29576,13 @@
       <c r="CL52" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="CM52" s="5"/>
+      <c r="CM52" s="5" t="s">
+        <v>8</v>
+      </c>
       <c r="CN52" s="5"/>
       <c r="CO52" s="5"/>
       <c r="CP52" s="5"/>
+      <c r="CQ52" s="5"/>
     </row>
     <row r="53" spans="1:150" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A53" s="7"/>
@@ -29825,13 +29856,15 @@
         <v>18.024110738216748</v>
       </c>
       <c r="CL54" s="14">
-        <v>22.0747302733147</v>
-      </c>
-      <c r="CM54" s="14"/>
+        <v>21.151903041683596</v>
+      </c>
+      <c r="CM54" s="14">
+        <v>14.968863069973423</v>
+      </c>
       <c r="CN54" s="14"/>
       <c r="CO54" s="14"/>
       <c r="CP54" s="14"/>
-      <c r="CQ54" s="9"/>
+      <c r="CQ54" s="14"/>
       <c r="CR54" s="9"/>
       <c r="CS54" s="9"/>
       <c r="CT54" s="9"/>
@@ -30157,13 +30190,15 @@
         <v>18.006476206364624</v>
       </c>
       <c r="CL55" s="14">
-        <v>15.183484058523362</v>
-      </c>
-      <c r="CM55" s="14"/>
+        <v>17.343743533999103</v>
+      </c>
+      <c r="CM55" s="14">
+        <v>9.8406075219795497</v>
+      </c>
       <c r="CN55" s="14"/>
       <c r="CO55" s="14"/>
       <c r="CP55" s="14"/>
-      <c r="CQ55" s="9"/>
+      <c r="CQ55" s="14"/>
       <c r="CR55" s="9"/>
       <c r="CS55" s="9"/>
       <c r="CT55" s="9"/>
@@ -30491,11 +30526,13 @@
       <c r="CL56" s="14">
         <v>4.8936335134968516</v>
       </c>
-      <c r="CM56" s="14"/>
+      <c r="CM56" s="14">
+        <v>5.4548068941725774</v>
+      </c>
       <c r="CN56" s="14"/>
       <c r="CO56" s="14"/>
       <c r="CP56" s="14"/>
-      <c r="CQ56" s="9"/>
+      <c r="CQ56" s="14"/>
       <c r="CR56" s="9"/>
       <c r="CS56" s="9"/>
       <c r="CT56" s="9"/>
@@ -30821,13 +30858,15 @@
         <v>13.941271970433334</v>
       </c>
       <c r="CL57" s="14">
-        <v>10.107161913089826</v>
-      </c>
-      <c r="CM57" s="14"/>
+        <v>9.5755420857457807</v>
+      </c>
+      <c r="CM57" s="14">
+        <v>13.084252039806231</v>
+      </c>
       <c r="CN57" s="14"/>
       <c r="CO57" s="14"/>
       <c r="CP57" s="14"/>
-      <c r="CQ57" s="9"/>
+      <c r="CQ57" s="14"/>
       <c r="CR57" s="9"/>
       <c r="CS57" s="9"/>
       <c r="CT57" s="9"/>
@@ -31304,13 +31343,15 @@
         <v>17.253595232290024</v>
       </c>
       <c r="CL59" s="14">
-        <v>17.605476987260133</v>
-      </c>
-      <c r="CM59" s="14"/>
+        <v>17.58047568302436</v>
+      </c>
+      <c r="CM59" s="14">
+        <v>11.917981861293669</v>
+      </c>
       <c r="CN59" s="14"/>
       <c r="CO59" s="14"/>
       <c r="CP59" s="14"/>
-      <c r="CQ59" s="9"/>
+      <c r="CQ59" s="14"/>
       <c r="CR59" s="9"/>
       <c r="CS59" s="9"/>
       <c r="CT59" s="9"/>
@@ -31462,6 +31503,7 @@
       <c r="CN60" s="12"/>
       <c r="CO60" s="12"/>
       <c r="CP60" s="12"/>
+      <c r="CQ60" s="12"/>
     </row>
     <row r="61" spans="1:150" x14ac:dyDescent="0.2">
       <c r="A61" s="13" t="s">
@@ -31802,138 +31844,138 @@
     </row>
     <row r="72" spans="1:150" x14ac:dyDescent="0.2">
       <c r="A72" s="4"/>
-      <c r="B72" s="16" t="s">
+      <c r="B72" s="15" t="s">
         <v>31</v>
       </c>
-      <c r="C72" s="18"/>
-      <c r="D72" s="18"/>
-      <c r="E72" s="18"/>
-      <c r="F72" s="16" t="s">
+      <c r="C72" s="17"/>
+      <c r="D72" s="17"/>
+      <c r="E72" s="17"/>
+      <c r="F72" s="15" t="s">
         <v>32</v>
       </c>
-      <c r="G72" s="18"/>
-      <c r="H72" s="18"/>
-      <c r="I72" s="18"/>
-      <c r="J72" s="16" t="s">
+      <c r="G72" s="17"/>
+      <c r="H72" s="17"/>
+      <c r="I72" s="17"/>
+      <c r="J72" s="15" t="s">
         <v>33</v>
       </c>
-      <c r="K72" s="18"/>
-      <c r="L72" s="18"/>
-      <c r="M72" s="18"/>
-      <c r="N72" s="16" t="s">
+      <c r="K72" s="17"/>
+      <c r="L72" s="17"/>
+      <c r="M72" s="17"/>
+      <c r="N72" s="15" t="s">
         <v>34</v>
       </c>
-      <c r="O72" s="18"/>
-      <c r="P72" s="18"/>
-      <c r="Q72" s="18"/>
-      <c r="R72" s="16" t="s">
+      <c r="O72" s="17"/>
+      <c r="P72" s="17"/>
+      <c r="Q72" s="17"/>
+      <c r="R72" s="15" t="s">
         <v>35</v>
       </c>
-      <c r="S72" s="18"/>
-      <c r="T72" s="18"/>
-      <c r="U72" s="18"/>
-      <c r="V72" s="16" t="s">
+      <c r="S72" s="17"/>
+      <c r="T72" s="17"/>
+      <c r="U72" s="17"/>
+      <c r="V72" s="15" t="s">
         <v>36</v>
       </c>
-      <c r="W72" s="18"/>
-      <c r="X72" s="18"/>
-      <c r="Y72" s="18"/>
-      <c r="Z72" s="16" t="s">
+      <c r="W72" s="17"/>
+      <c r="X72" s="17"/>
+      <c r="Y72" s="17"/>
+      <c r="Z72" s="15" t="s">
         <v>37</v>
       </c>
-      <c r="AA72" s="18"/>
-      <c r="AB72" s="18"/>
-      <c r="AC72" s="18"/>
-      <c r="AD72" s="16" t="s">
+      <c r="AA72" s="17"/>
+      <c r="AB72" s="17"/>
+      <c r="AC72" s="17"/>
+      <c r="AD72" s="15" t="s">
         <v>38</v>
       </c>
-      <c r="AE72" s="18"/>
-      <c r="AF72" s="18"/>
-      <c r="AG72" s="18"/>
-      <c r="AH72" s="16" t="s">
+      <c r="AE72" s="17"/>
+      <c r="AF72" s="17"/>
+      <c r="AG72" s="17"/>
+      <c r="AH72" s="15" t="s">
         <v>39</v>
       </c>
-      <c r="AI72" s="18"/>
-      <c r="AJ72" s="18"/>
-      <c r="AK72" s="18"/>
-      <c r="AL72" s="16" t="s">
+      <c r="AI72" s="17"/>
+      <c r="AJ72" s="17"/>
+      <c r="AK72" s="17"/>
+      <c r="AL72" s="15" t="s">
         <v>40</v>
       </c>
-      <c r="AM72" s="18"/>
-      <c r="AN72" s="18"/>
-      <c r="AO72" s="18"/>
-      <c r="AP72" s="16" t="s">
+      <c r="AM72" s="17"/>
+      <c r="AN72" s="17"/>
+      <c r="AO72" s="17"/>
+      <c r="AP72" s="15" t="s">
         <v>41</v>
       </c>
-      <c r="AQ72" s="18"/>
-      <c r="AR72" s="18"/>
-      <c r="AS72" s="18"/>
-      <c r="AT72" s="16" t="s">
+      <c r="AQ72" s="17"/>
+      <c r="AR72" s="17"/>
+      <c r="AS72" s="17"/>
+      <c r="AT72" s="15" t="s">
         <v>42</v>
       </c>
-      <c r="AU72" s="18"/>
-      <c r="AV72" s="18"/>
-      <c r="AW72" s="18"/>
-      <c r="AX72" s="16" t="s">
+      <c r="AU72" s="17"/>
+      <c r="AV72" s="17"/>
+      <c r="AW72" s="17"/>
+      <c r="AX72" s="15" t="s">
         <v>43</v>
       </c>
-      <c r="AY72" s="18"/>
-      <c r="AZ72" s="18"/>
-      <c r="BA72" s="18"/>
-      <c r="BB72" s="16" t="s">
+      <c r="AY72" s="17"/>
+      <c r="AZ72" s="17"/>
+      <c r="BA72" s="17"/>
+      <c r="BB72" s="15" t="s">
         <v>44</v>
       </c>
-      <c r="BC72" s="18"/>
-      <c r="BD72" s="18"/>
-      <c r="BE72" s="18"/>
-      <c r="BF72" s="16" t="s">
+      <c r="BC72" s="17"/>
+      <c r="BD72" s="17"/>
+      <c r="BE72" s="17"/>
+      <c r="BF72" s="15" t="s">
         <v>45</v>
       </c>
-      <c r="BG72" s="18"/>
-      <c r="BH72" s="18"/>
-      <c r="BI72" s="18"/>
-      <c r="BJ72" s="16" t="s">
+      <c r="BG72" s="17"/>
+      <c r="BH72" s="17"/>
+      <c r="BI72" s="17"/>
+      <c r="BJ72" s="15" t="s">
         <v>46</v>
       </c>
-      <c r="BK72" s="18"/>
-      <c r="BL72" s="18"/>
-      <c r="BM72" s="18"/>
-      <c r="BN72" s="16" t="s">
+      <c r="BK72" s="17"/>
+      <c r="BL72" s="17"/>
+      <c r="BM72" s="17"/>
+      <c r="BN72" s="15" t="s">
         <v>47</v>
       </c>
-      <c r="BO72" s="18"/>
-      <c r="BP72" s="18"/>
-      <c r="BQ72" s="18"/>
-      <c r="BR72" s="16" t="s">
+      <c r="BO72" s="17"/>
+      <c r="BP72" s="17"/>
+      <c r="BQ72" s="17"/>
+      <c r="BR72" s="15" t="s">
         <v>27</v>
       </c>
-      <c r="BS72" s="18"/>
-      <c r="BT72" s="18"/>
-      <c r="BU72" s="18"/>
-      <c r="BV72" s="16" t="s">
+      <c r="BS72" s="17"/>
+      <c r="BT72" s="17"/>
+      <c r="BU72" s="17"/>
+      <c r="BV72" s="15" t="s">
         <v>28</v>
       </c>
-      <c r="BW72" s="18"/>
-      <c r="BX72" s="18"/>
-      <c r="BY72" s="18"/>
-      <c r="BZ72" s="16" t="s">
+      <c r="BW72" s="17"/>
+      <c r="BX72" s="17"/>
+      <c r="BY72" s="17"/>
+      <c r="BZ72" s="15" t="s">
         <v>29</v>
       </c>
-      <c r="CA72" s="18"/>
-      <c r="CB72" s="18"/>
-      <c r="CC72" s="18"/>
-      <c r="CD72" s="16" t="s">
+      <c r="CA72" s="17"/>
+      <c r="CB72" s="17"/>
+      <c r="CC72" s="17"/>
+      <c r="CD72" s="15" t="s">
         <v>48</v>
       </c>
-      <c r="CE72" s="16"/>
-      <c r="CF72" s="16"/>
-      <c r="CG72" s="16"/>
-      <c r="CH72" s="16" t="s">
+      <c r="CE72" s="15"/>
+      <c r="CF72" s="15"/>
+      <c r="CG72" s="15"/>
+      <c r="CH72" s="15" t="s">
         <v>49</v>
       </c>
-      <c r="CI72" s="16"/>
-      <c r="CJ72" s="16"/>
-      <c r="CK72" s="16"/>
+      <c r="CI72" s="15"/>
+      <c r="CJ72" s="15"/>
+      <c r="CK72" s="15"/>
       <c r="CL72" s="15" t="s">
         <v>50</v>
       </c>
@@ -31941,6 +31983,7 @@
       <c r="CN72" s="15"/>
       <c r="CO72" s="15"/>
       <c r="CP72" s="15"/>
+      <c r="CQ72" s="17"/>
     </row>
     <row r="73" spans="1:150" x14ac:dyDescent="0.2">
       <c r="A73" s="5" t="s">
@@ -32213,10 +32256,13 @@
       <c r="CL73" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="CM73" s="5"/>
+      <c r="CM73" s="5" t="s">
+        <v>8</v>
+      </c>
       <c r="CN73" s="5"/>
       <c r="CO73" s="5"/>
       <c r="CP73" s="5"/>
+      <c r="CQ73" s="5"/>
     </row>
     <row r="74" spans="1:150" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A74" s="7"/>
@@ -32490,13 +32536,15 @@
         <v>9.8272824283011033</v>
       </c>
       <c r="CL75" s="14">
-        <v>12.059679845761792</v>
-      </c>
-      <c r="CM75" s="14"/>
+        <v>11.212561659237835</v>
+      </c>
+      <c r="CM75" s="14">
+        <v>8.0159853381847057</v>
+      </c>
       <c r="CN75" s="14"/>
       <c r="CO75" s="14"/>
       <c r="CP75" s="14"/>
-      <c r="CQ75" s="9"/>
+      <c r="CQ75" s="14"/>
       <c r="CR75" s="9"/>
       <c r="CS75" s="9"/>
       <c r="CT75" s="9"/>
@@ -32822,13 +32870,15 @@
         <v>10.381601710819254</v>
       </c>
       <c r="CL76" s="14">
-        <v>7.8396068331835664</v>
-      </c>
-      <c r="CM76" s="14"/>
+        <v>9.8621323228153699</v>
+      </c>
+      <c r="CM76" s="14">
+        <v>3.1561253893385555</v>
+      </c>
       <c r="CN76" s="14"/>
       <c r="CO76" s="14"/>
       <c r="CP76" s="14"/>
-      <c r="CQ76" s="9"/>
+      <c r="CQ76" s="14"/>
       <c r="CR76" s="9"/>
       <c r="CS76" s="9"/>
       <c r="CT76" s="9"/>
@@ -33156,11 +33206,13 @@
       <c r="CL77" s="14">
         <v>-2.4063700097721892</v>
       </c>
-      <c r="CM77" s="14"/>
+      <c r="CM77" s="14">
+        <v>-1.0594558246736341</v>
+      </c>
       <c r="CN77" s="14"/>
       <c r="CO77" s="14"/>
       <c r="CP77" s="14"/>
-      <c r="CQ77" s="9"/>
+      <c r="CQ77" s="14"/>
       <c r="CR77" s="9"/>
       <c r="CS77" s="9"/>
       <c r="CT77" s="9"/>
@@ -33486,13 +33538,15 @@
         <v>6.7295841723780541</v>
       </c>
       <c r="CL78" s="14">
-        <v>3.3540108445096166</v>
-      </c>
-      <c r="CM78" s="14"/>
+        <v>2.8554756057137354</v>
+      </c>
+      <c r="CM78" s="14">
+        <v>5.3918102706997075</v>
+      </c>
       <c r="CN78" s="14"/>
       <c r="CO78" s="14"/>
       <c r="CP78" s="14"/>
-      <c r="CQ78" s="9"/>
+      <c r="CQ78" s="14"/>
       <c r="CR78" s="9"/>
       <c r="CS78" s="9"/>
       <c r="CT78" s="9"/>
@@ -33969,13 +34023,15 @@
         <v>9.335245890382609</v>
       </c>
       <c r="CL80" s="14">
-        <v>8.8020341136146811</v>
-      </c>
-      <c r="CM80" s="14"/>
+        <v>8.7829391683283973</v>
+      </c>
+      <c r="CM80" s="14">
+        <v>5.0358735441439677</v>
+      </c>
       <c r="CN80" s="14"/>
       <c r="CO80" s="14"/>
       <c r="CP80" s="14"/>
-      <c r="CQ80" s="9"/>
+      <c r="CQ80" s="14"/>
       <c r="CR80" s="9"/>
       <c r="CS80" s="9"/>
       <c r="CT80" s="9"/>
@@ -34127,6 +34183,7 @@
       <c r="CN81" s="12"/>
       <c r="CO81" s="12"/>
       <c r="CP81" s="12"/>
+      <c r="CQ81" s="12"/>
     </row>
     <row r="82" spans="1:154" x14ac:dyDescent="0.2">
       <c r="A82" s="13" t="s">
@@ -34462,147 +34519,148 @@
     </row>
     <row r="92" spans="1:154" x14ac:dyDescent="0.2">
       <c r="A92" s="4"/>
-      <c r="B92" s="16">
+      <c r="B92" s="15">
         <v>2000</v>
       </c>
-      <c r="C92" s="17"/>
-      <c r="D92" s="17"/>
-      <c r="E92" s="17"/>
-      <c r="F92" s="16">
+      <c r="C92" s="16"/>
+      <c r="D92" s="16"/>
+      <c r="E92" s="16"/>
+      <c r="F92" s="15">
         <v>2001</v>
       </c>
-      <c r="G92" s="17"/>
-      <c r="H92" s="17"/>
-      <c r="I92" s="17"/>
-      <c r="J92" s="16">
+      <c r="G92" s="16"/>
+      <c r="H92" s="16"/>
+      <c r="I92" s="16"/>
+      <c r="J92" s="15">
         <v>2002</v>
       </c>
-      <c r="K92" s="17"/>
-      <c r="L92" s="17"/>
-      <c r="M92" s="17"/>
-      <c r="N92" s="16">
+      <c r="K92" s="16"/>
+      <c r="L92" s="16"/>
+      <c r="M92" s="16"/>
+      <c r="N92" s="15">
         <v>2003</v>
       </c>
-      <c r="O92" s="17"/>
-      <c r="P92" s="17"/>
-      <c r="Q92" s="17"/>
-      <c r="R92" s="16">
+      <c r="O92" s="16"/>
+      <c r="P92" s="16"/>
+      <c r="Q92" s="16"/>
+      <c r="R92" s="15">
         <v>2004</v>
       </c>
-      <c r="S92" s="17"/>
-      <c r="T92" s="17"/>
-      <c r="U92" s="17"/>
-      <c r="V92" s="16">
+      <c r="S92" s="16"/>
+      <c r="T92" s="16"/>
+      <c r="U92" s="16"/>
+      <c r="V92" s="15">
         <v>2005</v>
       </c>
-      <c r="W92" s="17"/>
-      <c r="X92" s="17"/>
-      <c r="Y92" s="17"/>
-      <c r="Z92" s="16">
+      <c r="W92" s="16"/>
+      <c r="X92" s="16"/>
+      <c r="Y92" s="16"/>
+      <c r="Z92" s="15">
         <v>2006</v>
       </c>
-      <c r="AA92" s="17"/>
-      <c r="AB92" s="17"/>
-      <c r="AC92" s="17"/>
-      <c r="AD92" s="16">
+      <c r="AA92" s="16"/>
+      <c r="AB92" s="16"/>
+      <c r="AC92" s="16"/>
+      <c r="AD92" s="15">
         <v>2007</v>
       </c>
-      <c r="AE92" s="17"/>
-      <c r="AF92" s="17"/>
-      <c r="AG92" s="17"/>
-      <c r="AH92" s="16">
+      <c r="AE92" s="16"/>
+      <c r="AF92" s="16"/>
+      <c r="AG92" s="16"/>
+      <c r="AH92" s="15">
         <v>2008</v>
       </c>
-      <c r="AI92" s="17"/>
-      <c r="AJ92" s="17"/>
-      <c r="AK92" s="17"/>
-      <c r="AL92" s="16">
+      <c r="AI92" s="16"/>
+      <c r="AJ92" s="16"/>
+      <c r="AK92" s="16"/>
+      <c r="AL92" s="15">
         <v>2009</v>
       </c>
-      <c r="AM92" s="17"/>
-      <c r="AN92" s="17"/>
-      <c r="AO92" s="17"/>
-      <c r="AP92" s="16">
+      <c r="AM92" s="16"/>
+      <c r="AN92" s="16"/>
+      <c r="AO92" s="16"/>
+      <c r="AP92" s="15">
         <v>2010</v>
       </c>
-      <c r="AQ92" s="17"/>
-      <c r="AR92" s="17"/>
-      <c r="AS92" s="17"/>
-      <c r="AT92" s="16">
+      <c r="AQ92" s="16"/>
+      <c r="AR92" s="16"/>
+      <c r="AS92" s="16"/>
+      <c r="AT92" s="15">
         <v>2011</v>
       </c>
-      <c r="AU92" s="17"/>
-      <c r="AV92" s="17"/>
-      <c r="AW92" s="17"/>
-      <c r="AX92" s="16">
+      <c r="AU92" s="16"/>
+      <c r="AV92" s="16"/>
+      <c r="AW92" s="16"/>
+      <c r="AX92" s="15">
         <v>2012</v>
       </c>
-      <c r="AY92" s="17"/>
-      <c r="AZ92" s="17"/>
-      <c r="BA92" s="17"/>
-      <c r="BB92" s="16">
+      <c r="AY92" s="16"/>
+      <c r="AZ92" s="16"/>
+      <c r="BA92" s="16"/>
+      <c r="BB92" s="15">
         <v>2013</v>
       </c>
-      <c r="BC92" s="17"/>
-      <c r="BD92" s="17"/>
-      <c r="BE92" s="17"/>
-      <c r="BF92" s="16">
+      <c r="BC92" s="16"/>
+      <c r="BD92" s="16"/>
+      <c r="BE92" s="16"/>
+      <c r="BF92" s="15">
         <v>2014</v>
       </c>
-      <c r="BG92" s="17"/>
-      <c r="BH92" s="17"/>
-      <c r="BI92" s="17"/>
-      <c r="BJ92" s="16">
+      <c r="BG92" s="16"/>
+      <c r="BH92" s="16"/>
+      <c r="BI92" s="16"/>
+      <c r="BJ92" s="15">
         <v>2015</v>
       </c>
-      <c r="BK92" s="17"/>
-      <c r="BL92" s="17"/>
-      <c r="BM92" s="17"/>
-      <c r="BN92" s="16">
+      <c r="BK92" s="16"/>
+      <c r="BL92" s="16"/>
+      <c r="BM92" s="16"/>
+      <c r="BN92" s="15">
         <v>2016</v>
       </c>
-      <c r="BO92" s="17"/>
-      <c r="BP92" s="17"/>
-      <c r="BQ92" s="17"/>
-      <c r="BR92" s="16">
+      <c r="BO92" s="16"/>
+      <c r="BP92" s="16"/>
+      <c r="BQ92" s="16"/>
+      <c r="BR92" s="15">
         <v>2017</v>
       </c>
-      <c r="BS92" s="17"/>
-      <c r="BT92" s="17"/>
-      <c r="BU92" s="17"/>
-      <c r="BV92" s="16">
+      <c r="BS92" s="16"/>
+      <c r="BT92" s="16"/>
+      <c r="BU92" s="16"/>
+      <c r="BV92" s="15">
         <v>2018</v>
       </c>
-      <c r="BW92" s="17"/>
-      <c r="BX92" s="17"/>
-      <c r="BY92" s="17"/>
-      <c r="BZ92" s="16">
+      <c r="BW92" s="16"/>
+      <c r="BX92" s="16"/>
+      <c r="BY92" s="16"/>
+      <c r="BZ92" s="15">
         <v>2019</v>
       </c>
-      <c r="CA92" s="17"/>
-      <c r="CB92" s="17"/>
-      <c r="CC92" s="17"/>
-      <c r="CD92" s="16">
+      <c r="CA92" s="16"/>
+      <c r="CB92" s="16"/>
+      <c r="CC92" s="16"/>
+      <c r="CD92" s="15">
         <v>2020</v>
       </c>
-      <c r="CE92" s="16"/>
-      <c r="CF92" s="16"/>
-      <c r="CG92" s="16"/>
-      <c r="CH92" s="16">
+      <c r="CE92" s="15"/>
+      <c r="CF92" s="15"/>
+      <c r="CG92" s="15"/>
+      <c r="CH92" s="15">
         <v>2021</v>
       </c>
-      <c r="CI92" s="16"/>
-      <c r="CJ92" s="16"/>
-      <c r="CK92" s="16"/>
-      <c r="CL92" s="16">
+      <c r="CI92" s="15"/>
+      <c r="CJ92" s="15"/>
+      <c r="CK92" s="15"/>
+      <c r="CL92" s="15">
         <v>2022</v>
       </c>
-      <c r="CM92" s="16"/>
-      <c r="CN92" s="16"/>
-      <c r="CO92" s="16"/>
+      <c r="CM92" s="15"/>
+      <c r="CN92" s="15"/>
+      <c r="CO92" s="15"/>
       <c r="CP92" s="15">
         <v>2023</v>
       </c>
+      <c r="CQ92" s="17"/>
     </row>
     <row r="93" spans="1:154" x14ac:dyDescent="0.2">
       <c r="A93" s="5" t="s">
@@ -34886,6 +34944,9 @@
       </c>
       <c r="CP93" s="6" t="s">
         <v>7</v>
+      </c>
+      <c r="CQ93" s="6" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="94" spans="1:154" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
@@ -35174,7 +35235,9 @@
       <c r="CP95" s="14">
         <v>119.06559273198043</v>
       </c>
-      <c r="CQ95" s="9"/>
+      <c r="CQ95" s="14">
+        <v>119.93600428380589</v>
+      </c>
       <c r="CR95" s="9"/>
       <c r="CS95" s="9"/>
       <c r="CT95" s="9"/>
@@ -35516,9 +35579,11 @@
         <v>114.05321500450081</v>
       </c>
       <c r="CP96" s="14">
-        <v>118.11260589622093</v>
-      </c>
-      <c r="CQ96" s="9"/>
+        <v>118.11260589622094</v>
+      </c>
+      <c r="CQ96" s="14">
+        <v>118.34981393221697</v>
+      </c>
       <c r="CR96" s="9"/>
       <c r="CS96" s="9"/>
       <c r="CT96" s="9"/>
@@ -35862,7 +35927,9 @@
       <c r="CP97" s="14">
         <v>120.83632613767128</v>
       </c>
-      <c r="CQ97" s="9"/>
+      <c r="CQ97" s="14">
+        <v>115.42350468533623</v>
+      </c>
       <c r="CR97" s="9"/>
       <c r="CS97" s="9"/>
       <c r="CT97" s="9"/>
@@ -36204,9 +36271,11 @@
         <v>114.37964806558402</v>
       </c>
       <c r="CP98" s="14">
-        <v>119.19586457068647</v>
-      </c>
-      <c r="CQ98" s="9"/>
+        <v>119.19530947514345</v>
+      </c>
+      <c r="CQ98" s="14">
+        <v>121.51586987047838</v>
+      </c>
       <c r="CR98" s="9"/>
       <c r="CS98" s="9"/>
       <c r="CT98" s="9"/>
@@ -36703,9 +36772,11 @@
         <v>114.19665148326661</v>
       </c>
       <c r="CP100" s="14">
-        <v>119.03758399522167</v>
-      </c>
-      <c r="CQ100" s="9"/>
+        <v>119.0331687718906</v>
+      </c>
+      <c r="CQ100" s="14">
+        <v>118.9526180140009</v>
+      </c>
       <c r="CR100" s="9"/>
       <c r="CS100" s="9"/>
       <c r="CT100" s="9"/>
@@ -36861,6 +36932,7 @@
       <c r="CN101" s="12"/>
       <c r="CO101" s="12"/>
       <c r="CP101" s="12"/>
+      <c r="CQ101" s="12"/>
     </row>
     <row r="102" spans="1:154" x14ac:dyDescent="0.2">
       <c r="A102" s="13" t="s">
@@ -36899,147 +36971,148 @@
     </row>
     <row r="113" spans="1:154" x14ac:dyDescent="0.2">
       <c r="A113" s="4"/>
-      <c r="B113" s="16">
+      <c r="B113" s="15">
         <v>2000</v>
       </c>
-      <c r="C113" s="17"/>
-      <c r="D113" s="17"/>
-      <c r="E113" s="17"/>
-      <c r="F113" s="16">
+      <c r="C113" s="16"/>
+      <c r="D113" s="16"/>
+      <c r="E113" s="16"/>
+      <c r="F113" s="15">
         <v>2001</v>
       </c>
-      <c r="G113" s="17"/>
-      <c r="H113" s="17"/>
-      <c r="I113" s="17"/>
-      <c r="J113" s="16">
+      <c r="G113" s="16"/>
+      <c r="H113" s="16"/>
+      <c r="I113" s="16"/>
+      <c r="J113" s="15">
         <v>2002</v>
       </c>
-      <c r="K113" s="17"/>
-      <c r="L113" s="17"/>
-      <c r="M113" s="17"/>
-      <c r="N113" s="16">
+      <c r="K113" s="16"/>
+      <c r="L113" s="16"/>
+      <c r="M113" s="16"/>
+      <c r="N113" s="15">
         <v>2003</v>
       </c>
-      <c r="O113" s="17"/>
-      <c r="P113" s="17"/>
-      <c r="Q113" s="17"/>
-      <c r="R113" s="16">
+      <c r="O113" s="16"/>
+      <c r="P113" s="16"/>
+      <c r="Q113" s="16"/>
+      <c r="R113" s="15">
         <v>2004</v>
       </c>
-      <c r="S113" s="17"/>
-      <c r="T113" s="17"/>
-      <c r="U113" s="17"/>
-      <c r="V113" s="16">
+      <c r="S113" s="16"/>
+      <c r="T113" s="16"/>
+      <c r="U113" s="16"/>
+      <c r="V113" s="15">
         <v>2005</v>
       </c>
-      <c r="W113" s="17"/>
-      <c r="X113" s="17"/>
-      <c r="Y113" s="17"/>
-      <c r="Z113" s="16">
+      <c r="W113" s="16"/>
+      <c r="X113" s="16"/>
+      <c r="Y113" s="16"/>
+      <c r="Z113" s="15">
         <v>2006</v>
       </c>
-      <c r="AA113" s="17"/>
-      <c r="AB113" s="17"/>
-      <c r="AC113" s="17"/>
-      <c r="AD113" s="16">
+      <c r="AA113" s="16"/>
+      <c r="AB113" s="16"/>
+      <c r="AC113" s="16"/>
+      <c r="AD113" s="15">
         <v>2007</v>
       </c>
-      <c r="AE113" s="17"/>
-      <c r="AF113" s="17"/>
-      <c r="AG113" s="17"/>
-      <c r="AH113" s="16">
+      <c r="AE113" s="16"/>
+      <c r="AF113" s="16"/>
+      <c r="AG113" s="16"/>
+      <c r="AH113" s="15">
         <v>2008</v>
       </c>
-      <c r="AI113" s="17"/>
-      <c r="AJ113" s="17"/>
-      <c r="AK113" s="17"/>
-      <c r="AL113" s="16">
+      <c r="AI113" s="16"/>
+      <c r="AJ113" s="16"/>
+      <c r="AK113" s="16"/>
+      <c r="AL113" s="15">
         <v>2009</v>
       </c>
-      <c r="AM113" s="17"/>
-      <c r="AN113" s="17"/>
-      <c r="AO113" s="17"/>
-      <c r="AP113" s="16">
+      <c r="AM113" s="16"/>
+      <c r="AN113" s="16"/>
+      <c r="AO113" s="16"/>
+      <c r="AP113" s="15">
         <v>2010</v>
       </c>
-      <c r="AQ113" s="17"/>
-      <c r="AR113" s="17"/>
-      <c r="AS113" s="17"/>
-      <c r="AT113" s="16">
+      <c r="AQ113" s="16"/>
+      <c r="AR113" s="16"/>
+      <c r="AS113" s="16"/>
+      <c r="AT113" s="15">
         <v>2011</v>
       </c>
-      <c r="AU113" s="17"/>
-      <c r="AV113" s="17"/>
-      <c r="AW113" s="17"/>
-      <c r="AX113" s="16">
+      <c r="AU113" s="16"/>
+      <c r="AV113" s="16"/>
+      <c r="AW113" s="16"/>
+      <c r="AX113" s="15">
         <v>2012</v>
       </c>
-      <c r="AY113" s="17"/>
-      <c r="AZ113" s="17"/>
-      <c r="BA113" s="17"/>
-      <c r="BB113" s="16">
+      <c r="AY113" s="16"/>
+      <c r="AZ113" s="16"/>
+      <c r="BA113" s="16"/>
+      <c r="BB113" s="15">
         <v>2013</v>
       </c>
-      <c r="BC113" s="17"/>
-      <c r="BD113" s="17"/>
-      <c r="BE113" s="17"/>
-      <c r="BF113" s="16">
+      <c r="BC113" s="16"/>
+      <c r="BD113" s="16"/>
+      <c r="BE113" s="16"/>
+      <c r="BF113" s="15">
         <v>2014</v>
       </c>
-      <c r="BG113" s="17"/>
-      <c r="BH113" s="17"/>
-      <c r="BI113" s="17"/>
-      <c r="BJ113" s="16">
+      <c r="BG113" s="16"/>
+      <c r="BH113" s="16"/>
+      <c r="BI113" s="16"/>
+      <c r="BJ113" s="15">
         <v>2015</v>
       </c>
-      <c r="BK113" s="17"/>
-      <c r="BL113" s="17"/>
-      <c r="BM113" s="17"/>
-      <c r="BN113" s="16">
+      <c r="BK113" s="16"/>
+      <c r="BL113" s="16"/>
+      <c r="BM113" s="16"/>
+      <c r="BN113" s="15">
         <v>2016</v>
       </c>
-      <c r="BO113" s="17"/>
-      <c r="BP113" s="17"/>
-      <c r="BQ113" s="17"/>
-      <c r="BR113" s="16">
+      <c r="BO113" s="16"/>
+      <c r="BP113" s="16"/>
+      <c r="BQ113" s="16"/>
+      <c r="BR113" s="15">
         <v>2017</v>
       </c>
-      <c r="BS113" s="17"/>
-      <c r="BT113" s="17"/>
-      <c r="BU113" s="17"/>
-      <c r="BV113" s="16">
+      <c r="BS113" s="16"/>
+      <c r="BT113" s="16"/>
+      <c r="BU113" s="16"/>
+      <c r="BV113" s="15">
         <v>2018</v>
       </c>
-      <c r="BW113" s="17"/>
-      <c r="BX113" s="17"/>
-      <c r="BY113" s="17"/>
-      <c r="BZ113" s="16">
+      <c r="BW113" s="16"/>
+      <c r="BX113" s="16"/>
+      <c r="BY113" s="16"/>
+      <c r="BZ113" s="15">
         <v>2019</v>
       </c>
-      <c r="CA113" s="17"/>
-      <c r="CB113" s="17"/>
-      <c r="CC113" s="17"/>
-      <c r="CD113" s="16">
+      <c r="CA113" s="16"/>
+      <c r="CB113" s="16"/>
+      <c r="CC113" s="16"/>
+      <c r="CD113" s="15">
         <v>2020</v>
       </c>
-      <c r="CE113" s="16"/>
-      <c r="CF113" s="16"/>
-      <c r="CG113" s="16"/>
-      <c r="CH113" s="16">
+      <c r="CE113" s="15"/>
+      <c r="CF113" s="15"/>
+      <c r="CG113" s="15"/>
+      <c r="CH113" s="15">
         <v>2021</v>
       </c>
-      <c r="CI113" s="16"/>
-      <c r="CJ113" s="16"/>
-      <c r="CK113" s="16"/>
-      <c r="CL113" s="16">
+      <c r="CI113" s="15"/>
+      <c r="CJ113" s="15"/>
+      <c r="CK113" s="15"/>
+      <c r="CL113" s="15">
         <v>2022</v>
       </c>
-      <c r="CM113" s="16"/>
-      <c r="CN113" s="16"/>
-      <c r="CO113" s="16"/>
+      <c r="CM113" s="15"/>
+      <c r="CN113" s="15"/>
+      <c r="CO113" s="15"/>
       <c r="CP113" s="15">
         <v>2023</v>
       </c>
+      <c r="CQ113" s="17"/>
     </row>
     <row r="114" spans="1:154" x14ac:dyDescent="0.2">
       <c r="A114" s="5" t="s">
@@ -37323,6 +37396,9 @@
       </c>
       <c r="CP114" s="6" t="s">
         <v>7</v>
+      </c>
+      <c r="CQ114" s="6" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="115" spans="1:154" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
@@ -37609,9 +37685,11 @@
         <v>48.326805911944618</v>
       </c>
       <c r="CP116" s="14">
-        <v>59.930671863608644</v>
-      </c>
-      <c r="CQ116" s="9"/>
+        <v>59.490271137667548</v>
+      </c>
+      <c r="CQ116" s="14">
+        <v>48.044401828047398</v>
+      </c>
       <c r="CR116" s="9"/>
       <c r="CS116" s="9"/>
       <c r="CT116" s="9"/>
@@ -37953,9 +38031,11 @@
         <v>32.245623266952393</v>
       </c>
       <c r="CP117" s="14">
-        <v>24.184126044282159</v>
-      </c>
-      <c r="CQ117" s="9"/>
+        <v>24.642936656056627</v>
+      </c>
+      <c r="CQ117" s="14">
+        <v>35.938592723006998</v>
+      </c>
       <c r="CR117" s="9"/>
       <c r="CS117" s="9"/>
       <c r="CT117" s="9"/>
@@ -38297,9 +38377,11 @@
         <v>14.126646013963967</v>
       </c>
       <c r="CP118" s="14">
-        <v>11.37359741021314</v>
-      </c>
-      <c r="CQ118" s="9"/>
+        <v>11.376015794451307</v>
+      </c>
+      <c r="CQ118" s="14">
+        <v>10.620243705253259</v>
+      </c>
       <c r="CR118" s="9"/>
       <c r="CS118" s="9"/>
       <c r="CT118" s="9"/>
@@ -38641,9 +38723,11 @@
         <v>5.3009248071390074</v>
       </c>
       <c r="CP119" s="14">
-        <v>4.5116046818960607</v>
-      </c>
-      <c r="CQ119" s="9"/>
+        <v>4.4907764118245117</v>
+      </c>
+      <c r="CQ119" s="14">
+        <v>5.3967617436923518</v>
+      </c>
       <c r="CR119" s="9"/>
       <c r="CS119" s="9"/>
       <c r="CT119" s="9"/>
@@ -38798,7 +38882,7 @@
       <c r="CN120" s="14"/>
       <c r="CO120" s="14"/>
       <c r="CP120" s="14"/>
-      <c r="CQ120" s="9"/>
+      <c r="CQ120" s="14"/>
       <c r="CR120" s="9"/>
       <c r="CS120" s="9"/>
       <c r="CT120" s="9"/>
@@ -39142,7 +39226,9 @@
       <c r="CP121" s="14">
         <v>100</v>
       </c>
-      <c r="CQ121" s="9"/>
+      <c r="CQ121" s="14">
+        <v>100</v>
+      </c>
       <c r="CR121" s="9"/>
       <c r="CS121" s="9"/>
       <c r="CT121" s="9"/>
@@ -39298,6 +39384,7 @@
       <c r="CN122" s="12"/>
       <c r="CO122" s="12"/>
       <c r="CP122" s="12"/>
+      <c r="CQ122" s="12"/>
     </row>
     <row r="123" spans="1:154" x14ac:dyDescent="0.2">
       <c r="A123" s="13" t="s">
@@ -39646,147 +39733,148 @@
     </row>
     <row r="134" spans="1:154" x14ac:dyDescent="0.2">
       <c r="A134" s="4"/>
-      <c r="B134" s="16">
+      <c r="B134" s="15">
         <v>2000</v>
       </c>
-      <c r="C134" s="17"/>
-      <c r="D134" s="17"/>
-      <c r="E134" s="17"/>
-      <c r="F134" s="16">
+      <c r="C134" s="16"/>
+      <c r="D134" s="16"/>
+      <c r="E134" s="16"/>
+      <c r="F134" s="15">
         <v>2001</v>
       </c>
-      <c r="G134" s="17"/>
-      <c r="H134" s="17"/>
-      <c r="I134" s="17"/>
-      <c r="J134" s="16">
+      <c r="G134" s="16"/>
+      <c r="H134" s="16"/>
+      <c r="I134" s="16"/>
+      <c r="J134" s="15">
         <v>2002</v>
       </c>
-      <c r="K134" s="17"/>
-      <c r="L134" s="17"/>
-      <c r="M134" s="17"/>
-      <c r="N134" s="16">
+      <c r="K134" s="16"/>
+      <c r="L134" s="16"/>
+      <c r="M134" s="16"/>
+      <c r="N134" s="15">
         <v>2003</v>
       </c>
-      <c r="O134" s="17"/>
-      <c r="P134" s="17"/>
-      <c r="Q134" s="17"/>
-      <c r="R134" s="16">
+      <c r="O134" s="16"/>
+      <c r="P134" s="16"/>
+      <c r="Q134" s="16"/>
+      <c r="R134" s="15">
         <v>2004</v>
       </c>
-      <c r="S134" s="17"/>
-      <c r="T134" s="17"/>
-      <c r="U134" s="17"/>
-      <c r="V134" s="16">
+      <c r="S134" s="16"/>
+      <c r="T134" s="16"/>
+      <c r="U134" s="16"/>
+      <c r="V134" s="15">
         <v>2005</v>
       </c>
-      <c r="W134" s="17"/>
-      <c r="X134" s="17"/>
-      <c r="Y134" s="17"/>
-      <c r="Z134" s="16">
+      <c r="W134" s="16"/>
+      <c r="X134" s="16"/>
+      <c r="Y134" s="16"/>
+      <c r="Z134" s="15">
         <v>2006</v>
       </c>
-      <c r="AA134" s="17"/>
-      <c r="AB134" s="17"/>
-      <c r="AC134" s="17"/>
-      <c r="AD134" s="16">
+      <c r="AA134" s="16"/>
+      <c r="AB134" s="16"/>
+      <c r="AC134" s="16"/>
+      <c r="AD134" s="15">
         <v>2007</v>
       </c>
-      <c r="AE134" s="17"/>
-      <c r="AF134" s="17"/>
-      <c r="AG134" s="17"/>
-      <c r="AH134" s="16">
+      <c r="AE134" s="16"/>
+      <c r="AF134" s="16"/>
+      <c r="AG134" s="16"/>
+      <c r="AH134" s="15">
         <v>2008</v>
       </c>
-      <c r="AI134" s="17"/>
-      <c r="AJ134" s="17"/>
-      <c r="AK134" s="17"/>
-      <c r="AL134" s="16">
+      <c r="AI134" s="16"/>
+      <c r="AJ134" s="16"/>
+      <c r="AK134" s="16"/>
+      <c r="AL134" s="15">
         <v>2009</v>
       </c>
-      <c r="AM134" s="17"/>
-      <c r="AN134" s="17"/>
-      <c r="AO134" s="17"/>
-      <c r="AP134" s="16">
+      <c r="AM134" s="16"/>
+      <c r="AN134" s="16"/>
+      <c r="AO134" s="16"/>
+      <c r="AP134" s="15">
         <v>2010</v>
       </c>
-      <c r="AQ134" s="17"/>
-      <c r="AR134" s="17"/>
-      <c r="AS134" s="17"/>
-      <c r="AT134" s="16">
+      <c r="AQ134" s="16"/>
+      <c r="AR134" s="16"/>
+      <c r="AS134" s="16"/>
+      <c r="AT134" s="15">
         <v>2011</v>
       </c>
-      <c r="AU134" s="17"/>
-      <c r="AV134" s="17"/>
-      <c r="AW134" s="17"/>
-      <c r="AX134" s="16">
+      <c r="AU134" s="16"/>
+      <c r="AV134" s="16"/>
+      <c r="AW134" s="16"/>
+      <c r="AX134" s="15">
         <v>2012</v>
       </c>
-      <c r="AY134" s="17"/>
-      <c r="AZ134" s="17"/>
-      <c r="BA134" s="17"/>
-      <c r="BB134" s="16">
+      <c r="AY134" s="16"/>
+      <c r="AZ134" s="16"/>
+      <c r="BA134" s="16"/>
+      <c r="BB134" s="15">
         <v>2013</v>
       </c>
-      <c r="BC134" s="17"/>
-      <c r="BD134" s="17"/>
-      <c r="BE134" s="17"/>
-      <c r="BF134" s="16">
+      <c r="BC134" s="16"/>
+      <c r="BD134" s="16"/>
+      <c r="BE134" s="16"/>
+      <c r="BF134" s="15">
         <v>2014</v>
       </c>
-      <c r="BG134" s="17"/>
-      <c r="BH134" s="17"/>
-      <c r="BI134" s="17"/>
-      <c r="BJ134" s="16">
+      <c r="BG134" s="16"/>
+      <c r="BH134" s="16"/>
+      <c r="BI134" s="16"/>
+      <c r="BJ134" s="15">
         <v>2015</v>
       </c>
-      <c r="BK134" s="17"/>
-      <c r="BL134" s="17"/>
-      <c r="BM134" s="17"/>
-      <c r="BN134" s="16">
+      <c r="BK134" s="16"/>
+      <c r="BL134" s="16"/>
+      <c r="BM134" s="16"/>
+      <c r="BN134" s="15">
         <v>2016</v>
       </c>
-      <c r="BO134" s="17"/>
-      <c r="BP134" s="17"/>
-      <c r="BQ134" s="17"/>
-      <c r="BR134" s="16">
+      <c r="BO134" s="16"/>
+      <c r="BP134" s="16"/>
+      <c r="BQ134" s="16"/>
+      <c r="BR134" s="15">
         <v>2017</v>
       </c>
-      <c r="BS134" s="17"/>
-      <c r="BT134" s="17"/>
-      <c r="BU134" s="17"/>
-      <c r="BV134" s="16">
+      <c r="BS134" s="16"/>
+      <c r="BT134" s="16"/>
+      <c r="BU134" s="16"/>
+      <c r="BV134" s="15">
         <v>2018</v>
       </c>
-      <c r="BW134" s="17"/>
-      <c r="BX134" s="17"/>
-      <c r="BY134" s="17"/>
-      <c r="BZ134" s="16">
+      <c r="BW134" s="16"/>
+      <c r="BX134" s="16"/>
+      <c r="BY134" s="16"/>
+      <c r="BZ134" s="15">
         <v>2019</v>
       </c>
-      <c r="CA134" s="17"/>
-      <c r="CB134" s="17"/>
-      <c r="CC134" s="17"/>
-      <c r="CD134" s="16">
+      <c r="CA134" s="16"/>
+      <c r="CB134" s="16"/>
+      <c r="CC134" s="16"/>
+      <c r="CD134" s="15">
         <v>2020</v>
       </c>
-      <c r="CE134" s="16"/>
-      <c r="CF134" s="16"/>
-      <c r="CG134" s="16"/>
-      <c r="CH134" s="16">
+      <c r="CE134" s="15"/>
+      <c r="CF134" s="15"/>
+      <c r="CG134" s="15"/>
+      <c r="CH134" s="15">
         <v>2021</v>
       </c>
-      <c r="CI134" s="16"/>
-      <c r="CJ134" s="16"/>
-      <c r="CK134" s="16"/>
-      <c r="CL134" s="16">
+      <c r="CI134" s="15"/>
+      <c r="CJ134" s="15"/>
+      <c r="CK134" s="15"/>
+      <c r="CL134" s="15">
         <v>2022</v>
       </c>
-      <c r="CM134" s="16"/>
-      <c r="CN134" s="16"/>
-      <c r="CO134" s="16"/>
+      <c r="CM134" s="15"/>
+      <c r="CN134" s="15"/>
+      <c r="CO134" s="15"/>
       <c r="CP134" s="15">
         <v>2023</v>
       </c>
+      <c r="CQ134" s="17"/>
     </row>
     <row r="135" spans="1:154" x14ac:dyDescent="0.2">
       <c r="A135" s="5" t="s">
@@ -40070,6 +40158,9 @@
       </c>
       <c r="CP135" s="6" t="s">
         <v>7</v>
+      </c>
+      <c r="CQ135" s="6" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="136" spans="1:154" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
@@ -40356,9 +40447,11 @@
         <v>48.062870417764039</v>
       </c>
       <c r="CP137" s="14">
-        <v>59.916573899843549</v>
-      </c>
-      <c r="CQ137" s="9"/>
+        <v>59.474070738099208</v>
+      </c>
+      <c r="CQ137" s="14">
+        <v>47.650473371110515</v>
+      </c>
       <c r="CR137" s="9"/>
       <c r="CS137" s="9"/>
       <c r="CT137" s="9"/>
@@ -40700,9 +40793,11 @@
         <v>32.286176254931185</v>
       </c>
       <c r="CP138" s="14">
-        <v>24.373519773805743</v>
-      </c>
-      <c r="CQ138" s="9"/>
+        <v>24.835002290887999</v>
+      </c>
+      <c r="CQ138" s="14">
+        <v>36.121642697208117</v>
+      </c>
       <c r="CR138" s="9"/>
       <c r="CS138" s="9"/>
       <c r="CT138" s="9"/>
@@ -41044,9 +41139,11 @@
         <v>14.35850949680133</v>
       </c>
       <c r="CP139" s="14">
-        <v>11.204292618956098</v>
-      </c>
-      <c r="CQ139" s="9"/>
+        <v>11.206259336863944</v>
+      </c>
+      <c r="CQ139" s="14">
+        <v>10.944961306889541</v>
+      </c>
       <c r="CR139" s="9"/>
       <c r="CS139" s="9"/>
       <c r="CT139" s="9"/>
@@ -41388,9 +41485,11 @@
         <v>5.2924438305034451</v>
       </c>
       <c r="CP140" s="14">
-        <v>4.5056137073946196</v>
-      </c>
-      <c r="CQ140" s="9"/>
+        <v>4.4846676341488578</v>
+      </c>
+      <c r="CQ140" s="14">
+        <v>5.2829226247918273</v>
+      </c>
       <c r="CR140" s="9"/>
       <c r="CS140" s="9"/>
       <c r="CT140" s="9"/>
@@ -41889,7 +41988,9 @@
       <c r="CP142" s="14">
         <v>100</v>
       </c>
-      <c r="CQ142" s="9"/>
+      <c r="CQ142" s="14">
+        <v>100</v>
+      </c>
       <c r="CR142" s="9"/>
       <c r="CS142" s="9"/>
       <c r="CT142" s="9"/>
@@ -42045,6 +42146,7 @@
       <c r="CN143" s="12"/>
       <c r="CO143" s="12"/>
       <c r="CP143" s="12"/>
+      <c r="CQ143" s="12"/>
     </row>
     <row r="144" spans="1:154" x14ac:dyDescent="0.2">
       <c r="A144" s="13" t="s">
@@ -42052,21 +42154,137 @@
       </c>
     </row>
   </sheetData>
-  <mergeCells count="159">
-    <mergeCell ref="B134:E134"/>
-    <mergeCell ref="F134:I134"/>
-    <mergeCell ref="J134:M134"/>
-    <mergeCell ref="N134:Q134"/>
-    <mergeCell ref="B92:E92"/>
-    <mergeCell ref="F92:I92"/>
-    <mergeCell ref="J92:M92"/>
-    <mergeCell ref="N92:Q92"/>
-    <mergeCell ref="R92:U92"/>
-    <mergeCell ref="B113:E113"/>
-    <mergeCell ref="F113:I113"/>
-    <mergeCell ref="J113:M113"/>
-    <mergeCell ref="N113:Q113"/>
-    <mergeCell ref="R134:U134"/>
+  <mergeCells count="168">
+    <mergeCell ref="CP9:CQ9"/>
+    <mergeCell ref="CP30:CQ30"/>
+    <mergeCell ref="CP92:CQ92"/>
+    <mergeCell ref="CP113:CQ113"/>
+    <mergeCell ref="CP134:CQ134"/>
+    <mergeCell ref="CL51:CO51"/>
+    <mergeCell ref="CP51:CQ51"/>
+    <mergeCell ref="CL72:CO72"/>
+    <mergeCell ref="CP72:CQ72"/>
+    <mergeCell ref="CH134:CK134"/>
+    <mergeCell ref="CD134:CG134"/>
+    <mergeCell ref="BZ9:CC9"/>
+    <mergeCell ref="CH9:CK9"/>
+    <mergeCell ref="CH30:CK30"/>
+    <mergeCell ref="BZ30:CC30"/>
+    <mergeCell ref="CL9:CO9"/>
+    <mergeCell ref="CL30:CO30"/>
+    <mergeCell ref="CH51:CK51"/>
+    <mergeCell ref="CH72:CK72"/>
+    <mergeCell ref="CL92:CO92"/>
+    <mergeCell ref="BZ92:CC92"/>
+    <mergeCell ref="CD9:CG9"/>
+    <mergeCell ref="CD30:CG30"/>
+    <mergeCell ref="BZ51:CC51"/>
+    <mergeCell ref="BZ72:CC72"/>
+    <mergeCell ref="CL113:CO113"/>
+    <mergeCell ref="CL134:CO134"/>
+    <mergeCell ref="CD113:CG113"/>
+    <mergeCell ref="CD92:CG92"/>
+    <mergeCell ref="BR9:BU9"/>
+    <mergeCell ref="BV9:BY9"/>
+    <mergeCell ref="BR30:BU30"/>
+    <mergeCell ref="BV30:BY30"/>
+    <mergeCell ref="CD51:CG51"/>
+    <mergeCell ref="CD72:CG72"/>
+    <mergeCell ref="CH92:CK92"/>
+    <mergeCell ref="CH113:CK113"/>
+    <mergeCell ref="BJ9:BM9"/>
+    <mergeCell ref="BN9:BQ9"/>
+    <mergeCell ref="BJ72:BM72"/>
+    <mergeCell ref="BN72:BQ72"/>
+    <mergeCell ref="BR92:BU92"/>
+    <mergeCell ref="BV92:BY92"/>
+    <mergeCell ref="BR51:BU51"/>
+    <mergeCell ref="BV51:BY51"/>
+    <mergeCell ref="BR72:BU72"/>
+    <mergeCell ref="BV72:BY72"/>
+    <mergeCell ref="AL30:AO30"/>
+    <mergeCell ref="BF9:BI9"/>
+    <mergeCell ref="B9:E9"/>
+    <mergeCell ref="F9:I9"/>
+    <mergeCell ref="J9:M9"/>
+    <mergeCell ref="N9:Q9"/>
+    <mergeCell ref="R9:U9"/>
+    <mergeCell ref="BJ30:BM30"/>
+    <mergeCell ref="BN30:BQ30"/>
+    <mergeCell ref="AH9:AK9"/>
+    <mergeCell ref="AP9:AS9"/>
+    <mergeCell ref="AT9:AW9"/>
+    <mergeCell ref="AX9:BA9"/>
+    <mergeCell ref="BB9:BE9"/>
+    <mergeCell ref="AL9:AO9"/>
+    <mergeCell ref="B30:E30"/>
+    <mergeCell ref="F30:I30"/>
+    <mergeCell ref="J30:M30"/>
+    <mergeCell ref="N30:Q30"/>
+    <mergeCell ref="R30:U30"/>
+    <mergeCell ref="V30:Y30"/>
+    <mergeCell ref="Z30:AC30"/>
+    <mergeCell ref="AD30:AG30"/>
+    <mergeCell ref="AH30:AK30"/>
+    <mergeCell ref="B51:E51"/>
+    <mergeCell ref="V9:Y9"/>
+    <mergeCell ref="Z9:AC9"/>
+    <mergeCell ref="AD9:AG9"/>
+    <mergeCell ref="F51:I51"/>
+    <mergeCell ref="J51:M51"/>
+    <mergeCell ref="N51:Q51"/>
+    <mergeCell ref="R51:U51"/>
+    <mergeCell ref="V51:Y51"/>
+    <mergeCell ref="Z51:AC51"/>
+    <mergeCell ref="AD51:AG51"/>
+    <mergeCell ref="AL72:AO72"/>
+    <mergeCell ref="AT72:AW72"/>
+    <mergeCell ref="AX72:BA72"/>
+    <mergeCell ref="BB72:BE72"/>
+    <mergeCell ref="BF30:BI30"/>
+    <mergeCell ref="AH51:AK51"/>
+    <mergeCell ref="B72:E72"/>
+    <mergeCell ref="F72:I72"/>
+    <mergeCell ref="J72:M72"/>
+    <mergeCell ref="N72:Q72"/>
+    <mergeCell ref="R72:U72"/>
+    <mergeCell ref="V72:Y72"/>
+    <mergeCell ref="Z72:AC72"/>
+    <mergeCell ref="AD72:AG72"/>
+    <mergeCell ref="AH72:AK72"/>
+    <mergeCell ref="AL51:AO51"/>
+    <mergeCell ref="AP51:AS51"/>
+    <mergeCell ref="AT51:AW51"/>
+    <mergeCell ref="AX51:BA51"/>
+    <mergeCell ref="AP30:AS30"/>
+    <mergeCell ref="AT30:AW30"/>
+    <mergeCell ref="AX30:BA30"/>
+    <mergeCell ref="BB30:BE30"/>
+    <mergeCell ref="BB51:BE51"/>
+    <mergeCell ref="BV134:BY134"/>
+    <mergeCell ref="BZ134:CC134"/>
+    <mergeCell ref="BR113:BU113"/>
+    <mergeCell ref="BV113:BY113"/>
+    <mergeCell ref="BF134:BI134"/>
+    <mergeCell ref="BJ134:BM134"/>
+    <mergeCell ref="BN134:BQ134"/>
+    <mergeCell ref="BF113:BI113"/>
+    <mergeCell ref="BJ113:BM113"/>
+    <mergeCell ref="BN113:BQ113"/>
+    <mergeCell ref="BR134:BU134"/>
+    <mergeCell ref="BZ113:CC113"/>
+    <mergeCell ref="AP92:AS92"/>
+    <mergeCell ref="AT92:AW92"/>
+    <mergeCell ref="BN51:BQ51"/>
+    <mergeCell ref="AP72:AS72"/>
+    <mergeCell ref="AX92:BA92"/>
+    <mergeCell ref="BB92:BE92"/>
+    <mergeCell ref="BJ92:BM92"/>
+    <mergeCell ref="BJ51:BM51"/>
+    <mergeCell ref="BN92:BQ92"/>
+    <mergeCell ref="BF92:BI92"/>
+    <mergeCell ref="BF72:BI72"/>
+    <mergeCell ref="BF51:BI51"/>
     <mergeCell ref="AD92:AG92"/>
     <mergeCell ref="AH92:AK92"/>
     <mergeCell ref="AP134:AS134"/>
@@ -42091,136 +42309,29 @@
     <mergeCell ref="AT113:AW113"/>
     <mergeCell ref="AX113:BA113"/>
     <mergeCell ref="BB113:BE113"/>
-    <mergeCell ref="AP92:AS92"/>
-    <mergeCell ref="AT92:AW92"/>
-    <mergeCell ref="BN51:BQ51"/>
-    <mergeCell ref="AP72:AS72"/>
-    <mergeCell ref="AX92:BA92"/>
-    <mergeCell ref="BB92:BE92"/>
-    <mergeCell ref="BJ92:BM92"/>
-    <mergeCell ref="BJ51:BM51"/>
-    <mergeCell ref="BN92:BQ92"/>
-    <mergeCell ref="BF92:BI92"/>
-    <mergeCell ref="BF72:BI72"/>
-    <mergeCell ref="BF51:BI51"/>
-    <mergeCell ref="BV134:BY134"/>
-    <mergeCell ref="BZ134:CC134"/>
-    <mergeCell ref="BR113:BU113"/>
-    <mergeCell ref="BV113:BY113"/>
-    <mergeCell ref="BF134:BI134"/>
-    <mergeCell ref="BJ134:BM134"/>
-    <mergeCell ref="BN134:BQ134"/>
-    <mergeCell ref="BF113:BI113"/>
-    <mergeCell ref="BJ113:BM113"/>
-    <mergeCell ref="BN113:BQ113"/>
-    <mergeCell ref="BR134:BU134"/>
-    <mergeCell ref="BZ113:CC113"/>
-    <mergeCell ref="AL72:AO72"/>
-    <mergeCell ref="AT72:AW72"/>
-    <mergeCell ref="AX72:BA72"/>
-    <mergeCell ref="BB72:BE72"/>
-    <mergeCell ref="BF30:BI30"/>
-    <mergeCell ref="AH51:AK51"/>
-    <mergeCell ref="B72:E72"/>
-    <mergeCell ref="F72:I72"/>
-    <mergeCell ref="J72:M72"/>
-    <mergeCell ref="N72:Q72"/>
-    <mergeCell ref="R72:U72"/>
-    <mergeCell ref="V72:Y72"/>
-    <mergeCell ref="Z72:AC72"/>
-    <mergeCell ref="AD72:AG72"/>
-    <mergeCell ref="AH72:AK72"/>
-    <mergeCell ref="AL51:AO51"/>
-    <mergeCell ref="AP51:AS51"/>
-    <mergeCell ref="AT51:AW51"/>
-    <mergeCell ref="AX51:BA51"/>
-    <mergeCell ref="AP30:AS30"/>
-    <mergeCell ref="AT30:AW30"/>
-    <mergeCell ref="AX30:BA30"/>
-    <mergeCell ref="BB30:BE30"/>
-    <mergeCell ref="BB51:BE51"/>
-    <mergeCell ref="B51:E51"/>
-    <mergeCell ref="V9:Y9"/>
-    <mergeCell ref="Z9:AC9"/>
-    <mergeCell ref="AD9:AG9"/>
-    <mergeCell ref="F51:I51"/>
-    <mergeCell ref="J51:M51"/>
-    <mergeCell ref="N51:Q51"/>
-    <mergeCell ref="R51:U51"/>
-    <mergeCell ref="V51:Y51"/>
-    <mergeCell ref="Z51:AC51"/>
-    <mergeCell ref="AD51:AG51"/>
-    <mergeCell ref="AL30:AO30"/>
-    <mergeCell ref="BF9:BI9"/>
-    <mergeCell ref="B9:E9"/>
-    <mergeCell ref="F9:I9"/>
-    <mergeCell ref="J9:M9"/>
-    <mergeCell ref="N9:Q9"/>
-    <mergeCell ref="R9:U9"/>
-    <mergeCell ref="BJ30:BM30"/>
-    <mergeCell ref="BN30:BQ30"/>
-    <mergeCell ref="AH9:AK9"/>
-    <mergeCell ref="AP9:AS9"/>
-    <mergeCell ref="AT9:AW9"/>
-    <mergeCell ref="AX9:BA9"/>
-    <mergeCell ref="BB9:BE9"/>
-    <mergeCell ref="AL9:AO9"/>
-    <mergeCell ref="B30:E30"/>
-    <mergeCell ref="F30:I30"/>
-    <mergeCell ref="J30:M30"/>
-    <mergeCell ref="N30:Q30"/>
-    <mergeCell ref="R30:U30"/>
-    <mergeCell ref="V30:Y30"/>
-    <mergeCell ref="Z30:AC30"/>
-    <mergeCell ref="AD30:AG30"/>
-    <mergeCell ref="AH30:AK30"/>
-    <mergeCell ref="BR9:BU9"/>
-    <mergeCell ref="BV9:BY9"/>
-    <mergeCell ref="BR30:BU30"/>
-    <mergeCell ref="BV30:BY30"/>
-    <mergeCell ref="CD51:CG51"/>
-    <mergeCell ref="CD72:CG72"/>
-    <mergeCell ref="CH92:CK92"/>
-    <mergeCell ref="CH113:CK113"/>
-    <mergeCell ref="BJ9:BM9"/>
-    <mergeCell ref="BN9:BQ9"/>
-    <mergeCell ref="BJ72:BM72"/>
-    <mergeCell ref="BN72:BQ72"/>
-    <mergeCell ref="BR92:BU92"/>
-    <mergeCell ref="BV92:BY92"/>
-    <mergeCell ref="BR51:BU51"/>
-    <mergeCell ref="BV51:BY51"/>
-    <mergeCell ref="BR72:BU72"/>
-    <mergeCell ref="BV72:BY72"/>
-    <mergeCell ref="CH134:CK134"/>
-    <mergeCell ref="CD134:CG134"/>
-    <mergeCell ref="BZ9:CC9"/>
-    <mergeCell ref="CH9:CK9"/>
-    <mergeCell ref="CH30:CK30"/>
-    <mergeCell ref="BZ30:CC30"/>
-    <mergeCell ref="CL9:CO9"/>
-    <mergeCell ref="CL30:CO30"/>
-    <mergeCell ref="CH51:CK51"/>
-    <mergeCell ref="CH72:CK72"/>
-    <mergeCell ref="CL92:CO92"/>
-    <mergeCell ref="BZ92:CC92"/>
-    <mergeCell ref="CD9:CG9"/>
-    <mergeCell ref="CD30:CG30"/>
-    <mergeCell ref="BZ51:CC51"/>
-    <mergeCell ref="BZ72:CC72"/>
-    <mergeCell ref="CL113:CO113"/>
-    <mergeCell ref="CL134:CO134"/>
-    <mergeCell ref="CD113:CG113"/>
-    <mergeCell ref="CD92:CG92"/>
+    <mergeCell ref="B134:E134"/>
+    <mergeCell ref="F134:I134"/>
+    <mergeCell ref="J134:M134"/>
+    <mergeCell ref="N134:Q134"/>
+    <mergeCell ref="B92:E92"/>
+    <mergeCell ref="F92:I92"/>
+    <mergeCell ref="J92:M92"/>
+    <mergeCell ref="N92:Q92"/>
+    <mergeCell ref="R92:U92"/>
+    <mergeCell ref="B113:E113"/>
+    <mergeCell ref="F113:I113"/>
+    <mergeCell ref="J113:M113"/>
+    <mergeCell ref="N113:Q113"/>
+    <mergeCell ref="R134:U134"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.5" right="0.3" top="1" bottom="0.16700000000000001" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" scale="31" orientation="landscape" r:id="rId1"/>
   <headerFooter alignWithMargins="0"/>
   <rowBreaks count="3" manualBreakCount="3">
-    <brk id="42" max="93" man="1"/>
-    <brk id="84" max="93" man="1"/>
-    <brk id="104" max="93" man="1"/>
+    <brk id="42" max="94" man="1"/>
+    <brk id="84" max="94" man="1"/>
+    <brk id="104" max="94" man="1"/>
   </rowBreaks>
 </worksheet>
 </file>
--- a/Data/National Accounts/PSA-17FIA_2018PSNA_Qrt.xlsx
+++ b/Data/National Accounts/PSA-17FIA_2018PSNA_Qrt.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26626"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26924"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="K:\Other computers\My Laptop (1)\6. MAS_Series\2018-base\NAP\NAP detailed series as of August 2023\Qtr\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="K:\Other computers\My Laptop (1)\6. MAS_Series\2018-base\NAP\NAP detailed series as of November 2023\Qtr\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F3F16D2B-905D-4E5E-AC62-19DC0D65F213}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EFE3DBAA-49A6-4318-97A1-B79C559E75F0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="30" yWindow="3045" windowWidth="28770" windowHeight="13155" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="975" windowWidth="28800" windowHeight="15225" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="FIA" sheetId="11" r:id="rId1"/>
@@ -323,7 +323,7 @@
     <definedName name="pet">#REF!</definedName>
     <definedName name="plastic">#REF!</definedName>
     <definedName name="ply">#REF!</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">FIA!$A$1:$CQ$146</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">FIA!$A$1:$CR$146</definedName>
     <definedName name="_xlnm.Print_Area">#REF!</definedName>
     <definedName name="PRINT_AREA_MI">#REF!</definedName>
     <definedName name="Print_Titles_MI">'[9]CAP93+'!$A$1:$IV$1,'[9]CAP93+'!$A$1:$A$65536</definedName>
@@ -468,7 +468,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="786" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="793" uniqueCount="54">
   <si>
     <t>Source: Philippine Statistics Authority</t>
   </si>
@@ -624,13 +624,13 @@
     <t>2022 - 2023</t>
   </si>
   <si>
-    <t>As of August 2023</t>
+    <t>As of November 2023</t>
   </si>
   <si>
-    <t>Q1 2000 to Q2 2023</t>
+    <t>Q1 2000 to Q3 2023</t>
   </si>
   <si>
-    <t>Q1 2001 to Q2 2023</t>
+    <t>Q1 2001 to Q3 2023</t>
   </si>
 </sst>
 </file>
@@ -717,7 +717,7 @@
     <xf numFmtId="164" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -741,6 +741,22 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="165" fontId="5" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="3" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="3" applyFont="1"/>
+    <xf numFmtId="166" fontId="5" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="3" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="5" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -23604,8 +23620,9 @@
   <sheetFormatPr defaultColWidth="7.77734375" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="38.33203125" style="1" customWidth="1"/>
-    <col min="2" max="95" width="8.88671875" style="1" customWidth="1"/>
-    <col min="96" max="16384" width="7.77734375" style="1"/>
+    <col min="2" max="89" width="8.88671875" style="1" customWidth="1"/>
+    <col min="90" max="96" width="9.5546875" style="16" customWidth="1"/>
+    <col min="97" max="16384" width="7.77734375" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:154" x14ac:dyDescent="0.2">
@@ -23640,148 +23657,149 @@
     </row>
     <row r="9" spans="1:154" x14ac:dyDescent="0.2">
       <c r="A9" s="4"/>
-      <c r="B9" s="15">
+      <c r="B9" s="25">
         <v>2000</v>
       </c>
-      <c r="C9" s="15"/>
-      <c r="D9" s="15"/>
-      <c r="E9" s="15"/>
-      <c r="F9" s="15">
+      <c r="C9" s="25"/>
+      <c r="D9" s="25"/>
+      <c r="E9" s="25"/>
+      <c r="F9" s="25">
         <v>2001</v>
       </c>
-      <c r="G9" s="15"/>
-      <c r="H9" s="15"/>
-      <c r="I9" s="15"/>
-      <c r="J9" s="15">
+      <c r="G9" s="25"/>
+      <c r="H9" s="25"/>
+      <c r="I9" s="25"/>
+      <c r="J9" s="25">
         <v>2002</v>
       </c>
-      <c r="K9" s="15"/>
-      <c r="L9" s="15"/>
-      <c r="M9" s="15"/>
-      <c r="N9" s="15">
+      <c r="K9" s="25"/>
+      <c r="L9" s="25"/>
+      <c r="M9" s="25"/>
+      <c r="N9" s="25">
         <v>2003</v>
       </c>
-      <c r="O9" s="15"/>
-      <c r="P9" s="15"/>
-      <c r="Q9" s="15"/>
-      <c r="R9" s="15">
+      <c r="O9" s="25"/>
+      <c r="P9" s="25"/>
+      <c r="Q9" s="25"/>
+      <c r="R9" s="25">
         <v>2004</v>
       </c>
-      <c r="S9" s="15"/>
-      <c r="T9" s="15"/>
-      <c r="U9" s="15"/>
-      <c r="V9" s="15">
+      <c r="S9" s="25"/>
+      <c r="T9" s="25"/>
+      <c r="U9" s="25"/>
+      <c r="V9" s="25">
         <v>2005</v>
       </c>
-      <c r="W9" s="15"/>
-      <c r="X9" s="15"/>
-      <c r="Y9" s="15"/>
-      <c r="Z9" s="15">
+      <c r="W9" s="25"/>
+      <c r="X9" s="25"/>
+      <c r="Y9" s="25"/>
+      <c r="Z9" s="25">
         <v>2006</v>
       </c>
-      <c r="AA9" s="15"/>
-      <c r="AB9" s="15"/>
-      <c r="AC9" s="15"/>
-      <c r="AD9" s="15">
+      <c r="AA9" s="25"/>
+      <c r="AB9" s="25"/>
+      <c r="AC9" s="25"/>
+      <c r="AD9" s="25">
         <v>2007</v>
       </c>
-      <c r="AE9" s="15"/>
-      <c r="AF9" s="15"/>
-      <c r="AG9" s="15"/>
-      <c r="AH9" s="15">
+      <c r="AE9" s="25"/>
+      <c r="AF9" s="25"/>
+      <c r="AG9" s="25"/>
+      <c r="AH9" s="25">
         <v>2008</v>
       </c>
-      <c r="AI9" s="15"/>
-      <c r="AJ9" s="15"/>
-      <c r="AK9" s="15"/>
-      <c r="AL9" s="15">
+      <c r="AI9" s="25"/>
+      <c r="AJ9" s="25"/>
+      <c r="AK9" s="25"/>
+      <c r="AL9" s="25">
         <v>2009</v>
       </c>
-      <c r="AM9" s="15"/>
-      <c r="AN9" s="15"/>
-      <c r="AO9" s="15"/>
-      <c r="AP9" s="15">
+      <c r="AM9" s="25"/>
+      <c r="AN9" s="25"/>
+      <c r="AO9" s="25"/>
+      <c r="AP9" s="25">
         <v>2010</v>
       </c>
-      <c r="AQ9" s="15"/>
-      <c r="AR9" s="15"/>
-      <c r="AS9" s="15"/>
-      <c r="AT9" s="15">
+      <c r="AQ9" s="25"/>
+      <c r="AR9" s="25"/>
+      <c r="AS9" s="25"/>
+      <c r="AT9" s="25">
         <v>2011</v>
       </c>
-      <c r="AU9" s="15"/>
-      <c r="AV9" s="15"/>
-      <c r="AW9" s="15"/>
-      <c r="AX9" s="15">
+      <c r="AU9" s="25"/>
+      <c r="AV9" s="25"/>
+      <c r="AW9" s="25"/>
+      <c r="AX9" s="25">
         <v>2012</v>
       </c>
-      <c r="AY9" s="15"/>
-      <c r="AZ9" s="15"/>
-      <c r="BA9" s="15"/>
-      <c r="BB9" s="15">
+      <c r="AY9" s="25"/>
+      <c r="AZ9" s="25"/>
+      <c r="BA9" s="25"/>
+      <c r="BB9" s="25">
         <v>2013</v>
       </c>
-      <c r="BC9" s="15"/>
-      <c r="BD9" s="15"/>
-      <c r="BE9" s="15"/>
-      <c r="BF9" s="15">
+      <c r="BC9" s="25"/>
+      <c r="BD9" s="25"/>
+      <c r="BE9" s="25"/>
+      <c r="BF9" s="25">
         <v>2014</v>
       </c>
-      <c r="BG9" s="15"/>
-      <c r="BH9" s="15"/>
-      <c r="BI9" s="15"/>
-      <c r="BJ9" s="15">
+      <c r="BG9" s="25"/>
+      <c r="BH9" s="25"/>
+      <c r="BI9" s="25"/>
+      <c r="BJ9" s="25">
         <v>2015</v>
       </c>
-      <c r="BK9" s="15"/>
-      <c r="BL9" s="15"/>
-      <c r="BM9" s="15"/>
-      <c r="BN9" s="15">
+      <c r="BK9" s="25"/>
+      <c r="BL9" s="25"/>
+      <c r="BM9" s="25"/>
+      <c r="BN9" s="25">
         <v>2016</v>
       </c>
-      <c r="BO9" s="15"/>
-      <c r="BP9" s="15"/>
-      <c r="BQ9" s="15"/>
-      <c r="BR9" s="15">
+      <c r="BO9" s="25"/>
+      <c r="BP9" s="25"/>
+      <c r="BQ9" s="25"/>
+      <c r="BR9" s="25">
         <v>2017</v>
       </c>
-      <c r="BS9" s="15"/>
-      <c r="BT9" s="15"/>
-      <c r="BU9" s="15"/>
-      <c r="BV9" s="15">
+      <c r="BS9" s="25"/>
+      <c r="BT9" s="25"/>
+      <c r="BU9" s="25"/>
+      <c r="BV9" s="25">
         <v>2018</v>
       </c>
-      <c r="BW9" s="15"/>
-      <c r="BX9" s="15"/>
-      <c r="BY9" s="15"/>
-      <c r="BZ9" s="15">
+      <c r="BW9" s="25"/>
+      <c r="BX9" s="25"/>
+      <c r="BY9" s="25"/>
+      <c r="BZ9" s="25">
         <v>2019</v>
       </c>
-      <c r="CA9" s="15"/>
-      <c r="CB9" s="15"/>
-      <c r="CC9" s="15"/>
-      <c r="CD9" s="15">
+      <c r="CA9" s="25"/>
+      <c r="CB9" s="25"/>
+      <c r="CC9" s="25"/>
+      <c r="CD9" s="25">
         <v>2020</v>
       </c>
-      <c r="CE9" s="15"/>
-      <c r="CF9" s="15"/>
-      <c r="CG9" s="15"/>
-      <c r="CH9" s="15">
+      <c r="CE9" s="25"/>
+      <c r="CF9" s="25"/>
+      <c r="CG9" s="25"/>
+      <c r="CH9" s="25">
         <v>2021</v>
       </c>
-      <c r="CI9" s="15"/>
-      <c r="CJ9" s="15"/>
-      <c r="CK9" s="15"/>
-      <c r="CL9" s="15">
+      <c r="CI9" s="25"/>
+      <c r="CJ9" s="25"/>
+      <c r="CK9" s="25"/>
+      <c r="CL9" s="27">
         <v>2022</v>
       </c>
-      <c r="CM9" s="15"/>
-      <c r="CN9" s="15"/>
-      <c r="CO9" s="15"/>
-      <c r="CP9" s="15">
+      <c r="CM9" s="27"/>
+      <c r="CN9" s="27"/>
+      <c r="CO9" s="27"/>
+      <c r="CP9" s="27">
         <v>2023</v>
       </c>
-      <c r="CQ9" s="17"/>
+      <c r="CQ9" s="27"/>
+      <c r="CR9" s="27"/>
     </row>
     <row r="10" spans="1:154" x14ac:dyDescent="0.2">
       <c r="A10" s="5" t="s">
@@ -24051,23 +24069,26 @@
       <c r="CK10" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="CL10" s="6" t="s">
+      <c r="CL10" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="CM10" s="6" t="s">
+      <c r="CM10" s="17" t="s">
         <v>8</v>
       </c>
-      <c r="CN10" s="6" t="s">
+      <c r="CN10" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="CO10" s="6" t="s">
+      <c r="CO10" s="17" t="s">
         <v>9</v>
       </c>
-      <c r="CP10" s="6" t="s">
+      <c r="CP10" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="CQ10" s="6" t="s">
+      <c r="CQ10" s="17" t="s">
         <v>8</v>
+      </c>
+      <c r="CR10" s="17" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="11" spans="1:154" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
@@ -24341,25 +24362,27 @@
       <c r="CK12" s="8">
         <v>233481.04600295049</v>
       </c>
-      <c r="CL12" s="8">
+      <c r="CL12" s="18">
         <v>318574.38103409222</v>
       </c>
-      <c r="CM12" s="8">
+      <c r="CM12" s="18">
         <v>264391.10608101345</v>
       </c>
-      <c r="CN12" s="8">
+      <c r="CN12" s="18">
         <v>298113.04574478342</v>
       </c>
-      <c r="CO12" s="8">
+      <c r="CO12" s="18">
         <v>275563.92828726908</v>
       </c>
-      <c r="CP12" s="8">
+      <c r="CP12" s="18">
         <v>385958.92522606708</v>
       </c>
-      <c r="CQ12" s="8">
-        <v>303967.44871946855</v>
-      </c>
-      <c r="CR12" s="9"/>
+      <c r="CQ12" s="18">
+        <v>306840.67406365159</v>
+      </c>
+      <c r="CR12" s="18">
+        <v>347710.70440522849</v>
+      </c>
       <c r="CS12" s="9"/>
       <c r="CT12" s="9"/>
       <c r="CU12" s="9"/>
@@ -24687,25 +24710,27 @@
       <c r="CK13" s="8">
         <v>155811.39245117077</v>
       </c>
-      <c r="CL13" s="8">
+      <c r="CL13" s="18">
         <v>136247.22376600408</v>
       </c>
-      <c r="CM13" s="8">
+      <c r="CM13" s="18">
         <v>207005.75929438748</v>
       </c>
-      <c r="CN13" s="8">
+      <c r="CN13" s="18">
         <v>143647.08803502942</v>
       </c>
-      <c r="CO13" s="8">
+      <c r="CO13" s="18">
         <v>183867.53375969623</v>
       </c>
-      <c r="CP13" s="8">
+      <c r="CP13" s="18">
         <v>159877.59282817371</v>
       </c>
-      <c r="CQ13" s="8">
-        <v>227376.38361444187</v>
-      </c>
-      <c r="CR13" s="9"/>
+      <c r="CQ13" s="18">
+        <v>225170.99252121971</v>
+      </c>
+      <c r="CR13" s="18">
+        <v>164691.55229530681</v>
+      </c>
       <c r="CS13" s="9"/>
       <c r="CT13" s="9"/>
       <c r="CU13" s="9"/>
@@ -25033,25 +25058,27 @@
       <c r="CK14" s="8">
         <v>70483.837565827969</v>
       </c>
-      <c r="CL14" s="8">
+      <c r="CL14" s="18">
         <v>70361.679415115359</v>
       </c>
-      <c r="CM14" s="8">
+      <c r="CM14" s="18">
         <v>63716.570138835465</v>
       </c>
-      <c r="CN14" s="8">
+      <c r="CN14" s="18">
         <v>69753.960082430189</v>
       </c>
-      <c r="CO14" s="8">
+      <c r="CO14" s="18">
         <v>80551.445428125138</v>
       </c>
-      <c r="CP14" s="8">
+      <c r="CP14" s="18">
         <v>73804.922139632661</v>
       </c>
-      <c r="CQ14" s="8">
-        <v>67192.185999498965</v>
-      </c>
-      <c r="CR14" s="9"/>
+      <c r="CQ14" s="18">
+        <v>68181.070352250768</v>
+      </c>
+      <c r="CR14" s="18">
+        <v>75404.04185543106</v>
+      </c>
       <c r="CS14" s="9"/>
       <c r="CT14" s="9"/>
       <c r="CU14" s="9"/>
@@ -25379,25 +25406,27 @@
       <c r="CK15" s="8">
         <v>26528.0211832399</v>
       </c>
-      <c r="CL15" s="8">
+      <c r="CL15" s="18">
         <v>26589.057610939351</v>
       </c>
-      <c r="CM15" s="8">
+      <c r="CM15" s="18">
         <v>30193.635166786604</v>
       </c>
-      <c r="CN15" s="8">
+      <c r="CN15" s="18">
         <v>25543.489150454676</v>
       </c>
-      <c r="CO15" s="8">
+      <c r="CO15" s="18">
         <v>30226.36476476954</v>
       </c>
-      <c r="CP15" s="8">
+      <c r="CP15" s="18">
         <v>29135.104012678043</v>
       </c>
-      <c r="CQ15" s="8">
-        <v>34144.246491988531</v>
-      </c>
-      <c r="CR15" s="9"/>
+      <c r="CQ15" s="18">
+        <v>34339.751596236711</v>
+      </c>
+      <c r="CR15" s="18">
+        <v>27690.019309185125</v>
+      </c>
       <c r="CS15" s="9"/>
       <c r="CT15" s="9"/>
       <c r="CU15" s="9"/>
@@ -25546,13 +25575,13 @@
       <c r="CI16" s="9"/>
       <c r="CJ16" s="9"/>
       <c r="CK16" s="9"/>
-      <c r="CL16" s="9"/>
-      <c r="CM16" s="9"/>
-      <c r="CN16" s="9"/>
-      <c r="CO16" s="9"/>
-      <c r="CP16" s="9"/>
-      <c r="CQ16" s="9"/>
-      <c r="CR16" s="9"/>
+      <c r="CL16" s="19"/>
+      <c r="CM16" s="19"/>
+      <c r="CN16" s="19"/>
+      <c r="CO16" s="19"/>
+      <c r="CP16" s="19"/>
+      <c r="CQ16" s="19"/>
+      <c r="CR16" s="19"/>
       <c r="CS16" s="9"/>
       <c r="CT16" s="9"/>
       <c r="CU16" s="9"/>
@@ -25880,25 +25909,27 @@
       <c r="CK17" s="11">
         <v>486304.29720318911</v>
       </c>
-      <c r="CL17" s="11">
+      <c r="CL17" s="20">
         <v>551772.34182615101</v>
       </c>
-      <c r="CM17" s="11">
+      <c r="CM17" s="20">
         <v>565307.07068102295</v>
       </c>
-      <c r="CN17" s="11">
+      <c r="CN17" s="20">
         <v>537057.58301269764</v>
       </c>
-      <c r="CO17" s="11">
+      <c r="CO17" s="20">
         <v>570209.27223986003</v>
       </c>
-      <c r="CP17" s="11">
+      <c r="CP17" s="20">
         <v>648776.54420655151</v>
       </c>
-      <c r="CQ17" s="11">
-        <v>632680.26482539787</v>
-      </c>
-      <c r="CR17" s="9"/>
+      <c r="CQ17" s="20">
+        <v>634532.48853335867</v>
+      </c>
+      <c r="CR17" s="20">
+        <v>615496.31786515145</v>
+      </c>
       <c r="CS17" s="9"/>
       <c r="CT17" s="9"/>
       <c r="CU17" s="9"/>
@@ -26048,12 +26079,13 @@
       <c r="CI18" s="12"/>
       <c r="CJ18" s="12"/>
       <c r="CK18" s="12"/>
-      <c r="CL18" s="12"/>
-      <c r="CM18" s="12"/>
-      <c r="CN18" s="12"/>
-      <c r="CO18" s="12"/>
-      <c r="CP18" s="12"/>
-      <c r="CQ18" s="12"/>
+      <c r="CL18" s="21"/>
+      <c r="CM18" s="21"/>
+      <c r="CN18" s="21"/>
+      <c r="CO18" s="21"/>
+      <c r="CP18" s="21"/>
+      <c r="CQ18" s="21"/>
+      <c r="CR18" s="21"/>
     </row>
     <row r="19" spans="1:154" x14ac:dyDescent="0.2">
       <c r="A19" s="13" t="s">
@@ -26149,13 +26181,13 @@
       <c r="CI20" s="9"/>
       <c r="CJ20" s="9"/>
       <c r="CK20" s="9"/>
-      <c r="CL20" s="9"/>
-      <c r="CM20" s="9"/>
-      <c r="CN20" s="9"/>
-      <c r="CO20" s="9"/>
-      <c r="CP20" s="9"/>
-      <c r="CQ20" s="9"/>
-      <c r="CR20" s="9"/>
+      <c r="CL20" s="19"/>
+      <c r="CM20" s="19"/>
+      <c r="CN20" s="19"/>
+      <c r="CO20" s="19"/>
+      <c r="CP20" s="19"/>
+      <c r="CQ20" s="19"/>
+      <c r="CR20" s="19"/>
       <c r="CS20" s="9"/>
       <c r="CT20" s="9"/>
       <c r="CU20" s="9"/>
@@ -26304,13 +26336,13 @@
       <c r="CI21" s="9"/>
       <c r="CJ21" s="9"/>
       <c r="CK21" s="9"/>
-      <c r="CL21" s="9"/>
-      <c r="CM21" s="9"/>
-      <c r="CN21" s="9"/>
-      <c r="CO21" s="9"/>
-      <c r="CP21" s="9"/>
-      <c r="CQ21" s="9"/>
-      <c r="CR21" s="9"/>
+      <c r="CL21" s="19"/>
+      <c r="CM21" s="19"/>
+      <c r="CN21" s="19"/>
+      <c r="CO21" s="19"/>
+      <c r="CP21" s="19"/>
+      <c r="CQ21" s="19"/>
+      <c r="CR21" s="19"/>
       <c r="CS21" s="9"/>
       <c r="CT21" s="9"/>
       <c r="CU21" s="9"/>
@@ -26402,148 +26434,149 @@
     </row>
     <row r="30" spans="1:154" x14ac:dyDescent="0.2">
       <c r="A30" s="4"/>
-      <c r="B30" s="15">
+      <c r="B30" s="25">
         <v>2000</v>
       </c>
-      <c r="C30" s="16"/>
-      <c r="D30" s="16"/>
-      <c r="E30" s="16"/>
-      <c r="F30" s="15">
+      <c r="C30" s="26"/>
+      <c r="D30" s="26"/>
+      <c r="E30" s="26"/>
+      <c r="F30" s="25">
         <v>2001</v>
       </c>
-      <c r="G30" s="16"/>
-      <c r="H30" s="16"/>
-      <c r="I30" s="16"/>
-      <c r="J30" s="15">
+      <c r="G30" s="26"/>
+      <c r="H30" s="26"/>
+      <c r="I30" s="26"/>
+      <c r="J30" s="25">
         <v>2002</v>
       </c>
-      <c r="K30" s="16"/>
-      <c r="L30" s="16"/>
-      <c r="M30" s="16"/>
-      <c r="N30" s="15">
+      <c r="K30" s="26"/>
+      <c r="L30" s="26"/>
+      <c r="M30" s="26"/>
+      <c r="N30" s="25">
         <v>2003</v>
       </c>
-      <c r="O30" s="16"/>
-      <c r="P30" s="16"/>
-      <c r="Q30" s="16"/>
-      <c r="R30" s="15">
+      <c r="O30" s="26"/>
+      <c r="P30" s="26"/>
+      <c r="Q30" s="26"/>
+      <c r="R30" s="25">
         <v>2004</v>
       </c>
-      <c r="S30" s="16"/>
-      <c r="T30" s="16"/>
-      <c r="U30" s="16"/>
-      <c r="V30" s="15">
+      <c r="S30" s="26"/>
+      <c r="T30" s="26"/>
+      <c r="U30" s="26"/>
+      <c r="V30" s="25">
         <v>2005</v>
       </c>
-      <c r="W30" s="16"/>
-      <c r="X30" s="16"/>
-      <c r="Y30" s="16"/>
-      <c r="Z30" s="15">
+      <c r="W30" s="26"/>
+      <c r="X30" s="26"/>
+      <c r="Y30" s="26"/>
+      <c r="Z30" s="25">
         <v>2006</v>
       </c>
-      <c r="AA30" s="16"/>
-      <c r="AB30" s="16"/>
-      <c r="AC30" s="16"/>
-      <c r="AD30" s="15">
+      <c r="AA30" s="26"/>
+      <c r="AB30" s="26"/>
+      <c r="AC30" s="26"/>
+      <c r="AD30" s="25">
         <v>2007</v>
       </c>
-      <c r="AE30" s="16"/>
-      <c r="AF30" s="16"/>
-      <c r="AG30" s="16"/>
-      <c r="AH30" s="15">
+      <c r="AE30" s="26"/>
+      <c r="AF30" s="26"/>
+      <c r="AG30" s="26"/>
+      <c r="AH30" s="25">
         <v>2008</v>
       </c>
-      <c r="AI30" s="16"/>
-      <c r="AJ30" s="16"/>
-      <c r="AK30" s="16"/>
-      <c r="AL30" s="15">
+      <c r="AI30" s="26"/>
+      <c r="AJ30" s="26"/>
+      <c r="AK30" s="26"/>
+      <c r="AL30" s="25">
         <v>2009</v>
       </c>
-      <c r="AM30" s="16"/>
-      <c r="AN30" s="16"/>
-      <c r="AO30" s="16"/>
-      <c r="AP30" s="15">
+      <c r="AM30" s="26"/>
+      <c r="AN30" s="26"/>
+      <c r="AO30" s="26"/>
+      <c r="AP30" s="25">
         <v>2010</v>
       </c>
-      <c r="AQ30" s="16"/>
-      <c r="AR30" s="16"/>
-      <c r="AS30" s="16"/>
-      <c r="AT30" s="15">
+      <c r="AQ30" s="26"/>
+      <c r="AR30" s="26"/>
+      <c r="AS30" s="26"/>
+      <c r="AT30" s="25">
         <v>2011</v>
       </c>
-      <c r="AU30" s="16"/>
-      <c r="AV30" s="16"/>
-      <c r="AW30" s="16"/>
-      <c r="AX30" s="15">
+      <c r="AU30" s="26"/>
+      <c r="AV30" s="26"/>
+      <c r="AW30" s="26"/>
+      <c r="AX30" s="25">
         <v>2012</v>
       </c>
-      <c r="AY30" s="16"/>
-      <c r="AZ30" s="16"/>
-      <c r="BA30" s="16"/>
-      <c r="BB30" s="15">
+      <c r="AY30" s="26"/>
+      <c r="AZ30" s="26"/>
+      <c r="BA30" s="26"/>
+      <c r="BB30" s="25">
         <v>2013</v>
       </c>
-      <c r="BC30" s="16"/>
-      <c r="BD30" s="16"/>
-      <c r="BE30" s="16"/>
-      <c r="BF30" s="15">
+      <c r="BC30" s="26"/>
+      <c r="BD30" s="26"/>
+      <c r="BE30" s="26"/>
+      <c r="BF30" s="25">
         <v>2014</v>
       </c>
-      <c r="BG30" s="16"/>
-      <c r="BH30" s="16"/>
-      <c r="BI30" s="16"/>
-      <c r="BJ30" s="15">
+      <c r="BG30" s="26"/>
+      <c r="BH30" s="26"/>
+      <c r="BI30" s="26"/>
+      <c r="BJ30" s="25">
         <v>2015</v>
       </c>
-      <c r="BK30" s="16"/>
-      <c r="BL30" s="16"/>
-      <c r="BM30" s="16"/>
-      <c r="BN30" s="15">
+      <c r="BK30" s="26"/>
+      <c r="BL30" s="26"/>
+      <c r="BM30" s="26"/>
+      <c r="BN30" s="25">
         <v>2016</v>
       </c>
-      <c r="BO30" s="16"/>
-      <c r="BP30" s="16"/>
-      <c r="BQ30" s="16"/>
-      <c r="BR30" s="15">
+      <c r="BO30" s="26"/>
+      <c r="BP30" s="26"/>
+      <c r="BQ30" s="26"/>
+      <c r="BR30" s="25">
         <v>2017</v>
       </c>
-      <c r="BS30" s="16"/>
-      <c r="BT30" s="16"/>
-      <c r="BU30" s="16"/>
-      <c r="BV30" s="15">
+      <c r="BS30" s="26"/>
+      <c r="BT30" s="26"/>
+      <c r="BU30" s="26"/>
+      <c r="BV30" s="25">
         <v>2018</v>
       </c>
-      <c r="BW30" s="16"/>
-      <c r="BX30" s="16"/>
-      <c r="BY30" s="16"/>
-      <c r="BZ30" s="15">
+      <c r="BW30" s="26"/>
+      <c r="BX30" s="26"/>
+      <c r="BY30" s="26"/>
+      <c r="BZ30" s="25">
         <v>2019</v>
       </c>
-      <c r="CA30" s="16"/>
-      <c r="CB30" s="16"/>
-      <c r="CC30" s="16"/>
-      <c r="CD30" s="15">
+      <c r="CA30" s="26"/>
+      <c r="CB30" s="26"/>
+      <c r="CC30" s="26"/>
+      <c r="CD30" s="25">
         <v>2020</v>
       </c>
-      <c r="CE30" s="15"/>
-      <c r="CF30" s="15"/>
-      <c r="CG30" s="15"/>
-      <c r="CH30" s="15">
+      <c r="CE30" s="25"/>
+      <c r="CF30" s="25"/>
+      <c r="CG30" s="25"/>
+      <c r="CH30" s="25">
         <v>2021</v>
       </c>
-      <c r="CI30" s="15"/>
-      <c r="CJ30" s="15"/>
-      <c r="CK30" s="15"/>
-      <c r="CL30" s="15">
+      <c r="CI30" s="25"/>
+      <c r="CJ30" s="25"/>
+      <c r="CK30" s="25"/>
+      <c r="CL30" s="27">
         <v>2022</v>
       </c>
-      <c r="CM30" s="15"/>
-      <c r="CN30" s="15"/>
-      <c r="CO30" s="15"/>
-      <c r="CP30" s="15">
+      <c r="CM30" s="27"/>
+      <c r="CN30" s="27"/>
+      <c r="CO30" s="27"/>
+      <c r="CP30" s="27">
         <v>2023</v>
       </c>
-      <c r="CQ30" s="17"/>
+      <c r="CQ30" s="27"/>
+      <c r="CR30" s="27"/>
     </row>
     <row r="31" spans="1:154" x14ac:dyDescent="0.2">
       <c r="A31" s="5" t="s">
@@ -26813,23 +26846,26 @@
       <c r="CK31" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="CL31" s="6" t="s">
+      <c r="CL31" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="CM31" s="6" t="s">
+      <c r="CM31" s="17" t="s">
         <v>8</v>
       </c>
-      <c r="CN31" s="6" t="s">
+      <c r="CN31" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="CO31" s="6" t="s">
+      <c r="CO31" s="17" t="s">
         <v>9</v>
       </c>
-      <c r="CP31" s="6" t="s">
+      <c r="CP31" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="CQ31" s="6" t="s">
+      <c r="CQ31" s="17" t="s">
         <v>8</v>
+      </c>
+      <c r="CR31" s="17" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="32" spans="1:154" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
@@ -27103,25 +27139,27 @@
       <c r="CK33" s="8">
         <v>218514.55609870315</v>
       </c>
-      <c r="CL33" s="8">
+      <c r="CL33" s="18">
         <v>291474.76826139248</v>
       </c>
-      <c r="CM33" s="8">
+      <c r="CM33" s="18">
         <v>234633.20373768959</v>
       </c>
-      <c r="CN33" s="8">
+      <c r="CN33" s="18">
         <v>264938.66792331031</v>
       </c>
-      <c r="CO33" s="8">
+      <c r="CO33" s="18">
         <v>239988.59867347119</v>
       </c>
-      <c r="CP33" s="8">
+      <c r="CP33" s="18">
         <v>324156.55637382169</v>
       </c>
-      <c r="CQ33" s="8">
-        <v>253441.36694781581</v>
-      </c>
-      <c r="CR33" s="9"/>
+      <c r="CQ33" s="18">
+        <v>255836.99898620203</v>
+      </c>
+      <c r="CR33" s="18">
+        <v>294779.20399858069</v>
+      </c>
       <c r="CS33" s="9"/>
       <c r="CT33" s="9"/>
       <c r="CU33" s="9"/>
@@ -27449,25 +27487,27 @@
       <c r="CK34" s="8">
         <v>146049.75313387654</v>
       </c>
-      <c r="CL34" s="8">
+      <c r="CL34" s="18">
         <v>123209.25323782492</v>
       </c>
-      <c r="CM34" s="8">
+      <c r="CM34" s="18">
         <v>186244.19874780902</v>
       </c>
-      <c r="CN34" s="8">
+      <c r="CN34" s="18">
         <v>128897.23668924074</v>
       </c>
-      <c r="CO34" s="8">
+      <c r="CO34" s="18">
         <v>161212.05680387036</v>
       </c>
-      <c r="CP34" s="8">
+      <c r="CP34" s="18">
         <v>135360.31282609189</v>
       </c>
-      <c r="CQ34" s="8">
-        <v>192122.29919065878</v>
-      </c>
-      <c r="CR34" s="9"/>
+      <c r="CQ34" s="18">
+        <v>190258.87285912794</v>
+      </c>
+      <c r="CR34" s="18">
+        <v>141579.6423609292</v>
+      </c>
       <c r="CS34" s="9"/>
       <c r="CT34" s="9"/>
       <c r="CU34" s="9"/>
@@ -27795,25 +27835,27 @@
       <c r="CK35" s="8">
         <v>67364.770689014418</v>
       </c>
-      <c r="CL35" s="8">
+      <c r="CL35" s="18">
         <v>62584.435866748536</v>
       </c>
-      <c r="CM35" s="8">
+      <c r="CM35" s="18">
         <v>58836.959106982948</v>
       </c>
-      <c r="CN35" s="8">
+      <c r="CN35" s="18">
         <v>63566.492428753787</v>
       </c>
-      <c r="CO35" s="8">
+      <c r="CO35" s="18">
         <v>71695.230501744707</v>
       </c>
-      <c r="CP35" s="8">
+      <c r="CP35" s="18">
         <v>61078.422771265992</v>
       </c>
-      <c r="CQ35" s="8">
-        <v>58213.607516663178</v>
-      </c>
-      <c r="CR35" s="9"/>
+      <c r="CQ35" s="18">
+        <v>59070.351864746932</v>
+      </c>
+      <c r="CR35" s="18">
+        <v>65561.862747352308</v>
+      </c>
       <c r="CS35" s="9"/>
       <c r="CT35" s="9"/>
       <c r="CU35" s="9"/>
@@ -28141,25 +28183,27 @@
       <c r="CK36" s="8">
         <v>24760.097225445876</v>
       </c>
-      <c r="CL36" s="8">
+      <c r="CL36" s="18">
         <v>23764.571646225009</v>
       </c>
-      <c r="CM36" s="8">
+      <c r="CM36" s="18">
         <v>26661.075735828541</v>
       </c>
-      <c r="CN36" s="8">
+      <c r="CN36" s="18">
         <v>22586.18540190734</v>
       </c>
-      <c r="CO36" s="8">
+      <c r="CO36" s="18">
         <v>26426.348809394898</v>
       </c>
-      <c r="CP36" s="8">
+      <c r="CP36" s="18">
         <v>24443.163192385327</v>
       </c>
-      <c r="CQ36" s="8">
-        <v>28098.590355631968</v>
-      </c>
-      <c r="CR36" s="9"/>
+      <c r="CQ36" s="18">
+        <v>28259.474396345104</v>
+      </c>
+      <c r="CR36" s="18">
+        <v>23483.791005902392</v>
+      </c>
       <c r="CS36" s="9"/>
       <c r="CT36" s="9"/>
       <c r="CU36" s="9"/>
@@ -28308,13 +28352,13 @@
       <c r="CI37" s="9"/>
       <c r="CJ37" s="9"/>
       <c r="CK37" s="9"/>
-      <c r="CL37" s="9"/>
-      <c r="CM37" s="9"/>
-      <c r="CN37" s="9"/>
-      <c r="CO37" s="9"/>
-      <c r="CP37" s="9"/>
-      <c r="CQ37" s="9"/>
-      <c r="CR37" s="9"/>
+      <c r="CL37" s="19"/>
+      <c r="CM37" s="19"/>
+      <c r="CN37" s="19"/>
+      <c r="CO37" s="19"/>
+      <c r="CP37" s="19"/>
+      <c r="CQ37" s="19"/>
+      <c r="CR37" s="19"/>
       <c r="CS37" s="9"/>
       <c r="CT37" s="9"/>
       <c r="CU37" s="9"/>
@@ -28642,25 +28686,27 @@
       <c r="CK38" s="11">
         <v>456689.17714703991</v>
       </c>
-      <c r="CL38" s="11">
+      <c r="CL38" s="20">
         <v>501033.02901219093</v>
       </c>
-      <c r="CM38" s="11">
+      <c r="CM38" s="20">
         <v>506375.43732831004</v>
       </c>
-      <c r="CN38" s="11">
+      <c r="CN38" s="20">
         <v>479988.58244321222</v>
       </c>
-      <c r="CO38" s="11">
+      <c r="CO38" s="20">
         <v>499322.23478848115</v>
       </c>
-      <c r="CP38" s="11">
+      <c r="CP38" s="20">
         <v>545038.45516356488</v>
       </c>
-      <c r="CQ38" s="11">
-        <v>531875.86401076976</v>
-      </c>
-      <c r="CR38" s="9"/>
+      <c r="CQ38" s="20">
+        <v>533425.69810642209</v>
+      </c>
+      <c r="CR38" s="20">
+        <v>525404.50011276454</v>
+      </c>
       <c r="CS38" s="9"/>
       <c r="CT38" s="9"/>
       <c r="CU38" s="9"/>
@@ -28810,12 +28856,13 @@
       <c r="CI39" s="12"/>
       <c r="CJ39" s="12"/>
       <c r="CK39" s="12"/>
-      <c r="CL39" s="12"/>
-      <c r="CM39" s="12"/>
-      <c r="CN39" s="12"/>
-      <c r="CO39" s="12"/>
-      <c r="CP39" s="12"/>
-      <c r="CQ39" s="12"/>
+      <c r="CL39" s="21"/>
+      <c r="CM39" s="21"/>
+      <c r="CN39" s="21"/>
+      <c r="CO39" s="21"/>
+      <c r="CP39" s="21"/>
+      <c r="CQ39" s="21"/>
+      <c r="CR39" s="21"/>
     </row>
     <row r="40" spans="1:154" x14ac:dyDescent="0.2">
       <c r="A40" s="13" t="s">
@@ -28911,13 +28958,13 @@
       <c r="CI41" s="9"/>
       <c r="CJ41" s="9"/>
       <c r="CK41" s="9"/>
-      <c r="CL41" s="9"/>
-      <c r="CM41" s="9"/>
-      <c r="CN41" s="9"/>
-      <c r="CO41" s="9"/>
-      <c r="CP41" s="9"/>
-      <c r="CQ41" s="9"/>
-      <c r="CR41" s="9"/>
+      <c r="CL41" s="19"/>
+      <c r="CM41" s="19"/>
+      <c r="CN41" s="19"/>
+      <c r="CO41" s="19"/>
+      <c r="CP41" s="19"/>
+      <c r="CQ41" s="19"/>
+      <c r="CR41" s="19"/>
       <c r="CS41" s="9"/>
       <c r="CT41" s="9"/>
       <c r="CU41" s="9"/>
@@ -29066,13 +29113,13 @@
       <c r="CI42" s="9"/>
       <c r="CJ42" s="9"/>
       <c r="CK42" s="9"/>
-      <c r="CL42" s="9"/>
-      <c r="CM42" s="9"/>
-      <c r="CN42" s="9"/>
-      <c r="CO42" s="9"/>
-      <c r="CP42" s="9"/>
-      <c r="CQ42" s="9"/>
-      <c r="CR42" s="9"/>
+      <c r="CL42" s="19"/>
+      <c r="CM42" s="19"/>
+      <c r="CN42" s="19"/>
+      <c r="CO42" s="19"/>
+      <c r="CP42" s="19"/>
+      <c r="CQ42" s="19"/>
+      <c r="CR42" s="19"/>
       <c r="CS42" s="9"/>
       <c r="CT42" s="9"/>
       <c r="CU42" s="9"/>
@@ -29164,146 +29211,147 @@
     </row>
     <row r="51" spans="1:150" x14ac:dyDescent="0.2">
       <c r="A51" s="4"/>
-      <c r="B51" s="15" t="s">
+      <c r="B51" s="25" t="s">
         <v>31</v>
       </c>
-      <c r="C51" s="15"/>
-      <c r="D51" s="15"/>
-      <c r="E51" s="15"/>
-      <c r="F51" s="15" t="s">
+      <c r="C51" s="25"/>
+      <c r="D51" s="25"/>
+      <c r="E51" s="25"/>
+      <c r="F51" s="25" t="s">
         <v>32</v>
       </c>
-      <c r="G51" s="15"/>
-      <c r="H51" s="15"/>
-      <c r="I51" s="15"/>
-      <c r="J51" s="15" t="s">
+      <c r="G51" s="25"/>
+      <c r="H51" s="25"/>
+      <c r="I51" s="25"/>
+      <c r="J51" s="25" t="s">
         <v>33</v>
       </c>
-      <c r="K51" s="15"/>
-      <c r="L51" s="15"/>
-      <c r="M51" s="15"/>
-      <c r="N51" s="15" t="s">
+      <c r="K51" s="25"/>
+      <c r="L51" s="25"/>
+      <c r="M51" s="25"/>
+      <c r="N51" s="25" t="s">
         <v>34</v>
       </c>
-      <c r="O51" s="15"/>
-      <c r="P51" s="15"/>
-      <c r="Q51" s="15"/>
-      <c r="R51" s="15" t="s">
+      <c r="O51" s="25"/>
+      <c r="P51" s="25"/>
+      <c r="Q51" s="25"/>
+      <c r="R51" s="25" t="s">
         <v>35</v>
       </c>
-      <c r="S51" s="15"/>
-      <c r="T51" s="15"/>
-      <c r="U51" s="15"/>
-      <c r="V51" s="15" t="s">
+      <c r="S51" s="25"/>
+      <c r="T51" s="25"/>
+      <c r="U51" s="25"/>
+      <c r="V51" s="25" t="s">
         <v>36</v>
       </c>
-      <c r="W51" s="15"/>
-      <c r="X51" s="15"/>
-      <c r="Y51" s="15"/>
-      <c r="Z51" s="15" t="s">
+      <c r="W51" s="25"/>
+      <c r="X51" s="25"/>
+      <c r="Y51" s="25"/>
+      <c r="Z51" s="25" t="s">
         <v>37</v>
       </c>
-      <c r="AA51" s="15"/>
-      <c r="AB51" s="15"/>
-      <c r="AC51" s="15"/>
-      <c r="AD51" s="15" t="s">
+      <c r="AA51" s="25"/>
+      <c r="AB51" s="25"/>
+      <c r="AC51" s="25"/>
+      <c r="AD51" s="25" t="s">
         <v>38</v>
       </c>
-      <c r="AE51" s="15"/>
-      <c r="AF51" s="15"/>
-      <c r="AG51" s="15"/>
-      <c r="AH51" s="15" t="s">
+      <c r="AE51" s="25"/>
+      <c r="AF51" s="25"/>
+      <c r="AG51" s="25"/>
+      <c r="AH51" s="25" t="s">
         <v>39</v>
       </c>
-      <c r="AI51" s="15"/>
-      <c r="AJ51" s="15"/>
-      <c r="AK51" s="15"/>
-      <c r="AL51" s="15" t="s">
+      <c r="AI51" s="25"/>
+      <c r="AJ51" s="25"/>
+      <c r="AK51" s="25"/>
+      <c r="AL51" s="25" t="s">
         <v>40</v>
       </c>
-      <c r="AM51" s="15"/>
-      <c r="AN51" s="15"/>
-      <c r="AO51" s="15"/>
-      <c r="AP51" s="15" t="s">
+      <c r="AM51" s="25"/>
+      <c r="AN51" s="25"/>
+      <c r="AO51" s="25"/>
+      <c r="AP51" s="25" t="s">
         <v>41</v>
       </c>
-      <c r="AQ51" s="15"/>
-      <c r="AR51" s="15"/>
-      <c r="AS51" s="15"/>
-      <c r="AT51" s="15" t="s">
+      <c r="AQ51" s="25"/>
+      <c r="AR51" s="25"/>
+      <c r="AS51" s="25"/>
+      <c r="AT51" s="25" t="s">
         <v>42</v>
       </c>
-      <c r="AU51" s="15"/>
-      <c r="AV51" s="15"/>
-      <c r="AW51" s="15"/>
-      <c r="AX51" s="15" t="s">
+      <c r="AU51" s="25"/>
+      <c r="AV51" s="25"/>
+      <c r="AW51" s="25"/>
+      <c r="AX51" s="25" t="s">
         <v>43</v>
       </c>
-      <c r="AY51" s="15"/>
-      <c r="AZ51" s="15"/>
-      <c r="BA51" s="15"/>
-      <c r="BB51" s="15" t="s">
+      <c r="AY51" s="25"/>
+      <c r="AZ51" s="25"/>
+      <c r="BA51" s="25"/>
+      <c r="BB51" s="25" t="s">
         <v>44</v>
       </c>
-      <c r="BC51" s="15"/>
-      <c r="BD51" s="15"/>
-      <c r="BE51" s="15"/>
-      <c r="BF51" s="15" t="s">
+      <c r="BC51" s="25"/>
+      <c r="BD51" s="25"/>
+      <c r="BE51" s="25"/>
+      <c r="BF51" s="25" t="s">
         <v>45</v>
       </c>
-      <c r="BG51" s="15"/>
-      <c r="BH51" s="15"/>
-      <c r="BI51" s="15"/>
-      <c r="BJ51" s="15" t="s">
+      <c r="BG51" s="25"/>
+      <c r="BH51" s="25"/>
+      <c r="BI51" s="25"/>
+      <c r="BJ51" s="25" t="s">
         <v>46</v>
       </c>
-      <c r="BK51" s="15"/>
-      <c r="BL51" s="15"/>
-      <c r="BM51" s="15"/>
-      <c r="BN51" s="15" t="s">
+      <c r="BK51" s="25"/>
+      <c r="BL51" s="25"/>
+      <c r="BM51" s="25"/>
+      <c r="BN51" s="25" t="s">
         <v>47</v>
       </c>
-      <c r="BO51" s="15"/>
-      <c r="BP51" s="15"/>
-      <c r="BQ51" s="15"/>
-      <c r="BR51" s="15" t="s">
+      <c r="BO51" s="25"/>
+      <c r="BP51" s="25"/>
+      <c r="BQ51" s="25"/>
+      <c r="BR51" s="25" t="s">
         <v>27</v>
       </c>
-      <c r="BS51" s="15"/>
-      <c r="BT51" s="15"/>
-      <c r="BU51" s="15"/>
-      <c r="BV51" s="15" t="s">
+      <c r="BS51" s="25"/>
+      <c r="BT51" s="25"/>
+      <c r="BU51" s="25"/>
+      <c r="BV51" s="25" t="s">
         <v>28</v>
       </c>
-      <c r="BW51" s="15"/>
-      <c r="BX51" s="15"/>
-      <c r="BY51" s="15"/>
-      <c r="BZ51" s="15" t="s">
+      <c r="BW51" s="25"/>
+      <c r="BX51" s="25"/>
+      <c r="BY51" s="25"/>
+      <c r="BZ51" s="25" t="s">
         <v>29</v>
       </c>
-      <c r="CA51" s="15"/>
-      <c r="CB51" s="15"/>
-      <c r="CC51" s="15"/>
-      <c r="CD51" s="15" t="s">
+      <c r="CA51" s="25"/>
+      <c r="CB51" s="25"/>
+      <c r="CC51" s="25"/>
+      <c r="CD51" s="25" t="s">
         <v>48</v>
       </c>
-      <c r="CE51" s="15"/>
-      <c r="CF51" s="15"/>
-      <c r="CG51" s="15"/>
-      <c r="CH51" s="15" t="s">
+      <c r="CE51" s="25"/>
+      <c r="CF51" s="25"/>
+      <c r="CG51" s="25"/>
+      <c r="CH51" s="25" t="s">
         <v>49</v>
       </c>
-      <c r="CI51" s="15"/>
-      <c r="CJ51" s="15"/>
-      <c r="CK51" s="15"/>
-      <c r="CL51" s="15" t="s">
+      <c r="CI51" s="25"/>
+      <c r="CJ51" s="25"/>
+      <c r="CK51" s="25"/>
+      <c r="CL51" s="27" t="s">
         <v>50</v>
       </c>
-      <c r="CM51" s="15"/>
-      <c r="CN51" s="15"/>
-      <c r="CO51" s="15"/>
+      <c r="CM51" s="27"/>
+      <c r="CN51" s="27"/>
+      <c r="CO51" s="22"/>
       <c r="CP51" s="15"/>
-      <c r="CQ51" s="17"/>
+      <c r="CQ51" s="15"/>
+      <c r="CR51" s="15"/>
     </row>
     <row r="52" spans="1:150" x14ac:dyDescent="0.2">
       <c r="A52" s="5" t="s">
@@ -29573,16 +29621,19 @@
       <c r="CK52" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="CL52" s="5" t="s">
+      <c r="CL52" s="23" t="s">
         <v>7</v>
       </c>
-      <c r="CM52" s="5" t="s">
+      <c r="CM52" s="23" t="s">
         <v>8</v>
       </c>
-      <c r="CN52" s="5"/>
-      <c r="CO52" s="5"/>
-      <c r="CP52" s="5"/>
-      <c r="CQ52" s="5"/>
+      <c r="CN52" s="23" t="s">
+        <v>10</v>
+      </c>
+      <c r="CO52" s="23"/>
+      <c r="CP52" s="23"/>
+      <c r="CQ52" s="23"/>
+      <c r="CR52" s="23"/>
     </row>
     <row r="53" spans="1:150" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A53" s="7"/>
@@ -29855,17 +29906,19 @@
       <c r="CK54" s="14">
         <v>18.024110738216748</v>
       </c>
-      <c r="CL54" s="14">
+      <c r="CL54" s="24">
         <v>21.151903041683596</v>
       </c>
-      <c r="CM54" s="14">
-        <v>14.968863069973423</v>
-      </c>
-      <c r="CN54" s="14"/>
-      <c r="CO54" s="14"/>
-      <c r="CP54" s="14"/>
-      <c r="CQ54" s="14"/>
-      <c r="CR54" s="9"/>
+      <c r="CM54" s="24">
+        <v>16.055596049297876</v>
+      </c>
+      <c r="CN54" s="24">
+        <v>16.637198327410999</v>
+      </c>
+      <c r="CO54" s="24"/>
+      <c r="CP54" s="24"/>
+      <c r="CQ54" s="24"/>
+      <c r="CR54" s="24"/>
       <c r="CS54" s="9"/>
       <c r="CT54" s="9"/>
       <c r="CU54" s="9"/>
@@ -30189,17 +30242,19 @@
       <c r="CK55" s="14">
         <v>18.006476206364624</v>
       </c>
-      <c r="CL55" s="14">
+      <c r="CL55" s="24">
         <v>17.343743533999103</v>
       </c>
-      <c r="CM55" s="14">
-        <v>9.8406075219795497</v>
-      </c>
-      <c r="CN55" s="14"/>
-      <c r="CO55" s="14"/>
-      <c r="CP55" s="14"/>
-      <c r="CQ55" s="14"/>
-      <c r="CR55" s="9"/>
+      <c r="CM55" s="24">
+        <v>8.7752308383840898</v>
+      </c>
+      <c r="CN55" s="24">
+        <v>14.650115465720788</v>
+      </c>
+      <c r="CO55" s="24"/>
+      <c r="CP55" s="24"/>
+      <c r="CQ55" s="24"/>
+      <c r="CR55" s="24"/>
       <c r="CS55" s="9"/>
       <c r="CT55" s="9"/>
       <c r="CU55" s="9"/>
@@ -30523,17 +30578,19 @@
       <c r="CK56" s="14">
         <v>14.283569411064747</v>
       </c>
-      <c r="CL56" s="14">
+      <c r="CL56" s="24">
         <v>4.8936335134968516</v>
       </c>
-      <c r="CM56" s="14">
-        <v>5.4548068941725774</v>
-      </c>
-      <c r="CN56" s="14"/>
-      <c r="CO56" s="14"/>
-      <c r="CP56" s="14"/>
-      <c r="CQ56" s="14"/>
-      <c r="CR56" s="9"/>
+      <c r="CM56" s="24">
+        <v>7.0068118916121165</v>
+      </c>
+      <c r="CN56" s="24">
+        <v>8.1000157787801612</v>
+      </c>
+      <c r="CO56" s="24"/>
+      <c r="CP56" s="24"/>
+      <c r="CQ56" s="24"/>
+      <c r="CR56" s="24"/>
       <c r="CS56" s="9"/>
       <c r="CT56" s="9"/>
       <c r="CU56" s="9"/>
@@ -30857,17 +30914,19 @@
       <c r="CK57" s="14">
         <v>13.941271970433334</v>
       </c>
-      <c r="CL57" s="14">
+      <c r="CL57" s="24">
         <v>9.5755420857457807</v>
       </c>
-      <c r="CM57" s="14">
-        <v>13.084252039806231</v>
-      </c>
-      <c r="CN57" s="14"/>
-      <c r="CO57" s="14"/>
-      <c r="CP57" s="14"/>
-      <c r="CQ57" s="14"/>
-      <c r="CR57" s="9"/>
+      <c r="CM57" s="24">
+        <v>13.731756400139886</v>
+      </c>
+      <c r="CN57" s="24">
+        <v>8.4034336346420417</v>
+      </c>
+      <c r="CO57" s="24"/>
+      <c r="CP57" s="24"/>
+      <c r="CQ57" s="24"/>
+      <c r="CR57" s="24"/>
       <c r="CS57" s="9"/>
       <c r="CT57" s="9"/>
       <c r="CU57" s="9"/>
@@ -31012,13 +31071,13 @@
       <c r="CI58" s="9"/>
       <c r="CJ58" s="9"/>
       <c r="CK58" s="9"/>
-      <c r="CL58" s="9"/>
-      <c r="CM58" s="9"/>
-      <c r="CN58" s="9"/>
-      <c r="CO58" s="9"/>
-      <c r="CP58" s="9"/>
-      <c r="CQ58" s="9"/>
-      <c r="CR58" s="9"/>
+      <c r="CL58" s="19"/>
+      <c r="CM58" s="19"/>
+      <c r="CN58" s="19"/>
+      <c r="CO58" s="19"/>
+      <c r="CP58" s="19"/>
+      <c r="CQ58" s="19"/>
+      <c r="CR58" s="19"/>
       <c r="CS58" s="9"/>
       <c r="CT58" s="9"/>
       <c r="CU58" s="9"/>
@@ -31342,17 +31401,19 @@
       <c r="CK59" s="14">
         <v>17.253595232290024</v>
       </c>
-      <c r="CL59" s="14">
+      <c r="CL59" s="24">
         <v>17.58047568302436</v>
       </c>
-      <c r="CM59" s="14">
-        <v>11.917981861293669</v>
-      </c>
-      <c r="CN59" s="14"/>
-      <c r="CO59" s="14"/>
-      <c r="CP59" s="14"/>
-      <c r="CQ59" s="14"/>
-      <c r="CR59" s="9"/>
+      <c r="CM59" s="24">
+        <v>12.245630992893865</v>
+      </c>
+      <c r="CN59" s="24">
+        <v>14.605274617377347</v>
+      </c>
+      <c r="CO59" s="24"/>
+      <c r="CP59" s="24"/>
+      <c r="CQ59" s="24"/>
+      <c r="CR59" s="24"/>
       <c r="CS59" s="9"/>
       <c r="CT59" s="9"/>
       <c r="CU59" s="9"/>
@@ -31498,12 +31559,13 @@
       <c r="CI60" s="12"/>
       <c r="CJ60" s="12"/>
       <c r="CK60" s="12"/>
-      <c r="CL60" s="12"/>
-      <c r="CM60" s="12"/>
-      <c r="CN60" s="12"/>
-      <c r="CO60" s="12"/>
-      <c r="CP60" s="12"/>
-      <c r="CQ60" s="12"/>
+      <c r="CL60" s="21"/>
+      <c r="CM60" s="21"/>
+      <c r="CN60" s="21"/>
+      <c r="CO60" s="21"/>
+      <c r="CP60" s="21"/>
+      <c r="CQ60" s="21"/>
+      <c r="CR60" s="21"/>
     </row>
     <row r="61" spans="1:150" x14ac:dyDescent="0.2">
       <c r="A61" s="13" t="s">
@@ -31599,13 +31661,13 @@
       <c r="CI62" s="9"/>
       <c r="CJ62" s="9"/>
       <c r="CK62" s="9"/>
-      <c r="CL62" s="9"/>
-      <c r="CM62" s="9"/>
-      <c r="CN62" s="9"/>
-      <c r="CO62" s="9"/>
-      <c r="CP62" s="9"/>
-      <c r="CQ62" s="9"/>
-      <c r="CR62" s="9"/>
+      <c r="CL62" s="19"/>
+      <c r="CM62" s="19"/>
+      <c r="CN62" s="19"/>
+      <c r="CO62" s="19"/>
+      <c r="CP62" s="19"/>
+      <c r="CQ62" s="19"/>
+      <c r="CR62" s="19"/>
       <c r="CS62" s="9"/>
       <c r="CT62" s="9"/>
       <c r="CU62" s="9"/>
@@ -31750,13 +31812,13 @@
       <c r="CI63" s="9"/>
       <c r="CJ63" s="9"/>
       <c r="CK63" s="9"/>
-      <c r="CL63" s="9"/>
-      <c r="CM63" s="9"/>
-      <c r="CN63" s="9"/>
-      <c r="CO63" s="9"/>
-      <c r="CP63" s="9"/>
-      <c r="CQ63" s="9"/>
-      <c r="CR63" s="9"/>
+      <c r="CL63" s="19"/>
+      <c r="CM63" s="19"/>
+      <c r="CN63" s="19"/>
+      <c r="CO63" s="19"/>
+      <c r="CP63" s="19"/>
+      <c r="CQ63" s="19"/>
+      <c r="CR63" s="19"/>
       <c r="CS63" s="9"/>
       <c r="CT63" s="9"/>
       <c r="CU63" s="9"/>
@@ -31844,146 +31906,147 @@
     </row>
     <row r="72" spans="1:150" x14ac:dyDescent="0.2">
       <c r="A72" s="4"/>
-      <c r="B72" s="15" t="s">
+      <c r="B72" s="25" t="s">
         <v>31</v>
       </c>
-      <c r="C72" s="17"/>
-      <c r="D72" s="17"/>
-      <c r="E72" s="17"/>
-      <c r="F72" s="15" t="s">
+      <c r="C72" s="27"/>
+      <c r="D72" s="27"/>
+      <c r="E72" s="27"/>
+      <c r="F72" s="25" t="s">
         <v>32</v>
       </c>
-      <c r="G72" s="17"/>
-      <c r="H72" s="17"/>
-      <c r="I72" s="17"/>
-      <c r="J72" s="15" t="s">
+      <c r="G72" s="27"/>
+      <c r="H72" s="27"/>
+      <c r="I72" s="27"/>
+      <c r="J72" s="25" t="s">
         <v>33</v>
       </c>
-      <c r="K72" s="17"/>
-      <c r="L72" s="17"/>
-      <c r="M72" s="17"/>
-      <c r="N72" s="15" t="s">
+      <c r="K72" s="27"/>
+      <c r="L72" s="27"/>
+      <c r="M72" s="27"/>
+      <c r="N72" s="25" t="s">
         <v>34</v>
       </c>
-      <c r="O72" s="17"/>
-      <c r="P72" s="17"/>
-      <c r="Q72" s="17"/>
-      <c r="R72" s="15" t="s">
+      <c r="O72" s="27"/>
+      <c r="P72" s="27"/>
+      <c r="Q72" s="27"/>
+      <c r="R72" s="25" t="s">
         <v>35</v>
       </c>
-      <c r="S72" s="17"/>
-      <c r="T72" s="17"/>
-      <c r="U72" s="17"/>
-      <c r="V72" s="15" t="s">
+      <c r="S72" s="27"/>
+      <c r="T72" s="27"/>
+      <c r="U72" s="27"/>
+      <c r="V72" s="25" t="s">
         <v>36</v>
       </c>
-      <c r="W72" s="17"/>
-      <c r="X72" s="17"/>
-      <c r="Y72" s="17"/>
-      <c r="Z72" s="15" t="s">
+      <c r="W72" s="27"/>
+      <c r="X72" s="27"/>
+      <c r="Y72" s="27"/>
+      <c r="Z72" s="25" t="s">
         <v>37</v>
       </c>
-      <c r="AA72" s="17"/>
-      <c r="AB72" s="17"/>
-      <c r="AC72" s="17"/>
-      <c r="AD72" s="15" t="s">
+      <c r="AA72" s="27"/>
+      <c r="AB72" s="27"/>
+      <c r="AC72" s="27"/>
+      <c r="AD72" s="25" t="s">
         <v>38</v>
       </c>
-      <c r="AE72" s="17"/>
-      <c r="AF72" s="17"/>
-      <c r="AG72" s="17"/>
-      <c r="AH72" s="15" t="s">
+      <c r="AE72" s="27"/>
+      <c r="AF72" s="27"/>
+      <c r="AG72" s="27"/>
+      <c r="AH72" s="25" t="s">
         <v>39</v>
       </c>
-      <c r="AI72" s="17"/>
-      <c r="AJ72" s="17"/>
-      <c r="AK72" s="17"/>
-      <c r="AL72" s="15" t="s">
+      <c r="AI72" s="27"/>
+      <c r="AJ72" s="27"/>
+      <c r="AK72" s="27"/>
+      <c r="AL72" s="25" t="s">
         <v>40</v>
       </c>
-      <c r="AM72" s="17"/>
-      <c r="AN72" s="17"/>
-      <c r="AO72" s="17"/>
-      <c r="AP72" s="15" t="s">
+      <c r="AM72" s="27"/>
+      <c r="AN72" s="27"/>
+      <c r="AO72" s="27"/>
+      <c r="AP72" s="25" t="s">
         <v>41</v>
       </c>
-      <c r="AQ72" s="17"/>
-      <c r="AR72" s="17"/>
-      <c r="AS72" s="17"/>
-      <c r="AT72" s="15" t="s">
+      <c r="AQ72" s="27"/>
+      <c r="AR72" s="27"/>
+      <c r="AS72" s="27"/>
+      <c r="AT72" s="25" t="s">
         <v>42</v>
       </c>
-      <c r="AU72" s="17"/>
-      <c r="AV72" s="17"/>
-      <c r="AW72" s="17"/>
-      <c r="AX72" s="15" t="s">
+      <c r="AU72" s="27"/>
+      <c r="AV72" s="27"/>
+      <c r="AW72" s="27"/>
+      <c r="AX72" s="25" t="s">
         <v>43</v>
       </c>
-      <c r="AY72" s="17"/>
-      <c r="AZ72" s="17"/>
-      <c r="BA72" s="17"/>
-      <c r="BB72" s="15" t="s">
+      <c r="AY72" s="27"/>
+      <c r="AZ72" s="27"/>
+      <c r="BA72" s="27"/>
+      <c r="BB72" s="25" t="s">
         <v>44</v>
       </c>
-      <c r="BC72" s="17"/>
-      <c r="BD72" s="17"/>
-      <c r="BE72" s="17"/>
-      <c r="BF72" s="15" t="s">
+      <c r="BC72" s="27"/>
+      <c r="BD72" s="27"/>
+      <c r="BE72" s="27"/>
+      <c r="BF72" s="25" t="s">
         <v>45</v>
       </c>
-      <c r="BG72" s="17"/>
-      <c r="BH72" s="17"/>
-      <c r="BI72" s="17"/>
-      <c r="BJ72" s="15" t="s">
+      <c r="BG72" s="27"/>
+      <c r="BH72" s="27"/>
+      <c r="BI72" s="27"/>
+      <c r="BJ72" s="25" t="s">
         <v>46</v>
       </c>
-      <c r="BK72" s="17"/>
-      <c r="BL72" s="17"/>
-      <c r="BM72" s="17"/>
-      <c r="BN72" s="15" t="s">
+      <c r="BK72" s="27"/>
+      <c r="BL72" s="27"/>
+      <c r="BM72" s="27"/>
+      <c r="BN72" s="25" t="s">
         <v>47</v>
       </c>
-      <c r="BO72" s="17"/>
-      <c r="BP72" s="17"/>
-      <c r="BQ72" s="17"/>
-      <c r="BR72" s="15" t="s">
+      <c r="BO72" s="27"/>
+      <c r="BP72" s="27"/>
+      <c r="BQ72" s="27"/>
+      <c r="BR72" s="25" t="s">
         <v>27</v>
       </c>
-      <c r="BS72" s="17"/>
-      <c r="BT72" s="17"/>
-      <c r="BU72" s="17"/>
-      <c r="BV72" s="15" t="s">
+      <c r="BS72" s="27"/>
+      <c r="BT72" s="27"/>
+      <c r="BU72" s="27"/>
+      <c r="BV72" s="25" t="s">
         <v>28</v>
       </c>
-      <c r="BW72" s="17"/>
-      <c r="BX72" s="17"/>
-      <c r="BY72" s="17"/>
-      <c r="BZ72" s="15" t="s">
+      <c r="BW72" s="27"/>
+      <c r="BX72" s="27"/>
+      <c r="BY72" s="27"/>
+      <c r="BZ72" s="25" t="s">
         <v>29</v>
       </c>
-      <c r="CA72" s="17"/>
-      <c r="CB72" s="17"/>
-      <c r="CC72" s="17"/>
-      <c r="CD72" s="15" t="s">
+      <c r="CA72" s="27"/>
+      <c r="CB72" s="27"/>
+      <c r="CC72" s="27"/>
+      <c r="CD72" s="25" t="s">
         <v>48</v>
       </c>
-      <c r="CE72" s="15"/>
-      <c r="CF72" s="15"/>
-      <c r="CG72" s="15"/>
-      <c r="CH72" s="15" t="s">
+      <c r="CE72" s="25"/>
+      <c r="CF72" s="25"/>
+      <c r="CG72" s="25"/>
+      <c r="CH72" s="25" t="s">
         <v>49</v>
       </c>
-      <c r="CI72" s="15"/>
-      <c r="CJ72" s="15"/>
-      <c r="CK72" s="15"/>
-      <c r="CL72" s="15" t="s">
+      <c r="CI72" s="25"/>
+      <c r="CJ72" s="25"/>
+      <c r="CK72" s="25"/>
+      <c r="CL72" s="27" t="s">
         <v>50</v>
       </c>
-      <c r="CM72" s="15"/>
-      <c r="CN72" s="15"/>
-      <c r="CO72" s="15"/>
+      <c r="CM72" s="27"/>
+      <c r="CN72" s="27"/>
+      <c r="CO72" s="22"/>
       <c r="CP72" s="15"/>
-      <c r="CQ72" s="17"/>
+      <c r="CQ72" s="15"/>
+      <c r="CR72" s="15"/>
     </row>
     <row r="73" spans="1:150" x14ac:dyDescent="0.2">
       <c r="A73" s="5" t="s">
@@ -32253,16 +32316,19 @@
       <c r="CK73" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="CL73" s="5" t="s">
+      <c r="CL73" s="23" t="s">
         <v>7</v>
       </c>
-      <c r="CM73" s="5" t="s">
+      <c r="CM73" s="23" t="s">
         <v>8</v>
       </c>
-      <c r="CN73" s="5"/>
-      <c r="CO73" s="5"/>
-      <c r="CP73" s="5"/>
-      <c r="CQ73" s="5"/>
+      <c r="CN73" s="23" t="s">
+        <v>10</v>
+      </c>
+      <c r="CO73" s="23"/>
+      <c r="CP73" s="23"/>
+      <c r="CQ73" s="23"/>
+      <c r="CR73" s="23"/>
     </row>
     <row r="74" spans="1:150" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A74" s="7"/>
@@ -32535,17 +32601,19 @@
       <c r="CK75" s="14">
         <v>9.8272824283011033</v>
       </c>
-      <c r="CL75" s="14">
+      <c r="CL75" s="24">
         <v>11.212561659237835</v>
       </c>
-      <c r="CM75" s="14">
-        <v>8.0159853381847057</v>
-      </c>
-      <c r="CN75" s="14"/>
-      <c r="CO75" s="14"/>
-      <c r="CP75" s="14"/>
-      <c r="CQ75" s="14"/>
-      <c r="CR75" s="9"/>
+      <c r="CM75" s="24">
+        <v>9.0369968575365789</v>
+      </c>
+      <c r="CN75" s="24">
+        <v>11.263186423171746</v>
+      </c>
+      <c r="CO75" s="24"/>
+      <c r="CP75" s="24"/>
+      <c r="CQ75" s="24"/>
+      <c r="CR75" s="24"/>
       <c r="CS75" s="9"/>
       <c r="CT75" s="9"/>
       <c r="CU75" s="9"/>
@@ -32869,17 +32937,19 @@
       <c r="CK76" s="14">
         <v>10.381601710819254</v>
       </c>
-      <c r="CL76" s="14">
+      <c r="CL76" s="24">
         <v>9.8621323228153699</v>
       </c>
-      <c r="CM76" s="14">
-        <v>3.1561253893385555</v>
-      </c>
-      <c r="CN76" s="14"/>
-      <c r="CO76" s="14"/>
-      <c r="CP76" s="14"/>
-      <c r="CQ76" s="14"/>
-      <c r="CR76" s="9"/>
+      <c r="CM76" s="24">
+        <v>2.1555968660023268</v>
+      </c>
+      <c r="CN76" s="24">
+        <v>9.8391602469062605</v>
+      </c>
+      <c r="CO76" s="24"/>
+      <c r="CP76" s="24"/>
+      <c r="CQ76" s="24"/>
+      <c r="CR76" s="24"/>
       <c r="CS76" s="9"/>
       <c r="CT76" s="9"/>
       <c r="CU76" s="9"/>
@@ -33203,17 +33273,19 @@
       <c r="CK77" s="14">
         <v>6.4283746065456171</v>
       </c>
-      <c r="CL77" s="14">
+      <c r="CL77" s="24">
         <v>-2.4063700097721892</v>
       </c>
-      <c r="CM77" s="14">
-        <v>-1.0594558246736341</v>
-      </c>
-      <c r="CN77" s="14"/>
-      <c r="CO77" s="14"/>
-      <c r="CP77" s="14"/>
-      <c r="CQ77" s="14"/>
-      <c r="CR77" s="9"/>
+      <c r="CM77" s="24">
+        <v>0.3966771248996821</v>
+      </c>
+      <c r="CN77" s="24">
+        <v>3.1390285075662376</v>
+      </c>
+      <c r="CO77" s="24"/>
+      <c r="CP77" s="24"/>
+      <c r="CQ77" s="24"/>
+      <c r="CR77" s="24"/>
       <c r="CS77" s="9"/>
       <c r="CT77" s="9"/>
       <c r="CU77" s="9"/>
@@ -33537,17 +33609,19 @@
       <c r="CK78" s="14">
         <v>6.7295841723780541</v>
       </c>
-      <c r="CL78" s="14">
+      <c r="CL78" s="24">
         <v>2.8554756057137354</v>
       </c>
-      <c r="CM78" s="14">
-        <v>5.3918102706997075</v>
-      </c>
-      <c r="CN78" s="14"/>
-      <c r="CO78" s="14"/>
-      <c r="CP78" s="14"/>
-      <c r="CQ78" s="14"/>
-      <c r="CR78" s="9"/>
+      <c r="CM78" s="24">
+        <v>5.995251940898072</v>
+      </c>
+      <c r="CN78" s="24">
+        <v>3.974135463880728</v>
+      </c>
+      <c r="CO78" s="24"/>
+      <c r="CP78" s="24"/>
+      <c r="CQ78" s="24"/>
+      <c r="CR78" s="24"/>
       <c r="CS78" s="9"/>
       <c r="CT78" s="9"/>
       <c r="CU78" s="9"/>
@@ -33692,13 +33766,13 @@
       <c r="CI79" s="9"/>
       <c r="CJ79" s="9"/>
       <c r="CK79" s="9"/>
-      <c r="CL79" s="9"/>
-      <c r="CM79" s="9"/>
-      <c r="CN79" s="9"/>
-      <c r="CO79" s="9"/>
-      <c r="CP79" s="9"/>
-      <c r="CQ79" s="9"/>
-      <c r="CR79" s="9"/>
+      <c r="CL79" s="19"/>
+      <c r="CM79" s="19"/>
+      <c r="CN79" s="19"/>
+      <c r="CO79" s="19"/>
+      <c r="CP79" s="19"/>
+      <c r="CQ79" s="19"/>
+      <c r="CR79" s="19"/>
       <c r="CS79" s="9"/>
       <c r="CT79" s="9"/>
       <c r="CU79" s="9"/>
@@ -34022,17 +34096,19 @@
       <c r="CK80" s="14">
         <v>9.335245890382609</v>
       </c>
-      <c r="CL80" s="14">
+      <c r="CL80" s="24">
         <v>8.7829391683283973</v>
       </c>
-      <c r="CM80" s="14">
-        <v>5.0358735441439677</v>
-      </c>
-      <c r="CN80" s="14"/>
-      <c r="CO80" s="14"/>
-      <c r="CP80" s="14"/>
-      <c r="CQ80" s="14"/>
-      <c r="CR80" s="9"/>
+      <c r="CM80" s="24">
+        <v>5.3419377766094129</v>
+      </c>
+      <c r="CN80" s="24">
+        <v>9.4618745800949284</v>
+      </c>
+      <c r="CO80" s="24"/>
+      <c r="CP80" s="24"/>
+      <c r="CQ80" s="24"/>
+      <c r="CR80" s="24"/>
       <c r="CS80" s="9"/>
       <c r="CT80" s="9"/>
       <c r="CU80" s="9"/>
@@ -34178,12 +34254,13 @@
       <c r="CI81" s="12"/>
       <c r="CJ81" s="12"/>
       <c r="CK81" s="12"/>
-      <c r="CL81" s="12"/>
-      <c r="CM81" s="12"/>
-      <c r="CN81" s="12"/>
-      <c r="CO81" s="12"/>
-      <c r="CP81" s="12"/>
-      <c r="CQ81" s="12"/>
+      <c r="CL81" s="21"/>
+      <c r="CM81" s="21"/>
+      <c r="CN81" s="21"/>
+      <c r="CO81" s="21"/>
+      <c r="CP81" s="21"/>
+      <c r="CQ81" s="21"/>
+      <c r="CR81" s="21"/>
     </row>
     <row r="82" spans="1:154" x14ac:dyDescent="0.2">
       <c r="A82" s="13" t="s">
@@ -34279,13 +34356,13 @@
       <c r="CI83" s="9"/>
       <c r="CJ83" s="9"/>
       <c r="CK83" s="9"/>
-      <c r="CL83" s="9"/>
-      <c r="CM83" s="9"/>
-      <c r="CN83" s="9"/>
-      <c r="CO83" s="9"/>
-      <c r="CP83" s="9"/>
-      <c r="CQ83" s="9"/>
-      <c r="CR83" s="9"/>
+      <c r="CL83" s="19"/>
+      <c r="CM83" s="19"/>
+      <c r="CN83" s="19"/>
+      <c r="CO83" s="19"/>
+      <c r="CP83" s="19"/>
+      <c r="CQ83" s="19"/>
+      <c r="CR83" s="19"/>
       <c r="CS83" s="9"/>
       <c r="CT83" s="9"/>
       <c r="CU83" s="9"/>
@@ -34430,13 +34507,13 @@
       <c r="CI84" s="9"/>
       <c r="CJ84" s="9"/>
       <c r="CK84" s="9"/>
-      <c r="CL84" s="9"/>
-      <c r="CM84" s="9"/>
-      <c r="CN84" s="9"/>
-      <c r="CO84" s="9"/>
-      <c r="CP84" s="9"/>
-      <c r="CQ84" s="9"/>
-      <c r="CR84" s="9"/>
+      <c r="CL84" s="19"/>
+      <c r="CM84" s="19"/>
+      <c r="CN84" s="19"/>
+      <c r="CO84" s="19"/>
+      <c r="CP84" s="19"/>
+      <c r="CQ84" s="19"/>
+      <c r="CR84" s="19"/>
       <c r="CS84" s="9"/>
       <c r="CT84" s="9"/>
       <c r="CU84" s="9"/>
@@ -34519,148 +34596,149 @@
     </row>
     <row r="92" spans="1:154" x14ac:dyDescent="0.2">
       <c r="A92" s="4"/>
-      <c r="B92" s="15">
+      <c r="B92" s="25">
         <v>2000</v>
       </c>
-      <c r="C92" s="16"/>
-      <c r="D92" s="16"/>
-      <c r="E92" s="16"/>
-      <c r="F92" s="15">
+      <c r="C92" s="26"/>
+      <c r="D92" s="26"/>
+      <c r="E92" s="26"/>
+      <c r="F92" s="25">
         <v>2001</v>
       </c>
-      <c r="G92" s="16"/>
-      <c r="H92" s="16"/>
-      <c r="I92" s="16"/>
-      <c r="J92" s="15">
+      <c r="G92" s="26"/>
+      <c r="H92" s="26"/>
+      <c r="I92" s="26"/>
+      <c r="J92" s="25">
         <v>2002</v>
       </c>
-      <c r="K92" s="16"/>
-      <c r="L92" s="16"/>
-      <c r="M92" s="16"/>
-      <c r="N92" s="15">
+      <c r="K92" s="26"/>
+      <c r="L92" s="26"/>
+      <c r="M92" s="26"/>
+      <c r="N92" s="25">
         <v>2003</v>
       </c>
-      <c r="O92" s="16"/>
-      <c r="P92" s="16"/>
-      <c r="Q92" s="16"/>
-      <c r="R92" s="15">
+      <c r="O92" s="26"/>
+      <c r="P92" s="26"/>
+      <c r="Q92" s="26"/>
+      <c r="R92" s="25">
         <v>2004</v>
       </c>
-      <c r="S92" s="16"/>
-      <c r="T92" s="16"/>
-      <c r="U92" s="16"/>
-      <c r="V92" s="15">
+      <c r="S92" s="26"/>
+      <c r="T92" s="26"/>
+      <c r="U92" s="26"/>
+      <c r="V92" s="25">
         <v>2005</v>
       </c>
-      <c r="W92" s="16"/>
-      <c r="X92" s="16"/>
-      <c r="Y92" s="16"/>
-      <c r="Z92" s="15">
+      <c r="W92" s="26"/>
+      <c r="X92" s="26"/>
+      <c r="Y92" s="26"/>
+      <c r="Z92" s="25">
         <v>2006</v>
       </c>
-      <c r="AA92" s="16"/>
-      <c r="AB92" s="16"/>
-      <c r="AC92" s="16"/>
-      <c r="AD92" s="15">
+      <c r="AA92" s="26"/>
+      <c r="AB92" s="26"/>
+      <c r="AC92" s="26"/>
+      <c r="AD92" s="25">
         <v>2007</v>
       </c>
-      <c r="AE92" s="16"/>
-      <c r="AF92" s="16"/>
-      <c r="AG92" s="16"/>
-      <c r="AH92" s="15">
+      <c r="AE92" s="26"/>
+      <c r="AF92" s="26"/>
+      <c r="AG92" s="26"/>
+      <c r="AH92" s="25">
         <v>2008</v>
       </c>
-      <c r="AI92" s="16"/>
-      <c r="AJ92" s="16"/>
-      <c r="AK92" s="16"/>
-      <c r="AL92" s="15">
+      <c r="AI92" s="26"/>
+      <c r="AJ92" s="26"/>
+      <c r="AK92" s="26"/>
+      <c r="AL92" s="25">
         <v>2009</v>
       </c>
-      <c r="AM92" s="16"/>
-      <c r="AN92" s="16"/>
-      <c r="AO92" s="16"/>
-      <c r="AP92" s="15">
+      <c r="AM92" s="26"/>
+      <c r="AN92" s="26"/>
+      <c r="AO92" s="26"/>
+      <c r="AP92" s="25">
         <v>2010</v>
       </c>
-      <c r="AQ92" s="16"/>
-      <c r="AR92" s="16"/>
-      <c r="AS92" s="16"/>
-      <c r="AT92" s="15">
+      <c r="AQ92" s="26"/>
+      <c r="AR92" s="26"/>
+      <c r="AS92" s="26"/>
+      <c r="AT92" s="25">
         <v>2011</v>
       </c>
-      <c r="AU92" s="16"/>
-      <c r="AV92" s="16"/>
-      <c r="AW92" s="16"/>
-      <c r="AX92" s="15">
+      <c r="AU92" s="26"/>
+      <c r="AV92" s="26"/>
+      <c r="AW92" s="26"/>
+      <c r="AX92" s="25">
         <v>2012</v>
       </c>
-      <c r="AY92" s="16"/>
-      <c r="AZ92" s="16"/>
-      <c r="BA92" s="16"/>
-      <c r="BB92" s="15">
+      <c r="AY92" s="26"/>
+      <c r="AZ92" s="26"/>
+      <c r="BA92" s="26"/>
+      <c r="BB92" s="25">
         <v>2013</v>
       </c>
-      <c r="BC92" s="16"/>
-      <c r="BD92" s="16"/>
-      <c r="BE92" s="16"/>
-      <c r="BF92" s="15">
+      <c r="BC92" s="26"/>
+      <c r="BD92" s="26"/>
+      <c r="BE92" s="26"/>
+      <c r="BF92" s="25">
         <v>2014</v>
       </c>
-      <c r="BG92" s="16"/>
-      <c r="BH92" s="16"/>
-      <c r="BI92" s="16"/>
-      <c r="BJ92" s="15">
+      <c r="BG92" s="26"/>
+      <c r="BH92" s="26"/>
+      <c r="BI92" s="26"/>
+      <c r="BJ92" s="25">
         <v>2015</v>
       </c>
-      <c r="BK92" s="16"/>
-      <c r="BL92" s="16"/>
-      <c r="BM92" s="16"/>
-      <c r="BN92" s="15">
+      <c r="BK92" s="26"/>
+      <c r="BL92" s="26"/>
+      <c r="BM92" s="26"/>
+      <c r="BN92" s="25">
         <v>2016</v>
       </c>
-      <c r="BO92" s="16"/>
-      <c r="BP92" s="16"/>
-      <c r="BQ92" s="16"/>
-      <c r="BR92" s="15">
+      <c r="BO92" s="26"/>
+      <c r="BP92" s="26"/>
+      <c r="BQ92" s="26"/>
+      <c r="BR92" s="25">
         <v>2017</v>
       </c>
-      <c r="BS92" s="16"/>
-      <c r="BT92" s="16"/>
-      <c r="BU92" s="16"/>
-      <c r="BV92" s="15">
+      <c r="BS92" s="26"/>
+      <c r="BT92" s="26"/>
+      <c r="BU92" s="26"/>
+      <c r="BV92" s="25">
         <v>2018</v>
       </c>
-      <c r="BW92" s="16"/>
-      <c r="BX92" s="16"/>
-      <c r="BY92" s="16"/>
-      <c r="BZ92" s="15">
+      <c r="BW92" s="26"/>
+      <c r="BX92" s="26"/>
+      <c r="BY92" s="26"/>
+      <c r="BZ92" s="25">
         <v>2019</v>
       </c>
-      <c r="CA92" s="16"/>
-      <c r="CB92" s="16"/>
-      <c r="CC92" s="16"/>
-      <c r="CD92" s="15">
+      <c r="CA92" s="26"/>
+      <c r="CB92" s="26"/>
+      <c r="CC92" s="26"/>
+      <c r="CD92" s="25">
         <v>2020</v>
       </c>
-      <c r="CE92" s="15"/>
-      <c r="CF92" s="15"/>
-      <c r="CG92" s="15"/>
-      <c r="CH92" s="15">
+      <c r="CE92" s="25"/>
+      <c r="CF92" s="25"/>
+      <c r="CG92" s="25"/>
+      <c r="CH92" s="25">
         <v>2021</v>
       </c>
-      <c r="CI92" s="15"/>
-      <c r="CJ92" s="15"/>
-      <c r="CK92" s="15"/>
-      <c r="CL92" s="15">
+      <c r="CI92" s="25"/>
+      <c r="CJ92" s="25"/>
+      <c r="CK92" s="25"/>
+      <c r="CL92" s="27">
         <v>2022</v>
       </c>
-      <c r="CM92" s="15"/>
-      <c r="CN92" s="15"/>
-      <c r="CO92" s="15"/>
-      <c r="CP92" s="15">
+      <c r="CM92" s="27"/>
+      <c r="CN92" s="27"/>
+      <c r="CO92" s="27"/>
+      <c r="CP92" s="27">
         <v>2023</v>
       </c>
-      <c r="CQ92" s="17"/>
+      <c r="CQ92" s="27"/>
+      <c r="CR92" s="27"/>
     </row>
     <row r="93" spans="1:154" x14ac:dyDescent="0.2">
       <c r="A93" s="5" t="s">
@@ -34930,23 +35008,26 @@
       <c r="CK93" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="CL93" s="6" t="s">
+      <c r="CL93" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="CM93" s="6" t="s">
+      <c r="CM93" s="17" t="s">
         <v>8</v>
       </c>
-      <c r="CN93" s="6" t="s">
+      <c r="CN93" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="CO93" s="6" t="s">
+      <c r="CO93" s="17" t="s">
         <v>9</v>
       </c>
-      <c r="CP93" s="6" t="s">
+      <c r="CP93" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="CQ93" s="6" t="s">
+      <c r="CQ93" s="17" t="s">
         <v>8</v>
+      </c>
+      <c r="CR93" s="17" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="94" spans="1:154" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
@@ -35220,25 +35301,27 @@
       <c r="CK95" s="14">
         <v>106.84919584830172</v>
       </c>
-      <c r="CL95" s="14">
+      <c r="CL95" s="24">
         <v>109.29741292337079</v>
       </c>
-      <c r="CM95" s="14">
+      <c r="CM95" s="24">
         <v>112.68273282267074</v>
       </c>
-      <c r="CN95" s="14">
+      <c r="CN95" s="24">
         <v>112.52153114587102</v>
       </c>
-      <c r="CO95" s="14">
+      <c r="CO95" s="24">
         <v>114.82375821619833</v>
       </c>
-      <c r="CP95" s="14">
+      <c r="CP95" s="24">
         <v>119.06559273198043</v>
       </c>
-      <c r="CQ95" s="14">
-        <v>119.93600428380589</v>
-      </c>
-      <c r="CR95" s="9"/>
+      <c r="CQ95" s="24">
+        <v>119.93600428380584</v>
+      </c>
+      <c r="CR95" s="24">
+        <v>117.95632110021663</v>
+      </c>
       <c r="CS95" s="9"/>
       <c r="CT95" s="9"/>
       <c r="CU95" s="9"/>
@@ -35566,25 +35649,27 @@
       <c r="CK96" s="14">
         <v>106.68377666365943</v>
       </c>
-      <c r="CL96" s="14">
+      <c r="CL96" s="24">
         <v>110.58197350081539</v>
       </c>
-      <c r="CM96" s="14">
+      <c r="CM96" s="24">
         <v>111.14749382056803</v>
       </c>
-      <c r="CN96" s="14">
+      <c r="CN96" s="24">
         <v>111.44310904146781</v>
       </c>
-      <c r="CO96" s="14">
+      <c r="CO96" s="24">
         <v>114.05321500450081</v>
       </c>
-      <c r="CP96" s="14">
+      <c r="CP96" s="24">
         <v>118.11260589622094</v>
       </c>
-      <c r="CQ96" s="14">
-        <v>118.34981393221697</v>
-      </c>
-      <c r="CR96" s="9"/>
+      <c r="CQ96" s="24">
+        <v>118.34979842855556</v>
+      </c>
+      <c r="CR96" s="24">
+        <v>116.32431721748414</v>
+      </c>
       <c r="CS96" s="9"/>
       <c r="CT96" s="9"/>
       <c r="CU96" s="9"/>
@@ -35912,25 +35997,27 @@
       <c r="CK97" s="14">
         <v>104.63011577848687</v>
       </c>
-      <c r="CL97" s="14">
+      <c r="CL97" s="24">
         <v>112.42680139344183</v>
       </c>
-      <c r="CM97" s="14">
+      <c r="CM97" s="24">
         <v>108.29344532061886</v>
       </c>
-      <c r="CN97" s="14">
+      <c r="CN97" s="24">
         <v>109.73385099171769</v>
       </c>
-      <c r="CO97" s="14">
+      <c r="CO97" s="24">
         <v>112.3525858894685</v>
       </c>
-      <c r="CP97" s="14">
+      <c r="CP97" s="24">
         <v>120.83632613767128</v>
       </c>
-      <c r="CQ97" s="14">
+      <c r="CQ97" s="24">
         <v>115.42350468533623</v>
       </c>
-      <c r="CR97" s="9"/>
+      <c r="CR97" s="24">
+        <v>115.0120492244193</v>
+      </c>
       <c r="CS97" s="9"/>
       <c r="CT97" s="9"/>
       <c r="CU97" s="9"/>
@@ -36258,25 +36345,27 @@
       <c r="CK98" s="14">
         <v>107.14021411829164</v>
       </c>
-      <c r="CL98" s="14">
+      <c r="CL98" s="24">
         <v>111.88528035245697</v>
       </c>
-      <c r="CM98" s="14">
+      <c r="CM98" s="24">
         <v>113.24987583382027</v>
       </c>
-      <c r="CN98" s="14">
+      <c r="CN98" s="24">
         <v>113.09341837022909</v>
       </c>
-      <c r="CO98" s="14">
+      <c r="CO98" s="24">
         <v>114.37964806558402</v>
       </c>
-      <c r="CP98" s="14">
+      <c r="CP98" s="24">
         <v>119.19530947514345</v>
       </c>
-      <c r="CQ98" s="14">
-        <v>121.51586987047838</v>
-      </c>
-      <c r="CR98" s="9"/>
+      <c r="CQ98" s="24">
+        <v>121.5158892009612</v>
+      </c>
+      <c r="CR98" s="24">
+        <v>117.91119799280084</v>
+      </c>
       <c r="CS98" s="9"/>
       <c r="CT98" s="9"/>
       <c r="CU98" s="9"/>
@@ -36425,13 +36514,13 @@
       <c r="CI99" s="9"/>
       <c r="CJ99" s="9"/>
       <c r="CK99" s="9"/>
-      <c r="CL99" s="9"/>
-      <c r="CM99" s="9"/>
-      <c r="CN99" s="9"/>
-      <c r="CO99" s="9"/>
-      <c r="CP99" s="9"/>
-      <c r="CQ99" s="9"/>
-      <c r="CR99" s="9"/>
+      <c r="CL99" s="19"/>
+      <c r="CM99" s="19"/>
+      <c r="CN99" s="19"/>
+      <c r="CO99" s="19"/>
+      <c r="CP99" s="19"/>
+      <c r="CQ99" s="19"/>
+      <c r="CR99" s="19"/>
       <c r="CS99" s="9"/>
       <c r="CT99" s="9"/>
       <c r="CU99" s="9"/>
@@ -36759,25 +36848,27 @@
       <c r="CK100" s="14">
         <v>106.4847431334275</v>
       </c>
-      <c r="CL100" s="14">
+      <c r="CL100" s="24">
         <v>110.12693971772578</v>
       </c>
-      <c r="CM100" s="14">
+      <c r="CM100" s="24">
         <v>111.63793284754142</v>
       </c>
-      <c r="CN100" s="14">
+      <c r="CN100" s="24">
         <v>111.88965793290247</v>
       </c>
-      <c r="CO100" s="14">
+      <c r="CO100" s="24">
         <v>114.19665148326661</v>
       </c>
-      <c r="CP100" s="14">
+      <c r="CP100" s="24">
         <v>119.0331687718906</v>
       </c>
-      <c r="CQ100" s="14">
-        <v>118.9526180140009</v>
-      </c>
-      <c r="CR100" s="9"/>
+      <c r="CQ100" s="24">
+        <v>118.95424063479692</v>
+      </c>
+      <c r="CR100" s="24">
+        <v>117.14713477578722</v>
+      </c>
       <c r="CS100" s="9"/>
       <c r="CT100" s="9"/>
       <c r="CU100" s="9"/>
@@ -36927,12 +37018,13 @@
       <c r="CI101" s="12"/>
       <c r="CJ101" s="12"/>
       <c r="CK101" s="12"/>
-      <c r="CL101" s="12"/>
-      <c r="CM101" s="12"/>
-      <c r="CN101" s="12"/>
-      <c r="CO101" s="12"/>
-      <c r="CP101" s="12"/>
-      <c r="CQ101" s="12"/>
+      <c r="CL101" s="21"/>
+      <c r="CM101" s="21"/>
+      <c r="CN101" s="21"/>
+      <c r="CO101" s="21"/>
+      <c r="CP101" s="21"/>
+      <c r="CQ101" s="21"/>
+      <c r="CR101" s="21"/>
     </row>
     <row r="102" spans="1:154" x14ac:dyDescent="0.2">
       <c r="A102" s="13" t="s">
@@ -36971,148 +37063,149 @@
     </row>
     <row r="113" spans="1:154" x14ac:dyDescent="0.2">
       <c r="A113" s="4"/>
-      <c r="B113" s="15">
+      <c r="B113" s="25">
         <v>2000</v>
       </c>
-      <c r="C113" s="16"/>
-      <c r="D113" s="16"/>
-      <c r="E113" s="16"/>
-      <c r="F113" s="15">
+      <c r="C113" s="26"/>
+      <c r="D113" s="26"/>
+      <c r="E113" s="26"/>
+      <c r="F113" s="25">
         <v>2001</v>
       </c>
-      <c r="G113" s="16"/>
-      <c r="H113" s="16"/>
-      <c r="I113" s="16"/>
-      <c r="J113" s="15">
+      <c r="G113" s="26"/>
+      <c r="H113" s="26"/>
+      <c r="I113" s="26"/>
+      <c r="J113" s="25">
         <v>2002</v>
       </c>
-      <c r="K113" s="16"/>
-      <c r="L113" s="16"/>
-      <c r="M113" s="16"/>
-      <c r="N113" s="15">
+      <c r="K113" s="26"/>
+      <c r="L113" s="26"/>
+      <c r="M113" s="26"/>
+      <c r="N113" s="25">
         <v>2003</v>
       </c>
-      <c r="O113" s="16"/>
-      <c r="P113" s="16"/>
-      <c r="Q113" s="16"/>
-      <c r="R113" s="15">
+      <c r="O113" s="26"/>
+      <c r="P113" s="26"/>
+      <c r="Q113" s="26"/>
+      <c r="R113" s="25">
         <v>2004</v>
       </c>
-      <c r="S113" s="16"/>
-      <c r="T113" s="16"/>
-      <c r="U113" s="16"/>
-      <c r="V113" s="15">
+      <c r="S113" s="26"/>
+      <c r="T113" s="26"/>
+      <c r="U113" s="26"/>
+      <c r="V113" s="25">
         <v>2005</v>
       </c>
-      <c r="W113" s="16"/>
-      <c r="X113" s="16"/>
-      <c r="Y113" s="16"/>
-      <c r="Z113" s="15">
+      <c r="W113" s="26"/>
+      <c r="X113" s="26"/>
+      <c r="Y113" s="26"/>
+      <c r="Z113" s="25">
         <v>2006</v>
       </c>
-      <c r="AA113" s="16"/>
-      <c r="AB113" s="16"/>
-      <c r="AC113" s="16"/>
-      <c r="AD113" s="15">
+      <c r="AA113" s="26"/>
+      <c r="AB113" s="26"/>
+      <c r="AC113" s="26"/>
+      <c r="AD113" s="25">
         <v>2007</v>
       </c>
-      <c r="AE113" s="16"/>
-      <c r="AF113" s="16"/>
-      <c r="AG113" s="16"/>
-      <c r="AH113" s="15">
+      <c r="AE113" s="26"/>
+      <c r="AF113" s="26"/>
+      <c r="AG113" s="26"/>
+      <c r="AH113" s="25">
         <v>2008</v>
       </c>
-      <c r="AI113" s="16"/>
-      <c r="AJ113" s="16"/>
-      <c r="AK113" s="16"/>
-      <c r="AL113" s="15">
+      <c r="AI113" s="26"/>
+      <c r="AJ113" s="26"/>
+      <c r="AK113" s="26"/>
+      <c r="AL113" s="25">
         <v>2009</v>
       </c>
-      <c r="AM113" s="16"/>
-      <c r="AN113" s="16"/>
-      <c r="AO113" s="16"/>
-      <c r="AP113" s="15">
+      <c r="AM113" s="26"/>
+      <c r="AN113" s="26"/>
+      <c r="AO113" s="26"/>
+      <c r="AP113" s="25">
         <v>2010</v>
       </c>
-      <c r="AQ113" s="16"/>
-      <c r="AR113" s="16"/>
-      <c r="AS113" s="16"/>
-      <c r="AT113" s="15">
+      <c r="AQ113" s="26"/>
+      <c r="AR113" s="26"/>
+      <c r="AS113" s="26"/>
+      <c r="AT113" s="25">
         <v>2011</v>
       </c>
-      <c r="AU113" s="16"/>
-      <c r="AV113" s="16"/>
-      <c r="AW113" s="16"/>
-      <c r="AX113" s="15">
+      <c r="AU113" s="26"/>
+      <c r="AV113" s="26"/>
+      <c r="AW113" s="26"/>
+      <c r="AX113" s="25">
         <v>2012</v>
       </c>
-      <c r="AY113" s="16"/>
-      <c r="AZ113" s="16"/>
-      <c r="BA113" s="16"/>
-      <c r="BB113" s="15">
+      <c r="AY113" s="26"/>
+      <c r="AZ113" s="26"/>
+      <c r="BA113" s="26"/>
+      <c r="BB113" s="25">
         <v>2013</v>
       </c>
-      <c r="BC113" s="16"/>
-      <c r="BD113" s="16"/>
-      <c r="BE113" s="16"/>
-      <c r="BF113" s="15">
+      <c r="BC113" s="26"/>
+      <c r="BD113" s="26"/>
+      <c r="BE113" s="26"/>
+      <c r="BF113" s="25">
         <v>2014</v>
       </c>
-      <c r="BG113" s="16"/>
-      <c r="BH113" s="16"/>
-      <c r="BI113" s="16"/>
-      <c r="BJ113" s="15">
+      <c r="BG113" s="26"/>
+      <c r="BH113" s="26"/>
+      <c r="BI113" s="26"/>
+      <c r="BJ113" s="25">
         <v>2015</v>
       </c>
-      <c r="BK113" s="16"/>
-      <c r="BL113" s="16"/>
-      <c r="BM113" s="16"/>
-      <c r="BN113" s="15">
+      <c r="BK113" s="26"/>
+      <c r="BL113" s="26"/>
+      <c r="BM113" s="26"/>
+      <c r="BN113" s="25">
         <v>2016</v>
       </c>
-      <c r="BO113" s="16"/>
-      <c r="BP113" s="16"/>
-      <c r="BQ113" s="16"/>
-      <c r="BR113" s="15">
+      <c r="BO113" s="26"/>
+      <c r="BP113" s="26"/>
+      <c r="BQ113" s="26"/>
+      <c r="BR113" s="25">
         <v>2017</v>
       </c>
-      <c r="BS113" s="16"/>
-      <c r="BT113" s="16"/>
-      <c r="BU113" s="16"/>
-      <c r="BV113" s="15">
+      <c r="BS113" s="26"/>
+      <c r="BT113" s="26"/>
+      <c r="BU113" s="26"/>
+      <c r="BV113" s="25">
         <v>2018</v>
       </c>
-      <c r="BW113" s="16"/>
-      <c r="BX113" s="16"/>
-      <c r="BY113" s="16"/>
-      <c r="BZ113" s="15">
+      <c r="BW113" s="26"/>
+      <c r="BX113" s="26"/>
+      <c r="BY113" s="26"/>
+      <c r="BZ113" s="25">
         <v>2019</v>
       </c>
-      <c r="CA113" s="16"/>
-      <c r="CB113" s="16"/>
-      <c r="CC113" s="16"/>
-      <c r="CD113" s="15">
+      <c r="CA113" s="26"/>
+      <c r="CB113" s="26"/>
+      <c r="CC113" s="26"/>
+      <c r="CD113" s="25">
         <v>2020</v>
       </c>
-      <c r="CE113" s="15"/>
-      <c r="CF113" s="15"/>
-      <c r="CG113" s="15"/>
-      <c r="CH113" s="15">
+      <c r="CE113" s="25"/>
+      <c r="CF113" s="25"/>
+      <c r="CG113" s="25"/>
+      <c r="CH113" s="25">
         <v>2021</v>
       </c>
-      <c r="CI113" s="15"/>
-      <c r="CJ113" s="15"/>
-      <c r="CK113" s="15"/>
-      <c r="CL113" s="15">
+      <c r="CI113" s="25"/>
+      <c r="CJ113" s="25"/>
+      <c r="CK113" s="25"/>
+      <c r="CL113" s="27">
         <v>2022</v>
       </c>
-      <c r="CM113" s="15"/>
-      <c r="CN113" s="15"/>
-      <c r="CO113" s="15"/>
-      <c r="CP113" s="15">
+      <c r="CM113" s="27"/>
+      <c r="CN113" s="27"/>
+      <c r="CO113" s="27"/>
+      <c r="CP113" s="27">
         <v>2023</v>
       </c>
-      <c r="CQ113" s="17"/>
+      <c r="CQ113" s="27"/>
+      <c r="CR113" s="27"/>
     </row>
     <row r="114" spans="1:154" x14ac:dyDescent="0.2">
       <c r="A114" s="5" t="s">
@@ -37382,23 +37475,26 @@
       <c r="CK114" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="CL114" s="6" t="s">
+      <c r="CL114" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="CM114" s="6" t="s">
+      <c r="CM114" s="17" t="s">
         <v>8</v>
       </c>
-      <c r="CN114" s="6" t="s">
+      <c r="CN114" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="CO114" s="6" t="s">
+      <c r="CO114" s="17" t="s">
         <v>9</v>
       </c>
-      <c r="CP114" s="6" t="s">
+      <c r="CP114" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="CQ114" s="6" t="s">
+      <c r="CQ114" s="17" t="s">
         <v>8</v>
+      </c>
+      <c r="CR114" s="17" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="115" spans="1:154" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
@@ -37672,25 +37768,27 @@
       <c r="CK116" s="14">
         <v>48.011306366350439</v>
       </c>
-      <c r="CL116" s="14">
+      <c r="CL116" s="24">
         <v>57.736562144404587</v>
       </c>
-      <c r="CM116" s="14">
+      <c r="CM116" s="24">
         <v>46.769467390970831</v>
       </c>
-      <c r="CN116" s="14">
+      <c r="CN116" s="24">
         <v>55.508581421097844</v>
       </c>
-      <c r="CO116" s="14">
+      <c r="CO116" s="24">
         <v>48.326805911944618</v>
       </c>
-      <c r="CP116" s="14">
+      <c r="CP116" s="24">
         <v>59.490271137667548</v>
       </c>
-      <c r="CQ116" s="14">
-        <v>48.044401828047398</v>
-      </c>
-      <c r="CR116" s="9"/>
+      <c r="CQ116" s="24">
+        <v>48.356968257507958</v>
+      </c>
+      <c r="CR116" s="24">
+        <v>56.492735100554761</v>
+      </c>
       <c r="CS116" s="9"/>
       <c r="CT116" s="9"/>
       <c r="CU116" s="9"/>
@@ -38018,25 +38116,27 @@
       <c r="CK117" s="14">
         <v>32.039896284541605</v>
       </c>
-      <c r="CL117" s="14">
+      <c r="CL117" s="24">
         <v>24.692651921457131</v>
       </c>
-      <c r="CM117" s="14">
+      <c r="CM117" s="24">
         <v>36.618285889297042</v>
       </c>
-      <c r="CN117" s="14">
+      <c r="CN117" s="24">
         <v>26.747055172225949</v>
       </c>
-      <c r="CO117" s="14">
+      <c r="CO117" s="24">
         <v>32.245623266952393</v>
       </c>
-      <c r="CP117" s="14">
+      <c r="CP117" s="24">
         <v>24.642936656056627</v>
       </c>
-      <c r="CQ117" s="14">
-        <v>35.938592723006998</v>
-      </c>
-      <c r="CR117" s="9"/>
+      <c r="CQ117" s="24">
+        <v>35.486125074804896</v>
+      </c>
+      <c r="CR117" s="24">
+        <v>26.757520315724936</v>
+      </c>
       <c r="CS117" s="9"/>
       <c r="CT117" s="9"/>
       <c r="CU117" s="9"/>
@@ -38364,25 +38464,27 @@
       <c r="CK118" s="14">
         <v>14.493772309064793</v>
       </c>
-      <c r="CL118" s="14">
+      <c r="CL118" s="24">
         <v>12.751940262581062</v>
       </c>
-      <c r="CM118" s="14">
+      <c r="CM118" s="24">
         <v>11.271143320757758</v>
       </c>
-      <c r="CN118" s="14">
+      <c r="CN118" s="24">
         <v>12.988171527368788</v>
       </c>
-      <c r="CO118" s="14">
+      <c r="CO118" s="24">
         <v>14.126646013963967</v>
       </c>
-      <c r="CP118" s="14">
+      <c r="CP118" s="24">
         <v>11.376015794451307</v>
       </c>
-      <c r="CQ118" s="14">
-        <v>10.620243705253259</v>
-      </c>
-      <c r="CR118" s="9"/>
+      <c r="CQ118" s="24">
+        <v>10.745087380764799</v>
+      </c>
+      <c r="CR118" s="24">
+        <v>12.250933054639535</v>
+      </c>
       <c r="CS118" s="9"/>
       <c r="CT118" s="9"/>
       <c r="CU118" s="9"/>
@@ -38710,25 +38812,27 @@
       <c r="CK119" s="14">
         <v>5.4550250400431652</v>
       </c>
-      <c r="CL119" s="14">
+      <c r="CL119" s="24">
         <v>4.818845671557213</v>
       </c>
-      <c r="CM119" s="14">
+      <c r="CM119" s="24">
         <v>5.3411033989743775</v>
       </c>
-      <c r="CN119" s="14">
+      <c r="CN119" s="24">
         <v>4.756191879307428</v>
       </c>
-      <c r="CO119" s="14">
+      <c r="CO119" s="24">
         <v>5.3009248071390074</v>
       </c>
-      <c r="CP119" s="14">
+      <c r="CP119" s="24">
         <v>4.4907764118245117</v>
       </c>
-      <c r="CQ119" s="14">
-        <v>5.3967617436923518</v>
-      </c>
-      <c r="CR119" s="9"/>
+      <c r="CQ119" s="24">
+        <v>5.4118192869223591</v>
+      </c>
+      <c r="CR119" s="24">
+        <v>4.4988115290807809</v>
+      </c>
       <c r="CS119" s="9"/>
       <c r="CT119" s="9"/>
       <c r="CU119" s="9"/>
@@ -38877,13 +38981,13 @@
       <c r="CI120" s="14"/>
       <c r="CJ120" s="14"/>
       <c r="CK120" s="14"/>
-      <c r="CL120" s="14"/>
-      <c r="CM120" s="14"/>
-      <c r="CN120" s="14"/>
-      <c r="CO120" s="14"/>
-      <c r="CP120" s="14"/>
-      <c r="CQ120" s="14"/>
-      <c r="CR120" s="9"/>
+      <c r="CL120" s="24"/>
+      <c r="CM120" s="24"/>
+      <c r="CN120" s="24"/>
+      <c r="CO120" s="24"/>
+      <c r="CP120" s="24"/>
+      <c r="CQ120" s="24"/>
+      <c r="CR120" s="24"/>
       <c r="CS120" s="9"/>
       <c r="CT120" s="9"/>
       <c r="CU120" s="9"/>
@@ -39211,25 +39315,27 @@
       <c r="CK121" s="14">
         <v>100</v>
       </c>
-      <c r="CL121" s="14">
+      <c r="CL121" s="24">
         <v>100</v>
       </c>
-      <c r="CM121" s="14">
+      <c r="CM121" s="24">
         <v>100</v>
       </c>
-      <c r="CN121" s="14">
+      <c r="CN121" s="24">
         <v>100</v>
       </c>
-      <c r="CO121" s="14">
+      <c r="CO121" s="24">
         <v>100</v>
       </c>
-      <c r="CP121" s="14">
+      <c r="CP121" s="24">
         <v>100</v>
       </c>
-      <c r="CQ121" s="14">
+      <c r="CQ121" s="24">
         <v>100</v>
       </c>
-      <c r="CR121" s="9"/>
+      <c r="CR121" s="24">
+        <v>100</v>
+      </c>
       <c r="CS121" s="9"/>
       <c r="CT121" s="9"/>
       <c r="CU121" s="9"/>
@@ -39379,12 +39485,13 @@
       <c r="CI122" s="12"/>
       <c r="CJ122" s="12"/>
       <c r="CK122" s="12"/>
-      <c r="CL122" s="12"/>
-      <c r="CM122" s="12"/>
-      <c r="CN122" s="12"/>
-      <c r="CO122" s="12"/>
-      <c r="CP122" s="12"/>
-      <c r="CQ122" s="12"/>
+      <c r="CL122" s="21"/>
+      <c r="CM122" s="21"/>
+      <c r="CN122" s="21"/>
+      <c r="CO122" s="21"/>
+      <c r="CP122" s="21"/>
+      <c r="CQ122" s="21"/>
+      <c r="CR122" s="21"/>
     </row>
     <row r="123" spans="1:154" x14ac:dyDescent="0.2">
       <c r="A123" s="13" t="s">
@@ -39480,13 +39587,13 @@
       <c r="CI124" s="9"/>
       <c r="CJ124" s="9"/>
       <c r="CK124" s="9"/>
-      <c r="CL124" s="9"/>
-      <c r="CM124" s="9"/>
-      <c r="CN124" s="9"/>
-      <c r="CO124" s="9"/>
-      <c r="CP124" s="9"/>
-      <c r="CQ124" s="9"/>
-      <c r="CR124" s="9"/>
+      <c r="CL124" s="19"/>
+      <c r="CM124" s="19"/>
+      <c r="CN124" s="19"/>
+      <c r="CO124" s="19"/>
+      <c r="CP124" s="19"/>
+      <c r="CQ124" s="19"/>
+      <c r="CR124" s="19"/>
       <c r="CS124" s="9"/>
       <c r="CT124" s="9"/>
       <c r="CU124" s="9"/>
@@ -39635,13 +39742,13 @@
       <c r="CI125" s="9"/>
       <c r="CJ125" s="9"/>
       <c r="CK125" s="9"/>
-      <c r="CL125" s="9"/>
-      <c r="CM125" s="9"/>
-      <c r="CN125" s="9"/>
-      <c r="CO125" s="9"/>
-      <c r="CP125" s="9"/>
-      <c r="CQ125" s="9"/>
-      <c r="CR125" s="9"/>
+      <c r="CL125" s="19"/>
+      <c r="CM125" s="19"/>
+      <c r="CN125" s="19"/>
+      <c r="CO125" s="19"/>
+      <c r="CP125" s="19"/>
+      <c r="CQ125" s="19"/>
+      <c r="CR125" s="19"/>
       <c r="CS125" s="9"/>
       <c r="CT125" s="9"/>
       <c r="CU125" s="9"/>
@@ -39733,148 +39840,149 @@
     </row>
     <row r="134" spans="1:154" x14ac:dyDescent="0.2">
       <c r="A134" s="4"/>
-      <c r="B134" s="15">
+      <c r="B134" s="25">
         <v>2000</v>
       </c>
-      <c r="C134" s="16"/>
-      <c r="D134" s="16"/>
-      <c r="E134" s="16"/>
-      <c r="F134" s="15">
+      <c r="C134" s="26"/>
+      <c r="D134" s="26"/>
+      <c r="E134" s="26"/>
+      <c r="F134" s="25">
         <v>2001</v>
       </c>
-      <c r="G134" s="16"/>
-      <c r="H134" s="16"/>
-      <c r="I134" s="16"/>
-      <c r="J134" s="15">
+      <c r="G134" s="26"/>
+      <c r="H134" s="26"/>
+      <c r="I134" s="26"/>
+      <c r="J134" s="25">
         <v>2002</v>
       </c>
-      <c r="K134" s="16"/>
-      <c r="L134" s="16"/>
-      <c r="M134" s="16"/>
-      <c r="N134" s="15">
+      <c r="K134" s="26"/>
+      <c r="L134" s="26"/>
+      <c r="M134" s="26"/>
+      <c r="N134" s="25">
         <v>2003</v>
       </c>
-      <c r="O134" s="16"/>
-      <c r="P134" s="16"/>
-      <c r="Q134" s="16"/>
-      <c r="R134" s="15">
+      <c r="O134" s="26"/>
+      <c r="P134" s="26"/>
+      <c r="Q134" s="26"/>
+      <c r="R134" s="25">
         <v>2004</v>
       </c>
-      <c r="S134" s="16"/>
-      <c r="T134" s="16"/>
-      <c r="U134" s="16"/>
-      <c r="V134" s="15">
+      <c r="S134" s="26"/>
+      <c r="T134" s="26"/>
+      <c r="U134" s="26"/>
+      <c r="V134" s="25">
         <v>2005</v>
       </c>
-      <c r="W134" s="16"/>
-      <c r="X134" s="16"/>
-      <c r="Y134" s="16"/>
-      <c r="Z134" s="15">
+      <c r="W134" s="26"/>
+      <c r="X134" s="26"/>
+      <c r="Y134" s="26"/>
+      <c r="Z134" s="25">
         <v>2006</v>
       </c>
-      <c r="AA134" s="16"/>
-      <c r="AB134" s="16"/>
-      <c r="AC134" s="16"/>
-      <c r="AD134" s="15">
+      <c r="AA134" s="26"/>
+      <c r="AB134" s="26"/>
+      <c r="AC134" s="26"/>
+      <c r="AD134" s="25">
         <v>2007</v>
       </c>
-      <c r="AE134" s="16"/>
-      <c r="AF134" s="16"/>
-      <c r="AG134" s="16"/>
-      <c r="AH134" s="15">
+      <c r="AE134" s="26"/>
+      <c r="AF134" s="26"/>
+      <c r="AG134" s="26"/>
+      <c r="AH134" s="25">
         <v>2008</v>
       </c>
-      <c r="AI134" s="16"/>
-      <c r="AJ134" s="16"/>
-      <c r="AK134" s="16"/>
-      <c r="AL134" s="15">
+      <c r="AI134" s="26"/>
+      <c r="AJ134" s="26"/>
+      <c r="AK134" s="26"/>
+      <c r="AL134" s="25">
         <v>2009</v>
       </c>
-      <c r="AM134" s="16"/>
-      <c r="AN134" s="16"/>
-      <c r="AO134" s="16"/>
-      <c r="AP134" s="15">
+      <c r="AM134" s="26"/>
+      <c r="AN134" s="26"/>
+      <c r="AO134" s="26"/>
+      <c r="AP134" s="25">
         <v>2010</v>
       </c>
-      <c r="AQ134" s="16"/>
-      <c r="AR134" s="16"/>
-      <c r="AS134" s="16"/>
-      <c r="AT134" s="15">
+      <c r="AQ134" s="26"/>
+      <c r="AR134" s="26"/>
+      <c r="AS134" s="26"/>
+      <c r="AT134" s="25">
         <v>2011</v>
       </c>
-      <c r="AU134" s="16"/>
-      <c r="AV134" s="16"/>
-      <c r="AW134" s="16"/>
-      <c r="AX134" s="15">
+      <c r="AU134" s="26"/>
+      <c r="AV134" s="26"/>
+      <c r="AW134" s="26"/>
+      <c r="AX134" s="25">
         <v>2012</v>
       </c>
-      <c r="AY134" s="16"/>
-      <c r="AZ134" s="16"/>
-      <c r="BA134" s="16"/>
-      <c r="BB134" s="15">
+      <c r="AY134" s="26"/>
+      <c r="AZ134" s="26"/>
+      <c r="BA134" s="26"/>
+      <c r="BB134" s="25">
         <v>2013</v>
       </c>
-      <c r="BC134" s="16"/>
-      <c r="BD134" s="16"/>
-      <c r="BE134" s="16"/>
-      <c r="BF134" s="15">
+      <c r="BC134" s="26"/>
+      <c r="BD134" s="26"/>
+      <c r="BE134" s="26"/>
+      <c r="BF134" s="25">
         <v>2014</v>
       </c>
-      <c r="BG134" s="16"/>
-      <c r="BH134" s="16"/>
-      <c r="BI134" s="16"/>
-      <c r="BJ134" s="15">
+      <c r="BG134" s="26"/>
+      <c r="BH134" s="26"/>
+      <c r="BI134" s="26"/>
+      <c r="BJ134" s="25">
         <v>2015</v>
       </c>
-      <c r="BK134" s="16"/>
-      <c r="BL134" s="16"/>
-      <c r="BM134" s="16"/>
-      <c r="BN134" s="15">
+      <c r="BK134" s="26"/>
+      <c r="BL134" s="26"/>
+      <c r="BM134" s="26"/>
+      <c r="BN134" s="25">
         <v>2016</v>
       </c>
-      <c r="BO134" s="16"/>
-      <c r="BP134" s="16"/>
-      <c r="BQ134" s="16"/>
-      <c r="BR134" s="15">
+      <c r="BO134" s="26"/>
+      <c r="BP134" s="26"/>
+      <c r="BQ134" s="26"/>
+      <c r="BR134" s="25">
         <v>2017</v>
       </c>
-      <c r="BS134" s="16"/>
-      <c r="BT134" s="16"/>
-      <c r="BU134" s="16"/>
-      <c r="BV134" s="15">
+      <c r="BS134" s="26"/>
+      <c r="BT134" s="26"/>
+      <c r="BU134" s="26"/>
+      <c r="BV134" s="25">
         <v>2018</v>
       </c>
-      <c r="BW134" s="16"/>
-      <c r="BX134" s="16"/>
-      <c r="BY134" s="16"/>
-      <c r="BZ134" s="15">
+      <c r="BW134" s="26"/>
+      <c r="BX134" s="26"/>
+      <c r="BY134" s="26"/>
+      <c r="BZ134" s="25">
         <v>2019</v>
       </c>
-      <c r="CA134" s="16"/>
-      <c r="CB134" s="16"/>
-      <c r="CC134" s="16"/>
-      <c r="CD134" s="15">
+      <c r="CA134" s="26"/>
+      <c r="CB134" s="26"/>
+      <c r="CC134" s="26"/>
+      <c r="CD134" s="25">
         <v>2020</v>
       </c>
-      <c r="CE134" s="15"/>
-      <c r="CF134" s="15"/>
-      <c r="CG134" s="15"/>
-      <c r="CH134" s="15">
+      <c r="CE134" s="25"/>
+      <c r="CF134" s="25"/>
+      <c r="CG134" s="25"/>
+      <c r="CH134" s="25">
         <v>2021</v>
       </c>
-      <c r="CI134" s="15"/>
-      <c r="CJ134" s="15"/>
-      <c r="CK134" s="15"/>
-      <c r="CL134" s="15">
+      <c r="CI134" s="25"/>
+      <c r="CJ134" s="25"/>
+      <c r="CK134" s="25"/>
+      <c r="CL134" s="27">
         <v>2022</v>
       </c>
-      <c r="CM134" s="15"/>
-      <c r="CN134" s="15"/>
-      <c r="CO134" s="15"/>
-      <c r="CP134" s="15">
+      <c r="CM134" s="27"/>
+      <c r="CN134" s="27"/>
+      <c r="CO134" s="27"/>
+      <c r="CP134" s="27">
         <v>2023</v>
       </c>
-      <c r="CQ134" s="17"/>
+      <c r="CQ134" s="27"/>
+      <c r="CR134" s="27"/>
     </row>
     <row r="135" spans="1:154" x14ac:dyDescent="0.2">
       <c r="A135" s="5" t="s">
@@ -40144,23 +40252,26 @@
       <c r="CK135" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="CL135" s="6" t="s">
+      <c r="CL135" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="CM135" s="6" t="s">
+      <c r="CM135" s="17" t="s">
         <v>8</v>
       </c>
-      <c r="CN135" s="6" t="s">
+      <c r="CN135" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="CO135" s="6" t="s">
+      <c r="CO135" s="17" t="s">
         <v>9</v>
       </c>
-      <c r="CP135" s="6" t="s">
+      <c r="CP135" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="CQ135" s="6" t="s">
+      <c r="CQ135" s="17" t="s">
         <v>8</v>
+      </c>
+      <c r="CR135" s="17" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="136" spans="1:154" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
@@ -40434,25 +40545,27 @@
       <c r="CK137" s="14">
         <v>47.847544245251115</v>
       </c>
-      <c r="CL137" s="14">
+      <c r="CL137" s="24">
         <v>58.174761220043322</v>
       </c>
-      <c r="CM137" s="14">
+      <c r="CM137" s="24">
         <v>46.335818533307815</v>
       </c>
-      <c r="CN137" s="14">
+      <c r="CN137" s="24">
         <v>55.196868761905471</v>
       </c>
-      <c r="CO137" s="14">
+      <c r="CO137" s="24">
         <v>48.062870417764039</v>
       </c>
-      <c r="CP137" s="14">
+      <c r="CP137" s="24">
         <v>59.474070738099208</v>
       </c>
-      <c r="CQ137" s="14">
-        <v>47.650473371110515</v>
-      </c>
-      <c r="CR137" s="9"/>
+      <c r="CQ137" s="24">
+        <v>47.961131211785151</v>
+      </c>
+      <c r="CR137" s="24">
+        <v>56.105192082540967</v>
+      </c>
       <c r="CS137" s="9"/>
       <c r="CT137" s="9"/>
       <c r="CU137" s="9"/>
@@ -40780,25 +40893,27 @@
       <c r="CK138" s="14">
         <v>31.980121369693197</v>
       </c>
-      <c r="CL138" s="14">
+      <c r="CL138" s="24">
         <v>24.591044123525645</v>
       </c>
-      <c r="CM138" s="14">
+      <c r="CM138" s="24">
         <v>36.779864309859292</v>
       </c>
-      <c r="CN138" s="14">
+      <c r="CN138" s="24">
         <v>26.854229747119174</v>
       </c>
-      <c r="CO138" s="14">
+      <c r="CO138" s="24">
         <v>32.286176254931185</v>
       </c>
-      <c r="CP138" s="14">
+      <c r="CP138" s="24">
         <v>24.835002290887999</v>
       </c>
-      <c r="CQ138" s="14">
-        <v>36.121642697208117</v>
-      </c>
-      <c r="CR138" s="9"/>
+      <c r="CQ138" s="24">
+        <v>35.667361646526821</v>
+      </c>
+      <c r="CR138" s="24">
+        <v>26.946789060722313</v>
+      </c>
       <c r="CS138" s="9"/>
       <c r="CT138" s="9"/>
       <c r="CU138" s="9"/>
@@ -41126,25 +41241,27 @@
       <c r="CK139" s="14">
         <v>14.750682534200942</v>
       </c>
-      <c r="CL139" s="14">
+      <c r="CL139" s="24">
         <v>12.49107987753553</v>
       </c>
-      <c r="CM139" s="14">
+      <c r="CM139" s="24">
         <v>11.619236394524371</v>
       </c>
-      <c r="CN139" s="14">
+      <c r="CN139" s="24">
         <v>13.243334269575961</v>
       </c>
-      <c r="CO139" s="14">
+      <c r="CO139" s="24">
         <v>14.35850949680133</v>
       </c>
-      <c r="CP139" s="14">
+      <c r="CP139" s="24">
         <v>11.206259336863944</v>
       </c>
-      <c r="CQ139" s="14">
-        <v>10.944961306889541</v>
-      </c>
-      <c r="CR139" s="9"/>
+      <c r="CQ139" s="24">
+        <v>11.0737731748653</v>
+      </c>
+      <c r="CR139" s="24">
+        <v>12.478359575009568</v>
+      </c>
       <c r="CS139" s="9"/>
       <c r="CT139" s="9"/>
       <c r="CU139" s="9"/>
@@ -41472,25 +41589,27 @@
       <c r="CK140" s="14">
         <v>5.4216518508547624</v>
       </c>
-      <c r="CL140" s="14">
+      <c r="CL140" s="24">
         <v>4.7431147788955004</v>
       </c>
-      <c r="CM140" s="14">
+      <c r="CM140" s="24">
         <v>5.2650807623085303</v>
       </c>
-      <c r="CN140" s="14">
+      <c r="CN140" s="24">
         <v>4.7055672213993818</v>
       </c>
-      <c r="CO140" s="14">
+      <c r="CO140" s="24">
         <v>5.2924438305034451</v>
       </c>
-      <c r="CP140" s="14">
+      <c r="CP140" s="24">
         <v>4.4846676341488578</v>
       </c>
-      <c r="CQ140" s="14">
-        <v>5.2829226247918273</v>
-      </c>
-      <c r="CR140" s="9"/>
+      <c r="CQ140" s="24">
+        <v>5.2977339668227135</v>
+      </c>
+      <c r="CR140" s="24">
+        <v>4.4696592817271643</v>
+      </c>
       <c r="CS140" s="9"/>
       <c r="CT140" s="9"/>
       <c r="CU140" s="9"/>
@@ -41639,13 +41758,13 @@
       <c r="CI141" s="9"/>
       <c r="CJ141" s="9"/>
       <c r="CK141" s="9"/>
-      <c r="CL141" s="9"/>
-      <c r="CM141" s="9"/>
-      <c r="CN141" s="9"/>
-      <c r="CO141" s="9"/>
-      <c r="CP141" s="9"/>
-      <c r="CQ141" s="9"/>
-      <c r="CR141" s="9"/>
+      <c r="CL141" s="19"/>
+      <c r="CM141" s="19"/>
+      <c r="CN141" s="19"/>
+      <c r="CO141" s="19"/>
+      <c r="CP141" s="19"/>
+      <c r="CQ141" s="19"/>
+      <c r="CR141" s="19"/>
       <c r="CS141" s="9"/>
       <c r="CT141" s="9"/>
       <c r="CU141" s="9"/>
@@ -41973,25 +42092,27 @@
       <c r="CK142" s="14">
         <v>100</v>
       </c>
-      <c r="CL142" s="14">
+      <c r="CL142" s="24">
         <v>100</v>
       </c>
-      <c r="CM142" s="14">
+      <c r="CM142" s="24">
         <v>100</v>
       </c>
-      <c r="CN142" s="14">
+      <c r="CN142" s="24">
         <v>100</v>
       </c>
-      <c r="CO142" s="14">
+      <c r="CO142" s="24">
         <v>100</v>
       </c>
-      <c r="CP142" s="14">
+      <c r="CP142" s="24">
         <v>100</v>
       </c>
-      <c r="CQ142" s="14">
+      <c r="CQ142" s="24">
         <v>100</v>
       </c>
-      <c r="CR142" s="9"/>
+      <c r="CR142" s="24">
+        <v>100</v>
+      </c>
       <c r="CS142" s="9"/>
       <c r="CT142" s="9"/>
       <c r="CU142" s="9"/>
@@ -42141,12 +42262,13 @@
       <c r="CI143" s="12"/>
       <c r="CJ143" s="12"/>
       <c r="CK143" s="12"/>
-      <c r="CL143" s="12"/>
-      <c r="CM143" s="12"/>
-      <c r="CN143" s="12"/>
-      <c r="CO143" s="12"/>
-      <c r="CP143" s="12"/>
-      <c r="CQ143" s="12"/>
+      <c r="CL143" s="21"/>
+      <c r="CM143" s="21"/>
+      <c r="CN143" s="21"/>
+      <c r="CO143" s="21"/>
+      <c r="CP143" s="21"/>
+      <c r="CQ143" s="21"/>
+      <c r="CR143" s="21"/>
     </row>
     <row r="144" spans="1:154" x14ac:dyDescent="0.2">
       <c r="A144" s="13" t="s">
@@ -42154,16 +42276,12 @@
       </c>
     </row>
   </sheetData>
-  <mergeCells count="168">
-    <mergeCell ref="CP9:CQ9"/>
-    <mergeCell ref="CP30:CQ30"/>
-    <mergeCell ref="CP92:CQ92"/>
-    <mergeCell ref="CP113:CQ113"/>
-    <mergeCell ref="CP134:CQ134"/>
-    <mergeCell ref="CL51:CO51"/>
-    <mergeCell ref="CP51:CQ51"/>
-    <mergeCell ref="CL72:CO72"/>
-    <mergeCell ref="CP72:CQ72"/>
+  <mergeCells count="166">
+    <mergeCell ref="CP9:CR9"/>
+    <mergeCell ref="CP30:CR30"/>
+    <mergeCell ref="CP92:CR92"/>
+    <mergeCell ref="CP113:CR113"/>
+    <mergeCell ref="CP134:CR134"/>
     <mergeCell ref="CH134:CK134"/>
     <mergeCell ref="CD134:CG134"/>
     <mergeCell ref="BZ9:CC9"/>
@@ -42184,6 +42302,8 @@
     <mergeCell ref="CL134:CO134"/>
     <mergeCell ref="CD113:CG113"/>
     <mergeCell ref="CD92:CG92"/>
+    <mergeCell ref="CL51:CN51"/>
+    <mergeCell ref="CL72:CN72"/>
     <mergeCell ref="BR9:BU9"/>
     <mergeCell ref="BV9:BY9"/>
     <mergeCell ref="BR30:BU30"/>
@@ -42329,9 +42449,9 @@
   <pageSetup paperSize="9" scale="31" orientation="landscape" r:id="rId1"/>
   <headerFooter alignWithMargins="0"/>
   <rowBreaks count="3" manualBreakCount="3">
-    <brk id="42" max="94" man="1"/>
-    <brk id="84" max="94" man="1"/>
-    <brk id="104" max="94" man="1"/>
+    <brk id="42" max="95" man="1"/>
+    <brk id="84" max="95" man="1"/>
+    <brk id="104" max="95" man="1"/>
   </rowBreaks>
 </worksheet>
 </file>
--- a/Data/National Accounts/PSA-17FIA_2018PSNA_Qrt.xlsx
+++ b/Data/National Accounts/PSA-17FIA_2018PSNA_Qrt.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26924"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27126"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="K:\Other computers\My Laptop (1)\6. MAS_Series\2018-base\NAP\NAP detailed series as of November 2023\Qtr\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="K:\Other computers\My Laptop (1)\6. MAS_Series\2018-base\NAP\NAP detailed series as of January 2024\Qtr\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EFE3DBAA-49A6-4318-97A1-B79C559E75F0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C3D5ED0A-8BCA-4909-B83E-3ECD9AFA7DF2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="975" windowWidth="28800" windowHeight="15225" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -323,7 +323,7 @@
     <definedName name="pet">#REF!</definedName>
     <definedName name="plastic">#REF!</definedName>
     <definedName name="ply">#REF!</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">FIA!$A$1:$CR$146</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">FIA!$A$1:$CS$146</definedName>
     <definedName name="_xlnm.Print_Area">#REF!</definedName>
     <definedName name="PRINT_AREA_MI">#REF!</definedName>
     <definedName name="Print_Titles_MI">'[9]CAP93+'!$A$1:$IV$1,'[9]CAP93+'!$A$1:$A$65536</definedName>
@@ -468,7 +468,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="793" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="800" uniqueCount="54">
   <si>
     <t>Source: Philippine Statistics Authority</t>
   </si>
@@ -624,13 +624,13 @@
     <t>2022 - 2023</t>
   </si>
   <si>
-    <t>As of November 2023</t>
+    <t>Q1 2000 to Q4 2023</t>
   </si>
   <si>
-    <t>Q1 2000 to Q3 2023</t>
+    <t>Q1 2001 to Q4 2023</t>
   </si>
   <si>
-    <t>Q1 2001 to Q3 2023</t>
+    <t>As of January 2024</t>
   </si>
 </sst>
 </file>
@@ -717,7 +717,7 @@
     <xf numFmtId="164" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -741,22 +741,12 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="165" fontId="5" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="3" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="centerContinuous"/>
     </xf>
-    <xf numFmtId="166" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="3" applyFont="1"/>
-    <xf numFmtId="166" fontId="5" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="3" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="5" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -23311,9 +23301,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -23351,7 +23341,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -23457,7 +23447,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -23599,7 +23589,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -23614,15 +23604,14 @@
   <sheetViews>
     <sheetView tabSelected="1" defaultGridColor="0" view="pageBreakPreview" colorId="22" zoomScale="70" zoomScaleNormal="100" zoomScaleSheetLayoutView="70" workbookViewId="0">
       <pane xSplit="1" topLeftCell="BR1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="CR5" sqref="CR5"/>
+      <selection pane="topRight"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="7.77734375" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="38.33203125" style="1" customWidth="1"/>
-    <col min="2" max="89" width="8.88671875" style="1" customWidth="1"/>
-    <col min="90" max="96" width="9.5546875" style="16" customWidth="1"/>
-    <col min="97" max="16384" width="7.77734375" style="1"/>
+    <col min="2" max="97" width="8.88671875" style="1" customWidth="1"/>
+    <col min="98" max="16384" width="7.77734375" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:154" x14ac:dyDescent="0.2">
@@ -23637,7 +23626,7 @@
     </row>
     <row r="3" spans="1:154" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
     </row>
     <row r="5" spans="1:154" x14ac:dyDescent="0.2">
@@ -23647,7 +23636,7 @@
     </row>
     <row r="6" spans="1:154" x14ac:dyDescent="0.2">
       <c r="A6" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="7" spans="1:154" x14ac:dyDescent="0.2">
@@ -23657,149 +23646,150 @@
     </row>
     <row r="9" spans="1:154" x14ac:dyDescent="0.2">
       <c r="A9" s="4"/>
-      <c r="B9" s="25">
+      <c r="B9" s="17">
         <v>2000</v>
       </c>
-      <c r="C9" s="25"/>
-      <c r="D9" s="25"/>
-      <c r="E9" s="25"/>
-      <c r="F9" s="25">
+      <c r="C9" s="17"/>
+      <c r="D9" s="17"/>
+      <c r="E9" s="17"/>
+      <c r="F9" s="17">
         <v>2001</v>
       </c>
-      <c r="G9" s="25"/>
-      <c r="H9" s="25"/>
-      <c r="I9" s="25"/>
-      <c r="J9" s="25">
+      <c r="G9" s="17"/>
+      <c r="H9" s="17"/>
+      <c r="I9" s="17"/>
+      <c r="J9" s="17">
         <v>2002</v>
       </c>
-      <c r="K9" s="25"/>
-      <c r="L9" s="25"/>
-      <c r="M9" s="25"/>
-      <c r="N9" s="25">
+      <c r="K9" s="17"/>
+      <c r="L9" s="17"/>
+      <c r="M9" s="17"/>
+      <c r="N9" s="17">
         <v>2003</v>
       </c>
-      <c r="O9" s="25"/>
-      <c r="P9" s="25"/>
-      <c r="Q9" s="25"/>
-      <c r="R9" s="25">
+      <c r="O9" s="17"/>
+      <c r="P9" s="17"/>
+      <c r="Q9" s="17"/>
+      <c r="R9" s="17">
         <v>2004</v>
       </c>
-      <c r="S9" s="25"/>
-      <c r="T9" s="25"/>
-      <c r="U9" s="25"/>
-      <c r="V9" s="25">
+      <c r="S9" s="17"/>
+      <c r="T9" s="17"/>
+      <c r="U9" s="17"/>
+      <c r="V9" s="17">
         <v>2005</v>
       </c>
-      <c r="W9" s="25"/>
-      <c r="X9" s="25"/>
-      <c r="Y9" s="25"/>
-      <c r="Z9" s="25">
+      <c r="W9" s="17"/>
+      <c r="X9" s="17"/>
+      <c r="Y9" s="17"/>
+      <c r="Z9" s="17">
         <v>2006</v>
       </c>
-      <c r="AA9" s="25"/>
-      <c r="AB9" s="25"/>
-      <c r="AC9" s="25"/>
-      <c r="AD9" s="25">
+      <c r="AA9" s="17"/>
+      <c r="AB9" s="17"/>
+      <c r="AC9" s="17"/>
+      <c r="AD9" s="17">
         <v>2007</v>
       </c>
-      <c r="AE9" s="25"/>
-      <c r="AF9" s="25"/>
-      <c r="AG9" s="25"/>
-      <c r="AH9" s="25">
+      <c r="AE9" s="17"/>
+      <c r="AF9" s="17"/>
+      <c r="AG9" s="17"/>
+      <c r="AH9" s="17">
         <v>2008</v>
       </c>
-      <c r="AI9" s="25"/>
-      <c r="AJ9" s="25"/>
-      <c r="AK9" s="25"/>
-      <c r="AL9" s="25">
+      <c r="AI9" s="17"/>
+      <c r="AJ9" s="17"/>
+      <c r="AK9" s="17"/>
+      <c r="AL9" s="17">
         <v>2009</v>
       </c>
-      <c r="AM9" s="25"/>
-      <c r="AN9" s="25"/>
-      <c r="AO9" s="25"/>
-      <c r="AP9" s="25">
+      <c r="AM9" s="17"/>
+      <c r="AN9" s="17"/>
+      <c r="AO9" s="17"/>
+      <c r="AP9" s="17">
         <v>2010</v>
       </c>
-      <c r="AQ9" s="25"/>
-      <c r="AR9" s="25"/>
-      <c r="AS9" s="25"/>
-      <c r="AT9" s="25">
+      <c r="AQ9" s="17"/>
+      <c r="AR9" s="17"/>
+      <c r="AS9" s="17"/>
+      <c r="AT9" s="17">
         <v>2011</v>
       </c>
-      <c r="AU9" s="25"/>
-      <c r="AV9" s="25"/>
-      <c r="AW9" s="25"/>
-      <c r="AX9" s="25">
+      <c r="AU9" s="17"/>
+      <c r="AV9" s="17"/>
+      <c r="AW9" s="17"/>
+      <c r="AX9" s="17">
         <v>2012</v>
       </c>
-      <c r="AY9" s="25"/>
-      <c r="AZ9" s="25"/>
-      <c r="BA9" s="25"/>
-      <c r="BB9" s="25">
+      <c r="AY9" s="17"/>
+      <c r="AZ9" s="17"/>
+      <c r="BA9" s="17"/>
+      <c r="BB9" s="17">
         <v>2013</v>
       </c>
-      <c r="BC9" s="25"/>
-      <c r="BD9" s="25"/>
-      <c r="BE9" s="25"/>
-      <c r="BF9" s="25">
+      <c r="BC9" s="17"/>
+      <c r="BD9" s="17"/>
+      <c r="BE9" s="17"/>
+      <c r="BF9" s="17">
         <v>2014</v>
       </c>
-      <c r="BG9" s="25"/>
-      <c r="BH9" s="25"/>
-      <c r="BI9" s="25"/>
-      <c r="BJ9" s="25">
+      <c r="BG9" s="17"/>
+      <c r="BH9" s="17"/>
+      <c r="BI9" s="17"/>
+      <c r="BJ9" s="17">
         <v>2015</v>
       </c>
-      <c r="BK9" s="25"/>
-      <c r="BL9" s="25"/>
-      <c r="BM9" s="25"/>
-      <c r="BN9" s="25">
+      <c r="BK9" s="17"/>
+      <c r="BL9" s="17"/>
+      <c r="BM9" s="17"/>
+      <c r="BN9" s="17">
         <v>2016</v>
       </c>
-      <c r="BO9" s="25"/>
-      <c r="BP9" s="25"/>
-      <c r="BQ9" s="25"/>
-      <c r="BR9" s="25">
+      <c r="BO9" s="17"/>
+      <c r="BP9" s="17"/>
+      <c r="BQ9" s="17"/>
+      <c r="BR9" s="17">
         <v>2017</v>
       </c>
-      <c r="BS9" s="25"/>
-      <c r="BT9" s="25"/>
-      <c r="BU9" s="25"/>
-      <c r="BV9" s="25">
+      <c r="BS9" s="17"/>
+      <c r="BT9" s="17"/>
+      <c r="BU9" s="17"/>
+      <c r="BV9" s="17">
         <v>2018</v>
       </c>
-      <c r="BW9" s="25"/>
-      <c r="BX9" s="25"/>
-      <c r="BY9" s="25"/>
-      <c r="BZ9" s="25">
+      <c r="BW9" s="17"/>
+      <c r="BX9" s="17"/>
+      <c r="BY9" s="17"/>
+      <c r="BZ9" s="17">
         <v>2019</v>
       </c>
-      <c r="CA9" s="25"/>
-      <c r="CB9" s="25"/>
-      <c r="CC9" s="25"/>
-      <c r="CD9" s="25">
+      <c r="CA9" s="17"/>
+      <c r="CB9" s="17"/>
+      <c r="CC9" s="17"/>
+      <c r="CD9" s="17">
         <v>2020</v>
       </c>
-      <c r="CE9" s="25"/>
-      <c r="CF9" s="25"/>
-      <c r="CG9" s="25"/>
-      <c r="CH9" s="25">
+      <c r="CE9" s="17"/>
+      <c r="CF9" s="17"/>
+      <c r="CG9" s="17"/>
+      <c r="CH9" s="17">
         <v>2021</v>
       </c>
-      <c r="CI9" s="25"/>
-      <c r="CJ9" s="25"/>
-      <c r="CK9" s="25"/>
-      <c r="CL9" s="27">
+      <c r="CI9" s="17"/>
+      <c r="CJ9" s="17"/>
+      <c r="CK9" s="17"/>
+      <c r="CL9" s="16">
         <v>2022</v>
       </c>
-      <c r="CM9" s="27"/>
-      <c r="CN9" s="27"/>
-      <c r="CO9" s="27"/>
-      <c r="CP9" s="27">
+      <c r="CM9" s="16"/>
+      <c r="CN9" s="16"/>
+      <c r="CO9" s="16"/>
+      <c r="CP9" s="16">
         <v>2023</v>
       </c>
-      <c r="CQ9" s="27"/>
-      <c r="CR9" s="27"/>
+      <c r="CQ9" s="16"/>
+      <c r="CR9" s="16"/>
+      <c r="CS9" s="16"/>
     </row>
     <row r="10" spans="1:154" x14ac:dyDescent="0.2">
       <c r="A10" s="5" t="s">
@@ -24069,26 +24059,29 @@
       <c r="CK10" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="CL10" s="17" t="s">
+      <c r="CL10" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="CM10" s="17" t="s">
+      <c r="CM10" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="CN10" s="17" t="s">
+      <c r="CN10" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="CO10" s="17" t="s">
+      <c r="CO10" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="CP10" s="17" t="s">
+      <c r="CP10" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="CQ10" s="17" t="s">
+      <c r="CQ10" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="CR10" s="17" t="s">
+      <c r="CR10" s="6" t="s">
         <v>10</v>
+      </c>
+      <c r="CS10" s="6" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="11" spans="1:154" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
@@ -24362,28 +24355,30 @@
       <c r="CK12" s="8">
         <v>233481.04600295049</v>
       </c>
-      <c r="CL12" s="18">
+      <c r="CL12" s="8">
         <v>318574.38103409222</v>
       </c>
-      <c r="CM12" s="18">
+      <c r="CM12" s="8">
         <v>264391.10608101345</v>
       </c>
-      <c r="CN12" s="18">
+      <c r="CN12" s="8">
         <v>298113.04574478342</v>
       </c>
-      <c r="CO12" s="18">
+      <c r="CO12" s="8">
         <v>275563.92828726908</v>
       </c>
-      <c r="CP12" s="18">
+      <c r="CP12" s="8">
         <v>385958.92522606708</v>
       </c>
-      <c r="CQ12" s="18">
+      <c r="CQ12" s="8">
         <v>306840.67406365159</v>
       </c>
-      <c r="CR12" s="18">
-        <v>347710.70440522849</v>
-      </c>
-      <c r="CS12" s="9"/>
+      <c r="CR12" s="8">
+        <v>349134.63674071158</v>
+      </c>
+      <c r="CS12" s="8">
+        <v>327224.95965922426</v>
+      </c>
       <c r="CT12" s="9"/>
       <c r="CU12" s="9"/>
       <c r="CV12" s="9"/>
@@ -24710,28 +24705,30 @@
       <c r="CK13" s="8">
         <v>155811.39245117077</v>
       </c>
-      <c r="CL13" s="18">
+      <c r="CL13" s="8">
         <v>136247.22376600408</v>
       </c>
-      <c r="CM13" s="18">
+      <c r="CM13" s="8">
         <v>207005.75929438748</v>
       </c>
-      <c r="CN13" s="18">
+      <c r="CN13" s="8">
         <v>143647.08803502942</v>
       </c>
-      <c r="CO13" s="18">
+      <c r="CO13" s="8">
         <v>183867.53375969623</v>
       </c>
-      <c r="CP13" s="18">
+      <c r="CP13" s="8">
         <v>159877.59282817371</v>
       </c>
-      <c r="CQ13" s="18">
+      <c r="CQ13" s="8">
         <v>225170.99252121971</v>
       </c>
-      <c r="CR13" s="18">
-        <v>164691.55229530681</v>
-      </c>
-      <c r="CS13" s="9"/>
+      <c r="CR13" s="8">
+        <v>163300.04934751446</v>
+      </c>
+      <c r="CS13" s="8">
+        <v>214249.08052797953</v>
+      </c>
       <c r="CT13" s="9"/>
       <c r="CU13" s="9"/>
       <c r="CV13" s="9"/>
@@ -25058,28 +25055,30 @@
       <c r="CK14" s="8">
         <v>70483.837565827969</v>
       </c>
-      <c r="CL14" s="18">
+      <c r="CL14" s="8">
         <v>70361.679415115359</v>
       </c>
-      <c r="CM14" s="18">
+      <c r="CM14" s="8">
         <v>63716.570138835465</v>
       </c>
-      <c r="CN14" s="18">
+      <c r="CN14" s="8">
         <v>69753.960082430189</v>
       </c>
-      <c r="CO14" s="18">
+      <c r="CO14" s="8">
         <v>80551.445428125138</v>
       </c>
-      <c r="CP14" s="18">
+      <c r="CP14" s="8">
         <v>73804.922139632661</v>
       </c>
-      <c r="CQ14" s="18">
+      <c r="CQ14" s="8">
         <v>68181.070352250768</v>
       </c>
-      <c r="CR14" s="18">
-        <v>75404.04185543106</v>
-      </c>
-      <c r="CS14" s="9"/>
+      <c r="CR14" s="8">
+        <v>75134.15180565769</v>
+      </c>
+      <c r="CS14" s="8">
+        <v>90257.952747082716</v>
+      </c>
       <c r="CT14" s="9"/>
       <c r="CU14" s="9"/>
       <c r="CV14" s="9"/>
@@ -25406,28 +25405,30 @@
       <c r="CK15" s="8">
         <v>26528.0211832399</v>
       </c>
-      <c r="CL15" s="18">
+      <c r="CL15" s="8">
         <v>26589.057610939351</v>
       </c>
-      <c r="CM15" s="18">
+      <c r="CM15" s="8">
         <v>30193.635166786604</v>
       </c>
-      <c r="CN15" s="18">
+      <c r="CN15" s="8">
         <v>25543.489150454676</v>
       </c>
-      <c r="CO15" s="18">
+      <c r="CO15" s="8">
         <v>30226.36476476954</v>
       </c>
-      <c r="CP15" s="18">
+      <c r="CP15" s="8">
         <v>29135.104012678043</v>
       </c>
-      <c r="CQ15" s="18">
+      <c r="CQ15" s="8">
         <v>34339.751596236711</v>
       </c>
-      <c r="CR15" s="18">
-        <v>27690.019309185125</v>
-      </c>
-      <c r="CS15" s="9"/>
+      <c r="CR15" s="8">
+        <v>28998.523698360281</v>
+      </c>
+      <c r="CS15" s="8">
+        <v>35814.509372524837</v>
+      </c>
       <c r="CT15" s="9"/>
       <c r="CU15" s="9"/>
       <c r="CV15" s="9"/>
@@ -25575,13 +25576,13 @@
       <c r="CI16" s="9"/>
       <c r="CJ16" s="9"/>
       <c r="CK16" s="9"/>
-      <c r="CL16" s="19"/>
-      <c r="CM16" s="19"/>
-      <c r="CN16" s="19"/>
-      <c r="CO16" s="19"/>
-      <c r="CP16" s="19"/>
-      <c r="CQ16" s="19"/>
-      <c r="CR16" s="19"/>
+      <c r="CL16" s="9"/>
+      <c r="CM16" s="9"/>
+      <c r="CN16" s="9"/>
+      <c r="CO16" s="9"/>
+      <c r="CP16" s="9"/>
+      <c r="CQ16" s="9"/>
+      <c r="CR16" s="9"/>
       <c r="CS16" s="9"/>
       <c r="CT16" s="9"/>
       <c r="CU16" s="9"/>
@@ -25909,28 +25910,30 @@
       <c r="CK17" s="11">
         <v>486304.29720318911</v>
       </c>
-      <c r="CL17" s="20">
+      <c r="CL17" s="11">
         <v>551772.34182615101</v>
       </c>
-      <c r="CM17" s="20">
+      <c r="CM17" s="11">
         <v>565307.07068102295</v>
       </c>
-      <c r="CN17" s="20">
+      <c r="CN17" s="11">
         <v>537057.58301269764</v>
       </c>
-      <c r="CO17" s="20">
+      <c r="CO17" s="11">
         <v>570209.27223986003</v>
       </c>
-      <c r="CP17" s="20">
+      <c r="CP17" s="11">
         <v>648776.54420655151</v>
       </c>
-      <c r="CQ17" s="20">
+      <c r="CQ17" s="11">
         <v>634532.48853335867</v>
       </c>
-      <c r="CR17" s="20">
-        <v>615496.31786515145</v>
-      </c>
-      <c r="CS17" s="9"/>
+      <c r="CR17" s="11">
+        <v>616567.36159224401</v>
+      </c>
+      <c r="CS17" s="11">
+        <v>667546.50230681128</v>
+      </c>
       <c r="CT17" s="9"/>
       <c r="CU17" s="9"/>
       <c r="CV17" s="9"/>
@@ -26079,13 +26082,14 @@
       <c r="CI18" s="12"/>
       <c r="CJ18" s="12"/>
       <c r="CK18" s="12"/>
-      <c r="CL18" s="21"/>
-      <c r="CM18" s="21"/>
-      <c r="CN18" s="21"/>
-      <c r="CO18" s="21"/>
-      <c r="CP18" s="21"/>
-      <c r="CQ18" s="21"/>
-      <c r="CR18" s="21"/>
+      <c r="CL18" s="12"/>
+      <c r="CM18" s="12"/>
+      <c r="CN18" s="12"/>
+      <c r="CO18" s="12"/>
+      <c r="CP18" s="12"/>
+      <c r="CQ18" s="12"/>
+      <c r="CR18" s="12"/>
+      <c r="CS18" s="12"/>
     </row>
     <row r="19" spans="1:154" x14ac:dyDescent="0.2">
       <c r="A19" s="13" t="s">
@@ -26181,13 +26185,13 @@
       <c r="CI20" s="9"/>
       <c r="CJ20" s="9"/>
       <c r="CK20" s="9"/>
-      <c r="CL20" s="19"/>
-      <c r="CM20" s="19"/>
-      <c r="CN20" s="19"/>
-      <c r="CO20" s="19"/>
-      <c r="CP20" s="19"/>
-      <c r="CQ20" s="19"/>
-      <c r="CR20" s="19"/>
+      <c r="CL20" s="9"/>
+      <c r="CM20" s="9"/>
+      <c r="CN20" s="9"/>
+      <c r="CO20" s="9"/>
+      <c r="CP20" s="9"/>
+      <c r="CQ20" s="9"/>
+      <c r="CR20" s="9"/>
       <c r="CS20" s="9"/>
       <c r="CT20" s="9"/>
       <c r="CU20" s="9"/>
@@ -26336,13 +26340,13 @@
       <c r="CI21" s="9"/>
       <c r="CJ21" s="9"/>
       <c r="CK21" s="9"/>
-      <c r="CL21" s="19"/>
-      <c r="CM21" s="19"/>
-      <c r="CN21" s="19"/>
-      <c r="CO21" s="19"/>
-      <c r="CP21" s="19"/>
-      <c r="CQ21" s="19"/>
-      <c r="CR21" s="19"/>
+      <c r="CL21" s="9"/>
+      <c r="CM21" s="9"/>
+      <c r="CN21" s="9"/>
+      <c r="CO21" s="9"/>
+      <c r="CP21" s="9"/>
+      <c r="CQ21" s="9"/>
+      <c r="CR21" s="9"/>
       <c r="CS21" s="9"/>
       <c r="CT21" s="9"/>
       <c r="CU21" s="9"/>
@@ -26414,7 +26418,7 @@
     </row>
     <row r="24" spans="1:154" x14ac:dyDescent="0.2">
       <c r="A24" s="1" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
     </row>
     <row r="26" spans="1:154" x14ac:dyDescent="0.2">
@@ -26424,7 +26428,7 @@
     </row>
     <row r="27" spans="1:154" x14ac:dyDescent="0.2">
       <c r="A27" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="28" spans="1:154" x14ac:dyDescent="0.2">
@@ -26434,149 +26438,150 @@
     </row>
     <row r="30" spans="1:154" x14ac:dyDescent="0.2">
       <c r="A30" s="4"/>
-      <c r="B30" s="25">
+      <c r="B30" s="17">
         <v>2000</v>
       </c>
-      <c r="C30" s="26"/>
-      <c r="D30" s="26"/>
-      <c r="E30" s="26"/>
-      <c r="F30" s="25">
+      <c r="C30" s="18"/>
+      <c r="D30" s="18"/>
+      <c r="E30" s="18"/>
+      <c r="F30" s="17">
         <v>2001</v>
       </c>
-      <c r="G30" s="26"/>
-      <c r="H30" s="26"/>
-      <c r="I30" s="26"/>
-      <c r="J30" s="25">
+      <c r="G30" s="18"/>
+      <c r="H30" s="18"/>
+      <c r="I30" s="18"/>
+      <c r="J30" s="17">
         <v>2002</v>
       </c>
-      <c r="K30" s="26"/>
-      <c r="L30" s="26"/>
-      <c r="M30" s="26"/>
-      <c r="N30" s="25">
+      <c r="K30" s="18"/>
+      <c r="L30" s="18"/>
+      <c r="M30" s="18"/>
+      <c r="N30" s="17">
         <v>2003</v>
       </c>
-      <c r="O30" s="26"/>
-      <c r="P30" s="26"/>
-      <c r="Q30" s="26"/>
-      <c r="R30" s="25">
+      <c r="O30" s="18"/>
+      <c r="P30" s="18"/>
+      <c r="Q30" s="18"/>
+      <c r="R30" s="17">
         <v>2004</v>
       </c>
-      <c r="S30" s="26"/>
-      <c r="T30" s="26"/>
-      <c r="U30" s="26"/>
-      <c r="V30" s="25">
+      <c r="S30" s="18"/>
+      <c r="T30" s="18"/>
+      <c r="U30" s="18"/>
+      <c r="V30" s="17">
         <v>2005</v>
       </c>
-      <c r="W30" s="26"/>
-      <c r="X30" s="26"/>
-      <c r="Y30" s="26"/>
-      <c r="Z30" s="25">
+      <c r="W30" s="18"/>
+      <c r="X30" s="18"/>
+      <c r="Y30" s="18"/>
+      <c r="Z30" s="17">
         <v>2006</v>
       </c>
-      <c r="AA30" s="26"/>
-      <c r="AB30" s="26"/>
-      <c r="AC30" s="26"/>
-      <c r="AD30" s="25">
+      <c r="AA30" s="18"/>
+      <c r="AB30" s="18"/>
+      <c r="AC30" s="18"/>
+      <c r="AD30" s="17">
         <v>2007</v>
       </c>
-      <c r="AE30" s="26"/>
-      <c r="AF30" s="26"/>
-      <c r="AG30" s="26"/>
-      <c r="AH30" s="25">
+      <c r="AE30" s="18"/>
+      <c r="AF30" s="18"/>
+      <c r="AG30" s="18"/>
+      <c r="AH30" s="17">
         <v>2008</v>
       </c>
-      <c r="AI30" s="26"/>
-      <c r="AJ30" s="26"/>
-      <c r="AK30" s="26"/>
-      <c r="AL30" s="25">
+      <c r="AI30" s="18"/>
+      <c r="AJ30" s="18"/>
+      <c r="AK30" s="18"/>
+      <c r="AL30" s="17">
         <v>2009</v>
       </c>
-      <c r="AM30" s="26"/>
-      <c r="AN30" s="26"/>
-      <c r="AO30" s="26"/>
-      <c r="AP30" s="25">
+      <c r="AM30" s="18"/>
+      <c r="AN30" s="18"/>
+      <c r="AO30" s="18"/>
+      <c r="AP30" s="17">
         <v>2010</v>
       </c>
-      <c r="AQ30" s="26"/>
-      <c r="AR30" s="26"/>
-      <c r="AS30" s="26"/>
-      <c r="AT30" s="25">
+      <c r="AQ30" s="18"/>
+      <c r="AR30" s="18"/>
+      <c r="AS30" s="18"/>
+      <c r="AT30" s="17">
         <v>2011</v>
       </c>
-      <c r="AU30" s="26"/>
-      <c r="AV30" s="26"/>
-      <c r="AW30" s="26"/>
-      <c r="AX30" s="25">
+      <c r="AU30" s="18"/>
+      <c r="AV30" s="18"/>
+      <c r="AW30" s="18"/>
+      <c r="AX30" s="17">
         <v>2012</v>
       </c>
-      <c r="AY30" s="26"/>
-      <c r="AZ30" s="26"/>
-      <c r="BA30" s="26"/>
-      <c r="BB30" s="25">
+      <c r="AY30" s="18"/>
+      <c r="AZ30" s="18"/>
+      <c r="BA30" s="18"/>
+      <c r="BB30" s="17">
         <v>2013</v>
       </c>
-      <c r="BC30" s="26"/>
-      <c r="BD30" s="26"/>
-      <c r="BE30" s="26"/>
-      <c r="BF30" s="25">
+      <c r="BC30" s="18"/>
+      <c r="BD30" s="18"/>
+      <c r="BE30" s="18"/>
+      <c r="BF30" s="17">
         <v>2014</v>
       </c>
-      <c r="BG30" s="26"/>
-      <c r="BH30" s="26"/>
-      <c r="BI30" s="26"/>
-      <c r="BJ30" s="25">
+      <c r="BG30" s="18"/>
+      <c r="BH30" s="18"/>
+      <c r="BI30" s="18"/>
+      <c r="BJ30" s="17">
         <v>2015</v>
       </c>
-      <c r="BK30" s="26"/>
-      <c r="BL30" s="26"/>
-      <c r="BM30" s="26"/>
-      <c r="BN30" s="25">
+      <c r="BK30" s="18"/>
+      <c r="BL30" s="18"/>
+      <c r="BM30" s="18"/>
+      <c r="BN30" s="17">
         <v>2016</v>
       </c>
-      <c r="BO30" s="26"/>
-      <c r="BP30" s="26"/>
-      <c r="BQ30" s="26"/>
-      <c r="BR30" s="25">
+      <c r="BO30" s="18"/>
+      <c r="BP30" s="18"/>
+      <c r="BQ30" s="18"/>
+      <c r="BR30" s="17">
         <v>2017</v>
       </c>
-      <c r="BS30" s="26"/>
-      <c r="BT30" s="26"/>
-      <c r="BU30" s="26"/>
-      <c r="BV30" s="25">
+      <c r="BS30" s="18"/>
+      <c r="BT30" s="18"/>
+      <c r="BU30" s="18"/>
+      <c r="BV30" s="17">
         <v>2018</v>
       </c>
-      <c r="BW30" s="26"/>
-      <c r="BX30" s="26"/>
-      <c r="BY30" s="26"/>
-      <c r="BZ30" s="25">
+      <c r="BW30" s="18"/>
+      <c r="BX30" s="18"/>
+      <c r="BY30" s="18"/>
+      <c r="BZ30" s="17">
         <v>2019</v>
       </c>
-      <c r="CA30" s="26"/>
-      <c r="CB30" s="26"/>
-      <c r="CC30" s="26"/>
-      <c r="CD30" s="25">
+      <c r="CA30" s="18"/>
+      <c r="CB30" s="18"/>
+      <c r="CC30" s="18"/>
+      <c r="CD30" s="17">
         <v>2020</v>
       </c>
-      <c r="CE30" s="25"/>
-      <c r="CF30" s="25"/>
-      <c r="CG30" s="25"/>
-      <c r="CH30" s="25">
+      <c r="CE30" s="17"/>
+      <c r="CF30" s="17"/>
+      <c r="CG30" s="17"/>
+      <c r="CH30" s="17">
         <v>2021</v>
       </c>
-      <c r="CI30" s="25"/>
-      <c r="CJ30" s="25"/>
-      <c r="CK30" s="25"/>
-      <c r="CL30" s="27">
+      <c r="CI30" s="17"/>
+      <c r="CJ30" s="17"/>
+      <c r="CK30" s="17"/>
+      <c r="CL30" s="16">
         <v>2022</v>
       </c>
-      <c r="CM30" s="27"/>
-      <c r="CN30" s="27"/>
-      <c r="CO30" s="27"/>
-      <c r="CP30" s="27">
+      <c r="CM30" s="16"/>
+      <c r="CN30" s="16"/>
+      <c r="CO30" s="16"/>
+      <c r="CP30" s="16">
         <v>2023</v>
       </c>
-      <c r="CQ30" s="27"/>
-      <c r="CR30" s="27"/>
+      <c r="CQ30" s="16"/>
+      <c r="CR30" s="16"/>
+      <c r="CS30" s="16"/>
     </row>
     <row r="31" spans="1:154" x14ac:dyDescent="0.2">
       <c r="A31" s="5" t="s">
@@ -26846,26 +26851,29 @@
       <c r="CK31" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="CL31" s="17" t="s">
+      <c r="CL31" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="CM31" s="17" t="s">
+      <c r="CM31" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="CN31" s="17" t="s">
+      <c r="CN31" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="CO31" s="17" t="s">
+      <c r="CO31" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="CP31" s="17" t="s">
+      <c r="CP31" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="CQ31" s="17" t="s">
+      <c r="CQ31" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="CR31" s="17" t="s">
+      <c r="CR31" s="6" t="s">
         <v>10</v>
+      </c>
+      <c r="CS31" s="6" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="32" spans="1:154" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
@@ -27139,28 +27147,30 @@
       <c r="CK33" s="8">
         <v>218514.55609870315</v>
       </c>
-      <c r="CL33" s="18">
+      <c r="CL33" s="8">
         <v>291474.76826139248</v>
       </c>
-      <c r="CM33" s="18">
+      <c r="CM33" s="8">
         <v>234633.20373768959</v>
       </c>
-      <c r="CN33" s="18">
+      <c r="CN33" s="8">
         <v>264938.66792331031</v>
       </c>
-      <c r="CO33" s="18">
+      <c r="CO33" s="8">
         <v>239988.59867347119</v>
       </c>
-      <c r="CP33" s="18">
+      <c r="CP33" s="8">
         <v>324156.55637382169</v>
       </c>
-      <c r="CQ33" s="18">
+      <c r="CQ33" s="8">
         <v>255836.99898620203</v>
       </c>
-      <c r="CR33" s="18">
-        <v>294779.20399858069</v>
-      </c>
-      <c r="CS33" s="9"/>
+      <c r="CR33" s="8">
+        <v>295986.37316272699</v>
+      </c>
+      <c r="CS33" s="8">
+        <v>272152.97562172671</v>
+      </c>
       <c r="CT33" s="9"/>
       <c r="CU33" s="9"/>
       <c r="CV33" s="9"/>
@@ -27487,28 +27497,30 @@
       <c r="CK34" s="8">
         <v>146049.75313387654</v>
       </c>
-      <c r="CL34" s="18">
+      <c r="CL34" s="8">
         <v>123209.25323782492</v>
       </c>
-      <c r="CM34" s="18">
+      <c r="CM34" s="8">
         <v>186244.19874780902</v>
       </c>
-      <c r="CN34" s="18">
+      <c r="CN34" s="8">
         <v>128897.23668924074</v>
       </c>
-      <c r="CO34" s="18">
+      <c r="CO34" s="8">
         <v>161212.05680387036</v>
       </c>
-      <c r="CP34" s="18">
+      <c r="CP34" s="8">
         <v>135360.31282609189</v>
       </c>
-      <c r="CQ34" s="18">
+      <c r="CQ34" s="8">
         <v>190258.87285912794</v>
       </c>
-      <c r="CR34" s="18">
-        <v>141579.6423609292</v>
-      </c>
-      <c r="CS34" s="9"/>
+      <c r="CR34" s="8">
+        <v>140383.4153113513</v>
+      </c>
+      <c r="CS34" s="8">
+        <v>179661.4873574528</v>
+      </c>
       <c r="CT34" s="9"/>
       <c r="CU34" s="9"/>
       <c r="CV34" s="9"/>
@@ -27835,28 +27847,30 @@
       <c r="CK35" s="8">
         <v>67364.770689014418</v>
       </c>
-      <c r="CL35" s="18">
+      <c r="CL35" s="8">
         <v>62584.435866748536</v>
       </c>
-      <c r="CM35" s="18">
+      <c r="CM35" s="8">
         <v>58836.959106982948</v>
       </c>
-      <c r="CN35" s="18">
+      <c r="CN35" s="8">
         <v>63566.492428753787</v>
       </c>
-      <c r="CO35" s="18">
+      <c r="CO35" s="8">
         <v>71695.230501744707</v>
       </c>
-      <c r="CP35" s="18">
+      <c r="CP35" s="8">
         <v>61078.422771265992</v>
       </c>
-      <c r="CQ35" s="18">
+      <c r="CQ35" s="8">
         <v>59070.351864746932</v>
       </c>
-      <c r="CR35" s="18">
-        <v>65561.862747352308</v>
-      </c>
-      <c r="CS35" s="9"/>
+      <c r="CR35" s="8">
+        <v>65327.200334506575</v>
+      </c>
+      <c r="CS35" s="8">
+        <v>76631.394635138626</v>
+      </c>
       <c r="CT35" s="9"/>
       <c r="CU35" s="9"/>
       <c r="CV35" s="9"/>
@@ -28183,28 +28197,30 @@
       <c r="CK36" s="8">
         <v>24760.097225445876</v>
       </c>
-      <c r="CL36" s="18">
+      <c r="CL36" s="8">
         <v>23764.571646225009</v>
       </c>
-      <c r="CM36" s="18">
+      <c r="CM36" s="8">
         <v>26661.075735828541</v>
       </c>
-      <c r="CN36" s="18">
+      <c r="CN36" s="8">
         <v>22586.18540190734</v>
       </c>
-      <c r="CO36" s="18">
+      <c r="CO36" s="8">
         <v>26426.348809394898</v>
       </c>
-      <c r="CP36" s="18">
+      <c r="CP36" s="8">
         <v>24443.163192385327</v>
       </c>
-      <c r="CQ36" s="18">
+      <c r="CQ36" s="8">
         <v>28259.474396345104</v>
       </c>
-      <c r="CR36" s="18">
-        <v>23483.791005902392</v>
-      </c>
-      <c r="CS36" s="9"/>
+      <c r="CR36" s="8">
+        <v>24593.528173745464</v>
+      </c>
+      <c r="CS36" s="8">
+        <v>29685.146936966688</v>
+      </c>
       <c r="CT36" s="9"/>
       <c r="CU36" s="9"/>
       <c r="CV36" s="9"/>
@@ -28352,13 +28368,13 @@
       <c r="CI37" s="9"/>
       <c r="CJ37" s="9"/>
       <c r="CK37" s="9"/>
-      <c r="CL37" s="19"/>
-      <c r="CM37" s="19"/>
-      <c r="CN37" s="19"/>
-      <c r="CO37" s="19"/>
-      <c r="CP37" s="19"/>
-      <c r="CQ37" s="19"/>
-      <c r="CR37" s="19"/>
+      <c r="CL37" s="9"/>
+      <c r="CM37" s="9"/>
+      <c r="CN37" s="9"/>
+      <c r="CO37" s="9"/>
+      <c r="CP37" s="9"/>
+      <c r="CQ37" s="9"/>
+      <c r="CR37" s="9"/>
       <c r="CS37" s="9"/>
       <c r="CT37" s="9"/>
       <c r="CU37" s="9"/>
@@ -28686,28 +28702,30 @@
       <c r="CK38" s="11">
         <v>456689.17714703991</v>
       </c>
-      <c r="CL38" s="20">
+      <c r="CL38" s="11">
         <v>501033.02901219093</v>
       </c>
-      <c r="CM38" s="20">
+      <c r="CM38" s="11">
         <v>506375.43732831004</v>
       </c>
-      <c r="CN38" s="20">
+      <c r="CN38" s="11">
         <v>479988.58244321222</v>
       </c>
-      <c r="CO38" s="20">
+      <c r="CO38" s="11">
         <v>499322.23478848115</v>
       </c>
-      <c r="CP38" s="20">
+      <c r="CP38" s="11">
         <v>545038.45516356488</v>
       </c>
-      <c r="CQ38" s="20">
+      <c r="CQ38" s="11">
         <v>533425.69810642209</v>
       </c>
-      <c r="CR38" s="20">
-        <v>525404.50011276454</v>
-      </c>
-      <c r="CS38" s="9"/>
+      <c r="CR38" s="11">
+        <v>526290.51698233036</v>
+      </c>
+      <c r="CS38" s="11">
+        <v>558131.00455128483</v>
+      </c>
       <c r="CT38" s="9"/>
       <c r="CU38" s="9"/>
       <c r="CV38" s="9"/>
@@ -28856,13 +28874,14 @@
       <c r="CI39" s="12"/>
       <c r="CJ39" s="12"/>
       <c r="CK39" s="12"/>
-      <c r="CL39" s="21"/>
-      <c r="CM39" s="21"/>
-      <c r="CN39" s="21"/>
-      <c r="CO39" s="21"/>
-      <c r="CP39" s="21"/>
-      <c r="CQ39" s="21"/>
-      <c r="CR39" s="21"/>
+      <c r="CL39" s="12"/>
+      <c r="CM39" s="12"/>
+      <c r="CN39" s="12"/>
+      <c r="CO39" s="12"/>
+      <c r="CP39" s="12"/>
+      <c r="CQ39" s="12"/>
+      <c r="CR39" s="12"/>
+      <c r="CS39" s="12"/>
     </row>
     <row r="40" spans="1:154" x14ac:dyDescent="0.2">
       <c r="A40" s="13" t="s">
@@ -28958,13 +28977,13 @@
       <c r="CI41" s="9"/>
       <c r="CJ41" s="9"/>
       <c r="CK41" s="9"/>
-      <c r="CL41" s="19"/>
-      <c r="CM41" s="19"/>
-      <c r="CN41" s="19"/>
-      <c r="CO41" s="19"/>
-      <c r="CP41" s="19"/>
-      <c r="CQ41" s="19"/>
-      <c r="CR41" s="19"/>
+      <c r="CL41" s="9"/>
+      <c r="CM41" s="9"/>
+      <c r="CN41" s="9"/>
+      <c r="CO41" s="9"/>
+      <c r="CP41" s="9"/>
+      <c r="CQ41" s="9"/>
+      <c r="CR41" s="9"/>
       <c r="CS41" s="9"/>
       <c r="CT41" s="9"/>
       <c r="CU41" s="9"/>
@@ -29113,13 +29132,13 @@
       <c r="CI42" s="9"/>
       <c r="CJ42" s="9"/>
       <c r="CK42" s="9"/>
-      <c r="CL42" s="19"/>
-      <c r="CM42" s="19"/>
-      <c r="CN42" s="19"/>
-      <c r="CO42" s="19"/>
-      <c r="CP42" s="19"/>
-      <c r="CQ42" s="19"/>
-      <c r="CR42" s="19"/>
+      <c r="CL42" s="9"/>
+      <c r="CM42" s="9"/>
+      <c r="CN42" s="9"/>
+      <c r="CO42" s="9"/>
+      <c r="CP42" s="9"/>
+      <c r="CQ42" s="9"/>
+      <c r="CR42" s="9"/>
       <c r="CS42" s="9"/>
       <c r="CT42" s="9"/>
       <c r="CU42" s="9"/>
@@ -29191,7 +29210,7 @@
     </row>
     <row r="45" spans="1:154" x14ac:dyDescent="0.2">
       <c r="A45" s="1" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
     </row>
     <row r="47" spans="1:154" x14ac:dyDescent="0.2">
@@ -29201,7 +29220,7 @@
     </row>
     <row r="48" spans="1:154" x14ac:dyDescent="0.2">
       <c r="A48" s="3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="49" spans="1:150" x14ac:dyDescent="0.2">
@@ -29211,147 +29230,148 @@
     </row>
     <row r="51" spans="1:150" x14ac:dyDescent="0.2">
       <c r="A51" s="4"/>
-      <c r="B51" s="25" t="s">
+      <c r="B51" s="17" t="s">
         <v>31</v>
       </c>
-      <c r="C51" s="25"/>
-      <c r="D51" s="25"/>
-      <c r="E51" s="25"/>
-      <c r="F51" s="25" t="s">
+      <c r="C51" s="17"/>
+      <c r="D51" s="17"/>
+      <c r="E51" s="17"/>
+      <c r="F51" s="17" t="s">
         <v>32</v>
       </c>
-      <c r="G51" s="25"/>
-      <c r="H51" s="25"/>
-      <c r="I51" s="25"/>
-      <c r="J51" s="25" t="s">
+      <c r="G51" s="17"/>
+      <c r="H51" s="17"/>
+      <c r="I51" s="17"/>
+      <c r="J51" s="17" t="s">
         <v>33</v>
       </c>
-      <c r="K51" s="25"/>
-      <c r="L51" s="25"/>
-      <c r="M51" s="25"/>
-      <c r="N51" s="25" t="s">
+      <c r="K51" s="17"/>
+      <c r="L51" s="17"/>
+      <c r="M51" s="17"/>
+      <c r="N51" s="17" t="s">
         <v>34</v>
       </c>
-      <c r="O51" s="25"/>
-      <c r="P51" s="25"/>
-      <c r="Q51" s="25"/>
-      <c r="R51" s="25" t="s">
+      <c r="O51" s="17"/>
+      <c r="P51" s="17"/>
+      <c r="Q51" s="17"/>
+      <c r="R51" s="17" t="s">
         <v>35</v>
       </c>
-      <c r="S51" s="25"/>
-      <c r="T51" s="25"/>
-      <c r="U51" s="25"/>
-      <c r="V51" s="25" t="s">
+      <c r="S51" s="17"/>
+      <c r="T51" s="17"/>
+      <c r="U51" s="17"/>
+      <c r="V51" s="17" t="s">
         <v>36</v>
       </c>
-      <c r="W51" s="25"/>
-      <c r="X51" s="25"/>
-      <c r="Y51" s="25"/>
-      <c r="Z51" s="25" t="s">
+      <c r="W51" s="17"/>
+      <c r="X51" s="17"/>
+      <c r="Y51" s="17"/>
+      <c r="Z51" s="17" t="s">
         <v>37</v>
       </c>
-      <c r="AA51" s="25"/>
-      <c r="AB51" s="25"/>
-      <c r="AC51" s="25"/>
-      <c r="AD51" s="25" t="s">
+      <c r="AA51" s="17"/>
+      <c r="AB51" s="17"/>
+      <c r="AC51" s="17"/>
+      <c r="AD51" s="17" t="s">
         <v>38</v>
       </c>
-      <c r="AE51" s="25"/>
-      <c r="AF51" s="25"/>
-      <c r="AG51" s="25"/>
-      <c r="AH51" s="25" t="s">
+      <c r="AE51" s="17"/>
+      <c r="AF51" s="17"/>
+      <c r="AG51" s="17"/>
+      <c r="AH51" s="17" t="s">
         <v>39</v>
       </c>
-      <c r="AI51" s="25"/>
-      <c r="AJ51" s="25"/>
-      <c r="AK51" s="25"/>
-      <c r="AL51" s="25" t="s">
+      <c r="AI51" s="17"/>
+      <c r="AJ51" s="17"/>
+      <c r="AK51" s="17"/>
+      <c r="AL51" s="17" t="s">
         <v>40</v>
       </c>
-      <c r="AM51" s="25"/>
-      <c r="AN51" s="25"/>
-      <c r="AO51" s="25"/>
-      <c r="AP51" s="25" t="s">
+      <c r="AM51" s="17"/>
+      <c r="AN51" s="17"/>
+      <c r="AO51" s="17"/>
+      <c r="AP51" s="17" t="s">
         <v>41</v>
       </c>
-      <c r="AQ51" s="25"/>
-      <c r="AR51" s="25"/>
-      <c r="AS51" s="25"/>
-      <c r="AT51" s="25" t="s">
+      <c r="AQ51" s="17"/>
+      <c r="AR51" s="17"/>
+      <c r="AS51" s="17"/>
+      <c r="AT51" s="17" t="s">
         <v>42</v>
       </c>
-      <c r="AU51" s="25"/>
-      <c r="AV51" s="25"/>
-      <c r="AW51" s="25"/>
-      <c r="AX51" s="25" t="s">
+      <c r="AU51" s="17"/>
+      <c r="AV51" s="17"/>
+      <c r="AW51" s="17"/>
+      <c r="AX51" s="17" t="s">
         <v>43</v>
       </c>
-      <c r="AY51" s="25"/>
-      <c r="AZ51" s="25"/>
-      <c r="BA51" s="25"/>
-      <c r="BB51" s="25" t="s">
+      <c r="AY51" s="17"/>
+      <c r="AZ51" s="17"/>
+      <c r="BA51" s="17"/>
+      <c r="BB51" s="17" t="s">
         <v>44</v>
       </c>
-      <c r="BC51" s="25"/>
-      <c r="BD51" s="25"/>
-      <c r="BE51" s="25"/>
-      <c r="BF51" s="25" t="s">
+      <c r="BC51" s="17"/>
+      <c r="BD51" s="17"/>
+      <c r="BE51" s="17"/>
+      <c r="BF51" s="17" t="s">
         <v>45</v>
       </c>
-      <c r="BG51" s="25"/>
-      <c r="BH51" s="25"/>
-      <c r="BI51" s="25"/>
-      <c r="BJ51" s="25" t="s">
+      <c r="BG51" s="17"/>
+      <c r="BH51" s="17"/>
+      <c r="BI51" s="17"/>
+      <c r="BJ51" s="17" t="s">
         <v>46</v>
       </c>
-      <c r="BK51" s="25"/>
-      <c r="BL51" s="25"/>
-      <c r="BM51" s="25"/>
-      <c r="BN51" s="25" t="s">
+      <c r="BK51" s="17"/>
+      <c r="BL51" s="17"/>
+      <c r="BM51" s="17"/>
+      <c r="BN51" s="17" t="s">
         <v>47</v>
       </c>
-      <c r="BO51" s="25"/>
-      <c r="BP51" s="25"/>
-      <c r="BQ51" s="25"/>
-      <c r="BR51" s="25" t="s">
+      <c r="BO51" s="17"/>
+      <c r="BP51" s="17"/>
+      <c r="BQ51" s="17"/>
+      <c r="BR51" s="17" t="s">
         <v>27</v>
       </c>
-      <c r="BS51" s="25"/>
-      <c r="BT51" s="25"/>
-      <c r="BU51" s="25"/>
-      <c r="BV51" s="25" t="s">
+      <c r="BS51" s="17"/>
+      <c r="BT51" s="17"/>
+      <c r="BU51" s="17"/>
+      <c r="BV51" s="17" t="s">
         <v>28</v>
       </c>
-      <c r="BW51" s="25"/>
-      <c r="BX51" s="25"/>
-      <c r="BY51" s="25"/>
-      <c r="BZ51" s="25" t="s">
+      <c r="BW51" s="17"/>
+      <c r="BX51" s="17"/>
+      <c r="BY51" s="17"/>
+      <c r="BZ51" s="17" t="s">
         <v>29</v>
       </c>
-      <c r="CA51" s="25"/>
-      <c r="CB51" s="25"/>
-      <c r="CC51" s="25"/>
-      <c r="CD51" s="25" t="s">
+      <c r="CA51" s="17"/>
+      <c r="CB51" s="17"/>
+      <c r="CC51" s="17"/>
+      <c r="CD51" s="17" t="s">
         <v>48</v>
       </c>
-      <c r="CE51" s="25"/>
-      <c r="CF51" s="25"/>
-      <c r="CG51" s="25"/>
-      <c r="CH51" s="25" t="s">
+      <c r="CE51" s="17"/>
+      <c r="CF51" s="17"/>
+      <c r="CG51" s="17"/>
+      <c r="CH51" s="17" t="s">
         <v>49</v>
       </c>
-      <c r="CI51" s="25"/>
-      <c r="CJ51" s="25"/>
-      <c r="CK51" s="25"/>
-      <c r="CL51" s="27" t="s">
+      <c r="CI51" s="17"/>
+      <c r="CJ51" s="17"/>
+      <c r="CK51" s="17"/>
+      <c r="CL51" s="16" t="s">
         <v>50</v>
       </c>
-      <c r="CM51" s="27"/>
-      <c r="CN51" s="27"/>
-      <c r="CO51" s="22"/>
+      <c r="CM51" s="16"/>
+      <c r="CN51" s="16"/>
+      <c r="CO51" s="16"/>
       <c r="CP51" s="15"/>
       <c r="CQ51" s="15"/>
       <c r="CR51" s="15"/>
+      <c r="CS51" s="15"/>
     </row>
     <row r="52" spans="1:150" x14ac:dyDescent="0.2">
       <c r="A52" s="5" t="s">
@@ -29621,19 +29641,22 @@
       <c r="CK52" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="CL52" s="23" t="s">
+      <c r="CL52" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="CM52" s="23" t="s">
+      <c r="CM52" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="CN52" s="23" t="s">
+      <c r="CN52" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="CO52" s="23"/>
-      <c r="CP52" s="23"/>
-      <c r="CQ52" s="23"/>
-      <c r="CR52" s="23"/>
+      <c r="CO52" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="CP52" s="5"/>
+      <c r="CQ52" s="5"/>
+      <c r="CR52" s="5"/>
+      <c r="CS52" s="5"/>
     </row>
     <row r="53" spans="1:150" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A53" s="7"/>
@@ -29906,20 +29929,22 @@
       <c r="CK54" s="14">
         <v>18.024110738216748</v>
       </c>
-      <c r="CL54" s="24">
+      <c r="CL54" s="14">
         <v>21.151903041683596</v>
       </c>
-      <c r="CM54" s="24">
+      <c r="CM54" s="14">
         <v>16.055596049297876</v>
       </c>
-      <c r="CN54" s="24">
-        <v>16.637198327410999</v>
-      </c>
-      <c r="CO54" s="24"/>
-      <c r="CP54" s="24"/>
-      <c r="CQ54" s="24"/>
-      <c r="CR54" s="24"/>
-      <c r="CS54" s="9"/>
+      <c r="CN54" s="14">
+        <v>17.114846775141828</v>
+      </c>
+      <c r="CO54" s="14">
+        <v>18.747385295690705</v>
+      </c>
+      <c r="CP54" s="14"/>
+      <c r="CQ54" s="14"/>
+      <c r="CR54" s="14"/>
+      <c r="CS54" s="14"/>
       <c r="CT54" s="9"/>
       <c r="CU54" s="9"/>
       <c r="CV54" s="9"/>
@@ -30242,20 +30267,22 @@
       <c r="CK55" s="14">
         <v>18.006476206364624</v>
       </c>
-      <c r="CL55" s="24">
+      <c r="CL55" s="14">
         <v>17.343743533999103</v>
       </c>
-      <c r="CM55" s="24">
+      <c r="CM55" s="14">
         <v>8.7752308383840898</v>
       </c>
-      <c r="CN55" s="24">
-        <v>14.650115465720788</v>
-      </c>
-      <c r="CO55" s="24"/>
-      <c r="CP55" s="24"/>
-      <c r="CQ55" s="24"/>
-      <c r="CR55" s="24"/>
-      <c r="CS55" s="9"/>
+      <c r="CN55" s="14">
+        <v>13.681419916909505</v>
+      </c>
+      <c r="CO55" s="14">
+        <v>16.523605960794654</v>
+      </c>
+      <c r="CP55" s="14"/>
+      <c r="CQ55" s="14"/>
+      <c r="CR55" s="14"/>
+      <c r="CS55" s="14"/>
       <c r="CT55" s="9"/>
       <c r="CU55" s="9"/>
       <c r="CV55" s="9"/>
@@ -30578,20 +30605,22 @@
       <c r="CK56" s="14">
         <v>14.283569411064747</v>
       </c>
-      <c r="CL56" s="24">
+      <c r="CL56" s="14">
         <v>4.8936335134968516</v>
       </c>
-      <c r="CM56" s="24">
+      <c r="CM56" s="14">
         <v>7.0068118916121165</v>
       </c>
-      <c r="CN56" s="24">
-        <v>8.1000157787801612</v>
-      </c>
-      <c r="CO56" s="24"/>
-      <c r="CP56" s="24"/>
-      <c r="CQ56" s="24"/>
-      <c r="CR56" s="24"/>
-      <c r="CS56" s="9"/>
+      <c r="CN56" s="14">
+        <v>7.7130986066878222</v>
+      </c>
+      <c r="CO56" s="14">
+        <v>12.050072183519717</v>
+      </c>
+      <c r="CP56" s="14"/>
+      <c r="CQ56" s="14"/>
+      <c r="CR56" s="14"/>
+      <c r="CS56" s="14"/>
       <c r="CT56" s="9"/>
       <c r="CU56" s="9"/>
       <c r="CV56" s="9"/>
@@ -30914,20 +30943,22 @@
       <c r="CK57" s="14">
         <v>13.941271970433334</v>
       </c>
-      <c r="CL57" s="24">
+      <c r="CL57" s="14">
         <v>9.5755420857457807</v>
       </c>
-      <c r="CM57" s="24">
+      <c r="CM57" s="14">
         <v>13.731756400139886</v>
       </c>
-      <c r="CN57" s="24">
-        <v>8.4034336346420417</v>
-      </c>
-      <c r="CO57" s="24"/>
-      <c r="CP57" s="24"/>
-      <c r="CQ57" s="24"/>
-      <c r="CR57" s="24"/>
-      <c r="CS57" s="9"/>
+      <c r="CN57" s="14">
+        <v>13.526086931800791</v>
+      </c>
+      <c r="CO57" s="14">
+        <v>18.487650272349597</v>
+      </c>
+      <c r="CP57" s="14"/>
+      <c r="CQ57" s="14"/>
+      <c r="CR57" s="14"/>
+      <c r="CS57" s="14"/>
       <c r="CT57" s="9"/>
       <c r="CU57" s="9"/>
       <c r="CV57" s="9"/>
@@ -31071,13 +31102,13 @@
       <c r="CI58" s="9"/>
       <c r="CJ58" s="9"/>
       <c r="CK58" s="9"/>
-      <c r="CL58" s="19"/>
-      <c r="CM58" s="19"/>
-      <c r="CN58" s="19"/>
-      <c r="CO58" s="19"/>
-      <c r="CP58" s="19"/>
-      <c r="CQ58" s="19"/>
-      <c r="CR58" s="19"/>
+      <c r="CL58" s="9"/>
+      <c r="CM58" s="9"/>
+      <c r="CN58" s="9"/>
+      <c r="CO58" s="9"/>
+      <c r="CP58" s="9"/>
+      <c r="CQ58" s="9"/>
+      <c r="CR58" s="9"/>
       <c r="CS58" s="9"/>
       <c r="CT58" s="9"/>
       <c r="CU58" s="9"/>
@@ -31401,20 +31432,22 @@
       <c r="CK59" s="14">
         <v>17.253595232290024</v>
       </c>
-      <c r="CL59" s="24">
+      <c r="CL59" s="14">
         <v>17.58047568302436</v>
       </c>
-      <c r="CM59" s="24">
+      <c r="CM59" s="14">
         <v>12.245630992893865</v>
       </c>
-      <c r="CN59" s="24">
-        <v>14.605274617377347</v>
-      </c>
-      <c r="CO59" s="24"/>
-      <c r="CP59" s="24"/>
-      <c r="CQ59" s="24"/>
-      <c r="CR59" s="24"/>
-      <c r="CS59" s="9"/>
+      <c r="CN59" s="14">
+        <v>14.804702716145528</v>
+      </c>
+      <c r="CO59" s="14">
+        <v>17.070439714983451</v>
+      </c>
+      <c r="CP59" s="14"/>
+      <c r="CQ59" s="14"/>
+      <c r="CR59" s="14"/>
+      <c r="CS59" s="14"/>
       <c r="CT59" s="9"/>
       <c r="CU59" s="9"/>
       <c r="CV59" s="9"/>
@@ -31559,13 +31592,14 @@
       <c r="CI60" s="12"/>
       <c r="CJ60" s="12"/>
       <c r="CK60" s="12"/>
-      <c r="CL60" s="21"/>
-      <c r="CM60" s="21"/>
-      <c r="CN60" s="21"/>
-      <c r="CO60" s="21"/>
-      <c r="CP60" s="21"/>
-      <c r="CQ60" s="21"/>
-      <c r="CR60" s="21"/>
+      <c r="CL60" s="12"/>
+      <c r="CM60" s="12"/>
+      <c r="CN60" s="12"/>
+      <c r="CO60" s="12"/>
+      <c r="CP60" s="12"/>
+      <c r="CQ60" s="12"/>
+      <c r="CR60" s="12"/>
+      <c r="CS60" s="12"/>
     </row>
     <row r="61" spans="1:150" x14ac:dyDescent="0.2">
       <c r="A61" s="13" t="s">
@@ -31661,13 +31695,13 @@
       <c r="CI62" s="9"/>
       <c r="CJ62" s="9"/>
       <c r="CK62" s="9"/>
-      <c r="CL62" s="19"/>
-      <c r="CM62" s="19"/>
-      <c r="CN62" s="19"/>
-      <c r="CO62" s="19"/>
-      <c r="CP62" s="19"/>
-      <c r="CQ62" s="19"/>
-      <c r="CR62" s="19"/>
+      <c r="CL62" s="9"/>
+      <c r="CM62" s="9"/>
+      <c r="CN62" s="9"/>
+      <c r="CO62" s="9"/>
+      <c r="CP62" s="9"/>
+      <c r="CQ62" s="9"/>
+      <c r="CR62" s="9"/>
       <c r="CS62" s="9"/>
       <c r="CT62" s="9"/>
       <c r="CU62" s="9"/>
@@ -31812,13 +31846,13 @@
       <c r="CI63" s="9"/>
       <c r="CJ63" s="9"/>
       <c r="CK63" s="9"/>
-      <c r="CL63" s="19"/>
-      <c r="CM63" s="19"/>
-      <c r="CN63" s="19"/>
-      <c r="CO63" s="19"/>
-      <c r="CP63" s="19"/>
-      <c r="CQ63" s="19"/>
-      <c r="CR63" s="19"/>
+      <c r="CL63" s="9"/>
+      <c r="CM63" s="9"/>
+      <c r="CN63" s="9"/>
+      <c r="CO63" s="9"/>
+      <c r="CP63" s="9"/>
+      <c r="CQ63" s="9"/>
+      <c r="CR63" s="9"/>
       <c r="CS63" s="9"/>
       <c r="CT63" s="9"/>
       <c r="CU63" s="9"/>
@@ -31886,7 +31920,7 @@
     </row>
     <row r="66" spans="1:150" x14ac:dyDescent="0.2">
       <c r="A66" s="1" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
     </row>
     <row r="68" spans="1:150" x14ac:dyDescent="0.2">
@@ -31896,7 +31930,7 @@
     </row>
     <row r="69" spans="1:150" x14ac:dyDescent="0.2">
       <c r="A69" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="70" spans="1:150" x14ac:dyDescent="0.2">
@@ -31906,147 +31940,148 @@
     </row>
     <row r="72" spans="1:150" x14ac:dyDescent="0.2">
       <c r="A72" s="4"/>
-      <c r="B72" s="25" t="s">
+      <c r="B72" s="17" t="s">
         <v>31</v>
       </c>
-      <c r="C72" s="27"/>
-      <c r="D72" s="27"/>
-      <c r="E72" s="27"/>
-      <c r="F72" s="25" t="s">
+      <c r="C72" s="19"/>
+      <c r="D72" s="19"/>
+      <c r="E72" s="19"/>
+      <c r="F72" s="17" t="s">
         <v>32</v>
       </c>
-      <c r="G72" s="27"/>
-      <c r="H72" s="27"/>
-      <c r="I72" s="27"/>
-      <c r="J72" s="25" t="s">
+      <c r="G72" s="19"/>
+      <c r="H72" s="19"/>
+      <c r="I72" s="19"/>
+      <c r="J72" s="17" t="s">
         <v>33</v>
       </c>
-      <c r="K72" s="27"/>
-      <c r="L72" s="27"/>
-      <c r="M72" s="27"/>
-      <c r="N72" s="25" t="s">
+      <c r="K72" s="19"/>
+      <c r="L72" s="19"/>
+      <c r="M72" s="19"/>
+      <c r="N72" s="17" t="s">
         <v>34</v>
       </c>
-      <c r="O72" s="27"/>
-      <c r="P72" s="27"/>
-      <c r="Q72" s="27"/>
-      <c r="R72" s="25" t="s">
+      <c r="O72" s="19"/>
+      <c r="P72" s="19"/>
+      <c r="Q72" s="19"/>
+      <c r="R72" s="17" t="s">
         <v>35</v>
       </c>
-      <c r="S72" s="27"/>
-      <c r="T72" s="27"/>
-      <c r="U72" s="27"/>
-      <c r="V72" s="25" t="s">
+      <c r="S72" s="19"/>
+      <c r="T72" s="19"/>
+      <c r="U72" s="19"/>
+      <c r="V72" s="17" t="s">
         <v>36</v>
       </c>
-      <c r="W72" s="27"/>
-      <c r="X72" s="27"/>
-      <c r="Y72" s="27"/>
-      <c r="Z72" s="25" t="s">
+      <c r="W72" s="19"/>
+      <c r="X72" s="19"/>
+      <c r="Y72" s="19"/>
+      <c r="Z72" s="17" t="s">
         <v>37</v>
       </c>
-      <c r="AA72" s="27"/>
-      <c r="AB72" s="27"/>
-      <c r="AC72" s="27"/>
-      <c r="AD72" s="25" t="s">
+      <c r="AA72" s="19"/>
+      <c r="AB72" s="19"/>
+      <c r="AC72" s="19"/>
+      <c r="AD72" s="17" t="s">
         <v>38</v>
       </c>
-      <c r="AE72" s="27"/>
-      <c r="AF72" s="27"/>
-      <c r="AG72" s="27"/>
-      <c r="AH72" s="25" t="s">
+      <c r="AE72" s="19"/>
+      <c r="AF72" s="19"/>
+      <c r="AG72" s="19"/>
+      <c r="AH72" s="17" t="s">
         <v>39</v>
       </c>
-      <c r="AI72" s="27"/>
-      <c r="AJ72" s="27"/>
-      <c r="AK72" s="27"/>
-      <c r="AL72" s="25" t="s">
+      <c r="AI72" s="19"/>
+      <c r="AJ72" s="19"/>
+      <c r="AK72" s="19"/>
+      <c r="AL72" s="17" t="s">
         <v>40</v>
       </c>
-      <c r="AM72" s="27"/>
-      <c r="AN72" s="27"/>
-      <c r="AO72" s="27"/>
-      <c r="AP72" s="25" t="s">
+      <c r="AM72" s="19"/>
+      <c r="AN72" s="19"/>
+      <c r="AO72" s="19"/>
+      <c r="AP72" s="17" t="s">
         <v>41</v>
       </c>
-      <c r="AQ72" s="27"/>
-      <c r="AR72" s="27"/>
-      <c r="AS72" s="27"/>
-      <c r="AT72" s="25" t="s">
+      <c r="AQ72" s="19"/>
+      <c r="AR72" s="19"/>
+      <c r="AS72" s="19"/>
+      <c r="AT72" s="17" t="s">
         <v>42</v>
       </c>
-      <c r="AU72" s="27"/>
-      <c r="AV72" s="27"/>
-      <c r="AW72" s="27"/>
-      <c r="AX72" s="25" t="s">
+      <c r="AU72" s="19"/>
+      <c r="AV72" s="19"/>
+      <c r="AW72" s="19"/>
+      <c r="AX72" s="17" t="s">
         <v>43</v>
       </c>
-      <c r="AY72" s="27"/>
-      <c r="AZ72" s="27"/>
-      <c r="BA72" s="27"/>
-      <c r="BB72" s="25" t="s">
+      <c r="AY72" s="19"/>
+      <c r="AZ72" s="19"/>
+      <c r="BA72" s="19"/>
+      <c r="BB72" s="17" t="s">
         <v>44</v>
       </c>
-      <c r="BC72" s="27"/>
-      <c r="BD72" s="27"/>
-      <c r="BE72" s="27"/>
-      <c r="BF72" s="25" t="s">
+      <c r="BC72" s="19"/>
+      <c r="BD72" s="19"/>
+      <c r="BE72" s="19"/>
+      <c r="BF72" s="17" t="s">
         <v>45</v>
       </c>
-      <c r="BG72" s="27"/>
-      <c r="BH72" s="27"/>
-      <c r="BI72" s="27"/>
-      <c r="BJ72" s="25" t="s">
+      <c r="BG72" s="19"/>
+      <c r="BH72" s="19"/>
+      <c r="BI72" s="19"/>
+      <c r="BJ72" s="17" t="s">
         <v>46</v>
       </c>
-      <c r="BK72" s="27"/>
-      <c r="BL72" s="27"/>
-      <c r="BM72" s="27"/>
-      <c r="BN72" s="25" t="s">
+      <c r="BK72" s="19"/>
+      <c r="BL72" s="19"/>
+      <c r="BM72" s="19"/>
+      <c r="BN72" s="17" t="s">
         <v>47</v>
       </c>
-      <c r="BO72" s="27"/>
-      <c r="BP72" s="27"/>
-      <c r="BQ72" s="27"/>
-      <c r="BR72" s="25" t="s">
+      <c r="BO72" s="19"/>
+      <c r="BP72" s="19"/>
+      <c r="BQ72" s="19"/>
+      <c r="BR72" s="17" t="s">
         <v>27</v>
       </c>
-      <c r="BS72" s="27"/>
-      <c r="BT72" s="27"/>
-      <c r="BU72" s="27"/>
-      <c r="BV72" s="25" t="s">
+      <c r="BS72" s="19"/>
+      <c r="BT72" s="19"/>
+      <c r="BU72" s="19"/>
+      <c r="BV72" s="17" t="s">
         <v>28</v>
       </c>
-      <c r="BW72" s="27"/>
-      <c r="BX72" s="27"/>
-      <c r="BY72" s="27"/>
-      <c r="BZ72" s="25" t="s">
+      <c r="BW72" s="19"/>
+      <c r="BX72" s="19"/>
+      <c r="BY72" s="19"/>
+      <c r="BZ72" s="17" t="s">
         <v>29</v>
       </c>
-      <c r="CA72" s="27"/>
-      <c r="CB72" s="27"/>
-      <c r="CC72" s="27"/>
-      <c r="CD72" s="25" t="s">
+      <c r="CA72" s="19"/>
+      <c r="CB72" s="19"/>
+      <c r="CC72" s="19"/>
+      <c r="CD72" s="17" t="s">
         <v>48</v>
       </c>
-      <c r="CE72" s="25"/>
-      <c r="CF72" s="25"/>
-      <c r="CG72" s="25"/>
-      <c r="CH72" s="25" t="s">
+      <c r="CE72" s="17"/>
+      <c r="CF72" s="17"/>
+      <c r="CG72" s="17"/>
+      <c r="CH72" s="17" t="s">
         <v>49</v>
       </c>
-      <c r="CI72" s="25"/>
-      <c r="CJ72" s="25"/>
-      <c r="CK72" s="25"/>
-      <c r="CL72" s="27" t="s">
+      <c r="CI72" s="17"/>
+      <c r="CJ72" s="17"/>
+      <c r="CK72" s="17"/>
+      <c r="CL72" s="16" t="s">
         <v>50</v>
       </c>
-      <c r="CM72" s="27"/>
-      <c r="CN72" s="27"/>
-      <c r="CO72" s="22"/>
+      <c r="CM72" s="16"/>
+      <c r="CN72" s="16"/>
+      <c r="CO72" s="16"/>
       <c r="CP72" s="15"/>
       <c r="CQ72" s="15"/>
       <c r="CR72" s="15"/>
+      <c r="CS72" s="15"/>
     </row>
     <row r="73" spans="1:150" x14ac:dyDescent="0.2">
       <c r="A73" s="5" t="s">
@@ -32316,19 +32351,22 @@
       <c r="CK73" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="CL73" s="23" t="s">
+      <c r="CL73" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="CM73" s="23" t="s">
+      <c r="CM73" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="CN73" s="23" t="s">
+      <c r="CN73" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="CO73" s="23"/>
-      <c r="CP73" s="23"/>
-      <c r="CQ73" s="23"/>
-      <c r="CR73" s="23"/>
+      <c r="CO73" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="CP73" s="5"/>
+      <c r="CQ73" s="5"/>
+      <c r="CR73" s="5"/>
+      <c r="CS73" s="5"/>
     </row>
     <row r="74" spans="1:150" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A74" s="7"/>
@@ -32601,20 +32639,22 @@
       <c r="CK75" s="14">
         <v>9.8272824283011033</v>
       </c>
-      <c r="CL75" s="24">
+      <c r="CL75" s="14">
         <v>11.212561659237835</v>
       </c>
-      <c r="CM75" s="24">
+      <c r="CM75" s="14">
         <v>9.0369968575365789</v>
       </c>
-      <c r="CN75" s="24">
-        <v>11.263186423171746</v>
-      </c>
-      <c r="CO75" s="24"/>
-      <c r="CP75" s="24"/>
-      <c r="CQ75" s="24"/>
-      <c r="CR75" s="24"/>
-      <c r="CS75" s="9"/>
+      <c r="CN75" s="14">
+        <v>11.718827411181749</v>
+      </c>
+      <c r="CO75" s="14">
+        <v>13.402460419387836</v>
+      </c>
+      <c r="CP75" s="14"/>
+      <c r="CQ75" s="14"/>
+      <c r="CR75" s="14"/>
+      <c r="CS75" s="14"/>
       <c r="CT75" s="9"/>
       <c r="CU75" s="9"/>
       <c r="CV75" s="9"/>
@@ -32937,20 +32977,22 @@
       <c r="CK76" s="14">
         <v>10.381601710819254</v>
       </c>
-      <c r="CL76" s="24">
+      <c r="CL76" s="14">
         <v>9.8621323228153699</v>
       </c>
-      <c r="CM76" s="24">
+      <c r="CM76" s="14">
         <v>2.1555968660023268</v>
       </c>
-      <c r="CN76" s="24">
-        <v>9.8391602469062605</v>
-      </c>
-      <c r="CO76" s="24"/>
-      <c r="CP76" s="24"/>
-      <c r="CQ76" s="24"/>
-      <c r="CR76" s="24"/>
-      <c r="CS76" s="9"/>
+      <c r="CN76" s="14">
+        <v>8.9111131604804257</v>
+      </c>
+      <c r="CO76" s="14">
+        <v>11.444200216382015</v>
+      </c>
+      <c r="CP76" s="14"/>
+      <c r="CQ76" s="14"/>
+      <c r="CR76" s="14"/>
+      <c r="CS76" s="14"/>
       <c r="CT76" s="9"/>
       <c r="CU76" s="9"/>
       <c r="CV76" s="9"/>
@@ -33273,20 +33315,22 @@
       <c r="CK77" s="14">
         <v>6.4283746065456171</v>
       </c>
-      <c r="CL77" s="24">
+      <c r="CL77" s="14">
         <v>-2.4063700097721892</v>
       </c>
-      <c r="CM77" s="24">
+      <c r="CM77" s="14">
         <v>0.3966771248996821</v>
       </c>
-      <c r="CN77" s="24">
-        <v>3.1390285075662376</v>
-      </c>
-      <c r="CO77" s="24"/>
-      <c r="CP77" s="24"/>
-      <c r="CQ77" s="24"/>
-      <c r="CR77" s="24"/>
-      <c r="CS77" s="9"/>
+      <c r="CN77" s="14">
+        <v>2.7698679579122825</v>
+      </c>
+      <c r="CO77" s="14">
+        <v>6.8849267919904378</v>
+      </c>
+      <c r="CP77" s="14"/>
+      <c r="CQ77" s="14"/>
+      <c r="CR77" s="14"/>
+      <c r="CS77" s="14"/>
       <c r="CT77" s="9"/>
       <c r="CU77" s="9"/>
       <c r="CV77" s="9"/>
@@ -33609,20 +33653,22 @@
       <c r="CK78" s="14">
         <v>6.7295841723780541</v>
       </c>
-      <c r="CL78" s="24">
+      <c r="CL78" s="14">
         <v>2.8554756057137354</v>
       </c>
-      <c r="CM78" s="24">
+      <c r="CM78" s="14">
         <v>5.995251940898072</v>
       </c>
-      <c r="CN78" s="24">
-        <v>3.974135463880728</v>
-      </c>
-      <c r="CO78" s="24"/>
-      <c r="CP78" s="24"/>
-      <c r="CQ78" s="24"/>
-      <c r="CR78" s="24"/>
-      <c r="CS78" s="9"/>
+      <c r="CN78" s="14">
+        <v>8.8874802722048543</v>
+      </c>
+      <c r="CO78" s="14">
+        <v>12.331624588309566</v>
+      </c>
+      <c r="CP78" s="14"/>
+      <c r="CQ78" s="14"/>
+      <c r="CR78" s="14"/>
+      <c r="CS78" s="14"/>
       <c r="CT78" s="9"/>
       <c r="CU78" s="9"/>
       <c r="CV78" s="9"/>
@@ -33766,13 +33812,13 @@
       <c r="CI79" s="9"/>
       <c r="CJ79" s="9"/>
       <c r="CK79" s="9"/>
-      <c r="CL79" s="19"/>
-      <c r="CM79" s="19"/>
-      <c r="CN79" s="19"/>
-      <c r="CO79" s="19"/>
-      <c r="CP79" s="19"/>
-      <c r="CQ79" s="19"/>
-      <c r="CR79" s="19"/>
+      <c r="CL79" s="9"/>
+      <c r="CM79" s="9"/>
+      <c r="CN79" s="9"/>
+      <c r="CO79" s="9"/>
+      <c r="CP79" s="9"/>
+      <c r="CQ79" s="9"/>
+      <c r="CR79" s="9"/>
       <c r="CS79" s="9"/>
       <c r="CT79" s="9"/>
       <c r="CU79" s="9"/>
@@ -34096,20 +34142,22 @@
       <c r="CK80" s="14">
         <v>9.335245890382609</v>
       </c>
-      <c r="CL80" s="24">
+      <c r="CL80" s="14">
         <v>8.7829391683283973</v>
       </c>
-      <c r="CM80" s="24">
+      <c r="CM80" s="14">
         <v>5.3419377766094129</v>
       </c>
-      <c r="CN80" s="24">
-        <v>9.4618745800949284</v>
-      </c>
-      <c r="CO80" s="24"/>
-      <c r="CP80" s="24"/>
-      <c r="CQ80" s="24"/>
-      <c r="CR80" s="24"/>
-      <c r="CS80" s="9"/>
+      <c r="CN80" s="14">
+        <v>9.6464658187148018</v>
+      </c>
+      <c r="CO80" s="14">
+        <v>11.777719008991411</v>
+      </c>
+      <c r="CP80" s="14"/>
+      <c r="CQ80" s="14"/>
+      <c r="CR80" s="14"/>
+      <c r="CS80" s="14"/>
       <c r="CT80" s="9"/>
       <c r="CU80" s="9"/>
       <c r="CV80" s="9"/>
@@ -34254,13 +34302,14 @@
       <c r="CI81" s="12"/>
       <c r="CJ81" s="12"/>
       <c r="CK81" s="12"/>
-      <c r="CL81" s="21"/>
-      <c r="CM81" s="21"/>
-      <c r="CN81" s="21"/>
-      <c r="CO81" s="21"/>
-      <c r="CP81" s="21"/>
-      <c r="CQ81" s="21"/>
-      <c r="CR81" s="21"/>
+      <c r="CL81" s="12"/>
+      <c r="CM81" s="12"/>
+      <c r="CN81" s="12"/>
+      <c r="CO81" s="12"/>
+      <c r="CP81" s="12"/>
+      <c r="CQ81" s="12"/>
+      <c r="CR81" s="12"/>
+      <c r="CS81" s="12"/>
     </row>
     <row r="82" spans="1:154" x14ac:dyDescent="0.2">
       <c r="A82" s="13" t="s">
@@ -34356,13 +34405,13 @@
       <c r="CI83" s="9"/>
       <c r="CJ83" s="9"/>
       <c r="CK83" s="9"/>
-      <c r="CL83" s="19"/>
-      <c r="CM83" s="19"/>
-      <c r="CN83" s="19"/>
-      <c r="CO83" s="19"/>
-      <c r="CP83" s="19"/>
-      <c r="CQ83" s="19"/>
-      <c r="CR83" s="19"/>
+      <c r="CL83" s="9"/>
+      <c r="CM83" s="9"/>
+      <c r="CN83" s="9"/>
+      <c r="CO83" s="9"/>
+      <c r="CP83" s="9"/>
+      <c r="CQ83" s="9"/>
+      <c r="CR83" s="9"/>
       <c r="CS83" s="9"/>
       <c r="CT83" s="9"/>
       <c r="CU83" s="9"/>
@@ -34507,13 +34556,13 @@
       <c r="CI84" s="9"/>
       <c r="CJ84" s="9"/>
       <c r="CK84" s="9"/>
-      <c r="CL84" s="19"/>
-      <c r="CM84" s="19"/>
-      <c r="CN84" s="19"/>
-      <c r="CO84" s="19"/>
-      <c r="CP84" s="19"/>
-      <c r="CQ84" s="19"/>
-      <c r="CR84" s="19"/>
+      <c r="CL84" s="9"/>
+      <c r="CM84" s="9"/>
+      <c r="CN84" s="9"/>
+      <c r="CO84" s="9"/>
+      <c r="CP84" s="9"/>
+      <c r="CQ84" s="9"/>
+      <c r="CR84" s="9"/>
       <c r="CS84" s="9"/>
       <c r="CT84" s="9"/>
       <c r="CU84" s="9"/>
@@ -34576,7 +34625,7 @@
     </row>
     <row r="86" spans="1:154" x14ac:dyDescent="0.2">
       <c r="A86" s="1" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
     </row>
     <row r="88" spans="1:154" x14ac:dyDescent="0.2">
@@ -34586,7 +34635,7 @@
     </row>
     <row r="89" spans="1:154" x14ac:dyDescent="0.2">
       <c r="A89" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="90" spans="1:154" x14ac:dyDescent="0.2">
@@ -34596,149 +34645,150 @@
     </row>
     <row r="92" spans="1:154" x14ac:dyDescent="0.2">
       <c r="A92" s="4"/>
-      <c r="B92" s="25">
+      <c r="B92" s="17">
         <v>2000</v>
       </c>
-      <c r="C92" s="26"/>
-      <c r="D92" s="26"/>
-      <c r="E92" s="26"/>
-      <c r="F92" s="25">
+      <c r="C92" s="18"/>
+      <c r="D92" s="18"/>
+      <c r="E92" s="18"/>
+      <c r="F92" s="17">
         <v>2001</v>
       </c>
-      <c r="G92" s="26"/>
-      <c r="H92" s="26"/>
-      <c r="I92" s="26"/>
-      <c r="J92" s="25">
+      <c r="G92" s="18"/>
+      <c r="H92" s="18"/>
+      <c r="I92" s="18"/>
+      <c r="J92" s="17">
         <v>2002</v>
       </c>
-      <c r="K92" s="26"/>
-      <c r="L92" s="26"/>
-      <c r="M92" s="26"/>
-      <c r="N92" s="25">
+      <c r="K92" s="18"/>
+      <c r="L92" s="18"/>
+      <c r="M92" s="18"/>
+      <c r="N92" s="17">
         <v>2003</v>
       </c>
-      <c r="O92" s="26"/>
-      <c r="P92" s="26"/>
-      <c r="Q92" s="26"/>
-      <c r="R92" s="25">
+      <c r="O92" s="18"/>
+      <c r="P92" s="18"/>
+      <c r="Q92" s="18"/>
+      <c r="R92" s="17">
         <v>2004</v>
       </c>
-      <c r="S92" s="26"/>
-      <c r="T92" s="26"/>
-      <c r="U92" s="26"/>
-      <c r="V92" s="25">
+      <c r="S92" s="18"/>
+      <c r="T92" s="18"/>
+      <c r="U92" s="18"/>
+      <c r="V92" s="17">
         <v>2005</v>
       </c>
-      <c r="W92" s="26"/>
-      <c r="X92" s="26"/>
-      <c r="Y92" s="26"/>
-      <c r="Z92" s="25">
+      <c r="W92" s="18"/>
+      <c r="X92" s="18"/>
+      <c r="Y92" s="18"/>
+      <c r="Z92" s="17">
         <v>2006</v>
       </c>
-      <c r="AA92" s="26"/>
-      <c r="AB92" s="26"/>
-      <c r="AC92" s="26"/>
-      <c r="AD92" s="25">
+      <c r="AA92" s="18"/>
+      <c r="AB92" s="18"/>
+      <c r="AC92" s="18"/>
+      <c r="AD92" s="17">
         <v>2007</v>
       </c>
-      <c r="AE92" s="26"/>
-      <c r="AF92" s="26"/>
-      <c r="AG92" s="26"/>
-      <c r="AH92" s="25">
+      <c r="AE92" s="18"/>
+      <c r="AF92" s="18"/>
+      <c r="AG92" s="18"/>
+      <c r="AH92" s="17">
         <v>2008</v>
       </c>
-      <c r="AI92" s="26"/>
-      <c r="AJ92" s="26"/>
-      <c r="AK92" s="26"/>
-      <c r="AL92" s="25">
+      <c r="AI92" s="18"/>
+      <c r="AJ92" s="18"/>
+      <c r="AK92" s="18"/>
+      <c r="AL92" s="17">
         <v>2009</v>
       </c>
-      <c r="AM92" s="26"/>
-      <c r="AN92" s="26"/>
-      <c r="AO92" s="26"/>
-      <c r="AP92" s="25">
+      <c r="AM92" s="18"/>
+      <c r="AN92" s="18"/>
+      <c r="AO92" s="18"/>
+      <c r="AP92" s="17">
         <v>2010</v>
       </c>
-      <c r="AQ92" s="26"/>
-      <c r="AR92" s="26"/>
-      <c r="AS92" s="26"/>
-      <c r="AT92" s="25">
+      <c r="AQ92" s="18"/>
+      <c r="AR92" s="18"/>
+      <c r="AS92" s="18"/>
+      <c r="AT92" s="17">
         <v>2011</v>
       </c>
-      <c r="AU92" s="26"/>
-      <c r="AV92" s="26"/>
-      <c r="AW92" s="26"/>
-      <c r="AX92" s="25">
+      <c r="AU92" s="18"/>
+      <c r="AV92" s="18"/>
+      <c r="AW92" s="18"/>
+      <c r="AX92" s="17">
         <v>2012</v>
       </c>
-      <c r="AY92" s="26"/>
-      <c r="AZ92" s="26"/>
-      <c r="BA92" s="26"/>
-      <c r="BB92" s="25">
+      <c r="AY92" s="18"/>
+      <c r="AZ92" s="18"/>
+      <c r="BA92" s="18"/>
+      <c r="BB92" s="17">
         <v>2013</v>
       </c>
-      <c r="BC92" s="26"/>
-      <c r="BD92" s="26"/>
-      <c r="BE92" s="26"/>
-      <c r="BF92" s="25">
+      <c r="BC92" s="18"/>
+      <c r="BD92" s="18"/>
+      <c r="BE92" s="18"/>
+      <c r="BF92" s="17">
         <v>2014</v>
       </c>
-      <c r="BG92" s="26"/>
-      <c r="BH92" s="26"/>
-      <c r="BI92" s="26"/>
-      <c r="BJ92" s="25">
+      <c r="BG92" s="18"/>
+      <c r="BH92" s="18"/>
+      <c r="BI92" s="18"/>
+      <c r="BJ92" s="17">
         <v>2015</v>
       </c>
-      <c r="BK92" s="26"/>
-      <c r="BL92" s="26"/>
-      <c r="BM92" s="26"/>
-      <c r="BN92" s="25">
+      <c r="BK92" s="18"/>
+      <c r="BL92" s="18"/>
+      <c r="BM92" s="18"/>
+      <c r="BN92" s="17">
         <v>2016</v>
       </c>
-      <c r="BO92" s="26"/>
-      <c r="BP92" s="26"/>
-      <c r="BQ92" s="26"/>
-      <c r="BR92" s="25">
+      <c r="BO92" s="18"/>
+      <c r="BP92" s="18"/>
+      <c r="BQ92" s="18"/>
+      <c r="BR92" s="17">
         <v>2017</v>
       </c>
-      <c r="BS92" s="26"/>
-      <c r="BT92" s="26"/>
-      <c r="BU92" s="26"/>
-      <c r="BV92" s="25">
+      <c r="BS92" s="18"/>
+      <c r="BT92" s="18"/>
+      <c r="BU92" s="18"/>
+      <c r="BV92" s="17">
         <v>2018</v>
       </c>
-      <c r="BW92" s="26"/>
-      <c r="BX92" s="26"/>
-      <c r="BY92" s="26"/>
-      <c r="BZ92" s="25">
+      <c r="BW92" s="18"/>
+      <c r="BX92" s="18"/>
+      <c r="BY92" s="18"/>
+      <c r="BZ92" s="17">
         <v>2019</v>
       </c>
-      <c r="CA92" s="26"/>
-      <c r="CB92" s="26"/>
-      <c r="CC92" s="26"/>
-      <c r="CD92" s="25">
+      <c r="CA92" s="18"/>
+      <c r="CB92" s="18"/>
+      <c r="CC92" s="18"/>
+      <c r="CD92" s="17">
         <v>2020</v>
       </c>
-      <c r="CE92" s="25"/>
-      <c r="CF92" s="25"/>
-      <c r="CG92" s="25"/>
-      <c r="CH92" s="25">
+      <c r="CE92" s="17"/>
+      <c r="CF92" s="17"/>
+      <c r="CG92" s="17"/>
+      <c r="CH92" s="17">
         <v>2021</v>
       </c>
-      <c r="CI92" s="25"/>
-      <c r="CJ92" s="25"/>
-      <c r="CK92" s="25"/>
-      <c r="CL92" s="27">
+      <c r="CI92" s="17"/>
+      <c r="CJ92" s="17"/>
+      <c r="CK92" s="17"/>
+      <c r="CL92" s="16">
         <v>2022</v>
       </c>
-      <c r="CM92" s="27"/>
-      <c r="CN92" s="27"/>
-      <c r="CO92" s="27"/>
-      <c r="CP92" s="27">
+      <c r="CM92" s="16"/>
+      <c r="CN92" s="16"/>
+      <c r="CO92" s="16"/>
+      <c r="CP92" s="16">
         <v>2023</v>
       </c>
-      <c r="CQ92" s="27"/>
-      <c r="CR92" s="27"/>
+      <c r="CQ92" s="16"/>
+      <c r="CR92" s="16"/>
+      <c r="CS92" s="16"/>
     </row>
     <row r="93" spans="1:154" x14ac:dyDescent="0.2">
       <c r="A93" s="5" t="s">
@@ -35008,26 +35058,29 @@
       <c r="CK93" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="CL93" s="17" t="s">
+      <c r="CL93" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="CM93" s="17" t="s">
+      <c r="CM93" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="CN93" s="17" t="s">
+      <c r="CN93" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="CO93" s="17" t="s">
+      <c r="CO93" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="CP93" s="17" t="s">
+      <c r="CP93" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="CQ93" s="17" t="s">
+      <c r="CQ93" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="CR93" s="17" t="s">
+      <c r="CR93" s="6" t="s">
         <v>10</v>
+      </c>
+      <c r="CS93" s="6" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="94" spans="1:154" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
@@ -35301,28 +35354,30 @@
       <c r="CK95" s="14">
         <v>106.84919584830172</v>
       </c>
-      <c r="CL95" s="24">
+      <c r="CL95" s="14">
         <v>109.29741292337079</v>
       </c>
-      <c r="CM95" s="24">
+      <c r="CM95" s="14">
         <v>112.68273282267074</v>
       </c>
-      <c r="CN95" s="24">
+      <c r="CN95" s="14">
         <v>112.52153114587102</v>
       </c>
-      <c r="CO95" s="24">
+      <c r="CO95" s="14">
         <v>114.82375821619833</v>
       </c>
-      <c r="CP95" s="24">
+      <c r="CP95" s="14">
         <v>119.06559273198043</v>
       </c>
-      <c r="CQ95" s="24">
+      <c r="CQ95" s="14">
         <v>119.93600428380584</v>
       </c>
-      <c r="CR95" s="24">
-        <v>117.95632110021663</v>
-      </c>
-      <c r="CS95" s="9"/>
+      <c r="CR95" s="14">
+        <v>117.95632110021661</v>
+      </c>
+      <c r="CS95" s="14">
+        <v>120.2356722029906</v>
+      </c>
       <c r="CT95" s="9"/>
       <c r="CU95" s="9"/>
       <c r="CV95" s="9"/>
@@ -35649,28 +35704,30 @@
       <c r="CK96" s="14">
         <v>106.68377666365943</v>
       </c>
-      <c r="CL96" s="24">
+      <c r="CL96" s="14">
         <v>110.58197350081539</v>
       </c>
-      <c r="CM96" s="24">
+      <c r="CM96" s="14">
         <v>111.14749382056803</v>
       </c>
-      <c r="CN96" s="24">
+      <c r="CN96" s="14">
         <v>111.44310904146781</v>
       </c>
-      <c r="CO96" s="24">
+      <c r="CO96" s="14">
         <v>114.05321500450081</v>
       </c>
-      <c r="CP96" s="24">
+      <c r="CP96" s="14">
         <v>118.11260589622094</v>
       </c>
-      <c r="CQ96" s="24">
+      <c r="CQ96" s="14">
         <v>118.34979842855556</v>
       </c>
-      <c r="CR96" s="24">
+      <c r="CR96" s="14">
         <v>116.32431721748414</v>
       </c>
-      <c r="CS96" s="9"/>
+      <c r="CS96" s="14">
+        <v>119.25153447144272</v>
+      </c>
       <c r="CT96" s="9"/>
       <c r="CU96" s="9"/>
       <c r="CV96" s="9"/>
@@ -35997,28 +36054,30 @@
       <c r="CK97" s="14">
         <v>104.63011577848687</v>
       </c>
-      <c r="CL97" s="24">
+      <c r="CL97" s="14">
         <v>112.42680139344183</v>
       </c>
-      <c r="CM97" s="24">
+      <c r="CM97" s="14">
         <v>108.29344532061886</v>
       </c>
-      <c r="CN97" s="24">
+      <c r="CN97" s="14">
         <v>109.73385099171769</v>
       </c>
-      <c r="CO97" s="24">
+      <c r="CO97" s="14">
         <v>112.3525858894685</v>
       </c>
-      <c r="CP97" s="24">
+      <c r="CP97" s="14">
         <v>120.83632613767128</v>
       </c>
-      <c r="CQ97" s="24">
+      <c r="CQ97" s="14">
         <v>115.42350468533623</v>
       </c>
-      <c r="CR97" s="24">
-        <v>115.0120492244193</v>
-      </c>
-      <c r="CS97" s="9"/>
+      <c r="CR97" s="14">
+        <v>115.01204922441927</v>
+      </c>
+      <c r="CS97" s="14">
+        <v>117.78195239278048</v>
+      </c>
       <c r="CT97" s="9"/>
       <c r="CU97" s="9"/>
       <c r="CV97" s="9"/>
@@ -36345,28 +36404,30 @@
       <c r="CK98" s="14">
         <v>107.14021411829164</v>
       </c>
-      <c r="CL98" s="24">
+      <c r="CL98" s="14">
         <v>111.88528035245697</v>
       </c>
-      <c r="CM98" s="24">
+      <c r="CM98" s="14">
         <v>113.24987583382027</v>
       </c>
-      <c r="CN98" s="24">
+      <c r="CN98" s="14">
         <v>113.09341837022909</v>
       </c>
-      <c r="CO98" s="24">
+      <c r="CO98" s="14">
         <v>114.37964806558402</v>
       </c>
-      <c r="CP98" s="24">
+      <c r="CP98" s="14">
         <v>119.19530947514345</v>
       </c>
-      <c r="CQ98" s="24">
+      <c r="CQ98" s="14">
         <v>121.5158892009612</v>
       </c>
-      <c r="CR98" s="24">
-        <v>117.91119799280084</v>
-      </c>
-      <c r="CS98" s="9"/>
+      <c r="CR98" s="14">
+        <v>117.91119799280088</v>
+      </c>
+      <c r="CS98" s="14">
+        <v>120.64791004259878</v>
+      </c>
       <c r="CT98" s="9"/>
       <c r="CU98" s="9"/>
       <c r="CV98" s="9"/>
@@ -36514,13 +36575,13 @@
       <c r="CI99" s="9"/>
       <c r="CJ99" s="9"/>
       <c r="CK99" s="9"/>
-      <c r="CL99" s="19"/>
-      <c r="CM99" s="19"/>
-      <c r="CN99" s="19"/>
-      <c r="CO99" s="19"/>
-      <c r="CP99" s="19"/>
-      <c r="CQ99" s="19"/>
-      <c r="CR99" s="19"/>
+      <c r="CL99" s="9"/>
+      <c r="CM99" s="9"/>
+      <c r="CN99" s="9"/>
+      <c r="CO99" s="9"/>
+      <c r="CP99" s="9"/>
+      <c r="CQ99" s="9"/>
+      <c r="CR99" s="9"/>
       <c r="CS99" s="9"/>
       <c r="CT99" s="9"/>
       <c r="CU99" s="9"/>
@@ -36848,28 +36909,30 @@
       <c r="CK100" s="14">
         <v>106.4847431334275</v>
       </c>
-      <c r="CL100" s="24">
+      <c r="CL100" s="14">
         <v>110.12693971772578</v>
       </c>
-      <c r="CM100" s="24">
+      <c r="CM100" s="14">
         <v>111.63793284754142</v>
       </c>
-      <c r="CN100" s="24">
+      <c r="CN100" s="14">
         <v>111.88965793290247</v>
       </c>
-      <c r="CO100" s="24">
+      <c r="CO100" s="14">
         <v>114.19665148326661</v>
       </c>
-      <c r="CP100" s="24">
+      <c r="CP100" s="14">
         <v>119.0331687718906</v>
       </c>
-      <c r="CQ100" s="24">
+      <c r="CQ100" s="14">
         <v>118.95424063479692</v>
       </c>
-      <c r="CR100" s="24">
-        <v>117.14713477578722</v>
-      </c>
-      <c r="CS100" s="9"/>
+      <c r="CR100" s="14">
+        <v>117.15342414443401</v>
+      </c>
+      <c r="CS100" s="14">
+        <v>119.60390963112543</v>
+      </c>
       <c r="CT100" s="9"/>
       <c r="CU100" s="9"/>
       <c r="CV100" s="9"/>
@@ -37018,13 +37081,14 @@
       <c r="CI101" s="12"/>
       <c r="CJ101" s="12"/>
       <c r="CK101" s="12"/>
-      <c r="CL101" s="21"/>
-      <c r="CM101" s="21"/>
-      <c r="CN101" s="21"/>
-      <c r="CO101" s="21"/>
-      <c r="CP101" s="21"/>
-      <c r="CQ101" s="21"/>
-      <c r="CR101" s="21"/>
+      <c r="CL101" s="12"/>
+      <c r="CM101" s="12"/>
+      <c r="CN101" s="12"/>
+      <c r="CO101" s="12"/>
+      <c r="CP101" s="12"/>
+      <c r="CQ101" s="12"/>
+      <c r="CR101" s="12"/>
+      <c r="CS101" s="12"/>
     </row>
     <row r="102" spans="1:154" x14ac:dyDescent="0.2">
       <c r="A102" s="13" t="s">
@@ -37043,7 +37107,7 @@
     </row>
     <row r="107" spans="1:154" x14ac:dyDescent="0.2">
       <c r="A107" s="1" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
     </row>
     <row r="109" spans="1:154" x14ac:dyDescent="0.2">
@@ -37053,7 +37117,7 @@
     </row>
     <row r="110" spans="1:154" x14ac:dyDescent="0.2">
       <c r="A110" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="111" spans="1:154" x14ac:dyDescent="0.2">
@@ -37063,149 +37127,150 @@
     </row>
     <row r="113" spans="1:154" x14ac:dyDescent="0.2">
       <c r="A113" s="4"/>
-      <c r="B113" s="25">
+      <c r="B113" s="17">
         <v>2000</v>
       </c>
-      <c r="C113" s="26"/>
-      <c r="D113" s="26"/>
-      <c r="E113" s="26"/>
-      <c r="F113" s="25">
+      <c r="C113" s="18"/>
+      <c r="D113" s="18"/>
+      <c r="E113" s="18"/>
+      <c r="F113" s="17">
         <v>2001</v>
       </c>
-      <c r="G113" s="26"/>
-      <c r="H113" s="26"/>
-      <c r="I113" s="26"/>
-      <c r="J113" s="25">
+      <c r="G113" s="18"/>
+      <c r="H113" s="18"/>
+      <c r="I113" s="18"/>
+      <c r="J113" s="17">
         <v>2002</v>
       </c>
-      <c r="K113" s="26"/>
-      <c r="L113" s="26"/>
-      <c r="M113" s="26"/>
-      <c r="N113" s="25">
+      <c r="K113" s="18"/>
+      <c r="L113" s="18"/>
+      <c r="M113" s="18"/>
+      <c r="N113" s="17">
         <v>2003</v>
       </c>
-      <c r="O113" s="26"/>
-      <c r="P113" s="26"/>
-      <c r="Q113" s="26"/>
-      <c r="R113" s="25">
+      <c r="O113" s="18"/>
+      <c r="P113" s="18"/>
+      <c r="Q113" s="18"/>
+      <c r="R113" s="17">
         <v>2004</v>
       </c>
-      <c r="S113" s="26"/>
-      <c r="T113" s="26"/>
-      <c r="U113" s="26"/>
-      <c r="V113" s="25">
+      <c r="S113" s="18"/>
+      <c r="T113" s="18"/>
+      <c r="U113" s="18"/>
+      <c r="V113" s="17">
         <v>2005</v>
       </c>
-      <c r="W113" s="26"/>
-      <c r="X113" s="26"/>
-      <c r="Y113" s="26"/>
-      <c r="Z113" s="25">
+      <c r="W113" s="18"/>
+      <c r="X113" s="18"/>
+      <c r="Y113" s="18"/>
+      <c r="Z113" s="17">
         <v>2006</v>
       </c>
-      <c r="AA113" s="26"/>
-      <c r="AB113" s="26"/>
-      <c r="AC113" s="26"/>
-      <c r="AD113" s="25">
+      <c r="AA113" s="18"/>
+      <c r="AB113" s="18"/>
+      <c r="AC113" s="18"/>
+      <c r="AD113" s="17">
         <v>2007</v>
       </c>
-      <c r="AE113" s="26"/>
-      <c r="AF113" s="26"/>
-      <c r="AG113" s="26"/>
-      <c r="AH113" s="25">
+      <c r="AE113" s="18"/>
+      <c r="AF113" s="18"/>
+      <c r="AG113" s="18"/>
+      <c r="AH113" s="17">
         <v>2008</v>
       </c>
-      <c r="AI113" s="26"/>
-      <c r="AJ113" s="26"/>
-      <c r="AK113" s="26"/>
-      <c r="AL113" s="25">
+      <c r="AI113" s="18"/>
+      <c r="AJ113" s="18"/>
+      <c r="AK113" s="18"/>
+      <c r="AL113" s="17">
         <v>2009</v>
       </c>
-      <c r="AM113" s="26"/>
-      <c r="AN113" s="26"/>
-      <c r="AO113" s="26"/>
-      <c r="AP113" s="25">
+      <c r="AM113" s="18"/>
+      <c r="AN113" s="18"/>
+      <c r="AO113" s="18"/>
+      <c r="AP113" s="17">
         <v>2010</v>
       </c>
-      <c r="AQ113" s="26"/>
-      <c r="AR113" s="26"/>
-      <c r="AS113" s="26"/>
-      <c r="AT113" s="25">
+      <c r="AQ113" s="18"/>
+      <c r="AR113" s="18"/>
+      <c r="AS113" s="18"/>
+      <c r="AT113" s="17">
         <v>2011</v>
       </c>
-      <c r="AU113" s="26"/>
-      <c r="AV113" s="26"/>
-      <c r="AW113" s="26"/>
-      <c r="AX113" s="25">
+      <c r="AU113" s="18"/>
+      <c r="AV113" s="18"/>
+      <c r="AW113" s="18"/>
+      <c r="AX113" s="17">
         <v>2012</v>
       </c>
-      <c r="AY113" s="26"/>
-      <c r="AZ113" s="26"/>
-      <c r="BA113" s="26"/>
-      <c r="BB113" s="25">
+      <c r="AY113" s="18"/>
+      <c r="AZ113" s="18"/>
+      <c r="BA113" s="18"/>
+      <c r="BB113" s="17">
         <v>2013</v>
       </c>
-      <c r="BC113" s="26"/>
-      <c r="BD113" s="26"/>
-      <c r="BE113" s="26"/>
-      <c r="BF113" s="25">
+      <c r="BC113" s="18"/>
+      <c r="BD113" s="18"/>
+      <c r="BE113" s="18"/>
+      <c r="BF113" s="17">
         <v>2014</v>
       </c>
-      <c r="BG113" s="26"/>
-      <c r="BH113" s="26"/>
-      <c r="BI113" s="26"/>
-      <c r="BJ113" s="25">
+      <c r="BG113" s="18"/>
+      <c r="BH113" s="18"/>
+      <c r="BI113" s="18"/>
+      <c r="BJ113" s="17">
         <v>2015</v>
       </c>
-      <c r="BK113" s="26"/>
-      <c r="BL113" s="26"/>
-      <c r="BM113" s="26"/>
-      <c r="BN113" s="25">
+      <c r="BK113" s="18"/>
+      <c r="BL113" s="18"/>
+      <c r="BM113" s="18"/>
+      <c r="BN113" s="17">
         <v>2016</v>
       </c>
-      <c r="BO113" s="26"/>
-      <c r="BP113" s="26"/>
-      <c r="BQ113" s="26"/>
-      <c r="BR113" s="25">
+      <c r="BO113" s="18"/>
+      <c r="BP113" s="18"/>
+      <c r="BQ113" s="18"/>
+      <c r="BR113" s="17">
         <v>2017</v>
       </c>
-      <c r="BS113" s="26"/>
-      <c r="BT113" s="26"/>
-      <c r="BU113" s="26"/>
-      <c r="BV113" s="25">
+      <c r="BS113" s="18"/>
+      <c r="BT113" s="18"/>
+      <c r="BU113" s="18"/>
+      <c r="BV113" s="17">
         <v>2018</v>
       </c>
-      <c r="BW113" s="26"/>
-      <c r="BX113" s="26"/>
-      <c r="BY113" s="26"/>
-      <c r="BZ113" s="25">
+      <c r="BW113" s="18"/>
+      <c r="BX113" s="18"/>
+      <c r="BY113" s="18"/>
+      <c r="BZ113" s="17">
         <v>2019</v>
       </c>
-      <c r="CA113" s="26"/>
-      <c r="CB113" s="26"/>
-      <c r="CC113" s="26"/>
-      <c r="CD113" s="25">
+      <c r="CA113" s="18"/>
+      <c r="CB113" s="18"/>
+      <c r="CC113" s="18"/>
+      <c r="CD113" s="17">
         <v>2020</v>
       </c>
-      <c r="CE113" s="25"/>
-      <c r="CF113" s="25"/>
-      <c r="CG113" s="25"/>
-      <c r="CH113" s="25">
+      <c r="CE113" s="17"/>
+      <c r="CF113" s="17"/>
+      <c r="CG113" s="17"/>
+      <c r="CH113" s="17">
         <v>2021</v>
       </c>
-      <c r="CI113" s="25"/>
-      <c r="CJ113" s="25"/>
-      <c r="CK113" s="25"/>
-      <c r="CL113" s="27">
+      <c r="CI113" s="17"/>
+      <c r="CJ113" s="17"/>
+      <c r="CK113" s="17"/>
+      <c r="CL113" s="16">
         <v>2022</v>
       </c>
-      <c r="CM113" s="27"/>
-      <c r="CN113" s="27"/>
-      <c r="CO113" s="27"/>
-      <c r="CP113" s="27">
+      <c r="CM113" s="16"/>
+      <c r="CN113" s="16"/>
+      <c r="CO113" s="16"/>
+      <c r="CP113" s="16">
         <v>2023</v>
       </c>
-      <c r="CQ113" s="27"/>
-      <c r="CR113" s="27"/>
+      <c r="CQ113" s="16"/>
+      <c r="CR113" s="16"/>
+      <c r="CS113" s="16"/>
     </row>
     <row r="114" spans="1:154" x14ac:dyDescent="0.2">
       <c r="A114" s="5" t="s">
@@ -37475,26 +37540,29 @@
       <c r="CK114" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="CL114" s="17" t="s">
+      <c r="CL114" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="CM114" s="17" t="s">
+      <c r="CM114" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="CN114" s="17" t="s">
+      <c r="CN114" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="CO114" s="17" t="s">
+      <c r="CO114" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="CP114" s="17" t="s">
+      <c r="CP114" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="CQ114" s="17" t="s">
+      <c r="CQ114" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="CR114" s="17" t="s">
+      <c r="CR114" s="6" t="s">
         <v>10</v>
+      </c>
+      <c r="CS114" s="6" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="115" spans="1:154" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
@@ -37768,28 +37836,30 @@
       <c r="CK116" s="14">
         <v>48.011306366350439</v>
       </c>
-      <c r="CL116" s="24">
+      <c r="CL116" s="14">
         <v>57.736562144404587</v>
       </c>
-      <c r="CM116" s="24">
+      <c r="CM116" s="14">
         <v>46.769467390970831</v>
       </c>
-      <c r="CN116" s="24">
+      <c r="CN116" s="14">
         <v>55.508581421097844</v>
       </c>
-      <c r="CO116" s="24">
+      <c r="CO116" s="14">
         <v>48.326805911944618</v>
       </c>
-      <c r="CP116" s="24">
+      <c r="CP116" s="14">
         <v>59.490271137667548</v>
       </c>
-      <c r="CQ116" s="24">
+      <c r="CQ116" s="14">
         <v>48.356968257507958</v>
       </c>
-      <c r="CR116" s="24">
-        <v>56.492735100554761</v>
-      </c>
-      <c r="CS116" s="9"/>
+      <c r="CR116" s="14">
+        <v>56.625546288907458</v>
+      </c>
+      <c r="CS116" s="14">
+        <v>49.019050886859155</v>
+      </c>
       <c r="CT116" s="9"/>
       <c r="CU116" s="9"/>
       <c r="CV116" s="9"/>
@@ -38116,28 +38186,30 @@
       <c r="CK117" s="14">
         <v>32.039896284541605</v>
       </c>
-      <c r="CL117" s="24">
+      <c r="CL117" s="14">
         <v>24.692651921457131</v>
       </c>
-      <c r="CM117" s="24">
+      <c r="CM117" s="14">
         <v>36.618285889297042</v>
       </c>
-      <c r="CN117" s="24">
+      <c r="CN117" s="14">
         <v>26.747055172225949</v>
       </c>
-      <c r="CO117" s="24">
+      <c r="CO117" s="14">
         <v>32.245623266952393</v>
       </c>
-      <c r="CP117" s="24">
+      <c r="CP117" s="14">
         <v>24.642936656056627</v>
       </c>
-      <c r="CQ117" s="24">
+      <c r="CQ117" s="14">
         <v>35.486125074804896</v>
       </c>
-      <c r="CR117" s="24">
-        <v>26.757520315724936</v>
-      </c>
-      <c r="CS117" s="9"/>
+      <c r="CR117" s="14">
+        <v>26.485354159163244</v>
+      </c>
+      <c r="CS117" s="14">
+        <v>32.095004585839092</v>
+      </c>
       <c r="CT117" s="9"/>
       <c r="CU117" s="9"/>
       <c r="CV117" s="9"/>
@@ -38464,28 +38536,30 @@
       <c r="CK118" s="14">
         <v>14.493772309064793</v>
       </c>
-      <c r="CL118" s="24">
+      <c r="CL118" s="14">
         <v>12.751940262581062</v>
       </c>
-      <c r="CM118" s="24">
+      <c r="CM118" s="14">
         <v>11.271143320757758</v>
       </c>
-      <c r="CN118" s="24">
+      <c r="CN118" s="14">
         <v>12.988171527368788</v>
       </c>
-      <c r="CO118" s="24">
+      <c r="CO118" s="14">
         <v>14.126646013963967</v>
       </c>
-      <c r="CP118" s="24">
+      <c r="CP118" s="14">
         <v>11.376015794451307</v>
       </c>
-      <c r="CQ118" s="24">
+      <c r="CQ118" s="14">
         <v>10.745087380764799</v>
       </c>
-      <c r="CR118" s="24">
-        <v>12.250933054639535</v>
-      </c>
-      <c r="CS118" s="9"/>
+      <c r="CR118" s="14">
+        <v>12.185878865146019</v>
+      </c>
+      <c r="CS118" s="14">
+        <v>13.520848725172291</v>
+      </c>
       <c r="CT118" s="9"/>
       <c r="CU118" s="9"/>
       <c r="CV118" s="9"/>
@@ -38812,28 +38886,30 @@
       <c r="CK119" s="14">
         <v>5.4550250400431652</v>
       </c>
-      <c r="CL119" s="24">
+      <c r="CL119" s="14">
         <v>4.818845671557213</v>
       </c>
-      <c r="CM119" s="24">
+      <c r="CM119" s="14">
         <v>5.3411033989743775</v>
       </c>
-      <c r="CN119" s="24">
+      <c r="CN119" s="14">
         <v>4.756191879307428</v>
       </c>
-      <c r="CO119" s="24">
+      <c r="CO119" s="14">
         <v>5.3009248071390074</v>
       </c>
-      <c r="CP119" s="24">
+      <c r="CP119" s="14">
         <v>4.4907764118245117</v>
       </c>
-      <c r="CQ119" s="24">
+      <c r="CQ119" s="14">
         <v>5.4118192869223591</v>
       </c>
-      <c r="CR119" s="24">
-        <v>4.4988115290807809</v>
-      </c>
-      <c r="CS119" s="9"/>
+      <c r="CR119" s="14">
+        <v>4.7032206867832791</v>
+      </c>
+      <c r="CS119" s="14">
+        <v>5.3650958021294697</v>
+      </c>
       <c r="CT119" s="9"/>
       <c r="CU119" s="9"/>
       <c r="CV119" s="9"/>
@@ -38981,14 +39057,14 @@
       <c r="CI120" s="14"/>
       <c r="CJ120" s="14"/>
       <c r="CK120" s="14"/>
-      <c r="CL120" s="24"/>
-      <c r="CM120" s="24"/>
-      <c r="CN120" s="24"/>
-      <c r="CO120" s="24"/>
-      <c r="CP120" s="24"/>
-      <c r="CQ120" s="24"/>
-      <c r="CR120" s="24"/>
-      <c r="CS120" s="9"/>
+      <c r="CL120" s="14"/>
+      <c r="CM120" s="14"/>
+      <c r="CN120" s="14"/>
+      <c r="CO120" s="14"/>
+      <c r="CP120" s="14"/>
+      <c r="CQ120" s="14"/>
+      <c r="CR120" s="14"/>
+      <c r="CS120" s="14"/>
       <c r="CT120" s="9"/>
       <c r="CU120" s="9"/>
       <c r="CV120" s="9"/>
@@ -39315,28 +39391,30 @@
       <c r="CK121" s="14">
         <v>100</v>
       </c>
-      <c r="CL121" s="24">
+      <c r="CL121" s="14">
         <v>100</v>
       </c>
-      <c r="CM121" s="24">
+      <c r="CM121" s="14">
         <v>100</v>
       </c>
-      <c r="CN121" s="24">
+      <c r="CN121" s="14">
         <v>100</v>
       </c>
-      <c r="CO121" s="24">
+      <c r="CO121" s="14">
         <v>100</v>
       </c>
-      <c r="CP121" s="24">
+      <c r="CP121" s="14">
         <v>100</v>
       </c>
-      <c r="CQ121" s="24">
+      <c r="CQ121" s="14">
         <v>100</v>
       </c>
-      <c r="CR121" s="24">
+      <c r="CR121" s="14">
         <v>100</v>
       </c>
-      <c r="CS121" s="9"/>
+      <c r="CS121" s="14">
+        <v>100</v>
+      </c>
       <c r="CT121" s="9"/>
       <c r="CU121" s="9"/>
       <c r="CV121" s="9"/>
@@ -39485,13 +39563,14 @@
       <c r="CI122" s="12"/>
       <c r="CJ122" s="12"/>
       <c r="CK122" s="12"/>
-      <c r="CL122" s="21"/>
-      <c r="CM122" s="21"/>
-      <c r="CN122" s="21"/>
-      <c r="CO122" s="21"/>
-      <c r="CP122" s="21"/>
-      <c r="CQ122" s="21"/>
-      <c r="CR122" s="21"/>
+      <c r="CL122" s="12"/>
+      <c r="CM122" s="12"/>
+      <c r="CN122" s="12"/>
+      <c r="CO122" s="12"/>
+      <c r="CP122" s="12"/>
+      <c r="CQ122" s="12"/>
+      <c r="CR122" s="12"/>
+      <c r="CS122" s="12"/>
     </row>
     <row r="123" spans="1:154" x14ac:dyDescent="0.2">
       <c r="A123" s="13" t="s">
@@ -39587,13 +39666,13 @@
       <c r="CI124" s="9"/>
       <c r="CJ124" s="9"/>
       <c r="CK124" s="9"/>
-      <c r="CL124" s="19"/>
-      <c r="CM124" s="19"/>
-      <c r="CN124" s="19"/>
-      <c r="CO124" s="19"/>
-      <c r="CP124" s="19"/>
-      <c r="CQ124" s="19"/>
-      <c r="CR124" s="19"/>
+      <c r="CL124" s="9"/>
+      <c r="CM124" s="9"/>
+      <c r="CN124" s="9"/>
+      <c r="CO124" s="9"/>
+      <c r="CP124" s="9"/>
+      <c r="CQ124" s="9"/>
+      <c r="CR124" s="9"/>
       <c r="CS124" s="9"/>
       <c r="CT124" s="9"/>
       <c r="CU124" s="9"/>
@@ -39742,13 +39821,13 @@
       <c r="CI125" s="9"/>
       <c r="CJ125" s="9"/>
       <c r="CK125" s="9"/>
-      <c r="CL125" s="19"/>
-      <c r="CM125" s="19"/>
-      <c r="CN125" s="19"/>
-      <c r="CO125" s="19"/>
-      <c r="CP125" s="19"/>
-      <c r="CQ125" s="19"/>
-      <c r="CR125" s="19"/>
+      <c r="CL125" s="9"/>
+      <c r="CM125" s="9"/>
+      <c r="CN125" s="9"/>
+      <c r="CO125" s="9"/>
+      <c r="CP125" s="9"/>
+      <c r="CQ125" s="9"/>
+      <c r="CR125" s="9"/>
       <c r="CS125" s="9"/>
       <c r="CT125" s="9"/>
       <c r="CU125" s="9"/>
@@ -39820,7 +39899,7 @@
     </row>
     <row r="128" spans="1:154" x14ac:dyDescent="0.2">
       <c r="A128" s="1" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
     </row>
     <row r="130" spans="1:154" x14ac:dyDescent="0.2">
@@ -39830,7 +39909,7 @@
     </row>
     <row r="131" spans="1:154" x14ac:dyDescent="0.2">
       <c r="A131" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="132" spans="1:154" x14ac:dyDescent="0.2">
@@ -39840,149 +39919,150 @@
     </row>
     <row r="134" spans="1:154" x14ac:dyDescent="0.2">
       <c r="A134" s="4"/>
-      <c r="B134" s="25">
+      <c r="B134" s="17">
         <v>2000</v>
       </c>
-      <c r="C134" s="26"/>
-      <c r="D134" s="26"/>
-      <c r="E134" s="26"/>
-      <c r="F134" s="25">
+      <c r="C134" s="18"/>
+      <c r="D134" s="18"/>
+      <c r="E134" s="18"/>
+      <c r="F134" s="17">
         <v>2001</v>
       </c>
-      <c r="G134" s="26"/>
-      <c r="H134" s="26"/>
-      <c r="I134" s="26"/>
-      <c r="J134" s="25">
+      <c r="G134" s="18"/>
+      <c r="H134" s="18"/>
+      <c r="I134" s="18"/>
+      <c r="J134" s="17">
         <v>2002</v>
       </c>
-      <c r="K134" s="26"/>
-      <c r="L134" s="26"/>
-      <c r="M134" s="26"/>
-      <c r="N134" s="25">
+      <c r="K134" s="18"/>
+      <c r="L134" s="18"/>
+      <c r="M134" s="18"/>
+      <c r="N134" s="17">
         <v>2003</v>
       </c>
-      <c r="O134" s="26"/>
-      <c r="P134" s="26"/>
-      <c r="Q134" s="26"/>
-      <c r="R134" s="25">
+      <c r="O134" s="18"/>
+      <c r="P134" s="18"/>
+      <c r="Q134" s="18"/>
+      <c r="R134" s="17">
         <v>2004</v>
       </c>
-      <c r="S134" s="26"/>
-      <c r="T134" s="26"/>
-      <c r="U134" s="26"/>
-      <c r="V134" s="25">
+      <c r="S134" s="18"/>
+      <c r="T134" s="18"/>
+      <c r="U134" s="18"/>
+      <c r="V134" s="17">
         <v>2005</v>
       </c>
-      <c r="W134" s="26"/>
-      <c r="X134" s="26"/>
-      <c r="Y134" s="26"/>
-      <c r="Z134" s="25">
+      <c r="W134" s="18"/>
+      <c r="X134" s="18"/>
+      <c r="Y134" s="18"/>
+      <c r="Z134" s="17">
         <v>2006</v>
       </c>
-      <c r="AA134" s="26"/>
-      <c r="AB134" s="26"/>
-      <c r="AC134" s="26"/>
-      <c r="AD134" s="25">
+      <c r="AA134" s="18"/>
+      <c r="AB134" s="18"/>
+      <c r="AC134" s="18"/>
+      <c r="AD134" s="17">
         <v>2007</v>
       </c>
-      <c r="AE134" s="26"/>
-      <c r="AF134" s="26"/>
-      <c r="AG134" s="26"/>
-      <c r="AH134" s="25">
+      <c r="AE134" s="18"/>
+      <c r="AF134" s="18"/>
+      <c r="AG134" s="18"/>
+      <c r="AH134" s="17">
         <v>2008</v>
       </c>
-      <c r="AI134" s="26"/>
-      <c r="AJ134" s="26"/>
-      <c r="AK134" s="26"/>
-      <c r="AL134" s="25">
+      <c r="AI134" s="18"/>
+      <c r="AJ134" s="18"/>
+      <c r="AK134" s="18"/>
+      <c r="AL134" s="17">
         <v>2009</v>
       </c>
-      <c r="AM134" s="26"/>
-      <c r="AN134" s="26"/>
-      <c r="AO134" s="26"/>
-      <c r="AP134" s="25">
+      <c r="AM134" s="18"/>
+      <c r="AN134" s="18"/>
+      <c r="AO134" s="18"/>
+      <c r="AP134" s="17">
         <v>2010</v>
       </c>
-      <c r="AQ134" s="26"/>
-      <c r="AR134" s="26"/>
-      <c r="AS134" s="26"/>
-      <c r="AT134" s="25">
+      <c r="AQ134" s="18"/>
+      <c r="AR134" s="18"/>
+      <c r="AS134" s="18"/>
+      <c r="AT134" s="17">
         <v>2011</v>
       </c>
-      <c r="AU134" s="26"/>
-      <c r="AV134" s="26"/>
-      <c r="AW134" s="26"/>
-      <c r="AX134" s="25">
+      <c r="AU134" s="18"/>
+      <c r="AV134" s="18"/>
+      <c r="AW134" s="18"/>
+      <c r="AX134" s="17">
         <v>2012</v>
       </c>
-      <c r="AY134" s="26"/>
-      <c r="AZ134" s="26"/>
-      <c r="BA134" s="26"/>
-      <c r="BB134" s="25">
+      <c r="AY134" s="18"/>
+      <c r="AZ134" s="18"/>
+      <c r="BA134" s="18"/>
+      <c r="BB134" s="17">
         <v>2013</v>
       </c>
-      <c r="BC134" s="26"/>
-      <c r="BD134" s="26"/>
-      <c r="BE134" s="26"/>
-      <c r="BF134" s="25">
+      <c r="BC134" s="18"/>
+      <c r="BD134" s="18"/>
+      <c r="BE134" s="18"/>
+      <c r="BF134" s="17">
         <v>2014</v>
       </c>
-      <c r="BG134" s="26"/>
-      <c r="BH134" s="26"/>
-      <c r="BI134" s="26"/>
-      <c r="BJ134" s="25">
+      <c r="BG134" s="18"/>
+      <c r="BH134" s="18"/>
+      <c r="BI134" s="18"/>
+      <c r="BJ134" s="17">
         <v>2015</v>
       </c>
-      <c r="BK134" s="26"/>
-      <c r="BL134" s="26"/>
-      <c r="BM134" s="26"/>
-      <c r="BN134" s="25">
+      <c r="BK134" s="18"/>
+      <c r="BL134" s="18"/>
+      <c r="BM134" s="18"/>
+      <c r="BN134" s="17">
         <v>2016</v>
       </c>
-      <c r="BO134" s="26"/>
-      <c r="BP134" s="26"/>
-      <c r="BQ134" s="26"/>
-      <c r="BR134" s="25">
+      <c r="BO134" s="18"/>
+      <c r="BP134" s="18"/>
+      <c r="BQ134" s="18"/>
+      <c r="BR134" s="17">
         <v>2017</v>
       </c>
-      <c r="BS134" s="26"/>
-      <c r="BT134" s="26"/>
-      <c r="BU134" s="26"/>
-      <c r="BV134" s="25">
+      <c r="BS134" s="18"/>
+      <c r="BT134" s="18"/>
+      <c r="BU134" s="18"/>
+      <c r="BV134" s="17">
         <v>2018</v>
       </c>
-      <c r="BW134" s="26"/>
-      <c r="BX134" s="26"/>
-      <c r="BY134" s="26"/>
-      <c r="BZ134" s="25">
+      <c r="BW134" s="18"/>
+      <c r="BX134" s="18"/>
+      <c r="BY134" s="18"/>
+      <c r="BZ134" s="17">
         <v>2019</v>
       </c>
-      <c r="CA134" s="26"/>
-      <c r="CB134" s="26"/>
-      <c r="CC134" s="26"/>
-      <c r="CD134" s="25">
+      <c r="CA134" s="18"/>
+      <c r="CB134" s="18"/>
+      <c r="CC134" s="18"/>
+      <c r="CD134" s="17">
         <v>2020</v>
       </c>
-      <c r="CE134" s="25"/>
-      <c r="CF134" s="25"/>
-      <c r="CG134" s="25"/>
-      <c r="CH134" s="25">
+      <c r="CE134" s="17"/>
+      <c r="CF134" s="17"/>
+      <c r="CG134" s="17"/>
+      <c r="CH134" s="17">
         <v>2021</v>
       </c>
-      <c r="CI134" s="25"/>
-      <c r="CJ134" s="25"/>
-      <c r="CK134" s="25"/>
-      <c r="CL134" s="27">
+      <c r="CI134" s="17"/>
+      <c r="CJ134" s="17"/>
+      <c r="CK134" s="17"/>
+      <c r="CL134" s="16">
         <v>2022</v>
       </c>
-      <c r="CM134" s="27"/>
-      <c r="CN134" s="27"/>
-      <c r="CO134" s="27"/>
-      <c r="CP134" s="27">
+      <c r="CM134" s="16"/>
+      <c r="CN134" s="16"/>
+      <c r="CO134" s="16"/>
+      <c r="CP134" s="16">
         <v>2023</v>
       </c>
-      <c r="CQ134" s="27"/>
-      <c r="CR134" s="27"/>
+      <c r="CQ134" s="16"/>
+      <c r="CR134" s="16"/>
+      <c r="CS134" s="16"/>
     </row>
     <row r="135" spans="1:154" x14ac:dyDescent="0.2">
       <c r="A135" s="5" t="s">
@@ -40252,26 +40332,29 @@
       <c r="CK135" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="CL135" s="17" t="s">
+      <c r="CL135" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="CM135" s="17" t="s">
+      <c r="CM135" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="CN135" s="17" t="s">
+      <c r="CN135" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="CO135" s="17" t="s">
+      <c r="CO135" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="CP135" s="17" t="s">
+      <c r="CP135" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="CQ135" s="17" t="s">
+      <c r="CQ135" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="CR135" s="17" t="s">
+      <c r="CR135" s="6" t="s">
         <v>10</v>
+      </c>
+      <c r="CS135" s="6" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="136" spans="1:154" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
@@ -40545,28 +40628,30 @@
       <c r="CK137" s="14">
         <v>47.847544245251115</v>
       </c>
-      <c r="CL137" s="24">
+      <c r="CL137" s="14">
         <v>58.174761220043322</v>
       </c>
-      <c r="CM137" s="24">
+      <c r="CM137" s="14">
         <v>46.335818533307815</v>
       </c>
-      <c r="CN137" s="24">
+      <c r="CN137" s="14">
         <v>55.196868761905471</v>
       </c>
-      <c r="CO137" s="24">
+      <c r="CO137" s="14">
         <v>48.062870417764039</v>
       </c>
-      <c r="CP137" s="24">
+      <c r="CP137" s="14">
         <v>59.474070738099208</v>
       </c>
-      <c r="CQ137" s="24">
+      <c r="CQ137" s="14">
         <v>47.961131211785151</v>
       </c>
-      <c r="CR137" s="24">
-        <v>56.105192082540967</v>
-      </c>
-      <c r="CS137" s="9"/>
+      <c r="CR137" s="14">
+        <v>56.240111423604546</v>
+      </c>
+      <c r="CS137" s="14">
+        <v>48.7614867123404</v>
+      </c>
       <c r="CT137" s="9"/>
       <c r="CU137" s="9"/>
       <c r="CV137" s="9"/>
@@ -40893,28 +40978,30 @@
       <c r="CK138" s="14">
         <v>31.980121369693197</v>
       </c>
-      <c r="CL138" s="24">
+      <c r="CL138" s="14">
         <v>24.591044123525645</v>
       </c>
-      <c r="CM138" s="24">
+      <c r="CM138" s="14">
         <v>36.779864309859292</v>
       </c>
-      <c r="CN138" s="24">
+      <c r="CN138" s="14">
         <v>26.854229747119174</v>
       </c>
-      <c r="CO138" s="24">
+      <c r="CO138" s="14">
         <v>32.286176254931185</v>
       </c>
-      <c r="CP138" s="24">
+      <c r="CP138" s="14">
         <v>24.835002290887999</v>
       </c>
-      <c r="CQ138" s="24">
+      <c r="CQ138" s="14">
         <v>35.667361646526821</v>
       </c>
-      <c r="CR138" s="24">
-        <v>26.946789060722313</v>
-      </c>
-      <c r="CS138" s="9"/>
+      <c r="CR138" s="14">
+        <v>26.674129740411896</v>
+      </c>
+      <c r="CS138" s="14">
+        <v>32.189841792052661</v>
+      </c>
       <c r="CT138" s="9"/>
       <c r="CU138" s="9"/>
       <c r="CV138" s="9"/>
@@ -41241,28 +41328,30 @@
       <c r="CK139" s="14">
         <v>14.750682534200942</v>
       </c>
-      <c r="CL139" s="24">
+      <c r="CL139" s="14">
         <v>12.49107987753553</v>
       </c>
-      <c r="CM139" s="24">
+      <c r="CM139" s="14">
         <v>11.619236394524371</v>
       </c>
-      <c r="CN139" s="24">
+      <c r="CN139" s="14">
         <v>13.243334269575961</v>
       </c>
-      <c r="CO139" s="24">
+      <c r="CO139" s="14">
         <v>14.35850949680133</v>
       </c>
-      <c r="CP139" s="24">
+      <c r="CP139" s="14">
         <v>11.206259336863944</v>
       </c>
-      <c r="CQ139" s="24">
+      <c r="CQ139" s="14">
         <v>11.0737731748653</v>
       </c>
-      <c r="CR139" s="24">
-        <v>12.478359575009568</v>
-      </c>
-      <c r="CS139" s="9"/>
+      <c r="CR139" s="14">
+        <v>12.412764096355525</v>
+      </c>
+      <c r="CS139" s="14">
+        <v>13.730001381440408</v>
+      </c>
       <c r="CT139" s="9"/>
       <c r="CU139" s="9"/>
       <c r="CV139" s="9"/>
@@ -41589,28 +41678,30 @@
       <c r="CK140" s="14">
         <v>5.4216518508547624</v>
       </c>
-      <c r="CL140" s="24">
+      <c r="CL140" s="14">
         <v>4.7431147788955004</v>
       </c>
-      <c r="CM140" s="24">
+      <c r="CM140" s="14">
         <v>5.2650807623085303</v>
       </c>
-      <c r="CN140" s="24">
+      <c r="CN140" s="14">
         <v>4.7055672213993818</v>
       </c>
-      <c r="CO140" s="24">
+      <c r="CO140" s="14">
         <v>5.2924438305034451</v>
       </c>
-      <c r="CP140" s="24">
+      <c r="CP140" s="14">
         <v>4.4846676341488578</v>
       </c>
-      <c r="CQ140" s="24">
+      <c r="CQ140" s="14">
         <v>5.2977339668227135</v>
       </c>
-      <c r="CR140" s="24">
-        <v>4.4696592817271643</v>
-      </c>
-      <c r="CS140" s="9"/>
+      <c r="CR140" s="14">
+        <v>4.6729947396280309</v>
+      </c>
+      <c r="CS140" s="14">
+        <v>5.318670114166542</v>
+      </c>
       <c r="CT140" s="9"/>
       <c r="CU140" s="9"/>
       <c r="CV140" s="9"/>
@@ -41758,13 +41849,13 @@
       <c r="CI141" s="9"/>
       <c r="CJ141" s="9"/>
       <c r="CK141" s="9"/>
-      <c r="CL141" s="19"/>
-      <c r="CM141" s="19"/>
-      <c r="CN141" s="19"/>
-      <c r="CO141" s="19"/>
-      <c r="CP141" s="19"/>
-      <c r="CQ141" s="19"/>
-      <c r="CR141" s="19"/>
+      <c r="CL141" s="9"/>
+      <c r="CM141" s="9"/>
+      <c r="CN141" s="9"/>
+      <c r="CO141" s="9"/>
+      <c r="CP141" s="9"/>
+      <c r="CQ141" s="9"/>
+      <c r="CR141" s="9"/>
       <c r="CS141" s="9"/>
       <c r="CT141" s="9"/>
       <c r="CU141" s="9"/>
@@ -42092,28 +42183,30 @@
       <c r="CK142" s="14">
         <v>100</v>
       </c>
-      <c r="CL142" s="24">
+      <c r="CL142" s="14">
         <v>100</v>
       </c>
-      <c r="CM142" s="24">
+      <c r="CM142" s="14">
         <v>100</v>
       </c>
-      <c r="CN142" s="24">
+      <c r="CN142" s="14">
         <v>100</v>
       </c>
-      <c r="CO142" s="24">
+      <c r="CO142" s="14">
         <v>100</v>
       </c>
-      <c r="CP142" s="24">
+      <c r="CP142" s="14">
         <v>100</v>
       </c>
-      <c r="CQ142" s="24">
+      <c r="CQ142" s="14">
         <v>100</v>
       </c>
-      <c r="CR142" s="24">
+      <c r="CR142" s="14">
         <v>100</v>
       </c>
-      <c r="CS142" s="9"/>
+      <c r="CS142" s="14">
+        <v>100</v>
+      </c>
       <c r="CT142" s="9"/>
       <c r="CU142" s="9"/>
       <c r="CV142" s="9"/>
@@ -42262,13 +42355,14 @@
       <c r="CI143" s="12"/>
       <c r="CJ143" s="12"/>
       <c r="CK143" s="12"/>
-      <c r="CL143" s="21"/>
-      <c r="CM143" s="21"/>
-      <c r="CN143" s="21"/>
-      <c r="CO143" s="21"/>
-      <c r="CP143" s="21"/>
-      <c r="CQ143" s="21"/>
-      <c r="CR143" s="21"/>
+      <c r="CL143" s="12"/>
+      <c r="CM143" s="12"/>
+      <c r="CN143" s="12"/>
+      <c r="CO143" s="12"/>
+      <c r="CP143" s="12"/>
+      <c r="CQ143" s="12"/>
+      <c r="CR143" s="12"/>
+      <c r="CS143" s="12"/>
     </row>
     <row r="144" spans="1:154" x14ac:dyDescent="0.2">
       <c r="A144" s="13" t="s">
@@ -42276,41 +42370,21 @@
       </c>
     </row>
   </sheetData>
-  <mergeCells count="166">
-    <mergeCell ref="CP9:CR9"/>
-    <mergeCell ref="CP30:CR30"/>
-    <mergeCell ref="CP92:CR92"/>
-    <mergeCell ref="CP113:CR113"/>
-    <mergeCell ref="CP134:CR134"/>
+  <mergeCells count="154">
     <mergeCell ref="CH134:CK134"/>
     <mergeCell ref="CD134:CG134"/>
     <mergeCell ref="BZ9:CC9"/>
     <mergeCell ref="CH9:CK9"/>
     <mergeCell ref="CH30:CK30"/>
     <mergeCell ref="BZ30:CC30"/>
-    <mergeCell ref="CL9:CO9"/>
-    <mergeCell ref="CL30:CO30"/>
     <mergeCell ref="CH51:CK51"/>
     <mergeCell ref="CH72:CK72"/>
-    <mergeCell ref="CL92:CO92"/>
     <mergeCell ref="BZ92:CC92"/>
     <mergeCell ref="CD9:CG9"/>
     <mergeCell ref="CD30:CG30"/>
     <mergeCell ref="BZ51:CC51"/>
     <mergeCell ref="BZ72:CC72"/>
-    <mergeCell ref="CL113:CO113"/>
-    <mergeCell ref="CL134:CO134"/>
     <mergeCell ref="CD113:CG113"/>
-    <mergeCell ref="CD92:CG92"/>
-    <mergeCell ref="CL51:CN51"/>
-    <mergeCell ref="CL72:CN72"/>
-    <mergeCell ref="BR9:BU9"/>
-    <mergeCell ref="BV9:BY9"/>
-    <mergeCell ref="BR30:BU30"/>
-    <mergeCell ref="BV30:BY30"/>
-    <mergeCell ref="CD51:CG51"/>
-    <mergeCell ref="CD72:CG72"/>
-    <mergeCell ref="CH92:CK92"/>
     <mergeCell ref="CH113:CK113"/>
     <mergeCell ref="BJ9:BM9"/>
     <mergeCell ref="BN9:BQ9"/>
@@ -42322,6 +42396,14 @@
     <mergeCell ref="BV51:BY51"/>
     <mergeCell ref="BR72:BU72"/>
     <mergeCell ref="BV72:BY72"/>
+    <mergeCell ref="CD92:CG92"/>
+    <mergeCell ref="BR9:BU9"/>
+    <mergeCell ref="BV9:BY9"/>
+    <mergeCell ref="BR30:BU30"/>
+    <mergeCell ref="BV30:BY30"/>
+    <mergeCell ref="CD51:CG51"/>
+    <mergeCell ref="CD72:CG72"/>
+    <mergeCell ref="CH92:CK92"/>
     <mergeCell ref="AL30:AO30"/>
     <mergeCell ref="BF9:BI9"/>
     <mergeCell ref="B9:E9"/>
@@ -42449,9 +42531,9 @@
   <pageSetup paperSize="9" scale="31" orientation="landscape" r:id="rId1"/>
   <headerFooter alignWithMargins="0"/>
   <rowBreaks count="3" manualBreakCount="3">
-    <brk id="42" max="95" man="1"/>
-    <brk id="84" max="95" man="1"/>
-    <brk id="104" max="95" man="1"/>
+    <brk id="42" max="96" man="1"/>
+    <brk id="84" max="96" man="1"/>
+    <brk id="104" max="96" man="1"/>
   </rowBreaks>
 </worksheet>
 </file>
--- a/Data/National Accounts/PSA-17FIA_2018PSNA_Qrt.xlsx
+++ b/Data/National Accounts/PSA-17FIA_2018PSNA_Qrt.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="K:\Other computers\My Laptop (1)\6. MAS_Series\2018-base\NAP\NAP detailed series as of January 2024\Qtr\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="K:\Other computers\My Laptop (1)\6. MAS_Series\2018-base\NAP\NAP detailed series as of May 2024\Qtr\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C3D5ED0A-8BCA-4909-B83E-3ECD9AFA7DF2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5F13DE96-CB45-4B68-9691-988A5E0BDA87}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="975" windowWidth="28800" windowHeight="15225" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -468,7 +468,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="800" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="809" uniqueCount="55">
   <si>
     <t>Source: Philippine Statistics Authority</t>
   </si>
@@ -624,13 +624,16 @@
     <t>2022 - 2023</t>
   </si>
   <si>
-    <t>Q1 2000 to Q4 2023</t>
+    <t>2023 - 2024</t>
   </si>
   <si>
-    <t>Q1 2001 to Q4 2023</t>
+    <t>Q1 2000 to Q1 2024</t>
   </si>
   <si>
-    <t>As of January 2024</t>
+    <t>Q1 2001 to Q1 2024</t>
+  </si>
+  <si>
+    <t>As of May 2024</t>
   </si>
 </sst>
 </file>
@@ -717,7 +720,7 @@
     <xf numFmtId="164" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -742,11 +745,26 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="165" fontId="5" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="centerContinuous"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="3" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="centerContinuous"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="3" applyFont="1"/>
+    <xf numFmtId="166" fontId="5" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="3" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="5" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -23603,15 +23621,16 @@
   <dimension ref="A1:EX144"/>
   <sheetViews>
     <sheetView tabSelected="1" defaultGridColor="0" view="pageBreakPreview" colorId="22" zoomScale="70" zoomScaleNormal="100" zoomScaleSheetLayoutView="70" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="BR1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight"/>
+      <pane xSplit="1" topLeftCell="BX1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="CV7" sqref="CV7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="7.77734375" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="38.33203125" style="1" customWidth="1"/>
-    <col min="2" max="97" width="8.88671875" style="1" customWidth="1"/>
-    <col min="98" max="16384" width="7.77734375" style="1"/>
+    <col min="2" max="93" width="8.88671875" style="1" customWidth="1"/>
+    <col min="94" max="98" width="9.6640625" style="17" customWidth="1"/>
+    <col min="99" max="16384" width="7.77734375" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:154" x14ac:dyDescent="0.2">
@@ -23626,7 +23645,7 @@
     </row>
     <row r="3" spans="1:154" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="5" spans="1:154" x14ac:dyDescent="0.2">
@@ -23636,7 +23655,7 @@
     </row>
     <row r="6" spans="1:154" x14ac:dyDescent="0.2">
       <c r="A6" s="3" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
     </row>
     <row r="7" spans="1:154" x14ac:dyDescent="0.2">
@@ -23646,150 +23665,153 @@
     </row>
     <row r="9" spans="1:154" x14ac:dyDescent="0.2">
       <c r="A9" s="4"/>
-      <c r="B9" s="17">
+      <c r="B9" s="26">
         <v>2000</v>
       </c>
-      <c r="C9" s="17"/>
-      <c r="D9" s="17"/>
-      <c r="E9" s="17"/>
-      <c r="F9" s="17">
+      <c r="C9" s="26"/>
+      <c r="D9" s="26"/>
+      <c r="E9" s="26"/>
+      <c r="F9" s="26">
         <v>2001</v>
       </c>
-      <c r="G9" s="17"/>
-      <c r="H9" s="17"/>
-      <c r="I9" s="17"/>
-      <c r="J9" s="17">
+      <c r="G9" s="26"/>
+      <c r="H9" s="26"/>
+      <c r="I9" s="26"/>
+      <c r="J9" s="26">
         <v>2002</v>
       </c>
-      <c r="K9" s="17"/>
-      <c r="L9" s="17"/>
-      <c r="M9" s="17"/>
-      <c r="N9" s="17">
+      <c r="K9" s="26"/>
+      <c r="L9" s="26"/>
+      <c r="M9" s="26"/>
+      <c r="N9" s="26">
         <v>2003</v>
       </c>
-      <c r="O9" s="17"/>
-      <c r="P9" s="17"/>
-      <c r="Q9" s="17"/>
-      <c r="R9" s="17">
+      <c r="O9" s="26"/>
+      <c r="P9" s="26"/>
+      <c r="Q9" s="26"/>
+      <c r="R9" s="26">
         <v>2004</v>
       </c>
-      <c r="S9" s="17"/>
-      <c r="T9" s="17"/>
-      <c r="U9" s="17"/>
-      <c r="V9" s="17">
+      <c r="S9" s="26"/>
+      <c r="T9" s="26"/>
+      <c r="U9" s="26"/>
+      <c r="V9" s="26">
         <v>2005</v>
       </c>
-      <c r="W9" s="17"/>
-      <c r="X9" s="17"/>
-      <c r="Y9" s="17"/>
-      <c r="Z9" s="17">
+      <c r="W9" s="26"/>
+      <c r="X9" s="26"/>
+      <c r="Y9" s="26"/>
+      <c r="Z9" s="26">
         <v>2006</v>
       </c>
-      <c r="AA9" s="17"/>
-      <c r="AB9" s="17"/>
-      <c r="AC9" s="17"/>
-      <c r="AD9" s="17">
+      <c r="AA9" s="26"/>
+      <c r="AB9" s="26"/>
+      <c r="AC9" s="26"/>
+      <c r="AD9" s="26">
         <v>2007</v>
       </c>
-      <c r="AE9" s="17"/>
-      <c r="AF9" s="17"/>
-      <c r="AG9" s="17"/>
-      <c r="AH9" s="17">
+      <c r="AE9" s="26"/>
+      <c r="AF9" s="26"/>
+      <c r="AG9" s="26"/>
+      <c r="AH9" s="26">
         <v>2008</v>
       </c>
-      <c r="AI9" s="17"/>
-      <c r="AJ9" s="17"/>
-      <c r="AK9" s="17"/>
-      <c r="AL9" s="17">
+      <c r="AI9" s="26"/>
+      <c r="AJ9" s="26"/>
+      <c r="AK9" s="26"/>
+      <c r="AL9" s="26">
         <v>2009</v>
       </c>
-      <c r="AM9" s="17"/>
-      <c r="AN9" s="17"/>
-      <c r="AO9" s="17"/>
-      <c r="AP9" s="17">
+      <c r="AM9" s="26"/>
+      <c r="AN9" s="26"/>
+      <c r="AO9" s="26"/>
+      <c r="AP9" s="26">
         <v>2010</v>
       </c>
-      <c r="AQ9" s="17"/>
-      <c r="AR9" s="17"/>
-      <c r="AS9" s="17"/>
-      <c r="AT9" s="17">
+      <c r="AQ9" s="26"/>
+      <c r="AR9" s="26"/>
+      <c r="AS9" s="26"/>
+      <c r="AT9" s="26">
         <v>2011</v>
       </c>
-      <c r="AU9" s="17"/>
-      <c r="AV9" s="17"/>
-      <c r="AW9" s="17"/>
-      <c r="AX9" s="17">
+      <c r="AU9" s="26"/>
+      <c r="AV9" s="26"/>
+      <c r="AW9" s="26"/>
+      <c r="AX9" s="26">
         <v>2012</v>
       </c>
-      <c r="AY9" s="17"/>
-      <c r="AZ9" s="17"/>
-      <c r="BA9" s="17"/>
-      <c r="BB9" s="17">
+      <c r="AY9" s="26"/>
+      <c r="AZ9" s="26"/>
+      <c r="BA9" s="26"/>
+      <c r="BB9" s="26">
         <v>2013</v>
       </c>
-      <c r="BC9" s="17"/>
-      <c r="BD9" s="17"/>
-      <c r="BE9" s="17"/>
-      <c r="BF9" s="17">
+      <c r="BC9" s="26"/>
+      <c r="BD9" s="26"/>
+      <c r="BE9" s="26"/>
+      <c r="BF9" s="26">
         <v>2014</v>
       </c>
-      <c r="BG9" s="17"/>
-      <c r="BH9" s="17"/>
-      <c r="BI9" s="17"/>
-      <c r="BJ9" s="17">
+      <c r="BG9" s="26"/>
+      <c r="BH9" s="26"/>
+      <c r="BI9" s="26"/>
+      <c r="BJ9" s="26">
         <v>2015</v>
       </c>
-      <c r="BK9" s="17"/>
-      <c r="BL9" s="17"/>
-      <c r="BM9" s="17"/>
-      <c r="BN9" s="17">
+      <c r="BK9" s="26"/>
+      <c r="BL9" s="26"/>
+      <c r="BM9" s="26"/>
+      <c r="BN9" s="26">
         <v>2016</v>
       </c>
-      <c r="BO9" s="17"/>
-      <c r="BP9" s="17"/>
-      <c r="BQ9" s="17"/>
-      <c r="BR9" s="17">
+      <c r="BO9" s="26"/>
+      <c r="BP9" s="26"/>
+      <c r="BQ9" s="26"/>
+      <c r="BR9" s="26">
         <v>2017</v>
       </c>
-      <c r="BS9" s="17"/>
-      <c r="BT9" s="17"/>
-      <c r="BU9" s="17"/>
-      <c r="BV9" s="17">
+      <c r="BS9" s="26"/>
+      <c r="BT9" s="26"/>
+      <c r="BU9" s="26"/>
+      <c r="BV9" s="26">
         <v>2018</v>
       </c>
-      <c r="BW9" s="17"/>
-      <c r="BX9" s="17"/>
-      <c r="BY9" s="17"/>
-      <c r="BZ9" s="17">
+      <c r="BW9" s="26"/>
+      <c r="BX9" s="26"/>
+      <c r="BY9" s="26"/>
+      <c r="BZ9" s="26">
         <v>2019</v>
       </c>
-      <c r="CA9" s="17"/>
-      <c r="CB9" s="17"/>
-      <c r="CC9" s="17"/>
-      <c r="CD9" s="17">
+      <c r="CA9" s="26"/>
+      <c r="CB9" s="26"/>
+      <c r="CC9" s="26"/>
+      <c r="CD9" s="26">
         <v>2020</v>
       </c>
-      <c r="CE9" s="17"/>
-      <c r="CF9" s="17"/>
-      <c r="CG9" s="17"/>
-      <c r="CH9" s="17">
+      <c r="CE9" s="26"/>
+      <c r="CF9" s="26"/>
+      <c r="CG9" s="26"/>
+      <c r="CH9" s="15">
         <v>2021</v>
       </c>
-      <c r="CI9" s="17"/>
-      <c r="CJ9" s="17"/>
-      <c r="CK9" s="17"/>
-      <c r="CL9" s="16">
+      <c r="CI9" s="15"/>
+      <c r="CJ9" s="15"/>
+      <c r="CK9" s="15"/>
+      <c r="CL9" s="15">
         <v>2022</v>
       </c>
-      <c r="CM9" s="16"/>
-      <c r="CN9" s="16"/>
-      <c r="CO9" s="16"/>
-      <c r="CP9" s="16">
+      <c r="CM9" s="15"/>
+      <c r="CN9" s="15"/>
+      <c r="CO9" s="15"/>
+      <c r="CP9" s="18">
         <v>2023</v>
       </c>
-      <c r="CQ9" s="16"/>
-      <c r="CR9" s="16"/>
-      <c r="CS9" s="16"/>
+      <c r="CQ9" s="18"/>
+      <c r="CR9" s="18"/>
+      <c r="CS9" s="18"/>
+      <c r="CT9" s="18">
+        <v>2024</v>
+      </c>
     </row>
     <row r="10" spans="1:154" x14ac:dyDescent="0.2">
       <c r="A10" s="5" t="s">
@@ -24071,17 +24093,20 @@
       <c r="CO10" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="CP10" s="6" t="s">
+      <c r="CP10" s="19" t="s">
         <v>7</v>
       </c>
-      <c r="CQ10" s="6" t="s">
+      <c r="CQ10" s="19" t="s">
         <v>8</v>
       </c>
-      <c r="CR10" s="6" t="s">
+      <c r="CR10" s="19" t="s">
         <v>10</v>
       </c>
-      <c r="CS10" s="6" t="s">
+      <c r="CS10" s="19" t="s">
         <v>9</v>
+      </c>
+      <c r="CT10" s="19" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="11" spans="1:154" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
@@ -24365,21 +24390,23 @@
         <v>298113.04574478342</v>
       </c>
       <c r="CO12" s="8">
-        <v>275563.92828726908</v>
-      </c>
-      <c r="CP12" s="8">
-        <v>385958.92522606708</v>
-      </c>
-      <c r="CQ12" s="8">
+        <v>275564.62875239633</v>
+      </c>
+      <c r="CP12" s="20">
+        <v>385162.53634587693</v>
+      </c>
+      <c r="CQ12" s="20">
         <v>306840.67406365159</v>
       </c>
-      <c r="CR12" s="8">
+      <c r="CR12" s="20">
         <v>349134.63674071158</v>
       </c>
-      <c r="CS12" s="8">
-        <v>327224.95965922426</v>
-      </c>
-      <c r="CT12" s="9"/>
+      <c r="CS12" s="20">
+        <v>331722.06319216389</v>
+      </c>
+      <c r="CT12" s="20">
+        <v>449238.75575966522</v>
+      </c>
       <c r="CU12" s="9"/>
       <c r="CV12" s="9"/>
       <c r="CW12" s="9"/>
@@ -24715,21 +24742,23 @@
         <v>143647.08803502942</v>
       </c>
       <c r="CO13" s="8">
-        <v>183867.53375969623</v>
-      </c>
-      <c r="CP13" s="8">
-        <v>159877.59282817371</v>
-      </c>
-      <c r="CQ13" s="8">
-        <v>225170.99252121971</v>
-      </c>
-      <c r="CR13" s="8">
+        <v>184278.69283022679</v>
+      </c>
+      <c r="CP13" s="20">
+        <v>157419.46611189947</v>
+      </c>
+      <c r="CQ13" s="20">
+        <v>224409.24622420681</v>
+      </c>
+      <c r="CR13" s="20">
         <v>163300.04934751446</v>
       </c>
-      <c r="CS13" s="8">
-        <v>214249.08052797953</v>
-      </c>
-      <c r="CT13" s="9"/>
+      <c r="CS13" s="20">
+        <v>213986.14211341884</v>
+      </c>
+      <c r="CT13" s="20">
+        <v>169916.80599330986</v>
+      </c>
       <c r="CU13" s="9"/>
       <c r="CV13" s="9"/>
       <c r="CW13" s="9"/>
@@ -25067,19 +25096,21 @@
       <c r="CO14" s="8">
         <v>80551.445428125138</v>
       </c>
-      <c r="CP14" s="8">
+      <c r="CP14" s="20">
         <v>73804.922139632661</v>
       </c>
-      <c r="CQ14" s="8">
+      <c r="CQ14" s="20">
         <v>68181.070352250768</v>
       </c>
-      <c r="CR14" s="8">
+      <c r="CR14" s="20">
         <v>75134.15180565769</v>
       </c>
-      <c r="CS14" s="8">
-        <v>90257.952747082716</v>
-      </c>
-      <c r="CT14" s="9"/>
+      <c r="CS14" s="20">
+        <v>88063.410736099468</v>
+      </c>
+      <c r="CT14" s="20">
+        <v>80535.486236525147</v>
+      </c>
       <c r="CU14" s="9"/>
       <c r="CV14" s="9"/>
       <c r="CW14" s="9"/>
@@ -25415,21 +25446,23 @@
         <v>25543.489150454676</v>
       </c>
       <c r="CO15" s="8">
-        <v>30226.36476476954</v>
-      </c>
-      <c r="CP15" s="8">
+        <v>30143.020561465681</v>
+      </c>
+      <c r="CP15" s="20">
         <v>29135.104012678043</v>
       </c>
-      <c r="CQ15" s="8">
-        <v>34339.751596236711</v>
-      </c>
-      <c r="CR15" s="8">
+      <c r="CQ15" s="20">
+        <v>34299.833553471595</v>
+      </c>
+      <c r="CR15" s="20">
         <v>28998.523698360281</v>
       </c>
-      <c r="CS15" s="8">
-        <v>35814.509372524837</v>
-      </c>
-      <c r="CT15" s="9"/>
+      <c r="CS15" s="20">
+        <v>35789.625839727043</v>
+      </c>
+      <c r="CT15" s="20">
+        <v>34341.384023883635</v>
+      </c>
       <c r="CU15" s="9"/>
       <c r="CV15" s="9"/>
       <c r="CW15" s="9"/>
@@ -25580,11 +25613,11 @@
       <c r="CM16" s="9"/>
       <c r="CN16" s="9"/>
       <c r="CO16" s="9"/>
-      <c r="CP16" s="9"/>
-      <c r="CQ16" s="9"/>
-      <c r="CR16" s="9"/>
-      <c r="CS16" s="9"/>
-      <c r="CT16" s="9"/>
+      <c r="CP16" s="21"/>
+      <c r="CQ16" s="21"/>
+      <c r="CR16" s="21"/>
+      <c r="CS16" s="21"/>
+      <c r="CT16" s="21"/>
       <c r="CU16" s="9"/>
       <c r="CV16" s="9"/>
       <c r="CW16" s="9"/>
@@ -25920,21 +25953,23 @@
         <v>537057.58301269764</v>
       </c>
       <c r="CO17" s="11">
-        <v>570209.27223986003</v>
-      </c>
-      <c r="CP17" s="11">
-        <v>648776.54420655151</v>
-      </c>
-      <c r="CQ17" s="11">
-        <v>634532.48853335867</v>
-      </c>
-      <c r="CR17" s="11">
+        <v>570537.78757221391</v>
+      </c>
+      <c r="CP17" s="22">
+        <v>645522.028610087</v>
+      </c>
+      <c r="CQ17" s="22">
+        <v>633730.82419358077</v>
+      </c>
+      <c r="CR17" s="22">
         <v>616567.36159224401</v>
       </c>
-      <c r="CS17" s="11">
-        <v>667546.50230681128</v>
-      </c>
-      <c r="CT17" s="9"/>
+      <c r="CS17" s="22">
+        <v>669561.24188140919</v>
+      </c>
+      <c r="CT17" s="22">
+        <v>734032.43201338383</v>
+      </c>
       <c r="CU17" s="9"/>
       <c r="CV17" s="9"/>
       <c r="CW17" s="9"/>
@@ -26086,10 +26121,11 @@
       <c r="CM18" s="12"/>
       <c r="CN18" s="12"/>
       <c r="CO18" s="12"/>
-      <c r="CP18" s="12"/>
-      <c r="CQ18" s="12"/>
-      <c r="CR18" s="12"/>
-      <c r="CS18" s="12"/>
+      <c r="CP18" s="23"/>
+      <c r="CQ18" s="23"/>
+      <c r="CR18" s="23"/>
+      <c r="CS18" s="23"/>
+      <c r="CT18" s="23"/>
     </row>
     <row r="19" spans="1:154" x14ac:dyDescent="0.2">
       <c r="A19" s="13" t="s">
@@ -26189,11 +26225,11 @@
       <c r="CM20" s="9"/>
       <c r="CN20" s="9"/>
       <c r="CO20" s="9"/>
-      <c r="CP20" s="9"/>
-      <c r="CQ20" s="9"/>
-      <c r="CR20" s="9"/>
-      <c r="CS20" s="9"/>
-      <c r="CT20" s="9"/>
+      <c r="CP20" s="21"/>
+      <c r="CQ20" s="21"/>
+      <c r="CR20" s="21"/>
+      <c r="CS20" s="21"/>
+      <c r="CT20" s="21"/>
       <c r="CU20" s="9"/>
       <c r="CV20" s="9"/>
       <c r="CW20" s="9"/>
@@ -26344,11 +26380,11 @@
       <c r="CM21" s="9"/>
       <c r="CN21" s="9"/>
       <c r="CO21" s="9"/>
-      <c r="CP21" s="9"/>
-      <c r="CQ21" s="9"/>
-      <c r="CR21" s="9"/>
-      <c r="CS21" s="9"/>
-      <c r="CT21" s="9"/>
+      <c r="CP21" s="21"/>
+      <c r="CQ21" s="21"/>
+      <c r="CR21" s="21"/>
+      <c r="CS21" s="21"/>
+      <c r="CT21" s="21"/>
       <c r="CU21" s="9"/>
       <c r="CV21" s="9"/>
       <c r="CW21" s="9"/>
@@ -26418,7 +26454,7 @@
     </row>
     <row r="24" spans="1:154" x14ac:dyDescent="0.2">
       <c r="A24" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="26" spans="1:154" x14ac:dyDescent="0.2">
@@ -26428,7 +26464,7 @@
     </row>
     <row r="27" spans="1:154" x14ac:dyDescent="0.2">
       <c r="A27" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
     </row>
     <row r="28" spans="1:154" x14ac:dyDescent="0.2">
@@ -26438,150 +26474,153 @@
     </row>
     <row r="30" spans="1:154" x14ac:dyDescent="0.2">
       <c r="A30" s="4"/>
-      <c r="B30" s="17">
+      <c r="B30" s="26">
         <v>2000</v>
       </c>
-      <c r="C30" s="18"/>
-      <c r="D30" s="18"/>
-      <c r="E30" s="18"/>
-      <c r="F30" s="17">
+      <c r="C30" s="27"/>
+      <c r="D30" s="27"/>
+      <c r="E30" s="27"/>
+      <c r="F30" s="26">
         <v>2001</v>
       </c>
-      <c r="G30" s="18"/>
-      <c r="H30" s="18"/>
-      <c r="I30" s="18"/>
-      <c r="J30" s="17">
+      <c r="G30" s="27"/>
+      <c r="H30" s="27"/>
+      <c r="I30" s="27"/>
+      <c r="J30" s="26">
         <v>2002</v>
       </c>
-      <c r="K30" s="18"/>
-      <c r="L30" s="18"/>
-      <c r="M30" s="18"/>
-      <c r="N30" s="17">
+      <c r="K30" s="27"/>
+      <c r="L30" s="27"/>
+      <c r="M30" s="27"/>
+      <c r="N30" s="26">
         <v>2003</v>
       </c>
-      <c r="O30" s="18"/>
-      <c r="P30" s="18"/>
-      <c r="Q30" s="18"/>
-      <c r="R30" s="17">
+      <c r="O30" s="27"/>
+      <c r="P30" s="27"/>
+      <c r="Q30" s="27"/>
+      <c r="R30" s="26">
         <v>2004</v>
       </c>
-      <c r="S30" s="18"/>
-      <c r="T30" s="18"/>
-      <c r="U30" s="18"/>
-      <c r="V30" s="17">
+      <c r="S30" s="27"/>
+      <c r="T30" s="27"/>
+      <c r="U30" s="27"/>
+      <c r="V30" s="26">
         <v>2005</v>
       </c>
-      <c r="W30" s="18"/>
-      <c r="X30" s="18"/>
-      <c r="Y30" s="18"/>
-      <c r="Z30" s="17">
+      <c r="W30" s="27"/>
+      <c r="X30" s="27"/>
+      <c r="Y30" s="27"/>
+      <c r="Z30" s="26">
         <v>2006</v>
       </c>
-      <c r="AA30" s="18"/>
-      <c r="AB30" s="18"/>
-      <c r="AC30" s="18"/>
-      <c r="AD30" s="17">
+      <c r="AA30" s="27"/>
+      <c r="AB30" s="27"/>
+      <c r="AC30" s="27"/>
+      <c r="AD30" s="26">
         <v>2007</v>
       </c>
-      <c r="AE30" s="18"/>
-      <c r="AF30" s="18"/>
-      <c r="AG30" s="18"/>
-      <c r="AH30" s="17">
+      <c r="AE30" s="27"/>
+      <c r="AF30" s="27"/>
+      <c r="AG30" s="27"/>
+      <c r="AH30" s="26">
         <v>2008</v>
       </c>
-      <c r="AI30" s="18"/>
-      <c r="AJ30" s="18"/>
-      <c r="AK30" s="18"/>
-      <c r="AL30" s="17">
+      <c r="AI30" s="27"/>
+      <c r="AJ30" s="27"/>
+      <c r="AK30" s="27"/>
+      <c r="AL30" s="26">
         <v>2009</v>
       </c>
-      <c r="AM30" s="18"/>
-      <c r="AN30" s="18"/>
-      <c r="AO30" s="18"/>
-      <c r="AP30" s="17">
+      <c r="AM30" s="27"/>
+      <c r="AN30" s="27"/>
+      <c r="AO30" s="27"/>
+      <c r="AP30" s="26">
         <v>2010</v>
       </c>
-      <c r="AQ30" s="18"/>
-      <c r="AR30" s="18"/>
-      <c r="AS30" s="18"/>
-      <c r="AT30" s="17">
+      <c r="AQ30" s="27"/>
+      <c r="AR30" s="27"/>
+      <c r="AS30" s="27"/>
+      <c r="AT30" s="26">
         <v>2011</v>
       </c>
-      <c r="AU30" s="18"/>
-      <c r="AV30" s="18"/>
-      <c r="AW30" s="18"/>
-      <c r="AX30" s="17">
+      <c r="AU30" s="27"/>
+      <c r="AV30" s="27"/>
+      <c r="AW30" s="27"/>
+      <c r="AX30" s="26">
         <v>2012</v>
       </c>
-      <c r="AY30" s="18"/>
-      <c r="AZ30" s="18"/>
-      <c r="BA30" s="18"/>
-      <c r="BB30" s="17">
+      <c r="AY30" s="27"/>
+      <c r="AZ30" s="27"/>
+      <c r="BA30" s="27"/>
+      <c r="BB30" s="26">
         <v>2013</v>
       </c>
-      <c r="BC30" s="18"/>
-      <c r="BD30" s="18"/>
-      <c r="BE30" s="18"/>
-      <c r="BF30" s="17">
+      <c r="BC30" s="27"/>
+      <c r="BD30" s="27"/>
+      <c r="BE30" s="27"/>
+      <c r="BF30" s="26">
         <v>2014</v>
       </c>
-      <c r="BG30" s="18"/>
-      <c r="BH30" s="18"/>
-      <c r="BI30" s="18"/>
-      <c r="BJ30" s="17">
+      <c r="BG30" s="27"/>
+      <c r="BH30" s="27"/>
+      <c r="BI30" s="27"/>
+      <c r="BJ30" s="26">
         <v>2015</v>
       </c>
-      <c r="BK30" s="18"/>
-      <c r="BL30" s="18"/>
-      <c r="BM30" s="18"/>
-      <c r="BN30" s="17">
+      <c r="BK30" s="27"/>
+      <c r="BL30" s="27"/>
+      <c r="BM30" s="27"/>
+      <c r="BN30" s="26">
         <v>2016</v>
       </c>
-      <c r="BO30" s="18"/>
-      <c r="BP30" s="18"/>
-      <c r="BQ30" s="18"/>
-      <c r="BR30" s="17">
+      <c r="BO30" s="27"/>
+      <c r="BP30" s="27"/>
+      <c r="BQ30" s="27"/>
+      <c r="BR30" s="26">
         <v>2017</v>
       </c>
-      <c r="BS30" s="18"/>
-      <c r="BT30" s="18"/>
-      <c r="BU30" s="18"/>
-      <c r="BV30" s="17">
+      <c r="BS30" s="27"/>
+      <c r="BT30" s="27"/>
+      <c r="BU30" s="27"/>
+      <c r="BV30" s="26">
         <v>2018</v>
       </c>
-      <c r="BW30" s="18"/>
-      <c r="BX30" s="18"/>
-      <c r="BY30" s="18"/>
-      <c r="BZ30" s="17">
+      <c r="BW30" s="27"/>
+      <c r="BX30" s="27"/>
+      <c r="BY30" s="27"/>
+      <c r="BZ30" s="26">
         <v>2019</v>
       </c>
-      <c r="CA30" s="18"/>
-      <c r="CB30" s="18"/>
-      <c r="CC30" s="18"/>
-      <c r="CD30" s="17">
+      <c r="CA30" s="27"/>
+      <c r="CB30" s="27"/>
+      <c r="CC30" s="27"/>
+      <c r="CD30" s="26">
         <v>2020</v>
       </c>
-      <c r="CE30" s="17"/>
-      <c r="CF30" s="17"/>
-      <c r="CG30" s="17"/>
-      <c r="CH30" s="17">
+      <c r="CE30" s="26"/>
+      <c r="CF30" s="26"/>
+      <c r="CG30" s="26"/>
+      <c r="CH30" s="15">
         <v>2021</v>
       </c>
-      <c r="CI30" s="17"/>
-      <c r="CJ30" s="17"/>
-      <c r="CK30" s="17"/>
-      <c r="CL30" s="16">
+      <c r="CI30" s="15"/>
+      <c r="CJ30" s="15"/>
+      <c r="CK30" s="15"/>
+      <c r="CL30" s="15">
         <v>2022</v>
       </c>
-      <c r="CM30" s="16"/>
-      <c r="CN30" s="16"/>
-      <c r="CO30" s="16"/>
-      <c r="CP30" s="16">
+      <c r="CM30" s="15"/>
+      <c r="CN30" s="15"/>
+      <c r="CO30" s="15"/>
+      <c r="CP30" s="18">
         <v>2023</v>
       </c>
-      <c r="CQ30" s="16"/>
-      <c r="CR30" s="16"/>
-      <c r="CS30" s="16"/>
+      <c r="CQ30" s="18"/>
+      <c r="CR30" s="18"/>
+      <c r="CS30" s="18"/>
+      <c r="CT30" s="18">
+        <v>2024</v>
+      </c>
     </row>
     <row r="31" spans="1:154" x14ac:dyDescent="0.2">
       <c r="A31" s="5" t="s">
@@ -26863,17 +26902,20 @@
       <c r="CO31" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="CP31" s="6" t="s">
+      <c r="CP31" s="19" t="s">
         <v>7</v>
       </c>
-      <c r="CQ31" s="6" t="s">
+      <c r="CQ31" s="19" t="s">
         <v>8</v>
       </c>
-      <c r="CR31" s="6" t="s">
+      <c r="CR31" s="19" t="s">
         <v>10</v>
       </c>
-      <c r="CS31" s="6" t="s">
+      <c r="CS31" s="19" t="s">
         <v>9</v>
+      </c>
+      <c r="CT31" s="19" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="32" spans="1:154" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
@@ -27157,21 +27199,23 @@
         <v>264938.66792331031</v>
       </c>
       <c r="CO33" s="8">
-        <v>239988.59867347119</v>
-      </c>
-      <c r="CP33" s="8">
-        <v>324156.55637382169</v>
-      </c>
-      <c r="CQ33" s="8">
+        <v>239989.20870848323</v>
+      </c>
+      <c r="CP33" s="20">
+        <v>323487.69069909828</v>
+      </c>
+      <c r="CQ33" s="20">
         <v>255836.99898620203</v>
       </c>
-      <c r="CR33" s="8">
+      <c r="CR33" s="20">
         <v>295986.37316272699</v>
       </c>
-      <c r="CS33" s="8">
-        <v>272152.97562172671</v>
-      </c>
-      <c r="CT33" s="9"/>
+      <c r="CS33" s="20">
+        <v>275893.21630948811</v>
+      </c>
+      <c r="CT33" s="20">
+        <v>364629.27884762123</v>
+      </c>
       <c r="CU33" s="9"/>
       <c r="CV33" s="9"/>
       <c r="CW33" s="9"/>
@@ -27507,21 +27551,23 @@
         <v>128897.23668924074</v>
       </c>
       <c r="CO34" s="8">
-        <v>161212.05680387036</v>
-      </c>
-      <c r="CP34" s="8">
-        <v>135360.31282609189</v>
-      </c>
-      <c r="CQ34" s="8">
-        <v>190258.87285912794</v>
-      </c>
-      <c r="CR34" s="8">
+        <v>161572.55437556474</v>
+      </c>
+      <c r="CP34" s="20">
+        <v>133279.14062806751</v>
+      </c>
+      <c r="CQ34" s="20">
+        <v>189615.24184412914</v>
+      </c>
+      <c r="CR34" s="20">
         <v>140383.4153113513</v>
       </c>
-      <c r="CS34" s="8">
-        <v>179661.4873574528</v>
-      </c>
-      <c r="CT34" s="9"/>
+      <c r="CS34" s="20">
+        <v>179440.9967652552</v>
+      </c>
+      <c r="CT34" s="20">
+        <v>139630.11220969175</v>
+      </c>
       <c r="CU34" s="9"/>
       <c r="CV34" s="9"/>
       <c r="CW34" s="9"/>
@@ -27859,19 +27905,21 @@
       <c r="CO35" s="8">
         <v>71695.230501744707</v>
       </c>
-      <c r="CP35" s="8">
+      <c r="CP35" s="20">
         <v>61078.422771265992</v>
       </c>
-      <c r="CQ35" s="8">
+      <c r="CQ35" s="20">
         <v>59070.351864746932</v>
       </c>
-      <c r="CR35" s="8">
+      <c r="CR35" s="20">
         <v>65327.200334506575</v>
       </c>
-      <c r="CS35" s="8">
-        <v>76631.394635138626</v>
-      </c>
-      <c r="CT35" s="9"/>
+      <c r="CS35" s="20">
+        <v>74768.170290151655</v>
+      </c>
+      <c r="CT35" s="20">
+        <v>64414.858823357383</v>
+      </c>
       <c r="CU35" s="9"/>
       <c r="CV35" s="9"/>
       <c r="CW35" s="9"/>
@@ -28207,21 +28255,23 @@
         <v>22586.18540190734</v>
       </c>
       <c r="CO36" s="8">
-        <v>26426.348809394898</v>
-      </c>
-      <c r="CP36" s="8">
+        <v>26353.482521804937</v>
+      </c>
+      <c r="CP36" s="20">
         <v>24443.163192385327</v>
       </c>
-      <c r="CQ36" s="8">
-        <v>28259.474396345104</v>
-      </c>
-      <c r="CR36" s="8">
+      <c r="CQ36" s="20">
+        <v>28226.625248789045</v>
+      </c>
+      <c r="CR36" s="20">
         <v>24593.528173745464</v>
       </c>
-      <c r="CS36" s="8">
-        <v>29685.146936966688</v>
-      </c>
-      <c r="CT36" s="9"/>
+      <c r="CS36" s="20">
+        <v>29664.522018732285</v>
+      </c>
+      <c r="CT36" s="20">
+        <v>27810.147353503329</v>
+      </c>
       <c r="CU36" s="9"/>
       <c r="CV36" s="9"/>
       <c r="CW36" s="9"/>
@@ -28372,11 +28422,11 @@
       <c r="CM37" s="9"/>
       <c r="CN37" s="9"/>
       <c r="CO37" s="9"/>
-      <c r="CP37" s="9"/>
-      <c r="CQ37" s="9"/>
-      <c r="CR37" s="9"/>
-      <c r="CS37" s="9"/>
-      <c r="CT37" s="9"/>
+      <c r="CP37" s="21"/>
+      <c r="CQ37" s="21"/>
+      <c r="CR37" s="21"/>
+      <c r="CS37" s="21"/>
+      <c r="CT37" s="21"/>
       <c r="CU37" s="9"/>
       <c r="CV37" s="9"/>
       <c r="CW37" s="9"/>
@@ -28712,21 +28762,23 @@
         <v>479988.58244321222</v>
       </c>
       <c r="CO38" s="11">
-        <v>499322.23478848115</v>
-      </c>
-      <c r="CP38" s="11">
-        <v>545038.45516356488</v>
-      </c>
-      <c r="CQ38" s="11">
-        <v>533425.69810642209</v>
-      </c>
-      <c r="CR38" s="11">
+        <v>499610.47610759758</v>
+      </c>
+      <c r="CP38" s="22">
+        <v>542288.41729081713</v>
+      </c>
+      <c r="CQ38" s="22">
+        <v>532749.2179438672</v>
+      </c>
+      <c r="CR38" s="22">
         <v>526290.51698233036</v>
       </c>
-      <c r="CS38" s="11">
-        <v>558131.00455128483</v>
-      </c>
-      <c r="CT38" s="9"/>
+      <c r="CS38" s="22">
+        <v>559766.90538362716</v>
+      </c>
+      <c r="CT38" s="22">
+        <v>596484.39723417372</v>
+      </c>
       <c r="CU38" s="9"/>
       <c r="CV38" s="9"/>
       <c r="CW38" s="9"/>
@@ -28878,10 +28930,11 @@
       <c r="CM39" s="12"/>
       <c r="CN39" s="12"/>
       <c r="CO39" s="12"/>
-      <c r="CP39" s="12"/>
-      <c r="CQ39" s="12"/>
-      <c r="CR39" s="12"/>
-      <c r="CS39" s="12"/>
+      <c r="CP39" s="23"/>
+      <c r="CQ39" s="23"/>
+      <c r="CR39" s="23"/>
+      <c r="CS39" s="23"/>
+      <c r="CT39" s="23"/>
     </row>
     <row r="40" spans="1:154" x14ac:dyDescent="0.2">
       <c r="A40" s="13" t="s">
@@ -28981,11 +29034,11 @@
       <c r="CM41" s="9"/>
       <c r="CN41" s="9"/>
       <c r="CO41" s="9"/>
-      <c r="CP41" s="9"/>
-      <c r="CQ41" s="9"/>
-      <c r="CR41" s="9"/>
-      <c r="CS41" s="9"/>
-      <c r="CT41" s="9"/>
+      <c r="CP41" s="21"/>
+      <c r="CQ41" s="21"/>
+      <c r="CR41" s="21"/>
+      <c r="CS41" s="21"/>
+      <c r="CT41" s="21"/>
       <c r="CU41" s="9"/>
       <c r="CV41" s="9"/>
       <c r="CW41" s="9"/>
@@ -29136,11 +29189,11 @@
       <c r="CM42" s="9"/>
       <c r="CN42" s="9"/>
       <c r="CO42" s="9"/>
-      <c r="CP42" s="9"/>
-      <c r="CQ42" s="9"/>
-      <c r="CR42" s="9"/>
-      <c r="CS42" s="9"/>
-      <c r="CT42" s="9"/>
+      <c r="CP42" s="21"/>
+      <c r="CQ42" s="21"/>
+      <c r="CR42" s="21"/>
+      <c r="CS42" s="21"/>
+      <c r="CT42" s="21"/>
       <c r="CU42" s="9"/>
       <c r="CV42" s="9"/>
       <c r="CW42" s="9"/>
@@ -29210,7 +29263,7 @@
     </row>
     <row r="45" spans="1:154" x14ac:dyDescent="0.2">
       <c r="A45" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="47" spans="1:154" x14ac:dyDescent="0.2">
@@ -29220,7 +29273,7 @@
     </row>
     <row r="48" spans="1:154" x14ac:dyDescent="0.2">
       <c r="A48" s="3" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
     </row>
     <row r="49" spans="1:150" x14ac:dyDescent="0.2">
@@ -29230,148 +29283,151 @@
     </row>
     <row r="51" spans="1:150" x14ac:dyDescent="0.2">
       <c r="A51" s="4"/>
-      <c r="B51" s="17" t="s">
+      <c r="B51" s="26" t="s">
         <v>31</v>
       </c>
-      <c r="C51" s="17"/>
-      <c r="D51" s="17"/>
-      <c r="E51" s="17"/>
-      <c r="F51" s="17" t="s">
+      <c r="C51" s="26"/>
+      <c r="D51" s="26"/>
+      <c r="E51" s="26"/>
+      <c r="F51" s="26" t="s">
         <v>32</v>
       </c>
-      <c r="G51" s="17"/>
-      <c r="H51" s="17"/>
-      <c r="I51" s="17"/>
-      <c r="J51" s="17" t="s">
+      <c r="G51" s="26"/>
+      <c r="H51" s="26"/>
+      <c r="I51" s="26"/>
+      <c r="J51" s="26" t="s">
         <v>33</v>
       </c>
-      <c r="K51" s="17"/>
-      <c r="L51" s="17"/>
-      <c r="M51" s="17"/>
-      <c r="N51" s="17" t="s">
+      <c r="K51" s="26"/>
+      <c r="L51" s="26"/>
+      <c r="M51" s="26"/>
+      <c r="N51" s="26" t="s">
         <v>34</v>
       </c>
-      <c r="O51" s="17"/>
-      <c r="P51" s="17"/>
-      <c r="Q51" s="17"/>
-      <c r="R51" s="17" t="s">
+      <c r="O51" s="26"/>
+      <c r="P51" s="26"/>
+      <c r="Q51" s="26"/>
+      <c r="R51" s="26" t="s">
         <v>35</v>
       </c>
-      <c r="S51" s="17"/>
-      <c r="T51" s="17"/>
-      <c r="U51" s="17"/>
-      <c r="V51" s="17" t="s">
+      <c r="S51" s="26"/>
+      <c r="T51" s="26"/>
+      <c r="U51" s="26"/>
+      <c r="V51" s="26" t="s">
         <v>36</v>
       </c>
-      <c r="W51" s="17"/>
-      <c r="X51" s="17"/>
-      <c r="Y51" s="17"/>
-      <c r="Z51" s="17" t="s">
+      <c r="W51" s="26"/>
+      <c r="X51" s="26"/>
+      <c r="Y51" s="26"/>
+      <c r="Z51" s="26" t="s">
         <v>37</v>
       </c>
-      <c r="AA51" s="17"/>
-      <c r="AB51" s="17"/>
-      <c r="AC51" s="17"/>
-      <c r="AD51" s="17" t="s">
+      <c r="AA51" s="26"/>
+      <c r="AB51" s="26"/>
+      <c r="AC51" s="26"/>
+      <c r="AD51" s="26" t="s">
         <v>38</v>
       </c>
-      <c r="AE51" s="17"/>
-      <c r="AF51" s="17"/>
-      <c r="AG51" s="17"/>
-      <c r="AH51" s="17" t="s">
+      <c r="AE51" s="26"/>
+      <c r="AF51" s="26"/>
+      <c r="AG51" s="26"/>
+      <c r="AH51" s="26" t="s">
         <v>39</v>
       </c>
-      <c r="AI51" s="17"/>
-      <c r="AJ51" s="17"/>
-      <c r="AK51" s="17"/>
-      <c r="AL51" s="17" t="s">
+      <c r="AI51" s="26"/>
+      <c r="AJ51" s="26"/>
+      <c r="AK51" s="26"/>
+      <c r="AL51" s="26" t="s">
         <v>40</v>
       </c>
-      <c r="AM51" s="17"/>
-      <c r="AN51" s="17"/>
-      <c r="AO51" s="17"/>
-      <c r="AP51" s="17" t="s">
+      <c r="AM51" s="26"/>
+      <c r="AN51" s="26"/>
+      <c r="AO51" s="26"/>
+      <c r="AP51" s="26" t="s">
         <v>41</v>
       </c>
-      <c r="AQ51" s="17"/>
-      <c r="AR51" s="17"/>
-      <c r="AS51" s="17"/>
-      <c r="AT51" s="17" t="s">
+      <c r="AQ51" s="26"/>
+      <c r="AR51" s="26"/>
+      <c r="AS51" s="26"/>
+      <c r="AT51" s="26" t="s">
         <v>42</v>
       </c>
-      <c r="AU51" s="17"/>
-      <c r="AV51" s="17"/>
-      <c r="AW51" s="17"/>
-      <c r="AX51" s="17" t="s">
+      <c r="AU51" s="26"/>
+      <c r="AV51" s="26"/>
+      <c r="AW51" s="26"/>
+      <c r="AX51" s="26" t="s">
         <v>43</v>
       </c>
-      <c r="AY51" s="17"/>
-      <c r="AZ51" s="17"/>
-      <c r="BA51" s="17"/>
-      <c r="BB51" s="17" t="s">
+      <c r="AY51" s="26"/>
+      <c r="AZ51" s="26"/>
+      <c r="BA51" s="26"/>
+      <c r="BB51" s="26" t="s">
         <v>44</v>
       </c>
-      <c r="BC51" s="17"/>
-      <c r="BD51" s="17"/>
-      <c r="BE51" s="17"/>
-      <c r="BF51" s="17" t="s">
+      <c r="BC51" s="26"/>
+      <c r="BD51" s="26"/>
+      <c r="BE51" s="26"/>
+      <c r="BF51" s="26" t="s">
         <v>45</v>
       </c>
-      <c r="BG51" s="17"/>
-      <c r="BH51" s="17"/>
-      <c r="BI51" s="17"/>
-      <c r="BJ51" s="17" t="s">
+      <c r="BG51" s="26"/>
+      <c r="BH51" s="26"/>
+      <c r="BI51" s="26"/>
+      <c r="BJ51" s="26" t="s">
         <v>46</v>
       </c>
-      <c r="BK51" s="17"/>
-      <c r="BL51" s="17"/>
-      <c r="BM51" s="17"/>
-      <c r="BN51" s="17" t="s">
+      <c r="BK51" s="26"/>
+      <c r="BL51" s="26"/>
+      <c r="BM51" s="26"/>
+      <c r="BN51" s="26" t="s">
         <v>47</v>
       </c>
-      <c r="BO51" s="17"/>
-      <c r="BP51" s="17"/>
-      <c r="BQ51" s="17"/>
-      <c r="BR51" s="17" t="s">
+      <c r="BO51" s="26"/>
+      <c r="BP51" s="26"/>
+      <c r="BQ51" s="26"/>
+      <c r="BR51" s="26" t="s">
         <v>27</v>
       </c>
-      <c r="BS51" s="17"/>
-      <c r="BT51" s="17"/>
-      <c r="BU51" s="17"/>
-      <c r="BV51" s="17" t="s">
+      <c r="BS51" s="26"/>
+      <c r="BT51" s="26"/>
+      <c r="BU51" s="26"/>
+      <c r="BV51" s="26" t="s">
         <v>28</v>
       </c>
-      <c r="BW51" s="17"/>
-      <c r="BX51" s="17"/>
-      <c r="BY51" s="17"/>
-      <c r="BZ51" s="17" t="s">
+      <c r="BW51" s="26"/>
+      <c r="BX51" s="26"/>
+      <c r="BY51" s="26"/>
+      <c r="BZ51" s="26" t="s">
         <v>29</v>
       </c>
-      <c r="CA51" s="17"/>
-      <c r="CB51" s="17"/>
-      <c r="CC51" s="17"/>
-      <c r="CD51" s="17" t="s">
+      <c r="CA51" s="26"/>
+      <c r="CB51" s="26"/>
+      <c r="CC51" s="26"/>
+      <c r="CD51" s="26" t="s">
         <v>48</v>
       </c>
-      <c r="CE51" s="17"/>
-      <c r="CF51" s="17"/>
-      <c r="CG51" s="17"/>
-      <c r="CH51" s="17" t="s">
+      <c r="CE51" s="26"/>
+      <c r="CF51" s="26"/>
+      <c r="CG51" s="26"/>
+      <c r="CH51" s="15" t="s">
         <v>49</v>
       </c>
-      <c r="CI51" s="17"/>
-      <c r="CJ51" s="17"/>
-      <c r="CK51" s="17"/>
-      <c r="CL51" s="16" t="s">
+      <c r="CI51" s="15"/>
+      <c r="CJ51" s="15"/>
+      <c r="CK51" s="15"/>
+      <c r="CL51" s="15" t="s">
         <v>50</v>
       </c>
-      <c r="CM51" s="16"/>
-      <c r="CN51" s="16"/>
-      <c r="CO51" s="16"/>
-      <c r="CP51" s="15"/>
-      <c r="CQ51" s="15"/>
-      <c r="CR51" s="15"/>
-      <c r="CS51" s="15"/>
+      <c r="CM51" s="15"/>
+      <c r="CN51" s="15"/>
+      <c r="CO51" s="15"/>
+      <c r="CP51" s="18" t="s">
+        <v>51</v>
+      </c>
+      <c r="CQ51" s="16"/>
+      <c r="CR51" s="16"/>
+      <c r="CS51" s="16"/>
+      <c r="CT51" s="16"/>
     </row>
     <row r="52" spans="1:150" x14ac:dyDescent="0.2">
       <c r="A52" s="5" t="s">
@@ -29653,10 +29709,13 @@
       <c r="CO52" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="CP52" s="5"/>
-      <c r="CQ52" s="5"/>
-      <c r="CR52" s="5"/>
-      <c r="CS52" s="5"/>
+      <c r="CP52" s="24" t="s">
+        <v>7</v>
+      </c>
+      <c r="CQ52" s="24"/>
+      <c r="CR52" s="24"/>
+      <c r="CS52" s="24"/>
+      <c r="CT52" s="24"/>
     </row>
     <row r="53" spans="1:150" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A53" s="7"/>
@@ -29927,10 +29986,10 @@
         <v>16.629977162998728</v>
       </c>
       <c r="CK54" s="14">
-        <v>18.024110738216748</v>
+        <v>18.024410747634747</v>
       </c>
       <c r="CL54" s="14">
-        <v>21.151903041683596</v>
+        <v>20.901917817634796</v>
       </c>
       <c r="CM54" s="14">
         <v>16.055596049297876</v>
@@ -29939,13 +29998,15 @@
         <v>17.114846775141828</v>
       </c>
       <c r="CO54" s="14">
-        <v>18.747385295690705</v>
-      </c>
-      <c r="CP54" s="14"/>
-      <c r="CQ54" s="14"/>
-      <c r="CR54" s="14"/>
-      <c r="CS54" s="14"/>
-      <c r="CT54" s="9"/>
+        <v>20.37904309200249</v>
+      </c>
+      <c r="CP54" s="25">
+        <v>16.636150551321464</v>
+      </c>
+      <c r="CQ54" s="25"/>
+      <c r="CR54" s="25"/>
+      <c r="CS54" s="25"/>
+      <c r="CT54" s="25"/>
       <c r="CU54" s="9"/>
       <c r="CV54" s="9"/>
       <c r="CW54" s="9"/>
@@ -30265,25 +30326,27 @@
         <v>15.625652932145215</v>
       </c>
       <c r="CK55" s="14">
-        <v>18.006476206364624</v>
+        <v>18.270358753117051</v>
       </c>
       <c r="CL55" s="14">
-        <v>17.343743533999103</v>
+        <v>15.539577072232575</v>
       </c>
       <c r="CM55" s="14">
-        <v>8.7752308383840898</v>
+        <v>8.4072476964611695</v>
       </c>
       <c r="CN55" s="14">
         <v>13.681419916909505</v>
       </c>
       <c r="CO55" s="14">
-        <v>16.523605960794654</v>
-      </c>
-      <c r="CP55" s="14"/>
-      <c r="CQ55" s="14"/>
-      <c r="CR55" s="14"/>
-      <c r="CS55" s="14"/>
-      <c r="CT55" s="9"/>
+        <v>16.120935538956232</v>
+      </c>
+      <c r="CP55" s="25">
+        <v>7.9388783293972125</v>
+      </c>
+      <c r="CQ55" s="25"/>
+      <c r="CR55" s="25"/>
+      <c r="CS55" s="25"/>
+      <c r="CT55" s="25"/>
       <c r="CU55" s="9"/>
       <c r="CV55" s="9"/>
       <c r="CW55" s="9"/>
@@ -30615,13 +30678,15 @@
         <v>7.7130986066878222</v>
       </c>
       <c r="CO56" s="14">
-        <v>12.050072183519717</v>
-      </c>
-      <c r="CP56" s="14"/>
-      <c r="CQ56" s="14"/>
-      <c r="CR56" s="14"/>
-      <c r="CS56" s="14"/>
-      <c r="CT56" s="9"/>
+        <v>9.3256741304253126</v>
+      </c>
+      <c r="CP56" s="25">
+        <v>9.1193973271306135</v>
+      </c>
+      <c r="CQ56" s="25"/>
+      <c r="CR56" s="25"/>
+      <c r="CS56" s="25"/>
+      <c r="CT56" s="25"/>
       <c r="CU56" s="9"/>
       <c r="CV56" s="9"/>
       <c r="CW56" s="9"/>
@@ -30941,25 +31006,27 @@
         <v>11.354221456337598</v>
       </c>
       <c r="CK57" s="14">
-        <v>13.941271970433334</v>
+        <v>13.627097751677368</v>
       </c>
       <c r="CL57" s="14">
         <v>9.5755420857457807</v>
       </c>
       <c r="CM57" s="14">
-        <v>13.731756400139886</v>
+        <v>13.599549587198652</v>
       </c>
       <c r="CN57" s="14">
         <v>13.526086931800791</v>
       </c>
       <c r="CO57" s="14">
-        <v>18.487650272349597</v>
-      </c>
-      <c r="CP57" s="14"/>
-      <c r="CQ57" s="14"/>
-      <c r="CR57" s="14"/>
-      <c r="CS57" s="14"/>
-      <c r="CT57" s="9"/>
+        <v>18.732712160505514</v>
+      </c>
+      <c r="CP57" s="25">
+        <v>17.869440277062679</v>
+      </c>
+      <c r="CQ57" s="25"/>
+      <c r="CR57" s="25"/>
+      <c r="CS57" s="25"/>
+      <c r="CT57" s="25"/>
       <c r="CU57" s="9"/>
       <c r="CV57" s="9"/>
       <c r="CW57" s="9"/>
@@ -31106,11 +31173,11 @@
       <c r="CM58" s="9"/>
       <c r="CN58" s="9"/>
       <c r="CO58" s="9"/>
-      <c r="CP58" s="9"/>
-      <c r="CQ58" s="9"/>
-      <c r="CR58" s="9"/>
-      <c r="CS58" s="9"/>
-      <c r="CT58" s="9"/>
+      <c r="CP58" s="21"/>
+      <c r="CQ58" s="21"/>
+      <c r="CR58" s="21"/>
+      <c r="CS58" s="21"/>
+      <c r="CT58" s="21"/>
       <c r="CU58" s="9"/>
       <c r="CV58" s="9"/>
       <c r="CW58" s="9"/>
@@ -31430,25 +31497,27 @@
         <v>14.995109693721176</v>
       </c>
       <c r="CK59" s="14">
-        <v>17.253595232290024</v>
+        <v>17.321148682720789</v>
       </c>
       <c r="CL59" s="14">
-        <v>17.58047568302436</v>
+        <v>16.990646264301887</v>
       </c>
       <c r="CM59" s="14">
-        <v>12.245630992893865</v>
+        <v>12.103820571380439</v>
       </c>
       <c r="CN59" s="14">
         <v>14.804702716145528</v>
       </c>
       <c r="CO59" s="14">
-        <v>17.070439714983451</v>
-      </c>
-      <c r="CP59" s="14"/>
-      <c r="CQ59" s="14"/>
-      <c r="CR59" s="14"/>
-      <c r="CS59" s="14"/>
-      <c r="CT59" s="9"/>
+        <v>17.356160532427793</v>
+      </c>
+      <c r="CP59" s="25">
+        <v>13.711445850093455</v>
+      </c>
+      <c r="CQ59" s="25"/>
+      <c r="CR59" s="25"/>
+      <c r="CS59" s="25"/>
+      <c r="CT59" s="25"/>
       <c r="CU59" s="9"/>
       <c r="CV59" s="9"/>
       <c r="CW59" s="9"/>
@@ -31596,10 +31665,11 @@
       <c r="CM60" s="12"/>
       <c r="CN60" s="12"/>
       <c r="CO60" s="12"/>
-      <c r="CP60" s="12"/>
-      <c r="CQ60" s="12"/>
-      <c r="CR60" s="12"/>
-      <c r="CS60" s="12"/>
+      <c r="CP60" s="23"/>
+      <c r="CQ60" s="23"/>
+      <c r="CR60" s="23"/>
+      <c r="CS60" s="23"/>
+      <c r="CT60" s="23"/>
     </row>
     <row r="61" spans="1:150" x14ac:dyDescent="0.2">
       <c r="A61" s="13" t="s">
@@ -31699,11 +31769,11 @@
       <c r="CM62" s="9"/>
       <c r="CN62" s="9"/>
       <c r="CO62" s="9"/>
-      <c r="CP62" s="9"/>
-      <c r="CQ62" s="9"/>
-      <c r="CR62" s="9"/>
-      <c r="CS62" s="9"/>
-      <c r="CT62" s="9"/>
+      <c r="CP62" s="21"/>
+      <c r="CQ62" s="21"/>
+      <c r="CR62" s="21"/>
+      <c r="CS62" s="21"/>
+      <c r="CT62" s="21"/>
       <c r="CU62" s="9"/>
       <c r="CV62" s="9"/>
       <c r="CW62" s="9"/>
@@ -31850,11 +31920,11 @@
       <c r="CM63" s="9"/>
       <c r="CN63" s="9"/>
       <c r="CO63" s="9"/>
-      <c r="CP63" s="9"/>
-      <c r="CQ63" s="9"/>
-      <c r="CR63" s="9"/>
-      <c r="CS63" s="9"/>
-      <c r="CT63" s="9"/>
+      <c r="CP63" s="21"/>
+      <c r="CQ63" s="21"/>
+      <c r="CR63" s="21"/>
+      <c r="CS63" s="21"/>
+      <c r="CT63" s="21"/>
       <c r="CU63" s="9"/>
       <c r="CV63" s="9"/>
       <c r="CW63" s="9"/>
@@ -31920,7 +31990,7 @@
     </row>
     <row r="66" spans="1:150" x14ac:dyDescent="0.2">
       <c r="A66" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="68" spans="1:150" x14ac:dyDescent="0.2">
@@ -31930,7 +32000,7 @@
     </row>
     <row r="69" spans="1:150" x14ac:dyDescent="0.2">
       <c r="A69" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
     </row>
     <row r="70" spans="1:150" x14ac:dyDescent="0.2">
@@ -31940,148 +32010,151 @@
     </row>
     <row r="72" spans="1:150" x14ac:dyDescent="0.2">
       <c r="A72" s="4"/>
-      <c r="B72" s="17" t="s">
+      <c r="B72" s="26" t="s">
         <v>31</v>
       </c>
-      <c r="C72" s="19"/>
-      <c r="D72" s="19"/>
-      <c r="E72" s="19"/>
-      <c r="F72" s="17" t="s">
+      <c r="C72" s="28"/>
+      <c r="D72" s="28"/>
+      <c r="E72" s="28"/>
+      <c r="F72" s="26" t="s">
         <v>32</v>
       </c>
-      <c r="G72" s="19"/>
-      <c r="H72" s="19"/>
-      <c r="I72" s="19"/>
-      <c r="J72" s="17" t="s">
+      <c r="G72" s="28"/>
+      <c r="H72" s="28"/>
+      <c r="I72" s="28"/>
+      <c r="J72" s="26" t="s">
         <v>33</v>
       </c>
-      <c r="K72" s="19"/>
-      <c r="L72" s="19"/>
-      <c r="M72" s="19"/>
-      <c r="N72" s="17" t="s">
+      <c r="K72" s="28"/>
+      <c r="L72" s="28"/>
+      <c r="M72" s="28"/>
+      <c r="N72" s="26" t="s">
         <v>34</v>
       </c>
-      <c r="O72" s="19"/>
-      <c r="P72" s="19"/>
-      <c r="Q72" s="19"/>
-      <c r="R72" s="17" t="s">
+      <c r="O72" s="28"/>
+      <c r="P72" s="28"/>
+      <c r="Q72" s="28"/>
+      <c r="R72" s="26" t="s">
         <v>35</v>
       </c>
-      <c r="S72" s="19"/>
-      <c r="T72" s="19"/>
-      <c r="U72" s="19"/>
-      <c r="V72" s="17" t="s">
+      <c r="S72" s="28"/>
+      <c r="T72" s="28"/>
+      <c r="U72" s="28"/>
+      <c r="V72" s="26" t="s">
         <v>36</v>
       </c>
-      <c r="W72" s="19"/>
-      <c r="X72" s="19"/>
-      <c r="Y72" s="19"/>
-      <c r="Z72" s="17" t="s">
+      <c r="W72" s="28"/>
+      <c r="X72" s="28"/>
+      <c r="Y72" s="28"/>
+      <c r="Z72" s="26" t="s">
         <v>37</v>
       </c>
-      <c r="AA72" s="19"/>
-      <c r="AB72" s="19"/>
-      <c r="AC72" s="19"/>
-      <c r="AD72" s="17" t="s">
+      <c r="AA72" s="28"/>
+      <c r="AB72" s="28"/>
+      <c r="AC72" s="28"/>
+      <c r="AD72" s="26" t="s">
         <v>38</v>
       </c>
-      <c r="AE72" s="19"/>
-      <c r="AF72" s="19"/>
-      <c r="AG72" s="19"/>
-      <c r="AH72" s="17" t="s">
+      <c r="AE72" s="28"/>
+      <c r="AF72" s="28"/>
+      <c r="AG72" s="28"/>
+      <c r="AH72" s="26" t="s">
         <v>39</v>
       </c>
-      <c r="AI72" s="19"/>
-      <c r="AJ72" s="19"/>
-      <c r="AK72" s="19"/>
-      <c r="AL72" s="17" t="s">
+      <c r="AI72" s="28"/>
+      <c r="AJ72" s="28"/>
+      <c r="AK72" s="28"/>
+      <c r="AL72" s="26" t="s">
         <v>40</v>
       </c>
-      <c r="AM72" s="19"/>
-      <c r="AN72" s="19"/>
-      <c r="AO72" s="19"/>
-      <c r="AP72" s="17" t="s">
+      <c r="AM72" s="28"/>
+      <c r="AN72" s="28"/>
+      <c r="AO72" s="28"/>
+      <c r="AP72" s="26" t="s">
         <v>41</v>
       </c>
-      <c r="AQ72" s="19"/>
-      <c r="AR72" s="19"/>
-      <c r="AS72" s="19"/>
-      <c r="AT72" s="17" t="s">
+      <c r="AQ72" s="28"/>
+      <c r="AR72" s="28"/>
+      <c r="AS72" s="28"/>
+      <c r="AT72" s="26" t="s">
         <v>42</v>
       </c>
-      <c r="AU72" s="19"/>
-      <c r="AV72" s="19"/>
-      <c r="AW72" s="19"/>
-      <c r="AX72" s="17" t="s">
+      <c r="AU72" s="28"/>
+      <c r="AV72" s="28"/>
+      <c r="AW72" s="28"/>
+      <c r="AX72" s="26" t="s">
         <v>43</v>
       </c>
-      <c r="AY72" s="19"/>
-      <c r="AZ72" s="19"/>
-      <c r="BA72" s="19"/>
-      <c r="BB72" s="17" t="s">
+      <c r="AY72" s="28"/>
+      <c r="AZ72" s="28"/>
+      <c r="BA72" s="28"/>
+      <c r="BB72" s="26" t="s">
         <v>44</v>
       </c>
-      <c r="BC72" s="19"/>
-      <c r="BD72" s="19"/>
-      <c r="BE72" s="19"/>
-      <c r="BF72" s="17" t="s">
+      <c r="BC72" s="28"/>
+      <c r="BD72" s="28"/>
+      <c r="BE72" s="28"/>
+      <c r="BF72" s="26" t="s">
         <v>45</v>
       </c>
-      <c r="BG72" s="19"/>
-      <c r="BH72" s="19"/>
-      <c r="BI72" s="19"/>
-      <c r="BJ72" s="17" t="s">
+      <c r="BG72" s="28"/>
+      <c r="BH72" s="28"/>
+      <c r="BI72" s="28"/>
+      <c r="BJ72" s="26" t="s">
         <v>46</v>
       </c>
-      <c r="BK72" s="19"/>
-      <c r="BL72" s="19"/>
-      <c r="BM72" s="19"/>
-      <c r="BN72" s="17" t="s">
+      <c r="BK72" s="28"/>
+      <c r="BL72" s="28"/>
+      <c r="BM72" s="28"/>
+      <c r="BN72" s="26" t="s">
         <v>47</v>
       </c>
-      <c r="BO72" s="19"/>
-      <c r="BP72" s="19"/>
-      <c r="BQ72" s="19"/>
-      <c r="BR72" s="17" t="s">
+      <c r="BO72" s="28"/>
+      <c r="BP72" s="28"/>
+      <c r="BQ72" s="28"/>
+      <c r="BR72" s="26" t="s">
         <v>27</v>
       </c>
-      <c r="BS72" s="19"/>
-      <c r="BT72" s="19"/>
-      <c r="BU72" s="19"/>
-      <c r="BV72" s="17" t="s">
+      <c r="BS72" s="28"/>
+      <c r="BT72" s="28"/>
+      <c r="BU72" s="28"/>
+      <c r="BV72" s="26" t="s">
         <v>28</v>
       </c>
-      <c r="BW72" s="19"/>
-      <c r="BX72" s="19"/>
-      <c r="BY72" s="19"/>
-      <c r="BZ72" s="17" t="s">
+      <c r="BW72" s="28"/>
+      <c r="BX72" s="28"/>
+      <c r="BY72" s="28"/>
+      <c r="BZ72" s="26" t="s">
         <v>29</v>
       </c>
-      <c r="CA72" s="19"/>
-      <c r="CB72" s="19"/>
-      <c r="CC72" s="19"/>
-      <c r="CD72" s="17" t="s">
+      <c r="CA72" s="28"/>
+      <c r="CB72" s="28"/>
+      <c r="CC72" s="28"/>
+      <c r="CD72" s="26" t="s">
         <v>48</v>
       </c>
-      <c r="CE72" s="17"/>
-      <c r="CF72" s="17"/>
-      <c r="CG72" s="17"/>
-      <c r="CH72" s="17" t="s">
+      <c r="CE72" s="26"/>
+      <c r="CF72" s="26"/>
+      <c r="CG72" s="26"/>
+      <c r="CH72" s="15" t="s">
         <v>49</v>
       </c>
-      <c r="CI72" s="17"/>
-      <c r="CJ72" s="17"/>
-      <c r="CK72" s="17"/>
-      <c r="CL72" s="16" t="s">
+      <c r="CI72" s="15"/>
+      <c r="CJ72" s="15"/>
+      <c r="CK72" s="15"/>
+      <c r="CL72" s="15" t="s">
         <v>50</v>
       </c>
-      <c r="CM72" s="16"/>
-      <c r="CN72" s="16"/>
-      <c r="CO72" s="16"/>
-      <c r="CP72" s="15"/>
-      <c r="CQ72" s="15"/>
-      <c r="CR72" s="15"/>
-      <c r="CS72" s="15"/>
+      <c r="CM72" s="15"/>
+      <c r="CN72" s="15"/>
+      <c r="CO72" s="15"/>
+      <c r="CP72" s="18" t="s">
+        <v>51</v>
+      </c>
+      <c r="CQ72" s="16"/>
+      <c r="CR72" s="16"/>
+      <c r="CS72" s="16"/>
+      <c r="CT72" s="16"/>
     </row>
     <row r="73" spans="1:150" x14ac:dyDescent="0.2">
       <c r="A73" s="5" t="s">
@@ -32363,10 +32436,13 @@
       <c r="CO73" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="CP73" s="5"/>
-      <c r="CQ73" s="5"/>
-      <c r="CR73" s="5"/>
-      <c r="CS73" s="5"/>
+      <c r="CP73" s="24" t="s">
+        <v>7</v>
+      </c>
+      <c r="CQ73" s="24"/>
+      <c r="CR73" s="24"/>
+      <c r="CS73" s="24"/>
+      <c r="CT73" s="24"/>
     </row>
     <row r="74" spans="1:150" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A74" s="7"/>
@@ -32637,10 +32713,10 @@
         <v>9.4764044737233775</v>
       </c>
       <c r="CK75" s="14">
-        <v>9.8272824283011033</v>
+        <v>9.8275616019282381</v>
       </c>
       <c r="CL75" s="14">
-        <v>11.212561659237835</v>
+        <v>10.9830853039728</v>
       </c>
       <c r="CM75" s="14">
         <v>9.0369968575365789</v>
@@ -32649,13 +32725,15 @@
         <v>11.718827411181749</v>
       </c>
       <c r="CO75" s="14">
-        <v>13.402460419387836</v>
-      </c>
-      <c r="CP75" s="14"/>
-      <c r="CQ75" s="14"/>
-      <c r="CR75" s="14"/>
-      <c r="CS75" s="14"/>
-      <c r="CT75" s="9"/>
+        <v>14.960675854645515</v>
+      </c>
+      <c r="CP75" s="25">
+        <v>12.718130961833737</v>
+      </c>
+      <c r="CQ75" s="25"/>
+      <c r="CR75" s="25"/>
+      <c r="CS75" s="25"/>
+      <c r="CT75" s="25"/>
       <c r="CU75" s="9"/>
       <c r="CV75" s="9"/>
       <c r="CW75" s="9"/>
@@ -32975,25 +33053,27 @@
         <v>8.5336810985313036</v>
       </c>
       <c r="CK76" s="14">
-        <v>10.381601710819254</v>
+        <v>10.628433741657346</v>
       </c>
       <c r="CL76" s="14">
-        <v>9.8621323228153699</v>
+        <v>8.1729960417868739</v>
       </c>
       <c r="CM76" s="14">
-        <v>2.1555968660023268</v>
+        <v>1.8100124025257855</v>
       </c>
       <c r="CN76" s="14">
         <v>8.9111131604804257</v>
       </c>
       <c r="CO76" s="14">
-        <v>11.444200216382015</v>
-      </c>
-      <c r="CP76" s="14"/>
-      <c r="CQ76" s="14"/>
-      <c r="CR76" s="14"/>
-      <c r="CS76" s="14"/>
-      <c r="CT76" s="9"/>
+        <v>11.059082688113264</v>
+      </c>
+      <c r="CP76" s="25">
+        <v>4.7651654652751887</v>
+      </c>
+      <c r="CQ76" s="25"/>
+      <c r="CR76" s="25"/>
+      <c r="CS76" s="25"/>
+      <c r="CT76" s="25"/>
       <c r="CU76" s="9"/>
       <c r="CV76" s="9"/>
       <c r="CW76" s="9"/>
@@ -33325,13 +33405,15 @@
         <v>2.7698679579122825</v>
       </c>
       <c r="CO77" s="14">
-        <v>6.8849267919904378</v>
-      </c>
-      <c r="CP77" s="14"/>
-      <c r="CQ77" s="14"/>
-      <c r="CR77" s="14"/>
-      <c r="CS77" s="14"/>
-      <c r="CT77" s="9"/>
+        <v>4.2861146646737609</v>
+      </c>
+      <c r="CP77" s="25">
+        <v>5.4625445463549056</v>
+      </c>
+      <c r="CQ77" s="25"/>
+      <c r="CR77" s="25"/>
+      <c r="CS77" s="25"/>
+      <c r="CT77" s="25"/>
       <c r="CU77" s="9"/>
       <c r="CV77" s="9"/>
       <c r="CW77" s="9"/>
@@ -33651,25 +33733,27 @@
         <v>4.524240547293104</v>
       </c>
       <c r="CK78" s="14">
-        <v>6.7295841723780541</v>
+        <v>6.4352949903667707</v>
       </c>
       <c r="CL78" s="14">
         <v>2.8554756057137354</v>
       </c>
       <c r="CM78" s="14">
-        <v>5.995251940898072</v>
+        <v>5.8720418053373606</v>
       </c>
       <c r="CN78" s="14">
         <v>8.8874802722048543</v>
       </c>
       <c r="CO78" s="14">
-        <v>12.331624588309566</v>
-      </c>
-      <c r="CP78" s="14"/>
-      <c r="CQ78" s="14"/>
-      <c r="CR78" s="14"/>
-      <c r="CS78" s="14"/>
-      <c r="CT78" s="9"/>
+        <v>12.563954286450695</v>
+      </c>
+      <c r="CP78" s="25">
+        <v>13.774748115116722</v>
+      </c>
+      <c r="CQ78" s="25"/>
+      <c r="CR78" s="25"/>
+      <c r="CS78" s="25"/>
+      <c r="CT78" s="25"/>
       <c r="CU78" s="9"/>
       <c r="CV78" s="9"/>
       <c r="CW78" s="9"/>
@@ -33816,11 +33900,11 @@
       <c r="CM79" s="9"/>
       <c r="CN79" s="9"/>
       <c r="CO79" s="9"/>
-      <c r="CP79" s="9"/>
-      <c r="CQ79" s="9"/>
-      <c r="CR79" s="9"/>
-      <c r="CS79" s="9"/>
-      <c r="CT79" s="9"/>
+      <c r="CP79" s="21"/>
+      <c r="CQ79" s="21"/>
+      <c r="CR79" s="21"/>
+      <c r="CS79" s="21"/>
+      <c r="CT79" s="21"/>
       <c r="CU79" s="9"/>
       <c r="CV79" s="9"/>
       <c r="CW79" s="9"/>
@@ -34140,25 +34224,27 @@
         <v>7.9232213029888214</v>
       </c>
       <c r="CK80" s="14">
-        <v>9.335245890382609</v>
+        <v>9.3983613162653086</v>
       </c>
       <c r="CL80" s="14">
-        <v>8.7829391683283973</v>
+        <v>8.234065598422319</v>
       </c>
       <c r="CM80" s="14">
-        <v>5.3419377766094129</v>
+        <v>5.2083451667221539</v>
       </c>
       <c r="CN80" s="14">
         <v>9.6464658187148018</v>
       </c>
       <c r="CO80" s="14">
-        <v>11.777719008991411</v>
-      </c>
-      <c r="CP80" s="14"/>
-      <c r="CQ80" s="14"/>
-      <c r="CR80" s="14"/>
-      <c r="CS80" s="14"/>
-      <c r="CT80" s="9"/>
+        <v>12.040666109466088</v>
+      </c>
+      <c r="CP80" s="25">
+        <v>9.9939401645549992</v>
+      </c>
+      <c r="CQ80" s="25"/>
+      <c r="CR80" s="25"/>
+      <c r="CS80" s="25"/>
+      <c r="CT80" s="25"/>
       <c r="CU80" s="9"/>
       <c r="CV80" s="9"/>
       <c r="CW80" s="9"/>
@@ -34306,10 +34392,11 @@
       <c r="CM81" s="12"/>
       <c r="CN81" s="12"/>
       <c r="CO81" s="12"/>
-      <c r="CP81" s="12"/>
-      <c r="CQ81" s="12"/>
-      <c r="CR81" s="12"/>
-      <c r="CS81" s="12"/>
+      <c r="CP81" s="23"/>
+      <c r="CQ81" s="23"/>
+      <c r="CR81" s="23"/>
+      <c r="CS81" s="23"/>
+      <c r="CT81" s="23"/>
     </row>
     <row r="82" spans="1:154" x14ac:dyDescent="0.2">
       <c r="A82" s="13" t="s">
@@ -34409,11 +34496,11 @@
       <c r="CM83" s="9"/>
       <c r="CN83" s="9"/>
       <c r="CO83" s="9"/>
-      <c r="CP83" s="9"/>
-      <c r="CQ83" s="9"/>
-      <c r="CR83" s="9"/>
-      <c r="CS83" s="9"/>
-      <c r="CT83" s="9"/>
+      <c r="CP83" s="21"/>
+      <c r="CQ83" s="21"/>
+      <c r="CR83" s="21"/>
+      <c r="CS83" s="21"/>
+      <c r="CT83" s="21"/>
       <c r="CU83" s="9"/>
       <c r="CV83" s="9"/>
       <c r="CW83" s="9"/>
@@ -34560,11 +34647,11 @@
       <c r="CM84" s="9"/>
       <c r="CN84" s="9"/>
       <c r="CO84" s="9"/>
-      <c r="CP84" s="9"/>
-      <c r="CQ84" s="9"/>
-      <c r="CR84" s="9"/>
-      <c r="CS84" s="9"/>
-      <c r="CT84" s="9"/>
+      <c r="CP84" s="21"/>
+      <c r="CQ84" s="21"/>
+      <c r="CR84" s="21"/>
+      <c r="CS84" s="21"/>
+      <c r="CT84" s="21"/>
       <c r="CU84" s="9"/>
       <c r="CV84" s="9"/>
       <c r="CW84" s="9"/>
@@ -34625,7 +34712,7 @@
     </row>
     <row r="86" spans="1:154" x14ac:dyDescent="0.2">
       <c r="A86" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="88" spans="1:154" x14ac:dyDescent="0.2">
@@ -34635,7 +34722,7 @@
     </row>
     <row r="89" spans="1:154" x14ac:dyDescent="0.2">
       <c r="A89" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
     </row>
     <row r="90" spans="1:154" x14ac:dyDescent="0.2">
@@ -34645,150 +34732,153 @@
     </row>
     <row r="92" spans="1:154" x14ac:dyDescent="0.2">
       <c r="A92" s="4"/>
-      <c r="B92" s="17">
+      <c r="B92" s="26">
         <v>2000</v>
       </c>
-      <c r="C92" s="18"/>
-      <c r="D92" s="18"/>
-      <c r="E92" s="18"/>
-      <c r="F92" s="17">
+      <c r="C92" s="27"/>
+      <c r="D92" s="27"/>
+      <c r="E92" s="27"/>
+      <c r="F92" s="26">
         <v>2001</v>
       </c>
-      <c r="G92" s="18"/>
-      <c r="H92" s="18"/>
-      <c r="I92" s="18"/>
-      <c r="J92" s="17">
+      <c r="G92" s="27"/>
+      <c r="H92" s="27"/>
+      <c r="I92" s="27"/>
+      <c r="J92" s="26">
         <v>2002</v>
       </c>
-      <c r="K92" s="18"/>
-      <c r="L92" s="18"/>
-      <c r="M92" s="18"/>
-      <c r="N92" s="17">
+      <c r="K92" s="27"/>
+      <c r="L92" s="27"/>
+      <c r="M92" s="27"/>
+      <c r="N92" s="26">
         <v>2003</v>
       </c>
-      <c r="O92" s="18"/>
-      <c r="P92" s="18"/>
-      <c r="Q92" s="18"/>
-      <c r="R92" s="17">
+      <c r="O92" s="27"/>
+      <c r="P92" s="27"/>
+      <c r="Q92" s="27"/>
+      <c r="R92" s="26">
         <v>2004</v>
       </c>
-      <c r="S92" s="18"/>
-      <c r="T92" s="18"/>
-      <c r="U92" s="18"/>
-      <c r="V92" s="17">
+      <c r="S92" s="27"/>
+      <c r="T92" s="27"/>
+      <c r="U92" s="27"/>
+      <c r="V92" s="26">
         <v>2005</v>
       </c>
-      <c r="W92" s="18"/>
-      <c r="X92" s="18"/>
-      <c r="Y92" s="18"/>
-      <c r="Z92" s="17">
+      <c r="W92" s="27"/>
+      <c r="X92" s="27"/>
+      <c r="Y92" s="27"/>
+      <c r="Z92" s="26">
         <v>2006</v>
       </c>
-      <c r="AA92" s="18"/>
-      <c r="AB92" s="18"/>
-      <c r="AC92" s="18"/>
-      <c r="AD92" s="17">
+      <c r="AA92" s="27"/>
+      <c r="AB92" s="27"/>
+      <c r="AC92" s="27"/>
+      <c r="AD92" s="26">
         <v>2007</v>
       </c>
-      <c r="AE92" s="18"/>
-      <c r="AF92" s="18"/>
-      <c r="AG92" s="18"/>
-      <c r="AH92" s="17">
+      <c r="AE92" s="27"/>
+      <c r="AF92" s="27"/>
+      <c r="AG92" s="27"/>
+      <c r="AH92" s="26">
         <v>2008</v>
       </c>
-      <c r="AI92" s="18"/>
-      <c r="AJ92" s="18"/>
-      <c r="AK92" s="18"/>
-      <c r="AL92" s="17">
+      <c r="AI92" s="27"/>
+      <c r="AJ92" s="27"/>
+      <c r="AK92" s="27"/>
+      <c r="AL92" s="26">
         <v>2009</v>
       </c>
-      <c r="AM92" s="18"/>
-      <c r="AN92" s="18"/>
-      <c r="AO92" s="18"/>
-      <c r="AP92" s="17">
+      <c r="AM92" s="27"/>
+      <c r="AN92" s="27"/>
+      <c r="AO92" s="27"/>
+      <c r="AP92" s="26">
         <v>2010</v>
       </c>
-      <c r="AQ92" s="18"/>
-      <c r="AR92" s="18"/>
-      <c r="AS92" s="18"/>
-      <c r="AT92" s="17">
+      <c r="AQ92" s="27"/>
+      <c r="AR92" s="27"/>
+      <c r="AS92" s="27"/>
+      <c r="AT92" s="26">
         <v>2011</v>
       </c>
-      <c r="AU92" s="18"/>
-      <c r="AV92" s="18"/>
-      <c r="AW92" s="18"/>
-      <c r="AX92" s="17">
+      <c r="AU92" s="27"/>
+      <c r="AV92" s="27"/>
+      <c r="AW92" s="27"/>
+      <c r="AX92" s="26">
         <v>2012</v>
       </c>
-      <c r="AY92" s="18"/>
-      <c r="AZ92" s="18"/>
-      <c r="BA92" s="18"/>
-      <c r="BB92" s="17">
+      <c r="AY92" s="27"/>
+      <c r="AZ92" s="27"/>
+      <c r="BA92" s="27"/>
+      <c r="BB92" s="26">
         <v>2013</v>
       </c>
-      <c r="BC92" s="18"/>
-      <c r="BD92" s="18"/>
-      <c r="BE92" s="18"/>
-      <c r="BF92" s="17">
+      <c r="BC92" s="27"/>
+      <c r="BD92" s="27"/>
+      <c r="BE92" s="27"/>
+      <c r="BF92" s="26">
         <v>2014</v>
       </c>
-      <c r="BG92" s="18"/>
-      <c r="BH92" s="18"/>
-      <c r="BI92" s="18"/>
-      <c r="BJ92" s="17">
+      <c r="BG92" s="27"/>
+      <c r="BH92" s="27"/>
+      <c r="BI92" s="27"/>
+      <c r="BJ92" s="26">
         <v>2015</v>
       </c>
-      <c r="BK92" s="18"/>
-      <c r="BL92" s="18"/>
-      <c r="BM92" s="18"/>
-      <c r="BN92" s="17">
+      <c r="BK92" s="27"/>
+      <c r="BL92" s="27"/>
+      <c r="BM92" s="27"/>
+      <c r="BN92" s="26">
         <v>2016</v>
       </c>
-      <c r="BO92" s="18"/>
-      <c r="BP92" s="18"/>
-      <c r="BQ92" s="18"/>
-      <c r="BR92" s="17">
+      <c r="BO92" s="27"/>
+      <c r="BP92" s="27"/>
+      <c r="BQ92" s="27"/>
+      <c r="BR92" s="26">
         <v>2017</v>
       </c>
-      <c r="BS92" s="18"/>
-      <c r="BT92" s="18"/>
-      <c r="BU92" s="18"/>
-      <c r="BV92" s="17">
+      <c r="BS92" s="27"/>
+      <c r="BT92" s="27"/>
+      <c r="BU92" s="27"/>
+      <c r="BV92" s="26">
         <v>2018</v>
       </c>
-      <c r="BW92" s="18"/>
-      <c r="BX92" s="18"/>
-      <c r="BY92" s="18"/>
-      <c r="BZ92" s="17">
+      <c r="BW92" s="27"/>
+      <c r="BX92" s="27"/>
+      <c r="BY92" s="27"/>
+      <c r="BZ92" s="26">
         <v>2019</v>
       </c>
-      <c r="CA92" s="18"/>
-      <c r="CB92" s="18"/>
-      <c r="CC92" s="18"/>
-      <c r="CD92" s="17">
+      <c r="CA92" s="27"/>
+      <c r="CB92" s="27"/>
+      <c r="CC92" s="27"/>
+      <c r="CD92" s="26">
         <v>2020</v>
       </c>
-      <c r="CE92" s="17"/>
-      <c r="CF92" s="17"/>
-      <c r="CG92" s="17"/>
-      <c r="CH92" s="17">
+      <c r="CE92" s="26"/>
+      <c r="CF92" s="26"/>
+      <c r="CG92" s="26"/>
+      <c r="CH92" s="15">
         <v>2021</v>
       </c>
-      <c r="CI92" s="17"/>
-      <c r="CJ92" s="17"/>
-      <c r="CK92" s="17"/>
-      <c r="CL92" s="16">
+      <c r="CI92" s="15"/>
+      <c r="CJ92" s="15"/>
+      <c r="CK92" s="15"/>
+      <c r="CL92" s="15">
         <v>2022</v>
       </c>
-      <c r="CM92" s="16"/>
-      <c r="CN92" s="16"/>
-      <c r="CO92" s="16"/>
-      <c r="CP92" s="16">
+      <c r="CM92" s="15"/>
+      <c r="CN92" s="15"/>
+      <c r="CO92" s="15"/>
+      <c r="CP92" s="18">
         <v>2023</v>
       </c>
-      <c r="CQ92" s="16"/>
-      <c r="CR92" s="16"/>
-      <c r="CS92" s="16"/>
+      <c r="CQ92" s="18"/>
+      <c r="CR92" s="18"/>
+      <c r="CS92" s="18"/>
+      <c r="CT92" s="18">
+        <v>2024</v>
+      </c>
     </row>
     <row r="93" spans="1:154" x14ac:dyDescent="0.2">
       <c r="A93" s="5" t="s">
@@ -35070,17 +35160,20 @@
       <c r="CO93" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="CP93" s="6" t="s">
+      <c r="CP93" s="19" t="s">
         <v>7</v>
       </c>
-      <c r="CQ93" s="6" t="s">
+      <c r="CQ93" s="19" t="s">
         <v>8</v>
       </c>
-      <c r="CR93" s="6" t="s">
+      <c r="CR93" s="19" t="s">
         <v>10</v>
       </c>
-      <c r="CS93" s="6" t="s">
+      <c r="CS93" s="19" t="s">
         <v>9</v>
+      </c>
+      <c r="CT93" s="19" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="94" spans="1:154" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
@@ -35364,21 +35457,23 @@
         <v>112.52153114587102</v>
       </c>
       <c r="CO95" s="14">
-        <v>114.82375821619833</v>
-      </c>
-      <c r="CP95" s="14">
+        <v>114.8237582161983</v>
+      </c>
+      <c r="CP95" s="25">
         <v>119.06559273198043</v>
       </c>
-      <c r="CQ95" s="14">
+      <c r="CQ95" s="25">
         <v>119.93600428380584</v>
       </c>
-      <c r="CR95" s="14">
+      <c r="CR95" s="25">
         <v>117.95632110021661</v>
       </c>
-      <c r="CS95" s="14">
-        <v>120.2356722029906</v>
-      </c>
-      <c r="CT95" s="9"/>
+      <c r="CS95" s="25">
+        <v>120.23567220299059</v>
+      </c>
+      <c r="CT95" s="25">
+        <v>123.2042465650166</v>
+      </c>
       <c r="CU95" s="9"/>
       <c r="CV95" s="9"/>
       <c r="CW95" s="9"/>
@@ -35714,21 +35809,23 @@
         <v>111.44310904146781</v>
       </c>
       <c r="CO96" s="14">
-        <v>114.05321500450081</v>
-      </c>
-      <c r="CP96" s="14">
+        <v>114.05321500450079</v>
+      </c>
+      <c r="CP96" s="25">
         <v>118.11260589622094</v>
       </c>
-      <c r="CQ96" s="14">
-        <v>118.34979842855556</v>
-      </c>
-      <c r="CR96" s="14">
+      <c r="CQ96" s="25">
+        <v>118.34979300275855</v>
+      </c>
+      <c r="CR96" s="25">
         <v>116.32431721748414</v>
       </c>
-      <c r="CS96" s="14">
-        <v>119.25153447144272</v>
-      </c>
-      <c r="CT96" s="9"/>
+      <c r="CS96" s="25">
+        <v>119.2515344714428</v>
+      </c>
+      <c r="CT96" s="25">
+        <v>121.69066063496001</v>
+      </c>
       <c r="CU96" s="9"/>
       <c r="CV96" s="9"/>
       <c r="CW96" s="9"/>
@@ -36066,19 +36163,21 @@
       <c r="CO97" s="14">
         <v>112.3525858894685</v>
       </c>
-      <c r="CP97" s="14">
+      <c r="CP97" s="25">
         <v>120.83632613767128</v>
       </c>
-      <c r="CQ97" s="14">
+      <c r="CQ97" s="25">
         <v>115.42350468533623</v>
       </c>
-      <c r="CR97" s="14">
+      <c r="CR97" s="25">
         <v>115.01204922441927</v>
       </c>
-      <c r="CS97" s="14">
+      <c r="CS97" s="25">
         <v>117.78195239278048</v>
       </c>
-      <c r="CT97" s="9"/>
+      <c r="CT97" s="25">
+        <v>125.02625590995207</v>
+      </c>
       <c r="CU97" s="9"/>
       <c r="CV97" s="9"/>
       <c r="CW97" s="9"/>
@@ -36414,21 +36513,23 @@
         <v>113.09341837022909</v>
       </c>
       <c r="CO98" s="14">
-        <v>114.37964806558402</v>
-      </c>
-      <c r="CP98" s="14">
+        <v>114.37964806558401</v>
+      </c>
+      <c r="CP98" s="25">
         <v>119.19530947514345</v>
       </c>
-      <c r="CQ98" s="14">
-        <v>121.5158892009612</v>
-      </c>
-      <c r="CR98" s="14">
+      <c r="CQ98" s="25">
+        <v>121.51588527198483</v>
+      </c>
+      <c r="CR98" s="25">
         <v>117.91119799280088</v>
       </c>
-      <c r="CS98" s="14">
-        <v>120.64791004259878</v>
-      </c>
-      <c r="CT98" s="9"/>
+      <c r="CS98" s="25">
+        <v>120.64791004259881</v>
+      </c>
+      <c r="CT98" s="25">
+        <v>123.48508473313625</v>
+      </c>
       <c r="CU98" s="9"/>
       <c r="CV98" s="9"/>
       <c r="CW98" s="9"/>
@@ -36579,11 +36680,11 @@
       <c r="CM99" s="9"/>
       <c r="CN99" s="9"/>
       <c r="CO99" s="9"/>
-      <c r="CP99" s="9"/>
-      <c r="CQ99" s="9"/>
-      <c r="CR99" s="9"/>
-      <c r="CS99" s="9"/>
-      <c r="CT99" s="9"/>
+      <c r="CP99" s="21"/>
+      <c r="CQ99" s="21"/>
+      <c r="CR99" s="21"/>
+      <c r="CS99" s="21"/>
+      <c r="CT99" s="21"/>
       <c r="CU99" s="9"/>
       <c r="CV99" s="9"/>
       <c r="CW99" s="9"/>
@@ -36919,21 +37020,23 @@
         <v>111.88965793290247</v>
       </c>
       <c r="CO100" s="14">
-        <v>114.19665148326661</v>
-      </c>
-      <c r="CP100" s="14">
-        <v>119.0331687718906</v>
-      </c>
-      <c r="CQ100" s="14">
-        <v>118.95424063479692</v>
-      </c>
-      <c r="CR100" s="14">
+        <v>114.19652206198758</v>
+      </c>
+      <c r="CP100" s="25">
+        <v>119.03666167811731</v>
+      </c>
+      <c r="CQ100" s="25">
+        <v>118.95481079060981</v>
+      </c>
+      <c r="CR100" s="25">
         <v>117.15342414443401</v>
       </c>
-      <c r="CS100" s="14">
-        <v>119.60390963112543</v>
-      </c>
-      <c r="CT100" s="9"/>
+      <c r="CS100" s="25">
+        <v>119.61429577951492</v>
+      </c>
+      <c r="CT100" s="25">
+        <v>123.05978755135989</v>
+      </c>
       <c r="CU100" s="9"/>
       <c r="CV100" s="9"/>
       <c r="CW100" s="9"/>
@@ -37085,10 +37188,11 @@
       <c r="CM101" s="12"/>
       <c r="CN101" s="12"/>
       <c r="CO101" s="12"/>
-      <c r="CP101" s="12"/>
-      <c r="CQ101" s="12"/>
-      <c r="CR101" s="12"/>
-      <c r="CS101" s="12"/>
+      <c r="CP101" s="23"/>
+      <c r="CQ101" s="23"/>
+      <c r="CR101" s="23"/>
+      <c r="CS101" s="23"/>
+      <c r="CT101" s="23"/>
     </row>
     <row r="102" spans="1:154" x14ac:dyDescent="0.2">
       <c r="A102" s="13" t="s">
@@ -37107,7 +37211,7 @@
     </row>
     <row r="107" spans="1:154" x14ac:dyDescent="0.2">
       <c r="A107" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="109" spans="1:154" x14ac:dyDescent="0.2">
@@ -37117,7 +37221,7 @@
     </row>
     <row r="110" spans="1:154" x14ac:dyDescent="0.2">
       <c r="A110" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
     </row>
     <row r="111" spans="1:154" x14ac:dyDescent="0.2">
@@ -37127,150 +37231,153 @@
     </row>
     <row r="113" spans="1:154" x14ac:dyDescent="0.2">
       <c r="A113" s="4"/>
-      <c r="B113" s="17">
+      <c r="B113" s="26">
         <v>2000</v>
       </c>
-      <c r="C113" s="18"/>
-      <c r="D113" s="18"/>
-      <c r="E113" s="18"/>
-      <c r="F113" s="17">
+      <c r="C113" s="27"/>
+      <c r="D113" s="27"/>
+      <c r="E113" s="27"/>
+      <c r="F113" s="26">
         <v>2001</v>
       </c>
-      <c r="G113" s="18"/>
-      <c r="H113" s="18"/>
-      <c r="I113" s="18"/>
-      <c r="J113" s="17">
+      <c r="G113" s="27"/>
+      <c r="H113" s="27"/>
+      <c r="I113" s="27"/>
+      <c r="J113" s="26">
         <v>2002</v>
       </c>
-      <c r="K113" s="18"/>
-      <c r="L113" s="18"/>
-      <c r="M113" s="18"/>
-      <c r="N113" s="17">
+      <c r="K113" s="27"/>
+      <c r="L113" s="27"/>
+      <c r="M113" s="27"/>
+      <c r="N113" s="26">
         <v>2003</v>
       </c>
-      <c r="O113" s="18"/>
-      <c r="P113" s="18"/>
-      <c r="Q113" s="18"/>
-      <c r="R113" s="17">
+      <c r="O113" s="27"/>
+      <c r="P113" s="27"/>
+      <c r="Q113" s="27"/>
+      <c r="R113" s="26">
         <v>2004</v>
       </c>
-      <c r="S113" s="18"/>
-      <c r="T113" s="18"/>
-      <c r="U113" s="18"/>
-      <c r="V113" s="17">
+      <c r="S113" s="27"/>
+      <c r="T113" s="27"/>
+      <c r="U113" s="27"/>
+      <c r="V113" s="26">
         <v>2005</v>
       </c>
-      <c r="W113" s="18"/>
-      <c r="X113" s="18"/>
-      <c r="Y113" s="18"/>
-      <c r="Z113" s="17">
+      <c r="W113" s="27"/>
+      <c r="X113" s="27"/>
+      <c r="Y113" s="27"/>
+      <c r="Z113" s="26">
         <v>2006</v>
       </c>
-      <c r="AA113" s="18"/>
-      <c r="AB113" s="18"/>
-      <c r="AC113" s="18"/>
-      <c r="AD113" s="17">
+      <c r="AA113" s="27"/>
+      <c r="AB113" s="27"/>
+      <c r="AC113" s="27"/>
+      <c r="AD113" s="26">
         <v>2007</v>
       </c>
-      <c r="AE113" s="18"/>
-      <c r="AF113" s="18"/>
-      <c r="AG113" s="18"/>
-      <c r="AH113" s="17">
+      <c r="AE113" s="27"/>
+      <c r="AF113" s="27"/>
+      <c r="AG113" s="27"/>
+      <c r="AH113" s="26">
         <v>2008</v>
       </c>
-      <c r="AI113" s="18"/>
-      <c r="AJ113" s="18"/>
-      <c r="AK113" s="18"/>
-      <c r="AL113" s="17">
+      <c r="AI113" s="27"/>
+      <c r="AJ113" s="27"/>
+      <c r="AK113" s="27"/>
+      <c r="AL113" s="26">
         <v>2009</v>
       </c>
-      <c r="AM113" s="18"/>
-      <c r="AN113" s="18"/>
-      <c r="AO113" s="18"/>
-      <c r="AP113" s="17">
+      <c r="AM113" s="27"/>
+      <c r="AN113" s="27"/>
+      <c r="AO113" s="27"/>
+      <c r="AP113" s="26">
         <v>2010</v>
       </c>
-      <c r="AQ113" s="18"/>
-      <c r="AR113" s="18"/>
-      <c r="AS113" s="18"/>
-      <c r="AT113" s="17">
+      <c r="AQ113" s="27"/>
+      <c r="AR113" s="27"/>
+      <c r="AS113" s="27"/>
+      <c r="AT113" s="26">
         <v>2011</v>
       </c>
-      <c r="AU113" s="18"/>
-      <c r="AV113" s="18"/>
-      <c r="AW113" s="18"/>
-      <c r="AX113" s="17">
+      <c r="AU113" s="27"/>
+      <c r="AV113" s="27"/>
+      <c r="AW113" s="27"/>
+      <c r="AX113" s="26">
         <v>2012</v>
       </c>
-      <c r="AY113" s="18"/>
-      <c r="AZ113" s="18"/>
-      <c r="BA113" s="18"/>
-      <c r="BB113" s="17">
+      <c r="AY113" s="27"/>
+      <c r="AZ113" s="27"/>
+      <c r="BA113" s="27"/>
+      <c r="BB113" s="26">
         <v>2013</v>
       </c>
-      <c r="BC113" s="18"/>
-      <c r="BD113" s="18"/>
-      <c r="BE113" s="18"/>
-      <c r="BF113" s="17">
+      <c r="BC113" s="27"/>
+      <c r="BD113" s="27"/>
+      <c r="BE113" s="27"/>
+      <c r="BF113" s="26">
         <v>2014</v>
       </c>
-      <c r="BG113" s="18"/>
-      <c r="BH113" s="18"/>
-      <c r="BI113" s="18"/>
-      <c r="BJ113" s="17">
+      <c r="BG113" s="27"/>
+      <c r="BH113" s="27"/>
+      <c r="BI113" s="27"/>
+      <c r="BJ113" s="26">
         <v>2015</v>
       </c>
-      <c r="BK113" s="18"/>
-      <c r="BL113" s="18"/>
-      <c r="BM113" s="18"/>
-      <c r="BN113" s="17">
+      <c r="BK113" s="27"/>
+      <c r="BL113" s="27"/>
+      <c r="BM113" s="27"/>
+      <c r="BN113" s="26">
         <v>2016</v>
       </c>
-      <c r="BO113" s="18"/>
-      <c r="BP113" s="18"/>
-      <c r="BQ113" s="18"/>
-      <c r="BR113" s="17">
+      <c r="BO113" s="27"/>
+      <c r="BP113" s="27"/>
+      <c r="BQ113" s="27"/>
+      <c r="BR113" s="26">
         <v>2017</v>
       </c>
-      <c r="BS113" s="18"/>
-      <c r="BT113" s="18"/>
-      <c r="BU113" s="18"/>
-      <c r="BV113" s="17">
+      <c r="BS113" s="27"/>
+      <c r="BT113" s="27"/>
+      <c r="BU113" s="27"/>
+      <c r="BV113" s="26">
         <v>2018</v>
       </c>
-      <c r="BW113" s="18"/>
-      <c r="BX113" s="18"/>
-      <c r="BY113" s="18"/>
-      <c r="BZ113" s="17">
+      <c r="BW113" s="27"/>
+      <c r="BX113" s="27"/>
+      <c r="BY113" s="27"/>
+      <c r="BZ113" s="26">
         <v>2019</v>
       </c>
-      <c r="CA113" s="18"/>
-      <c r="CB113" s="18"/>
-      <c r="CC113" s="18"/>
-      <c r="CD113" s="17">
+      <c r="CA113" s="27"/>
+      <c r="CB113" s="27"/>
+      <c r="CC113" s="27"/>
+      <c r="CD113" s="26">
         <v>2020</v>
       </c>
-      <c r="CE113" s="17"/>
-      <c r="CF113" s="17"/>
-      <c r="CG113" s="17"/>
-      <c r="CH113" s="17">
+      <c r="CE113" s="26"/>
+      <c r="CF113" s="26"/>
+      <c r="CG113" s="26"/>
+      <c r="CH113" s="15">
         <v>2021</v>
       </c>
-      <c r="CI113" s="17"/>
-      <c r="CJ113" s="17"/>
-      <c r="CK113" s="17"/>
-      <c r="CL113" s="16">
+      <c r="CI113" s="15"/>
+      <c r="CJ113" s="15"/>
+      <c r="CK113" s="15"/>
+      <c r="CL113" s="15">
         <v>2022</v>
       </c>
-      <c r="CM113" s="16"/>
-      <c r="CN113" s="16"/>
-      <c r="CO113" s="16"/>
-      <c r="CP113" s="16">
+      <c r="CM113" s="15"/>
+      <c r="CN113" s="15"/>
+      <c r="CO113" s="15"/>
+      <c r="CP113" s="18">
         <v>2023</v>
       </c>
-      <c r="CQ113" s="16"/>
-      <c r="CR113" s="16"/>
-      <c r="CS113" s="16"/>
+      <c r="CQ113" s="18"/>
+      <c r="CR113" s="18"/>
+      <c r="CS113" s="18"/>
+      <c r="CT113" s="18">
+        <v>2024</v>
+      </c>
     </row>
     <row r="114" spans="1:154" x14ac:dyDescent="0.2">
       <c r="A114" s="5" t="s">
@@ -37552,17 +37659,20 @@
       <c r="CO114" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="CP114" s="6" t="s">
+      <c r="CP114" s="19" t="s">
         <v>7</v>
       </c>
-      <c r="CQ114" s="6" t="s">
+      <c r="CQ114" s="19" t="s">
         <v>8</v>
       </c>
-      <c r="CR114" s="6" t="s">
+      <c r="CR114" s="19" t="s">
         <v>10</v>
       </c>
-      <c r="CS114" s="6" t="s">
+      <c r="CS114" s="19" t="s">
         <v>9</v>
+      </c>
+      <c r="CT114" s="19" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="115" spans="1:154" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
@@ -37846,21 +37956,23 @@
         <v>55.508581421097844</v>
       </c>
       <c r="CO116" s="14">
-        <v>48.326805911944618</v>
-      </c>
-      <c r="CP116" s="14">
-        <v>59.490271137667548</v>
-      </c>
-      <c r="CQ116" s="14">
-        <v>48.356968257507958</v>
-      </c>
-      <c r="CR116" s="14">
+        <v>48.299102137475451</v>
+      </c>
+      <c r="CP116" s="25">
+        <v>59.666830762568082</v>
+      </c>
+      <c r="CQ116" s="25">
+        <v>48.418139429166125</v>
+      </c>
+      <c r="CR116" s="25">
         <v>56.625546288907458</v>
       </c>
-      <c r="CS116" s="14">
-        <v>49.019050886859155</v>
-      </c>
-      <c r="CT116" s="9"/>
+      <c r="CS116" s="25">
+        <v>49.543199701950122</v>
+      </c>
+      <c r="CT116" s="25">
+        <v>61.201485951709842</v>
+      </c>
       <c r="CU116" s="9"/>
       <c r="CV116" s="9"/>
       <c r="CW116" s="9"/>
@@ -38196,21 +38308,23 @@
         <v>26.747055172225949</v>
       </c>
       <c r="CO117" s="14">
-        <v>32.245623266952393</v>
-      </c>
-      <c r="CP117" s="14">
-        <v>24.642936656056627</v>
-      </c>
-      <c r="CQ117" s="14">
-        <v>35.486125074804896</v>
-      </c>
-      <c r="CR117" s="14">
+        <v>32.299121433197328</v>
+      </c>
+      <c r="CP117" s="25">
+        <v>24.386381739884069</v>
+      </c>
+      <c r="CQ117" s="25">
+        <v>35.410814443145703</v>
+      </c>
+      <c r="CR117" s="25">
         <v>26.485354159163244</v>
       </c>
-      <c r="CS117" s="14">
-        <v>32.095004585839092</v>
-      </c>
-      <c r="CT117" s="9"/>
+      <c r="CS117" s="25">
+        <v>31.95915903258323</v>
+      </c>
+      <c r="CT117" s="25">
+        <v>23.148405790087992</v>
+      </c>
       <c r="CU117" s="9"/>
       <c r="CV117" s="9"/>
       <c r="CW117" s="9"/>
@@ -38546,21 +38660,23 @@
         <v>12.988171527368788</v>
       </c>
       <c r="CO118" s="14">
-        <v>14.126646013963967</v>
-      </c>
-      <c r="CP118" s="14">
-        <v>11.376015794451307</v>
-      </c>
-      <c r="CQ118" s="14">
-        <v>10.745087380764799</v>
-      </c>
-      <c r="CR118" s="14">
+        <v>14.118511899254283</v>
+      </c>
+      <c r="CP118" s="25">
+        <v>11.433370027440667</v>
+      </c>
+      <c r="CQ118" s="25">
+        <v>10.758679828933811</v>
+      </c>
+      <c r="CR118" s="25">
         <v>12.185878865146019</v>
       </c>
-      <c r="CS118" s="14">
-        <v>13.520848725172291</v>
-      </c>
-      <c r="CT118" s="9"/>
+      <c r="CS118" s="25">
+        <v>13.152405669218382</v>
+      </c>
+      <c r="CT118" s="25">
+        <v>10.971652303648719</v>
+      </c>
       <c r="CU118" s="9"/>
       <c r="CV118" s="9"/>
       <c r="CW118" s="9"/>
@@ -38896,21 +39012,23 @@
         <v>4.756191879307428</v>
       </c>
       <c r="CO119" s="14">
-        <v>5.3009248071390074</v>
-      </c>
-      <c r="CP119" s="14">
-        <v>4.4907764118245117</v>
-      </c>
-      <c r="CQ119" s="14">
-        <v>5.4118192869223591</v>
-      </c>
-      <c r="CR119" s="14">
+        <v>5.2832645300729411</v>
+      </c>
+      <c r="CP119" s="25">
+        <v>4.5134174701071963</v>
+      </c>
+      <c r="CQ119" s="25">
+        <v>5.4123662987543577</v>
+      </c>
+      <c r="CR119" s="25">
         <v>4.7032206867832791</v>
       </c>
-      <c r="CS119" s="14">
-        <v>5.3650958021294697</v>
-      </c>
-      <c r="CT119" s="9"/>
+      <c r="CS119" s="25">
+        <v>5.3452355962482674</v>
+      </c>
+      <c r="CT119" s="25">
+        <v>4.6784559545534465</v>
+      </c>
       <c r="CU119" s="9"/>
       <c r="CV119" s="9"/>
       <c r="CW119" s="9"/>
@@ -39061,11 +39179,11 @@
       <c r="CM120" s="14"/>
       <c r="CN120" s="14"/>
       <c r="CO120" s="14"/>
-      <c r="CP120" s="14"/>
-      <c r="CQ120" s="14"/>
-      <c r="CR120" s="14"/>
-      <c r="CS120" s="14"/>
-      <c r="CT120" s="9"/>
+      <c r="CP120" s="25"/>
+      <c r="CQ120" s="25"/>
+      <c r="CR120" s="25"/>
+      <c r="CS120" s="25"/>
+      <c r="CT120" s="25"/>
       <c r="CU120" s="9"/>
       <c r="CV120" s="9"/>
       <c r="CW120" s="9"/>
@@ -39403,19 +39521,21 @@
       <c r="CO121" s="14">
         <v>100</v>
       </c>
-      <c r="CP121" s="14">
+      <c r="CP121" s="25">
         <v>100</v>
       </c>
-      <c r="CQ121" s="14">
+      <c r="CQ121" s="25">
         <v>100</v>
       </c>
-      <c r="CR121" s="14">
+      <c r="CR121" s="25">
         <v>100</v>
       </c>
-      <c r="CS121" s="14">
+      <c r="CS121" s="25">
         <v>100</v>
       </c>
-      <c r="CT121" s="9"/>
+      <c r="CT121" s="25">
+        <v>100</v>
+      </c>
       <c r="CU121" s="9"/>
       <c r="CV121" s="9"/>
       <c r="CW121" s="9"/>
@@ -39567,10 +39687,11 @@
       <c r="CM122" s="12"/>
       <c r="CN122" s="12"/>
       <c r="CO122" s="12"/>
-      <c r="CP122" s="12"/>
-      <c r="CQ122" s="12"/>
-      <c r="CR122" s="12"/>
-      <c r="CS122" s="12"/>
+      <c r="CP122" s="23"/>
+      <c r="CQ122" s="23"/>
+      <c r="CR122" s="23"/>
+      <c r="CS122" s="23"/>
+      <c r="CT122" s="23"/>
     </row>
     <row r="123" spans="1:154" x14ac:dyDescent="0.2">
       <c r="A123" s="13" t="s">
@@ -39670,11 +39791,11 @@
       <c r="CM124" s="9"/>
       <c r="CN124" s="9"/>
       <c r="CO124" s="9"/>
-      <c r="CP124" s="9"/>
-      <c r="CQ124" s="9"/>
-      <c r="CR124" s="9"/>
-      <c r="CS124" s="9"/>
-      <c r="CT124" s="9"/>
+      <c r="CP124" s="21"/>
+      <c r="CQ124" s="21"/>
+      <c r="CR124" s="21"/>
+      <c r="CS124" s="21"/>
+      <c r="CT124" s="21"/>
       <c r="CU124" s="9"/>
       <c r="CV124" s="9"/>
       <c r="CW124" s="9"/>
@@ -39825,11 +39946,11 @@
       <c r="CM125" s="9"/>
       <c r="CN125" s="9"/>
       <c r="CO125" s="9"/>
-      <c r="CP125" s="9"/>
-      <c r="CQ125" s="9"/>
-      <c r="CR125" s="9"/>
-      <c r="CS125" s="9"/>
-      <c r="CT125" s="9"/>
+      <c r="CP125" s="21"/>
+      <c r="CQ125" s="21"/>
+      <c r="CR125" s="21"/>
+      <c r="CS125" s="21"/>
+      <c r="CT125" s="21"/>
       <c r="CU125" s="9"/>
       <c r="CV125" s="9"/>
       <c r="CW125" s="9"/>
@@ -39899,7 +40020,7 @@
     </row>
     <row r="128" spans="1:154" x14ac:dyDescent="0.2">
       <c r="A128" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="130" spans="1:154" x14ac:dyDescent="0.2">
@@ -39909,7 +40030,7 @@
     </row>
     <row r="131" spans="1:154" x14ac:dyDescent="0.2">
       <c r="A131" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
     </row>
     <row r="132" spans="1:154" x14ac:dyDescent="0.2">
@@ -39919,150 +40040,153 @@
     </row>
     <row r="134" spans="1:154" x14ac:dyDescent="0.2">
       <c r="A134" s="4"/>
-      <c r="B134" s="17">
+      <c r="B134" s="26">
         <v>2000</v>
       </c>
-      <c r="C134" s="18"/>
-      <c r="D134" s="18"/>
-      <c r="E134" s="18"/>
-      <c r="F134" s="17">
+      <c r="C134" s="27"/>
+      <c r="D134" s="27"/>
+      <c r="E134" s="27"/>
+      <c r="F134" s="26">
         <v>2001</v>
       </c>
-      <c r="G134" s="18"/>
-      <c r="H134" s="18"/>
-      <c r="I134" s="18"/>
-      <c r="J134" s="17">
+      <c r="G134" s="27"/>
+      <c r="H134" s="27"/>
+      <c r="I134" s="27"/>
+      <c r="J134" s="26">
         <v>2002</v>
       </c>
-      <c r="K134" s="18"/>
-      <c r="L134" s="18"/>
-      <c r="M134" s="18"/>
-      <c r="N134" s="17">
+      <c r="K134" s="27"/>
+      <c r="L134" s="27"/>
+      <c r="M134" s="27"/>
+      <c r="N134" s="26">
         <v>2003</v>
       </c>
-      <c r="O134" s="18"/>
-      <c r="P134" s="18"/>
-      <c r="Q134" s="18"/>
-      <c r="R134" s="17">
+      <c r="O134" s="27"/>
+      <c r="P134" s="27"/>
+      <c r="Q134" s="27"/>
+      <c r="R134" s="26">
         <v>2004</v>
       </c>
-      <c r="S134" s="18"/>
-      <c r="T134" s="18"/>
-      <c r="U134" s="18"/>
-      <c r="V134" s="17">
+      <c r="S134" s="27"/>
+      <c r="T134" s="27"/>
+      <c r="U134" s="27"/>
+      <c r="V134" s="26">
         <v>2005</v>
       </c>
-      <c r="W134" s="18"/>
-      <c r="X134" s="18"/>
-      <c r="Y134" s="18"/>
-      <c r="Z134" s="17">
+      <c r="W134" s="27"/>
+      <c r="X134" s="27"/>
+      <c r="Y134" s="27"/>
+      <c r="Z134" s="26">
         <v>2006</v>
       </c>
-      <c r="AA134" s="18"/>
-      <c r="AB134" s="18"/>
-      <c r="AC134" s="18"/>
-      <c r="AD134" s="17">
+      <c r="AA134" s="27"/>
+      <c r="AB134" s="27"/>
+      <c r="AC134" s="27"/>
+      <c r="AD134" s="26">
         <v>2007</v>
       </c>
-      <c r="AE134" s="18"/>
-      <c r="AF134" s="18"/>
-      <c r="AG134" s="18"/>
-      <c r="AH134" s="17">
+      <c r="AE134" s="27"/>
+      <c r="AF134" s="27"/>
+      <c r="AG134" s="27"/>
+      <c r="AH134" s="26">
         <v>2008</v>
       </c>
-      <c r="AI134" s="18"/>
-      <c r="AJ134" s="18"/>
-      <c r="AK134" s="18"/>
-      <c r="AL134" s="17">
+      <c r="AI134" s="27"/>
+      <c r="AJ134" s="27"/>
+      <c r="AK134" s="27"/>
+      <c r="AL134" s="26">
         <v>2009</v>
       </c>
-      <c r="AM134" s="18"/>
-      <c r="AN134" s="18"/>
-      <c r="AO134" s="18"/>
-      <c r="AP134" s="17">
+      <c r="AM134" s="27"/>
+      <c r="AN134" s="27"/>
+      <c r="AO134" s="27"/>
+      <c r="AP134" s="26">
         <v>2010</v>
       </c>
-      <c r="AQ134" s="18"/>
-      <c r="AR134" s="18"/>
-      <c r="AS134" s="18"/>
-      <c r="AT134" s="17">
+      <c r="AQ134" s="27"/>
+      <c r="AR134" s="27"/>
+      <c r="AS134" s="27"/>
+      <c r="AT134" s="26">
         <v>2011</v>
       </c>
-      <c r="AU134" s="18"/>
-      <c r="AV134" s="18"/>
-      <c r="AW134" s="18"/>
-      <c r="AX134" s="17">
+      <c r="AU134" s="27"/>
+      <c r="AV134" s="27"/>
+      <c r="AW134" s="27"/>
+      <c r="AX134" s="26">
         <v>2012</v>
       </c>
-      <c r="AY134" s="18"/>
-      <c r="AZ134" s="18"/>
-      <c r="BA134" s="18"/>
-      <c r="BB134" s="17">
+      <c r="AY134" s="27"/>
+      <c r="AZ134" s="27"/>
+      <c r="BA134" s="27"/>
+      <c r="BB134" s="26">
         <v>2013</v>
       </c>
-      <c r="BC134" s="18"/>
-      <c r="BD134" s="18"/>
-      <c r="BE134" s="18"/>
-      <c r="BF134" s="17">
+      <c r="BC134" s="27"/>
+      <c r="BD134" s="27"/>
+      <c r="BE134" s="27"/>
+      <c r="BF134" s="26">
         <v>2014</v>
       </c>
-      <c r="BG134" s="18"/>
-      <c r="BH134" s="18"/>
-      <c r="BI134" s="18"/>
-      <c r="BJ134" s="17">
+      <c r="BG134" s="27"/>
+      <c r="BH134" s="27"/>
+      <c r="BI134" s="27"/>
+      <c r="BJ134" s="26">
         <v>2015</v>
       </c>
-      <c r="BK134" s="18"/>
-      <c r="BL134" s="18"/>
-      <c r="BM134" s="18"/>
-      <c r="BN134" s="17">
+      <c r="BK134" s="27"/>
+      <c r="BL134" s="27"/>
+      <c r="BM134" s="27"/>
+      <c r="BN134" s="26">
         <v>2016</v>
       </c>
-      <c r="BO134" s="18"/>
-      <c r="BP134" s="18"/>
-      <c r="BQ134" s="18"/>
-      <c r="BR134" s="17">
+      <c r="BO134" s="27"/>
+      <c r="BP134" s="27"/>
+      <c r="BQ134" s="27"/>
+      <c r="BR134" s="26">
         <v>2017</v>
       </c>
-      <c r="BS134" s="18"/>
-      <c r="BT134" s="18"/>
-      <c r="BU134" s="18"/>
-      <c r="BV134" s="17">
+      <c r="BS134" s="27"/>
+      <c r="BT134" s="27"/>
+      <c r="BU134" s="27"/>
+      <c r="BV134" s="26">
         <v>2018</v>
       </c>
-      <c r="BW134" s="18"/>
-      <c r="BX134" s="18"/>
-      <c r="BY134" s="18"/>
-      <c r="BZ134" s="17">
+      <c r="BW134" s="27"/>
+      <c r="BX134" s="27"/>
+      <c r="BY134" s="27"/>
+      <c r="BZ134" s="26">
         <v>2019</v>
       </c>
-      <c r="CA134" s="18"/>
-      <c r="CB134" s="18"/>
-      <c r="CC134" s="18"/>
-      <c r="CD134" s="17">
+      <c r="CA134" s="27"/>
+      <c r="CB134" s="27"/>
+      <c r="CC134" s="27"/>
+      <c r="CD134" s="26">
         <v>2020</v>
       </c>
-      <c r="CE134" s="17"/>
-      <c r="CF134" s="17"/>
-      <c r="CG134" s="17"/>
-      <c r="CH134" s="17">
+      <c r="CE134" s="26"/>
+      <c r="CF134" s="26"/>
+      <c r="CG134" s="26"/>
+      <c r="CH134" s="15">
         <v>2021</v>
       </c>
-      <c r="CI134" s="17"/>
-      <c r="CJ134" s="17"/>
-      <c r="CK134" s="17"/>
-      <c r="CL134" s="16">
+      <c r="CI134" s="15"/>
+      <c r="CJ134" s="15"/>
+      <c r="CK134" s="15"/>
+      <c r="CL134" s="15">
         <v>2022</v>
       </c>
-      <c r="CM134" s="16"/>
-      <c r="CN134" s="16"/>
-      <c r="CO134" s="16"/>
-      <c r="CP134" s="16">
+      <c r="CM134" s="15"/>
+      <c r="CN134" s="15"/>
+      <c r="CO134" s="15"/>
+      <c r="CP134" s="18">
         <v>2023</v>
       </c>
-      <c r="CQ134" s="16"/>
-      <c r="CR134" s="16"/>
-      <c r="CS134" s="16"/>
+      <c r="CQ134" s="18"/>
+      <c r="CR134" s="18"/>
+      <c r="CS134" s="18"/>
+      <c r="CT134" s="18">
+        <v>2024</v>
+      </c>
     </row>
     <row r="135" spans="1:154" x14ac:dyDescent="0.2">
       <c r="A135" s="5" t="s">
@@ -40344,17 +40468,20 @@
       <c r="CO135" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="CP135" s="6" t="s">
+      <c r="CP135" s="19" t="s">
         <v>7</v>
       </c>
-      <c r="CQ135" s="6" t="s">
+      <c r="CQ135" s="19" t="s">
         <v>8</v>
       </c>
-      <c r="CR135" s="6" t="s">
+      <c r="CR135" s="19" t="s">
         <v>10</v>
       </c>
-      <c r="CS135" s="6" t="s">
+      <c r="CS135" s="19" t="s">
         <v>9</v>
+      </c>
+      <c r="CT135" s="19" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="136" spans="1:154" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
@@ -40638,21 +40765,23 @@
         <v>55.196868761905471</v>
       </c>
       <c r="CO137" s="14">
-        <v>48.062870417764039</v>
-      </c>
-      <c r="CP137" s="14">
-        <v>59.474070738099208</v>
-      </c>
-      <c r="CQ137" s="14">
-        <v>47.961131211785151</v>
-      </c>
-      <c r="CR137" s="14">
+        <v>48.035263507324544</v>
+      </c>
+      <c r="CP137" s="25">
+        <v>59.652332667400323</v>
+      </c>
+      <c r="CQ137" s="25">
+        <v>48.02203182457945</v>
+      </c>
+      <c r="CR137" s="25">
         <v>56.240111423604546</v>
       </c>
-      <c r="CS137" s="14">
-        <v>48.7614867123404</v>
-      </c>
-      <c r="CT137" s="9"/>
+      <c r="CS137" s="25">
+        <v>49.287161076521521</v>
+      </c>
+      <c r="CT137" s="25">
+        <v>61.129726198767855</v>
+      </c>
       <c r="CU137" s="9"/>
       <c r="CV137" s="9"/>
       <c r="CW137" s="9"/>
@@ -40988,21 +41117,23 @@
         <v>26.854229747119174</v>
       </c>
       <c r="CO138" s="14">
-        <v>32.286176254931185</v>
-      </c>
-      <c r="CP138" s="14">
-        <v>24.835002290887999</v>
-      </c>
-      <c r="CQ138" s="14">
-        <v>35.667361646526821</v>
-      </c>
-      <c r="CR138" s="14">
+        <v>32.339705050693937</v>
+      </c>
+      <c r="CP138" s="25">
+        <v>24.577168971063031</v>
+      </c>
+      <c r="CQ138" s="25">
+        <v>35.591838609532758</v>
+      </c>
+      <c r="CR138" s="25">
         <v>26.674129740411896</v>
       </c>
-      <c r="CS138" s="14">
-        <v>32.189841792052661</v>
-      </c>
-      <c r="CT138" s="9"/>
+      <c r="CS138" s="25">
+        <v>32.056378295940561</v>
+      </c>
+      <c r="CT138" s="25">
+        <v>23.408845706130748</v>
+      </c>
       <c r="CU138" s="9"/>
       <c r="CV138" s="9"/>
       <c r="CW138" s="9"/>
@@ -41338,21 +41469,23 @@
         <v>13.243334269575961</v>
       </c>
       <c r="CO139" s="14">
-        <v>14.35850949680133</v>
-      </c>
-      <c r="CP139" s="14">
-        <v>11.206259336863944</v>
-      </c>
-      <c r="CQ139" s="14">
-        <v>11.0737731748653</v>
-      </c>
-      <c r="CR139" s="14">
+        <v>14.35022561182328</v>
+      </c>
+      <c r="CP139" s="25">
+        <v>11.263088206162257</v>
+      </c>
+      <c r="CQ139" s="25">
+        <v>11.087834552386118</v>
+      </c>
+      <c r="CR139" s="25">
         <v>12.412764096355525</v>
       </c>
-      <c r="CS139" s="14">
-        <v>13.730001381440408</v>
-      </c>
-      <c r="CT139" s="9"/>
+      <c r="CS139" s="25">
+        <v>13.357018711013383</v>
+      </c>
+      <c r="CT139" s="25">
+        <v>10.799085294106824</v>
+      </c>
       <c r="CU139" s="9"/>
       <c r="CV139" s="9"/>
       <c r="CW139" s="9"/>
@@ -41688,21 +41821,23 @@
         <v>4.7055672213993818</v>
       </c>
       <c r="CO140" s="14">
-        <v>5.2924438305034451</v>
-      </c>
-      <c r="CP140" s="14">
-        <v>4.4846676341488578</v>
-      </c>
-      <c r="CQ140" s="14">
-        <v>5.2977339668227135</v>
-      </c>
-      <c r="CR140" s="14">
+        <v>5.2748058301582486</v>
+      </c>
+      <c r="CP140" s="25">
+        <v>4.5074101553743873</v>
+      </c>
+      <c r="CQ140" s="25">
+        <v>5.2982950135016669</v>
+      </c>
+      <c r="CR140" s="25">
         <v>4.6729947396280309</v>
       </c>
-      <c r="CS140" s="14">
-        <v>5.318670114166542</v>
-      </c>
-      <c r="CT140" s="9"/>
+      <c r="CS140" s="25">
+        <v>5.2994419165245557</v>
+      </c>
+      <c r="CT140" s="25">
+        <v>4.6623428009945664</v>
+      </c>
       <c r="CU140" s="9"/>
       <c r="CV140" s="9"/>
       <c r="CW140" s="9"/>
@@ -41853,11 +41988,11 @@
       <c r="CM141" s="9"/>
       <c r="CN141" s="9"/>
       <c r="CO141" s="9"/>
-      <c r="CP141" s="9"/>
-      <c r="CQ141" s="9"/>
-      <c r="CR141" s="9"/>
-      <c r="CS141" s="9"/>
-      <c r="CT141" s="9"/>
+      <c r="CP141" s="21"/>
+      <c r="CQ141" s="21"/>
+      <c r="CR141" s="21"/>
+      <c r="CS141" s="21"/>
+      <c r="CT141" s="21"/>
       <c r="CU141" s="9"/>
       <c r="CV141" s="9"/>
       <c r="CW141" s="9"/>
@@ -42195,19 +42330,21 @@
       <c r="CO142" s="14">
         <v>100</v>
       </c>
-      <c r="CP142" s="14">
+      <c r="CP142" s="25">
         <v>100</v>
       </c>
-      <c r="CQ142" s="14">
+      <c r="CQ142" s="25">
         <v>100</v>
       </c>
-      <c r="CR142" s="14">
+      <c r="CR142" s="25">
         <v>100</v>
       </c>
-      <c r="CS142" s="14">
+      <c r="CS142" s="25">
         <v>100</v>
       </c>
-      <c r="CT142" s="9"/>
+      <c r="CT142" s="25">
+        <v>100</v>
+      </c>
       <c r="CU142" s="9"/>
       <c r="CV142" s="9"/>
       <c r="CW142" s="9"/>
@@ -42359,10 +42496,11 @@
       <c r="CM143" s="12"/>
       <c r="CN143" s="12"/>
       <c r="CO143" s="12"/>
-      <c r="CP143" s="12"/>
-      <c r="CQ143" s="12"/>
-      <c r="CR143" s="12"/>
-      <c r="CS143" s="12"/>
+      <c r="CP143" s="23"/>
+      <c r="CQ143" s="23"/>
+      <c r="CR143" s="23"/>
+      <c r="CS143" s="23"/>
+      <c r="CT143" s="23"/>
     </row>
     <row r="144" spans="1:154" x14ac:dyDescent="0.2">
       <c r="A144" s="13" t="s">
@@ -42370,22 +42508,19 @@
       </c>
     </row>
   </sheetData>
-  <mergeCells count="154">
-    <mergeCell ref="CH134:CK134"/>
+  <mergeCells count="147">
     <mergeCell ref="CD134:CG134"/>
     <mergeCell ref="BZ9:CC9"/>
-    <mergeCell ref="CH9:CK9"/>
-    <mergeCell ref="CH30:CK30"/>
     <mergeCell ref="BZ30:CC30"/>
-    <mergeCell ref="CH51:CK51"/>
-    <mergeCell ref="CH72:CK72"/>
     <mergeCell ref="BZ92:CC92"/>
     <mergeCell ref="CD9:CG9"/>
     <mergeCell ref="CD30:CG30"/>
     <mergeCell ref="BZ51:CC51"/>
     <mergeCell ref="BZ72:CC72"/>
     <mergeCell ref="CD113:CG113"/>
-    <mergeCell ref="CH113:CK113"/>
+    <mergeCell ref="CD92:CG92"/>
+    <mergeCell ref="CD51:CG51"/>
+    <mergeCell ref="CD72:CG72"/>
     <mergeCell ref="BJ9:BM9"/>
     <mergeCell ref="BN9:BQ9"/>
     <mergeCell ref="BJ72:BM72"/>
@@ -42396,14 +42531,10 @@
     <mergeCell ref="BV51:BY51"/>
     <mergeCell ref="BR72:BU72"/>
     <mergeCell ref="BV72:BY72"/>
-    <mergeCell ref="CD92:CG92"/>
     <mergeCell ref="BR9:BU9"/>
     <mergeCell ref="BV9:BY9"/>
     <mergeCell ref="BR30:BU30"/>
     <mergeCell ref="BV30:BY30"/>
-    <mergeCell ref="CD51:CG51"/>
-    <mergeCell ref="CD72:CG72"/>
-    <mergeCell ref="CH92:CK92"/>
     <mergeCell ref="AL30:AO30"/>
     <mergeCell ref="BF9:BI9"/>
     <mergeCell ref="B9:E9"/>

--- a/Data/National Accounts/PSA-17FIA_2018PSNA_Qrt.xlsx
+++ b/Data/National Accounts/PSA-17FIA_2018PSNA_Qrt.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27726"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="K:\Other computers\My Laptop (1)\6. MAS_Series\2018-base\NAP\NAP detailed series as of May 2024\Qtr\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="K:\Other computers\My Laptop (1)\6. MAS_Series\2018-base\NAP\NAP detailed series as of August 2024\Qtr\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5F13DE96-CB45-4B68-9691-988A5E0BDA87}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E0FA9E6A-E381-4071-A41C-D35EDCFC6728}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="975" windowWidth="28800" windowHeight="15225" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="390" windowWidth="28800" windowHeight="15225" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="FIA" sheetId="11" r:id="rId1"/>
@@ -468,7 +468,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="809" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="816" uniqueCount="55">
   <si>
     <t>Source: Philippine Statistics Authority</t>
   </si>
@@ -627,13 +627,13 @@
     <t>2023 - 2024</t>
   </si>
   <si>
-    <t>Q1 2000 to Q1 2024</t>
+    <t>As of August 2024</t>
   </si>
   <si>
-    <t>Q1 2001 to Q1 2024</t>
+    <t>Q1 2000 to Q2 2024</t>
   </si>
   <si>
-    <t>As of May 2024</t>
+    <t>Q1 2001 to Q2 2024</t>
   </si>
 </sst>
 </file>
@@ -720,7 +720,7 @@
     <xf numFmtId="164" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -747,24 +747,9 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="centerContinuous"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="3" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="centerContinuous"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="3" applyFont="1"/>
-    <xf numFmtId="166" fontId="5" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="3" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="5" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -23622,15 +23607,15 @@
   <sheetViews>
     <sheetView tabSelected="1" defaultGridColor="0" view="pageBreakPreview" colorId="22" zoomScale="70" zoomScaleNormal="100" zoomScaleSheetLayoutView="70" workbookViewId="0">
       <pane xSplit="1" topLeftCell="BX1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="CV7" sqref="CV7"/>
+      <selection pane="topRight" activeCell="CP1" sqref="CP1:CU1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="7.77734375" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="38.33203125" style="1" customWidth="1"/>
     <col min="2" max="93" width="8.88671875" style="1" customWidth="1"/>
-    <col min="94" max="98" width="9.6640625" style="17" customWidth="1"/>
-    <col min="99" max="16384" width="7.77734375" style="1"/>
+    <col min="94" max="99" width="9.44140625" style="1" customWidth="1"/>
+    <col min="100" max="16384" width="7.77734375" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:154" x14ac:dyDescent="0.2">
@@ -23645,7 +23630,7 @@
     </row>
     <row r="3" spans="1:154" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
     </row>
     <row r="5" spans="1:154" x14ac:dyDescent="0.2">
@@ -23655,7 +23640,7 @@
     </row>
     <row r="6" spans="1:154" x14ac:dyDescent="0.2">
       <c r="A6" s="3" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
     </row>
     <row r="7" spans="1:154" x14ac:dyDescent="0.2">
@@ -23665,132 +23650,132 @@
     </row>
     <row r="9" spans="1:154" x14ac:dyDescent="0.2">
       <c r="A9" s="4"/>
-      <c r="B9" s="26">
+      <c r="B9" s="17">
         <v>2000</v>
       </c>
-      <c r="C9" s="26"/>
-      <c r="D9" s="26"/>
-      <c r="E9" s="26"/>
-      <c r="F9" s="26">
+      <c r="C9" s="17"/>
+      <c r="D9" s="17"/>
+      <c r="E9" s="17"/>
+      <c r="F9" s="17">
         <v>2001</v>
       </c>
-      <c r="G9" s="26"/>
-      <c r="H9" s="26"/>
-      <c r="I9" s="26"/>
-      <c r="J9" s="26">
+      <c r="G9" s="17"/>
+      <c r="H9" s="17"/>
+      <c r="I9" s="17"/>
+      <c r="J9" s="17">
         <v>2002</v>
       </c>
-      <c r="K9" s="26"/>
-      <c r="L9" s="26"/>
-      <c r="M9" s="26"/>
-      <c r="N9" s="26">
+      <c r="K9" s="17"/>
+      <c r="L9" s="17"/>
+      <c r="M9" s="17"/>
+      <c r="N9" s="17">
         <v>2003</v>
       </c>
-      <c r="O9" s="26"/>
-      <c r="P9" s="26"/>
-      <c r="Q9" s="26"/>
-      <c r="R9" s="26">
+      <c r="O9" s="17"/>
+      <c r="P9" s="17"/>
+      <c r="Q9" s="17"/>
+      <c r="R9" s="17">
         <v>2004</v>
       </c>
-      <c r="S9" s="26"/>
-      <c r="T9" s="26"/>
-      <c r="U9" s="26"/>
-      <c r="V9" s="26">
+      <c r="S9" s="17"/>
+      <c r="T9" s="17"/>
+      <c r="U9" s="17"/>
+      <c r="V9" s="17">
         <v>2005</v>
       </c>
-      <c r="W9" s="26"/>
-      <c r="X9" s="26"/>
-      <c r="Y9" s="26"/>
-      <c r="Z9" s="26">
+      <c r="W9" s="17"/>
+      <c r="X9" s="17"/>
+      <c r="Y9" s="17"/>
+      <c r="Z9" s="17">
         <v>2006</v>
       </c>
-      <c r="AA9" s="26"/>
-      <c r="AB9" s="26"/>
-      <c r="AC9" s="26"/>
-      <c r="AD9" s="26">
+      <c r="AA9" s="17"/>
+      <c r="AB9" s="17"/>
+      <c r="AC9" s="17"/>
+      <c r="AD9" s="17">
         <v>2007</v>
       </c>
-      <c r="AE9" s="26"/>
-      <c r="AF9" s="26"/>
-      <c r="AG9" s="26"/>
-      <c r="AH9" s="26">
+      <c r="AE9" s="17"/>
+      <c r="AF9" s="17"/>
+      <c r="AG9" s="17"/>
+      <c r="AH9" s="17">
         <v>2008</v>
       </c>
-      <c r="AI9" s="26"/>
-      <c r="AJ9" s="26"/>
-      <c r="AK9" s="26"/>
-      <c r="AL9" s="26">
+      <c r="AI9" s="17"/>
+      <c r="AJ9" s="17"/>
+      <c r="AK9" s="17"/>
+      <c r="AL9" s="17">
         <v>2009</v>
       </c>
-      <c r="AM9" s="26"/>
-      <c r="AN9" s="26"/>
-      <c r="AO9" s="26"/>
-      <c r="AP9" s="26">
+      <c r="AM9" s="17"/>
+      <c r="AN9" s="17"/>
+      <c r="AO9" s="17"/>
+      <c r="AP9" s="17">
         <v>2010</v>
       </c>
-      <c r="AQ9" s="26"/>
-      <c r="AR9" s="26"/>
-      <c r="AS9" s="26"/>
-      <c r="AT9" s="26">
+      <c r="AQ9" s="17"/>
+      <c r="AR9" s="17"/>
+      <c r="AS9" s="17"/>
+      <c r="AT9" s="17">
         <v>2011</v>
       </c>
-      <c r="AU9" s="26"/>
-      <c r="AV9" s="26"/>
-      <c r="AW9" s="26"/>
-      <c r="AX9" s="26">
+      <c r="AU9" s="17"/>
+      <c r="AV9" s="17"/>
+      <c r="AW9" s="17"/>
+      <c r="AX9" s="17">
         <v>2012</v>
       </c>
-      <c r="AY9" s="26"/>
-      <c r="AZ9" s="26"/>
-      <c r="BA9" s="26"/>
-      <c r="BB9" s="26">
+      <c r="AY9" s="17"/>
+      <c r="AZ9" s="17"/>
+      <c r="BA9" s="17"/>
+      <c r="BB9" s="17">
         <v>2013</v>
       </c>
-      <c r="BC9" s="26"/>
-      <c r="BD9" s="26"/>
-      <c r="BE9" s="26"/>
-      <c r="BF9" s="26">
+      <c r="BC9" s="17"/>
+      <c r="BD9" s="17"/>
+      <c r="BE9" s="17"/>
+      <c r="BF9" s="17">
         <v>2014</v>
       </c>
-      <c r="BG9" s="26"/>
-      <c r="BH9" s="26"/>
-      <c r="BI9" s="26"/>
-      <c r="BJ9" s="26">
+      <c r="BG9" s="17"/>
+      <c r="BH9" s="17"/>
+      <c r="BI9" s="17"/>
+      <c r="BJ9" s="17">
         <v>2015</v>
       </c>
-      <c r="BK9" s="26"/>
-      <c r="BL9" s="26"/>
-      <c r="BM9" s="26"/>
-      <c r="BN9" s="26">
+      <c r="BK9" s="17"/>
+      <c r="BL9" s="17"/>
+      <c r="BM9" s="17"/>
+      <c r="BN9" s="17">
         <v>2016</v>
       </c>
-      <c r="BO9" s="26"/>
-      <c r="BP9" s="26"/>
-      <c r="BQ9" s="26"/>
-      <c r="BR9" s="26">
+      <c r="BO9" s="17"/>
+      <c r="BP9" s="17"/>
+      <c r="BQ9" s="17"/>
+      <c r="BR9" s="17">
         <v>2017</v>
       </c>
-      <c r="BS9" s="26"/>
-      <c r="BT9" s="26"/>
-      <c r="BU9" s="26"/>
-      <c r="BV9" s="26">
+      <c r="BS9" s="17"/>
+      <c r="BT9" s="17"/>
+      <c r="BU9" s="17"/>
+      <c r="BV9" s="17">
         <v>2018</v>
       </c>
-      <c r="BW9" s="26"/>
-      <c r="BX9" s="26"/>
-      <c r="BY9" s="26"/>
-      <c r="BZ9" s="26">
+      <c r="BW9" s="17"/>
+      <c r="BX9" s="17"/>
+      <c r="BY9" s="17"/>
+      <c r="BZ9" s="17">
         <v>2019</v>
       </c>
-      <c r="CA9" s="26"/>
-      <c r="CB9" s="26"/>
-      <c r="CC9" s="26"/>
-      <c r="CD9" s="26">
+      <c r="CA9" s="17"/>
+      <c r="CB9" s="17"/>
+      <c r="CC9" s="17"/>
+      <c r="CD9" s="17">
         <v>2020</v>
       </c>
-      <c r="CE9" s="26"/>
-      <c r="CF9" s="26"/>
-      <c r="CG9" s="26"/>
+      <c r="CE9" s="17"/>
+      <c r="CF9" s="17"/>
+      <c r="CG9" s="17"/>
       <c r="CH9" s="15">
         <v>2021</v>
       </c>
@@ -23803,15 +23788,16 @@
       <c r="CM9" s="15"/>
       <c r="CN9" s="15"/>
       <c r="CO9" s="15"/>
-      <c r="CP9" s="18">
+      <c r="CP9" s="15">
         <v>2023</v>
       </c>
-      <c r="CQ9" s="18"/>
-      <c r="CR9" s="18"/>
-      <c r="CS9" s="18"/>
-      <c r="CT9" s="18">
+      <c r="CQ9" s="15"/>
+      <c r="CR9" s="15"/>
+      <c r="CS9" s="15"/>
+      <c r="CT9" s="15">
         <v>2024</v>
       </c>
+      <c r="CU9" s="15"/>
     </row>
     <row r="10" spans="1:154" x14ac:dyDescent="0.2">
       <c r="A10" s="5" t="s">
@@ -24093,20 +24079,23 @@
       <c r="CO10" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="CP10" s="19" t="s">
+      <c r="CP10" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="CQ10" s="19" t="s">
+      <c r="CQ10" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="CR10" s="19" t="s">
+      <c r="CR10" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="CS10" s="19" t="s">
+      <c r="CS10" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="CT10" s="19" t="s">
+      <c r="CT10" s="6" t="s">
         <v>7</v>
+      </c>
+      <c r="CU10" s="6" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="11" spans="1:154" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
@@ -24392,22 +24381,24 @@
       <c r="CO12" s="8">
         <v>275564.62875239633</v>
       </c>
-      <c r="CP12" s="20">
+      <c r="CP12" s="8">
         <v>385162.53634587693</v>
       </c>
-      <c r="CQ12" s="20">
+      <c r="CQ12" s="8">
         <v>306840.67406365159</v>
       </c>
-      <c r="CR12" s="20">
+      <c r="CR12" s="8">
         <v>349134.63674071158</v>
       </c>
-      <c r="CS12" s="20">
+      <c r="CS12" s="8">
         <v>331722.06319216389</v>
       </c>
-      <c r="CT12" s="20">
-        <v>449238.75575966522</v>
-      </c>
-      <c r="CU12" s="9"/>
+      <c r="CT12" s="8">
+        <v>451046.20043298067</v>
+      </c>
+      <c r="CU12" s="8">
+        <v>357058.38115511305</v>
+      </c>
       <c r="CV12" s="9"/>
       <c r="CW12" s="9"/>
       <c r="CX12" s="9"/>
@@ -24744,22 +24735,24 @@
       <c r="CO13" s="8">
         <v>184278.69283022679</v>
       </c>
-      <c r="CP13" s="20">
+      <c r="CP13" s="8">
         <v>157419.46611189947</v>
       </c>
-      <c r="CQ13" s="20">
+      <c r="CQ13" s="8">
         <v>224409.24622420681</v>
       </c>
-      <c r="CR13" s="20">
+      <c r="CR13" s="8">
         <v>163300.04934751446</v>
       </c>
-      <c r="CS13" s="20">
+      <c r="CS13" s="8">
         <v>213986.14211341884</v>
       </c>
-      <c r="CT13" s="20">
-        <v>169916.80599330986</v>
-      </c>
-      <c r="CU13" s="9"/>
+      <c r="CT13" s="8">
+        <v>169321.5826101728</v>
+      </c>
+      <c r="CU13" s="8">
+        <v>241055.88231317588</v>
+      </c>
       <c r="CV13" s="9"/>
       <c r="CW13" s="9"/>
       <c r="CX13" s="9"/>
@@ -25096,22 +25089,24 @@
       <c r="CO14" s="8">
         <v>80551.445428125138</v>
       </c>
-      <c r="CP14" s="20">
+      <c r="CP14" s="8">
         <v>73804.922139632661</v>
       </c>
-      <c r="CQ14" s="20">
+      <c r="CQ14" s="8">
         <v>68181.070352250768</v>
       </c>
-      <c r="CR14" s="20">
+      <c r="CR14" s="8">
         <v>75134.15180565769</v>
       </c>
-      <c r="CS14" s="20">
+      <c r="CS14" s="8">
         <v>88063.410736099468</v>
       </c>
-      <c r="CT14" s="20">
-        <v>80535.486236525147</v>
-      </c>
-      <c r="CU14" s="9"/>
+      <c r="CT14" s="8">
+        <v>81508.117938780575</v>
+      </c>
+      <c r="CU14" s="8">
+        <v>76907.10501641396</v>
+      </c>
       <c r="CV14" s="9"/>
       <c r="CW14" s="9"/>
       <c r="CX14" s="9"/>
@@ -25448,22 +25443,24 @@
       <c r="CO15" s="8">
         <v>30143.020561465681</v>
       </c>
-      <c r="CP15" s="20">
+      <c r="CP15" s="8">
         <v>29135.104012678043</v>
       </c>
-      <c r="CQ15" s="20">
+      <c r="CQ15" s="8">
         <v>34299.833553471595</v>
       </c>
-      <c r="CR15" s="20">
+      <c r="CR15" s="8">
         <v>28998.523698360281</v>
       </c>
-      <c r="CS15" s="20">
+      <c r="CS15" s="8">
         <v>35789.625839727043</v>
       </c>
-      <c r="CT15" s="20">
-        <v>34341.384023883635</v>
-      </c>
-      <c r="CU15" s="9"/>
+      <c r="CT15" s="8">
+        <v>34529.503307220446</v>
+      </c>
+      <c r="CU15" s="8">
+        <v>39574.515847074399</v>
+      </c>
       <c r="CV15" s="9"/>
       <c r="CW15" s="9"/>
       <c r="CX15" s="9"/>
@@ -25613,11 +25610,11 @@
       <c r="CM16" s="9"/>
       <c r="CN16" s="9"/>
       <c r="CO16" s="9"/>
-      <c r="CP16" s="21"/>
-      <c r="CQ16" s="21"/>
-      <c r="CR16" s="21"/>
-      <c r="CS16" s="21"/>
-      <c r="CT16" s="21"/>
+      <c r="CP16" s="9"/>
+      <c r="CQ16" s="9"/>
+      <c r="CR16" s="9"/>
+      <c r="CS16" s="9"/>
+      <c r="CT16" s="9"/>
       <c r="CU16" s="9"/>
       <c r="CV16" s="9"/>
       <c r="CW16" s="9"/>
@@ -25955,22 +25952,24 @@
       <c r="CO17" s="11">
         <v>570537.78757221391</v>
       </c>
-      <c r="CP17" s="22">
+      <c r="CP17" s="11">
         <v>645522.028610087</v>
       </c>
-      <c r="CQ17" s="22">
+      <c r="CQ17" s="11">
         <v>633730.82419358077</v>
       </c>
-      <c r="CR17" s="22">
+      <c r="CR17" s="11">
         <v>616567.36159224401</v>
       </c>
-      <c r="CS17" s="22">
+      <c r="CS17" s="11">
         <v>669561.24188140919</v>
       </c>
-      <c r="CT17" s="22">
-        <v>734032.43201338383</v>
-      </c>
-      <c r="CU17" s="9"/>
+      <c r="CT17" s="11">
+        <v>736405.40428915445</v>
+      </c>
+      <c r="CU17" s="11">
+        <v>714595.88433177734</v>
+      </c>
       <c r="CV17" s="9"/>
       <c r="CW17" s="9"/>
       <c r="CX17" s="9"/>
@@ -26121,11 +26120,12 @@
       <c r="CM18" s="12"/>
       <c r="CN18" s="12"/>
       <c r="CO18" s="12"/>
-      <c r="CP18" s="23"/>
-      <c r="CQ18" s="23"/>
-      <c r="CR18" s="23"/>
-      <c r="CS18" s="23"/>
-      <c r="CT18" s="23"/>
+      <c r="CP18" s="12"/>
+      <c r="CQ18" s="12"/>
+      <c r="CR18" s="12"/>
+      <c r="CS18" s="12"/>
+      <c r="CT18" s="12"/>
+      <c r="CU18" s="12"/>
     </row>
     <row r="19" spans="1:154" x14ac:dyDescent="0.2">
       <c r="A19" s="13" t="s">
@@ -26225,11 +26225,11 @@
       <c r="CM20" s="9"/>
       <c r="CN20" s="9"/>
       <c r="CO20" s="9"/>
-      <c r="CP20" s="21"/>
-      <c r="CQ20" s="21"/>
-      <c r="CR20" s="21"/>
-      <c r="CS20" s="21"/>
-      <c r="CT20" s="21"/>
+      <c r="CP20" s="9"/>
+      <c r="CQ20" s="9"/>
+      <c r="CR20" s="9"/>
+      <c r="CS20" s="9"/>
+      <c r="CT20" s="9"/>
       <c r="CU20" s="9"/>
       <c r="CV20" s="9"/>
       <c r="CW20" s="9"/>
@@ -26380,11 +26380,11 @@
       <c r="CM21" s="9"/>
       <c r="CN21" s="9"/>
       <c r="CO21" s="9"/>
-      <c r="CP21" s="21"/>
-      <c r="CQ21" s="21"/>
-      <c r="CR21" s="21"/>
-      <c r="CS21" s="21"/>
-      <c r="CT21" s="21"/>
+      <c r="CP21" s="9"/>
+      <c r="CQ21" s="9"/>
+      <c r="CR21" s="9"/>
+      <c r="CS21" s="9"/>
+      <c r="CT21" s="9"/>
       <c r="CU21" s="9"/>
       <c r="CV21" s="9"/>
       <c r="CW21" s="9"/>
@@ -26454,7 +26454,7 @@
     </row>
     <row r="24" spans="1:154" x14ac:dyDescent="0.2">
       <c r="A24" s="1" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
     </row>
     <row r="26" spans="1:154" x14ac:dyDescent="0.2">
@@ -26464,7 +26464,7 @@
     </row>
     <row r="27" spans="1:154" x14ac:dyDescent="0.2">
       <c r="A27" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
     </row>
     <row r="28" spans="1:154" x14ac:dyDescent="0.2">
@@ -26474,132 +26474,132 @@
     </row>
     <row r="30" spans="1:154" x14ac:dyDescent="0.2">
       <c r="A30" s="4"/>
-      <c r="B30" s="26">
+      <c r="B30" s="17">
         <v>2000</v>
       </c>
-      <c r="C30" s="27"/>
-      <c r="D30" s="27"/>
-      <c r="E30" s="27"/>
-      <c r="F30" s="26">
+      <c r="C30" s="18"/>
+      <c r="D30" s="18"/>
+      <c r="E30" s="18"/>
+      <c r="F30" s="17">
         <v>2001</v>
       </c>
-      <c r="G30" s="27"/>
-      <c r="H30" s="27"/>
-      <c r="I30" s="27"/>
-      <c r="J30" s="26">
+      <c r="G30" s="18"/>
+      <c r="H30" s="18"/>
+      <c r="I30" s="18"/>
+      <c r="J30" s="17">
         <v>2002</v>
       </c>
-      <c r="K30" s="27"/>
-      <c r="L30" s="27"/>
-      <c r="M30" s="27"/>
-      <c r="N30" s="26">
+      <c r="K30" s="18"/>
+      <c r="L30" s="18"/>
+      <c r="M30" s="18"/>
+      <c r="N30" s="17">
         <v>2003</v>
       </c>
-      <c r="O30" s="27"/>
-      <c r="P30" s="27"/>
-      <c r="Q30" s="27"/>
-      <c r="R30" s="26">
+      <c r="O30" s="18"/>
+      <c r="P30" s="18"/>
+      <c r="Q30" s="18"/>
+      <c r="R30" s="17">
         <v>2004</v>
       </c>
-      <c r="S30" s="27"/>
-      <c r="T30" s="27"/>
-      <c r="U30" s="27"/>
-      <c r="V30" s="26">
+      <c r="S30" s="18"/>
+      <c r="T30" s="18"/>
+      <c r="U30" s="18"/>
+      <c r="V30" s="17">
         <v>2005</v>
       </c>
-      <c r="W30" s="27"/>
-      <c r="X30" s="27"/>
-      <c r="Y30" s="27"/>
-      <c r="Z30" s="26">
+      <c r="W30" s="18"/>
+      <c r="X30" s="18"/>
+      <c r="Y30" s="18"/>
+      <c r="Z30" s="17">
         <v>2006</v>
       </c>
-      <c r="AA30" s="27"/>
-      <c r="AB30" s="27"/>
-      <c r="AC30" s="27"/>
-      <c r="AD30" s="26">
+      <c r="AA30" s="18"/>
+      <c r="AB30" s="18"/>
+      <c r="AC30" s="18"/>
+      <c r="AD30" s="17">
         <v>2007</v>
       </c>
-      <c r="AE30" s="27"/>
-      <c r="AF30" s="27"/>
-      <c r="AG30" s="27"/>
-      <c r="AH30" s="26">
+      <c r="AE30" s="18"/>
+      <c r="AF30" s="18"/>
+      <c r="AG30" s="18"/>
+      <c r="AH30" s="17">
         <v>2008</v>
       </c>
-      <c r="AI30" s="27"/>
-      <c r="AJ30" s="27"/>
-      <c r="AK30" s="27"/>
-      <c r="AL30" s="26">
+      <c r="AI30" s="18"/>
+      <c r="AJ30" s="18"/>
+      <c r="AK30" s="18"/>
+      <c r="AL30" s="17">
         <v>2009</v>
       </c>
-      <c r="AM30" s="27"/>
-      <c r="AN30" s="27"/>
-      <c r="AO30" s="27"/>
-      <c r="AP30" s="26">
+      <c r="AM30" s="18"/>
+      <c r="AN30" s="18"/>
+      <c r="AO30" s="18"/>
+      <c r="AP30" s="17">
         <v>2010</v>
       </c>
-      <c r="AQ30" s="27"/>
-      <c r="AR30" s="27"/>
-      <c r="AS30" s="27"/>
-      <c r="AT30" s="26">
+      <c r="AQ30" s="18"/>
+      <c r="AR30" s="18"/>
+      <c r="AS30" s="18"/>
+      <c r="AT30" s="17">
         <v>2011</v>
       </c>
-      <c r="AU30" s="27"/>
-      <c r="AV30" s="27"/>
-      <c r="AW30" s="27"/>
-      <c r="AX30" s="26">
+      <c r="AU30" s="18"/>
+      <c r="AV30" s="18"/>
+      <c r="AW30" s="18"/>
+      <c r="AX30" s="17">
         <v>2012</v>
       </c>
-      <c r="AY30" s="27"/>
-      <c r="AZ30" s="27"/>
-      <c r="BA30" s="27"/>
-      <c r="BB30" s="26">
+      <c r="AY30" s="18"/>
+      <c r="AZ30" s="18"/>
+      <c r="BA30" s="18"/>
+      <c r="BB30" s="17">
         <v>2013</v>
       </c>
-      <c r="BC30" s="27"/>
-      <c r="BD30" s="27"/>
-      <c r="BE30" s="27"/>
-      <c r="BF30" s="26">
+      <c r="BC30" s="18"/>
+      <c r="BD30" s="18"/>
+      <c r="BE30" s="18"/>
+      <c r="BF30" s="17">
         <v>2014</v>
       </c>
-      <c r="BG30" s="27"/>
-      <c r="BH30" s="27"/>
-      <c r="BI30" s="27"/>
-      <c r="BJ30" s="26">
+      <c r="BG30" s="18"/>
+      <c r="BH30" s="18"/>
+      <c r="BI30" s="18"/>
+      <c r="BJ30" s="17">
         <v>2015</v>
       </c>
-      <c r="BK30" s="27"/>
-      <c r="BL30" s="27"/>
-      <c r="BM30" s="27"/>
-      <c r="BN30" s="26">
+      <c r="BK30" s="18"/>
+      <c r="BL30" s="18"/>
+      <c r="BM30" s="18"/>
+      <c r="BN30" s="17">
         <v>2016</v>
       </c>
-      <c r="BO30" s="27"/>
-      <c r="BP30" s="27"/>
-      <c r="BQ30" s="27"/>
-      <c r="BR30" s="26">
+      <c r="BO30" s="18"/>
+      <c r="BP30" s="18"/>
+      <c r="BQ30" s="18"/>
+      <c r="BR30" s="17">
         <v>2017</v>
       </c>
-      <c r="BS30" s="27"/>
-      <c r="BT30" s="27"/>
-      <c r="BU30" s="27"/>
-      <c r="BV30" s="26">
+      <c r="BS30" s="18"/>
+      <c r="BT30" s="18"/>
+      <c r="BU30" s="18"/>
+      <c r="BV30" s="17">
         <v>2018</v>
       </c>
-      <c r="BW30" s="27"/>
-      <c r="BX30" s="27"/>
-      <c r="BY30" s="27"/>
-      <c r="BZ30" s="26">
+      <c r="BW30" s="18"/>
+      <c r="BX30" s="18"/>
+      <c r="BY30" s="18"/>
+      <c r="BZ30" s="17">
         <v>2019</v>
       </c>
-      <c r="CA30" s="27"/>
-      <c r="CB30" s="27"/>
-      <c r="CC30" s="27"/>
-      <c r="CD30" s="26">
+      <c r="CA30" s="18"/>
+      <c r="CB30" s="18"/>
+      <c r="CC30" s="18"/>
+      <c r="CD30" s="17">
         <v>2020</v>
       </c>
-      <c r="CE30" s="26"/>
-      <c r="CF30" s="26"/>
-      <c r="CG30" s="26"/>
+      <c r="CE30" s="17"/>
+      <c r="CF30" s="17"/>
+      <c r="CG30" s="17"/>
       <c r="CH30" s="15">
         <v>2021</v>
       </c>
@@ -26612,15 +26612,16 @@
       <c r="CM30" s="15"/>
       <c r="CN30" s="15"/>
       <c r="CO30" s="15"/>
-      <c r="CP30" s="18">
+      <c r="CP30" s="15">
         <v>2023</v>
       </c>
-      <c r="CQ30" s="18"/>
-      <c r="CR30" s="18"/>
-      <c r="CS30" s="18"/>
-      <c r="CT30" s="18">
+      <c r="CQ30" s="15"/>
+      <c r="CR30" s="15"/>
+      <c r="CS30" s="15"/>
+      <c r="CT30" s="15">
         <v>2024</v>
       </c>
+      <c r="CU30" s="15"/>
     </row>
     <row r="31" spans="1:154" x14ac:dyDescent="0.2">
       <c r="A31" s="5" t="s">
@@ -26902,20 +26903,23 @@
       <c r="CO31" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="CP31" s="19" t="s">
+      <c r="CP31" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="CQ31" s="19" t="s">
+      <c r="CQ31" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="CR31" s="19" t="s">
+      <c r="CR31" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="CS31" s="19" t="s">
+      <c r="CS31" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="CT31" s="19" t="s">
+      <c r="CT31" s="6" t="s">
         <v>7</v>
+      </c>
+      <c r="CU31" s="6" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="32" spans="1:154" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
@@ -27201,22 +27205,24 @@
       <c r="CO33" s="8">
         <v>239989.20870848323</v>
       </c>
-      <c r="CP33" s="20">
+      <c r="CP33" s="8">
         <v>323487.69069909828</v>
       </c>
-      <c r="CQ33" s="20">
+      <c r="CQ33" s="8">
         <v>255836.99898620203</v>
       </c>
-      <c r="CR33" s="20">
+      <c r="CR33" s="8">
         <v>295986.37316272699</v>
       </c>
-      <c r="CS33" s="20">
+      <c r="CS33" s="8">
         <v>275893.21630948811</v>
       </c>
-      <c r="CT33" s="20">
-        <v>364629.27884762123</v>
-      </c>
-      <c r="CU33" s="9"/>
+      <c r="CT33" s="8">
+        <v>366096.30999606603</v>
+      </c>
+      <c r="CU33" s="8">
+        <v>285802.26560181507</v>
+      </c>
       <c r="CV33" s="9"/>
       <c r="CW33" s="9"/>
       <c r="CX33" s="9"/>
@@ -27553,22 +27559,24 @@
       <c r="CO34" s="8">
         <v>161572.55437556474</v>
       </c>
-      <c r="CP34" s="20">
+      <c r="CP34" s="8">
         <v>133279.14062806751</v>
       </c>
-      <c r="CQ34" s="20">
+      <c r="CQ34" s="8">
         <v>189615.24184412914</v>
       </c>
-      <c r="CR34" s="20">
+      <c r="CR34" s="8">
         <v>140383.4153113513</v>
       </c>
-      <c r="CS34" s="20">
+      <c r="CS34" s="8">
         <v>179440.9967652552</v>
       </c>
-      <c r="CT34" s="20">
-        <v>139630.11220969175</v>
-      </c>
-      <c r="CU34" s="9"/>
+      <c r="CT34" s="8">
+        <v>139140.98397254414</v>
+      </c>
+      <c r="CU34" s="8">
+        <v>195522.82878121865</v>
+      </c>
       <c r="CV34" s="9"/>
       <c r="CW34" s="9"/>
       <c r="CX34" s="9"/>
@@ -27905,22 +27913,24 @@
       <c r="CO35" s="8">
         <v>71695.230501744707</v>
       </c>
-      <c r="CP35" s="20">
+      <c r="CP35" s="8">
         <v>61078.422771265992</v>
       </c>
-      <c r="CQ35" s="20">
+      <c r="CQ35" s="8">
         <v>59070.351864746932</v>
       </c>
-      <c r="CR35" s="20">
+      <c r="CR35" s="8">
         <v>65327.200334506575</v>
       </c>
-      <c r="CS35" s="20">
+      <c r="CS35" s="8">
         <v>74768.170290151655</v>
       </c>
-      <c r="CT35" s="20">
-        <v>64414.858823357383</v>
-      </c>
-      <c r="CU35" s="9"/>
+      <c r="CT35" s="8">
+        <v>65192.800780569931</v>
+      </c>
+      <c r="CU35" s="8">
+        <v>63903.271674488991</v>
+      </c>
       <c r="CV35" s="9"/>
       <c r="CW35" s="9"/>
       <c r="CX35" s="9"/>
@@ -28257,22 +28267,24 @@
       <c r="CO36" s="8">
         <v>26353.482521804937</v>
       </c>
-      <c r="CP36" s="20">
+      <c r="CP36" s="8">
         <v>24443.163192385327</v>
       </c>
-      <c r="CQ36" s="20">
+      <c r="CQ36" s="8">
         <v>28226.625248789045</v>
       </c>
-      <c r="CR36" s="20">
+      <c r="CR36" s="8">
         <v>24593.528173745464</v>
       </c>
-      <c r="CS36" s="20">
+      <c r="CS36" s="8">
         <v>29664.522018732285</v>
       </c>
-      <c r="CT36" s="20">
-        <v>27810.147353503329</v>
-      </c>
-      <c r="CU36" s="9"/>
+      <c r="CT36" s="8">
+        <v>27962.346999488997</v>
+      </c>
+      <c r="CU36" s="8">
+        <v>31058.010392885524</v>
+      </c>
       <c r="CV36" s="9"/>
       <c r="CW36" s="9"/>
       <c r="CX36" s="9"/>
@@ -28422,11 +28434,11 @@
       <c r="CM37" s="9"/>
       <c r="CN37" s="9"/>
       <c r="CO37" s="9"/>
-      <c r="CP37" s="21"/>
-      <c r="CQ37" s="21"/>
-      <c r="CR37" s="21"/>
-      <c r="CS37" s="21"/>
-      <c r="CT37" s="21"/>
+      <c r="CP37" s="9"/>
+      <c r="CQ37" s="9"/>
+      <c r="CR37" s="9"/>
+      <c r="CS37" s="9"/>
+      <c r="CT37" s="9"/>
       <c r="CU37" s="9"/>
       <c r="CV37" s="9"/>
       <c r="CW37" s="9"/>
@@ -28764,22 +28776,24 @@
       <c r="CO38" s="11">
         <v>499610.47610759758</v>
       </c>
-      <c r="CP38" s="22">
+      <c r="CP38" s="11">
         <v>542288.41729081713</v>
       </c>
-      <c r="CQ38" s="22">
+      <c r="CQ38" s="11">
         <v>532749.2179438672</v>
       </c>
-      <c r="CR38" s="22">
+      <c r="CR38" s="11">
         <v>526290.51698233036</v>
       </c>
-      <c r="CS38" s="22">
+      <c r="CS38" s="11">
         <v>559766.90538362716</v>
       </c>
-      <c r="CT38" s="22">
-        <v>596484.39723417372</v>
-      </c>
-      <c r="CU38" s="9"/>
+      <c r="CT38" s="11">
+        <v>598392.44174866914</v>
+      </c>
+      <c r="CU38" s="11">
+        <v>576286.37645040825</v>
+      </c>
       <c r="CV38" s="9"/>
       <c r="CW38" s="9"/>
       <c r="CX38" s="9"/>
@@ -28930,11 +28944,12 @@
       <c r="CM39" s="12"/>
       <c r="CN39" s="12"/>
       <c r="CO39" s="12"/>
-      <c r="CP39" s="23"/>
-      <c r="CQ39" s="23"/>
-      <c r="CR39" s="23"/>
-      <c r="CS39" s="23"/>
-      <c r="CT39" s="23"/>
+      <c r="CP39" s="12"/>
+      <c r="CQ39" s="12"/>
+      <c r="CR39" s="12"/>
+      <c r="CS39" s="12"/>
+      <c r="CT39" s="12"/>
+      <c r="CU39" s="12"/>
     </row>
     <row r="40" spans="1:154" x14ac:dyDescent="0.2">
       <c r="A40" s="13" t="s">
@@ -29034,11 +29049,11 @@
       <c r="CM41" s="9"/>
       <c r="CN41" s="9"/>
       <c r="CO41" s="9"/>
-      <c r="CP41" s="21"/>
-      <c r="CQ41" s="21"/>
-      <c r="CR41" s="21"/>
-      <c r="CS41" s="21"/>
-      <c r="CT41" s="21"/>
+      <c r="CP41" s="9"/>
+      <c r="CQ41" s="9"/>
+      <c r="CR41" s="9"/>
+      <c r="CS41" s="9"/>
+      <c r="CT41" s="9"/>
       <c r="CU41" s="9"/>
       <c r="CV41" s="9"/>
       <c r="CW41" s="9"/>
@@ -29189,11 +29204,11 @@
       <c r="CM42" s="9"/>
       <c r="CN42" s="9"/>
       <c r="CO42" s="9"/>
-      <c r="CP42" s="21"/>
-      <c r="CQ42" s="21"/>
-      <c r="CR42" s="21"/>
-      <c r="CS42" s="21"/>
-      <c r="CT42" s="21"/>
+      <c r="CP42" s="9"/>
+      <c r="CQ42" s="9"/>
+      <c r="CR42" s="9"/>
+      <c r="CS42" s="9"/>
+      <c r="CT42" s="9"/>
       <c r="CU42" s="9"/>
       <c r="CV42" s="9"/>
       <c r="CW42" s="9"/>
@@ -29263,7 +29278,7 @@
     </row>
     <row r="45" spans="1:154" x14ac:dyDescent="0.2">
       <c r="A45" s="1" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
     </row>
     <row r="47" spans="1:154" x14ac:dyDescent="0.2">
@@ -29273,7 +29288,7 @@
     </row>
     <row r="48" spans="1:154" x14ac:dyDescent="0.2">
       <c r="A48" s="3" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="49" spans="1:150" x14ac:dyDescent="0.2">
@@ -29283,132 +29298,132 @@
     </row>
     <row r="51" spans="1:150" x14ac:dyDescent="0.2">
       <c r="A51" s="4"/>
-      <c r="B51" s="26" t="s">
+      <c r="B51" s="17" t="s">
         <v>31</v>
       </c>
-      <c r="C51" s="26"/>
-      <c r="D51" s="26"/>
-      <c r="E51" s="26"/>
-      <c r="F51" s="26" t="s">
+      <c r="C51" s="17"/>
+      <c r="D51" s="17"/>
+      <c r="E51" s="17"/>
+      <c r="F51" s="17" t="s">
         <v>32</v>
       </c>
-      <c r="G51" s="26"/>
-      <c r="H51" s="26"/>
-      <c r="I51" s="26"/>
-      <c r="J51" s="26" t="s">
+      <c r="G51" s="17"/>
+      <c r="H51" s="17"/>
+      <c r="I51" s="17"/>
+      <c r="J51" s="17" t="s">
         <v>33</v>
       </c>
-      <c r="K51" s="26"/>
-      <c r="L51" s="26"/>
-      <c r="M51" s="26"/>
-      <c r="N51" s="26" t="s">
+      <c r="K51" s="17"/>
+      <c r="L51" s="17"/>
+      <c r="M51" s="17"/>
+      <c r="N51" s="17" t="s">
         <v>34</v>
       </c>
-      <c r="O51" s="26"/>
-      <c r="P51" s="26"/>
-      <c r="Q51" s="26"/>
-      <c r="R51" s="26" t="s">
+      <c r="O51" s="17"/>
+      <c r="P51" s="17"/>
+      <c r="Q51" s="17"/>
+      <c r="R51" s="17" t="s">
         <v>35</v>
       </c>
-      <c r="S51" s="26"/>
-      <c r="T51" s="26"/>
-      <c r="U51" s="26"/>
-      <c r="V51" s="26" t="s">
+      <c r="S51" s="17"/>
+      <c r="T51" s="17"/>
+      <c r="U51" s="17"/>
+      <c r="V51" s="17" t="s">
         <v>36</v>
       </c>
-      <c r="W51" s="26"/>
-      <c r="X51" s="26"/>
-      <c r="Y51" s="26"/>
-      <c r="Z51" s="26" t="s">
+      <c r="W51" s="17"/>
+      <c r="X51" s="17"/>
+      <c r="Y51" s="17"/>
+      <c r="Z51" s="17" t="s">
         <v>37</v>
       </c>
-      <c r="AA51" s="26"/>
-      <c r="AB51" s="26"/>
-      <c r="AC51" s="26"/>
-      <c r="AD51" s="26" t="s">
+      <c r="AA51" s="17"/>
+      <c r="AB51" s="17"/>
+      <c r="AC51" s="17"/>
+      <c r="AD51" s="17" t="s">
         <v>38</v>
       </c>
-      <c r="AE51" s="26"/>
-      <c r="AF51" s="26"/>
-      <c r="AG51" s="26"/>
-      <c r="AH51" s="26" t="s">
+      <c r="AE51" s="17"/>
+      <c r="AF51" s="17"/>
+      <c r="AG51" s="17"/>
+      <c r="AH51" s="17" t="s">
         <v>39</v>
       </c>
-      <c r="AI51" s="26"/>
-      <c r="AJ51" s="26"/>
-      <c r="AK51" s="26"/>
-      <c r="AL51" s="26" t="s">
+      <c r="AI51" s="17"/>
+      <c r="AJ51" s="17"/>
+      <c r="AK51" s="17"/>
+      <c r="AL51" s="17" t="s">
         <v>40</v>
       </c>
-      <c r="AM51" s="26"/>
-      <c r="AN51" s="26"/>
-      <c r="AO51" s="26"/>
-      <c r="AP51" s="26" t="s">
+      <c r="AM51" s="17"/>
+      <c r="AN51" s="17"/>
+      <c r="AO51" s="17"/>
+      <c r="AP51" s="17" t="s">
         <v>41</v>
       </c>
-      <c r="AQ51" s="26"/>
-      <c r="AR51" s="26"/>
-      <c r="AS51" s="26"/>
-      <c r="AT51" s="26" t="s">
+      <c r="AQ51" s="17"/>
+      <c r="AR51" s="17"/>
+      <c r="AS51" s="17"/>
+      <c r="AT51" s="17" t="s">
         <v>42</v>
       </c>
-      <c r="AU51" s="26"/>
-      <c r="AV51" s="26"/>
-      <c r="AW51" s="26"/>
-      <c r="AX51" s="26" t="s">
+      <c r="AU51" s="17"/>
+      <c r="AV51" s="17"/>
+      <c r="AW51" s="17"/>
+      <c r="AX51" s="17" t="s">
         <v>43</v>
       </c>
-      <c r="AY51" s="26"/>
-      <c r="AZ51" s="26"/>
-      <c r="BA51" s="26"/>
-      <c r="BB51" s="26" t="s">
+      <c r="AY51" s="17"/>
+      <c r="AZ51" s="17"/>
+      <c r="BA51" s="17"/>
+      <c r="BB51" s="17" t="s">
         <v>44</v>
       </c>
-      <c r="BC51" s="26"/>
-      <c r="BD51" s="26"/>
-      <c r="BE51" s="26"/>
-      <c r="BF51" s="26" t="s">
+      <c r="BC51" s="17"/>
+      <c r="BD51" s="17"/>
+      <c r="BE51" s="17"/>
+      <c r="BF51" s="17" t="s">
         <v>45</v>
       </c>
-      <c r="BG51" s="26"/>
-      <c r="BH51" s="26"/>
-      <c r="BI51" s="26"/>
-      <c r="BJ51" s="26" t="s">
+      <c r="BG51" s="17"/>
+      <c r="BH51" s="17"/>
+      <c r="BI51" s="17"/>
+      <c r="BJ51" s="17" t="s">
         <v>46</v>
       </c>
-      <c r="BK51" s="26"/>
-      <c r="BL51" s="26"/>
-      <c r="BM51" s="26"/>
-      <c r="BN51" s="26" t="s">
+      <c r="BK51" s="17"/>
+      <c r="BL51" s="17"/>
+      <c r="BM51" s="17"/>
+      <c r="BN51" s="17" t="s">
         <v>47</v>
       </c>
-      <c r="BO51" s="26"/>
-      <c r="BP51" s="26"/>
-      <c r="BQ51" s="26"/>
-      <c r="BR51" s="26" t="s">
+      <c r="BO51" s="17"/>
+      <c r="BP51" s="17"/>
+      <c r="BQ51" s="17"/>
+      <c r="BR51" s="17" t="s">
         <v>27</v>
       </c>
-      <c r="BS51" s="26"/>
-      <c r="BT51" s="26"/>
-      <c r="BU51" s="26"/>
-      <c r="BV51" s="26" t="s">
+      <c r="BS51" s="17"/>
+      <c r="BT51" s="17"/>
+      <c r="BU51" s="17"/>
+      <c r="BV51" s="17" t="s">
         <v>28</v>
       </c>
-      <c r="BW51" s="26"/>
-      <c r="BX51" s="26"/>
-      <c r="BY51" s="26"/>
-      <c r="BZ51" s="26" t="s">
+      <c r="BW51" s="17"/>
+      <c r="BX51" s="17"/>
+      <c r="BY51" s="17"/>
+      <c r="BZ51" s="17" t="s">
         <v>29</v>
       </c>
-      <c r="CA51" s="26"/>
-      <c r="CB51" s="26"/>
-      <c r="CC51" s="26"/>
-      <c r="CD51" s="26" t="s">
+      <c r="CA51" s="17"/>
+      <c r="CB51" s="17"/>
+      <c r="CC51" s="17"/>
+      <c r="CD51" s="17" t="s">
         <v>48</v>
       </c>
-      <c r="CE51" s="26"/>
-      <c r="CF51" s="26"/>
-      <c r="CG51" s="26"/>
+      <c r="CE51" s="17"/>
+      <c r="CF51" s="17"/>
+      <c r="CG51" s="17"/>
       <c r="CH51" s="15" t="s">
         <v>49</v>
       </c>
@@ -29421,13 +29436,14 @@
       <c r="CM51" s="15"/>
       <c r="CN51" s="15"/>
       <c r="CO51" s="15"/>
-      <c r="CP51" s="18" t="s">
+      <c r="CP51" s="15" t="s">
         <v>51</v>
       </c>
-      <c r="CQ51" s="16"/>
+      <c r="CQ51" s="15"/>
       <c r="CR51" s="16"/>
       <c r="CS51" s="16"/>
-      <c r="CT51" s="16"/>
+      <c r="CT51" s="15"/>
+      <c r="CU51" s="16"/>
     </row>
     <row r="52" spans="1:150" x14ac:dyDescent="0.2">
       <c r="A52" s="5" t="s">
@@ -29709,13 +29725,16 @@
       <c r="CO52" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="CP52" s="24" t="s">
+      <c r="CP52" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="CQ52" s="24"/>
-      <c r="CR52" s="24"/>
-      <c r="CS52" s="24"/>
-      <c r="CT52" s="24"/>
+      <c r="CQ52" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="CR52" s="5"/>
+      <c r="CS52" s="5"/>
+      <c r="CT52" s="5"/>
+      <c r="CU52" s="5"/>
     </row>
     <row r="53" spans="1:150" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A53" s="7"/>
@@ -30000,14 +30019,16 @@
       <c r="CO54" s="14">
         <v>20.37904309200249</v>
       </c>
-      <c r="CP54" s="25">
-        <v>16.636150551321464</v>
-      </c>
-      <c r="CQ54" s="25"/>
-      <c r="CR54" s="25"/>
-      <c r="CS54" s="25"/>
-      <c r="CT54" s="25"/>
-      <c r="CU54" s="9"/>
+      <c r="CP54" s="14">
+        <v>17.105418588255432</v>
+      </c>
+      <c r="CQ54" s="14">
+        <v>16.366052918083554</v>
+      </c>
+      <c r="CR54" s="14"/>
+      <c r="CS54" s="14"/>
+      <c r="CT54" s="14"/>
+      <c r="CU54" s="14"/>
       <c r="CV54" s="9"/>
       <c r="CW54" s="9"/>
       <c r="CX54" s="9"/>
@@ -30340,14 +30361,16 @@
       <c r="CO55" s="14">
         <v>16.120935538956232</v>
       </c>
-      <c r="CP55" s="25">
-        <v>7.9388783293972125</v>
-      </c>
-      <c r="CQ55" s="25"/>
-      <c r="CR55" s="25"/>
-      <c r="CS55" s="25"/>
-      <c r="CT55" s="25"/>
-      <c r="CU55" s="9"/>
+      <c r="CP55" s="14">
+        <v>7.5607653819718053</v>
+      </c>
+      <c r="CQ55" s="14">
+        <v>7.4179813751245547</v>
+      </c>
+      <c r="CR55" s="14"/>
+      <c r="CS55" s="14"/>
+      <c r="CT55" s="14"/>
+      <c r="CU55" s="14"/>
       <c r="CV55" s="9"/>
       <c r="CW55" s="9"/>
       <c r="CX55" s="9"/>
@@ -30680,14 +30703,16 @@
       <c r="CO56" s="14">
         <v>9.3256741304253126</v>
       </c>
-      <c r="CP56" s="25">
-        <v>9.1193973271306135</v>
-      </c>
-      <c r="CQ56" s="25"/>
-      <c r="CR56" s="25"/>
-      <c r="CS56" s="25"/>
-      <c r="CT56" s="25"/>
-      <c r="CU56" s="9"/>
+      <c r="CP56" s="14">
+        <v>10.437238568688031</v>
+      </c>
+      <c r="CQ56" s="14">
+        <v>12.798324548266834</v>
+      </c>
+      <c r="CR56" s="14"/>
+      <c r="CS56" s="14"/>
+      <c r="CT56" s="14"/>
+      <c r="CU56" s="14"/>
       <c r="CV56" s="9"/>
       <c r="CW56" s="9"/>
       <c r="CX56" s="9"/>
@@ -31020,14 +31045,16 @@
       <c r="CO57" s="14">
         <v>18.732712160505514</v>
       </c>
-      <c r="CP57" s="25">
-        <v>17.869440277062679</v>
-      </c>
-      <c r="CQ57" s="25"/>
-      <c r="CR57" s="25"/>
-      <c r="CS57" s="25"/>
-      <c r="CT57" s="25"/>
-      <c r="CU57" s="9"/>
+      <c r="CP57" s="14">
+        <v>18.515119397531748</v>
+      </c>
+      <c r="CQ57" s="14">
+        <v>15.378157113735995</v>
+      </c>
+      <c r="CR57" s="14"/>
+      <c r="CS57" s="14"/>
+      <c r="CT57" s="14"/>
+      <c r="CU57" s="14"/>
       <c r="CV57" s="9"/>
       <c r="CW57" s="9"/>
       <c r="CX57" s="9"/>
@@ -31173,11 +31200,11 @@
       <c r="CM58" s="9"/>
       <c r="CN58" s="9"/>
       <c r="CO58" s="9"/>
-      <c r="CP58" s="21"/>
-      <c r="CQ58" s="21"/>
-      <c r="CR58" s="21"/>
-      <c r="CS58" s="21"/>
-      <c r="CT58" s="21"/>
+      <c r="CP58" s="9"/>
+      <c r="CQ58" s="9"/>
+      <c r="CR58" s="9"/>
+      <c r="CS58" s="9"/>
+      <c r="CT58" s="9"/>
       <c r="CU58" s="9"/>
       <c r="CV58" s="9"/>
       <c r="CW58" s="9"/>
@@ -31511,14 +31538,16 @@
       <c r="CO59" s="14">
         <v>17.356160532427793</v>
       </c>
-      <c r="CP59" s="25">
-        <v>13.711445850093455</v>
-      </c>
-      <c r="CQ59" s="25"/>
-      <c r="CR59" s="25"/>
-      <c r="CS59" s="25"/>
-      <c r="CT59" s="25"/>
-      <c r="CU59" s="9"/>
+      <c r="CP59" s="14">
+        <v>14.079051008492158</v>
+      </c>
+      <c r="CQ59" s="14">
+        <v>12.760158895710489</v>
+      </c>
+      <c r="CR59" s="14"/>
+      <c r="CS59" s="14"/>
+      <c r="CT59" s="14"/>
+      <c r="CU59" s="14"/>
       <c r="CV59" s="9"/>
       <c r="CW59" s="9"/>
       <c r="CX59" s="9"/>
@@ -31665,11 +31694,12 @@
       <c r="CM60" s="12"/>
       <c r="CN60" s="12"/>
       <c r="CO60" s="12"/>
-      <c r="CP60" s="23"/>
-      <c r="CQ60" s="23"/>
-      <c r="CR60" s="23"/>
-      <c r="CS60" s="23"/>
-      <c r="CT60" s="23"/>
+      <c r="CP60" s="12"/>
+      <c r="CQ60" s="12"/>
+      <c r="CR60" s="12"/>
+      <c r="CS60" s="12"/>
+      <c r="CT60" s="12"/>
+      <c r="CU60" s="12"/>
     </row>
     <row r="61" spans="1:150" x14ac:dyDescent="0.2">
       <c r="A61" s="13" t="s">
@@ -31769,11 +31799,11 @@
       <c r="CM62" s="9"/>
       <c r="CN62" s="9"/>
       <c r="CO62" s="9"/>
-      <c r="CP62" s="21"/>
-      <c r="CQ62" s="21"/>
-      <c r="CR62" s="21"/>
-      <c r="CS62" s="21"/>
-      <c r="CT62" s="21"/>
+      <c r="CP62" s="9"/>
+      <c r="CQ62" s="9"/>
+      <c r="CR62" s="9"/>
+      <c r="CS62" s="9"/>
+      <c r="CT62" s="9"/>
       <c r="CU62" s="9"/>
       <c r="CV62" s="9"/>
       <c r="CW62" s="9"/>
@@ -31920,11 +31950,11 @@
       <c r="CM63" s="9"/>
       <c r="CN63" s="9"/>
       <c r="CO63" s="9"/>
-      <c r="CP63" s="21"/>
-      <c r="CQ63" s="21"/>
-      <c r="CR63" s="21"/>
-      <c r="CS63" s="21"/>
-      <c r="CT63" s="21"/>
+      <c r="CP63" s="9"/>
+      <c r="CQ63" s="9"/>
+      <c r="CR63" s="9"/>
+      <c r="CS63" s="9"/>
+      <c r="CT63" s="9"/>
       <c r="CU63" s="9"/>
       <c r="CV63" s="9"/>
       <c r="CW63" s="9"/>
@@ -31990,7 +32020,7 @@
     </row>
     <row r="66" spans="1:150" x14ac:dyDescent="0.2">
       <c r="A66" s="1" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
     </row>
     <row r="68" spans="1:150" x14ac:dyDescent="0.2">
@@ -32000,7 +32030,7 @@
     </row>
     <row r="69" spans="1:150" x14ac:dyDescent="0.2">
       <c r="A69" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="70" spans="1:150" x14ac:dyDescent="0.2">
@@ -32010,132 +32040,132 @@
     </row>
     <row r="72" spans="1:150" x14ac:dyDescent="0.2">
       <c r="A72" s="4"/>
-      <c r="B72" s="26" t="s">
+      <c r="B72" s="17" t="s">
         <v>31</v>
       </c>
-      <c r="C72" s="28"/>
-      <c r="D72" s="28"/>
-      <c r="E72" s="28"/>
-      <c r="F72" s="26" t="s">
+      <c r="C72" s="19"/>
+      <c r="D72" s="19"/>
+      <c r="E72" s="19"/>
+      <c r="F72" s="17" t="s">
         <v>32</v>
       </c>
-      <c r="G72" s="28"/>
-      <c r="H72" s="28"/>
-      <c r="I72" s="28"/>
-      <c r="J72" s="26" t="s">
+      <c r="G72" s="19"/>
+      <c r="H72" s="19"/>
+      <c r="I72" s="19"/>
+      <c r="J72" s="17" t="s">
         <v>33</v>
       </c>
-      <c r="K72" s="28"/>
-      <c r="L72" s="28"/>
-      <c r="M72" s="28"/>
-      <c r="N72" s="26" t="s">
+      <c r="K72" s="19"/>
+      <c r="L72" s="19"/>
+      <c r="M72" s="19"/>
+      <c r="N72" s="17" t="s">
         <v>34</v>
       </c>
-      <c r="O72" s="28"/>
-      <c r="P72" s="28"/>
-      <c r="Q72" s="28"/>
-      <c r="R72" s="26" t="s">
+      <c r="O72" s="19"/>
+      <c r="P72" s="19"/>
+      <c r="Q72" s="19"/>
+      <c r="R72" s="17" t="s">
         <v>35</v>
       </c>
-      <c r="S72" s="28"/>
-      <c r="T72" s="28"/>
-      <c r="U72" s="28"/>
-      <c r="V72" s="26" t="s">
+      <c r="S72" s="19"/>
+      <c r="T72" s="19"/>
+      <c r="U72" s="19"/>
+      <c r="V72" s="17" t="s">
         <v>36</v>
       </c>
-      <c r="W72" s="28"/>
-      <c r="X72" s="28"/>
-      <c r="Y72" s="28"/>
-      <c r="Z72" s="26" t="s">
+      <c r="W72" s="19"/>
+      <c r="X72" s="19"/>
+      <c r="Y72" s="19"/>
+      <c r="Z72" s="17" t="s">
         <v>37</v>
       </c>
-      <c r="AA72" s="28"/>
-      <c r="AB72" s="28"/>
-      <c r="AC72" s="28"/>
-      <c r="AD72" s="26" t="s">
+      <c r="AA72" s="19"/>
+      <c r="AB72" s="19"/>
+      <c r="AC72" s="19"/>
+      <c r="AD72" s="17" t="s">
         <v>38</v>
       </c>
-      <c r="AE72" s="28"/>
-      <c r="AF72" s="28"/>
-      <c r="AG72" s="28"/>
-      <c r="AH72" s="26" t="s">
+      <c r="AE72" s="19"/>
+      <c r="AF72" s="19"/>
+      <c r="AG72" s="19"/>
+      <c r="AH72" s="17" t="s">
         <v>39</v>
       </c>
-      <c r="AI72" s="28"/>
-      <c r="AJ72" s="28"/>
-      <c r="AK72" s="28"/>
-      <c r="AL72" s="26" t="s">
+      <c r="AI72" s="19"/>
+      <c r="AJ72" s="19"/>
+      <c r="AK72" s="19"/>
+      <c r="AL72" s="17" t="s">
         <v>40</v>
       </c>
-      <c r="AM72" s="28"/>
-      <c r="AN72" s="28"/>
-      <c r="AO72" s="28"/>
-      <c r="AP72" s="26" t="s">
+      <c r="AM72" s="19"/>
+      <c r="AN72" s="19"/>
+      <c r="AO72" s="19"/>
+      <c r="AP72" s="17" t="s">
         <v>41</v>
       </c>
-      <c r="AQ72" s="28"/>
-      <c r="AR72" s="28"/>
-      <c r="AS72" s="28"/>
-      <c r="AT72" s="26" t="s">
+      <c r="AQ72" s="19"/>
+      <c r="AR72" s="19"/>
+      <c r="AS72" s="19"/>
+      <c r="AT72" s="17" t="s">
         <v>42</v>
       </c>
-      <c r="AU72" s="28"/>
-      <c r="AV72" s="28"/>
-      <c r="AW72" s="28"/>
-      <c r="AX72" s="26" t="s">
+      <c r="AU72" s="19"/>
+      <c r="AV72" s="19"/>
+      <c r="AW72" s="19"/>
+      <c r="AX72" s="17" t="s">
         <v>43</v>
       </c>
-      <c r="AY72" s="28"/>
-      <c r="AZ72" s="28"/>
-      <c r="BA72" s="28"/>
-      <c r="BB72" s="26" t="s">
+      <c r="AY72" s="19"/>
+      <c r="AZ72" s="19"/>
+      <c r="BA72" s="19"/>
+      <c r="BB72" s="17" t="s">
         <v>44</v>
       </c>
-      <c r="BC72" s="28"/>
-      <c r="BD72" s="28"/>
-      <c r="BE72" s="28"/>
-      <c r="BF72" s="26" t="s">
+      <c r="BC72" s="19"/>
+      <c r="BD72" s="19"/>
+      <c r="BE72" s="19"/>
+      <c r="BF72" s="17" t="s">
         <v>45</v>
       </c>
-      <c r="BG72" s="28"/>
-      <c r="BH72" s="28"/>
-      <c r="BI72" s="28"/>
-      <c r="BJ72" s="26" t="s">
+      <c r="BG72" s="19"/>
+      <c r="BH72" s="19"/>
+      <c r="BI72" s="19"/>
+      <c r="BJ72" s="17" t="s">
         <v>46</v>
       </c>
-      <c r="BK72" s="28"/>
-      <c r="BL72" s="28"/>
-      <c r="BM72" s="28"/>
-      <c r="BN72" s="26" t="s">
+      <c r="BK72" s="19"/>
+      <c r="BL72" s="19"/>
+      <c r="BM72" s="19"/>
+      <c r="BN72" s="17" t="s">
         <v>47</v>
       </c>
-      <c r="BO72" s="28"/>
-      <c r="BP72" s="28"/>
-      <c r="BQ72" s="28"/>
-      <c r="BR72" s="26" t="s">
+      <c r="BO72" s="19"/>
+      <c r="BP72" s="19"/>
+      <c r="BQ72" s="19"/>
+      <c r="BR72" s="17" t="s">
         <v>27</v>
       </c>
-      <c r="BS72" s="28"/>
-      <c r="BT72" s="28"/>
-      <c r="BU72" s="28"/>
-      <c r="BV72" s="26" t="s">
+      <c r="BS72" s="19"/>
+      <c r="BT72" s="19"/>
+      <c r="BU72" s="19"/>
+      <c r="BV72" s="17" t="s">
         <v>28</v>
       </c>
-      <c r="BW72" s="28"/>
-      <c r="BX72" s="28"/>
-      <c r="BY72" s="28"/>
-      <c r="BZ72" s="26" t="s">
+      <c r="BW72" s="19"/>
+      <c r="BX72" s="19"/>
+      <c r="BY72" s="19"/>
+      <c r="BZ72" s="17" t="s">
         <v>29</v>
       </c>
-      <c r="CA72" s="28"/>
-      <c r="CB72" s="28"/>
-      <c r="CC72" s="28"/>
-      <c r="CD72" s="26" t="s">
+      <c r="CA72" s="19"/>
+      <c r="CB72" s="19"/>
+      <c r="CC72" s="19"/>
+      <c r="CD72" s="17" t="s">
         <v>48</v>
       </c>
-      <c r="CE72" s="26"/>
-      <c r="CF72" s="26"/>
-      <c r="CG72" s="26"/>
+      <c r="CE72" s="17"/>
+      <c r="CF72" s="17"/>
+      <c r="CG72" s="17"/>
       <c r="CH72" s="15" t="s">
         <v>49</v>
       </c>
@@ -32148,13 +32178,14 @@
       <c r="CM72" s="15"/>
       <c r="CN72" s="15"/>
       <c r="CO72" s="15"/>
-      <c r="CP72" s="18" t="s">
+      <c r="CP72" s="15" t="s">
         <v>51</v>
       </c>
-      <c r="CQ72" s="16"/>
+      <c r="CQ72" s="15"/>
       <c r="CR72" s="16"/>
       <c r="CS72" s="16"/>
-      <c r="CT72" s="16"/>
+      <c r="CT72" s="15"/>
+      <c r="CU72" s="16"/>
     </row>
     <row r="73" spans="1:150" x14ac:dyDescent="0.2">
       <c r="A73" s="5" t="s">
@@ -32436,13 +32467,16 @@
       <c r="CO73" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="CP73" s="24" t="s">
+      <c r="CP73" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="CQ73" s="24"/>
-      <c r="CR73" s="24"/>
-      <c r="CS73" s="24"/>
-      <c r="CT73" s="24"/>
+      <c r="CQ73" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="CR73" s="5"/>
+      <c r="CS73" s="5"/>
+      <c r="CT73" s="5"/>
+      <c r="CU73" s="5"/>
     </row>
     <row r="74" spans="1:150" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A74" s="7"/>
@@ -32727,14 +32761,16 @@
       <c r="CO75" s="14">
         <v>14.960675854645515</v>
       </c>
-      <c r="CP75" s="25">
-        <v>12.718130961833737</v>
-      </c>
-      <c r="CQ75" s="25"/>
-      <c r="CR75" s="25"/>
-      <c r="CS75" s="25"/>
-      <c r="CT75" s="25"/>
-      <c r="CU75" s="9"/>
+      <c r="CP75" s="14">
+        <v>13.1716354353036</v>
+      </c>
+      <c r="CQ75" s="14">
+        <v>11.712639975592083</v>
+      </c>
+      <c r="CR75" s="14"/>
+      <c r="CS75" s="14"/>
+      <c r="CT75" s="14"/>
+      <c r="CU75" s="14"/>
       <c r="CV75" s="9"/>
       <c r="CW75" s="9"/>
       <c r="CX75" s="9"/>
@@ -33067,14 +33103,16 @@
       <c r="CO76" s="14">
         <v>11.059082688113264</v>
       </c>
-      <c r="CP76" s="25">
-        <v>4.7651654652751887</v>
-      </c>
-      <c r="CQ76" s="25"/>
-      <c r="CR76" s="25"/>
-      <c r="CS76" s="25"/>
-      <c r="CT76" s="25"/>
-      <c r="CU76" s="9"/>
+      <c r="CP76" s="14">
+        <v>4.3981701238867288</v>
+      </c>
+      <c r="CQ76" s="14">
+        <v>3.1155654364250864</v>
+      </c>
+      <c r="CR76" s="14"/>
+      <c r="CS76" s="14"/>
+      <c r="CT76" s="14"/>
+      <c r="CU76" s="14"/>
       <c r="CV76" s="9"/>
       <c r="CW76" s="9"/>
       <c r="CX76" s="9"/>
@@ -33407,14 +33445,16 @@
       <c r="CO77" s="14">
         <v>4.2861146646737609</v>
       </c>
-      <c r="CP77" s="25">
-        <v>5.4625445463549056</v>
-      </c>
-      <c r="CQ77" s="25"/>
-      <c r="CR77" s="25"/>
-      <c r="CS77" s="25"/>
-      <c r="CT77" s="25"/>
-      <c r="CU77" s="9"/>
+      <c r="CP77" s="14">
+        <v>6.736221766419817</v>
+      </c>
+      <c r="CQ77" s="14">
+        <v>8.1816336913109495</v>
+      </c>
+      <c r="CR77" s="14"/>
+      <c r="CS77" s="14"/>
+      <c r="CT77" s="14"/>
+      <c r="CU77" s="14"/>
       <c r="CV77" s="9"/>
       <c r="CW77" s="9"/>
       <c r="CX77" s="9"/>
@@ -33747,14 +33787,16 @@
       <c r="CO78" s="14">
         <v>12.563954286450695</v>
       </c>
-      <c r="CP78" s="25">
-        <v>13.774748115116722</v>
-      </c>
-      <c r="CQ78" s="25"/>
-      <c r="CR78" s="25"/>
-      <c r="CS78" s="25"/>
-      <c r="CT78" s="25"/>
-      <c r="CU78" s="9"/>
+      <c r="CP78" s="14">
+        <v>14.397415667543328</v>
+      </c>
+      <c r="CQ78" s="14">
+        <v>10.030902097366209</v>
+      </c>
+      <c r="CR78" s="14"/>
+      <c r="CS78" s="14"/>
+      <c r="CT78" s="14"/>
+      <c r="CU78" s="14"/>
       <c r="CV78" s="9"/>
       <c r="CW78" s="9"/>
       <c r="CX78" s="9"/>
@@ -33900,11 +33942,11 @@
       <c r="CM79" s="9"/>
       <c r="CN79" s="9"/>
       <c r="CO79" s="9"/>
-      <c r="CP79" s="21"/>
-      <c r="CQ79" s="21"/>
-      <c r="CR79" s="21"/>
-      <c r="CS79" s="21"/>
-      <c r="CT79" s="21"/>
+      <c r="CP79" s="9"/>
+      <c r="CQ79" s="9"/>
+      <c r="CR79" s="9"/>
+      <c r="CS79" s="9"/>
+      <c r="CT79" s="9"/>
       <c r="CU79" s="9"/>
       <c r="CV79" s="9"/>
       <c r="CW79" s="9"/>
@@ -34238,14 +34280,16 @@
       <c r="CO80" s="14">
         <v>12.040666109466088</v>
       </c>
-      <c r="CP80" s="25">
-        <v>9.9939401645549992</v>
-      </c>
-      <c r="CQ80" s="25"/>
-      <c r="CR80" s="25"/>
-      <c r="CS80" s="25"/>
-      <c r="CT80" s="25"/>
-      <c r="CU80" s="9"/>
+      <c r="CP80" s="14">
+        <v>10.345790665811833</v>
+      </c>
+      <c r="CQ80" s="14">
+        <v>8.1721675114928729</v>
+      </c>
+      <c r="CR80" s="14"/>
+      <c r="CS80" s="14"/>
+      <c r="CT80" s="14"/>
+      <c r="CU80" s="14"/>
       <c r="CV80" s="9"/>
       <c r="CW80" s="9"/>
       <c r="CX80" s="9"/>
@@ -34392,11 +34436,12 @@
       <c r="CM81" s="12"/>
       <c r="CN81" s="12"/>
       <c r="CO81" s="12"/>
-      <c r="CP81" s="23"/>
-      <c r="CQ81" s="23"/>
-      <c r="CR81" s="23"/>
-      <c r="CS81" s="23"/>
-      <c r="CT81" s="23"/>
+      <c r="CP81" s="12"/>
+      <c r="CQ81" s="12"/>
+      <c r="CR81" s="12"/>
+      <c r="CS81" s="12"/>
+      <c r="CT81" s="12"/>
+      <c r="CU81" s="12"/>
     </row>
     <row r="82" spans="1:154" x14ac:dyDescent="0.2">
       <c r="A82" s="13" t="s">
@@ -34496,11 +34541,11 @@
       <c r="CM83" s="9"/>
       <c r="CN83" s="9"/>
       <c r="CO83" s="9"/>
-      <c r="CP83" s="21"/>
-      <c r="CQ83" s="21"/>
-      <c r="CR83" s="21"/>
-      <c r="CS83" s="21"/>
-      <c r="CT83" s="21"/>
+      <c r="CP83" s="9"/>
+      <c r="CQ83" s="9"/>
+      <c r="CR83" s="9"/>
+      <c r="CS83" s="9"/>
+      <c r="CT83" s="9"/>
       <c r="CU83" s="9"/>
       <c r="CV83" s="9"/>
       <c r="CW83" s="9"/>
@@ -34647,11 +34692,11 @@
       <c r="CM84" s="9"/>
       <c r="CN84" s="9"/>
       <c r="CO84" s="9"/>
-      <c r="CP84" s="21"/>
-      <c r="CQ84" s="21"/>
-      <c r="CR84" s="21"/>
-      <c r="CS84" s="21"/>
-      <c r="CT84" s="21"/>
+      <c r="CP84" s="9"/>
+      <c r="CQ84" s="9"/>
+      <c r="CR84" s="9"/>
+      <c r="CS84" s="9"/>
+      <c r="CT84" s="9"/>
       <c r="CU84" s="9"/>
       <c r="CV84" s="9"/>
       <c r="CW84" s="9"/>
@@ -34712,7 +34757,7 @@
     </row>
     <row r="86" spans="1:154" x14ac:dyDescent="0.2">
       <c r="A86" s="1" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
     </row>
     <row r="88" spans="1:154" x14ac:dyDescent="0.2">
@@ -34722,7 +34767,7 @@
     </row>
     <row r="89" spans="1:154" x14ac:dyDescent="0.2">
       <c r="A89" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
     </row>
     <row r="90" spans="1:154" x14ac:dyDescent="0.2">
@@ -34732,132 +34777,132 @@
     </row>
     <row r="92" spans="1:154" x14ac:dyDescent="0.2">
       <c r="A92" s="4"/>
-      <c r="B92" s="26">
+      <c r="B92" s="17">
         <v>2000</v>
       </c>
-      <c r="C92" s="27"/>
-      <c r="D92" s="27"/>
-      <c r="E92" s="27"/>
-      <c r="F92" s="26">
+      <c r="C92" s="18"/>
+      <c r="D92" s="18"/>
+      <c r="E92" s="18"/>
+      <c r="F92" s="17">
         <v>2001</v>
       </c>
-      <c r="G92" s="27"/>
-      <c r="H92" s="27"/>
-      <c r="I92" s="27"/>
-      <c r="J92" s="26">
+      <c r="G92" s="18"/>
+      <c r="H92" s="18"/>
+      <c r="I92" s="18"/>
+      <c r="J92" s="17">
         <v>2002</v>
       </c>
-      <c r="K92" s="27"/>
-      <c r="L92" s="27"/>
-      <c r="M92" s="27"/>
-      <c r="N92" s="26">
+      <c r="K92" s="18"/>
+      <c r="L92" s="18"/>
+      <c r="M92" s="18"/>
+      <c r="N92" s="17">
         <v>2003</v>
       </c>
-      <c r="O92" s="27"/>
-      <c r="P92" s="27"/>
-      <c r="Q92" s="27"/>
-      <c r="R92" s="26">
+      <c r="O92" s="18"/>
+      <c r="P92" s="18"/>
+      <c r="Q92" s="18"/>
+      <c r="R92" s="17">
         <v>2004</v>
       </c>
-      <c r="S92" s="27"/>
-      <c r="T92" s="27"/>
-      <c r="U92" s="27"/>
-      <c r="V92" s="26">
+      <c r="S92" s="18"/>
+      <c r="T92" s="18"/>
+      <c r="U92" s="18"/>
+      <c r="V92" s="17">
         <v>2005</v>
       </c>
-      <c r="W92" s="27"/>
-      <c r="X92" s="27"/>
-      <c r="Y92" s="27"/>
-      <c r="Z92" s="26">
+      <c r="W92" s="18"/>
+      <c r="X92" s="18"/>
+      <c r="Y92" s="18"/>
+      <c r="Z92" s="17">
         <v>2006</v>
       </c>
-      <c r="AA92" s="27"/>
-      <c r="AB92" s="27"/>
-      <c r="AC92" s="27"/>
-      <c r="AD92" s="26">
+      <c r="AA92" s="18"/>
+      <c r="AB92" s="18"/>
+      <c r="AC92" s="18"/>
+      <c r="AD92" s="17">
         <v>2007</v>
       </c>
-      <c r="AE92" s="27"/>
-      <c r="AF92" s="27"/>
-      <c r="AG92" s="27"/>
-      <c r="AH92" s="26">
+      <c r="AE92" s="18"/>
+      <c r="AF92" s="18"/>
+      <c r="AG92" s="18"/>
+      <c r="AH92" s="17">
         <v>2008</v>
       </c>
-      <c r="AI92" s="27"/>
-      <c r="AJ92" s="27"/>
-      <c r="AK92" s="27"/>
-      <c r="AL92" s="26">
+      <c r="AI92" s="18"/>
+      <c r="AJ92" s="18"/>
+      <c r="AK92" s="18"/>
+      <c r="AL92" s="17">
         <v>2009</v>
       </c>
-      <c r="AM92" s="27"/>
-      <c r="AN92" s="27"/>
-      <c r="AO92" s="27"/>
-      <c r="AP92" s="26">
+      <c r="AM92" s="18"/>
+      <c r="AN92" s="18"/>
+      <c r="AO92" s="18"/>
+      <c r="AP92" s="17">
         <v>2010</v>
       </c>
-      <c r="AQ92" s="27"/>
-      <c r="AR92" s="27"/>
-      <c r="AS92" s="27"/>
-      <c r="AT92" s="26">
+      <c r="AQ92" s="18"/>
+      <c r="AR92" s="18"/>
+      <c r="AS92" s="18"/>
+      <c r="AT92" s="17">
         <v>2011</v>
       </c>
-      <c r="AU92" s="27"/>
-      <c r="AV92" s="27"/>
-      <c r="AW92" s="27"/>
-      <c r="AX92" s="26">
+      <c r="AU92" s="18"/>
+      <c r="AV92" s="18"/>
+      <c r="AW92" s="18"/>
+      <c r="AX92" s="17">
         <v>2012</v>
       </c>
-      <c r="AY92" s="27"/>
-      <c r="AZ92" s="27"/>
-      <c r="BA92" s="27"/>
-      <c r="BB92" s="26">
+      <c r="AY92" s="18"/>
+      <c r="AZ92" s="18"/>
+      <c r="BA92" s="18"/>
+      <c r="BB92" s="17">
         <v>2013</v>
       </c>
-      <c r="BC92" s="27"/>
-      <c r="BD92" s="27"/>
-      <c r="BE92" s="27"/>
-      <c r="BF92" s="26">
+      <c r="BC92" s="18"/>
+      <c r="BD92" s="18"/>
+      <c r="BE92" s="18"/>
+      <c r="BF92" s="17">
         <v>2014</v>
       </c>
-      <c r="BG92" s="27"/>
-      <c r="BH92" s="27"/>
-      <c r="BI92" s="27"/>
-      <c r="BJ92" s="26">
+      <c r="BG92" s="18"/>
+      <c r="BH92" s="18"/>
+      <c r="BI92" s="18"/>
+      <c r="BJ92" s="17">
         <v>2015</v>
       </c>
-      <c r="BK92" s="27"/>
-      <c r="BL92" s="27"/>
-      <c r="BM92" s="27"/>
-      <c r="BN92" s="26">
+      <c r="BK92" s="18"/>
+      <c r="BL92" s="18"/>
+      <c r="BM92" s="18"/>
+      <c r="BN92" s="17">
         <v>2016</v>
       </c>
-      <c r="BO92" s="27"/>
-      <c r="BP92" s="27"/>
-      <c r="BQ92" s="27"/>
-      <c r="BR92" s="26">
+      <c r="BO92" s="18"/>
+      <c r="BP92" s="18"/>
+      <c r="BQ92" s="18"/>
+      <c r="BR92" s="17">
         <v>2017</v>
       </c>
-      <c r="BS92" s="27"/>
-      <c r="BT92" s="27"/>
-      <c r="BU92" s="27"/>
-      <c r="BV92" s="26">
+      <c r="BS92" s="18"/>
+      <c r="BT92" s="18"/>
+      <c r="BU92" s="18"/>
+      <c r="BV92" s="17">
         <v>2018</v>
       </c>
-      <c r="BW92" s="27"/>
-      <c r="BX92" s="27"/>
-      <c r="BY92" s="27"/>
-      <c r="BZ92" s="26">
+      <c r="BW92" s="18"/>
+      <c r="BX92" s="18"/>
+      <c r="BY92" s="18"/>
+      <c r="BZ92" s="17">
         <v>2019</v>
       </c>
-      <c r="CA92" s="27"/>
-      <c r="CB92" s="27"/>
-      <c r="CC92" s="27"/>
-      <c r="CD92" s="26">
+      <c r="CA92" s="18"/>
+      <c r="CB92" s="18"/>
+      <c r="CC92" s="18"/>
+      <c r="CD92" s="17">
         <v>2020</v>
       </c>
-      <c r="CE92" s="26"/>
-      <c r="CF92" s="26"/>
-      <c r="CG92" s="26"/>
+      <c r="CE92" s="17"/>
+      <c r="CF92" s="17"/>
+      <c r="CG92" s="17"/>
       <c r="CH92" s="15">
         <v>2021</v>
       </c>
@@ -34870,15 +34915,16 @@
       <c r="CM92" s="15"/>
       <c r="CN92" s="15"/>
       <c r="CO92" s="15"/>
-      <c r="CP92" s="18">
+      <c r="CP92" s="15">
         <v>2023</v>
       </c>
-      <c r="CQ92" s="18"/>
-      <c r="CR92" s="18"/>
-      <c r="CS92" s="18"/>
-      <c r="CT92" s="18">
+      <c r="CQ92" s="15"/>
+      <c r="CR92" s="15"/>
+      <c r="CS92" s="15"/>
+      <c r="CT92" s="15">
         <v>2024</v>
       </c>
+      <c r="CU92" s="15"/>
     </row>
     <row r="93" spans="1:154" x14ac:dyDescent="0.2">
       <c r="A93" s="5" t="s">
@@ -35160,20 +35206,23 @@
       <c r="CO93" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="CP93" s="19" t="s">
+      <c r="CP93" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="CQ93" s="19" t="s">
+      <c r="CQ93" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="CR93" s="19" t="s">
+      <c r="CR93" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="CS93" s="19" t="s">
+      <c r="CS93" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="CT93" s="19" t="s">
+      <c r="CT93" s="6" t="s">
         <v>7</v>
+      </c>
+      <c r="CU93" s="6" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="94" spans="1:154" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
@@ -35459,22 +35508,24 @@
       <c r="CO95" s="14">
         <v>114.8237582161983</v>
       </c>
-      <c r="CP95" s="25">
+      <c r="CP95" s="14">
         <v>119.06559273198043</v>
       </c>
-      <c r="CQ95" s="25">
+      <c r="CQ95" s="14">
         <v>119.93600428380584</v>
       </c>
-      <c r="CR95" s="25">
+      <c r="CR95" s="14">
         <v>117.95632110021661</v>
       </c>
-      <c r="CS95" s="25">
+      <c r="CS95" s="14">
         <v>120.23567220299059</v>
       </c>
-      <c r="CT95" s="25">
-        <v>123.2042465650166</v>
-      </c>
-      <c r="CU95" s="9"/>
+      <c r="CT95" s="14">
+        <v>123.20424656501659</v>
+      </c>
+      <c r="CU95" s="14">
+        <v>124.93196315405466</v>
+      </c>
       <c r="CV95" s="9"/>
       <c r="CW95" s="9"/>
       <c r="CX95" s="9"/>
@@ -35811,22 +35862,24 @@
       <c r="CO96" s="14">
         <v>114.05321500450079</v>
       </c>
-      <c r="CP96" s="25">
+      <c r="CP96" s="14">
         <v>118.11260589622094</v>
       </c>
-      <c r="CQ96" s="25">
+      <c r="CQ96" s="14">
         <v>118.34979300275855</v>
       </c>
-      <c r="CR96" s="25">
+      <c r="CR96" s="14">
         <v>116.32431721748414</v>
       </c>
-      <c r="CS96" s="25">
+      <c r="CS96" s="14">
         <v>119.2515344714428</v>
       </c>
-      <c r="CT96" s="25">
+      <c r="CT96" s="14">
         <v>121.69066063496001</v>
       </c>
-      <c r="CU96" s="9"/>
+      <c r="CU96" s="14">
+        <v>123.28784511547073</v>
+      </c>
       <c r="CV96" s="9"/>
       <c r="CW96" s="9"/>
       <c r="CX96" s="9"/>
@@ -36163,22 +36216,24 @@
       <c r="CO97" s="14">
         <v>112.3525858894685</v>
       </c>
-      <c r="CP97" s="25">
+      <c r="CP97" s="14">
         <v>120.83632613767128</v>
       </c>
-      <c r="CQ97" s="25">
+      <c r="CQ97" s="14">
         <v>115.42350468533623</v>
       </c>
-      <c r="CR97" s="25">
+      <c r="CR97" s="14">
         <v>115.01204922441927</v>
       </c>
-      <c r="CS97" s="25">
+      <c r="CS97" s="14">
         <v>117.78195239278048</v>
       </c>
-      <c r="CT97" s="25">
-        <v>125.02625590995207</v>
-      </c>
-      <c r="CU97" s="9"/>
+      <c r="CT97" s="14">
+        <v>125.02625590995204</v>
+      </c>
+      <c r="CU97" s="14">
+        <v>120.3492450404793</v>
+      </c>
       <c r="CV97" s="9"/>
       <c r="CW97" s="9"/>
       <c r="CX97" s="9"/>
@@ -36515,22 +36570,24 @@
       <c r="CO98" s="14">
         <v>114.37964806558401</v>
       </c>
-      <c r="CP98" s="25">
+      <c r="CP98" s="14">
         <v>119.19530947514345</v>
       </c>
-      <c r="CQ98" s="25">
+      <c r="CQ98" s="14">
         <v>121.51588527198483</v>
       </c>
-      <c r="CR98" s="25">
+      <c r="CR98" s="14">
         <v>117.91119799280088</v>
       </c>
-      <c r="CS98" s="25">
+      <c r="CS98" s="14">
         <v>120.64791004259881</v>
       </c>
-      <c r="CT98" s="25">
-        <v>123.48508473313625</v>
-      </c>
-      <c r="CU98" s="9"/>
+      <c r="CT98" s="14">
+        <v>123.48571208222066</v>
+      </c>
+      <c r="CU98" s="14">
+        <v>127.42128470708398</v>
+      </c>
       <c r="CV98" s="9"/>
       <c r="CW98" s="9"/>
       <c r="CX98" s="9"/>
@@ -36680,11 +36737,11 @@
       <c r="CM99" s="9"/>
       <c r="CN99" s="9"/>
       <c r="CO99" s="9"/>
-      <c r="CP99" s="21"/>
-      <c r="CQ99" s="21"/>
-      <c r="CR99" s="21"/>
-      <c r="CS99" s="21"/>
-      <c r="CT99" s="21"/>
+      <c r="CP99" s="9"/>
+      <c r="CQ99" s="9"/>
+      <c r="CR99" s="9"/>
+      <c r="CS99" s="9"/>
+      <c r="CT99" s="9"/>
       <c r="CU99" s="9"/>
       <c r="CV99" s="9"/>
       <c r="CW99" s="9"/>
@@ -37022,22 +37079,24 @@
       <c r="CO100" s="14">
         <v>114.19652206198758</v>
       </c>
-      <c r="CP100" s="25">
+      <c r="CP100" s="14">
         <v>119.03666167811731</v>
       </c>
-      <c r="CQ100" s="25">
+      <c r="CQ100" s="14">
         <v>118.95481079060981</v>
       </c>
-      <c r="CR100" s="25">
+      <c r="CR100" s="14">
         <v>117.15342414443401</v>
       </c>
-      <c r="CS100" s="25">
+      <c r="CS100" s="14">
         <v>119.61429577951492</v>
       </c>
-      <c r="CT100" s="25">
-        <v>123.05978755135989</v>
-      </c>
-      <c r="CU100" s="9"/>
+      <c r="CT100" s="14">
+        <v>123.06395484160413</v>
+      </c>
+      <c r="CU100" s="14">
+        <v>124.00013492133475</v>
+      </c>
       <c r="CV100" s="9"/>
       <c r="CW100" s="9"/>
       <c r="CX100" s="9"/>
@@ -37188,11 +37247,12 @@
       <c r="CM101" s="12"/>
       <c r="CN101" s="12"/>
       <c r="CO101" s="12"/>
-      <c r="CP101" s="23"/>
-      <c r="CQ101" s="23"/>
-      <c r="CR101" s="23"/>
-      <c r="CS101" s="23"/>
-      <c r="CT101" s="23"/>
+      <c r="CP101" s="12"/>
+      <c r="CQ101" s="12"/>
+      <c r="CR101" s="12"/>
+      <c r="CS101" s="12"/>
+      <c r="CT101" s="12"/>
+      <c r="CU101" s="12"/>
     </row>
     <row r="102" spans="1:154" x14ac:dyDescent="0.2">
       <c r="A102" s="13" t="s">
@@ -37211,7 +37271,7 @@
     </row>
     <row r="107" spans="1:154" x14ac:dyDescent="0.2">
       <c r="A107" s="1" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
     </row>
     <row r="109" spans="1:154" x14ac:dyDescent="0.2">
@@ -37221,7 +37281,7 @@
     </row>
     <row r="110" spans="1:154" x14ac:dyDescent="0.2">
       <c r="A110" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
     </row>
     <row r="111" spans="1:154" x14ac:dyDescent="0.2">
@@ -37231,132 +37291,132 @@
     </row>
     <row r="113" spans="1:154" x14ac:dyDescent="0.2">
       <c r="A113" s="4"/>
-      <c r="B113" s="26">
+      <c r="B113" s="17">
         <v>2000</v>
       </c>
-      <c r="C113" s="27"/>
-      <c r="D113" s="27"/>
-      <c r="E113" s="27"/>
-      <c r="F113" s="26">
+      <c r="C113" s="18"/>
+      <c r="D113" s="18"/>
+      <c r="E113" s="18"/>
+      <c r="F113" s="17">
         <v>2001</v>
       </c>
-      <c r="G113" s="27"/>
-      <c r="H113" s="27"/>
-      <c r="I113" s="27"/>
-      <c r="J113" s="26">
+      <c r="G113" s="18"/>
+      <c r="H113" s="18"/>
+      <c r="I113" s="18"/>
+      <c r="J113" s="17">
         <v>2002</v>
       </c>
-      <c r="K113" s="27"/>
-      <c r="L113" s="27"/>
-      <c r="M113" s="27"/>
-      <c r="N113" s="26">
+      <c r="K113" s="18"/>
+      <c r="L113" s="18"/>
+      <c r="M113" s="18"/>
+      <c r="N113" s="17">
         <v>2003</v>
       </c>
-      <c r="O113" s="27"/>
-      <c r="P113" s="27"/>
-      <c r="Q113" s="27"/>
-      <c r="R113" s="26">
+      <c r="O113" s="18"/>
+      <c r="P113" s="18"/>
+      <c r="Q113" s="18"/>
+      <c r="R113" s="17">
         <v>2004</v>
       </c>
-      <c r="S113" s="27"/>
-      <c r="T113" s="27"/>
-      <c r="U113" s="27"/>
-      <c r="V113" s="26">
+      <c r="S113" s="18"/>
+      <c r="T113" s="18"/>
+      <c r="U113" s="18"/>
+      <c r="V113" s="17">
         <v>2005</v>
       </c>
-      <c r="W113" s="27"/>
-      <c r="X113" s="27"/>
-      <c r="Y113" s="27"/>
-      <c r="Z113" s="26">
+      <c r="W113" s="18"/>
+      <c r="X113" s="18"/>
+      <c r="Y113" s="18"/>
+      <c r="Z113" s="17">
         <v>2006</v>
       </c>
-      <c r="AA113" s="27"/>
-      <c r="AB113" s="27"/>
-      <c r="AC113" s="27"/>
-      <c r="AD113" s="26">
+      <c r="AA113" s="18"/>
+      <c r="AB113" s="18"/>
+      <c r="AC113" s="18"/>
+      <c r="AD113" s="17">
         <v>2007</v>
       </c>
-      <c r="AE113" s="27"/>
-      <c r="AF113" s="27"/>
-      <c r="AG113" s="27"/>
-      <c r="AH113" s="26">
+      <c r="AE113" s="18"/>
+      <c r="AF113" s="18"/>
+      <c r="AG113" s="18"/>
+      <c r="AH113" s="17">
         <v>2008</v>
       </c>
-      <c r="AI113" s="27"/>
-      <c r="AJ113" s="27"/>
-      <c r="AK113" s="27"/>
-      <c r="AL113" s="26">
+      <c r="AI113" s="18"/>
+      <c r="AJ113" s="18"/>
+      <c r="AK113" s="18"/>
+      <c r="AL113" s="17">
         <v>2009</v>
       </c>
-      <c r="AM113" s="27"/>
-      <c r="AN113" s="27"/>
-      <c r="AO113" s="27"/>
-      <c r="AP113" s="26">
+      <c r="AM113" s="18"/>
+      <c r="AN113" s="18"/>
+      <c r="AO113" s="18"/>
+      <c r="AP113" s="17">
         <v>2010</v>
       </c>
-      <c r="AQ113" s="27"/>
-      <c r="AR113" s="27"/>
-      <c r="AS113" s="27"/>
-      <c r="AT113" s="26">
+      <c r="AQ113" s="18"/>
+      <c r="AR113" s="18"/>
+      <c r="AS113" s="18"/>
+      <c r="AT113" s="17">
         <v>2011</v>
       </c>
-      <c r="AU113" s="27"/>
-      <c r="AV113" s="27"/>
-      <c r="AW113" s="27"/>
-      <c r="AX113" s="26">
+      <c r="AU113" s="18"/>
+      <c r="AV113" s="18"/>
+      <c r="AW113" s="18"/>
+      <c r="AX113" s="17">
         <v>2012</v>
       </c>
-      <c r="AY113" s="27"/>
-      <c r="AZ113" s="27"/>
-      <c r="BA113" s="27"/>
-      <c r="BB113" s="26">
+      <c r="AY113" s="18"/>
+      <c r="AZ113" s="18"/>
+      <c r="BA113" s="18"/>
+      <c r="BB113" s="17">
         <v>2013</v>
       </c>
-      <c r="BC113" s="27"/>
-      <c r="BD113" s="27"/>
-      <c r="BE113" s="27"/>
-      <c r="BF113" s="26">
+      <c r="BC113" s="18"/>
+      <c r="BD113" s="18"/>
+      <c r="BE113" s="18"/>
+      <c r="BF113" s="17">
         <v>2014</v>
       </c>
-      <c r="BG113" s="27"/>
-      <c r="BH113" s="27"/>
-      <c r="BI113" s="27"/>
-      <c r="BJ113" s="26">
+      <c r="BG113" s="18"/>
+      <c r="BH113" s="18"/>
+      <c r="BI113" s="18"/>
+      <c r="BJ113" s="17">
         <v>2015</v>
       </c>
-      <c r="BK113" s="27"/>
-      <c r="BL113" s="27"/>
-      <c r="BM113" s="27"/>
-      <c r="BN113" s="26">
+      <c r="BK113" s="18"/>
+      <c r="BL113" s="18"/>
+      <c r="BM113" s="18"/>
+      <c r="BN113" s="17">
         <v>2016</v>
       </c>
-      <c r="BO113" s="27"/>
-      <c r="BP113" s="27"/>
-      <c r="BQ113" s="27"/>
-      <c r="BR113" s="26">
+      <c r="BO113" s="18"/>
+      <c r="BP113" s="18"/>
+      <c r="BQ113" s="18"/>
+      <c r="BR113" s="17">
         <v>2017</v>
       </c>
-      <c r="BS113" s="27"/>
-      <c r="BT113" s="27"/>
-      <c r="BU113" s="27"/>
-      <c r="BV113" s="26">
+      <c r="BS113" s="18"/>
+      <c r="BT113" s="18"/>
+      <c r="BU113" s="18"/>
+      <c r="BV113" s="17">
         <v>2018</v>
       </c>
-      <c r="BW113" s="27"/>
-      <c r="BX113" s="27"/>
-      <c r="BY113" s="27"/>
-      <c r="BZ113" s="26">
+      <c r="BW113" s="18"/>
+      <c r="BX113" s="18"/>
+      <c r="BY113" s="18"/>
+      <c r="BZ113" s="17">
         <v>2019</v>
       </c>
-      <c r="CA113" s="27"/>
-      <c r="CB113" s="27"/>
-      <c r="CC113" s="27"/>
-      <c r="CD113" s="26">
+      <c r="CA113" s="18"/>
+      <c r="CB113" s="18"/>
+      <c r="CC113" s="18"/>
+      <c r="CD113" s="17">
         <v>2020</v>
       </c>
-      <c r="CE113" s="26"/>
-      <c r="CF113" s="26"/>
-      <c r="CG113" s="26"/>
+      <c r="CE113" s="17"/>
+      <c r="CF113" s="17"/>
+      <c r="CG113" s="17"/>
       <c r="CH113" s="15">
         <v>2021</v>
       </c>
@@ -37369,15 +37429,16 @@
       <c r="CM113" s="15"/>
       <c r="CN113" s="15"/>
       <c r="CO113" s="15"/>
-      <c r="CP113" s="18">
+      <c r="CP113" s="15">
         <v>2023</v>
       </c>
-      <c r="CQ113" s="18"/>
-      <c r="CR113" s="18"/>
-      <c r="CS113" s="18"/>
-      <c r="CT113" s="18">
+      <c r="CQ113" s="15"/>
+      <c r="CR113" s="15"/>
+      <c r="CS113" s="15"/>
+      <c r="CT113" s="15">
         <v>2024</v>
       </c>
+      <c r="CU113" s="15"/>
     </row>
     <row r="114" spans="1:154" x14ac:dyDescent="0.2">
       <c r="A114" s="5" t="s">
@@ -37659,20 +37720,23 @@
       <c r="CO114" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="CP114" s="19" t="s">
+      <c r="CP114" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="CQ114" s="19" t="s">
+      <c r="CQ114" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="CR114" s="19" t="s">
+      <c r="CR114" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="CS114" s="19" t="s">
+      <c r="CS114" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="CT114" s="19" t="s">
+      <c r="CT114" s="6" t="s">
         <v>7</v>
+      </c>
+      <c r="CU114" s="6" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="115" spans="1:154" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
@@ -37958,22 +38022,24 @@
       <c r="CO116" s="14">
         <v>48.299102137475451</v>
       </c>
-      <c r="CP116" s="25">
+      <c r="CP116" s="14">
         <v>59.666830762568082</v>
       </c>
-      <c r="CQ116" s="25">
+      <c r="CQ116" s="14">
         <v>48.418139429166125</v>
       </c>
-      <c r="CR116" s="25">
+      <c r="CR116" s="14">
         <v>56.625546288907458</v>
       </c>
-      <c r="CS116" s="25">
+      <c r="CS116" s="14">
         <v>49.543199701950122</v>
       </c>
-      <c r="CT116" s="25">
-        <v>61.201485951709842</v>
-      </c>
-      <c r="CU116" s="9"/>
+      <c r="CT116" s="14">
+        <v>61.249713514578495</v>
+      </c>
+      <c r="CU116" s="14">
+        <v>49.966476015881391</v>
+      </c>
       <c r="CV116" s="9"/>
       <c r="CW116" s="9"/>
       <c r="CX116" s="9"/>
@@ -38310,22 +38376,24 @@
       <c r="CO117" s="14">
         <v>32.299121433197328</v>
       </c>
-      <c r="CP117" s="25">
+      <c r="CP117" s="14">
         <v>24.386381739884069</v>
       </c>
-      <c r="CQ117" s="25">
+      <c r="CQ117" s="14">
         <v>35.410814443145703</v>
       </c>
-      <c r="CR117" s="25">
+      <c r="CR117" s="14">
         <v>26.485354159163244</v>
       </c>
-      <c r="CS117" s="25">
+      <c r="CS117" s="14">
         <v>31.95915903258323</v>
       </c>
-      <c r="CT117" s="25">
-        <v>23.148405790087992</v>
-      </c>
-      <c r="CU117" s="9"/>
+      <c r="CT117" s="14">
+        <v>22.992984791253317</v>
+      </c>
+      <c r="CU117" s="14">
+        <v>33.733175295095435</v>
+      </c>
       <c r="CV117" s="9"/>
       <c r="CW117" s="9"/>
       <c r="CX117" s="9"/>
@@ -38662,22 +38730,24 @@
       <c r="CO118" s="14">
         <v>14.118511899254283</v>
       </c>
-      <c r="CP118" s="25">
+      <c r="CP118" s="14">
         <v>11.433370027440667</v>
       </c>
-      <c r="CQ118" s="25">
+      <c r="CQ118" s="14">
         <v>10.758679828933811</v>
       </c>
-      <c r="CR118" s="25">
+      <c r="CR118" s="14">
         <v>12.185878865146019</v>
       </c>
-      <c r="CS118" s="25">
+      <c r="CS118" s="14">
         <v>13.152405669218382</v>
       </c>
-      <c r="CT118" s="25">
-        <v>10.971652303648719</v>
-      </c>
-      <c r="CU118" s="9"/>
+      <c r="CT118" s="14">
+        <v>11.068375851676377</v>
+      </c>
+      <c r="CU118" s="14">
+        <v>10.762321292730398</v>
+      </c>
       <c r="CV118" s="9"/>
       <c r="CW118" s="9"/>
       <c r="CX118" s="9"/>
@@ -39014,22 +39084,24 @@
       <c r="CO119" s="14">
         <v>5.2832645300729411</v>
       </c>
-      <c r="CP119" s="25">
+      <c r="CP119" s="14">
         <v>4.5134174701071963</v>
       </c>
-      <c r="CQ119" s="25">
+      <c r="CQ119" s="14">
         <v>5.4123662987543577</v>
       </c>
-      <c r="CR119" s="25">
+      <c r="CR119" s="14">
         <v>4.7032206867832791</v>
       </c>
-      <c r="CS119" s="25">
+      <c r="CS119" s="14">
         <v>5.3452355962482674</v>
       </c>
-      <c r="CT119" s="25">
-        <v>4.6784559545534465</v>
-      </c>
-      <c r="CU119" s="9"/>
+      <c r="CT119" s="14">
+        <v>4.688925842491809</v>
+      </c>
+      <c r="CU119" s="14">
+        <v>5.5380273962927671</v>
+      </c>
       <c r="CV119" s="9"/>
       <c r="CW119" s="9"/>
       <c r="CX119" s="9"/>
@@ -39179,12 +39251,12 @@
       <c r="CM120" s="14"/>
       <c r="CN120" s="14"/>
       <c r="CO120" s="14"/>
-      <c r="CP120" s="25"/>
-      <c r="CQ120" s="25"/>
-      <c r="CR120" s="25"/>
-      <c r="CS120" s="25"/>
-      <c r="CT120" s="25"/>
-      <c r="CU120" s="9"/>
+      <c r="CP120" s="14"/>
+      <c r="CQ120" s="14"/>
+      <c r="CR120" s="14"/>
+      <c r="CS120" s="14"/>
+      <c r="CT120" s="14"/>
+      <c r="CU120" s="14"/>
       <c r="CV120" s="9"/>
       <c r="CW120" s="9"/>
       <c r="CX120" s="9"/>
@@ -39521,22 +39593,24 @@
       <c r="CO121" s="14">
         <v>100</v>
       </c>
-      <c r="CP121" s="25">
+      <c r="CP121" s="14">
         <v>100</v>
       </c>
-      <c r="CQ121" s="25">
+      <c r="CQ121" s="14">
         <v>100</v>
       </c>
-      <c r="CR121" s="25">
+      <c r="CR121" s="14">
         <v>100</v>
       </c>
-      <c r="CS121" s="25">
+      <c r="CS121" s="14">
         <v>100</v>
       </c>
-      <c r="CT121" s="25">
+      <c r="CT121" s="14">
         <v>100</v>
       </c>
-      <c r="CU121" s="9"/>
+      <c r="CU121" s="14">
+        <v>100</v>
+      </c>
       <c r="CV121" s="9"/>
       <c r="CW121" s="9"/>
       <c r="CX121" s="9"/>
@@ -39687,11 +39761,12 @@
       <c r="CM122" s="12"/>
       <c r="CN122" s="12"/>
       <c r="CO122" s="12"/>
-      <c r="CP122" s="23"/>
-      <c r="CQ122" s="23"/>
-      <c r="CR122" s="23"/>
-      <c r="CS122" s="23"/>
-      <c r="CT122" s="23"/>
+      <c r="CP122" s="12"/>
+      <c r="CQ122" s="12"/>
+      <c r="CR122" s="12"/>
+      <c r="CS122" s="12"/>
+      <c r="CT122" s="12"/>
+      <c r="CU122" s="12"/>
     </row>
     <row r="123" spans="1:154" x14ac:dyDescent="0.2">
       <c r="A123" s="13" t="s">
@@ -39791,11 +39866,11 @@
       <c r="CM124" s="9"/>
       <c r="CN124" s="9"/>
       <c r="CO124" s="9"/>
-      <c r="CP124" s="21"/>
-      <c r="CQ124" s="21"/>
-      <c r="CR124" s="21"/>
-      <c r="CS124" s="21"/>
-      <c r="CT124" s="21"/>
+      <c r="CP124" s="9"/>
+      <c r="CQ124" s="9"/>
+      <c r="CR124" s="9"/>
+      <c r="CS124" s="9"/>
+      <c r="CT124" s="9"/>
       <c r="CU124" s="9"/>
       <c r="CV124" s="9"/>
       <c r="CW124" s="9"/>
@@ -39946,11 +40021,11 @@
       <c r="CM125" s="9"/>
       <c r="CN125" s="9"/>
       <c r="CO125" s="9"/>
-      <c r="CP125" s="21"/>
-      <c r="CQ125" s="21"/>
-      <c r="CR125" s="21"/>
-      <c r="CS125" s="21"/>
-      <c r="CT125" s="21"/>
+      <c r="CP125" s="9"/>
+      <c r="CQ125" s="9"/>
+      <c r="CR125" s="9"/>
+      <c r="CS125" s="9"/>
+      <c r="CT125" s="9"/>
       <c r="CU125" s="9"/>
       <c r="CV125" s="9"/>
       <c r="CW125" s="9"/>
@@ -40020,7 +40095,7 @@
     </row>
     <row r="128" spans="1:154" x14ac:dyDescent="0.2">
       <c r="A128" s="1" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
     </row>
     <row r="130" spans="1:154" x14ac:dyDescent="0.2">
@@ -40030,7 +40105,7 @@
     </row>
     <row r="131" spans="1:154" x14ac:dyDescent="0.2">
       <c r="A131" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
     </row>
     <row r="132" spans="1:154" x14ac:dyDescent="0.2">
@@ -40040,132 +40115,132 @@
     </row>
     <row r="134" spans="1:154" x14ac:dyDescent="0.2">
       <c r="A134" s="4"/>
-      <c r="B134" s="26">
+      <c r="B134" s="17">
         <v>2000</v>
       </c>
-      <c r="C134" s="27"/>
-      <c r="D134" s="27"/>
-      <c r="E134" s="27"/>
-      <c r="F134" s="26">
+      <c r="C134" s="18"/>
+      <c r="D134" s="18"/>
+      <c r="E134" s="18"/>
+      <c r="F134" s="17">
         <v>2001</v>
       </c>
-      <c r="G134" s="27"/>
-      <c r="H134" s="27"/>
-      <c r="I134" s="27"/>
-      <c r="J134" s="26">
+      <c r="G134" s="18"/>
+      <c r="H134" s="18"/>
+      <c r="I134" s="18"/>
+      <c r="J134" s="17">
         <v>2002</v>
       </c>
-      <c r="K134" s="27"/>
-      <c r="L134" s="27"/>
-      <c r="M134" s="27"/>
-      <c r="N134" s="26">
+      <c r="K134" s="18"/>
+      <c r="L134" s="18"/>
+      <c r="M134" s="18"/>
+      <c r="N134" s="17">
         <v>2003</v>
       </c>
-      <c r="O134" s="27"/>
-      <c r="P134" s="27"/>
-      <c r="Q134" s="27"/>
-      <c r="R134" s="26">
+      <c r="O134" s="18"/>
+      <c r="P134" s="18"/>
+      <c r="Q134" s="18"/>
+      <c r="R134" s="17">
         <v>2004</v>
       </c>
-      <c r="S134" s="27"/>
-      <c r="T134" s="27"/>
-      <c r="U134" s="27"/>
-      <c r="V134" s="26">
+      <c r="S134" s="18"/>
+      <c r="T134" s="18"/>
+      <c r="U134" s="18"/>
+      <c r="V134" s="17">
         <v>2005</v>
       </c>
-      <c r="W134" s="27"/>
-      <c r="X134" s="27"/>
-      <c r="Y134" s="27"/>
-      <c r="Z134" s="26">
+      <c r="W134" s="18"/>
+      <c r="X134" s="18"/>
+      <c r="Y134" s="18"/>
+      <c r="Z134" s="17">
         <v>2006</v>
       </c>
-      <c r="AA134" s="27"/>
-      <c r="AB134" s="27"/>
-      <c r="AC134" s="27"/>
-      <c r="AD134" s="26">
+      <c r="AA134" s="18"/>
+      <c r="AB134" s="18"/>
+      <c r="AC134" s="18"/>
+      <c r="AD134" s="17">
         <v>2007</v>
       </c>
-      <c r="AE134" s="27"/>
-      <c r="AF134" s="27"/>
-      <c r="AG134" s="27"/>
-      <c r="AH134" s="26">
+      <c r="AE134" s="18"/>
+      <c r="AF134" s="18"/>
+      <c r="AG134" s="18"/>
+      <c r="AH134" s="17">
         <v>2008</v>
       </c>
-      <c r="AI134" s="27"/>
-      <c r="AJ134" s="27"/>
-      <c r="AK134" s="27"/>
-      <c r="AL134" s="26">
+      <c r="AI134" s="18"/>
+      <c r="AJ134" s="18"/>
+      <c r="AK134" s="18"/>
+      <c r="AL134" s="17">
         <v>2009</v>
       </c>
-      <c r="AM134" s="27"/>
-      <c r="AN134" s="27"/>
-      <c r="AO134" s="27"/>
-      <c r="AP134" s="26">
+      <c r="AM134" s="18"/>
+      <c r="AN134" s="18"/>
+      <c r="AO134" s="18"/>
+      <c r="AP134" s="17">
         <v>2010</v>
       </c>
-      <c r="AQ134" s="27"/>
-      <c r="AR134" s="27"/>
-      <c r="AS134" s="27"/>
-      <c r="AT134" s="26">
+      <c r="AQ134" s="18"/>
+      <c r="AR134" s="18"/>
+      <c r="AS134" s="18"/>
+      <c r="AT134" s="17">
         <v>2011</v>
       </c>
-      <c r="AU134" s="27"/>
-      <c r="AV134" s="27"/>
-      <c r="AW134" s="27"/>
-      <c r="AX134" s="26">
+      <c r="AU134" s="18"/>
+      <c r="AV134" s="18"/>
+      <c r="AW134" s="18"/>
+      <c r="AX134" s="17">
         <v>2012</v>
       </c>
-      <c r="AY134" s="27"/>
-      <c r="AZ134" s="27"/>
-      <c r="BA134" s="27"/>
-      <c r="BB134" s="26">
+      <c r="AY134" s="18"/>
+      <c r="AZ134" s="18"/>
+      <c r="BA134" s="18"/>
+      <c r="BB134" s="17">
         <v>2013</v>
       </c>
-      <c r="BC134" s="27"/>
-      <c r="BD134" s="27"/>
-      <c r="BE134" s="27"/>
-      <c r="BF134" s="26">
+      <c r="BC134" s="18"/>
+      <c r="BD134" s="18"/>
+      <c r="BE134" s="18"/>
+      <c r="BF134" s="17">
         <v>2014</v>
       </c>
-      <c r="BG134" s="27"/>
-      <c r="BH134" s="27"/>
-      <c r="BI134" s="27"/>
-      <c r="BJ134" s="26">
+      <c r="BG134" s="18"/>
+      <c r="BH134" s="18"/>
+      <c r="BI134" s="18"/>
+      <c r="BJ134" s="17">
         <v>2015</v>
       </c>
-      <c r="BK134" s="27"/>
-      <c r="BL134" s="27"/>
-      <c r="BM134" s="27"/>
-      <c r="BN134" s="26">
+      <c r="BK134" s="18"/>
+      <c r="BL134" s="18"/>
+      <c r="BM134" s="18"/>
+      <c r="BN134" s="17">
         <v>2016</v>
       </c>
-      <c r="BO134" s="27"/>
-      <c r="BP134" s="27"/>
-      <c r="BQ134" s="27"/>
-      <c r="BR134" s="26">
+      <c r="BO134" s="18"/>
+      <c r="BP134" s="18"/>
+      <c r="BQ134" s="18"/>
+      <c r="BR134" s="17">
         <v>2017</v>
       </c>
-      <c r="BS134" s="27"/>
-      <c r="BT134" s="27"/>
-      <c r="BU134" s="27"/>
-      <c r="BV134" s="26">
+      <c r="BS134" s="18"/>
+      <c r="BT134" s="18"/>
+      <c r="BU134" s="18"/>
+      <c r="BV134" s="17">
         <v>2018</v>
       </c>
-      <c r="BW134" s="27"/>
-      <c r="BX134" s="27"/>
-      <c r="BY134" s="27"/>
-      <c r="BZ134" s="26">
+      <c r="BW134" s="18"/>
+      <c r="BX134" s="18"/>
+      <c r="BY134" s="18"/>
+      <c r="BZ134" s="17">
         <v>2019</v>
       </c>
-      <c r="CA134" s="27"/>
-      <c r="CB134" s="27"/>
-      <c r="CC134" s="27"/>
-      <c r="CD134" s="26">
+      <c r="CA134" s="18"/>
+      <c r="CB134" s="18"/>
+      <c r="CC134" s="18"/>
+      <c r="CD134" s="17">
         <v>2020</v>
       </c>
-      <c r="CE134" s="26"/>
-      <c r="CF134" s="26"/>
-      <c r="CG134" s="26"/>
+      <c r="CE134" s="17"/>
+      <c r="CF134" s="17"/>
+      <c r="CG134" s="17"/>
       <c r="CH134" s="15">
         <v>2021</v>
       </c>
@@ -40178,15 +40253,16 @@
       <c r="CM134" s="15"/>
       <c r="CN134" s="15"/>
       <c r="CO134" s="15"/>
-      <c r="CP134" s="18">
+      <c r="CP134" s="15">
         <v>2023</v>
       </c>
-      <c r="CQ134" s="18"/>
-      <c r="CR134" s="18"/>
-      <c r="CS134" s="18"/>
-      <c r="CT134" s="18">
+      <c r="CQ134" s="15"/>
+      <c r="CR134" s="15"/>
+      <c r="CS134" s="15"/>
+      <c r="CT134" s="15">
         <v>2024</v>
       </c>
+      <c r="CU134" s="15"/>
     </row>
     <row r="135" spans="1:154" x14ac:dyDescent="0.2">
       <c r="A135" s="5" t="s">
@@ -40468,20 +40544,23 @@
       <c r="CO135" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="CP135" s="19" t="s">
+      <c r="CP135" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="CQ135" s="19" t="s">
+      <c r="CQ135" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="CR135" s="19" t="s">
+      <c r="CR135" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="CS135" s="19" t="s">
+      <c r="CS135" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="CT135" s="19" t="s">
+      <c r="CT135" s="6" t="s">
         <v>7</v>
+      </c>
+      <c r="CU135" s="6" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="136" spans="1:154" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
@@ -40767,22 +40846,24 @@
       <c r="CO137" s="14">
         <v>48.035263507324544</v>
       </c>
-      <c r="CP137" s="25">
+      <c r="CP137" s="14">
         <v>59.652332667400323</v>
       </c>
-      <c r="CQ137" s="25">
+      <c r="CQ137" s="14">
         <v>48.02203182457945</v>
       </c>
-      <c r="CR137" s="25">
+      <c r="CR137" s="14">
         <v>56.240111423604546</v>
       </c>
-      <c r="CS137" s="25">
+      <c r="CS137" s="14">
         <v>49.287161076521521</v>
       </c>
-      <c r="CT137" s="25">
-        <v>61.129726198767855</v>
-      </c>
-      <c r="CU137" s="9"/>
+      <c r="CT137" s="14">
+        <v>61.179968939151507</v>
+      </c>
+      <c r="CU137" s="14">
+        <v>49.593791781473683</v>
+      </c>
       <c r="CV137" s="9"/>
       <c r="CW137" s="9"/>
       <c r="CX137" s="9"/>
@@ -41119,22 +41200,24 @@
       <c r="CO138" s="14">
         <v>32.339705050693937</v>
       </c>
-      <c r="CP138" s="25">
+      <c r="CP138" s="14">
         <v>24.577168971063031</v>
       </c>
-      <c r="CQ138" s="25">
+      <c r="CQ138" s="14">
         <v>35.591838609532758</v>
       </c>
-      <c r="CR138" s="25">
+      <c r="CR138" s="14">
         <v>26.674129740411896</v>
       </c>
-      <c r="CS138" s="25">
+      <c r="CS138" s="14">
         <v>32.056378295940561</v>
       </c>
-      <c r="CT138" s="25">
-        <v>23.408845706130748</v>
-      </c>
-      <c r="CU138" s="9"/>
+      <c r="CT138" s="14">
+        <v>23.252463477970327</v>
+      </c>
+      <c r="CU138" s="14">
+        <v>33.928067150489753</v>
+      </c>
       <c r="CV138" s="9"/>
       <c r="CW138" s="9"/>
       <c r="CX138" s="9"/>
@@ -41471,22 +41554,24 @@
       <c r="CO139" s="14">
         <v>14.35022561182328</v>
       </c>
-      <c r="CP139" s="25">
+      <c r="CP139" s="14">
         <v>11.263088206162257</v>
       </c>
-      <c r="CQ139" s="25">
+      <c r="CQ139" s="14">
         <v>11.087834552386118</v>
       </c>
-      <c r="CR139" s="25">
+      <c r="CR139" s="14">
         <v>12.412764096355525</v>
       </c>
-      <c r="CS139" s="25">
+      <c r="CS139" s="14">
         <v>13.357018711013383</v>
       </c>
-      <c r="CT139" s="25">
-        <v>10.799085294106824</v>
-      </c>
-      <c r="CU139" s="9"/>
+      <c r="CT139" s="14">
+        <v>10.894656454894122</v>
+      </c>
+      <c r="CU139" s="14">
+        <v>11.088804852215368</v>
+      </c>
       <c r="CV139" s="9"/>
       <c r="CW139" s="9"/>
       <c r="CX139" s="9"/>
@@ -41823,22 +41908,24 @@
       <c r="CO140" s="14">
         <v>5.2748058301582486</v>
       </c>
-      <c r="CP140" s="25">
+      <c r="CP140" s="14">
         <v>4.5074101553743873</v>
       </c>
-      <c r="CQ140" s="25">
+      <c r="CQ140" s="14">
         <v>5.2982950135016669</v>
       </c>
-      <c r="CR140" s="25">
+      <c r="CR140" s="14">
         <v>4.6729947396280309</v>
       </c>
-      <c r="CS140" s="25">
+      <c r="CS140" s="14">
         <v>5.2994419165245557</v>
       </c>
-      <c r="CT140" s="25">
-        <v>4.6623428009945664</v>
-      </c>
-      <c r="CU140" s="9"/>
+      <c r="CT140" s="14">
+        <v>4.6729111279840438</v>
+      </c>
+      <c r="CU140" s="14">
+        <v>5.3893362158211957</v>
+      </c>
       <c r="CV140" s="9"/>
       <c r="CW140" s="9"/>
       <c r="CX140" s="9"/>
@@ -41988,11 +42075,11 @@
       <c r="CM141" s="9"/>
       <c r="CN141" s="9"/>
       <c r="CO141" s="9"/>
-      <c r="CP141" s="21"/>
-      <c r="CQ141" s="21"/>
-      <c r="CR141" s="21"/>
-      <c r="CS141" s="21"/>
-      <c r="CT141" s="21"/>
+      <c r="CP141" s="9"/>
+      <c r="CQ141" s="9"/>
+      <c r="CR141" s="9"/>
+      <c r="CS141" s="9"/>
+      <c r="CT141" s="9"/>
       <c r="CU141" s="9"/>
       <c r="CV141" s="9"/>
       <c r="CW141" s="9"/>
@@ -42330,22 +42417,24 @@
       <c r="CO142" s="14">
         <v>100</v>
       </c>
-      <c r="CP142" s="25">
+      <c r="CP142" s="14">
         <v>100</v>
       </c>
-      <c r="CQ142" s="25">
+      <c r="CQ142" s="14">
         <v>100</v>
       </c>
-      <c r="CR142" s="25">
+      <c r="CR142" s="14">
         <v>100</v>
       </c>
-      <c r="CS142" s="25">
+      <c r="CS142" s="14">
         <v>100</v>
       </c>
-      <c r="CT142" s="25">
+      <c r="CT142" s="14">
         <v>100</v>
       </c>
-      <c r="CU142" s="9"/>
+      <c r="CU142" s="14">
+        <v>100</v>
+      </c>
       <c r="CV142" s="9"/>
       <c r="CW142" s="9"/>
       <c r="CX142" s="9"/>
@@ -42496,11 +42585,12 @@
       <c r="CM143" s="12"/>
       <c r="CN143" s="12"/>
       <c r="CO143" s="12"/>
-      <c r="CP143" s="23"/>
-      <c r="CQ143" s="23"/>
-      <c r="CR143" s="23"/>
-      <c r="CS143" s="23"/>
-      <c r="CT143" s="23"/>
+      <c r="CP143" s="12"/>
+      <c r="CQ143" s="12"/>
+      <c r="CR143" s="12"/>
+      <c r="CS143" s="12"/>
+      <c r="CT143" s="12"/>
+      <c r="CU143" s="12"/>
     </row>
     <row r="144" spans="1:154" x14ac:dyDescent="0.2">
       <c r="A144" s="13" t="s">
@@ -42509,32 +42599,103 @@
     </row>
   </sheetData>
   <mergeCells count="147">
-    <mergeCell ref="CD134:CG134"/>
-    <mergeCell ref="BZ9:CC9"/>
-    <mergeCell ref="BZ30:CC30"/>
-    <mergeCell ref="BZ92:CC92"/>
-    <mergeCell ref="CD9:CG9"/>
-    <mergeCell ref="CD30:CG30"/>
-    <mergeCell ref="BZ51:CC51"/>
-    <mergeCell ref="BZ72:CC72"/>
-    <mergeCell ref="CD113:CG113"/>
-    <mergeCell ref="CD92:CG92"/>
-    <mergeCell ref="CD51:CG51"/>
-    <mergeCell ref="CD72:CG72"/>
-    <mergeCell ref="BJ9:BM9"/>
-    <mergeCell ref="BN9:BQ9"/>
-    <mergeCell ref="BJ72:BM72"/>
-    <mergeCell ref="BN72:BQ72"/>
-    <mergeCell ref="BR92:BU92"/>
-    <mergeCell ref="BV92:BY92"/>
-    <mergeCell ref="BR51:BU51"/>
-    <mergeCell ref="BV51:BY51"/>
-    <mergeCell ref="BR72:BU72"/>
-    <mergeCell ref="BV72:BY72"/>
-    <mergeCell ref="BR9:BU9"/>
-    <mergeCell ref="BV9:BY9"/>
-    <mergeCell ref="BR30:BU30"/>
-    <mergeCell ref="BV30:BY30"/>
+    <mergeCell ref="B134:E134"/>
+    <mergeCell ref="F134:I134"/>
+    <mergeCell ref="J134:M134"/>
+    <mergeCell ref="N134:Q134"/>
+    <mergeCell ref="B92:E92"/>
+    <mergeCell ref="F92:I92"/>
+    <mergeCell ref="J92:M92"/>
+    <mergeCell ref="N92:Q92"/>
+    <mergeCell ref="R92:U92"/>
+    <mergeCell ref="B113:E113"/>
+    <mergeCell ref="F113:I113"/>
+    <mergeCell ref="J113:M113"/>
+    <mergeCell ref="N113:Q113"/>
+    <mergeCell ref="R134:U134"/>
+    <mergeCell ref="AD92:AG92"/>
+    <mergeCell ref="AH92:AK92"/>
+    <mergeCell ref="AP134:AS134"/>
+    <mergeCell ref="AT134:AW134"/>
+    <mergeCell ref="AX134:BA134"/>
+    <mergeCell ref="R113:U113"/>
+    <mergeCell ref="BB134:BE134"/>
+    <mergeCell ref="Z113:AC113"/>
+    <mergeCell ref="AD113:AG113"/>
+    <mergeCell ref="AH113:AK113"/>
+    <mergeCell ref="AL113:AO113"/>
+    <mergeCell ref="V113:Y113"/>
+    <mergeCell ref="AL92:AO92"/>
+    <mergeCell ref="V134:Y134"/>
+    <mergeCell ref="Z134:AC134"/>
+    <mergeCell ref="AD134:AG134"/>
+    <mergeCell ref="AH134:AK134"/>
+    <mergeCell ref="AL134:AO134"/>
+    <mergeCell ref="V92:Y92"/>
+    <mergeCell ref="Z92:AC92"/>
+    <mergeCell ref="AP113:AS113"/>
+    <mergeCell ref="AT113:AW113"/>
+    <mergeCell ref="AX113:BA113"/>
+    <mergeCell ref="BB113:BE113"/>
+    <mergeCell ref="AP92:AS92"/>
+    <mergeCell ref="AT92:AW92"/>
+    <mergeCell ref="BN51:BQ51"/>
+    <mergeCell ref="AP72:AS72"/>
+    <mergeCell ref="AX92:BA92"/>
+    <mergeCell ref="BB92:BE92"/>
+    <mergeCell ref="BJ92:BM92"/>
+    <mergeCell ref="BJ51:BM51"/>
+    <mergeCell ref="BN92:BQ92"/>
+    <mergeCell ref="BF92:BI92"/>
+    <mergeCell ref="BF72:BI72"/>
+    <mergeCell ref="BF51:BI51"/>
+    <mergeCell ref="BV134:BY134"/>
+    <mergeCell ref="BZ134:CC134"/>
+    <mergeCell ref="BR113:BU113"/>
+    <mergeCell ref="BV113:BY113"/>
+    <mergeCell ref="BF134:BI134"/>
+    <mergeCell ref="BJ134:BM134"/>
+    <mergeCell ref="BN134:BQ134"/>
+    <mergeCell ref="BF113:BI113"/>
+    <mergeCell ref="BJ113:BM113"/>
+    <mergeCell ref="BN113:BQ113"/>
+    <mergeCell ref="BR134:BU134"/>
+    <mergeCell ref="BZ113:CC113"/>
+    <mergeCell ref="AL72:AO72"/>
+    <mergeCell ref="AT72:AW72"/>
+    <mergeCell ref="AX72:BA72"/>
+    <mergeCell ref="BB72:BE72"/>
+    <mergeCell ref="BF30:BI30"/>
+    <mergeCell ref="AH51:AK51"/>
+    <mergeCell ref="B72:E72"/>
+    <mergeCell ref="F72:I72"/>
+    <mergeCell ref="J72:M72"/>
+    <mergeCell ref="N72:Q72"/>
+    <mergeCell ref="R72:U72"/>
+    <mergeCell ref="V72:Y72"/>
+    <mergeCell ref="Z72:AC72"/>
+    <mergeCell ref="AD72:AG72"/>
+    <mergeCell ref="AH72:AK72"/>
+    <mergeCell ref="AL51:AO51"/>
+    <mergeCell ref="AP51:AS51"/>
+    <mergeCell ref="AT51:AW51"/>
+    <mergeCell ref="AX51:BA51"/>
+    <mergeCell ref="AP30:AS30"/>
+    <mergeCell ref="AT30:AW30"/>
+    <mergeCell ref="AX30:BA30"/>
+    <mergeCell ref="BB30:BE30"/>
+    <mergeCell ref="BB51:BE51"/>
+    <mergeCell ref="B51:E51"/>
+    <mergeCell ref="V9:Y9"/>
+    <mergeCell ref="Z9:AC9"/>
+    <mergeCell ref="AD9:AG9"/>
+    <mergeCell ref="F51:I51"/>
+    <mergeCell ref="J51:M51"/>
+    <mergeCell ref="N51:Q51"/>
+    <mergeCell ref="R51:U51"/>
+    <mergeCell ref="V51:Y51"/>
+    <mergeCell ref="Z51:AC51"/>
+    <mergeCell ref="AD51:AG51"/>
     <mergeCell ref="AL30:AO30"/>
     <mergeCell ref="BF9:BI9"/>
     <mergeCell ref="B9:E9"/>
@@ -42559,103 +42720,32 @@
     <mergeCell ref="Z30:AC30"/>
     <mergeCell ref="AD30:AG30"/>
     <mergeCell ref="AH30:AK30"/>
-    <mergeCell ref="B51:E51"/>
-    <mergeCell ref="V9:Y9"/>
-    <mergeCell ref="Z9:AC9"/>
-    <mergeCell ref="AD9:AG9"/>
-    <mergeCell ref="F51:I51"/>
-    <mergeCell ref="J51:M51"/>
-    <mergeCell ref="N51:Q51"/>
-    <mergeCell ref="R51:U51"/>
-    <mergeCell ref="V51:Y51"/>
-    <mergeCell ref="Z51:AC51"/>
-    <mergeCell ref="AD51:AG51"/>
-    <mergeCell ref="AL72:AO72"/>
-    <mergeCell ref="AT72:AW72"/>
-    <mergeCell ref="AX72:BA72"/>
-    <mergeCell ref="BB72:BE72"/>
-    <mergeCell ref="BF30:BI30"/>
-    <mergeCell ref="AH51:AK51"/>
-    <mergeCell ref="B72:E72"/>
-    <mergeCell ref="F72:I72"/>
-    <mergeCell ref="J72:M72"/>
-    <mergeCell ref="N72:Q72"/>
-    <mergeCell ref="R72:U72"/>
-    <mergeCell ref="V72:Y72"/>
-    <mergeCell ref="Z72:AC72"/>
-    <mergeCell ref="AD72:AG72"/>
-    <mergeCell ref="AH72:AK72"/>
-    <mergeCell ref="AL51:AO51"/>
-    <mergeCell ref="AP51:AS51"/>
-    <mergeCell ref="AT51:AW51"/>
-    <mergeCell ref="AX51:BA51"/>
-    <mergeCell ref="AP30:AS30"/>
-    <mergeCell ref="AT30:AW30"/>
-    <mergeCell ref="AX30:BA30"/>
-    <mergeCell ref="BB30:BE30"/>
-    <mergeCell ref="BB51:BE51"/>
-    <mergeCell ref="BV134:BY134"/>
-    <mergeCell ref="BZ134:CC134"/>
-    <mergeCell ref="BR113:BU113"/>
-    <mergeCell ref="BV113:BY113"/>
-    <mergeCell ref="BF134:BI134"/>
-    <mergeCell ref="BJ134:BM134"/>
-    <mergeCell ref="BN134:BQ134"/>
-    <mergeCell ref="BF113:BI113"/>
-    <mergeCell ref="BJ113:BM113"/>
-    <mergeCell ref="BN113:BQ113"/>
-    <mergeCell ref="BR134:BU134"/>
-    <mergeCell ref="BZ113:CC113"/>
-    <mergeCell ref="AP92:AS92"/>
-    <mergeCell ref="AT92:AW92"/>
-    <mergeCell ref="BN51:BQ51"/>
-    <mergeCell ref="AP72:AS72"/>
-    <mergeCell ref="AX92:BA92"/>
-    <mergeCell ref="BB92:BE92"/>
-    <mergeCell ref="BJ92:BM92"/>
-    <mergeCell ref="BJ51:BM51"/>
-    <mergeCell ref="BN92:BQ92"/>
-    <mergeCell ref="BF92:BI92"/>
-    <mergeCell ref="BF72:BI72"/>
-    <mergeCell ref="BF51:BI51"/>
-    <mergeCell ref="AD92:AG92"/>
-    <mergeCell ref="AH92:AK92"/>
-    <mergeCell ref="AP134:AS134"/>
-    <mergeCell ref="AT134:AW134"/>
-    <mergeCell ref="AX134:BA134"/>
-    <mergeCell ref="R113:U113"/>
-    <mergeCell ref="BB134:BE134"/>
-    <mergeCell ref="Z113:AC113"/>
-    <mergeCell ref="AD113:AG113"/>
-    <mergeCell ref="AH113:AK113"/>
-    <mergeCell ref="AL113:AO113"/>
-    <mergeCell ref="V113:Y113"/>
-    <mergeCell ref="AL92:AO92"/>
-    <mergeCell ref="V134:Y134"/>
-    <mergeCell ref="Z134:AC134"/>
-    <mergeCell ref="AD134:AG134"/>
-    <mergeCell ref="AH134:AK134"/>
-    <mergeCell ref="AL134:AO134"/>
-    <mergeCell ref="V92:Y92"/>
-    <mergeCell ref="Z92:AC92"/>
-    <mergeCell ref="AP113:AS113"/>
-    <mergeCell ref="AT113:AW113"/>
-    <mergeCell ref="AX113:BA113"/>
-    <mergeCell ref="BB113:BE113"/>
-    <mergeCell ref="B134:E134"/>
-    <mergeCell ref="F134:I134"/>
-    <mergeCell ref="J134:M134"/>
-    <mergeCell ref="N134:Q134"/>
-    <mergeCell ref="B92:E92"/>
-    <mergeCell ref="F92:I92"/>
-    <mergeCell ref="J92:M92"/>
-    <mergeCell ref="N92:Q92"/>
-    <mergeCell ref="R92:U92"/>
-    <mergeCell ref="B113:E113"/>
-    <mergeCell ref="F113:I113"/>
-    <mergeCell ref="J113:M113"/>
-    <mergeCell ref="N113:Q113"/>
-    <mergeCell ref="R134:U134"/>
+    <mergeCell ref="BJ9:BM9"/>
+    <mergeCell ref="BN9:BQ9"/>
+    <mergeCell ref="BJ72:BM72"/>
+    <mergeCell ref="BN72:BQ72"/>
+    <mergeCell ref="BR92:BU92"/>
+    <mergeCell ref="BV92:BY92"/>
+    <mergeCell ref="BR51:BU51"/>
+    <mergeCell ref="BV51:BY51"/>
+    <mergeCell ref="BR72:BU72"/>
+    <mergeCell ref="BV72:BY72"/>
+    <mergeCell ref="BR9:BU9"/>
+    <mergeCell ref="BV9:BY9"/>
+    <mergeCell ref="BR30:BU30"/>
+    <mergeCell ref="BV30:BY30"/>
+    <mergeCell ref="CD134:CG134"/>
+    <mergeCell ref="BZ9:CC9"/>
+    <mergeCell ref="BZ30:CC30"/>
+    <mergeCell ref="BZ92:CC92"/>
+    <mergeCell ref="CD9:CG9"/>
+    <mergeCell ref="CD30:CG30"/>
+    <mergeCell ref="BZ51:CC51"/>
+    <mergeCell ref="BZ72:CC72"/>
+    <mergeCell ref="CD113:CG113"/>
+    <mergeCell ref="CD92:CG92"/>
+    <mergeCell ref="CD51:CG51"/>
+    <mergeCell ref="CD72:CG72"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.5" right="0.3" top="1" bottom="0.16700000000000001" header="0.5" footer="0.5"/>

--- a/Data/National Accounts/PSA-17FIA_2018PSNA_Qrt.xlsx
+++ b/Data/National Accounts/PSA-17FIA_2018PSNA_Qrt.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28129"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="K:\Other computers\My Laptop (1)\6. MAS_Series\2018-base\NAP\NAP detailed series as of August 2024\Qtr\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="K:\Other computers\My Laptop (1)\6. MAS_Series\2018-base\NAP\NAP detailed series as of November 2024\Qtr\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E0FA9E6A-E381-4071-A41C-D35EDCFC6728}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{83E4E960-FB6B-490E-BDD8-45F59084441C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="390" windowWidth="28800" windowHeight="15225" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3510" yWindow="975" windowWidth="12660" windowHeight="15225" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="FIA" sheetId="11" r:id="rId1"/>
@@ -323,7 +323,7 @@
     <definedName name="pet">#REF!</definedName>
     <definedName name="plastic">#REF!</definedName>
     <definedName name="ply">#REF!</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">FIA!$A$1:$CS$146</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">FIA!$A$1:$CV$146</definedName>
     <definedName name="_xlnm.Print_Area">#REF!</definedName>
     <definedName name="PRINT_AREA_MI">#REF!</definedName>
     <definedName name="Print_Titles_MI">'[9]CAP93+'!$A$1:$IV$1,'[9]CAP93+'!$A$1:$A$65536</definedName>
@@ -468,7 +468,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="816" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="823" uniqueCount="55">
   <si>
     <t>Source: Philippine Statistics Authority</t>
   </si>
@@ -627,13 +627,13 @@
     <t>2023 - 2024</t>
   </si>
   <si>
-    <t>As of August 2024</t>
+    <t>As of November 2024</t>
   </si>
   <si>
-    <t>Q1 2000 to Q2 2024</t>
+    <t>Q1 2000 to Q3 2024</t>
   </si>
   <si>
-    <t>Q1 2001 to Q2 2024</t>
+    <t>Q1 2001 to Q3 2024</t>
   </si>
 </sst>
 </file>
@@ -720,7 +720,7 @@
     <xf numFmtId="164" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -747,9 +747,24 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="centerContinuous"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="3" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="centerContinuous"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="3" applyFont="1"/>
+    <xf numFmtId="166" fontId="5" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="3" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="5" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -23606,16 +23621,16 @@
   <dimension ref="A1:EX144"/>
   <sheetViews>
     <sheetView tabSelected="1" defaultGridColor="0" view="pageBreakPreview" colorId="22" zoomScale="70" zoomScaleNormal="100" zoomScaleSheetLayoutView="70" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="BX1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="CP1" sqref="CP1:CU1048576"/>
+      <pane xSplit="1" topLeftCell="CH1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" sqref="A1:A1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="7.77734375" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="38.33203125" style="1" customWidth="1"/>
     <col min="2" max="93" width="8.88671875" style="1" customWidth="1"/>
-    <col min="94" max="99" width="9.44140625" style="1" customWidth="1"/>
-    <col min="100" max="16384" width="7.77734375" style="1"/>
+    <col min="94" max="100" width="10.109375" style="17" customWidth="1"/>
+    <col min="101" max="16384" width="7.77734375" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:154" x14ac:dyDescent="0.2">
@@ -23650,132 +23665,132 @@
     </row>
     <row r="9" spans="1:154" x14ac:dyDescent="0.2">
       <c r="A9" s="4"/>
-      <c r="B9" s="17">
+      <c r="B9" s="26">
         <v>2000</v>
       </c>
-      <c r="C9" s="17"/>
-      <c r="D9" s="17"/>
-      <c r="E9" s="17"/>
-      <c r="F9" s="17">
+      <c r="C9" s="26"/>
+      <c r="D9" s="26"/>
+      <c r="E9" s="26"/>
+      <c r="F9" s="26">
         <v>2001</v>
       </c>
-      <c r="G9" s="17"/>
-      <c r="H9" s="17"/>
-      <c r="I9" s="17"/>
-      <c r="J9" s="17">
+      <c r="G9" s="26"/>
+      <c r="H9" s="26"/>
+      <c r="I9" s="26"/>
+      <c r="J9" s="26">
         <v>2002</v>
       </c>
-      <c r="K9" s="17"/>
-      <c r="L9" s="17"/>
-      <c r="M9" s="17"/>
-      <c r="N9" s="17">
+      <c r="K9" s="26"/>
+      <c r="L9" s="26"/>
+      <c r="M9" s="26"/>
+      <c r="N9" s="26">
         <v>2003</v>
       </c>
-      <c r="O9" s="17"/>
-      <c r="P9" s="17"/>
-      <c r="Q9" s="17"/>
-      <c r="R9" s="17">
+      <c r="O9" s="26"/>
+      <c r="P9" s="26"/>
+      <c r="Q9" s="26"/>
+      <c r="R9" s="26">
         <v>2004</v>
       </c>
-      <c r="S9" s="17"/>
-      <c r="T9" s="17"/>
-      <c r="U9" s="17"/>
-      <c r="V9" s="17">
+      <c r="S9" s="26"/>
+      <c r="T9" s="26"/>
+      <c r="U9" s="26"/>
+      <c r="V9" s="26">
         <v>2005</v>
       </c>
-      <c r="W9" s="17"/>
-      <c r="X9" s="17"/>
-      <c r="Y9" s="17"/>
-      <c r="Z9" s="17">
+      <c r="W9" s="26"/>
+      <c r="X9" s="26"/>
+      <c r="Y9" s="26"/>
+      <c r="Z9" s="26">
         <v>2006</v>
       </c>
-      <c r="AA9" s="17"/>
-      <c r="AB9" s="17"/>
-      <c r="AC9" s="17"/>
-      <c r="AD9" s="17">
+      <c r="AA9" s="26"/>
+      <c r="AB9" s="26"/>
+      <c r="AC9" s="26"/>
+      <c r="AD9" s="26">
         <v>2007</v>
       </c>
-      <c r="AE9" s="17"/>
-      <c r="AF9" s="17"/>
-      <c r="AG9" s="17"/>
-      <c r="AH9" s="17">
+      <c r="AE9" s="26"/>
+      <c r="AF9" s="26"/>
+      <c r="AG9" s="26"/>
+      <c r="AH9" s="26">
         <v>2008</v>
       </c>
-      <c r="AI9" s="17"/>
-      <c r="AJ9" s="17"/>
-      <c r="AK9" s="17"/>
-      <c r="AL9" s="17">
+      <c r="AI9" s="26"/>
+      <c r="AJ9" s="26"/>
+      <c r="AK9" s="26"/>
+      <c r="AL9" s="26">
         <v>2009</v>
       </c>
-      <c r="AM9" s="17"/>
-      <c r="AN9" s="17"/>
-      <c r="AO9" s="17"/>
-      <c r="AP9" s="17">
+      <c r="AM9" s="26"/>
+      <c r="AN9" s="26"/>
+      <c r="AO9" s="26"/>
+      <c r="AP9" s="26">
         <v>2010</v>
       </c>
-      <c r="AQ9" s="17"/>
-      <c r="AR9" s="17"/>
-      <c r="AS9" s="17"/>
-      <c r="AT9" s="17">
+      <c r="AQ9" s="26"/>
+      <c r="AR9" s="26"/>
+      <c r="AS9" s="26"/>
+      <c r="AT9" s="26">
         <v>2011</v>
       </c>
-      <c r="AU9" s="17"/>
-      <c r="AV9" s="17"/>
-      <c r="AW9" s="17"/>
-      <c r="AX9" s="17">
+      <c r="AU9" s="26"/>
+      <c r="AV9" s="26"/>
+      <c r="AW9" s="26"/>
+      <c r="AX9" s="26">
         <v>2012</v>
       </c>
-      <c r="AY9" s="17"/>
-      <c r="AZ9" s="17"/>
-      <c r="BA9" s="17"/>
-      <c r="BB9" s="17">
+      <c r="AY9" s="26"/>
+      <c r="AZ9" s="26"/>
+      <c r="BA9" s="26"/>
+      <c r="BB9" s="26">
         <v>2013</v>
       </c>
-      <c r="BC9" s="17"/>
-      <c r="BD9" s="17"/>
-      <c r="BE9" s="17"/>
-      <c r="BF9" s="17">
+      <c r="BC9" s="26"/>
+      <c r="BD9" s="26"/>
+      <c r="BE9" s="26"/>
+      <c r="BF9" s="26">
         <v>2014</v>
       </c>
-      <c r="BG9" s="17"/>
-      <c r="BH9" s="17"/>
-      <c r="BI9" s="17"/>
-      <c r="BJ9" s="17">
+      <c r="BG9" s="26"/>
+      <c r="BH9" s="26"/>
+      <c r="BI9" s="26"/>
+      <c r="BJ9" s="26">
         <v>2015</v>
       </c>
-      <c r="BK9" s="17"/>
-      <c r="BL9" s="17"/>
-      <c r="BM9" s="17"/>
-      <c r="BN9" s="17">
+      <c r="BK9" s="26"/>
+      <c r="BL9" s="26"/>
+      <c r="BM9" s="26"/>
+      <c r="BN9" s="26">
         <v>2016</v>
       </c>
-      <c r="BO9" s="17"/>
-      <c r="BP9" s="17"/>
-      <c r="BQ9" s="17"/>
-      <c r="BR9" s="17">
+      <c r="BO9" s="26"/>
+      <c r="BP9" s="26"/>
+      <c r="BQ9" s="26"/>
+      <c r="BR9" s="26">
         <v>2017</v>
       </c>
-      <c r="BS9" s="17"/>
-      <c r="BT9" s="17"/>
-      <c r="BU9" s="17"/>
-      <c r="BV9" s="17">
+      <c r="BS9" s="26"/>
+      <c r="BT9" s="26"/>
+      <c r="BU9" s="26"/>
+      <c r="BV9" s="26">
         <v>2018</v>
       </c>
-      <c r="BW9" s="17"/>
-      <c r="BX9" s="17"/>
-      <c r="BY9" s="17"/>
-      <c r="BZ9" s="17">
+      <c r="BW9" s="26"/>
+      <c r="BX9" s="26"/>
+      <c r="BY9" s="26"/>
+      <c r="BZ9" s="26">
         <v>2019</v>
       </c>
-      <c r="CA9" s="17"/>
-      <c r="CB9" s="17"/>
-      <c r="CC9" s="17"/>
-      <c r="CD9" s="17">
+      <c r="CA9" s="26"/>
+      <c r="CB9" s="26"/>
+      <c r="CC9" s="26"/>
+      <c r="CD9" s="26">
         <v>2020</v>
       </c>
-      <c r="CE9" s="17"/>
-      <c r="CF9" s="17"/>
-      <c r="CG9" s="17"/>
+      <c r="CE9" s="26"/>
+      <c r="CF9" s="26"/>
+      <c r="CG9" s="26"/>
       <c r="CH9" s="15">
         <v>2021</v>
       </c>
@@ -23788,16 +23803,17 @@
       <c r="CM9" s="15"/>
       <c r="CN9" s="15"/>
       <c r="CO9" s="15"/>
-      <c r="CP9" s="15">
+      <c r="CP9" s="18">
         <v>2023</v>
       </c>
-      <c r="CQ9" s="15"/>
-      <c r="CR9" s="15"/>
-      <c r="CS9" s="15"/>
-      <c r="CT9" s="15">
+      <c r="CQ9" s="18"/>
+      <c r="CR9" s="18"/>
+      <c r="CS9" s="18"/>
+      <c r="CT9" s="18">
         <v>2024</v>
       </c>
-      <c r="CU9" s="15"/>
+      <c r="CU9" s="18"/>
+      <c r="CV9" s="18"/>
     </row>
     <row r="10" spans="1:154" x14ac:dyDescent="0.2">
       <c r="A10" s="5" t="s">
@@ -24079,23 +24095,26 @@
       <c r="CO10" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="CP10" s="6" t="s">
+      <c r="CP10" s="19" t="s">
         <v>7</v>
       </c>
-      <c r="CQ10" s="6" t="s">
+      <c r="CQ10" s="19" t="s">
         <v>8</v>
       </c>
-      <c r="CR10" s="6" t="s">
+      <c r="CR10" s="19" t="s">
         <v>10</v>
       </c>
-      <c r="CS10" s="6" t="s">
+      <c r="CS10" s="19" t="s">
         <v>9</v>
       </c>
-      <c r="CT10" s="6" t="s">
+      <c r="CT10" s="19" t="s">
         <v>7</v>
       </c>
-      <c r="CU10" s="6" t="s">
+      <c r="CU10" s="19" t="s">
         <v>8</v>
+      </c>
+      <c r="CV10" s="19" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="11" spans="1:154" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
@@ -24381,25 +24400,27 @@
       <c r="CO12" s="8">
         <v>275564.62875239633</v>
       </c>
-      <c r="CP12" s="8">
+      <c r="CP12" s="20">
         <v>385162.53634587693</v>
       </c>
-      <c r="CQ12" s="8">
+      <c r="CQ12" s="20">
         <v>306840.67406365159</v>
       </c>
-      <c r="CR12" s="8">
+      <c r="CR12" s="20">
         <v>349134.63674071158</v>
       </c>
-      <c r="CS12" s="8">
+      <c r="CS12" s="20">
         <v>331722.06319216389</v>
       </c>
-      <c r="CT12" s="8">
+      <c r="CT12" s="20">
         <v>451046.20043298067</v>
       </c>
-      <c r="CU12" s="8">
-        <v>357058.38115511305</v>
-      </c>
-      <c r="CV12" s="9"/>
+      <c r="CU12" s="20">
+        <v>352420.4749831091</v>
+      </c>
+      <c r="CV12" s="20">
+        <v>390292.8830109546</v>
+      </c>
       <c r="CW12" s="9"/>
       <c r="CX12" s="9"/>
       <c r="CY12" s="9"/>
@@ -24735,25 +24756,27 @@
       <c r="CO13" s="8">
         <v>184278.69283022679</v>
       </c>
-      <c r="CP13" s="8">
+      <c r="CP13" s="20">
         <v>157419.46611189947</v>
       </c>
-      <c r="CQ13" s="8">
+      <c r="CQ13" s="20">
         <v>224409.24622420681</v>
       </c>
-      <c r="CR13" s="8">
+      <c r="CR13" s="20">
         <v>163300.04934751446</v>
       </c>
-      <c r="CS13" s="8">
+      <c r="CS13" s="20">
         <v>213986.14211341884</v>
       </c>
-      <c r="CT13" s="8">
+      <c r="CT13" s="20">
         <v>169321.5826101728</v>
       </c>
-      <c r="CU13" s="8">
-        <v>241055.88231317588</v>
-      </c>
-      <c r="CV13" s="9"/>
+      <c r="CU13" s="20">
+        <v>243120.0328878416</v>
+      </c>
+      <c r="CV13" s="20">
+        <v>184784.25245860437</v>
+      </c>
       <c r="CW13" s="9"/>
       <c r="CX13" s="9"/>
       <c r="CY13" s="9"/>
@@ -25089,25 +25112,27 @@
       <c r="CO14" s="8">
         <v>80551.445428125138</v>
       </c>
-      <c r="CP14" s="8">
+      <c r="CP14" s="20">
         <v>73804.922139632661</v>
       </c>
-      <c r="CQ14" s="8">
+      <c r="CQ14" s="20">
         <v>68181.070352250768</v>
       </c>
-      <c r="CR14" s="8">
+      <c r="CR14" s="20">
         <v>75134.15180565769</v>
       </c>
-      <c r="CS14" s="8">
+      <c r="CS14" s="20">
         <v>88063.410736099468</v>
       </c>
-      <c r="CT14" s="8">
+      <c r="CT14" s="20">
         <v>81508.117938780575</v>
       </c>
-      <c r="CU14" s="8">
-        <v>76907.10501641396</v>
-      </c>
-      <c r="CV14" s="9"/>
+      <c r="CU14" s="20">
+        <v>77586.764142358952</v>
+      </c>
+      <c r="CV14" s="20">
+        <v>82217.277262878546</v>
+      </c>
       <c r="CW14" s="9"/>
       <c r="CX14" s="9"/>
       <c r="CY14" s="9"/>
@@ -25443,25 +25468,27 @@
       <c r="CO15" s="8">
         <v>30143.020561465681</v>
       </c>
-      <c r="CP15" s="8">
+      <c r="CP15" s="20">
         <v>29135.104012678043</v>
       </c>
-      <c r="CQ15" s="8">
+      <c r="CQ15" s="20">
         <v>34299.833553471595</v>
       </c>
-      <c r="CR15" s="8">
+      <c r="CR15" s="20">
         <v>28998.523698360281</v>
       </c>
-      <c r="CS15" s="8">
+      <c r="CS15" s="20">
         <v>35789.625839727043</v>
       </c>
-      <c r="CT15" s="8">
+      <c r="CT15" s="20">
         <v>34529.503307220446</v>
       </c>
-      <c r="CU15" s="8">
-        <v>39574.515847074399</v>
-      </c>
-      <c r="CV15" s="9"/>
+      <c r="CU15" s="20">
+        <v>40311.750186961661</v>
+      </c>
+      <c r="CV15" s="20">
+        <v>34030.955327782445</v>
+      </c>
       <c r="CW15" s="9"/>
       <c r="CX15" s="9"/>
       <c r="CY15" s="9"/>
@@ -25610,13 +25637,13 @@
       <c r="CM16" s="9"/>
       <c r="CN16" s="9"/>
       <c r="CO16" s="9"/>
-      <c r="CP16" s="9"/>
-      <c r="CQ16" s="9"/>
-      <c r="CR16" s="9"/>
-      <c r="CS16" s="9"/>
-      <c r="CT16" s="9"/>
-      <c r="CU16" s="9"/>
-      <c r="CV16" s="9"/>
+      <c r="CP16" s="21"/>
+      <c r="CQ16" s="21"/>
+      <c r="CR16" s="21"/>
+      <c r="CS16" s="21"/>
+      <c r="CT16" s="21"/>
+      <c r="CU16" s="21"/>
+      <c r="CV16" s="21"/>
       <c r="CW16" s="9"/>
       <c r="CX16" s="9"/>
       <c r="CY16" s="9"/>
@@ -25952,25 +25979,27 @@
       <c r="CO17" s="11">
         <v>570537.78757221391</v>
       </c>
-      <c r="CP17" s="11">
+      <c r="CP17" s="22">
         <v>645522.028610087</v>
       </c>
-      <c r="CQ17" s="11">
+      <c r="CQ17" s="22">
         <v>633730.82419358077</v>
       </c>
-      <c r="CR17" s="11">
+      <c r="CR17" s="22">
         <v>616567.36159224401</v>
       </c>
-      <c r="CS17" s="11">
+      <c r="CS17" s="22">
         <v>669561.24188140919</v>
       </c>
-      <c r="CT17" s="11">
+      <c r="CT17" s="22">
         <v>736405.40428915445</v>
       </c>
-      <c r="CU17" s="11">
-        <v>714595.88433177734</v>
-      </c>
-      <c r="CV17" s="9"/>
+      <c r="CU17" s="22">
+        <v>713439.02220027125</v>
+      </c>
+      <c r="CV17" s="22">
+        <v>691325.36806021992</v>
+      </c>
       <c r="CW17" s="9"/>
       <c r="CX17" s="9"/>
       <c r="CY17" s="9"/>
@@ -26120,12 +26149,13 @@
       <c r="CM18" s="12"/>
       <c r="CN18" s="12"/>
       <c r="CO18" s="12"/>
-      <c r="CP18" s="12"/>
-      <c r="CQ18" s="12"/>
-      <c r="CR18" s="12"/>
-      <c r="CS18" s="12"/>
-      <c r="CT18" s="12"/>
-      <c r="CU18" s="12"/>
+      <c r="CP18" s="23"/>
+      <c r="CQ18" s="23"/>
+      <c r="CR18" s="23"/>
+      <c r="CS18" s="23"/>
+      <c r="CT18" s="23"/>
+      <c r="CU18" s="23"/>
+      <c r="CV18" s="23"/>
     </row>
     <row r="19" spans="1:154" x14ac:dyDescent="0.2">
       <c r="A19" s="13" t="s">
@@ -26225,13 +26255,13 @@
       <c r="CM20" s="9"/>
       <c r="CN20" s="9"/>
       <c r="CO20" s="9"/>
-      <c r="CP20" s="9"/>
-      <c r="CQ20" s="9"/>
-      <c r="CR20" s="9"/>
-      <c r="CS20" s="9"/>
-      <c r="CT20" s="9"/>
-      <c r="CU20" s="9"/>
-      <c r="CV20" s="9"/>
+      <c r="CP20" s="21"/>
+      <c r="CQ20" s="21"/>
+      <c r="CR20" s="21"/>
+      <c r="CS20" s="21"/>
+      <c r="CT20" s="21"/>
+      <c r="CU20" s="21"/>
+      <c r="CV20" s="21"/>
       <c r="CW20" s="9"/>
       <c r="CX20" s="9"/>
       <c r="CY20" s="9"/>
@@ -26380,13 +26410,13 @@
       <c r="CM21" s="9"/>
       <c r="CN21" s="9"/>
       <c r="CO21" s="9"/>
-      <c r="CP21" s="9"/>
-      <c r="CQ21" s="9"/>
-      <c r="CR21" s="9"/>
-      <c r="CS21" s="9"/>
-      <c r="CT21" s="9"/>
-      <c r="CU21" s="9"/>
-      <c r="CV21" s="9"/>
+      <c r="CP21" s="21"/>
+      <c r="CQ21" s="21"/>
+      <c r="CR21" s="21"/>
+      <c r="CS21" s="21"/>
+      <c r="CT21" s="21"/>
+      <c r="CU21" s="21"/>
+      <c r="CV21" s="21"/>
       <c r="CW21" s="9"/>
       <c r="CX21" s="9"/>
       <c r="CY21" s="9"/>
@@ -26474,132 +26504,132 @@
     </row>
     <row r="30" spans="1:154" x14ac:dyDescent="0.2">
       <c r="A30" s="4"/>
-      <c r="B30" s="17">
+      <c r="B30" s="26">
         <v>2000</v>
       </c>
-      <c r="C30" s="18"/>
-      <c r="D30" s="18"/>
-      <c r="E30" s="18"/>
-      <c r="F30" s="17">
+      <c r="C30" s="27"/>
+      <c r="D30" s="27"/>
+      <c r="E30" s="27"/>
+      <c r="F30" s="26">
         <v>2001</v>
       </c>
-      <c r="G30" s="18"/>
-      <c r="H30" s="18"/>
-      <c r="I30" s="18"/>
-      <c r="J30" s="17">
+      <c r="G30" s="27"/>
+      <c r="H30" s="27"/>
+      <c r="I30" s="27"/>
+      <c r="J30" s="26">
         <v>2002</v>
       </c>
-      <c r="K30" s="18"/>
-      <c r="L30" s="18"/>
-      <c r="M30" s="18"/>
-      <c r="N30" s="17">
+      <c r="K30" s="27"/>
+      <c r="L30" s="27"/>
+      <c r="M30" s="27"/>
+      <c r="N30" s="26">
         <v>2003</v>
       </c>
-      <c r="O30" s="18"/>
-      <c r="P30" s="18"/>
-      <c r="Q30" s="18"/>
-      <c r="R30" s="17">
+      <c r="O30" s="27"/>
+      <c r="P30" s="27"/>
+      <c r="Q30" s="27"/>
+      <c r="R30" s="26">
         <v>2004</v>
       </c>
-      <c r="S30" s="18"/>
-      <c r="T30" s="18"/>
-      <c r="U30" s="18"/>
-      <c r="V30" s="17">
+      <c r="S30" s="27"/>
+      <c r="T30" s="27"/>
+      <c r="U30" s="27"/>
+      <c r="V30" s="26">
         <v>2005</v>
       </c>
-      <c r="W30" s="18"/>
-      <c r="X30" s="18"/>
-      <c r="Y30" s="18"/>
-      <c r="Z30" s="17">
+      <c r="W30" s="27"/>
+      <c r="X30" s="27"/>
+      <c r="Y30" s="27"/>
+      <c r="Z30" s="26">
         <v>2006</v>
       </c>
-      <c r="AA30" s="18"/>
-      <c r="AB30" s="18"/>
-      <c r="AC30" s="18"/>
-      <c r="AD30" s="17">
+      <c r="AA30" s="27"/>
+      <c r="AB30" s="27"/>
+      <c r="AC30" s="27"/>
+      <c r="AD30" s="26">
         <v>2007</v>
       </c>
-      <c r="AE30" s="18"/>
-      <c r="AF30" s="18"/>
-      <c r="AG30" s="18"/>
-      <c r="AH30" s="17">
+      <c r="AE30" s="27"/>
+      <c r="AF30" s="27"/>
+      <c r="AG30" s="27"/>
+      <c r="AH30" s="26">
         <v>2008</v>
       </c>
-      <c r="AI30" s="18"/>
-      <c r="AJ30" s="18"/>
-      <c r="AK30" s="18"/>
-      <c r="AL30" s="17">
+      <c r="AI30" s="27"/>
+      <c r="AJ30" s="27"/>
+      <c r="AK30" s="27"/>
+      <c r="AL30" s="26">
         <v>2009</v>
       </c>
-      <c r="AM30" s="18"/>
-      <c r="AN30" s="18"/>
-      <c r="AO30" s="18"/>
-      <c r="AP30" s="17">
+      <c r="AM30" s="27"/>
+      <c r="AN30" s="27"/>
+      <c r="AO30" s="27"/>
+      <c r="AP30" s="26">
         <v>2010</v>
       </c>
-      <c r="AQ30" s="18"/>
-      <c r="AR30" s="18"/>
-      <c r="AS30" s="18"/>
-      <c r="AT30" s="17">
+      <c r="AQ30" s="27"/>
+      <c r="AR30" s="27"/>
+      <c r="AS30" s="27"/>
+      <c r="AT30" s="26">
         <v>2011</v>
       </c>
-      <c r="AU30" s="18"/>
-      <c r="AV30" s="18"/>
-      <c r="AW30" s="18"/>
-      <c r="AX30" s="17">
+      <c r="AU30" s="27"/>
+      <c r="AV30" s="27"/>
+      <c r="AW30" s="27"/>
+      <c r="AX30" s="26">
         <v>2012</v>
       </c>
-      <c r="AY30" s="18"/>
-      <c r="AZ30" s="18"/>
-      <c r="BA30" s="18"/>
-      <c r="BB30" s="17">
+      <c r="AY30" s="27"/>
+      <c r="AZ30" s="27"/>
+      <c r="BA30" s="27"/>
+      <c r="BB30" s="26">
         <v>2013</v>
       </c>
-      <c r="BC30" s="18"/>
-      <c r="BD30" s="18"/>
-      <c r="BE30" s="18"/>
-      <c r="BF30" s="17">
+      <c r="BC30" s="27"/>
+      <c r="BD30" s="27"/>
+      <c r="BE30" s="27"/>
+      <c r="BF30" s="26">
         <v>2014</v>
       </c>
-      <c r="BG30" s="18"/>
-      <c r="BH30" s="18"/>
-      <c r="BI30" s="18"/>
-      <c r="BJ30" s="17">
+      <c r="BG30" s="27"/>
+      <c r="BH30" s="27"/>
+      <c r="BI30" s="27"/>
+      <c r="BJ30" s="26">
         <v>2015</v>
       </c>
-      <c r="BK30" s="18"/>
-      <c r="BL30" s="18"/>
-      <c r="BM30" s="18"/>
-      <c r="BN30" s="17">
+      <c r="BK30" s="27"/>
+      <c r="BL30" s="27"/>
+      <c r="BM30" s="27"/>
+      <c r="BN30" s="26">
         <v>2016</v>
       </c>
-      <c r="BO30" s="18"/>
-      <c r="BP30" s="18"/>
-      <c r="BQ30" s="18"/>
-      <c r="BR30" s="17">
+      <c r="BO30" s="27"/>
+      <c r="BP30" s="27"/>
+      <c r="BQ30" s="27"/>
+      <c r="BR30" s="26">
         <v>2017</v>
       </c>
-      <c r="BS30" s="18"/>
-      <c r="BT30" s="18"/>
-      <c r="BU30" s="18"/>
-      <c r="BV30" s="17">
+      <c r="BS30" s="27"/>
+      <c r="BT30" s="27"/>
+      <c r="BU30" s="27"/>
+      <c r="BV30" s="26">
         <v>2018</v>
       </c>
-      <c r="BW30" s="18"/>
-      <c r="BX30" s="18"/>
-      <c r="BY30" s="18"/>
-      <c r="BZ30" s="17">
+      <c r="BW30" s="27"/>
+      <c r="BX30" s="27"/>
+      <c r="BY30" s="27"/>
+      <c r="BZ30" s="26">
         <v>2019</v>
       </c>
-      <c r="CA30" s="18"/>
-      <c r="CB30" s="18"/>
-      <c r="CC30" s="18"/>
-      <c r="CD30" s="17">
+      <c r="CA30" s="27"/>
+      <c r="CB30" s="27"/>
+      <c r="CC30" s="27"/>
+      <c r="CD30" s="26">
         <v>2020</v>
       </c>
-      <c r="CE30" s="17"/>
-      <c r="CF30" s="17"/>
-      <c r="CG30" s="17"/>
+      <c r="CE30" s="26"/>
+      <c r="CF30" s="26"/>
+      <c r="CG30" s="26"/>
       <c r="CH30" s="15">
         <v>2021</v>
       </c>
@@ -26612,16 +26642,17 @@
       <c r="CM30" s="15"/>
       <c r="CN30" s="15"/>
       <c r="CO30" s="15"/>
-      <c r="CP30" s="15">
+      <c r="CP30" s="18">
         <v>2023</v>
       </c>
-      <c r="CQ30" s="15"/>
-      <c r="CR30" s="15"/>
-      <c r="CS30" s="15"/>
-      <c r="CT30" s="15">
+      <c r="CQ30" s="18"/>
+      <c r="CR30" s="18"/>
+      <c r="CS30" s="18"/>
+      <c r="CT30" s="18">
         <v>2024</v>
       </c>
-      <c r="CU30" s="15"/>
+      <c r="CU30" s="18"/>
+      <c r="CV30" s="18"/>
     </row>
     <row r="31" spans="1:154" x14ac:dyDescent="0.2">
       <c r="A31" s="5" t="s">
@@ -26903,23 +26934,26 @@
       <c r="CO31" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="CP31" s="6" t="s">
+      <c r="CP31" s="19" t="s">
         <v>7</v>
       </c>
-      <c r="CQ31" s="6" t="s">
+      <c r="CQ31" s="19" t="s">
         <v>8</v>
       </c>
-      <c r="CR31" s="6" t="s">
+      <c r="CR31" s="19" t="s">
         <v>10</v>
       </c>
-      <c r="CS31" s="6" t="s">
+      <c r="CS31" s="19" t="s">
         <v>9</v>
       </c>
-      <c r="CT31" s="6" t="s">
+      <c r="CT31" s="19" t="s">
         <v>7</v>
       </c>
-      <c r="CU31" s="6" t="s">
+      <c r="CU31" s="19" t="s">
         <v>8</v>
+      </c>
+      <c r="CV31" s="19" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="32" spans="1:154" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
@@ -27205,25 +27239,27 @@
       <c r="CO33" s="8">
         <v>239989.20870848323</v>
       </c>
-      <c r="CP33" s="8">
+      <c r="CP33" s="20">
         <v>323487.69069909828</v>
       </c>
-      <c r="CQ33" s="8">
+      <c r="CQ33" s="20">
         <v>255836.99898620203</v>
       </c>
-      <c r="CR33" s="8">
+      <c r="CR33" s="20">
         <v>295986.37316272699</v>
       </c>
-      <c r="CS33" s="8">
+      <c r="CS33" s="20">
         <v>275893.21630948811</v>
       </c>
-      <c r="CT33" s="8">
+      <c r="CT33" s="20">
         <v>366096.30999606603</v>
       </c>
-      <c r="CU33" s="8">
-        <v>285802.26560181507</v>
-      </c>
-      <c r="CV33" s="9"/>
+      <c r="CU33" s="20">
+        <v>282088.2595735339</v>
+      </c>
+      <c r="CV33" s="20">
+        <v>321194.77667623427</v>
+      </c>
       <c r="CW33" s="9"/>
       <c r="CX33" s="9"/>
       <c r="CY33" s="9"/>
@@ -27559,25 +27595,27 @@
       <c r="CO34" s="8">
         <v>161572.55437556474</v>
       </c>
-      <c r="CP34" s="8">
+      <c r="CP34" s="20">
         <v>133279.14062806751</v>
       </c>
-      <c r="CQ34" s="8">
+      <c r="CQ34" s="20">
         <v>189615.24184412914</v>
       </c>
-      <c r="CR34" s="8">
+      <c r="CR34" s="20">
         <v>140383.4153113513</v>
       </c>
-      <c r="CS34" s="8">
+      <c r="CS34" s="20">
         <v>179440.9967652552</v>
       </c>
-      <c r="CT34" s="8">
+      <c r="CT34" s="20">
         <v>139140.98397254414</v>
       </c>
-      <c r="CU34" s="8">
-        <v>195522.82878121865</v>
-      </c>
-      <c r="CV34" s="9"/>
+      <c r="CU34" s="20">
+        <v>197195.60044107857</v>
+      </c>
+      <c r="CV34" s="20">
+        <v>154228.80248789984</v>
+      </c>
       <c r="CW34" s="9"/>
       <c r="CX34" s="9"/>
       <c r="CY34" s="9"/>
@@ -27913,25 +27951,27 @@
       <c r="CO35" s="8">
         <v>71695.230501744707</v>
       </c>
-      <c r="CP35" s="8">
+      <c r="CP35" s="20">
         <v>61078.422771265992</v>
       </c>
-      <c r="CQ35" s="8">
+      <c r="CQ35" s="20">
         <v>59070.351864746932</v>
       </c>
-      <c r="CR35" s="8">
+      <c r="CR35" s="20">
         <v>65327.200334506575</v>
       </c>
-      <c r="CS35" s="8">
+      <c r="CS35" s="20">
         <v>74768.170290151655</v>
       </c>
-      <c r="CT35" s="8">
+      <c r="CT35" s="20">
         <v>65192.800780569931</v>
       </c>
-      <c r="CU35" s="8">
-        <v>63903.271674488991</v>
-      </c>
-      <c r="CV35" s="9"/>
+      <c r="CU35" s="20">
+        <v>64467.346905178536</v>
+      </c>
+      <c r="CV35" s="20">
+        <v>69361.249559487405</v>
+      </c>
       <c r="CW35" s="9"/>
       <c r="CX35" s="9"/>
       <c r="CY35" s="9"/>
@@ -28267,25 +28307,27 @@
       <c r="CO36" s="8">
         <v>26353.482521804937</v>
       </c>
-      <c r="CP36" s="8">
+      <c r="CP36" s="20">
         <v>24443.163192385327</v>
       </c>
-      <c r="CQ36" s="8">
+      <c r="CQ36" s="20">
         <v>28226.625248789045</v>
       </c>
-      <c r="CR36" s="8">
+      <c r="CR36" s="20">
         <v>24593.528173745464</v>
       </c>
-      <c r="CS36" s="8">
+      <c r="CS36" s="20">
         <v>29664.522018732285</v>
       </c>
-      <c r="CT36" s="8">
+      <c r="CT36" s="20">
         <v>27962.346999488997</v>
       </c>
-      <c r="CU36" s="8">
-        <v>31058.010392885524</v>
-      </c>
-      <c r="CV36" s="9"/>
+      <c r="CU36" s="20">
+        <v>31635.043153990904</v>
+      </c>
+      <c r="CV36" s="20">
+        <v>27914.183179627835</v>
+      </c>
       <c r="CW36" s="9"/>
       <c r="CX36" s="9"/>
       <c r="CY36" s="9"/>
@@ -28434,13 +28476,13 @@
       <c r="CM37" s="9"/>
       <c r="CN37" s="9"/>
       <c r="CO37" s="9"/>
-      <c r="CP37" s="9"/>
-      <c r="CQ37" s="9"/>
-      <c r="CR37" s="9"/>
-      <c r="CS37" s="9"/>
-      <c r="CT37" s="9"/>
-      <c r="CU37" s="9"/>
-      <c r="CV37" s="9"/>
+      <c r="CP37" s="21"/>
+      <c r="CQ37" s="21"/>
+      <c r="CR37" s="21"/>
+      <c r="CS37" s="21"/>
+      <c r="CT37" s="21"/>
+      <c r="CU37" s="21"/>
+      <c r="CV37" s="21"/>
       <c r="CW37" s="9"/>
       <c r="CX37" s="9"/>
       <c r="CY37" s="9"/>
@@ -28776,25 +28818,27 @@
       <c r="CO38" s="11">
         <v>499610.47610759758</v>
       </c>
-      <c r="CP38" s="11">
+      <c r="CP38" s="22">
         <v>542288.41729081713</v>
       </c>
-      <c r="CQ38" s="11">
+      <c r="CQ38" s="22">
         <v>532749.2179438672</v>
       </c>
-      <c r="CR38" s="11">
+      <c r="CR38" s="22">
         <v>526290.51698233036</v>
       </c>
-      <c r="CS38" s="11">
+      <c r="CS38" s="22">
         <v>559766.90538362716</v>
       </c>
-      <c r="CT38" s="11">
+      <c r="CT38" s="22">
         <v>598392.44174866914</v>
       </c>
-      <c r="CU38" s="11">
-        <v>576286.37645040825</v>
-      </c>
-      <c r="CV38" s="9"/>
+      <c r="CU38" s="22">
+        <v>575386.25007378182</v>
+      </c>
+      <c r="CV38" s="22">
+        <v>572699.01190324943</v>
+      </c>
       <c r="CW38" s="9"/>
       <c r="CX38" s="9"/>
       <c r="CY38" s="9"/>
@@ -28944,12 +28988,13 @@
       <c r="CM39" s="12"/>
       <c r="CN39" s="12"/>
       <c r="CO39" s="12"/>
-      <c r="CP39" s="12"/>
-      <c r="CQ39" s="12"/>
-      <c r="CR39" s="12"/>
-      <c r="CS39" s="12"/>
-      <c r="CT39" s="12"/>
-      <c r="CU39" s="12"/>
+      <c r="CP39" s="23"/>
+      <c r="CQ39" s="23"/>
+      <c r="CR39" s="23"/>
+      <c r="CS39" s="23"/>
+      <c r="CT39" s="23"/>
+      <c r="CU39" s="23"/>
+      <c r="CV39" s="23"/>
     </row>
     <row r="40" spans="1:154" x14ac:dyDescent="0.2">
       <c r="A40" s="13" t="s">
@@ -29049,13 +29094,13 @@
       <c r="CM41" s="9"/>
       <c r="CN41" s="9"/>
       <c r="CO41" s="9"/>
-      <c r="CP41" s="9"/>
-      <c r="CQ41" s="9"/>
-      <c r="CR41" s="9"/>
-      <c r="CS41" s="9"/>
-      <c r="CT41" s="9"/>
-      <c r="CU41" s="9"/>
-      <c r="CV41" s="9"/>
+      <c r="CP41" s="21"/>
+      <c r="CQ41" s="21"/>
+      <c r="CR41" s="21"/>
+      <c r="CS41" s="21"/>
+      <c r="CT41" s="21"/>
+      <c r="CU41" s="21"/>
+      <c r="CV41" s="21"/>
       <c r="CW41" s="9"/>
       <c r="CX41" s="9"/>
       <c r="CY41" s="9"/>
@@ -29204,13 +29249,13 @@
       <c r="CM42" s="9"/>
       <c r="CN42" s="9"/>
       <c r="CO42" s="9"/>
-      <c r="CP42" s="9"/>
-      <c r="CQ42" s="9"/>
-      <c r="CR42" s="9"/>
-      <c r="CS42" s="9"/>
-      <c r="CT42" s="9"/>
-      <c r="CU42" s="9"/>
-      <c r="CV42" s="9"/>
+      <c r="CP42" s="21"/>
+      <c r="CQ42" s="21"/>
+      <c r="CR42" s="21"/>
+      <c r="CS42" s="21"/>
+      <c r="CT42" s="21"/>
+      <c r="CU42" s="21"/>
+      <c r="CV42" s="21"/>
       <c r="CW42" s="9"/>
       <c r="CX42" s="9"/>
       <c r="CY42" s="9"/>
@@ -29298,132 +29343,132 @@
     </row>
     <row r="51" spans="1:150" x14ac:dyDescent="0.2">
       <c r="A51" s="4"/>
-      <c r="B51" s="17" t="s">
+      <c r="B51" s="26" t="s">
         <v>31</v>
       </c>
-      <c r="C51" s="17"/>
-      <c r="D51" s="17"/>
-      <c r="E51" s="17"/>
-      <c r="F51" s="17" t="s">
+      <c r="C51" s="26"/>
+      <c r="D51" s="26"/>
+      <c r="E51" s="26"/>
+      <c r="F51" s="26" t="s">
         <v>32</v>
       </c>
-      <c r="G51" s="17"/>
-      <c r="H51" s="17"/>
-      <c r="I51" s="17"/>
-      <c r="J51" s="17" t="s">
+      <c r="G51" s="26"/>
+      <c r="H51" s="26"/>
+      <c r="I51" s="26"/>
+      <c r="J51" s="26" t="s">
         <v>33</v>
       </c>
-      <c r="K51" s="17"/>
-      <c r="L51" s="17"/>
-      <c r="M51" s="17"/>
-      <c r="N51" s="17" t="s">
+      <c r="K51" s="26"/>
+      <c r="L51" s="26"/>
+      <c r="M51" s="26"/>
+      <c r="N51" s="26" t="s">
         <v>34</v>
       </c>
-      <c r="O51" s="17"/>
-      <c r="P51" s="17"/>
-      <c r="Q51" s="17"/>
-      <c r="R51" s="17" t="s">
+      <c r="O51" s="26"/>
+      <c r="P51" s="26"/>
+      <c r="Q51" s="26"/>
+      <c r="R51" s="26" t="s">
         <v>35</v>
       </c>
-      <c r="S51" s="17"/>
-      <c r="T51" s="17"/>
-      <c r="U51" s="17"/>
-      <c r="V51" s="17" t="s">
+      <c r="S51" s="26"/>
+      <c r="T51" s="26"/>
+      <c r="U51" s="26"/>
+      <c r="V51" s="26" t="s">
         <v>36</v>
       </c>
-      <c r="W51" s="17"/>
-      <c r="X51" s="17"/>
-      <c r="Y51" s="17"/>
-      <c r="Z51" s="17" t="s">
+      <c r="W51" s="26"/>
+      <c r="X51" s="26"/>
+      <c r="Y51" s="26"/>
+      <c r="Z51" s="26" t="s">
         <v>37</v>
       </c>
-      <c r="AA51" s="17"/>
-      <c r="AB51" s="17"/>
-      <c r="AC51" s="17"/>
-      <c r="AD51" s="17" t="s">
+      <c r="AA51" s="26"/>
+      <c r="AB51" s="26"/>
+      <c r="AC51" s="26"/>
+      <c r="AD51" s="26" t="s">
         <v>38</v>
       </c>
-      <c r="AE51" s="17"/>
-      <c r="AF51" s="17"/>
-      <c r="AG51" s="17"/>
-      <c r="AH51" s="17" t="s">
+      <c r="AE51" s="26"/>
+      <c r="AF51" s="26"/>
+      <c r="AG51" s="26"/>
+      <c r="AH51" s="26" t="s">
         <v>39</v>
       </c>
-      <c r="AI51" s="17"/>
-      <c r="AJ51" s="17"/>
-      <c r="AK51" s="17"/>
-      <c r="AL51" s="17" t="s">
+      <c r="AI51" s="26"/>
+      <c r="AJ51" s="26"/>
+      <c r="AK51" s="26"/>
+      <c r="AL51" s="26" t="s">
         <v>40</v>
       </c>
-      <c r="AM51" s="17"/>
-      <c r="AN51" s="17"/>
-      <c r="AO51" s="17"/>
-      <c r="AP51" s="17" t="s">
+      <c r="AM51" s="26"/>
+      <c r="AN51" s="26"/>
+      <c r="AO51" s="26"/>
+      <c r="AP51" s="26" t="s">
         <v>41</v>
       </c>
-      <c r="AQ51" s="17"/>
-      <c r="AR51" s="17"/>
-      <c r="AS51" s="17"/>
-      <c r="AT51" s="17" t="s">
+      <c r="AQ51" s="26"/>
+      <c r="AR51" s="26"/>
+      <c r="AS51" s="26"/>
+      <c r="AT51" s="26" t="s">
         <v>42</v>
       </c>
-      <c r="AU51" s="17"/>
-      <c r="AV51" s="17"/>
-      <c r="AW51" s="17"/>
-      <c r="AX51" s="17" t="s">
+      <c r="AU51" s="26"/>
+      <c r="AV51" s="26"/>
+      <c r="AW51" s="26"/>
+      <c r="AX51" s="26" t="s">
         <v>43</v>
       </c>
-      <c r="AY51" s="17"/>
-      <c r="AZ51" s="17"/>
-      <c r="BA51" s="17"/>
-      <c r="BB51" s="17" t="s">
+      <c r="AY51" s="26"/>
+      <c r="AZ51" s="26"/>
+      <c r="BA51" s="26"/>
+      <c r="BB51" s="26" t="s">
         <v>44</v>
       </c>
-      <c r="BC51" s="17"/>
-      <c r="BD51" s="17"/>
-      <c r="BE51" s="17"/>
-      <c r="BF51" s="17" t="s">
+      <c r="BC51" s="26"/>
+      <c r="BD51" s="26"/>
+      <c r="BE51" s="26"/>
+      <c r="BF51" s="26" t="s">
         <v>45</v>
       </c>
-      <c r="BG51" s="17"/>
-      <c r="BH51" s="17"/>
-      <c r="BI51" s="17"/>
-      <c r="BJ51" s="17" t="s">
+      <c r="BG51" s="26"/>
+      <c r="BH51" s="26"/>
+      <c r="BI51" s="26"/>
+      <c r="BJ51" s="26" t="s">
         <v>46</v>
       </c>
-      <c r="BK51" s="17"/>
-      <c r="BL51" s="17"/>
-      <c r="BM51" s="17"/>
-      <c r="BN51" s="17" t="s">
+      <c r="BK51" s="26"/>
+      <c r="BL51" s="26"/>
+      <c r="BM51" s="26"/>
+      <c r="BN51" s="26" t="s">
         <v>47</v>
       </c>
-      <c r="BO51" s="17"/>
-      <c r="BP51" s="17"/>
-      <c r="BQ51" s="17"/>
-      <c r="BR51" s="17" t="s">
+      <c r="BO51" s="26"/>
+      <c r="BP51" s="26"/>
+      <c r="BQ51" s="26"/>
+      <c r="BR51" s="26" t="s">
         <v>27</v>
       </c>
-      <c r="BS51" s="17"/>
-      <c r="BT51" s="17"/>
-      <c r="BU51" s="17"/>
-      <c r="BV51" s="17" t="s">
+      <c r="BS51" s="26"/>
+      <c r="BT51" s="26"/>
+      <c r="BU51" s="26"/>
+      <c r="BV51" s="26" t="s">
         <v>28</v>
       </c>
-      <c r="BW51" s="17"/>
-      <c r="BX51" s="17"/>
-      <c r="BY51" s="17"/>
-      <c r="BZ51" s="17" t="s">
+      <c r="BW51" s="26"/>
+      <c r="BX51" s="26"/>
+      <c r="BY51" s="26"/>
+      <c r="BZ51" s="26" t="s">
         <v>29</v>
       </c>
-      <c r="CA51" s="17"/>
-      <c r="CB51" s="17"/>
-      <c r="CC51" s="17"/>
-      <c r="CD51" s="17" t="s">
+      <c r="CA51" s="26"/>
+      <c r="CB51" s="26"/>
+      <c r="CC51" s="26"/>
+      <c r="CD51" s="26" t="s">
         <v>48</v>
       </c>
-      <c r="CE51" s="17"/>
-      <c r="CF51" s="17"/>
-      <c r="CG51" s="17"/>
+      <c r="CE51" s="26"/>
+      <c r="CF51" s="26"/>
+      <c r="CG51" s="26"/>
       <c r="CH51" s="15" t="s">
         <v>49</v>
       </c>
@@ -29436,14 +29481,15 @@
       <c r="CM51" s="15"/>
       <c r="CN51" s="15"/>
       <c r="CO51" s="15"/>
-      <c r="CP51" s="15" t="s">
+      <c r="CP51" s="18" t="s">
         <v>51</v>
       </c>
-      <c r="CQ51" s="15"/>
-      <c r="CR51" s="16"/>
+      <c r="CQ51" s="18"/>
+      <c r="CR51" s="18"/>
       <c r="CS51" s="16"/>
-      <c r="CT51" s="15"/>
-      <c r="CU51" s="16"/>
+      <c r="CT51" s="18"/>
+      <c r="CU51" s="18"/>
+      <c r="CV51" s="16"/>
     </row>
     <row r="52" spans="1:150" x14ac:dyDescent="0.2">
       <c r="A52" s="5" t="s">
@@ -29725,16 +29771,19 @@
       <c r="CO52" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="CP52" s="5" t="s">
+      <c r="CP52" s="24" t="s">
         <v>7</v>
       </c>
-      <c r="CQ52" s="5" t="s">
+      <c r="CQ52" s="24" t="s">
         <v>8</v>
       </c>
-      <c r="CR52" s="5"/>
-      <c r="CS52" s="5"/>
-      <c r="CT52" s="5"/>
-      <c r="CU52" s="5"/>
+      <c r="CR52" s="24" t="s">
+        <v>10</v>
+      </c>
+      <c r="CS52" s="24"/>
+      <c r="CT52" s="24"/>
+      <c r="CU52" s="24"/>
+      <c r="CV52" s="24"/>
     </row>
     <row r="53" spans="1:150" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A53" s="7"/>
@@ -30019,17 +30068,19 @@
       <c r="CO54" s="14">
         <v>20.37904309200249</v>
       </c>
-      <c r="CP54" s="14">
+      <c r="CP54" s="25">
         <v>17.105418588255432</v>
       </c>
-      <c r="CQ54" s="14">
-        <v>16.366052918083554</v>
-      </c>
-      <c r="CR54" s="14"/>
-      <c r="CS54" s="14"/>
-      <c r="CT54" s="14"/>
-      <c r="CU54" s="14"/>
-      <c r="CV54" s="9"/>
+      <c r="CQ54" s="25">
+        <v>14.854549859971414</v>
+      </c>
+      <c r="CR54" s="25">
+        <v>11.788645966057402</v>
+      </c>
+      <c r="CS54" s="25"/>
+      <c r="CT54" s="25"/>
+      <c r="CU54" s="25"/>
+      <c r="CV54" s="25"/>
       <c r="CW54" s="9"/>
       <c r="CX54" s="9"/>
       <c r="CY54" s="9"/>
@@ -30361,17 +30412,19 @@
       <c r="CO55" s="14">
         <v>16.120935538956232</v>
       </c>
-      <c r="CP55" s="14">
+      <c r="CP55" s="25">
         <v>7.5607653819718053</v>
       </c>
-      <c r="CQ55" s="14">
-        <v>7.4179813751245547</v>
-      </c>
-      <c r="CR55" s="14"/>
-      <c r="CS55" s="14"/>
-      <c r="CT55" s="14"/>
-      <c r="CU55" s="14"/>
-      <c r="CV55" s="9"/>
+      <c r="CQ55" s="25">
+        <v>8.3377966721303665</v>
+      </c>
+      <c r="CR55" s="25">
+        <v>13.156274720634002</v>
+      </c>
+      <c r="CS55" s="25"/>
+      <c r="CT55" s="25"/>
+      <c r="CU55" s="25"/>
+      <c r="CV55" s="25"/>
       <c r="CW55" s="9"/>
       <c r="CX55" s="9"/>
       <c r="CY55" s="9"/>
@@ -30703,17 +30756,19 @@
       <c r="CO56" s="14">
         <v>9.3256741304253126</v>
       </c>
-      <c r="CP56" s="14">
+      <c r="CP56" s="25">
         <v>10.437238568688031</v>
       </c>
-      <c r="CQ56" s="14">
-        <v>12.798324548266834</v>
-      </c>
-      <c r="CR56" s="14"/>
-      <c r="CS56" s="14"/>
-      <c r="CT56" s="14"/>
-      <c r="CU56" s="14"/>
-      <c r="CV56" s="9"/>
+      <c r="CQ56" s="25">
+        <v>13.795168866541104</v>
+      </c>
+      <c r="CR56" s="25">
+        <v>9.4273047435766699</v>
+      </c>
+      <c r="CS56" s="25"/>
+      <c r="CT56" s="25"/>
+      <c r="CU56" s="25"/>
+      <c r="CV56" s="25"/>
       <c r="CW56" s="9"/>
       <c r="CX56" s="9"/>
       <c r="CY56" s="9"/>
@@ -31045,17 +31100,19 @@
       <c r="CO57" s="14">
         <v>18.732712160505514</v>
       </c>
-      <c r="CP57" s="14">
+      <c r="CP57" s="25">
         <v>18.515119397531748</v>
       </c>
-      <c r="CQ57" s="14">
-        <v>15.378157113735995</v>
-      </c>
-      <c r="CR57" s="14"/>
-      <c r="CS57" s="14"/>
-      <c r="CT57" s="14"/>
-      <c r="CU57" s="14"/>
-      <c r="CV57" s="9"/>
+      <c r="CQ57" s="25">
+        <v>17.527538797288372</v>
+      </c>
+      <c r="CR57" s="25">
+        <v>17.354095959397824</v>
+      </c>
+      <c r="CS57" s="25"/>
+      <c r="CT57" s="25"/>
+      <c r="CU57" s="25"/>
+      <c r="CV57" s="25"/>
       <c r="CW57" s="9"/>
       <c r="CX57" s="9"/>
       <c r="CY57" s="9"/>
@@ -31200,13 +31257,13 @@
       <c r="CM58" s="9"/>
       <c r="CN58" s="9"/>
       <c r="CO58" s="9"/>
-      <c r="CP58" s="9"/>
-      <c r="CQ58" s="9"/>
-      <c r="CR58" s="9"/>
-      <c r="CS58" s="9"/>
-      <c r="CT58" s="9"/>
-      <c r="CU58" s="9"/>
-      <c r="CV58" s="9"/>
+      <c r="CP58" s="21"/>
+      <c r="CQ58" s="21"/>
+      <c r="CR58" s="21"/>
+      <c r="CS58" s="21"/>
+      <c r="CT58" s="21"/>
+      <c r="CU58" s="21"/>
+      <c r="CV58" s="21"/>
       <c r="CW58" s="9"/>
       <c r="CX58" s="9"/>
       <c r="CY58" s="9"/>
@@ -31538,17 +31595,19 @@
       <c r="CO59" s="14">
         <v>17.356160532427793</v>
       </c>
-      <c r="CP59" s="14">
+      <c r="CP59" s="25">
         <v>14.079051008492158</v>
       </c>
-      <c r="CQ59" s="14">
-        <v>12.760158895710489</v>
-      </c>
-      <c r="CR59" s="14"/>
-      <c r="CS59" s="14"/>
-      <c r="CT59" s="14"/>
-      <c r="CU59" s="14"/>
-      <c r="CV59" s="9"/>
+      <c r="CQ59" s="25">
+        <v>12.577611024068275</v>
+      </c>
+      <c r="CR59" s="25">
+        <v>12.124872499724674</v>
+      </c>
+      <c r="CS59" s="25"/>
+      <c r="CT59" s="25"/>
+      <c r="CU59" s="25"/>
+      <c r="CV59" s="25"/>
       <c r="CW59" s="9"/>
       <c r="CX59" s="9"/>
       <c r="CY59" s="9"/>
@@ -31694,12 +31753,13 @@
       <c r="CM60" s="12"/>
       <c r="CN60" s="12"/>
       <c r="CO60" s="12"/>
-      <c r="CP60" s="12"/>
-      <c r="CQ60" s="12"/>
-      <c r="CR60" s="12"/>
-      <c r="CS60" s="12"/>
-      <c r="CT60" s="12"/>
-      <c r="CU60" s="12"/>
+      <c r="CP60" s="23"/>
+      <c r="CQ60" s="23"/>
+      <c r="CR60" s="23"/>
+      <c r="CS60" s="23"/>
+      <c r="CT60" s="23"/>
+      <c r="CU60" s="23"/>
+      <c r="CV60" s="23"/>
     </row>
     <row r="61" spans="1:150" x14ac:dyDescent="0.2">
       <c r="A61" s="13" t="s">
@@ -31799,13 +31859,13 @@
       <c r="CM62" s="9"/>
       <c r="CN62" s="9"/>
       <c r="CO62" s="9"/>
-      <c r="CP62" s="9"/>
-      <c r="CQ62" s="9"/>
-      <c r="CR62" s="9"/>
-      <c r="CS62" s="9"/>
-      <c r="CT62" s="9"/>
-      <c r="CU62" s="9"/>
-      <c r="CV62" s="9"/>
+      <c r="CP62" s="21"/>
+      <c r="CQ62" s="21"/>
+      <c r="CR62" s="21"/>
+      <c r="CS62" s="21"/>
+      <c r="CT62" s="21"/>
+      <c r="CU62" s="21"/>
+      <c r="CV62" s="21"/>
       <c r="CW62" s="9"/>
       <c r="CX62" s="9"/>
       <c r="CY62" s="9"/>
@@ -31950,13 +32010,13 @@
       <c r="CM63" s="9"/>
       <c r="CN63" s="9"/>
       <c r="CO63" s="9"/>
-      <c r="CP63" s="9"/>
-      <c r="CQ63" s="9"/>
-      <c r="CR63" s="9"/>
-      <c r="CS63" s="9"/>
-      <c r="CT63" s="9"/>
-      <c r="CU63" s="9"/>
-      <c r="CV63" s="9"/>
+      <c r="CP63" s="21"/>
+      <c r="CQ63" s="21"/>
+      <c r="CR63" s="21"/>
+      <c r="CS63" s="21"/>
+      <c r="CT63" s="21"/>
+      <c r="CU63" s="21"/>
+      <c r="CV63" s="21"/>
       <c r="CW63" s="9"/>
       <c r="CX63" s="9"/>
       <c r="CY63" s="9"/>
@@ -32040,132 +32100,132 @@
     </row>
     <row r="72" spans="1:150" x14ac:dyDescent="0.2">
       <c r="A72" s="4"/>
-      <c r="B72" s="17" t="s">
+      <c r="B72" s="26" t="s">
         <v>31</v>
       </c>
-      <c r="C72" s="19"/>
-      <c r="D72" s="19"/>
-      <c r="E72" s="19"/>
-      <c r="F72" s="17" t="s">
+      <c r="C72" s="28"/>
+      <c r="D72" s="28"/>
+      <c r="E72" s="28"/>
+      <c r="F72" s="26" t="s">
         <v>32</v>
       </c>
-      <c r="G72" s="19"/>
-      <c r="H72" s="19"/>
-      <c r="I72" s="19"/>
-      <c r="J72" s="17" t="s">
+      <c r="G72" s="28"/>
+      <c r="H72" s="28"/>
+      <c r="I72" s="28"/>
+      <c r="J72" s="26" t="s">
         <v>33</v>
       </c>
-      <c r="K72" s="19"/>
-      <c r="L72" s="19"/>
-      <c r="M72" s="19"/>
-      <c r="N72" s="17" t="s">
+      <c r="K72" s="28"/>
+      <c r="L72" s="28"/>
+      <c r="M72" s="28"/>
+      <c r="N72" s="26" t="s">
         <v>34</v>
       </c>
-      <c r="O72" s="19"/>
-      <c r="P72" s="19"/>
-      <c r="Q72" s="19"/>
-      <c r="R72" s="17" t="s">
+      <c r="O72" s="28"/>
+      <c r="P72" s="28"/>
+      <c r="Q72" s="28"/>
+      <c r="R72" s="26" t="s">
         <v>35</v>
       </c>
-      <c r="S72" s="19"/>
-      <c r="T72" s="19"/>
-      <c r="U72" s="19"/>
-      <c r="V72" s="17" t="s">
+      <c r="S72" s="28"/>
+      <c r="T72" s="28"/>
+      <c r="U72" s="28"/>
+      <c r="V72" s="26" t="s">
         <v>36</v>
       </c>
-      <c r="W72" s="19"/>
-      <c r="X72" s="19"/>
-      <c r="Y72" s="19"/>
-      <c r="Z72" s="17" t="s">
+      <c r="W72" s="28"/>
+      <c r="X72" s="28"/>
+      <c r="Y72" s="28"/>
+      <c r="Z72" s="26" t="s">
         <v>37</v>
       </c>
-      <c r="AA72" s="19"/>
-      <c r="AB72" s="19"/>
-      <c r="AC72" s="19"/>
-      <c r="AD72" s="17" t="s">
+      <c r="AA72" s="28"/>
+      <c r="AB72" s="28"/>
+      <c r="AC72" s="28"/>
+      <c r="AD72" s="26" t="s">
         <v>38</v>
       </c>
-      <c r="AE72" s="19"/>
-      <c r="AF72" s="19"/>
-      <c r="AG72" s="19"/>
-      <c r="AH72" s="17" t="s">
+      <c r="AE72" s="28"/>
+      <c r="AF72" s="28"/>
+      <c r="AG72" s="28"/>
+      <c r="AH72" s="26" t="s">
         <v>39</v>
       </c>
-      <c r="AI72" s="19"/>
-      <c r="AJ72" s="19"/>
-      <c r="AK72" s="19"/>
-      <c r="AL72" s="17" t="s">
+      <c r="AI72" s="28"/>
+      <c r="AJ72" s="28"/>
+      <c r="AK72" s="28"/>
+      <c r="AL72" s="26" t="s">
         <v>40</v>
       </c>
-      <c r="AM72" s="19"/>
-      <c r="AN72" s="19"/>
-      <c r="AO72" s="19"/>
-      <c r="AP72" s="17" t="s">
+      <c r="AM72" s="28"/>
+      <c r="AN72" s="28"/>
+      <c r="AO72" s="28"/>
+      <c r="AP72" s="26" t="s">
         <v>41</v>
       </c>
-      <c r="AQ72" s="19"/>
-      <c r="AR72" s="19"/>
-      <c r="AS72" s="19"/>
-      <c r="AT72" s="17" t="s">
+      <c r="AQ72" s="28"/>
+      <c r="AR72" s="28"/>
+      <c r="AS72" s="28"/>
+      <c r="AT72" s="26" t="s">
         <v>42</v>
       </c>
-      <c r="AU72" s="19"/>
-      <c r="AV72" s="19"/>
-      <c r="AW72" s="19"/>
-      <c r="AX72" s="17" t="s">
+      <c r="AU72" s="28"/>
+      <c r="AV72" s="28"/>
+      <c r="AW72" s="28"/>
+      <c r="AX72" s="26" t="s">
         <v>43</v>
       </c>
-      <c r="AY72" s="19"/>
-      <c r="AZ72" s="19"/>
-      <c r="BA72" s="19"/>
-      <c r="BB72" s="17" t="s">
+      <c r="AY72" s="28"/>
+      <c r="AZ72" s="28"/>
+      <c r="BA72" s="28"/>
+      <c r="BB72" s="26" t="s">
         <v>44</v>
       </c>
-      <c r="BC72" s="19"/>
-      <c r="BD72" s="19"/>
-      <c r="BE72" s="19"/>
-      <c r="BF72" s="17" t="s">
+      <c r="BC72" s="28"/>
+      <c r="BD72" s="28"/>
+      <c r="BE72" s="28"/>
+      <c r="BF72" s="26" t="s">
         <v>45</v>
       </c>
-      <c r="BG72" s="19"/>
-      <c r="BH72" s="19"/>
-      <c r="BI72" s="19"/>
-      <c r="BJ72" s="17" t="s">
+      <c r="BG72" s="28"/>
+      <c r="BH72" s="28"/>
+      <c r="BI72" s="28"/>
+      <c r="BJ72" s="26" t="s">
         <v>46</v>
       </c>
-      <c r="BK72" s="19"/>
-      <c r="BL72" s="19"/>
-      <c r="BM72" s="19"/>
-      <c r="BN72" s="17" t="s">
+      <c r="BK72" s="28"/>
+      <c r="BL72" s="28"/>
+      <c r="BM72" s="28"/>
+      <c r="BN72" s="26" t="s">
         <v>47</v>
       </c>
-      <c r="BO72" s="19"/>
-      <c r="BP72" s="19"/>
-      <c r="BQ72" s="19"/>
-      <c r="BR72" s="17" t="s">
+      <c r="BO72" s="28"/>
+      <c r="BP72" s="28"/>
+      <c r="BQ72" s="28"/>
+      <c r="BR72" s="26" t="s">
         <v>27</v>
       </c>
-      <c r="BS72" s="19"/>
-      <c r="BT72" s="19"/>
-      <c r="BU72" s="19"/>
-      <c r="BV72" s="17" t="s">
+      <c r="BS72" s="28"/>
+      <c r="BT72" s="28"/>
+      <c r="BU72" s="28"/>
+      <c r="BV72" s="26" t="s">
         <v>28</v>
       </c>
-      <c r="BW72" s="19"/>
-      <c r="BX72" s="19"/>
-      <c r="BY72" s="19"/>
-      <c r="BZ72" s="17" t="s">
+      <c r="BW72" s="28"/>
+      <c r="BX72" s="28"/>
+      <c r="BY72" s="28"/>
+      <c r="BZ72" s="26" t="s">
         <v>29</v>
       </c>
-      <c r="CA72" s="19"/>
-      <c r="CB72" s="19"/>
-      <c r="CC72" s="19"/>
-      <c r="CD72" s="17" t="s">
+      <c r="CA72" s="28"/>
+      <c r="CB72" s="28"/>
+      <c r="CC72" s="28"/>
+      <c r="CD72" s="26" t="s">
         <v>48</v>
       </c>
-      <c r="CE72" s="17"/>
-      <c r="CF72" s="17"/>
-      <c r="CG72" s="17"/>
+      <c r="CE72" s="26"/>
+      <c r="CF72" s="26"/>
+      <c r="CG72" s="26"/>
       <c r="CH72" s="15" t="s">
         <v>49</v>
       </c>
@@ -32178,14 +32238,15 @@
       <c r="CM72" s="15"/>
       <c r="CN72" s="15"/>
       <c r="CO72" s="15"/>
-      <c r="CP72" s="15" t="s">
+      <c r="CP72" s="18" t="s">
         <v>51</v>
       </c>
-      <c r="CQ72" s="15"/>
-      <c r="CR72" s="16"/>
+      <c r="CQ72" s="18"/>
+      <c r="CR72" s="18"/>
       <c r="CS72" s="16"/>
-      <c r="CT72" s="15"/>
-      <c r="CU72" s="16"/>
+      <c r="CT72" s="18"/>
+      <c r="CU72" s="18"/>
+      <c r="CV72" s="16"/>
     </row>
     <row r="73" spans="1:150" x14ac:dyDescent="0.2">
       <c r="A73" s="5" t="s">
@@ -32467,16 +32528,19 @@
       <c r="CO73" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="CP73" s="5" t="s">
+      <c r="CP73" s="24" t="s">
         <v>7</v>
       </c>
-      <c r="CQ73" s="5" t="s">
+      <c r="CQ73" s="24" t="s">
         <v>8</v>
       </c>
-      <c r="CR73" s="5"/>
-      <c r="CS73" s="5"/>
-      <c r="CT73" s="5"/>
-      <c r="CU73" s="5"/>
+      <c r="CR73" s="24" t="s">
+        <v>10</v>
+      </c>
+      <c r="CS73" s="24"/>
+      <c r="CT73" s="24"/>
+      <c r="CU73" s="24"/>
+      <c r="CV73" s="24"/>
     </row>
     <row r="74" spans="1:150" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A74" s="7"/>
@@ -32761,17 +32825,19 @@
       <c r="CO75" s="14">
         <v>14.960675854645515</v>
       </c>
-      <c r="CP75" s="14">
+      <c r="CP75" s="25">
         <v>13.1716354353036</v>
       </c>
-      <c r="CQ75" s="14">
-        <v>11.712639975592083</v>
-      </c>
-      <c r="CR75" s="14"/>
-      <c r="CS75" s="14"/>
-      <c r="CT75" s="14"/>
-      <c r="CU75" s="14"/>
-      <c r="CV75" s="9"/>
+      <c r="CQ75" s="25">
+        <v>10.260932035380719</v>
+      </c>
+      <c r="CR75" s="25">
+        <v>8.5167446204181374</v>
+      </c>
+      <c r="CS75" s="25"/>
+      <c r="CT75" s="25"/>
+      <c r="CU75" s="25"/>
+      <c r="CV75" s="25"/>
       <c r="CW75" s="9"/>
       <c r="CX75" s="9"/>
       <c r="CY75" s="9"/>
@@ -33103,17 +33169,19 @@
       <c r="CO76" s="14">
         <v>11.059082688113264</v>
       </c>
-      <c r="CP76" s="14">
+      <c r="CP76" s="25">
         <v>4.3981701238867288</v>
       </c>
-      <c r="CQ76" s="14">
-        <v>3.1155654364250864</v>
-      </c>
-      <c r="CR76" s="14"/>
-      <c r="CS76" s="14"/>
-      <c r="CT76" s="14"/>
-      <c r="CU76" s="14"/>
-      <c r="CV76" s="9"/>
+      <c r="CQ76" s="25">
+        <v>3.9977580511068709</v>
+      </c>
+      <c r="CR76" s="25">
+        <v>9.8625518875155933</v>
+      </c>
+      <c r="CS76" s="25"/>
+      <c r="CT76" s="25"/>
+      <c r="CU76" s="25"/>
+      <c r="CV76" s="25"/>
       <c r="CW76" s="9"/>
       <c r="CX76" s="9"/>
       <c r="CY76" s="9"/>
@@ -33445,17 +33513,19 @@
       <c r="CO77" s="14">
         <v>4.2861146646737609</v>
       </c>
-      <c r="CP77" s="14">
+      <c r="CP77" s="25">
         <v>6.736221766419817</v>
       </c>
-      <c r="CQ77" s="14">
-        <v>8.1816336913109495</v>
-      </c>
-      <c r="CR77" s="14"/>
-      <c r="CS77" s="14"/>
-      <c r="CT77" s="14"/>
-      <c r="CU77" s="14"/>
-      <c r="CV77" s="9"/>
+      <c r="CQ77" s="25">
+        <v>9.1365547521861288</v>
+      </c>
+      <c r="CR77" s="25">
+        <v>6.1751448161325868</v>
+      </c>
+      <c r="CS77" s="25"/>
+      <c r="CT77" s="25"/>
+      <c r="CU77" s="25"/>
+      <c r="CV77" s="25"/>
       <c r="CW77" s="9"/>
       <c r="CX77" s="9"/>
       <c r="CY77" s="9"/>
@@ -33787,17 +33857,19 @@
       <c r="CO78" s="14">
         <v>12.563954286450695</v>
       </c>
-      <c r="CP78" s="14">
+      <c r="CP78" s="25">
         <v>14.397415667543328</v>
       </c>
-      <c r="CQ78" s="14">
-        <v>10.030902097366209</v>
-      </c>
-      <c r="CR78" s="14"/>
-      <c r="CS78" s="14"/>
-      <c r="CT78" s="14"/>
-      <c r="CU78" s="14"/>
-      <c r="CV78" s="9"/>
+      <c r="CQ78" s="25">
+        <v>12.075187434417373</v>
+      </c>
+      <c r="CR78" s="25">
+        <v>13.50214976242124</v>
+      </c>
+      <c r="CS78" s="25"/>
+      <c r="CT78" s="25"/>
+      <c r="CU78" s="25"/>
+      <c r="CV78" s="25"/>
       <c r="CW78" s="9"/>
       <c r="CX78" s="9"/>
       <c r="CY78" s="9"/>
@@ -33942,13 +34014,13 @@
       <c r="CM79" s="9"/>
       <c r="CN79" s="9"/>
       <c r="CO79" s="9"/>
-      <c r="CP79" s="9"/>
-      <c r="CQ79" s="9"/>
-      <c r="CR79" s="9"/>
-      <c r="CS79" s="9"/>
-      <c r="CT79" s="9"/>
-      <c r="CU79" s="9"/>
-      <c r="CV79" s="9"/>
+      <c r="CP79" s="21"/>
+      <c r="CQ79" s="21"/>
+      <c r="CR79" s="21"/>
+      <c r="CS79" s="21"/>
+      <c r="CT79" s="21"/>
+      <c r="CU79" s="21"/>
+      <c r="CV79" s="21"/>
       <c r="CW79" s="9"/>
       <c r="CX79" s="9"/>
       <c r="CY79" s="9"/>
@@ -34280,17 +34352,19 @@
       <c r="CO80" s="14">
         <v>12.040666109466088</v>
       </c>
-      <c r="CP80" s="14">
+      <c r="CP80" s="25">
         <v>10.345790665811833</v>
       </c>
-      <c r="CQ80" s="14">
-        <v>8.1721675114928729</v>
-      </c>
-      <c r="CR80" s="14"/>
-      <c r="CS80" s="14"/>
-      <c r="CT80" s="14"/>
-      <c r="CU80" s="14"/>
-      <c r="CV80" s="9"/>
+      <c r="CQ80" s="25">
+        <v>8.0032087694978316</v>
+      </c>
+      <c r="CR80" s="25">
+        <v>8.8180374571478666</v>
+      </c>
+      <c r="CS80" s="25"/>
+      <c r="CT80" s="25"/>
+      <c r="CU80" s="25"/>
+      <c r="CV80" s="25"/>
       <c r="CW80" s="9"/>
       <c r="CX80" s="9"/>
       <c r="CY80" s="9"/>
@@ -34436,12 +34510,13 @@
       <c r="CM81" s="12"/>
       <c r="CN81" s="12"/>
       <c r="CO81" s="12"/>
-      <c r="CP81" s="12"/>
-      <c r="CQ81" s="12"/>
-      <c r="CR81" s="12"/>
-      <c r="CS81" s="12"/>
-      <c r="CT81" s="12"/>
-      <c r="CU81" s="12"/>
+      <c r="CP81" s="23"/>
+      <c r="CQ81" s="23"/>
+      <c r="CR81" s="23"/>
+      <c r="CS81" s="23"/>
+      <c r="CT81" s="23"/>
+      <c r="CU81" s="23"/>
+      <c r="CV81" s="23"/>
     </row>
     <row r="82" spans="1:154" x14ac:dyDescent="0.2">
       <c r="A82" s="13" t="s">
@@ -34541,13 +34616,13 @@
       <c r="CM83" s="9"/>
       <c r="CN83" s="9"/>
       <c r="CO83" s="9"/>
-      <c r="CP83" s="9"/>
-      <c r="CQ83" s="9"/>
-      <c r="CR83" s="9"/>
-      <c r="CS83" s="9"/>
-      <c r="CT83" s="9"/>
-      <c r="CU83" s="9"/>
-      <c r="CV83" s="9"/>
+      <c r="CP83" s="21"/>
+      <c r="CQ83" s="21"/>
+      <c r="CR83" s="21"/>
+      <c r="CS83" s="21"/>
+      <c r="CT83" s="21"/>
+      <c r="CU83" s="21"/>
+      <c r="CV83" s="21"/>
       <c r="CW83" s="9"/>
       <c r="CX83" s="9"/>
       <c r="CY83" s="9"/>
@@ -34692,13 +34767,13 @@
       <c r="CM84" s="9"/>
       <c r="CN84" s="9"/>
       <c r="CO84" s="9"/>
-      <c r="CP84" s="9"/>
-      <c r="CQ84" s="9"/>
-      <c r="CR84" s="9"/>
-      <c r="CS84" s="9"/>
-      <c r="CT84" s="9"/>
-      <c r="CU84" s="9"/>
-      <c r="CV84" s="9"/>
+      <c r="CP84" s="21"/>
+      <c r="CQ84" s="21"/>
+      <c r="CR84" s="21"/>
+      <c r="CS84" s="21"/>
+      <c r="CT84" s="21"/>
+      <c r="CU84" s="21"/>
+      <c r="CV84" s="21"/>
       <c r="CW84" s="9"/>
       <c r="CX84" s="9"/>
       <c r="CY84" s="9"/>
@@ -34777,132 +34852,132 @@
     </row>
     <row r="92" spans="1:154" x14ac:dyDescent="0.2">
       <c r="A92" s="4"/>
-      <c r="B92" s="17">
+      <c r="B92" s="26">
         <v>2000</v>
       </c>
-      <c r="C92" s="18"/>
-      <c r="D92" s="18"/>
-      <c r="E92" s="18"/>
-      <c r="F92" s="17">
+      <c r="C92" s="27"/>
+      <c r="D92" s="27"/>
+      <c r="E92" s="27"/>
+      <c r="F92" s="26">
         <v>2001</v>
       </c>
-      <c r="G92" s="18"/>
-      <c r="H92" s="18"/>
-      <c r="I92" s="18"/>
-      <c r="J92" s="17">
+      <c r="G92" s="27"/>
+      <c r="H92" s="27"/>
+      <c r="I92" s="27"/>
+      <c r="J92" s="26">
         <v>2002</v>
       </c>
-      <c r="K92" s="18"/>
-      <c r="L92" s="18"/>
-      <c r="M92" s="18"/>
-      <c r="N92" s="17">
+      <c r="K92" s="27"/>
+      <c r="L92" s="27"/>
+      <c r="M92" s="27"/>
+      <c r="N92" s="26">
         <v>2003</v>
       </c>
-      <c r="O92" s="18"/>
-      <c r="P92" s="18"/>
-      <c r="Q92" s="18"/>
-      <c r="R92" s="17">
+      <c r="O92" s="27"/>
+      <c r="P92" s="27"/>
+      <c r="Q92" s="27"/>
+      <c r="R92" s="26">
         <v>2004</v>
       </c>
-      <c r="S92" s="18"/>
-      <c r="T92" s="18"/>
-      <c r="U92" s="18"/>
-      <c r="V92" s="17">
+      <c r="S92" s="27"/>
+      <c r="T92" s="27"/>
+      <c r="U92" s="27"/>
+      <c r="V92" s="26">
         <v>2005</v>
       </c>
-      <c r="W92" s="18"/>
-      <c r="X92" s="18"/>
-      <c r="Y92" s="18"/>
-      <c r="Z92" s="17">
+      <c r="W92" s="27"/>
+      <c r="X92" s="27"/>
+      <c r="Y92" s="27"/>
+      <c r="Z92" s="26">
         <v>2006</v>
       </c>
-      <c r="AA92" s="18"/>
-      <c r="AB92" s="18"/>
-      <c r="AC92" s="18"/>
-      <c r="AD92" s="17">
+      <c r="AA92" s="27"/>
+      <c r="AB92" s="27"/>
+      <c r="AC92" s="27"/>
+      <c r="AD92" s="26">
         <v>2007</v>
       </c>
-      <c r="AE92" s="18"/>
-      <c r="AF92" s="18"/>
-      <c r="AG92" s="18"/>
-      <c r="AH92" s="17">
+      <c r="AE92" s="27"/>
+      <c r="AF92" s="27"/>
+      <c r="AG92" s="27"/>
+      <c r="AH92" s="26">
         <v>2008</v>
       </c>
-      <c r="AI92" s="18"/>
-      <c r="AJ92" s="18"/>
-      <c r="AK92" s="18"/>
-      <c r="AL92" s="17">
+      <c r="AI92" s="27"/>
+      <c r="AJ92" s="27"/>
+      <c r="AK92" s="27"/>
+      <c r="AL92" s="26">
         <v>2009</v>
       </c>
-      <c r="AM92" s="18"/>
-      <c r="AN92" s="18"/>
-      <c r="AO92" s="18"/>
-      <c r="AP92" s="17">
+      <c r="AM92" s="27"/>
+      <c r="AN92" s="27"/>
+      <c r="AO92" s="27"/>
+      <c r="AP92" s="26">
         <v>2010</v>
       </c>
-      <c r="AQ92" s="18"/>
-      <c r="AR92" s="18"/>
-      <c r="AS92" s="18"/>
-      <c r="AT92" s="17">
+      <c r="AQ92" s="27"/>
+      <c r="AR92" s="27"/>
+      <c r="AS92" s="27"/>
+      <c r="AT92" s="26">
         <v>2011</v>
       </c>
-      <c r="AU92" s="18"/>
-      <c r="AV92" s="18"/>
-      <c r="AW92" s="18"/>
-      <c r="AX92" s="17">
+      <c r="AU92" s="27"/>
+      <c r="AV92" s="27"/>
+      <c r="AW92" s="27"/>
+      <c r="AX92" s="26">
         <v>2012</v>
       </c>
-      <c r="AY92" s="18"/>
-      <c r="AZ92" s="18"/>
-      <c r="BA92" s="18"/>
-      <c r="BB92" s="17">
+      <c r="AY92" s="27"/>
+      <c r="AZ92" s="27"/>
+      <c r="BA92" s="27"/>
+      <c r="BB92" s="26">
         <v>2013</v>
       </c>
-      <c r="BC92" s="18"/>
-      <c r="BD92" s="18"/>
-      <c r="BE92" s="18"/>
-      <c r="BF92" s="17">
+      <c r="BC92" s="27"/>
+      <c r="BD92" s="27"/>
+      <c r="BE92" s="27"/>
+      <c r="BF92" s="26">
         <v>2014</v>
       </c>
-      <c r="BG92" s="18"/>
-      <c r="BH92" s="18"/>
-      <c r="BI92" s="18"/>
-      <c r="BJ92" s="17">
+      <c r="BG92" s="27"/>
+      <c r="BH92" s="27"/>
+      <c r="BI92" s="27"/>
+      <c r="BJ92" s="26">
         <v>2015</v>
       </c>
-      <c r="BK92" s="18"/>
-      <c r="BL92" s="18"/>
-      <c r="BM92" s="18"/>
-      <c r="BN92" s="17">
+      <c r="BK92" s="27"/>
+      <c r="BL92" s="27"/>
+      <c r="BM92" s="27"/>
+      <c r="BN92" s="26">
         <v>2016</v>
       </c>
-      <c r="BO92" s="18"/>
-      <c r="BP92" s="18"/>
-      <c r="BQ92" s="18"/>
-      <c r="BR92" s="17">
+      <c r="BO92" s="27"/>
+      <c r="BP92" s="27"/>
+      <c r="BQ92" s="27"/>
+      <c r="BR92" s="26">
         <v>2017</v>
       </c>
-      <c r="BS92" s="18"/>
-      <c r="BT92" s="18"/>
-      <c r="BU92" s="18"/>
-      <c r="BV92" s="17">
+      <c r="BS92" s="27"/>
+      <c r="BT92" s="27"/>
+      <c r="BU92" s="27"/>
+      <c r="BV92" s="26">
         <v>2018</v>
       </c>
-      <c r="BW92" s="18"/>
-      <c r="BX92" s="18"/>
-      <c r="BY92" s="18"/>
-      <c r="BZ92" s="17">
+      <c r="BW92" s="27"/>
+      <c r="BX92" s="27"/>
+      <c r="BY92" s="27"/>
+      <c r="BZ92" s="26">
         <v>2019</v>
       </c>
-      <c r="CA92" s="18"/>
-      <c r="CB92" s="18"/>
-      <c r="CC92" s="18"/>
-      <c r="CD92" s="17">
+      <c r="CA92" s="27"/>
+      <c r="CB92" s="27"/>
+      <c r="CC92" s="27"/>
+      <c r="CD92" s="26">
         <v>2020</v>
       </c>
-      <c r="CE92" s="17"/>
-      <c r="CF92" s="17"/>
-      <c r="CG92" s="17"/>
+      <c r="CE92" s="26"/>
+      <c r="CF92" s="26"/>
+      <c r="CG92" s="26"/>
       <c r="CH92" s="15">
         <v>2021</v>
       </c>
@@ -34915,16 +34990,17 @@
       <c r="CM92" s="15"/>
       <c r="CN92" s="15"/>
       <c r="CO92" s="15"/>
-      <c r="CP92" s="15">
+      <c r="CP92" s="18">
         <v>2023</v>
       </c>
-      <c r="CQ92" s="15"/>
-      <c r="CR92" s="15"/>
-      <c r="CS92" s="15"/>
-      <c r="CT92" s="15">
+      <c r="CQ92" s="18"/>
+      <c r="CR92" s="18"/>
+      <c r="CS92" s="18"/>
+      <c r="CT92" s="18">
         <v>2024</v>
       </c>
-      <c r="CU92" s="15"/>
+      <c r="CU92" s="18"/>
+      <c r="CV92" s="18"/>
     </row>
     <row r="93" spans="1:154" x14ac:dyDescent="0.2">
       <c r="A93" s="5" t="s">
@@ -35206,23 +35282,26 @@
       <c r="CO93" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="CP93" s="6" t="s">
+      <c r="CP93" s="19" t="s">
         <v>7</v>
       </c>
-      <c r="CQ93" s="6" t="s">
+      <c r="CQ93" s="19" t="s">
         <v>8</v>
       </c>
-      <c r="CR93" s="6" t="s">
+      <c r="CR93" s="19" t="s">
         <v>10</v>
       </c>
-      <c r="CS93" s="6" t="s">
+      <c r="CS93" s="19" t="s">
         <v>9</v>
       </c>
-      <c r="CT93" s="6" t="s">
+      <c r="CT93" s="19" t="s">
         <v>7</v>
       </c>
-      <c r="CU93" s="6" t="s">
+      <c r="CU93" s="19" t="s">
         <v>8</v>
+      </c>
+      <c r="CV93" s="19" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="94" spans="1:154" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
@@ -35508,25 +35587,27 @@
       <c r="CO95" s="14">
         <v>114.8237582161983</v>
       </c>
-      <c r="CP95" s="14">
+      <c r="CP95" s="25">
         <v>119.06559273198043</v>
       </c>
-      <c r="CQ95" s="14">
+      <c r="CQ95" s="25">
         <v>119.93600428380584</v>
       </c>
-      <c r="CR95" s="14">
+      <c r="CR95" s="25">
         <v>117.95632110021661</v>
       </c>
-      <c r="CS95" s="14">
+      <c r="CS95" s="25">
         <v>120.23567220299059</v>
       </c>
-      <c r="CT95" s="14">
+      <c r="CT95" s="25">
         <v>123.20424656501659</v>
       </c>
-      <c r="CU95" s="14">
-        <v>124.93196315405466</v>
-      </c>
-      <c r="CV95" s="9"/>
+      <c r="CU95" s="25">
+        <v>124.9326985518308</v>
+      </c>
+      <c r="CV95" s="25">
+        <v>121.51283624527042</v>
+      </c>
       <c r="CW95" s="9"/>
       <c r="CX95" s="9"/>
       <c r="CY95" s="9"/>
@@ -35862,25 +35943,27 @@
       <c r="CO96" s="14">
         <v>114.05321500450079</v>
       </c>
-      <c r="CP96" s="14">
+      <c r="CP96" s="25">
         <v>118.11260589622094</v>
       </c>
-      <c r="CQ96" s="14">
+      <c r="CQ96" s="25">
         <v>118.34979300275855</v>
       </c>
-      <c r="CR96" s="14">
+      <c r="CR96" s="25">
         <v>116.32431721748414</v>
       </c>
-      <c r="CS96" s="14">
+      <c r="CS96" s="25">
         <v>119.2515344714428</v>
       </c>
-      <c r="CT96" s="14">
+      <c r="CT96" s="25">
         <v>121.69066063496001</v>
       </c>
-      <c r="CU96" s="14">
-        <v>123.28784511547073</v>
-      </c>
-      <c r="CV96" s="9"/>
+      <c r="CU96" s="25">
+        <v>123.28877132351901</v>
+      </c>
+      <c r="CV96" s="25">
+        <v>119.81176633534569</v>
+      </c>
       <c r="CW96" s="9"/>
       <c r="CX96" s="9"/>
       <c r="CY96" s="9"/>
@@ -36216,25 +36299,27 @@
       <c r="CO97" s="14">
         <v>112.3525858894685</v>
       </c>
-      <c r="CP97" s="14">
+      <c r="CP97" s="25">
         <v>120.83632613767128</v>
       </c>
-      <c r="CQ97" s="14">
+      <c r="CQ97" s="25">
         <v>115.42350468533623</v>
       </c>
-      <c r="CR97" s="14">
+      <c r="CR97" s="25">
         <v>115.01204922441927</v>
       </c>
-      <c r="CS97" s="14">
+      <c r="CS97" s="25">
         <v>117.78195239278048</v>
       </c>
-      <c r="CT97" s="14">
+      <c r="CT97" s="25">
         <v>125.02625590995204</v>
       </c>
-      <c r="CU97" s="14">
-        <v>120.3492450404793</v>
-      </c>
-      <c r="CV97" s="9"/>
+      <c r="CU97" s="25">
+        <v>120.35048418616799</v>
+      </c>
+      <c r="CV97" s="25">
+        <v>118.53488480245042</v>
+      </c>
       <c r="CW97" s="9"/>
       <c r="CX97" s="9"/>
       <c r="CY97" s="9"/>
@@ -36570,25 +36655,27 @@
       <c r="CO98" s="14">
         <v>114.37964806558401</v>
       </c>
-      <c r="CP98" s="14">
+      <c r="CP98" s="25">
         <v>119.19530947514345</v>
       </c>
-      <c r="CQ98" s="14">
+      <c r="CQ98" s="25">
         <v>121.51588527198483</v>
       </c>
-      <c r="CR98" s="14">
+      <c r="CR98" s="25">
         <v>117.91119799280088</v>
       </c>
-      <c r="CS98" s="14">
+      <c r="CS98" s="25">
         <v>120.64791004259881</v>
       </c>
-      <c r="CT98" s="14">
+      <c r="CT98" s="25">
         <v>123.48571208222066</v>
       </c>
-      <c r="CU98" s="14">
-        <v>127.42128470708398</v>
-      </c>
-      <c r="CV98" s="9"/>
+      <c r="CU98" s="25">
+        <v>127.42751761309405</v>
+      </c>
+      <c r="CV98" s="25">
+        <v>121.91277498178317</v>
+      </c>
       <c r="CW98" s="9"/>
       <c r="CX98" s="9"/>
       <c r="CY98" s="9"/>
@@ -36737,13 +36824,13 @@
       <c r="CM99" s="9"/>
       <c r="CN99" s="9"/>
       <c r="CO99" s="9"/>
-      <c r="CP99" s="9"/>
-      <c r="CQ99" s="9"/>
-      <c r="CR99" s="9"/>
-      <c r="CS99" s="9"/>
-      <c r="CT99" s="9"/>
-      <c r="CU99" s="9"/>
-      <c r="CV99" s="9"/>
+      <c r="CP99" s="21"/>
+      <c r="CQ99" s="21"/>
+      <c r="CR99" s="21"/>
+      <c r="CS99" s="21"/>
+      <c r="CT99" s="21"/>
+      <c r="CU99" s="21"/>
+      <c r="CV99" s="21"/>
       <c r="CW99" s="9"/>
       <c r="CX99" s="9"/>
       <c r="CY99" s="9"/>
@@ -37079,25 +37166,27 @@
       <c r="CO100" s="14">
         <v>114.19652206198758</v>
       </c>
-      <c r="CP100" s="14">
+      <c r="CP100" s="25">
         <v>119.03666167811731</v>
       </c>
-      <c r="CQ100" s="14">
+      <c r="CQ100" s="25">
         <v>118.95481079060981</v>
       </c>
-      <c r="CR100" s="14">
+      <c r="CR100" s="25">
         <v>117.15342414443401</v>
       </c>
-      <c r="CS100" s="14">
+      <c r="CS100" s="25">
         <v>119.61429577951492</v>
       </c>
-      <c r="CT100" s="14">
+      <c r="CT100" s="25">
         <v>123.06395484160413</v>
       </c>
-      <c r="CU100" s="14">
-        <v>124.00013492133475</v>
-      </c>
-      <c r="CV100" s="9"/>
+      <c r="CU100" s="25">
+        <v>123.99306068033202</v>
+      </c>
+      <c r="CV100" s="25">
+        <v>120.71356047267128</v>
+      </c>
       <c r="CW100" s="9"/>
       <c r="CX100" s="9"/>
       <c r="CY100" s="9"/>
@@ -37247,12 +37336,13 @@
       <c r="CM101" s="12"/>
       <c r="CN101" s="12"/>
       <c r="CO101" s="12"/>
-      <c r="CP101" s="12"/>
-      <c r="CQ101" s="12"/>
-      <c r="CR101" s="12"/>
-      <c r="CS101" s="12"/>
-      <c r="CT101" s="12"/>
-      <c r="CU101" s="12"/>
+      <c r="CP101" s="23"/>
+      <c r="CQ101" s="23"/>
+      <c r="CR101" s="23"/>
+      <c r="CS101" s="23"/>
+      <c r="CT101" s="23"/>
+      <c r="CU101" s="23"/>
+      <c r="CV101" s="23"/>
     </row>
     <row r="102" spans="1:154" x14ac:dyDescent="0.2">
       <c r="A102" s="13" t="s">
@@ -37291,132 +37381,132 @@
     </row>
     <row r="113" spans="1:154" x14ac:dyDescent="0.2">
       <c r="A113" s="4"/>
-      <c r="B113" s="17">
+      <c r="B113" s="26">
         <v>2000</v>
       </c>
-      <c r="C113" s="18"/>
-      <c r="D113" s="18"/>
-      <c r="E113" s="18"/>
-      <c r="F113" s="17">
+      <c r="C113" s="27"/>
+      <c r="D113" s="27"/>
+      <c r="E113" s="27"/>
+      <c r="F113" s="26">
         <v>2001</v>
       </c>
-      <c r="G113" s="18"/>
-      <c r="H113" s="18"/>
-      <c r="I113" s="18"/>
-      <c r="J113" s="17">
+      <c r="G113" s="27"/>
+      <c r="H113" s="27"/>
+      <c r="I113" s="27"/>
+      <c r="J113" s="26">
         <v>2002</v>
       </c>
-      <c r="K113" s="18"/>
-      <c r="L113" s="18"/>
-      <c r="M113" s="18"/>
-      <c r="N113" s="17">
+      <c r="K113" s="27"/>
+      <c r="L113" s="27"/>
+      <c r="M113" s="27"/>
+      <c r="N113" s="26">
         <v>2003</v>
       </c>
-      <c r="O113" s="18"/>
-      <c r="P113" s="18"/>
-      <c r="Q113" s="18"/>
-      <c r="R113" s="17">
+      <c r="O113" s="27"/>
+      <c r="P113" s="27"/>
+      <c r="Q113" s="27"/>
+      <c r="R113" s="26">
         <v>2004</v>
       </c>
-      <c r="S113" s="18"/>
-      <c r="T113" s="18"/>
-      <c r="U113" s="18"/>
-      <c r="V113" s="17">
+      <c r="S113" s="27"/>
+      <c r="T113" s="27"/>
+      <c r="U113" s="27"/>
+      <c r="V113" s="26">
         <v>2005</v>
       </c>
-      <c r="W113" s="18"/>
-      <c r="X113" s="18"/>
-      <c r="Y113" s="18"/>
-      <c r="Z113" s="17">
+      <c r="W113" s="27"/>
+      <c r="X113" s="27"/>
+      <c r="Y113" s="27"/>
+      <c r="Z113" s="26">
         <v>2006</v>
       </c>
-      <c r="AA113" s="18"/>
-      <c r="AB113" s="18"/>
-      <c r="AC113" s="18"/>
-      <c r="AD113" s="17">
+      <c r="AA113" s="27"/>
+      <c r="AB113" s="27"/>
+      <c r="AC113" s="27"/>
+      <c r="AD113" s="26">
         <v>2007</v>
       </c>
-      <c r="AE113" s="18"/>
-      <c r="AF113" s="18"/>
-      <c r="AG113" s="18"/>
-      <c r="AH113" s="17">
+      <c r="AE113" s="27"/>
+      <c r="AF113" s="27"/>
+      <c r="AG113" s="27"/>
+      <c r="AH113" s="26">
         <v>2008</v>
       </c>
-      <c r="AI113" s="18"/>
-      <c r="AJ113" s="18"/>
-      <c r="AK113" s="18"/>
-      <c r="AL113" s="17">
+      <c r="AI113" s="27"/>
+      <c r="AJ113" s="27"/>
+      <c r="AK113" s="27"/>
+      <c r="AL113" s="26">
         <v>2009</v>
       </c>
-      <c r="AM113" s="18"/>
-      <c r="AN113" s="18"/>
-      <c r="AO113" s="18"/>
-      <c r="AP113" s="17">
+      <c r="AM113" s="27"/>
+      <c r="AN113" s="27"/>
+      <c r="AO113" s="27"/>
+      <c r="AP113" s="26">
         <v>2010</v>
       </c>
-      <c r="AQ113" s="18"/>
-      <c r="AR113" s="18"/>
-      <c r="AS113" s="18"/>
-      <c r="AT113" s="17">
+      <c r="AQ113" s="27"/>
+      <c r="AR113" s="27"/>
+      <c r="AS113" s="27"/>
+      <c r="AT113" s="26">
         <v>2011</v>
       </c>
-      <c r="AU113" s="18"/>
-      <c r="AV113" s="18"/>
-      <c r="AW113" s="18"/>
-      <c r="AX113" s="17">
+      <c r="AU113" s="27"/>
+      <c r="AV113" s="27"/>
+      <c r="AW113" s="27"/>
+      <c r="AX113" s="26">
         <v>2012</v>
       </c>
-      <c r="AY113" s="18"/>
-      <c r="AZ113" s="18"/>
-      <c r="BA113" s="18"/>
-      <c r="BB113" s="17">
+      <c r="AY113" s="27"/>
+      <c r="AZ113" s="27"/>
+      <c r="BA113" s="27"/>
+      <c r="BB113" s="26">
         <v>2013</v>
       </c>
-      <c r="BC113" s="18"/>
-      <c r="BD113" s="18"/>
-      <c r="BE113" s="18"/>
-      <c r="BF113" s="17">
+      <c r="BC113" s="27"/>
+      <c r="BD113" s="27"/>
+      <c r="BE113" s="27"/>
+      <c r="BF113" s="26">
         <v>2014</v>
       </c>
-      <c r="BG113" s="18"/>
-      <c r="BH113" s="18"/>
-      <c r="BI113" s="18"/>
-      <c r="BJ113" s="17">
+      <c r="BG113" s="27"/>
+      <c r="BH113" s="27"/>
+      <c r="BI113" s="27"/>
+      <c r="BJ113" s="26">
         <v>2015</v>
       </c>
-      <c r="BK113" s="18"/>
-      <c r="BL113" s="18"/>
-      <c r="BM113" s="18"/>
-      <c r="BN113" s="17">
+      <c r="BK113" s="27"/>
+      <c r="BL113" s="27"/>
+      <c r="BM113" s="27"/>
+      <c r="BN113" s="26">
         <v>2016</v>
       </c>
-      <c r="BO113" s="18"/>
-      <c r="BP113" s="18"/>
-      <c r="BQ113" s="18"/>
-      <c r="BR113" s="17">
+      <c r="BO113" s="27"/>
+      <c r="BP113" s="27"/>
+      <c r="BQ113" s="27"/>
+      <c r="BR113" s="26">
         <v>2017</v>
       </c>
-      <c r="BS113" s="18"/>
-      <c r="BT113" s="18"/>
-      <c r="BU113" s="18"/>
-      <c r="BV113" s="17">
+      <c r="BS113" s="27"/>
+      <c r="BT113" s="27"/>
+      <c r="BU113" s="27"/>
+      <c r="BV113" s="26">
         <v>2018</v>
       </c>
-      <c r="BW113" s="18"/>
-      <c r="BX113" s="18"/>
-      <c r="BY113" s="18"/>
-      <c r="BZ113" s="17">
+      <c r="BW113" s="27"/>
+      <c r="BX113" s="27"/>
+      <c r="BY113" s="27"/>
+      <c r="BZ113" s="26">
         <v>2019</v>
       </c>
-      <c r="CA113" s="18"/>
-      <c r="CB113" s="18"/>
-      <c r="CC113" s="18"/>
-      <c r="CD113" s="17">
+      <c r="CA113" s="27"/>
+      <c r="CB113" s="27"/>
+      <c r="CC113" s="27"/>
+      <c r="CD113" s="26">
         <v>2020</v>
       </c>
-      <c r="CE113" s="17"/>
-      <c r="CF113" s="17"/>
-      <c r="CG113" s="17"/>
+      <c r="CE113" s="26"/>
+      <c r="CF113" s="26"/>
+      <c r="CG113" s="26"/>
       <c r="CH113" s="15">
         <v>2021</v>
       </c>
@@ -37429,16 +37519,17 @@
       <c r="CM113" s="15"/>
       <c r="CN113" s="15"/>
       <c r="CO113" s="15"/>
-      <c r="CP113" s="15">
+      <c r="CP113" s="18">
         <v>2023</v>
       </c>
-      <c r="CQ113" s="15"/>
-      <c r="CR113" s="15"/>
-      <c r="CS113" s="15"/>
-      <c r="CT113" s="15">
+      <c r="CQ113" s="18"/>
+      <c r="CR113" s="18"/>
+      <c r="CS113" s="18"/>
+      <c r="CT113" s="18">
         <v>2024</v>
       </c>
-      <c r="CU113" s="15"/>
+      <c r="CU113" s="18"/>
+      <c r="CV113" s="18"/>
     </row>
     <row r="114" spans="1:154" x14ac:dyDescent="0.2">
       <c r="A114" s="5" t="s">
@@ -37720,23 +37811,26 @@
       <c r="CO114" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="CP114" s="6" t="s">
+      <c r="CP114" s="19" t="s">
         <v>7</v>
       </c>
-      <c r="CQ114" s="6" t="s">
+      <c r="CQ114" s="19" t="s">
         <v>8</v>
       </c>
-      <c r="CR114" s="6" t="s">
+      <c r="CR114" s="19" t="s">
         <v>10</v>
       </c>
-      <c r="CS114" s="6" t="s">
+      <c r="CS114" s="19" t="s">
         <v>9</v>
       </c>
-      <c r="CT114" s="6" t="s">
+      <c r="CT114" s="19" t="s">
         <v>7</v>
       </c>
-      <c r="CU114" s="6" t="s">
+      <c r="CU114" s="19" t="s">
         <v>8</v>
+      </c>
+      <c r="CV114" s="19" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="115" spans="1:154" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
@@ -38022,25 +38116,27 @@
       <c r="CO116" s="14">
         <v>48.299102137475451</v>
       </c>
-      <c r="CP116" s="14">
+      <c r="CP116" s="25">
         <v>59.666830762568082</v>
       </c>
-      <c r="CQ116" s="14">
+      <c r="CQ116" s="25">
         <v>48.418139429166125</v>
       </c>
-      <c r="CR116" s="14">
+      <c r="CR116" s="25">
         <v>56.625546288907458</v>
       </c>
-      <c r="CS116" s="14">
+      <c r="CS116" s="25">
         <v>49.543199701950122</v>
       </c>
-      <c r="CT116" s="14">
+      <c r="CT116" s="25">
         <v>61.249713514578495</v>
       </c>
-      <c r="CU116" s="14">
-        <v>49.966476015881391</v>
-      </c>
-      <c r="CV116" s="9"/>
+      <c r="CU116" s="25">
+        <v>49.397420664800734</v>
+      </c>
+      <c r="CV116" s="25">
+        <v>56.455744435658694</v>
+      </c>
       <c r="CW116" s="9"/>
       <c r="CX116" s="9"/>
       <c r="CY116" s="9"/>
@@ -38376,25 +38472,27 @@
       <c r="CO117" s="14">
         <v>32.299121433197328</v>
       </c>
-      <c r="CP117" s="14">
+      <c r="CP117" s="25">
         <v>24.386381739884069</v>
       </c>
-      <c r="CQ117" s="14">
+      <c r="CQ117" s="25">
         <v>35.410814443145703</v>
       </c>
-      <c r="CR117" s="14">
+      <c r="CR117" s="25">
         <v>26.485354159163244</v>
       </c>
-      <c r="CS117" s="14">
+      <c r="CS117" s="25">
         <v>31.95915903258323</v>
       </c>
-      <c r="CT117" s="14">
+      <c r="CT117" s="25">
         <v>22.992984791253317</v>
       </c>
-      <c r="CU117" s="14">
-        <v>33.733175295095435</v>
-      </c>
-      <c r="CV117" s="9"/>
+      <c r="CU117" s="25">
+        <v>34.077198656452907</v>
+      </c>
+      <c r="CV117" s="25">
+        <v>26.72898478716149</v>
+      </c>
       <c r="CW117" s="9"/>
       <c r="CX117" s="9"/>
       <c r="CY117" s="9"/>
@@ -38730,25 +38828,27 @@
       <c r="CO118" s="14">
         <v>14.118511899254283</v>
       </c>
-      <c r="CP118" s="14">
+      <c r="CP118" s="25">
         <v>11.433370027440667</v>
       </c>
-      <c r="CQ118" s="14">
+      <c r="CQ118" s="25">
         <v>10.758679828933811</v>
       </c>
-      <c r="CR118" s="14">
+      <c r="CR118" s="25">
         <v>12.185878865146019</v>
       </c>
-      <c r="CS118" s="14">
+      <c r="CS118" s="25">
         <v>13.152405669218382</v>
       </c>
-      <c r="CT118" s="14">
+      <c r="CT118" s="25">
         <v>11.068375851676377</v>
       </c>
-      <c r="CU118" s="14">
-        <v>10.762321292730398</v>
-      </c>
-      <c r="CV118" s="9"/>
+      <c r="CU118" s="25">
+        <v>10.875037911870676</v>
+      </c>
+      <c r="CV118" s="25">
+        <v>11.892703647425936</v>
+      </c>
       <c r="CW118" s="9"/>
       <c r="CX118" s="9"/>
       <c r="CY118" s="9"/>
@@ -39084,25 +39184,27 @@
       <c r="CO119" s="14">
         <v>5.2832645300729411</v>
       </c>
-      <c r="CP119" s="14">
+      <c r="CP119" s="25">
         <v>4.5134174701071963</v>
       </c>
-      <c r="CQ119" s="14">
+      <c r="CQ119" s="25">
         <v>5.4123662987543577</v>
       </c>
-      <c r="CR119" s="14">
+      <c r="CR119" s="25">
         <v>4.7032206867832791</v>
       </c>
-      <c r="CS119" s="14">
+      <c r="CS119" s="25">
         <v>5.3452355962482674</v>
       </c>
-      <c r="CT119" s="14">
+      <c r="CT119" s="25">
         <v>4.688925842491809</v>
       </c>
-      <c r="CU119" s="14">
-        <v>5.5380273962927671</v>
-      </c>
-      <c r="CV119" s="9"/>
+      <c r="CU119" s="25">
+        <v>5.6503427668756876</v>
+      </c>
+      <c r="CV119" s="25">
+        <v>4.9225671297538849</v>
+      </c>
       <c r="CW119" s="9"/>
       <c r="CX119" s="9"/>
       <c r="CY119" s="9"/>
@@ -39251,13 +39353,13 @@
       <c r="CM120" s="14"/>
       <c r="CN120" s="14"/>
       <c r="CO120" s="14"/>
-      <c r="CP120" s="14"/>
-      <c r="CQ120" s="14"/>
-      <c r="CR120" s="14"/>
-      <c r="CS120" s="14"/>
-      <c r="CT120" s="14"/>
-      <c r="CU120" s="14"/>
-      <c r="CV120" s="9"/>
+      <c r="CP120" s="25"/>
+      <c r="CQ120" s="25"/>
+      <c r="CR120" s="25"/>
+      <c r="CS120" s="25"/>
+      <c r="CT120" s="25"/>
+      <c r="CU120" s="25"/>
+      <c r="CV120" s="25"/>
       <c r="CW120" s="9"/>
       <c r="CX120" s="9"/>
       <c r="CY120" s="9"/>
@@ -39593,25 +39695,27 @@
       <c r="CO121" s="14">
         <v>100</v>
       </c>
-      <c r="CP121" s="14">
+      <c r="CP121" s="25">
         <v>100</v>
       </c>
-      <c r="CQ121" s="14">
+      <c r="CQ121" s="25">
         <v>100</v>
       </c>
-      <c r="CR121" s="14">
+      <c r="CR121" s="25">
         <v>100</v>
       </c>
-      <c r="CS121" s="14">
+      <c r="CS121" s="25">
         <v>100</v>
       </c>
-      <c r="CT121" s="14">
+      <c r="CT121" s="25">
         <v>100</v>
       </c>
-      <c r="CU121" s="14">
+      <c r="CU121" s="25">
         <v>100</v>
       </c>
-      <c r="CV121" s="9"/>
+      <c r="CV121" s="25">
+        <v>100</v>
+      </c>
       <c r="CW121" s="9"/>
       <c r="CX121" s="9"/>
       <c r="CY121" s="9"/>
@@ -39761,12 +39865,13 @@
       <c r="CM122" s="12"/>
       <c r="CN122" s="12"/>
       <c r="CO122" s="12"/>
-      <c r="CP122" s="12"/>
-      <c r="CQ122" s="12"/>
-      <c r="CR122" s="12"/>
-      <c r="CS122" s="12"/>
-      <c r="CT122" s="12"/>
-      <c r="CU122" s="12"/>
+      <c r="CP122" s="23"/>
+      <c r="CQ122" s="23"/>
+      <c r="CR122" s="23"/>
+      <c r="CS122" s="23"/>
+      <c r="CT122" s="23"/>
+      <c r="CU122" s="23"/>
+      <c r="CV122" s="23"/>
     </row>
     <row r="123" spans="1:154" x14ac:dyDescent="0.2">
       <c r="A123" s="13" t="s">
@@ -39866,13 +39971,13 @@
       <c r="CM124" s="9"/>
       <c r="CN124" s="9"/>
       <c r="CO124" s="9"/>
-      <c r="CP124" s="9"/>
-      <c r="CQ124" s="9"/>
-      <c r="CR124" s="9"/>
-      <c r="CS124" s="9"/>
-      <c r="CT124" s="9"/>
-      <c r="CU124" s="9"/>
-      <c r="CV124" s="9"/>
+      <c r="CP124" s="21"/>
+      <c r="CQ124" s="21"/>
+      <c r="CR124" s="21"/>
+      <c r="CS124" s="21"/>
+      <c r="CT124" s="21"/>
+      <c r="CU124" s="21"/>
+      <c r="CV124" s="21"/>
       <c r="CW124" s="9"/>
       <c r="CX124" s="9"/>
       <c r="CY124" s="9"/>
@@ -40021,13 +40126,13 @@
       <c r="CM125" s="9"/>
       <c r="CN125" s="9"/>
       <c r="CO125" s="9"/>
-      <c r="CP125" s="9"/>
-      <c r="CQ125" s="9"/>
-      <c r="CR125" s="9"/>
-      <c r="CS125" s="9"/>
-      <c r="CT125" s="9"/>
-      <c r="CU125" s="9"/>
-      <c r="CV125" s="9"/>
+      <c r="CP125" s="21"/>
+      <c r="CQ125" s="21"/>
+      <c r="CR125" s="21"/>
+      <c r="CS125" s="21"/>
+      <c r="CT125" s="21"/>
+      <c r="CU125" s="21"/>
+      <c r="CV125" s="21"/>
       <c r="CW125" s="9"/>
       <c r="CX125" s="9"/>
       <c r="CY125" s="9"/>
@@ -40115,132 +40220,132 @@
     </row>
     <row r="134" spans="1:154" x14ac:dyDescent="0.2">
       <c r="A134" s="4"/>
-      <c r="B134" s="17">
+      <c r="B134" s="26">
         <v>2000</v>
       </c>
-      <c r="C134" s="18"/>
-      <c r="D134" s="18"/>
-      <c r="E134" s="18"/>
-      <c r="F134" s="17">
+      <c r="C134" s="27"/>
+      <c r="D134" s="27"/>
+      <c r="E134" s="27"/>
+      <c r="F134" s="26">
         <v>2001</v>
       </c>
-      <c r="G134" s="18"/>
-      <c r="H134" s="18"/>
-      <c r="I134" s="18"/>
-      <c r="J134" s="17">
+      <c r="G134" s="27"/>
+      <c r="H134" s="27"/>
+      <c r="I134" s="27"/>
+      <c r="J134" s="26">
         <v>2002</v>
       </c>
-      <c r="K134" s="18"/>
-      <c r="L134" s="18"/>
-      <c r="M134" s="18"/>
-      <c r="N134" s="17">
+      <c r="K134" s="27"/>
+      <c r="L134" s="27"/>
+      <c r="M134" s="27"/>
+      <c r="N134" s="26">
         <v>2003</v>
       </c>
-      <c r="O134" s="18"/>
-      <c r="P134" s="18"/>
-      <c r="Q134" s="18"/>
-      <c r="R134" s="17">
+      <c r="O134" s="27"/>
+      <c r="P134" s="27"/>
+      <c r="Q134" s="27"/>
+      <c r="R134" s="26">
         <v>2004</v>
       </c>
-      <c r="S134" s="18"/>
-      <c r="T134" s="18"/>
-      <c r="U134" s="18"/>
-      <c r="V134" s="17">
+      <c r="S134" s="27"/>
+      <c r="T134" s="27"/>
+      <c r="U134" s="27"/>
+      <c r="V134" s="26">
         <v>2005</v>
       </c>
-      <c r="W134" s="18"/>
-      <c r="X134" s="18"/>
-      <c r="Y134" s="18"/>
-      <c r="Z134" s="17">
+      <c r="W134" s="27"/>
+      <c r="X134" s="27"/>
+      <c r="Y134" s="27"/>
+      <c r="Z134" s="26">
         <v>2006</v>
       </c>
-      <c r="AA134" s="18"/>
-      <c r="AB134" s="18"/>
-      <c r="AC134" s="18"/>
-      <c r="AD134" s="17">
+      <c r="AA134" s="27"/>
+      <c r="AB134" s="27"/>
+      <c r="AC134" s="27"/>
+      <c r="AD134" s="26">
         <v>2007</v>
       </c>
-      <c r="AE134" s="18"/>
-      <c r="AF134" s="18"/>
-      <c r="AG134" s="18"/>
-      <c r="AH134" s="17">
+      <c r="AE134" s="27"/>
+      <c r="AF134" s="27"/>
+      <c r="AG134" s="27"/>
+      <c r="AH134" s="26">
         <v>2008</v>
       </c>
-      <c r="AI134" s="18"/>
-      <c r="AJ134" s="18"/>
-      <c r="AK134" s="18"/>
-      <c r="AL134" s="17">
+      <c r="AI134" s="27"/>
+      <c r="AJ134" s="27"/>
+      <c r="AK134" s="27"/>
+      <c r="AL134" s="26">
         <v>2009</v>
       </c>
-      <c r="AM134" s="18"/>
-      <c r="AN134" s="18"/>
-      <c r="AO134" s="18"/>
-      <c r="AP134" s="17">
+      <c r="AM134" s="27"/>
+      <c r="AN134" s="27"/>
+      <c r="AO134" s="27"/>
+      <c r="AP134" s="26">
         <v>2010</v>
       </c>
-      <c r="AQ134" s="18"/>
-      <c r="AR134" s="18"/>
-      <c r="AS134" s="18"/>
-      <c r="AT134" s="17">
+      <c r="AQ134" s="27"/>
+      <c r="AR134" s="27"/>
+      <c r="AS134" s="27"/>
+      <c r="AT134" s="26">
         <v>2011</v>
       </c>
-      <c r="AU134" s="18"/>
-      <c r="AV134" s="18"/>
-      <c r="AW134" s="18"/>
-      <c r="AX134" s="17">
+      <c r="AU134" s="27"/>
+      <c r="AV134" s="27"/>
+      <c r="AW134" s="27"/>
+      <c r="AX134" s="26">
         <v>2012</v>
       </c>
-      <c r="AY134" s="18"/>
-      <c r="AZ134" s="18"/>
-      <c r="BA134" s="18"/>
-      <c r="BB134" s="17">
+      <c r="AY134" s="27"/>
+      <c r="AZ134" s="27"/>
+      <c r="BA134" s="27"/>
+      <c r="BB134" s="26">
         <v>2013</v>
       </c>
-      <c r="BC134" s="18"/>
-      <c r="BD134" s="18"/>
-      <c r="BE134" s="18"/>
-      <c r="BF134" s="17">
+      <c r="BC134" s="27"/>
+      <c r="BD134" s="27"/>
+      <c r="BE134" s="27"/>
+      <c r="BF134" s="26">
         <v>2014</v>
       </c>
-      <c r="BG134" s="18"/>
-      <c r="BH134" s="18"/>
-      <c r="BI134" s="18"/>
-      <c r="BJ134" s="17">
+      <c r="BG134" s="27"/>
+      <c r="BH134" s="27"/>
+      <c r="BI134" s="27"/>
+      <c r="BJ134" s="26">
         <v>2015</v>
       </c>
-      <c r="BK134" s="18"/>
-      <c r="BL134" s="18"/>
-      <c r="BM134" s="18"/>
-      <c r="BN134" s="17">
+      <c r="BK134" s="27"/>
+      <c r="BL134" s="27"/>
+      <c r="BM134" s="27"/>
+      <c r="BN134" s="26">
         <v>2016</v>
       </c>
-      <c r="BO134" s="18"/>
-      <c r="BP134" s="18"/>
-      <c r="BQ134" s="18"/>
-      <c r="BR134" s="17">
+      <c r="BO134" s="27"/>
+      <c r="BP134" s="27"/>
+      <c r="BQ134" s="27"/>
+      <c r="BR134" s="26">
         <v>2017</v>
       </c>
-      <c r="BS134" s="18"/>
-      <c r="BT134" s="18"/>
-      <c r="BU134" s="18"/>
-      <c r="BV134" s="17">
+      <c r="BS134" s="27"/>
+      <c r="BT134" s="27"/>
+      <c r="BU134" s="27"/>
+      <c r="BV134" s="26">
         <v>2018</v>
       </c>
-      <c r="BW134" s="18"/>
-      <c r="BX134" s="18"/>
-      <c r="BY134" s="18"/>
-      <c r="BZ134" s="17">
+      <c r="BW134" s="27"/>
+      <c r="BX134" s="27"/>
+      <c r="BY134" s="27"/>
+      <c r="BZ134" s="26">
         <v>2019</v>
       </c>
-      <c r="CA134" s="18"/>
-      <c r="CB134" s="18"/>
-      <c r="CC134" s="18"/>
-      <c r="CD134" s="17">
+      <c r="CA134" s="27"/>
+      <c r="CB134" s="27"/>
+      <c r="CC134" s="27"/>
+      <c r="CD134" s="26">
         <v>2020</v>
       </c>
-      <c r="CE134" s="17"/>
-      <c r="CF134" s="17"/>
-      <c r="CG134" s="17"/>
+      <c r="CE134" s="26"/>
+      <c r="CF134" s="26"/>
+      <c r="CG134" s="26"/>
       <c r="CH134" s="15">
         <v>2021</v>
       </c>
@@ -40253,16 +40358,17 @@
       <c r="CM134" s="15"/>
       <c r="CN134" s="15"/>
       <c r="CO134" s="15"/>
-      <c r="CP134" s="15">
+      <c r="CP134" s="18">
         <v>2023</v>
       </c>
-      <c r="CQ134" s="15"/>
-      <c r="CR134" s="15"/>
-      <c r="CS134" s="15"/>
-      <c r="CT134" s="15">
+      <c r="CQ134" s="18"/>
+      <c r="CR134" s="18"/>
+      <c r="CS134" s="18"/>
+      <c r="CT134" s="18">
         <v>2024</v>
       </c>
-      <c r="CU134" s="15"/>
+      <c r="CU134" s="18"/>
+      <c r="CV134" s="18"/>
     </row>
     <row r="135" spans="1:154" x14ac:dyDescent="0.2">
       <c r="A135" s="5" t="s">
@@ -40544,23 +40650,26 @@
       <c r="CO135" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="CP135" s="6" t="s">
+      <c r="CP135" s="19" t="s">
         <v>7</v>
       </c>
-      <c r="CQ135" s="6" t="s">
+      <c r="CQ135" s="19" t="s">
         <v>8</v>
       </c>
-      <c r="CR135" s="6" t="s">
+      <c r="CR135" s="19" t="s">
         <v>10</v>
       </c>
-      <c r="CS135" s="6" t="s">
+      <c r="CS135" s="19" t="s">
         <v>9</v>
       </c>
-      <c r="CT135" s="6" t="s">
+      <c r="CT135" s="19" t="s">
         <v>7</v>
       </c>
-      <c r="CU135" s="6" t="s">
+      <c r="CU135" s="19" t="s">
         <v>8</v>
+      </c>
+      <c r="CV135" s="19" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="136" spans="1:154" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
@@ -40846,25 +40955,27 @@
       <c r="CO137" s="14">
         <v>48.035263507324544</v>
       </c>
-      <c r="CP137" s="14">
+      <c r="CP137" s="25">
         <v>59.652332667400323</v>
       </c>
-      <c r="CQ137" s="14">
+      <c r="CQ137" s="25">
         <v>48.02203182457945</v>
       </c>
-      <c r="CR137" s="14">
+      <c r="CR137" s="25">
         <v>56.240111423604546</v>
       </c>
-      <c r="CS137" s="14">
+      <c r="CS137" s="25">
         <v>49.287161076521521</v>
       </c>
-      <c r="CT137" s="14">
+      <c r="CT137" s="25">
         <v>61.179968939151507</v>
       </c>
-      <c r="CU137" s="14">
-        <v>49.593791781473683</v>
-      </c>
-      <c r="CV137" s="9"/>
+      <c r="CU137" s="25">
+        <v>49.025895133462384</v>
+      </c>
+      <c r="CV137" s="25">
+        <v>56.084395118617081</v>
+      </c>
       <c r="CW137" s="9"/>
       <c r="CX137" s="9"/>
       <c r="CY137" s="9"/>
@@ -41200,25 +41311,27 @@
       <c r="CO138" s="14">
         <v>32.339705050693937</v>
       </c>
-      <c r="CP138" s="14">
+      <c r="CP138" s="25">
         <v>24.577168971063031</v>
       </c>
-      <c r="CQ138" s="14">
+      <c r="CQ138" s="25">
         <v>35.591838609532758</v>
       </c>
-      <c r="CR138" s="14">
+      <c r="CR138" s="25">
         <v>26.674129740411896</v>
       </c>
-      <c r="CS138" s="14">
+      <c r="CS138" s="25">
         <v>32.056378295940561</v>
       </c>
-      <c r="CT138" s="14">
+      <c r="CT138" s="25">
         <v>23.252463477970327</v>
       </c>
-      <c r="CU138" s="14">
-        <v>33.928067150489753</v>
-      </c>
-      <c r="CV138" s="9"/>
+      <c r="CU138" s="25">
+        <v>34.271865275854637</v>
+      </c>
+      <c r="CV138" s="25">
+        <v>26.930167379781501</v>
+      </c>
       <c r="CW138" s="9"/>
       <c r="CX138" s="9"/>
       <c r="CY138" s="9"/>
@@ -41554,25 +41667,27 @@
       <c r="CO139" s="14">
         <v>14.35022561182328</v>
       </c>
-      <c r="CP139" s="14">
+      <c r="CP139" s="25">
         <v>11.263088206162257</v>
       </c>
-      <c r="CQ139" s="14">
+      <c r="CQ139" s="25">
         <v>11.087834552386118</v>
       </c>
-      <c r="CR139" s="14">
+      <c r="CR139" s="25">
         <v>12.412764096355525</v>
       </c>
-      <c r="CS139" s="14">
+      <c r="CS139" s="25">
         <v>13.357018711013383</v>
       </c>
-      <c r="CT139" s="14">
+      <c r="CT139" s="25">
         <v>10.894656454894122</v>
       </c>
-      <c r="CU139" s="14">
-        <v>11.088804852215368</v>
-      </c>
-      <c r="CV139" s="9"/>
+      <c r="CU139" s="25">
+        <v>11.204186213506471</v>
+      </c>
+      <c r="CV139" s="25">
+        <v>12.111291990705434</v>
+      </c>
       <c r="CW139" s="9"/>
       <c r="CX139" s="9"/>
       <c r="CY139" s="9"/>
@@ -41908,25 +42023,27 @@
       <c r="CO140" s="14">
         <v>5.2748058301582486</v>
       </c>
-      <c r="CP140" s="14">
+      <c r="CP140" s="25">
         <v>4.5074101553743873</v>
       </c>
-      <c r="CQ140" s="14">
+      <c r="CQ140" s="25">
         <v>5.2982950135016669</v>
       </c>
-      <c r="CR140" s="14">
+      <c r="CR140" s="25">
         <v>4.6729947396280309</v>
       </c>
-      <c r="CS140" s="14">
+      <c r="CS140" s="25">
         <v>5.2994419165245557</v>
       </c>
-      <c r="CT140" s="14">
+      <c r="CT140" s="25">
         <v>4.6729111279840438</v>
       </c>
-      <c r="CU140" s="14">
-        <v>5.3893362158211957</v>
-      </c>
-      <c r="CV140" s="9"/>
+      <c r="CU140" s="25">
+        <v>5.4980533771765216</v>
+      </c>
+      <c r="CV140" s="25">
+        <v>4.8741455108959748</v>
+      </c>
       <c r="CW140" s="9"/>
       <c r="CX140" s="9"/>
       <c r="CY140" s="9"/>
@@ -42075,13 +42192,13 @@
       <c r="CM141" s="9"/>
       <c r="CN141" s="9"/>
       <c r="CO141" s="9"/>
-      <c r="CP141" s="9"/>
-      <c r="CQ141" s="9"/>
-      <c r="CR141" s="9"/>
-      <c r="CS141" s="9"/>
-      <c r="CT141" s="9"/>
-      <c r="CU141" s="9"/>
-      <c r="CV141" s="9"/>
+      <c r="CP141" s="21"/>
+      <c r="CQ141" s="21"/>
+      <c r="CR141" s="21"/>
+      <c r="CS141" s="21"/>
+      <c r="CT141" s="21"/>
+      <c r="CU141" s="21"/>
+      <c r="CV141" s="21"/>
       <c r="CW141" s="9"/>
       <c r="CX141" s="9"/>
       <c r="CY141" s="9"/>
@@ -42417,25 +42534,27 @@
       <c r="CO142" s="14">
         <v>100</v>
       </c>
-      <c r="CP142" s="14">
+      <c r="CP142" s="25">
         <v>100</v>
       </c>
-      <c r="CQ142" s="14">
+      <c r="CQ142" s="25">
         <v>100</v>
       </c>
-      <c r="CR142" s="14">
+      <c r="CR142" s="25">
         <v>100</v>
       </c>
-      <c r="CS142" s="14">
+      <c r="CS142" s="25">
         <v>100</v>
       </c>
-      <c r="CT142" s="14">
+      <c r="CT142" s="25">
         <v>100</v>
       </c>
-      <c r="CU142" s="14">
+      <c r="CU142" s="25">
         <v>100</v>
       </c>
-      <c r="CV142" s="9"/>
+      <c r="CV142" s="25">
+        <v>100</v>
+      </c>
       <c r="CW142" s="9"/>
       <c r="CX142" s="9"/>
       <c r="CY142" s="9"/>
@@ -42585,12 +42704,13 @@
       <c r="CM143" s="12"/>
       <c r="CN143" s="12"/>
       <c r="CO143" s="12"/>
-      <c r="CP143" s="12"/>
-      <c r="CQ143" s="12"/>
-      <c r="CR143" s="12"/>
-      <c r="CS143" s="12"/>
-      <c r="CT143" s="12"/>
-      <c r="CU143" s="12"/>
+      <c r="CP143" s="23"/>
+      <c r="CQ143" s="23"/>
+      <c r="CR143" s="23"/>
+      <c r="CS143" s="23"/>
+      <c r="CT143" s="23"/>
+      <c r="CU143" s="23"/>
+      <c r="CV143" s="23"/>
     </row>
     <row r="144" spans="1:154" x14ac:dyDescent="0.2">
       <c r="A144" s="13" t="s">
@@ -42752,9 +42872,9 @@
   <pageSetup paperSize="9" scale="31" orientation="landscape" r:id="rId1"/>
   <headerFooter alignWithMargins="0"/>
   <rowBreaks count="3" manualBreakCount="3">
-    <brk id="42" max="96" man="1"/>
-    <brk id="84" max="96" man="1"/>
-    <brk id="104" max="96" man="1"/>
+    <brk id="42" max="99" man="1"/>
+    <brk id="84" max="99" man="1"/>
+    <brk id="104" max="99" man="1"/>
   </rowBreaks>
 </worksheet>
 </file>
--- a/Data/National Accounts/PSA-17FIA_2018PSNA_Qrt.xlsx
+++ b/Data/National Accounts/PSA-17FIA_2018PSNA_Qrt.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28129"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28324"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="K:\Other computers\My Laptop (1)\6. MAS_Series\2018-base\NAP\NAP detailed series as of November 2024\Qtr\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="K:\Other computers\My Laptop (1)\6. MAS_Series\2018-base\NAP\NAP detailed series as of January 2025\Qtr\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{83E4E960-FB6B-490E-BDD8-45F59084441C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C09D9866-206B-42DC-A602-C4B7E2D86BE9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3510" yWindow="975" windowWidth="12660" windowHeight="15225" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="FIA" sheetId="11" r:id="rId1"/>
@@ -323,7 +323,7 @@
     <definedName name="pet">#REF!</definedName>
     <definedName name="plastic">#REF!</definedName>
     <definedName name="ply">#REF!</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">FIA!$A$1:$CV$146</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">FIA!$A$1:$CW$146</definedName>
     <definedName name="_xlnm.Print_Area">#REF!</definedName>
     <definedName name="PRINT_AREA_MI">#REF!</definedName>
     <definedName name="Print_Titles_MI">'[9]CAP93+'!$A$1:$IV$1,'[9]CAP93+'!$A$1:$A$65536</definedName>
@@ -468,7 +468,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="823" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="830" uniqueCount="55">
   <si>
     <t>Source: Philippine Statistics Authority</t>
   </si>
@@ -627,13 +627,13 @@
     <t>2023 - 2024</t>
   </si>
   <si>
-    <t>As of November 2024</t>
+    <t>Q1 2000 to Q4 2024</t>
   </si>
   <si>
-    <t>Q1 2000 to Q3 2024</t>
+    <t>Q1 2001 to Q4 2024</t>
   </si>
   <si>
-    <t>Q1 2001 to Q3 2024</t>
+    <t>As of January 2025</t>
   </si>
 </sst>
 </file>
@@ -720,7 +720,7 @@
     <xf numFmtId="164" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -765,6 +765,15 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="165" fontId="5" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="5" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -23618,19 +23627,19 @@
   <sheetPr transitionEvaluation="1">
     <pageSetUpPr autoPageBreaks="0"/>
   </sheetPr>
-  <dimension ref="A1:EX144"/>
+  <dimension ref="A1:EX148"/>
   <sheetViews>
     <sheetView tabSelected="1" defaultGridColor="0" view="pageBreakPreview" colorId="22" zoomScale="70" zoomScaleNormal="100" zoomScaleSheetLayoutView="70" workbookViewId="0">
       <pane xSplit="1" topLeftCell="CH1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" sqref="A1:A1048576"/>
+      <selection pane="topRight"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="7.77734375" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="38.33203125" style="1" customWidth="1"/>
     <col min="2" max="93" width="8.88671875" style="1" customWidth="1"/>
-    <col min="94" max="100" width="10.109375" style="17" customWidth="1"/>
-    <col min="101" max="16384" width="7.77734375" style="1"/>
+    <col min="94" max="101" width="10.109375" style="17" customWidth="1"/>
+    <col min="102" max="16384" width="7.77734375" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:154" x14ac:dyDescent="0.2">
@@ -23645,7 +23654,7 @@
     </row>
     <row r="3" spans="1:154" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
     </row>
     <row r="5" spans="1:154" x14ac:dyDescent="0.2">
@@ -23655,7 +23664,7 @@
     </row>
     <row r="6" spans="1:154" x14ac:dyDescent="0.2">
       <c r="A6" s="3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="7" spans="1:154" x14ac:dyDescent="0.2">
@@ -23665,132 +23674,132 @@
     </row>
     <row r="9" spans="1:154" x14ac:dyDescent="0.2">
       <c r="A9" s="4"/>
-      <c r="B9" s="26">
+      <c r="B9" s="29">
         <v>2000</v>
       </c>
-      <c r="C9" s="26"/>
-      <c r="D9" s="26"/>
-      <c r="E9" s="26"/>
-      <c r="F9" s="26">
+      <c r="C9" s="29"/>
+      <c r="D9" s="29"/>
+      <c r="E9" s="29"/>
+      <c r="F9" s="29">
         <v>2001</v>
       </c>
-      <c r="G9" s="26"/>
-      <c r="H9" s="26"/>
-      <c r="I9" s="26"/>
-      <c r="J9" s="26">
+      <c r="G9" s="29"/>
+      <c r="H9" s="29"/>
+      <c r="I9" s="29"/>
+      <c r="J9" s="29">
         <v>2002</v>
       </c>
-      <c r="K9" s="26"/>
-      <c r="L9" s="26"/>
-      <c r="M9" s="26"/>
-      <c r="N9" s="26">
+      <c r="K9" s="29"/>
+      <c r="L9" s="29"/>
+      <c r="M9" s="29"/>
+      <c r="N9" s="29">
         <v>2003</v>
       </c>
-      <c r="O9" s="26"/>
-      <c r="P9" s="26"/>
-      <c r="Q9" s="26"/>
-      <c r="R9" s="26">
+      <c r="O9" s="29"/>
+      <c r="P9" s="29"/>
+      <c r="Q9" s="29"/>
+      <c r="R9" s="29">
         <v>2004</v>
       </c>
-      <c r="S9" s="26"/>
-      <c r="T9" s="26"/>
-      <c r="U9" s="26"/>
-      <c r="V9" s="26">
+      <c r="S9" s="29"/>
+      <c r="T9" s="29"/>
+      <c r="U9" s="29"/>
+      <c r="V9" s="29">
         <v>2005</v>
       </c>
-      <c r="W9" s="26"/>
-      <c r="X9" s="26"/>
-      <c r="Y9" s="26"/>
-      <c r="Z9" s="26">
+      <c r="W9" s="29"/>
+      <c r="X9" s="29"/>
+      <c r="Y9" s="29"/>
+      <c r="Z9" s="29">
         <v>2006</v>
       </c>
-      <c r="AA9" s="26"/>
-      <c r="AB9" s="26"/>
-      <c r="AC9" s="26"/>
-      <c r="AD9" s="26">
+      <c r="AA9" s="29"/>
+      <c r="AB9" s="29"/>
+      <c r="AC9" s="29"/>
+      <c r="AD9" s="29">
         <v>2007</v>
       </c>
-      <c r="AE9" s="26"/>
-      <c r="AF9" s="26"/>
-      <c r="AG9" s="26"/>
-      <c r="AH9" s="26">
+      <c r="AE9" s="29"/>
+      <c r="AF9" s="29"/>
+      <c r="AG9" s="29"/>
+      <c r="AH9" s="29">
         <v>2008</v>
       </c>
-      <c r="AI9" s="26"/>
-      <c r="AJ9" s="26"/>
-      <c r="AK9" s="26"/>
-      <c r="AL9" s="26">
+      <c r="AI9" s="29"/>
+      <c r="AJ9" s="29"/>
+      <c r="AK9" s="29"/>
+      <c r="AL9" s="29">
         <v>2009</v>
       </c>
-      <c r="AM9" s="26"/>
-      <c r="AN9" s="26"/>
-      <c r="AO9" s="26"/>
-      <c r="AP9" s="26">
+      <c r="AM9" s="29"/>
+      <c r="AN9" s="29"/>
+      <c r="AO9" s="29"/>
+      <c r="AP9" s="29">
         <v>2010</v>
       </c>
-      <c r="AQ9" s="26"/>
-      <c r="AR9" s="26"/>
-      <c r="AS9" s="26"/>
-      <c r="AT9" s="26">
+      <c r="AQ9" s="29"/>
+      <c r="AR9" s="29"/>
+      <c r="AS9" s="29"/>
+      <c r="AT9" s="29">
         <v>2011</v>
       </c>
-      <c r="AU9" s="26"/>
-      <c r="AV9" s="26"/>
-      <c r="AW9" s="26"/>
-      <c r="AX9" s="26">
+      <c r="AU9" s="29"/>
+      <c r="AV9" s="29"/>
+      <c r="AW9" s="29"/>
+      <c r="AX9" s="29">
         <v>2012</v>
       </c>
-      <c r="AY9" s="26"/>
-      <c r="AZ9" s="26"/>
-      <c r="BA9" s="26"/>
-      <c r="BB9" s="26">
+      <c r="AY9" s="29"/>
+      <c r="AZ9" s="29"/>
+      <c r="BA9" s="29"/>
+      <c r="BB9" s="29">
         <v>2013</v>
       </c>
-      <c r="BC9" s="26"/>
-      <c r="BD9" s="26"/>
-      <c r="BE9" s="26"/>
-      <c r="BF9" s="26">
+      <c r="BC9" s="29"/>
+      <c r="BD9" s="29"/>
+      <c r="BE9" s="29"/>
+      <c r="BF9" s="29">
         <v>2014</v>
       </c>
-      <c r="BG9" s="26"/>
-      <c r="BH9" s="26"/>
-      <c r="BI9" s="26"/>
-      <c r="BJ9" s="26">
+      <c r="BG9" s="29"/>
+      <c r="BH9" s="29"/>
+      <c r="BI9" s="29"/>
+      <c r="BJ9" s="29">
         <v>2015</v>
       </c>
-      <c r="BK9" s="26"/>
-      <c r="BL9" s="26"/>
-      <c r="BM9" s="26"/>
-      <c r="BN9" s="26">
+      <c r="BK9" s="29"/>
+      <c r="BL9" s="29"/>
+      <c r="BM9" s="29"/>
+      <c r="BN9" s="29">
         <v>2016</v>
       </c>
-      <c r="BO9" s="26"/>
-      <c r="BP9" s="26"/>
-      <c r="BQ9" s="26"/>
-      <c r="BR9" s="26">
+      <c r="BO9" s="29"/>
+      <c r="BP9" s="29"/>
+      <c r="BQ9" s="29"/>
+      <c r="BR9" s="29">
         <v>2017</v>
       </c>
-      <c r="BS9" s="26"/>
-      <c r="BT9" s="26"/>
-      <c r="BU9" s="26"/>
-      <c r="BV9" s="26">
+      <c r="BS9" s="29"/>
+      <c r="BT9" s="29"/>
+      <c r="BU9" s="29"/>
+      <c r="BV9" s="29">
         <v>2018</v>
       </c>
-      <c r="BW9" s="26"/>
-      <c r="BX9" s="26"/>
-      <c r="BY9" s="26"/>
-      <c r="BZ9" s="26">
+      <c r="BW9" s="29"/>
+      <c r="BX9" s="29"/>
+      <c r="BY9" s="29"/>
+      <c r="BZ9" s="29">
         <v>2019</v>
       </c>
-      <c r="CA9" s="26"/>
-      <c r="CB9" s="26"/>
-      <c r="CC9" s="26"/>
-      <c r="CD9" s="26">
+      <c r="CA9" s="29"/>
+      <c r="CB9" s="29"/>
+      <c r="CC9" s="29"/>
+      <c r="CD9" s="29">
         <v>2020</v>
       </c>
-      <c r="CE9" s="26"/>
-      <c r="CF9" s="26"/>
-      <c r="CG9" s="26"/>
+      <c r="CE9" s="29"/>
+      <c r="CF9" s="29"/>
+      <c r="CG9" s="29"/>
       <c r="CH9" s="15">
         <v>2021</v>
       </c>
@@ -23814,6 +23823,7 @@
       </c>
       <c r="CU9" s="18"/>
       <c r="CV9" s="18"/>
+      <c r="CW9" s="18"/>
     </row>
     <row r="10" spans="1:154" x14ac:dyDescent="0.2">
       <c r="A10" s="5" t="s">
@@ -24115,6 +24125,9 @@
       </c>
       <c r="CV10" s="19" t="s">
         <v>10</v>
+      </c>
+      <c r="CW10" s="19" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="11" spans="1:154" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
@@ -24419,9 +24432,11 @@
         <v>352420.4749831091</v>
       </c>
       <c r="CV12" s="20">
-        <v>390292.8830109546</v>
-      </c>
-      <c r="CW12" s="9"/>
+        <v>391128.58610495168</v>
+      </c>
+      <c r="CW12" s="20">
+        <v>367903.57137464127</v>
+      </c>
       <c r="CX12" s="9"/>
       <c r="CY12" s="9"/>
       <c r="CZ12" s="9"/>
@@ -24775,9 +24790,11 @@
         <v>243120.0328878416</v>
       </c>
       <c r="CV13" s="20">
-        <v>184784.25245860437</v>
-      </c>
-      <c r="CW13" s="9"/>
+        <v>186065.9801665493</v>
+      </c>
+      <c r="CW13" s="20">
+        <v>238299.37297655005</v>
+      </c>
       <c r="CX13" s="9"/>
       <c r="CY13" s="9"/>
       <c r="CZ13" s="9"/>
@@ -25131,9 +25148,11 @@
         <v>77586.764142358952</v>
       </c>
       <c r="CV14" s="20">
-        <v>82217.277262878546</v>
-      </c>
-      <c r="CW14" s="9"/>
+        <v>81924.052545273575</v>
+      </c>
+      <c r="CW14" s="20">
+        <v>97885.422389005238</v>
+      </c>
       <c r="CX14" s="9"/>
       <c r="CY14" s="9"/>
       <c r="CZ14" s="9"/>
@@ -25487,9 +25506,11 @@
         <v>40311.750186961661</v>
       </c>
       <c r="CV15" s="20">
-        <v>34030.955327782445</v>
-      </c>
-      <c r="CW15" s="9"/>
+        <v>33888.752666457891</v>
+      </c>
+      <c r="CW15" s="20">
+        <v>42151.311127549743</v>
+      </c>
       <c r="CX15" s="9"/>
       <c r="CY15" s="9"/>
       <c r="CZ15" s="9"/>
@@ -25644,7 +25665,7 @@
       <c r="CT16" s="21"/>
       <c r="CU16" s="21"/>
       <c r="CV16" s="21"/>
-      <c r="CW16" s="9"/>
+      <c r="CW16" s="21"/>
       <c r="CX16" s="9"/>
       <c r="CY16" s="9"/>
       <c r="CZ16" s="9"/>
@@ -25998,9 +26019,11 @@
         <v>713439.02220027125</v>
       </c>
       <c r="CV17" s="22">
-        <v>691325.36806021992</v>
-      </c>
-      <c r="CW17" s="9"/>
+        <v>693007.37148323248</v>
+      </c>
+      <c r="CW17" s="22">
+        <v>746239.67786774621</v>
+      </c>
       <c r="CX17" s="9"/>
       <c r="CY17" s="9"/>
       <c r="CZ17" s="9"/>
@@ -26156,6 +26179,7 @@
       <c r="CT18" s="23"/>
       <c r="CU18" s="23"/>
       <c r="CV18" s="23"/>
+      <c r="CW18" s="23"/>
     </row>
     <row r="19" spans="1:154" x14ac:dyDescent="0.2">
       <c r="A19" s="13" t="s">
@@ -26262,7 +26286,7 @@
       <c r="CT20" s="21"/>
       <c r="CU20" s="21"/>
       <c r="CV20" s="21"/>
-      <c r="CW20" s="9"/>
+      <c r="CW20" s="21"/>
       <c r="CX20" s="9"/>
       <c r="CY20" s="9"/>
       <c r="CZ20" s="9"/>
@@ -26417,7 +26441,7 @@
       <c r="CT21" s="21"/>
       <c r="CU21" s="21"/>
       <c r="CV21" s="21"/>
-      <c r="CW21" s="9"/>
+      <c r="CW21" s="21"/>
       <c r="CX21" s="9"/>
       <c r="CY21" s="9"/>
       <c r="CZ21" s="9"/>
@@ -26484,7 +26508,7 @@
     </row>
     <row r="24" spans="1:154" x14ac:dyDescent="0.2">
       <c r="A24" s="1" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
     </row>
     <row r="26" spans="1:154" x14ac:dyDescent="0.2">
@@ -26494,7 +26518,7 @@
     </row>
     <row r="27" spans="1:154" x14ac:dyDescent="0.2">
       <c r="A27" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="28" spans="1:154" x14ac:dyDescent="0.2">
@@ -26504,132 +26528,132 @@
     </row>
     <row r="30" spans="1:154" x14ac:dyDescent="0.2">
       <c r="A30" s="4"/>
-      <c r="B30" s="26">
+      <c r="B30" s="29">
         <v>2000</v>
       </c>
-      <c r="C30" s="27"/>
-      <c r="D30" s="27"/>
-      <c r="E30" s="27"/>
-      <c r="F30" s="26">
+      <c r="C30" s="30"/>
+      <c r="D30" s="30"/>
+      <c r="E30" s="30"/>
+      <c r="F30" s="29">
         <v>2001</v>
       </c>
-      <c r="G30" s="27"/>
-      <c r="H30" s="27"/>
-      <c r="I30" s="27"/>
-      <c r="J30" s="26">
+      <c r="G30" s="30"/>
+      <c r="H30" s="30"/>
+      <c r="I30" s="30"/>
+      <c r="J30" s="29">
         <v>2002</v>
       </c>
-      <c r="K30" s="27"/>
-      <c r="L30" s="27"/>
-      <c r="M30" s="27"/>
-      <c r="N30" s="26">
+      <c r="K30" s="30"/>
+      <c r="L30" s="30"/>
+      <c r="M30" s="30"/>
+      <c r="N30" s="29">
         <v>2003</v>
       </c>
-      <c r="O30" s="27"/>
-      <c r="P30" s="27"/>
-      <c r="Q30" s="27"/>
-      <c r="R30" s="26">
+      <c r="O30" s="30"/>
+      <c r="P30" s="30"/>
+      <c r="Q30" s="30"/>
+      <c r="R30" s="29">
         <v>2004</v>
       </c>
-      <c r="S30" s="27"/>
-      <c r="T30" s="27"/>
-      <c r="U30" s="27"/>
-      <c r="V30" s="26">
+      <c r="S30" s="30"/>
+      <c r="T30" s="30"/>
+      <c r="U30" s="30"/>
+      <c r="V30" s="29">
         <v>2005</v>
       </c>
-      <c r="W30" s="27"/>
-      <c r="X30" s="27"/>
-      <c r="Y30" s="27"/>
-      <c r="Z30" s="26">
+      <c r="W30" s="30"/>
+      <c r="X30" s="30"/>
+      <c r="Y30" s="30"/>
+      <c r="Z30" s="29">
         <v>2006</v>
       </c>
-      <c r="AA30" s="27"/>
-      <c r="AB30" s="27"/>
-      <c r="AC30" s="27"/>
-      <c r="AD30" s="26">
+      <c r="AA30" s="30"/>
+      <c r="AB30" s="30"/>
+      <c r="AC30" s="30"/>
+      <c r="AD30" s="29">
         <v>2007</v>
       </c>
-      <c r="AE30" s="27"/>
-      <c r="AF30" s="27"/>
-      <c r="AG30" s="27"/>
-      <c r="AH30" s="26">
+      <c r="AE30" s="30"/>
+      <c r="AF30" s="30"/>
+      <c r="AG30" s="30"/>
+      <c r="AH30" s="29">
         <v>2008</v>
       </c>
-      <c r="AI30" s="27"/>
-      <c r="AJ30" s="27"/>
-      <c r="AK30" s="27"/>
-      <c r="AL30" s="26">
+      <c r="AI30" s="30"/>
+      <c r="AJ30" s="30"/>
+      <c r="AK30" s="30"/>
+      <c r="AL30" s="29">
         <v>2009</v>
       </c>
-      <c r="AM30" s="27"/>
-      <c r="AN30" s="27"/>
-      <c r="AO30" s="27"/>
-      <c r="AP30" s="26">
+      <c r="AM30" s="30"/>
+      <c r="AN30" s="30"/>
+      <c r="AO30" s="30"/>
+      <c r="AP30" s="29">
         <v>2010</v>
       </c>
-      <c r="AQ30" s="27"/>
-      <c r="AR30" s="27"/>
-      <c r="AS30" s="27"/>
-      <c r="AT30" s="26">
+      <c r="AQ30" s="30"/>
+      <c r="AR30" s="30"/>
+      <c r="AS30" s="30"/>
+      <c r="AT30" s="29">
         <v>2011</v>
       </c>
-      <c r="AU30" s="27"/>
-      <c r="AV30" s="27"/>
-      <c r="AW30" s="27"/>
-      <c r="AX30" s="26">
+      <c r="AU30" s="30"/>
+      <c r="AV30" s="30"/>
+      <c r="AW30" s="30"/>
+      <c r="AX30" s="29">
         <v>2012</v>
       </c>
-      <c r="AY30" s="27"/>
-      <c r="AZ30" s="27"/>
-      <c r="BA30" s="27"/>
-      <c r="BB30" s="26">
+      <c r="AY30" s="30"/>
+      <c r="AZ30" s="30"/>
+      <c r="BA30" s="30"/>
+      <c r="BB30" s="29">
         <v>2013</v>
       </c>
-      <c r="BC30" s="27"/>
-      <c r="BD30" s="27"/>
-      <c r="BE30" s="27"/>
-      <c r="BF30" s="26">
+      <c r="BC30" s="30"/>
+      <c r="BD30" s="30"/>
+      <c r="BE30" s="30"/>
+      <c r="BF30" s="29">
         <v>2014</v>
       </c>
-      <c r="BG30" s="27"/>
-      <c r="BH30" s="27"/>
-      <c r="BI30" s="27"/>
-      <c r="BJ30" s="26">
+      <c r="BG30" s="30"/>
+      <c r="BH30" s="30"/>
+      <c r="BI30" s="30"/>
+      <c r="BJ30" s="29">
         <v>2015</v>
       </c>
-      <c r="BK30" s="27"/>
-      <c r="BL30" s="27"/>
-      <c r="BM30" s="27"/>
-      <c r="BN30" s="26">
+      <c r="BK30" s="30"/>
+      <c r="BL30" s="30"/>
+      <c r="BM30" s="30"/>
+      <c r="BN30" s="29">
         <v>2016</v>
       </c>
-      <c r="BO30" s="27"/>
-      <c r="BP30" s="27"/>
-      <c r="BQ30" s="27"/>
-      <c r="BR30" s="26">
+      <c r="BO30" s="30"/>
+      <c r="BP30" s="30"/>
+      <c r="BQ30" s="30"/>
+      <c r="BR30" s="29">
         <v>2017</v>
       </c>
-      <c r="BS30" s="27"/>
-      <c r="BT30" s="27"/>
-      <c r="BU30" s="27"/>
-      <c r="BV30" s="26">
+      <c r="BS30" s="30"/>
+      <c r="BT30" s="30"/>
+      <c r="BU30" s="30"/>
+      <c r="BV30" s="29">
         <v>2018</v>
       </c>
-      <c r="BW30" s="27"/>
-      <c r="BX30" s="27"/>
-      <c r="BY30" s="27"/>
-      <c r="BZ30" s="26">
+      <c r="BW30" s="30"/>
+      <c r="BX30" s="30"/>
+      <c r="BY30" s="30"/>
+      <c r="BZ30" s="29">
         <v>2019</v>
       </c>
-      <c r="CA30" s="27"/>
-      <c r="CB30" s="27"/>
-      <c r="CC30" s="27"/>
-      <c r="CD30" s="26">
+      <c r="CA30" s="30"/>
+      <c r="CB30" s="30"/>
+      <c r="CC30" s="30"/>
+      <c r="CD30" s="29">
         <v>2020</v>
       </c>
-      <c r="CE30" s="26"/>
-      <c r="CF30" s="26"/>
-      <c r="CG30" s="26"/>
+      <c r="CE30" s="29"/>
+      <c r="CF30" s="29"/>
+      <c r="CG30" s="29"/>
       <c r="CH30" s="15">
         <v>2021</v>
       </c>
@@ -26653,6 +26677,7 @@
       </c>
       <c r="CU30" s="18"/>
       <c r="CV30" s="18"/>
+      <c r="CW30" s="18"/>
     </row>
     <row r="31" spans="1:154" x14ac:dyDescent="0.2">
       <c r="A31" s="5" t="s">
@@ -26954,6 +26979,9 @@
       </c>
       <c r="CV31" s="19" t="s">
         <v>10</v>
+      </c>
+      <c r="CW31" s="19" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="32" spans="1:154" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
@@ -27258,9 +27286,11 @@
         <v>282088.2595735339</v>
       </c>
       <c r="CV33" s="20">
-        <v>321194.77667623427</v>
-      </c>
-      <c r="CW33" s="9"/>
+        <v>321870.61552372755</v>
+      </c>
+      <c r="CW33" s="20">
+        <v>297883.96015507297</v>
+      </c>
       <c r="CX33" s="9"/>
       <c r="CY33" s="9"/>
       <c r="CZ33" s="9"/>
@@ -27614,9 +27644,11 @@
         <v>197195.60044107857</v>
       </c>
       <c r="CV34" s="20">
-        <v>154228.80248789984</v>
-      </c>
-      <c r="CW34" s="9"/>
+        <v>155292.55209557325</v>
+      </c>
+      <c r="CW34" s="20">
+        <v>194533.43595822237</v>
+      </c>
       <c r="CX34" s="9"/>
       <c r="CY34" s="9"/>
       <c r="CZ34" s="9"/>
@@ -27970,9 +28002,11 @@
         <v>64467.346905178536</v>
       </c>
       <c r="CV35" s="20">
-        <v>69361.249559487405</v>
-      </c>
-      <c r="CW35" s="9"/>
+        <v>69109.52374073668</v>
+      </c>
+      <c r="CW35" s="20">
+        <v>80873.222763630605</v>
+      </c>
       <c r="CX35" s="9"/>
       <c r="CY35" s="9"/>
       <c r="CZ35" s="9"/>
@@ -28326,9 +28360,11 @@
         <v>31635.043153990904</v>
       </c>
       <c r="CV36" s="20">
-        <v>27914.183179627835</v>
-      </c>
-      <c r="CW36" s="9"/>
+        <v>27791.651253751152</v>
+      </c>
+      <c r="CW36" s="20">
+        <v>33918.676442173259</v>
+      </c>
       <c r="CX36" s="9"/>
       <c r="CY36" s="9"/>
       <c r="CZ36" s="9"/>
@@ -28483,7 +28519,7 @@
       <c r="CT37" s="21"/>
       <c r="CU37" s="21"/>
       <c r="CV37" s="21"/>
-      <c r="CW37" s="9"/>
+      <c r="CW37" s="21"/>
       <c r="CX37" s="9"/>
       <c r="CY37" s="9"/>
       <c r="CZ37" s="9"/>
@@ -28837,9 +28873,11 @@
         <v>575386.25007378182</v>
       </c>
       <c r="CV38" s="22">
-        <v>572699.01190324943</v>
-      </c>
-      <c r="CW38" s="9"/>
+        <v>574064.34261378855</v>
+      </c>
+      <c r="CW38" s="22">
+        <v>607209.29531909921</v>
+      </c>
       <c r="CX38" s="9"/>
       <c r="CY38" s="9"/>
       <c r="CZ38" s="9"/>
@@ -28995,6 +29033,7 @@
       <c r="CT39" s="23"/>
       <c r="CU39" s="23"/>
       <c r="CV39" s="23"/>
+      <c r="CW39" s="23"/>
     </row>
     <row r="40" spans="1:154" x14ac:dyDescent="0.2">
       <c r="A40" s="13" t="s">
@@ -29101,7 +29140,7 @@
       <c r="CT41" s="21"/>
       <c r="CU41" s="21"/>
       <c r="CV41" s="21"/>
-      <c r="CW41" s="9"/>
+      <c r="CW41" s="21"/>
       <c r="CX41" s="9"/>
       <c r="CY41" s="9"/>
       <c r="CZ41" s="9"/>
@@ -29256,7 +29295,7 @@
       <c r="CT42" s="21"/>
       <c r="CU42" s="21"/>
       <c r="CV42" s="21"/>
-      <c r="CW42" s="9"/>
+      <c r="CW42" s="21"/>
       <c r="CX42" s="9"/>
       <c r="CY42" s="9"/>
       <c r="CZ42" s="9"/>
@@ -29323,152 +29362,171 @@
     </row>
     <row r="45" spans="1:154" x14ac:dyDescent="0.2">
       <c r="A45" s="1" t="s">
-        <v>52</v>
-      </c>
+        <v>54</v>
+      </c>
+    </row>
+    <row r="46" spans="1:154" x14ac:dyDescent="0.2">
+      <c r="CT46" s="26"/>
+      <c r="CU46" s="26"/>
+      <c r="CV46" s="26"/>
     </row>
     <row r="47" spans="1:154" x14ac:dyDescent="0.2">
       <c r="A47" s="1" t="s">
         <v>18</v>
       </c>
+      <c r="CT47" s="26"/>
+      <c r="CU47" s="26"/>
+      <c r="CV47" s="26"/>
     </row>
     <row r="48" spans="1:154" x14ac:dyDescent="0.2">
       <c r="A48" s="3" t="s">
-        <v>54</v>
-      </c>
+        <v>53</v>
+      </c>
+      <c r="CT48" s="26"/>
+      <c r="CU48" s="26"/>
+      <c r="CV48" s="26"/>
     </row>
     <row r="49" spans="1:150" x14ac:dyDescent="0.2">
       <c r="A49" s="1" t="s">
         <v>23</v>
       </c>
+      <c r="CT49" s="26"/>
+      <c r="CU49" s="26"/>
+      <c r="CV49" s="26"/>
+    </row>
+    <row r="50" spans="1:150" x14ac:dyDescent="0.2">
+      <c r="CT50" s="26"/>
+      <c r="CU50" s="26"/>
+      <c r="CV50" s="26"/>
     </row>
     <row r="51" spans="1:150" x14ac:dyDescent="0.2">
       <c r="A51" s="4"/>
-      <c r="B51" s="26" t="s">
+      <c r="B51" s="29" t="s">
         <v>31</v>
       </c>
-      <c r="C51" s="26"/>
-      <c r="D51" s="26"/>
-      <c r="E51" s="26"/>
-      <c r="F51" s="26" t="s">
+      <c r="C51" s="29"/>
+      <c r="D51" s="29"/>
+      <c r="E51" s="29"/>
+      <c r="F51" s="29" t="s">
         <v>32</v>
       </c>
-      <c r="G51" s="26"/>
-      <c r="H51" s="26"/>
-      <c r="I51" s="26"/>
-      <c r="J51" s="26" t="s">
+      <c r="G51" s="29"/>
+      <c r="H51" s="29"/>
+      <c r="I51" s="29"/>
+      <c r="J51" s="29" t="s">
         <v>33</v>
       </c>
-      <c r="K51" s="26"/>
-      <c r="L51" s="26"/>
-      <c r="M51" s="26"/>
-      <c r="N51" s="26" t="s">
+      <c r="K51" s="29"/>
+      <c r="L51" s="29"/>
+      <c r="M51" s="29"/>
+      <c r="N51" s="29" t="s">
         <v>34</v>
       </c>
-      <c r="O51" s="26"/>
-      <c r="P51" s="26"/>
-      <c r="Q51" s="26"/>
-      <c r="R51" s="26" t="s">
+      <c r="O51" s="29"/>
+      <c r="P51" s="29"/>
+      <c r="Q51" s="29"/>
+      <c r="R51" s="29" t="s">
         <v>35</v>
       </c>
-      <c r="S51" s="26"/>
-      <c r="T51" s="26"/>
-      <c r="U51" s="26"/>
-      <c r="V51" s="26" t="s">
+      <c r="S51" s="29"/>
+      <c r="T51" s="29"/>
+      <c r="U51" s="29"/>
+      <c r="V51" s="29" t="s">
         <v>36</v>
       </c>
-      <c r="W51" s="26"/>
-      <c r="X51" s="26"/>
-      <c r="Y51" s="26"/>
-      <c r="Z51" s="26" t="s">
+      <c r="W51" s="29"/>
+      <c r="X51" s="29"/>
+      <c r="Y51" s="29"/>
+      <c r="Z51" s="29" t="s">
         <v>37</v>
       </c>
-      <c r="AA51" s="26"/>
-      <c r="AB51" s="26"/>
-      <c r="AC51" s="26"/>
-      <c r="AD51" s="26" t="s">
+      <c r="AA51" s="29"/>
+      <c r="AB51" s="29"/>
+      <c r="AC51" s="29"/>
+      <c r="AD51" s="29" t="s">
         <v>38</v>
       </c>
-      <c r="AE51" s="26"/>
-      <c r="AF51" s="26"/>
-      <c r="AG51" s="26"/>
-      <c r="AH51" s="26" t="s">
+      <c r="AE51" s="29"/>
+      <c r="AF51" s="29"/>
+      <c r="AG51" s="29"/>
+      <c r="AH51" s="29" t="s">
         <v>39</v>
       </c>
-      <c r="AI51" s="26"/>
-      <c r="AJ51" s="26"/>
-      <c r="AK51" s="26"/>
-      <c r="AL51" s="26" t="s">
+      <c r="AI51" s="29"/>
+      <c r="AJ51" s="29"/>
+      <c r="AK51" s="29"/>
+      <c r="AL51" s="29" t="s">
         <v>40</v>
       </c>
-      <c r="AM51" s="26"/>
-      <c r="AN51" s="26"/>
-      <c r="AO51" s="26"/>
-      <c r="AP51" s="26" t="s">
+      <c r="AM51" s="29"/>
+      <c r="AN51" s="29"/>
+      <c r="AO51" s="29"/>
+      <c r="AP51" s="29" t="s">
         <v>41</v>
       </c>
-      <c r="AQ51" s="26"/>
-      <c r="AR51" s="26"/>
-      <c r="AS51" s="26"/>
-      <c r="AT51" s="26" t="s">
+      <c r="AQ51" s="29"/>
+      <c r="AR51" s="29"/>
+      <c r="AS51" s="29"/>
+      <c r="AT51" s="29" t="s">
         <v>42</v>
       </c>
-      <c r="AU51" s="26"/>
-      <c r="AV51" s="26"/>
-      <c r="AW51" s="26"/>
-      <c r="AX51" s="26" t="s">
+      <c r="AU51" s="29"/>
+      <c r="AV51" s="29"/>
+      <c r="AW51" s="29"/>
+      <c r="AX51" s="29" t="s">
         <v>43</v>
       </c>
-      <c r="AY51" s="26"/>
-      <c r="AZ51" s="26"/>
-      <c r="BA51" s="26"/>
-      <c r="BB51" s="26" t="s">
+      <c r="AY51" s="29"/>
+      <c r="AZ51" s="29"/>
+      <c r="BA51" s="29"/>
+      <c r="BB51" s="29" t="s">
         <v>44</v>
       </c>
-      <c r="BC51" s="26"/>
-      <c r="BD51" s="26"/>
-      <c r="BE51" s="26"/>
-      <c r="BF51" s="26" t="s">
+      <c r="BC51" s="29"/>
+      <c r="BD51" s="29"/>
+      <c r="BE51" s="29"/>
+      <c r="BF51" s="29" t="s">
         <v>45</v>
       </c>
-      <c r="BG51" s="26"/>
-      <c r="BH51" s="26"/>
-      <c r="BI51" s="26"/>
-      <c r="BJ51" s="26" t="s">
+      <c r="BG51" s="29"/>
+      <c r="BH51" s="29"/>
+      <c r="BI51" s="29"/>
+      <c r="BJ51" s="29" t="s">
         <v>46</v>
       </c>
-      <c r="BK51" s="26"/>
-      <c r="BL51" s="26"/>
-      <c r="BM51" s="26"/>
-      <c r="BN51" s="26" t="s">
+      <c r="BK51" s="29"/>
+      <c r="BL51" s="29"/>
+      <c r="BM51" s="29"/>
+      <c r="BN51" s="29" t="s">
         <v>47</v>
       </c>
-      <c r="BO51" s="26"/>
-      <c r="BP51" s="26"/>
-      <c r="BQ51" s="26"/>
-      <c r="BR51" s="26" t="s">
+      <c r="BO51" s="29"/>
+      <c r="BP51" s="29"/>
+      <c r="BQ51" s="29"/>
+      <c r="BR51" s="29" t="s">
         <v>27</v>
       </c>
-      <c r="BS51" s="26"/>
-      <c r="BT51" s="26"/>
-      <c r="BU51" s="26"/>
-      <c r="BV51" s="26" t="s">
+      <c r="BS51" s="29"/>
+      <c r="BT51" s="29"/>
+      <c r="BU51" s="29"/>
+      <c r="BV51" s="29" t="s">
         <v>28</v>
       </c>
-      <c r="BW51" s="26"/>
-      <c r="BX51" s="26"/>
-      <c r="BY51" s="26"/>
-      <c r="BZ51" s="26" t="s">
+      <c r="BW51" s="29"/>
+      <c r="BX51" s="29"/>
+      <c r="BY51" s="29"/>
+      <c r="BZ51" s="29" t="s">
         <v>29</v>
       </c>
-      <c r="CA51" s="26"/>
-      <c r="CB51" s="26"/>
-      <c r="CC51" s="26"/>
-      <c r="CD51" s="26" t="s">
+      <c r="CA51" s="29"/>
+      <c r="CB51" s="29"/>
+      <c r="CC51" s="29"/>
+      <c r="CD51" s="29" t="s">
         <v>48</v>
       </c>
-      <c r="CE51" s="26"/>
-      <c r="CF51" s="26"/>
-      <c r="CG51" s="26"/>
+      <c r="CE51" s="29"/>
+      <c r="CF51" s="29"/>
+      <c r="CG51" s="29"/>
       <c r="CH51" s="15" t="s">
         <v>49</v>
       </c>
@@ -29486,10 +29544,11 @@
       </c>
       <c r="CQ51" s="18"/>
       <c r="CR51" s="18"/>
-      <c r="CS51" s="16"/>
-      <c r="CT51" s="18"/>
-      <c r="CU51" s="18"/>
+      <c r="CS51" s="18"/>
+      <c r="CT51" s="16"/>
+      <c r="CU51" s="16"/>
       <c r="CV51" s="16"/>
+      <c r="CW51" s="16"/>
     </row>
     <row r="52" spans="1:150" x14ac:dyDescent="0.2">
       <c r="A52" s="5" t="s">
@@ -29780,13 +29839,19 @@
       <c r="CR52" s="24" t="s">
         <v>10</v>
       </c>
-      <c r="CS52" s="24"/>
+      <c r="CS52" s="24" t="s">
+        <v>9</v>
+      </c>
       <c r="CT52" s="24"/>
       <c r="CU52" s="24"/>
       <c r="CV52" s="24"/>
+      <c r="CW52" s="24"/>
     </row>
     <row r="53" spans="1:150" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A53" s="7"/>
+      <c r="CT53" s="26"/>
+      <c r="CU53" s="26"/>
+      <c r="CV53" s="26"/>
     </row>
     <row r="54" spans="1:150" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A54" s="1" t="s">
@@ -30075,13 +30140,15 @@
         <v>14.854549859971414</v>
       </c>
       <c r="CR54" s="25">
-        <v>11.788645966057402</v>
-      </c>
-      <c r="CS54" s="25"/>
-      <c r="CT54" s="25"/>
-      <c r="CU54" s="25"/>
-      <c r="CV54" s="25"/>
-      <c r="CW54" s="9"/>
+        <v>12.028010098415805</v>
+      </c>
+      <c r="CS54" s="25">
+        <v>10.907175674208247</v>
+      </c>
+      <c r="CT54" s="27"/>
+      <c r="CU54" s="27"/>
+      <c r="CV54" s="27"/>
+      <c r="CW54" s="25"/>
       <c r="CX54" s="9"/>
       <c r="CY54" s="9"/>
       <c r="CZ54" s="9"/>
@@ -30419,13 +30486,15 @@
         <v>8.3377966721303665</v>
       </c>
       <c r="CR55" s="25">
-        <v>13.156274720634002</v>
-      </c>
-      <c r="CS55" s="25"/>
-      <c r="CT55" s="25"/>
-      <c r="CU55" s="25"/>
-      <c r="CV55" s="25"/>
-      <c r="CW55" s="9"/>
+        <v>13.941165915135329</v>
+      </c>
+      <c r="CS55" s="25">
+        <v>11.362058600151997</v>
+      </c>
+      <c r="CT55" s="27"/>
+      <c r="CU55" s="27"/>
+      <c r="CV55" s="27"/>
+      <c r="CW55" s="25"/>
       <c r="CX55" s="9"/>
       <c r="CY55" s="9"/>
       <c r="CZ55" s="9"/>
@@ -30763,13 +30832,15 @@
         <v>13.795168866541104</v>
       </c>
       <c r="CR56" s="25">
-        <v>9.4273047435766699</v>
-      </c>
-      <c r="CS56" s="25"/>
-      <c r="CT56" s="25"/>
-      <c r="CU56" s="25"/>
-      <c r="CV56" s="25"/>
-      <c r="CW56" s="9"/>
+        <v>9.0370365225905118</v>
+      </c>
+      <c r="CS56" s="25">
+        <v>11.153340043050903</v>
+      </c>
+      <c r="CT56" s="27"/>
+      <c r="CU56" s="27"/>
+      <c r="CV56" s="27"/>
+      <c r="CW56" s="25"/>
       <c r="CX56" s="9"/>
       <c r="CY56" s="9"/>
       <c r="CZ56" s="9"/>
@@ -31107,13 +31178,15 @@
         <v>17.527538797288372</v>
       </c>
       <c r="CR57" s="25">
-        <v>17.354095959397824</v>
-      </c>
-      <c r="CS57" s="25"/>
-      <c r="CT57" s="25"/>
-      <c r="CU57" s="25"/>
-      <c r="CV57" s="25"/>
-      <c r="CW57" s="9"/>
+        <v>16.86371699113127</v>
+      </c>
+      <c r="CS57" s="25">
+        <v>17.775221558089413</v>
+      </c>
+      <c r="CT57" s="27"/>
+      <c r="CU57" s="27"/>
+      <c r="CV57" s="27"/>
+      <c r="CW57" s="25"/>
       <c r="CX57" s="9"/>
       <c r="CY57" s="9"/>
       <c r="CZ57" s="9"/>
@@ -31261,10 +31334,10 @@
       <c r="CQ58" s="21"/>
       <c r="CR58" s="21"/>
       <c r="CS58" s="21"/>
-      <c r="CT58" s="21"/>
-      <c r="CU58" s="21"/>
-      <c r="CV58" s="21"/>
-      <c r="CW58" s="9"/>
+      <c r="CT58" s="28"/>
+      <c r="CU58" s="28"/>
+      <c r="CV58" s="28"/>
+      <c r="CW58" s="21"/>
       <c r="CX58" s="9"/>
       <c r="CY58" s="9"/>
       <c r="CZ58" s="9"/>
@@ -31602,13 +31675,15 @@
         <v>12.577611024068275</v>
       </c>
       <c r="CR59" s="25">
-        <v>12.124872499724674</v>
-      </c>
-      <c r="CS59" s="25"/>
-      <c r="CT59" s="25"/>
-      <c r="CU59" s="25"/>
-      <c r="CV59" s="25"/>
-      <c r="CW59" s="9"/>
+        <v>12.39767374218242</v>
+      </c>
+      <c r="CS59" s="25">
+        <v>11.452042201677813</v>
+      </c>
+      <c r="CT59" s="27"/>
+      <c r="CU59" s="27"/>
+      <c r="CV59" s="27"/>
+      <c r="CW59" s="25"/>
       <c r="CX59" s="9"/>
       <c r="CY59" s="9"/>
       <c r="CZ59" s="9"/>
@@ -31757,14 +31832,18 @@
       <c r="CQ60" s="23"/>
       <c r="CR60" s="23"/>
       <c r="CS60" s="23"/>
-      <c r="CT60" s="23"/>
-      <c r="CU60" s="23"/>
-      <c r="CV60" s="23"/>
+      <c r="CT60" s="19"/>
+      <c r="CU60" s="19"/>
+      <c r="CV60" s="19"/>
+      <c r="CW60" s="23"/>
     </row>
     <row r="61" spans="1:150" x14ac:dyDescent="0.2">
       <c r="A61" s="13" t="s">
         <v>0</v>
       </c>
+      <c r="CT61" s="26"/>
+      <c r="CU61" s="26"/>
+      <c r="CV61" s="26"/>
     </row>
     <row r="62" spans="1:150" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B62" s="9"/>
@@ -31863,10 +31942,10 @@
       <c r="CQ62" s="21"/>
       <c r="CR62" s="21"/>
       <c r="CS62" s="21"/>
-      <c r="CT62" s="21"/>
-      <c r="CU62" s="21"/>
-      <c r="CV62" s="21"/>
-      <c r="CW62" s="9"/>
+      <c r="CT62" s="28"/>
+      <c r="CU62" s="28"/>
+      <c r="CV62" s="28"/>
+      <c r="CW62" s="21"/>
       <c r="CX62" s="9"/>
       <c r="CY62" s="9"/>
       <c r="CZ62" s="9"/>
@@ -32014,10 +32093,10 @@
       <c r="CQ63" s="21"/>
       <c r="CR63" s="21"/>
       <c r="CS63" s="21"/>
-      <c r="CT63" s="21"/>
-      <c r="CU63" s="21"/>
-      <c r="CV63" s="21"/>
-      <c r="CW63" s="9"/>
+      <c r="CT63" s="28"/>
+      <c r="CU63" s="28"/>
+      <c r="CV63" s="28"/>
+      <c r="CW63" s="21"/>
       <c r="CX63" s="9"/>
       <c r="CY63" s="9"/>
       <c r="CZ63" s="9"/>
@@ -32072,160 +32151,188 @@
       <c r="A64" s="1" t="s">
         <v>2</v>
       </c>
+      <c r="CT64" s="26"/>
+      <c r="CU64" s="26"/>
+      <c r="CV64" s="26"/>
     </row>
     <row r="65" spans="1:150" x14ac:dyDescent="0.2">
       <c r="A65" s="1" t="s">
         <v>1</v>
       </c>
+      <c r="CT65" s="26"/>
+      <c r="CU65" s="26"/>
+      <c r="CV65" s="26"/>
     </row>
     <row r="66" spans="1:150" x14ac:dyDescent="0.2">
       <c r="A66" s="1" t="s">
-        <v>52</v>
-      </c>
+        <v>54</v>
+      </c>
+      <c r="CT66" s="26"/>
+      <c r="CU66" s="26"/>
+      <c r="CV66" s="26"/>
+    </row>
+    <row r="67" spans="1:150" x14ac:dyDescent="0.2">
+      <c r="CT67" s="26"/>
+      <c r="CU67" s="26"/>
+      <c r="CV67" s="26"/>
     </row>
     <row r="68" spans="1:150" x14ac:dyDescent="0.2">
       <c r="A68" s="1" t="s">
         <v>19</v>
       </c>
+      <c r="CT68" s="26"/>
+      <c r="CU68" s="26"/>
+      <c r="CV68" s="26"/>
     </row>
     <row r="69" spans="1:150" x14ac:dyDescent="0.2">
       <c r="A69" s="1" t="s">
-        <v>54</v>
-      </c>
+        <v>53</v>
+      </c>
+      <c r="CT69" s="26"/>
+      <c r="CU69" s="26"/>
+      <c r="CV69" s="26"/>
     </row>
     <row r="70" spans="1:150" x14ac:dyDescent="0.2">
       <c r="A70" s="1" t="s">
         <v>24</v>
       </c>
+      <c r="CT70" s="26"/>
+      <c r="CU70" s="26"/>
+      <c r="CV70" s="26"/>
+    </row>
+    <row r="71" spans="1:150" x14ac:dyDescent="0.2">
+      <c r="CT71" s="26"/>
+      <c r="CU71" s="26"/>
+      <c r="CV71" s="26"/>
     </row>
     <row r="72" spans="1:150" x14ac:dyDescent="0.2">
       <c r="A72" s="4"/>
-      <c r="B72" s="26" t="s">
+      <c r="B72" s="29" t="s">
         <v>31</v>
       </c>
-      <c r="C72" s="28"/>
-      <c r="D72" s="28"/>
-      <c r="E72" s="28"/>
-      <c r="F72" s="26" t="s">
+      <c r="C72" s="31"/>
+      <c r="D72" s="31"/>
+      <c r="E72" s="31"/>
+      <c r="F72" s="29" t="s">
         <v>32</v>
       </c>
-      <c r="G72" s="28"/>
-      <c r="H72" s="28"/>
-      <c r="I72" s="28"/>
-      <c r="J72" s="26" t="s">
+      <c r="G72" s="31"/>
+      <c r="H72" s="31"/>
+      <c r="I72" s="31"/>
+      <c r="J72" s="29" t="s">
         <v>33</v>
       </c>
-      <c r="K72" s="28"/>
-      <c r="L72" s="28"/>
-      <c r="M72" s="28"/>
-      <c r="N72" s="26" t="s">
+      <c r="K72" s="31"/>
+      <c r="L72" s="31"/>
+      <c r="M72" s="31"/>
+      <c r="N72" s="29" t="s">
         <v>34</v>
       </c>
-      <c r="O72" s="28"/>
-      <c r="P72" s="28"/>
-      <c r="Q72" s="28"/>
-      <c r="R72" s="26" t="s">
+      <c r="O72" s="31"/>
+      <c r="P72" s="31"/>
+      <c r="Q72" s="31"/>
+      <c r="R72" s="29" t="s">
         <v>35</v>
       </c>
-      <c r="S72" s="28"/>
-      <c r="T72" s="28"/>
-      <c r="U72" s="28"/>
-      <c r="V72" s="26" t="s">
+      <c r="S72" s="31"/>
+      <c r="T72" s="31"/>
+      <c r="U72" s="31"/>
+      <c r="V72" s="29" t="s">
         <v>36</v>
       </c>
-      <c r="W72" s="28"/>
-      <c r="X72" s="28"/>
-      <c r="Y72" s="28"/>
-      <c r="Z72" s="26" t="s">
+      <c r="W72" s="31"/>
+      <c r="X72" s="31"/>
+      <c r="Y72" s="31"/>
+      <c r="Z72" s="29" t="s">
         <v>37</v>
       </c>
-      <c r="AA72" s="28"/>
-      <c r="AB72" s="28"/>
-      <c r="AC72" s="28"/>
-      <c r="AD72" s="26" t="s">
+      <c r="AA72" s="31"/>
+      <c r="AB72" s="31"/>
+      <c r="AC72" s="31"/>
+      <c r="AD72" s="29" t="s">
         <v>38</v>
       </c>
-      <c r="AE72" s="28"/>
-      <c r="AF72" s="28"/>
-      <c r="AG72" s="28"/>
-      <c r="AH72" s="26" t="s">
+      <c r="AE72" s="31"/>
+      <c r="AF72" s="31"/>
+      <c r="AG72" s="31"/>
+      <c r="AH72" s="29" t="s">
         <v>39</v>
       </c>
-      <c r="AI72" s="28"/>
-      <c r="AJ72" s="28"/>
-      <c r="AK72" s="28"/>
-      <c r="AL72" s="26" t="s">
+      <c r="AI72" s="31"/>
+      <c r="AJ72" s="31"/>
+      <c r="AK72" s="31"/>
+      <c r="AL72" s="29" t="s">
         <v>40</v>
       </c>
-      <c r="AM72" s="28"/>
-      <c r="AN72" s="28"/>
-      <c r="AO72" s="28"/>
-      <c r="AP72" s="26" t="s">
+      <c r="AM72" s="31"/>
+      <c r="AN72" s="31"/>
+      <c r="AO72" s="31"/>
+      <c r="AP72" s="29" t="s">
         <v>41</v>
       </c>
-      <c r="AQ72" s="28"/>
-      <c r="AR72" s="28"/>
-      <c r="AS72" s="28"/>
-      <c r="AT72" s="26" t="s">
+      <c r="AQ72" s="31"/>
+      <c r="AR72" s="31"/>
+      <c r="AS72" s="31"/>
+      <c r="AT72" s="29" t="s">
         <v>42</v>
       </c>
-      <c r="AU72" s="28"/>
-      <c r="AV72" s="28"/>
-      <c r="AW72" s="28"/>
-      <c r="AX72" s="26" t="s">
+      <c r="AU72" s="31"/>
+      <c r="AV72" s="31"/>
+      <c r="AW72" s="31"/>
+      <c r="AX72" s="29" t="s">
         <v>43</v>
       </c>
-      <c r="AY72" s="28"/>
-      <c r="AZ72" s="28"/>
-      <c r="BA72" s="28"/>
-      <c r="BB72" s="26" t="s">
+      <c r="AY72" s="31"/>
+      <c r="AZ72" s="31"/>
+      <c r="BA72" s="31"/>
+      <c r="BB72" s="29" t="s">
         <v>44</v>
       </c>
-      <c r="BC72" s="28"/>
-      <c r="BD72" s="28"/>
-      <c r="BE72" s="28"/>
-      <c r="BF72" s="26" t="s">
+      <c r="BC72" s="31"/>
+      <c r="BD72" s="31"/>
+      <c r="BE72" s="31"/>
+      <c r="BF72" s="29" t="s">
         <v>45</v>
       </c>
-      <c r="BG72" s="28"/>
-      <c r="BH72" s="28"/>
-      <c r="BI72" s="28"/>
-      <c r="BJ72" s="26" t="s">
+      <c r="BG72" s="31"/>
+      <c r="BH72" s="31"/>
+      <c r="BI72" s="31"/>
+      <c r="BJ72" s="29" t="s">
         <v>46</v>
       </c>
-      <c r="BK72" s="28"/>
-      <c r="BL72" s="28"/>
-      <c r="BM72" s="28"/>
-      <c r="BN72" s="26" t="s">
+      <c r="BK72" s="31"/>
+      <c r="BL72" s="31"/>
+      <c r="BM72" s="31"/>
+      <c r="BN72" s="29" t="s">
         <v>47</v>
       </c>
-      <c r="BO72" s="28"/>
-      <c r="BP72" s="28"/>
-      <c r="BQ72" s="28"/>
-      <c r="BR72" s="26" t="s">
+      <c r="BO72" s="31"/>
+      <c r="BP72" s="31"/>
+      <c r="BQ72" s="31"/>
+      <c r="BR72" s="29" t="s">
         <v>27</v>
       </c>
-      <c r="BS72" s="28"/>
-      <c r="BT72" s="28"/>
-      <c r="BU72" s="28"/>
-      <c r="BV72" s="26" t="s">
+      <c r="BS72" s="31"/>
+      <c r="BT72" s="31"/>
+      <c r="BU72" s="31"/>
+      <c r="BV72" s="29" t="s">
         <v>28</v>
       </c>
-      <c r="BW72" s="28"/>
-      <c r="BX72" s="28"/>
-      <c r="BY72" s="28"/>
-      <c r="BZ72" s="26" t="s">
+      <c r="BW72" s="31"/>
+      <c r="BX72" s="31"/>
+      <c r="BY72" s="31"/>
+      <c r="BZ72" s="29" t="s">
         <v>29</v>
       </c>
-      <c r="CA72" s="28"/>
-      <c r="CB72" s="28"/>
-      <c r="CC72" s="28"/>
-      <c r="CD72" s="26" t="s">
+      <c r="CA72" s="31"/>
+      <c r="CB72" s="31"/>
+      <c r="CC72" s="31"/>
+      <c r="CD72" s="29" t="s">
         <v>48</v>
       </c>
-      <c r="CE72" s="26"/>
-      <c r="CF72" s="26"/>
-      <c r="CG72" s="26"/>
+      <c r="CE72" s="29"/>
+      <c r="CF72" s="29"/>
+      <c r="CG72" s="29"/>
       <c r="CH72" s="15" t="s">
         <v>49</v>
       </c>
@@ -32243,10 +32350,11 @@
       </c>
       <c r="CQ72" s="18"/>
       <c r="CR72" s="18"/>
-      <c r="CS72" s="16"/>
-      <c r="CT72" s="18"/>
-      <c r="CU72" s="18"/>
+      <c r="CS72" s="18"/>
+      <c r="CT72" s="16"/>
+      <c r="CU72" s="16"/>
       <c r="CV72" s="16"/>
+      <c r="CW72" s="16"/>
     </row>
     <row r="73" spans="1:150" x14ac:dyDescent="0.2">
       <c r="A73" s="5" t="s">
@@ -32537,13 +32645,19 @@
       <c r="CR73" s="24" t="s">
         <v>10</v>
       </c>
-      <c r="CS73" s="24"/>
+      <c r="CS73" s="24" t="s">
+        <v>9</v>
+      </c>
       <c r="CT73" s="24"/>
       <c r="CU73" s="24"/>
       <c r="CV73" s="24"/>
+      <c r="CW73" s="24"/>
     </row>
     <row r="74" spans="1:150" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A74" s="7"/>
+      <c r="CT74" s="26"/>
+      <c r="CU74" s="26"/>
+      <c r="CV74" s="26"/>
     </row>
     <row r="75" spans="1:150" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A75" s="1" t="s">
@@ -32832,13 +32946,15 @@
         <v>10.260932035380719</v>
       </c>
       <c r="CR75" s="25">
-        <v>8.5167446204181374</v>
-      </c>
-      <c r="CS75" s="25"/>
-      <c r="CT75" s="25"/>
-      <c r="CU75" s="25"/>
-      <c r="CV75" s="25"/>
-      <c r="CW75" s="9"/>
+        <v>8.7450790671264969</v>
+      </c>
+      <c r="CS75" s="25">
+        <v>7.9707446742424963</v>
+      </c>
+      <c r="CT75" s="27"/>
+      <c r="CU75" s="27"/>
+      <c r="CV75" s="27"/>
+      <c r="CW75" s="25"/>
       <c r="CX75" s="9"/>
       <c r="CY75" s="9"/>
       <c r="CZ75" s="9"/>
@@ -33176,13 +33292,15 @@
         <v>3.9977580511068709</v>
       </c>
       <c r="CR76" s="25">
-        <v>9.8625518875155933</v>
-      </c>
-      <c r="CS76" s="25"/>
-      <c r="CT76" s="25"/>
-      <c r="CU76" s="25"/>
-      <c r="CV76" s="25"/>
-      <c r="CW76" s="9"/>
+        <v>10.620297811643582</v>
+      </c>
+      <c r="CS76" s="25">
+        <v>8.4108088257618903</v>
+      </c>
+      <c r="CT76" s="27"/>
+      <c r="CU76" s="27"/>
+      <c r="CV76" s="27"/>
+      <c r="CW76" s="25"/>
       <c r="CX76" s="9"/>
       <c r="CY76" s="9"/>
       <c r="CZ76" s="9"/>
@@ -33520,13 +33638,15 @@
         <v>9.1365547521861288</v>
       </c>
       <c r="CR77" s="25">
-        <v>6.1751448161325868</v>
-      </c>
-      <c r="CS77" s="25"/>
-      <c r="CT77" s="25"/>
-      <c r="CU77" s="25"/>
-      <c r="CV77" s="25"/>
-      <c r="CW77" s="9"/>
+        <v>5.7898140236575273</v>
+      </c>
+      <c r="CS77" s="25">
+        <v>8.1653094489100937</v>
+      </c>
+      <c r="CT77" s="27"/>
+      <c r="CU77" s="27"/>
+      <c r="CV77" s="27"/>
+      <c r="CW77" s="25"/>
       <c r="CX77" s="9"/>
       <c r="CY77" s="9"/>
       <c r="CZ77" s="9"/>
@@ -33864,13 +33984,15 @@
         <v>12.075187434417373</v>
       </c>
       <c r="CR78" s="25">
-        <v>13.50214976242124</v>
-      </c>
-      <c r="CS78" s="25"/>
-      <c r="CT78" s="25"/>
-      <c r="CU78" s="25"/>
-      <c r="CV78" s="25"/>
-      <c r="CW78" s="9"/>
+        <v>13.003921427669781</v>
+      </c>
+      <c r="CS78" s="25">
+        <v>14.34088309514847</v>
+      </c>
+      <c r="CT78" s="27"/>
+      <c r="CU78" s="27"/>
+      <c r="CV78" s="27"/>
+      <c r="CW78" s="25"/>
       <c r="CX78" s="9"/>
       <c r="CY78" s="9"/>
       <c r="CZ78" s="9"/>
@@ -34018,10 +34140,10 @@
       <c r="CQ79" s="21"/>
       <c r="CR79" s="21"/>
       <c r="CS79" s="21"/>
-      <c r="CT79" s="21"/>
-      <c r="CU79" s="21"/>
-      <c r="CV79" s="21"/>
-      <c r="CW79" s="9"/>
+      <c r="CT79" s="28"/>
+      <c r="CU79" s="28"/>
+      <c r="CV79" s="28"/>
+      <c r="CW79" s="21"/>
       <c r="CX79" s="9"/>
       <c r="CY79" s="9"/>
       <c r="CZ79" s="9"/>
@@ -34359,13 +34481,15 @@
         <v>8.0032087694978316</v>
       </c>
       <c r="CR80" s="25">
-        <v>8.8180374571478666</v>
-      </c>
-      <c r="CS80" s="25"/>
-      <c r="CT80" s="25"/>
-      <c r="CU80" s="25"/>
-      <c r="CV80" s="25"/>
-      <c r="CW80" s="9"/>
+        <v>9.0774627491648516</v>
+      </c>
+      <c r="CS80" s="25">
+        <v>8.4753831423739001</v>
+      </c>
+      <c r="CT80" s="27"/>
+      <c r="CU80" s="27"/>
+      <c r="CV80" s="27"/>
+      <c r="CW80" s="25"/>
       <c r="CX80" s="9"/>
       <c r="CY80" s="9"/>
       <c r="CZ80" s="9"/>
@@ -34514,14 +34638,18 @@
       <c r="CQ81" s="23"/>
       <c r="CR81" s="23"/>
       <c r="CS81" s="23"/>
-      <c r="CT81" s="23"/>
-      <c r="CU81" s="23"/>
-      <c r="CV81" s="23"/>
+      <c r="CT81" s="19"/>
+      <c r="CU81" s="19"/>
+      <c r="CV81" s="19"/>
+      <c r="CW81" s="23"/>
     </row>
     <row r="82" spans="1:154" x14ac:dyDescent="0.2">
       <c r="A82" s="13" t="s">
         <v>0</v>
       </c>
+      <c r="CT82" s="26"/>
+      <c r="CU82" s="26"/>
+      <c r="CV82" s="26"/>
     </row>
     <row r="83" spans="1:154" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B83" s="9"/>
@@ -34620,10 +34748,10 @@
       <c r="CQ83" s="21"/>
       <c r="CR83" s="21"/>
       <c r="CS83" s="21"/>
-      <c r="CT83" s="21"/>
-      <c r="CU83" s="21"/>
-      <c r="CV83" s="21"/>
-      <c r="CW83" s="9"/>
+      <c r="CT83" s="28"/>
+      <c r="CU83" s="28"/>
+      <c r="CV83" s="28"/>
+      <c r="CW83" s="21"/>
       <c r="CX83" s="9"/>
       <c r="CY83" s="9"/>
       <c r="CZ83" s="9"/>
@@ -34771,10 +34899,10 @@
       <c r="CQ84" s="21"/>
       <c r="CR84" s="21"/>
       <c r="CS84" s="21"/>
-      <c r="CT84" s="21"/>
-      <c r="CU84" s="21"/>
-      <c r="CV84" s="21"/>
-      <c r="CW84" s="9"/>
+      <c r="CT84" s="28"/>
+      <c r="CU84" s="28"/>
+      <c r="CV84" s="28"/>
+      <c r="CW84" s="21"/>
       <c r="CX84" s="9"/>
       <c r="CY84" s="9"/>
       <c r="CZ84" s="9"/>
@@ -34829,10 +34957,13 @@
       <c r="A85" s="1" t="s">
         <v>2</v>
       </c>
+      <c r="CT85" s="26"/>
+      <c r="CU85" s="26"/>
+      <c r="CV85" s="26"/>
     </row>
     <row r="86" spans="1:154" x14ac:dyDescent="0.2">
       <c r="A86" s="1" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
     </row>
     <row r="88" spans="1:154" x14ac:dyDescent="0.2">
@@ -34842,7 +34973,7 @@
     </row>
     <row r="89" spans="1:154" x14ac:dyDescent="0.2">
       <c r="A89" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="90" spans="1:154" x14ac:dyDescent="0.2">
@@ -34852,132 +34983,132 @@
     </row>
     <row r="92" spans="1:154" x14ac:dyDescent="0.2">
       <c r="A92" s="4"/>
-      <c r="B92" s="26">
+      <c r="B92" s="29">
         <v>2000</v>
       </c>
-      <c r="C92" s="27"/>
-      <c r="D92" s="27"/>
-      <c r="E92" s="27"/>
-      <c r="F92" s="26">
+      <c r="C92" s="30"/>
+      <c r="D92" s="30"/>
+      <c r="E92" s="30"/>
+      <c r="F92" s="29">
         <v>2001</v>
       </c>
-      <c r="G92" s="27"/>
-      <c r="H92" s="27"/>
-      <c r="I92" s="27"/>
-      <c r="J92" s="26">
+      <c r="G92" s="30"/>
+      <c r="H92" s="30"/>
+      <c r="I92" s="30"/>
+      <c r="J92" s="29">
         <v>2002</v>
       </c>
-      <c r="K92" s="27"/>
-      <c r="L92" s="27"/>
-      <c r="M92" s="27"/>
-      <c r="N92" s="26">
+      <c r="K92" s="30"/>
+      <c r="L92" s="30"/>
+      <c r="M92" s="30"/>
+      <c r="N92" s="29">
         <v>2003</v>
       </c>
-      <c r="O92" s="27"/>
-      <c r="P92" s="27"/>
-      <c r="Q92" s="27"/>
-      <c r="R92" s="26">
+      <c r="O92" s="30"/>
+      <c r="P92" s="30"/>
+      <c r="Q92" s="30"/>
+      <c r="R92" s="29">
         <v>2004</v>
       </c>
-      <c r="S92" s="27"/>
-      <c r="T92" s="27"/>
-      <c r="U92" s="27"/>
-      <c r="V92" s="26">
+      <c r="S92" s="30"/>
+      <c r="T92" s="30"/>
+      <c r="U92" s="30"/>
+      <c r="V92" s="29">
         <v>2005</v>
       </c>
-      <c r="W92" s="27"/>
-      <c r="X92" s="27"/>
-      <c r="Y92" s="27"/>
-      <c r="Z92" s="26">
+      <c r="W92" s="30"/>
+      <c r="X92" s="30"/>
+      <c r="Y92" s="30"/>
+      <c r="Z92" s="29">
         <v>2006</v>
       </c>
-      <c r="AA92" s="27"/>
-      <c r="AB92" s="27"/>
-      <c r="AC92" s="27"/>
-      <c r="AD92" s="26">
+      <c r="AA92" s="30"/>
+      <c r="AB92" s="30"/>
+      <c r="AC92" s="30"/>
+      <c r="AD92" s="29">
         <v>2007</v>
       </c>
-      <c r="AE92" s="27"/>
-      <c r="AF92" s="27"/>
-      <c r="AG92" s="27"/>
-      <c r="AH92" s="26">
+      <c r="AE92" s="30"/>
+      <c r="AF92" s="30"/>
+      <c r="AG92" s="30"/>
+      <c r="AH92" s="29">
         <v>2008</v>
       </c>
-      <c r="AI92" s="27"/>
-      <c r="AJ92" s="27"/>
-      <c r="AK92" s="27"/>
-      <c r="AL92" s="26">
+      <c r="AI92" s="30"/>
+      <c r="AJ92" s="30"/>
+      <c r="AK92" s="30"/>
+      <c r="AL92" s="29">
         <v>2009</v>
       </c>
-      <c r="AM92" s="27"/>
-      <c r="AN92" s="27"/>
-      <c r="AO92" s="27"/>
-      <c r="AP92" s="26">
+      <c r="AM92" s="30"/>
+      <c r="AN92" s="30"/>
+      <c r="AO92" s="30"/>
+      <c r="AP92" s="29">
         <v>2010</v>
       </c>
-      <c r="AQ92" s="27"/>
-      <c r="AR92" s="27"/>
-      <c r="AS92" s="27"/>
-      <c r="AT92" s="26">
+      <c r="AQ92" s="30"/>
+      <c r="AR92" s="30"/>
+      <c r="AS92" s="30"/>
+      <c r="AT92" s="29">
         <v>2011</v>
       </c>
-      <c r="AU92" s="27"/>
-      <c r="AV92" s="27"/>
-      <c r="AW92" s="27"/>
-      <c r="AX92" s="26">
+      <c r="AU92" s="30"/>
+      <c r="AV92" s="30"/>
+      <c r="AW92" s="30"/>
+      <c r="AX92" s="29">
         <v>2012</v>
       </c>
-      <c r="AY92" s="27"/>
-      <c r="AZ92" s="27"/>
-      <c r="BA92" s="27"/>
-      <c r="BB92" s="26">
+      <c r="AY92" s="30"/>
+      <c r="AZ92" s="30"/>
+      <c r="BA92" s="30"/>
+      <c r="BB92" s="29">
         <v>2013</v>
       </c>
-      <c r="BC92" s="27"/>
-      <c r="BD92" s="27"/>
-      <c r="BE92" s="27"/>
-      <c r="BF92" s="26">
+      <c r="BC92" s="30"/>
+      <c r="BD92" s="30"/>
+      <c r="BE92" s="30"/>
+      <c r="BF92" s="29">
         <v>2014</v>
       </c>
-      <c r="BG92" s="27"/>
-      <c r="BH92" s="27"/>
-      <c r="BI92" s="27"/>
-      <c r="BJ92" s="26">
+      <c r="BG92" s="30"/>
+      <c r="BH92" s="30"/>
+      <c r="BI92" s="30"/>
+      <c r="BJ92" s="29">
         <v>2015</v>
       </c>
-      <c r="BK92" s="27"/>
-      <c r="BL92" s="27"/>
-      <c r="BM92" s="27"/>
-      <c r="BN92" s="26">
+      <c r="BK92" s="30"/>
+      <c r="BL92" s="30"/>
+      <c r="BM92" s="30"/>
+      <c r="BN92" s="29">
         <v>2016</v>
       </c>
-      <c r="BO92" s="27"/>
-      <c r="BP92" s="27"/>
-      <c r="BQ92" s="27"/>
-      <c r="BR92" s="26">
+      <c r="BO92" s="30"/>
+      <c r="BP92" s="30"/>
+      <c r="BQ92" s="30"/>
+      <c r="BR92" s="29">
         <v>2017</v>
       </c>
-      <c r="BS92" s="27"/>
-      <c r="BT92" s="27"/>
-      <c r="BU92" s="27"/>
-      <c r="BV92" s="26">
+      <c r="BS92" s="30"/>
+      <c r="BT92" s="30"/>
+      <c r="BU92" s="30"/>
+      <c r="BV92" s="29">
         <v>2018</v>
       </c>
-      <c r="BW92" s="27"/>
-      <c r="BX92" s="27"/>
-      <c r="BY92" s="27"/>
-      <c r="BZ92" s="26">
+      <c r="BW92" s="30"/>
+      <c r="BX92" s="30"/>
+      <c r="BY92" s="30"/>
+      <c r="BZ92" s="29">
         <v>2019</v>
       </c>
-      <c r="CA92" s="27"/>
-      <c r="CB92" s="27"/>
-      <c r="CC92" s="27"/>
-      <c r="CD92" s="26">
+      <c r="CA92" s="30"/>
+      <c r="CB92" s="30"/>
+      <c r="CC92" s="30"/>
+      <c r="CD92" s="29">
         <v>2020</v>
       </c>
-      <c r="CE92" s="26"/>
-      <c r="CF92" s="26"/>
-      <c r="CG92" s="26"/>
+      <c r="CE92" s="29"/>
+      <c r="CF92" s="29"/>
+      <c r="CG92" s="29"/>
       <c r="CH92" s="15">
         <v>2021</v>
       </c>
@@ -35001,6 +35132,7 @@
       </c>
       <c r="CU92" s="18"/>
       <c r="CV92" s="18"/>
+      <c r="CW92" s="18"/>
     </row>
     <row r="93" spans="1:154" x14ac:dyDescent="0.2">
       <c r="A93" s="5" t="s">
@@ -35302,6 +35434,9 @@
       </c>
       <c r="CV93" s="19" t="s">
         <v>10</v>
+      </c>
+      <c r="CW93" s="19" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="94" spans="1:154" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
@@ -35606,9 +35741,11 @@
         <v>124.9326985518308</v>
       </c>
       <c r="CV95" s="25">
-        <v>121.51283624527042</v>
-      </c>
-      <c r="CW95" s="9"/>
+        <v>121.51733250596111</v>
+      </c>
+      <c r="CW95" s="25">
+        <v>123.50566683184867</v>
+      </c>
       <c r="CX95" s="9"/>
       <c r="CY95" s="9"/>
       <c r="CZ95" s="9"/>
@@ -35962,9 +36099,11 @@
         <v>123.28877132351901</v>
       </c>
       <c r="CV96" s="25">
-        <v>119.81176633534569</v>
-      </c>
-      <c r="CW96" s="9"/>
+        <v>119.81642239483375</v>
+      </c>
+      <c r="CW96" s="25">
+        <v>122.49789955271584</v>
+      </c>
       <c r="CX96" s="9"/>
       <c r="CY96" s="9"/>
       <c r="CZ96" s="9"/>
@@ -36318,9 +36457,11 @@
         <v>120.35048418616799</v>
       </c>
       <c r="CV97" s="25">
-        <v>118.53488480245042</v>
-      </c>
-      <c r="CW97" s="9"/>
+        <v>118.542348595268</v>
+      </c>
+      <c r="CW97" s="25">
+        <v>121.03563954053919</v>
+      </c>
       <c r="CX97" s="9"/>
       <c r="CY97" s="9"/>
       <c r="CZ97" s="9"/>
@@ -36674,9 +36815,11 @@
         <v>127.42751761309405</v>
       </c>
       <c r="CV98" s="25">
-        <v>121.91277498178317</v>
-      </c>
-      <c r="CW98" s="9"/>
+        <v>121.93860795473168</v>
+      </c>
+      <c r="CW98" s="25">
+        <v>124.27168612965194</v>
+      </c>
       <c r="CX98" s="9"/>
       <c r="CY98" s="9"/>
       <c r="CZ98" s="9"/>
@@ -36831,7 +36974,7 @@
       <c r="CT99" s="21"/>
       <c r="CU99" s="21"/>
       <c r="CV99" s="21"/>
-      <c r="CW99" s="9"/>
+      <c r="CW99" s="21"/>
       <c r="CX99" s="9"/>
       <c r="CY99" s="9"/>
       <c r="CZ99" s="9"/>
@@ -37185,9 +37328,11 @@
         <v>123.99306068033202</v>
       </c>
       <c r="CV100" s="25">
-        <v>120.71356047267128</v>
-      </c>
-      <c r="CW100" s="9"/>
+        <v>120.71945948216903</v>
+      </c>
+      <c r="CW100" s="25">
+        <v>122.89661631012814</v>
+      </c>
       <c r="CX100" s="9"/>
       <c r="CY100" s="9"/>
       <c r="CZ100" s="9"/>
@@ -37343,6 +37488,7 @@
       <c r="CT101" s="23"/>
       <c r="CU101" s="23"/>
       <c r="CV101" s="23"/>
+      <c r="CW101" s="23"/>
     </row>
     <row r="102" spans="1:154" x14ac:dyDescent="0.2">
       <c r="A102" s="13" t="s">
@@ -37361,7 +37507,7 @@
     </row>
     <row r="107" spans="1:154" x14ac:dyDescent="0.2">
       <c r="A107" s="1" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
     </row>
     <row r="109" spans="1:154" x14ac:dyDescent="0.2">
@@ -37371,7 +37517,7 @@
     </row>
     <row r="110" spans="1:154" x14ac:dyDescent="0.2">
       <c r="A110" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="111" spans="1:154" x14ac:dyDescent="0.2">
@@ -37381,132 +37527,132 @@
     </row>
     <row r="113" spans="1:154" x14ac:dyDescent="0.2">
       <c r="A113" s="4"/>
-      <c r="B113" s="26">
+      <c r="B113" s="29">
         <v>2000</v>
       </c>
-      <c r="C113" s="27"/>
-      <c r="D113" s="27"/>
-      <c r="E113" s="27"/>
-      <c r="F113" s="26">
+      <c r="C113" s="30"/>
+      <c r="D113" s="30"/>
+      <c r="E113" s="30"/>
+      <c r="F113" s="29">
         <v>2001</v>
       </c>
-      <c r="G113" s="27"/>
-      <c r="H113" s="27"/>
-      <c r="I113" s="27"/>
-      <c r="J113" s="26">
+      <c r="G113" s="30"/>
+      <c r="H113" s="30"/>
+      <c r="I113" s="30"/>
+      <c r="J113" s="29">
         <v>2002</v>
       </c>
-      <c r="K113" s="27"/>
-      <c r="L113" s="27"/>
-      <c r="M113" s="27"/>
-      <c r="N113" s="26">
+      <c r="K113" s="30"/>
+      <c r="L113" s="30"/>
+      <c r="M113" s="30"/>
+      <c r="N113" s="29">
         <v>2003</v>
       </c>
-      <c r="O113" s="27"/>
-      <c r="P113" s="27"/>
-      <c r="Q113" s="27"/>
-      <c r="R113" s="26">
+      <c r="O113" s="30"/>
+      <c r="P113" s="30"/>
+      <c r="Q113" s="30"/>
+      <c r="R113" s="29">
         <v>2004</v>
       </c>
-      <c r="S113" s="27"/>
-      <c r="T113" s="27"/>
-      <c r="U113" s="27"/>
-      <c r="V113" s="26">
+      <c r="S113" s="30"/>
+      <c r="T113" s="30"/>
+      <c r="U113" s="30"/>
+      <c r="V113" s="29">
         <v>2005</v>
       </c>
-      <c r="W113" s="27"/>
-      <c r="X113" s="27"/>
-      <c r="Y113" s="27"/>
-      <c r="Z113" s="26">
+      <c r="W113" s="30"/>
+      <c r="X113" s="30"/>
+      <c r="Y113" s="30"/>
+      <c r="Z113" s="29">
         <v>2006</v>
       </c>
-      <c r="AA113" s="27"/>
-      <c r="AB113" s="27"/>
-      <c r="AC113" s="27"/>
-      <c r="AD113" s="26">
+      <c r="AA113" s="30"/>
+      <c r="AB113" s="30"/>
+      <c r="AC113" s="30"/>
+      <c r="AD113" s="29">
         <v>2007</v>
       </c>
-      <c r="AE113" s="27"/>
-      <c r="AF113" s="27"/>
-      <c r="AG113" s="27"/>
-      <c r="AH113" s="26">
+      <c r="AE113" s="30"/>
+      <c r="AF113" s="30"/>
+      <c r="AG113" s="30"/>
+      <c r="AH113" s="29">
         <v>2008</v>
       </c>
-      <c r="AI113" s="27"/>
-      <c r="AJ113" s="27"/>
-      <c r="AK113" s="27"/>
-      <c r="AL113" s="26">
+      <c r="AI113" s="30"/>
+      <c r="AJ113" s="30"/>
+      <c r="AK113" s="30"/>
+      <c r="AL113" s="29">
         <v>2009</v>
       </c>
-      <c r="AM113" s="27"/>
-      <c r="AN113" s="27"/>
-      <c r="AO113" s="27"/>
-      <c r="AP113" s="26">
+      <c r="AM113" s="30"/>
+      <c r="AN113" s="30"/>
+      <c r="AO113" s="30"/>
+      <c r="AP113" s="29">
         <v>2010</v>
       </c>
-      <c r="AQ113" s="27"/>
-      <c r="AR113" s="27"/>
-      <c r="AS113" s="27"/>
-      <c r="AT113" s="26">
+      <c r="AQ113" s="30"/>
+      <c r="AR113" s="30"/>
+      <c r="AS113" s="30"/>
+      <c r="AT113" s="29">
         <v>2011</v>
       </c>
-      <c r="AU113" s="27"/>
-      <c r="AV113" s="27"/>
-      <c r="AW113" s="27"/>
-      <c r="AX113" s="26">
+      <c r="AU113" s="30"/>
+      <c r="AV113" s="30"/>
+      <c r="AW113" s="30"/>
+      <c r="AX113" s="29">
         <v>2012</v>
       </c>
-      <c r="AY113" s="27"/>
-      <c r="AZ113" s="27"/>
-      <c r="BA113" s="27"/>
-      <c r="BB113" s="26">
+      <c r="AY113" s="30"/>
+      <c r="AZ113" s="30"/>
+      <c r="BA113" s="30"/>
+      <c r="BB113" s="29">
         <v>2013</v>
       </c>
-      <c r="BC113" s="27"/>
-      <c r="BD113" s="27"/>
-      <c r="BE113" s="27"/>
-      <c r="BF113" s="26">
+      <c r="BC113" s="30"/>
+      <c r="BD113" s="30"/>
+      <c r="BE113" s="30"/>
+      <c r="BF113" s="29">
         <v>2014</v>
       </c>
-      <c r="BG113" s="27"/>
-      <c r="BH113" s="27"/>
-      <c r="BI113" s="27"/>
-      <c r="BJ113" s="26">
+      <c r="BG113" s="30"/>
+      <c r="BH113" s="30"/>
+      <c r="BI113" s="30"/>
+      <c r="BJ113" s="29">
         <v>2015</v>
       </c>
-      <c r="BK113" s="27"/>
-      <c r="BL113" s="27"/>
-      <c r="BM113" s="27"/>
-      <c r="BN113" s="26">
+      <c r="BK113" s="30"/>
+      <c r="BL113" s="30"/>
+      <c r="BM113" s="30"/>
+      <c r="BN113" s="29">
         <v>2016</v>
       </c>
-      <c r="BO113" s="27"/>
-      <c r="BP113" s="27"/>
-      <c r="BQ113" s="27"/>
-      <c r="BR113" s="26">
+      <c r="BO113" s="30"/>
+      <c r="BP113" s="30"/>
+      <c r="BQ113" s="30"/>
+      <c r="BR113" s="29">
         <v>2017</v>
       </c>
-      <c r="BS113" s="27"/>
-      <c r="BT113" s="27"/>
-      <c r="BU113" s="27"/>
-      <c r="BV113" s="26">
+      <c r="BS113" s="30"/>
+      <c r="BT113" s="30"/>
+      <c r="BU113" s="30"/>
+      <c r="BV113" s="29">
         <v>2018</v>
       </c>
-      <c r="BW113" s="27"/>
-      <c r="BX113" s="27"/>
-      <c r="BY113" s="27"/>
-      <c r="BZ113" s="26">
+      <c r="BW113" s="30"/>
+      <c r="BX113" s="30"/>
+      <c r="BY113" s="30"/>
+      <c r="BZ113" s="29">
         <v>2019</v>
       </c>
-      <c r="CA113" s="27"/>
-      <c r="CB113" s="27"/>
-      <c r="CC113" s="27"/>
-      <c r="CD113" s="26">
+      <c r="CA113" s="30"/>
+      <c r="CB113" s="30"/>
+      <c r="CC113" s="30"/>
+      <c r="CD113" s="29">
         <v>2020</v>
       </c>
-      <c r="CE113" s="26"/>
-      <c r="CF113" s="26"/>
-      <c r="CG113" s="26"/>
+      <c r="CE113" s="29"/>
+      <c r="CF113" s="29"/>
+      <c r="CG113" s="29"/>
       <c r="CH113" s="15">
         <v>2021</v>
       </c>
@@ -37530,6 +37676,7 @@
       </c>
       <c r="CU113" s="18"/>
       <c r="CV113" s="18"/>
+      <c r="CW113" s="18"/>
     </row>
     <row r="114" spans="1:154" x14ac:dyDescent="0.2">
       <c r="A114" s="5" t="s">
@@ -37831,6 +37978,9 @@
       </c>
       <c r="CV114" s="19" t="s">
         <v>10</v>
+      </c>
+      <c r="CW114" s="19" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="115" spans="1:154" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
@@ -38135,9 +38285,11 @@
         <v>49.397420664800734</v>
       </c>
       <c r="CV116" s="25">
-        <v>56.455744435658694</v>
-      </c>
-      <c r="CW116" s="9"/>
+        <v>56.439311066464626</v>
+      </c>
+      <c r="CW116" s="25">
+        <v>49.30099300346285</v>
+      </c>
       <c r="CX116" s="9"/>
       <c r="CY116" s="9"/>
       <c r="CZ116" s="9"/>
@@ -38491,9 +38643,11 @@
         <v>34.077198656452907</v>
       </c>
       <c r="CV117" s="25">
-        <v>26.72898478716149</v>
-      </c>
-      <c r="CW117" s="9"/>
+        <v>26.84906219227009</v>
+      </c>
+      <c r="CW117" s="25">
+        <v>31.933356003991943</v>
+      </c>
       <c r="CX117" s="9"/>
       <c r="CY117" s="9"/>
       <c r="CZ117" s="9"/>
@@ -38847,9 +39001,11 @@
         <v>10.875037911870676</v>
       </c>
       <c r="CV118" s="25">
-        <v>11.892703647425936</v>
-      </c>
-      <c r="CW118" s="9"/>
+        <v>11.821526857633973</v>
+      </c>
+      <c r="CW118" s="25">
+        <v>13.117155961030683</v>
+      </c>
       <c r="CX118" s="9"/>
       <c r="CY118" s="9"/>
       <c r="CZ118" s="9"/>
@@ -39203,9 +39359,11 @@
         <v>5.6503427668756876</v>
       </c>
       <c r="CV119" s="25">
-        <v>4.9225671297538849</v>
-      </c>
-      <c r="CW119" s="9"/>
+        <v>4.8900998836313017</v>
+      </c>
+      <c r="CW119" s="25">
+        <v>5.648495031514539</v>
+      </c>
       <c r="CX119" s="9"/>
       <c r="CY119" s="9"/>
       <c r="CZ119" s="9"/>
@@ -39360,7 +39518,7 @@
       <c r="CT120" s="25"/>
       <c r="CU120" s="25"/>
       <c r="CV120" s="25"/>
-      <c r="CW120" s="9"/>
+      <c r="CW120" s="25"/>
       <c r="CX120" s="9"/>
       <c r="CY120" s="9"/>
       <c r="CZ120" s="9"/>
@@ -39716,7 +39874,9 @@
       <c r="CV121" s="25">
         <v>100</v>
       </c>
-      <c r="CW121" s="9"/>
+      <c r="CW121" s="25">
+        <v>100</v>
+      </c>
       <c r="CX121" s="9"/>
       <c r="CY121" s="9"/>
       <c r="CZ121" s="9"/>
@@ -39872,6 +40032,7 @@
       <c r="CT122" s="23"/>
       <c r="CU122" s="23"/>
       <c r="CV122" s="23"/>
+      <c r="CW122" s="23"/>
     </row>
     <row r="123" spans="1:154" x14ac:dyDescent="0.2">
       <c r="A123" s="13" t="s">
@@ -39978,7 +40139,7 @@
       <c r="CT124" s="21"/>
       <c r="CU124" s="21"/>
       <c r="CV124" s="21"/>
-      <c r="CW124" s="9"/>
+      <c r="CW124" s="21"/>
       <c r="CX124" s="9"/>
       <c r="CY124" s="9"/>
       <c r="CZ124" s="9"/>
@@ -40133,7 +40294,7 @@
       <c r="CT125" s="21"/>
       <c r="CU125" s="21"/>
       <c r="CV125" s="21"/>
-      <c r="CW125" s="9"/>
+      <c r="CW125" s="21"/>
       <c r="CX125" s="9"/>
       <c r="CY125" s="9"/>
       <c r="CZ125" s="9"/>
@@ -40200,7 +40361,7 @@
     </row>
     <row r="128" spans="1:154" x14ac:dyDescent="0.2">
       <c r="A128" s="1" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
     </row>
     <row r="130" spans="1:154" x14ac:dyDescent="0.2">
@@ -40210,7 +40371,7 @@
     </row>
     <row r="131" spans="1:154" x14ac:dyDescent="0.2">
       <c r="A131" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="132" spans="1:154" x14ac:dyDescent="0.2">
@@ -40220,132 +40381,132 @@
     </row>
     <row r="134" spans="1:154" x14ac:dyDescent="0.2">
       <c r="A134" s="4"/>
-      <c r="B134" s="26">
+      <c r="B134" s="29">
         <v>2000</v>
       </c>
-      <c r="C134" s="27"/>
-      <c r="D134" s="27"/>
-      <c r="E134" s="27"/>
-      <c r="F134" s="26">
+      <c r="C134" s="30"/>
+      <c r="D134" s="30"/>
+      <c r="E134" s="30"/>
+      <c r="F134" s="29">
         <v>2001</v>
       </c>
-      <c r="G134" s="27"/>
-      <c r="H134" s="27"/>
-      <c r="I134" s="27"/>
-      <c r="J134" s="26">
+      <c r="G134" s="30"/>
+      <c r="H134" s="30"/>
+      <c r="I134" s="30"/>
+      <c r="J134" s="29">
         <v>2002</v>
       </c>
-      <c r="K134" s="27"/>
-      <c r="L134" s="27"/>
-      <c r="M134" s="27"/>
-      <c r="N134" s="26">
+      <c r="K134" s="30"/>
+      <c r="L134" s="30"/>
+      <c r="M134" s="30"/>
+      <c r="N134" s="29">
         <v>2003</v>
       </c>
-      <c r="O134" s="27"/>
-      <c r="P134" s="27"/>
-      <c r="Q134" s="27"/>
-      <c r="R134" s="26">
+      <c r="O134" s="30"/>
+      <c r="P134" s="30"/>
+      <c r="Q134" s="30"/>
+      <c r="R134" s="29">
         <v>2004</v>
       </c>
-      <c r="S134" s="27"/>
-      <c r="T134" s="27"/>
-      <c r="U134" s="27"/>
-      <c r="V134" s="26">
+      <c r="S134" s="30"/>
+      <c r="T134" s="30"/>
+      <c r="U134" s="30"/>
+      <c r="V134" s="29">
         <v>2005</v>
       </c>
-      <c r="W134" s="27"/>
-      <c r="X134" s="27"/>
-      <c r="Y134" s="27"/>
-      <c r="Z134" s="26">
+      <c r="W134" s="30"/>
+      <c r="X134" s="30"/>
+      <c r="Y134" s="30"/>
+      <c r="Z134" s="29">
         <v>2006</v>
       </c>
-      <c r="AA134" s="27"/>
-      <c r="AB134" s="27"/>
-      <c r="AC134" s="27"/>
-      <c r="AD134" s="26">
+      <c r="AA134" s="30"/>
+      <c r="AB134" s="30"/>
+      <c r="AC134" s="30"/>
+      <c r="AD134" s="29">
         <v>2007</v>
       </c>
-      <c r="AE134" s="27"/>
-      <c r="AF134" s="27"/>
-      <c r="AG134" s="27"/>
-      <c r="AH134" s="26">
+      <c r="AE134" s="30"/>
+      <c r="AF134" s="30"/>
+      <c r="AG134" s="30"/>
+      <c r="AH134" s="29">
         <v>2008</v>
       </c>
-      <c r="AI134" s="27"/>
-      <c r="AJ134" s="27"/>
-      <c r="AK134" s="27"/>
-      <c r="AL134" s="26">
+      <c r="AI134" s="30"/>
+      <c r="AJ134" s="30"/>
+      <c r="AK134" s="30"/>
+      <c r="AL134" s="29">
         <v>2009</v>
       </c>
-      <c r="AM134" s="27"/>
-      <c r="AN134" s="27"/>
-      <c r="AO134" s="27"/>
-      <c r="AP134" s="26">
+      <c r="AM134" s="30"/>
+      <c r="AN134" s="30"/>
+      <c r="AO134" s="30"/>
+      <c r="AP134" s="29">
         <v>2010</v>
       </c>
-      <c r="AQ134" s="27"/>
-      <c r="AR134" s="27"/>
-      <c r="AS134" s="27"/>
-      <c r="AT134" s="26">
+      <c r="AQ134" s="30"/>
+      <c r="AR134" s="30"/>
+      <c r="AS134" s="30"/>
+      <c r="AT134" s="29">
         <v>2011</v>
       </c>
-      <c r="AU134" s="27"/>
-      <c r="AV134" s="27"/>
-      <c r="AW134" s="27"/>
-      <c r="AX134" s="26">
+      <c r="AU134" s="30"/>
+      <c r="AV134" s="30"/>
+      <c r="AW134" s="30"/>
+      <c r="AX134" s="29">
         <v>2012</v>
       </c>
-      <c r="AY134" s="27"/>
-      <c r="AZ134" s="27"/>
-      <c r="BA134" s="27"/>
-      <c r="BB134" s="26">
+      <c r="AY134" s="30"/>
+      <c r="AZ134" s="30"/>
+      <c r="BA134" s="30"/>
+      <c r="BB134" s="29">
         <v>2013</v>
       </c>
-      <c r="BC134" s="27"/>
-      <c r="BD134" s="27"/>
-      <c r="BE134" s="27"/>
-      <c r="BF134" s="26">
+      <c r="BC134" s="30"/>
+      <c r="BD134" s="30"/>
+      <c r="BE134" s="30"/>
+      <c r="BF134" s="29">
         <v>2014</v>
       </c>
-      <c r="BG134" s="27"/>
-      <c r="BH134" s="27"/>
-      <c r="BI134" s="27"/>
-      <c r="BJ134" s="26">
+      <c r="BG134" s="30"/>
+      <c r="BH134" s="30"/>
+      <c r="BI134" s="30"/>
+      <c r="BJ134" s="29">
         <v>2015</v>
       </c>
-      <c r="BK134" s="27"/>
-      <c r="BL134" s="27"/>
-      <c r="BM134" s="27"/>
-      <c r="BN134" s="26">
+      <c r="BK134" s="30"/>
+      <c r="BL134" s="30"/>
+      <c r="BM134" s="30"/>
+      <c r="BN134" s="29">
         <v>2016</v>
       </c>
-      <c r="BO134" s="27"/>
-      <c r="BP134" s="27"/>
-      <c r="BQ134" s="27"/>
-      <c r="BR134" s="26">
+      <c r="BO134" s="30"/>
+      <c r="BP134" s="30"/>
+      <c r="BQ134" s="30"/>
+      <c r="BR134" s="29">
         <v>2017</v>
       </c>
-      <c r="BS134" s="27"/>
-      <c r="BT134" s="27"/>
-      <c r="BU134" s="27"/>
-      <c r="BV134" s="26">
+      <c r="BS134" s="30"/>
+      <c r="BT134" s="30"/>
+      <c r="BU134" s="30"/>
+      <c r="BV134" s="29">
         <v>2018</v>
       </c>
-      <c r="BW134" s="27"/>
-      <c r="BX134" s="27"/>
-      <c r="BY134" s="27"/>
-      <c r="BZ134" s="26">
+      <c r="BW134" s="30"/>
+      <c r="BX134" s="30"/>
+      <c r="BY134" s="30"/>
+      <c r="BZ134" s="29">
         <v>2019</v>
       </c>
-      <c r="CA134" s="27"/>
-      <c r="CB134" s="27"/>
-      <c r="CC134" s="27"/>
-      <c r="CD134" s="26">
+      <c r="CA134" s="30"/>
+      <c r="CB134" s="30"/>
+      <c r="CC134" s="30"/>
+      <c r="CD134" s="29">
         <v>2020</v>
       </c>
-      <c r="CE134" s="26"/>
-      <c r="CF134" s="26"/>
-      <c r="CG134" s="26"/>
+      <c r="CE134" s="29"/>
+      <c r="CF134" s="29"/>
+      <c r="CG134" s="29"/>
       <c r="CH134" s="15">
         <v>2021</v>
       </c>
@@ -40369,6 +40530,7 @@
       </c>
       <c r="CU134" s="18"/>
       <c r="CV134" s="18"/>
+      <c r="CW134" s="18"/>
     </row>
     <row r="135" spans="1:154" x14ac:dyDescent="0.2">
       <c r="A135" s="5" t="s">
@@ -40670,6 +40832,9 @@
       </c>
       <c r="CV135" s="19" t="s">
         <v>10</v>
+      </c>
+      <c r="CW135" s="19" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="136" spans="1:154" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
@@ -40974,9 +41139,11 @@
         <v>49.025895133462384</v>
       </c>
       <c r="CV137" s="25">
-        <v>56.084395118617081</v>
-      </c>
-      <c r="CW137" s="9"/>
+        <v>56.068735093040154</v>
+      </c>
+      <c r="CW137" s="25">
+        <v>49.057872211677797</v>
+      </c>
       <c r="CX137" s="9"/>
       <c r="CY137" s="9"/>
       <c r="CZ137" s="9"/>
@@ -41330,9 +41497,11 @@
         <v>34.271865275854637</v>
       </c>
       <c r="CV138" s="25">
-        <v>26.930167379781501</v>
-      </c>
-      <c r="CW138" s="9"/>
+        <v>27.05141925180483</v>
+      </c>
+      <c r="CW138" s="25">
+        <v>32.037295452796322</v>
+      </c>
       <c r="CX138" s="9"/>
       <c r="CY138" s="9"/>
       <c r="CZ138" s="9"/>
@@ -41686,9 +41855,11 @@
         <v>11.204186213506471</v>
       </c>
       <c r="CV139" s="25">
-        <v>12.111291990705434</v>
-      </c>
-      <c r="CW139" s="9"/>
+        <v>12.03863724161514</v>
+      </c>
+      <c r="CW139" s="25">
+        <v>13.318838065733216</v>
+      </c>
       <c r="CX139" s="9"/>
       <c r="CY139" s="9"/>
       <c r="CZ139" s="9"/>
@@ -42042,9 +42213,11 @@
         <v>5.4980533771765216</v>
       </c>
       <c r="CV140" s="25">
-        <v>4.8741455108959748</v>
-      </c>
-      <c r="CW140" s="9"/>
+        <v>4.8412084135398832</v>
+      </c>
+      <c r="CW140" s="25">
+        <v>5.5859942697926579</v>
+      </c>
       <c r="CX140" s="9"/>
       <c r="CY140" s="9"/>
       <c r="CZ140" s="9"/>
@@ -42199,7 +42372,7 @@
       <c r="CT141" s="21"/>
       <c r="CU141" s="21"/>
       <c r="CV141" s="21"/>
-      <c r="CW141" s="9"/>
+      <c r="CW141" s="21"/>
       <c r="CX141" s="9"/>
       <c r="CY141" s="9"/>
       <c r="CZ141" s="9"/>
@@ -42555,7 +42728,9 @@
       <c r="CV142" s="25">
         <v>100</v>
       </c>
-      <c r="CW142" s="9"/>
+      <c r="CW142" s="25">
+        <v>100</v>
+      </c>
       <c r="CX142" s="9"/>
       <c r="CY142" s="9"/>
       <c r="CZ142" s="9"/>
@@ -42711,28 +42886,144 @@
       <c r="CT143" s="23"/>
       <c r="CU143" s="23"/>
       <c r="CV143" s="23"/>
+      <c r="CW143" s="23"/>
     </row>
     <row r="144" spans="1:154" x14ac:dyDescent="0.2">
       <c r="A144" s="13" t="s">
         <v>0</v>
       </c>
     </row>
+    <row r="145" spans="98:100" x14ac:dyDescent="0.2">
+      <c r="CT145" s="26"/>
+      <c r="CU145" s="26"/>
+      <c r="CV145" s="26"/>
+    </row>
+    <row r="146" spans="98:100" x14ac:dyDescent="0.2">
+      <c r="CT146" s="26"/>
+      <c r="CU146" s="26"/>
+      <c r="CV146" s="26"/>
+    </row>
+    <row r="147" spans="98:100" x14ac:dyDescent="0.2">
+      <c r="CT147" s="26"/>
+      <c r="CU147" s="26"/>
+      <c r="CV147" s="26"/>
+    </row>
+    <row r="148" spans="98:100" x14ac:dyDescent="0.2">
+      <c r="CT148" s="26"/>
+      <c r="CU148" s="26"/>
+      <c r="CV148" s="26"/>
+    </row>
   </sheetData>
   <mergeCells count="147">
-    <mergeCell ref="B134:E134"/>
-    <mergeCell ref="F134:I134"/>
-    <mergeCell ref="J134:M134"/>
-    <mergeCell ref="N134:Q134"/>
-    <mergeCell ref="B92:E92"/>
-    <mergeCell ref="F92:I92"/>
-    <mergeCell ref="J92:M92"/>
-    <mergeCell ref="N92:Q92"/>
-    <mergeCell ref="R92:U92"/>
-    <mergeCell ref="B113:E113"/>
-    <mergeCell ref="F113:I113"/>
-    <mergeCell ref="J113:M113"/>
-    <mergeCell ref="N113:Q113"/>
-    <mergeCell ref="R134:U134"/>
+    <mergeCell ref="CD134:CG134"/>
+    <mergeCell ref="BZ9:CC9"/>
+    <mergeCell ref="BZ30:CC30"/>
+    <mergeCell ref="BZ92:CC92"/>
+    <mergeCell ref="CD9:CG9"/>
+    <mergeCell ref="CD30:CG30"/>
+    <mergeCell ref="BZ51:CC51"/>
+    <mergeCell ref="BZ72:CC72"/>
+    <mergeCell ref="CD113:CG113"/>
+    <mergeCell ref="CD92:CG92"/>
+    <mergeCell ref="CD51:CG51"/>
+    <mergeCell ref="CD72:CG72"/>
+    <mergeCell ref="BJ9:BM9"/>
+    <mergeCell ref="BN9:BQ9"/>
+    <mergeCell ref="BJ72:BM72"/>
+    <mergeCell ref="BN72:BQ72"/>
+    <mergeCell ref="BR92:BU92"/>
+    <mergeCell ref="BV92:BY92"/>
+    <mergeCell ref="BR51:BU51"/>
+    <mergeCell ref="BV51:BY51"/>
+    <mergeCell ref="BR72:BU72"/>
+    <mergeCell ref="BV72:BY72"/>
+    <mergeCell ref="BR9:BU9"/>
+    <mergeCell ref="BV9:BY9"/>
+    <mergeCell ref="BR30:BU30"/>
+    <mergeCell ref="BV30:BY30"/>
+    <mergeCell ref="AL30:AO30"/>
+    <mergeCell ref="BF9:BI9"/>
+    <mergeCell ref="B9:E9"/>
+    <mergeCell ref="F9:I9"/>
+    <mergeCell ref="J9:M9"/>
+    <mergeCell ref="N9:Q9"/>
+    <mergeCell ref="R9:U9"/>
+    <mergeCell ref="BJ30:BM30"/>
+    <mergeCell ref="BN30:BQ30"/>
+    <mergeCell ref="AH9:AK9"/>
+    <mergeCell ref="AP9:AS9"/>
+    <mergeCell ref="AT9:AW9"/>
+    <mergeCell ref="AX9:BA9"/>
+    <mergeCell ref="BB9:BE9"/>
+    <mergeCell ref="AL9:AO9"/>
+    <mergeCell ref="B30:E30"/>
+    <mergeCell ref="F30:I30"/>
+    <mergeCell ref="J30:M30"/>
+    <mergeCell ref="N30:Q30"/>
+    <mergeCell ref="R30:U30"/>
+    <mergeCell ref="V30:Y30"/>
+    <mergeCell ref="Z30:AC30"/>
+    <mergeCell ref="AD30:AG30"/>
+    <mergeCell ref="AH30:AK30"/>
+    <mergeCell ref="B51:E51"/>
+    <mergeCell ref="V9:Y9"/>
+    <mergeCell ref="Z9:AC9"/>
+    <mergeCell ref="AD9:AG9"/>
+    <mergeCell ref="F51:I51"/>
+    <mergeCell ref="J51:M51"/>
+    <mergeCell ref="N51:Q51"/>
+    <mergeCell ref="R51:U51"/>
+    <mergeCell ref="V51:Y51"/>
+    <mergeCell ref="Z51:AC51"/>
+    <mergeCell ref="AD51:AG51"/>
+    <mergeCell ref="AL72:AO72"/>
+    <mergeCell ref="AT72:AW72"/>
+    <mergeCell ref="AX72:BA72"/>
+    <mergeCell ref="BB72:BE72"/>
+    <mergeCell ref="BF30:BI30"/>
+    <mergeCell ref="AH51:AK51"/>
+    <mergeCell ref="B72:E72"/>
+    <mergeCell ref="F72:I72"/>
+    <mergeCell ref="J72:M72"/>
+    <mergeCell ref="N72:Q72"/>
+    <mergeCell ref="R72:U72"/>
+    <mergeCell ref="V72:Y72"/>
+    <mergeCell ref="Z72:AC72"/>
+    <mergeCell ref="AD72:AG72"/>
+    <mergeCell ref="AH72:AK72"/>
+    <mergeCell ref="AL51:AO51"/>
+    <mergeCell ref="AP51:AS51"/>
+    <mergeCell ref="AT51:AW51"/>
+    <mergeCell ref="AX51:BA51"/>
+    <mergeCell ref="AP30:AS30"/>
+    <mergeCell ref="AT30:AW30"/>
+    <mergeCell ref="AX30:BA30"/>
+    <mergeCell ref="BB30:BE30"/>
+    <mergeCell ref="BB51:BE51"/>
+    <mergeCell ref="BV134:BY134"/>
+    <mergeCell ref="BZ134:CC134"/>
+    <mergeCell ref="BR113:BU113"/>
+    <mergeCell ref="BV113:BY113"/>
+    <mergeCell ref="BF134:BI134"/>
+    <mergeCell ref="BJ134:BM134"/>
+    <mergeCell ref="BN134:BQ134"/>
+    <mergeCell ref="BF113:BI113"/>
+    <mergeCell ref="BJ113:BM113"/>
+    <mergeCell ref="BN113:BQ113"/>
+    <mergeCell ref="BR134:BU134"/>
+    <mergeCell ref="BZ113:CC113"/>
+    <mergeCell ref="AP92:AS92"/>
+    <mergeCell ref="AT92:AW92"/>
+    <mergeCell ref="BN51:BQ51"/>
+    <mergeCell ref="AP72:AS72"/>
+    <mergeCell ref="AX92:BA92"/>
+    <mergeCell ref="BB92:BE92"/>
+    <mergeCell ref="BJ92:BM92"/>
+    <mergeCell ref="BJ51:BM51"/>
+    <mergeCell ref="BN92:BQ92"/>
+    <mergeCell ref="BF92:BI92"/>
+    <mergeCell ref="BF72:BI72"/>
+    <mergeCell ref="BF51:BI51"/>
     <mergeCell ref="AD92:AG92"/>
     <mergeCell ref="AH92:AK92"/>
     <mergeCell ref="AP134:AS134"/>
@@ -42757,124 +43048,29 @@
     <mergeCell ref="AT113:AW113"/>
     <mergeCell ref="AX113:BA113"/>
     <mergeCell ref="BB113:BE113"/>
-    <mergeCell ref="AP92:AS92"/>
-    <mergeCell ref="AT92:AW92"/>
-    <mergeCell ref="BN51:BQ51"/>
-    <mergeCell ref="AP72:AS72"/>
-    <mergeCell ref="AX92:BA92"/>
-    <mergeCell ref="BB92:BE92"/>
-    <mergeCell ref="BJ92:BM92"/>
-    <mergeCell ref="BJ51:BM51"/>
-    <mergeCell ref="BN92:BQ92"/>
-    <mergeCell ref="BF92:BI92"/>
-    <mergeCell ref="BF72:BI72"/>
-    <mergeCell ref="BF51:BI51"/>
-    <mergeCell ref="BV134:BY134"/>
-    <mergeCell ref="BZ134:CC134"/>
-    <mergeCell ref="BR113:BU113"/>
-    <mergeCell ref="BV113:BY113"/>
-    <mergeCell ref="BF134:BI134"/>
-    <mergeCell ref="BJ134:BM134"/>
-    <mergeCell ref="BN134:BQ134"/>
-    <mergeCell ref="BF113:BI113"/>
-    <mergeCell ref="BJ113:BM113"/>
-    <mergeCell ref="BN113:BQ113"/>
-    <mergeCell ref="BR134:BU134"/>
-    <mergeCell ref="BZ113:CC113"/>
-    <mergeCell ref="AL72:AO72"/>
-    <mergeCell ref="AT72:AW72"/>
-    <mergeCell ref="AX72:BA72"/>
-    <mergeCell ref="BB72:BE72"/>
-    <mergeCell ref="BF30:BI30"/>
-    <mergeCell ref="AH51:AK51"/>
-    <mergeCell ref="B72:E72"/>
-    <mergeCell ref="F72:I72"/>
-    <mergeCell ref="J72:M72"/>
-    <mergeCell ref="N72:Q72"/>
-    <mergeCell ref="R72:U72"/>
-    <mergeCell ref="V72:Y72"/>
-    <mergeCell ref="Z72:AC72"/>
-    <mergeCell ref="AD72:AG72"/>
-    <mergeCell ref="AH72:AK72"/>
-    <mergeCell ref="AL51:AO51"/>
-    <mergeCell ref="AP51:AS51"/>
-    <mergeCell ref="AT51:AW51"/>
-    <mergeCell ref="AX51:BA51"/>
-    <mergeCell ref="AP30:AS30"/>
-    <mergeCell ref="AT30:AW30"/>
-    <mergeCell ref="AX30:BA30"/>
-    <mergeCell ref="BB30:BE30"/>
-    <mergeCell ref="BB51:BE51"/>
-    <mergeCell ref="B51:E51"/>
-    <mergeCell ref="V9:Y9"/>
-    <mergeCell ref="Z9:AC9"/>
-    <mergeCell ref="AD9:AG9"/>
-    <mergeCell ref="F51:I51"/>
-    <mergeCell ref="J51:M51"/>
-    <mergeCell ref="N51:Q51"/>
-    <mergeCell ref="R51:U51"/>
-    <mergeCell ref="V51:Y51"/>
-    <mergeCell ref="Z51:AC51"/>
-    <mergeCell ref="AD51:AG51"/>
-    <mergeCell ref="AL30:AO30"/>
-    <mergeCell ref="BF9:BI9"/>
-    <mergeCell ref="B9:E9"/>
-    <mergeCell ref="F9:I9"/>
-    <mergeCell ref="J9:M9"/>
-    <mergeCell ref="N9:Q9"/>
-    <mergeCell ref="R9:U9"/>
-    <mergeCell ref="BJ30:BM30"/>
-    <mergeCell ref="BN30:BQ30"/>
-    <mergeCell ref="AH9:AK9"/>
-    <mergeCell ref="AP9:AS9"/>
-    <mergeCell ref="AT9:AW9"/>
-    <mergeCell ref="AX9:BA9"/>
-    <mergeCell ref="BB9:BE9"/>
-    <mergeCell ref="AL9:AO9"/>
-    <mergeCell ref="B30:E30"/>
-    <mergeCell ref="F30:I30"/>
-    <mergeCell ref="J30:M30"/>
-    <mergeCell ref="N30:Q30"/>
-    <mergeCell ref="R30:U30"/>
-    <mergeCell ref="V30:Y30"/>
-    <mergeCell ref="Z30:AC30"/>
-    <mergeCell ref="AD30:AG30"/>
-    <mergeCell ref="AH30:AK30"/>
-    <mergeCell ref="BJ9:BM9"/>
-    <mergeCell ref="BN9:BQ9"/>
-    <mergeCell ref="BJ72:BM72"/>
-    <mergeCell ref="BN72:BQ72"/>
-    <mergeCell ref="BR92:BU92"/>
-    <mergeCell ref="BV92:BY92"/>
-    <mergeCell ref="BR51:BU51"/>
-    <mergeCell ref="BV51:BY51"/>
-    <mergeCell ref="BR72:BU72"/>
-    <mergeCell ref="BV72:BY72"/>
-    <mergeCell ref="BR9:BU9"/>
-    <mergeCell ref="BV9:BY9"/>
-    <mergeCell ref="BR30:BU30"/>
-    <mergeCell ref="BV30:BY30"/>
-    <mergeCell ref="CD134:CG134"/>
-    <mergeCell ref="BZ9:CC9"/>
-    <mergeCell ref="BZ30:CC30"/>
-    <mergeCell ref="BZ92:CC92"/>
-    <mergeCell ref="CD9:CG9"/>
-    <mergeCell ref="CD30:CG30"/>
-    <mergeCell ref="BZ51:CC51"/>
-    <mergeCell ref="BZ72:CC72"/>
-    <mergeCell ref="CD113:CG113"/>
-    <mergeCell ref="CD92:CG92"/>
-    <mergeCell ref="CD51:CG51"/>
-    <mergeCell ref="CD72:CG72"/>
+    <mergeCell ref="B134:E134"/>
+    <mergeCell ref="F134:I134"/>
+    <mergeCell ref="J134:M134"/>
+    <mergeCell ref="N134:Q134"/>
+    <mergeCell ref="B92:E92"/>
+    <mergeCell ref="F92:I92"/>
+    <mergeCell ref="J92:M92"/>
+    <mergeCell ref="N92:Q92"/>
+    <mergeCell ref="R92:U92"/>
+    <mergeCell ref="B113:E113"/>
+    <mergeCell ref="F113:I113"/>
+    <mergeCell ref="J113:M113"/>
+    <mergeCell ref="N113:Q113"/>
+    <mergeCell ref="R134:U134"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.5" right="0.3" top="1" bottom="0.16700000000000001" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" scale="31" orientation="landscape" r:id="rId1"/>
   <headerFooter alignWithMargins="0"/>
   <rowBreaks count="3" manualBreakCount="3">
-    <brk id="42" max="99" man="1"/>
-    <brk id="84" max="99" man="1"/>
-    <brk id="104" max="99" man="1"/>
+    <brk id="42" max="100" man="1"/>
+    <brk id="84" max="100" man="1"/>
+    <brk id="104" max="100" man="1"/>
   </rowBreaks>
 </worksheet>
 </file>
--- a/Data/National Accounts/PSA-17FIA_2018PSNA_Qrt.xlsx
+++ b/Data/National Accounts/PSA-17FIA_2018PSNA_Qrt.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28324"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28730"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="K:\Other computers\My Laptop (1)\6. MAS_Series\2018-base\NAP\NAP detailed series as of January 2025\Qtr\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="K:\Other computers\My Laptop (1)\6. MAS_Series\2018-base\NAP\NAP detailed series as of May 2025\Qtr\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C09D9866-206B-42DC-A602-C4B7E2D86BE9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{34C124EE-DD69-4401-B2D8-BDA4CB67C718}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -323,7 +323,7 @@
     <definedName name="pet">#REF!</definedName>
     <definedName name="plastic">#REF!</definedName>
     <definedName name="ply">#REF!</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">FIA!$A$1:$CW$146</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">FIA!$A$1:$CX$146</definedName>
     <definedName name="_xlnm.Print_Area">#REF!</definedName>
     <definedName name="PRINT_AREA_MI">#REF!</definedName>
     <definedName name="Print_Titles_MI">'[9]CAP93+'!$A$1:$IV$1,'[9]CAP93+'!$A$1:$A$65536</definedName>
@@ -468,7 +468,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="830" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="839" uniqueCount="56">
   <si>
     <t>Source: Philippine Statistics Authority</t>
   </si>
@@ -627,13 +627,16 @@
     <t>2023 - 2024</t>
   </si>
   <si>
-    <t>Q1 2000 to Q4 2024</t>
+    <t>2024 - 2025</t>
   </si>
   <si>
-    <t>Q1 2001 to Q4 2024</t>
+    <t>Q1 2000 to Q1 2025</t>
   </si>
   <si>
-    <t>As of January 2025</t>
+    <t>Q1 2001 to Q1 2025</t>
+  </si>
+  <si>
+    <t>As of May 2025</t>
   </si>
 </sst>
 </file>
@@ -23627,19 +23630,19 @@
   <sheetPr transitionEvaluation="1">
     <pageSetUpPr autoPageBreaks="0"/>
   </sheetPr>
-  <dimension ref="A1:EX148"/>
+  <dimension ref="A1:EX149"/>
   <sheetViews>
     <sheetView tabSelected="1" defaultGridColor="0" view="pageBreakPreview" colorId="22" zoomScale="70" zoomScaleNormal="100" zoomScaleSheetLayoutView="70" workbookViewId="0">
       <pane xSplit="1" topLeftCell="CH1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight"/>
+      <selection pane="topRight" activeCell="CX1" sqref="CX1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="7.77734375" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="38.33203125" style="1" customWidth="1"/>
-    <col min="2" max="93" width="8.88671875" style="1" customWidth="1"/>
-    <col min="94" max="101" width="10.109375" style="17" customWidth="1"/>
-    <col min="102" max="16384" width="7.77734375" style="1"/>
+    <col min="2" max="89" width="8.88671875" style="1" customWidth="1"/>
+    <col min="90" max="102" width="10.109375" style="17" customWidth="1"/>
+    <col min="103" max="16384" width="7.77734375" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:154" x14ac:dyDescent="0.2">
@@ -23654,7 +23657,7 @@
     </row>
     <row r="3" spans="1:154" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="5" spans="1:154" x14ac:dyDescent="0.2">
@@ -23664,7 +23667,7 @@
     </row>
     <row r="6" spans="1:154" x14ac:dyDescent="0.2">
       <c r="A6" s="3" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
     </row>
     <row r="7" spans="1:154" x14ac:dyDescent="0.2">
@@ -23806,12 +23809,12 @@
       <c r="CI9" s="15"/>
       <c r="CJ9" s="15"/>
       <c r="CK9" s="15"/>
-      <c r="CL9" s="15">
+      <c r="CL9" s="18">
         <v>2022</v>
       </c>
-      <c r="CM9" s="15"/>
-      <c r="CN9" s="15"/>
-      <c r="CO9" s="15"/>
+      <c r="CM9" s="18"/>
+      <c r="CN9" s="18"/>
+      <c r="CO9" s="18"/>
       <c r="CP9" s="18">
         <v>2023</v>
       </c>
@@ -23824,6 +23827,9 @@
       <c r="CU9" s="18"/>
       <c r="CV9" s="18"/>
       <c r="CW9" s="18"/>
+      <c r="CX9" s="18">
+        <v>2025</v>
+      </c>
     </row>
     <row r="10" spans="1:154" x14ac:dyDescent="0.2">
       <c r="A10" s="5" t="s">
@@ -24093,16 +24099,16 @@
       <c r="CK10" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="CL10" s="6" t="s">
+      <c r="CL10" s="19" t="s">
         <v>7</v>
       </c>
-      <c r="CM10" s="6" t="s">
+      <c r="CM10" s="19" t="s">
         <v>8</v>
       </c>
-      <c r="CN10" s="6" t="s">
+      <c r="CN10" s="19" t="s">
         <v>10</v>
       </c>
-      <c r="CO10" s="6" t="s">
+      <c r="CO10" s="19" t="s">
         <v>9</v>
       </c>
       <c r="CP10" s="19" t="s">
@@ -24128,6 +24134,9 @@
       </c>
       <c r="CW10" s="19" t="s">
         <v>9</v>
+      </c>
+      <c r="CX10" s="19" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="11" spans="1:154" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
@@ -24401,16 +24410,16 @@
       <c r="CK12" s="8">
         <v>233481.04600295049</v>
       </c>
-      <c r="CL12" s="8">
+      <c r="CL12" s="20">
         <v>318574.38103409222</v>
       </c>
-      <c r="CM12" s="8">
+      <c r="CM12" s="20">
         <v>264391.10608101345</v>
       </c>
-      <c r="CN12" s="8">
+      <c r="CN12" s="20">
         <v>298113.04574478342</v>
       </c>
-      <c r="CO12" s="8">
+      <c r="CO12" s="20">
         <v>275564.62875239633</v>
       </c>
       <c r="CP12" s="20">
@@ -24423,21 +24432,23 @@
         <v>349134.63674071158</v>
       </c>
       <c r="CS12" s="20">
-        <v>331722.06319216389</v>
+        <v>330994.26852740324</v>
       </c>
       <c r="CT12" s="20">
-        <v>451046.20043298067</v>
+        <v>450866.9172546757</v>
       </c>
       <c r="CU12" s="20">
-        <v>352420.4749831091</v>
+        <v>352343.48731179512</v>
       </c>
       <c r="CV12" s="20">
-        <v>391128.58610495168</v>
+        <v>391049.66500519175</v>
       </c>
       <c r="CW12" s="20">
-        <v>367903.57137464127</v>
-      </c>
-      <c r="CX12" s="9"/>
+        <v>362255.94604121963</v>
+      </c>
+      <c r="CX12" s="20">
+        <v>484509.03474617092</v>
+      </c>
       <c r="CY12" s="9"/>
       <c r="CZ12" s="9"/>
       <c r="DA12" s="9"/>
@@ -24759,16 +24770,16 @@
       <c r="CK13" s="8">
         <v>155811.39245117077</v>
       </c>
-      <c r="CL13" s="8">
+      <c r="CL13" s="20">
         <v>136247.22376600408</v>
       </c>
-      <c r="CM13" s="8">
+      <c r="CM13" s="20">
         <v>207005.75929438748</v>
       </c>
-      <c r="CN13" s="8">
+      <c r="CN13" s="20">
         <v>143647.08803502942</v>
       </c>
-      <c r="CO13" s="8">
+      <c r="CO13" s="20">
         <v>184278.69283022679</v>
       </c>
       <c r="CP13" s="20">
@@ -24781,21 +24792,23 @@
         <v>163300.04934751446</v>
       </c>
       <c r="CS13" s="20">
-        <v>213986.14211341884</v>
+        <v>214817.04101258735</v>
       </c>
       <c r="CT13" s="20">
-        <v>169321.5826101728</v>
+        <v>169335.07445020467</v>
       </c>
       <c r="CU13" s="20">
-        <v>243120.0328878416</v>
+        <v>242973.97616764033</v>
       </c>
       <c r="CV13" s="20">
-        <v>186065.9801665493</v>
+        <v>186576.95161608633</v>
       </c>
       <c r="CW13" s="20">
-        <v>238299.37297655005</v>
-      </c>
-      <c r="CX13" s="9"/>
+        <v>243570.86094178318</v>
+      </c>
+      <c r="CX13" s="20">
+        <v>191147.98938104283</v>
+      </c>
       <c r="CY13" s="9"/>
       <c r="CZ13" s="9"/>
       <c r="DA13" s="9"/>
@@ -25117,16 +25130,16 @@
       <c r="CK14" s="8">
         <v>70483.837565827969</v>
       </c>
-      <c r="CL14" s="8">
+      <c r="CL14" s="20">
         <v>70361.679415115359</v>
       </c>
-      <c r="CM14" s="8">
+      <c r="CM14" s="20">
         <v>63716.570138835465</v>
       </c>
-      <c r="CN14" s="8">
+      <c r="CN14" s="20">
         <v>69753.960082430189</v>
       </c>
-      <c r="CO14" s="8">
+      <c r="CO14" s="20">
         <v>80551.445428125138</v>
       </c>
       <c r="CP14" s="20">
@@ -25139,21 +25152,23 @@
         <v>75134.15180565769</v>
       </c>
       <c r="CS14" s="20">
-        <v>88063.410736099468</v>
+        <v>87449.216667266883</v>
       </c>
       <c r="CT14" s="20">
         <v>81508.117938780575</v>
       </c>
       <c r="CU14" s="20">
-        <v>77586.764142358952</v>
+        <v>77622.661439921125</v>
       </c>
       <c r="CV14" s="20">
-        <v>81924.052545273575</v>
+        <v>81702.166942802578</v>
       </c>
       <c r="CW14" s="20">
-        <v>97885.422389005238</v>
-      </c>
-      <c r="CX14" s="9"/>
+        <v>96659.135263414457</v>
+      </c>
+      <c r="CX14" s="20">
+        <v>91763.2542874832</v>
+      </c>
       <c r="CY14" s="9"/>
       <c r="CZ14" s="9"/>
       <c r="DA14" s="9"/>
@@ -25475,16 +25490,16 @@
       <c r="CK15" s="8">
         <v>26528.0211832399</v>
       </c>
-      <c r="CL15" s="8">
+      <c r="CL15" s="20">
         <v>26589.057610939351</v>
       </c>
-      <c r="CM15" s="8">
+      <c r="CM15" s="20">
         <v>30193.635166786604</v>
       </c>
-      <c r="CN15" s="8">
+      <c r="CN15" s="20">
         <v>25543.489150454676</v>
       </c>
-      <c r="CO15" s="8">
+      <c r="CO15" s="20">
         <v>30143.020561465681</v>
       </c>
       <c r="CP15" s="20">
@@ -25497,21 +25512,23 @@
         <v>28998.523698360281</v>
       </c>
       <c r="CS15" s="20">
-        <v>35789.625839727043</v>
+        <v>35985.524660763855</v>
       </c>
       <c r="CT15" s="20">
-        <v>34529.503307220446</v>
+        <v>34659.700782540924</v>
       </c>
       <c r="CU15" s="20">
-        <v>40311.750186961661</v>
+        <v>40359.630011840367</v>
       </c>
       <c r="CV15" s="20">
-        <v>33888.752666457891</v>
+        <v>33816.517383106911</v>
       </c>
       <c r="CW15" s="20">
-        <v>42151.311127549743</v>
-      </c>
-      <c r="CX15" s="9"/>
+        <v>41979.682921837324</v>
+      </c>
+      <c r="CX15" s="20">
+        <v>39979.189218202664</v>
+      </c>
       <c r="CY15" s="9"/>
       <c r="CZ15" s="9"/>
       <c r="DA15" s="9"/>
@@ -25654,10 +25671,10 @@
       <c r="CI16" s="9"/>
       <c r="CJ16" s="9"/>
       <c r="CK16" s="9"/>
-      <c r="CL16" s="9"/>
-      <c r="CM16" s="9"/>
-      <c r="CN16" s="9"/>
-      <c r="CO16" s="9"/>
+      <c r="CL16" s="21"/>
+      <c r="CM16" s="21"/>
+      <c r="CN16" s="21"/>
+      <c r="CO16" s="21"/>
       <c r="CP16" s="21"/>
       <c r="CQ16" s="21"/>
       <c r="CR16" s="21"/>
@@ -25666,7 +25683,7 @@
       <c r="CU16" s="21"/>
       <c r="CV16" s="21"/>
       <c r="CW16" s="21"/>
-      <c r="CX16" s="9"/>
+      <c r="CX16" s="21"/>
       <c r="CY16" s="9"/>
       <c r="CZ16" s="9"/>
       <c r="DA16" s="9"/>
@@ -25988,16 +26005,16 @@
       <c r="CK17" s="11">
         <v>486304.29720318911</v>
       </c>
-      <c r="CL17" s="11">
+      <c r="CL17" s="22">
         <v>551772.34182615101</v>
       </c>
-      <c r="CM17" s="11">
+      <c r="CM17" s="22">
         <v>565307.07068102295</v>
       </c>
-      <c r="CN17" s="11">
+      <c r="CN17" s="22">
         <v>537057.58301269764</v>
       </c>
-      <c r="CO17" s="11">
+      <c r="CO17" s="22">
         <v>570537.78757221391</v>
       </c>
       <c r="CP17" s="22">
@@ -26010,21 +26027,23 @@
         <v>616567.36159224401</v>
       </c>
       <c r="CS17" s="22">
-        <v>669561.24188140919</v>
+        <v>669246.05086802132</v>
       </c>
       <c r="CT17" s="22">
-        <v>736405.40428915445</v>
+        <v>736369.8104262019</v>
       </c>
       <c r="CU17" s="22">
-        <v>713439.02220027125</v>
+        <v>713299.75493119692</v>
       </c>
       <c r="CV17" s="22">
-        <v>693007.37148323248</v>
+        <v>693145.30094718758</v>
       </c>
       <c r="CW17" s="22">
-        <v>746239.67786774621</v>
-      </c>
-      <c r="CX17" s="9"/>
+        <v>744465.6251682546</v>
+      </c>
+      <c r="CX17" s="22">
+        <v>807399.46763289953</v>
+      </c>
       <c r="CY17" s="9"/>
       <c r="CZ17" s="9"/>
       <c r="DA17" s="9"/>
@@ -26168,10 +26187,10 @@
       <c r="CI18" s="12"/>
       <c r="CJ18" s="12"/>
       <c r="CK18" s="12"/>
-      <c r="CL18" s="12"/>
-      <c r="CM18" s="12"/>
-      <c r="CN18" s="12"/>
-      <c r="CO18" s="12"/>
+      <c r="CL18" s="23"/>
+      <c r="CM18" s="23"/>
+      <c r="CN18" s="23"/>
+      <c r="CO18" s="23"/>
       <c r="CP18" s="23"/>
       <c r="CQ18" s="23"/>
       <c r="CR18" s="23"/>
@@ -26180,6 +26199,7 @@
       <c r="CU18" s="23"/>
       <c r="CV18" s="23"/>
       <c r="CW18" s="23"/>
+      <c r="CX18" s="23"/>
     </row>
     <row r="19" spans="1:154" x14ac:dyDescent="0.2">
       <c r="A19" s="13" t="s">
@@ -26275,10 +26295,10 @@
       <c r="CI20" s="9"/>
       <c r="CJ20" s="9"/>
       <c r="CK20" s="9"/>
-      <c r="CL20" s="9"/>
-      <c r="CM20" s="9"/>
-      <c r="CN20" s="9"/>
-      <c r="CO20" s="9"/>
+      <c r="CL20" s="21"/>
+      <c r="CM20" s="21"/>
+      <c r="CN20" s="21"/>
+      <c r="CO20" s="21"/>
       <c r="CP20" s="21"/>
       <c r="CQ20" s="21"/>
       <c r="CR20" s="21"/>
@@ -26287,7 +26307,7 @@
       <c r="CU20" s="21"/>
       <c r="CV20" s="21"/>
       <c r="CW20" s="21"/>
-      <c r="CX20" s="9"/>
+      <c r="CX20" s="21"/>
       <c r="CY20" s="9"/>
       <c r="CZ20" s="9"/>
       <c r="DA20" s="9"/>
@@ -26430,10 +26450,10 @@
       <c r="CI21" s="9"/>
       <c r="CJ21" s="9"/>
       <c r="CK21" s="9"/>
-      <c r="CL21" s="9"/>
-      <c r="CM21" s="9"/>
-      <c r="CN21" s="9"/>
-      <c r="CO21" s="9"/>
+      <c r="CL21" s="21"/>
+      <c r="CM21" s="21"/>
+      <c r="CN21" s="21"/>
+      <c r="CO21" s="21"/>
       <c r="CP21" s="21"/>
       <c r="CQ21" s="21"/>
       <c r="CR21" s="21"/>
@@ -26442,7 +26462,7 @@
       <c r="CU21" s="21"/>
       <c r="CV21" s="21"/>
       <c r="CW21" s="21"/>
-      <c r="CX21" s="9"/>
+      <c r="CX21" s="21"/>
       <c r="CY21" s="9"/>
       <c r="CZ21" s="9"/>
       <c r="DA21" s="9"/>
@@ -26508,7 +26528,7 @@
     </row>
     <row r="24" spans="1:154" x14ac:dyDescent="0.2">
       <c r="A24" s="1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="26" spans="1:154" x14ac:dyDescent="0.2">
@@ -26518,7 +26538,7 @@
     </row>
     <row r="27" spans="1:154" x14ac:dyDescent="0.2">
       <c r="A27" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
     </row>
     <row r="28" spans="1:154" x14ac:dyDescent="0.2">
@@ -26660,12 +26680,12 @@
       <c r="CI30" s="15"/>
       <c r="CJ30" s="15"/>
       <c r="CK30" s="15"/>
-      <c r="CL30" s="15">
+      <c r="CL30" s="18">
         <v>2022</v>
       </c>
-      <c r="CM30" s="15"/>
-      <c r="CN30" s="15"/>
-      <c r="CO30" s="15"/>
+      <c r="CM30" s="18"/>
+      <c r="CN30" s="18"/>
+      <c r="CO30" s="18"/>
       <c r="CP30" s="18">
         <v>2023</v>
       </c>
@@ -26678,6 +26698,9 @@
       <c r="CU30" s="18"/>
       <c r="CV30" s="18"/>
       <c r="CW30" s="18"/>
+      <c r="CX30" s="18">
+        <v>2025</v>
+      </c>
     </row>
     <row r="31" spans="1:154" x14ac:dyDescent="0.2">
       <c r="A31" s="5" t="s">
@@ -26947,16 +26970,16 @@
       <c r="CK31" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="CL31" s="6" t="s">
+      <c r="CL31" s="19" t="s">
         <v>7</v>
       </c>
-      <c r="CM31" s="6" t="s">
+      <c r="CM31" s="19" t="s">
         <v>8</v>
       </c>
-      <c r="CN31" s="6" t="s">
+      <c r="CN31" s="19" t="s">
         <v>10</v>
       </c>
-      <c r="CO31" s="6" t="s">
+      <c r="CO31" s="19" t="s">
         <v>9</v>
       </c>
       <c r="CP31" s="19" t="s">
@@ -26982,6 +27005,9 @@
       </c>
       <c r="CW31" s="19" t="s">
         <v>9</v>
+      </c>
+      <c r="CX31" s="19" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="32" spans="1:154" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
@@ -27255,16 +27281,16 @@
       <c r="CK33" s="8">
         <v>218514.55609870315</v>
       </c>
-      <c r="CL33" s="8">
+      <c r="CL33" s="20">
         <v>291474.76826139248</v>
       </c>
-      <c r="CM33" s="8">
+      <c r="CM33" s="20">
         <v>234633.20373768959</v>
       </c>
-      <c r="CN33" s="8">
+      <c r="CN33" s="20">
         <v>264938.66792331031</v>
       </c>
-      <c r="CO33" s="8">
+      <c r="CO33" s="20">
         <v>239989.20870848323</v>
       </c>
       <c r="CP33" s="20">
@@ -27277,21 +27303,23 @@
         <v>295986.37316272699</v>
       </c>
       <c r="CS33" s="20">
-        <v>275893.21630948811</v>
+        <v>275287.90953868889</v>
       </c>
       <c r="CT33" s="20">
-        <v>366096.30999606603</v>
+        <v>365950.79295156186</v>
       </c>
       <c r="CU33" s="20">
-        <v>282088.2595735339</v>
+        <v>282026.63625777559</v>
       </c>
       <c r="CV33" s="20">
-        <v>321870.61552372755</v>
+        <v>321805.66915094905</v>
       </c>
       <c r="CW33" s="20">
-        <v>297883.96015507297</v>
-      </c>
-      <c r="CX33" s="9"/>
+        <v>293302.25083285681</v>
+      </c>
+      <c r="CX33" s="20">
+        <v>384324.47881005332</v>
+      </c>
       <c r="CY33" s="9"/>
       <c r="CZ33" s="9"/>
       <c r="DA33" s="9"/>
@@ -27613,16 +27641,16 @@
       <c r="CK34" s="8">
         <v>146049.75313387654</v>
       </c>
-      <c r="CL34" s="8">
+      <c r="CL34" s="20">
         <v>123209.25323782492</v>
       </c>
-      <c r="CM34" s="8">
+      <c r="CM34" s="20">
         <v>186244.19874780902</v>
       </c>
-      <c r="CN34" s="8">
+      <c r="CN34" s="20">
         <v>128897.23668924074</v>
       </c>
-      <c r="CO34" s="8">
+      <c r="CO34" s="20">
         <v>161572.55437556474</v>
       </c>
       <c r="CP34" s="20">
@@ -27635,21 +27663,23 @@
         <v>140383.4153113513</v>
       </c>
       <c r="CS34" s="20">
-        <v>179440.9967652552</v>
+        <v>180137.75836488689</v>
       </c>
       <c r="CT34" s="20">
-        <v>139140.98397254414</v>
+        <v>139152.07096965751</v>
       </c>
       <c r="CU34" s="20">
-        <v>197195.60044107857</v>
+        <v>197077.13496332135</v>
       </c>
       <c r="CV34" s="20">
-        <v>155292.55209557325</v>
+        <v>155719.01404404742</v>
       </c>
       <c r="CW34" s="20">
-        <v>194533.43595822237</v>
-      </c>
-      <c r="CX34" s="9"/>
+        <v>198833.74494715154</v>
+      </c>
+      <c r="CX34" s="20">
+        <v>153533.17765994102</v>
+      </c>
       <c r="CY34" s="9"/>
       <c r="CZ34" s="9"/>
       <c r="DA34" s="9"/>
@@ -27971,16 +28001,16 @@
       <c r="CK35" s="8">
         <v>67364.770689014418</v>
       </c>
-      <c r="CL35" s="8">
+      <c r="CL35" s="20">
         <v>62584.435866748536</v>
       </c>
-      <c r="CM35" s="8">
+      <c r="CM35" s="20">
         <v>58836.959106982948</v>
       </c>
-      <c r="CN35" s="8">
+      <c r="CN35" s="20">
         <v>63566.492428753787</v>
       </c>
-      <c r="CO35" s="8">
+      <c r="CO35" s="20">
         <v>71695.230501744707</v>
       </c>
       <c r="CP35" s="20">
@@ -27993,21 +28023,23 @@
         <v>65327.200334506575</v>
       </c>
       <c r="CS35" s="20">
-        <v>74768.170290151655</v>
+        <v>74246.703243329102</v>
       </c>
       <c r="CT35" s="20">
         <v>65192.800780569931</v>
       </c>
       <c r="CU35" s="20">
-        <v>64467.346905178536</v>
+        <v>64497.174203178147</v>
       </c>
       <c r="CV35" s="20">
-        <v>69109.52374073668</v>
+        <v>68922.345398903271</v>
       </c>
       <c r="CW35" s="20">
-        <v>80873.222763630605</v>
-      </c>
-      <c r="CX35" s="9"/>
+        <v>79856.716755934816</v>
+      </c>
+      <c r="CX35" s="20">
+        <v>71721.907915695745</v>
+      </c>
       <c r="CY35" s="9"/>
       <c r="CZ35" s="9"/>
       <c r="DA35" s="9"/>
@@ -28329,16 +28361,16 @@
       <c r="CK36" s="8">
         <v>24760.097225445876</v>
       </c>
-      <c r="CL36" s="8">
+      <c r="CL36" s="20">
         <v>23764.571646225009</v>
       </c>
-      <c r="CM36" s="8">
+      <c r="CM36" s="20">
         <v>26661.075735828541</v>
       </c>
-      <c r="CN36" s="8">
+      <c r="CN36" s="20">
         <v>22586.18540190734</v>
       </c>
-      <c r="CO36" s="8">
+      <c r="CO36" s="20">
         <v>26353.482521804937</v>
       </c>
       <c r="CP36" s="20">
@@ -28351,21 +28383,23 @@
         <v>24593.528173745464</v>
       </c>
       <c r="CS36" s="20">
-        <v>29664.522018732285</v>
+        <v>29826.894347409696</v>
       </c>
       <c r="CT36" s="20">
-        <v>27962.346999488997</v>
+        <v>28067.684471015098</v>
       </c>
       <c r="CU36" s="20">
-        <v>31635.043153990904</v>
+        <v>31672.61610750838</v>
       </c>
       <c r="CV36" s="20">
-        <v>27791.651253751152</v>
+        <v>27732.412195209676</v>
       </c>
       <c r="CW36" s="20">
-        <v>33918.676442173259</v>
-      </c>
-      <c r="CX36" s="9"/>
+        <v>33779.292157946096</v>
+      </c>
+      <c r="CX36" s="20">
+        <v>31610.553308211383</v>
+      </c>
       <c r="CY36" s="9"/>
       <c r="CZ36" s="9"/>
       <c r="DA36" s="9"/>
@@ -28508,10 +28542,10 @@
       <c r="CI37" s="9"/>
       <c r="CJ37" s="9"/>
       <c r="CK37" s="9"/>
-      <c r="CL37" s="9"/>
-      <c r="CM37" s="9"/>
-      <c r="CN37" s="9"/>
-      <c r="CO37" s="9"/>
+      <c r="CL37" s="21"/>
+      <c r="CM37" s="21"/>
+      <c r="CN37" s="21"/>
+      <c r="CO37" s="21"/>
       <c r="CP37" s="21"/>
       <c r="CQ37" s="21"/>
       <c r="CR37" s="21"/>
@@ -28520,7 +28554,7 @@
       <c r="CU37" s="21"/>
       <c r="CV37" s="21"/>
       <c r="CW37" s="21"/>
-      <c r="CX37" s="9"/>
+      <c r="CX37" s="21"/>
       <c r="CY37" s="9"/>
       <c r="CZ37" s="9"/>
       <c r="DA37" s="9"/>
@@ -28842,16 +28876,16 @@
       <c r="CK38" s="11">
         <v>456689.17714703991</v>
       </c>
-      <c r="CL38" s="11">
+      <c r="CL38" s="22">
         <v>501033.02901219093</v>
       </c>
-      <c r="CM38" s="11">
+      <c r="CM38" s="22">
         <v>506375.43732831004</v>
       </c>
-      <c r="CN38" s="11">
+      <c r="CN38" s="22">
         <v>479988.58244321222</v>
       </c>
-      <c r="CO38" s="11">
+      <c r="CO38" s="22">
         <v>499610.47610759758</v>
       </c>
       <c r="CP38" s="22">
@@ -28864,21 +28898,23 @@
         <v>526290.51698233036</v>
       </c>
       <c r="CS38" s="22">
-        <v>559766.90538362716</v>
+        <v>559499.2654943146</v>
       </c>
       <c r="CT38" s="22">
-        <v>598392.44174866914</v>
+        <v>598363.34917280439</v>
       </c>
       <c r="CU38" s="22">
-        <v>575386.25007378182</v>
+        <v>575273.56153178355</v>
       </c>
       <c r="CV38" s="22">
-        <v>574064.34261378855</v>
+        <v>574179.44078910933</v>
       </c>
       <c r="CW38" s="22">
-        <v>607209.29531909921</v>
-      </c>
-      <c r="CX38" s="9"/>
+        <v>605772.00469388929</v>
+      </c>
+      <c r="CX38" s="22">
+        <v>641190.11769390141</v>
+      </c>
       <c r="CY38" s="9"/>
       <c r="CZ38" s="9"/>
       <c r="DA38" s="9"/>
@@ -29022,10 +29058,10 @@
       <c r="CI39" s="12"/>
       <c r="CJ39" s="12"/>
       <c r="CK39" s="12"/>
-      <c r="CL39" s="12"/>
-      <c r="CM39" s="12"/>
-      <c r="CN39" s="12"/>
-      <c r="CO39" s="12"/>
+      <c r="CL39" s="23"/>
+      <c r="CM39" s="23"/>
+      <c r="CN39" s="23"/>
+      <c r="CO39" s="23"/>
       <c r="CP39" s="23"/>
       <c r="CQ39" s="23"/>
       <c r="CR39" s="23"/>
@@ -29034,6 +29070,7 @@
       <c r="CU39" s="23"/>
       <c r="CV39" s="23"/>
       <c r="CW39" s="23"/>
+      <c r="CX39" s="23"/>
     </row>
     <row r="40" spans="1:154" x14ac:dyDescent="0.2">
       <c r="A40" s="13" t="s">
@@ -29129,10 +29166,10 @@
       <c r="CI41" s="9"/>
       <c r="CJ41" s="9"/>
       <c r="CK41" s="9"/>
-      <c r="CL41" s="9"/>
-      <c r="CM41" s="9"/>
-      <c r="CN41" s="9"/>
-      <c r="CO41" s="9"/>
+      <c r="CL41" s="21"/>
+      <c r="CM41" s="21"/>
+      <c r="CN41" s="21"/>
+      <c r="CO41" s="21"/>
       <c r="CP41" s="21"/>
       <c r="CQ41" s="21"/>
       <c r="CR41" s="21"/>
@@ -29141,7 +29178,7 @@
       <c r="CU41" s="21"/>
       <c r="CV41" s="21"/>
       <c r="CW41" s="21"/>
-      <c r="CX41" s="9"/>
+      <c r="CX41" s="21"/>
       <c r="CY41" s="9"/>
       <c r="CZ41" s="9"/>
       <c r="DA41" s="9"/>
@@ -29284,10 +29321,10 @@
       <c r="CI42" s="9"/>
       <c r="CJ42" s="9"/>
       <c r="CK42" s="9"/>
-      <c r="CL42" s="9"/>
-      <c r="CM42" s="9"/>
-      <c r="CN42" s="9"/>
-      <c r="CO42" s="9"/>
+      <c r="CL42" s="21"/>
+      <c r="CM42" s="21"/>
+      <c r="CN42" s="21"/>
+      <c r="CO42" s="21"/>
       <c r="CP42" s="21"/>
       <c r="CQ42" s="21"/>
       <c r="CR42" s="21"/>
@@ -29296,7 +29333,7 @@
       <c r="CU42" s="21"/>
       <c r="CV42" s="21"/>
       <c r="CW42" s="21"/>
-      <c r="CX42" s="9"/>
+      <c r="CX42" s="21"/>
       <c r="CY42" s="9"/>
       <c r="CZ42" s="9"/>
       <c r="DA42" s="9"/>
@@ -29362,13 +29399,14 @@
     </row>
     <row r="45" spans="1:154" x14ac:dyDescent="0.2">
       <c r="A45" s="1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="46" spans="1:154" x14ac:dyDescent="0.2">
       <c r="CT46" s="26"/>
       <c r="CU46" s="26"/>
       <c r="CV46" s="26"/>
+      <c r="CX46" s="26"/>
     </row>
     <row r="47" spans="1:154" x14ac:dyDescent="0.2">
       <c r="A47" s="1" t="s">
@@ -29377,14 +29415,16 @@
       <c r="CT47" s="26"/>
       <c r="CU47" s="26"/>
       <c r="CV47" s="26"/>
+      <c r="CX47" s="26"/>
     </row>
     <row r="48" spans="1:154" x14ac:dyDescent="0.2">
       <c r="A48" s="3" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="CT48" s="26"/>
       <c r="CU48" s="26"/>
       <c r="CV48" s="26"/>
+      <c r="CX48" s="26"/>
     </row>
     <row r="49" spans="1:150" x14ac:dyDescent="0.2">
       <c r="A49" s="1" t="s">
@@ -29393,11 +29433,12 @@
       <c r="CT49" s="26"/>
       <c r="CU49" s="26"/>
       <c r="CV49" s="26"/>
+      <c r="CX49" s="26"/>
     </row>
     <row r="50" spans="1:150" x14ac:dyDescent="0.2">
-      <c r="CT50" s="26"/>
       <c r="CU50" s="26"/>
       <c r="CV50" s="26"/>
+      <c r="CX50" s="26"/>
     </row>
     <row r="51" spans="1:150" x14ac:dyDescent="0.2">
       <c r="A51" s="4"/>
@@ -29533,22 +29574,25 @@
       <c r="CI51" s="15"/>
       <c r="CJ51" s="15"/>
       <c r="CK51" s="15"/>
-      <c r="CL51" s="15" t="s">
+      <c r="CL51" s="18" t="s">
         <v>50</v>
       </c>
-      <c r="CM51" s="15"/>
-      <c r="CN51" s="15"/>
-      <c r="CO51" s="15"/>
+      <c r="CM51" s="18"/>
+      <c r="CN51" s="18"/>
+      <c r="CO51" s="18"/>
       <c r="CP51" s="18" t="s">
         <v>51</v>
       </c>
       <c r="CQ51" s="18"/>
       <c r="CR51" s="18"/>
       <c r="CS51" s="18"/>
-      <c r="CT51" s="16"/>
+      <c r="CT51" s="18" t="s">
+        <v>52</v>
+      </c>
       <c r="CU51" s="16"/>
       <c r="CV51" s="16"/>
       <c r="CW51" s="16"/>
+      <c r="CX51" s="16"/>
     </row>
     <row r="52" spans="1:150" x14ac:dyDescent="0.2">
       <c r="A52" s="5" t="s">
@@ -29818,16 +29862,16 @@
       <c r="CK52" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="CL52" s="5" t="s">
+      <c r="CL52" s="24" t="s">
         <v>7</v>
       </c>
-      <c r="CM52" s="5" t="s">
+      <c r="CM52" s="24" t="s">
         <v>8</v>
       </c>
-      <c r="CN52" s="5" t="s">
+      <c r="CN52" s="24" t="s">
         <v>10</v>
       </c>
-      <c r="CO52" s="5" t="s">
+      <c r="CO52" s="24" t="s">
         <v>9</v>
       </c>
       <c r="CP52" s="24" t="s">
@@ -29842,16 +29886,19 @@
       <c r="CS52" s="24" t="s">
         <v>9</v>
       </c>
-      <c r="CT52" s="24"/>
+      <c r="CT52" s="24" t="s">
+        <v>7</v>
+      </c>
       <c r="CU52" s="24"/>
       <c r="CV52" s="24"/>
       <c r="CW52" s="24"/>
+      <c r="CX52" s="24"/>
     </row>
     <row r="53" spans="1:150" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A53" s="7"/>
-      <c r="CT53" s="26"/>
       <c r="CU53" s="26"/>
       <c r="CV53" s="26"/>
+      <c r="CX53" s="26"/>
     </row>
     <row r="54" spans="1:150" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A54" s="1" t="s">
@@ -30121,35 +30168,37 @@
       <c r="CK54" s="14">
         <v>18.024410747634747</v>
       </c>
-      <c r="CL54" s="14">
+      <c r="CL54" s="25">
         <v>20.901917817634796</v>
       </c>
-      <c r="CM54" s="14">
+      <c r="CM54" s="25">
         <v>16.055596049297876</v>
       </c>
-      <c r="CN54" s="14">
+      <c r="CN54" s="25">
         <v>17.114846775141828</v>
       </c>
-      <c r="CO54" s="14">
-        <v>20.37904309200249</v>
+      <c r="CO54" s="25">
+        <v>20.114932756777065</v>
       </c>
       <c r="CP54" s="25">
-        <v>17.105418588255432</v>
+        <v>17.0588711799831</v>
       </c>
       <c r="CQ54" s="25">
-        <v>14.854549859971414</v>
+        <v>14.829459421244891</v>
       </c>
       <c r="CR54" s="25">
-        <v>12.028010098415805</v>
+        <v>12.005405323221723</v>
       </c>
       <c r="CS54" s="25">
-        <v>10.907175674208247</v>
-      </c>
-      <c r="CT54" s="27"/>
+        <v>9.4447791053603254</v>
+      </c>
+      <c r="CT54" s="25">
+        <v>7.4616513662926849</v>
+      </c>
       <c r="CU54" s="27"/>
       <c r="CV54" s="27"/>
       <c r="CW54" s="25"/>
-      <c r="CX54" s="9"/>
+      <c r="CX54" s="27"/>
       <c r="CY54" s="9"/>
       <c r="CZ54" s="9"/>
       <c r="DA54" s="9"/>
@@ -30467,35 +30516,37 @@
       <c r="CK55" s="14">
         <v>18.270358753117051</v>
       </c>
-      <c r="CL55" s="14">
+      <c r="CL55" s="25">
         <v>15.539577072232575</v>
       </c>
-      <c r="CM55" s="14">
+      <c r="CM55" s="25">
         <v>8.4072476964611695</v>
       </c>
-      <c r="CN55" s="14">
+      <c r="CN55" s="25">
         <v>13.681419916909505</v>
       </c>
-      <c r="CO55" s="14">
-        <v>16.120935538956232</v>
+      <c r="CO55" s="25">
+        <v>16.57182809001965</v>
       </c>
       <c r="CP55" s="25">
-        <v>7.5607653819718053</v>
+        <v>7.5693360119994111</v>
       </c>
       <c r="CQ55" s="25">
-        <v>8.3377966721303665</v>
+        <v>8.2727116889317074</v>
       </c>
       <c r="CR55" s="25">
-        <v>13.941165915135329</v>
+        <v>14.254069341422507</v>
       </c>
       <c r="CS55" s="25">
-        <v>11.362058600151997</v>
-      </c>
-      <c r="CT55" s="27"/>
+        <v>13.385260216628254</v>
+      </c>
+      <c r="CT55" s="25">
+        <v>12.881510225604529</v>
+      </c>
       <c r="CU55" s="27"/>
       <c r="CV55" s="27"/>
       <c r="CW55" s="25"/>
-      <c r="CX55" s="9"/>
+      <c r="CX55" s="27"/>
       <c r="CY55" s="9"/>
       <c r="CZ55" s="9"/>
       <c r="DA55" s="9"/>
@@ -30813,35 +30864,37 @@
       <c r="CK56" s="14">
         <v>14.283569411064747</v>
       </c>
-      <c r="CL56" s="14">
+      <c r="CL56" s="25">
         <v>4.8936335134968516</v>
       </c>
-      <c r="CM56" s="14">
+      <c r="CM56" s="25">
         <v>7.0068118916121165</v>
       </c>
-      <c r="CN56" s="14">
+      <c r="CN56" s="25">
         <v>7.7130986066878222</v>
       </c>
-      <c r="CO56" s="14">
-        <v>9.3256741304253126</v>
+      <c r="CO56" s="25">
+        <v>8.5631874170359055</v>
       </c>
       <c r="CP56" s="25">
         <v>10.437238568688031</v>
       </c>
       <c r="CQ56" s="25">
-        <v>13.795168866541104</v>
+        <v>13.847818813772378</v>
       </c>
       <c r="CR56" s="25">
-        <v>9.0370365225905118</v>
+        <v>8.741717287411106</v>
       </c>
       <c r="CS56" s="25">
-        <v>11.153340043050903</v>
-      </c>
-      <c r="CT56" s="27"/>
+        <v>10.531733670285618</v>
+      </c>
+      <c r="CT56" s="25">
+        <v>12.581736160814174</v>
+      </c>
       <c r="CU56" s="27"/>
       <c r="CV56" s="27"/>
       <c r="CW56" s="25"/>
-      <c r="CX56" s="9"/>
+      <c r="CX56" s="27"/>
       <c r="CY56" s="9"/>
       <c r="CZ56" s="9"/>
       <c r="DA56" s="9"/>
@@ -31159,35 +31212,37 @@
       <c r="CK57" s="14">
         <v>13.627097751677368</v>
       </c>
-      <c r="CL57" s="14">
+      <c r="CL57" s="25">
         <v>9.5755420857457807</v>
       </c>
-      <c r="CM57" s="14">
+      <c r="CM57" s="25">
         <v>13.599549587198652</v>
       </c>
-      <c r="CN57" s="14">
+      <c r="CN57" s="25">
         <v>13.526086931800791</v>
       </c>
-      <c r="CO57" s="14">
-        <v>18.732712160505514</v>
+      <c r="CO57" s="25">
+        <v>19.382609939121792</v>
       </c>
       <c r="CP57" s="25">
-        <v>18.515119397531748</v>
+        <v>18.96199432635926</v>
       </c>
       <c r="CQ57" s="25">
-        <v>17.527538797288372</v>
+        <v>17.66713080085907</v>
       </c>
       <c r="CR57" s="25">
-        <v>16.86371699113127</v>
+        <v>16.614617126247239</v>
       </c>
       <c r="CS57" s="25">
-        <v>17.775221558089413</v>
-      </c>
-      <c r="CT57" s="27"/>
+        <v>16.65713732835772</v>
+      </c>
+      <c r="CT57" s="25">
+        <v>15.347762143236139</v>
+      </c>
       <c r="CU57" s="27"/>
       <c r="CV57" s="27"/>
       <c r="CW57" s="25"/>
-      <c r="CX57" s="9"/>
+      <c r="CX57" s="27"/>
       <c r="CY57" s="9"/>
       <c r="CZ57" s="9"/>
       <c r="DA57" s="9"/>
@@ -31326,19 +31381,19 @@
       <c r="CI58" s="9"/>
       <c r="CJ58" s="9"/>
       <c r="CK58" s="9"/>
-      <c r="CL58" s="9"/>
-      <c r="CM58" s="9"/>
-      <c r="CN58" s="9"/>
-      <c r="CO58" s="9"/>
+      <c r="CL58" s="21"/>
+      <c r="CM58" s="21"/>
+      <c r="CN58" s="21"/>
+      <c r="CO58" s="21"/>
       <c r="CP58" s="21"/>
       <c r="CQ58" s="21"/>
       <c r="CR58" s="21"/>
       <c r="CS58" s="21"/>
-      <c r="CT58" s="28"/>
+      <c r="CT58" s="21"/>
       <c r="CU58" s="28"/>
       <c r="CV58" s="28"/>
       <c r="CW58" s="21"/>
-      <c r="CX58" s="9"/>
+      <c r="CX58" s="28"/>
       <c r="CY58" s="9"/>
       <c r="CZ58" s="9"/>
       <c r="DA58" s="9"/>
@@ -31656,35 +31711,37 @@
       <c r="CK59" s="14">
         <v>17.321148682720789</v>
       </c>
-      <c r="CL59" s="14">
+      <c r="CL59" s="25">
         <v>16.990646264301887</v>
       </c>
-      <c r="CM59" s="14">
+      <c r="CM59" s="25">
         <v>12.103820571380439</v>
       </c>
-      <c r="CN59" s="14">
+      <c r="CN59" s="25">
         <v>14.804702716145528</v>
       </c>
-      <c r="CO59" s="14">
-        <v>17.356160532427793</v>
+      <c r="CO59" s="25">
+        <v>17.300915985922089</v>
       </c>
       <c r="CP59" s="25">
-        <v>14.079051008492158</v>
+        <v>14.073537042837231</v>
       </c>
       <c r="CQ59" s="25">
-        <v>12.577611024068275</v>
+        <v>12.555635247641177</v>
       </c>
       <c r="CR59" s="25">
-        <v>12.39767374218242</v>
+        <v>12.420044284729272</v>
       </c>
       <c r="CS59" s="25">
-        <v>11.452042201677813</v>
-      </c>
-      <c r="CT59" s="27"/>
+        <v>11.239449855949474</v>
+      </c>
+      <c r="CT59" s="25">
+        <v>9.6459219540228673</v>
+      </c>
       <c r="CU59" s="27"/>
       <c r="CV59" s="27"/>
       <c r="CW59" s="25"/>
-      <c r="CX59" s="9"/>
+      <c r="CX59" s="27"/>
       <c r="CY59" s="9"/>
       <c r="CZ59" s="9"/>
       <c r="DA59" s="9"/>
@@ -31824,26 +31881,27 @@
       <c r="CI60" s="12"/>
       <c r="CJ60" s="12"/>
       <c r="CK60" s="12"/>
-      <c r="CL60" s="12"/>
-      <c r="CM60" s="12"/>
-      <c r="CN60" s="12"/>
-      <c r="CO60" s="12"/>
+      <c r="CL60" s="23"/>
+      <c r="CM60" s="23"/>
+      <c r="CN60" s="23"/>
+      <c r="CO60" s="23"/>
       <c r="CP60" s="23"/>
       <c r="CQ60" s="23"/>
       <c r="CR60" s="23"/>
       <c r="CS60" s="23"/>
-      <c r="CT60" s="19"/>
+      <c r="CT60" s="23"/>
       <c r="CU60" s="19"/>
       <c r="CV60" s="19"/>
       <c r="CW60" s="23"/>
+      <c r="CX60" s="19"/>
     </row>
     <row r="61" spans="1:150" x14ac:dyDescent="0.2">
       <c r="A61" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="CT61" s="26"/>
       <c r="CU61" s="26"/>
       <c r="CV61" s="26"/>
+      <c r="CX61" s="26"/>
     </row>
     <row r="62" spans="1:150" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B62" s="9"/>
@@ -31934,19 +31992,19 @@
       <c r="CI62" s="9"/>
       <c r="CJ62" s="9"/>
       <c r="CK62" s="9"/>
-      <c r="CL62" s="9"/>
-      <c r="CM62" s="9"/>
-      <c r="CN62" s="9"/>
-      <c r="CO62" s="9"/>
+      <c r="CL62" s="21"/>
+      <c r="CM62" s="21"/>
+      <c r="CN62" s="21"/>
+      <c r="CO62" s="21"/>
       <c r="CP62" s="21"/>
       <c r="CQ62" s="21"/>
       <c r="CR62" s="21"/>
       <c r="CS62" s="21"/>
-      <c r="CT62" s="28"/>
+      <c r="CT62" s="21"/>
       <c r="CU62" s="28"/>
       <c r="CV62" s="28"/>
       <c r="CW62" s="21"/>
-      <c r="CX62" s="9"/>
+      <c r="CX62" s="28"/>
       <c r="CY62" s="9"/>
       <c r="CZ62" s="9"/>
       <c r="DA62" s="9"/>
@@ -32085,19 +32143,19 @@
       <c r="CI63" s="9"/>
       <c r="CJ63" s="9"/>
       <c r="CK63" s="9"/>
-      <c r="CL63" s="9"/>
-      <c r="CM63" s="9"/>
-      <c r="CN63" s="9"/>
-      <c r="CO63" s="9"/>
+      <c r="CL63" s="21"/>
+      <c r="CM63" s="21"/>
+      <c r="CN63" s="21"/>
+      <c r="CO63" s="21"/>
       <c r="CP63" s="21"/>
       <c r="CQ63" s="21"/>
       <c r="CR63" s="21"/>
       <c r="CS63" s="21"/>
-      <c r="CT63" s="28"/>
+      <c r="CT63" s="21"/>
       <c r="CU63" s="28"/>
       <c r="CV63" s="28"/>
       <c r="CW63" s="21"/>
-      <c r="CX63" s="9"/>
+      <c r="CX63" s="28"/>
       <c r="CY63" s="9"/>
       <c r="CZ63" s="9"/>
       <c r="DA63" s="9"/>
@@ -32151,59 +32209,59 @@
       <c r="A64" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="CT64" s="26"/>
       <c r="CU64" s="26"/>
       <c r="CV64" s="26"/>
+      <c r="CX64" s="26"/>
     </row>
     <row r="65" spans="1:150" x14ac:dyDescent="0.2">
       <c r="A65" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="CT65" s="26"/>
       <c r="CU65" s="26"/>
       <c r="CV65" s="26"/>
+      <c r="CX65" s="26"/>
     </row>
     <row r="66" spans="1:150" x14ac:dyDescent="0.2">
       <c r="A66" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="CT66" s="26"/>
+        <v>55</v>
+      </c>
       <c r="CU66" s="26"/>
       <c r="CV66" s="26"/>
+      <c r="CX66" s="26"/>
     </row>
     <row r="67" spans="1:150" x14ac:dyDescent="0.2">
-      <c r="CT67" s="26"/>
       <c r="CU67" s="26"/>
       <c r="CV67" s="26"/>
+      <c r="CX67" s="26"/>
     </row>
     <row r="68" spans="1:150" x14ac:dyDescent="0.2">
       <c r="A68" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="CT68" s="26"/>
       <c r="CU68" s="26"/>
       <c r="CV68" s="26"/>
+      <c r="CX68" s="26"/>
     </row>
     <row r="69" spans="1:150" x14ac:dyDescent="0.2">
       <c r="A69" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="CT69" s="26"/>
+        <v>54</v>
+      </c>
       <c r="CU69" s="26"/>
       <c r="CV69" s="26"/>
+      <c r="CX69" s="26"/>
     </row>
     <row r="70" spans="1:150" x14ac:dyDescent="0.2">
       <c r="A70" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="CT70" s="26"/>
       <c r="CU70" s="26"/>
       <c r="CV70" s="26"/>
+      <c r="CX70" s="26"/>
     </row>
     <row r="71" spans="1:150" x14ac:dyDescent="0.2">
-      <c r="CT71" s="26"/>
       <c r="CU71" s="26"/>
       <c r="CV71" s="26"/>
+      <c r="CX71" s="26"/>
     </row>
     <row r="72" spans="1:150" x14ac:dyDescent="0.2">
       <c r="A72" s="4"/>
@@ -32339,22 +32397,25 @@
       <c r="CI72" s="15"/>
       <c r="CJ72" s="15"/>
       <c r="CK72" s="15"/>
-      <c r="CL72" s="15" t="s">
+      <c r="CL72" s="18" t="s">
         <v>50</v>
       </c>
-      <c r="CM72" s="15"/>
-      <c r="CN72" s="15"/>
-      <c r="CO72" s="15"/>
+      <c r="CM72" s="18"/>
+      <c r="CN72" s="18"/>
+      <c r="CO72" s="18"/>
       <c r="CP72" s="18" t="s">
         <v>51</v>
       </c>
       <c r="CQ72" s="18"/>
       <c r="CR72" s="18"/>
       <c r="CS72" s="18"/>
-      <c r="CT72" s="16"/>
+      <c r="CT72" s="18" t="s">
+        <v>52</v>
+      </c>
       <c r="CU72" s="16"/>
       <c r="CV72" s="16"/>
       <c r="CW72" s="16"/>
+      <c r="CX72" s="16"/>
     </row>
     <row r="73" spans="1:150" x14ac:dyDescent="0.2">
       <c r="A73" s="5" t="s">
@@ -32624,16 +32685,16 @@
       <c r="CK73" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="CL73" s="5" t="s">
+      <c r="CL73" s="24" t="s">
         <v>7</v>
       </c>
-      <c r="CM73" s="5" t="s">
+      <c r="CM73" s="24" t="s">
         <v>8</v>
       </c>
-      <c r="CN73" s="5" t="s">
+      <c r="CN73" s="24" t="s">
         <v>10</v>
       </c>
-      <c r="CO73" s="5" t="s">
+      <c r="CO73" s="24" t="s">
         <v>9</v>
       </c>
       <c r="CP73" s="24" t="s">
@@ -32648,16 +32709,19 @@
       <c r="CS73" s="24" t="s">
         <v>9</v>
       </c>
-      <c r="CT73" s="24"/>
+      <c r="CT73" s="24" t="s">
+        <v>7</v>
+      </c>
       <c r="CU73" s="24"/>
       <c r="CV73" s="24"/>
       <c r="CW73" s="24"/>
+      <c r="CX73" s="24"/>
     </row>
     <row r="74" spans="1:150" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A74" s="7"/>
-      <c r="CT74" s="26"/>
       <c r="CU74" s="26"/>
       <c r="CV74" s="26"/>
+      <c r="CX74" s="26"/>
     </row>
     <row r="75" spans="1:150" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A75" s="1" t="s">
@@ -32927,35 +32991,37 @@
       <c r="CK75" s="14">
         <v>9.8275616019282381</v>
       </c>
-      <c r="CL75" s="14">
+      <c r="CL75" s="25">
         <v>10.9830853039728</v>
       </c>
-      <c r="CM75" s="14">
+      <c r="CM75" s="25">
         <v>9.0369968575365789</v>
       </c>
-      <c r="CN75" s="14">
+      <c r="CN75" s="25">
         <v>11.718827411181749</v>
       </c>
-      <c r="CO75" s="14">
-        <v>14.960675854645515</v>
+      <c r="CO75" s="25">
+        <v>14.708453359285528</v>
       </c>
       <c r="CP75" s="25">
-        <v>13.1716354353036</v>
+        <v>13.12665163879818</v>
       </c>
       <c r="CQ75" s="25">
-        <v>10.260932035380719</v>
+        <v>10.236845090958099</v>
       </c>
       <c r="CR75" s="25">
-        <v>8.7450790671264969</v>
+        <v>8.7231367148200292</v>
       </c>
       <c r="CS75" s="25">
-        <v>7.9707446742424963</v>
-      </c>
-      <c r="CT75" s="27"/>
+        <v>6.5438185514050673</v>
+      </c>
+      <c r="CT75" s="25">
+        <v>5.0208077731706027</v>
+      </c>
       <c r="CU75" s="27"/>
       <c r="CV75" s="27"/>
       <c r="CW75" s="25"/>
-      <c r="CX75" s="9"/>
+      <c r="CX75" s="27"/>
       <c r="CY75" s="9"/>
       <c r="CZ75" s="9"/>
       <c r="DA75" s="9"/>
@@ -33273,35 +33339,37 @@
       <c r="CK76" s="14">
         <v>10.628433741657346</v>
       </c>
-      <c r="CL76" s="14">
+      <c r="CL76" s="25">
         <v>8.1729960417868739</v>
       </c>
-      <c r="CM76" s="14">
+      <c r="CM76" s="25">
         <v>1.8100124025257855</v>
       </c>
-      <c r="CN76" s="14">
+      <c r="CN76" s="25">
         <v>8.9111131604804257</v>
       </c>
-      <c r="CO76" s="14">
-        <v>11.059082688113264</v>
+      <c r="CO76" s="25">
+        <v>11.490320284327836</v>
       </c>
       <c r="CP76" s="25">
-        <v>4.3981701238867288</v>
+        <v>4.406488752789258</v>
       </c>
       <c r="CQ76" s="25">
-        <v>3.9977580511068709</v>
+        <v>3.9352812815154294</v>
       </c>
       <c r="CR76" s="25">
-        <v>10.620297811643582</v>
+        <v>10.924081522510235</v>
       </c>
       <c r="CS76" s="25">
-        <v>8.4108088257618903</v>
-      </c>
-      <c r="CT76" s="27"/>
+        <v>10.3787161292382</v>
+      </c>
+      <c r="CT76" s="25">
+        <v>10.334813265854564</v>
+      </c>
       <c r="CU76" s="27"/>
       <c r="CV76" s="27"/>
       <c r="CW76" s="25"/>
-      <c r="CX76" s="9"/>
+      <c r="CX76" s="27"/>
       <c r="CY76" s="9"/>
       <c r="CZ76" s="9"/>
       <c r="DA76" s="9"/>
@@ -33619,35 +33687,37 @@
       <c r="CK77" s="14">
         <v>6.4283746065456171</v>
       </c>
-      <c r="CL77" s="14">
+      <c r="CL77" s="25">
         <v>-2.4063700097721892</v>
       </c>
-      <c r="CM77" s="14">
+      <c r="CM77" s="25">
         <v>0.3966771248996821</v>
       </c>
-      <c r="CN77" s="14">
+      <c r="CN77" s="25">
         <v>2.7698679579122825</v>
       </c>
-      <c r="CO77" s="14">
-        <v>4.2861146646737609</v>
+      <c r="CO77" s="25">
+        <v>3.5587761190366791</v>
       </c>
       <c r="CP77" s="25">
         <v>6.736221766419817</v>
       </c>
       <c r="CQ77" s="25">
-        <v>9.1365547521861288</v>
+        <v>9.1870492846512661</v>
       </c>
       <c r="CR77" s="25">
-        <v>5.7898140236575273</v>
+        <v>5.5032896649294969</v>
       </c>
       <c r="CS77" s="25">
-        <v>8.1653094489100937</v>
-      </c>
-      <c r="CT77" s="27"/>
+        <v>7.5559092424884966</v>
+      </c>
+      <c r="CT77" s="25">
+        <v>10.015073837833555</v>
+      </c>
       <c r="CU77" s="27"/>
       <c r="CV77" s="27"/>
       <c r="CW77" s="25"/>
-      <c r="CX77" s="9"/>
+      <c r="CX77" s="27"/>
       <c r="CY77" s="9"/>
       <c r="CZ77" s="9"/>
       <c r="DA77" s="9"/>
@@ -33965,35 +34035,37 @@
       <c r="CK78" s="14">
         <v>6.4352949903667707</v>
       </c>
-      <c r="CL78" s="14">
+      <c r="CL78" s="25">
         <v>2.8554756057137354</v>
       </c>
-      <c r="CM78" s="14">
+      <c r="CM78" s="25">
         <v>5.8720418053373606</v>
       </c>
-      <c r="CN78" s="14">
+      <c r="CN78" s="25">
         <v>8.8874802722048543</v>
       </c>
-      <c r="CO78" s="14">
-        <v>12.563954286450695</v>
+      <c r="CO78" s="25">
+        <v>13.180086626998346</v>
       </c>
       <c r="CP78" s="25">
-        <v>14.397415667543328</v>
+        <v>14.828364275532493</v>
       </c>
       <c r="CQ78" s="25">
-        <v>12.075187434417373</v>
+        <v>12.208299179751123</v>
       </c>
       <c r="CR78" s="25">
-        <v>13.003921427669781</v>
+        <v>12.763048877285897</v>
       </c>
       <c r="CS78" s="25">
-        <v>14.34088309514847</v>
-      </c>
-      <c r="CT78" s="27"/>
+        <v>13.251120832429692</v>
+      </c>
+      <c r="CT78" s="25">
+        <v>12.622590370270586</v>
+      </c>
       <c r="CU78" s="27"/>
       <c r="CV78" s="27"/>
       <c r="CW78" s="25"/>
-      <c r="CX78" s="9"/>
+      <c r="CX78" s="27"/>
       <c r="CY78" s="9"/>
       <c r="CZ78" s="9"/>
       <c r="DA78" s="9"/>
@@ -34132,19 +34204,19 @@
       <c r="CI79" s="9"/>
       <c r="CJ79" s="9"/>
       <c r="CK79" s="9"/>
-      <c r="CL79" s="9"/>
-      <c r="CM79" s="9"/>
-      <c r="CN79" s="9"/>
-      <c r="CO79" s="9"/>
+      <c r="CL79" s="21"/>
+      <c r="CM79" s="21"/>
+      <c r="CN79" s="21"/>
+      <c r="CO79" s="21"/>
       <c r="CP79" s="21"/>
       <c r="CQ79" s="21"/>
       <c r="CR79" s="21"/>
       <c r="CS79" s="21"/>
-      <c r="CT79" s="28"/>
+      <c r="CT79" s="21"/>
       <c r="CU79" s="28"/>
       <c r="CV79" s="28"/>
       <c r="CW79" s="21"/>
-      <c r="CX79" s="9"/>
+      <c r="CX79" s="28"/>
       <c r="CY79" s="9"/>
       <c r="CZ79" s="9"/>
       <c r="DA79" s="9"/>
@@ -34462,35 +34534,37 @@
       <c r="CK80" s="14">
         <v>9.3983613162653086</v>
       </c>
-      <c r="CL80" s="14">
+      <c r="CL80" s="25">
         <v>8.234065598422319</v>
       </c>
-      <c r="CM80" s="14">
+      <c r="CM80" s="25">
         <v>5.2083451667221539</v>
       </c>
-      <c r="CN80" s="14">
+      <c r="CN80" s="25">
         <v>9.6464658187148018</v>
       </c>
-      <c r="CO80" s="14">
-        <v>12.040666109466088</v>
+      <c r="CO80" s="25">
+        <v>11.987096398238691</v>
       </c>
       <c r="CP80" s="25">
-        <v>10.345790665811833</v>
+        <v>10.340425886676385</v>
       </c>
       <c r="CQ80" s="25">
-        <v>8.0032087694978316</v>
+        <v>7.9820565015633349</v>
       </c>
       <c r="CR80" s="25">
-        <v>9.0774627491648516</v>
+        <v>9.099332452609417</v>
       </c>
       <c r="CS80" s="25">
-        <v>8.4753831423739001</v>
-      </c>
-      <c r="CT80" s="27"/>
+        <v>8.270384262022759</v>
+      </c>
+      <c r="CT80" s="25">
+        <v>7.1573181379344248</v>
+      </c>
       <c r="CU80" s="27"/>
       <c r="CV80" s="27"/>
       <c r="CW80" s="25"/>
-      <c r="CX80" s="9"/>
+      <c r="CX80" s="27"/>
       <c r="CY80" s="9"/>
       <c r="CZ80" s="9"/>
       <c r="DA80" s="9"/>
@@ -34630,26 +34704,27 @@
       <c r="CI81" s="12"/>
       <c r="CJ81" s="12"/>
       <c r="CK81" s="12"/>
-      <c r="CL81" s="12"/>
-      <c r="CM81" s="12"/>
-      <c r="CN81" s="12"/>
-      <c r="CO81" s="12"/>
+      <c r="CL81" s="23"/>
+      <c r="CM81" s="23"/>
+      <c r="CN81" s="23"/>
+      <c r="CO81" s="23"/>
       <c r="CP81" s="23"/>
       <c r="CQ81" s="23"/>
       <c r="CR81" s="23"/>
       <c r="CS81" s="23"/>
-      <c r="CT81" s="19"/>
+      <c r="CT81" s="23"/>
       <c r="CU81" s="19"/>
       <c r="CV81" s="19"/>
       <c r="CW81" s="23"/>
+      <c r="CX81" s="19"/>
     </row>
     <row r="82" spans="1:154" x14ac:dyDescent="0.2">
       <c r="A82" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="CT82" s="26"/>
       <c r="CU82" s="26"/>
       <c r="CV82" s="26"/>
+      <c r="CX82" s="26"/>
     </row>
     <row r="83" spans="1:154" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B83" s="9"/>
@@ -34740,19 +34815,19 @@
       <c r="CI83" s="9"/>
       <c r="CJ83" s="9"/>
       <c r="CK83" s="9"/>
-      <c r="CL83" s="9"/>
-      <c r="CM83" s="9"/>
-      <c r="CN83" s="9"/>
-      <c r="CO83" s="9"/>
+      <c r="CL83" s="21"/>
+      <c r="CM83" s="21"/>
+      <c r="CN83" s="21"/>
+      <c r="CO83" s="21"/>
       <c r="CP83" s="21"/>
       <c r="CQ83" s="21"/>
       <c r="CR83" s="21"/>
       <c r="CS83" s="21"/>
-      <c r="CT83" s="28"/>
+      <c r="CT83" s="21"/>
       <c r="CU83" s="28"/>
       <c r="CV83" s="28"/>
       <c r="CW83" s="21"/>
-      <c r="CX83" s="9"/>
+      <c r="CX83" s="28"/>
       <c r="CY83" s="9"/>
       <c r="CZ83" s="9"/>
       <c r="DA83" s="9"/>
@@ -34891,19 +34966,19 @@
       <c r="CI84" s="9"/>
       <c r="CJ84" s="9"/>
       <c r="CK84" s="9"/>
-      <c r="CL84" s="9"/>
-      <c r="CM84" s="9"/>
-      <c r="CN84" s="9"/>
-      <c r="CO84" s="9"/>
+      <c r="CL84" s="21"/>
+      <c r="CM84" s="21"/>
+      <c r="CN84" s="21"/>
+      <c r="CO84" s="21"/>
       <c r="CP84" s="21"/>
       <c r="CQ84" s="21"/>
       <c r="CR84" s="21"/>
       <c r="CS84" s="21"/>
-      <c r="CT84" s="28"/>
+      <c r="CT84" s="21"/>
       <c r="CU84" s="28"/>
       <c r="CV84" s="28"/>
       <c r="CW84" s="21"/>
-      <c r="CX84" s="9"/>
+      <c r="CX84" s="28"/>
       <c r="CY84" s="9"/>
       <c r="CZ84" s="9"/>
       <c r="DA84" s="9"/>
@@ -34957,13 +35032,13 @@
       <c r="A85" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="CT85" s="26"/>
       <c r="CU85" s="26"/>
       <c r="CV85" s="26"/>
+      <c r="CX85" s="26"/>
     </row>
     <row r="86" spans="1:154" x14ac:dyDescent="0.2">
       <c r="A86" s="1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="88" spans="1:154" x14ac:dyDescent="0.2">
@@ -34973,7 +35048,7 @@
     </row>
     <row r="89" spans="1:154" x14ac:dyDescent="0.2">
       <c r="A89" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
     </row>
     <row r="90" spans="1:154" x14ac:dyDescent="0.2">
@@ -35115,12 +35190,12 @@
       <c r="CI92" s="15"/>
       <c r="CJ92" s="15"/>
       <c r="CK92" s="15"/>
-      <c r="CL92" s="15">
+      <c r="CL92" s="18">
         <v>2022</v>
       </c>
-      <c r="CM92" s="15"/>
-      <c r="CN92" s="15"/>
-      <c r="CO92" s="15"/>
+      <c r="CM92" s="18"/>
+      <c r="CN92" s="18"/>
+      <c r="CO92" s="18"/>
       <c r="CP92" s="18">
         <v>2023</v>
       </c>
@@ -35133,6 +35208,9 @@
       <c r="CU92" s="18"/>
       <c r="CV92" s="18"/>
       <c r="CW92" s="18"/>
+      <c r="CX92" s="18">
+        <v>2025</v>
+      </c>
     </row>
     <row r="93" spans="1:154" x14ac:dyDescent="0.2">
       <c r="A93" s="5" t="s">
@@ -35402,16 +35480,16 @@
       <c r="CK93" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="CL93" s="6" t="s">
+      <c r="CL93" s="19" t="s">
         <v>7</v>
       </c>
-      <c r="CM93" s="6" t="s">
+      <c r="CM93" s="19" t="s">
         <v>8</v>
       </c>
-      <c r="CN93" s="6" t="s">
+      <c r="CN93" s="19" t="s">
         <v>10</v>
       </c>
-      <c r="CO93" s="6" t="s">
+      <c r="CO93" s="19" t="s">
         <v>9</v>
       </c>
       <c r="CP93" s="19" t="s">
@@ -35437,6 +35515,9 @@
       </c>
       <c r="CW93" s="19" t="s">
         <v>9</v>
+      </c>
+      <c r="CX93" s="19" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="94" spans="1:154" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
@@ -35710,16 +35791,16 @@
       <c r="CK95" s="14">
         <v>106.84919584830172</v>
       </c>
-      <c r="CL95" s="14">
+      <c r="CL95" s="25">
         <v>109.29741292337079</v>
       </c>
-      <c r="CM95" s="14">
+      <c r="CM95" s="25">
         <v>112.68273282267074</v>
       </c>
-      <c r="CN95" s="14">
+      <c r="CN95" s="25">
         <v>112.52153114587102</v>
       </c>
-      <c r="CO95" s="14">
+      <c r="CO95" s="25">
         <v>114.8237582161983</v>
       </c>
       <c r="CP95" s="25">
@@ -35735,18 +35816,20 @@
         <v>120.23567220299059</v>
       </c>
       <c r="CT95" s="25">
-        <v>123.20424656501659</v>
+        <v>123.2042465650166</v>
       </c>
       <c r="CU95" s="25">
         <v>124.9326985518308</v>
       </c>
       <c r="CV95" s="25">
-        <v>121.51733250596111</v>
+        <v>121.51733250596106</v>
       </c>
       <c r="CW95" s="25">
-        <v>123.50566683184867</v>
-      </c>
-      <c r="CX95" s="9"/>
+        <v>123.50943267996169</v>
+      </c>
+      <c r="CX95" s="25">
+        <v>126.06770098181343</v>
+      </c>
       <c r="CY95" s="9"/>
       <c r="CZ95" s="9"/>
       <c r="DA95" s="9"/>
@@ -36068,16 +36151,16 @@
       <c r="CK96" s="14">
         <v>106.68377666365943</v>
       </c>
-      <c r="CL96" s="14">
+      <c r="CL96" s="25">
         <v>110.58197350081539</v>
       </c>
-      <c r="CM96" s="14">
+      <c r="CM96" s="25">
         <v>111.14749382056803</v>
       </c>
-      <c r="CN96" s="14">
+      <c r="CN96" s="25">
         <v>111.44310904146781</v>
       </c>
-      <c r="CO96" s="14">
+      <c r="CO96" s="25">
         <v>114.05321500450079</v>
       </c>
       <c r="CP96" s="25">
@@ -36090,21 +36173,23 @@
         <v>116.32431721748414</v>
       </c>
       <c r="CS96" s="25">
-        <v>119.2515344714428</v>
+        <v>119.25153447144277</v>
       </c>
       <c r="CT96" s="25">
-        <v>121.69066063496001</v>
+        <v>121.69066063496004</v>
       </c>
       <c r="CU96" s="25">
-        <v>123.28877132351901</v>
+        <v>123.28877026391771</v>
       </c>
       <c r="CV96" s="25">
         <v>119.81642239483375</v>
       </c>
       <c r="CW96" s="25">
-        <v>122.49789955271584</v>
-      </c>
-      <c r="CX96" s="9"/>
+        <v>122.49976029296357</v>
+      </c>
+      <c r="CX96" s="25">
+        <v>124.49946799408688</v>
+      </c>
       <c r="CY96" s="9"/>
       <c r="CZ96" s="9"/>
       <c r="DA96" s="9"/>
@@ -36426,16 +36511,16 @@
       <c r="CK97" s="14">
         <v>104.63011577848687</v>
       </c>
-      <c r="CL97" s="14">
+      <c r="CL97" s="25">
         <v>112.42680139344183</v>
       </c>
-      <c r="CM97" s="14">
+      <c r="CM97" s="25">
         <v>108.29344532061886</v>
       </c>
-      <c r="CN97" s="14">
+      <c r="CN97" s="25">
         <v>109.73385099171769</v>
       </c>
-      <c r="CO97" s="14">
+      <c r="CO97" s="25">
         <v>112.3525858894685</v>
       </c>
       <c r="CP97" s="25">
@@ -36460,9 +36545,11 @@
         <v>118.542348595268</v>
       </c>
       <c r="CW97" s="25">
-        <v>121.03563954053919</v>
-      </c>
-      <c r="CX97" s="9"/>
+        <v>121.04070789540809</v>
+      </c>
+      <c r="CX97" s="25">
+        <v>127.94313056387834</v>
+      </c>
       <c r="CY97" s="9"/>
       <c r="CZ97" s="9"/>
       <c r="DA97" s="9"/>
@@ -36784,16 +36871,16 @@
       <c r="CK98" s="14">
         <v>107.14021411829164</v>
       </c>
-      <c r="CL98" s="14">
+      <c r="CL98" s="25">
         <v>111.88528035245697</v>
       </c>
-      <c r="CM98" s="14">
+      <c r="CM98" s="25">
         <v>113.24987583382027</v>
       </c>
-      <c r="CN98" s="14">
+      <c r="CN98" s="25">
         <v>113.09341837022909</v>
       </c>
-      <c r="CO98" s="14">
+      <c r="CO98" s="25">
         <v>114.37964806558401</v>
       </c>
       <c r="CP98" s="25">
@@ -36806,21 +36893,23 @@
         <v>117.91119799280088</v>
       </c>
       <c r="CS98" s="25">
-        <v>120.64791004259881</v>
+        <v>120.64791004259887</v>
       </c>
       <c r="CT98" s="25">
-        <v>123.48571208222066</v>
+        <v>123.48614228698938</v>
       </c>
       <c r="CU98" s="25">
-        <v>127.42751761309405</v>
+        <v>127.42752248454975</v>
       </c>
       <c r="CV98" s="25">
-        <v>121.93860795473168</v>
+        <v>121.93860795473164</v>
       </c>
       <c r="CW98" s="25">
-        <v>124.27168612965194</v>
-      </c>
-      <c r="CX98" s="9"/>
+        <v>124.27638425798749</v>
+      </c>
+      <c r="CX98" s="25">
+        <v>126.4741835689962</v>
+      </c>
       <c r="CY98" s="9"/>
       <c r="CZ98" s="9"/>
       <c r="DA98" s="9"/>
@@ -36963,10 +37052,10 @@
       <c r="CI99" s="9"/>
       <c r="CJ99" s="9"/>
       <c r="CK99" s="9"/>
-      <c r="CL99" s="9"/>
-      <c r="CM99" s="9"/>
-      <c r="CN99" s="9"/>
-      <c r="CO99" s="9"/>
+      <c r="CL99" s="21"/>
+      <c r="CM99" s="21"/>
+      <c r="CN99" s="21"/>
+      <c r="CO99" s="21"/>
       <c r="CP99" s="21"/>
       <c r="CQ99" s="21"/>
       <c r="CR99" s="21"/>
@@ -36975,7 +37064,7 @@
       <c r="CU99" s="21"/>
       <c r="CV99" s="21"/>
       <c r="CW99" s="21"/>
-      <c r="CX99" s="9"/>
+      <c r="CX99" s="21"/>
       <c r="CY99" s="9"/>
       <c r="CZ99" s="9"/>
       <c r="DA99" s="9"/>
@@ -37297,16 +37386,16 @@
       <c r="CK100" s="14">
         <v>106.4847431334275</v>
       </c>
-      <c r="CL100" s="14">
+      <c r="CL100" s="25">
         <v>110.12693971772578</v>
       </c>
-      <c r="CM100" s="14">
+      <c r="CM100" s="25">
         <v>111.63793284754142</v>
       </c>
-      <c r="CN100" s="14">
+      <c r="CN100" s="25">
         <v>111.88965793290247</v>
       </c>
-      <c r="CO100" s="14">
+      <c r="CO100" s="25">
         <v>114.19652206198758</v>
       </c>
       <c r="CP100" s="25">
@@ -37319,21 +37408,23 @@
         <v>117.15342414443401</v>
       </c>
       <c r="CS100" s="25">
-        <v>119.61429577951492</v>
+        <v>119.61517952606175</v>
       </c>
       <c r="CT100" s="25">
-        <v>123.06395484160413</v>
+        <v>123.06398970528222</v>
       </c>
       <c r="CU100" s="25">
-        <v>123.99306068033202</v>
+        <v>123.99314041686364</v>
       </c>
       <c r="CV100" s="25">
-        <v>120.71945948216903</v>
+        <v>120.71928245890875</v>
       </c>
       <c r="CW100" s="25">
-        <v>122.89661631012814</v>
-      </c>
-      <c r="CX100" s="9"/>
+        <v>122.89534996660178</v>
+      </c>
+      <c r="CX100" s="25">
+        <v>125.92200742843404</v>
+      </c>
       <c r="CY100" s="9"/>
       <c r="CZ100" s="9"/>
       <c r="DA100" s="9"/>
@@ -37477,10 +37568,10 @@
       <c r="CI101" s="12"/>
       <c r="CJ101" s="12"/>
       <c r="CK101" s="12"/>
-      <c r="CL101" s="12"/>
-      <c r="CM101" s="12"/>
-      <c r="CN101" s="12"/>
-      <c r="CO101" s="12"/>
+      <c r="CL101" s="23"/>
+      <c r="CM101" s="23"/>
+      <c r="CN101" s="23"/>
+      <c r="CO101" s="23"/>
       <c r="CP101" s="23"/>
       <c r="CQ101" s="23"/>
       <c r="CR101" s="23"/>
@@ -37489,6 +37580,7 @@
       <c r="CU101" s="23"/>
       <c r="CV101" s="23"/>
       <c r="CW101" s="23"/>
+      <c r="CX101" s="23"/>
     </row>
     <row r="102" spans="1:154" x14ac:dyDescent="0.2">
       <c r="A102" s="13" t="s">
@@ -37507,7 +37599,7 @@
     </row>
     <row r="107" spans="1:154" x14ac:dyDescent="0.2">
       <c r="A107" s="1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="109" spans="1:154" x14ac:dyDescent="0.2">
@@ -37517,7 +37609,7 @@
     </row>
     <row r="110" spans="1:154" x14ac:dyDescent="0.2">
       <c r="A110" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
     </row>
     <row r="111" spans="1:154" x14ac:dyDescent="0.2">
@@ -37659,12 +37751,12 @@
       <c r="CI113" s="15"/>
       <c r="CJ113" s="15"/>
       <c r="CK113" s="15"/>
-      <c r="CL113" s="15">
+      <c r="CL113" s="18">
         <v>2022</v>
       </c>
-      <c r="CM113" s="15"/>
-      <c r="CN113" s="15"/>
-      <c r="CO113" s="15"/>
+      <c r="CM113" s="18"/>
+      <c r="CN113" s="18"/>
+      <c r="CO113" s="18"/>
       <c r="CP113" s="18">
         <v>2023</v>
       </c>
@@ -37677,6 +37769,9 @@
       <c r="CU113" s="18"/>
       <c r="CV113" s="18"/>
       <c r="CW113" s="18"/>
+      <c r="CX113" s="18">
+        <v>2025</v>
+      </c>
     </row>
     <row r="114" spans="1:154" x14ac:dyDescent="0.2">
       <c r="A114" s="5" t="s">
@@ -37946,16 +38041,16 @@
       <c r="CK114" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="CL114" s="6" t="s">
+      <c r="CL114" s="19" t="s">
         <v>7</v>
       </c>
-      <c r="CM114" s="6" t="s">
+      <c r="CM114" s="19" t="s">
         <v>8</v>
       </c>
-      <c r="CN114" s="6" t="s">
+      <c r="CN114" s="19" t="s">
         <v>10</v>
       </c>
-      <c r="CO114" s="6" t="s">
+      <c r="CO114" s="19" t="s">
         <v>9</v>
       </c>
       <c r="CP114" s="19" t="s">
@@ -37981,6 +38076,9 @@
       </c>
       <c r="CW114" s="19" t="s">
         <v>9</v>
+      </c>
+      <c r="CX114" s="19" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="115" spans="1:154" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
@@ -38254,16 +38352,16 @@
       <c r="CK116" s="14">
         <v>48.011306366350439</v>
       </c>
-      <c r="CL116" s="14">
+      <c r="CL116" s="25">
         <v>57.736562144404587</v>
       </c>
-      <c r="CM116" s="14">
+      <c r="CM116" s="25">
         <v>46.769467390970831</v>
       </c>
-      <c r="CN116" s="14">
+      <c r="CN116" s="25">
         <v>55.508581421097844</v>
       </c>
-      <c r="CO116" s="14">
+      <c r="CO116" s="25">
         <v>48.299102137475451</v>
       </c>
       <c r="CP116" s="25">
@@ -38276,21 +38374,23 @@
         <v>56.625546288907458</v>
       </c>
       <c r="CS116" s="25">
-        <v>49.543199701950122</v>
+        <v>49.457784337778179</v>
       </c>
       <c r="CT116" s="25">
-        <v>61.249713514578495</v>
+        <v>61.228327244122006</v>
       </c>
       <c r="CU116" s="25">
-        <v>49.397420664800734</v>
+        <v>49.396272026727566</v>
       </c>
       <c r="CV116" s="25">
-        <v>56.439311066464626</v>
+        <v>56.416694230029371</v>
       </c>
       <c r="CW116" s="25">
-        <v>49.30099300346285</v>
-      </c>
-      <c r="CX116" s="9"/>
+        <v>48.659862026449801</v>
+      </c>
+      <c r="CX116" s="25">
+        <v>60.008589820678793</v>
+      </c>
       <c r="CY116" s="9"/>
       <c r="CZ116" s="9"/>
       <c r="DA116" s="9"/>
@@ -38612,16 +38712,16 @@
       <c r="CK117" s="14">
         <v>32.039896284541605</v>
       </c>
-      <c r="CL117" s="14">
+      <c r="CL117" s="25">
         <v>24.692651921457131</v>
       </c>
-      <c r="CM117" s="14">
+      <c r="CM117" s="25">
         <v>36.618285889297042</v>
       </c>
-      <c r="CN117" s="14">
+      <c r="CN117" s="25">
         <v>26.747055172225949</v>
       </c>
-      <c r="CO117" s="14">
+      <c r="CO117" s="25">
         <v>32.299121433197328</v>
       </c>
       <c r="CP117" s="25">
@@ -38634,21 +38734,23 @@
         <v>26.485354159163244</v>
       </c>
       <c r="CS117" s="25">
-        <v>31.95915903258323</v>
+        <v>32.098365128037244</v>
       </c>
       <c r="CT117" s="25">
-        <v>22.992984791253317</v>
+        <v>22.995928411594658</v>
       </c>
       <c r="CU117" s="25">
-        <v>34.077198656452907</v>
+        <v>34.063375809105246</v>
       </c>
       <c r="CV117" s="25">
-        <v>26.84906219227009</v>
+        <v>26.917437276300898</v>
       </c>
       <c r="CW117" s="25">
-        <v>31.933356003991943</v>
-      </c>
-      <c r="CX117" s="9"/>
+        <v>32.717542987526713</v>
+      </c>
+      <c r="CX117" s="25">
+        <v>23.67452507015426</v>
+      </c>
       <c r="CY117" s="9"/>
       <c r="CZ117" s="9"/>
       <c r="DA117" s="9"/>
@@ -38970,16 +39072,16 @@
       <c r="CK118" s="14">
         <v>14.493772309064793</v>
       </c>
-      <c r="CL118" s="14">
+      <c r="CL118" s="25">
         <v>12.751940262581062</v>
       </c>
-      <c r="CM118" s="14">
+      <c r="CM118" s="25">
         <v>11.271143320757758</v>
       </c>
-      <c r="CN118" s="14">
+      <c r="CN118" s="25">
         <v>12.988171527368788</v>
       </c>
-      <c r="CO118" s="14">
+      <c r="CO118" s="25">
         <v>14.118511899254283</v>
       </c>
       <c r="CP118" s="25">
@@ -38992,21 +39094,23 @@
         <v>12.185878865146019</v>
       </c>
       <c r="CS118" s="25">
-        <v>13.152405669218382</v>
+        <v>13.066825953450758</v>
       </c>
       <c r="CT118" s="25">
-        <v>11.068375851676377</v>
+        <v>11.068910863089929</v>
       </c>
       <c r="CU118" s="25">
-        <v>10.875037911870676</v>
+        <v>10.882193762622057</v>
       </c>
       <c r="CV118" s="25">
-        <v>11.821526857633973</v>
+        <v>11.787163071170797</v>
       </c>
       <c r="CW118" s="25">
-        <v>13.117155961030683</v>
-      </c>
-      <c r="CX118" s="9"/>
+        <v>12.983693537437514</v>
+      </c>
+      <c r="CX118" s="25">
+        <v>11.365285458573675</v>
+      </c>
       <c r="CY118" s="9"/>
       <c r="CZ118" s="9"/>
       <c r="DA118" s="9"/>
@@ -39328,16 +39432,16 @@
       <c r="CK119" s="14">
         <v>5.4550250400431652</v>
       </c>
-      <c r="CL119" s="14">
+      <c r="CL119" s="25">
         <v>4.818845671557213</v>
       </c>
-      <c r="CM119" s="14">
+      <c r="CM119" s="25">
         <v>5.3411033989743775</v>
       </c>
-      <c r="CN119" s="14">
+      <c r="CN119" s="25">
         <v>4.756191879307428</v>
       </c>
-      <c r="CO119" s="14">
+      <c r="CO119" s="25">
         <v>5.2832645300729411</v>
       </c>
       <c r="CP119" s="25">
@@ -39350,21 +39454,23 @@
         <v>4.7032206867832791</v>
       </c>
       <c r="CS119" s="25">
-        <v>5.3452355962482674</v>
+        <v>5.3770245807338179</v>
       </c>
       <c r="CT119" s="25">
-        <v>4.688925842491809</v>
+        <v>4.7068334811934109</v>
       </c>
       <c r="CU119" s="25">
-        <v>5.6503427668756876</v>
+        <v>5.6581584015451343</v>
       </c>
       <c r="CV119" s="25">
-        <v>4.8900998836313017</v>
+        <v>4.8787054224989221</v>
       </c>
       <c r="CW119" s="25">
-        <v>5.648495031514539</v>
-      </c>
-      <c r="CX119" s="9"/>
+        <v>5.6389014485859725</v>
+      </c>
+      <c r="CX119" s="25">
+        <v>4.9515996505932813</v>
+      </c>
       <c r="CY119" s="9"/>
       <c r="CZ119" s="9"/>
       <c r="DA119" s="9"/>
@@ -39507,10 +39613,10 @@
       <c r="CI120" s="14"/>
       <c r="CJ120" s="14"/>
       <c r="CK120" s="14"/>
-      <c r="CL120" s="14"/>
-      <c r="CM120" s="14"/>
-      <c r="CN120" s="14"/>
-      <c r="CO120" s="14"/>
+      <c r="CL120" s="25"/>
+      <c r="CM120" s="25"/>
+      <c r="CN120" s="25"/>
+      <c r="CO120" s="25"/>
       <c r="CP120" s="25"/>
       <c r="CQ120" s="25"/>
       <c r="CR120" s="25"/>
@@ -39519,7 +39625,7 @@
       <c r="CU120" s="25"/>
       <c r="CV120" s="25"/>
       <c r="CW120" s="25"/>
-      <c r="CX120" s="9"/>
+      <c r="CX120" s="25"/>
       <c r="CY120" s="9"/>
       <c r="CZ120" s="9"/>
       <c r="DA120" s="9"/>
@@ -39841,16 +39947,16 @@
       <c r="CK121" s="14">
         <v>100</v>
       </c>
-      <c r="CL121" s="14">
+      <c r="CL121" s="25">
         <v>100</v>
       </c>
-      <c r="CM121" s="14">
+      <c r="CM121" s="25">
         <v>100</v>
       </c>
-      <c r="CN121" s="14">
+      <c r="CN121" s="25">
         <v>100</v>
       </c>
-      <c r="CO121" s="14">
+      <c r="CO121" s="25">
         <v>100</v>
       </c>
       <c r="CP121" s="25">
@@ -39877,7 +39983,9 @@
       <c r="CW121" s="25">
         <v>100</v>
       </c>
-      <c r="CX121" s="9"/>
+      <c r="CX121" s="25">
+        <v>100</v>
+      </c>
       <c r="CY121" s="9"/>
       <c r="CZ121" s="9"/>
       <c r="DA121" s="9"/>
@@ -40021,10 +40129,10 @@
       <c r="CI122" s="12"/>
       <c r="CJ122" s="12"/>
       <c r="CK122" s="12"/>
-      <c r="CL122" s="12"/>
-      <c r="CM122" s="12"/>
-      <c r="CN122" s="12"/>
-      <c r="CO122" s="12"/>
+      <c r="CL122" s="23"/>
+      <c r="CM122" s="23"/>
+      <c r="CN122" s="23"/>
+      <c r="CO122" s="23"/>
       <c r="CP122" s="23"/>
       <c r="CQ122" s="23"/>
       <c r="CR122" s="23"/>
@@ -40033,6 +40141,7 @@
       <c r="CU122" s="23"/>
       <c r="CV122" s="23"/>
       <c r="CW122" s="23"/>
+      <c r="CX122" s="23"/>
     </row>
     <row r="123" spans="1:154" x14ac:dyDescent="0.2">
       <c r="A123" s="13" t="s">
@@ -40128,10 +40237,10 @@
       <c r="CI124" s="9"/>
       <c r="CJ124" s="9"/>
       <c r="CK124" s="9"/>
-      <c r="CL124" s="9"/>
-      <c r="CM124" s="9"/>
-      <c r="CN124" s="9"/>
-      <c r="CO124" s="9"/>
+      <c r="CL124" s="21"/>
+      <c r="CM124" s="21"/>
+      <c r="CN124" s="21"/>
+      <c r="CO124" s="21"/>
       <c r="CP124" s="21"/>
       <c r="CQ124" s="21"/>
       <c r="CR124" s="21"/>
@@ -40140,7 +40249,7 @@
       <c r="CU124" s="21"/>
       <c r="CV124" s="21"/>
       <c r="CW124" s="21"/>
-      <c r="CX124" s="9"/>
+      <c r="CX124" s="21"/>
       <c r="CY124" s="9"/>
       <c r="CZ124" s="9"/>
       <c r="DA124" s="9"/>
@@ -40283,10 +40392,10 @@
       <c r="CI125" s="9"/>
       <c r="CJ125" s="9"/>
       <c r="CK125" s="9"/>
-      <c r="CL125" s="9"/>
-      <c r="CM125" s="9"/>
-      <c r="CN125" s="9"/>
-      <c r="CO125" s="9"/>
+      <c r="CL125" s="21"/>
+      <c r="CM125" s="21"/>
+      <c r="CN125" s="21"/>
+      <c r="CO125" s="21"/>
       <c r="CP125" s="21"/>
       <c r="CQ125" s="21"/>
       <c r="CR125" s="21"/>
@@ -40295,7 +40404,7 @@
       <c r="CU125" s="21"/>
       <c r="CV125" s="21"/>
       <c r="CW125" s="21"/>
-      <c r="CX125" s="9"/>
+      <c r="CX125" s="21"/>
       <c r="CY125" s="9"/>
       <c r="CZ125" s="9"/>
       <c r="DA125" s="9"/>
@@ -40361,7 +40470,7 @@
     </row>
     <row r="128" spans="1:154" x14ac:dyDescent="0.2">
       <c r="A128" s="1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="130" spans="1:154" x14ac:dyDescent="0.2">
@@ -40371,7 +40480,7 @@
     </row>
     <row r="131" spans="1:154" x14ac:dyDescent="0.2">
       <c r="A131" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
     </row>
     <row r="132" spans="1:154" x14ac:dyDescent="0.2">
@@ -40513,12 +40622,12 @@
       <c r="CI134" s="15"/>
       <c r="CJ134" s="15"/>
       <c r="CK134" s="15"/>
-      <c r="CL134" s="15">
+      <c r="CL134" s="18">
         <v>2022</v>
       </c>
-      <c r="CM134" s="15"/>
-      <c r="CN134" s="15"/>
-      <c r="CO134" s="15"/>
+      <c r="CM134" s="18"/>
+      <c r="CN134" s="18"/>
+      <c r="CO134" s="18"/>
       <c r="CP134" s="18">
         <v>2023</v>
       </c>
@@ -40531,6 +40640,9 @@
       <c r="CU134" s="18"/>
       <c r="CV134" s="18"/>
       <c r="CW134" s="18"/>
+      <c r="CX134" s="18">
+        <v>2025</v>
+      </c>
     </row>
     <row r="135" spans="1:154" x14ac:dyDescent="0.2">
       <c r="A135" s="5" t="s">
@@ -40800,16 +40912,16 @@
       <c r="CK135" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="CL135" s="6" t="s">
+      <c r="CL135" s="19" t="s">
         <v>7</v>
       </c>
-      <c r="CM135" s="6" t="s">
+      <c r="CM135" s="19" t="s">
         <v>8</v>
       </c>
-      <c r="CN135" s="6" t="s">
+      <c r="CN135" s="19" t="s">
         <v>10</v>
       </c>
-      <c r="CO135" s="6" t="s">
+      <c r="CO135" s="19" t="s">
         <v>9</v>
       </c>
       <c r="CP135" s="19" t="s">
@@ -40835,6 +40947,9 @@
       </c>
       <c r="CW135" s="19" t="s">
         <v>9</v>
+      </c>
+      <c r="CX135" s="19" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="136" spans="1:154" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
@@ -41108,16 +41223,16 @@
       <c r="CK137" s="14">
         <v>47.847544245251115</v>
       </c>
-      <c r="CL137" s="14">
+      <c r="CL137" s="25">
         <v>58.174761220043322</v>
       </c>
-      <c r="CM137" s="14">
+      <c r="CM137" s="25">
         <v>46.335818533307815</v>
       </c>
-      <c r="CN137" s="14">
+      <c r="CN137" s="25">
         <v>55.196868761905471</v>
       </c>
-      <c r="CO137" s="14">
+      <c r="CO137" s="25">
         <v>48.035263507324544</v>
       </c>
       <c r="CP137" s="25">
@@ -41130,21 +41245,23 @@
         <v>56.240111423604546</v>
       </c>
       <c r="CS137" s="25">
-        <v>49.287161076521521</v>
+        <v>49.202550658484512</v>
       </c>
       <c r="CT137" s="25">
-        <v>61.179968939151507</v>
+        <v>61.158624347140133</v>
       </c>
       <c r="CU137" s="25">
-        <v>49.025895133462384</v>
+        <v>49.024786660944748</v>
       </c>
       <c r="CV137" s="25">
-        <v>56.068735093040154</v>
+        <v>56.046184570573168</v>
       </c>
       <c r="CW137" s="25">
-        <v>49.057872211677797</v>
-      </c>
-      <c r="CX137" s="9"/>
+        <v>48.417927629565725</v>
+      </c>
+      <c r="CX137" s="25">
+        <v>59.939239268426547</v>
+      </c>
       <c r="CY137" s="9"/>
       <c r="CZ137" s="9"/>
       <c r="DA137" s="9"/>
@@ -41466,16 +41583,16 @@
       <c r="CK138" s="14">
         <v>31.980121369693197</v>
       </c>
-      <c r="CL138" s="14">
+      <c r="CL138" s="25">
         <v>24.591044123525645</v>
       </c>
-      <c r="CM138" s="14">
+      <c r="CM138" s="25">
         <v>36.779864309859292</v>
       </c>
-      <c r="CN138" s="14">
+      <c r="CN138" s="25">
         <v>26.854229747119174</v>
       </c>
-      <c r="CO138" s="14">
+      <c r="CO138" s="25">
         <v>32.339705050693937</v>
       </c>
       <c r="CP138" s="25">
@@ -41488,21 +41605,23 @@
         <v>26.674129740411896</v>
       </c>
       <c r="CS138" s="25">
-        <v>32.056378295940561</v>
+        <v>32.196245727996825</v>
       </c>
       <c r="CT138" s="25">
-        <v>23.252463477970327</v>
+        <v>23.255446905634436</v>
       </c>
       <c r="CU138" s="25">
-        <v>34.271865275854637</v>
+        <v>34.257985790023646</v>
       </c>
       <c r="CV138" s="25">
-        <v>27.05141925180483</v>
+        <v>27.120269898559734</v>
       </c>
       <c r="CW138" s="25">
-        <v>32.037295452796322</v>
-      </c>
-      <c r="CX138" s="9"/>
+        <v>32.823198068987502</v>
+      </c>
+      <c r="CX138" s="25">
+        <v>23.94503181242672</v>
+      </c>
       <c r="CY138" s="9"/>
       <c r="CZ138" s="9"/>
       <c r="DA138" s="9"/>
@@ -41824,16 +41943,16 @@
       <c r="CK139" s="14">
         <v>14.750682534200942</v>
       </c>
-      <c r="CL139" s="14">
+      <c r="CL139" s="25">
         <v>12.49107987753553</v>
       </c>
-      <c r="CM139" s="14">
+      <c r="CM139" s="25">
         <v>11.619236394524371</v>
       </c>
-      <c r="CN139" s="14">
+      <c r="CN139" s="25">
         <v>13.243334269575961</v>
       </c>
-      <c r="CO139" s="14">
+      <c r="CO139" s="25">
         <v>14.35022561182328</v>
       </c>
       <c r="CP139" s="25">
@@ -41846,21 +41965,23 @@
         <v>12.412764096355525</v>
       </c>
       <c r="CS139" s="25">
-        <v>13.357018711013383</v>
+        <v>13.270205668229526</v>
       </c>
       <c r="CT139" s="25">
-        <v>10.894656454894122</v>
+        <v>10.895186155818941</v>
       </c>
       <c r="CU139" s="25">
-        <v>11.204186213506471</v>
+        <v>11.211565855980107</v>
       </c>
       <c r="CV139" s="25">
-        <v>12.03863724161514</v>
+        <v>12.003624738667332</v>
       </c>
       <c r="CW139" s="25">
-        <v>13.318838065733216</v>
-      </c>
-      <c r="CX139" s="9"/>
+        <v>13.18263573376724</v>
+      </c>
+      <c r="CX139" s="25">
+        <v>11.185747555444259</v>
+      </c>
       <c r="CY139" s="9"/>
       <c r="CZ139" s="9"/>
       <c r="DA139" s="9"/>
@@ -42182,16 +42303,16 @@
       <c r="CK140" s="14">
         <v>5.4216518508547624</v>
       </c>
-      <c r="CL140" s="14">
+      <c r="CL140" s="25">
         <v>4.7431147788955004</v>
       </c>
-      <c r="CM140" s="14">
+      <c r="CM140" s="25">
         <v>5.2650807623085303</v>
       </c>
-      <c r="CN140" s="14">
+      <c r="CN140" s="25">
         <v>4.7055672213993818</v>
       </c>
-      <c r="CO140" s="14">
+      <c r="CO140" s="25">
         <v>5.2748058301582486</v>
       </c>
       <c r="CP140" s="25">
@@ -42204,21 +42325,23 @@
         <v>4.6729947396280309</v>
       </c>
       <c r="CS140" s="25">
-        <v>5.2994419165245557</v>
+        <v>5.3309979452891314</v>
       </c>
       <c r="CT140" s="25">
-        <v>4.6729111279840438</v>
+        <v>4.6907425914064955</v>
       </c>
       <c r="CU140" s="25">
-        <v>5.4980533771765216</v>
+        <v>5.5056616930514872</v>
       </c>
       <c r="CV140" s="25">
-        <v>4.8412084135398832</v>
+        <v>4.8299207921997906</v>
       </c>
       <c r="CW140" s="25">
-        <v>5.5859942697926579</v>
-      </c>
-      <c r="CX140" s="9"/>
+        <v>5.5762385676795283</v>
+      </c>
+      <c r="CX140" s="25">
+        <v>4.9299813637024874</v>
+      </c>
       <c r="CY140" s="9"/>
       <c r="CZ140" s="9"/>
       <c r="DA140" s="9"/>
@@ -42361,10 +42484,10 @@
       <c r="CI141" s="9"/>
       <c r="CJ141" s="9"/>
       <c r="CK141" s="9"/>
-      <c r="CL141" s="9"/>
-      <c r="CM141" s="9"/>
-      <c r="CN141" s="9"/>
-      <c r="CO141" s="9"/>
+      <c r="CL141" s="21"/>
+      <c r="CM141" s="21"/>
+      <c r="CN141" s="21"/>
+      <c r="CO141" s="21"/>
       <c r="CP141" s="21"/>
       <c r="CQ141" s="21"/>
       <c r="CR141" s="21"/>
@@ -42373,7 +42496,7 @@
       <c r="CU141" s="21"/>
       <c r="CV141" s="21"/>
       <c r="CW141" s="21"/>
-      <c r="CX141" s="9"/>
+      <c r="CX141" s="21"/>
       <c r="CY141" s="9"/>
       <c r="CZ141" s="9"/>
       <c r="DA141" s="9"/>
@@ -42695,16 +42818,16 @@
       <c r="CK142" s="14">
         <v>100</v>
       </c>
-      <c r="CL142" s="14">
+      <c r="CL142" s="25">
         <v>100</v>
       </c>
-      <c r="CM142" s="14">
+      <c r="CM142" s="25">
         <v>100</v>
       </c>
-      <c r="CN142" s="14">
+      <c r="CN142" s="25">
         <v>100</v>
       </c>
-      <c r="CO142" s="14">
+      <c r="CO142" s="25">
         <v>100</v>
       </c>
       <c r="CP142" s="25">
@@ -42731,7 +42854,9 @@
       <c r="CW142" s="25">
         <v>100</v>
       </c>
-      <c r="CX142" s="9"/>
+      <c r="CX142" s="25">
+        <v>100</v>
+      </c>
       <c r="CY142" s="9"/>
       <c r="CZ142" s="9"/>
       <c r="DA142" s="9"/>
@@ -42875,10 +43000,10 @@
       <c r="CI143" s="12"/>
       <c r="CJ143" s="12"/>
       <c r="CK143" s="12"/>
-      <c r="CL143" s="12"/>
-      <c r="CM143" s="12"/>
-      <c r="CN143" s="12"/>
-      <c r="CO143" s="12"/>
+      <c r="CL143" s="23"/>
+      <c r="CM143" s="23"/>
+      <c r="CN143" s="23"/>
+      <c r="CO143" s="23"/>
       <c r="CP143" s="23"/>
       <c r="CQ143" s="23"/>
       <c r="CR143" s="23"/>
@@ -42887,60 +43012,141 @@
       <c r="CU143" s="23"/>
       <c r="CV143" s="23"/>
       <c r="CW143" s="23"/>
+      <c r="CX143" s="23"/>
     </row>
     <row r="144" spans="1:154" x14ac:dyDescent="0.2">
       <c r="A144" s="13" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="145" spans="98:100" x14ac:dyDescent="0.2">
-      <c r="CT145" s="26"/>
+    <row r="145" spans="98:102" x14ac:dyDescent="0.2">
       <c r="CU145" s="26"/>
       <c r="CV145" s="26"/>
+      <c r="CX145" s="26"/>
     </row>
-    <row r="146" spans="98:100" x14ac:dyDescent="0.2">
+    <row r="146" spans="98:102" x14ac:dyDescent="0.2">
       <c r="CT146" s="26"/>
       <c r="CU146" s="26"/>
       <c r="CV146" s="26"/>
+      <c r="CX146" s="26"/>
     </row>
-    <row r="147" spans="98:100" x14ac:dyDescent="0.2">
+    <row r="147" spans="98:102" x14ac:dyDescent="0.2">
       <c r="CT147" s="26"/>
       <c r="CU147" s="26"/>
       <c r="CV147" s="26"/>
+      <c r="CX147" s="26"/>
     </row>
-    <row r="148" spans="98:100" x14ac:dyDescent="0.2">
+    <row r="148" spans="98:102" x14ac:dyDescent="0.2">
       <c r="CT148" s="26"/>
       <c r="CU148" s="26"/>
       <c r="CV148" s="26"/>
+      <c r="CX148" s="26"/>
+    </row>
+    <row r="149" spans="98:102" x14ac:dyDescent="0.2">
+      <c r="CT149" s="26"/>
+      <c r="CU149" s="26"/>
+      <c r="CV149" s="26"/>
+      <c r="CX149" s="26"/>
     </row>
   </sheetData>
   <mergeCells count="147">
-    <mergeCell ref="CD134:CG134"/>
-    <mergeCell ref="BZ9:CC9"/>
-    <mergeCell ref="BZ30:CC30"/>
-    <mergeCell ref="BZ92:CC92"/>
-    <mergeCell ref="CD9:CG9"/>
-    <mergeCell ref="CD30:CG30"/>
-    <mergeCell ref="BZ51:CC51"/>
-    <mergeCell ref="BZ72:CC72"/>
-    <mergeCell ref="CD113:CG113"/>
-    <mergeCell ref="CD92:CG92"/>
-    <mergeCell ref="CD51:CG51"/>
-    <mergeCell ref="CD72:CG72"/>
-    <mergeCell ref="BJ9:BM9"/>
-    <mergeCell ref="BN9:BQ9"/>
-    <mergeCell ref="BJ72:BM72"/>
-    <mergeCell ref="BN72:BQ72"/>
-    <mergeCell ref="BR92:BU92"/>
-    <mergeCell ref="BV92:BY92"/>
-    <mergeCell ref="BR51:BU51"/>
-    <mergeCell ref="BV51:BY51"/>
-    <mergeCell ref="BR72:BU72"/>
-    <mergeCell ref="BV72:BY72"/>
-    <mergeCell ref="BR9:BU9"/>
-    <mergeCell ref="BV9:BY9"/>
-    <mergeCell ref="BR30:BU30"/>
-    <mergeCell ref="BV30:BY30"/>
+    <mergeCell ref="B134:E134"/>
+    <mergeCell ref="F134:I134"/>
+    <mergeCell ref="J134:M134"/>
+    <mergeCell ref="N134:Q134"/>
+    <mergeCell ref="B92:E92"/>
+    <mergeCell ref="F92:I92"/>
+    <mergeCell ref="J92:M92"/>
+    <mergeCell ref="N92:Q92"/>
+    <mergeCell ref="R92:U92"/>
+    <mergeCell ref="B113:E113"/>
+    <mergeCell ref="F113:I113"/>
+    <mergeCell ref="J113:M113"/>
+    <mergeCell ref="N113:Q113"/>
+    <mergeCell ref="R134:U134"/>
+    <mergeCell ref="AD92:AG92"/>
+    <mergeCell ref="AH92:AK92"/>
+    <mergeCell ref="AP134:AS134"/>
+    <mergeCell ref="AT134:AW134"/>
+    <mergeCell ref="AX134:BA134"/>
+    <mergeCell ref="R113:U113"/>
+    <mergeCell ref="BB134:BE134"/>
+    <mergeCell ref="Z113:AC113"/>
+    <mergeCell ref="AD113:AG113"/>
+    <mergeCell ref="AH113:AK113"/>
+    <mergeCell ref="AL113:AO113"/>
+    <mergeCell ref="V113:Y113"/>
+    <mergeCell ref="AL92:AO92"/>
+    <mergeCell ref="V134:Y134"/>
+    <mergeCell ref="Z134:AC134"/>
+    <mergeCell ref="AD134:AG134"/>
+    <mergeCell ref="AH134:AK134"/>
+    <mergeCell ref="AL134:AO134"/>
+    <mergeCell ref="V92:Y92"/>
+    <mergeCell ref="Z92:AC92"/>
+    <mergeCell ref="AP113:AS113"/>
+    <mergeCell ref="AT113:AW113"/>
+    <mergeCell ref="AX113:BA113"/>
+    <mergeCell ref="BB113:BE113"/>
+    <mergeCell ref="AP92:AS92"/>
+    <mergeCell ref="AT92:AW92"/>
+    <mergeCell ref="BN51:BQ51"/>
+    <mergeCell ref="AP72:AS72"/>
+    <mergeCell ref="AX92:BA92"/>
+    <mergeCell ref="BB92:BE92"/>
+    <mergeCell ref="BJ92:BM92"/>
+    <mergeCell ref="BJ51:BM51"/>
+    <mergeCell ref="BN92:BQ92"/>
+    <mergeCell ref="BF92:BI92"/>
+    <mergeCell ref="BF72:BI72"/>
+    <mergeCell ref="BF51:BI51"/>
+    <mergeCell ref="BV134:BY134"/>
+    <mergeCell ref="BZ134:CC134"/>
+    <mergeCell ref="BR113:BU113"/>
+    <mergeCell ref="BV113:BY113"/>
+    <mergeCell ref="BF134:BI134"/>
+    <mergeCell ref="BJ134:BM134"/>
+    <mergeCell ref="BN134:BQ134"/>
+    <mergeCell ref="BF113:BI113"/>
+    <mergeCell ref="BJ113:BM113"/>
+    <mergeCell ref="BN113:BQ113"/>
+    <mergeCell ref="BR134:BU134"/>
+    <mergeCell ref="BZ113:CC113"/>
+    <mergeCell ref="AL72:AO72"/>
+    <mergeCell ref="AT72:AW72"/>
+    <mergeCell ref="AX72:BA72"/>
+    <mergeCell ref="BB72:BE72"/>
+    <mergeCell ref="BF30:BI30"/>
+    <mergeCell ref="AH51:AK51"/>
+    <mergeCell ref="B72:E72"/>
+    <mergeCell ref="F72:I72"/>
+    <mergeCell ref="J72:M72"/>
+    <mergeCell ref="N72:Q72"/>
+    <mergeCell ref="R72:U72"/>
+    <mergeCell ref="V72:Y72"/>
+    <mergeCell ref="Z72:AC72"/>
+    <mergeCell ref="AD72:AG72"/>
+    <mergeCell ref="AH72:AK72"/>
+    <mergeCell ref="AL51:AO51"/>
+    <mergeCell ref="AP51:AS51"/>
+    <mergeCell ref="AT51:AW51"/>
+    <mergeCell ref="AX51:BA51"/>
+    <mergeCell ref="AP30:AS30"/>
+    <mergeCell ref="AT30:AW30"/>
+    <mergeCell ref="AX30:BA30"/>
+    <mergeCell ref="BB30:BE30"/>
+    <mergeCell ref="BB51:BE51"/>
+    <mergeCell ref="B51:E51"/>
+    <mergeCell ref="V9:Y9"/>
+    <mergeCell ref="Z9:AC9"/>
+    <mergeCell ref="AD9:AG9"/>
+    <mergeCell ref="F51:I51"/>
+    <mergeCell ref="J51:M51"/>
+    <mergeCell ref="N51:Q51"/>
+    <mergeCell ref="R51:U51"/>
+    <mergeCell ref="V51:Y51"/>
+    <mergeCell ref="Z51:AC51"/>
+    <mergeCell ref="AD51:AG51"/>
     <mergeCell ref="AL30:AO30"/>
     <mergeCell ref="BF9:BI9"/>
     <mergeCell ref="B9:E9"/>
@@ -42965,112 +43171,41 @@
     <mergeCell ref="Z30:AC30"/>
     <mergeCell ref="AD30:AG30"/>
     <mergeCell ref="AH30:AK30"/>
-    <mergeCell ref="B51:E51"/>
-    <mergeCell ref="V9:Y9"/>
-    <mergeCell ref="Z9:AC9"/>
-    <mergeCell ref="AD9:AG9"/>
-    <mergeCell ref="F51:I51"/>
-    <mergeCell ref="J51:M51"/>
-    <mergeCell ref="N51:Q51"/>
-    <mergeCell ref="R51:U51"/>
-    <mergeCell ref="V51:Y51"/>
-    <mergeCell ref="Z51:AC51"/>
-    <mergeCell ref="AD51:AG51"/>
-    <mergeCell ref="AL72:AO72"/>
-    <mergeCell ref="AT72:AW72"/>
-    <mergeCell ref="AX72:BA72"/>
-    <mergeCell ref="BB72:BE72"/>
-    <mergeCell ref="BF30:BI30"/>
-    <mergeCell ref="AH51:AK51"/>
-    <mergeCell ref="B72:E72"/>
-    <mergeCell ref="F72:I72"/>
-    <mergeCell ref="J72:M72"/>
-    <mergeCell ref="N72:Q72"/>
-    <mergeCell ref="R72:U72"/>
-    <mergeCell ref="V72:Y72"/>
-    <mergeCell ref="Z72:AC72"/>
-    <mergeCell ref="AD72:AG72"/>
-    <mergeCell ref="AH72:AK72"/>
-    <mergeCell ref="AL51:AO51"/>
-    <mergeCell ref="AP51:AS51"/>
-    <mergeCell ref="AT51:AW51"/>
-    <mergeCell ref="AX51:BA51"/>
-    <mergeCell ref="AP30:AS30"/>
-    <mergeCell ref="AT30:AW30"/>
-    <mergeCell ref="AX30:BA30"/>
-    <mergeCell ref="BB30:BE30"/>
-    <mergeCell ref="BB51:BE51"/>
-    <mergeCell ref="BV134:BY134"/>
-    <mergeCell ref="BZ134:CC134"/>
-    <mergeCell ref="BR113:BU113"/>
-    <mergeCell ref="BV113:BY113"/>
-    <mergeCell ref="BF134:BI134"/>
-    <mergeCell ref="BJ134:BM134"/>
-    <mergeCell ref="BN134:BQ134"/>
-    <mergeCell ref="BF113:BI113"/>
-    <mergeCell ref="BJ113:BM113"/>
-    <mergeCell ref="BN113:BQ113"/>
-    <mergeCell ref="BR134:BU134"/>
-    <mergeCell ref="BZ113:CC113"/>
-    <mergeCell ref="AP92:AS92"/>
-    <mergeCell ref="AT92:AW92"/>
-    <mergeCell ref="BN51:BQ51"/>
-    <mergeCell ref="AP72:AS72"/>
-    <mergeCell ref="AX92:BA92"/>
-    <mergeCell ref="BB92:BE92"/>
-    <mergeCell ref="BJ92:BM92"/>
-    <mergeCell ref="BJ51:BM51"/>
-    <mergeCell ref="BN92:BQ92"/>
-    <mergeCell ref="BF92:BI92"/>
-    <mergeCell ref="BF72:BI72"/>
-    <mergeCell ref="BF51:BI51"/>
-    <mergeCell ref="AD92:AG92"/>
-    <mergeCell ref="AH92:AK92"/>
-    <mergeCell ref="AP134:AS134"/>
-    <mergeCell ref="AT134:AW134"/>
-    <mergeCell ref="AX134:BA134"/>
-    <mergeCell ref="R113:U113"/>
-    <mergeCell ref="BB134:BE134"/>
-    <mergeCell ref="Z113:AC113"/>
-    <mergeCell ref="AD113:AG113"/>
-    <mergeCell ref="AH113:AK113"/>
-    <mergeCell ref="AL113:AO113"/>
-    <mergeCell ref="V113:Y113"/>
-    <mergeCell ref="AL92:AO92"/>
-    <mergeCell ref="V134:Y134"/>
-    <mergeCell ref="Z134:AC134"/>
-    <mergeCell ref="AD134:AG134"/>
-    <mergeCell ref="AH134:AK134"/>
-    <mergeCell ref="AL134:AO134"/>
-    <mergeCell ref="V92:Y92"/>
-    <mergeCell ref="Z92:AC92"/>
-    <mergeCell ref="AP113:AS113"/>
-    <mergeCell ref="AT113:AW113"/>
-    <mergeCell ref="AX113:BA113"/>
-    <mergeCell ref="BB113:BE113"/>
-    <mergeCell ref="B134:E134"/>
-    <mergeCell ref="F134:I134"/>
-    <mergeCell ref="J134:M134"/>
-    <mergeCell ref="N134:Q134"/>
-    <mergeCell ref="B92:E92"/>
-    <mergeCell ref="F92:I92"/>
-    <mergeCell ref="J92:M92"/>
-    <mergeCell ref="N92:Q92"/>
-    <mergeCell ref="R92:U92"/>
-    <mergeCell ref="B113:E113"/>
-    <mergeCell ref="F113:I113"/>
-    <mergeCell ref="J113:M113"/>
-    <mergeCell ref="N113:Q113"/>
-    <mergeCell ref="R134:U134"/>
+    <mergeCell ref="BJ9:BM9"/>
+    <mergeCell ref="BN9:BQ9"/>
+    <mergeCell ref="BJ72:BM72"/>
+    <mergeCell ref="BN72:BQ72"/>
+    <mergeCell ref="BR92:BU92"/>
+    <mergeCell ref="BV92:BY92"/>
+    <mergeCell ref="BR51:BU51"/>
+    <mergeCell ref="BV51:BY51"/>
+    <mergeCell ref="BR72:BU72"/>
+    <mergeCell ref="BV72:BY72"/>
+    <mergeCell ref="BR9:BU9"/>
+    <mergeCell ref="BV9:BY9"/>
+    <mergeCell ref="BR30:BU30"/>
+    <mergeCell ref="BV30:BY30"/>
+    <mergeCell ref="CD134:CG134"/>
+    <mergeCell ref="BZ9:CC9"/>
+    <mergeCell ref="BZ30:CC30"/>
+    <mergeCell ref="BZ92:CC92"/>
+    <mergeCell ref="CD9:CG9"/>
+    <mergeCell ref="CD30:CG30"/>
+    <mergeCell ref="BZ51:CC51"/>
+    <mergeCell ref="BZ72:CC72"/>
+    <mergeCell ref="CD113:CG113"/>
+    <mergeCell ref="CD92:CG92"/>
+    <mergeCell ref="CD51:CG51"/>
+    <mergeCell ref="CD72:CG72"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.5" right="0.3" top="1" bottom="0.16700000000000001" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" scale="31" orientation="landscape" r:id="rId1"/>
   <headerFooter alignWithMargins="0"/>
   <rowBreaks count="3" manualBreakCount="3">
-    <brk id="42" max="100" man="1"/>
-    <brk id="84" max="100" man="1"/>
-    <brk id="104" max="100" man="1"/>
+    <brk id="42" max="101" man="1"/>
+    <brk id="84" max="101" man="1"/>
+    <brk id="104" max="101" man="1"/>
   </rowBreaks>
 </worksheet>
 </file>
--- a/Data/National Accounts/PSA-17FIA_2018PSNA_Qrt.xlsx
+++ b/Data/National Accounts/PSA-17FIA_2018PSNA_Qrt.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29029"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="K:\Other computers\My Laptop (1)\6. MAS_Series\2018-base\NAP\NAP detailed series as of May 2025\Qtr\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="K:\Other computers\My Laptop (1)\6. MAS_Series\2018-base\NAP\NAP detailed series as of August 2025\Qtr\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{34C124EE-DD69-4401-B2D8-BDA4CB67C718}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F623A092-5501-43F2-ADBC-15F78735FA11}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -323,7 +323,7 @@
     <definedName name="pet">#REF!</definedName>
     <definedName name="plastic">#REF!</definedName>
     <definedName name="ply">#REF!</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">FIA!$A$1:$CX$146</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">FIA!$A$1:$CY$146</definedName>
     <definedName name="_xlnm.Print_Area">#REF!</definedName>
     <definedName name="PRINT_AREA_MI">#REF!</definedName>
     <definedName name="Print_Titles_MI">'[9]CAP93+'!$A$1:$IV$1,'[9]CAP93+'!$A$1:$A$65536</definedName>
@@ -468,7 +468,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="839" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="846" uniqueCount="56">
   <si>
     <t>Source: Philippine Statistics Authority</t>
   </si>
@@ -630,13 +630,13 @@
     <t>2024 - 2025</t>
   </si>
   <si>
-    <t>Q1 2000 to Q1 2025</t>
+    <t>As of August 2025</t>
   </si>
   <si>
-    <t>Q1 2001 to Q1 2025</t>
+    <t>Q1 2000 to Q2 2025</t>
   </si>
   <si>
-    <t>As of May 2025</t>
+    <t>Q1 2001 to Q2 2025</t>
   </si>
 </sst>
 </file>
@@ -644,9 +644,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="3">
-    <numFmt numFmtId="164" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="165" formatCode="0.0"/>
-    <numFmt numFmtId="166" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="164" formatCode="0.0"/>
+    <numFmt numFmtId="165" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
   <fonts count="6" x14ac:knownFonts="1">
     <font>
@@ -720,7 +720,7 @@
   <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="32">
@@ -738,15 +738,15 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="166" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="166" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="165" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="165" fontId="5" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="centerContinuous"/>
     </xf>
@@ -760,18 +760,18 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="166" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="3" applyFont="1"/>
-    <xf numFmtId="166" fontId="5" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="165" fontId="5" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="3" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="165" fontId="5" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="165" fontId="5" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
@@ -23630,19 +23630,19 @@
   <sheetPr transitionEvaluation="1">
     <pageSetUpPr autoPageBreaks="0"/>
   </sheetPr>
-  <dimension ref="A1:EX149"/>
+  <dimension ref="A1:EX148"/>
   <sheetViews>
     <sheetView tabSelected="1" defaultGridColor="0" view="pageBreakPreview" colorId="22" zoomScale="70" zoomScaleNormal="100" zoomScaleSheetLayoutView="70" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="CH1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="CX1" sqref="CX1"/>
+      <pane xSplit="1" topLeftCell="CN1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="CY1" sqref="CY1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="7.77734375" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="38.33203125" style="1" customWidth="1"/>
     <col min="2" max="89" width="8.88671875" style="1" customWidth="1"/>
-    <col min="90" max="102" width="10.109375" style="17" customWidth="1"/>
-    <col min="103" max="16384" width="7.77734375" style="1"/>
+    <col min="90" max="103" width="10.109375" style="17" customWidth="1"/>
+    <col min="104" max="16384" width="7.77734375" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:154" x14ac:dyDescent="0.2">
@@ -23657,7 +23657,7 @@
     </row>
     <row r="3" spans="1:154" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
     </row>
     <row r="5" spans="1:154" x14ac:dyDescent="0.2">
@@ -23667,7 +23667,7 @@
     </row>
     <row r="6" spans="1:154" x14ac:dyDescent="0.2">
       <c r="A6" s="3" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="7" spans="1:154" x14ac:dyDescent="0.2">
@@ -23830,6 +23830,7 @@
       <c r="CX9" s="18">
         <v>2025</v>
       </c>
+      <c r="CY9" s="18"/>
     </row>
     <row r="10" spans="1:154" x14ac:dyDescent="0.2">
       <c r="A10" s="5" t="s">
@@ -24137,6 +24138,9 @@
       </c>
       <c r="CX10" s="19" t="s">
         <v>7</v>
+      </c>
+      <c r="CY10" s="19" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="11" spans="1:154" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
@@ -24447,9 +24451,11 @@
         <v>362255.94604121963</v>
       </c>
       <c r="CX12" s="20">
-        <v>484509.03474617092</v>
-      </c>
-      <c r="CY12" s="9"/>
+        <v>483635.14417858224</v>
+      </c>
+      <c r="CY12" s="20">
+        <v>370099.54845998855</v>
+      </c>
       <c r="CZ12" s="9"/>
       <c r="DA12" s="9"/>
       <c r="DB12" s="9"/>
@@ -24807,9 +24813,11 @@
         <v>243570.86094178318</v>
       </c>
       <c r="CX13" s="20">
-        <v>191147.98938104283</v>
-      </c>
-      <c r="CY13" s="9"/>
+        <v>188431.86756203652</v>
+      </c>
+      <c r="CY13" s="20">
+        <v>260809.00436914165</v>
+      </c>
       <c r="CZ13" s="9"/>
       <c r="DA13" s="9"/>
       <c r="DB13" s="9"/>
@@ -25167,9 +25175,11 @@
         <v>96659.135263414457</v>
       </c>
       <c r="CX14" s="20">
-        <v>91763.2542874832</v>
-      </c>
-      <c r="CY14" s="9"/>
+        <v>93487.915714654417</v>
+      </c>
+      <c r="CY14" s="20">
+        <v>85619.962644587184</v>
+      </c>
       <c r="CZ14" s="9"/>
       <c r="DA14" s="9"/>
       <c r="DB14" s="9"/>
@@ -25527,9 +25537,11 @@
         <v>41979.682921837324</v>
       </c>
       <c r="CX15" s="20">
-        <v>39979.189218202664</v>
-      </c>
-      <c r="CY15" s="9"/>
+        <v>39345.424388646672</v>
+      </c>
+      <c r="CY15" s="20">
+        <v>46149.627446024577</v>
+      </c>
       <c r="CZ15" s="9"/>
       <c r="DA15" s="9"/>
       <c r="DB15" s="9"/>
@@ -25684,7 +25696,7 @@
       <c r="CV16" s="21"/>
       <c r="CW16" s="21"/>
       <c r="CX16" s="21"/>
-      <c r="CY16" s="9"/>
+      <c r="CY16" s="21"/>
       <c r="CZ16" s="9"/>
       <c r="DA16" s="9"/>
       <c r="DB16" s="9"/>
@@ -26042,9 +26054,11 @@
         <v>744465.6251682546</v>
       </c>
       <c r="CX17" s="22">
-        <v>807399.46763289953</v>
-      </c>
-      <c r="CY17" s="9"/>
+        <v>804900.35184391984</v>
+      </c>
+      <c r="CY17" s="22">
+        <v>762678.14291974192</v>
+      </c>
       <c r="CZ17" s="9"/>
       <c r="DA17" s="9"/>
       <c r="DB17" s="9"/>
@@ -26200,6 +26214,7 @@
       <c r="CV18" s="23"/>
       <c r="CW18" s="23"/>
       <c r="CX18" s="23"/>
+      <c r="CY18" s="23"/>
     </row>
     <row r="19" spans="1:154" x14ac:dyDescent="0.2">
       <c r="A19" s="13" t="s">
@@ -26308,7 +26323,7 @@
       <c r="CV20" s="21"/>
       <c r="CW20" s="21"/>
       <c r="CX20" s="21"/>
-      <c r="CY20" s="9"/>
+      <c r="CY20" s="21"/>
       <c r="CZ20" s="9"/>
       <c r="DA20" s="9"/>
       <c r="DB20" s="9"/>
@@ -26463,7 +26478,7 @@
       <c r="CV21" s="21"/>
       <c r="CW21" s="21"/>
       <c r="CX21" s="21"/>
-      <c r="CY21" s="9"/>
+      <c r="CY21" s="21"/>
       <c r="CZ21" s="9"/>
       <c r="DA21" s="9"/>
       <c r="DB21" s="9"/>
@@ -26528,7 +26543,7 @@
     </row>
     <row r="24" spans="1:154" x14ac:dyDescent="0.2">
       <c r="A24" s="1" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
     </row>
     <row r="26" spans="1:154" x14ac:dyDescent="0.2">
@@ -26538,7 +26553,7 @@
     </row>
     <row r="27" spans="1:154" x14ac:dyDescent="0.2">
       <c r="A27" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="28" spans="1:154" x14ac:dyDescent="0.2">
@@ -26701,6 +26716,7 @@
       <c r="CX30" s="18">
         <v>2025</v>
       </c>
+      <c r="CY30" s="18"/>
     </row>
     <row r="31" spans="1:154" x14ac:dyDescent="0.2">
       <c r="A31" s="5" t="s">
@@ -27008,6 +27024,9 @@
       </c>
       <c r="CX31" s="19" t="s">
         <v>7</v>
+      </c>
+      <c r="CY31" s="19" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="32" spans="1:154" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
@@ -27318,9 +27337,11 @@
         <v>293302.25083285681</v>
       </c>
       <c r="CX33" s="20">
-        <v>384324.47881005332</v>
-      </c>
-      <c r="CY33" s="9"/>
+        <v>383760.14419142884</v>
+      </c>
+      <c r="CY33" s="20">
+        <v>292382.52463798772</v>
+      </c>
       <c r="CZ33" s="9"/>
       <c r="DA33" s="9"/>
       <c r="DB33" s="9"/>
@@ -27678,9 +27699,11 @@
         <v>198833.74494715154</v>
       </c>
       <c r="CX34" s="20">
-        <v>153533.17765994102</v>
-      </c>
-      <c r="CY34" s="9"/>
+        <v>151408.90151675628</v>
+      </c>
+      <c r="CY34" s="20">
+        <v>208867.18142161629</v>
+      </c>
       <c r="CZ34" s="9"/>
       <c r="DA34" s="9"/>
       <c r="DB34" s="9"/>
@@ -28038,9 +28061,11 @@
         <v>79856.716755934816</v>
       </c>
       <c r="CX35" s="20">
-        <v>71721.907915695745</v>
-      </c>
-      <c r="CY35" s="9"/>
+        <v>73109.383381391948</v>
+      </c>
+      <c r="CY35" s="20">
+        <v>70247.808427901604</v>
+      </c>
       <c r="CZ35" s="9"/>
       <c r="DA35" s="9"/>
       <c r="DB35" s="9"/>
@@ -28398,9 +28423,11 @@
         <v>33779.292157946096</v>
       </c>
       <c r="CX36" s="20">
-        <v>31610.553308211383</v>
-      </c>
-      <c r="CY36" s="9"/>
+        <v>31149.32869481633</v>
+      </c>
+      <c r="CY36" s="20">
+        <v>35827.867542389409</v>
+      </c>
       <c r="CZ36" s="9"/>
       <c r="DA36" s="9"/>
       <c r="DB36" s="9"/>
@@ -28555,7 +28582,7 @@
       <c r="CV37" s="21"/>
       <c r="CW37" s="21"/>
       <c r="CX37" s="21"/>
-      <c r="CY37" s="9"/>
+      <c r="CY37" s="21"/>
       <c r="CZ37" s="9"/>
       <c r="DA37" s="9"/>
       <c r="DB37" s="9"/>
@@ -28913,9 +28940,11 @@
         <v>605772.00469388929</v>
       </c>
       <c r="CX38" s="22">
-        <v>641190.11769390141</v>
-      </c>
-      <c r="CY38" s="9"/>
+        <v>639427.75778439338</v>
+      </c>
+      <c r="CY38" s="22">
+        <v>607325.38202989509</v>
+      </c>
       <c r="CZ38" s="9"/>
       <c r="DA38" s="9"/>
       <c r="DB38" s="9"/>
@@ -29071,6 +29100,7 @@
       <c r="CV39" s="23"/>
       <c r="CW39" s="23"/>
       <c r="CX39" s="23"/>
+      <c r="CY39" s="23"/>
     </row>
     <row r="40" spans="1:154" x14ac:dyDescent="0.2">
       <c r="A40" s="13" t="s">
@@ -29179,7 +29209,7 @@
       <c r="CV41" s="21"/>
       <c r="CW41" s="21"/>
       <c r="CX41" s="21"/>
-      <c r="CY41" s="9"/>
+      <c r="CY41" s="21"/>
       <c r="CZ41" s="9"/>
       <c r="DA41" s="9"/>
       <c r="DB41" s="9"/>
@@ -29334,7 +29364,7 @@
       <c r="CV42" s="21"/>
       <c r="CW42" s="21"/>
       <c r="CX42" s="21"/>
-      <c r="CY42" s="9"/>
+      <c r="CY42" s="21"/>
       <c r="CZ42" s="9"/>
       <c r="DA42" s="9"/>
       <c r="DB42" s="9"/>
@@ -29399,7 +29429,7 @@
     </row>
     <row r="45" spans="1:154" x14ac:dyDescent="0.2">
       <c r="A45" s="1" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
     </row>
     <row r="46" spans="1:154" x14ac:dyDescent="0.2">
@@ -29407,6 +29437,7 @@
       <c r="CU46" s="26"/>
       <c r="CV46" s="26"/>
       <c r="CX46" s="26"/>
+      <c r="CY46" s="26"/>
     </row>
     <row r="47" spans="1:154" x14ac:dyDescent="0.2">
       <c r="A47" s="1" t="s">
@@ -29416,15 +29447,17 @@
       <c r="CU47" s="26"/>
       <c r="CV47" s="26"/>
       <c r="CX47" s="26"/>
+      <c r="CY47" s="26"/>
     </row>
     <row r="48" spans="1:154" x14ac:dyDescent="0.2">
       <c r="A48" s="3" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="CT48" s="26"/>
       <c r="CU48" s="26"/>
       <c r="CV48" s="26"/>
       <c r="CX48" s="26"/>
+      <c r="CY48" s="26"/>
     </row>
     <row r="49" spans="1:150" x14ac:dyDescent="0.2">
       <c r="A49" s="1" t="s">
@@ -29434,11 +29467,12 @@
       <c r="CU49" s="26"/>
       <c r="CV49" s="26"/>
       <c r="CX49" s="26"/>
+      <c r="CY49" s="26"/>
     </row>
     <row r="50" spans="1:150" x14ac:dyDescent="0.2">
-      <c r="CU50" s="26"/>
       <c r="CV50" s="26"/>
       <c r="CX50" s="26"/>
+      <c r="CY50" s="26"/>
     </row>
     <row r="51" spans="1:150" x14ac:dyDescent="0.2">
       <c r="A51" s="4"/>
@@ -29589,10 +29623,11 @@
       <c r="CT51" s="18" t="s">
         <v>52</v>
       </c>
-      <c r="CU51" s="16"/>
+      <c r="CU51" s="18"/>
       <c r="CV51" s="16"/>
       <c r="CW51" s="16"/>
       <c r="CX51" s="16"/>
+      <c r="CY51" s="16"/>
     </row>
     <row r="52" spans="1:150" x14ac:dyDescent="0.2">
       <c r="A52" s="5" t="s">
@@ -29889,16 +29924,19 @@
       <c r="CT52" s="24" t="s">
         <v>7</v>
       </c>
-      <c r="CU52" s="24"/>
+      <c r="CU52" s="24" t="s">
+        <v>8</v>
+      </c>
       <c r="CV52" s="24"/>
       <c r="CW52" s="24"/>
       <c r="CX52" s="24"/>
+      <c r="CY52" s="24"/>
     </row>
     <row r="53" spans="1:150" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A53" s="7"/>
-      <c r="CU53" s="26"/>
       <c r="CV53" s="26"/>
       <c r="CX53" s="26"/>
+      <c r="CY53" s="26"/>
     </row>
     <row r="54" spans="1:150" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A54" s="1" t="s">
@@ -30193,13 +30231,15 @@
         <v>9.4447791053603254</v>
       </c>
       <c r="CT54" s="25">
-        <v>7.4616513662926849</v>
-      </c>
-      <c r="CU54" s="27"/>
+        <v>7.2678268619556121</v>
+      </c>
+      <c r="CU54" s="25">
+        <v>5.0394180075991528</v>
+      </c>
       <c r="CV54" s="27"/>
       <c r="CW54" s="25"/>
       <c r="CX54" s="27"/>
-      <c r="CY54" s="9"/>
+      <c r="CY54" s="27"/>
       <c r="CZ54" s="9"/>
       <c r="DA54" s="9"/>
       <c r="DB54" s="9"/>
@@ -30541,13 +30581,15 @@
         <v>13.385260216628254</v>
       </c>
       <c r="CT55" s="25">
-        <v>12.881510225604529</v>
-      </c>
-      <c r="CU55" s="27"/>
+        <v>11.27751776992163</v>
+      </c>
+      <c r="CU55" s="25">
+        <v>7.3403038806082037</v>
+      </c>
       <c r="CV55" s="27"/>
       <c r="CW55" s="25"/>
       <c r="CX55" s="27"/>
-      <c r="CY55" s="9"/>
+      <c r="CY55" s="27"/>
       <c r="CZ55" s="9"/>
       <c r="DA55" s="9"/>
       <c r="DB55" s="9"/>
@@ -30889,13 +30931,15 @@
         <v>10.531733670285618</v>
       </c>
       <c r="CT56" s="25">
-        <v>12.581736160814174</v>
-      </c>
-      <c r="CU56" s="27"/>
+        <v>14.697674389772658</v>
+      </c>
+      <c r="CU56" s="25">
+        <v>10.302791808878993</v>
+      </c>
       <c r="CV56" s="27"/>
       <c r="CW56" s="25"/>
       <c r="CX56" s="27"/>
-      <c r="CY56" s="9"/>
+      <c r="CY56" s="27"/>
       <c r="CZ56" s="9"/>
       <c r="DA56" s="9"/>
       <c r="DB56" s="9"/>
@@ -31237,13 +31281,15 @@
         <v>16.65713732835772</v>
       </c>
       <c r="CT57" s="25">
-        <v>15.347762143236139</v>
-      </c>
-      <c r="CU57" s="27"/>
+        <v>13.519226941699628</v>
+      </c>
+      <c r="CU57" s="25">
+        <v>14.34601217227609</v>
+      </c>
       <c r="CV57" s="27"/>
       <c r="CW57" s="25"/>
       <c r="CX57" s="27"/>
-      <c r="CY57" s="9"/>
+      <c r="CY57" s="27"/>
       <c r="CZ57" s="9"/>
       <c r="DA57" s="9"/>
       <c r="DB57" s="9"/>
@@ -31390,11 +31436,11 @@
       <c r="CR58" s="21"/>
       <c r="CS58" s="21"/>
       <c r="CT58" s="21"/>
-      <c r="CU58" s="28"/>
+      <c r="CU58" s="21"/>
       <c r="CV58" s="28"/>
       <c r="CW58" s="21"/>
       <c r="CX58" s="28"/>
-      <c r="CY58" s="9"/>
+      <c r="CY58" s="28"/>
       <c r="CZ58" s="9"/>
       <c r="DA58" s="9"/>
       <c r="DB58" s="9"/>
@@ -31736,13 +31782,15 @@
         <v>11.239449855949474</v>
       </c>
       <c r="CT59" s="25">
-        <v>9.6459219540228673</v>
-      </c>
-      <c r="CU59" s="27"/>
+        <v>9.3065387047919899</v>
+      </c>
+      <c r="CU59" s="25">
+        <v>6.9225297845935501</v>
+      </c>
       <c r="CV59" s="27"/>
       <c r="CW59" s="25"/>
       <c r="CX59" s="27"/>
-      <c r="CY59" s="9"/>
+      <c r="CY59" s="27"/>
       <c r="CZ59" s="9"/>
       <c r="DA59" s="9"/>
       <c r="DB59" s="9"/>
@@ -31890,18 +31938,19 @@
       <c r="CR60" s="23"/>
       <c r="CS60" s="23"/>
       <c r="CT60" s="23"/>
-      <c r="CU60" s="19"/>
+      <c r="CU60" s="23"/>
       <c r="CV60" s="19"/>
       <c r="CW60" s="23"/>
       <c r="CX60" s="19"/>
+      <c r="CY60" s="19"/>
     </row>
     <row r="61" spans="1:150" x14ac:dyDescent="0.2">
       <c r="A61" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="CU61" s="26"/>
       <c r="CV61" s="26"/>
       <c r="CX61" s="26"/>
+      <c r="CY61" s="26"/>
     </row>
     <row r="62" spans="1:150" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B62" s="9"/>
@@ -32001,11 +32050,11 @@
       <c r="CR62" s="21"/>
       <c r="CS62" s="21"/>
       <c r="CT62" s="21"/>
-      <c r="CU62" s="28"/>
+      <c r="CU62" s="21"/>
       <c r="CV62" s="28"/>
       <c r="CW62" s="21"/>
       <c r="CX62" s="28"/>
-      <c r="CY62" s="9"/>
+      <c r="CY62" s="28"/>
       <c r="CZ62" s="9"/>
       <c r="DA62" s="9"/>
       <c r="DB62" s="9"/>
@@ -32152,11 +32201,11 @@
       <c r="CR63" s="21"/>
       <c r="CS63" s="21"/>
       <c r="CT63" s="21"/>
-      <c r="CU63" s="28"/>
+      <c r="CU63" s="21"/>
       <c r="CV63" s="28"/>
       <c r="CW63" s="21"/>
       <c r="CX63" s="28"/>
-      <c r="CY63" s="9"/>
+      <c r="CY63" s="28"/>
       <c r="CZ63" s="9"/>
       <c r="DA63" s="9"/>
       <c r="DB63" s="9"/>
@@ -32209,59 +32258,59 @@
       <c r="A64" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="CU64" s="26"/>
       <c r="CV64" s="26"/>
       <c r="CX64" s="26"/>
+      <c r="CY64" s="26"/>
     </row>
     <row r="65" spans="1:150" x14ac:dyDescent="0.2">
       <c r="A65" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="CU65" s="26"/>
       <c r="CV65" s="26"/>
       <c r="CX65" s="26"/>
+      <c r="CY65" s="26"/>
     </row>
     <row r="66" spans="1:150" x14ac:dyDescent="0.2">
       <c r="A66" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="CU66" s="26"/>
+        <v>53</v>
+      </c>
       <c r="CV66" s="26"/>
       <c r="CX66" s="26"/>
+      <c r="CY66" s="26"/>
     </row>
     <row r="67" spans="1:150" x14ac:dyDescent="0.2">
-      <c r="CU67" s="26"/>
       <c r="CV67" s="26"/>
       <c r="CX67" s="26"/>
+      <c r="CY67" s="26"/>
     </row>
     <row r="68" spans="1:150" x14ac:dyDescent="0.2">
       <c r="A68" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="CU68" s="26"/>
       <c r="CV68" s="26"/>
       <c r="CX68" s="26"/>
+      <c r="CY68" s="26"/>
     </row>
     <row r="69" spans="1:150" x14ac:dyDescent="0.2">
       <c r="A69" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="CU69" s="26"/>
+        <v>55</v>
+      </c>
       <c r="CV69" s="26"/>
       <c r="CX69" s="26"/>
+      <c r="CY69" s="26"/>
     </row>
     <row r="70" spans="1:150" x14ac:dyDescent="0.2">
       <c r="A70" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="CU70" s="26"/>
       <c r="CV70" s="26"/>
       <c r="CX70" s="26"/>
+      <c r="CY70" s="26"/>
     </row>
     <row r="71" spans="1:150" x14ac:dyDescent="0.2">
-      <c r="CU71" s="26"/>
       <c r="CV71" s="26"/>
       <c r="CX71" s="26"/>
+      <c r="CY71" s="26"/>
     </row>
     <row r="72" spans="1:150" x14ac:dyDescent="0.2">
       <c r="A72" s="4"/>
@@ -32412,10 +32461,11 @@
       <c r="CT72" s="18" t="s">
         <v>52</v>
       </c>
-      <c r="CU72" s="16"/>
+      <c r="CU72" s="18"/>
       <c r="CV72" s="16"/>
       <c r="CW72" s="16"/>
       <c r="CX72" s="16"/>
+      <c r="CY72" s="16"/>
     </row>
     <row r="73" spans="1:150" x14ac:dyDescent="0.2">
       <c r="A73" s="5" t="s">
@@ -32712,16 +32762,19 @@
       <c r="CT73" s="24" t="s">
         <v>7</v>
       </c>
-      <c r="CU73" s="24"/>
+      <c r="CU73" s="24" t="s">
+        <v>8</v>
+      </c>
       <c r="CV73" s="24"/>
       <c r="CW73" s="24"/>
       <c r="CX73" s="24"/>
+      <c r="CY73" s="24"/>
     </row>
     <row r="74" spans="1:150" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A74" s="7"/>
-      <c r="CU74" s="26"/>
       <c r="CV74" s="26"/>
       <c r="CX74" s="26"/>
+      <c r="CY74" s="26"/>
     </row>
     <row r="75" spans="1:150" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A75" s="1" t="s">
@@ -33016,13 +33069,15 @@
         <v>6.5438185514050673</v>
       </c>
       <c r="CT75" s="25">
-        <v>5.0208077731706027</v>
-      </c>
-      <c r="CU75" s="27"/>
+        <v>4.8665972537527153</v>
+      </c>
+      <c r="CU75" s="25">
+        <v>3.6719540103108415</v>
+      </c>
       <c r="CV75" s="27"/>
       <c r="CW75" s="25"/>
       <c r="CX75" s="27"/>
-      <c r="CY75" s="9"/>
+      <c r="CY75" s="27"/>
       <c r="CZ75" s="9"/>
       <c r="DA75" s="9"/>
       <c r="DB75" s="9"/>
@@ -33364,13 +33419,15 @@
         <v>10.3787161292382</v>
       </c>
       <c r="CT76" s="25">
-        <v>10.334813265854564</v>
-      </c>
-      <c r="CU76" s="27"/>
+        <v>8.8082271874857128</v>
+      </c>
+      <c r="CU76" s="25">
+        <v>5.9824527388675506</v>
+      </c>
       <c r="CV76" s="27"/>
       <c r="CW76" s="25"/>
       <c r="CX76" s="27"/>
-      <c r="CY76" s="9"/>
+      <c r="CY76" s="27"/>
       <c r="CZ76" s="9"/>
       <c r="DA76" s="9"/>
       <c r="DB76" s="9"/>
@@ -33712,13 +33769,15 @@
         <v>7.5559092424884966</v>
       </c>
       <c r="CT77" s="25">
-        <v>10.015073837833555</v>
-      </c>
-      <c r="CU77" s="27"/>
+        <v>12.143338690828998</v>
+      </c>
+      <c r="CU77" s="25">
+        <v>8.9161025979338007</v>
+      </c>
       <c r="CV77" s="27"/>
       <c r="CW77" s="25"/>
       <c r="CX77" s="27"/>
-      <c r="CY77" s="9"/>
+      <c r="CY77" s="27"/>
       <c r="CZ77" s="9"/>
       <c r="DA77" s="9"/>
       <c r="DB77" s="9"/>
@@ -34060,13 +34119,15 @@
         <v>13.251120832429692</v>
       </c>
       <c r="CT78" s="25">
-        <v>12.622590370270586</v>
-      </c>
-      <c r="CU78" s="27"/>
+        <v>10.979331861107312</v>
+      </c>
+      <c r="CU78" s="25">
+        <v>13.11938180533177</v>
+      </c>
       <c r="CV78" s="27"/>
       <c r="CW78" s="25"/>
       <c r="CX78" s="27"/>
-      <c r="CY78" s="9"/>
+      <c r="CY78" s="27"/>
       <c r="CZ78" s="9"/>
       <c r="DA78" s="9"/>
       <c r="DB78" s="9"/>
@@ -34213,11 +34274,11 @@
       <c r="CR79" s="21"/>
       <c r="CS79" s="21"/>
       <c r="CT79" s="21"/>
-      <c r="CU79" s="28"/>
+      <c r="CU79" s="21"/>
       <c r="CV79" s="28"/>
       <c r="CW79" s="21"/>
       <c r="CX79" s="28"/>
-      <c r="CY79" s="9"/>
+      <c r="CY79" s="28"/>
       <c r="CZ79" s="9"/>
       <c r="DA79" s="9"/>
       <c r="DB79" s="9"/>
@@ -34559,13 +34620,15 @@
         <v>8.270384262022759</v>
       </c>
       <c r="CT80" s="25">
-        <v>7.1573181379344248</v>
-      </c>
-      <c r="CU80" s="27"/>
+        <v>6.8627880815824938</v>
+      </c>
+      <c r="CU80" s="25">
+        <v>5.5715789219944298</v>
+      </c>
       <c r="CV80" s="27"/>
       <c r="CW80" s="25"/>
       <c r="CX80" s="27"/>
-      <c r="CY80" s="9"/>
+      <c r="CY80" s="27"/>
       <c r="CZ80" s="9"/>
       <c r="DA80" s="9"/>
       <c r="DB80" s="9"/>
@@ -34713,18 +34776,19 @@
       <c r="CR81" s="23"/>
       <c r="CS81" s="23"/>
       <c r="CT81" s="23"/>
-      <c r="CU81" s="19"/>
+      <c r="CU81" s="23"/>
       <c r="CV81" s="19"/>
       <c r="CW81" s="23"/>
       <c r="CX81" s="19"/>
+      <c r="CY81" s="19"/>
     </row>
     <row r="82" spans="1:154" x14ac:dyDescent="0.2">
       <c r="A82" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="CU82" s="26"/>
       <c r="CV82" s="26"/>
       <c r="CX82" s="26"/>
+      <c r="CY82" s="26"/>
     </row>
     <row r="83" spans="1:154" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B83" s="9"/>
@@ -34824,11 +34888,11 @@
       <c r="CR83" s="21"/>
       <c r="CS83" s="21"/>
       <c r="CT83" s="21"/>
-      <c r="CU83" s="28"/>
+      <c r="CU83" s="21"/>
       <c r="CV83" s="28"/>
       <c r="CW83" s="21"/>
       <c r="CX83" s="28"/>
-      <c r="CY83" s="9"/>
+      <c r="CY83" s="28"/>
       <c r="CZ83" s="9"/>
       <c r="DA83" s="9"/>
       <c r="DB83" s="9"/>
@@ -34975,11 +35039,11 @@
       <c r="CR84" s="21"/>
       <c r="CS84" s="21"/>
       <c r="CT84" s="21"/>
-      <c r="CU84" s="28"/>
+      <c r="CU84" s="21"/>
       <c r="CV84" s="28"/>
       <c r="CW84" s="21"/>
       <c r="CX84" s="28"/>
-      <c r="CY84" s="9"/>
+      <c r="CY84" s="28"/>
       <c r="CZ84" s="9"/>
       <c r="DA84" s="9"/>
       <c r="DB84" s="9"/>
@@ -35032,13 +35096,13 @@
       <c r="A85" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="CU85" s="26"/>
       <c r="CV85" s="26"/>
       <c r="CX85" s="26"/>
+      <c r="CY85" s="26"/>
     </row>
     <row r="86" spans="1:154" x14ac:dyDescent="0.2">
       <c r="A86" s="1" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
     </row>
     <row r="88" spans="1:154" x14ac:dyDescent="0.2">
@@ -35048,7 +35112,7 @@
     </row>
     <row r="89" spans="1:154" x14ac:dyDescent="0.2">
       <c r="A89" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="90" spans="1:154" x14ac:dyDescent="0.2">
@@ -35211,6 +35275,7 @@
       <c r="CX92" s="18">
         <v>2025</v>
       </c>
+      <c r="CY92" s="18"/>
     </row>
     <row r="93" spans="1:154" x14ac:dyDescent="0.2">
       <c r="A93" s="5" t="s">
@@ -35518,6 +35583,9 @@
       </c>
       <c r="CX93" s="19" t="s">
         <v>7</v>
+      </c>
+      <c r="CY93" s="19" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="94" spans="1:154" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
@@ -35828,9 +35896,11 @@
         <v>123.50943267996169</v>
       </c>
       <c r="CX95" s="25">
-        <v>126.06770098181343</v>
-      </c>
-      <c r="CY95" s="9"/>
+        <v>126.025370664165</v>
+      </c>
+      <c r="CY95" s="25">
+        <v>126.58059811140419</v>
+      </c>
       <c r="CZ95" s="9"/>
       <c r="DA95" s="9"/>
       <c r="DB95" s="9"/>
@@ -36188,9 +36258,11 @@
         <v>122.49976029296357</v>
       </c>
       <c r="CX96" s="25">
-        <v>124.49946799408688</v>
-      </c>
-      <c r="CY96" s="9"/>
+        <v>124.45230476834479</v>
+      </c>
+      <c r="CY96" s="25">
+        <v>124.86835059198522</v>
+      </c>
       <c r="CZ96" s="9"/>
       <c r="DA96" s="9"/>
       <c r="DB96" s="9"/>
@@ -36548,9 +36620,11 @@
         <v>121.04070789540809</v>
       </c>
       <c r="CX97" s="25">
-        <v>127.94313056387834</v>
-      </c>
-      <c r="CY97" s="9"/>
+        <v>127.87403119918706</v>
+      </c>
+      <c r="CY97" s="25">
+        <v>121.88275273023312</v>
+      </c>
       <c r="CZ97" s="9"/>
       <c r="DA97" s="9"/>
       <c r="DB97" s="9"/>
@@ -36908,9 +36982,11 @@
         <v>124.27638425798749</v>
       </c>
       <c r="CX98" s="25">
-        <v>126.4741835689962</v>
-      </c>
-      <c r="CY98" s="9"/>
+        <v>126.31227072060234</v>
+      </c>
+      <c r="CY98" s="25">
+        <v>128.80930574900412</v>
+      </c>
       <c r="CZ98" s="9"/>
       <c r="DA98" s="9"/>
       <c r="DB98" s="9"/>
@@ -37065,7 +37141,7 @@
       <c r="CV99" s="21"/>
       <c r="CW99" s="21"/>
       <c r="CX99" s="21"/>
-      <c r="CY99" s="9"/>
+      <c r="CY99" s="21"/>
       <c r="CZ99" s="9"/>
       <c r="DA99" s="9"/>
       <c r="DB99" s="9"/>
@@ -37423,9 +37499,11 @@
         <v>122.89534996660178</v>
       </c>
       <c r="CX100" s="25">
-        <v>125.92200742843404</v>
-      </c>
-      <c r="CY100" s="9"/>
+        <v>125.87823128493612</v>
+      </c>
+      <c r="CY100" s="25">
+        <v>125.57982351579038</v>
+      </c>
       <c r="CZ100" s="9"/>
       <c r="DA100" s="9"/>
       <c r="DB100" s="9"/>
@@ -37581,6 +37659,7 @@
       <c r="CV101" s="23"/>
       <c r="CW101" s="23"/>
       <c r="CX101" s="23"/>
+      <c r="CY101" s="23"/>
     </row>
     <row r="102" spans="1:154" x14ac:dyDescent="0.2">
       <c r="A102" s="13" t="s">
@@ -37599,7 +37678,7 @@
     </row>
     <row r="107" spans="1:154" x14ac:dyDescent="0.2">
       <c r="A107" s="1" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
     </row>
     <row r="109" spans="1:154" x14ac:dyDescent="0.2">
@@ -37609,7 +37688,7 @@
     </row>
     <row r="110" spans="1:154" x14ac:dyDescent="0.2">
       <c r="A110" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="111" spans="1:154" x14ac:dyDescent="0.2">
@@ -37772,6 +37851,7 @@
       <c r="CX113" s="18">
         <v>2025</v>
       </c>
+      <c r="CY113" s="18"/>
     </row>
     <row r="114" spans="1:154" x14ac:dyDescent="0.2">
       <c r="A114" s="5" t="s">
@@ -38079,6 +38159,9 @@
       </c>
       <c r="CX114" s="19" t="s">
         <v>7</v>
+      </c>
+      <c r="CY114" s="19" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="115" spans="1:154" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
@@ -38389,9 +38472,11 @@
         <v>48.659862026449801</v>
       </c>
       <c r="CX116" s="25">
-        <v>60.008589820678793</v>
-      </c>
-      <c r="CY116" s="9"/>
+        <v>60.086337777171842</v>
+      </c>
+      <c r="CY116" s="25">
+        <v>48.526308495369435</v>
+      </c>
       <c r="CZ116" s="9"/>
       <c r="DA116" s="9"/>
       <c r="DB116" s="9"/>
@@ -38749,9 +38834,11 @@
         <v>32.717542987526713</v>
       </c>
       <c r="CX117" s="25">
-        <v>23.67452507015426</v>
-      </c>
-      <c r="CY117" s="9"/>
+        <v>23.410583326291775</v>
+      </c>
+      <c r="CY117" s="25">
+        <v>34.196470266040791</v>
+      </c>
       <c r="CZ117" s="9"/>
       <c r="DA117" s="9"/>
       <c r="DB117" s="9"/>
@@ -39109,9 +39196,11 @@
         <v>12.983693537437514</v>
       </c>
       <c r="CX118" s="25">
-        <v>11.365285458573675</v>
-      </c>
-      <c r="CY118" s="9"/>
+        <v>11.614843439996767</v>
+      </c>
+      <c r="CY118" s="25">
+        <v>11.22622477639262</v>
+      </c>
       <c r="CZ118" s="9"/>
       <c r="DA118" s="9"/>
       <c r="DB118" s="9"/>
@@ -39469,9 +39558,11 @@
         <v>5.6389014485859725</v>
       </c>
       <c r="CX119" s="25">
-        <v>4.9515996505932813</v>
-      </c>
-      <c r="CY119" s="9"/>
+        <v>4.8882354565396238</v>
+      </c>
+      <c r="CY119" s="25">
+        <v>6.0509964621971593</v>
+      </c>
       <c r="CZ119" s="9"/>
       <c r="DA119" s="9"/>
       <c r="DB119" s="9"/>
@@ -39626,7 +39717,7 @@
       <c r="CV120" s="25"/>
       <c r="CW120" s="25"/>
       <c r="CX120" s="25"/>
-      <c r="CY120" s="9"/>
+      <c r="CY120" s="25"/>
       <c r="CZ120" s="9"/>
       <c r="DA120" s="9"/>
       <c r="DB120" s="9"/>
@@ -39986,7 +40077,9 @@
       <c r="CX121" s="25">
         <v>100</v>
       </c>
-      <c r="CY121" s="9"/>
+      <c r="CY121" s="25">
+        <v>100</v>
+      </c>
       <c r="CZ121" s="9"/>
       <c r="DA121" s="9"/>
       <c r="DB121" s="9"/>
@@ -40142,6 +40235,7 @@
       <c r="CV122" s="23"/>
       <c r="CW122" s="23"/>
       <c r="CX122" s="23"/>
+      <c r="CY122" s="23"/>
     </row>
     <row r="123" spans="1:154" x14ac:dyDescent="0.2">
       <c r="A123" s="13" t="s">
@@ -40250,7 +40344,7 @@
       <c r="CV124" s="21"/>
       <c r="CW124" s="21"/>
       <c r="CX124" s="21"/>
-      <c r="CY124" s="9"/>
+      <c r="CY124" s="21"/>
       <c r="CZ124" s="9"/>
       <c r="DA124" s="9"/>
       <c r="DB124" s="9"/>
@@ -40405,7 +40499,7 @@
       <c r="CV125" s="21"/>
       <c r="CW125" s="21"/>
       <c r="CX125" s="21"/>
-      <c r="CY125" s="9"/>
+      <c r="CY125" s="21"/>
       <c r="CZ125" s="9"/>
       <c r="DA125" s="9"/>
       <c r="DB125" s="9"/>
@@ -40470,7 +40564,7 @@
     </row>
     <row r="128" spans="1:154" x14ac:dyDescent="0.2">
       <c r="A128" s="1" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
     </row>
     <row r="130" spans="1:154" x14ac:dyDescent="0.2">
@@ -40480,7 +40574,7 @@
     </row>
     <row r="131" spans="1:154" x14ac:dyDescent="0.2">
       <c r="A131" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="132" spans="1:154" x14ac:dyDescent="0.2">
@@ -40643,6 +40737,7 @@
       <c r="CX134" s="18">
         <v>2025</v>
       </c>
+      <c r="CY134" s="18"/>
     </row>
     <row r="135" spans="1:154" x14ac:dyDescent="0.2">
       <c r="A135" s="5" t="s">
@@ -40950,6 +41045,9 @@
       </c>
       <c r="CX135" s="19" t="s">
         <v>7</v>
+      </c>
+      <c r="CY135" s="19" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="136" spans="1:154" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
@@ -41260,9 +41358,11 @@
         <v>48.417927629565725</v>
       </c>
       <c r="CX137" s="25">
-        <v>59.939239268426547</v>
-      </c>
-      <c r="CY137" s="9"/>
+        <v>60.016184708832689</v>
+      </c>
+      <c r="CY137" s="25">
+        <v>48.142648617902722</v>
+      </c>
       <c r="CZ137" s="9"/>
       <c r="DA137" s="9"/>
       <c r="DB137" s="9"/>
@@ -41620,9 +41720,11 @@
         <v>32.823198068987502</v>
       </c>
       <c r="CX138" s="25">
-        <v>23.94503181242672</v>
-      </c>
-      <c r="CY138" s="9"/>
+        <v>23.678812762427707</v>
+      </c>
+      <c r="CY138" s="25">
+        <v>34.391314376407038</v>
+      </c>
       <c r="CZ138" s="9"/>
       <c r="DA138" s="9"/>
       <c r="DB138" s="9"/>
@@ -41980,9 +42082,11 @@
         <v>13.18263573376724</v>
       </c>
       <c r="CX139" s="25">
-        <v>11.185747555444259</v>
-      </c>
-      <c r="CY139" s="9"/>
+        <v>11.433564228540023</v>
+      </c>
+      <c r="CY139" s="25">
+        <v>11.566749967391237</v>
+      </c>
       <c r="CZ139" s="9"/>
       <c r="DA139" s="9"/>
       <c r="DB139" s="9"/>
@@ -42340,9 +42444,11 @@
         <v>5.5762385676795283</v>
       </c>
       <c r="CX140" s="25">
-        <v>4.9299813637024874</v>
-      </c>
-      <c r="CY140" s="9"/>
+        <v>4.8714383001995785</v>
+      </c>
+      <c r="CY140" s="25">
+        <v>5.8992870382989873</v>
+      </c>
       <c r="CZ140" s="9"/>
       <c r="DA140" s="9"/>
       <c r="DB140" s="9"/>
@@ -42497,7 +42603,7 @@
       <c r="CV141" s="21"/>
       <c r="CW141" s="21"/>
       <c r="CX141" s="21"/>
-      <c r="CY141" s="9"/>
+      <c r="CY141" s="21"/>
       <c r="CZ141" s="9"/>
       <c r="DA141" s="9"/>
       <c r="DB141" s="9"/>
@@ -42857,7 +42963,9 @@
       <c r="CX142" s="25">
         <v>100</v>
       </c>
-      <c r="CY142" s="9"/>
+      <c r="CY142" s="25">
+        <v>100</v>
+      </c>
       <c r="CZ142" s="9"/>
       <c r="DA142" s="9"/>
       <c r="DB142" s="9"/>
@@ -43013,40 +43121,40 @@
       <c r="CV143" s="23"/>
       <c r="CW143" s="23"/>
       <c r="CX143" s="23"/>
+      <c r="CY143" s="23"/>
     </row>
     <row r="144" spans="1:154" x14ac:dyDescent="0.2">
       <c r="A144" s="13" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="145" spans="98:102" x14ac:dyDescent="0.2">
+    <row r="145" spans="98:103" x14ac:dyDescent="0.2">
+      <c r="CT145" s="26"/>
       <c r="CU145" s="26"/>
       <c r="CV145" s="26"/>
       <c r="CX145" s="26"/>
+      <c r="CY145" s="26"/>
     </row>
-    <row r="146" spans="98:102" x14ac:dyDescent="0.2">
+    <row r="146" spans="98:103" x14ac:dyDescent="0.2">
       <c r="CT146" s="26"/>
       <c r="CU146" s="26"/>
       <c r="CV146" s="26"/>
       <c r="CX146" s="26"/>
+      <c r="CY146" s="26"/>
     </row>
-    <row r="147" spans="98:102" x14ac:dyDescent="0.2">
+    <row r="147" spans="98:103" x14ac:dyDescent="0.2">
       <c r="CT147" s="26"/>
       <c r="CU147" s="26"/>
       <c r="CV147" s="26"/>
       <c r="CX147" s="26"/>
+      <c r="CY147" s="26"/>
     </row>
-    <row r="148" spans="98:102" x14ac:dyDescent="0.2">
+    <row r="148" spans="98:103" x14ac:dyDescent="0.2">
       <c r="CT148" s="26"/>
       <c r="CU148" s="26"/>
       <c r="CV148" s="26"/>
       <c r="CX148" s="26"/>
-    </row>
-    <row r="149" spans="98:102" x14ac:dyDescent="0.2">
-      <c r="CT149" s="26"/>
-      <c r="CU149" s="26"/>
-      <c r="CV149" s="26"/>
-      <c r="CX149" s="26"/>
+      <c r="CY148" s="26"/>
     </row>
   </sheetData>
   <mergeCells count="147">
@@ -43203,9 +43311,9 @@
   <pageSetup paperSize="9" scale="31" orientation="landscape" r:id="rId1"/>
   <headerFooter alignWithMargins="0"/>
   <rowBreaks count="3" manualBreakCount="3">
-    <brk id="42" max="101" man="1"/>
-    <brk id="84" max="101" man="1"/>
-    <brk id="104" max="101" man="1"/>
+    <brk id="42" max="102" man="1"/>
+    <brk id="84" max="102" man="1"/>
+    <brk id="104" max="102" man="1"/>
   </rowBreaks>
 </worksheet>
 </file>